--- a/Output/NewsCrawlList.xlsx
+++ b/Output/NewsCrawlList.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -345,14 +358,980 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>“10년 내 ‘좀비 사슴’ 먹고 전염된 인간 나올 것” 전문가 경고</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[서울신문 나우뉴스] 캐나다와 미국 일대를 휩쓴 만성소모성질병(CWD, Chronic wasting disease), 일병 ‘광록병’이 인간에게까지 전염될 수 있다는 전문가들의 우려가 나왔다. 광록병은 사슴이나 엘크 등 사슴류에 감염돼 중추신경계에 손상을 입히며, 뇌가 파괴되면서 스펀지처럼 구멍이 생기는 증상을 동반한다. 평범한 사슴에 비해 인간을 덜 무서워하게 되고 얼굴표정이 사라지며, 마치 광우병에 걸린 소처럼 침을 흘리거나 주저앉는 증상을 보인다. 이 병에 걸린 사슴을 두고 ‘좀비 사슴’이라고 부르는 이유다. UPI 뉴스 등 미국 현지 언론에 따르면 광록병은 광우병과 마찬가지로 변형 단백질인 프리온(Prions)에 의해 유발되며, 이는 박테리아나 바이러스와 달리 몇 년간 자연에서 파괴되지 않고 타액이나 배설물 등을 통해 전염될 수 있다. 광우병 전문가로 꼽히는 마이클 오스터홀름 미네소타대 교수는 지난 7월 미국 미생물학회(American Society for Microbiology)에 발표한 논문을 통해 “광록병에 감염된 사슴고기를 섭취할 경우 변형된 프리온에 의한 증상이 나타나기까지 몇 년의 잠복기가 있을 것”이라면서 “10년 내에 광록병에 전염된 인간의 사례가 속속 나타날 것”이라고 경고했다. 이에 전문가들은 좀비 사슴이 발견되는 캐나다와 미국 일대에서 대대적인 캠페인을 통해 감염된 사슴을 사냥하지 않거나, 사냥한 뒤 특정 테스트를 거친 뒤 고기를 섭취하도록 강력하게 권유해야 한다고 목소리를 높이고 있다. 문제는 해당 질병이 지속적인 확산 추세에 있는 캐나다와 미국 일대에서 여전히 사슴고기 섭취율이 줄지 않고 있다는 사실이다. 지난해 미국에서 발표된 공공야생동물연합 보고서에 따르면 매년 사냥꾼 1만 5000명이 광록병에 감염된 고기를 먹는 것으로 추정되며, 이 병이 확산됨에 따라 그 수는 매년 20% 증가하는 상황이다. 미국 콜로라도주립대학의 마크 자벨 박사는 UPI와 한 인터뷰에서 “사슴고기를 소시지와 스테이크로 가공하는 처리 시설을 통해서도 질병이 확산될 수 있다. 프리온이 고기를 절단하거나 가공하는 장비를 오염시킬 수 있기 때문”이라면서 “이러한 가공 공장은 먹이사슬에 따라 끔찍한 결과를 가져올 수 있다”고 경고했다. 송현서 기자 huimin0217@seoul.co.kr ★ ▶ ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>갤노트10 플러스, 사라진 ‘홍채 인식’ 아쉬움보다 ‘꽉 찬 화면’ 만족감 더 커</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>대담한 변신… 삼성 갤럭시 노트10 플러스 사용해보니 갤럭시 노트10은 흥미로운 스마트폰이다. 보통 신제품은 전작에 사양이나 기능을 추가하기 마련인데 노트10은 노트9에서 몇 가지가 빠졌다. 꼭 필요한 게 아니면 빼고 중요한 것에 집중하겠다는 의지가 읽힌다. 대신 필요한 건 제대로 업그레이드해 사용성을 높였다. 변화에 적응하는 데 따른 불편함도 일부 있지만 그걸 상쇄하고 남을 만큼 장점이 더 많다. 게다가 외부기기와 연결성도 좋아져 ‘갤럭시 생태계’의 가능성도 보여줬다. 일주일간 노트10 플러스를 사용하면서 든 느낌은 노트 시리즈 고유의 중후함이 사라졌다는 것이다. 뒤집어 말하면 젊고 세련된 느낌으로 정체성 변화를 시도했다고 볼 수 있다. 디자인이 날렵해졌고, 불필요한 것들을 뺀 덕분이다. 거기에 딱히 어떤 색이라고 정의할 수 없는 ‘아우라 글로우’라는 색을 주력으로 내세우면서 젊은 감각을 내세운 것도 한몫했다. 노트10에서 사라진 건 이어폰 잭, 홍채인식 기능이다. 노트7에 처음 도입했던 홍채인식을 뺀 건 사용이 적은 탓도 있지만, ‘인피니티-O’ 디스플레이를 적용하기 위해서로 보인다. 노트10은 제품에서 화면이 차지하는 비중이 94.2%까지 높아졌다. 상하좌우 테두리에 빈 공간이 거의 없이 화면이 덮고 있다. 상단 가운데 카메라홀만 있다. 각종 센서는 디스플레이 아래로 들어갔는데 홍채인식 기능은 적외선을 쏘아야 하기 때문에 디스플레이 아래에 넣기 어려웠던 것으로 보인다. 꽉 찬 화면이 주는 만족감이 홍채 인식이 사라진 아쉬움보다 몇 배는 더 컸다. 노트10 플러스는 6.8형 화면임에도 제품 크기는 노트9과 거의 비슷하다. 노트9과 화면 크기가 같은 노트10 일반 모델은 갤럭시S10과 비슷한 크기다. 화면 비중이 너무 높다 보니 터치할 때 오작동이 가끔 나타났다. 왜 엣지 스크린을 포기하지 않을까 하는 아쉬움이 들긴 했지만, 플랫 스크린으로는 디자인을 예쁘게 하는 데는 한계가 있겠다는 생각이 들었다. 노트10에서 가장 불편하다고 느껴진 건 역시 이어폰 잭이 없어진 것이다. 무선 이어폰을 사용하고 있지만, 비행기를 타거나, 무선이어폰 배터리가 떨어지는 때 등 유선 이어폰이 여전히 필요할 때가 있다. 오디오 마니아라면 아끼는 이어폰 하나쯤은 있을 텐데 그걸 못 쓰게 된 것이라 일정 부분 불편함은 어쩔 수 없다. 대신 이어폰 잭이 없어진 건 늘어난 배터리 용량으로 치환된다. 노트10 플러스의 배터리는 4500mAh다. 노트9보다 500mAh 늘어나 노트 시리즈 중 가장 많다. 덕분에 여유 있는 사용이 가능해졌다. 고사양 게임을 하지 않는다면 온종일 사용하는 데 큰 무리가 없는 수준이다. 여기에 노트10은 25W 초고속 충전을 지원한다. 노트9까지는 15W 규격이었는데 더 빨라졌다. 완전 방전상태에서 충전하면 30분 만에 60% 수준으로, 완전히 충전하는 데는 한 시간이 조금 넘게 걸린다. 노트10 플러스는 한 걸음 더 나가 45W 충전까지 지원한다. 단 삼성전자 전용 충전기로만 가능하다. 30분만 충전하면 하루 종일 사용할 수 있는 수준으로 충전할 수 있다고 삼성전자는 설명했다. 카메라 화질은 노트9이나 S10에 비해 큰 폭의 개선은 없었다. 대신 활용할 수 있는 기능이 풍성해졌다. 라이브 포커스는 뒷배경을 흐리게 하는 옵션이 많아져 다양한 사진을 연출할 수 있었다. 사람과 배경을 구별해내는 실력도 더 좋아졌다. 이전에는 인물과 배경의 경계 부분이 많이 뭉개지는 경향이 있었는데, 노트10은 잔머리까지 살려둘 정도로 정확도가 높아졌다. 특히 라이브 포커스 기능이 동영상에도 적용돼 용도에 맞는 동영상을 풍성하게 담을 수 있다는 것도 매력적인 포인트였다. 노트 시리즈의 정체성인 S펜은 스펙을 키우기보다 사용성 개선에 초점을 맞췄다. 특히 손글씨를 타자로 입력한 텍스트로 변환해주는 기능은 직장인에게 아주 유용하다. 지인들에게 이 기능을 시험 삼아 체험해보게 했을 때 다들 깜짝 놀랐다. 대충 써도 정확하게 인식했기 때문이다. 물론 100%라고 하긴 어렵지만, 업무에 도움이 될 수준임은 분명하다. 하지만 대대적으로 광고하고 있는 ‘에어 액션’ 기능은 개선이 필요해 보인다. 생각하는 것만큼 잘 인식이 되지 않아 그냥 화면을 터치하는 쪽이 더 편했다. 노트10은 스마트폰 인터페이스를 PC처럼 바꿔주는 ‘덱스’ 사용이 간편해져 사용성에 날개를 달았다. 이전까지는 덱스를 쓰려면 ‘덱스 패드’ 같은 별도의 기기를 거쳐야 했고 키보드, 마우스도 별도로 연결해야 했다. 하지만 노트10은 UBS 케이블만 PC에 연결하면 된다. 키보드, 마우스 등은 PC 것을 그대로 사용한다. 노트10에 있는 자료를 마우스 몇 번으로 PC로 옮기거나 그 반대로도 할 수 있다. 덱스 모드를 지원하는 앱이 많아지면 노트10의 사용성은 더 좋아질 것으로 보인다. 또 마이크로소프트가 윈도10에 탑재한 ‘사용자 휴대폰’ 기능으로 노트10의 문자, 사진 등을 실시간으로 PC와 연동시킬 수 있다. 문자를 PC에서 바로 보내거나 사진을 실시간으로 확인할 수 있었다. 자체 운영체제(OS)가 없는 삼성전자는 스마트폰과 PC 연동에 어려움을 겪었는데 MS와 협업을 통해 ‘스마트폰-태블릿-PC’등을 자유롭게 넘나드는 갤럭시 생태계 구축이 가능해졌다는 점은 고무적이다. 김준엽 기자 snoopy@kmib.co.kr GoodNews paper ⓒ , 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>'공짜야근' 사라지니 6시면 칼퇴… 불켜진 사무실이 없었다[현장르포]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>게임업계 포괄임금제 폐지 그 후 판교·구로 IT단지 6시반에 찾은 넥슨 본사는 고요..스마일게이트 퇴근은 4시부터 '판교 오징어배''구로 등대' 옛말 업무강도 세지고 시간 준수 엄격 저녁 6시쯤 판교 엔씨소프트 본사 사옥을 직원들이 썰물처럼 빠져나가고 있다. 사진=강현수 인턴기자 '구로의 등대' '판교의 오징어배'라는 별칭이 붙을 정도로 고강도의 야근이 고착화돼 있던 게임업계에 새바람이 불고 있다. 기자가 찾은 판교와 구로 게임사들의 퇴근길 풍경은 그야말로 '천지개벽' 수준이었다. 26일 게임업계에 따르면 넥슨이 이달 포괄임금제를 폐지한 데 이어 넷마블이 3·4분기, 엔씨소프트와 스마일게이트가 10월 중 포괄임금제를 폐지할 예정이다. 포괄임금제는 연봉에 각종 수당이 포함돼 직원들이 초과근무를 하고도 따로 수당을 받지 못하는 경우가 많았지만 포괄임금제가 폐지되면 기존 연봉이 기본급으로 전환돼 기본 근무시간을 초과하는 근무에 대한 수당을 지급해야 한다. ■판교 퇴근시간, 30분만 지나도 '고요' 저녁 6시30분께 포괄임금제가 이달부터 폐지된 넥슨 본사 사옥은 고요했다. 분명히 퇴근시간인데 너무 사람이 없어서 안내데스크에 물어보니 직원들은 이미 거의 다 퇴근을 한 상태. 저녁 6시면 상황 종료란다. 가까스로 퇴근 길 막차에 오른 직원들을 인터뷰할 수 있었다. 넥슨 직원 최경호씨(29·가명)는 "포괄임금제 폐지가 결정되고 회사 분위기는 말그대로 '급격하게' 바뀌었다"며 "야근은 거의 사라졌고 출근은 11시까지만 하면 돼서 아침밥도 먹게 됐다"고 말했다. 인근 스마일게이트의 퇴근시간은 오후 4시부터 시작된다. 스마일게이트는 오전 10시부터 오후 4시를 필수 협업시간으로 정한 뒤 나머지 일정은 개인이 조율해 출퇴근할 수 있다. 스마일게이트 직원 이동현씨(36·가명)는 "특별히 할 일 없으면 다들 4시에 집에 가는데 퇴근할 때 상사한테 보고 안하고 그냥 집에 가는 것이 가장 좋다"며 웃었다. ■개발주기 따라 게임사별 온도차 구로는 판교보다는 퇴근시간이 늦은 편이었다. 구로에 위치한 넷마블에서 만난 문상윤씨(37·가명)는 "포괄임금제 폐지를 앞두고 있지만 이미 정해진 시간에 출퇴근하는 문화가 회사 안에 정착된 지 오래"라며 "다른 데보다는 퇴근이 조금 늦은 것으로 알고있는데 그래도 예전 생각하면 감지덕지"라고 회상했다. 최승우씨(35·가명)는 "아직 할 일이 남은 사람들은 남아서 일을 하기는 하지만 예전처럼 강요나 눈치 주는 건 없다"며 "예전만큼 구로의 등대 수준은 아닌 것 같다"고 평가했다. 칼퇴가 가능한 게임사와 가능하지 않은 게임사의 사정이 다르다는 지적이다. 게임업계 관계자는 "주 52시간 근무제 도입으로 게임 출시 간격이 빠른 게임사 위주로 신작 출시 일정이 밀리면서 타격을 입었다"며 "2~3년 주기로 개발을 하는 게임을 만드는 회사들은 크게 영향을 받지 않는다"고 설명했다. ■업무시간 감시 우려도 다만 포괄임금제 폐지가 마냥 장밋빛 미래만 약속하는 것은 아니다. 관리자들로부터 잦은 간섭에 휘말릴 가능성도 있다. 넥슨 직원 김민주씨(34·가명)는 "딸, 아들 모두 직장 어린이집에 다니는데 일하는 시간이 자유로워져서 애들이 나를 기다리는 시간이 많이 줄어 행복하다"며 "부서 직원들이 다 같이 있는 시간이 줄어들다 보니 관리자급들은 힘들어하는 눈치"라고 우려했다. 게임사에서 관리자급으로 일하고 있는 조바다씨(44·가명)는 "포괄임금제가 폐지되면 업무시간 내에 직원들이 일하는 일거수일투족을 감시하라는 회사측의 압박이 가해질 수도 있다"며 "초과근무가 없어지는 만큼 업무시간이 타이트해질 것"이라고 진단했다. true@fnnews.com 김아름 기자 강현수 인턴기자 ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>삼성전자 '갤럭시S10 선전' 일본시장서 6년來 최고 점유율</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1위 애플 50.8%…삼성 9.8%·샤프 7.2%·소니 7.0% 순 (서울=연합뉴스) 채새롬 기자 = 삼성전자가 올해 2분기 갤럭시S10 시리즈 선전에 힘입어 일본 스마트폰 시장에서 6년 만에 가장 높은 점유율을 기록했다. 일본 도쿄 갤럭시 하라주쿠 [삼성전자 제공] 26일 시장조사업체 스트래티지 애널리틱스(SA)에 따르면 삼성전자는 2분기 일본 스마트폰 시장에서 60만대를 출하해 점유율 9.8%를 기록했다. 애플(50.8%)에 이은 2위였다. 작년 동기 점유율이 애플 45.6%, 삼성전자 8.8%이었던 것과 비교해서 모두 소폭 올랐다. 애플과 삼성전자에 이어서는 샤프(7.2%), 소니(7.0%) 등 일본 기업이 3∼4위를 차지했다. 샤프는 작년 동기(5.1%) 대비 2.1%포인트 올랐고, 소니는 10.3%에서 3.3%포인트 줄었다. 중국 화웨이는 작년 동기 5.9%(4위)에서 올해 2분기 3.3%(5위)로 점유율이 절반 가까이 하락했다. 삼성전자가 10%에 육박한 점유율을 낸 것은 6년만에 최고치다. 삼성전자는 2013년 중반 일본 스마트폰 시장에서 10% 넘는 점유율을 유지하다 애플과 일본 브랜드에 밀려 2014년 5.6%, 2015년 4.3%, 2016년 3.4%로 점유율이 하락했다. 2017년부터 반등을 시작해 5.2%, 2018년 6.4%로 점유율이 오르는 추세다. 2분기 좋은 성적은 상반기 출시한 플래그십 모델 갤럭시S10 시리즈가 일본에서 인기를 끈 덕으로 보인다. 삼성전자는 지난 3월 전 세계 갤럭시 쇼케이스 가운데 최대 규모인 '갤럭시 하라주쿠'를 개관하면서 현지 스마트폰 시장 공략을 본격화했다. 5G 서비스가 처음으로 본격 적용되는 '2020 도쿄 올림픽'을 앞두고 일본 내 5G 네트워크 사업 확대를 위한 기반을 조성하는 동시에 갤럭시 스마트폰 시장점유율 반등의 계기를 마련한다는 전략이다. 삼성전자는 7월에는 2020 도쿄 올림픽을 기념해 갤럭시S10 플러스 올림픽 에디션을 일본에 출시했다. srchae@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>"세계를 바꿀 스타트업"… 한국계 20대 사업가 美서 돌풍</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[오늘의 세상] 인공지능으로 법안 통과 예측, 美 '피스컬노트' 창업자 팀 황 2800억원 투자 유치 - 美정부·의회·법원의 빅데이터 AI로 실시간 분석해 정보 제공, 우버·맥도널드 등 5000여 고객 야후 창업자·NBA 구단주 등 '흥행보증수표'들 투자 이끌어 이코노미스트 정치 매체 인수… 20대에 언론사 오너 자리에 올라 인공지능(AI)으로 미국 정치판을 흔들겠다는 한국계 젊은 창업자가 미국 스타트업 업계의 주목을 받고 있다. 실리콘밸리에선 '제2의 마크 저커버그(페이스북 창업자)'라는 목소리까지 나온다. 주인공은 데이터 분석 서비스 기업 피스컬노트(FiscalNote) 창업자 겸 CEO(최고경영자)인 팀 황(27·한국명 황태일)이다. 이 20대 청년은 2013년 창업한 이후 야후 창업자인 제리 양, 미국의 억만장자이자 NBA(프로농구) 댈러스 매버릭스의 구단주인 마크 큐번 등 '흥행 보증수표'로 불리는 벤처투자자들로부터 총 2억3000만달러(약 2800억원)의 투자를 이끌어냈다. 2014년 미국 CNN은 피스컬노트를 '세계를 바꿀 10대 스타트업'으로 꼽았다. 2016년 포브스는 황 대표를 '30세 이하 유망주 30인', 세계경제포럼(다보스포럼)은 '기술 선구자'로 선정했다. 지난 23일(현지 시각) 미국 캘리포니아주 산호세에서 열린 한인 스타트업 모임 '82스타트업' 무대에 선 황 대표는 "원래 정치인이 되고 싶었지만, 기술이 정치보다 빠르게 움직이고 모든 것을 바꾸는 것을 보고 창업을 결심했다"고 했다. "나는 정치를 통해 헬스케어 관련 법안을 바꾸려고 노력할 때, 친한 친구는 모바일 앱을 만들어 1년 만에 수만 명의 의사와 환자를 직접 연결하는 것을 보고 '대체 이건 뭐지'란 생각이 들었다"는 것이다. ◇AI로 정치를 예측하다 피스컬노트는 미 연방과 50개 주(州) 정부·의회·법원이 공개한 빅데이터를 실시간으로 끌어와서 인공지능으로 분석한 정보를 제공한다. 이를 통해 현재 의회에 올라온 법안의 세부 내용과 후원자, 상·하원 의원의 과거 투표 성향을 분석해 이들이 찬성 혹은 반대할 것인지, 실제 법안이 통과될 가능성은 얼마인지까지 분석한다. 황 대표는 "법안 통과 예측도는 90% 이상"이라고 했다. 예를 들어 차량 공유 서비스 우버의 대관(對官) 담당자는 현재 미 연방과 50개 주 의회에서 차량 공유와 관련된 어떤 법안이 발의됐고 어떻게 진행되는지를 실시간으로 파악할 수 있다. 주마다 제각각인 법령과 특정 주 법원의 과거 판결문까지 반영한다. 해당 법안은 누가 어떤 의도로 만들었는지, 과연 통과될 것인지를 미리 예측해 관련 기업·시민단체·지역 주민들이 대처하도록 돕는 것이다. 황 대표는 "우버, 존슨앤드존스, 맥도널드 등 5000여 고객이 피스컬노트를 구독한다"며 "현재 미국뿐만 아니라 세계 60국의 공공 데이터를 분석해 제공하고 있다"고 했다. 피스컬노트는 작년 8월 영국의 유력 언론사인 이코노미스트 그룹과 1억8000만달러짜리 계약을 체결했다. 이코노미스트가 보유한 '시큐롤콜(CQ Roll Call)'이란 미국 백악관·의회 소식을 다루는 정치 전문 매체를 인수한 것이다. 대신 이코노미스트는 현금과 피스컬노트의 지분 18%를 받기로 했다. 이코노미스트 그룹의 크리스 스팁스 CEO도 피스컬노트의 이사회 멤버로 합류했고 황 대표는 20대에 언론사의 오너(사주·社主)가 된 것이다. 기술 벤처기업에 유력 매체를 내주면서 한배를 탄 것이다. 황 대표는 "정보를 재판매하는 업(業)인 만큼 고객에게 데이터 분석과 실시간 콘텐츠를 충실하게 제공하기 위한 것"이라고 했다. 팀 황 피스컬노트 창업자/피스컬노트 ◇"정치보다 기술이 세상 더 빠르게 바꿔" 팀 황은 1986년에 미국으로 이민 간 한국인 부부가 낳은 한인 2세다. 1992년 미국 미시간주에서 태어났다. 고등학교 시절이던 16세 때 버락 오바마 민주당 대통령 후보 선거캠프에서 일했다. 이듬해엔 메릴랜드주 몽고메리카운티의 학생 교육위원에 투표로 선출되는 등 학창 시절엔 '정치 유망주'였다. 프린스턴대에 진학해 정치학과 컴퓨터공학을 전공했다. 21세 때 동창생 2명과 함께 창업했다. 그는 "정치와 기술의 교차점에서 창업을 결심했다"며 "창업을 위해 실리콘밸리로 건너온 초창기엔 워낙 돈이 없어 모텔에서 먹고 자며 일했다"고 했다. 황 대표의 목표는 크다. 그는 "현재의 60국을 넘어 전 세계 200여 국가의 모든 법과 규정을 디지털 플랫폼에 담는 것이 목표"라며 "인류 최초의 성문법인 '함무라비 법전'의 다음 버전을 만들고 싶다"고 했다. [실리콘밸리=박순찬 특파원 ideachan@chosun.com] - Copyrights ⓒ 조선일보 &amp;amp; chosun.com, 무단 전재 및 재배포 금지 -</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>"삼성 '갤S10' 일본 열도도 열광?"…日 점유율 '10% 고지' 탈환하나</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>삼성폰, 일본 시장서 2분기 점유율 9.8% 기록 "6년 만에 최고" 삼성전자 IM부문장 고동진 사장이 지난 3월 일본 도쿄에서 열린 갤럭시 쇼케이스 '갤럭시 하라주쿠' 개관식에서 인사말을 하는 모습이다. ‘ (삼성전자 제공) 2019.3.12/뉴스1© 뉴스1 (서울=뉴스1) 김일창 기자 = 삼성전자가 상반기 전략 스마트폰 '갤럭시S10' 시리즈의 판매호조에 일본 스마트폰 시장에서 6년 만에 최고 점유율을 기록했다. 2013년 중반까지만 해도 10%가 넘는 점유율을 유지하다 아이폰에 밀려 '애플 천하'가 된 일본 시장에서 삼성전자가 '10% 점유율' 고지 탈환을 눈앞에 두고 있다. 26일 시장조사업체 스트래티지 애널리틱스(SA)에 따르면 삼성전자는 올해 2분기 약 60만대의 스마트폰을 출하해 점유율 9.8%를 기록했다. 애플은 점유율 50.8%로 일본 시장점유율 1위를 이어갔다. 애플과 삼성전자를 이어서는 샤프와 소니가 각 7.2%·7.0%로 3·4위에 올랐다. 삼성전자의 출하량이 확대한 것은 지난 3월 출시한 갤럭시S10시리즈의 인기 영향으로 풀이된다. SA에 따르면 갤럭시S10시리즈는 올해 1분기 매출 기준으로 전세계에서 가장 많이 팔린 안드로이드 스마트폰이다. 삼성전자의 존재감이 미미한 일본에까지 갤럭시S10 판매효과가 영향을 미친 것으로 분석된다. 삼성전자 스마트폰은 그동안 일본에서 부진을 면치 못했다. 시장조사업체 카날리스에 따르면 삼성전자 스마트폰의 2018년 4분기 일본 시장 점유율은 6.8%다. 60%가 넘는 애플의 점유율과 비교할 때 턱없이 낮은 수준이다. 일본 스마트폰 시장에서 10% 넘는 점유율을 유지한 2013년 이후 줄곧 하락세였다. 그러나 인피니티-O 디스플레이에 지문인식 센서 탑재, 무선충전 기술 등 혁신의 갤럭시S10시리즈를 출시하고 동시에 일본 도쿄 중심가 하라주쿠에 지상 6층·지하 1층 규모의 세계 최대 갤럭시 쇼케이스 '갤럭시 하라주쿠'를 선보이면서 분위기가 바뀌었다. '갤럭시 하라주쿠'는 총 지상 6층·지하 1층 규모로 전세계 갤럭시 쇼케이스 중 최대 규모다. 특히 '5G 올림픽'을 표방하는 2020년 도쿄올림픽을 앞두고 있는 상황에서 삼성전자는 국제올림픽위원회(IOC) 무선통신 및 컴퓨팅 장비 분야 공식 파트너인 만큼, 올림픽 특수 기대감도 높아지고 있다. 삼성전자는 지난달 도쿄 올림픽을 기념해 갤럭시S10+ 올림픽 에디션을 선보였다. 다만, 일본의 경제보복으로 촉발된 양국간 무역갈등이 변수로 남아있다. ickim@news1.kr [© 뉴스1코리아(), 무단 전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[로봇이 간다]1.5㎏ 의자로봇 입으니···쭈그려 일해도 허리 멀쩡, 생산성은 UP</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>■현대차 웨어러블로봇 4총사 하반신용 '첵스' 연내 양산 추진 가볍고 10~20초면 간편 착용 근로자 피로·부상위험 확 줄어 허리보조 '웩스'도 내년 상용화 사회적 경제비용 절감 효과 커 현대차 로보틱스팀 관계들이 25일 경기도 의왕연구소에서 허리지지형 웨어러블 로봇 웩스(왼쪽)와 의자형 웨어러블 로봇 첵스를 착용한 후 물건 들기와 조립 작업을 시연하고 있다. /권욱기자 [서울경제] 현대자동차는 오는 4·4분기부터 웨어러블 로봇을 시작으로 로봇제품 상용화에 나선다고 현대차 관계자가 25일 서울경제신문에 밝혔다. 현재 연구개발 중인 로봇공학은 3개 분야인데 각각 입는 로봇(웨어러블 로봇), 서비스 로봇, 개인용 소형이동수단(마이크로 모빌리티)이다. 해당 분야에서 모두 8종류의 로봇들이 시험 중이며 이 중 하반신에 입는 ‘첵스(CEX)’부터 연내 상용화된다. 서울경제신문은 경기도 의왕시에 있는 현대차 로보틱스팀의 연구소를 방문해 8종 세트를 취재했다. 총 2편에 걸쳐 보도하는데 그중 ‘웨어러블 로봇 4총사’를 먼저 소개한다. 지난해부터 각각 미국 앨라배마주·조지아주에 있는 현대차와 기아차 북미공장의 생산직 근로자들은 처음 보는 로봇을 입게 됐다. 간편하게 입으면 마치 네발 달린 의자가 된 것처럼 하체의 근력 부담을 덜어주는 하지보조 착용로봇 첵스다. 허리 아래 부분을 곤충의 외골격처럼 감싸주는 형태인데 엉거주춤한 자세로 일하는 경우가 많은 자동차 생산현장에서 일하더라도 허리·무릎·골반에 부담을 주지 않도록 설계됐다. 실제로 현대차가 수개월간 시범 도입한 결과는 성공적이었다. 하루에도 최장 8시간씩 공장 생산라인에 반쯤 쭈그린 자세로 자동차 부품을 조립해야 했던 근로자들은 근골격계 통증과 피로에 시달렸는데 첵스를 입은 후 육체 피로와 부상 위험을 현저히 덜어낼 수 있었다. 생산성 향상을 기대할 수 있음을 시사하는 결과도 데이터로 확보했다고 한다. 첵스는 최근 현대차 국내 공장에도 시범 도입돼 실용성·경제성 등을 가늠하는 절차인 개념증명(proof of concept) 과정을 진행했다. 현동진 현대차 로보틱스팀장은 “첵스는 연내에 양산을 통해 상용화한다”며 “먼저 올해에는 북미공장에서부터 본격 도입되며 내년부터는 국내 공장에도 적용할 계획”이라고 전했다. 양산 제품은 먼저 현대차 내부 수요 물량부터 채운 뒤 다른 자동차 회사를 비롯한 외부 고객들을 대상으로 시판된다. 현대차가 로보틱스팀을 통해 첵스 등의 상용화 준비를 본격화한 것은 2017년 무렵부터였다. 앞서 일본 도요타, 미국 포드사가 상반신 착용 로봇을 자사 공장에 도입하기는 했으나 자체 개발품이 아니라 미국의 웨어러블 전문기업 레비테이트테크놀로지스(LT) 제품 등을 사다 쓴 것이었다. 현대차는 그 정도는 충분히 직접 개발할 수 있다고 판단했다. 이미 웨어러블 로봇 개발을 수년간 연구해왔기 때문이다. 더구나 현대차는 일반 로봇전문기업과 달리 테스트베드 역할을 해줄 대규모 자동차 생산공장을 국내외에 두고 있으니 연구개발 중간중간 생산현장에 시범 적용해 근로자의 의견을 개진할 수 있다는 장점도 갖고 있어 유리했다. 자체 연구진과 생산현장 관계자 등이 소통하며 시제품을 개발해 북미공장에 적용해보니 근로자들의 평가가 좋았다. 현 팀장은 “저희 생산근로자들에게 경쟁사 웨어러블 로봇과 저희 제품을 써보게 했는데, 어느 것이 우리 회사 제품인지 모르도록 블라인드테스트 방식으로 진행했다”며 “그 결과 우리 제품에 대한 사용자들의 만족도가 월등했고, 생산성 개선 효과도 더 좋다는 평가를 들어 자신감을 갖게 됐다”고 전했다. 첵스의 장점은 경량이며 활동성이 자유롭다는 것이다. 또한 별도의 전원·연료가 필요 없이 작동하는 ‘에너지 저장·발산형 패시브방식’이어서 충전 등을 하지 않고 장시간 쓸 수 있다. 자체 하중은 1.5㎏대에 불과하다. 실제로 기자가 실물을 접해보니 약간 두꺼운 책 한 권 정도의 무게밖에 나가지 않았다. 엉덩이에서부터 무릎관절·종아리까지 외골격이 꽉 잡아주면서도 관절의 가동이 매우 부드러워 골반과 무릎을 굽혔다 폈다 반복하며 일할 때 편할 것 같았다. 기자의 체중은 미들급 정도인데 로봇이 워낙 경량이다 보니 혹시나 뒤로 주저앉으면 로봇의 받침 다리가 충격을 버티지 못해 부러지지 않을까 걱정했지만 기우였다. 알고 보니 1.5㎏에 불과한 이 웨어러블은 로봇의 발 하나당 150㎏ 정도씩의 하중도 문제없이 받쳐준다고 한다. 기업과 생산직 근로자들이 웨어러블을 착용해야 하는지 고민할 때 가장 크게 고려하는 요소 중 하나가 탈착 시간과 가격이다. 보통 생산 현장에서 약 45~50분간 일하고 10~15분 쉬는 단위로 일하는 경우가 많은데 입고 벗는 것이 복잡해 5분·10분씩 걸린다면 생산성이 저하되고, 휴식 시간도 그만큼 빼앗겨 착용하기를 꺼릴 수밖에 없다. 첵스는 탈착이 간편하게 이뤄져 20초 정도면 충분히 입거나 벗을 수 있을 것 같았다. 하체를 지지해주는 기존의 주요 외산 웨어러블 제품이 약 3,000달러 안팎의 가격에 시판 중인 데 비해 첵스는 경쟁사 대비 절반 수준으로 전망돼 높은 가성비를 가질 것으로 보인다. 현대차의 웨어러블 로봇 4총사 중에는 ‘첵스’ 외에도 허리보조 로봇 ‘웩스(WEX)’, 하지마비 환자용 의료로봇 ‘멕스(MEX)’, 상체와 팔을 보조해주는 로봇 벡스(VEX)도 포함돼 있다. 이 중 웩스는 주로 서서 무거운 짐 등을 들어 올려 옮기는 근로자를 위해 이르면 내년부터 상용화될 것으로 전망된다. 미국 질병통제예방센터(CDC)에 따르면 팔·허리의 통증·부상 등을 비롯한 근골격계장애(WMDS)를 겪는 미국인 근로자는 연간 약 1억3,000만명(건강보험 적용 기준)에 달한다. WMDS로 인한 미국 사회의 경제적 비용(산재 보상, 임금 손실, 생산성 손실)은 한 해 450억~540억달러에 달한다는 미국 의학연구소의 보고서도 2000년대 초에 나왔다. 2007년 기준 유럽연합(EU) 27개 회원국 근로자 중 근육통증이 보고된 사례는 23%에 달했다는 ‘하중을 줄입시다(Lighten the load)’ 보고서가 유럽산업안전보건청 등을 통해 작성되기도 했다. 국내에서는 아직 WMDS에 대한 공식 통계를 찾기 어려운 상황이지만 제조 및 건설·물류현장 등에서 상당한 근로자들이 관련 질환을 겪고 있을 것으로 추정된다. 따라서 현대차가 자사 생산공장에서 품질과 실용성을 검증한 근로자용 웨어러블 로봇들을 단계적으로 상용화한다면 국내외 근로자들의 보건과 사회적 경제비용 절감에 큰 기여를 할 것으로 기대된다. /의왕=민병권기자 newsroom@sedaily.com | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>한일관계 최악에도…삼성, 日스마트폰 점유율 '6년만에 최고'</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>상반기 출시 '갤럭시S10' 인기 영향 풀이 2분기 점유율 9.8%…두자릿수 회복 보인다 지난 3월 문을 연 갤럭시 하라주쿠. 전 세계 갤럭시 전시장 가운데 규모가 가장 크다. /삼성전자 제공 삼성전자가 올해 2분기 일본 스마트폰 시장에서 6년 만에 가장 높은 점유율을 기록한 것으로 나타났다. 상반기 출시한 프리미엄 스마트폰 '갤럭시S10'의 인기를 누린 영향으로 분석된다. 26일 시장조사업체 스트래티지 애널리틱스(SA)에 따르면 삼성전자는 2분기 일본 스마트폰 시장에서 60만대를 출하했다. 시장 점유율 9.8%로 애플(50.8%)에 이은 2위다. 지난해 2분기 애플 45.6%, 삼성전자 8.8%였던 것과 비교해 모두 소폭 올랐다. 삼성전자는 2013년 중반까지 일본에서 두자릿수 점유율을 유지하다 애플과 일본 브랜드에 밀려 2014년 5.6%, 2015년 4.3%, 2016년 3.4%까지 점유율이 내려앉았다. 그러나 2017년 반등(5.2%)을 시작해 2018년 6.4%로 점유율을 끌어올리고 있다. 애플과 삼성전자에 이어 샤프(7.2%), 소니(7.0%) 등 일본 기업이 3∼4위를 차지했다. 샤프는 전년 동기(5.1%) 대비 2.1%포인트 올랐고, 소니는 10.3%에서 3.3%P 줄었다. 중국 화웨이는 전년 동기 5.9%(4위)에서 2분기 3.3%(5위)로 하락했다. 삼성전자는 일본에서의 점유율 확보 노력을 이어가고 있다. 올 3월 전세계 갤럭시 전시장 가운데 최대 규모인 '갤럭시 하라주쿠'를 개관한 삼성전자는 지난달 2020년 도쿄 올림픽을 기념해 '갤럭시S10 플러스 올림픽 에디션'을 일본에 출시했다. 5세대 이동통신망(5G) 서비스가 처음으로 본격 적용되는 도쿄 올림픽을 앞두고 일본 내 5G 네트워크 사업 확대를 위한 기반을 조성하는 동시에 갤럭시의 시장 점유율 상승 교두보를 마련한다는 복안이다. 노정동 한경닷컴 기자 dong2@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>삼성전자, '갤럭시S10'으로 日서 6년만에 최고 점유율…화웨이는 하락</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>삼성전자가 올해 2분기 일본 스마트폰 시장에서 6년 만에 가장 높은 점유율을 기록한 것으로 조사됐다. 상반기 출시한 갤럭시S10 시리즈가 인기를 끌었기 때문으로 분석된다. 반면 화웨이는 작년 동기 대비 점유율이 절반 가까이 하락했다. 26일 시장조사업체 스트래티지 애널리틱스(SA)에 따르면 삼성전자는 2분기 일본 스마트폰 시장에서 60만대를 출하, 점유율 9.8%를 기록했다. 이는 애플(50.8%)에 이은 2위다. 작년 2분기 점유율이 애플 45.6%, 삼성전자 8.8%이었던 것과 비교해 모두 소폭 올랐다. 삼성전자가 10%에 육박한 점유율을 낸 것은 6년만에 최고치다. 삼성전자가 일본 하라주쿠에 문 연 ‘갤럭시 하라주쿠’ 전시관. /삼성전자 제공 삼성전자는 2013년 중반 일본 스마트폰 시장에서 10% 넘는 점유율을 유지하다 애플과 일본 브랜드에 밀려 2014년 5.6%, 2015년 4.3%, 2016년 3.4%로 점유율이 하락했다. 2017년부터 반등을 시작해 5.2%, 2018년 6.4%로 점유율이 상승 중이다. 애플과 삼성전자에 이어 샤프(7.2%), 소니(7.0%) 등 일본 기업이 3∼4위를 차지했다. 샤프는 작년 동기(5.1%) 대비 2.1%포인트 올랐고, 소니는 10.3%에서 3.3%p(포인트) 감소했다. 중국 화웨이는 작년 동기 5.9%(4위)에서 올해 2분기 3.3%(5위)로 하락했다. 한편 삼성전자는 올해 3월 전 세계 갤럭시 쇼케이스 가운데 최대 규모인 ‘갤럭시 하라주쿠’를 개관했다. 5G(5세대) 서비스가 처음으로 본격 적용되는 ‘2020 도쿄 올림픽’을 앞두고 일본 내 5G 네트워크 사업 확대를 위한 기반을 조성하는 동시에 갤럭시 스마트폰 시장점유율 반등의 계기를 마련한다는 전략이다. 삼성전자는 올 7월 2020 도쿄 올림픽을 기념해 갤럭시S10 플러스 올림픽 에디션을 일본에 출시하기도 했다. [이경탁 기자 kt87@chosunbiz.com] chosunbiz.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>헬리콥터도 부르면 온다… '차량 호출 끝판왕' 베트남</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[세계를 보는 창 NOW] 호출 서비스 '글로벌 각축장' 관광지 투어·스카이웨딩까지 - 출퇴근·음식 배달은 기본 환자 이송·렌터카·택배… 26만원 내면 헬기도 "모십니다" 年 41% 성장, 6년후 20억불 시장 - 싱가포르 '그랩' 작년 진출 후 '셀로' 등 7개 업체 뛰어들어… 베트남 정부 "4차 혁명 총력" 이미지 특파원 베트남 호찌민에 사는 필리핀인 파이샤씨는 하루에 최소 3번은 차량 호출 서비스를 이용한다. 오전에는 오토바이 호출 서비스를 이용해 시내로 출근하고, 낮에는 차량 호출 서비스 앱의 음식 배달 서비스를 이용해 점심밥이나 커피를 시켜 먹는다. 가끔 한밤중에 밖에 나가기 귀찮으면 편의점에서 음료와 간식을 사다주는 서비스를 이용하기도 하고, 외부로 보내야 할 서류나 물품이 있을 때도 차량 호출 서비스 앱부터 연다. 파이샤씨는 "베트남은 다른 나라에 비해 차량 호출 서비스 업체가 많을 뿐 아니라 가격도 저렴하다"며 "택시 서비스 외에도 음식 배달, 택배 등 다양하게 이용하기 좋다"고 말했다. 베트남의 차량 호출 서비스 시장 경쟁이 치열해지고 있다. 작년 초, 글로벌 차량 호출업체인 '우버'가 싱가포르계 차량 호출업체인 '그랩'에 동남아시아 사업 부문을 넘기면서 베트남 차량 호출 시장은 그랩의 독점 체제로 변할 거란 예상이 많았다. 하지만 작년과 올해에만 셀로, 바토, 고비엣 등 7개의 업체가 차량 호출 시장에 새로 뛰어들었다. 업체 간 경쟁이 치열해지면서 시장점유율을 높이기 위해 트럭 호출이나 택배, 음식 배달 같은 다양한 서비스도 속속 등장하고 있다. ◇ 정부의 전폭적 지원과 함께 폭발적으로 성장하는 베트남 시장 베트남의 차량 호출 서비스 시장 규모는 작년 5억달러를 기록했다. 2015년 2억달러에 불과했던 시장이 3년 만에 2.5배로 늘어난 것이다. 성장세는 앞으로 더욱 가팔라질 것으로 보인다. 정부 차원의 전폭적인 지지도 차량 호출 서비스 시장을 키우는 데 일조하고 있다. 응우옌 쑤언 푹 베트남 총리는 직접 "베트남이 혁신적인 기업들을 환영한다는 것을 보여주기 위해서 차량 공유 서비스에 지장을 주는 불필요한 장벽을 제거하라"고 지시했다. 하노이·호찌민 등 대도시 위주로 영업하던 차량 호출 업체들은 전국으로 서비스 범위를 확대하고 있다. 구글·테마섹홀딩스의 2018년 동남아시아 경제보고서에 따르면 베트남의 차량 호출 서비스 시장은 연평균 41%의 성장률을 기록해 2025년 20억달러 규모까지 확대될 전망이다. 차량 호출 서비스의 성장은 버스·택시 등 기존 교통수단 시장을 위협하는 수준에 이르렀다. 브이엔익스프레스 등 현지 언론에 따르면 차량 호출 서비스가 활성화되면서 올해 1~4월 공공 버스를 이용한 탑승객은 전년 동기 대비 8.9% 줄었다. 베트남 교통부에 따르면 작년 버스 탑승객은 목표보다 10% 적었고, 공공버스 운영 업체는 16억달러의 손실을 기록했다. 택시업계도 마찬가지다. 베트남 택시업체인 비나선과 마일린도 앱을 내놓고 차량 호출 서비스 업체에 대응하고 있지만 매출 감소를 막지는 못했다. 이에 비나선은 "그랩 때문에 420억동의 손실을 입었다"며 손해배상 청구 소송을 냈고, 작년 12월 법원은 "그랩은 비나선에 48억동(약 2억5000만원)을 배상하라"고 판결했다. 그랩은 판결에 불복해 항소했지만 다낭 등 다른 지역의 택시협회도 소송을 검토하고 있어 갈등이 예상된다. ◇ 헬리콥터, 트럭 등 영역 넓혀…글로벌 업체도 눈독 차량 호출 업계 간 경쟁도 만만치 않다. 업체들은 기본적으로 제공해온 차량이나 오토바이 택시 서비스 외에 트럭 호출, 렌터카 등 사업 영역을 넓히고 있다. 올해 4월 차량 호출업체 패스트고는 패스트스카이라는 브랜드로 베트남 최초의 '헬리콥터 호출 서비스'를 내놓았다. 하노이 홍강(紅江)이나 할롱베이 같은 관광지를 둘러보는 스카이투어, 웨딩 촬영을 지원하는 스카이웨딩, 응급환자를 이송하는 스카이SOS, 사업가 등이 업무에 필요할 때 쓸 수 있는 스카이플러스 등 4가지로 구성된다. 가격은 1인당 500만동(26만원)부터 시작되고 최대 12명이 함께 이용할 수 있다. 베트남 차량 공유 업체인 패스트고(FastGo)가 올해 새로 출시한 헬리콥터 공유 서비스 홍보물. 헬리콥터가 베트남의 유명 관광지인 할롱베이 상공을 날고 있다. /FastGo 베트남 국방부 산하 업계 1위 통신업체인 비엣텔은 지난 7월 마이고라는 차량 호출 서비스를 내놓으며 트럭 호출 서비스를 시작했다. 총 등록 차량 10만5000대 중 600대가 트럭이다. 트럭 호출 서비스의 등장은 이사나 택배 같은 대규모 배송 업체의 영역까지 넘볼 수 있을 것으로 보인다. 자체 앱에 등록된 오토바이나 차량 기사를 활용한 영역 확장도 활발하다. 오토바이 기사가 음식이나 물품 배달 서비스를 하고, 차량 기사로 등록된 사람이 시간제 렌터카 기사로도 활동하는 식이다. 그랩은 음식 배달 서비스를 시작한 지 1년 만에 주문 건수가 250배 증가했다고 밝혔다. 최근 차량 호출 서비스 업체들은 모바일 결제 시스템 업체들과 손잡고 현금 없는 비용 결제 시스템 구축에도 나서고 있다. 업체들의 경쟁은 더욱 치열해질 것으로 전망된다. 글로벌 업체들까지 속속 베트남 시장에 진출하고 있기 때문이다. 베트남 정부는 2009년부터 스타트업 육성 지원 프로그램을 마련하는 등 4차 산업을 적극 지지하고, 창업을 독려하고 있다. 응우옌 쑤언 푹 총리는 올해 1월 다보스포럼에서 "베트남은 4차 산업 혁명을 기술의 하나가 아닌 '정책 혁명'이라 보고 있다"며 "글로벌 기업들이 베트남에 와서 4차 산업 제품을 생산하길 바란다"고 말했다. [호찌민=이미지 특파원 image0717@chosun.com] - Copyrights ⓒ 조선일보 &amp;amp; chosun.com, 무단 전재 및 재배포 금지 -</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>"렌터카보다 싸게, 리스보다 짧게…중고차 '구독' 하세요"</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[머니투데이 서진욱 기자] [[인터뷰]전민수 더트라이브 대표 "중고차 구독 '트라이브' 적은 비용, 짧은 계약기간 차별점"] 전민수 더트라이브 대표. /사진제공=더트라이브. "이제 중고차도 '구독'하세요." 정기적으로 사용료를 내고 제품 또는 서비스를 이용하는 ‘구독경제’가 빠르게 퍼지고 있다. 배달음식(요기요), 운동화(나이키), 커피(버거킹, GS25) 등 선결제가 어색하던 영역에서도 구독경제 실험이 한창이다. 자동차 시장에서도 구독 사업모델이 급성장하고 있다. 글로벌 투자은행 크레딧스위스에 따르면 2020년 미국 자동차 구독 시장은 5300억달러(약 642조원) 규모로 커질 것으로 전망된다. 전민수 대표(사진·37)가 이끄는 스타트업(초기 벤처기업) 더트라이브는 중고차 구독 서비스 ‘트라이브’ 앱 출시를 준비 중이다. 신차 대비 저렴한 가격과 장기 렌트 대비 짧은 계약기간을 앞세워 중고차 구독 서비스 대중화를 노린다. 전 대표는 “트라이브는 자동차 구매, 목돈 지출에 대한 부담 없이 차량을 이용할 수 있는 구독 서비스”라며 “이달 중 시범 테스트에 돌입할 예정”이라고 말했다. 트라이브는 다양한 가격대의 구독 서비스를 제공, 사용자가 해당 가격대에 속한 차종 중 자신이 원하는 차종을 선택할 수 있다. 벤츠 E클래스 기준 구독료는 월 70만원(1년 약정) 정도다. 보험료와 취·등록세가 포함된 가격이다. 같은 차량의 렌터카(6개월 약정), 리스(36개월 약정) 비용은 각각 월 250만원, 80만원 정도다. 트라이브는 렌터카보다 저렴한 가격, 리스보다 짧은 계약기간으로 차량을 이용할 수 있다. 전 대표는 “사용자 설문 결과를 바탕으로 중고차 판매가 기준 구독료 공식을 자체 개발했다”며 “공식을 활용해 적절한 구독료를 책정한다”고 말했다. 구독 서비스를 위한 중고차는 자체 상사와 딜러, 다른 업체들과 제휴를 통해 확보할 예정이다. 수원중고차 매매단지에서 중고차 매입 및 판매를 위한 상사를 직접 운영 중이다. 정식 출시 전 10곳 이상 제휴 업체들을 확보해 구독용 중고차를 확보할 계획이다. 전 대표는 “특정 제조사, 차종 구독 모델과 달리 사용자에게 다양한 차종을 제공한다”고 말했다. 트라이브는 세밀한 차량 관리 서비스도 제공한다. 차량진단모듈(OBD)을 활용해 차량 상태와 사고 여부를 진단한다. 정기 점검을 비롯해 사고, 고장 등 문제 발생 시 전담 직원이 처리한다. 세차, 대리, 시승 등 차량 연계 서비스도 제공할 예정이다. 전 대표는 “자동차 시장 패러다임이 소유에서 이용으로 넘어오는 단계”라며 “트라이브로 이용 절차를 단순화해 중고차 구독 시대를 열겠다”고 포부를 밝혔다. 또 “연내에 트라이브 구독자 300명을 확보하는 게 최우선 목표”라며 “쉽고 간편한 중고차 구독 서비스로 발전할 수 있도록 지속적으로 노력하겠다”고 말했다. 한편 더트라이브는 중소벤처기업부의 민간 투자 주도형 기술 창업 지원 프로그램 ‘팁스’ 과제도 수행 중이다. 현대자동차(팁스 운영사)와 함께 인공지능(AI) 기반 자동차 매매 로보어드바이저 기술을 개발하고 있다. AI 기술 기반으로 매입가, 판매가, 수요, 공급 등을 예측할 수 있는 솔루션을 구축하는 게 목표다 서진욱 기자 sjw@mt.co.kr &amp;lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>활명수 스킨·마데카솔 크림… 제약업계 화장품 바람 솔솔</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>의약품 기술력으로 화장품 사업, 40개사 진출 시장규모 5000억 휴메딕스, 필러 성분 마스크팩… 일동제약 상반기 매출만 99억 중소업체는 유통망 못찾아 고전 주름 개선제의 일종인 필러를 만드는 휴메딕스 는 최근 '아미노 포텐셜 마스크'라는 마스크팩 신제품을 선보였다. 제품에는 필러의 주(主)성분인 히알루론산이 포함됐다. 피부 아래 주입하는 필러는 주름을 펴는 역할을 하며, 이 성분을 피부에 바르면 보습 효과가 있다. 의약품 효과를 활용한 화장품인 셈이다. 회사 관계자는 "2년 전부터 필러 성분을 활용한 30여 가지 신제품을 선보였다"며 "지난해에만 화장품 사업은 매출 30여 억원을 기록한 효자 부업(副業)"이라고 말했다. 휴메딕스의 코스메슈티컬 브랜드 더마 엘라비에. 제약·바이오 회사들이 의약품 개발·생산으로 얻은 기술력을 활용해 화장품 사업에 대거 뛰어들고 있다. 의학적으로 검증된 의약품 성분을 넣은 기능성 화장품을 선보이는 것이다. 이런 화장품이 인기를 끌면서 코스메슈티컬(cosmeceutical)라는 신규 시장이 급부상하고 있다. 화장품(cosmetics)과 의약품(pharmaceutical)을 합한 신조어다. 국내 시장 규모는 5000억원으로 추정된다. 국내 화장품 시장(약 13조원)의 4% 수준이다. 의약품 성분으로 입증된 성분을 쓰다 보니 소비자들의 신뢰도가 높아, 시장은 급팽창하고 있다. GS리테일 이 운영하는 헬스 앤드 뷰티 스토어 '랄라블라'에 따르면 올해 1~7월에 코스메슈티컬 상품 매출은 동기 대비 83% 늘었다. ◇ 40여 제약·바이오社 화장품 진출 동화약품 활명, 동국제약 센텔리안24 제약업계는 최근 2~3년 새 제약·바이오사 40여 곳이 화장품 사업에 진출한 것으로 추정한다. 이미 보유한 의약품 기술을 그대로 활용할 수 있어 화장품 시장 진입이 수월하다. 대표적 제품이 동국제약 이 내놓은 마데카크림이다. 상처 치료제로 잘 알려진 마데카솔의 주 원료로 만들었다. 동국제약은 아예 '센텔리안24'라는 화장품 브랜드도 내놓았다. 소화제 까스활명수로 유명한 동화약품 은 활명수에 쓰는 5가지 생약 성분을 포함한 스킨케어 제품을 내놓고 있다. 줄기세포를 연구 개발하는 차바이오텍 은 노화 방지 크림과 같은 제품을 속속 선보이고 있다. 큐티젠랩 은 세포 배양액을 이용한 주름 개선 기능성 화장품을 내놓았다. 반대로 화장품 회사들은 제약 기술 확보를 위해 제약·바이오 업체들과 손잡고 있다. 국내 화장품 업계의 '빅2'인 LG생활건강 이 2년 전 제약업체 태극제약 을 인수한 게 대표적인 사례다. 태극제약이 올 초 아토피와 같은 피부 질환에도 좋은 크림과 로션을 내놨는데 여기엔 태극제약과 LG생활건강의 노하우가 활용됐다. 화장품 업계 관계자는 "제약사와 화장품 회사의 노하우가 합쳐지면서 이전과 전혀 다른 신개념 제품이 나오고 있다"고 말했다. 화장품 ODM(제조자 개발 생산) 업체인 한국콜마 는 지난해 제약사인 CJ헬스케어 를 인수하기도 했다. ◇ 중소 업체는 유통망 확보 어려워 실제 성공 사례도 나오고 있다. 동국제약은 지난해 화장품 부문에서 매출을 약 540억원 기록했다. 전체 매출 가운데 화장품 비율이 16%다. 일동제약 은 유산균 성분이 들어간 마스크팩이 성공을 거두며, 올 상반기에 화장품 매출이 99억원을 기록했다. 반면 중소 제약 업체는 대부분 섣부르게 진출했다가 가시적 매출 성장을 내지 못하고 있다. 화장품 시장은 제품 효능 못지않게 브랜드 파워와 현장 유통망 확보가 중요하기 때문이다. 중소 제약 업체 대다수는 매출 대부분을 약국에 의약품을 공급하는 B2B(기업 간 거래) 방식에서 얻고 있다. 새로운 유통망 확보에 어려움이 있는 것이다. 중소 제약 업체 관계자는 "아무리 기능성을 강조해도 중소 제약 업체 브랜드는 일반 소비자들에게 낯선 제품에 불과하다"며 "막대한 자본력으로 이미지 마케팅을 벌이는 대형 화장품 브랜드와 경쟁하기 쉽지 않은 게 현실"이라고 말했다. ☞코스메슈티컬(cosmeceutical) 화장품(cosmetics)과 의약품(pharmaceutical)을 합성한 신조어. 화장품에 의학적으로 검증된 성분이 들어간 제품을 말한다. 미백이나 주름 개선 같은 기능성 화장품에 주로 쓰인다. [유지한 기자 jhyoo@chosun.com] - Copyrights ⓒ 조선일보 &amp;amp; chosun.com, 무단 전재 및 재배포 금지 -</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>코오롱티슈진, 턱밑까지 온 상폐 위기…"남은 절차 최선"</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>한국거래소, 기업심사위원회 개최해 상장 폐지 결정 (서울=연합뉴스) 박동주 기자 = 26일 오후 서울 강서구 코오롱생명과학 본사 앞. pdj6635@yna.co.kr (서울=연합뉴스) 김잔디 기자 = '인보사 사태'의 코오롱티슈진은 26일 한국거래소의 상장폐지 결정에 당혹스러움을 감추지 못하면서도 아직 확정되지 않은 만큼 남은 절차에 최선을 다하겠다는 입장을 내놨다. 코오롱티슈진 관계자는 26일 연합뉴스와 통화에서 "아직 코스닥시장위원회 등이 남아있다"며 "남은 절차에서 최선을 다하겠다"고 말했다. 거래소 코스닥시장본부는 이날 기업심사위원회(기심위) 심의 결과 코오롱티슈진의 주권 상장폐지를 결정했다고 밝혔다. 다만 이번 심사는 상장 폐지를 확정하기 위한 절차 중 하나여서 아직 확정된 것은 아니다. 거래소는 앞으로 코스닥시장위원회에서 이를 다시 논의하고, 여기서 상장폐지가 결정돼도 회사의 이의신청을 받아 심사하는 절차가 남아있다. 코오롱티슈진 이런 남은 절차에 사활을 걸겠다는 입장이다. 현재 코오롱티슈진은 인보사 사태로 품목허가가 취소된 것은 물론 미국에서의 임상 중단, 소액주주 소송 등의 악재가 겹겹이 쌓여있는 상황이어서 상장 폐지되면 기업 존립 자체가 어려워지지 않겠느냐는 우려도 나온다. 코오롱티슈진은 인보사 개발과 적응증(치료범위) 확대를 주된 사업으로 꾸려왔는데, 핵심 사업인 인보사의 결함으로 시장에서 퇴출당할 경우 그 여파가 적지 않을 것이라는 분석이다. 인보사의 매출 비중이 미미한 코오롱생명과학과 달리 코오롱티슈진은 사실상 인보사를 위한 회사라고 해도 무방하다. 사업보고서에 따르면 코오롱티슈진은 인보사를 기존에 허가받은 무릎 골관절염 외에도 추간 디스크, 고관절 골관절염, 동물 골관절염 등에 쓰기 위한 연구개발을 진행해왔다. 단 코오롱티슈진은 기심위에서 논의된 내용과 결과를 구체적으로 확인하지 못했다며 향후 대응 방안에 대해서는 밝히지 않았다. 이와 별도로 미국에서의 인보사 임상시험 재개를 위한 준비는 계속 진행하고 있다. 인보사는 주성분이 뒤바뀐 사실이 알려지면서 미국에서 진행되던 임상 3상이 중단됐다. 코오롱티슈진 관계자는 "미국 임상 (재개를 위한)은 이번 사안과는 별개로 서류를 제출할 예정"이라며 "미국 식품의약품청(FDA)의 리뷰를 통해 재개가 결정될 것"이라고 말했다. 인보사는 2017년 국내 첫 유전자 치료제로 식약처 허가를 받았으나, 주성분 중 하나가 허가사항에 기재된 연골세포가 아닌 종양을 유발할 가능성이 있는 신장세포라는 사실이 드러나 허가 취소됐다. 코오롱생명과학의 미국 자회사인 코오롱티슈진이 개발했다. 코오롱생명과학과 코오롱티슈진은 인보사 성분이 뒤바뀌었더라도 그동안 진행돼온 임상시험 결과로 보아 안전성 및 효능에는 문제가 없다고 주장하고 있다. jandi@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>갤노트10, 자급제 물량 풀고 사전예약 개통 연장</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[디지털데일리 권하영기자] 삼성전자가 당초 26일까지로 예정된 갤럭시노트10 사전예약 개통 기간을 오는 31일까지 연장한다. 자급제폰 물량도 29일부터 시장에 공급하기로 했다. 초반 130만대 사전판매 물량을 확보한 노트10 호조를 이어갈지 주목된다. 26일 삼성전자는 삼성닷컴 공지를 통해 “일부 매장별 컬러·용량 등 재고 불균형 및 불가피한 사정으로 기간 내 개통이 어려운 고객을 위해 전 모델을 대상으로 사전예약자 개통 기간과 사은품 신청 기간을 연장한다”고 밝혔다. 이는 유통 판매처에서 노트10 물량 부족으로 개통이 연기되고 있는 사정을 감안한 결정이다. 일부 판매처에서 과도한 보조금을 약속했다가 개통이 지연되거나 취소되는 사례가 빗발치면서 시장 과열을 바로잡으려는 후속 조치로도 읽힌다. 삼성전자는 앞서 9일부터 19일까지 갤럭시노트10 시리즈 사전예약을 받았다. 이에 따라 고객들은 26일까지 개통을 완료해야 사전예약을 통한 다양한 경품과 혜택을 받을 수 있다. 그런데 사전예약 기간에 일부 판매점이 노트10에 대해 10~20만원대 판매를 약속했다가 취소하는 사례가 속출하면서 문제가 됐다. 이들은 통신사 정책과 판매장려금(리베이트)을 높게 예상했다가 그에 못 미치자 일방적으로 사전예약을 취소하거나 연락을 두절하기 시작한 것. 갤럭시노트10 출고가는 128GB 기준 124만8500원(128GB 기준)이다. 갤럭시노트10을 10~20만원대로 판매하려면 사실상 불법 보조금이 5~60만원대로 지급돼야 한다. 통신3사의 노트10 공시지원금은 고가 요금제를 쓰더라도 당초 예상보다 적은 42~45만원이다. 통신사 관계자는 “일부 판매처에서 하반기 5G 신규폰에 대한 지원금 정책이 좋을 것으로 보고 무리하게 가입자를 확보한 면이 있다”면서 “이들의 사전예약 취소로 기간 내에 정상적으로 개통하지 못한 이용자들이 늘어나고 있다”라고 말했다. 갤럭시노트10에서 새롭게 선보이는 통신사 전용 색상 단말이 예상보다 높은 인기를 끈 점도 배경 중 하나다. 현재 SK텔레콤은 블루, KT는 레드 컬러를 단독 출시한 상태다. 통신사 관계자는 “신규 컬러에 대한 소비자 호응이 좋아 추가 물량을 확보해야 하는 상황”이라고 전했다. 삼성전자는 사전예약 개통기간 연장과 함께 노트10 자급제폰 물량을 오는 29일부터 공급한다. 자급제폰은 통신사 대리점 및 판매점에서 요금제와 연계해 판매하는 것과 달리 유심칩만 끼우면 바로 사용할 수 있는 단말기다. 통신사 약정 기간이나 위약금으로부터 자유롭다. 삼성전자가 자급제 물량 공급과 함께 사전예약 개통 기간을 연장하면서 개통이 지연 또는 취소되거나 원하는 단말을 선택하지 못한 소비자들이 이달 말까지 여유를 가지게 됐다. 노트10 자급제폰은 삼성닷컴·오픈마켓 등 온라인 유통채널과 삼성디지털프라자·롯데하이마트 등 오프라인 유통채널에 본격 공급된다. 공식 출시일인 23일부터 주문을 받고 29일부터 순차 배송할 예정이다. &amp;lt;권하영 기자&amp;gt;kwonhy@ddaily.co.kr &amp;lt;저작권자 © 디지털데일리 무단전재-재배포금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>삼성 판결 D-2, 이재용 부회장 아산서 디스플레이 현장경영</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>이재용 부회장 박근혜 전 대통령과 최순실씨, 이재용 삼성전자 부회장이 연루된 국정농단 사건의 대법원 선고가 이틀 앞으로 다가왔다. 재계도 이 부회장 관련 판결에 촉각을 곤두세우고 있다. 일본의 대 한국 경제 보복, 보호무역주의 강화 등으로 삼성을 둘러싼 대내외 경제 상황이 악화된 가운데 이 부회장의 부재가 가져올 파장이 우려되기 때문이다. 대법원 전원합의체는 오는 29일 오후 박 전 대통령의 특정범죄 가중처벌 등에 관한 법률 위반(뇌물) 등 혐의에 대한 상고심 선고 기일을 연다. 함께 재판에 넘겨진 최씨와 이 부회장 상고심 판단도 같은 날 내려진다. 쟁점은 삼성이 최씨 딸 정유라씨에게 제공한 말 세 마리의 소유권 이전과 '경영권 승계작업' 인정 여부다. 박 전 대통령과 최씨 1·2심은 말 세 마리에 대가성이 있다고 판단, 뇌물로 인정했다. 이 부회장 1심도 같은 취지의 판단을 했다. 그러나 2심에서는 말 세 마리 소유권이 최씨에게 넘어가지 않았다며 뇌물로 인정하지 않았다. 같은 사안에 대해 하급심 판단이 갈렸기 때문에 대법원의 최종 판결에 따라 한쪽은 파기 환송돼 2심을 다시 받을 것으로 예상된다. 세 피고인 모두 항소심을 다시 받을 가능성도 있다. 대법원이 말 소유권 이전과 승계 작업 둘 가운데 하나만 인정할 경우 세 사건 모두 파기 환송돼 재판을 다시 받을 것으로 보인다. 재계의 최대 관심사는 판결 결과다. 이 부회장이 다시 구속된다면 삼성 경영에 불확실성이 추가로 등장하기 때문이다. 이 부회장은 지난해 2월 집행유예로 풀려난 이후 국내외에서 활발한 경영 행보를 펼쳤다. 특히 인공지능(AI), 시스템반도체, 해외 생산 거점 등 미래 먹거리에 집중해서 챙겼다. 시스템반도체 분야에 2030년까지 133조원을 집중 투자, 글로벌 1위를 달성하겠다는 비전도 내놓았다. 이 부회장이 다시 구속되면 삼성의 미래 전략 사업과 혁신 계획이 중단되거나 지연될 수 있다는 우려가 안팎에서 나온다. 특히 최근 일본 경제 보복으로 말미암아 위기가 고조됐을 때 일본과 국내 주요 사업장을 오가며 위기 타개를 위해 노력해 왔다. 수출 중단이 시작되기 전 일본 회사 소재 재고 확보에 나서고, 대체 공급처 발굴과 국산화 추진 등 비상 대책을 주도했다. 이재용 삼성전자 부회장(왼쪽 두번째)이 26일 충남 아산에 위치한 삼성디스플레이 사업장에서 제품을 살펴보고 있다. 이달 들어서는 현장 경영에 박차를 가하고 있다. 이 부회장은 6일 삼성전자 온양·천안사업장을 시작으로 평택사업장(9일), 광주사업장(20일)을 찾은 데 이어 26일에는 디스플레이 아산사업장을 방문해 전자계열사 밸류체인 점검과 미래 신성장 동력 발굴을 위한 현장 경영을 이어 가고 있다. 이날 삼성디스플레이 사업장을 방문한 자리에서는 중장기 사업 전략을 점검하고, 대형 디스플레이 로드맵 등 미래 신기술 전략을 논의했다. 이 자리에는 김기남 삼성전자 DS부문 대표이사 부회장, 이동훈 삼성디스플레이 대표이사 사장, 김성철 중소형디스플레이사업부장 부사장, 남효학 대형디스플레이사업부장 부사장, 곽진오 디스플레이연구소장 부사장 등이 함께했다. 이 부회장은 “위기와 기회는 끊임없이 반복된다. 지금 액정표시장치(LCD) 사업이 어렵다고 해서 대형 디스플레이를 포기해서는 안 된다”면서 “신기술 개발에 박차를 가해 다가올 새로운 미래를 선도해야 하고, 기술만이 살 길”이라고 강조했다. 권건호 전자산업 전문기자 wingh1@etnews.com [Copyright ⓒ 전자신문 &amp;amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>[단독]세계 2위 모빌리티 中 디디추싱, 내년 상반기 韓 진출</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>-투자전문 회사 미래오성과 합자회사 진출 계약 진행 중 -플랫폼택시·11인승 대형 택시 등 준비 디디추싱 이미지(출처=디디추싱) [헤럴드경제=채상우 기자] 세계 2위 모빌리티 기업인 중국의 디디추싱이 이르면 내년 상반기 한국에 진출한다. 26일 투자전문회사 미래오성그룹에 따르면 최근 디디추싱과 미래오성그룹은 한국 지사 설립 계약을 진행 중이며 이르면 내년 상반기 한국에 지사를 설립할 예정이다. 미래오성그룹 관계자는 "현재 디디추싱과 2020년 한국 진출을 목적으로 긴밀히 얘기 중"이라며 "모바일 플랫폼 구성까지 대략적으로 완료한 상황으로 디디추싱 본사의 결정만 기다리고 있다"고 말했다. 디디추싱은 지난해 일본에 진출할 때도 소프트뱅크와 합자 투자를 하는 방식이었다. 미래오성그룹은 이를 위해 최근 가산디지털단지에 디디추싱 코리아 사무실을 개설했으며, 김범창 미래오성그룹 회장을 디디추싱 코리아 대표로 임의 등록해 놓은 상태다. 디디추싱이 한국에 들어오면 카카오모빌리티와 같이 택시 플랫폼 서비스를 선보일 것으로 예상된다. 아울러 11인승 대형 차량을 이용한 대형 택시 서비스도 준비 중에 있는 것으로 알려졌다. 디디추싱의 한국 진출 배경에는 최근 국토부의 택시-플랫폼 상생안 발표 등으로 국내 모빌리티 시장이 성장기에 돌입했다는 판단 때문으로 분석된다. 업계에서는 디디추싱 한국 진출을 위해 미래오성그룹은 이미 올해 초부터 발빠르게 움직인 것으로 파악하고 있다. 김범창 회장은 올해 4월 중국 상하이에서 개최된 '중국 라이드헤일링 산업 발전 포럼'에 참석해 디디추싱 관계자를 직접 만나 국내 모빌리티 사업에 대해 논의를 했다. 김 회장은 이 자리에서 "중국의 차량공유플랫폼 기업과 손잡고 수년간 플랫폼 사업을 통해 축적한 노하우를 한국에 도입해 한국형 차량공유 플랫폼 사업을 성공시키겠다"고 밝혔다. 2012년 설립한 디디추싱은 기업가치 560억달러(약 67조원)에 달하는 중국업체로 베이징에 본사를 두고 있다. 우버에 이어 세계 2위 모빌리티 기업으로 중국 시장 점유율은 90%에 달한다. 일본과 대만, 동남아, 북미·남미 등 전세계 1000개 도시에서 사업을 운영 중이다. 디디추싱은 최근 세계 1위 기업인 우버를 앞지르기 위해 다양한 국가 진출을 적극적으로 검토 중에 있는 것으로 알려졌다. 올해 초에는 칠레, 페루, 콜롬비아 등 남미 국가에서 마케팅·광고·위기관리·사업 직군 관리자를 채용하며 남미 시장을 공략했다. 한국 역시 세계 진출 방안의 하나로 분석된다. 다만 디디추싱은 한국에서 벌어지고 있는 택시와 모빌리티 간의 갈등을 우려하고 있는 것으로 알려졌다. 업계 관계자는 "디디추싱이 한국 진출에 있어 마지막으로 고민하는 것이 택시와의 갈등 문제로 알려졌다"며 "최근에는 정부 주도로 이 문제가 조금씩 풀리는 양상이 보이고 있지만 여전히 개인택시를 중심으로 해결되지 않은 문제가 존재해 이 부분을 우려하고 있는 것으로 알고 있다"고 말했다. 123@heraldcorp.com - Copyrights ⓒ 헤럴드경제 &amp;amp; heraldbiz.com, 무단 전재 및 재배포 금지 -</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>삼성의 현명한 선택? 美 1%만 이어폰잭 신경쓴다</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>갤럭시노트10 플래그십폰 처음으로 이어폰잭 배제 "무선이어폰의 보편화"로 때가 됐다는 판단 덕분에 미니멀리즘 디자인 도입 성공 "때가 됐다." 강윤제 삼성전자 디자인팀장은 최근 이어폰잭을 없앤 첫 플래그십폰 '갤럭시노트10'을 출시하며 이렇게 말했다. 무선이어폰으로의 급속한 전환 속에 삼성전자도 과감한 선택을 할 때가 됐다는 뜻이었다. 여전히 이어폰잭이 필요하다는 목소리가 있었지만 어쩌면 삼성전자가 현명한 선택을 한 것일지도 모르겠다. 삼성전자의 최대 시장인 미국을 조사한 결과 소비자의 단 1%만이 스마트폰 구매 시 '이어폰잭의 유무'를 중시하는 것으로 나타났다. 25일(현지시간) 미국 알뜰폰 사업자 팅의 설문조사에 따르면 소비자가 스마트폰 구매 시 가장 중요하게 생각하는 요소는 가격이었다. 응답자의 35%는 가격에 따라 구매 여부를 결정한다고 답했다. 팅은 소비자 3600명에게 가장 중시하는 요소 세 가지를 고르게 하는 방식으로 조사를 진행했다. 가격 다음으로는 운영체제(30%), 성능(14%), 화면(5%), 배터리(4%), 디자인(2%)이 중시됐다. 이어폰잭을 중요한 요소 세 가지 중 하나로 꼽은 소비자는 1%에 불과했다. 미국 IT매체 안드로이드 어쏘리티는 "스마트폰 가격이 궁금한 소비자는 많지만 이어폰잭에 관심 있는 사람은 거의 없는 것으로 나타났다"며 "이번 설문조사는 이어폰잭이 사라지는 때가 왔음을 암시하는 또 다른 지표가 될 것"이라고 분석했다. 실제로 무선이어폰은 급속히 확산되는 추세다. 시장조사업체 스트래티지 애널리틱스에 따르면 무선이어폰 시장은 2016년 170만대, 2017년 1510만대, 2018년 3360만대로 성장했다. 특히 애플이 2016년 아이폰7부터 이어폰잭을 없애면서 전체 이어폰 시장에서 무선이어폰이 차지하는 비율은 절반을 넘어섰다. 삼성전자는 유선이어폰을 선호하는 소비자를 위해 이어폰잭을 남겨뒀지만 무선이어폰의 보편화를 감지하고 갤럭시노트10에서 처음으로 변화를 꾀했다. 이를 통해 얇은 디자인 구현이 가능해지기 때문이다. 게다가 이번 조사로 이어폰잭을 중시하는 소비자가 소수에 불과함이 드러난 만큼 삼성전자는 갤럭시S11, 갤럭시노트11의 이어폰잭 역시 배제할 가능성이 높다. 이는 미국에서 3위 점유율을 차지하고 있는 LG전자의 이어폰잭 전략에도 적잖은 영향을 미칠 것으로 보인다. 임온유 기자 ioy@asiae.co.kr &amp;lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>삼성 스마트폰, 日 점유율 6년만에 최고…"갤S10 통했다"</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1위 애플 50.8%, 화웨이 美 제재 영향으로 5위로 하락 (지디넷코리아=이은정 기자)삼성전자가 지난 2분기 일본 스마트폰 시장에서 6년 만에 역대 최고 점유율을 기록한 것으로 나타났다. 26일 스트래티지 애널리틱스(SA)에 따르면, 지난 2분기 일본 스마트폰 시장에서 애플이 전년 동기(45.6%) 대비 증가한 50.8%의 점유율로 1위를 기록했다. 2위 삼성전자는 2분기 일본 스마트폰 시장에서 전년 동기(8.8%)보다 소폭 상승한 9.8%의 점유율로 6년 만에 역대 최고치를 기록했다. 삼성전자는 2013년 두 자릿수의 점유율을 기록했지만 2014년부터 지난해까지 6%대 이하의 점유율을 기록했다. 삼성전자가 점유율 반등에 성공한 데는 갤럭시S10 호조의 영향이 컸다는 분석이 나온다. 삼성전자 갤럭시S10 일본 현지 광고모델 기무라 코우키.(사진 출처= Instagram@koki) 삼성전자 갤럭시S10 일본 현지 광고모델 기무라 코우키.(사진 출처= Instagram@koki) 삼성전자는 갤럭시S10이 출시된 지난 3월 갤럭시 쇼케이스 중 최대 규모인 '갤럭시 하라주쿠'를 도쿄에 개관하고 현지 스마트폰 시장 공략에 집중했다. 이후 2020년 도쿄올림픽을 앞두고 일본 5G 네트워크 사업을 확대를 위한 기반을 조성, 일본에서 갤럭시 스마트폰 시장 점유율 반등에 속도를 내고 있다. 삼성전자에 이어 3~4위는 일본 기업인 샤프와 소니가 차지했다. 샤프는 지난해 같은 기간(5.1%)보다 소폭 오른 7.2%를 기록했으며, 소니는 3.3% 감소한 7.0%의 점유율을 기록했다. 중국 화웨이는 전년 동기(5.9%) 대비 줄어든 3.3%의 점유율로 5위로 하락했다. 이는 미국의 거래중단 제재 조치 여파가 있었던 것으로 풀이된다. 지난 5월 일본 이통사 KDDI와 소프트뱅크, NTT도코모는 미국의 화웨이 장비 사용 금지 행정명령에 따른 영향력을 평가하기 위해 시간이 필요하다며 화웨이의 신규 스마트폰 판매를 연기한 바 있다. 이은정 기자(lejj@zdnet.co.kr) /</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>[단독] MS, 쿠팡·티몬에 경고…"불법 윈도10 팔지마"</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>개인 판매자들, 정품으로 속여 20만원짜리 2500원에 판매 "제품키 판매, 저작권법 위반" 대법 판결 이후 온라인몰 단속 마이크로소프트(MS)의 한국 지사인 한국MS가 윈도10 등 자사의 소프트웨어 불법 판매 단속에 나섰다. 쿠팡, 티몬 등 온라인 쇼핑몰에서 윈도10과 MS오피스 등이 정가의 1%대 수준 가격에 판매되자 ‘철퇴’를 빼들었다. 2500원이면 윈도10 구입 25일 정보기술(IT)업계에 따르면 최근 한국MS는 자사의 소프트웨어가 불법으로 판매되고 있다며 국내 온라인 쇼핑몰 업체에 협조공문을 보냈다. 일부 판매자가 윈도10, MS오피스 등을 정품이라 속이고 제품키를 발송하는 방식으로 팔고 있는 것을 단속해달라는 것. 제품키는 소프트웨어를 설치할 때 사용자가 정품을 사용했다는 것을 인증하기 위해 입력해야 하는 문자 및 숫자로 구성된 고유의 번호다. 윈도10 소프트웨어는 MS 홈페이지에서 다운받고, 정품 제품키를 결제해 입력하면 사용할 수 있다. 쿠팡, 티몬 등에서는 불법 윈도10 등을 파는 판매자가 수백 명에 이른다. 판매 가격은 최저 2500원이다. 정품(20만원)의 100분의 1 수준이다. 이들은 ‘초특가 판매’ ‘정품이 아닐 경우 100% 환불’ ‘제품키 24시간 실시간 발송’ 등의 문구를 앞세워 소비자를 유인했다. 유명 쇼핑몰에서 대놓고 판매하기 때문에 소비자들은 불법 소프트웨어인지 알기 어렵다. 상품 문의 게시판에 정품인지를 묻는 글에 판매자는 정품이 맞다는 답변도 달았다. IT업계 관계자는 “상당수가 비영리 용도나 기업에서 대규모로 구입한 제품 등이 비정상적인 방법으로 유출된 것”이라며 “해당 제품키로 대부분 정품 인증이 가능하기에 판매자 또는 소비자도 불법인지 인지하기 어렵다”고 설명했다. 하지만 이런 방식의 판매는 명백히 불법이다. 지난 6월 한국 대법원은 유출된 제품키를 판매하는 행위는 저작권법 위반이라고 판결했다. 한국MS가 온라인 쇼핑몰업체에 협조공문을 보내는 등 불법 소프트웨어 유통 단속에 나선 것도 이 판결의 영향이 있다. MS 관계자는 “소비자가 사전에 불법을 인지한 것은 물론 의심하다가 제품을 구입했어도 저작권법 위반으로 처벌받을 수 있다”고 말했다. 불법 소프트웨어는 보안에 취약 최근 윈도10 수요가 증가하는 것도 단속의 한 배경이다. MS가 내년 1월부터 윈도7의 공식 기술 지원을 종료할 예정이어서 PC OS(운영체제)를 윈도10으로 업그레이드하려는 수요가 급증했다. 시장조사업체 스탯카운터에 따르면 지난달 기준 국내 PC에서 윈도7의 사용 점유율은 29%에 달한다. 윈도10에 대한 추가 수요가 아직 많다는 뜻이다. MS는 제품키로 구입한 소프트웨어의 안정성이 떨어진다고 설명했다. 제품키로 설치한 소프트웨어는 향후 업그레이드 서비스를 받는 데 한계가 있다. 지난해 MS가 한국 등 아시아 지역 9개 국가를 대상으로 조사한 결과 불법 소프트웨어가 설치된 PC의 84%에서 바이러스 등 멀웨어(악성 소프트웨어)가 발견됐다. 보안업계 관계자는 “불법 소프트웨어를 사용하면 PC 내 금융정보 등이 유출될 가능성이 크고 PC 성능도 떨어진다”고 설명했다. 그러나 한국에서는 정품 소프트웨어를 사용하려는 노력이 아직 부족하다는 지적이 나온다. 미국 비즈니스소프트웨어연합(BSA)은 ‘2018 글로벌 소프트웨어 조사 보고서’를 통해 한국 내 PC에 설치된 소프트웨어 중 32%를 불법으로 추정했다. 일본(16%)의 두 배 수준이다. 불법 이용에 따른 소프트웨어업계의 피해 규모는 5억9800달러(약 6055억원)에 달했다. IT업계 관계자는 “글로벌 IT 업체들이 소프트웨어 판매를 패키지 상품 방식에서 월정액제 방식으로 바꾸고 있는 것도 불법 소프트웨어 유통을 사전에 막으려는 전략”이라고 설명했다. ■ 제품키 product key. 소프트웨어를 설치할 때 사용자가 정품을 사용했다는 것을 인증하기 위해 입력해야 하는 문자 및 숫자로 구성된 고유의 번호. 보통 소프트웨어 패키지 상품에 밀봉된 형태로 제공된다. 온라인으로 불법 소프트웨어를 구입할 경우 판매업자가 제품키를 이메일 등으로 알려준다. 김주완 기자 kjwan@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>조국 법무부 장관 후보자 페이스북 글에 지지·응원 글 넘쳐나는 이유</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>"힘내라" 조국 후보자 페이스북엔 응원만 가득 일부 언론 "지지 응원 쏟아진다" 보도 실체는 페친만 댓글 작성 가능 조국, 머리 쓸어넘기며 출근 (사진=연합뉴스) 조국 법무부장관 후보자가 국민들에게는 '용'이 될 생각말고 붕어 가재로 개천에서 행복하게 살라 해놓고 자신의 자녀는 '용'으로 만들어주기 위해 갖은 노력을 하고 있었다는 사실이 드러나면서 분노를 사고 있다. 논문 참여와 고려대 입학, 6차례의 몰빵 장학금, 부산대 의전원까지 구체적으로 드러난 불법사항은 없지만 문제는 조 후보자의 입이었다. 과거 조 후보자는 스스로를 강남 좌파라고 인정했으며 특목고, 특히 외고에 대해서 외국어 공부하러 갔으면 외국어 진로로 가도록 확실하게 규제라든지 이런 게 있어야 된다는 취지의 이야기를 한 적이 있다. 그런데 실체를 들춰보니 조 후보자의 딸은 외고를 나왔는데 딸은 의학전문대학원 다니고 있다. 개인과 정책적인 것은 다르다는 것을 감안해도 그야말로 '내로남불'의 전형적인 케이스로 스스로 당당하기는 조금 어려운 상황이 된 것이다. 아버지로서 철저하지 못하고 안이했다는 자아비판과는 달리 상상을 초월하는 스펙관리 끝에 조 후보자의 딸은 고대 환경생태공학부, 서울대 환경대학원을 거쳐 현재 부산대 의학전문대학원에 다니고 있다. 아들은 미국 조지워싱턴대를 졸업한 뒤 현재 연세대 대학원에서 정치외교학을 전공하고 있는 것으로 알려졌다. 정치적 신념이 확실했던 조 후보자는 국정농단 사태 당시 자신의 페이스북에 정유라의 입시특혜는 물론 논문과 장학금에 대해서도 쓴소리를 남겼으며 지금 고스란히 부메랑이 돼 조 후보자에게 돌아오고 있다. 조 후보자는 2010년 유명환 외교부 장관이 딸 특채 문제로 사퇴를 앞두고 있을 때 고위직이 잘못해서 사과를 하는 걸 파리를 예로 들어 비판했다. 파리가 앞발을 비빌 때는 먹을 준비를 하는 거라며 이때 잡아야 한다는 것이다. 다시 말해 고위직의 진정성 없는 사과를 봐주면 안 된다는 취지였다. 남의 잘못에는 서슬퍼런 비판을 쏟아내던 조 후보자는 자신을 둘러싼 많은 의혹에 연일 사과를 하면서도 청문회까지 심기일전해 맞설 것임을 확실히 했다. 조 후보자의 ‘정치무대’였던 페이스북은 청문회를 앞둔 지금 현재도 우회적으로 자신의 억울함을 항변하는 창구로 이용되고 있다. 자녀 고스펙 문제가 제기된 후 잠시 SNS 활동을 중단했던 조 후보자는 오늘 하루에만도 팩트브리핑이라는 주제의 부정입학 의혹이 거짓이란 게시물 등 10건 이상의 관련 링크를 올렸다. 대부분 자신을 둘러싼 의혹에 대해 긍정적으로 말하는 뉴스 등을 퍼나른 것이다. 이런 상황에서 26일 한 매체는 조 후보자의 페이스북에 오직 지지와 성원의 글이 넘쳐나고 있어 포털사이트의 댓글 분위기와는 전혀 다르다고 보도했다. 그렇다면 왜 이렇게 조 후보자의 행보에 대해 포털사이트와 페이스북 간의 간극이 큰 걸까. 일부 보도에서처럼 조 후보자 딸의 논문 및 입시 특혜 의혹 등은 모두 가짜뉴스기 때문에, 또는 진실된 사과로 인해 마음이 누그러진 국민들이 그를 지지하는 양상으로 바뀐 것일까. 조국 법무부장관 후보자 페이스북 응원글 조 후보자의 페이스북을 보면 바로 답이 나온다. 조 후보자의 페이스북에는 일반인이 댓글을 달거나 비난을 하고 싶어도 남길 수가 없다. 페이스북 자체가 게시물의 공개 대상을 전체공개, 친구 공개, 특정 친구 공개, 나만 보기 등으로 구분지을 수 있으며 조 후보자의 페이스북 또한 친구가 아닌 이상 댓글 쓰기가 불가능하기 때문이다. '조국 사퇴 촉구' 촛불 든 서울대생 (사진=연합뉴스) 네티즌들은 "철저히 기존 지인이나 같은 진영사람들 위주로 친구가 맺어져 있어서 악플달고 싶어도 달수가 없다", "친구들만 댓글을 다는데 당연한 것 아닌가. 비판을 할 수가 없지", "민심을 알고 싶다면 댓글 범위를 전체공개로 열어라", "페친만 댓글 쓸 수 있게 조 후보자가 막아놨다" 등의 반응을 보였다. 듣고싶은 말만 듣겠다고 결정한다면 그렇게 설정할 수 있는 것. 그게 SNS 주인장이 가진 권한이다. "원칙과 상식이 지켜지는 나라, 정의가 살아있는 사회를 위해 조국 후보자의 사퇴를 강력하게 촉구한다"는 서울대 후배들의 촛불집회, "가짜뉴스 만드는 기레기들에 휘둘리지말고 끝까지 힘내라. 응원한다"는 페친들의 댓글. 조 후보자를 바라보는 진정한 민심은 어느 지점에 위치하고 있는 것일까. 이미나 한경닷컴 기자 helper@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>삼성 스마트폰, 日서 6년만에 최고 점유율...'갤럭시S10' 인기</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[한국경제TV 이영호 기자] 삼성전자가 올해 2분기 갤럭시S10 시리즈 선전에 힘입어 일본 스마트폰 시장에서 6년 만에 가장 높은 점유율을 기록했다. 시장조사업체 스트래티지 애널리틱스(SA)에 따르면 삼성전자는 2분기 일본 스마트폰 시장에서 60만대를 출하해 점유율 9.8%를 기록했다. 애플(50.8%)에 이은 2위였다. 작년 동기 점유율이 애플 45.6%, 삼성전자 8.8%이었던 것과 비교해서 모두 소폭 올랐다. 애플과 삼성전자에 이어서는 샤프(7.2%), 소니(7.0%) 등 일본 기업이 3∼4위를 차지했다. 샤프는 작년 동기(5.1%) 대비 2.1%포인트 올랐고, 소니는 10.3%에서 3.3%포인트 줄었다. 중국 화웨이는 작년 동기 5.9%(4위)에서 올해 2분기 3.3%(5위)로 점유율이 절반 가까이 하락했다. 삼성전자가 10%에 육박한 점유율을 낸 것은 6년만에 최고치다. 삼성전자는 2013년 중반 일본 스마트폰 시장에서 10% 넘는 점유율을 유지하다 애플과 일본 브랜드에 밀려 2014년 5.6%, 2015년 4.3%, 2016년 3.4%로 점유율이 하락했다. 2017년부터 반등을 시작해 5.2%, 2018년 6.4%로 점유율이 오르는 추세다. 2분기 좋은 성적은 상반기 출시한 플래그십 모델 갤럭시S10 시리즈가 일본에서 인기를 끈 덕으로 보인다. 삼성전자는 지난 3월 전 세계 갤럭시 쇼케이스 가운데 최대 규모인 '갤럭시 하라주쿠'를 개관하면서 현지 스마트폰 시장 공략을 본격화했다. 5G 서비스가 처음으로 본격 적용되는 '2020 도쿄 올림픽'을 앞두고 일본 내 5G 네트워크 사업 확대를 위한 기반을 조성하는 동시에 갤럭시 스마트폰 시장점유율 반등의 계기를 마련한다는 전략이다. 삼성전자는 7월에는 2020 도쿄 올림픽을 기념해 갤럭시S10 플러스 올림픽 에디션을 일본에 출시했다. 이영호기자 hoya@wowtv.co.kr ▶ ▶ ⓒ 한국경제TV, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>삼성디스플레이, QD-OLED 신공정에 국산 장비 도입 검토</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>삼성디스플레이가 차세대 대형 디스플레이 기술인 '퀀텀닷-유기발광다이오드(QD-OLED)' 투자를 앞두고 해외 기업이 독점한 핵심 전공정 공급망을 이원화하기 위해 고심하고 있다. 일본 비중이 절대적인 증착기와 미국이 독점한 무기물 형성 박막봉지 공정에 모두 국내 장비사를 참여시키는 방안을 검토하고 있다. 투자를 공식 결정하고 파일럿 라인을 조성한 뒤 양산 투자로 이어질 때 실제 공급망에 어떤 변화가 있을지 업계 기대가 모아진다. 26일 업계에 따르면 삼성디스플레이는 QD-OLED 파일럿 라인 투자를 준비하면서 해외 장비사가 독점한 일부 장비 공급망에 국내 기업을 참여시키는 방안을 모색하고 있다. 우선 일본에 100% 의존하는 증착기는 국내 장비기업 야스와 물밑 협업이 오가고 있다. 최근 일본 정부의 수출 규제로 제품을 제 때 수급하지 못할 가능성이 거론되면서 야스와 협력 가능성이 부상했다. 기술 준비 과정에서 혹시 모를 일본발 리스크에 대비하려면 핵심 공정에서 공급망을 이원화하는 전략이 필요하기 때문이다. 야스는 LG디스플레이에 8세대 OLED 증착기를 납품하는 핵심 협력사이지만 삼성디스플레이와도 협력할 수 있는 가능성을 열게 됐다. 주 고객사인 LG디스플레이가 경쟁사라도 전향적으로 협업을 장려하는 방침을 세웠기 때문이다. 삼성디스플레이는 6세대 OLED 양산에 일본 캐논도키 증착기를 사용한다. 증착기 핵심인 소스 기술은 삼성이 자체 보유했지만 소스를 제외한 증착기는 캐논도키에서 들여왔다. 캐논도키는 세계 중소형 OLED 증착기 시장에서 입지가 독보적이다. 삼성디스플레이는 6세대에 이어 8세대에서도 캐논도키와 협력하고 있다. QD-OLED에 적합한 증착기를 확보하기 위해 캐논도키에 개발을 의뢰했고 일본 현지에서 기술개발과 시제품 장비 제작이 이뤄지고 있다고 파악된다. LG디스플레이는 지난해부터 핵심 협력사를 대상으로 고객사 확대를 주문했다. 중국은 물론 주 경쟁사인 삼성디스플레이도 고객사로 확보해 매출을 다변화하고 규모의 경제를 실현해 생존 체력을 길러야 한다는 취지의 당부를 했다. 자사와 공동 개발했거나 민감한 세부 기술이 아니라면 굳이 제동을 걸 이유가 없다는 입장이다. LG디스플레이 관계자는 “디스플레이 업황이 어려워져 장비 회사가 고객사를 다변화해야만 생존할 수 있게 됐다”며 “LGD 협력사가 경쟁사에서 실력을 인정받고 우리도 기술력 있는 경쟁사 장비를 사용할 수 있어야 패널사와 장비기업 모두 윈윈하는 길”이라고 설명했다. 경쟁사의 핵심 협력사와 협업하는 것은 업계에서 암묵적으로 형성된 '협력사 교차 구매 금지'라는 높은 울타리를 깨는 것이어서 업계 관심이 크다. 최근 반도체와 디스플레이 시장에서 이 관행을 깨는 사례가 소수 생겨나고 있지만 아직 쉬쉬하는 경향이 크다. 유기물 봉지공정에서 무기막을 형성하는데 쓰이는 화학기상증착(CVD) 장비는 원익IPS가 진입할 가능성이 거론되고 있다. 이 공정은 미국 어플라이드머티어리얼즈가 독점한 분야다. 원익IPS는 반도체·디스플레이 공정에 쓰이는 다양한 기능의 CVD 장비를 공급하는 회사다. 유독 디스플레이 봉지공정에서 어플라이드 장벽을 넘지 못했다. 봉지는 유기물을 수분·공기와 닿지 못하게 얇은 막을 여러번 형성해 씌우는 공정이다. 플렉시블 OLED는 기판이 딱딱한 유리가 아닌 유연한 필름 소재를 사용하므로 봉지공정이 더 까다로워진다. 자칫 봉지막이 손상되면 패널 전체 성능에 악영향을 미치므로 상당한 수준의 기술이 요구된다. 어플라이드가 이 분야에서 강력한 기술 입지를 확보한 만큼 새로운 공급사가 진입하는게 쉽지 않았다. 업계 한 관계자는 “발주사인 삼성디스플레이도 어플라이드 눈치를 볼 수밖에 없을 정도로 공급망 다변화가 민감한 공정”이라며 “원익IPS가 아직 요구 성능을 완전히 충족하진 못했지만 양산 투자 시 진입을 목표로 기술개발에 공을 들이고 있다”고 전했다. 배옥진 디스플레이 전문기자 withok@etnews.com [Copyright ⓒ 전자신문 &amp;amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>삼성, '애플천하' 日 점유율 10%…2013년 이후 최고</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2분기 일본 스마트폰 시장에서 60만대 판매 애플 50%로 압도적 1위지만 현지 업체 모두 제쳐 단 한일 갈등 본격화하기 직전 성적 일본서 아직 출시되지 않은 갤노트10 불매 목소리도 [아시아경제 임온유 기자] 삼성전자가 '애플 천하' 일본 스마트폰 시장에서 갤럭시S10 흥행에 힘입어 6년 만에 가장 높은 점유율을 기록했다. 단 한·일 갈등이 본격화하기 직전인 2분기 성적표다. 26일 시장조사업체 스트래티지 애널리틱스(SA)에 따르면 삼성전자는 지난 2분기 일본에서 스마트폰 60만대를 판매해 점유율 9.8%로 2위에 올랐다. 삼성전자가 10%에 육박하는 점유율을 기록한 것은 2013년 이후 처음이다. 삼성전자는 2013년 일본 스마트폰 시장에서 10% 넘는 점유율을 유지하다 애플과 일본 브랜드에 밀려 2014년 5.6%, 2015년 4.3%, 2016년 3.4%의 점유율로 하락했다. 2017년부터 반등을 시작해 5.2%, 2018년 6.4%로 점유율이 오르는 추세다. 삼성전자의 2분기 우수한 성적표는 갤럭시S10과 중가폰 흥행에 힘입은 것으로 분석된다. 삼성전자는 지난 3월 전 세계 갤럭시 쇼케이스 가운데 최대 규모인 '갤럭시 하라주쿠'를 개관하고 일본 스마트폰 시장 공략을 본격화했다. 5G 서비스가 처음으로 본격 적용되는 '2020 도쿄 올림픽'을 앞두고 일본 내 5G 네트워크 사업 확대를 위한 기반을 조성하는 동시에 스마트폰 시장에서 반전을 일궈낸다는 전략이다. 지난달에는 일본에서 2020 도쿄 올림픽을 기념해 갤럭시S10 플러스 올림픽 에디션을 출시하기도 했다. 다만 2분기는 한·일 갈등이 본격화하기 직전의 시기다. 지난달 아베 신조 일본 총리가 한국에 대한 경제 보복을 시작하면서 양국 관계는 악화일로를 걷고 있다. 한국에서 유니클로, ABC마트 등 일본 브랜드 불매 운동이 격렬하게 벌어지는 가운데 일본에서도 삼성전자를 비롯한 한국 브랜드 불매 운동이 벌어지고 있다. 야후재팬 등 대표 포털 사이트에서는 아직 일본에서 출시되지 않은 갤럭시노트10을 사지 말아야 한다는 목소리까지 나오는 추세다. 이에 3분기 삼성전자의 일본 내 점유율이 변화할 가능성이 제기된다. 임온유 기자 ioy@asiae.co.kr &amp;lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>티슈진, 상장폐지 결정...인보사사태 장기전 돌입</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>거래소 "인보사 성분 허위 기재에 품목 취소" 인정 티슈진 이의신청땐 한차례 더 심의...사실상 3심제 이달중 FDA에 임상 재개 위한 서류제출 총력전 [서울경제] 성분이 뒤바뀐 유전자 치료제 ‘인보사케이주(이하 인보사)’ 사태로 최대 위기에 내몰린 코오롱티슈진이 결국 한국거래소로부터 상장폐지 통보를 받았다. 하지만 최종 상장폐지까지는 최대 2년 이상이 소요되는 만큼 인보사 사태는 사실상 장기전에 돌입했다는 분석이 업계에서 나온다. 이 기간 코오롱 측은 미국 임상3상 재개를 위해 총력전을 펼칠 것으로 전망된다. 한국거래소 코스닥시장본부는 26일 기업심사위원회 심의 결과 코오롱티슈진의 주권 상장폐지를 결정했다고 공시했다. 거래소는 이후 15영업일 이내에 코스닥시장위원회를 열어 코오롱티슈진의 상장폐지 여부를 재차 심의·의결하게 된다. 코오롱티슈진이 예상대로 상장 폐지의 수순을 걷게 됐음에도 인보사 사태가 장기화될 것이라는 전망은 최종 결정까지는 2년이 소요되는 데다 이 기간 동안 코오롱측이 마지막 카드로 내세우는 미국 임상 3상 재개와 식약처와 벌이게 될 품목허가 취소 행정소송에 총력적을 펼칠 수 있기 때문이다. 앞서 인보사는 지난 2017년 1액(동종유래 연골세포)과 2액(TGF-β1 유전자삽입 동종유래 연골세포)으로 시판허가를 받았지만 2액의 성분이 알려진 것과 다르다는 사실이 밝혀져 올 7월 식품의약품안전처로부터 최종 품목허가 취소 처분을 받았다. 이에 거래소는 지난달 5일 티슈진 측이 제출한 서류의 내용 중 중요한 사항이 허위기재 또는 누락됐는지를 살펴보기 위해 상장적격성 실질심사 대상으로 정했다. 티슈진은 5월28일부터 주권매매거래가 정지된 상태다. 업계에서는 티슈진이 기술특례상장 형태가 아닌 외국기업으로 상장한 만큼 상장폐지가 불가피했을 것으로 판단하고 있다. 현행 코스닥 상장규정상 4년 연속 영업적자를 기록하면 ‘장기영업손실’ 규정에 따라 관리종목으로 지정된다. 이후 1년 더 영업적자가 나면 상장폐지 실질심사대상이 된다. 기술심사 특례요건으로 상장하면 5년간 장기영업손실 규정 적용이 면제되지만, 티슈진은 해외기업으로 기술심사 특례요건에 해당하지 않았다. 티슈진은 지난 2017년 454억원, 2018년 340억원의 영업적자를 기록했고, 지난 1분기 역시 114억원 영업적자가 났다. 인보사의 판매 혹은 수출 금액의 2%를 매출로 받게 되는 구조상 티슈진이 올해와 내년 매출을 올릴 수 있는 방법은 사실상 전무하다. 거래소가 기심위 심사결과 티슈진이 상장폐지에 해당한다고 판정한 만큼 코오롱은 최악의 시나리오에 직면했다. 이는 거래소가 티슈진이 성분 변경 등 중요사항을 허위로 기재했다는 식약처의 품목허가 취소 처분을 인정했다는 의미다. 물론 거래소가 이번에 상장폐지라고 결론을 내린다고 해도 곧장 상장폐지가 확정되는 것은 아니다. 다시 코스닥시장위원회를 열어 티슈진의 상장폐지 여부를 심의·의결해야 하기 때문이다. 또 코스닥시장위원회에서 상장폐지 결정이 나더라도 티슈진 측이 이의신청을 하면 한 차례 더 심의를 벌이게 된다. 사실상 3심제를 적용하는 만큼 최종적으로 상장폐지가 결정되기까지는 최대 2년 이상의 시간이 소요될 것으로 전망된다. 티슈진 관계자는 “코스닥시장위 결정 이후 회사 측에서 이의신청을 하면 한 차례 더 심의를 하는 것으로 알고 있다”고 말했다. 코오롱 측은 거래소의 상장폐지 결과에도 마지막 남은 카드인 미국 임상3상 재개에 사활을 걸 것으로 보인다. 인보사의 미국 임상3상 재개 여부가 티슈진의 명운을 가를 핵심변수이기 때문이다. 만약 미국에서 임상이 재개된다면 거래소가 상장폐지를 결정하더라도 추후 심사에 긍정적인 영향을 미칠 수 있다는 판단에서다. 티슈진에 따르면 회사는 이달 중 미국 식품의약국(FDA)에 인보사의 임상3상 재개를 위한 서류를 제출할 예정이다. 티슈진 관계자는 “최대한 이른 시일 내에 서류를 제출할 계획”이라며 “이달 안에 FDA에 서류를 낼 것”이라고 말했다. 다음 문제는 자금력이다. 업계에서는 미국 FDA가 설사 임상 재개를 승인하더라도 코오롱 측이 받게 될 자금 부담은 상당할 것이라는 관측이 나온다. 코오롱 측은 티슈진으로 유입되는 자금으로 미 임상을 진행하기 위해 2017년 11월 티슈진을 코스닥에 상장했다. 지난해 11월부터 시작됐다. 현재 중단된 1,000명 규모의 미 임상3상에서 실제로 인보사를 투여한 환자는 10명가량으로 알려졌다. 통상 임상 과정에서 대상자 1인당 1억원이 소요되는 것을 고려하면 코오롱 측은 상장폐지 심사 기간에 1,000억원 이상의 자금을 별도로 마련해야 한다. 금융감독원에 따르면 티슈진의 누적 손실액은 2016년 645억원이었다가 2017년 인보사의 개발비용이 늘면서 1,116억원으로 두 배 가까이 껑충 뛴 후 지난해 말 1,492억원까지 증가했다. 아울러 진행 중인 검찰 수사와 행정소송 결과도 변수가 될 수 있다. 앞서 서울행정법원은 13일 코오롱생명과학이 식약처를 상대로 낸 인보사의 허가취소 처분 집행정치 가처분 신청을 기각한 바 있다. 검찰은 코오롱 측이 성분이 바뀐 것을 알고도 인보사를 판매하고 티슈진을 상장한 의혹 등을 조사하기 위해 코오롱 본사 등에 대해 압수수색을 벌였지만 아직 수사 결과는 나오지 않았다. 업계 관계자는 “티슈진은 한때 시가총액이 4조원까지 갔던 제약바이오주의 상징과도 같은 종목이었다”며 “거래소가 어떤 심사 결과를 내놓더라도 코오롱 측은 인보사의 임상3상 재개를 위해 사력을 다할 수밖에 없을 것”이라고 말했다. /박홍용기자 prodigy@sedaily.com | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>7월 일본여행 얼마나 안 갔나···"로밍 신청 5만명 급감"</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>통신3사 일본 로밍 이용자 수 따져봤더니 인천국제공항 제1여객터미널 일본행 탑승수속 카운터가 한산한 모습을 보이는 반면 동남아행 탑승수속 카운터는 붐비고 있다./영종도=오승현기자 [서울경제] 지난 7월 일본의 수출 규제 이후 일본 제품 불매 운동이 국내에서 퍼지는 가운데, ‘일본 여행객이 얼마나 줄었나’에 대해서도 사람들의 관심이 많다. 지난달 통신 3사의 일본 로밍 신청자 수를 따져 봤더니 작년 같은 기간보다 14.5%(5만 1,231명) 감소한 것으로 집계됐다. 26일 국회 과학기술정보방송통신위원회 노웅래 위원장(더불어민주당)이 과학기술정보통신부로부터 제출받은 자료에 따르면 지난달 통신 3사의 일본 로밍 신청자는 30만1,285명으로 작년 같은 기간 35만2,516명보다 14.5%(5만1,231명) 줄었다. 이는 전달 일본 로밍 이용자 수(33만2,251명)에 비해서도 7.9%(2만8,422명) 적은 수치다. ‘일본 여행 안 가요’ 운동 여파로 7월 일본 휴대전화 로밍 이용자가 급감한 것으로 풀이된다. 1~7월 일본 로밍 이용자 수도 231만279명으로 작년 같은 기간보다 11.6%(30만3,860명) 줄었다. 지난달 일본 로밍 이용자 수 감소율은 일본을 방문한 한국인 여행자 수 감소율( 7.6%)의 1.91배다. 불매 운동의 여파로 일본 여행자 수가 양적으로 줄었을 뿐만 아니라 방문 기간이 단축되는 등 질적인 차원에서도 변화가 이뤄지고 있다는 해석도 나온다. 노웅래 위원장은 “일본 경제침략에 대응하는 국민적 차원의 자발적 불매운동이 지속되고 있다”며 “과거와는 분명히 다른 양상으로 장기화할 가능성이 크다고 본다”고 말했다. 고노 일본 외무상 / 연합뉴스 /강신우기자 seen@sedaily.com | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>화성서 발견된 돌 ‘롤링스톤스’로 명명…아이언맨·믹 재거 감격</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[서울신문 나우뉴스] 화성서 발견된 돌과 롤링스톤스 무대에 올라 연설 중인 로버트 다우니 주니어. 사진=AP 연합뉴스 골프공보다 약간 큰 화성의 돌에 전설적인 록그룹 롤링스톤스(The Rolling Stones)의 이름을 따 '롤링스톤스'(Rolling Stones Rock)라는 재미있는 이름이 붙었다. 특히 롤링스톤스라는 이름을 명명하는 이벤트를 '아이언맨' 로버트 다우니 주니어가 맡아 큰 화제가 됐다. 공연 중인 롤링스톤스. 사진=AP 연합뉴스 지난 23일(현지시간) AP통신 등 외신은 전날인 22일 캘리포니아주 패서디나 로즈볼 스타디움에서 열린 롤링스톤스의 특별공연에서 롤링스톤스 명명식이 열렸다고 보도했다. 이 돌은 지난해 화성 탐사선 인사이트에 의해 처음 발견된 화성의 암석이다. 흥미로운 점은 인사이트의 자체 추진력 때문에 약 1m 정도 굴러갔다는 점. 이같은 이유로 말 그대로 화성의 돌은 롤링스톤이 됐다. 로버트 다우니 주니어와 인사이트 미션 담당 과학자들 이날 특별공연 무대에 등장한 다우니 주니어는 "과학과 전설적인 록밴드의 만남은 항상 좋은 일"이라면서 "이 이름을 공식화하는 데 이미 6만 명이나 찬성 투표했다”며 너스레를 떨었다. 롤링스톤스 명명에 가장 감격한 사람은 역시 리더 믹 재거(76)였다. 그는 "이번 투어를 축하하는 가장 멋진 방법"이라면서 "이는 우리 밴드의 길고 파란만장한 역사에서도 획기적인 사건으로 미 항공우주국(NASA)의 모든 분들께 감사드린다"며 기뻐했다. NASA 제트추진연구소 지질학자 맷 골롬벡은 “그간 수많은 다른 행성의 암석을 봐왔지만, 이번에 명명된 암석은 어떤 과학 논문에도 존재하지 않는 특별하고 가장 차가운 암석”이라며 의미를 부여했다.　　 지난해 12월 공개된 인사이트의 첫번째 셀카. 사진=NASA/JPL-Caltech 한편 지난해 11월 26일 화성 적도 인근 엘리시움 평원(Elysium Planitia)에 무사히 착륙해 탐사를 이어가고 있는 인사이트는 기존 화성 탐사로봇과는 다르다. 이제까지의 탐사로봇들이 주로 화성 지표면에서 생명의 흔적을 찾는 임무를 수행했다면 인사이트는 ‘땅파기’를 통해 화성 내부를 들여다보기 때문이다. 특히 지난 4월 인사이트는 화성 지진(marsquake)일 가능성이 높은 희미한 진동을 처음으로 포착하는데 성공했다. 박종익 기자 pji@seoul.co.kr ★ ▶ ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>제주도·남부는 ‘가을장마’…최고 300mm 비</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[앵커] 중부지방은 오늘도 30도 안팎의 늦더위가 계속됐는데요. 제주도와 남부지방은 '가을장마'에 들어가면서 모레까지 최고 300mm의 많은 비가 예보됐습니다. 신방실 기상전문기자가 보도합니다. [리포트] 오늘 새벽, 세찬 빗줄기 속에 호우주의보까지 내려졌던 제주도. 낮 동안 주춤했던 비는 다시 굵어지면서 남해안으로 확대되겠습니다. 내일은 남부 내륙과 충청 남부에도 비가 오겠고 모레까지 제주도에 최고 300 이상, 전남 남해안에도 많게는 100mm의 비가 예보됐습니다. 장마철이 지났는데도 남부에 비가 이어지는 것은 '가을장마', 즉 '2차 장마' 때문입니다. 위성영상을 보면 우리나라 남해상에 동서로 발달한 거대한 구름대가 보입니다. 북서쪽 찬 공기와 남쪽 더운 공기 사이에 또다시 정체전선이 만들어진 건데, 어제 중국에서 소멸한 11호 태풍에서 수증기까지 더해져 비구름의 세력이 강해지고 있습니다. [우진규/기상청 예보분석관 : "앞으로 이 정체전선에 동반된 비구름대는 점차 북상하면서 모레까지 제주도와 남해안을 중심으로 시간당 30mm 이상의 매우 강한 비가 내릴 것으로 예상됩니다."] 여름에서 가을로 계절이 바뀌는 지금 시기엔 찬 공기와 더운 공기의 충돌이 더 강해져 폭이 좁은 비구름이 폭발적으로 발달할 수 있습니다. 제주와 남해안을 중심으로 목요일까지 많은 비가 예보된 만큼 막바지 폭우 피해가 없도록 철저한 대비가 필요합니다. 가을장마를 불러온 정체전선은 다음달 초까지 제주도와 남부지방에 비를 뿌리겠다고 기상청은 내다봤습니다. KBS 뉴스 신방실입니다. 신방실 기자 (weezer@kbs.co.kr)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>“공인인증서 폐지..29일, 전자서명 신기술 한자리에”</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>과기정통부, 최신 전자서명 우수사례 설명회 개최 금결원(브라우저), 카카오(페이연동), SKT·아이콘루프(블록체인) 등 다양 [이데일리 김현아 기자] ▲행사 참여 신기술 전자서명 서비스 소개(출처: 과기정통부) 과학기술정보통신부(장관 유영민)가 ‘신기술 전자서명 우수사례 설명회’를 29일 오후 2시, 서울 여의도 켄싱턴호텔에서 개최한다. 이 설명회는 정부의 공인인증서 제도 폐지 방침에 따라 현재 적용 중이거나 적용 예정인 다양한 신기술 전자서명 서비스를 일반 국민과 공공·민간기관 관계자에게 소개해 관련 산업을 활성화하기 위해 마련됐다. 생체인증, 블록체인, 클라우드 등 신기술을 활용한 자사의 최신 전자서명서비스의 특장점을 소개할 예정이다. 금융결제원, 카카오, 한국전자인증, 예티소프트, 아톤, 한국정보인증, 위즈베라, SKT, 시큐브, 라온시큐어, 코스콤, 아이콘루프 등 12개 사업자가 참여한다. 주요 발표 내용으로는 △ 금융결제원의 브라우저 및 클라우드 인증서비스와 △ 모바일 메신저 카카오톡 기반의 카카오페이 인증서비스, △ 한국전자인증의 클라우드 전자서명과 브라우저 전자서명, △ 예티소프트의 웹표준(HTML5) 방식 간편인증 및 간편서명 솔루션 등이 있다. 또 △ 국내은행에 적용 중인 아톤의 간편 전자서명 솔루션 △ 블록체인 기술을 적용한 한국정보인증의 온라인 전자계약서비스, △ 의료분야에 적용 예정인 위즈베라의 간편 전자서명서비스, △ SK텔레콤의 블록체인 기술을 활용한 자기주권형 모바일 전자증명서비스가 소개된다. 아울러 △ 시큐브의 생체 수기서명 인증 기반 전자서명, △ 병무청 민원포털에 적용 예정인 라온시큐어의 블록체인 기반 전자서명 △ 코스콤의 공인·사설 통합인증서비스, △ 아이콘루프의 블록체인 기반 디지털 신원확인·전자서명서비스 등 다양한 기술·서비스를 발표하고, 현장에서 직접 체험할 수 있는 부스를 운영할 예정이다. 과기정통부 오용수 정보보호정책관은 “이번 설명회에서 소개되는 다양하고 편리한 전자서명서비스가 국민들에게 많이 알려지고 시장에 확산될 수 있도록 국회 계류 중인 전자서명법 전부개정안의 조속한 통과를 기대한다”면서 “그렇게 되면, 전자서명시장에 기술·서비스 경쟁이 보다 활성화되어 국민들에게 다양한 인증수단 선택권을 제공하는 등 인터넷 이용환경이 크게 개선될 것으로 전망된다”라고 밝혔다. □ 개 요 o (목적) 정부의 전자서명제도 개편방향에 따른 시장의 다양한 신기술 전자서명서비스 우수사례에 대한 대국민 홍보의 장 마련 o (일시·장소) ’19.8.29(목) 14:00~17:30, 여의도 켄싱턴호텔(15층, 180석 규모) o (행사내용) 신기술 전자서명 우수사례(적용예정 포함) 소개 및 시연 o (주최·주관) 과학기술정보통신부·한국인터넷진흥원(후원:한국전자서명포럼) o (참석자) 전자서명 관련 업계, 공공·민간 수요기관, 언론 등 김현아 (chaos@edaily.co.kr) 네이버 홈에서 ‘이데일리’ 뉴스 꿀잼가득 , 청춘뉘우스~ ＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp;amp; 재배포 금지＞</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>“S와 다른 새 노트”…삼성 고민 묻어 나오는 갤노트10</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>갤럭시노트10 써보니 갤럭시노트10(왼쪽)은 화면을 둘러싼 테두리 두께를 최소화해 갤럭시노트8과 동일한 크기의 디스플레이를 유지하면서도 전체 크기가 훨씬 작아졌다. 맹하경 기자 ‘노트 맞아?’ 지난 23일 국내에 정식 출시된 삼성전자 ‘갤럭시노트10’(일반형ㆍ화면 6.3인치)을 손에 들었을 때 첫 느낌이다. 갤럭시노트 시리즈는 삼성의 프리미엄 대화면 제품군임에도 노트10은 유독 가볍고, 얇았다. 손이 작은 여성도 한 손에 쏙 쥘 수 있어 노트보다 작은 화면의 갤럭시S 시리즈 못지 않은 느낌을 줬다. 동시에 노트에만 있는 S펜은 카메라 등을 원격으로 조종하는 기능을 강화했다. S펜으로 기존 갤럭시S와의 차별점을 부각하면서도 기존 갤럭시노트에선 찾기 힘들었던 얇고 가벼운 디자인에는 전작들과는 다른, 새로운 스마트폰을 보여주려 했던 삼성의 고민이 담겨 있었다. 이번 갤럭시노트10 디자인을 표현하는 한 단어로는 ‘미니멀리즘’이 어울렸다. 디스플레이를 둘러싼 테두리(베젤)를 최소화했고 이어폰을 꽂는 단자도 없앴으며, 본체 오른쪽에 있던 전원 버튼도 왼쪽으로 옮겨 우측에는 버튼을 한 개도 남기지 않았다. 갤럭시노트10 디자인을 총괄한 강윤제 삼성전자 무선사업부 디자인팀장(전무)은 “‘갤럭시노트9’, ‘갤럭시S10’과도 차별화할 수 있도록 불필요한 부분은 극단적으로 다 없앴다”고 밝힌 바 있다. 갤럭시노트10(아래) 해상도가 갤럭시노트8(위)보다 낮아 같은 밝기에도 전체적으로 어둡고 명암 차이도 잘 드러나지 않는다는 것을 알 수 있다. 맹하경 기자 베젤을 최대한 줄인 덕분에 본체 전체 크기는 ‘갤럭시노트8’(6.3인치)보다 훨씬 작아졌지만 꽉 찬 6.3인치 화면은 그대로 유지할 수 있었다. 무게는 168g에 불과해 노트8(195g), 노트9(201gㆍ6.4인치)보다 훨씬 가벼웠다. 다만, 해상도는 많이 아쉬웠다. 중저가 제품군인 ‘갤럭시S10e’와 같은 2,280×1,080 해상도 때문에 기존 노트보다 전체적으로 어둡고 명암이 제대로 구분되지 않았다. 노트10의 S펜은 앞으로 원격 조종 기능이 더 다양해질 수 있다는 가능성을 보여주는 수준이었다. S펜을 쥐고 움직이는 동작을 카메라가 인식해 전ㆍ후면 카메라 전환, 카메라 모드 변경, 줌인ㆍ줌아웃 등이 가능했다. 하지만 손가락 터치 한번이면 되는 일을 S펜을 쥐고, 버튼을 누르고, 동작을 하는 세 단계까지 늘려야 하기 때문에 카메라를 멀리 두고 찍어야 하는 등 특수한 상황이 아니라면 사용성은 제한될 것으로 보인다. 갤럭시노트10의 'AR 두들' 기능으로 사물을 찍고 있는 화면 위에 이미지를 덧입히면 이미지가 해당 사물을 인식해 따라다니는 콘텐츠를 만들 수 있다. 맹하경 기자 S펜을 활용하는 새 기능이자 노트10의 주요 고객층을 알 수 있는 건 단연 ‘AR(증강현실) 두들’이었다. AR 두들은 카메라를 켠 채로 영상이나 사진을 찍으면서 S펜으로 자유롭게 이미지를 덧입힐 수 있는 기능이다. 사람의 얼굴이나 공간을 인식하기 때문에 덧입힌 이미지가 인식한 사람 얼굴, 사물을 쫓아다니게 된다. 나만의 사진, 영상 콘텐츠를 소통의 수단으로 활용하는 밀레니얼 세대를 공략하려는 전략임을 알 수 있다. 기존 갤럭시노트 시리즈 주 사용자가 남성 중·장년층 고객들이었다면 이번 제품에선 밀레니얼 세대와 여성 고객들까지 포섭하려 한다는 게 업계의 분석이다. 이동통신 3사 중 유일하게 붉은 색상을 단독 판매하며 일반형 판매에 주력 중인 KT 측은 “일반형 예약 구매자 중 절반이 여성으로 기존 노트 시리즈 여성 사용자 평균인 40%를 훌쩍 넘겼고, 노트9 때보다 20대 구매자 비중도 25% 이상 늘었다”고 밝혔다. 맹하경 기자 hkm07@hankookilbo.com ▶</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>중국 디디추싱, '한국행' 준비 중</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>중국 모빌리티 기업 디디추싱이 한국 진출을 검토하고 있다. 8월26일 업계에 따르면 디디추싱은 올해 초부터 국내 업체들을 만나 한국내 모빌리티 사업을 논의해왔다. 국내 규제 상황에 따라 이르면 내년 상반기 본격적으로 한국 시장에 뛰어들 가능성도 있는 것으로 알려졌다. 디디추싱은 ‘카카오택시’처럼 택시호출을 중개하는 방식으로 국내 진출을 검토하고 있다. 브이씨엔씨(VCNC) ‘타다 베이직’처럼 자체 서비스를 하는 것이 아니라, 한국의 기존 택시산업을 최대한 활용한다는 방침이다. 구체적인 운영 형태는 정해지지 않았다. 국내 모빌리티 시장은 초기 단계다. 여물지 않은 시장임에도 디디추싱이 한국행을 고려한 이유는 폭넓은 시장을 확보하기 위해서다. 2012년 중국에서 설립된 디디추싱은 중국 시장 점유율 90%를 확보하고 있다. 이용자 수만 4억명 이상. 미국 시장조사업체 CB인사이트에 따르면 기업가치는 560억달러(약 67조원)에 달한다. 전세계 1천개 도시에 진출하며 중국 바깥으로 영향력을 빠르게 확대해가고 있다. 디디추싱이 한국에 진출하는 또 다른 유인은 중국인 관광객이다. 한국관광공사에 따르면 한국을 찾는 외국인 관광객의 국적은 중국이 압도적이다. 지난달 한국을 방문한 중국인 관광객만 51만9132명에 이른다. 디디추싱과 접촉한 투자전문업체 관계자는 “한국에서 수익성을 보고 있다거나 큰 이점이 있어 진출하려는 것은 아니다”라면서도 “중국인 여행객이 제일 많은 시장이고, 중국인도 한국에 와서 디디를 찾기 때문에 수요는 있다”라고 귀띔했다. 이에 따르면 국내 진출 초반 중국인 관광객을 대상으로 수요를 확보하고 이후 국내 승객을 단계적으로 공략하는 전략을 취할 가능성이 있어 보인다. 다만 디디추싱은 규제의 불확실성을 우려하고 있다. 올해 초만 해도 연내 한국 진출을 염두에 뒀지만, 택시산업과 모빌리티 업계 갈등을 지켜보며 한 발 물러선 상태다. 내년 상반기로 진출 시기를 미룬 이유도 이 때문이다. 국토부가 지난달 발표한 ‘택시제도 개편방안’이 구체화되기 전까지는 신중을 기할 전망이다. 투자전문업체 관계자는 “사실 디디추싱은 한국 시장 자체가 작기도 하고, 굳이 이 시점에 들어와야 하는지 망설이고 있다”라며 “초반에는 활발하게 논의했지만 (내부적으로) 검토하다 보니 굳이 빨리 (진출)해야 하느냐는 의문이 있는 것”이라고 말했다. [새소식] 기사 내용과 관련해 디디추싱 측 입장을 다음과 같이 덧붙입니다. 디디추싱 대변인은 이메일을 통해 &amp;lt;블로터&amp;gt;에 "일련의 보도는 정확하지 않은 것으로, 한국에는 (진출) 의도가 없다"라는 입장을 밝혔다. Thank you for getting in touch. Those media reports are inaccurate. DiDi has no such intention in Korea. Please attribute this to DiDi or DiDi spokesperson. - 업데이트 2019년 8월26일 오후 7시15분 김인경 기자(shippo@bloter.net) ▶ ▶ 저작권자 ⓒ(주)블로터앤미디어, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>"군 병사 월평균 데이터 38GB 사용"..일반인보다 4배 많아</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>군장병 요금제 사실상 무제한 데이터이기 때문 와이파이 없는 군대 환경도 영향 일반인 LTE는 월평균 9.6GB 사용 고립감 줄었지만 일탈 행위도..방통위·국방부 윤리교육 SKT ‘0히어로’ 12만 돌파, 군 병사 가입자 수 1위 [이데일리 김현아 기자] SK텔레콤 홍보모델들이 ‘0히어로’ 흥행 기념으로 이벤트 당첨자들에게 제공할 푸드트럭과 각종 선물을 소개하고 있는 모습이다 SK텔레콤 제공 올해 4월부터 스마트폰 사용이 전 군 장병 대상으로 확대되면서 이동통신사와 알뜰폰 회사들이 군 병사를 대상으로 하는 LTE 요금제를 잇따라 출시했다. 병사들도 평일 오후 6시에서 10시, 휴일은 아침 7시부터 밤 10시까지 부대 안에서 보안 취약 구역을 제외하고는 스마트폰을 쓸 수 있게 된 것이다. 군인들은 한 달에 데이터를 얼마나 쓸까. 언뜻 보기에는 일반인들보다 적게 쓸 것 같지만 결과는 달랐다. ◇군인 월평균 38GB, 일반인은 9.6GB..데이터 혜택, 와이파이가 없기 때문 지난 4월 군 병사 전용 요금제 ‘0히어로’를 출시한 SK텔레콤에 따르면 군 병사들의 월평균 데이터 사용량은 38GB나 됐다. 이는 과학기술정보통신부의 2019년 6월 무선데이터 트래픽 통계기준상 LTE 일반인 평균 사용량(9.6GB)의 4배에 달하는 수치다. 이는 통신사들이 내놓은 군인 대상 요금제가 사실상 무제한에 가까운 데이터 혜택을 주기 때문으로 보인다. 군대에는 와이파이가없어 이를 고려해야 한다는 평가도 있다. 현재 가입자 12만 명을 모아 군 병사 요금제 중 1위를 기록한 ‘0히어로’만 봐도 일반 요금제보다 데이터 혜택이 풍성하다. ‘0플랜 히어로(월33,000원)’는 기본 제공량 6GB(+1Mbps 속도제어) 이외에도 평일 18~22시와 휴일에 매일 2GB(+3Mbps 속도제어)를 무료로 제공하며, ‘0플랜 슈퍼히어로(월55,000원)’는 기본 제공량 100GB(+5Mbps 속도제어)와 VIP 멤버십 등급 등의 추가 혜택을 준다. 월 3만 원 대 요금제에 가입해도 군인들이 많이 쓰는 평일 저녁이나 휴일에 2GB씩 무료로 주니 병사들의 데이터 사용량이 큰 폭으로 증가한 것이다. 이는 다른 이통사들도 마찬가지다. 실제로 병사들은 일과가 끝난 평일 18~22시와 휴일에 집중적으로 스마트폰을 이용하고 있으며, 특히 평일보다 휴일에 데이터 사용량이 많았다. ‘0플랜 히어로’에 가입한 군 병사들의 일평균 데이터 사용량은 평일 18~22시 0.65GB, 휴일 1.77GB를 기록했다. ◇고립감 줄었지만 일탈 행위도..방통위·국방부 윤리교육 일각에선 우려의 시선도 있다. 군인들이 너무 많이 스마트폰을 보지 않을까 하는 우려다. 군인들도 개인 여가는 필요하고 고립감이 줄어 군 생활에 도움이 되기도 하지만, 휴대전화를 이용해 불법도박을 하는 등 일탈 행위도 발견되고 있다. 이에따라 국방부와 방송통신위원회는 군 장병 대상 인터넷 윤리교육을 진행하고 있다. 방송통신위원회와 국방부가 군 장병들에게 건전한 인터넷 윤리문화를 정착시키기 위해 5월 24일 국방부에서 업무협약(사진. 방통위)을 체결하고 인터넷 윤리 시범교육을 실시했다. 왼쪽부터 이효성 방송통신위원장과 정경두 국방부장관이다. 방통위 제공 ◇택시할인, 무료 쿠폰 등 인기..SKT 푸드트럭 이벤트 중 한편 SK텔레콤에 따르면 ‘0히어로’가 제공하고 있는 군 생활 맞춤 혜택도 꾸준히 인기다. 휴가, 외박 시에 유용한 T맵택시 10% 할인 혜택은 현재까지 6천명이 이용할 정도로 반응이 좋다. ‘0(영)한동’ 앱에서 제공하는 무료 쿠폰 이용자는 누적 3만명을 넘었다. SK텔레콤은 지난 7월 ‘0히어로’ 흥행 기념으로 군 생활 응원 메시지 모집 이벤트를 진행했으며, 이번 달부터 당첨자들을 직접 찾아가 푸드트럭과 POOQ/FLO 이용권 등 각종 선물을 제공하고 있다. 방문 이벤트는 9월까지 진행될 예정이다. 한명진 SK텔레콤 MNO사업지원그룹장은 “군 병사들의 통신 혜택을 강화하기 위해 넉넉한 데이터와 다양한 생활 맞춤 혜택을 제공했던 것이 흥행 요인”이라며 미래 고객인 군 병사들에게 더 좋은 혜택으로 보답할 것”이라고 강조했다. 김현아 (chaos@edaily.co.kr) 네이버 홈에서 ‘이데일리’ 뉴스 꿀잼가득 , 청춘뉘우스~ ＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp;amp; 재배포 금지＞</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>[위클리 스마트] 갤노트10 기본·플러스 모델 뭐가 다를까 "실제 써보니…"</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>"화면 크기 외 사양 차이는 체감 적어"…KT 레드·SKT 블루 컬러 매력 (서울=연합뉴스) 채새롬 기자 = 23일 출시된 갤럭시노트10 기본 모델과 플러스 모델을 며칠간 사용해 본 느낌은 기존 팬층은 물론 그동안 노트 시리즈를 써보지 않은 사용자에게도 매력 어필이 되게끔 화면 크기가 잘 나뉘었다는 것이다. 갤럭시노트10(좌측)과 갤럭시노트10플러스[촬영 채새롬] 갤럭시노트10은 시리즈 처음으로 6.3인치 일반 모델과 6.8인치 플러스 모델로 나뉘어 나왔다. 플러스 모델이 기존 노트 팬층을 공략한 모델이라면 일반 모델은 컴팩트한 사이즈를 좋아하는 소비자를 노린 모델이다. 두 모델은 화면 크기 외에도 화면 해상도 차이, 저장 용량 옵션 차이, ToF 카메라 유무 등 스펙에서 차이 나지만, 실제 사용할 때 화면 크기 외에 특별히 느껴지는 사양 차이는 없었다. 램 용량(12GB)·칩셋이 같고, S펜 에어액션 등 신기능을 동일하게 이용할 수 있기 때문이다. 일단 일반 모델은 한 손에 쏙 들어오는 사이즈가 가장 큰 장점이다. 기존 갤럭시노트 시리즈는 크고 둔탁해 보여 '아저씨폰' 느낌이 강했는데 일반 모델은 손이 작은 기자도 휴대가 편리하고 가벼워 매력적이었다. 화면 크기가 6.3인치로 절대적인 크기도 작지 않다. 플러스 모델이 WQHD(2960×1440) 해상도를 지원하는 데 비해 일반 모델이 FHD+(2220×1080)를 지원한다는 스펙 차이가 존재하긴 하지만 '막 눈'인 기자에겐 차이를 느끼지 못하는 수준이었다. 아이패드 미니5(위쪽)와 갤럭시노트10플러스로 재생한 동영상[촬영 채새롬] 일반 모델과 구별되는 플러스의 장점 역시 화면 크기다. 노트 필기를 좋아하는 사용자라면 더 넓은 화면을 자유롭게 쓸 수 있는 플러스 모델의 이점이 분명하다. 화면 크기가 커지다 보니 동영상 등 콘텐츠를 볼 때도 몰입감이 확 높아졌다. 아이패드 미니 5와 유튜브에서 같은 영상을 틀어봤더니 플러스 모델과 아이패드 미니에서 각각 재생되는 영상의 체감 크기는 큰 차이가 없었다. 아이패드 미니 화면이 7.9인치로 더 크지만, 아이패드에서는 유튜브 영상이 화면 비율에 맞게 축소되는 데 비해 갤럭시노트10에서는 영상을 베젤 끝까지 확장해서 꽉 채운 화면으로 볼 수 있기 때문이다. 카메라 측면에서는 기본 모델과 트리플 카메라 구성이 동일하고, ToF 카메라를 사용해 쓸 수 있는 전용 기능도 많지 않아 구별되는 이점을 크게 느끼지 못했다. 화면 크기를 기본으로 고려한 뒤 용량 차이, ToF 카메라로 이용할 수 있는 3D 스캐너 기능이 필요한지를 추가로 검토해서 일반 모델을 구매할지 플러스 모델을 구매할지 선택하면 될 것 같다. 갤럭시노트10 레드와 갤럭시노트10플러스 블루[촬영 채새롬] 특히 이번 갤럭시노트10 시리즈는 국내에서는 KT가 기본 모델 '레드'를, SK텔레콤이 플러스 모델 '블루'를 전용 색상으로 제공하는데, 색상도 선택의 이유 중 하나가 될 수 있겠다는 생각이 들었다. 두 색상 모두 글라스를 기본으로 한 빨간색, 파란색인데, 쨍하면서도 차분한 느낌이 있어 색깔이 오묘하고 매력적이다. 빛이 반사될 때마다 총천연색을 발하는 시그니처 컬러 '아우라 글로우'와는 확실히 다른 매력이 있다. 링크 투 윈도 기능[촬영 채새롬] 이밖에 직접 사용할 때 눈에 띈 기능 중 하나는 노트 시리즈에 새로 추가된 '링크 투 윈도'다. 마이크로소프트 계정을 폰과 윈도우10 PC에서 로그인한 상태로 PC의 마이크로소프트 스토어에서 '사용자 휴대폰' 앱을 내려받으면 내 갤럭시노트10의 사진, 알림, 문자메시지를 한눈에 볼 수 있다. 카카오톡을 기본 메신저로 PC와 연동해 쓰다 보니 휴대폰으로 오는 문자 메시지를 놓치는 경우가 많았는데, 문자가 올 때마다 PC에 알림을 주고 바로 답장을 할 수 있게 돼 있어 편리했다. 그동안 폰에서 찍은 사진을 공유하려면 USB를 연결하거나 메신저로 공유하는 등 과정을 거쳐야 했는데 갤럭시노트10으로 찍은 사진을 실시간으로 컴퓨터로 볼 수 있다는 점도 좋았다. 언팩 행사 당시 잠깐 써봤을 때 적응하기 어려웠던 S펜의 에어 액션은 하루 정도 사용하니 손에 익었다. S펜의 버튼을 눌렀다 떼는 시점을 체득하는 것이 적응의 포인트였다. 다만 상하좌우로 움직이는 것은 용이했지만, 시계 방향이나 반시계방향으로 돌리는 것은 며칠이 돼도 적응되지 않았다. 사진 촬영 시 줌 인, 줌 아웃 등은 좀처럼 동작 인식이 되지 않아 손으로 하는 게 더 마음이 편했다. S펜으로 쓴 손글씨를 텍스트로 바꿔주는 기능은 정확한 글자 인식이라고 하기에는 미흡하지만, 초벌 변환 용도로는 충분한 수준이다. srchae@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>지구상 최고 빌딩 크기 ‘소행성’ 다가온다…다음달 14일 스친다</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[서울신문 나우뉴스] 지구에 접근하는 소행성 상상도 지구상에서 가장 높은 빌딩 높이에 맞먹는 소행성이 지구를 향해 날아오고 있다. 미 항공우주국(NASA)에 따르면, 아랍에미리트 두바이에 위치한 세계에서 가장 높은 건물인 부르즈 할리파의 높이와 거의 비슷한 소행성이 한 달 안에 지구로 접근할 것이라고 한다. 부르즈 할리파의 높이는 얼마나 될까? 전체 높이는 829.84m이다. 한국의 삼성물산이 시공사로 참여해 건축한 이 초고층 건물은 마지막 층이 160층으로 높이 630m이며, 나머지 부분은 첨탑이다. '2000 QW7'로 불리는 이 소행성은 지름이 290~650m 사이로, 부르즈 할리파보다는 약간 작지만, 이제껏 지구 근처를 지난 여느 소행성에 비해서는 엄청난 덩치를 자랑한다. 참고로, 6600만 년 전 멕시코 유카탄 반도 북부 칙술루브에 떨어져 공룡을 멸종시킨 소행성의 지름은 12㎞였다. 미국 캘리포니아 패서디나에 있는 제트추진 연구소의 한 부서인 지구근접물체연구센터(CNEOS·Center for Near Earth Object Studies)에 따르면, 소행성 2000 QW7는 9월 14일(현지시간) 우리의 푸른 행성 지구 옆을 스쳐지나갈 것으로 예상된다. CNEOS에 따르면, 이 소행성이 지구를 위협할 만한 거리까지 접근하지는 않을 것으로 보인다. 소행성의 속도는 지구에 의해 가속되어 시속 2만3100㎞, 초속으로는 6.4㎞에 달하는 엄청난 속도에 이를 것으로 예측되지만, 지구에 가장 근접할 때의 거리는 약 530만㎞로, 이는 지구-달 사이 거리의 약 14배에 이른다. 그러나 우주적인 척도로 보자면 거의 스치듯이 지나간다는 표현이 과장은 아니다. 지구-태양 간 거리 1억 5000만㎞를 1천문단위(AU)라 하는데, 지구 근처를 지나는 소행성 등의 천체가 지구와의 거리가 1.3AU 이내에 들면 지구 근접 천체로 간주된다. 소행성 2000 QW7은 지구와 마찬가지로 태양을 공전한다. 그러나 궤도는 지구 궤도와 산발적으로 교차한다. 제트추진 연구소에 따르면, 이 소행성이 지구에 마지막으로 접근한 때는 2000년 9월 1일이다. 오는 9월 14일 이후 다음 번 지나칠 것으로 예상되는 시간은 19년 후인 2038년 10월 19일로 예측된다. 이광식 칼럼니스트 joand999@naver.com　 ★ ▶ ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>조국 딸 "3주간 인턴했다더니"…정부 연구기관 기록엔 '닷새짜리 결석생'</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>정부 출연연 KIST 단기연수 지원하고 5일만에 그만 둬 조씨 자소서에는 "3주간 인턴근무하며 실험 준비" 밝혀 조국 법무부 장관 후보자가 23일 오후 서울 종로구 적선현대빌딩에서 논란이 일고 있는 사모펀드와 사학재단 웅동학원을 사회에 환원하겠다고 밝히고 있다. 2019.8.23/뉴스1 © News1 안은나 기자 (서울=뉴스1) 최소망 기자 = "3주간 인턴으로 근무하면서 성인병 관련 약물 실험을 준비했다." 조국(54) 법무부 장관 후보자의 딸 조모(28)씨가 부산대 의학전문대학원 입학 전형에 제출한 자기소개서에 밝힌 한국과학기술연구원(KIST) '3주간 인턴십' 경력이 실은 '닷새짜리 결석생'의 허위 스펙인 것으로 드러나 논란이다. 정부출연연구기관인 KIST에서 당시 조국 딸을 담당했던 한 관계자는 25일 &amp;lt;뉴스1&amp;gt;과의 통화에서 "10년 가량 지나서 잘 기억이 나진 않지만 잘 나오지 않았던 것으로 기억한다"며 "5일 정도 나왔다"고 말했다. 조 후보자의 딸 조씨는 지난 2010년 고려대 환경생태공학부에 입학했다. 이후 2011년 7월 KIST에 '단기연수프로그램'으로 인턴 근무를 시작했다. 1개월 간의 정규 과정이었다. 실제로 조씨가 한 유료 논문 판매 사이트에 올리면서 드러난 부산대 합격 자기소개서에도 "3주간 인턴으로 근무했다"고 기록돼있다. 하지만 KIST의 기록에 따르면 조씨가 연구실에 나온 기간은 2011년 7월 18일부터 22일까지 총 5일에 불과하다. 당시 조씨를 담당한 KIST 관계자는 "5일 정도 나온 것으로 기억한다"면서 "최근에 그 아이가 그 아이(조국 딸)이라는 것을 알고 놀랐다"고 말했다. 또 다른 관계자도 "당시 학생이 며칠 만에 본인 의지로 하기 싫다면서 나간 것으로 알고 있다"고 설명했다. 나라에서 지원하는 1달짜리 단기연수프로그램에 참여해 5일만 참가하고는 대학 자기소개서에는 "3주간 참가했다"고 부풀린 것이다. 결석으로 얼룩진 단기연수프로그램이 의학전문대학원 입학을 위한 스펙으로 포장됐다는 지적이 나온다. KIST 관계자는 "KIST가 국가 연구기관인 만큼 어린 학생들에게 대학원을 진학하거나 취업할 때 이런 곳이 있다는 것을 알리기 위해 인턴제도 등을 많이 도입하고 있다"며 "(조씨가 참여한 단기연수프로그램도) 그 일환이었다"고 설명했다. 이 과정에서 누군가는 기회를 박탈당했을 우려도 제기된다. 한 청년 과학자는 "누군가에게는 소중한 기회이거나 한번밖에 없는 기회일 수도 있었는데 다른 사람이 기회를 박탈당한 게 아닐지 조금 안타깝다"고 털어놓았다. somangchoi@news1.kr [© 뉴스1코리아(), 무단 전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>이통요금 25% 할인 가입자 2천500만명 돌파…5G 후 증가세 둔화</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>약정할인 월평균 가입자 5G 상용화 전 72만명→상용화 후 54만명 LGU+ 선택약정할인 위약금 경감 개시일 타사보다 4개월 늦어 (서울=연합뉴스) 최현석 기자 = 이동통신 가입 때 통신사의 공시지원금 대신 25% 요금할인을 선택한 가입자가 2천500만명을 넘어섰다. 25일 과학기술정보통신부와 통신업계 등에 따르면 휴대전화 요금이 25% 할인되는 선택약정할인 가입자는 지난달 말 현재 2천511만명을 기록했다. 2017년 12월 560여만명에서 작년 말 2천77만명으로 급증한 데 이어 7개월간 추가로 434만명 늘었다. 25% 요금할인 가입자가 19개월 새 4.5배로 급증한 것은 2017년 9월 요금할인율이 20%에서 25%로 상향된 이후 공시지원금을 받고 통신사를 바꾸기보다 기존 통신사의 요금할인을 선택하는 가입자가 늘었기 때문으로 분석된다. 다만 지난 4월 5세대(5G) 이동통신 상용화 후에는 증가세가 둔화하는 양상이다. 월평균 요금할인 가입자는 1~3월 72만명이었지만 5G가 상용화된 3~7월에는 54만명으로 감소했다. 통신사들이 5G 활성화를 위해 공시지원금을 최고 70만원대로 높여 최고 40만원대인 25% 요금할인 혜택과 격차가 벌어진 데 따른 것으로 보인다. 25% 할인을 선택한 가입자가 늘었지만 중도 해지 시 위약금은 통신사별로 큰 차이를 보여 주의가 요구된다. 24개월 선택약정할인으로 LG유플러스에 가입할 경우 16개월 이상 사용해야 위약금이 줄어들기 시작한다. 이는 12개월이 지난 시점부터 위약금이 줄어드는 SK텔레콤과 KT에 비해 4개월이나 늦다. 12개월 약정도 사정이 비슷하다. SK텔레콤과 KT는 6개월 경과 시점부터 위약금이 감소하지만 LG유플러스는 9개월이 지나야 위약금이 줄어든다. 이에 따라 월정액 9만5천원 요금제에 24개월 선택약정(월 2만3천750원 할인)으로 가입한 경우 가입 8개월 차부터 LG유플러스의 위약금이 타사보다 많아지기 시작해 23개월 차에는 17만8천원까지 차이가 확대된다. LG유플러스 선택약정할인 가입자는 3사 가입자의 30% 수준인 750만명에 달할 것으로 추산된다. 타사와 동일하게 25% 할인 혜택을 제공하면서 더 많은 위약금을 청구하는 것은 문제가 있어 개선이 필요하다는 지적이 나온다. LG유플러스는 "기기변경 때 위약금을 면제하는 정책을 가장 먼저 채택하는 등 고객 혜택 수준이 타사보다 높은 경우도 많다"며 "약정할인 위약금은 타사와 마찬가지로 변경하는 것을 검토하고 있다"고 반박했다. 광진구 집단상가 내 이동전화 판매점[촬영 최현석] harrison@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>애플 진입 노리는 中 BOE 실력은…"韓 따라잡는건 시간문제"</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BOE, B7 가동하면서 B11·B12·B15 패널 공장 동시 투자 "생산량 곧 삼성 추월, 수율도 2~3년 뒤 70% 올라올 듯" 2020년형 아이폰부터는 삼성·LG 패널과 함께 들어갈 듯 국내 유기발광다이오드(OLED) 장비업체 A사는 중국 최대 디스플레이 회사 BOE와 계약서를 쓰고 관련 장비를 설계·제작하고 있다. 중국 몐양에 있는 모바일 OLED 패널 공장 ‘B11’에 들어갈 장비다. A사 관계자는 "삼성·LG디스플레이의 투자가 무기한 중단된 상황에서 BOE는 모바일 OLED 패널 공장 투자를 동시다발적으로 하고 있다"면서 "올해 하반기 BOE의 ‘B12(중국 충칭)’에서도 장비 발주가 있을 것으로 예상되고, 최근 건설 계획을 발표한 ‘B15(중국 푸저우)’도 투자 계획을 이미 다 짜놓고 중국 고객사 판매 동향·수율(완제품 비율)을 보며 시기를 저울질하고 있는 것으로 알고 있다"고 전했다. 중국 BOE가 첫 모바일 OLED 패널 공장인 ‘B7’에서 만든 패널이 탑재된 화웨이의 ‘메이트 20 프로’. / 블룸버그 25일 디스플레이 업계에 따르면, 중국 정부의 지원을 받아 액정표시장치(LCD) 시장을 빠르게 장악한 BOE가 ‘물량 공세’ 방식으로 모바일 OLED 시장에도 뛰어들고 있는 것으로 나타났다. 중국 청두에 있는 첫 OLED 패널 공장인 ‘B7’을 가동하면서 동시에 B11·B12·B15에 투자하거나 투자를 검토하고 있는 것이다. 시장조사기관 스톤파트너스에 따르면, 4개 공장을 모두 가동할 경우 전체 패널 생산량은 월 18만장 수준으로 현재 모바일 OLED 1위인 삼성디스플레이(16만5000장)를 훌쩍 넘어서게 될 전망이다. 4개 공장이 모두 돌아가는 시기는 2023년으로 점쳐진다. 업계에서는 현재 BOE의 모바일 OLED 수율을 50% 수준으로 보고 있다. 이충훈 유비리서치 대표는 "이미 BOE의 패널 품질은 빠르게 올라가고 있는 것으로 파악되고 있다"며 "수율은 2~3년 안에 70% 이상으로 올라갈 것"이라고 예상했다. 윤주호 메리츠종금증권 연구원은 "‘수율’보다 더 중요한 것은 ‘수요’"라면서 "BOE는 LCD 때도 일단 많이 만든 다음 품질이 좋은 것은 세트업체에 팔고, 그렇지 않은 것은 장난감 회사에 파는 식으로 대응해 수율을 끌어올려 왔다. OLED에서도 생산 여력을 늘려 일단 이런 저런 수요에 대응하면서 수율도 금세 올릴 것"으로 내다봤다. 현재 BOE의 모바일 OLED 패널 수요 대부분은 화웨이를 비롯한 중국 스마트폰 제조사다. 여기에 애플도 내년 아이폰 채용을 목표로 BOE의 OLED 패널 품질을 테스트 중인 것으로 알려졌다. 애플은 패널의 안정적 공급, 저렴한 구매단가를 위해 공급선 다변화에 수년간 공을 들여왔다. 여기에 2020년 아이폰부터는 LCD 패널을 아예 쓰지 않고, OLED 패널 제품으로만 내놓기 위한 계산도 깔려 있다. 지난해 판매 대수 기준으로 아이폰 중 OLED 모델은 58% 수준이었고, 전량을 삼성디스플레이로부터 구입해 왔었다. 올해 신작부터는 LG디스플레이도 일부 물량(약 600만대) 패널을 공급한다. 한 디스플레이 업계 관계자는 "LG디스플레이도 품질 테스트에서 한 번에 통과하지 못했을 정도로 애플의 기준이 매우 높은 것으로 알고 있다"면서 "다만, BOE가 LCD 수율도 보란 듯 끌어올렸던 경험이 있고 국내 OLED 전문가들을 대거 영입해 기술력을 끌어올리고 있어 2020년, 늦어도 2021년에는 애플에도 납품할 수 있을 것으로 본다"고 말했다. 그래픽=송윤혜 시장조사업체 IHS마킷이 집계한 올해 1분기(1~3월) 모바일 OLED의 글로벌 시장 점유율을 보면 삼성디스플레이의 점유율은 88.0%로 지난해 같은 기간(95.7%)보다 7.7%포인트나 줄어든 것으로 나타났다. 반면 중국 BOE는 0.1%에서 5.4%로 점유율을 확 늘리며 삼성디스플레이에 이어 2위에 이름을 올렸다. 에버디스플레이(중국), LG디스플레이, 비전옥스(중국)가 그 뒤를 이었다. [장우정 기자 woo@chosunbiz.com] chosunbiz.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>삼성, 벨기에서 EUV용 포토레지스트 조달…SK하이닉스도 이미 거래 중</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>삼성전자가 극자외선(EUV)용 포토레지스트(PR)를 벨기에에서 조달하고 있는 것으로 파악됐다. 일본 정부의 대 한국 수출 규제에 따른 대응으로 수입 노선이 추가됐다. 25일 업계에 따르면 삼성전자는 지난 7월 일본 수출 규제 조치가 시행된 후 일본에서 수입해 온 EUV PR 일부를 벨기에에서 조달하고 있다. 이 EUV PR는 A사가 일본에서 생산, 공급한 것이었다. 그러나 삼성전자는 7월 이후 이 일본산 EUV PR와 동일한 제품을 벨기에 B사에서 수급하고 있다. 삼성전자가 벨기에에 위치한 B사에서 품질이 같은 EUV PR를 공수할 수 있었던 것은 B사가 A사가 만든 합작사기 때문이다. A사는 지난 2015년 반도체 전문 연구소와 함께 B사를 설립했다. 이 사안에 정통한 관계자는 “규제 시행 이후 제품 공급처가 일본에서 벨기에로 이전됐다”면서 “쉽게 말해서 같은 EUV PR가 벨기에를 통해 들어오고 있다고 보면 된다”고 설명했다. 삼성전자 화성 파운드리 공장 전경(자료: 삼성전자) 업계에 따르면 삼성전자가 사용 중인 EUV PR는 A사를 포함한 일본 3개 회사 제품이다. 이 가운데 2개 회사 소재는 7나노(㎚) 로직 디바이스를 제조하는 데 쓰이고 나머지는 D램 연구용이다. 삼성전자는 아직 D램에 EUV를 적용하지 않아 현재 제조 현장에서 사용되는 EUV PR는 7㎚ 로직 디바이스용이었다. 이 때문에 일본의 수출 규제 시행으로 여파가 우려된 것은 7㎚ 반도체 제조에 필요한 EUV PR의 수급이었지만 삼성은 일단 A사와의 사전 공조를 통해 대비책을 마련한 것으로 풀이된다. 그동안 벨기에가 일본 소재 수출 제한의 우회로 및 대처 방안 가운데 하나로 거론돼 왔지만 구체적인 내용이 파악된 건 처음이다. 업계에 따르면 지난 7월 한 달 동안 일본에선 수출 승인이 한 건도 없었음에도 삼성전자는 이미 벨기에에서 EUV PR를 받은 것으로 전해졌다. A사 외 7㎚ 로직 디바이스에 사용되는 또 다른 일본 회사 C사의 EUV PR는 현재 일본 내에서만 생산되고 있다. 따라서 이 소재는 일본 정부의 승인을 받아야만 한국에 들어올 수 있다. 삼성전자는 수출 승인이 불확실하고, 벨기에가 대체 공급선으로 떠올라 C사 EUV PR를 벨기에 제품으로 교체하는 방안을 검토 중인 것으로 전해졌다. 일본산 EUV PR 한국 수출은 이달 들어 간간이 승인됐다. 지난 7일과 19일이다. 일본 정부가 다른 소재는 제외하고 EUV PR만 두 차례 승인한 이유가 명확하지 않아 배경에 관심이 쏠리기도 했다. 그러나 벨기에를 통한 EUV PR 공급 사실이 알려지면서 다른 일본 소재 회사들이 정부 승인을 촉구했을 가능성이 있어보인다. 한편 삼성전자뿐만 아니라 SK하이닉스도 벨기에에서 EUV PR를 공급 받고 있는 것으로 파악됐다. SK하이닉스는 일본에서 벨기에로 전환한 삼성전자와 달리 일본 수출 규제와 무관하게 이전부터 벨기에와 거래해 왔다. SK하이닉스는 EUV 양산 전이고, 벨기에에 거래처를 두고 있어 일본의 EUV PR 수출 규제와 관련해 삼성전자보다는 영향이 덜하다는 평가다. 삼성 서초사옥에 전시된 반도체 웨이퍼. &amp;lt;전자신문 DB&amp;gt; 윤건일 전자/부품 전문기자 benyun@etnews.com [Copyright ⓒ 전자신문 &amp;amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>결국 10만원짜리 갤럭시노트10은 없었다</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>개통 후 첫 주말 실구매가 주중보다는 내려가 사전판매 시 약속했던 수준보다는 높아 제2의 빵집 대란 기다리며 관망하는 소비자 늘어나 삼성전자가 20일 '갤럭시노트10' 국내 사전 판매량이 지난 17일 기준 100만대를 넘겼다고 밝혔다. 최종 사전 판매 물량은 130만대 이상으로 추정된다. 이는 전작 대비 2배 이상 증가한 수치다. 이날 한 시민이 서울 강남구 삼성전자 딜라이트샵을 찾고 있다. /문호남 기자 munonam@ [아시아경제 임온유 기자] 결국 10만원짜리 갤럭시노트10은 없었다. 고로 대란도 없었다. 주말에도 불법보조금 규모가 신통치 않자 휴대폰 집단상가에서는 소비자가 갤럭시노트10 구매에 선뜻 나서지 않는 풍경이 그려졌다. 방송통신위원회-이동통신사-휴대폰판매점-소비자 간의 눈치싸움이 지속되면서 판매열기가 갤럭시S10 5G 첫 주말에 미치지 못하는 것으로 보인다. 물론 기다림에 지쳐 '졸업'을 선언하는 이들도 적잖게 등장했다. 졸업이란 휴대폰 커뮤니티에서 쓰이는 은어로, 구매를 완료했다는 뜻이다. 이 와중에 갤럭시노트10 플러스 512GB 아우라 블랙, SK텔레콤 전용인 갤럭시노트10 플러스 256GB 아우라 블루 등 특정 모델의 물량 부족 현상까지 이어지면서 시장 상황이 매우 복잡하게 돌아가고 있다. 삼성전자가 20일 '갤럭시노트10' 국내 사전 판매량이 지난 17일 기준 100만대를 넘겼다고 밝혔다. 최종 사전 판매 물량은 130만대 이상으로 추정된다. 이는 전작 대비 2배 이상 증가한 수치다. 이날 서울 강남구 삼성전자 딜라이트샵을 찾은 시민들이 제품을 살펴보고 있다. /문호남 기자 munonam@ 삼성전자 갤럭시노트10이 출시된 이후 첫 주말인 24일 최저 실구매가는 일반형(124만8500원)의 경우 30만원 초반대, 플러스형(256GB 139만7000원, 512GB 149만6000원)의 경우 40만~50만원대에서 책정됐다. 갤럭시노트10 개통일인 20일을 포함한 주중보다는 나아졌지만 당초 휴대폰판매점이 약속했던 수준(10만~30만원대)에는 크게 못미치는 금액대다. 이에 첫 주말을 기다리자며 관망적 자세를 취해온 사전예약자들이 다시 한번 고민에 빠졌다. 한 휴대폰 유통업계 관계자는 "신도림 휴대폰 집단상가의 경우 예비 구매자로 북적이긴 했지만 실구매까지 이어지는 비율이 낮은 것으로 분석된다"고 말했다. 갤럭시노트10 실구매가는 공식판매가에 비하면 매우 낮은 수준이다. 그럼에도 구매를 망설이는 이유는 소비자가 상반기 LG전자 V50 씽큐의 '빵집' 대란을 떠올리고 있기 때문이다. 빵집이란 실구매가 0인 폰을 뜻한다. 당시 이동통신3사는 5G 초기 가입자를 유치하기 위해 막대한 보조금으로 경쟁한 바 있다. 결국 갤럭시노트10을 사려는 소비자의 망설임은 과거 이통3사의 과도했던 보조금 때문인 셈이다. 갤럭시노트10의 사전판매량은 130만대로 전작 갤럭시노트9의 두배에 이르렀다. 이에 업계는 일찌감치 갤럭시노트10의 흥행을 점쳤다. 그러나 낮은 보조금으로 실구매율이 목표치에 도달하지 못하자 업계는 흥행에 제동이 걸릴까 우려하고 있다. 일부 소비자는 결국 대란은 터질 것이라며 계속 버티겠다는 의지를 드러냈다. 그러나 방통위의 감시 아래 이통3사가 시장 안정화에 방점을 찍으면서 당분간 대란은 없을 가능성이 높다. 임온유 기자 ioy@asiae.co.kr &amp;lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>삼성전자, 갤노트10 핵심 서비스로 블록체인 앱 '림포' 소개</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>삼성전자가 최신 스마트폰 갤럭시노트10을 출시하면서 블록체인 애플리케이션(앱)을 핵심 서비스로 홍보하고 있어 눈길을 끈다. 유력 스마트폰 제조사 가운데 가장 먼저 블록체인 지갑 서비스를 탑재하면서 블록체인 생태계 조성에 힘쓰고 있다는 것을 강조하기 위한 것으로 풀이된다. ■갤노트10 체험관 갤럭시스튜디오에서 블록체인 앱 ‘림포’ 만난다 삼성전자는 지난 23일 공식 출시한 갤럭시노트10을 홍보하기 위해 전국 주요 지역 ‘갤럭시노트10 5G’와 ‘갤럭시노트10 플러스 5G’를 체험할 수 있는 갤럭시스튜디오를 마련했다. 갤럭시스튜디오에서는 이용자들이 자유롭게 갤럭시노트10을 체험해볼 수 있다. 서울 종로구 익선동에 위치한 갤럭시스튜디오에서 갤럭시노트10 5G를 체험해볼 수 있다. 특히 삼성전자는 이용자들이 갤럭시노트10을 통해 이용할 수 있는 다양한 혁신 서비스들을 미리 만나볼 수 있도록 했다. 이 혁신 서비스 가운데 블록체인 기술이 적용된 앱이 있다. 주인공은 바로 운동한만큼 암호화폐 보상을 주는 앱 ‘림포’다. 서울 종로구 익선동에 위치한 갤럭시스튜디오에서 갤럭시노트10과 ‘림포’ 앱을 만날 수 있었다. 갤럭시스튜디오의 안내직원에게 블록체인 앱을 살펴볼 수 있다고 해서 왔다고 했더니 바로 림포 앱을 구동시켜 준다. ■운동미션 수행하면 암호화폐 주는 ‘림포’ 림포는 리투아니아 블록체인 프로젝트가 개발한 앱이다. 매일 이용자에게 걷기나 뛰기 미션을 주고 이 미션을 완수할때마다 이용자에게 보상으로 림포토큰을 제공한다. 이 림포토큰으로 림포 앱 내의 림포샵에서 다양한 전자기기나 운동화, 운동복 등을 구매할 수 있다. 갤럭시스튜디오에서 갤럭시노트10 5G로 체험한 블록체인 기반 애플리케이션(앱)인 '림포' 갤럭시스튜디오에서는 림포 앱이 어떻게 이용되는지만 확인할 수 있었다. 미션을 수행하고 받은 림포토큰을 삼성 블록체인 월렛을 통해 출금하는 체험이 가능했다. 출금은 출금권을 구매하는 형태로 이뤄진다. 1000림포토큰을 출금하려면 100림포토큰이 수수료로 필요하다. 출금권을 구매하면 1000림포토큰을 삼성 블록체인 월렛으로 이동시킬 수 있다. 이렇게 삼성 블록체인 월렛으로 이동한 림포토큰을 다시 림포토큰이 상장된 암호화폐 거래소 지갑으로 이동시키면 현금으로 바꿀 수 있다. 수수료가 아깝다면 그냥 림포샵에서 다른 상품권이나 제품을 구매하면 된다. 체험버전에서는 신세계백화점 1만원 상품권이 1000림포토큰으로 판매된다고 안내돼 있다. 갤럭시버즈와 같은 제품과 스타벅스 교환권 등도 구매할 수 있다. ■림포 한국 이용자 2만명 넘어, 보상액도 1억원 돌파 림포 앱은 구글 플레이스토어 등 앱스토어를 통해 내려받을 수 있다. 갤럭시노트10이 아니더라도 다른 스마트폰에서 이용할 수 있다. 다만 삼성 블록체인 월렛이 탑재된 갤럭시노트10과 갤럭시S10이 아니면 출금권을 활용한 암호화폐 출금이 불가능하다. 현재 림포 앱 이용자 수는 글로벌 기준 23만명이고, 이 가운데 2만명이 한국인이다. 한국이용자들이 수행한 미션이 100만건을 돌파했고 보상액도 1억원을 넘겼다. 업계 한 관계자는 “최근 여러 블록체인 기반 서비스가 출시되고 있지만 가장 많이 이용되고 있는 앱이 림포일 것”이라며 “실생활에서 블록체인 기술을 직접 활용할 수 있다는 점을 증명한 앱이기 때문에 삼성전자도 림포 앱을 블록체인 기술 홍보용으로 선택했을 것”이라고 전했다. 한편 갤럭시스튜디오에서 체험한 갤럭시노트10의 또다른 앱 가운데 하나인 ‘삼성글로벌골스’도 눈길을 끌었다. 이 앱은 이용자들이 유엔개발계획에 직접 기부를 할 수 있도록 지원하는 앱이다. 최근 블록체인 기술이 투명한 기부문화를 만들 수 있다는 점에서 주목받고 있는 만큼, 향후 이 앱에도 블록체인 기술이 적용될 가능성이 높아 보인다. jjoony@fnnews.com 허준 기자 ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>물 만난 ‘청불’ 보드게임, 애플 인기순위 점령</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>25일 애플 앱스토어 인기 순위(게볼루션 집계) - 맞고·포커 등 애플 앱스토어 진입하자 인기 상위 직행 - 향후 거래소 갖춘 대형 RPG, 애플 앱스토어 대응 촉각 [디지털데일리 이대호기자] 국내 애플 앱스토어에서 만 18세 이상 이용가인 청소년이용불가(청불) 게임 유통을 할 수 있게 되자 맞고·포커 등 성인 대상의 보드게임이 인기를 끌고 있다. 25일 애플 앱스토어 무료 인기 순위(게볼루션 집계)를 보면 1위 한게임 섯다, 3위 피망 뉴맞고, 4위 피망 섯다, 6위 한게임 신맞고, 7위 한게임 포커 등이 올라와 순위 전반을 재편한 상황이다. 간단한 보드게임 특성 상 시장 대응이 가장 빨랐고 성인 이용자들도 iOS 플랫폼에서 즐길 수 있는 보드게임에 반색하는 분위기다. 맞고·포커 등의 모바일 보드게임은 지난 23일 일제히 출시됐다. 업계에선 구글플레이처럼 애플 앱스토어에서도 보드게임들이 꾸준한 매출 순위를 유지할지에 관심을 보이고 있다. 구글플레이에선 보드게임 2강 업체인 네오위즈 대비해 한게임이 약세를 보였으나 애플 앱스토어에선 각축을 벌일지 주목된다. 애플 앱스토어의 순위 재편은 현재 진행형이다. 향후 아이템 거래소를 갖춘 대형 역할수행게임(RPG)들이 애플 앱스토어에 진입, 매출 순위를 뒤흔들지도 기대를 모은다. 앞서 게임물관리위원회 판단으로 유료 캐시를 활용한 아이템 거래소 콘텐츠 유무에 따라 청불 또는 청소년이용가 등급이 나뉜 바 있다. 리니지M 등이 대표적으로 청불과 12세 이용가로 나눠 서비스 중이다. 리니지M 청불 등급은 출시 이후 2년이 넘게 구글플레이 매출 1위 붙박이인 상황이다. 이를 감안하면 리니지M 성인 이용자층을 겨냥한 애플 앱스토어 대응은 시간문제라는 관측이 나온다. 올 하반기엔 리니지M의 적통을 잇는 리니지2M도 출시를 앞뒀다. 한편 한국모바일산업연합회(MOIBA)가 발간한 ‘2018년 대한민국 모바일 콘텐츠산업 현황’ 보고서에 따르면 그해 구글플레이 매출액은 5조4098억원(전년비 10.8%↑)으로 전체 63.2%를 차지했다. 애플 앱스토어 매출액은 2조1211억원(전년비 9.4%↑)으로 24.8% 비중을 보였다. 성인 게임물 유통으로 애플 앱스토어 매출액 비중에 변화가 찾아올지 주목된다. &amp;lt;이대호 기자&amp;gt;ldhdd@ddaily.co.kr &amp;lt;저작권자 © 디지털데일리 무단전재-재배포금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[영상] 애플 아이폰 11 vs 삼성 갤럭시 폴드, 9월 맞장 뜬다 </t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>(지디넷코리아=유회현 기자) 삼성전자 폴더블 스마트폰 갤럭시 폴드가 9월 출시 예정이다. 지난 2월 앞서 공개한 갤럭시 폴드는 일부 결함이 발견되면서 여론의 뭇매를 맞았다. 하지만 삼성전자는 4월 출시 일정을 무기한 연기하고 힌지 부분의 들뜸 현상과 필름처럼 보이는 디스플레이 부품 등 내구성 개선을 위한 개발에 착수했다. 2019년 하반기 새로운 아이폰 출시가 예고된 가운데 결함을 고치고 새롭게 돌아온 갤럭시 폴드가 2천 달러 대의 가격대로 선전 할 수 있을지 지켜봐야 할 듯하다. 유회현 기자(lusy33@zdnet.co.kr) /</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>‘명불허전’ 갤노트10 출시 첫 주말 “재고가 없어요”</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>하반기 기대작 갤노트10, 20일 선개통·23일 공식출시 첫주말 대리점·판매점 모두 "재고 없어 못 판다" 사전 예약물량도 해소 안돼 물량부족 이어질 듯 "번이 혜택도 그닥…가격 오히려 더 오를 수 있다" [이데일리 장영은 기자] “갤노트10 플러스요? 우린 물건이 없어요” 갤럭시노트(갤노트)10 출시 첫 주말, 강변 테크노마트 내 휴대폰 집단상가의 분위기는 ‘역대 최대’ 수준이라는 사전 예약 열기를 실감케 했다. 갤노트10은 지난 20일부터 사전예약자 대상 선개통이 시작됐으며 23일 공식출시 됐다. 20일 서울 종로구 LG유플러스 종각직영점에서 열린 삼성전자 5G폰 ‘갤럭시노트 10’ 출시 기념행사에서 고객이 갤럭시노트10을 받고 있다. (사진= 뉴시스) ◇ 개통 대기 서류 줄줄이 밀려…“열에 아홉은 갤노트10” 공식 출시 당일인 23일에도 분위기를 보고자 방문했지만 주말은 확실히 달랐다. 평일인 전날은 휴대폰 판매점이 모여 있는 6층 전체에 20여명 정도의 사람들이 휴대폰을 ‘보러’ 다니는 수준이었고, 간간이 (계약) 서류를 쓰고 있는 모습이 보였다. 24일은 늦은 오후 시간에 방문했음에도 거의 모든 판매점마다 상담을 하거나 서류를 쓰는 사람이 있을 정도였고, 일부 ‘인기’ 매장은 서너명씩 기다리기까지 했다. 판매점 10곳을 돌며 갤노트10 가격과 반응을 알아본 결과 4곳은 갤노트10 플러스는 아예 물량이 없다며 손을 내저었다. 나머지 판매점들도 “재고를 확인해 봐야 한다”며 바로 개통이 힘들 수도 있다고 전했다. ‘ㄷ’ 판매점 매장 직원은 “일단 원하는 색깔 순서를 말해주면 창고에 가서 확인해 보겠다”면서 “블랙이랑 화이트가 있을 가능성이 가장 높고 블루랑 아우라 글로우는 솔직히 언제 될지 모르겠다. 사전 예약자들도 못 받고 있는 상황”이라고 말했다. 매장에 옮겨 놓은 물량은 이미 오전에 다 나갔고 사겠단 사람이 있을 때만 재고를 확인해 가지고 오는 식이었다. 재고가 있으면 기기는 바로 받아갈 수 있지만 개통도 지연될 수 있다는 게 매장측 설명이었다. 이 직원은 “지금 마감 시간까지 2시간도 채 안 남았는데 오늘 개통물량이 엄청 밀려 있다”면서 “오늘 8시까지 안 되면 내일은 휴일이라 월요일 아침에 될텐데 그 정도는 생각하고 계셔야 한다”고 설명했다. 개통 대기 물량 대부분이 갤노트10 이라고 덧붙였다. 갤럭시노트10 플러스 아우라 글로우 색상. (사진= 삼성전자) ◇ 사전 예약 물량도 아직 해소 안돼…“가격 오히려 더 오를 수도” 이같은 인기에도 가격 경쟁은 그다지 과열되지 않는 분위기였다. 가격 문의를 한 매장 중 3곳은 “알아본 가격이 얼마냐”며 내민 계산기에 40만원대 중반의 가격을 찍,자 “우리는 이 가격에 맞춰줄 수 없다”면서 ‘협상’ 자체를 포기했다. 나머지 3곳도 “그 정도가 지금 마지노선”이라며 새롭게 가격을 제시하진 않았다. 지난 23일 신분증을 맡기는 조건으로 갤노트10 플러스 모델을 30만원대 후반까지 제시했던 것을 감안하면, 사려는 사람은 늘었지만 판매 경쟁은 오히려 냉담해진 셈이다. ‘S’ 판매점 직원은 “지금 분위기가 막 (현금 지원을) 쏘고 이럴 수 없다”면서 “번이(번호이동)를 해도 가격 차이가 많이 해봐야 5만원인데, 그나마 이건 물량이 없어서 신분증 맡겨놓고 가셔야 한다”고 했다. 직영 대리점도 상황은 비슷했다. 서울 종로구에 위치한 한 KT 대리점에서는 “공시지원금과 카드 사용을 통한 할인 혜택 외에는 지원해 드릴 수 있는 부분이 없다”며 “번호이동 추가 지원은 없다”고 딱 잘라 말했다. 서울 송파구의 한 SKT 대리점은 “요금제에 따른 공시지원금이 다 이긴 한데 이번 주말에만 특별히 ‘89’(8만9000원)요금제로 하실 경우 30만원 페이백을 해드린다”고 안내했다. 전날까지만 해도 가격이 더 떨어질 수도 있다는 판매점이 꽤 있었으나, 물량 부족에 실 구매자들의 방문이 이어지면서 오히려 가격이 오를 것 같다는 전망이 우세했다. 매장에서 만난 30대 회사원 최모씨는 “사전 예약했다가 그 가격엔 도저히 안 될 것 같다는 얘기를 듣고 매장을 방문했다”면서 “괜히 나중에 9월에 가격 더 내고 (사전예약) 사은품도 못 받게 될 것 같아서 지금 받아가려고 온 것”이라고 말했다. [이데일리 이동훈 기자]갤럭시노트10 일반 모델과 플러스 모델 사양비교. 장영은 (bluerain@edaily.co.kr) 네이버 홈에서 ‘이데일리’ 뉴스 꿀잼가득 , 청춘뉘우스~ ＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp;amp; 재배포 금지＞</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 시험을 잘 보려면 시험을 자주 봐야 한다? </t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[ 토요판] 정수근의 기억실험실 ⑨ 공부 잘하는 법 반복학습은 암기에 도움되지만 들인 노력에 비하면 효과는 적어 한번 공부한 뒤 연습시험 통해 끄집어내 떠올리면 더 오래가 좌뇌형-우뇌형, 시각형-청각형… 말 많지만 검증된 학습법 아직 없어 ‘깊게 이해, 문제 풀고, 적절한 수면’ 평범하지만 최선인 공부의 길 배운 내용을 잘 이해하더라도 이해한 것을 기억하지 못한다면 소용이 없을 것이다. 하지만 단지 반복해서 읽고 쓰는 암기법만으로는 공부한 내용을 오래 기억하는 데 한계가 있다. 게티이미지뱅크 고등학생 시절에 영어 단어를 외우기 위해 종이에 단어를 한가득 채워 쓰곤 했다. ‘깜지’ 또는 ‘빽빽이’라고도 불리는 이 공부법은 이른바 ‘암기과목’을 공부하는 대표적인 방법이었다. ‘깜지’를 하느라 다 쓴 볼펜을 자랑스럽게 모아놓는 친구도 있었다. 하지만 안타깝게도 쌓여가는 볼펜의 개수가 꼭 높은 성적으로 이어지는 것은 아니었다. 그래도 공부를 잘하려면 암기도 잘해야 하는 것은 사실이다. 아무리 배운 내용을 잘 이해하더라도 기억하지 못한다면 소용이 없을 것이다. 오랜 시간 여러번 반복하는 게 능사가 아니라면 과학적으로 검증된 ‘공부 잘하는 방법’이 따로 있을까? 반복학습보다 인출연습 가장 보편적인 공부법은 아마도 ‘반복해서 읽기’일 것이다. 이미 많은 사람이 알고 있겠지만 단지 교과서를 여러번 되풀이해서 읽거나 ‘깜지’를 쓰는 방법은 들인 노력에 비해 효과가 그리 크지는 않다. 사실 얼마나 많이 반복하는가보다는 한번을 하더라도 얼마나 제대로 공부하느냐가 중요하다. 1975년에 이를 보여주는 연구 결과가 발표됐다. 캐나다 토론토대학 연구진은 실험 참가자들에게 여러 단어를 제시하면서 단어에 관한 몇가지 과제를 주었다. 단어의 글자가 대문자인지 소문자인지(시각적 처리 과제), 단어가 다른 단어랑 운율이 맞는지(청각적 처리 과제), 단어가 문장의 빈칸에 들어가도 되는지(의미적 처리 과제)를 판단하게 했다. 실험 참가자들에게 단어를 외우라는 지시를 하지는 않았다. 연구진은 단어 처리 과제를 마친 실험 참가자들에게 예고하지 않은 깜짝 테스트를 시행해서 얼마나 많은 단어를 기억하는지 조사했다. 결과는 아마 쉽게 예상할 수 있을 것이다. 사람들은 시각 또는 청각으로 정보를 처리했던 단어보다 의미를 따져 처리한 단어를 더 잘 기억할 수 있었다. 즉, 더 복잡하고 의미 있는 정보 처리를 할수록 더 오래 기억할 수 있다는 것이다. 그렇다면 의미를 되새기며 교과서를 여러번 되풀이해 읽으면 기억에 도움이 될까? 연구에 따르면, 그저 반복해 공부하는 것보다는 중간에 시험을 치르는 게 훨씬 효과적일 수 있다. 미국 세인트루이스 워싱턴대학의 헨리 로디거 교수가 2006년 이와 관련한 실험을 했다. 그는 실험에 참가한 학생들에게 과학 내용이 담긴 교재 자료를 제시하고서 공부하게 했다. 일부 학생들은 자료를 두번 반복해서 공부했고, 다른 학생들은 한번 공부하고 연습시험을 한번 치렀다. 5분 뒤 자료 내용을 얼마나 잘 기억하는지 검사한 결과에서는, 반복 학습한 학생들이 더 높은 점수를 받은 것으로 나타났다. 그러나 일주일 뒤 다시 시행한 검사에서는 결과가 뒤집혔다. 한번 공부하고 연습시험을 봤던 학생들이 시험 없이 반복 학습만 했던 학생들보다 실제 시험에서 더 좋은 점수를 받은 것이다. 즉, 반복 학습을 통해 정보를 여러번 저장하는 것과 비교해, 저장된 정보를 시험문제 풀이를 통해 인출하는(끄집어내어 떠올리는) 연습을 하는 게 더 효과적일 수 있다. 연습시험이 그저 시험에 적응하는 데 도움을 주었을 뿐은 아닐까? 다른 연구에서는 실제 시험과 연습시험의 형식이 다르더라도 연습시험이 반복 학습보다 더 나은 공부법이라는 결과가 제시됐다. 공부한 내용을 다시 읽으면 뇌에서는 이전에 저장된 정보만이 다시 활성화될 가능성이 높다. 하지만 시험문제를 풀면서 답을 떠올릴 때는 저장했던 정보와 함께 관련된 다른 정보도 함께 활성화될 수 있다. 이 과정에서 기존 지식과 새로 배운 정보가 통합되기도 하고, 관련이 없어 방해되는 정보는 억제되기도 한다. 그래서 인출 연습을 한 정보는 좀 더 정교화되고 잘 기억될 수 있다. 반복해 읽는 학습법은 ‘많이 공부했다’는 만족감을 준다. 반면에 연습시험 문제를 풀다 보면 모르는 게 많다고 느껴질 수 있다. 하지만 많은 연구들은 일단 학습을 한 다음에는 반복 학습보다 반복 인출 연습이 기억을 더 오래가게 한다는 점을 보여주고 있다. 그렇다면 앞으로 공부할 때 다음 몇 가지를 시도해볼 만하다. 교재에서 한 챕터가 끝나는 곳에 연습문제가 실려 있다면 그냥 넘어가지 말고 꼭 풀어보기 바란다. 챕터를 반복해 공부하는 것보다 효과가 더 좋을 것이다. 연습문제가 없다면 직접 질문을 만들고 답해보거나, 배운 내용을 차례로 다시 떠올려보는 인출 연습을 해봐도 좋다. 배웠던 모든 내용을 다 기억해내지 않아도 괜찮다. 로디거 교수의 다른 연구에서는 인출 연습을 한 정보뿐만 아니라 시험에서 다뤄지지 않은 다른 관련 정보의 기억도 덩달아 향상되었다. 학생을 가르치는 선생님이라면, 중간고사와 기말고사만 치르기보다는 학기 중에 쪽지시험을 여러번 보는 것도 배운 내용을 잊지 않게 하는 좋은 방법이다. 현재로선 여러 연구에서 검증된 효과적 학습법은 생각보다 평범하다. 주의 깊게 공부하고, 배운 내용을 시험해 보고, 적절한 수면을 취하는 게 좋다. 게티이미지뱅크 좌뇌형은 분석적, 우뇌형은 창의적 반복 학습이건 인출 연습이건 간에 공부에 쓸 수 있는 시간은 한정되어 있다. 당장 내일이 시험이라면 밤을 새워 한 글자라도 더 머릿속에 담고 싶을 것이다. 하지만 이미 이전 연재 글에서 다뤘듯이 뇌는 잠자는 동안에 공부한 내용을 복습한다.(5월16일치, ‘4당5락? 잠자는 동안 뇌는 낮에 공부한 내용 복습한다’) 잠을 자지 않으면 학습한 내용이 장기기억으로 전환되기 어렵다. 적절한 수면의 중요성을 보여주는 또 다른 사례가 있다. 혹시 ‘서머타임’(일광시간 절약제)을 기억하는가? 낮이 긴 여름에는 표준시를 1시간 당기고 낮이 짧은 겨울엔 시간을 되돌리는 제도이다. 우리나라에서도 몇번 시행되다가 1988년 이후에 사라진 제도이지만, 미국에서는 여전히 여름마다 시간을 1시간 당기고 있다. 미국의 모든 지역에서 서머타임을 시행하지는 않기 때문에, 같은 주 안에서도 서머타임을 시행하는 곳과 시행하지 않는 곳이 나뉘기도 한다. 이를 이용해 연구자들이 재밌는 비교를 해봤다. 미국 인디애나주에서 서머타임을 시행한 카운티의 학생들은 1시간 일찍 일어나야 했기에 일주기 리듬(생체시계)이 흐트러지게 되었다. 이 학생들은 미국의 대입 수능시험 격인 에스에이티(SAT) 시험에서 서머타임 제도를 시행하지 않은 카운티의 학생들보다 약 16점이 낮은 점수를 받았다. 서머타임으로 단순히 일어나는 시간만 빨라지는 게 아니다. 서머타임 시행 직후에는 일주기 리듬이 바뀌고 잠 시간이 줄어 주의 집중의 기능도 떨어질 수 있다. 학습 효율을 높인다고 알려진 여러 방법이 있다. 하지만 널리 알려진 학습법 중에도 과학적 근거가 부족한 것들이 있다. 대표적인 예가 ‘좌뇌형-우뇌형’ 학습 유형일 것이다. 뇌에는 좌반구와 우반구가 있고, 일부 기능은 좌뇌 또는 우뇌에 편중되어 있는 것은 사실이다. 하지만 ‘창의적인 사람은 어느 쪽 뇌가 우세하다’거나 ‘어느 한쪽 뇌 위주의 사고를 하는 사람이 더 직관적’이라는 등의 주장은 과학적인 근거가 없다. 실제로 미국 유타대학 연구진이 2013년 기능적 자기공명영상으로 1000여명의 뇌를 조사한 결과에서는 이른바 ‘좌뇌형’과 ‘우뇌형’ 활성화 패턴이 따로 존재하지 않는 것으로 나타났다. 그런데도 사람들의 뇌를 존재하지 않는 좌뇌형-우뇌형으로 나눈다면, ‘나는 한쪽 뇌가 더 우세하니 덜 창의적이야’라거나 ‘나는 이쪽 뇌가 우세하니 감성적인 면이 강하고 분석적인 면은 약해’라며 지레짐작으로 자신의 가능성을 제한해버릴 위험이 있다. 또 다른 널리 알려진 학습법으로 ‘시각형-청각형-신체감각형’ 학습 유형이 있다. 이름 그대로 시각형 학습자는 시각자료로 공부했을 때, 청각형 학습자는 정보를 소리로 들었을 때, 신체감각형은 몸을 움직여 경험했을 때 더 잘 배울 수 있고, 그래서 각자 자신이 선호하는 유형으로 공부하는 게 더 효율적이라는 것이다. 언뜻 그럴듯해 보이지만 샌디에이고 캘리포니아대학의 해럴드 패슐러 교수가 2008년에 이런 학습 유형에 대한 기존의 연구 결과들을 검토했더니, 선호하는 유형에 맞춰 공부하더라도 학습효과가 좋아지지 않는다는 결과가 더 많았다고 한다. 사람마다 시각이나 청각, 신체감각 정보 중 특정 유형을 다른 유형보다 선호할 수는 있다. 또한 어떤 정보는 특정 유형으로 제시될 때 이해하기도 쉽고 기억하기도 쉽다. 그러나 둘 사이에 뚜렷한 상관관계는 없었다. 시각형 정보를 더 좋아하는 사람은 있을 수 있지만, 그렇다고 그 사람이 늘 시각적으로 공부했을 때 학습 효율이 특별히 더 높지는 않았다는 것이다. 이렇게 보면, 내가 어떤 유형의 정보를 선호하는가보다는 배워야 할 내용이 어떤 유형에 적합한가가 더 중요하다. 예를 들어 내가 시각보다 청각을 선호한다고 하더라도 ‘뇌의 구조’를 배운다면 ‘청각적’으로 설명을 듣는 것보다 ‘시각적’으로 직접 각 뇌 영역의 위치를 보는 것이 더 효과적일 것이다. 영어 단어를 어떻게 발음하는지 배우기 위해서 발음기호를 ‘시각’으로 볼 수도 있겠지만 ‘청각’으로 듣고, ‘신체감각’으로 직접 발음해 보는 게 훨씬 낫다. 과학적으로 검증된 완벽한 공부법을 연구자들이 언젠가 찾아낼지도 모르겠다. 하지만 현재로선 여러 연구에서 검증된 효과적 학습법은 생각보다 평범하다. 주의 깊게 공부하고, 배운 내용을 시험해 보고, 적절한 수면을 취하는 게 좋다. 유산소 운동도 기억을 향상시키는 데 효과가 크다.(6월15일치 ‘운동하면 기억력이 좋아진다’) 마치 과일과 채소를 많이 먹고 운동을 열심히 하면 건강에 좋다는 말처럼 뻔한 얘기처럼 들릴 것이다. 하지만 방법을 안다고 해서 모두가 건강해지고, 모두가 효과적으로 공부하게 되진 않는다. 나 역시 ‘기억 인출 연습’을 하면 기억을 더 잘할 수 있다는 것을 알면서도 나중에 다시 찾아보면 그만이라는 생각에 그 연습을 소홀히 해, 애써 공부한 자료를 다반사로 잊어버린다. 운동과 잠이 중요하다는 글을 쓰는 지금도 졸린 눈을 비비며 거북목을 한 채 몇시간째 자리에서 움직이지 않고 있다. 아는 것과 실천하는 것은 다른 문제다. 정 수근 한국뇌연구원 선임연구원(심리학) [ⓒ한겨레신문 : 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">카카오톡과 라이언, 나이키와 달린다 </t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>톡비즈 솔루션과 카카오 '인기 IP' 라이언, 글로벌 브랜드와 첫 협업 카카오톡 배너 클릭하면 광고영상, 톡으로 간편가입서비스 달리는 라이언 아이템도 제공   카카오가 나이키 코리아와 손잡고 카카오톡과 인기 지적재산권(IP)인 라이언과 공동 마케팅을 진행한다고 24일 밝혔다. 이번 마케팅은 4600만 이용자가 있는 국민 메신저 플랫폼 카카오톡과 카카오 콘텐츠, 글로벌 브랜드와 새로운 협업을 시도한 사례다. 카카오톡이 지난 2·4분기에 베타서비스로 선보인 톡보드 최상단 배너를 클릭하면 #탭의 브랜드탭을 통해 라이언과 박나래의 유쾌한 광고 영상을 만날 수 있다. 또 카카오톡 간편가입 서비스를 통해 나이키 제품을 쉽게 볼 수 있는 이용자 동선을 마련했다. 아울러 카카오 계정으로 나이키닷컴에 로그인하면 선착순으로 한정판 이모티콘을 받을 수 있다. '조이런 마블 게임' 참여자에게는 카카오프렌즈 홍대 플래그십 스토어 지하 체험 공간 초대권도 제공한다. 아울러 카카오톡 프로필에서 '달리는 라이언' 스티커와 배경화면 등 프로필 아이템이 무료로 제공된다. 카카오 오프라인 접점을 통한 마케팅도 선보인다. 나이키 조이라이드 이노베이션과 디지털 인터랙티브 게임 등 다양한 경험을 할 수 있는 제품 체험 공간이 카카오프렌즈 홍대 플래그십 스토어 지하에 마련됐다. 이와 함께 한정판 카카오프렌즈 제품도 8월 말부터 강남, 홍대, 부산 카카오프렌즈 플래그십스토어와 DDP점, 카카오프렌즈 온라인몰에서 만나볼 수 있다. 카카오 관계자는 "이번 나이키 코리아와 협업은 카카오톡의 접근성과 인기 캐릭터 라이언의 친숙함을 기반으로 이용자에게 차별화된 가치와 경험을 제공하고자 한 것"이라며 "앞으로도 카카오 자산을 활용한 다양한 형태의 브랜드 간 협업을 이어갈 계획"이라고 말했다. gogosing@fnnews.com 박소현 기자 ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>트럼프, 지소미아 종료 첫 언급.."무슨 일 있을 지 지켜보겠다"</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>23일 G7 참석차 출국 전 기자단과 질의응답 "문 대통령도 나의 좋은 친구..한국 지켜보자" "북한과 좋은 관계..김정은 내게 매우 솔직해" [이데일리 김혜미 기자] 도널드 트럼프 미국 대통령이 ‘한일군사정보보호협정(GSOMIA·지소미아) 종료 결정과 관련해 “앞으로 무슨 일이 있을 지 지켜볼 것(We’re going to see what happens)”이라고 말했다. 지소미아 종료에 대한 첫 공식 발언이다. 23일(현지시간) 미 의회방송 C-SPAN에 따르면 트럼프 대통령은 주요 7개국(G7) 정상회의 참석차 프랑스로 출발하기 전 기자들과 만난 자리에서 “한국의 지소미아 종료 결정을 우려하는가”라는 질문에 “앞으로 무슨 일이 일어날 지 지켜볼 것이다. 문(재인) 대통령 역시 나의 좋은 친구다. 한국에 무슨 일이 일어날지 지켜보자”고 언급했다. 이는 앞서 미 국무부가 지소미아 종료에 대해 ‘실망했다’는 입장을 보인 것과 다소 차이를 보인 것이다. 마이크 폼페이오 미 국무장관은 지난 22일 “한국이 정보공유 합의에 대해 내린 결정에 실망했다”며 “한국과 일본이 대화를 통해 ‘옳은 곳’으로 관계를 되돌리기 바란다”고 언급한 바 있다. 이에 따라 추후 미 정부의 정책 기조가 달라질 수 있을 지 주목된다. 트럼프 대통령은 이날 아베 신조 일본 총리에 대해서도 “아주 좋은 친구”라며 G7 회의에서 만남을 기대하고 있다고 밝혔다. 같은 자리에서 트럼프 대통령은 김정은 북한 국무위원장에 대해서도 “좋은 친구”라고 언급해 눈길을 끌었다. 한미 연합군사훈련이 종료된 20일 이후인 24일(한국시각) 오전 북한이 탄도미사일로 추정되는 발사체 2발을 동해상으로 발사했다는 소식이 전해진 뒤에도 크게 개의치 않는 모습이다. 트럼프 대통령은 이날 “미국 정부는 북한과 매우 좋은 관계를 맺고 있다. 김정은 북한 국무위원장이 지금까지 나에게 아주 솔직했다고 생각한다”며 “김정은 위원장은 미사일 테스트를 좋아한다. 양측은 단거리 미사일 제한에 합의한 적이 없다. 무슨 일이 일어나는지 지켜볼 것”이라고 말했다. 이는 북한의 미사일 발사에 대한 미국의 태도가 크게 달라지지 않을 것임을 시사하는 것으로 해석된다. 폼페이오 미 국무장관은 최근 미국의소리(VOA) 인터뷰에서 “우리가 가장 크게 신경쓰는 것은 장거리 미사일 시험”이라면서 “김정은 위원장이 비핵화에 전념하고 있고, 그가 이를 실행할 수 있도록 방법을 찾고 있다는 데 희망을 두고 있다”고 언급한 바 있다. 도널드 트럼프 미국 대통령. 사진 : 뉴시스 김혜미 (pinnster@edaily.co.kr) 네이버 홈에서 ‘이데일리’ 뉴스 꿀잼가득 , 청춘뉘우스~ ＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp;amp; 재배포 금지＞</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>배터리 핵심광물 '코발트 가격' 2주 만에 20% 급등</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>글렌코어 무탄다 구리 코발트 광산. (사진=글렌코어) 배터리 핵심 원재료 광물인 코발트 가격이 세계 최대 공급업체의 감산 발표로 2주 만에 20% 이상 상승했다. 런던금속거래소(LME)에서 이달 초 톤당 2만5000달러에 거래되던 코발트 가격은 22% 올라 22일(현지시간) 현재 톤당 3만500달러를 유지하고 있다. 최근 코발트 가격 급등은 세계 최대 광산업체인 글렌코어가 최대 코발트 산지인 콩고민주공화국 내 무탄다 광산 운영을 2021년까지 중단하겠다고 발표했기 때문이다. 무탄다 광산은 세계 최대 코발트 광산 중 하나로 전 세계 코발트 생산량의 약 20% 담당하고 있다는 점을 감안하면 시장에 미치는 파급력이 크다. 글렌코어가 광산 가동 중단을 결정한 이유는 코발트 가격 하락에 따른 경제성 악화 때문이다. 지난해 3월 톤당 최고 9만5500달러까지 치솟았던 코발트 가격은 올해 톤당 2만달러대로 급락했다. 세계 최대 코발트 정련업체인 화유코발트 역시 코발트 가격 폭락으로 최근 콩고민주공화국 소재 코발트 광산에 대한 6630만달러 규모 투자 철회를 결정했다. 코발트는 전기차용 리튬이온 배터리 양극재를 만드는데 필수 원재료 가운데 하나다. 전기차 시장 확대에 대한 기대감으로 지난해 가격이 300% 이상 급등하면서 신규 광산 프로젝트가 다수 시작됐다. 하지만 이후 공급 과잉 등 영향으로 가격이 폭락하면서 경제성이 악화되면서 신규 프로젝트가 줄줄이 취소되는 상황이다. 역설적으로 전문가들은 신규 프로젝트 중단에 따른 공급 감소 영향으로 안정되던 코발트 가격이 수년내 다시 상승할 가능성이 높다고 전망하고 있다. 여기에 전기차 시장이 본격 확대되며 수요가 급증할 것으로 예상돼 리튬, 코발트, 니켈 등 주요 원재료 가격이 장기적으로는 상승할 가능성이 높다는 전망이다. 영국 캐피탈이코노믹스는 최근 보고서에서 지난 2015년 아연 시장에서 글렌코어가 비슷한 조치를 취하면서 아연 가격이 3년내 2배가량 상승했던 사실을 언급하며 “이번 광산 가동 중단으로 내년 말까지 코발트 가격이 톤당 4만달러에 도달하고 2021년 말에는 5만달러대로 추가 상승할 것”이라고 내다봤다. 원재료 가격이 오르면 LG화학, 삼성SDI, SK이노베이션 등 배터리 업체에는 원가 부담으로 작용. 반대로 에코프로비엠, 엘앤에프, 포스코케미칼, 코스모신소재 등 양극재 제조사에게는 매출 확대 요소가 된다. 정현정 배터리/부품 전문기자 iam@etnews.com [Copyright ⓒ 전자신문 &amp;amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>서울서 3,000대 우버택시 달린다...韓 공략 속도 높이는 우버</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>■ 택시호출 적극 마케팅 막강한 자금력 앞세워 파격 서비스 서울서 우버택시 3,000대로 늘어 ■ 택시·스타트업과 협업 택시조합과 플랫폼택시 협의나서 코리아스타트업포럼 특별회원 가입 [서울경제] 지난 2013년 승차공유 ‘우버 엑스(X)’로 국내 진출을 위한 문을 두드렸다가 좌절을 맛본 우버가 6년 만에 한국 모빌리티 시장에서 기지개를 펴고 있다. 올해 4월 서울에서 시작한 택시 호출 서비스가 빠르게 확대되고 있는데다 택시 조합·스타트업과의 협업도 시동을 걸고 있는 상황이다. 업계에선 국토교통부의 ‘혁신성장과 상생발전을 위한 택시제도 개편방안(상생안)’의 세부 내용이 확정돼 국내 모빌리티 시장의 불확실성이 사라지면 우버의 사업확대가 본격화될 것으로 전망한다. ◇마케팅 총공세에 우버택시 3,000대로 늘어 = 현재 우버가 국내에서 가장 공을 들이는 사업은 택시호출 서비스 ‘우버택시’다. 지난 4월 처음 출시됐을 때만 하더라도 우버택시를 불러도 잡기 힘들다는 평가가 나왔지만 최근엔 3,000대까지 규모를 확대했다. 3,000대는 모두 개인택시 기사들이며 아직 법인택시와의 협업은 시작하지 않았다. 택시 업계의 강한 반발을 불어왔던 승차공유 ‘우버X’와 달리 우버택시는 우버 플랫폼에서 택시를 부를 수 있도록 중개하는 서비스이기 때문에 택시기사들도 긍정적인 평가를 내리고 있다. 우버가 빠르게 택시기사들을 끌어들일 수 있었던 배경은 적극적인 마케팅에 있다. 택시기사들은 우버택시를 시작할 때와 일정 횟수씩 우버 앱의 콜을 수락할 때마다 우버로부터 일정 금액을 받을 수 있다. 우버택시를 운행하는 한 택시기사는 “주변 택시기사들이 소개를 해줘 우버택시를 시작하게 됐다”라며 “카카오T와 티맵도 함께 하고 있지만 최근엔 우버쪽의 콜도 자주 받는 편”이라고 밝혔다. 이용자들을 대상으로 한 마케팅도 활발하게 이뤄지고 있다. 지난 4월 출시부터 현재까지 4개월이 넘는 기간 동안 우버택시를 처음 이용하면 운임의 50%, 이후부터는 탈 때마다 운임의 20%씩 할인 혜택을 제공 중이다. ◇택시조합·스타트업 협업 위해 문 두드려 = 우버가 국내에서 펼치는 모빌리티 서비스는 앞으로 계속 확장할 것으로 보인다. 이미 우버는 지난달 서울개인택시운송조합에 플랫폼 택시 파트너사 선정을 위한 제안서를 제출한 뒤 함께 협의를 진행하고 있다. 서울개인택시조합 관계자는 “우버에서 택시 호출쪽도 프로모션을 제시하며 노력하고 있고 여러 유형으로 (사업을) 하기 위해 서로 입장을 전달한 상황”이라고 전했다. 서울개인택시조합은 우버 등 모빌리티 업체들과 협업을 통해 오는 11~12월경 5,000명 규모의 플랫폼 택시를 3~4개 출범시키는 방향을 고심 중인 것으로 알려졌다. 만약 우버가 서울개인택시조합과 플랫폼 택시를 출범하게 되면 중개 서비스를 넘어 ‘우버’ 브랜드를 디자인 등에 내걸 수 있는 가맹 서비스까지 확장하게 되는 셈이다. 스타트업과의 접점을 늘리기 위해 최근엔 코리아스타트업포럼에 특별회원으로 가입하기도 했다. 코리아스타트업포럼은 우아한형제들·비바리퍼블리카 등 유니콘(기업 가치 1조원 이상 비상장기업) 기업부터 스타트업까지 1,000여개 기업들이 가입돼있는 국내 스타트업 대표 단체다. 우버는 스타트업을 지원하고 공동기획 사업 등을 추진할 수 있는 특별회원 자격이다. ◇택시부터 음식까지 ‘카풀’ 빼고 다해 = 우버는 현재 호출 서비스인 우버택시 이외에도 외국인용 택시 ‘인터내셔널 택시’와 고급 택시 서비스 ‘우버블랙’, 교통 약자를 지원하는 ‘우버 어시스트’ 등을 운영하고 있다. 이밖에 음식 배달 서비스인 ‘우버이츠’도 출범 2주년을 맞기도 했다. 다만 다양한 사업에 더해 택시를 기반으로 한 서비스 확대까지 모색하고 있지만 막상 본래 서비스인 승차공유는 다시 운행하기 어려울 것으로 보인다. 국내에선 카풀(승차공유)을 출퇴근 2시간으로만 제한하는 법안이 마련되면서 카풀 업체들이 어려움을 겪고 있다. 토종 모빌리티 업체들을 위협하는 글로벌 업체라는 인식도 극복해야 할 요소다. 실제로 국내 모빌리티 스타트업들은 정부의 상생안 마련 이후 우버가 막대한 자금력으로 시장을 장악할 수 있다는 우려를 제기하고 있다. 한 모빌리티 업체 관계자는 “상생안이 오히려 규제의 불확실성을 없애주면서 자금력이 있는 우버가 적극적으로 움직이고 있다”라며 “스타트업 입장에선 대기업들이 주도하는 판에 끼어들어가기 어려운 환경”이라고 말했다. /권경원기자 nahere@sedaily.com | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>[WiFi카페] 먹방이 바꾼 치킨·피자…"튀어야 알려진다"</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>소비자 호기심 자극하기 위한 이색 메뉴 선봬 주머니 사정 넉넉지 못한 중견·중소업체 중심 '활발' 협찬방송과 순수 리뷰 방송 간 구분 필요 [이데일리 김유성 기자] ‘호기심을 자극해 자연스러운 입소문이 나도록 하라.’ 유튜브의 대중화, 먹방의 발달은 식품업계 광고·마케팅 방식을 바꾸고 있습니다. TV 등을 통해 일방적으로 광고 영상을 전달하기보다, 사용자 스스로가 영상 콘텐츠를 만들고 입소문이 나도록 하는 식입니다. 바이럴(입소문)만 잘되면 큰 비용 들이지 않고도 제품을 알릴 수 있죠. 삼양식품의 불닭볶음면이 대표적인 예입니다. 이 라면은 매운맛이 특징인 덕분에 여러 화제를 낳았습니다. 매운맛 좋아하는 한국인도 도전하게끔 만드는 라면이었죠. 불닭볶음면을 먹은 외국인들의 반응도 콘텐츠가 됐습니다. 불닭볶음면은 단일 라면 브랜드로는 어느새 국내 최대 수출 라면이 됐습니다. 외식 업계도 이런 바이럴 마케팅이 유행하고 있습니다. 상반된 재료를 쓴 음식 메뉴를 개발하거나 극단적으로 맵거나 짠 음식으로 소비자들의 호기심을 자아내는 식입니다. 특히나 대중적인 메뉴인 치킨과 피자 업계에서 이런 경향이 두드러지고 있습니다. 마케팅 주머니 사정이 넉넉하지 못한 중견·중소기업일수록 이런 마케팅에 더 의존할 수 밖에 없습니다. 페리카나 누꼬진짬뽕 리뷰 영상 채널 모음 캡처 그래서 몇 개 업체를 추려봤습니다. 홍보 업계에서 회자되는 기업들입니다. 저랑 해당 기업 내부 마케팅 담당자들과는 일면식이 없다는 점 알려드립니다. 1982년 문을 연 국내 원조급 치킨 프랜차이즈 페리카나는 진한 해물맛 소스를 치킨과 어울리도록 한 ‘누꼬진짬뽕’을 선보였습니다. 치킨과 함께 진한 국물의 짬뽕을 같이 먹는 메뉴입니다. 참고로 페리카나는 치킨 CF 원조 기업이기도 합니다. 개그맨 최양락 씨가 광고하던 1980년대 후반에는 꽤 인기를 끌었죠. 1990년대 비슷비슷한 업체들이 많이 나오다보니 2000년대 들어 고만고만한 치킨 프랜차이즈로 가라앉았고요. 누꼬진짬뽕은 짬뽕을 치킨과 함께 먹는다는 콘셉트입니다. 몇몇 먹방 유튜버가 소개하면서 화제가 되기도 했고요. 치킨과 짬뽕의 부조화 때문일까요, 호평과 혹평이 오가고 있습니다. 모든 조합이 환영받는 것은 아니죠. 치킨에 과자를 얹어 먹는 제품도 나왔습니다. 치킨에 붙는 땅콩 부스러기처럼 과자 토핑이 올라간 제품입니다. 맘스터치가 만든 ‘매콤소이팝’입니다. 과자 제조업체 오리온과 함께 ‘치킨팝 땡초찜닭맛’ 과자가 토핑처럼 올라가 있습니다. 누꼬진짬뽕보다는 긍정적인 의견은 많아 보입니다. 김치와 치킨을 조합한 치킨도 있습니다. 멕시카나치킨인데요, 멕시카나도 지금은 중견 기업 정도지만, 1990년대 국내 치킨 업계를 풍미했습니다. 선두 업체들과 비교해 대규모 마케팅을 한다거나 TV CF를 하기에는 무리죠. 멕시카나치킨은 김치를 조합했습니다. 대상의 김치 브랜드 ‘종가집’과 협업해 김치를 소스로 한 ‘미스터 김치킨’을 출시했습니다. 후라이드 치킨에 볶음 김치 맛을 양념으로 해서 새콤달콤한 맛을 냈습니다. 멕시카나는 앞서 언급한 페리카나와 맘스터치보다는 비용을 더 들인듯 합니다. 유명 먹방 유튜버 ‘밴쯔’를 섭외해 리뷰 영상을 제작한 덕분이죠. 비용대비 효과는 좋아 보입니다. 김치킨 등 멕시카나 치킨 메뉴를 리뷰하는 먹방 유튜버 벤쯔 (유튜브 캡처) 불닭 소스를 입힌 피자도 나왔습니다. 불닭볶음면의 유명세가 피자로까지 확장된 셈입니다. 파파존스의 붉닭 피자는 ‘불닭 핫 치킨 바베큐’와 ‘붉닭 크림치즈 소스’ 2종으로 구성됐습니다. 파파존스 전 제품을 통틀어 가장 매운 맛입니다. 시즌 한정 메뉴로 출시됐던 불닭피자는 소비자들의 요청에 따라 정식 메뉴가 됐습니다. 토종 피자 프랜차이즈 피자마루는 피자와 떡볶이를 같이 먹는 메뉴를 출시했습니다. 피자 위에 떡볶이를 부어 먹거나, 피자를 떡볶이 소스에 찍어 먹는 식입니다. 식품 업계에서는 음식 유행 주기가 점점 짧아지고 있다고 전합니다. 큰 비용을 광고와 홍보에 들이기에는 망설일 수 밖에 없습니다. 자금 사정이 넉넉지 못한 면도 크고요. 그래서 이들 업체들이 선택한 게 유튜브나 소셜미디어이고 바이럴입니다. 다만 반짝 이슈에 그치지 않게 하려면 소비자들이 직접 콘텐츠를 만들게 해야 합니다. 소비자들이 먹으면서 재미있게 영상을 만들어 올릴 수 있는 마당을 마련해주는 것이지요. 앞으로도 이런 경향은 더 강해질 것으로 보입니다. 먹방은 비용을 이유로 TV나 신문 등 전통 매체에서 소외됐던 중견·중소 식품기업들 입장에서 마케팅의 장이 됩니다. 주시청자들이 먹을 것에 관심 많은 젊은 층들이기 때문이겠죠. 그러나 먹방에 있어 광고·협찬을 받고 찍는 영상인지, 순수 리뷰 영상인지는 구분해줄 필요가 있습니다. 그래야 순수하게 리뷰를 하면서 소비자들에게 정보를 주는 먹방 콘텐츠가 빛을 발할 수 있겠죠. 그 순수성이 신뢰를 얻을 때 콘텐츠는 지속력을 갖게 됩니다. 지금의 먹방이 제품 알리기에는 좋아 보입니다만, 소비자들의 신뢰를 얻을만큼의 노력이 전제돼 있을까요? 여러분은 어떻게 생각하시나요? 김유성 (kys401@edaily.co.kr) 네이버 홈에서 ‘이데일리’ 뉴스 꿀잼가득 , 청춘뉘우스~ ＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp;amp; 재배포 금지＞</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>같은 약 6社가 복제…바이오시밀러 경쟁 격화</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>국내 바이오·제약사 잇따라 황반변성 시밀러 개발나서 퍼스트무버 지위 확보위해 출혈경쟁·수익성 악화 우려 중간에 기술 수출 나서거나 바이오베터로 차별화 필요 국내 기업 간 바이오시밀러(바이오의약품 복제약) 출시 경쟁이 격화되고 있다. 얼마 전까지만 해도 대기업과 중소 제약사가 개발하는 바이오시밀러가 달랐지만, 이제는 회사 규모와 관계없이 개발 제품이 중복되는 사례가 늘면서 수익성 악화에 대한 우려가 커지고 있다. 업계 관계자는 "바이오시밀러가 오리지널 못지않게 약효를 인정받으면서 국내외 기업들이 대거 바이오시밀러 시장에 뛰어들고 있다"며 "특히 블록버스터급 오리지널 약을 바이오시밀러로 개발하는 데 국내 기업 간 경쟁이 치열해지고 있다"고 최근 바이오시밀러 시장 분위기를 전했다. 국내 기업의 참여가 많은 바이오시밀러 분야 중 하나는 시력장애를 동반한 고령화 질환인 황반변성 치료제다. 오리지널 약인 독일 바이엘 '아일리아'와 스위스 노바티스 '루센티스'를 복제한 바이오시밀러 시장을 잡기 위해 국내 5~6개 업체가 뛰어들었다. 시장조사 기관인 아이큐비아 등에 따르면 지난해 전 세계적으로 아일리아와 루센티스 판매액은 각각 8조원, 4조원에 달했다. 내년 물질특허 만료를 앞둔 루센티스에 대한 바이오시밀러 개발에는 삼성바이오에피스를 비롯해 종근당, 일동제약 등이 뛰어들었다. 아일리아의 바이오시밀러에는 알테오젠과 삼천당제약이 도전장을 냈다. 삼성바이오에피스는 이미 루센티스의 바이오시밀러 제품 'SB11'에 대해 글로벌 임상 3상을 진행 중이다. 제약사 중에서 바이오시밀러 사업이 활발한 종근당도 'CKD-701'이란 바이오시밀러 제품에 대해 서울대병원, 삼성서울병원 등 25곳에서 국내 임상 3상을 진행하고 있다. 일동제약도 노인성 황반변성 치료제로 쓰일 바이오시밀러 'IDB0062'를 개발하고 있다. 아일리아 쪽은 알테오젠이 국내에서 임상 1상을 하고 있고, 전임상 단계인 삼천당제약은 지난 4월 유럽의약품청(EMA)으로부터 글로벌 임상을 위한 최종 검토의견서를 수령했다. 아일리아의 물질특허는 일본 미국 유럽에서 2022~2025년 종료되지만, 물질을 안정화시키는 제형과 제제에 대한 특허가 남아 있어 아일리아 바이오시밀러는 2027~2030년이 돼야 출시될 것으로 보인다. 알테오젠 관계자는 "아일리아 관련 특허 장벽이 높고 해외 제약사들도 바이오시밀러 개발에 나서고 있어 경쟁이 센 편"이라며 "판매도 10년이 지나야 가능한 만큼 임상 3상 단계에서 기술 수출을 진행할 것"이라고 밝혔다. 희귀 질환 치료제인 '솔리리스'의 바이오시밀러는 전 세계에서 3곳이 개발하고 있는데, 이 중 2곳이 국내 업체다. 솔리리스는 미국 제약사 알렉시온이 만든 발작성 야간 혈색소뇨증(PNH) 치료제로 지난해 전 세계적으로 35억6300만달러( 약4조3000억원)의 매출을 올렸다. 국내에서는 삼성바이오에피스가 지난 3월 'SB12'란 프로젝트로 글로벌 임상 1상을 마쳤고 임상 3상에 들어갔다. 경쟁사는 같은 임상 3상 단계에 있는 글로벌 제약사 암젠 외에 국내 기업인 이수앱지스가 있다. 이수앱지스는 호주와 뉴질랜드에서 진행하고 있는 임상 1상을 연내 완료한 뒤 내년부터 임상 3상에 진입할 계획이다. 이수앱지스 관계자는 "정상적인 임상 진행과 함께 해외 기업에 기술 수출을 하는 것도 추진 중"이라고 밝혔다. 지난해 전 세계 매출액이 69억5700만달러(약 8조2000억원)에 달해 전 세계 4위 의약품에 이름을 올린 대장암 치료제 '아바스틴' 바이오시밀러는 삼성바이오에피스가 지난달 중순 유럽에 판매허가를 신청했고, 미국에는 하반기 신청을 예정하고 있다. 셀트리온은 아바스틴의 바이오시밀러인 'CT-P16'에 대해 글로벌 임상 3상을 진행하고 있다. 업계 인사는 "오리지널 바이오의약품 특허 기간이 끝난 뒤 가장 먼저 바이어시밀러 제품을 내놓는 '퍼스트 무버'가 되려면 과거에는 해외 기업 동향만 살피면 됐지만, 이제는 국내 업체들도 경쟁 상대로 부상하고 있다"며 "비용 절감 등을 위해 기술 수출을 하거나 기존 제품에 효능을 추가한 바이오베터를 만드는 등 차별화가 필요하다"고 주문했다. [김병호 기자] [ⓒ 매일경제 &amp;amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>국내 연구진, 암세포 공격력 강화 세포치료제 기술 개발</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>한국연구재단은 차의과학대 박경순·박우람·한동근 교수 공동연구팀이 생체재료 기반 나노 기술을 이용, 암세포에 구멍을 내 죽이는 자연살해세포가 암세포를 보다 잘 공격하도록 만드는 세포치료제 제작기술을 개발했다고 25일 밝혔다. 우리 몸에 선천적으로 존재하는 자연살해세포는 바이러스에 감염된 세포나 암세포를 선택적으로 인식한 후 즉각 파괴한다. 다른 면역세포와 달리 면역거부반응이 적어 건강한 사람의 세포를 환자에게 사용할 수 있다. 하지만 자연살해세포의 자체방어기작 때문에 외부에서 인식강화유전자를 도입하기가 쉽지 않다. 바이러스를 이용해 암세포 인식강화 유전자를 자연살해세포 내로 전달하려는 방식은 바이러스를 매개체로 한다는 점에서 안전성 측면에서 다소 불리하다. 차의과학대 연구팀은 바이러스 대신 형광을 띠는 자성 나노입자를 암세포 인식강화 유전자와 함께 전달함으로써 자연살해세포 내로 유전자가 전달되는 효율을 높였다. 고분자 생체재료를 나노입자 위에 겹겹이 쌓는 삼중코팅 방식을 통해 자연살해세포의 자체 방어기작을 회피하도록 설계했다. 나노입자의 도움으로 자연살해세포 표면에 암세포 인식강화 단백질이 정상적으로 만들어지는 것과 악성유방암세포벽에 구멍을 내 파괴하는 능력이 향상된 것을 확인했다. 과학기술정보통신부·한국연구재단 개인기초연구 사업과 보건복지부 연구중심병원육성과제 지원으로 수행된 연구 성과는 국제학술지 '바이오머티리얼스‘에 이번달 9일 게재됐다. 박경순 교수는 "차세대 항암면역세포로 주목받는 자연살해세포를 자유자재로 엔지니어링할 수 있는 기술을 개발했다"고 설명했다. [설성인 기자 seol@chosunbiz.com] chosunbiz.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>KT, “갤노트10+ 배터리 이용시간 4시간21분 증가”</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>[디지털데일리 최민지기자] KT 이용자는 5G 배터리 절감 기술(C-DRX)로 삼성전자 ‘갤럭시노트10플러스’를 4시간21분 더 사용할 수 있다. KT(대표 황창규)는 서울·수도권, 강원, 부산, 울산, 경남 등에 우선적으로 5G C-DRX 기술을 적용한 데 이어 8월1일 기준 전국망 확대 적용을 완료했다고 25일 밝혔다. 한국정보통신기술협회(TTA)가 갤럭시노트10플러스로 5G C-DRX 기술 적용 전후 배터리 사용시간을 테스트한 결과, 사용시간이 최대 4시간21분 증가한 것으로 확인됐다. 동일한 환경에서 같은 서비스를 이용해 배터리 소모 시간을 측정했는데, C-DRX를 도입했을 때 배터리가 최대 11시간4분, 최소 10시간24분간 지속한 반면 C-DRX를 탑재하지 않은 경우 최대 6시간57분, 최소 6시간43분간 동작했다. 이는 배터리 사용시간이 약 65% 증가한 것으로 ‘갤럭시S10 5G’에 C-DRX를 적용했을 때보다 4% 가량 효과가 늘어난 결과다. KT 네트워크연구기술지원단장 이수길 상무는 “KT는 LTE에 이어 5G에서도 가장 먼저 C-DRX 기술을 전국 확대 적용해 전국 어디서나 고객들이 배터리 절감효과를 누릴 수 있게 됐다”고 말했다. &amp;lt;최민지 기자&amp;gt;cmj@ddaily.co.kr &amp;lt;저작권자 © 디지털데일리 무단전재-재배포금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>[주말N수학]피보나치도 울고 갈 파인애플 볶음밥</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>열대과일 파인애플에 피보나치 수열이 숨어 있다.게티이미지뱅크 달콤새콤한 열대과일 파인애플에도 피보나치 수열이 숨어있습니다. 피보나치 수열은 이탈리아 수학자 레오나르도 피보나치의 이름을 딴 수열입니다. 1, 1, 2, 3, 5, 8, 13, 21, 34, 55, 89, 144…처럼 두 개의 1로 시작해서 연이은 두 수를 더해 다음 항을 만드는 수열입니다. 피보나치의 이름을 따르긴 했지만, 피보나치 수열을 처음 생각해낸 건 피보나치가 아닙니다. 피보나치 수열이 처음 문헌에 등장한 건 기원전 5세기 인도 수학자 핑갈라의 책에서였고, 그보다 훨씬 전부터 쓰였을 가능성이 높습니다. 하지만 피보나치가 자신의 책 ‘산술의 서’ 12장에서 토끼 번식에 관한 문제로 피보나치 수를 설명하면서 유명세를 타서 피보나치 수열이라 불리게 되었습니다. 피보나치 수열은 매우 간단하지만 수학 전반에 걸쳐 등장하는 중요한 개념입니다. 기하학, 대수학, 정수론 등 다양한 수학 분야에서 쓰일 뿐 아니라, 자연 속에서도 아주 쉽게 발견할 수 있습니다. 해바라기, 솔방울, 나뭇가지 배열, 수벌의 가계도 등 자연의 모습이나 식물의 생장을 설명할 때 피보나치 수열은 빼놓을 수 없습니다. 파인애플 역시 그 예시 중 하나입니다. 파인애플 껍질은 육각형 알맹이들이 서로 다른 3종류의 나선 방향으로 얽혀 이뤄져 있습니다. 피보나치 수열은 이 나선의 개수에서 찾을 수 있습니다. 같은 방향의 나선의 수가 꼭 5, 8, 13, 21 같은 피보나치 수가 되기 때문입니다. 아래 그림처럼 전체 껍질을 펼쳤을 때, 같은 육각형 알맹이를 기준으로 ①번 방향 나선은 5줄이 나오고, ②번 방향 나선은 8줄, ③번 방향 나선은 13줄이 나옵니다. 수학동아 제공 이런 특징은 다른 식물에서도 관찰할 수 있습니다. 솔방울 역시 나선으로 이뤄져 있는데, 각 방향을 따라 생성된 나선의 개수는 대부분 연속한 피보나치 수고, 해바라기 씨의 나선도 피보나치 수를 따릅니다. 식물의 나선뿐만 아니라 꽃잎의 수나 잎사귀의 배열에서도 피보나치 수열을 발견할 수 있습니다. 식물의 줄기에 붙어있는 잎의 배열을 살펴봅시다. 한 줄기의 가장 낮은 위치에 있는 잎사귀에서 관찰을 시작합니다. 첫 번째 잎에서 시작해 줄기를 기준으로 회전하며 올라가 이 잎사귀와 완전히 똑같은 방향에 있는 잎사귀를 찾을 때까지 개수를 세는 겁니다. 그러면 신기하게도 같은 방향에 있는 잎사귀에 도착할 때까지 회전한 횟수가 피보나치 수가 되고 이 두 잎 사이의 잎사귀 개수 역시 피보나치 수가 됩니다! 특히 야자수에서 이와 같은 피보나치 수열을 흔히 발견할 수 있습니다. 수학동아 제공 식물의 생장 비밀은 '피보나치 수열' 이 정도면 식물들이 그야말로 피보나치 수열을 바탕으로 자라고 있다고 말할 수 있겠습니다. 그러면 왜 이런 현상이 나타나는 걸까요? 식물 생장의 비밀을 찾기 위해 수학자, 식물학자 등 많은 사람이 연구를 해오고 있지만 아직 확실한 결론을 얻지는 못했습니다. 다만 식물의 씨앗을 고르게 배열하기 위한 최적의 분포가 피보나치 수열을 따르기 때문일 거라 추측하고 있습니다. 너무 중앙에만 몰려 있거나 가장자리로 갈수록 듬성듬성해지면 생장과 번식에 효율적이지 못하기 때문입니다. 알프레드 포사멘티어 미국 뉴욕시립대 수학교육과 교수와 잉그마 레만 독일 베를린 훔볼트대 수학과 교수는 도서 '피보나치 넘버스'에서 "야자수 각각의 잎사귀가 차지하는 공간이 최대한 충분하고 빛을 많이 받게끔 하는 배열과 관련이 있을 것"이라고 추측하며 "오랜 세대를 거치면서 생존에 유리한 방향으로 진화한 것이 아닐까"라고 덧붙였습니다. 이들은 식물의 기하학적 배열에 대한 가장 '괄목할 만한 결과'로 1992년 발표한 프랑스 수리물리학자 스테판 두아디와 이브 쿠더의 논문을 꼽았습니다. 두아디와 쿠더는 컴퓨터 모델링을 이용해 식물의 생장에 작용하는 이론을 발전시켰고, 피보나치 패턴과 관련된 실험을 진행했습니다. 그들은 식물에 숨겨진 황금각(137.5도)을 동역학으로 설명하기도 했습니다. 이 결과는 식물학만으로 설명하기 어려웠던 식물의 배열을 새로운 관점에서 바라보게 했고 이후로도 오랫동안 ‘두아디와 쿠더 방정식’은 식물 생장 연구의 모형으로 쓰였습니다. 식물 생장 패턴까지 포함한 방정식 발견 그런데 최근 두아디와 쿠더의 방정식을 보완한 새로운 방정식이 등장했습니다. 2019년 6월 스기야마 무네타카 일본 도쿄대 교수팀은 두아디와 쿠더의 방정식으로 설명하지 못했던 식물까지 포함하는 변형된 방정식을 발표했습니다. 피보나치 수열을 따르지 않는 식물 종이 어떻게 배열 패턴을 나타내는지 알아낸 것입니다. 상산나무는 기존의 식물 생장 모델로는 배열 패턴을 만들지 못했던 식물입니다. 연구팀은 예외라고 여겨졌던 상산나무 역시 식물 생장 모형을 이용해 나타낼 수 있으리라 생각했고 기존에 쓰이던 모형에 새로운 변수를 추가해 상산나무가 어떻게 자랄지 예측했습니다. 결과는 실제 상산나무의 모습과 일치했습니다. 이 방정식은 상산나무 하나만이 아니라 상산나무와 비슷한 종류의 다른 식물에도 적용할 수 있습니다. 연구를 이끈 스기야마 교수는 “우리의 모형은 잎이 둘러서 나는 모든 주요 식물의 잎사귀 배열 패턴을 생성할 수 있다”며 “또한 다른 자연에서 나타나는 여러 종류의 패턴에도 잘 맞는다”고 새로운 방정식의 우수성을 설명했습니다. 그러나 아직 과제는 남아있습니다. 기하학적 계산을 통해 식물이 어떻게 자랄지 예상할 수는 있지만, 왜 그런 모양으로 자라는지는 여전히 정확히 알지 못하기 때문입니다. 무작위로 자라는 것 같았던 식물들이 아주 정확한 규칙을 지키며 자라고 있다니 정말 놀랍습니다. 관련기사 수학동아 8월호, [수數 셰프의 맛있는 수학] 피보나치도 울고 갈 파인애플 볶음밥 참고자료 알프레드 포사멘티어, 잉그마 레만 ‘피보나치 넘버스’, Takaaki Yonekura ‘Mathematical model studies of the comprehensive generation of major and minor phyllotactic patterns in plants with a predominant focus on orixate phyllotaxis’ [박현선 기자 tempus1218@donga.com]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>한경연 “日 반·디 소재 R&amp;D 비용, 韓 대비 41배”</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[디지털데일리 김도현기자] 한국 반도체·디스플레이 핵심 소재·부품 기업의 연구개발(R&amp;amp;D) 지출액이 일본보다 적은 것으로 나타났다. 25일 한국경제연구원(이하 한경연)은 한국과 일본의 소재·부품기업 1만117개사(한국 2787곳, 일본 7330곳)를 분석, 이같은 결과가 나왔다고 밝혔다. 한경연은 “소재 생산기업 5곳 중 3곳 꼴로 일본 기업의 R&amp;amp;D가 한국보다 많았다”며 “부품 업체의 평균 R&amp;amp;D 지출액은 양국 기업이 서로 비슷했다”고 설명했다. 소재부문에서 일본 기업의 평균 R&amp;amp;D 지출액은 한국 기업의 1.6배였다. 세부 품목별로는 1차 금속 5.3배, 섬유 5.1배, 화합물 및 화학제품 3.1배였다. 이 가운데 반도체·디스플레이 화학소재 기업만 분석하면 일본이 한국의 40.9배였다. 부품부문은 다른 양상을 보였다. 일본 기업의 R&amp;amp;D 지출액이 한국의 40%에 불과했다. 반도체 등 전자부품에서 한국 기업의 R&amp;amp;D 지출액이 일본의 8.2배에 달했다. 다만 정밀기기부품은 일본의 평균 R&amp;amp;D 지출액이 한국에 비해 7.0배, 수송기계부품은 2.3배, 전기장비부품은 2.0배 컸다. 한경연은 전자부품 품목에서 반도체 착시효과가 있다고 분석했다. 반도체를 제외할 경우 전체 부품 부문에서 일본 기업이 60% 많다. 유환익 한경연 혁신성장실장은 “한국 소재·부품산업은 반도체 쏠림이 심한 반면 화학, 정밀부품 등 다른 핵심 소재·부품에서 갈 길이 멀다”면서 “꾸준한 R&amp;amp;D 지원과 화평법, 화관법 등 화학물질 관련 규제 및 노동 관련 규제 개선이 필요하다”고 지적했다. &amp;lt;김도현 기자&amp;gt;dobest@ddaily.co.kr &amp;lt;저작권자 © 디지털데일리 무단전재-재배포금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>LG유플러스, KB알뜰폰에 '5G+LTE' 망 공급 확정</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>LG유플러스 CI KB국민은행 CI LG유플러스가 KB국민은행 알뜰폰 'KB알뜰폰'(가칭)에 롱텀에벌루션(LTE)과 5세대(5G) 이동통신 망 공급을 확정했다. KB알뜰폰은 이통사가 알뜰폰에 5G 망을 공급하는 첫 사례일 뿐만 아니라 거대 금융사업자인 KB국민은행의 알뜰폰 시장 진출로 주목받고 있다. 5G 알뜰폰 첫 단말은 10월 출시 예정인 보급형 5G폰 단말 '갤럭시A90 5G'가 유력하게 거론된다. LG유플러스 관계자는 25일 “망 공급을 확정짓고 도매대가 협의가 마무리 절차를 밟고 있다”면서 “다음 달 양측 간 최종 확정 사항을 발표할 것”이라고 말했다. LG유플러스는 알뜰폰 시장 지원과 자사 회선 가입자 확대가 KB알뜰폰 5G 도매 공급 배경이라고 밝혔다. LG유플러스 내부에서도 KB알뜰폰이 단순 알뜰폰이 아니라 금융·통신 혁신 서비스로 적절하다는 공감대가 이뤄진 것으로 알려졌다. KB알뜰폰은 양측 간 요금제, 유통 방식에 대한 논의가 끝난 후 10월께 출시될 것으로 전망된다. LG유플러스 관계자는 “출시 시기와 요금제, 유통 방식은 KB국민은행 의지에 달렸다”면서 “우리는 도매 제공에 따른 전산 개발, 요금제 개발 등을 지원할 것”이라고 밝혔다. KB알뜰폰용 스마트폰으로는 보급형 스마트폰 갤럭시A90뿐만 아니라 기존 갤럭시S10 5G와 갤럭시노트10 시리즈도 거론된다. 보급형 단말뿐만 아니라 플래그십을 위한 프로모션도 준비, 저가나 중고 단말 위주로 형성된 알뜰폰 이미지를 불식시킨다는 전략이다. 과학기술정보통신부는 LG유플러스의 5G 공급 결정에 환영 의사를 표시했다. 과기정통부 관계자는 “이통사가 아닌 다양한 사업자가 알뜰폰 시장에 진출해 여러 서비스를 내놓고 마케팅을 적극 펼친다면 알뜰폰 시장 활성화에도 도움이 될 것”이라면서 “다만 기존 5G 요금제 가격대가 높은 만큼 얼마나 알뜰폰 시장에 적절한 요금이 나와 줄지가 관건”이라고 평가했다. 자료. 게티이미지뱅크 KB알뜰폰이 타 알뜰폰이 공급하는 LTE에 더해 5G 망까지 확보하면 거대 알뜰폰 사업자가 될 공산이 크다. KB알뜰폰은 알뜰폰에 은행·증권·보험 등 계열사 서비스를 연계한 차별화 서비스를 선보일 예정으로, 기존 KB 고객이 통신요금 할인과 인증서·애플리케이션(앱)을 통한 금융 서비스를 동시에 누릴 수 있어 큰 호응이 예상된다. 거대 알뜰폰 사업자 출현에 따른 중소 알뜰폰 사업자 위기를 우려하는 시각도 있다. 지금도 CJ헬로와 이통 자회사인 SK텔링크, KT엠모바일 등이 알뜰폰 가입자 대다수를 차지하고 있기 때문이다. 통신업계 관계자는 “거대 금융사업자가 가세해 5G 요금제를 통해 과도한 가입자 뺏기 등이 진행되면 중소 알뜰폰은 생존이 어려워질 수 있다”고 말했다. 정예린기자 yeslin@etnews.com [Copyright ⓒ 전자신문 &amp;amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>국내 시스템반도체 설계 업계, 상반기도 '우울'</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>반도체 웨이퍼. &amp;lt;사진=SEMI 코리아&amp;gt; 국내 시스템 반도체 기업 2019년 상반기 영업이익 분석. &amp;lt;전자신문 DB&amp;gt; 국내 시스템반도체 설계 기업들이 상반기 우울한 실적을 기록했다. 중국 업체들의 저가 공세, 미-중 무역분쟁 심화 등으로 규모가 작은 설계 업체들이 버티기 힘들었다는 지적이다. 25일 국내 매출 상위 20개(2018년 기준) 시스템반도체 설계 회사 영업이익 실적을 종합한 결과, 9개 기업이 적자를 기록한 것으로 나타났다. 영업이익이 작년보다 감소한 기업은 11개였다. LG그룹 계열 시스템반도체 회사이자 업계 1위인 실리콘웍스 영업이익은 작년 상반기 136억8600만원에서 41.57% 감소한 79억9600만원을 기록했다. 보급형 메모리 설계 양산으로 지난해 실적 상승세를 기록했던 제주반도체는 올 상반기 14억600만원으로 지난해 같은 기간보다 83.18% 급감했다. 이밖에 아나패스, 크로바하이텍, 아이에이, 픽셀플러스 등 적자 폭은 더욱 늘어난 것으로 나타났다. 시스템반도체 설계 업체들은 반도체 칩 설계를 주로 담당하는 곳이다. IT 기기에 필요한 칩 구조를 설계하면 삼성전자, DB하이텍, 대만 TSMC 등 파운드리에서 칩을 만든다. 설계 업체들은 이 반도체를 스마트폰, TV 제조사들에 공급한다. 사물인터넷(IoT), 인공지능(AI) 시대 개화로 시스템반도체가 각광받고 있지만 국내 기업은 제한된 수요 등으로 고전하고 있다. 특히 올 상반기는 미-중 무역분쟁 장기화로 더욱 고전한 것이라는 분석이다. 업계 관계자는 “지난해 말부터 일어났던 미국과 중국 간 무역 분쟁이 길어지면서 실적에도 적잖은 영향을 줬다”고 전했다. 메모리 시장에서의 더딘 가격 회복세도 범용 메모리를 생산하는 제주반도체에도 악영향을 미친 것으로 풀이된다. 아울러 중국 시스템반도체 업계 확장도 국내 기업의 설자리를 좁게 만들고 있다. 이미 중국에는 1800개 이상 반도체 설계 기업이 있고 이들은 한국의 기술과 비슷하거나 이미 한 수 넘어섰다는 평가다. 중국 구딕스는 네덜란드 시스템반도체 업체 NXP 오디오솔루션 사업부를 인수하는 등 덩치를 키우고 있다. 올해 국내 파운드리 및 시스템반도체 패키징 업체 실적 증가와 공장 '풀가동'은 국내 설계 업체들의 약진이라기보다 중화권 업체들의 수주 증대가 크게 작용했다는 분석이다. 실제 DB하이텍의 2015년 반기 내수 매출은 1715억원으로 전체 매출 60%가량 차지했지만 올 상반기는 734억원으로 내수 매출이 20%에 불과하다. 4년 만에 상황이 뒤집힌 것이다. 업계 관계자는 “국내 파운드리 호황은 삼성전자 시스템LSI사업부와 중화권 물량이 늘어났기 때문으로 보인다”고 전했다. 하반기에도 설계 업체들의 고전은 지속될 것으로 보인다. 한 시스템반도체 업체 대표는 “상반기와 크게 달라지지 않을 것으로 본다”고 말했다. 또 “지난 4월 정부가 발표한 시스템반도체 지원 효과는 시간이 지나야 효과를 볼 수 있을 것”이라고 덧붙였다. 쉽지 않은 상황에서도 실적 증가를 기록한 기업들도 있다. 차량용 반도체 전문 업체인 텔레칩스는 상반기 매출이 34.25% 증가한 35억7100만원을 기록했다. 중국 시장 물량이 증가한 동운아나텍은 지난 2분기 흑자전환으로 작년 동기 대비 83% 증가하면서 적자폭을 크게 줄였다. 강해령기자 kang@etnews.com [Copyright ⓒ 전자신문 &amp;amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>저녁부터 16시간 굶으면, 정크물질 분해돼 살 빠져</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>식후 12시간 되면 ‘굶는 상황’ 신호 세포 청소 안 될 땐 정크물질 쌓여 신호전달 막아 치매·파킨슨 생겨 ‘아침은 왕, 저녁엔 거지처럼’ 식사 단식 땐 대장 줄기세포도 젊어져 완벽한 효과 보려면 3~4일 굶어야 ━ 김은기의 바이오토크 성인 3명 중 1명이 비만, 즉 체질량지수(BMI) 25 이상이다. 뱃살 줄이는 방법으로 가끔 굶는 소위 ‘간헐적 단식’이 유행이다. 덜 먹으니 체중 주는 건 당연하다. 하지만 단식 진수는 다른 데 있다. 바로 디톡스다. 굶으면 몸에 쌓인 독소가 제거, 회춘한다. 굶는 건 세포 영양분이 떨어지는 악재인데 이게 왜 건강에 호재일까. 어릴 적 기르던 개가 무얼 잘못 먹었는지 토하더니 도통 밥을 안 먹었다. 걱정스러워 이것저것 챙겨주지만 입도 안 댄다. 주위 어른들은 “나으려고 저런다. 놔두어라”고 한다. 이틀 굶은 개는 다시 먹기 시작했다. 굶는 단식이 치유효과가 있는 걸까. 고대 이집트에서는 매년 30일씩 단식으로 몸을 다스렸다. 현대의학 대부 그리스 히포크라테스는 “자연치유력이 최고다. 아플 때 먹는 것은 질병을 키우는 것”이라며 단식을 강조했다. 한두 끼 굶는 것이 건강 증진 효과를 낼까. 최근 과학이 속을 들여다보았다. 답은 ‘그렇다’이다. 가끔 한 끼 굶으면 뱃살은 금방 줄지 않는다. 하지만 몸에서는 금방 정크단백질을 분해하고 새로운 물질을 만든다. 이게 잘되면 줄기세포도 젊어진다. 잘 안되면 치매· 파킨슨·당뇨가 생긴다. 노벨 생리의학상을 받은 자가소화(autophagy), 즉 ‘스스로(auto) 먹어 버리는(phagy)’ 원리다. 이 원리를 알면 어떻게 다이어트를 해야 할지 감이 잡힌다. 핵심은 저녁-아침 사이 긴 공복으로 정크물질을 분해, 리사이클시키는 거다. 1 히포크라테스 “아플 때 먹으면 질병 키워” 한국 외환 위기 당시 다수의 회사는 구조조정에 들어갔다. 회사 내 불필요한 조직을 분해해서 새로운 팀을 만들었다. 음식을 굶는 건 동물들에게는 가장 큰 위협이다. 길어지면 굶어 죽는다. 몸은 어떻게 대응하고 어떤 효과가 날까. 올해 하버드의대 연구진은 굶는 단식이 어떻게 질병(치매·파킨슨)을 예방·치유할 수 있는지 분자수준에서 조사했다. 식사 후 12시간이 지나자 쥐는 ‘굶는 상황’이라는 비상 신호를 발신한다. 이 신호를 받은 세포들은 분주해진다. 모든 물질을 조사해서 불필요한 놈들, 특히 잘못 만들어진 단백질들에게 ‘딱지’를 붙였다. 딱지 붙은 놈들을 전담팀이 트럭에 실어 ‘리사이클 공장’으로 옮겨가 분해한다. 이걸로 다시 정상 단백질을 조립한다. ‘굶는 신호’를 받은 지 5분 만에 시작, 1시간이면 리사이클 과정이 끝난다. 이런 재생작업은 매일 계속된다. 이것이 제대로 안되면 체내에 정크물질이 쌓인다. 알츠하이머 치매나 파킨슨은 정크단백질(베타아밀로이드·타우·알파시누클린)이 신호전달을 막아 생긴다. 올해 캘리포니아대 연구팀은 정크단백질 자체보다도 이놈들을 분해해야 할 리사이클 공장(라이소좀)이 제대로 작동되지 않아 치매가 생긴다고 발표했다. 이런 두뇌 리사이클 작업은 주로 잠잘 때 일어난다. 잠을 제대로 못 자거나 정크단백질을 제대로 분해, 리사이클하지 못하면 치매·파킨슨이 생긴다. 단식으로 리사이클되는 게 하나 더 있다. 세균·바이러스도 딱지를 붙여 청소차에 실어 재활용센터로 보내 버린다. 물론 균 침입 시 면역도 작동한다. 하지만 리사이클 방법이 면역부작용(과한 염증, 자가면역)이 없어 더 안전하다. 올해 독일 연구진은 이를 분자수준에서 확인했다. 살모넬라 등 병원균 56종을 감염시켰더니 대장상피세포가 침입균 단백질에 딱지를 붙여 리사이클시킬 수 있음을 확인했다. 어릴 적 보았던 아픈 개도 식중독균 감염 속에서 스스로 살아남는 법을 알고 있었던 셈이다. 단식으로 병을 고치는 비결이 리사이클이다. 비결이 하나 더 있다. 리셋이다. 단식은 제2 시계를 리셋시킨다. 제1 시계는 두뇌 속 생체시계다. 새로 발견된 제2 시계는 배꼽시계다. 즉 간·근육 등 신체말단조직 유전자들이 배꼽시계에 맞추어 일사분란하게 움직인다. 배꼽시계와 두뇌생체시계는 독립적이지만 서로 연관되어 있다. 아침 7시에 기상한다면 두뇌 생체시계는 4시쯤 심장박동을 조절하고 수면호르몬인 멜라토닌도 낮춘다. 반면 배꼽시계 유전자는 매번 들어오던 식사 시간에 맞추어 간·근육세포를 미리 준비시킨다. 실제로 간·근육 유전자 중 73%는 식사에만 반응하는 순수 배꼽시계 유전자, 나머지는 두뇌생체시계와 연관되어 있다(2019, 셀리포트). 문제는 이 두 시계가 서로 엉켰을 때다. 식사시간이 불규칙해지면 배꼽시계 유전자가 헝클어진다. 식사가 들어왔는데도 인슐린이 준비되지 않는다. 헝클어진 배꼽시계는 대사질환을 일으킨다. PC 프로그램이 엉키면 PC를 리셋시켜야 한다. 시차로 틀어진 두뇌생체시계는 햇볕 쬐는 것으로 리셋한다. 헝클어진 배꼽시계 리셋방법은 단식이다. 배꼽시계가 리셋되고 생체물질이 리사이클되면 몸에 무슨 효과가 있을까. ‘자가소화’ 리사이클은 굶은 상태가 핵심 이슬람 5대 의무 중에 라마단 금식이 있다. 굶는 극기로 신앙심을 높인다. 일 년에 한 달간, 해 뜰 무렵부터 질 때까지, 15시간씩 금식이다. 단식자들 혈액을 검사하니 인슐린 민감성을 높이고 대사질환을 낮추는 물질들(TPM)이 모두 높아져 있었다. 라마단 단식이 정신뿐만 아니라 육체도 젊게 만든 셈이다. 단식은 대사질환을 막을 뿐 아니라 대장 줄기세포도 젊게 만든다. 대장 상피세포는 각종 음식, 장내 미생물과 접촉해서 쉽게 상처를 입는다. 줄기세포가 이를 보충한다. 굶을 경우 이런 대장재생능력이 더 높아진다(2018, 셀스템셀). 고대부터 단식하면 장수한다고 했다. 현대과학이 이를 증명한 셈이다. 단식은 건강에 좋다. 그건 맞다. 하지만 ‘사흘 굶어 담장 안 넘는 놈 없다’고 했다. 더구나 굶다가 먹으면 폭식하기 십상이다. 보통사람들이 쉽게 할 수 있는 일상적 단식방법은 없을까? 간디는 저항의 표시로 21일간 단식을 했다. 단식이 시작되면 몸은 초비상이다. 혈중 포도당은 금방 떨어지고 간·근육에 쌓아둔 단기비상식량인 글리코겐이 소비되고 장기비상식량인 지방이 분해되어 포도당으로 변환되는 ‘케토(Keto)’대사가 시작된다. 이렇게 완벽한 단식효과를 보려면 3~4일 굶어야 한다. 독해져야 한다. 독종 아닌 보통사람이 일상에서 청소효과를 볼 수 있는 다이어트방법이 필요하다. 다이어트는 식사종류와 함께 식사방법도 중요하다. ‘아침은 왕처럼, 점심은 평민처럼, 저녁은 거지처럼’이란 말이 사실일까. 미국 성인 5만660명을 7년간 추적 조사했다. 사람들 식사습관(식사횟수·시간·식사량·간식)에 따라 비만도(BMI)가 달랐다. 아침-왕, 점심-평민, 저녁-거지 속설이 사실이었다. 하루 1, 2회 식사를 하고, 아침은 잘 먹고, 저녁-아침 공복시간이 18시간인 그룹들이 비만도가 가장 낮았다(2017, 미영양학회지). 다른 연구에서도 12시간 공복(저녁-아침 사이 공복)그룹보다 16시간 공복그룹이 BMI가 낮았다. 저녁을 7시보다 4시에 먹으면, 체중감소는 비슷해도, 인슐린이 월등 낮았다. 요약해 보자. 저녁-아침 공복이 길수록 감량이 잘되고 리사이클로 건강증진 효과가 높다. 그럼 세끼 소식(小食)은? 소식은 장수촌 공통사항이다. 적게 먹으면 세포 내 보일러인 미토콘드리아가 최적 효율로 연소하면서 유해물질인 활성산소(ROS)가 덜 생긴다. 리사이클도 생긴다. 하지만 중간에 간식을 하면 ‘도루묵’이다. 세포 내에 조금이라도 에너지가 들어오면 ‘굶는 신호’가 사라진다. 인슐린이 다시 높아진다. 무엇보다 리사이클이 중단된다. 리사이클은 굶은 상태 ‘유지’가 핵심이다. 병에 걸려 아픈 개도 끼니를 굶음으로 몸을 고칠 줄 안다. 리사이클, 즉 자가소화(autophagy)가 모든 생물 기본 생존전략이란 의미다. 식사는 평생 습관이다. 본인에 맞는 리사이클 방법을 찾자. 그래서 청춘으로 돌아가자. 단식 습관 안 되면 요요 올 수도 ‘24시간 단식’은 주 1~3일 완전 금식한다. 폭식으로 이어질 수도 있다. ‘16:8 단식’은 저녁식사 후 16시간을 먹지 않는다. 조금 쉬운 방식이다. ‘5:2’단식은 2일간 반 정도 식사를 한다. 다이어트는 어떤 형태든 주의해야 한다. 평생 습관이 안 되면 도루묵이고 오히려 요요·폭식이 생긴다. 필수 영양소가 공급되어야 한다. 당뇨 등 기존 질병이 있는 경우 식습관을 변경하려면 반드시 전문의와 상의해야 한다. 김은기 인하대 교수 ekkim@inha.ac.kr 서울대 졸업. 미국 조지아공대 공학박사. 한국생물공학회장, 피부소재 국가연구실장(NRL), 창의재단 바이오 문화사업단장 역임. 인하대 바이오융합연구소(www.biocnc.com)를 통해 바이오테크놀로지(BT)를 대중에게 알리고 있다. ▶중앙SUNDAY ⓒ중앙SUNDAY and 중앙일보 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>"아이돌한텐 안 묻는데…왜 유튜버만 얼마 버냐가 관심이죠?"</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>스타 크리에이터 도티 "이젠 유튜브도 프리미엄 콘텐츠" 유튜브 크리에이터 '도티'가 23일 오후 서울 강남구 코엑스 그랜드볼룸에서 열린 '국제방송영상마켓(BCWW) 2019'에서 강연하고 있다. © News1 (서울=뉴스1) 박병진 기자 = "사람들은 잘나가는 배우나 아이돌에게는 '얼마 버냐'고 물어보지 않으면서 유튜버한테는 쉽게 물어봅니다. 유튜버의 수익보다는 콘텐츠에 관심을 가져줬으면 하는 바람입니다." 유튜브의 보급 속도만큼 콘텐츠를 만드는 유튜버에 대한 사회적 인식도 개선될 필요가 있다는 유명 크리에이터의 주장이 나왔다. 23일 서울 강남구 코엑스에서 열린 '국제방송영상마켓(BCWW) 2019'에서 구독자 252만명을 거느린 스타 유튜버 도티(본명 나희선)는 "지난해 삼성전자와 같이 스마트폰 '갤럭시A7'을 브랜디드 콘텐츠로 제작한 적이 있다"며 "메이저 브랜드는 어느 모델을 기용하느냐가 굉장히 중요한 일인데 삼성전자가 협업했다는 건 유튜버가 그만큼 가치를 인정받고 존중받는 시대가 된 것"이라고 말했다. 지금 대한민국은 바야흐로 유튜브 전성시대다. 애플리케이션(앱) 분석업체 와이즈앱에 따르면 지난 4월 유튜브의 국내 월간활성사용자(MAU) 수는 3271만명에 달했다. 10대부터 50대 이상까지, 모든 세대가 가장 오래 사용한 앱으로 유튜브가 꼽혔다. 그러나 콘텐츠를 만드는 유튜버의 사회적 인식은 유튜브 사용 빈도와 별개라는 지적이다. 실제로 지난해 10월부터 11월까지 한국노동연구원이 1인 미디어 콘텐츠 크리에이터 250명을 대상으로 설문조사를 실시한 결과 유튜버와 지위가 동일한 직업으로 단순노무자(18.5%)를 꼽은 사람이 가장 많았다. 이날 도티는 소위 '프리미엄 콘텐츠'를 정하는 기준이 바뀌어야 한다고 주장했다. 그는 "유튜브를 보는 '디지털 네이티브' 세대는 거실 TV 채널 선택권이 없기 때문에 유튜브를 보는 게 아니다"라고 지적했다. TV나 영화 같은 기존 프리미엄 콘텐츠 대신이 아니라 그냥 제일 재미있어서 유튜브를 본다는 것이다. 그는 이어 "누군가에게는 블록버스터 영화보다 도티TV의 20분 영상이 더 재미있을 수 있다"며 "프리미엄 콘텐츠는 제작비, 셀럽 출연 여부가 아니라 사용자 효용을 근거로 판단해야 한다"고 말했다. 유튜버도 기존 방송국, 엔터테인먼트사, 프로덕션처럼 프리미엄 콘텐츠를 만드는 사람이라는 논리다. 그는 또 "최근 유튜브를 쉬고 방송을 많이 하고 있는데, 유튜브 콘텐츠도 레거시 미디어 콘텐츠 못지않다는 인식을 높이기 위해 콜라보레이션을 열심히 하고 있다"며 "연예인 되고 싶어서가 아니라 레거시 미디어 방식의 좋은 점을 배우려는 것"이라고 밝혔다. 그는 지난 2월 이후로 유튜브 채널에 동영상을 거의 업로드하지 않는 대신 MBC 예능 프로그램 '라디오스타', '마이 리틀 텔레비전 V2' 등에 출연했다. 아울러 도티는 유튜브 전성시대가 이제 시작 단계며, 앞으로 더 성장할 것으로 내다봤다. 4차 산업혁명으로 기술이 고도화되면 사람들이 그로 인해 편해진 일상을 콘텐츠로 채우리란 것. 그는 "예를 들어 자율주행이 보급된다면 차 안에서 유튜브를 보는 사람이 많아지지 않겠느냐"며 "콘텐츠 산업은 미래가 확실히 보장된 일"이라고 내다봤다. 최근 화제인 유튜브 광고수입에 대해서는 '조회수 장사꾼'을 자처하면 안 된다고 선을 그었다. 도티는 "썸네일, 주제, 제목을 자극적으로 만들면 조회수가 잘 나올 때도 있지만, 매일 자극적인 콘텐츠를 만들다 보면 돌이킬 수 없는 상황에 빠지고 만다"며 "돈만 보고 유튜브를 시작하는 사람은 금방 지치고 콘텐츠의 한계가 금방 드러나게 된다"고 말했다. 그는 유튜버를 희망하는 사람들에게는 "짧게는 1~3년에서 길게는 평생까지 관심을 가지고 재밌게 할 수 있는 주제, 건강하고 지속가능한 콘텐츠에 대한 고민을 먼저 해야 한다"며 "대박을 치기보다는 꾸준히 콘텐츠를 업로드하고 사용자와 소통하며 소박을 차근차근 쌓아가는 게 1인 크리에이터로서의 성공 전략"이라고 조언했다. pbj@news1.kr [© 뉴스1코리아(), 무단 전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>“공인인증서가 필요할 땐 가까운 KT 직영매장으로”</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>[이데일리 김현아 기자] KT그룹의 전자금융 전문 계열사 이니텍(대표 강석모)이 공인인증서 대면 접수처를 전국의 250여개 KT 직영매장(KT M&amp;amp;S)으로 확대했다. 이니텍은 KT, KT M&amp;amp;S와 공인인증서 등록대행 기관 계약을 체결하고 지난 6월부터 주요 KT 직영매장 10곳에서 공인인증서 발급 서비스를 제공해왔다. 고객들은 통신사나 인터넷뱅킹 가입 유무와 관계 없이 이니패스 홈페이지에서 간단한 신청서를 작성하고 가까운 KT 직영매장을 방문하면 5분 만에 범용 공인인증서를 발급받을 수 있다. 이니텍이 발급하는 공인인증서는 사설 인증서와는 달리 인터넷 뱅킹, 온라인 주식거래, 전자민원 서비스 등 공인인증서가 필요한 모든 업무에 범용적으로 사용이 가능하다. 범용 공인인증서는 국가에서 지정한 공인인증기관을 통해서만 발급 받을 수 있으며, 이니텍은 지난해 6월 공인인증기관 지위를 획득했다. KT 직영매장은 금융기관의 영업점 이용 시간 이후인 평일 저녁이나 토요일과 공휴일(일요일과 명절 당일 제외)에도 운영해 평일 일과시간 중에 금융기관을 방문해 공인인증서를 발급 받기 어려운 직장인들이나 학생들이 편리하게 이용할 수 있다. 이니텍은 올 연말까지 개인 범용 공인 인증서(1년)는 무료로, 사업자 범용 공인인증서(1년)는 50% 할인된 5만 5천원에 발급받을 수 있는 프로모션을 진행한다. 9월 말까지 개인 범용 공인인증서를 신규 발급한 고객들은 LG전자 그램 노트북을 비롯해 아이패드, 금 1돈 등 총 2천만원 상당의 푸짐한 경품을 제공하는 ‘이니패스 빅 페스티벌’ 이벤트에 응모할 수 있다. 이벤트 결과는 오는 10월 14일 홈페이지를 통해 발표될 예정이며, 이외에도 주요 KT 직영매장과 이니패스 공식 SNS에서 다양한 프로모션과 게릴라 이벤트가 진행된다. 강석모 이니텍 대표는 “고객들이 보다 편리하게 공인인증서를 발급받아 사용할 수 있도록 대면 접수처를 계속해서 확대할 예정”이라며, “공인인증서 외에도 전자서명 및 다양한 생체 정보 인증과 비대면 실명확인 등 혁신적인 인증 서비스를 제공하는 차세대 통합 인증 플랫폼 이니패스 서비스를 선보이겠다” 고 밝혔다. 김현아 (chaos@edaily.co.kr) 네이버 홈에서 ‘이데일리’ 뉴스 꿀잼가득 , 청춘뉘우스~ ＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp;amp; 재배포 금지＞</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>"갤노트10 플러스 아우라글로우·블루는 없어서 못 판다"</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>공식출시 첫날 휴대폰 집단상가 가보니 “지원금 더해 40만원대 가능”…갤노트+ 256GB 아우라 글로 ‘인기’ 특정 색상 품귀현상 빚지만 전체 성적표는 지켜봐야 [이데일리 장영은 기자]“갤럭시노트10 이요? 큰 거(플러스 모델) 보시면 지금 아우라 글로우랑 블루는 좀 힘든데” 갤럭시노트(갤노트)10의 공식 판매가 시작된 23일 오후 서울 강변 테크노마트 내 휴대폰 판매점을 방문해 보니 가장 인기 있는 모델은 갤노트10 플러스(+) 256GB ‘아우라 글로우’ 색상이었다. 지난 9일부터 19일까지 진행된 사전예약 결과와도 같다. 갤럭시노트10과 갤럭시노트10 플러스 아우라 글로우 색상 ◇ 공시지원금 28만~45만원…통신사 ‘리베이트’ 50만~60만원 평일 오후라 전반적으로 한산한 모습이었지만 곳곳에서 휴대폰 가격을 상담하거나 계약을 진행하는 모습이 눈에 띠었다. 단일 상품으로는 갤노트10이 단연 인기라는 게 판매점들의 공통된 목소리. 방문 고객 중 열에 일곱은 갤노트10을 찾는다는 설명이다. 이같은 인기는 물량부족 현상으로 나타났다. 현장에서 계약을 하고 돈을 내도 특정 색상의 경우 바로 개통을 하지 못한다는 것이다. 판매점마다 가지고 있는 물량에 차이가 있기는 했으나 갤노트10의 대표 색상인 아우라 글로우와 아우라 블루(SKT 전용)는 최소 일주일 이상은 기다려야 한다는 곳이 많았다. A 판매점 사장은 “아무래도 노트 고객들은 더 큰 화면의 플러스 모델을 선호해 기본 모델(갤노트10)은 전 색상이 다 가능한데 플러스 모델 같은 경우 아우라 글로우는 512GB만 가능하다”며 “블루도 물량이 좀 부족하고 블랙이나 화이트는 당장 개통할 수 있다”고 말했다. 가격은 5G 8만원대 요금제(SKT는 8만9000원, KT는 8만원)를 선택하는 걸 기준으로 공시지원금과 통신사 판매장려금(리베이트)을 통한 할인까지 받으면 갤노트10 플러스(256GB)가 40만원 중후반대에 형성돼 있었다. 해당 모델의 출고 가격이 139만7000원이고, 공시 지원금이 40만원 정도인 것을 감안하면 판매점에서 유통점 리베이트를 받아 50만원 이상 추가 할인을 해주는 셈이다. [이데일리 이동훈 기자]갤럭시노트10과 플러스모델 사양 비교 ◇“사전예약하고 못 받은 사람 수두룩”…가격전망은 엇갈려 B 판매점 직원은 “통신사에서 뿌리는 지원금이 하루에도 바뀌어서 가격을 정확히 말하기 어렵다”면서도 “인터넷 상에서 나오는 것 처럼 10만원대 가격은 현실적으로 힘들고 앞으로도 안 될 것”이라고 설명했다. 10만원이 넘는 가장 높은 요금제를 유지하고, 카드를 새로 만들어 할인을 받는 방법을 동원하면 가능할 수 있지만 그렇게까지 해서 싸게 구매하려는 고객들은 많지 않다고 덧붙였다. 다른 판매점 직원도 “저렴한 가격에 사전 예약한 고객들 중에서도 그 가격으로는 언제 받을지 기약이 없어서 지금 가격으로 돈 더 내고 사은품 받아서 챙겨가시는 분들이 많다”며 “오늘 오전에도 10명도 넘게 그렇게 (제품을) 가져갔다. 더 지나서 9월이 되면 어차피 사전예약 사은품도 못 받는다”고 전했다. 자급제 폰을 판매하는 삼성닷컴의 경우도 사전 예약기간 동안 준비한 물량이 모두 소진돼 지난 19일 이후로는 판매가 중단된 상태다. 삼성전자측은 “지금은 사이트를 통해 주문을 받아도 바로 물건을 받아볼 수 없는 경우가 생겨 삼성닷컴을 통한 갤노트10 판매를 준비 중인 상황”이라고 밝혔다. 삼성전자와 통신사, 판매점 현장 상황을 종합해 볼 때 갤노트10에 대한 초기 반응은 예상치를 웃돌며 호조를 보이고 있는 것으로 판단된다. 다만 최종 성적표는 지켜봐야 할 것으로 보인다. 현재 품귀 현상을 빚고 있는 것이 특정 색상에 한정돼 있고 역대 최대 수준으로 예상됐던 공시지원금이 28만~45만원선으로 ‘실망스러운’ 수준에 머물렀기 때문이다. 사전 예약기간이 끝나면서 오히려 통신사에서 지급하는 리베이트도 다소 줄었다는 게 대다수 판매점측 얘기다. ‘기다리면 더 가격이 떨어지지 않겠느냐’라며 구매 시점을 묻자, 이제는 점점 더 오를 가능성이 높다는 예상과 지금보다 휴대폰 가격이 더 오르진 않을 것 같다는 의견이 반반이었다. 장영은 (bluerain@edaily.co.kr) 네이버 홈에서 ‘이데일리’ 뉴스 꿀잼가득 , 청춘뉘우스~ ＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp;amp; 재배포 금지＞</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>[노정동의 3분IT] 폴더블폰 나오면 갤럭시노트·갤럭시S 둘 중 하나는 단종?</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>노트10 개발前 S시리즈와 모델통합 논의 S시리즈 화면 커지며 "차별성 부족" 지적 "5G 시대 폴더블폰 나오면 주도권 넘어가" 플래그십 모델 판매량도 점차 하향세 영향 &amp;lt;자료=유진투자증권&amp;gt; 삼성전자의 프리미엄 스마트폰 '갤럭시S'와 '갤럭시노트' 시리즈의 모델 통합설(說)이 흘러나온다. 다음달 5세대 이동통신(5G) 시대의 새로운 폼팩터(특정 기기 형태)로 꼽히는 폴더블폰이 출시되면 효율적 운영을 위해 프리미엄급 두 모델 중 하나는 단종 가능성이 있다는 얘기다. 23일 정보기술(IT) 업계에 따르면 삼성전자 무선사업부(IM)는 이번 갤럭시노트10을 준비하는 과정에서 S시리즈와 모델 통합 가능성을 염두에 두고 제품 개발에 돌입했던 것으로 알려졌다. 갤럭시S와 갤럭시노트의 차별성이 점차 사라지고 있다는 지적이 시장에서 제기되고 있어서다. 실제로 두 모델 간 차별화 포인트 중 하나였던 화면 크기 차이는 이미 사라졌다. 갤럭시S9의 플러스 모델은 6.2인치로 갤럭시노트8(6.3인치)과 유사한 크기였고, 갤럭시S10 플러스 모델(6.4인치)은 심지어 갤럭시노트10(6.3인치)보다 크다. S시리즈 최신작인 '갤럭시S10 5G' 모델도 화면 크기가 6.7인치로 종전에 나온 모든 갤럭시노트 시리즈 디스플레이보다 크다. 이날 공식 출시되는 갤럭시노트10 플러스(6.8인치)만이 갤럭시S10 5G보다 큰 유일한 플래그십 모델이다. 갤럭시S 모델 화면 크기가 점차 커지면서 한 손에 잡히는 그립감을 선호하면 갤럭시S, 대화면 스크린을 선호하면 갤럭시노트 시리즈를 선택했던 종전과는 달라졌다. 삼성전자 내부에서 "둘 중 하나는 정리해야 하는 것 아니냐"는 분위기를 형성하는 더 큰 요인은 스마트폰 사업 수익성 악화다. 삼성전자는 지난 2분기 스마트폰을 담당하는 IM 부문에서 매출 25조8600억원, 영업이익 1조5600억원을 거뒀다. IM 부문 영업익이 2010년 이후 2분기 기준 최저치로 떨어진 것이다. 영업이익률도 6%에 그쳤다. 삼성전자가 스마트폰 사업을 시작한 이래 최악 국면이라 할 만하다. 글로벌 스마트폰 시장이 하락세로 접어든 상황에서 중국 업체들과 경쟁하기 위해 마케팅비 지출을 늘리는 점, 스펙 경쟁으로 생산 원가가 이전보다 크게 뛰는 점이 스마트폰 사업 수익성을 떨어뜨리는 주요인으로 지적된다. 삼성전자는 지난해 스마트폰 연간 판매량이 2013년 이후 처음으로 3억대 밑(2억9130만대)으로 내려섰다. 수익성이 다소 떨어져도 규모의 경제로 버텨온 그간의 스마트폰 사업 전략에 변화가 필요하다는 신호가 내부에서도 나오는 이유다. 삼성전자 관계자는 "중저가 스마트폰 판매량은 호조를 보였지만 프리미엄 제품군 수요가 줄었기 때문"이라고 설명했다. 때문에 삼성전자는 내년부터 스마트폰 출하량의 3분의 1(1억대) 가량을 ODM(제조자개발생산) 방식으로 돌려 효율화하는 방안을 검토하고 있다. 갤럭시J 시리즈 등 저가 제품 라인을 제조업자에 맡기고 프리미엄급 스마트폰만 삼성이 자체 생산하는 게 골자다. ODM으로 가격경쟁력을 확보해 신(新)시장으로 꼽히는 인도·중국 등에서 화웨이, 오포 등 중국 업체들과 맞붙겠다는 심산. 특히 최근 삼성전자가 공을 들이고 있는 인도는 주로 저가 제품 이주 시장으로, 출고가가 100만원 안팎에 달하는 갤럭시S와 노트 시리즈의 주력 시장은 아니다. 여기에 5G가 범용화되면 프리미엄급 제품에선 주도권이 폴더블폰으로 넘어갈 가능성도 제기된다. 삼성전자는 다음달 전세계에서 처음으로 접이식 '갤럭시폴드'를 출시한다. 업계에선 LTE에서 5G로의 이동이 단순히 속도만 높아지는 것이 아니라 그동안 무선에선 쉽게 구현할 수 없었던 증강현실(AR)·가상현실(VR)·인공지능(AI)·클라우드 게이밍 콘텐츠가 개인 스마트폰에서 접할 수 있다고 본다. 소화면과 대화면을 한 번에 쓸 수 있는 폴더블폰 활용도가 극대화될 것이란 설명이다. 고동진 삼성전자 스마트폰 총괄사장은 지난 8일 미국 뉴욕에서 갤럭시노트10 언팩 행사 후 취재진과 만나 "5G 시대에 접는 폰에 대한 수요는 반드시 있을 것이다. (현재 200만원대인) 가격도 낮아질 수 있다"고 언급했다. "5G는 삼성전자 무선사업부의 차세대 먹거리", "폴더블폰만의 역할이 있을 것"이라고도 했다. 문제는 판매량이다. 현재 플래그십 라인에서만 수익을 내고 있는 삼성전자로선 갤럭시S와 갤럭시노트 시리즈 판매량이 특히 중요하다. 기존 프리미엄 라인을 정리·통합한다고 할 때 결국 두 모델 가운데 어느 모델이 소비자 선택에서 멀어질지가 관건이 될 것으로 보인다. 시장조사업체 스트래티지 애널리틱스(SA)와 증권업계에 따르면 역대 갤럭시S 시리즈는 △S1 2500만대 △S2 4000만대 △S3 6500만대 △S4 7000만대 △S5 4500만대 △S6 4500만대(엣지 포함) △S7 4900만대 △S8 4000만대 △S9 4300만대 수준이다. 노트 시리즈도 △노트1 1000만대 △노트2 850만대 △노트3 1200만대 △노트4 800만대 △노트5 850만대 △노트8 1100만대 △노트9 960만대다. 노트6는 출시되지 않았고 노트7은 배터리 발화 사태 이후 FE 모델로 재출시돼 40만대만 한정 판매됐다. 판매량만 놓고 보면 90만원대인 갤럭시S 시리즈가 120만원대 갤럭시노트 시리즈보다 많지만 삼성전자는 가격대와 'S펜' 충성고객 등을 고려했을 때 노트 1000만대 판매면 나쁘지 않은 성적으로 보고 있다. 다만 이번 갤럭시노트10 성적이 좋지 않을 경우 마지막 노트 제품이 될 가능성도 배제할 수 없다. 과거 갤럭시노트7 배터리 발화 사태 이후 삼성전자 내부에서 노트 시리즈 존폐 여부를 놓고 논의를 거쳤을 때도 가장 먼저 고려한 건 향후 소비자 수요였다. 노트8 판매량이 유독 높았던 건 노트5 이후 교체 수요가 몰렸기 때문이다. 고동진 사장은 "다음달 갤럭시폴드가 출시됨에도 불구하고 스마트폰 포트폴리오 측면에선 아직 노트 시리즈를 최상위급으로 보고 있다"면서 "폴더블폰은 이제 시작하는 사업이고 이들(갤럭시S, 갤럭시노트)과는 완전히 다른 폼팩터로 판단하고 있다"며 조심스러운 입장을 나타냈다. 한 업계 관계자는 "S펜에 대한 충성고객을 놓치기 싫다면 노트 시리즈를 포기한 뒤 애플처럼 S펜을 별도 판매하는 방식을 채택할 수 있다"며 "갤럭시노트10이 어느 정도 의미 있는 판매량을 보일지가 향후 노트 시리즈의 향방을 결정할 수 있다"고 덧붙였다. 노정동 한경닷컴 기자 dong2@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>신형 아이폰 초광각·역충전 도입…"갤럭시 쏙 빼닮았네?"</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>블룸버그 "9월 신형 아이폰 3종 공개…2종에 '프로' 명칭" 핵심은 카메라…초광각, 동영상 촬영에 방점 에어팟 충전 위한 무선 배터리 공유 기능도 탑재 [이미지출처=연합뉴스] [아시아경제 임온유 기자] 9월 공개되는 신형 아이폰의 핵심은 카메라다. 특히 '넓게 찍는 초광각'과 '전문가 수준의 동영상' 촬영이 새로이 도입될 것으로 예상된다. 블루투스 이어폰 에어팟을 충전할 수 있는 '무선 배터리 공유' 기능 역시 히든 카드 중 하나다. 모두 애플이 아이폰에 처음 시도하는 것들이다. 하지만 소비자를 놀라게 할 '와우 포인트'는 부족하다. 이 모든 기능들은 삼성전자가 3월 출시한 '갤럭시S10'에 이미 탑재된 바 있기 때문이다. 22일(현지시간) 미국 블룸버그에 따르면 애플은 내달 신형 아이폰 3종을 공개한다. 3종은 각각 아이폰XS·XS맥스·XR의 후속작으로 상위 2종에는 '프로'라는 명칭이 붙을 것으로 예상된다. 블룸버그는 프로 2종의 핵심은 업그레이드된 후면 카메라 시스템이라고 지목했다. 이들은 트리플 카메라를 장착하는데 특히 광각을 넘어서는 초광각 촬영에 특화될 전망이다. 동영상 촬영 기능도 대폭 업그레이드된다. 블룸버그는 "신형 아이폰의 카메라는 전문 비디오 카메라에 더 가까이 다가갈 것"이라고 했다. 사용자가 촬영하며 실시간으로 수정, 효과 적용, 색상 변경, 프레임 변경, 자르기를 할 수 있다는 설명이다. 이외에도 어두운 곳에서의 촬영 기능이 향상되고 세 개의 이미지를 한꺼번에 촬영한 뒤 인공지능(AI) 소프트웨어로 이를 합성해 최적의 결과물을 얻을 수 있게 한다고 블룸버그는 전했다. 모두 아이폰에 처음 도입되는 기능이지만 혁신의 측면에서는 아쉽다. 삼성전자를 비롯한 안드로이드폰에서 대부분 시도된 사항들이기 때문이다. 특히 출시된 지 5개월이 지난 갤럭시S10과의 유사성이 크다. 삼성전자는 지난 2월 갤럭시S10을 공개할 당시 초광각 트리플 카메라를 장착하고 전문가 수준의 동영상 촬영이 탁월하다고 강조한 바 있다. 지난 20일 출시된 '갤럭시노트10'의 경우 신형 아이폰처럼 고도화된 동영상 편집 툴을 자체 탑재했다. 스티브 잡스가 집권하던 시절 애플은 '혁신의 아이콘'으로 불렸다. 그러나 최근 팀 쿡 체제 애플의 행보는 혁신보다는 안정에 방점이 찍혔다. 새로운 시도를 하기 보다는 이미 시도된 것을 향상시키는 데 보다 집중하는 것이다. 프리미엄 스마트폰 시장이 마이너스 성장을 거듭하고 있는 상황에서 혁신과 안정 중 정답이 무엇인지는 알 수 없다. 그러나 애플의 선택은 스마트폰 시장의 침체를 인식하고 서비스·소프트웨어 시장에 역량을 분산하는 것과 무관하지 않다고 분석된다. 애플은 최근 애플뮤직, 앱스토어 등 서비스 흥행에 힘입어 역대 최고 2분기 매출 538억 달러(약 65조 980억 원)를 기록했다. 반면 아이폰 매출은 259억9000달러(약 31조3390억원)로 7년 만에 처음으로 전체 매출의 절반에 미치지 못했다. 임온유 기자 ioy@asiae.co.kr &amp;lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>[+다큐] 알파고 충격 후 3년‧‧‧그간 바둑은 어떻게 변했을까?</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 	 	구글의 바둑 인공지능, 알파고의 등장으로 바둑계의 판도가 바뀌었습니다. 알파고가 바둑계 판도 변화의 신호탄을 던졌다면 페이스북의 바둑 인공지능 엘프고는 실제적인 판도 변화를 이끌어냈습니다. 바둑을 공부하는 방법이 바뀌었고, 포석 전략이 단순화되었고, 바둑 기사들의 실력도 전반적으로 늘었습니다. 이제는 만만하게 볼 프로기사가 거의 없다고 합니다. 실력이 상향 평준화됐다는 이야기입니다. 그러나 바둑 고유의 인간미는 점점 사라져가는 것 아니냐는 질문도 제기됩니다. 알파고 이후, 바둑 인공지능이 바둑계에 미친 영향과 미칠 영향을 취재했습니다. 기획 : 김동민(kdongmin@ytn.co.kr) 연출 : 서정호(hoseo@ytn.co.kr) 편집 : 강재연, 서정호 촬영 : 함초롱, 안용준 [저작권자(c) YTN &amp;amp; YTN PLUS 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>"실험 적극 참여했다는데"…조국 딸 1저자 논란 입증할 '연구노트' 있을까</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2007년 연구노트 지침 제정…2010년 8월 연구노트 의무화 조양 2007년 실험 참여…"황우석 사태로 당시 연구노트 중요성 높을 시기" 조국 법무부 장관 후보자가 23일 오전 인사청문회 준비를 위해 서울 종로구 현대적선빌딩에 마련된 사무실로 출근하며 취재진의 질문에 답하고 있다. 2019.8.23/뉴스1 © News1 이재명 기자 (서울=뉴스1) 최소망 기자 = 조국 법무부 장관 후보자 딸의 의학논문 제1저자 등재 논란이 일파만파로 확산되면서 국내 규정상 의무화된 '연구노트' 유무에 관심이 쏠리고 있다. 연구노트는 조국 후보자의 주장대로 딸이 직접 연구에 참여했다는 주장을 입증할 결정적 근거로 될 수 있기 때문이다. 반면 이를 작성하지 않았을 경우 '연구부정'에 무게가 실린다. 23일 과학기술계에 따르면 지난 2007년 12월 교육과학기술부 훈령 '국가연구개발사업 연구노트관리지침'이 제정됐다. 이후 2008년 1월 지침이 시행됐으며 2010년 8월 대통령령 '국가연구개발사업의 관리 등에 관한 규정'이 개정돼 모든 국가 연구개발(R&amp;amp;D)에 참여하는 연구자는 연구노트를 작성하는 게 의무화됐다. 연구노트는 연구자가 수행하는 연구와 실험 등 모든 과정을 기록하는 것으로 실험을 위한 환경, 조건, 과정, 현상, 결과 등을 구체적으로 작성해야 한다. 이같은 기록은 연구윤리 측면에서 중요한 역할을 한다. 연구자가 발표한 결과를 과장, 허위, 표절없이 직접 수행했는지 증명할 수 있는 기록물이기 때문이다. 조국 후보자 딸 조 양은 지난 2009년 대한병리학회지(The Korean Journal of Pathology)에 제 1저자로 '출산전후(주산기) 허혈성 저산소뇌병증(HIE)에서 혈관내피산화질소 합성효소 유전자의 다형성'(eNOS Gene Polymorphisms in Perinatal Hypoxic-Ischemic Encephalopathy)이란 영어 논문을 출판했다. 앞서 조 양은 2007년 7월23일부터 8월3일간 약 2주간의 인턴 기간을 통해 실험을 진행했고 이후 2008년 12월 논문을 투고했다. 조 후보는 조 양이 직접 실험에 참가했다는 점을 피력한다. 조 후보자 측은 지난 20일 "후보자의 딸은 멀리까지 매일 오가며 프로젝트의 실험에 적극 참여해 경험한 실험과정 등을 영어로 완성하는데 기여하는 등 노력한 끝에 다른 참여자들과 함께 6~7페이지 짜리 영어논문을 완성해 해당 교수로부터 좋은 평가를 받았다"고 해명한 바 있다. 조 후보자 말에 따르면 조 양은 적극적으로 실험에 참가했고 이러한 부분이 연구노트에 남아 있을 확률이 있다는 것. 따라서 조 모양의 연구에 대한 기여도 등을 면밀하게 파악하기 위해서는 단국대 인턴으로 참가했을 시기의 연구노트를 공개하고 이를 투명하게 검증하는 게 중요한 사안으로 떠올랐다. 익명을 요구한 한 과학기술인은 "모든 과학기술연구는 연구노트를 작성할 의무가 있고 이를 작성하지 않거나 부실, 변경, 거짓 기재하면 연구부정행위"라면서 "단국대·공주대 연구진들은 조 양과 관련한 연구노트를 영구하게 보유하고 있어야 한다"고 말했다. 이어 "그렇지 않다면 이는 연구부정 행위"라며 "연구노트를 공개하고 투명하게 검증해야 할 필요가 있다"고 주장했다. 문제는 조 양이 실험하던 시기가 연구노트가 의무화된 시기는 아니라는 점이다. 조 양이 실험에 참가한 때는 2007년이다. 연구노트 의무화가 이뤄진 시기는 2010년이기 때문이다. 그럼에도 당시에는 2005년 황우석 사태 이후 '연구노트'에 대한 중요성이 높아진 시기라 윤리적으로나 도의적으로 연구노트가 작성됐어야 한다는 목소리가 나온다. 연구노트는 이른바 '황우석 사태'가 촉발한 제도로 꼽힌다. 정부 집계에 따르면 2008년부터 2009년까지 연구노트가 제작 보급된 수는 약 1만1000개에 달했다. 당시 국내 다수 과학자들은 해외 논문 투고 시 연구노트를 공개하라는 요구를 받기도 한 시기다. 대한의학회도 지난 22일 긴급 이사회 후 기자들과 만나 "연구노트 등 당시 기록이 없으면 당사자들의 진술이 유일한 증거가 된다"면서 연구노트의 중요성을 강조한 바 있다. somangchoi@news1.kr [© 뉴스1코리아(), 무단 전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>'병원비 걱정없는 나라' 만든다더니···국고 대신 '건보료 청구서' 꺼내</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>■국민에 부담 떠 넘긴 '文케어'···내년 건보료 3.2% 인상 국민 57% "추가부담 반대"에도 보장률 강화 정책에 매년 올려 가입자단체에도 갈수록 '큰 짐' 경총 "재정수지 적자 해결하라" 정부는 "건보 건전성 문제없다" [서울경제] ‘문재인케어’로 불리는 건강보험 보장성 강화정책으로 내년 건강보험료가 3.2% 인상된다. 지난해 건강보험 재정수지가 적자로 돌아선 가운데 3년 연속 건보료가 인상되자 정부에서 재정부담을 국민에게 전가하고 있다는 우려의 목소리가 잇따르고 있다. ’문재인 케어’의 핵심인 ‘병원비 걱정 없는 국가’ 를 건보료를 올려 만들고 있다는 자조 섞인 목소리까지 나온다. 보건복지부는 지난 22일 건강보험정책 최고의결기구인 건강보험정책심의위원회를 열어 오는 2020년 건강보험료율을 3.2% 올린다고 밝혔다. 이에 따라 직장가입자의 보험료율은 현행 6.46%에서 6.67%로, 지역가입자의 부과점수당 금액은 현행 189원70전에서 195원80전으로 인상된다. 월평균 보험료를 보면 올 3월 기준 직장가입자는 11만2,365원에서 3,653원 오른 11만6,018원을 내야 한다. 지역가입자는 8만7,067에서 2,800원 인상된 8만8,867원을 내년부터 추가로 부담해야 한다. 김재헌 무상의료운동본부 사무국장은 “국고지원금 없이 국민을 볼모로 건강보험료를 올리는 문재인케어가 계속 시행되면 예상보다 빨리 적립금이 고갈되는 최악의 상황에 직면할 수 있다”고 말했다. 국민 57% “추가부담 반대”에도 보장률 강화 정책에 매년 올려 가입자단체에도 갈수록 ‘큰 짐’ 경총 “재정수지 적자 해결하라” 정부는 “건보 건전성 문제없다” 건강보험료율은 최근 10년 동안 2009년과 2017년을 빼고 매년 올랐다. 2007년(6.5%)과 2008년(6.4%), 2010년(4.9%), 2011년(5.9%)에는 4∼6%대 인상률을 기록했고 2012년(2.8%), 2013년(1.6%), 2014년(1.7%), 2015년(1.35%), 2016년(0.9%)에는 1% 안팎에 그쳤다. 문재인 정부 출범 이후 건강보험 보장성 강화정책을 본격적으로 시행한 지난해와 올해 인상률은 각각 2.04%와 3.49%였다. 건보료 인상을 둘러싼 국민 여론은 싸늘하기만 하다. 한국보건사회연구원이 지난해 성인 2,000명을 대상으로 건강보험 보장률과 건강보험료 인상률을 조사한 보고서를 보면 응답자의 57.1%는 ‘건강보험 보장성 확대는 찬성하지만 보험료 추가 부담은 반대한다’고 답했다. 건강보험정책심의위원회 가입자단체도 정부의 일방적인 건보료 인상에 일제히 우려를 나타내고 있다. 한국경영자총연합회 관계자는“엄중한 대내외 경제 현실을 고려해 건보료 인상에 대해 거듭 우려를 밝혔지만 정부가 인상을 강행한 것에 깊은 유감을 표명한다”며 “국민과 기업에 건보료 부담을 전가시킬 것이 아니라 지금이라도 국고지원금으로 건강보험 재정수지 적자를 해결해야 한다”라고 말했다. 국고 지원을 늘이고 건보료 인상률은 대폭 낮춰야 한다는 게 가입자단체들의 지적이다. 건강보험법과 건강증진법과 따르면 정부는 매년 건보료 예상수입액의 20%를 국고로 지원해야 한다. 하지만 지난 2007년 법률 개정 이후 정부는 이를 제대로 지킨 적이 한 차례도 없다. 올해까지 연평균 건보료 국고지원율은 15.3%에 그쳤고 미납액은 24조5,374억원에 달한다. 보건복지부는 내년부터 국고지원금을 최소 14% 이상 확보하겠다고 밝혔지만 예산집행 권한을 가진 기획재정부가 회의적이어서 이마저도 불투명하다. 한편 정부는 건강보험 재정에 경고등이 켜졌음에도 누적 적립금이 20조5,955억원에 달해 문제가 없다는 입장이다. 문재인 케어가 완료되는 오는 2022년까지 최소 30조원의 재원이 필요한데 10조원은 누적 적립금으로 채우고 20조원을 건보료 인상으로 충당하면 여전히 10조원의 누적 적립금을 예비비로 확보할 수 있다는 설명이다. 하지만 국회예산정책처의 보고서에 따르면 문재인 정부의 임기가 끝나는 2022년까지 총 13조5,000억원의 건강보험 수지 적자가 이어질 전망이다. 차기 정부에도 문재인 케어가 계속 시행된다고 가정하면 2023년부터 2027년에는 총 12조1,000억원의 적자가 추가로 발생해 적립금마저 완전히 고갈되는 것으로 나타났다. 김우현 한국조세재정연구원 연구위원은 “문재인 케어로 국민의 평균 의료비가 줄어드는 효과는 있겠지만 고령화로 급격히 증가하는 건강보험 재정지출을 감당하는 것은 사실상 불가능하다”며 “건강보험 재원을 마련하는 것 못지않게 불필요한 지출을 줄여 건강보험 재정 효율화를 달성하는 노력이 절실하다”고 말했다. /이지성기자 engine@sedaily.com | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>길어지는 스마트폰 교체주기…"美소비자, 평균 33개월 쓴다"</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>미국인들의 스마트폰 교체주기가 평균 33개월에 달하는 것으로 나타났다. 애플 아이폰과 삼성 갤럭시의 평균 교체주기는 각각 35.4개월, 32.7개월이었으며 스마트폰 교체 원인으로는 디스플레이 파손, 배터리 소모가 가장 많았다. 24일 시장조사업체 스트래티지 애널리틱스(SA)가 18~64세 스마트폰을 사용하는 미국인 2513명을 조사한 결과 이들이 사용중인 스마트폰 평균 보유기간은 17개월로 집계됐다. 애플 아이폰이 18.3개월로 가장 길었고 모토로라가 14.3개월로 가장 짧았다. 삼성전자와 LG전자는 각각 16.5개월, 15.7개월로 조사됐다. 다음 스마트폰 교체 시점을 묻는 질문에는 응답자 90% 이상이 16개월 뒤에 교체하겠다고 답했다. 브랜드별로는 애플 17.1개월, 삼성 16.1개월, LG전자 14.2개월 순이었다. SA는 이를 근거로 예상 스마트폰 교체주기를 평균 33개월로 추산했다. 현재 보유기간에 예상 보유기간을 더한 수치다. 이에 따라 교체주기는 애플 아이폰 36개월, 삼성 갤럭시 33개월, LG전자 29.9개월로 환산됐다. 구글 넥서스가 35.9개월로 교체주기가 가장 길었다. 미국 스마트폰 교체주기는 길어지고 있다. 2016년 26개월을 넘어선 후 지난해 31개월로 늘었다. 참고로 우리나라는 지난해 기준 31개월로 집계됐다. 응답자 79%는 디스플레이가 파손됐을 때 스마트폰을 교체하겠다(복수응답 기준)고 답했다. 배터리 소모가 너무 빠르거나 스마트폰 속도가 현저히 저하됐을 때 교체하겠는 답변도 78%, 73%에 달했다. 신제품 교체를 이유로 든 응답자는 30%에 그쳤다. 스마트폰 구매를 결정하는 요소로는 '배터리 성능'과 '기기에 대한 신뢰'가 가장 앞섰다. 응답자의 70%가 배터리 성능을 1순위로 꼽았으며 기기에 대한 신뢰 54%, 카메라 성능 52%로 뒤를 이었다. 한편 올 상반기 미국 스마트폰 출하량은 6570만대로 글로벌 전체 출하량(6억7180만대)의 9.7%를 차지했다. 애플 아이폰이 출하량 3300만대로 미국 내 점유율 1위(50.2%)를 기록했고 삼성 갤럭시는 1790만대(27.2%)로 2위에 올랐다. LG전자(880만대), TCL-알카텔(460만대), 레노버-모터로라(450만대)가 3~5위에 이름을 올렸다. 윤진우 한경닷컴 기자 jiinwoo@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>"5G 가입자, 벌써 250만명"…'빠름빠름' LTE보다 2배 빨라</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SKT100만·KT 75만·LGU+ 67만 순…커버리지 확대 총력 SK텔레콤이 지난 21일 단일 통신사 기준 5G 가입자 100만 명을 돌파했다고 22일 전했다. 지난 4월 3일 세계 첫 5G 스마트폰을 출시한 이후 140여일 만이다. 사진은 SK텔레콤 모델들이 서울 명동에 위치한 대리점에서 ‘갤럭시 노트10’로 5G 서비스를 사용하고 있는 모습. (SK텔레콤 제공) 2019.8.22/뉴스1 (서울=뉴스1) 강은성 기자 = 지난 4월 한국이 세계 최초로 상용화한 5세대(5G) 이동통신 가입자가 상용화 142일 만에 250만명에 육박하는 것으로 나타났다. 4G 롱텀에볼루션(LTE) 가입자 증가보다 2배 가까이 빠른 속도다. 24일 업계에 따르면 국내 5G 가입자가 250만명 돌파 초읽기에 돌입했다. 이미 지난 21일 기준으로 SK텔레콤은 5G 가입자 100만명을 넘어섰고 KT는 75만명, LG유플러스는 67만명의 가입자를 각각 확보해 국내 5G 가입자는 총 242만명에 달했다. 이후 갤럭시노트10 5G 모델 사전개통과 이날 공식 출시까지 맞물리면서 이틀간 5G 가입자가 빠르게 증가해 250만명에 육박하는 것으로 나타났다. 이통사 관계자는 "이런 추세라면 주말쯤 3사 통합 250만명 돌파는 무난할 것으로 예상된다"고 설명했다. 이는 지난 2011년 7월 처음으로 상용화한 4G LTE에 비해 2배 가까이 빠른 수치다. 당시 LTE는 200만 가입자를 돌파하는데 이미 7개월, 215일이 소요됐었다. 그러나 5G의 경우 상용화 120일여만인 이달 초에 200만 가입자를 넘어서면서 LTE보다 급격히 빠른 속도로 가입자를 불리고 있다. 통신업계 전문가는 "4G LTE의 경우 2011년 7월 상용화는 시작했지만 LTE 스마트폰이 출시된 것은 10월이 넘어서였다"면서 "게다가 4G LTE 주파수 확보에 실패한 KT가 2012년 1월이나 되어서야 비로소 LTE 스마트폰을 출시하고 가입자를 모집했기 때문에 LTE 200만 가입자 돌파 시점에서는 SK텔레콤과 LG유플러스 가입자로 한정되는 부분이 있었다"고 설명했다. 이 전문가는 이어 "반면 5G는 정부 주도로 상용화 관련 정책을 마련하고 대통령까지 상용화 행사에 나서는 등 국민적 관심이 컸고, 상용화와 함께 삼성전자, LG전자의 스마트폰도 적시에 출시되면서 가입증가 속도가 빨라지는 것으로 보인다"고 분석했다. 여기에 이통3사가 5G 초기 시장에서 승기를 잡기 위해 공격적으로 마케팅 경쟁을 벌이며 '역대급' 공시지원금을 지급한 것도 가입자를 유인한 요인으로 작용했다. 다만 아직 전국망과 실내망이 제대로 갖춰지지 않은 상황에서 마케팅 경쟁을 통해 가입자만 늘리다보니 초기 가입자들이 5G 품질에 대해 적지 않은 불만을 제기하는 것은 심각한 문제로 지적되고 있다. 이에 이동통신3사는 연말까지 전국 옥외 커버리지를 인구대비 90% 대로 끌어올리고 실내 커버리지 확대에도 총력을 기울이기로 했다. 주요 공항 및 KTX 역사, 대형 쇼핑센터 및 전시장 등 전국 120여개 인구밀집 건물 내에서는 이미 실내 5G 서비스를 시작했으며 연말까지 전국 350여개 영화관·체육경기장·대형마트 등을 추가 선정해 이통3사가 실내 5G 망을 공동구축하기로 했다. 서울을 비롯한 전국 지하철에도 5G 망을 공동구축한다. 과기정통부는 "5G 가입자가 200만명에 달하는 만큼 내실 있는 5G 서비스를 이용할 수 있도록 이동통신사와 제조사에 지속적인 품질 개선 노력과 적극적인 서비스 다변화를 요청했다"며 "앞으로도 민관과의 긴밀한 협력을 통해 국민에게 최고 품질의 5G 서비스를 제공하기 위하여 최선의 노력을 다할 계획"이라고 밝혔다. esther@news1.kr [© 뉴스1코리아(), 무단 전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>만능폰 '갤노트10'…꼭 써봐야할 숨겨진 기능 5選</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>[머니투데이 박효주 기자] [편집자주] 박푸로의 IT썰은 특정 분야의 전문가인 '프로'에는 못미치지만, 그에 준하는 시각에서 IT 관련 이슈를 다뤄보고자 만든 코너입니다. 스마트폰, 모바일 서비스, 카메라 등등 제품 및 서비스에 관한 내용을 쉽게 풀어내겠습니다. [[박푸로 IT썰]덱스·향상된카메라·동영상편집·게임스트리밍·AR두들] 맥북에서 덱스를 구동하면서 갤럭시 노트10에서는 넷플릭스를 실행하는 모습. 스마트폰 성능은 나날이 진화하고 있지만, 모든 기능을 일일이 찾아 100% 활용하기란 쉽지 않다. 갤럭시노트10(이하 갤노트10)도 삼성 모바일 기기의 혁신 집대성이라 불릴 만큼 다양한 기능을 품고 있다. 갤럭시S10에서 적용됐던 무선 배터리 공유, 초음파식 지문 스캐너, 초광각 카메라 등 대표적인 기능 외에도 새롭게 들어간 기능이 많다. 노트 시리즈인 만큼 S펜에 가려진 기능 중에서 꼭 써봐야 할 5가지를 꼽아봤다. ◇더 쉽고 편해진 '덱스'…연결만 하면 끝= 스마트폰에서 마치 PC와 같은 사용 경험을 제공하는 삼성 덱스가 갤노트10에서 한 단계 발전했다. 이제 별도의 액세서리 없이 USB 케이블로 PC와 연결만 하면 PC의 큰 화면과 키보드·마우스를 활용해 더욱 편하게 갤노트10을 사용할 수 있다. 이번 덱스의 변화에서 눈여겨볼 부분은 윈도뿐만 아니라 맥도 지원한다는 점이다. 윈도나 맥에 덱스 전용 프로그램을 설치하고 갤노트10을 연결하면 다른 조작 없이 바로 덱스 화면이 나타난다. PC 안에 PC가 구현된 느낌이다. PC파일을 끌어다 덱스에 놓으면 갤노트10으로 파일이 바로 전송되며, 반대도 가능하다. 드래그앤드롭으로 갤노트10의 사진을 PC로 보내는 모습. 덱스를 사용하면서 갤노트10도 동시에 사용할 수 있다는 점도 꽤 유용하다. 덱스를 통해 게임을 구동하고, 갤러리 사진을 보면서 갤노트10에서는 전화나 문자를 하거나 은행 업무를 동시에 처리할 수 있다. ◇소리도 확대한다?…'줌인 마이크'= 갤노트10은 동영상 촬영 중 특정 부분을 확대하면 해당 부분의 피사체의 소리를 키워서 녹음해주고, 주변 소음은 줄여주는 '줌 인 마이크' 기능을 지원한다. 예컨대 야외에서 뛰어노는 아이를 중앙에 맞혀 확대하면 아이의 목소리를 주변 소리보다 더 또렷하게 녹음할 수 있다. 줌인마이크가 활성화 되어 있을 때 영상 촬영 중 소리가 나는 쪽으로 확대하면 마이크 아이콘이 표시된다. 카메라 기능에는 줌인 마이크 외에 흔들림 없는 영상 촬영을 가능하게 해주는 향상된 '슈퍼 스테디'가 적용됐다. 샘플 레이트를 500MHz에서 833MHz로 향상해 미세한 흔들림까지 감지한다. 특히 하이퍼랩스 촬영 시에도 지원해 더욱 다양한 콘텐츠를 흔들림 없이 제작할 수 있다. ◇동영상 편집, 갤노트에서 바로= 아이폰에서 대표적으로 사용할 수 있는 동영상 편집 앱 '아이무비'와 같은 가볍고 강력한 영상 편집 기능이 갤노트10에 들어갔다. 별도의 앱 설치 없이 바로 손쉽게 편집과 공유가 가능하다. 갤러리에서 영상을 선택하고 연필 모양을 누르면 바로 편집 메뉴가 등장한다. 여기서는 영상 길이를 조정하거나 영상과 영상 사이에 특수효과를 넣을 수 있다. S펜을 이용한 영상 내 메시지를 추가할 수 있으며 재생속도 변경과 다른 영상과 합치는 등의 기능을 제공한다. S펜을 활용하면 더욱더 세밀한 영상 편집이 가능하다. 기본 탑재된 영상 편집 도구 ◇깨알 재미 'AR(증강현실) 두들'= 갤노트10은 정교한 모바일 AR 기술이 접목된 'AR 두들' 기능을 지원해 즐거우면서도 창의적인 콘텐츠를 만들 수 있게 했다. AR 두들은 S펜 메뉴에서 선택할 수 있다. 이 기능은 사진이나 영상 촬영 시 공간을 인식하는 알고리즘을 사용해 사람이나 공간을 추적해 사용자가 S펜으로 그린 그림과 움직이는 피사체가 함께 조화롭게 보인다. 갤노트10+(플러스)는 후면에 뎁스비전 카메라를 추가로 탑재해 피사체를 스캔해 3D 이미지를 만들 수 있다. 이렇게 제작된 3D 이미지가 피사체를 따라 움직이는 영상도 제작이 가능하다. 사물까지의 거리와 사물의 길이나 크기를 측정하는 '간편 측정' 기능도 전작에 이어 탑재됐다. 3D 스캐너 앱으로 사물을 갤노트10에 3D로 구현할 수 있다. ◇어디서나 고성능 게임 즐긴다= 집에서 PC로만 즐기던 고성능 게임을 갤노트10으로 언제 어디서나 그대로 즐길 수 있는 '플레이갤럭시 링크' 기능을 갤노트10에 처음으로 탑재했다. 이 기능은 사용자가 PC로 게임을 하다가 잠시 PC 앞을 떠날 때 하고 있던 게임을 그대로 갤노트10에서 이어 할 수 있다. P2P 스트리밍으로 PC 화면을 전송하기 때문에 갤노트10에 게임 별도 설치할 필요가 없으며, 높은 사양을 요구하는 게임도 문제없다. 사용자가 갤노트10을 직접 터치하거나 전용 게임패드를 통해 게임을 조작하면 연결된 PC로 게임 명령이 전달된다. 플레이갤럭시 링크로 PC게임을 갤노트10으로 스트리밍 하는 모습. /사진=슬래시기어 박효주 기자 app@ &amp;lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>지구보다 나은 생명체 서식 조건 갖춘 외계행성 가능</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>美연구팀, 대양 조건 분석 결과 "최적화된 곳 아닐 수도" '트라피스트(TRAPPIST)-1' 행성계 상상도 지구에서 가장 가까운 별인 트라피스트-1 행성계는 모두 7개의 행성을 거느리고 있으며 이 중 3개가 액체상태의 물이 존재할 수 있는 서식가능지역 안에 있다. [NASA/JPL-Caltech 제공] (서울=연합뉴스) 엄남석 기자 = 지구를 닮은 행성을 찾는 노력이 무위로 그치고 있지만 외계행성 중에는 지구보다 생명체가 살기에 더 좋은 조건을 갖춘 곳이 있을 수 있다는 연구결과가 나왔다. 국제 지구과학 학술대회인 '골드슈미트 콘퍼런스(Goldschmidt Conference)'와 외신 등에 따르면 미국 시카고대학의 스테파니 올슨 박사가 이끄는 연구팀은 바르셀로나에서 진행 중인 이 학술대회 기조연설을 통해 생명체가 서식할 수 있는 외계행성 대양(大洋)의 조건에 초점을 맞춰 진행한 연구결과를 발표했다. 연구팀은 미국항공우주국(NASA) 고다드우주연구소(GISS)가 개발한 암석형 행성 3D 시뮬레이션 프로그램인 'ROCKE-3D'를 이용해 다양한 조건을 부여하며 생명체가 서식하는데 가장 적합한 대양 환경을 분석했다. 지구 대양의 경우 생명체는 심해의 영양분을 광합성 생물이 서식하는 햇빛 수역으로 올려놓는 '용승(湧昇)' 작용에 의존하는데, 이런 용승작용이 강할수록 영양분 공급도 늘어나 생물학적 활동도 늘어나게 된다. 연구팀은 "이것이 바로 외계행성에서 들여다봐야 할 조건"이라고 강조했다. 연구팀은 해양순환 모델까지 이용해 어떤 행성이 가장 효율적인 용승작용이 일어나 생명체에 특별히 더 적합한 대양 환경을 제공하는지를 분석했으며, 그 결과 대기 밀도가 높고 자전율이 느리며 대륙이 존재하는 곳에서 더 효율적인 용승작용이 일어난다는 점을 확인했다. 연구팀은 이런 결과는 지구가 생명체 서식에 최적화된 곳이 아닐 수도 있다는 점을 시사하는 것으로 다른 행성의 생명체가 지구보다 더 나은 환경을 누리고 있을 수 있다는 의미라고 설명했다. 트라피스트-1f 대양 상상도 트라피스트-1 행성계의 다섯번째 행성인 트라피스트-1f는 조석고정으로 늘 햇빛을 받는 쪽은 대양이 존재하고 그 반대 쪽은 얼음세계인 것으로 추정되고 있다. [NASA/JPL-Caltech 제공] 올슨 박사는 "(생명체에) 유리한 해양순환 패턴을 가진 일부 외계행성의 조건이 지구 생명체보다 더 많고 활발한 생명체를 지탱하는데 적합할 수 있다는 것을 보여준 것은 놀라운 결론"이라고 강조했다. 이번 연구결과는 외계 생명체 탐색과 망원경을 비롯한 탐색 장비 개발에서 추가로 고려해야 할 기준을 제시하는 것으로 받아들여지고 있다. 지금까지는 외계행성이 생명체 '서식가능지역(habitable zone)' 안에 있는지만을 기준으로 삼아왔다. 별에 너무 가까이 붙어 있어 표면의 물이 증발하거나 너무 멀리 떨어져 있어 물이 얼면 생명체가 존재할 가능성이 희박해지기 때문에 표면의 물이 액체 상태를 유지할 수 있는 곳의 행성을 찾아왔다. 그러나 대양이 존재한다고 해서 생명체 서식 조건이 모두 같은 것은 아니라는 점이 이번 연구를 통해 구체적으로 확인된 만큼 서식가능지역 기준을 넘어 대양 환경도 확인하는 작업이 필요하다는 것이다. 조지아 공대의 크리스 레인하드 교수는 논평을 통해 대양은 생명체 지표로서 중요하지만 "태양계 밖 외계행성의 대양에 대한 이해는 매우 초보적인 상태"라면서 "이번 연구 결과는 외계행성의 대양에 관한 이해를 넓히는 중요하고 흥미로운 진전을 나타내는 것"이라고 평가했다. eomns@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>갤노트10 ‘LTE’가 쉽지 않은 이유는 ‘단통법’ 때문</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ⓛ자급제 단말기 나와도 힘 못 써..이통사 유통점 구매 안 돼 ②이통사 약관 변경 해도 지원금 차별 금지 조항에 발목 ③삼성과 이통사 책임공방..단말기유통과 통신 가입 분리하면 해결 [이데일리 김현아 기자] 23일 삼성전자의 플래그십 스마트폰인 ‘갤럭시 노트10’이 공식 출시됐지만 5G 버전만 출시돼 이용자들의 불만이 커지고 있다. LTE 가입자들 중에서도 ‘갤노트10’을 쓰고 싶은 사람이 있는데, 굳이 비싼 5G에 가입해야 쓸 수 있다니. 올해 출시된 갤럭시S10은 LTE 버전과 5G 버전이 모두 출시됐는데, 노트10만 안 되는 것도 이해하기 어렵다는 반응이다. 갤노트 10을 LTE로 가입해 쓰기 어려운 이유 중 하나는 ‘단말기유통구조개선법’때문이라는 평가가 나온다. 단통법은 기본적으로 통신사유통점의 단말기 판매를 전제로 한 법률인데 이 때문에 ⓛ갤노트10은 주로 이통사 대리점·판매점에서 유통된다(삼성이 자급제향으로 5G칩과 LTE칩이 모두 들어간 갤노트10을 출시해도 이통사 유통점에서는 만날 수 없다는 점). 또 ②이통사에서 약관 변경을 통해 5G칩과 LTE칩이 모두 들어간 단말기(같은 모델)를 5G와 LTE로 나눠 가입시키는 것도 쉽지 않다(단통법상 지원금 차별 금지). 여기에 ③삼성과 이통3사 사이에서 갤노트 10 LTE 버전 출시 책임 공방이 일고 있다는 점(단말기와 통신이 분리되면 이런 논란이 사라짐)도 단통법의 부정적인 효과다. 삼성 갤럭시노트 10 ◇LTE 유심 가입 가능한 자급제 ‘갤노트10’ 조만간 출시 과학기술정보통신부에 따르면 삼성은 ‘갤노트10’ LTE 버전을 따로 내기는 쉽지 않지만, 자급제폰으로는 내놓겠다고 밝혔다. 만약 소비자가 온라인 마켓이나 전자제품 양판점 등에서 ‘갤노트10 5G버전’ 자급제폰을 산다면 LTE로 쓸 수 있다. 집에서 쓰던 단말기의 유심(USIM·가입자식별모드)칩을 꺼내 자급제로 산 갤노트10에 끼워 넣으면 된다. 이런 일이 가능한 것은 국내에서 출시되는 갤노트10 5G버전에는 5G칩과 LTE칩이 들어가 있는데, 국내 통신3사의 5G 통신망은 LTE연동형(NonStandAlone)이기 때문이다. 즉, 5G의 빠른 속도보다는 저렴한 요금제를 원한다면 자급제폰을 사서 LTE 유심을 끼워쓰면 된다. ◇자급제 갤노트10, 이통사 유통점에서는 불가능 하지만 자급제향으로 출시된, LTE 유심 가입이 가능한 ‘갤노트10’은 이동통신3사 유통점에서는 만날 수 없다. 자급제폰(언락폰)이란 이동통신사 대리점 방문 없이 기존에 사용하던 유심을 꽂아서 바로 사용 가능한 단말기이기 때문이다. 그러나 우리나라에서 소비자가 스마트폰을 사는 대부분의 장소는 이통사 대리점이나 판매점이다. 이처럼 단말기 판매와 통신서비스 가입이 결합돼 이용자의 선택권을 저해한다는 비판이 제기되자 국회에서는 단통법 폐지와 완전자급제 도입을 위한 입법 논의가 있었지만, 이동통신 유통업계의 반발로 좌절됐다. 완전자급제법은 통신사의 단말기 판매를 금지한 법으로, 김성태·박홍근·김성수 의원 등이 발의했다. ◇이통3사가 약관 변경해도 지원금은 똑같이 줘야 하는 문제 삼성은 이통사에 기술적으로는 가능하니 과기정통부에 약관 변경을 신청해 칩이 두 개인 ‘갤노트 10’을 5G 요금제와 LTE 요금제로 가입시키라고 제안하고 있다. 하지만 이통사들은 약관 변경을 신청한다고 해도 한 가지 모델에 대해 요금제 외에 다른 이유로 차별적인 지원금을 줄 수 없는 단통법때문에 어렵다는 입장이다. 단통법에는 이동통신 요금제에 따른 지원금 차이외에 5G냐 LTE냐에 따라 동일 단말기에 대해 지원금을 다르게 줄 수 있는 근거가 없다. 단통법을 개정해야 하는 것이다. 이통사들이 약관을 바꿔 5G와 LTE가 모두 되는 ‘갤노트 10’에 같은 공시 지원금을 준다해도 혼란이 불가피하다. 이통사들이 고가 요금제를 쓰는 5G 고객과 상대적으로 저렴한 요금제에 가입하는 LTE 고객에게 같은 지원금을 주는 걸 꺼리는 것은 물론, 공시 지원금은 같게 하고 유통점 장려금(리베이트)로 조절할 경우 단통법상 처벌받는 이용자 차별 행위(지역별 유통점별 단말기 가격의 현저한 차이)가 발생할 가능성이 높기 때문이다. ◇통신사 삼성 네탓 공방의 원인도 단통법 이런 이유로 이동통신3사는 삼성에 ‘갤노트10’ LTE 버전 출시를 요구하고 있다. 유럽이나 중국, 미국에 파는 LTE 전용 모델 같은 걸 국내향도 만들어 달라는 것이다. 미국과 중국에서는 5G 버전과 LTE 버전이 모두 출시된다. 그러나 삼성은 이통사에 유럽에서 파는 LTE 모델(899유로, 약120만8100원)과 한국에서 출시된 5G 모델(124만8500원)간 가격 차이가 크지 않고 생산라인 문제도 있다며 난색이다. 5G 모델은 5G칩과 LTE칩이 두 개 들어가 있어 원가를 보면 LTE 모델에 비해 비싸다. 즉 한국에서 노트10 LTE를 출시할 경우 유럽 판매 제품보다 저렴해야 하는데, 이 가격 차이가 클 경우 유럽 소비자들이 반발할 것이라는 게 삼성 주장이다. 이런 갈등도 단통법을 없애고 완전자급제가 실현되면 사라진다. 각자 자기 상품을 자기 계획에 맞춰 내고 소비자 반응을 책임지면 되기 때문이다. 통신 가입과 단말기 유통 분리가 소비자에게 이익이 된다는 사실이 이번 노트10 LTE 버전 출시 갈등에서도 증명됐다는 평가다. 김현아 (chaos@edaily.co.kr) 네이버 홈에서 ‘이데일리’ 뉴스 꿀잼가득 , 청춘뉘우스~ ＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp;amp; 재배포 금지＞</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>[르포] `갤노트10` 공짜폰은 없었지만 `낚시성 마케팅`은 극성</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>신도림 집단상가 현장 탐방 갤럭시노트10 정식 개통 첫날인 23일 신도림 테크노마트 내 휴대폰 집단상가 모습. 김은지 기자 '갤럭시노트10' 예약판매 시 100만원 넘는 지원금이 난무했지만, 정식 출시 첫날인 23일 공짜폰은 찾아볼 수 없었다. 하지만 '공짜폰 코스프레'는 만연했다. 지원금 내역을 따져보면 공짜폰이 아님에도 고객 유치를 위해 '공짜폰' 마케팅을 하는 사례를 심심치 않게 찾을 수 있었다. 일종의 '낚시성 마케팅'인 셈이다. 할인 내역에 대한 안내가 미진하거나 실질적으로 연 360만원의 신용카드 사용 금액(카드 제휴·결합 할인)을 감수해야 하는 상황에서 '기기값 0원'이라는 단어를 어렵지 않게 만날 수 있었다. 삼성전자의 전략 스마트폰인 갤럭시노트10이 23일 정식 출시됐다. 사전 예약 물량만 이미 역대 최고치인 130만대를 넘어서면서 서울 신도림 테크노마트 내 휴대폰 집단상가는 예상보다는 한산했다. 이날 취재는 대표적인 스마트폰 성지에서 '갤럭시노트10을 얼마나 초단가로 살 수 있는지' 궁금증을 해소하기 위해 진행됐다. 우선, 방문객이 많이 없다 보니 등장부터 많은 호객행위에 노출이 됐다. 상가에 들어서자마자 "고객님 알아보셨어요?", "어떤 것을 찾으세요?"라는 물음이 끊임없이 이어졌다. 집단상가 등 일부 유통점은 차별적 리베이트 지급에 대한 방송통신위원회의 단속이 집중될 수 있는 곳이다. 방통위 단속을 의식해 "얼마에 알아보고 왔다", "XX만원에 정말 살 수 있냐"라고 말하는 것은 금기어. "무조건 가장 싸게 사려 하면 어떻게 하냐?"라고 물으면 말없이 계산기에 숫자를 쳐서 보여주는 방식으로 상담이 진행됐다. 다만 기대와 달리, 불법 보조금으로 문제가 됐던 10만원 미만 갤럭시노트10 폰을 찾는 것은 쉽지 않았다. 아예 고객이 없는 상점도 절반 정도. 그나마 1~2명씩의 사람이 방문한 상점은 '갤럭시노트10 0원' 혹은 '갤럭시노트10 사전예약 현금 완납' 등의 홍보 문구를 붙여놓은 곳이었다. 초단가에 스마트폰을 구매하려면 이 같은 문구를 붙여놓은 상점을 최대한 돌아다니고 시세를 비교해야 했다. 많은 곳을 돌아다닐수록 싼 값을 제시받는 데 요령이 생겼다. "옆집에 갔는데 생각보다 비싸게 부른다. 무조건 싸게 갤럭시노트10을 사고 싶다"는 말에 기기가 "공짜"라는 말은 빈번하게 돌아왔다. 여러 상점들이 제시한 초단가 조건은 SK텔레콤 고객인 기자가 번호이동(LG유플러스)에 특정 신용카드 사용할 시 기기값은 0원, 7만5000원(스탠다드,150GB 제공) 가량의 요금만 내도록 맞춰준다는 것이었다. 다른 부가 조건들은 설명하지 않았지만, 월 20~30만원 상당의 특정 신용카드 사용금액을 지켜줘야 한다는 설명도 덧붙였다. 가전을 할부로 구매하거나 공과금 자동이체를 걸어놓거나 하는 방식으로 카드를 이용하면 된다는 것이다. 이 조건의 약정은 24개월이고 갤럭시노트10과 마찬가지로 신용카드 또한 24개월 동안 사용을 유지해야 한다. 보조금이나 공시지원금에 대한 언급은 없었다. 일단 '기기값 0원'을 내세워 실적을 올리는 데만 집중하는 모습이었다. 신용카드사의 마케팅인지 스마트폰 마케팅인지, 초단가에 구매를 할 수 있다는 점은 흥미로웠지만 의아함은 가시지 않았다. 결국 배보다 배꼽(늘어나는 신용카드 사용금액)이 클 수 있구나 하는 생각이 머리를 스쳐갔다. 연 360만원의 신용카드 지출은 갤럭시노트10 일반형 256기가바이트(GB) 출고가 124만8500원의 배가 넘는 금액이다. 갤럭시노트10 아우라 글로우 신용카드와 결합된 방식 외에 '휴대폰 반납을 통한 기기값 0원' 마케팅도 만날 수 있었다. 5GX클럽 노트10 혜택을 활용하는 등의 방식인데, 이를 통해 갤럭시노트10 가격을 할인 받을 수 있었다. SK텔레콤 '5GX클럽_노트10'은 고객이 단말 구매 12개월 뒤 사용하던 제품을 반납 후, 다음 갤럭시 시리즈를 구매할 때 출고가의 최대 50%를 면제받을 수 있는 프로그램이다. 상담 고객이 구체적으로 묻기 전에는 이 같은 프로그램명을 제대로 설명하지는 않았다. 안내 미진으로 인한 '호구 고객(호갱)'을 만들 수 있는 요소였다. 실제 스마트폰 구매가 아닌 '렌탈'이 아니냐며 불만을 토로하는 이도 있었다. 또 이날 초단가를 제시하는 상점을 찾을수록 "지금 기기 개통을 할 것인지"를 묻는 횟수가 늘어났다. 현재 사용 중인 스마트폰의 약정이 남아있고 위약금액이 30~40만원 가량인 덕에 당장 개통은 피할 수 있었다. 한 상인은 위약금에도 불구하고 개통을 한다면 갤럭시노트10 '핑크' 색상을 사용할 것을 권했다. 시그니처 색상인 '아우라글로우'를 쓰고 싶다 말했지만, 품귀현상 때문에 물량 확보가 쉽지 않다는 설명이다. 아우라 화이트도 당일 구하기 어려울 수 있다는 답이 돌아왔다. 이동통신사별 특화 색상인 SK텔레콤 갤럭시노트10 블루, KT 갤럭시노트10 레드도 사전 예약 고객들을 위해 물량이 묶여 있었다. 한편 이날 갤럭시노트10 정식 개통 시작과 아울러, 갤럭시S10 5G를 찾고 상담하는 사람들의 모습도 많이 볼 수 있었다. 또 다른 상인은 "갤럭시S10 5G의 조건이 나쁘지 않아 오히려 지금이 갤럭시S10 5G 구매 적기"라면서 "노트 시리즈와 S시리즈의 팬층이 극명히 나뉘기 때문에 S시리즈를 찾는 사람들의 발걸음도 여전하다"고 설명했다. 김은지기자 kej@dt.co.kr /</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>대란 없는 갤노트10…일반 판매 첫날 ‘잠잠'</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>집단상가, 실구매가 40만원대…이달 말까지 안정화 추세 예상 (지디넷코리아=선민규 기자)대란은 없었다. 갤럭시노트10 공식 출시 첫 날 시장은 잠잠한 분위기를 이어가고 있다. 갤럭시노트10이 사전 개통을 마치고 일반 판매를 시작한 23일, 이른바 ‘성지’로 알려진 집단상가는 비교적 한산한 모습이었다. 판매자들은 지나가는 방문객에게 연신 말을 걸었고, 발길을 멈춘 방문객도 가격을 듣고선 발길을 돌리기 일쑤였다. 서울시내 휴대폰 집단상가 내 판매점은 출고가 124만8천500원인 갤럭시노트10의 실구매가로 40만~50만원대를 제시했다. 이는 제품 출고가에 비해 70만원 가량 낮은 금액이지만, 올 상반기와 같은 대란을 기대했던 구매자들의 기대에는 못 미치는 수준이다. 삼성전자 갤럭시노트10과 갤럭시노트10 플러스.(사진=삼성전자) 집단상가 판매점 관계자는 “5G 스마트폰이 처음 나왔을 당시와 비교하면 방문자가 많이 없는 편”이라며 “노트10 가격에 대해 문의만 하고 돌아가는 경우가 많다”고 말했다. ■ 이통3사, 5G 가입자 보다 ‘시장 안정화’ 초점 단말기를 저렴한 가격에 구매할 수 있는 기회를 일컫는 ‘대란’은 유통점 및 대리점이 본사로부터 지급받는 리베이트에 따라 좌우된다. 리베이트 금액이 높을수록 소비자에게 더 많은 할인을 제공할 수 있기 때문이다. 이통3사는 시장 안정화로 방향을 잡았다. 시장 안정화는 일선 유통판매점에 지급하는 리베이트를 줄이는 방식으로 유도할 수 있다. 이통3사는 시장 과열을 피하고자 보조금 기준 및 영업점에 부과하는 페널티를 강화하는 등 선제적 조치에 나섰다. 이는 통신 시장 과열을 점검하는 방송통신위원회의 긴급 상황반을 의식한 움직임이다. 긴급 상황반은 신규 단말기 출시를 전후해 시장 과열을 점검하는 조직이다. 23일 서울 시내 휴대폰 집단상가의 모습. 상반기 과도한 마케팅 경쟁이 실적에 악영향을 미쳤다는 점과 5G 가입자가 안정화 추세에 접어들었다는 점 등도 이통 3사의 전략 수정 배경으로 꼽힌다. 실제로 지난 22일 박종욱 LG유플러스 PS부문 전무는 “경쟁사가 보조금(리베이트) 지급을 통한 출혈 경쟁을 시작해도 우리는 경쟁 참여를 지양할 것”이라며 “보조금 중심의 경쟁에서 서비스 중심으로 시장이 변화하는 것이 맞다고 생각한다”고 말하기도 했다. ■ 대란 없이 노트10 순항 중 대란은 없었지만 노트10 판매는 순항하고 있다. 집단상가나 온라인이 아닌 일반 소매 대리점의 단말기 판매가 늘고 있다는 점이 특징이다. 유독 저렴한 가격에 단말기를 판매하는 성지가 사라지면서, 접근성에서 강점이 있는 일반 소매 대리점의 판매량이 높아진 것으로 풀이된다. 통신업계 관계자는 “이제 일반 판매가 시작된 탓에 구체적인 판매량을 집계하긴 어렵지만, 예약 판매 성적과 시장 분위기를 봤을 때 전작에 비해 좋은 것은 사실”이라며 “올 상반기 출시된 5G 스마트폰에 비해 노트10은 소매 대리점에서 개통하는 비중이 높다”고 말했다. 종각역직영점에서 갤럭시 노트10 5G 사전예약자가 개통을 진행하는 모습.(사진=LG유플러스) 제품에 대한 호평과 상반기에 비해 개선된 5G 네트워크 품질도 판매량 증가를 이끈 것으로 풀이된다. 소매 대리점 관계자는 “노트10의 성능을 고려할 때, 가격 부담을 감당하는 것이 옳다는 공감대가 만들어지고 있는 것 같다”며 “다소 불안했던 5G 상용화 초기와 달리 현재는 커버리지와 네트워크 품질 면에서 상당히 안정화됐다는 점도 판매량 증가에 영향을 미쳤을 것”이라고 설명했다 시장 안정화 흐름은 최소 이달 말까지 유지질 것으로 예상된다. 통신업계 관계자는 “정부의 규제 상황을 생각할 때, 최소 이달 말까지는 시장 안정화 추세가 이어질 것”이라며 “다만 추석 연휴를 전후해 시장이 과열될 가능성도 배제할 수는 없다”고 말했다. 선민규 기자(sun1108@zdnet.co.kr) /</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>삼성전자, 반도체·무선사업부 성과급 절반으로 줄듯</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>가전사업부는 올해와 비슷한 수준으로 공지 반도체 시황 부진, 스마트폰 성장세 둔화 등으로 삼성전자의 영업이익이 급감하면서 내년 초 직원들에게 지급될 성과급도 올해 초 대비 절반 수준에 그칠 전망이다. 23일 업계에 따르면 삼성전자는 전날 직원들에게 내년 초 지급되는 사업부별 초과성과인센티브(OPI) 예상 지급률을 공지했다. 각 사업부의 1년 성과가 연초 사업 목표를 초과했을 경우 개인 연봉의 최대 50%를 OPI로 지급한다. 매년 1월쯤 나온다. 삼성전자 직원들이 서울 서초구 삼성전자 사옥에 들어가고 있다./연합뉴스 올해 초 최대치인 50% 내지 이에 근접한 수준의 OPI를 받았던 디바이스솔루션(DS)부문은 메모리·비메모리 사업부(시스템LSI·파운드리)를 통틀어 22~30% 수준에서 성과급이 지급될 것으로 예상됐다. 스마트폰을 담당하는 IT·모바일(IM)부문 무선사업부는 24∼28% 수준, 네트워크사업부는 이보다 높은 31∼39%가 예상됐다. IM부문의 올 초 OPI는 최대 46%였다. 소비자가전(CE)부문은 올해 초와 비슷한 수준이 될 것으로 알려졌다. 생활가전사업부는 연봉의 23∼24%, 영상디스플레이(VD)사업부는 최대 42% 수준으로 공지됐다. 지난해에도 CE 부문 성과급은 가전사업부와 VD사업부가 각각 23%, 46% 수준이었다. 삼성전자 관계자는 "각 사업부문별 OPI 예상 지급률이 공지된 것은 사실이지만 구체적인 수치를 확인해줄 수는 없다"면서 "현재 시점에서 산정한 지급률이기 때문에 하반기 실적에 따라 약간의 변경 여지는 있다"고 말했다. [장우정 기자 woo@chosunbiz.com] chosunbiz.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>조국 딸 '금수저 스펙' 뒤엔 '엄마의 서울대 동아리 네트워크' 있다?</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>조국 딸 관련 논란된 공주대 K교수..조국 부인과 서울대 81학번 동기 조국 부인 학창 시절 활동한 서울대 천문동아리 AAA가 연결고리 조국 법무부 장관 후보자가 23일 오후 서울 종로구 적선현대빌딩에서 논란이 일고 있는 사모펀드와 사학재단 웅동학원을 사회에 환원하겠다고 밝히고 있다. 2019.8.23/뉴스1 © News1 안은나 기자 (서울=뉴스1) 최소망 기자 = 조국 법무부 장관 후보자의 딸이 한영외고 재학 중 공주대에서 인턴을 하고 국제학술대회 발표초록에 제3저자로 이름을 올린 것이 특혜가 아니냐는 의혹이 제기된 가운데 공주대와 조국 가족의 연결고리로 서울대 천문 동아리인 '아마추어 천문회'(AAA)가 주목받고 있다. 23일 과학기술계에 따르면 조국 후보자 딸(28)은 2009년 공주대 생명과학과 K교수실에서 2주가량 인턴을 하고 국제학회 발표문에 제3저자로 이름을 올렸다. 당시 K교수는 조 후보자의 아내 정 씨의 대학 동기다. 정 씨와 K교수는 1981년 서울대 영어영문학과와 식물학과에 각각 입학했다. 소속과가 다른 이들은 서울대 재학시절 천문 동아리에서 같이 활동한 인연이 있는 것으로 알려졌다. 서울대에는 1980년부터 시작된 유서 깊은 아마추어 천문회(Amateur Astronomy Association·AAA) 동아리가 있다. 이름 그대로 취미로 천문활동을 하는 동아리로 해마다 천체 사진전을 열어 1년간 동아리원들이 찍은 천체사진을 엄선해 전시하는 활동을 한다. 천문회 동아리에서 맺은 어른들의 '인연'이 조국 딸의 '금수저 스펙'의 진원지 역할을 한 셈이다. 실제로 K교수는 한 언론에 "대학 동기인 조 후보자의 부인인 정 씨가 자기 딸 면접을 보는데 충남 공주까지 같이 왔다니까 놀랐다"며 동기라는 사실을 인정했다. 이를 두고 서울대생 전용 포털사이트인 스누라이프(SNULIFE)에는 "나도 AAA인데 내 자식 논문은 동아리 동기에게 맡겨야겠다", "AAA인맥이 이렇게도 활용되네요", "AAA출신인데 자괴감 느낀다" 등의 의견이 올라오기도 했다. 조국 후보자의 딸 조 씨의 단국대 논문 제1저자 논란이 일었을 때도 논란 직후에는 서울대 물리천문학과의 A교수가 조국 딸와 관련한 의혹에 대해 옹호하는 발언을 해 주목을 받기도 했다. A교수는 조국 법무부 장관 후보자 딸의 논문 논란과 관련 지난 21일 "딸도 부모도 책임이 없어 보인다"면서 "만약 문제가 된다면 결국 지도교수의 책임"이라고 밝혔다. 이어 "조국 교수가 자기 딸을 제 1저자로 넣어달라고 부탁했다면 명백한 잘못이지만 밝혀지지 않는 한 부모의 잘못을 논하기는 어렵다"고도 했다. 이외에도 조 양이 과거 한영외고 재학 시설 서울대 물리천문학부 B교수의 지도를 통해 한국물리학회에서 수여하는 물리캠프 장려상을 받은 것까지 회자된다. 조 씨는 2009년 8월 한국물리학회(KPS) 여성위원회가 숙명여대에서 개최한 '여고생 물리캠프'에 참가해 다른 학생 2명과 함께 '나비의 날개에서 발견한 광자 결정구조의 제작 및 측정'이라는 연구과제를 수행해 장려상을 받았다. 해당 캠프에서 2005년부터 현재까지 장려상을 시상한 해는 2009년이 유일해 일부러 상을 만들어준 게 아니냐는 의혹이 제기됐다. 과기계 관계자는 "조국 부인이 천문 동아리에서 활동했고 당시 동문들이 현재 서울대 물리천문학부 교수직에 포진해 있다"며 "조국 후보자의 딸과 관련해 제기되는 '금수저 스펙'에 '엄마의 서울대 AAA 네트워크'가 고스란히 담겨 있는게 아니냐"고 말했다. 이와관련 AAA는 "기사에 언급된 분들은 현재 동아리에서 보유한 연락처 목록에 기재조차 돼있지 않다"고 밝혔다. somangchoi@news1.kr [© 뉴스1코리아(), 무단 전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>바이오株 악재 속 글로벌신약 자신감··“SK바이오팜 연내 IPO”</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>뇌전증 신약인 ‘세노바메이트’ 美FDA 11월 판매허가 앞두고 SK㈜이사회, 상장 안건 가결 11월말 이후 공모 가능성 커 ‘솔리암페톨’ 등 파이프라인 다양 기업가치 5조원 안팎 달할 듯 [서울경제] 뇌전증 신약 세노바메이트의 미국 식품의약품청(FDA)의 신약판매 허가를 앞둔 SK바이오팜이 연내 기업공개(IPO)를 추진한다. 증권업계는 다양한 신약 파이프라인을 확보한 SK바이오팜의 기업가치가 5조원 안팎에 달할 것으로 추산한 바 있다. 상반기부터 계속된 제약 바이오업계 악재들로 투자 심리가 한층 위축된 가운데 올 하반기 IPO 시장 최대어로 꼽혔던 SK바이오팜이 상장에 나서면서 제약바이오업계에 분위기 반전을 몰고 올지 주목된다. 24일 업계에 따르면 SK㈜는 지난달 이사회를 열어 SK바이오팜의 상장 추진 안건을 가결해 기업공개 관련 절차를 진행했다. 이는 SK㈜가 일정 지분을 보유한 자회사의 상장을 추진할 때 이사회 의결을 거쳐야 하는 규정에 따른 것이다. 지난해 미국 나스닥 직상장을 추진했던 SK바이오팜은 올해 초 코스피로 눈을 돌려 지난 4월 기업공개 대표 주관사로 NH투자증권을, 공동주관사로 한국투자증권을 각각 선정한 바 있다. SK바이오팜은 SK㈜ 이사회 절차를 마무리한 만큼 조만간 거래소에 상장예비심사를 청구할 것으로 예상된다. 업계에서는 SK바이오팜의 상장 추진이 독자 개발한 뇌전증 신약 ‘세노바메이트’에 대한 자신감에서 비롯된 것이라고 해석하고 있다. 앞서 미 FDA는 지난 2월 세노바메이트의 허가심사를 시작했으며, 약 10개월의 검토 기간을 거쳐 오는 11월21일 허가 여부를 결정할 계획이다. 이미 S K바이오팜은 세노바메이트의 미국 마케팅을 위해서 현지에 의약품 판매법인 SK라이프사이언스를 설립해 놓은 상태다. SK㈜ 관계자는 “상장 시점은 시장 환경 등을 고려해 최적의 시점에 추진한다는 입장”이지만 공모가 등을 고려해 세노바메이트의 미국 FDA 승인 직후가 될 공산이 크다. 지난 2011년 출범한 SK바이오팜은 상대적으로 짧은 역사에도 글로벌 신약 시장에서 두각을 나타내며 우리나라를 대표하는 바이오 업체로 자리 잡았다는 평가를 받고 있다. SK바이오팜은 통상 신약을 개발해 국내에 먼저 출시한 뒤 미국·유럽 등 선진시장에 진출하는 것이 아니라 연구개발(R&amp;amp;D) 단계부터 미국 시장을 염두에 두고 신약 개발에 나서는 전략을 펴고 있다. 실제로 SK바이오팜은 지난달 8일부터 자체 개발해 기술수출한 수면장애 신약 ‘솔리암페톨’의 미국 판매를 시작했으며 글로벌 시장을 염두에 두고 소아희귀뇌전증 치료제 ‘카리스바메이트’, 희귀 신경계질환 치료제 ‘렐네노프라이드’를 개발하고 있다. 이밖에 집중력장애 치료제 SKL13865와 조현병 치료제 SKL20540 등도 개발 중이다. 증권업계 관계자는 “각종 악재로 바이오 업종에 대한 투자심리가 한층 꺾인 상황”이라며 “올 하반기 IPO 최대어로 주목받았던 SK바이오팜이 신약 허가에 대한 자신감을 등에 업고 높은 가치를 인정받을 경우 제약바이오 업계를 바라보는 투자심리에 긍정적인 영향을 미칠 수 있을 것”이라고 말했다. /박홍용기자 prodigy@sedaily.com | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>[우주를 보다] 인류 피조물과 첫 조우한 해왕성…30년 전 보이저 2호 포착</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>[서울신문 나우뉴스] 해왕성(왼쪽)과 트리톤의 사진. 출처=NASA/JPL-Caltech 지금으로부터 정확히 30년 전인 지난 1989년 8월 25일, 인류의 피조물이 사상 처음으로 태양계 8번째 행성의 근접 사진을 촬영했다. 촬영자는 미 항공우주국(NASA)의 태양계 탐사선 보이저 2호(Voyager 2) 그리고 대상은 이제는 태양계 끝 행성이 된 해왕성이다. 지난 22일(현지시간) NASA는 해왕성 탐사 30주년을 맞아 당시 보이저 2호가 촬영한 해왕성 사진을 홈페이지에 공개했다. 해왕성의 신비로운 모습이 인상적인 이 사진은 당시 보이저 2호가 약 700만㎞ 떨어진 지점을 지나가며 카메라에 담은 것이다. 해왕성은 태양을 기준으로 무려 45억㎞나 떨어져 있어 관측이 대단히 어렵다. 이 때문에 보이저 2호가 남긴 해왕성 사진은 천문학 역사에 길이 남을 정도의 쾌거였다. 보이저호의 상상도 이 사진과 더불어 보이저 2호는 방향을 살짝 틀어 해왕성의 가장 큰 달인 트리톤(Triton)의 모습도 생생히 잡아냈다. 해왕성의 13개 위성 중 가장 큰 트리톤(지름 2707㎞)은 자전축과 공전방향이 반대인 역행위성이다. 이 때문에 전문가들은 ‘카이퍼 벨트’(Kuiper Belt·해왕성 궤도 밖의 천체가 도넛 모양으로 밀집해 있는 지역)에 있던 트리톤이 해왕성의 힘으로 끌려 온 것으로 추측하고 있다. 이렇게 태양계 행성 탐사를 모두 마친 보이저 2호는 지난해 12월 보이저 1호에 이어 태양권 경계를 넘어 성간 우주에 도달했다. 현재 태양에서 약 180억㎞ 떨어진 심(深)우주를 비행 중으로 누구도 가보지 못한 전인미답의 경지에 오른 셈이다. 박종익 기자 pji@seoul.co.kr ★ ▶ ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>[리뷰] '미(美)친 화질과 응답속도' LG 울트라기어 27GL850</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>게임을 즐기기 위해 준비하는 아이템에 대한 관심사가 다양해지고 있다. 과거에는 성능 위주였다면 최근에는 주변기기에도 관심을 두는 모습이다. 키보드, 마우스, 헤드셋 등 다양하지만 디스플레이에 대한 관심도 높아지는 추세다. 게이밍 환경이 고해상도와 고주사율 등 경험 위주로 발전하고 있기 때문이다. LG 울트라기어 27GL850. (출처=IT동아) 화려한 그래픽과 사운드, 조작감 등으로 다양한 짜릿함을 주는 게임. 다양한 장르가 존재하는데 국내에서 인기를 얻고 있는 주요 게임들은 민감한 조작이 필요한 것들이 많다. 리그 오브 레전드, 피파온라인, 배틀그라운드, 오버워치, 패스 오브 엑자일 등만 봐도 그렇다. 적이 어디에 있는지 빠르게 판단하고 민첩하게 키를 입력해 승리를 거머쥐어야 한다. 1초 이하의 찰나에 승패가 결정될 정도로 빠른 입력이 중요한 게임들이 최근 많아지고 있다. 이런 상황에서 방해 받는 요소는 바로 디스플레이. 게임은 입력과 출력이 실시간으로 이뤄지는 과정을 반복하게 되는데, 이 과정에서 미세하게나마 지연이 생긴다. 이를 '입력지연(Input Lag)'이라 부른다. 이를 막기 위해 많은 노력을 기울이는데, 모니터 또한 여기에 포함된다. 최근 게이밍 모니터들은 입력 지연을 줄이기 위해 화면 응답속도를 줄이고 있다. 일반적으로 3~5밀리초(ms) 정도면 빠른 것으로 분류된다. 하지만 이를 뛰어 넘는 1ms에 도달한 게이밍 모니터가 있다. 바로 LG 울트라기어 27GL850이 그것. 이 모니터는 1초에 화면이 144회 깜박이는 나노 IPS 디스플레이를 채택하면서 풍부한 색감과 고해상도(QHD – 2,560 x 1,440)를 구현했다. 엔비디아 지싱크 호환(G-SYNC Compatible)을 공식 지원하는 것도 특징이다. 게이밍 모니터 다운 완성도 돋보여 LG 울트라기어 27GL850의 디자인은 그간 LG 게이밍 모니터들과 비슷한 모습이다. 검은색과 붉은색을 적절히 조합했고, 외모를 날카롭게 다듬어 강한 인상을 준다. 이 모니터 역시 유광 재질을 최대한 배제해 묵직함을 더했다. 화려함을 강조한 효과는 없다. 흔히 고가의 게이밍 모니터는 LED 효과를 넣어 눈부시게 만들기도 하는데, 화면에 집중 가능하도록 불필요한 요소는 뺐다. LG 울트라기어 27GL850. (출처=IT동아) 모니터의 면적은 27인치(68.6cm) 정도. 화면이 휘어지지(커브드) 않은 평면이며 화면 테두리가 얇아 실제 보면 27인치보다 조금 더 작아진 듯한 인상이다. 실제 화면 테두리의 두께가 얇다. 하단을 제외하고 상단이 mm, 양쪽 측면이 mm에 불과하다. 화면이 시원하게 펼쳐져 있어 보는 맛이 좋다. 스탠드를 장착한 상태에서의 모니터 크기는 폭 614.2mm, 높이 574.8mm 정도이며, 모니터 자체의 두께는 약 56.3mm 정도다. 스탠드는 Λ 형상으로 자리만 충분하다면 모니터의 균형을 잘 잡아준다. 장착 자체도 간단하다. 모니터 하단에 있는 고정 홈에 스탠드 머리 부분을 끼워 넣기만 하면 된다. 스탠드 기능도 매력적이다. 기본적으로 높낮이 조절(Height), 모니터 각도를 앞뒤로 조절하는 틸트(Tilt), 화면을 90도 돌릴 수 있는 피벗(Pivot)을 지원한다. 모니터를 좌우로 돌리는 스위블(Swivel)은 지원하지 않는다. 모두 사용에 도움을 주는 기능들이다. 이로 인해 모니터 몸값이 상승하겠지만 사용성 측면에서 보면 이점이라 하겠다. 다양한 영상 입력 및 주변기기 확정성을 위한 단자가 제공된다. (출처=IT동아) 연결부 구성도 충실하다. HDMI 단자 2개, 디스플레이 포트 1개를 포함해 PC에 연결하기 위한 B 규격의 USB 단자(USB 2.0) 1개, 주변기기 연결을 위한 A 규격 USB 단자(USB 3.0) 2개가 배치된다. 헤드폰 연결을 지원하는 3.5mm 스테레오 단자도 포함된다. 이런 구성이면 PC와 콘솔 게임기 등 여러 출력 장치에 연결하는 것이 가능하다. 지싱크 호환 기술을 사용하려면 디스플레이 포트를 활용해야 된다. HDMI 단자는 전송 대역의 한계로 지원하지 않기 때문이다. 사용하지 않는다면 어떤 단자를 써도 무방하다. '지싱크 호환 + 1ms'로 민첩하고 부드러운 게이밍 경험 제공 LG 울트라기어 27GL850의 특징을 정리해보면 이렇다. 우선 ▲ 나노 IPS 디스플레이 적용 ▲ 1밀리초(ms) 수준의 응답속도 ▲ 엔비디아 지싱크 호환 기술 대응 ▲ 144Hz 고주사율 적용 등이다. 이 같은 구성은 게이밍은 물론, 함께 다양한 환경에서 최적의 경험을 제공하는데 도움이 된다. 흔히 게이밍 모니터는 뒤틀림 전환(TN – Twisted Nematic) 혹은 수직 전계식(VA – Vertical Alignment)을 쓴다. 반면, 이 모니터는 평면내 전환(IPS – In-Plane Switching) 구조를 적용한 것이 특징이다. LG 울트라기어 27GL850. (출처=IT동아) IPS 디스플레이는 액정이 수평으로 구동되는 원리를 이용하고 있다. 넓은 시야각과 빠른 응답속도 등이 장점으로 꼽힌다. 여기에 LG는 나노단위의 화점을 더해 색상을 더 정확하게 표현할 수 있도록 설계했다. 나노 IPS 디스플레이는 넓은 시야각을 자랑한다. 색반전 현상이 적은 편이다. (출처=IT동아) 그 덕에 모니터는 넓은 색영역을 지원한다. 디지털 영화협회(DCI)의 색역인 DCI-P3 98%, 일반 색역인 sRGB 135%에 대응한다. 색조와 명암 등을 넓게 표현할 수 있는 고관용도(HDR – High Dynamic Range)도 지원한다. 여기에 넓은 시야각이 더해지니 눈이 즐겁다. 명암비는 1,000대 1로 VA 혹은 TN 패널 기반의 모니터에 비하면 부족하지만, 밝기는 평균 350 칸델라(cd/㎡) 정도로 오히려 밝다. 색상 표현력은 HDMI 단자를 썼을 때 8비트(1,670만), 디스플레이 포트를 썼을 때 10비트(10억)까지 표현 가능하다. 시야각을 보니 만족스럽다. 제원은 178도 정도인데, 실제 좌우에서 봤을 때 색반전 현상을 거의 느끼기 어려울 정도다. 무리하게 측면에서 바라보면 색반전이 있지만 일상적인 환경이라면 문제는 없다. 개인이 쓰는 모니터지만 타인이 영상을 관전하거나 작업 내용을 확인할 때, 최대한 정확한 색상을 경험할 수 있다는 부분은 장점이라 하겠다. PC와 모니터를 디스플레이 포트에 연결한 다음, 윈도 바탕화면에서 엔비디아 제어판을 불러오면 지싱크 호환 설정이 가능하다. (출처=IT동아) LG 울트라기어 27GL850의 또 다른 특징은 가변 주사 동기화(Adaptive-Sync) 기술에 대응한다는 것. 이 제품 역시 엔비디아의 '지싱크 호환(G-SYNC Compatible)'의 인증을 받았다. 프리싱크를 지원하는 일부 중소기업 모니터가 지싱크 호환에 대응한다는 것과는 차원이 다르다. 엔비디아가 직접 모니터에 대한 품질 테스트를 진행했고, 이를 통과했기 때문에 공식 인증을 받았다. 엔비디아 홈페이지 내에도 공식 등록되어 있다. 지싱크 호환 기술을 활성화하는 방법은 이렇다. 우선 지포스 10 시리즈 이상 그래픽카드 장착 및 그래픽카드 드라이버는 최소 417.71버전 이상이어야 한다. 추가로 PC와 모니터 연결은 디스플레이 포트(DP) 케이블을 사용해야 된다. HDMI 케이블로는 대응하지 않는다. 이상 조건을 만족했다면 윈도 바탕화면 내에서 마우스 우클릭 후 '엔비디아 제어판'을 불러오자. 제어판을 보면 좌측에 'G-SYNC 설정'이 활성화 되어 있는데 이를 클릭하면 된다. 지싱크 호환 설정은 기본적으로 활성화가 활성화된 상태다. 여기에서 사용자는 전체 화면에서만 쓸지, 창 모드와 전체화면 등 대부분의 상황에서 지싱크 호환을 쓸지 여부를 확인하면 끝이다. 가변 주사 기술인 엔비디아 지싱크 호환에 대응, 게임을 즐길 때 부드러운 화면을 보여준다. (출처=IT동아) 지싱크 호환 기술이 된다면 자연스레 AMD 프리싱크 기술도 지원한다. 타 지싱크 호환 모니터와 마찬가지로 실제 라데온 그래픽카드에 모니터를 연결했더니 드라이버 내에서 프리싱크 활성화가 되어 있음을 확인할 수 있었다. 작동도 잘 된다. 전환 범위는 48에서 144Hz 사이다. 이는 곧 1초에 48매 이상 이미지가 표현되는 환경이라면 끊김 없이 부드러운 화면 전환을 지원한다는 의미다. 실제 게임을 즐겼을 때의 만족감은 높다. 초당 144회 깜박이는 모니터라는 점도 좋지만 가변 주사 동기화 기술(엔비디아 지싱크 호환)에 의한 부드러운 화면이 압권이라 해도 과언이 아니다. 기본적으로 초당 48매 이상 표시되는 환경이 유지되어야 한다는 한계는 있지만, 일정 성능 이상 나오는 게이밍 PC라면 쉽게 달성 가능한 부분이기 때문에 큰 문제라 보기 어렵다. 무엇보다 이것이 유지되면 눈에 가해지는 스트레스가 줄어든다. IT동아 내에 준비되어 있는 라이젠5 3600 프로세서와 라데온 RX 5700, 지포스 RTX 2060 슈퍼 등 그래픽카드로 구성된 게이밍 PC로 게임을 즐겨보니 그래픽 옵션을 높여도 끊김을 느낄 수 없었다. 무엇보다 반응 속도가 인상적이다. 사실, 일정 이하의 응답 속도라면 크게 느끼기 어렵지만 민감한 반응성이 필요한 게임에서는 입력 지연이 느껴질 수 밖에 없다. 1ms 정도라면 거의 바로 출력되는 수준. 이에 기자가 가끔 즐기는 리듬게임 '탭소닉 볼드'를 실행, 게임을 즐겨보니 부드러운 화면 전환도 그렇지만 입력에 따른 스트레스를 거의 느끼지 못했다. 실력의 한계로 실수가 생길 수 있어도 입력 지연에 따른 판정 실수는 거의 드물다는 이야기다. 배틀그라운드를 즐겼을 때도 동일한 인상을 받았다. 과거 즐겼던 환경에서는 입력에 따른 지연이 조금씩 느껴졌지만 LG 울트라기어 27GL850으로는 키를 입력하는 것과 거의 동시에 반응이 온다. 자연스레 입력에 대한 스트레스 없이 게임에 몰입할 수 있게 된다. 물론, 이를 가지고 치킨을 먹을 수 있느냐 없느냐는 별개의 문제다. 가격은 높지만 완성도는 기대 이상 LG 울트라기어 27GL850. 화면이 초당 144회 깜박일 정도로 높은 주사율, 1ms의 빠른 반응 속도, 광시야각 등 장점이 많다. 스탠드 활용성도 높다. 높낮이 조절은 기본이고 수직으로 세운 뒤 동일한 모니터 2~3개를 배치해 더 넓게 볼 수 있다. 지싱크 호환 기술의 대응은 게임을 더 부드럽게 즐기는데 도움이 된다. 여러모로 게이머를 위한 기능에 집중한 것이 이 모니터의 강점이라 하겠다. 영상이나 기타 작업을 할 때에도 이점이 있다. 나노 IPS 디스플레이 특유의 색표현 능력도 그렇지만, LG가 생산 단계에서 최적의 색상을 조율해 내보내기 때문에 기본 이상의 실력을 보여준다. 전문가용 모니터처럼 제품 내용물에 관련 결과표를 제공한다. 나노 IPS 디스플레이 덕에 영상 감상이 더 즐겁다. (출처=IT동아) 아쉬운 점이 있다면 가격. 여러 이점이 있다 하더라도 누구나 쉽게 접근할 수 없다면 매력이 떨어진다. 차라리 모니터 스탠드의 기능을 제한하거나 영상 입력 단자를 줄이는 식으로 가격을 조금 더 낮췄으면 좋겠다는 생각이 든다. 또한 지싱크 호환이라는 부분을 명확히 표기해 주면 소비자가 혼동을 최대한 줄일 수 있을 듯 하다. 그러나 이는 엔비디아의 문제이지 LG의 문제는 아니다. 게임을 즐기는 방법은 다양하다. 하지만 제대로 즐기기 위한 방법은 많지 않다. LG 울트라기어 27GL850은 그 해답 중 하나가 되지 않을까 예상해 본다. 1ms 반응속도와 144Hz 주사율, 지싱크 호환 등 많은 것을 한 번에 누리기 쉽지 않아서다. 동아닷컴 IT전문 강형석 기자 redbk@donga.com / ⓒ 동아일보 &amp;amp; donga.com, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>최태원 회장 “AI 등 혁신기술 없이 미래 담보 못해”</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SK가 디지털 트랜스포메이션(DT)과 인공지능(AI)등 혁신기술을 '딥 체인지(Deep Change)'의 핵심 동력으로 삼고, 이들 기술의 글로벌 경쟁력을 제고를 위해 그룹 역량을 결집시키기로 했다. 내년 초 그룹 인재 역량 강화를 위해 'SK 유니버시티' 설립도 검토한다. SK는 22일 막을 내린 '2019 이천포럼'에서 AI 등 '빅 트렌드'(Big Trend) 기술 전략적 중요성을 확인하고 이 같은 방침을 정했다고 밝혔다. 최태원 SK 회장은 22일 마무리 발언에서 “AI, DT 등 혁신기술을 활용해 사회적 가치를 창출하는 한편, 우리 고객 범위를 확장하고 고객 행복을 만들어 내야 한다”면서 “이를 통해 SK가 추구해 온 '딥 체인지'를 이룰 수 있다”고 밝혔다. 이번 포럼의 주요 의제로 다룬 4차 산업혁명 시대의 대표 기술이 고객 가치 창출로 연결돼야 한다는 점을 지적한 것이다. 최 회장은 특히, “거래비용을 최소화하고, 고객이 원하는 가치를 효과적으로 전달할 수 있게 하는 혁신기술을 활용하지 못하면 SK 미래를 담보할 수 없다”면서 디지털 기술 역량 강화는 '선택이 아닌 생존의 문제'임을 강조했다. 최 회장은 “이를 통해 우리의 고객이 누군지 재정의하고, 각 고객에게 맞춤형 가치를 제공해야 한다”며 '신뢰'를 기반으로 고객과 1대1 '관계'를 구축하는 데 힘을 쏟을 것을 주문했다. 내년 1월 출범을 목표로 한 그룹 차원의 교육 인프라 'SK 유니버시티' 설립을 제안한 것도 이 같은 혁신기술 역량을 내재화하고 우수 인재를 육성하기 위함이라고 최 회장은 설명했다. 이어 최 회장은 에너지·화학과 정보통신 기술을 접목한 '에너지 솔루션' 비즈니스 모델을 소개한 뒤 “앞으로 에너지 공급자 시각만으로는 에너지 산업 변화의 물결에서 생존할 수 없다”며 환경문제를 해결하면서 고객 가치를 높이는 에너지 솔루션형 비즈니스 모델 혁신에 박차를 가하겠다는 의지를 밝혔다. 끝으로 최 회장은 “나부터도 변화는 두렵고 달갑지 않은 일이지만 번지점프를 하듯이 두려움을 극복하고 자꾸 새로운 시도를 해야 '딥 체인지'를 이룰 수 있다”며 구성원들에게 “피할 수 없다면 변화를 즐기자”고 당부했다. 지난 19일부터 연 이번 포럼에는 최 회장과 조대식 SK수펙스추구협의회 의장 등 경영진과 임원 등 연인원 800여명이 참석해 국내외 석학과 전문가들의 강연을 듣고 열띤 토론을 벌였다. 또 구성원들은 전용 모바일 앱 등을 통해 이천포럼 내용을 실시간 시청하면서 강연자들과 질의·응답을 주고 받았다. 한편, 이번 포럼에서 화상강연을 한 제레미 리프킨 美 경제동향연구재단 이사장은 “SK가 새로운 개념의 에너지 솔루션 사업을 추진하는 것은 인류 전체의 지속가능한 성장을 위해서도 매우 중요하며 시의적절하다”고 평가했다. &amp;lt;노동의 종말&amp;gt;&amp;lt;엔트로피&amp;gt; 등을 저술한 세계적 석학인 리프킨 이사장은 지난 20일 강연에서 “인류가 지구온난화에 따른 파국을 피하기 위해서는 에너지 시스템을 근본적으로 혁신해 '탄소배출 제로 시대'에 진입해야 한다”며 이 같이 말했다. 이항수 SK수펙스추구협의회 PR팀장은 “DT, AI 등 첨단 기술이 SK가 추구해 온 사회적 가치와 '딥 체인지'를 구현할 수 있는 핵심 동력이라는데 구성원이 인식을 같이 한 만큼, 향후 이들 기술역량 강화에 박차를 가하게 될 것”이라고 말했다. 안호천 통신방송 전문기자 hcan@etnews.com [Copyright ⓒ 전자신문 &amp;amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>블룸버그 "LG화학, 테슬라 中 상하이 공장에 배터리 공급"</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>중국 난징 신장경제개발구에 위치한 LG화학 전기차 배터리 1공장 전경. (사진=LG화학) LG화학이 미국 전기차 업체 테슬라의 첫 해외 생산기지인 중국 상하이 공장에 배터리를 공급할 것으로 보인다. 블룸버그통신은 23일 복수의 소식통을 인용해 “테슬라가 중국 상하이 공장에서 생산하는 전기자동차에 LG화학 배터리를 사용하기로 양사가 합의했다”고 보도했다. LG화학은 “고객사 관련 내용은 확인할 수 없다”고 공식 언급을 하지 않았으나 업계에서는 LG화학의 테슬라 공급을 기정사실로 받아들이고 있다. 보도에 따르면 LG화학이 테슬라에 공급하는 배터리는 기존 구형 배터리보다 용량이 큰 21700 셀로 난징 공장에서 생산된다. 테슬라는 상하이 공장에서 올해 말부터 본격 생산하는 '모델3'에 LG화학 배터리를 먼저 사용하고 콤팩트 크로스오버 차량인 '모델Y'가 내년 출시되면 해당 모델에도 사용할 예정이라고 통신은 전했다. 테슬라는 올 1월 초 상하이 린강산업구에 연산 50만대에 이르는 전기차 공장 '기가팩토리'를 착공했다. 배터리 업계에서는 LG화학의 테슬라 배터리 공급 가능성을 높게 봐왔다. LG화학은 테슬라 상하이 공장과 가까운 난징 신강 경제개발구에 위치한 배터리 공장 두 곳 외에 빈장 경제개발구에 전기차 배터리 2공장을 추가로 짓고 있다. 또 난징을 세계 배터리 수출 기지로 육성한다는 목표로 올해 1월 신강 배터리 공장 두 곳에 총 1조2000억원을 투자하기로 결정했다. 특히 테슬라 전기차에 탑재되는 원통형 배터리 생산량을 크게 늘리고 있다. 다만 테슬라는 LG화학 외에 다른 회사와도 배터리 구입 계약을 체결할 계획인 것으로 알려졌다. 블룸버그에 따르면 테슬라는 중국 최대 배터리 제조사 CATL과도 관련 협의를 진행 중이다. 정현정 배터리/부품 전문기자 iam@etnews.com [Copyright ⓒ 전자신문 &amp;amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>국민에 부담 떠 넘긴 '文 케어'</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>내년 건보료 3.2% 인상··· 3년 연속 ↑ [서울경제] ‘문재인케어’로 불리는 건강보험 보장성 강화정책으로 내년 건강보험료가 3.2% 인상된다. 지난해 건강보험 재정수지가 적자로 돌아선 가운데 3년 연속 건보료가 인상되자 정부에서 재정부담을 국민에게 전가하고 있다는 우려의 목소리가 잇따르고 있다. ★관련기사 5면 보건복지부는 지난 22일 건강보험정책 최고의결기구인 건강보험정책심의위원회를 열어 오는 2020년 건강보험료율을 3.2% 올린다고 밝혔다. 이에 따라 직장가입자의 보험료율은 현행 6.46%에서 6.67%로, 지역가입자의 부과점수당 금액은 현행 189원70전에서 195원80전으로 인상된다. 월평균 보험료를 보면 올 3월 기준 직장가입자는 11만2,365원에서 3,653원 오른 11만6,018원을 내야 한다. 지역가입자는 8만7,067에서 2,800원 인상된 8만8,867원을 내년부터 추가로 부담해야 한다. 정부는 건강보험 보장성 강화대책이 속도를 내면서 불가피하게 내년도 건강보험료율을 인상했다고 설명했다. 김재헌 무상의료운동본부 사무국장은 “건강보험 보장성 강화의 취지에는 동의하지만 재정확보 대책이 빠져 있다는 것이 가장 큰 문제”라며 “국고지원금 없이 국민을 볼모로 건강보험료를 올리는 문재인케어가 계속 시행되면 예상보다 빨리 적립금이 고갈되는 최악의 상황에 직면할 수 있다”고 말했다. /이지성기자 engine@sedaily.com | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>지구급 외계행성 3개 찾았다…약 12광년밖 적색왜성 주변서 발견</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>'GJ 1061d 행성' 서식가능지역 위치 주목 스페인 우주과학연 리바스 박사, 논문초고 사이트에 공개 지구에서 약 12.08광년 떨어진 적색왜성 'GJ 1061' 주변에서 이 별을 도는 지구 크기의 외계행성 3개가 확인됐다. 이 중 가장 밖에 있는 'GJ 1061d' 행성은 표면에 액체 상태의 물이 있을 수 있는 이른바 '서식가능지역' 안에 있어 주목을 받고 있다. 과학전문 매체 phys.org 등에 따르면 스페인 우주과학연구소의 이그나시 리바스 박사가 이끄는 연구팀은 칠레 라 실라의 유럽남방천문대(ESO) 망원경을 이용해 GJ 1061 주변에서 찾아낸 외계행성 후보 관측 결과를 출간 전 논문을 모아놓는 논문 초고 사이트(arXiv.org)에 공개했다. 이 논문은 곧 영국왕립천문학회 월보(MNRAS)에 정식으로 실릴 예정이다. 연구팀은 지구 주변 작은 별을 집중적으로 관측하며 지구형 행성을 찾아온 '레드 닷(Red Dot)' 프로젝트의 일환으로 지구에서 20번째로 가까운 GJ 1061을 관측해 왔다. 연구팀은 시선속도법을 통해 별빛이 행성의 중력으로 미세하게 흔들리는 것을 포착해 행성의 존재를 찾아냈다. 이 방식은 대형 행성을 찾는 데 주로 이용돼 왔으나 최근 관측 방법이 개선되면서 소형 행성을 확인하는 데도 활용되고 있다. 관측 결과, GJ 1061 b~d 3개 행성은 지구의 1.4~1.8배 크기로 별을 3~13일 주기로 돌고 있다. 이는 태양계 수성의 공전 주기 88일과 비교할 때 별에 붙어있다시피 한 것이지만 GJ 1061이 질량이 낮은 적색왜성이어서 13일 주기의 d 행성에도 생명체가 존재할 수 있는 가능성이 있는 것으로 여겨지고 있다. GJ 1061은 태양과 비교해 질량은 10분의 1, 밝기는 1천분의 1에 불과하다. 지구에서 약 4.2광년 떨어진 가장 가까운 행성계의 별인 '프록시마 켄타우리'와 비슷하지만, 현재로선 프록시마 켄타우리보다 폭발 활동이 덜해 생명체에는 더 안전할 것으로 나타났다. 그러나 태양과 같은 별보다 수명이 훨씬 긴 적색왜성이 과거에 수백만년에 걸쳐 강한 폭발 활동을 했을 수도 있어, 가까이서 별을 도는 d행성의 대기가 생명체가 존재할 수 없을 정도로 파괴됐을 가능성도 있는 것으로 지적됐다. GJ 1061 행성계에는 b~d 행성보다 더 바깥 궤도를 가진 제4 행성으로 추정되는 천체도 발견했으나 추가 확인이 필요한 것으로 보고됐다. 디지털뉴스부기자 dtnews@dt.co.kr &amp;lt;연합뉴스&amp;gt; /</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Output/NewsCrawlList.xlsx
+++ b/Output/NewsCrawlList.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:F255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,967 +367,7645 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>카테고리</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>링크</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>제목</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>내용</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>“10년 내 ‘좀비 사슴’ 먹고 전염된 인간 나올 것” 전문가 경고</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[서울신문 나우뉴스] 캐나다와 미국 일대를 휩쓴 만성소모성질병(CWD, Chronic wasting disease), 일병 ‘광록병’이 인간에게까지 전염될 수 있다는 전문가들의 우려가 나왔다. 광록병은 사슴이나 엘크 등 사슴류에 감염돼 중추신경계에 손상을 입히며, 뇌가 파괴되면서 스펀지처럼 구멍이 생기는 증상을 동반한다. 평범한 사슴에 비해 인간을 덜 무서워하게 되고 얼굴표정이 사라지며, 마치 광우병에 걸린 소처럼 침을 흘리거나 주저앉는 증상을 보인다. 이 병에 걸린 사슴을 두고 ‘좀비 사슴’이라고 부르는 이유다. UPI 뉴스 등 미국 현지 언론에 따르면 광록병은 광우병과 마찬가지로 변형 단백질인 프리온(Prions)에 의해 유발되며, 이는 박테리아나 바이러스와 달리 몇 년간 자연에서 파괴되지 않고 타액이나 배설물 등을 통해 전염될 수 있다. 광우병 전문가로 꼽히는 마이클 오스터홀름 미네소타대 교수는 지난 7월 미국 미생물학회(American Society for Microbiology)에 발표한 논문을 통해 “광록병에 감염된 사슴고기를 섭취할 경우 변형된 프리온에 의한 증상이 나타나기까지 몇 년의 잠복기가 있을 것”이라면서 “10년 내에 광록병에 전염된 인간의 사례가 속속 나타날 것”이라고 경고했다. 이에 전문가들은 좀비 사슴이 발견되는 캐나다와 미국 일대에서 대대적인 캠페인을 통해 감염된 사슴을 사냥하지 않거나, 사냥한 뒤 특정 테스트를 거친 뒤 고기를 섭취하도록 강력하게 권유해야 한다고 목소리를 높이고 있다. 문제는 해당 질병이 지속적인 확산 추세에 있는 캐나다와 미국 일대에서 여전히 사슴고기 섭취율이 줄지 않고 있다는 사실이다. 지난해 미국에서 발표된 공공야생동물연합 보고서에 따르면 매년 사냥꾼 1만 5000명이 광록병에 감염된 고기를 먹는 것으로 추정되며, 이 병이 확산됨에 따라 그 수는 매년 20% 증가하는 상황이다. 미국 콜로라도주립대학의 마크 자벨 박사는 UPI와 한 인터뷰에서 “사슴고기를 소시지와 스테이크로 가공하는 처리 시설을 통해서도 질병이 확산될 수 있다. 프리온이 고기를 절단하거나 가공하는 장비를 오염시킬 수 있기 때문”이라면서 “이러한 가공 공장은 먹이사슬에 따라 끔찍한 결과를 가져올 수 있다”고 경고했다. 송현서 기자 huimin0217@seoul.co.kr ★ ▶ ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933538&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>文 아들 준용씨, 조국 딸 향해 "이건 부당하다 목소리 내라"</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>문재인 대통령의 아들 문준용씨가 조국 법무부 장관 후보자의 딸을 둘러싼 의혹과 관련해 “후보자의 자식까지 검증해야 한다는 건 이해한다”면서도 “그 과정에서 자식의 실력과 노력이 폄훼되는 것은 심각한 부작용”이라고 소신을 밝혔다. 준용씨는 29일 자신의 페이스북을 통해 “나름대로 최선을 다하며 살아왔을 텐데, 그간 충분히 훌륭한 성과를 이루며 살아왔는데도 사람들은 노력을 말하지 않고 그의 부모만 말하고 있다”며 “그동안의 자기 인생이 부정당하는 고통을 겪고 있을 것”이라고 말했다. 이어 “사람들은 아마 그를 조국 딸로 기억할 것이다. 사람들 머릿속에 부정적인 이미지는 지워지지 않을지도 모른다”며 “심지어 누명도 쓰는데, 그중 몇 가지는 인터넷에 영원히 남아 그의 이름으로 검색될 것”이라고 내다봤다. 그러면서 “그걸 믿는 사람의 수가 아주 많을 것”이라며 “앞으로 자신의 실력을 증명하는 것은, 한참을 달려야 자랑할 만한 성과를 얻을 수 있는, 아직 졸업도 못한 젊은이에게는 오랫동안 버거운 싸움이 될 것”이라고 언급했다. 준용씨는 “세상은 이렇게밖에 작동할 수 없고, 이런 일이 없어지지 않을 것을 안다”며 “대부분의 사람은 그 틈새를 모르거나 알고도 무시하는 것 같다. 몇몇 사람들은 그 틈새가 안 보이는 걸 악의적으로 이용하기도 한다”고 지적했다. 지난 대선 과정에서 각종 의혹에 시달린 경험을 바탕으로 한 조언도 내놨다. 준용씨는 “경험자로서 주장하자면, 그렇기에 (공격을) 하지 말라는 말은 소용이 없을 것”이라며 “그래도 경험자로서 주장하자면 최소한 더 이상 (조 후보자 딸의) 실명은 까지 말자. 아직 대부분의 정보가 ‘조국 딸’로만 검색되는 지금은 그나마 다행”이라고 말했다. 조 후보자의 딸에게는 소극적인 대응을 할 필요가 없다고 조언했다. 준용씨는 “원한다면 목소리를 내도 된다”며 “이건(조씨가 처한 상황은) 부당한 게 맞다”고 말했다. 그는 “기자들이 달려드는데 혹시 한마디라도 실수할까 봐 숨죽이며 숨어다니고 있다면, 저는 그랬지만 그러지 않아도 된다”며 “지금은 부모님의 싸움이지만 앞으로는 자신의 싸움이 될 수도 있다”고 전했다. 지난 19대 대통령 선거 과정에서 다른 후보들은 준용씨의 고용정보원 취업을 두고 ‘채용비리 의혹’을 제기했다. 문재인 당시 후보는 채용은 정상적으로 이뤄졌다며 반박했다. 이후 준용씨는 미디어아트 관련 활동을 이어오고 있다. 이지영·남궁민 기자 lee.jiyoung2@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>갤노트10 플러스, 사라진 ‘홍채 인식’ 아쉬움보다 ‘꽉 찬 화면’ 만족감 더 커</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>대담한 변신… 삼성 갤럭시 노트10 플러스 사용해보니 갤럭시 노트10은 흥미로운 스마트폰이다. 보통 신제품은 전작에 사양이나 기능을 추가하기 마련인데 노트10은 노트9에서 몇 가지가 빠졌다. 꼭 필요한 게 아니면 빼고 중요한 것에 집중하겠다는 의지가 읽힌다. 대신 필요한 건 제대로 업그레이드해 사용성을 높였다. 변화에 적응하는 데 따른 불편함도 일부 있지만 그걸 상쇄하고 남을 만큼 장점이 더 많다. 게다가 외부기기와 연결성도 좋아져 ‘갤럭시 생태계’의 가능성도 보여줬다. 일주일간 노트10 플러스를 사용하면서 든 느낌은 노트 시리즈 고유의 중후함이 사라졌다는 것이다. 뒤집어 말하면 젊고 세련된 느낌으로 정체성 변화를 시도했다고 볼 수 있다. 디자인이 날렵해졌고, 불필요한 것들을 뺀 덕분이다. 거기에 딱히 어떤 색이라고 정의할 수 없는 ‘아우라 글로우’라는 색을 주력으로 내세우면서 젊은 감각을 내세운 것도 한몫했다. 노트10에서 사라진 건 이어폰 잭, 홍채인식 기능이다. 노트7에 처음 도입했던 홍채인식을 뺀 건 사용이 적은 탓도 있지만, ‘인피니티-O’ 디스플레이를 적용하기 위해서로 보인다. 노트10은 제품에서 화면이 차지하는 비중이 94.2%까지 높아졌다. 상하좌우 테두리에 빈 공간이 거의 없이 화면이 덮고 있다. 상단 가운데 카메라홀만 있다. 각종 센서는 디스플레이 아래로 들어갔는데 홍채인식 기능은 적외선을 쏘아야 하기 때문에 디스플레이 아래에 넣기 어려웠던 것으로 보인다. 꽉 찬 화면이 주는 만족감이 홍채 인식이 사라진 아쉬움보다 몇 배는 더 컸다. 노트10 플러스는 6.8형 화면임에도 제품 크기는 노트9과 거의 비슷하다. 노트9과 화면 크기가 같은 노트10 일반 모델은 갤럭시S10과 비슷한 크기다. 화면 비중이 너무 높다 보니 터치할 때 오작동이 가끔 나타났다. 왜 엣지 스크린을 포기하지 않을까 하는 아쉬움이 들긴 했지만, 플랫 스크린으로는 디자인을 예쁘게 하는 데는 한계가 있겠다는 생각이 들었다. 노트10에서 가장 불편하다고 느껴진 건 역시 이어폰 잭이 없어진 것이다. 무선 이어폰을 사용하고 있지만, 비행기를 타거나, 무선이어폰 배터리가 떨어지는 때 등 유선 이어폰이 여전히 필요할 때가 있다. 오디오 마니아라면 아끼는 이어폰 하나쯤은 있을 텐데 그걸 못 쓰게 된 것이라 일정 부분 불편함은 어쩔 수 없다. 대신 이어폰 잭이 없어진 건 늘어난 배터리 용량으로 치환된다. 노트10 플러스의 배터리는 4500mAh다. 노트9보다 500mAh 늘어나 노트 시리즈 중 가장 많다. 덕분에 여유 있는 사용이 가능해졌다. 고사양 게임을 하지 않는다면 온종일 사용하는 데 큰 무리가 없는 수준이다. 여기에 노트10은 25W 초고속 충전을 지원한다. 노트9까지는 15W 규격이었는데 더 빨라졌다. 완전 방전상태에서 충전하면 30분 만에 60% 수준으로, 완전히 충전하는 데는 한 시간이 조금 넘게 걸린다. 노트10 플러스는 한 걸음 더 나가 45W 충전까지 지원한다. 단 삼성전자 전용 충전기로만 가능하다. 30분만 충전하면 하루 종일 사용할 수 있는 수준으로 충전할 수 있다고 삼성전자는 설명했다. 카메라 화질은 노트9이나 S10에 비해 큰 폭의 개선은 없었다. 대신 활용할 수 있는 기능이 풍성해졌다. 라이브 포커스는 뒷배경을 흐리게 하는 옵션이 많아져 다양한 사진을 연출할 수 있었다. 사람과 배경을 구별해내는 실력도 더 좋아졌다. 이전에는 인물과 배경의 경계 부분이 많이 뭉개지는 경향이 있었는데, 노트10은 잔머리까지 살려둘 정도로 정확도가 높아졌다. 특히 라이브 포커스 기능이 동영상에도 적용돼 용도에 맞는 동영상을 풍성하게 담을 수 있다는 것도 매력적인 포인트였다. 노트 시리즈의 정체성인 S펜은 스펙을 키우기보다 사용성 개선에 초점을 맞췄다. 특히 손글씨를 타자로 입력한 텍스트로 변환해주는 기능은 직장인에게 아주 유용하다. 지인들에게 이 기능을 시험 삼아 체험해보게 했을 때 다들 깜짝 놀랐다. 대충 써도 정확하게 인식했기 때문이다. 물론 100%라고 하긴 어렵지만, 업무에 도움이 될 수준임은 분명하다. 하지만 대대적으로 광고하고 있는 ‘에어 액션’ 기능은 개선이 필요해 보인다. 생각하는 것만큼 잘 인식이 되지 않아 그냥 화면을 터치하는 쪽이 더 편했다. 노트10은 스마트폰 인터페이스를 PC처럼 바꿔주는 ‘덱스’ 사용이 간편해져 사용성에 날개를 달았다. 이전까지는 덱스를 쓰려면 ‘덱스 패드’ 같은 별도의 기기를 거쳐야 했고 키보드, 마우스도 별도로 연결해야 했다. 하지만 노트10은 UBS 케이블만 PC에 연결하면 된다. 키보드, 마우스 등은 PC 것을 그대로 사용한다. 노트10에 있는 자료를 마우스 몇 번으로 PC로 옮기거나 그 반대로도 할 수 있다. 덱스 모드를 지원하는 앱이 많아지면 노트10의 사용성은 더 좋아질 것으로 보인다. 또 마이크로소프트가 윈도10에 탑재한 ‘사용자 휴대폰’ 기능으로 노트10의 문자, 사진 등을 실시간으로 PC와 연동시킬 수 있다. 문자를 PC에서 바로 보내거나 사진을 실시간으로 확인할 수 있었다. 자체 운영체제(OS)가 없는 삼성전자는 스마트폰과 PC 연동에 어려움을 겪었는데 MS와 협업을 통해 ‘스마트폰-태블릿-PC’등을 자유롭게 넘나드는 갤럭시 생태계 구축이 가능해졌다는 점은 고무적이다. 김준엽 기자 snoopy@kmib.co.kr GoodNews paper ⓒ , 무단전재 및 재배포금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933776&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>아들 여친에 마약 투약한 50대 구속…알고보니 아내도 마약</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>결혼 약속까지 했던 아들의 여자친구를 펜션으로 데려가 강제로 마약을 투약한 뒤 성폭행을 시도한 50대 남성의 부인도 마약을 투약한 혐의로 불구속 입건됐다. 이 남성은 12일간 도주하다 경찰에 붙잡혔는데, 검거 당시 A씨 부부는 마약 투약 상태로 정신이 혼미했던 것으로 알려졌다. 의정부지법은 30일 마약류 관리에 관한 법률 혐의로 체포된 A(56)씨에 대한 구속영장을 발부했다고 밝혔다. A씨는 이날 열릴 예정이었던 구속 전 피의자심문(영장실질심사)에 응하지 않았다. 이에 의정부지법은 “도망 우려가 있다”며 구속영장을 발부했다. A씨는 지난 15일 오후 3시쯤 포천시 일동면의 한 펜션에서 아들(25)의 여자친구 B(24)씨에게 강제로 마약을 투약하고 성폭행을 시도한 혐의다. 사건을 수사 중인 경기 포천경찰서에 따르면 지난 27일 경기도 용인시에서 검거될 때 A씨 부부는 모두 마약을 한 상태였던 것으로 조사됐다. 두 사람은 간이 검사에서 필로폰 양성반응이 나왔다. 경찰은 이들의 거주지에서 마약 주사기도 무더기로 발견해 압수하고, 다수의 마약 전과가 있는 A씨가 마약을 구입한 경로 등으로 수사를 확대하고 있다. 또 A씨 아들의 여자친구인 피해자가 A씨에 대해 마약 강제 투약에 이어 성폭행 의도도 의심된다고 진술함에 따라 이 부분에 대해서도 계속 수사 중이다. 경찰 조사에서 A씨는 “(피해자를) 위로해 주기 위해 펜션으로 데려왔다”며 “최근 아들과 사이가 안 좋은 것 같아 무슨 일이 있는지 속내를 듣기 위해 마약 주사를 놓았다”고 진술했다. 이어 “마약에 취하면 이야기를 잘할 것 같아 범행을 저질렀지만, 성폭행 의도는 없었다”고 주장했다. 아들의 여자친구 B씨는 “펜션에서 놀라게 해주겠다고 눈을 감으라고 했는데, 갑자기 따끔한 느낌이 들어 눈을 떠보니 주사기를 들고 있어 바로 112에 신고했다”고 말했다. 사건 당일 A씨는 B씨에게 “힘든 일 있느냐, 위로해주겠다, 놀라게 해주겠다”면서 포천의 펜션으로 데려가서 “눈을 감으라”고 한 뒤 B씨의 왼팔에 마약이 든 주사기를 찌른 것으로 조사됐다. 이 때문에 B씨는 필로폰 양성 반응이 나왔다. 평소 A씨 집안 경조사에도 참가할 정도로 친밀한 사이라 크게 의심하지 않고 펜션에 갔던 것으로 전해졌다. B씨가 경찰에 신고하자 A씨는 차를 타고 도주했다가 12일 만에 붙잡혔다. 한영혜 기자 han.younghye@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>'공짜야근' 사라지니 6시면 칼퇴… 불켜진 사무실이 없었다[현장르포]</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>게임업계 포괄임금제 폐지 그 후 판교·구로 IT단지 6시반에 찾은 넥슨 본사는 고요..스마일게이트 퇴근은 4시부터 '판교 오징어배''구로 등대' 옛말 업무강도 세지고 시간 준수 엄격 저녁 6시쯤 판교 엔씨소프트 본사 사옥을 직원들이 썰물처럼 빠져나가고 있다. 사진=강현수 인턴기자 '구로의 등대' '판교의 오징어배'라는 별칭이 붙을 정도로 고강도의 야근이 고착화돼 있던 게임업계에 새바람이 불고 있다. 기자가 찾은 판교와 구로 게임사들의 퇴근길 풍경은 그야말로 '천지개벽' 수준이었다. 26일 게임업계에 따르면 넥슨이 이달 포괄임금제를 폐지한 데 이어 넷마블이 3·4분기, 엔씨소프트와 스마일게이트가 10월 중 포괄임금제를 폐지할 예정이다. 포괄임금제는 연봉에 각종 수당이 포함돼 직원들이 초과근무를 하고도 따로 수당을 받지 못하는 경우가 많았지만 포괄임금제가 폐지되면 기존 연봉이 기본급으로 전환돼 기본 근무시간을 초과하는 근무에 대한 수당을 지급해야 한다. ■판교 퇴근시간, 30분만 지나도 '고요' 저녁 6시30분께 포괄임금제가 이달부터 폐지된 넥슨 본사 사옥은 고요했다. 분명히 퇴근시간인데 너무 사람이 없어서 안내데스크에 물어보니 직원들은 이미 거의 다 퇴근을 한 상태. 저녁 6시면 상황 종료란다. 가까스로 퇴근 길 막차에 오른 직원들을 인터뷰할 수 있었다. 넥슨 직원 최경호씨(29·가명)는 "포괄임금제 폐지가 결정되고 회사 분위기는 말그대로 '급격하게' 바뀌었다"며 "야근은 거의 사라졌고 출근은 11시까지만 하면 돼서 아침밥도 먹게 됐다"고 말했다. 인근 스마일게이트의 퇴근시간은 오후 4시부터 시작된다. 스마일게이트는 오전 10시부터 오후 4시를 필수 협업시간으로 정한 뒤 나머지 일정은 개인이 조율해 출퇴근할 수 있다. 스마일게이트 직원 이동현씨(36·가명)는 "특별히 할 일 없으면 다들 4시에 집에 가는데 퇴근할 때 상사한테 보고 안하고 그냥 집에 가는 것이 가장 좋다"며 웃었다. ■개발주기 따라 게임사별 온도차 구로는 판교보다는 퇴근시간이 늦은 편이었다. 구로에 위치한 넷마블에서 만난 문상윤씨(37·가명)는 "포괄임금제 폐지를 앞두고 있지만 이미 정해진 시간에 출퇴근하는 문화가 회사 안에 정착된 지 오래"라며 "다른 데보다는 퇴근이 조금 늦은 것으로 알고있는데 그래도 예전 생각하면 감지덕지"라고 회상했다. 최승우씨(35·가명)는 "아직 할 일이 남은 사람들은 남아서 일을 하기는 하지만 예전처럼 강요나 눈치 주는 건 없다"며 "예전만큼 구로의 등대 수준은 아닌 것 같다"고 평가했다. 칼퇴가 가능한 게임사와 가능하지 않은 게임사의 사정이 다르다는 지적이다. 게임업계 관계자는 "주 52시간 근무제 도입으로 게임 출시 간격이 빠른 게임사 위주로 신작 출시 일정이 밀리면서 타격을 입었다"며 "2~3년 주기로 개발을 하는 게임을 만드는 회사들은 크게 영향을 받지 않는다"고 설명했다. ■업무시간 감시 우려도 다만 포괄임금제 폐지가 마냥 장밋빛 미래만 약속하는 것은 아니다. 관리자들로부터 잦은 간섭에 휘말릴 가능성도 있다. 넥슨 직원 김민주씨(34·가명)는 "딸, 아들 모두 직장 어린이집에 다니는데 일하는 시간이 자유로워져서 애들이 나를 기다리는 시간이 많이 줄어 행복하다"며 "부서 직원들이 다 같이 있는 시간이 줄어들다 보니 관리자급들은 힘들어하는 눈치"라고 우려했다. 게임사에서 관리자급으로 일하고 있는 조바다씨(44·가명)는 "포괄임금제가 폐지되면 업무시간 내에 직원들이 일하는 일거수일투족을 감시하라는 회사측의 압박이 가해질 수도 있다"며 "초과근무가 없어지는 만큼 업무시간이 타이트해질 것"이라고 진단했다. true@fnnews.com 김아름 기자 강현수 인턴기자 ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933450&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>최순실 "내 딸 유라, 메달따려 천신만고···조국 딸은 거저먹어"</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>최순실(63·본명 최서원)씨가 29일 대법원 전원합의체 선고를 앞두고 사흘 전 대법원에 조국(54) 법무부 장관 후보자를 비판하는 의견서를 낸 것으로 확인됐다. 의견서에서 최씨는 조 후보자를 가리켜 "조 후보자 의혹을 둘러싼 팩트가 다 드러났는데 계속 아니라고 우기는 힘은 어디서 나오는 것"이냐며 조 후보자를 비판하는 내용을 담았다. 최씨는 또 "수용자들이 받는 모멸감과 을의 처지는 누구도 이해하지 못할 것"이라며 "재판을 받는 3년 동안 몸과 영혼이 썩어간다"며 답답함을 호소했다. 최씨는 자신의 변호인인 이경재 변호사와 최근 접견에서도 조 후보자에 대한 비판적 입장을 드러냈다고 한다. ━ 최순실 "내 딸은 메달 따려 천신만고" 이 변호사는 최씨가 "내 딸은 메달이라도 따려고 천신만고 고생을 했는데 조국 딸은 거저 먹으려고 한 것 아니냐"며 조 후보자에 대한 비판적 입장을 드러냈다고 전했다. 대법원 선고를 앞두고 목소리를 낸 최씨와 달리 박근혜 전 대통령은 전원합의체 선고를 앞두고 평상시와 같이 구치소에서 독서를 하며 시간을 보냈다고 한다. 대법원은 이날 전원합의체 선고에서 최씨에 대한 뇌물죄 및 직권남용죄에 대해선 유죄를 확정했으나 일부 대기업에 대한 강요죄에는 무죄 취지의 파기환송 결정을 내렸다. 최씨의 변호인인 이경재 변호사는 대법원 선고가 내려진 뒤 기자회견을 갖고 "대법원은 증거재판주의와 엄격한 증명과 같은 형사소송법의 근본 원칙보다는 국정농단 프레임으로 조성된 포퓰리즘과 국민정서에 편승해서 판결했다"고 주장했다. 박태인 기자 park.taein@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>삼성전자 '갤럭시S10 선전' 일본시장서 6년來 최고 점유율</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1위 애플 50.8%…삼성 9.8%·샤프 7.2%·소니 7.0% 순 (서울=연합뉴스) 채새롬 기자 = 삼성전자가 올해 2분기 갤럭시S10 시리즈 선전에 힘입어 일본 스마트폰 시장에서 6년 만에 가장 높은 점유율을 기록했다. 일본 도쿄 갤럭시 하라주쿠 [삼성전자 제공] 26일 시장조사업체 스트래티지 애널리틱스(SA)에 따르면 삼성전자는 2분기 일본 스마트폰 시장에서 60만대를 출하해 점유율 9.8%를 기록했다. 애플(50.8%)에 이은 2위였다. 작년 동기 점유율이 애플 45.6%, 삼성전자 8.8%이었던 것과 비교해서 모두 소폭 올랐다. 애플과 삼성전자에 이어서는 샤프(7.2%), 소니(7.0%) 등 일본 기업이 3∼4위를 차지했다. 샤프는 작년 동기(5.1%) 대비 2.1%포인트 올랐고, 소니는 10.3%에서 3.3%포인트 줄었다. 중국 화웨이는 작년 동기 5.9%(4위)에서 올해 2분기 3.3%(5위)로 점유율이 절반 가까이 하락했다. 삼성전자가 10%에 육박한 점유율을 낸 것은 6년만에 최고치다. 삼성전자는 2013년 중반 일본 스마트폰 시장에서 10% 넘는 점유율을 유지하다 애플과 일본 브랜드에 밀려 2014년 5.6%, 2015년 4.3%, 2016년 3.4%로 점유율이 하락했다. 2017년부터 반등을 시작해 5.2%, 2018년 6.4%로 점유율이 오르는 추세다. 2분기 좋은 성적은 상반기 출시한 플래그십 모델 갤럭시S10 시리즈가 일본에서 인기를 끈 덕으로 보인다. 삼성전자는 지난 3월 전 세계 갤럭시 쇼케이스 가운데 최대 규모인 '갤럭시 하라주쿠'를 개관하면서 현지 스마트폰 시장 공략을 본격화했다. 5G 서비스가 처음으로 본격 적용되는 '2020 도쿄 올림픽'을 앞두고 일본 내 5G 네트워크 사업 확대를 위한 기반을 조성하는 동시에 갤럭시 스마트폰 시장점유율 반등의 계기를 마련한다는 전략이다. 삼성전자는 7월에는 2020 도쿄 올림픽을 기념해 갤럭시S10 플러스 올림픽 에디션을 일본에 출시했다. srchae@yna.co.kr</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933706&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>고유정 사건 석달 지나서야···결국 머리카락 일곱 가닥 장례식</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>“매일밤 어머니께서 형의 영정사진 앞에서 우셨습니다. 부모님 마음을 더 이상 아프게 해드릴 수 없고, 건강도 걱정돼 더 이상 미룰 수 없었습니다” 아들을 보기 위해 펜션을 찾았다 변을 당해, 다시는 볼 수 없게 된 형의 장례식을 치른 친동생 강모씨는 중앙일보와 통화에서 이렇게 말했다. ‘제주 고유정 사건’ 피해자 유족 측이 사건이 일어난 지 3달이 지나서야 결국 시신 없는 장례를 치렀다. 피해자 유족 측에 따르면 지난 27일부터 29일까지 제주시내 한 장례식장에서 피해자 강모(36)씨 장례절차가 진행됐다. 유족은 고인이 된 강씨의 시신 대신 평소 모자를 즐겨 쓰던 피해자의 모자에서 일일이 찾아낸 머리카락 일곱가닥과 한벌의 양복을 준비해 장례절차를 진행했다. 장례기간 유족은 일반적인 장례식과 같이 조문객을 맞으며 장례를 치렀다. 하지만 장례 전 가족끼리 조용히 장례를 치르고 싶다는 의사를 밝혔고 장례절차를 언론에 공개하지 않았다. 유족은 장례식 마지막 날 피해자 머리카락과 영정사진을 함께 운구해 고향과 제주대 연구실 등을 돌아보고 봉안 장소인 사찰로 이동했다. 유족에 따르면 ‘고유정 사건’을 담당한 제주 동부경찰서 장원석 서장도 장례식장을 방문했다. 장원석 서장은 사건 당시 서장이었던 박기남 제주지방경찰청 정보화장비담당관 후임으로 동부경찰서장을 맡고 있다. 장 서장은 유족측에게 “장례절차 후에도 기한을 두지 않고 피해자 시신 수습을 위해 계속해서 노력하겠다”고 약속한 것으 로 정해졌다. 그동안 유족 측은 피해자 시신을 찾지 못해 장례를 치르지 못하고 있었다. 유족 측은 피해자 시신을 찾아달라고 호소해왔다. 고유정이 지난 5월 25일 제주시 한 펜션에서 범행을 저지른 이후 3달이 지난 현재 시신의 일부도 찾지 못한 상황이다. 제주~완도 해상과 경기도 김포시 등 여러 곳에 시신을 유기한 것이 경찰 조사결과 밝혀졌지만 머리카락 한올도 찾지 못했다. 사건 초기 경기도 일대와 사건 중반 제주도 등에서 발견한 뼛조각 등은 모두 동물의 뼈로 조사됐다. 유족은 9월 1일부터 이틀간 100일제를 지낸 뒤 불교식 화장을 진행해 봉안탑에 안치한다. 머리카락 7가닥과 옷가지 등을 불교식 화장으로 태울 예정이다. 일반 장례 화장터에서는 규정상 시신 외 옷가지 등의 화장이 불가능 해서다. 봉안탑은 여닫을 수 있는 개폐식으로 준비됐다. 추후 시신 일부가 발견되면 화장해 추가로 봉안할 수 있도록 하기 위함이다. 유족 측은 “형의 뼛조각 하나라도 찾는 게 소원이다. 법정에서도 고씨는 형량을 낮추기 위해 고인의 명예를 실추시키는 대응으로 우리 가족 모두를 죽인 거나 다름없다”며 “죄를 뉘우치지 않는 용서할 수 없는 살인자 고씨에게 법정최고형인 ‘사형’을 선고해달라”고 호소했다. 한편 제주지방법원은 다음달 2일 오후 2시 고유정의 2차 공판을 진행한다. 법원은 이날 오전 추첨을 통해 방청권을 배부할 예정이다. 제주교도소와 경찰 등은 2차 공판에서 고유정 호송에 대한 대비를 강화 할 계획이다. 지난 12일 열린 1차 공판이 끝난 후 고유정은 호송차로 이동 중 분노한 시민들에게 머리채를 잡히기도 했다. 제주=최충일 기자 choi.choongil@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>"세계를 바꿀 스타트업"… 한국계 20대 사업가 美서 돌풍</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[오늘의 세상] 인공지능으로 법안 통과 예측, 美 '피스컬노트' 창업자 팀 황 2800억원 투자 유치 - 美정부·의회·법원의 빅데이터 AI로 실시간 분석해 정보 제공, 우버·맥도널드 등 5000여 고객 야후 창업자·NBA 구단주 등 '흥행보증수표'들 투자 이끌어 이코노미스트 정치 매체 인수… 20대에 언론사 오너 자리에 올라 인공지능(AI)으로 미국 정치판을 흔들겠다는 한국계 젊은 창업자가 미국 스타트업 업계의 주목을 받고 있다. 실리콘밸리에선 '제2의 마크 저커버그(페이스북 창업자)'라는 목소리까지 나온다. 주인공은 데이터 분석 서비스 기업 피스컬노트(FiscalNote) 창업자 겸 CEO(최고경영자)인 팀 황(27·한국명 황태일)이다. 이 20대 청년은 2013년 창업한 이후 야후 창업자인 제리 양, 미국의 억만장자이자 NBA(프로농구) 댈러스 매버릭스의 구단주인 마크 큐번 등 '흥행 보증수표'로 불리는 벤처투자자들로부터 총 2억3000만달러(약 2800억원)의 투자를 이끌어냈다. 2014년 미국 CNN은 피스컬노트를 '세계를 바꿀 10대 스타트업'으로 꼽았다. 2016년 포브스는 황 대표를 '30세 이하 유망주 30인', 세계경제포럼(다보스포럼)은 '기술 선구자'로 선정했다. 지난 23일(현지 시각) 미국 캘리포니아주 산호세에서 열린 한인 스타트업 모임 '82스타트업' 무대에 선 황 대표는 "원래 정치인이 되고 싶었지만, 기술이 정치보다 빠르게 움직이고 모든 것을 바꾸는 것을 보고 창업을 결심했다"고 했다. "나는 정치를 통해 헬스케어 관련 법안을 바꾸려고 노력할 때, 친한 친구는 모바일 앱을 만들어 1년 만에 수만 명의 의사와 환자를 직접 연결하는 것을 보고 '대체 이건 뭐지'란 생각이 들었다"는 것이다. ◇AI로 정치를 예측하다 피스컬노트는 미 연방과 50개 주(州) 정부·의회·법원이 공개한 빅데이터를 실시간으로 끌어와서 인공지능으로 분석한 정보를 제공한다. 이를 통해 현재 의회에 올라온 법안의 세부 내용과 후원자, 상·하원 의원의 과거 투표 성향을 분석해 이들이 찬성 혹은 반대할 것인지, 실제 법안이 통과될 가능성은 얼마인지까지 분석한다. 황 대표는 "법안 통과 예측도는 90% 이상"이라고 했다. 예를 들어 차량 공유 서비스 우버의 대관(對官) 담당자는 현재 미 연방과 50개 주 의회에서 차량 공유와 관련된 어떤 법안이 발의됐고 어떻게 진행되는지를 실시간으로 파악할 수 있다. 주마다 제각각인 법령과 특정 주 법원의 과거 판결문까지 반영한다. 해당 법안은 누가 어떤 의도로 만들었는지, 과연 통과될 것인지를 미리 예측해 관련 기업·시민단체·지역 주민들이 대처하도록 돕는 것이다. 황 대표는 "우버, 존슨앤드존스, 맥도널드 등 5000여 고객이 피스컬노트를 구독한다"며 "현재 미국뿐만 아니라 세계 60국의 공공 데이터를 분석해 제공하고 있다"고 했다. 피스컬노트는 작년 8월 영국의 유력 언론사인 이코노미스트 그룹과 1억8000만달러짜리 계약을 체결했다. 이코노미스트가 보유한 '시큐롤콜(CQ Roll Call)'이란 미국 백악관·의회 소식을 다루는 정치 전문 매체를 인수한 것이다. 대신 이코노미스트는 현금과 피스컬노트의 지분 18%를 받기로 했다. 이코노미스트 그룹의 크리스 스팁스 CEO도 피스컬노트의 이사회 멤버로 합류했고 황 대표는 20대에 언론사의 오너(사주·社主)가 된 것이다. 기술 벤처기업에 유력 매체를 내주면서 한배를 탄 것이다. 황 대표는 "정보를 재판매하는 업(業)인 만큼 고객에게 데이터 분석과 실시간 콘텐츠를 충실하게 제공하기 위한 것"이라고 했다. 팀 황 피스컬노트 창업자/피스컬노트 ◇"정치보다 기술이 세상 더 빠르게 바꿔" 팀 황은 1986년에 미국으로 이민 간 한국인 부부가 낳은 한인 2세다. 1992년 미국 미시간주에서 태어났다. 고등학교 시절이던 16세 때 버락 오바마 민주당 대통령 후보 선거캠프에서 일했다. 이듬해엔 메릴랜드주 몽고메리카운티의 학생 교육위원에 투표로 선출되는 등 학창 시절엔 '정치 유망주'였다. 프린스턴대에 진학해 정치학과 컴퓨터공학을 전공했다. 21세 때 동창생 2명과 함께 창업했다. 그는 "정치와 기술의 교차점에서 창업을 결심했다"며 "창업을 위해 실리콘밸리로 건너온 초창기엔 워낙 돈이 없어 모텔에서 먹고 자며 일했다"고 했다. 황 대표의 목표는 크다. 그는 "현재의 60국을 넘어 전 세계 200여 국가의 모든 법과 규정을 디지털 플랫폼에 담는 것이 목표"라며 "인류 최초의 성문법인 '함무라비 법전'의 다음 버전을 만들고 싶다"고 했다. [실리콘밸리=박순찬 특파원 ideachan@chosun.com] - Copyrights ⓒ 조선일보 &amp;amp; chosun.com, 무단 전재 및 재배포 금지 -</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=421&amp;aid=0004171120&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>의협, 조국 딸 논문철회 요구할 예정이던 기자회견 철회(속보)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(서울=뉴스1) 음상준 기자 = 대한의사협회는 30일 오후 12시 서울 용산구 협회임시회관에서 개최할 예정이던 조국 법무부 장관 후보자 딸 관련 기자회견을 철회했다. sj@news1.kr [© 뉴스1코리아(), 무단 전재 및 재배포 금지]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>"삼성 '갤S10' 일본 열도도 열광?"…日 점유율 '10% 고지' 탈환하나</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>삼성폰, 일본 시장서 2분기 점유율 9.8% 기록 "6년 만에 최고" 삼성전자 IM부문장 고동진 사장이 지난 3월 일본 도쿄에서 열린 갤럭시 쇼케이스 '갤럭시 하라주쿠' 개관식에서 인사말을 하는 모습이다. ‘ (삼성전자 제공) 2019.3.12/뉴스1© 뉴스1 (서울=뉴스1) 김일창 기자 = 삼성전자가 상반기 전략 스마트폰 '갤럭시S10' 시리즈의 판매호조에 일본 스마트폰 시장에서 6년 만에 최고 점유율을 기록했다. 2013년 중반까지만 해도 10%가 넘는 점유율을 유지하다 아이폰에 밀려 '애플 천하'가 된 일본 시장에서 삼성전자가 '10% 점유율' 고지 탈환을 눈앞에 두고 있다. 26일 시장조사업체 스트래티지 애널리틱스(SA)에 따르면 삼성전자는 올해 2분기 약 60만대의 스마트폰을 출하해 점유율 9.8%를 기록했다. 애플은 점유율 50.8%로 일본 시장점유율 1위를 이어갔다. 애플과 삼성전자를 이어서는 샤프와 소니가 각 7.2%·7.0%로 3·4위에 올랐다. 삼성전자의 출하량이 확대한 것은 지난 3월 출시한 갤럭시S10시리즈의 인기 영향으로 풀이된다. SA에 따르면 갤럭시S10시리즈는 올해 1분기 매출 기준으로 전세계에서 가장 많이 팔린 안드로이드 스마트폰이다. 삼성전자의 존재감이 미미한 일본에까지 갤럭시S10 판매효과가 영향을 미친 것으로 분석된다. 삼성전자 스마트폰은 그동안 일본에서 부진을 면치 못했다. 시장조사업체 카날리스에 따르면 삼성전자 스마트폰의 2018년 4분기 일본 시장 점유율은 6.8%다. 60%가 넘는 애플의 점유율과 비교할 때 턱없이 낮은 수준이다. 일본 스마트폰 시장에서 10% 넘는 점유율을 유지한 2013년 이후 줄곧 하락세였다. 그러나 인피니티-O 디스플레이에 지문인식 센서 탑재, 무선충전 기술 등 혁신의 갤럭시S10시리즈를 출시하고 동시에 일본 도쿄 중심가 하라주쿠에 지상 6층·지하 1층 규모의 세계 최대 갤럭시 쇼케이스 '갤럭시 하라주쿠'를 선보이면서 분위기가 바뀌었다. '갤럭시 하라주쿠'는 총 지상 6층·지하 1층 규모로 전세계 갤럭시 쇼케이스 중 최대 규모다. 특히 '5G 올림픽'을 표방하는 2020년 도쿄올림픽을 앞두고 있는 상황에서 삼성전자는 국제올림픽위원회(IOC) 무선통신 및 컴퓨팅 장비 분야 공식 파트너인 만큼, 올림픽 특수 기대감도 높아지고 있다. 삼성전자는 지난달 도쿄 올림픽을 기념해 갤럭시S10+ 올림픽 에디션을 선보였다. 다만, 일본의 경제보복으로 촉발된 양국간 무역갈등이 변수로 남아있다. ickim@news1.kr [© 뉴스1코리아(), 무단 전재 및 재배포 금지]</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=023&amp;aid=0003470653&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=6</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>조국 딸, 인터넷 ‘흔적 지우기’ 나섰다...입시자료·사진·글 등 하나 둘 사라져</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>‘입시 부정’ ‘장학금 특혜’ 의혹을 받고 있는 조국 법무장관 후보자 딸 조모(28)씨가 인터넷에 남아있는 자신의 흔적을 하나 둘 지우고 있는 것으로 30일 확인됐다. 조씨가 과거 온라인 상에 남겼던 기록들은 그동안 조 후보자가 자녀 스펙 관리를 위해 직·간접적으로 관여한 정황을 뒷받침주고 있어서 의혹을 증폭시켰다. 조씨는 지난 2011년부터 2015년까지, 고려대 환경생태공학부 재학 시절부터 서울대 환경대학원을 거쳐 부산대 의학전문대학원에 입학한 이후까지 약 4년여에 걸쳐 온라인 보고서·자기소개서 거래사이트에 총 6개 문서를 올려 판매했다. 조씨가 올린 문서는 △2011년 6월 ‘고려대 수시 이력서’ △2011년 6월 ‘고려대 수시 자기소개서’ △2011년 6월 ‘해외봉사 자기소개서’ △2012년 1월 ‘가장 감동적이었던 순간 논술’ △2014년 6월 ‘서울대학교 환경대학원 자기소개서’ △2015년 5월 ‘의학전문대학원 자기소개서’ 등이었다. 한 건당 최고 5만원에 판매됐다. 이들 문서는 지난 21일 돌연 삭제됐다. 6건 모두다. 조씨가 단국대 의대 2주간 인턴 이후 SCIE급 병리학 논문에 제1저자로 등재돼 있다는 언론 보도가 나온 이튿날이었다. 이때부터 조씨가 올린 자소서 등이 공개되기 시작했고, 스펙 부풀리기와 허위 기재 등의 의혹이 급격하게 퍼져나갔다. 특히 조씨가 올린 고려대 입시 때 쓰인 것으로 추정되는 자기소개서에는 최근 논란이 됐던 단국대 의대 연구소 논문에 저자로 이름 올린 것도 언급돼 있다. 부산대 자기소개서에는 대학교 1학년 당시 한국과학기술연구원(KIST) 연구 프로그램에 3주간 근무했다고 적혀 있었는데, 실제로는 5일만 출근하고 수료증도 받지 못한 사실이 드러나기도 했다. 한영외고 재학 당시 학생회장으로 활동했다는 대목도, 동기생들은 "학생회장이 아니라 국제반(유학반) 회장이었을 뿐"이라고 증언하고 있다. 한영외고 입학할 즈음 조씨는 ‘신입생 카페’에서도 활발하게 활동한 것으로 보인다. 이 학교 입학 직전인 2006년 말 조씨는 카페에 "OSP(유학반·Overseas Study Program)는 따로 학부모 회의 하는 거 알죠?"라는 제목의 게시글을 올렸다. 글에서 그는 "엄마 아빠 따라 (학생들도) 그냥 오세요. 다 합해도 35명인데" "이번 학부모 회의에서 벌써 얼굴 다섯을 익혔다"라고 썼다. 이 모임이 단국대 의대 장영표 교수와 조 후보자가 직접 만났다는 그 모임이다. 조씨는 이듬해 5월 교내 동아리 카페에서 자기의 생일이 9월로 알려지자, "저 생일 2월이요~"라는 댓글을 달기도 했다. 조씨는 실제 2014년 부산대 의전원 입시 당시 주민등록상 생년월일을 2월에서 9월로 변경했다. 조 후보자 측은 "실제 생일과 일치시키기 위해서"라고 해명했지만, 이후 조씨가 인터넷 게시판 등에 부산대 의원전 합격에는 나이가 어린게 유리하다는 취지의 글도 발견돼 의도적으로 생일을 늦춘 것 아니냐는 의혹을 샀다. 현재 신입생 카페에 있던 과거 조씨의 글은 최근 모두 삭제된 상태다. 출신 학교가 언급되거나 셀프카메라 등이 첨부된 게시물도 사라졌다. 글의 삭제나 수정은 운영자와 본인밖에 할 수 없도록 돼 있다. 조씨의 개인 네이버 블로그에는 부산대 의전원 첫 학기 때인 2015년 6월 대학원 동료들과 실습용 수술복을 입고 찍은 사진이 남겨져 있었다. 그는 이 블로그에서 ‘생명과학’, ‘라파플러스 생물학’, ‘TOKL 국어능력인증시험’ 등 수험생 시절 썼던 중고 서적도 판매했다. 현재 이 블로그 계정은 남아있으나 게시글은 모두 지워져 ‘글이 삭제됐거나 존재하지 않습니다’라는 안내 문구가 뜬다. 조씨가 과거에 작성한 글과 사진 등이 인터넷에 퍼지고, 네티즌들의 비난이 쏟아지자 급히 삭제한 것으로 보인다. 지난 24일에는 인터넷 백과사전 사이트 ‘나무위키’에 입시 부정 관련 내용 삭제를 요청했다. 명예훼손과 사생활을 침해했다는 취지였다. 나무위키는 약 230만개의 문서가 수록된 인터넷 백과사전으로, 사용자들이 직접 문서를 작성하고 수정할 수 있다. 당시 나무위키에는 ‘조O 단국대학교 의학논문 제1저자 부당 등재 논란’이라는 제목으로 조씨를 비판하는 글이 올라와 있었다. "조씨는 제1저자 자격이 없다" "진짜 제1저자에 합당한 연구를 했어도 연구 윤리 규정 위반" "의료법 또는 생명윤리 및 안전에 관한 법률 위반" "국가 연구비의 사적 유용"이라는 등의 내용이 기재돼 있었다. 조씨는 삭제를 요청하며 "사실관계가 확인되지 않은 의혹에 관한 것으로 개인에 대한 심각한 명예훼손과 사생활 침해에 관한 내용"이라고 주장했다. 나무위키 측이 문서들의 열람을 다음달 22일까지 임시적으로 닫아두자, 문서 작성자 중 한 명은 "‘전체 문서 복구’에 대한 책임을 지겠다"며 이의를 신청했다. 삭제 하루 만인 25일 조씨 관련 글과 문서들은 다시 복원됐다. [박소정 기자 soj@chosunbiz.com] [홍다영 기자 hdy@chosunbiz.com] - Copyrights ⓒ 조선일보 &amp;amp; chosun.com, 무단 전재 및 재배포 금지 -</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>[로봇이 간다]1.5㎏ 의자로봇 입으니···쭈그려 일해도 허리 멀쩡, 생산성은 UP</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>■현대차 웨어러블로봇 4총사 하반신용 '첵스' 연내 양산 추진 가볍고 10~20초면 간편 착용 근로자 피로·부상위험 확 줄어 허리보조 '웩스'도 내년 상용화 사회적 경제비용 절감 효과 커 현대차 로보틱스팀 관계들이 25일 경기도 의왕연구소에서 허리지지형 웨어러블 로봇 웩스(왼쪽)와 의자형 웨어러블 로봇 첵스를 착용한 후 물건 들기와 조립 작업을 시연하고 있다. /권욱기자 [서울경제] 현대자동차는 오는 4·4분기부터 웨어러블 로봇을 시작으로 로봇제품 상용화에 나선다고 현대차 관계자가 25일 서울경제신문에 밝혔다. 현재 연구개발 중인 로봇공학은 3개 분야인데 각각 입는 로봇(웨어러블 로봇), 서비스 로봇, 개인용 소형이동수단(마이크로 모빌리티)이다. 해당 분야에서 모두 8종류의 로봇들이 시험 중이며 이 중 하반신에 입는 ‘첵스(CEX)’부터 연내 상용화된다. 서울경제신문은 경기도 의왕시에 있는 현대차 로보틱스팀의 연구소를 방문해 8종 세트를 취재했다. 총 2편에 걸쳐 보도하는데 그중 ‘웨어러블 로봇 4총사’를 먼저 소개한다. 지난해부터 각각 미국 앨라배마주·조지아주에 있는 현대차와 기아차 북미공장의 생산직 근로자들은 처음 보는 로봇을 입게 됐다. 간편하게 입으면 마치 네발 달린 의자가 된 것처럼 하체의 근력 부담을 덜어주는 하지보조 착용로봇 첵스다. 허리 아래 부분을 곤충의 외골격처럼 감싸주는 형태인데 엉거주춤한 자세로 일하는 경우가 많은 자동차 생산현장에서 일하더라도 허리·무릎·골반에 부담을 주지 않도록 설계됐다. 실제로 현대차가 수개월간 시범 도입한 결과는 성공적이었다. 하루에도 최장 8시간씩 공장 생산라인에 반쯤 쭈그린 자세로 자동차 부품을 조립해야 했던 근로자들은 근골격계 통증과 피로에 시달렸는데 첵스를 입은 후 육체 피로와 부상 위험을 현저히 덜어낼 수 있었다. 생산성 향상을 기대할 수 있음을 시사하는 결과도 데이터로 확보했다고 한다. 첵스는 최근 현대차 국내 공장에도 시범 도입돼 실용성·경제성 등을 가늠하는 절차인 개념증명(proof of concept) 과정을 진행했다. 현동진 현대차 로보틱스팀장은 “첵스는 연내에 양산을 통해 상용화한다”며 “먼저 올해에는 북미공장에서부터 본격 도입되며 내년부터는 국내 공장에도 적용할 계획”이라고 전했다. 양산 제품은 먼저 현대차 내부 수요 물량부터 채운 뒤 다른 자동차 회사를 비롯한 외부 고객들을 대상으로 시판된다. 현대차가 로보틱스팀을 통해 첵스 등의 상용화 준비를 본격화한 것은 2017년 무렵부터였다. 앞서 일본 도요타, 미국 포드사가 상반신 착용 로봇을 자사 공장에 도입하기는 했으나 자체 개발품이 아니라 미국의 웨어러블 전문기업 레비테이트테크놀로지스(LT) 제품 등을 사다 쓴 것이었다. 현대차는 그 정도는 충분히 직접 개발할 수 있다고 판단했다. 이미 웨어러블 로봇 개발을 수년간 연구해왔기 때문이다. 더구나 현대차는 일반 로봇전문기업과 달리 테스트베드 역할을 해줄 대규모 자동차 생산공장을 국내외에 두고 있으니 연구개발 중간중간 생산현장에 시범 적용해 근로자의 의견을 개진할 수 있다는 장점도 갖고 있어 유리했다. 자체 연구진과 생산현장 관계자 등이 소통하며 시제품을 개발해 북미공장에 적용해보니 근로자들의 평가가 좋았다. 현 팀장은 “저희 생산근로자들에게 경쟁사 웨어러블 로봇과 저희 제품을 써보게 했는데, 어느 것이 우리 회사 제품인지 모르도록 블라인드테스트 방식으로 진행했다”며 “그 결과 우리 제품에 대한 사용자들의 만족도가 월등했고, 생산성 개선 효과도 더 좋다는 평가를 들어 자신감을 갖게 됐다”고 전했다. 첵스의 장점은 경량이며 활동성이 자유롭다는 것이다. 또한 별도의 전원·연료가 필요 없이 작동하는 ‘에너지 저장·발산형 패시브방식’이어서 충전 등을 하지 않고 장시간 쓸 수 있다. 자체 하중은 1.5㎏대에 불과하다. 실제로 기자가 실물을 접해보니 약간 두꺼운 책 한 권 정도의 무게밖에 나가지 않았다. 엉덩이에서부터 무릎관절·종아리까지 외골격이 꽉 잡아주면서도 관절의 가동이 매우 부드러워 골반과 무릎을 굽혔다 폈다 반복하며 일할 때 편할 것 같았다. 기자의 체중은 미들급 정도인데 로봇이 워낙 경량이다 보니 혹시나 뒤로 주저앉으면 로봇의 받침 다리가 충격을 버티지 못해 부러지지 않을까 걱정했지만 기우였다. 알고 보니 1.5㎏에 불과한 이 웨어러블은 로봇의 발 하나당 150㎏ 정도씩의 하중도 문제없이 받쳐준다고 한다. 기업과 생산직 근로자들이 웨어러블을 착용해야 하는지 고민할 때 가장 크게 고려하는 요소 중 하나가 탈착 시간과 가격이다. 보통 생산 현장에서 약 45~50분간 일하고 10~15분 쉬는 단위로 일하는 경우가 많은데 입고 벗는 것이 복잡해 5분·10분씩 걸린다면 생산성이 저하되고, 휴식 시간도 그만큼 빼앗겨 착용하기를 꺼릴 수밖에 없다. 첵스는 탈착이 간편하게 이뤄져 20초 정도면 충분히 입거나 벗을 수 있을 것 같았다. 하체를 지지해주는 기존의 주요 외산 웨어러블 제품이 약 3,000달러 안팎의 가격에 시판 중인 데 비해 첵스는 경쟁사 대비 절반 수준으로 전망돼 높은 가성비를 가질 것으로 보인다. 현대차의 웨어러블 로봇 4총사 중에는 ‘첵스’ 외에도 허리보조 로봇 ‘웩스(WEX)’, 하지마비 환자용 의료로봇 ‘멕스(MEX)’, 상체와 팔을 보조해주는 로봇 벡스(VEX)도 포함돼 있다. 이 중 웩스는 주로 서서 무거운 짐 등을 들어 올려 옮기는 근로자를 위해 이르면 내년부터 상용화될 것으로 전망된다. 미국 질병통제예방센터(CDC)에 따르면 팔·허리의 통증·부상 등을 비롯한 근골격계장애(WMDS)를 겪는 미국인 근로자는 연간 약 1억3,000만명(건강보험 적용 기준)에 달한다. WMDS로 인한 미국 사회의 경제적 비용(산재 보상, 임금 손실, 생산성 손실)은 한 해 450억~540억달러에 달한다는 미국 의학연구소의 보고서도 2000년대 초에 나왔다. 2007년 기준 유럽연합(EU) 27개 회원국 근로자 중 근육통증이 보고된 사례는 23%에 달했다는 ‘하중을 줄입시다(Lighten the load)’ 보고서가 유럽산업안전보건청 등을 통해 작성되기도 했다. 국내에서는 아직 WMDS에 대한 공식 통계를 찾기 어려운 상황이지만 제조 및 건설·물류현장 등에서 상당한 근로자들이 관련 질환을 겪고 있을 것으로 추정된다. 따라서 현대차가 자사 생산공장에서 품질과 실용성을 검증한 근로자용 웨어러블 로봇들을 단계적으로 상용화한다면 국내외 근로자들의 보건과 사회적 경제비용 절감에 큰 기여를 할 것으로 기대된다. /의왕=민병권기자 newsroom@sedaily.com | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011051308&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=7</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>아들 여자친구에 마약 투약 혐의 50대 구속…부인도 마약</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>주사기 무더기 압수…성폭행 시도 의혹 계속 수사 (포천=연합뉴스) 권숙희 최재훈 기자 = 아들의 여자친구를 펜션으로 데려가 마약을 강제로 투약한 혐의를 받는 50대 남성이 경찰에 구속됐다. 이 남성은 12일간 도주하다 경찰에 붙잡혔는데, 검거될 당시 함께 있던 부인과 둘 다 마약을 한 상태였던 것으로 확인됐다. 의정부지법은 30일 마약류 관리에 관한 법률 혐의로 체포된 A(56·무직)씨에 대한 구속영장을 발부했다고 밝혔다. A씨는 이날 열릴 예정이었던 구속 전 피의자심문(영장실질심사)에 응하지 않았으며, 의정부지법은 "도망 우려가 있다"며 구속영장을 발부했다. A씨는 지난 15일 오후 3시께 경기도 포천시의 한 펜션에서 아들의 여자친구에게 마약을 강제 투약한 혐의 등을 받고 있다. 사건을 수사 중인 경기 포천경찰서는 A씨와 함께 A씨의 부인 B씨도 같은 혐의로 불구속 입건했다. 지난 27일 경기도 용인시에서 검거될 때 A씨 부부는 모두 마약을 한 상태였던 것으로 조사됐다. 두 사람은 간이 검사에서 필로폰 양성반응이 나왔다. 경찰은 이들의 거주지에서 마약 주사기도 무더기로 발견해 압수하고, 다수의 마약 전과가 있는 A씨가 마약을 구입한 경로 등으로 수사를 확대하고 있다. 또 A씨 아들의 여자친구인 피해자가 A씨에 대해 마약 강제 투약에 이어 성폭행 의도도 의심된다고 진술함에 따라 이 부분에 대해서도 계속 수사 중이다. 그러나 A씨는 "(피해자를) 위로해 주기 위해 펜션으로 데려왔다"며 "최근 아들과 사이가 안 좋은 것 같아 무슨 일이 있는지 속내를 듣기 위해 마약 주사를 놓았다"고 진술했다. 이어 "마약에 취하면 이야기를 잘할 것 같아 범행을 저질렀지만, 성폭행 의도는 없었다"고 주장했다. 피해자는 "펜션에서 놀라게 해주겠다고 눈을 감으라고 했는데, 갑자기 따끔한 느낌이 들어 눈을 떠보니 주사기를 들고 있어 바로 112에 신고했다"고 말했다. 평소 A씨 집안 경조사에도 참가할 정도로 친밀한 사이라 크게 의심하지 않고 펜션에 갔던 것으로 전해졌다. A씨는 경찰에 신고된 직후 차를 몰고 도주했다가 12일 만에 경찰에 체포됐다. suki@yna.co.kr</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>한일관계 최악에도…삼성, 日스마트폰 점유율 '6년만에 최고'</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>상반기 출시 '갤럭시S10' 인기 영향 풀이 2분기 점유율 9.8%…두자릿수 회복 보인다 지난 3월 문을 연 갤럭시 하라주쿠. 전 세계 갤럭시 전시장 가운데 규모가 가장 크다. /삼성전자 제공 삼성전자가 올해 2분기 일본 스마트폰 시장에서 6년 만에 가장 높은 점유율을 기록한 것으로 나타났다. 상반기 출시한 프리미엄 스마트폰 '갤럭시S10'의 인기를 누린 영향으로 분석된다. 26일 시장조사업체 스트래티지 애널리틱스(SA)에 따르면 삼성전자는 2분기 일본 스마트폰 시장에서 60만대를 출하했다. 시장 점유율 9.8%로 애플(50.8%)에 이은 2위다. 지난해 2분기 애플 45.6%, 삼성전자 8.8%였던 것과 비교해 모두 소폭 올랐다. 삼성전자는 2013년 중반까지 일본에서 두자릿수 점유율을 유지하다 애플과 일본 브랜드에 밀려 2014년 5.6%, 2015년 4.3%, 2016년 3.4%까지 점유율이 내려앉았다. 그러나 2017년 반등(5.2%)을 시작해 2018년 6.4%로 점유율을 끌어올리고 있다. 애플과 삼성전자에 이어 샤프(7.2%), 소니(7.0%) 등 일본 기업이 3∼4위를 차지했다. 샤프는 전년 동기(5.1%) 대비 2.1%포인트 올랐고, 소니는 10.3%에서 3.3%P 줄었다. 중국 화웨이는 전년 동기 5.9%(4위)에서 2분기 3.3%(5위)로 하락했다. 삼성전자는 일본에서의 점유율 확보 노력을 이어가고 있다. 올 3월 전세계 갤럭시 전시장 가운데 최대 규모인 '갤럭시 하라주쿠'를 개관한 삼성전자는 지난달 2020년 도쿄 올림픽을 기념해 '갤럭시S10 플러스 올림픽 에디션'을 일본에 출시했다. 5세대 이동통신망(5G) 서비스가 처음으로 본격 적용되는 도쿄 올림픽을 앞두고 일본 내 5G 네트워크 사업 확대를 위한 기반을 조성하는 동시에 갤럭시의 시장 점유율 상승 교두보를 마련한다는 복안이다. 노정동 한경닷컴 기자 dong2@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=005&amp;aid=0001234441&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=8</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>檢 ‘이희진 부모 살해’ 김다운에 사형 구형… 김씨측 “살인 안 했다”</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>검찰이 ‘청담동 주식부자’ 이희진(33)의 부모를 살해한 혐의로 구속기소된 김다운(34)에게 사형을 구형했다. 수원지방검찰청 안양지청은 30일 수원지방법원 안양지원 제1형사부(부장판사 김소영) 심리로 열린 이 사건 결심공판에서 재판부에 이같이 요청했다. 검찰은 “피고인은 오로지 돈을 위해 잔인하게 피해자들을 살해하고 시신을 손괴한 것은 물론 이를 엽기적으로 은폐했다”며 “그런데도 피고인에게 죄책감을 찾아볼 수 없다”고 사형 구형 이유를 밝혔다. 이에 김씨 변호인은 “피고인은 피해자들을 살해하거나 시신을 훼손한 적이 없으며 이를 인정할만한 객관적 증거도 없다”며 “살인은 달아난 중국 동포들이 한 것이다”라고 주장했다. 김씨 변호인은 무죄 선고를 요청하며 “이 사건의 수사관들이 달아난 조선족들을 검거하지 못한 책임을 피고인에게 전가하고 있다”고 주장하기도 했다. 김씨는 최후 변론에서 “피해자들에게 죄송하다”면서도 “하지만 나는 피해자들을 살해하지 않았다. 너무 억울하다”고 말했다. 그는 또 “모든 (수사) 과정이 부당하다. 나한테 처음부터 포커스가 맞춰져 있었다. 사실을 말할수록 나에게 불리했다”고 주장했다. 김씨는 지난 2월 25일 오후 경기도 안양시의 한 아파트에서 이희진씨의 아버지(62)와 어머니(58)를 살해하고 현금 5억원과 고급 외제 승용차를 빼앗아 달아난 혐의를 받고 있다. 검찰은 김씨가 인터넷을 통해 고용한 박모씨 등 중국 동포 3명과 함께 범행을 저지른 뒤 이씨의 아버지 시신을 냉장고에 넣어 평택의 한 창고로 옮겼다고 밝혔다. 김씨는 지난 4월 15일 강도살인, 위치정보법 위반, 공무원자격사칭, 밀항단속법 위반 등의 혐의로 재판에 넘겨졌다. 김씨에 대한 선고 공판은 다음 달 27일 열릴 예정이다. 강태현 인턴기자 GoodNews paper ⓒ , 무단전재 및 재배포금지</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>삼성전자, '갤럭시S10'으로 日서 6년만에 최고 점유율…화웨이는 하락</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>삼성전자가 올해 2분기 일본 스마트폰 시장에서 6년 만에 가장 높은 점유율을 기록한 것으로 조사됐다. 상반기 출시한 갤럭시S10 시리즈가 인기를 끌었기 때문으로 분석된다. 반면 화웨이는 작년 동기 대비 점유율이 절반 가까이 하락했다. 26일 시장조사업체 스트래티지 애널리틱스(SA)에 따르면 삼성전자는 2분기 일본 스마트폰 시장에서 60만대를 출하, 점유율 9.8%를 기록했다. 이는 애플(50.8%)에 이은 2위다. 작년 2분기 점유율이 애플 45.6%, 삼성전자 8.8%이었던 것과 비교해 모두 소폭 올랐다. 삼성전자가 10%에 육박한 점유율을 낸 것은 6년만에 최고치다. 삼성전자가 일본 하라주쿠에 문 연 ‘갤럭시 하라주쿠’ 전시관. /삼성전자 제공 삼성전자는 2013년 중반 일본 스마트폰 시장에서 10% 넘는 점유율을 유지하다 애플과 일본 브랜드에 밀려 2014년 5.6%, 2015년 4.3%, 2016년 3.4%로 점유율이 하락했다. 2017년부터 반등을 시작해 5.2%, 2018년 6.4%로 점유율이 상승 중이다. 애플과 삼성전자에 이어 샤프(7.2%), 소니(7.0%) 등 일본 기업이 3∼4위를 차지했다. 샤프는 작년 동기(5.1%) 대비 2.1%포인트 올랐고, 소니는 10.3%에서 3.3%p(포인트) 감소했다. 중국 화웨이는 작년 동기 5.9%(4위)에서 올해 2분기 3.3%(5위)로 하락했다. 한편 삼성전자는 올해 3월 전 세계 갤럭시 쇼케이스 가운데 최대 규모인 ‘갤럭시 하라주쿠’를 개관했다. 5G(5세대) 서비스가 처음으로 본격 적용되는 ‘2020 도쿄 올림픽’을 앞두고 일본 내 5G 네트워크 사업 확대를 위한 기반을 조성하는 동시에 갤럭시 스마트폰 시장점유율 반등의 계기를 마련한다는 전략이다. 삼성전자는 올 7월 2020 도쿄 올림픽을 기념해 갤럭시S10 플러스 올림픽 에디션을 일본에 출시하기도 했다. [이경탁 기자 kt87@chosunbiz.com] chosunbiz.com</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=437&amp;aid=0000218593&amp;date=20190830&amp;type=2&amp;rankingSectionId=102&amp;rankingSeq=9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>"버려주세요"…만지기 꺼림칙한 '종이 영수증', 대안은?</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 [앵커] 식당이나 마트에서 무심코 주고받는 영수증이 지난 한 해에만 130억 개가 발급됐습니다. 이 영수증 만드는 데 무려 13만 그루의 나무가 사라진 셈입니다. 또 영수증을 만지면 환경 호르몬에 노출될 수 있다고도 하지요. 이참에 전자영수증을 쓰는 것은 어떨까요. 강버들 기자입니다. [기자] 0.73g 종잇조각 하지만 지난해 국내에서 발급된 영수증 128억 9000장 1031억 원 규모 만드는데 나무 12만 8900그루 필요 버려지면 9358만 톤 쓰레기 환경오염 종이 영수증, 계속 써야 할까? 영수증을 챙겨가지 않는 경우가 많아서 이 마트의 경우는 65%가 발급되자마자 쓰레기통에 버려집니다. 영수증에는 불임 같은 생식장애를 일으킬 수 있는 비스페놀A도 발려있습니다. 건강에 좋지 않은 것입니다. [계명찬/한양대 생명공학과 교수 : 피부를 통해서 경피적으로 흡수된 것은 입으로 들어온 환경호르몬보다 훨씬 더 몸에 잔류되는 기간이 길게 돼요.] 종이 대신 전자 영수증을 주고 받자는 움직임이 늘고 있습니다. [이옥경/서울 성수동 : 종이 영수증 받아도 보관이 힘든 경우도 있고, (전자 영수증은) 기억났을 때 찾기가 쉽고…] 정부와 13개 유통업체는 따로 고객이 요청할 때만 발급하는 시스템을 개발해 종이 영수증을 줄여나가기로 했습니다. (영상그래픽 : 김지혜) 강버들 기자 (kang.beodle@jtbc.co.kr) [영상취재: 이학진,변경태 / 영상편집: 이화영] Copyright by JTBC(http://jtbc.joins.com) and JTBC Content Hub Co., Ltd. All Rights Reserved. 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>헬리콥터도 부르면 온다… '차량 호출 끝판왕' 베트남</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[세계를 보는 창 NOW] 호출 서비스 '글로벌 각축장' 관광지 투어·스카이웨딩까지 - 출퇴근·음식 배달은 기본 환자 이송·렌터카·택배… 26만원 내면 헬기도 "모십니다" 年 41% 성장, 6년후 20억불 시장 - 싱가포르 '그랩' 작년 진출 후 '셀로' 등 7개 업체 뛰어들어… 베트남 정부 "4차 혁명 총력" 이미지 특파원 베트남 호찌민에 사는 필리핀인 파이샤씨는 하루에 최소 3번은 차량 호출 서비스를 이용한다. 오전에는 오토바이 호출 서비스를 이용해 시내로 출근하고, 낮에는 차량 호출 서비스 앱의 음식 배달 서비스를 이용해 점심밥이나 커피를 시켜 먹는다. 가끔 한밤중에 밖에 나가기 귀찮으면 편의점에서 음료와 간식을 사다주는 서비스를 이용하기도 하고, 외부로 보내야 할 서류나 물품이 있을 때도 차량 호출 서비스 앱부터 연다. 파이샤씨는 "베트남은 다른 나라에 비해 차량 호출 서비스 업체가 많을 뿐 아니라 가격도 저렴하다"며 "택시 서비스 외에도 음식 배달, 택배 등 다양하게 이용하기 좋다"고 말했다. 베트남의 차량 호출 서비스 시장 경쟁이 치열해지고 있다. 작년 초, 글로벌 차량 호출업체인 '우버'가 싱가포르계 차량 호출업체인 '그랩'에 동남아시아 사업 부문을 넘기면서 베트남 차량 호출 시장은 그랩의 독점 체제로 변할 거란 예상이 많았다. 하지만 작년과 올해에만 셀로, 바토, 고비엣 등 7개의 업체가 차량 호출 시장에 새로 뛰어들었다. 업체 간 경쟁이 치열해지면서 시장점유율을 높이기 위해 트럭 호출이나 택배, 음식 배달 같은 다양한 서비스도 속속 등장하고 있다. ◇ 정부의 전폭적 지원과 함께 폭발적으로 성장하는 베트남 시장 베트남의 차량 호출 서비스 시장 규모는 작년 5억달러를 기록했다. 2015년 2억달러에 불과했던 시장이 3년 만에 2.5배로 늘어난 것이다. 성장세는 앞으로 더욱 가팔라질 것으로 보인다. 정부 차원의 전폭적인 지지도 차량 호출 서비스 시장을 키우는 데 일조하고 있다. 응우옌 쑤언 푹 베트남 총리는 직접 "베트남이 혁신적인 기업들을 환영한다는 것을 보여주기 위해서 차량 공유 서비스에 지장을 주는 불필요한 장벽을 제거하라"고 지시했다. 하노이·호찌민 등 대도시 위주로 영업하던 차량 호출 업체들은 전국으로 서비스 범위를 확대하고 있다. 구글·테마섹홀딩스의 2018년 동남아시아 경제보고서에 따르면 베트남의 차량 호출 서비스 시장은 연평균 41%의 성장률을 기록해 2025년 20억달러 규모까지 확대될 전망이다. 차량 호출 서비스의 성장은 버스·택시 등 기존 교통수단 시장을 위협하는 수준에 이르렀다. 브이엔익스프레스 등 현지 언론에 따르면 차량 호출 서비스가 활성화되면서 올해 1~4월 공공 버스를 이용한 탑승객은 전년 동기 대비 8.9% 줄었다. 베트남 교통부에 따르면 작년 버스 탑승객은 목표보다 10% 적었고, 공공버스 운영 업체는 16억달러의 손실을 기록했다. 택시업계도 마찬가지다. 베트남 택시업체인 비나선과 마일린도 앱을 내놓고 차량 호출 서비스 업체에 대응하고 있지만 매출 감소를 막지는 못했다. 이에 비나선은 "그랩 때문에 420억동의 손실을 입었다"며 손해배상 청구 소송을 냈고, 작년 12월 법원은 "그랩은 비나선에 48억동(약 2억5000만원)을 배상하라"고 판결했다. 그랩은 판결에 불복해 항소했지만 다낭 등 다른 지역의 택시협회도 소송을 검토하고 있어 갈등이 예상된다. ◇ 헬리콥터, 트럭 등 영역 넓혀…글로벌 업체도 눈독 차량 호출 업계 간 경쟁도 만만치 않다. 업체들은 기본적으로 제공해온 차량이나 오토바이 택시 서비스 외에 트럭 호출, 렌터카 등 사업 영역을 넓히고 있다. 올해 4월 차량 호출업체 패스트고는 패스트스카이라는 브랜드로 베트남 최초의 '헬리콥터 호출 서비스'를 내놓았다. 하노이 홍강(紅江)이나 할롱베이 같은 관광지를 둘러보는 스카이투어, 웨딩 촬영을 지원하는 스카이웨딩, 응급환자를 이송하는 스카이SOS, 사업가 등이 업무에 필요할 때 쓸 수 있는 스카이플러스 등 4가지로 구성된다. 가격은 1인당 500만동(26만원)부터 시작되고 최대 12명이 함께 이용할 수 있다. 베트남 차량 공유 업체인 패스트고(FastGo)가 올해 새로 출시한 헬리콥터 공유 서비스 홍보물. 헬리콥터가 베트남의 유명 관광지인 할롱베이 상공을 날고 있다. /FastGo 베트남 국방부 산하 업계 1위 통신업체인 비엣텔은 지난 7월 마이고라는 차량 호출 서비스를 내놓으며 트럭 호출 서비스를 시작했다. 총 등록 차량 10만5000대 중 600대가 트럭이다. 트럭 호출 서비스의 등장은 이사나 택배 같은 대규모 배송 업체의 영역까지 넘볼 수 있을 것으로 보인다. 자체 앱에 등록된 오토바이나 차량 기사를 활용한 영역 확장도 활발하다. 오토바이 기사가 음식이나 물품 배달 서비스를 하고, 차량 기사로 등록된 사람이 시간제 렌터카 기사로도 활동하는 식이다. 그랩은 음식 배달 서비스를 시작한 지 1년 만에 주문 건수가 250배 증가했다고 밝혔다. 최근 차량 호출 서비스 업체들은 모바일 결제 시스템 업체들과 손잡고 현금 없는 비용 결제 시스템 구축에도 나서고 있다. 업체들의 경쟁은 더욱 치열해질 것으로 전망된다. 글로벌 업체들까지 속속 베트남 시장에 진출하고 있기 때문이다. 베트남 정부는 2009년부터 스타트업 육성 지원 프로그램을 마련하는 등 4차 산업을 적극 지지하고, 창업을 독려하고 있다. 응우옌 쑤언 푹 총리는 올해 1월 다보스포럼에서 "베트남은 4차 산업 혁명을 기술의 하나가 아닌 '정책 혁명'이라 보고 있다"며 "글로벌 기업들이 베트남에 와서 4차 산업 제품을 생산하길 바란다"고 말했다. [호찌민=이미지 특파원 image0717@chosun.com] - Copyrights ⓒ 조선일보 &amp;amp; chosun.com, 무단 전재 및 재배포 금지 -</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011050521&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>검찰, '이희진 부모 살해' 김다운에 사형 구형</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>檢 "죄책감 찾아 볼수 없어"…피고측 "무죄" 주장 (안양=연합뉴스) 김광호 기자 = 검찰이 '청담동 주식부자' 이희진(33·수감 중) 씨 부모를 살해한 혐의로 구속기소된 김다운(34)에게 사형을 구형했다. 수원지검 안양지청은 30일 수원지법 안양지원 제1형사부(부장판사 김소영) 심리로 열린 이 사건 결심공판에서 재판부에 이같이 요청했다. 검찰은 "피고인이 오로지 돈을 위해 잔인하게 피해자들을 살해하고, 시신을 손괴한 것은 물론 이를 엽기적으로 은폐했다. 그런데도 피고인에게 죄책감을 찾아볼 수 없다"며 구형 이유를 밝혔다. 이에 김 씨 변호인은 "피고인이 피해자들을 살해하거나 시신을 훼손한 적이 없다. 이를 인정할만한 객관적 증거도 없다. 살인은 달아난 조선족들이 한 것이다"라고 주장하며 무죄를 선고해 달라고 재판부에 요청했다. 변호인은 이어 "이 사건 수사관들이 달아난 조선족들을 검거하지 못한 책임을 피고인에게 전가하고 있다"고 주장하기도 했다. 김 씨는 최후 변론에서 "피해자들에게 죄송하다"고 말한 뒤 "하지만 나는 피해자들을 살해하지 않았다. 너무 억울하다"고 말했다. 그는 "모든 (수사) 과정이 부당하다. 나한테 처음부터 포커스가 맞춰져 있었다. 사실을 말할수록 나에게 불리했다"며 검찰과 경찰이 수사과정에 강한 불만을 나타내기도 했다. 김 씨는 앞서 "변호인들과 지향하는 가치가 다르다"며 자신의 최후 변론 때 변호인들이 법정 밖으로 나가 줄 것을 요구했다. 김 씨는 강도살인, 위치정보법 위반, 공무원자격사칭, 밀항단속법 위반 등의 혐의로 지난 4월 15일 재판에 넘겨졌다. 김 씨는 지난 2월 25일 오후 4시 6분께 경기도 안양시의 한 아파트에서 이 씨의 아버지(62)와 어머니(58)를 살해하고 현금 5억원과 고급 외제 승용차를 빼앗아 달아난 혐의를 받고 있다. 검찰은 김씨가 인터넷을 통해 고용한 박모 씨 등 중국동포(일명 조선족) 3명과 함께 범행을 저지른 뒤 이 씨의 아버지 시신을 냉장고에 넣어 평택의 한 창고로 옮긴 것으로 드러났다고 밝혔다. 김씨에 대한 선고 공판은 다음 달 27일 열린다. kwang@yna.co.kr</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>"렌터카보다 싸게, 리스보다 짧게…중고차 '구독' 하세요"</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[머니투데이 서진욱 기자] [[인터뷰]전민수 더트라이브 대표 "중고차 구독 '트라이브' 적은 비용, 짧은 계약기간 차별점"] 전민수 더트라이브 대표. /사진제공=더트라이브. "이제 중고차도 '구독'하세요." 정기적으로 사용료를 내고 제품 또는 서비스를 이용하는 ‘구독경제’가 빠르게 퍼지고 있다. 배달음식(요기요), 운동화(나이키), 커피(버거킹, GS25) 등 선결제가 어색하던 영역에서도 구독경제 실험이 한창이다. 자동차 시장에서도 구독 사업모델이 급성장하고 있다. 글로벌 투자은행 크레딧스위스에 따르면 2020년 미국 자동차 구독 시장은 5300억달러(약 642조원) 규모로 커질 것으로 전망된다. 전민수 대표(사진·37)가 이끄는 스타트업(초기 벤처기업) 더트라이브는 중고차 구독 서비스 ‘트라이브’ 앱 출시를 준비 중이다. 신차 대비 저렴한 가격과 장기 렌트 대비 짧은 계약기간을 앞세워 중고차 구독 서비스 대중화를 노린다. 전 대표는 “트라이브는 자동차 구매, 목돈 지출에 대한 부담 없이 차량을 이용할 수 있는 구독 서비스”라며 “이달 중 시범 테스트에 돌입할 예정”이라고 말했다. 트라이브는 다양한 가격대의 구독 서비스를 제공, 사용자가 해당 가격대에 속한 차종 중 자신이 원하는 차종을 선택할 수 있다. 벤츠 E클래스 기준 구독료는 월 70만원(1년 약정) 정도다. 보험료와 취·등록세가 포함된 가격이다. 같은 차량의 렌터카(6개월 약정), 리스(36개월 약정) 비용은 각각 월 250만원, 80만원 정도다. 트라이브는 렌터카보다 저렴한 가격, 리스보다 짧은 계약기간으로 차량을 이용할 수 있다. 전 대표는 “사용자 설문 결과를 바탕으로 중고차 판매가 기준 구독료 공식을 자체 개발했다”며 “공식을 활용해 적절한 구독료를 책정한다”고 말했다. 구독 서비스를 위한 중고차는 자체 상사와 딜러, 다른 업체들과 제휴를 통해 확보할 예정이다. 수원중고차 매매단지에서 중고차 매입 및 판매를 위한 상사를 직접 운영 중이다. 정식 출시 전 10곳 이상 제휴 업체들을 확보해 구독용 중고차를 확보할 계획이다. 전 대표는 “특정 제조사, 차종 구독 모델과 달리 사용자에게 다양한 차종을 제공한다”고 말했다. 트라이브는 세밀한 차량 관리 서비스도 제공한다. 차량진단모듈(OBD)을 활용해 차량 상태와 사고 여부를 진단한다. 정기 점검을 비롯해 사고, 고장 등 문제 발생 시 전담 직원이 처리한다. 세차, 대리, 시승 등 차량 연계 서비스도 제공할 예정이다. 전 대표는 “자동차 시장 패러다임이 소유에서 이용으로 넘어오는 단계”라며 “트라이브로 이용 절차를 단순화해 중고차 구독 시대를 열겠다”고 포부를 밝혔다. 또 “연내에 트라이브 구독자 300명을 확보하는 게 최우선 목표”라며 “쉽고 간편한 중고차 구독 서비스로 발전할 수 있도록 지속적으로 노력하겠다”고 말했다. 한편 더트라이브는 중소벤처기업부의 민간 투자 주도형 기술 창업 지원 프로그램 ‘팁스’ 과제도 수행 중이다. 현대자동차(팁스 운영사)와 함께 인공지능(AI) 기반 자동차 매매 로보어드바이저 기술을 개발하고 있다. AI 기술 기반으로 매입가, 판매가, 수요, 공급 등을 예측할 수 있는 솔루션을 구축하는 게 목표다 서진욱 기자 sjw@mt.co.kr &amp;lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&amp;gt;</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011050142&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>'마약 투약' 배우 정석원 2심도 집유…"상습적이지 않아"</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>"해외여행 중 호기심에 투약, 관련 전과 없는 점 등 참작" (서울=연합뉴스) 성도현 기자 = 호주에서 필로폰과 코카인을 투약한 혐의로 재판에 넘겨진 배우 정석원(34)씨가 항소심에서도 징역형의 집행유예를 선고받았다. 서울고법 형사4부(조용현 부장판사)는 30일 마약류관리법상 마약 등 혐의로 기소된 정씨에게 1심과 같이 징역 10개월에 집행유예 2년을 선고했다. 함께 기소된 김모씨 등 2명에게도 같은 형이 선고됐다. 재판부는 이들 3명으로부터 공동으로 30만원을 추징할 것도 명령했다. 정씨는 지난해 2월 초 호주 멜버른의 한 클럽에서 고등학교 동창인 한국계 호주인 등과 함께 필로폰과 코카인을 투약한 혐의를 받는다. 1심은 지난해 10월 그의 혐의를 일부 유죄로 인정하고, 징역 10개월에 집행유예 2년을 선고했다. 이에 검찰은 일부 무죄 판단에 항소했다. 재판부는 "위험성과 전파 가능성, 의존성에 비추어볼 때 비난 가능성이 상당이 높다"면서도 "정씨 등이 상습적으로 범행을 저지른 것으로 보이지 않는다"고 검찰의 항소를 기각했다. 재판부는 마약을 주고받은 행위와 사용한 행위를 따로 처벌해야 한다는 검찰의 주장에 대해서는 "별개로 구분할 수 있을 정도로 독립된 행위로 보기 어렵다"며 받아들이지 않았다. raphael@yna.co.kr</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>활명수 스킨·마데카솔 크림… 제약업계 화장품 바람 솔솔</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>의약품 기술력으로 화장품 사업, 40개사 진출 시장규모 5000억 휴메딕스, 필러 성분 마스크팩… 일동제약 상반기 매출만 99억 중소업체는 유통망 못찾아 고전 주름 개선제의 일종인 필러를 만드는 휴메딕스 는 최근 '아미노 포텐셜 마스크'라는 마스크팩 신제품을 선보였다. 제품에는 필러의 주(主)성분인 히알루론산이 포함됐다. 피부 아래 주입하는 필러는 주름을 펴는 역할을 하며, 이 성분을 피부에 바르면 보습 효과가 있다. 의약품 효과를 활용한 화장품인 셈이다. 회사 관계자는 "2년 전부터 필러 성분을 활용한 30여 가지 신제품을 선보였다"며 "지난해에만 화장품 사업은 매출 30여 억원을 기록한 효자 부업(副業)"이라고 말했다. 휴메딕스의 코스메슈티컬 브랜드 더마 엘라비에. 제약·바이오 회사들이 의약품 개발·생산으로 얻은 기술력을 활용해 화장품 사업에 대거 뛰어들고 있다. 의학적으로 검증된 의약품 성분을 넣은 기능성 화장품을 선보이는 것이다. 이런 화장품이 인기를 끌면서 코스메슈티컬(cosmeceutical)라는 신규 시장이 급부상하고 있다. 화장품(cosmetics)과 의약품(pharmaceutical)을 합한 신조어다. 국내 시장 규모는 5000억원으로 추정된다. 국내 화장품 시장(약 13조원)의 4% 수준이다. 의약품 성분으로 입증된 성분을 쓰다 보니 소비자들의 신뢰도가 높아, 시장은 급팽창하고 있다. GS리테일 이 운영하는 헬스 앤드 뷰티 스토어 '랄라블라'에 따르면 올해 1~7월에 코스메슈티컬 상품 매출은 동기 대비 83% 늘었다. ◇ 40여 제약·바이오社 화장품 진출 동화약품 활명, 동국제약 센텔리안24 제약업계는 최근 2~3년 새 제약·바이오사 40여 곳이 화장품 사업에 진출한 것으로 추정한다. 이미 보유한 의약품 기술을 그대로 활용할 수 있어 화장품 시장 진입이 수월하다. 대표적 제품이 동국제약 이 내놓은 마데카크림이다. 상처 치료제로 잘 알려진 마데카솔의 주 원료로 만들었다. 동국제약은 아예 '센텔리안24'라는 화장품 브랜드도 내놓았다. 소화제 까스활명수로 유명한 동화약품 은 활명수에 쓰는 5가지 생약 성분을 포함한 스킨케어 제품을 내놓고 있다. 줄기세포를 연구 개발하는 차바이오텍 은 노화 방지 크림과 같은 제품을 속속 선보이고 있다. 큐티젠랩 은 세포 배양액을 이용한 주름 개선 기능성 화장품을 내놓았다. 반대로 화장품 회사들은 제약 기술 확보를 위해 제약·바이오 업체들과 손잡고 있다. 국내 화장품 업계의 '빅2'인 LG생활건강 이 2년 전 제약업체 태극제약 을 인수한 게 대표적인 사례다. 태극제약이 올 초 아토피와 같은 피부 질환에도 좋은 크림과 로션을 내놨는데 여기엔 태극제약과 LG생활건강의 노하우가 활용됐다. 화장품 업계 관계자는 "제약사와 화장품 회사의 노하우가 합쳐지면서 이전과 전혀 다른 신개념 제품이 나오고 있다"고 말했다. 화장품 ODM(제조자 개발 생산) 업체인 한국콜마 는 지난해 제약사인 CJ헬스케어 를 인수하기도 했다. ◇ 중소 업체는 유통망 확보 어려워 실제 성공 사례도 나오고 있다. 동국제약은 지난해 화장품 부문에서 매출을 약 540억원 기록했다. 전체 매출 가운데 화장품 비율이 16%다. 일동제약 은 유산균 성분이 들어간 마스크팩이 성공을 거두며, 올 상반기에 화장품 매출이 99억원을 기록했다. 반면 중소 제약 업체는 대부분 섣부르게 진출했다가 가시적 매출 성장을 내지 못하고 있다. 화장품 시장은 제품 효능 못지않게 브랜드 파워와 현장 유통망 확보가 중요하기 때문이다. 중소 제약 업체 대다수는 매출 대부분을 약국에 의약품을 공급하는 B2B(기업 간 거래) 방식에서 얻고 있다. 새로운 유통망 확보에 어려움이 있는 것이다. 중소 제약 업체 관계자는 "아무리 기능성을 강조해도 중소 제약 업체 브랜드는 일반 소비자들에게 낯선 제품에 불과하다"며 "막대한 자본력으로 이미지 마케팅을 벌이는 대형 화장품 브랜드와 경쟁하기 쉽지 않은 게 현실"이라고 말했다. ☞코스메슈티컬(cosmeceutical) 화장품(cosmetics)과 의약품(pharmaceutical)을 합성한 신조어. 화장품에 의학적으로 검증된 성분이 들어간 제품을 말한다. 미백이나 주름 개선 같은 기능성 화장품에 주로 쓰인다. [유지한 기자 jhyoo@chosun.com] - Copyrights ⓒ 조선일보 &amp;amp; chosun.com, 무단 전재 및 재배포 금지 -</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933773&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>고3 딸 저서에 인도 대통령 추천사…이정옥 "내가 도와, 송구"</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>이정옥 여성가족부 장관 후보자가 30일 딸이 고교 3학년 때 부모 도움을 받아 쓴 책을 활용해 연세대 수시전형에 합격했다는 의혹에 대해 “국민 일반 눈높이보다 우위를 점했다. 이해가 어려우신 점 충분히 알고 송구스럽게 생각한다”며 사과했다. 이 후보자는 이날 국회 여성가족위원회 인사청문회에서 송희경 자유한국당 의원이 “딸이 엄마 도움으로 스펙(이력)을 쌓아 명문대를 간게 아니냐”고 질타하자 이렇게 답했다. 이날 인사청문회에선 이 후보자 자녀의 수시 입학 과정ㆍ조기 유학 등을 놓고 공방이 벌어졌다. 야당에선 이 후보자의 딸이 고등학교 3학년 재학중이던 당시 펴낸 책과 관련해 부모의 인맥을 활용해 입시용 스펙을 쌓은 것 아니냐는 의혹을 제기했다. 최근 조국 법무부 장관 후보자 딸이 교교 재학 중에 펴낸 의학 논문 논란과 맞물려 야당의 집중 포화가 쏟아졌다. 송희경 자유한국당 의원은 “이 후보자 자녀인 김모양은 아버지 김모 충남대학교 교수를 따라 2003년 8월부터 2005년 1월까지 1년 반동안 미국 프린스턴 고등학교에 재학했다. 이후 김양은 한국에 귀국해 해외 유학을 떠났다 한국에 돌아온 내용을 담아 2007년 3월 고등학교 3학년 1학기때 책을 출간했고 이듬해 연세대학교 법학과에 수시 전형으로 진학했다”고 밝혔다. 김양의 책에는 압둘 칼람 인도 대통령과 KTF 사장의 추천사가 담겼다. 이 후보자가 2004년 압둘 칼람 대통령의 자서전인 ‘불의 날개’를 번역한 인연으로 딸 책의 추천사를 받은 것으로 알려졌다. 이 후보자는 이에 대해 “칼람 대통령 추천사는 내가 도왔다고 볼 수 있다”며 인정했다. 송 의원은 “자녀가 부모의 인맥을 활용해 입시용 스펙 쌓는 것을 ‘엄마 찬스’라고 하는데, 이 후보자 딸은 인도 대통령 추천사 외에도 엄마 찬스를 여러 번 썼다”고 주장했다. 그는 이 후보자 딸이 쓴 엄마 찬스의 사례로 고교 3학년 때 이 후보자 지인을 통해 대형 출판사에서 책을 낸 점, 이 후보자와 책을 세 차례 공동 집필한 한 언론사 논설위원이 이 후보자 딸 책을 극찬하는 칼럼을 쓴 점 등을 꼽았다. 송 의원에 따르면 이 후보자 딸은 수능 점수가 필요 없는 ‘글로벌리더’ 전형을 통해 연세대 법대에 입학했다. 그는 “성적을 보면 국어는 4등급, 영어는 2등급인데 저 등급으로는 ‘인서울(서울에 있는 대학 진학)’을 못 한다고 한다”고 비판했다. 이 후보자는 딸의 대학 입학 과정에 문제가 없다는 점을 강조했다. 그는 “(딸이 대입 준비할 때)글자 하나 원서 쓰는 것 도와준 적이 없다. 고교 1학년 야간 자습 때 틈틈이 쓴 글을 드렸고, 출판 기획에 돌입한 것도 2006년 6월의 일”이라고 설명했다. 신보라 자유한국당 의원이 “딸이 엄마 덕분에 스펙을 쌓아 입학했다”고 지적하자 이 후보자는 “대학이 (딸이 쓴 책의)추천사만 보고 합격시킨 것이라 생각하지는 않지만, 국민 눈높이에 맞지 않는 처신에 대해 깊이 반성하고 있다”고 재차 사과했다. 이 후보자 딸이 부친과 함께 일본에서 1년간 초등학교에 다닌 이력이 청문회 제출 서류에서 고의로 누락됐고, 이런 조기 유학은 불법이라는 주장도 제기됐다. 이 후보자의 자녀가 일본에 불법 조기 유학을 했다는 의혹도 제기됐다. 김수민 바른미래당 의원은 “이 후보자가 국회에 제출한 자료에는 자녀의 일본 조기유학 내용이 없었다. 아버지와 함께 1년간 일본에서 초등학교를 다닌 이력을 누락시켰다”고 비판했다. 미성년자의 경우 부모 모두 동반해 해외유학을 떠난게 아니라면 불법 유학으로 간주했던 당시 제도를 어긴 것이라는 지적이다. 이 후보자는 이에 대해 “당시 법령을 충분히 살펴보지 못했는데 의원님 질의에 입각해 보니 위반 가능성이 있다고 본다”며 불법 유학 소지가 있음을 인정했다. 이에스더 기자 etoile@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>코오롱티슈진, 턱밑까지 온 상폐 위기…"남은 절차 최선"</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>한국거래소, 기업심사위원회 개최해 상장 폐지 결정 (서울=연합뉴스) 박동주 기자 = 26일 오후 서울 강서구 코오롱생명과학 본사 앞. pdj6635@yna.co.kr (서울=연합뉴스) 김잔디 기자 = '인보사 사태'의 코오롱티슈진은 26일 한국거래소의 상장폐지 결정에 당혹스러움을 감추지 못하면서도 아직 확정되지 않은 만큼 남은 절차에 최선을 다하겠다는 입장을 내놨다. 코오롱티슈진 관계자는 26일 연합뉴스와 통화에서 "아직 코스닥시장위원회 등이 남아있다"며 "남은 절차에서 최선을 다하겠다"고 말했다. 거래소 코스닥시장본부는 이날 기업심사위원회(기심위) 심의 결과 코오롱티슈진의 주권 상장폐지를 결정했다고 밝혔다. 다만 이번 심사는 상장 폐지를 확정하기 위한 절차 중 하나여서 아직 확정된 것은 아니다. 거래소는 앞으로 코스닥시장위원회에서 이를 다시 논의하고, 여기서 상장폐지가 결정돼도 회사의 이의신청을 받아 심사하는 절차가 남아있다. 코오롱티슈진 이런 남은 절차에 사활을 걸겠다는 입장이다. 현재 코오롱티슈진은 인보사 사태로 품목허가가 취소된 것은 물론 미국에서의 임상 중단, 소액주주 소송 등의 악재가 겹겹이 쌓여있는 상황이어서 상장 폐지되면 기업 존립 자체가 어려워지지 않겠느냐는 우려도 나온다. 코오롱티슈진은 인보사 개발과 적응증(치료범위) 확대를 주된 사업으로 꾸려왔는데, 핵심 사업인 인보사의 결함으로 시장에서 퇴출당할 경우 그 여파가 적지 않을 것이라는 분석이다. 인보사의 매출 비중이 미미한 코오롱생명과학과 달리 코오롱티슈진은 사실상 인보사를 위한 회사라고 해도 무방하다. 사업보고서에 따르면 코오롱티슈진은 인보사를 기존에 허가받은 무릎 골관절염 외에도 추간 디스크, 고관절 골관절염, 동물 골관절염 등에 쓰기 위한 연구개발을 진행해왔다. 단 코오롱티슈진은 기심위에서 논의된 내용과 결과를 구체적으로 확인하지 못했다며 향후 대응 방안에 대해서는 밝히지 않았다. 이와 별도로 미국에서의 인보사 임상시험 재개를 위한 준비는 계속 진행하고 있다. 인보사는 주성분이 뒤바뀐 사실이 알려지면서 미국에서 진행되던 임상 3상이 중단됐다. 코오롱티슈진 관계자는 "미국 임상 (재개를 위한)은 이번 사안과는 별개로 서류를 제출할 예정"이라며 "미국 식품의약품청(FDA)의 리뷰를 통해 재개가 결정될 것"이라고 말했다. 인보사는 2017년 국내 첫 유전자 치료제로 식약처 허가를 받았으나, 주성분 중 하나가 허가사항에 기재된 연골세포가 아닌 종양을 유발할 가능성이 있는 신장세포라는 사실이 드러나 허가 취소됐다. 코오롱생명과학의 미국 자회사인 코오롱티슈진이 개발했다. 코오롱생명과학과 코오롱티슈진은 인보사 성분이 뒤바뀌었더라도 그동안 진행돼온 임상시험 결과로 보아 안전성 및 효능에는 문제가 없다고 주장하고 있다. jandi@yna.co.kr</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011050994&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>검찰 "조재범, 8세 때부터 심석희 정신적 지배"…공소장에 밝혀</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>조재범 측 "단둘이 만난 사실 없다"…공소사실 모두 부인 (수원=연합뉴스) 권준우 기자 = 한국 여자 쇼트트랙 간판인 심석희 선수를 3년여간 성폭행한 혐의를 받는 조재범 전 국가대표 코치에 대해 검찰이 8세 때부터 피해자를 길들인 '그루밍 성폭력'의 전형이라고 적시했다. 검찰은 30일 수원지법 형사15부(송승용 부장판사) 심리로 열린 아동·청소년의 성보호에 관한 법률 위반 사건의 두 번째 공판 준비기일에서 공소장을 통해 이같이 밝혔다. 공소장에는 조 전 코치가 어린 심 선수를 폭력 등으로 지배한 뒤 30여 차례에 걸쳐 추행한 내용과 더불어 위계를 이용해 성폭력을 거부하는 심 선수를 협박했다는 내용도 담겼다. 검찰은 공소장을 통해 "피고인은 피해자가 초등학교 1학년 때부터 지도와 감독을 명분 삼아 교우관계를 통제하고 경기력 향상을 명분 삼아 폭행을 일삼았다"며 "이에 피해자는 피고인에 복종해 이의를 제기하는 게 사실상 불가능했다"고 밝혔다. 또 "피고인은 간음을 거부하는 피해자에게 '그럼 앞으로 (선수선발도) 공정하게 해보자'며 대표팀 선발 과정에서 불이익을 줄 것처럼 협박했다"고 덧붙였다. 반면 조 전 코치 측은 성폭행과 관련한 혐의 사실을 모두 부인했다. 조 전 코치 측 변호인은 "훈련 기간 중 만난 것은 사실이지만 단둘이 라커룸에 머물거나 신체접촉을 한 사실은 없다"며 "범행이 이뤄졌다고 공소장에 적힌 날짜 중에는 훈련이 없어 피고인과 피해자가 마주치지도 않은 날도 있다"고 주장했다. 이날 열린 공판 준비기일은 정식 심리에 들어가기 앞서 주요 쟁점과 입증 계획 등을 정리하는 자리라 조 전 코치는 직접 출석하지 않았다. 한편 재판부는 국민 알 권리 등을 들어 조 전 코치에 대한 재판을 일반에 공개하기로 결정했다. 재판부는 "재판 심리는 일반적으로 공개하는 게 원칙이고, 재판 공개가 절차에 방해를 준다고 판단되지 않는다"며 공개 이유를 설명했다. 조 전 코치에 대한 다음 공판 준비기일은 오는 10월 12일이다. 조 전 코치는 심 선수가 고등학교 2학년이던 2014년 8월부터 2017년 12월까지 태릉·진천 선수촌과 한체대 빙상장 등 7곳에서 30차례에 걸쳐 심 선수를 성폭행하거나 강제로 추행한 혐의로 기소됐다. stop@yna.co.kr</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>갤노트10, 자급제 물량 풀고 사전예약 개통 연장</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[디지털데일리 권하영기자] 삼성전자가 당초 26일까지로 예정된 갤럭시노트10 사전예약 개통 기간을 오는 31일까지 연장한다. 자급제폰 물량도 29일부터 시장에 공급하기로 했다. 초반 130만대 사전판매 물량을 확보한 노트10 호조를 이어갈지 주목된다. 26일 삼성전자는 삼성닷컴 공지를 통해 “일부 매장별 컬러·용량 등 재고 불균형 및 불가피한 사정으로 기간 내 개통이 어려운 고객을 위해 전 모델을 대상으로 사전예약자 개통 기간과 사은품 신청 기간을 연장한다”고 밝혔다. 이는 유통 판매처에서 노트10 물량 부족으로 개통이 연기되고 있는 사정을 감안한 결정이다. 일부 판매처에서 과도한 보조금을 약속했다가 개통이 지연되거나 취소되는 사례가 빗발치면서 시장 과열을 바로잡으려는 후속 조치로도 읽힌다. 삼성전자는 앞서 9일부터 19일까지 갤럭시노트10 시리즈 사전예약을 받았다. 이에 따라 고객들은 26일까지 개통을 완료해야 사전예약을 통한 다양한 경품과 혜택을 받을 수 있다. 그런데 사전예약 기간에 일부 판매점이 노트10에 대해 10~20만원대 판매를 약속했다가 취소하는 사례가 속출하면서 문제가 됐다. 이들은 통신사 정책과 판매장려금(리베이트)을 높게 예상했다가 그에 못 미치자 일방적으로 사전예약을 취소하거나 연락을 두절하기 시작한 것. 갤럭시노트10 출고가는 128GB 기준 124만8500원(128GB 기준)이다. 갤럭시노트10을 10~20만원대로 판매하려면 사실상 불법 보조금이 5~60만원대로 지급돼야 한다. 통신3사의 노트10 공시지원금은 고가 요금제를 쓰더라도 당초 예상보다 적은 42~45만원이다. 통신사 관계자는 “일부 판매처에서 하반기 5G 신규폰에 대한 지원금 정책이 좋을 것으로 보고 무리하게 가입자를 확보한 면이 있다”면서 “이들의 사전예약 취소로 기간 내에 정상적으로 개통하지 못한 이용자들이 늘어나고 있다”라고 말했다. 갤럭시노트10에서 새롭게 선보이는 통신사 전용 색상 단말이 예상보다 높은 인기를 끈 점도 배경 중 하나다. 현재 SK텔레콤은 블루, KT는 레드 컬러를 단독 출시한 상태다. 통신사 관계자는 “신규 컬러에 대한 소비자 호응이 좋아 추가 물량을 확보해야 하는 상황”이라고 전했다. 삼성전자는 사전예약 개통기간 연장과 함께 노트10 자급제폰 물량을 오는 29일부터 공급한다. 자급제폰은 통신사 대리점 및 판매점에서 요금제와 연계해 판매하는 것과 달리 유심칩만 끼우면 바로 사용할 수 있는 단말기다. 통신사 약정 기간이나 위약금으로부터 자유롭다. 삼성전자가 자급제 물량 공급과 함께 사전예약 개통 기간을 연장하면서 개통이 지연 또는 취소되거나 원하는 단말을 선택하지 못한 소비자들이 이달 말까지 여유를 가지게 됐다. 노트10 자급제폰은 삼성닷컴·오픈마켓 등 온라인 유통채널과 삼성디지털프라자·롯데하이마트 등 오프라인 유통채널에 본격 공급된다. 공식 출시일인 23일부터 주문을 받고 29일부터 순차 배송할 예정이다. &amp;lt;권하영 기자&amp;gt;kwonhy@ddaily.co.kr &amp;lt;저작권자 © 디지털데일리 무단전재-재배포금지&amp;gt;</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=081&amp;aid=0003025449&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>檢, ‘청담동 주식부자’ 이희진 부모 살해 김다운에 사형 구형</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[서울신문] 검찰이 ‘청담동 주식부자’ 이희진(33·수감 중)씨 부모를 살해한 혐의로 구속기소된 김다운(34)에게 사형을 구형했다. 수원지검 안양지청은 30일 수원지법 안양지원 제1형사부(부장판사 김소영) 심리로 열린 사건 결심공판에서 재판부에 이같이 요청했다. 검찰은 “피고인이 오로지 돈을 위해 잔인하게 피해자들을 살해하고 시신을 손괴한 것은 물론 이를 엽기적으로 은폐했다. 그런데도 피고인에게 죄책감을 찾아볼 수 없다”고 밝혔다. 김씨는 강도살인, 위치정보법 위반, 공무원자격사칭, 밀항단속법 위반 등의 혐의로 지난 4월 15일 재판에 넘겨졌다. 그는 지난 2월 25일 오후 4시 6분쯤 경기도 안양시의 한 아파트에서 이씨의 아버지(62)와 어머니(58)를 살해하고 현금 5억원과 고급 외제 승용차를 빼앗아 달아난 혐의를 받고 있다. 검찰은 김씨가 인터넷을 통해 고용한 박모씨 등 중국동포 3명과 함께 범행을 저지른 뒤 이씨의 아버지 시신을 냉장고에 넣어 평택의 한 창고로 옮겼다고 설명했다. 김씨에 대한 선고 공판은 다음 달 27일 열린다. 정현용 기자 junghy77@seoul.co.kr ▶ ▶ ▶ 공짜로 만화를 볼 수 있다? 당신의 ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>삼성 판결 D-2, 이재용 부회장 아산서 디스플레이 현장경영</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>이재용 부회장 박근혜 전 대통령과 최순실씨, 이재용 삼성전자 부회장이 연루된 국정농단 사건의 대법원 선고가 이틀 앞으로 다가왔다. 재계도 이 부회장 관련 판결에 촉각을 곤두세우고 있다. 일본의 대 한국 경제 보복, 보호무역주의 강화 등으로 삼성을 둘러싼 대내외 경제 상황이 악화된 가운데 이 부회장의 부재가 가져올 파장이 우려되기 때문이다. 대법원 전원합의체는 오는 29일 오후 박 전 대통령의 특정범죄 가중처벌 등에 관한 법률 위반(뇌물) 등 혐의에 대한 상고심 선고 기일을 연다. 함께 재판에 넘겨진 최씨와 이 부회장 상고심 판단도 같은 날 내려진다. 쟁점은 삼성이 최씨 딸 정유라씨에게 제공한 말 세 마리의 소유권 이전과 '경영권 승계작업' 인정 여부다. 박 전 대통령과 최씨 1·2심은 말 세 마리에 대가성이 있다고 판단, 뇌물로 인정했다. 이 부회장 1심도 같은 취지의 판단을 했다. 그러나 2심에서는 말 세 마리 소유권이 최씨에게 넘어가지 않았다며 뇌물로 인정하지 않았다. 같은 사안에 대해 하급심 판단이 갈렸기 때문에 대법원의 최종 판결에 따라 한쪽은 파기 환송돼 2심을 다시 받을 것으로 예상된다. 세 피고인 모두 항소심을 다시 받을 가능성도 있다. 대법원이 말 소유권 이전과 승계 작업 둘 가운데 하나만 인정할 경우 세 사건 모두 파기 환송돼 재판을 다시 받을 것으로 보인다. 재계의 최대 관심사는 판결 결과다. 이 부회장이 다시 구속된다면 삼성 경영에 불확실성이 추가로 등장하기 때문이다. 이 부회장은 지난해 2월 집행유예로 풀려난 이후 국내외에서 활발한 경영 행보를 펼쳤다. 특히 인공지능(AI), 시스템반도체, 해외 생산 거점 등 미래 먹거리에 집중해서 챙겼다. 시스템반도체 분야에 2030년까지 133조원을 집중 투자, 글로벌 1위를 달성하겠다는 비전도 내놓았다. 이 부회장이 다시 구속되면 삼성의 미래 전략 사업과 혁신 계획이 중단되거나 지연될 수 있다는 우려가 안팎에서 나온다. 특히 최근 일본 경제 보복으로 말미암아 위기가 고조됐을 때 일본과 국내 주요 사업장을 오가며 위기 타개를 위해 노력해 왔다. 수출 중단이 시작되기 전 일본 회사 소재 재고 확보에 나서고, 대체 공급처 발굴과 국산화 추진 등 비상 대책을 주도했다. 이재용 삼성전자 부회장(왼쪽 두번째)이 26일 충남 아산에 위치한 삼성디스플레이 사업장에서 제품을 살펴보고 있다. 이달 들어서는 현장 경영에 박차를 가하고 있다. 이 부회장은 6일 삼성전자 온양·천안사업장을 시작으로 평택사업장(9일), 광주사업장(20일)을 찾은 데 이어 26일에는 디스플레이 아산사업장을 방문해 전자계열사 밸류체인 점검과 미래 신성장 동력 발굴을 위한 현장 경영을 이어 가고 있다. 이날 삼성디스플레이 사업장을 방문한 자리에서는 중장기 사업 전략을 점검하고, 대형 디스플레이 로드맵 등 미래 신기술 전략을 논의했다. 이 자리에는 김기남 삼성전자 DS부문 대표이사 부회장, 이동훈 삼성디스플레이 대표이사 사장, 김성철 중소형디스플레이사업부장 부사장, 남효학 대형디스플레이사업부장 부사장, 곽진오 디스플레이연구소장 부사장 등이 함께했다. 이 부회장은 “위기와 기회는 끊임없이 반복된다. 지금 액정표시장치(LCD) 사업이 어렵다고 해서 대형 디스플레이를 포기해서는 안 된다”면서 “신기술 개발에 박차를 가해 다가올 새로운 미래를 선도해야 하고, 기술만이 살 길”이라고 강조했다. 권건호 전자산업 전문기자 wingh1@etnews.com [Copyright ⓒ 전자신문 &amp;amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011050992&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>마사지 업소서 일하던 불법체류 여성, 에이즈 감염</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>(여수=연합뉴스) 형민우 기자 = 마사지 업소에서 일하던 40대 외국인 여성이 에이즈(AIDS·후천성면역결핍증) 확진 판정을 받아 경찰과 보건당국이 행적 조사에 나섰다. 30일 전남 여수시와 경찰에 따르면 여수의 한 마사지 업소에서 일하던 외국인 여성 A씨가 최근 급성 폐렴 증세로 입원했다. 상태가 악화해 의식 불명 상태인 A씨는 정밀 검사 결과 에이즈 양성 반응을 보였다. 불법체류자로 확인된 A씨는 언제부터 여수에 거주했는지 등이 불분명한 상태다. 보건당국은 에이즈 감염자 신상을 공개하지 못하는 규정에 따라 국적 등을 밝히지 않고 있다. 여수시와 경찰은 이 여성의 과거 행적 파악에 나섰다. 여수시 관계자는 "해당 여성이 의식이 없어 정확한 정보를 알 수 없는 상태"라며 "업주 등을 상대로 A씨의 과거 행적을 조사할 계획"이라고 밝혔다. minu21@yna.co.kr</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>[단독]세계 2위 모빌리티 中 디디추싱, 내년 상반기 韓 진출</t>
-        </is>
+      <c r="A17" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-투자전문 회사 미래오성과 합자회사 진출 계약 진행 중 -플랫폼택시·11인승 대형 택시 등 준비 디디추싱 이미지(출처=디디추싱) [헤럴드경제=채상우 기자] 세계 2위 모빌리티 기업인 중국의 디디추싱이 이르면 내년 상반기 한국에 진출한다. 26일 투자전문회사 미래오성그룹에 따르면 최근 디디추싱과 미래오성그룹은 한국 지사 설립 계약을 진행 중이며 이르면 내년 상반기 한국에 지사를 설립할 예정이다. 미래오성그룹 관계자는 "현재 디디추싱과 2020년 한국 진출을 목적으로 긴밀히 얘기 중"이라며 "모바일 플랫폼 구성까지 대략적으로 완료한 상황으로 디디추싱 본사의 결정만 기다리고 있다"고 말했다. 디디추싱은 지난해 일본에 진출할 때도 소프트뱅크와 합자 투자를 하는 방식이었다. 미래오성그룹은 이를 위해 최근 가산디지털단지에 디디추싱 코리아 사무실을 개설했으며, 김범창 미래오성그룹 회장을 디디추싱 코리아 대표로 임의 등록해 놓은 상태다. 디디추싱이 한국에 들어오면 카카오모빌리티와 같이 택시 플랫폼 서비스를 선보일 것으로 예상된다. 아울러 11인승 대형 차량을 이용한 대형 택시 서비스도 준비 중에 있는 것으로 알려졌다. 디디추싱의 한국 진출 배경에는 최근 국토부의 택시-플랫폼 상생안 발표 등으로 국내 모빌리티 시장이 성장기에 돌입했다는 판단 때문으로 분석된다. 업계에서는 디디추싱 한국 진출을 위해 미래오성그룹은 이미 올해 초부터 발빠르게 움직인 것으로 파악하고 있다. 김범창 회장은 올해 4월 중국 상하이에서 개최된 '중국 라이드헤일링 산업 발전 포럼'에 참석해 디디추싱 관계자를 직접 만나 국내 모빌리티 사업에 대해 논의를 했다. 김 회장은 이 자리에서 "중국의 차량공유플랫폼 기업과 손잡고 수년간 플랫폼 사업을 통해 축적한 노하우를 한국에 도입해 한국형 차량공유 플랫폼 사업을 성공시키겠다"고 밝혔다. 2012년 설립한 디디추싱은 기업가치 560억달러(약 67조원)에 달하는 중국업체로 베이징에 본사를 두고 있다. 우버에 이어 세계 2위 모빌리티 기업으로 중국 시장 점유율은 90%에 달한다. 일본과 대만, 동남아, 북미·남미 등 전세계 1000개 도시에서 사업을 운영 중이다. 디디추싱은 최근 세계 1위 기업인 우버를 앞지르기 위해 다양한 국가 진출을 적극적으로 검토 중에 있는 것으로 알려졌다. 올해 초에는 칠레, 페루, 콜롬비아 등 남미 국가에서 마케팅·광고·위기관리·사업 직군 관리자를 채용하며 남미 시장을 공략했다. 한국 역시 세계 진출 방안의 하나로 분석된다. 다만 디디추싱은 한국에서 벌어지고 있는 택시와 모빌리티 간의 갈등을 우려하고 있는 것으로 알려졌다. 업계 관계자는 "디디추싱이 한국 진출에 있어 마지막으로 고민하는 것이 택시와의 갈등 문제로 알려졌다"며 "최근에는 정부 주도로 이 문제가 조금씩 풀리는 양상이 보이고 있지만 여전히 개인택시를 중심으로 해결되지 않은 문제가 존재해 이 부분을 우려하고 있는 것으로 알고 있다"고 말했다. 123@heraldcorp.com - Copyrights ⓒ 헤럴드경제 &amp;amp; heraldbiz.com, 무단 전재 및 재배포 금지 -</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=028&amp;aid=0002466482&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>이재명, 한국당 겨냥 “조국 가족 청문회…금도 넘었다”</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>이 지사, ‘조 후보 논란’ 침묵 깨고 페북 통해 마녀사냥식 비난 비판 이재명 경기도지사가 자유한국당이 조국 법무부 장관 후보자의 가족 증인 채택을 요구하며 인사청문회를 거부하는 것을 두고 “금도를 넘어서는 것”이라고 비판하고 나섰다. 이 지사는 30일 자신의 페이스북에 ‘마녀사냥 그만…정해진 규칙대로 해야 합니다’는 제목의 글을 올려 “당사자의 소명이 결여된 비판은 많은 경우 실체적 진실과 어긋난다. 이해관계가 개입되면 더 그렇다. 그래서 삼인성호(三人成虎, 세 사람이면 없던 호랑이도 만든다)라는 말이 생겼다”며 “조국 후보자를 둘러싼 지금의 상황은 비이성의 극치인 마녀사냥에 가깝고 일방적 공격을 가해 놓고 반론기회조차 박탈하는 것은 옳지 않다”고 비판했다. 이 지사는 자한당이 인사청문회 제도를 변질시키고 있다고도 지적했다. 그는 “청문회 공방을 통해 양쪽 주장을 모두 들어보는 것은 국민의 권리이고 청문회는 우리가 합의한 규칙”이라며 “청문회는 국민이 맡길 공적책무를 해내기에 적합한지 보는 곳이지 증거로 실체를 규명하고 죄는 묻는 장이 아니다”고 말했다. 그는 이어 “재판도 아닌 청문회에 당사자가 아닌 가족을 끌어들이는 건 지나치다. 가족 증인 문제로 법이 정한 청문회를 (자유한국당이) 거부하는 것은 그 목적이 정략이라는 오해를 사기에 충분하다”고 밝혔다. 이 지사는 끝으로 “조국 후보에 대한 수사는 수사기관에 맡기고 법에서 정한 대로 청문회를 열어 질의자는 충분히 묻고 후보자에게는 해명기회를 준 후 판단은 국민이 하게 해야 한다”고 강조했다. 홍용덕 기자 ydhong@hani.co.kr [ⓒ한겨레신문 : 무단전재 및 재배포 금지]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>삼성의 현명한 선택? 美 1%만 이어폰잭 신경쓴다</t>
-        </is>
+      <c r="A18" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>갤럭시노트10 플래그십폰 처음으로 이어폰잭 배제 "무선이어폰의 보편화"로 때가 됐다는 판단 덕분에 미니멀리즘 디자인 도입 성공 "때가 됐다." 강윤제 삼성전자 디자인팀장은 최근 이어폰잭을 없앤 첫 플래그십폰 '갤럭시노트10'을 출시하며 이렇게 말했다. 무선이어폰으로의 급속한 전환 속에 삼성전자도 과감한 선택을 할 때가 됐다는 뜻이었다. 여전히 이어폰잭이 필요하다는 목소리가 있었지만 어쩌면 삼성전자가 현명한 선택을 한 것일지도 모르겠다. 삼성전자의 최대 시장인 미국을 조사한 결과 소비자의 단 1%만이 스마트폰 구매 시 '이어폰잭의 유무'를 중시하는 것으로 나타났다. 25일(현지시간) 미국 알뜰폰 사업자 팅의 설문조사에 따르면 소비자가 스마트폰 구매 시 가장 중요하게 생각하는 요소는 가격이었다. 응답자의 35%는 가격에 따라 구매 여부를 결정한다고 답했다. 팅은 소비자 3600명에게 가장 중시하는 요소 세 가지를 고르게 하는 방식으로 조사를 진행했다. 가격 다음으로는 운영체제(30%), 성능(14%), 화면(5%), 배터리(4%), 디자인(2%)이 중시됐다. 이어폰잭을 중요한 요소 세 가지 중 하나로 꼽은 소비자는 1%에 불과했다. 미국 IT매체 안드로이드 어쏘리티는 "스마트폰 가격이 궁금한 소비자는 많지만 이어폰잭에 관심 있는 사람은 거의 없는 것으로 나타났다"며 "이번 설문조사는 이어폰잭이 사라지는 때가 왔음을 암시하는 또 다른 지표가 될 것"이라고 분석했다. 실제로 무선이어폰은 급속히 확산되는 추세다. 시장조사업체 스트래티지 애널리틱스에 따르면 무선이어폰 시장은 2016년 170만대, 2017년 1510만대, 2018년 3360만대로 성장했다. 특히 애플이 2016년 아이폰7부터 이어폰잭을 없애면서 전체 이어폰 시장에서 무선이어폰이 차지하는 비율은 절반을 넘어섰다. 삼성전자는 유선이어폰을 선호하는 소비자를 위해 이어폰잭을 남겨뒀지만 무선이어폰의 보편화를 감지하고 갤럭시노트10에서 처음으로 변화를 꾀했다. 이를 통해 얇은 디자인 구현이 가능해지기 때문이다. 게다가 이번 조사로 이어폰잭을 중시하는 소비자가 소수에 불과함이 드러난 만큼 삼성전자는 갤럭시S11, 갤럭시노트11의 이어폰잭 역시 배제할 가능성이 높다. 이는 미국에서 3위 점유율을 차지하고 있는 LG전자의 이어폰잭 전략에도 적잖은 영향을 미칠 것으로 보인다. 임온유 기자 ioy@asiae.co.kr &amp;lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&amp;gt;</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=277&amp;aid=0004527637&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>문준용, 조국 딸 향해 "부당한게 맞다… 목소리 내도 된다"</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[아시아경제 김윤경 기자] 29일 문재인 대통령 아들 문준용 씨가 조국 법무부 장관 후보자의 딸을 둘러싼 의혹과 관련해 입장을 전했다. 문 씨는 이날 페이스북을 통해 조 후보자의 딸에게 "그는 나름대로 최선을 다하며 살아왔을 텐데, 그간 충분히 훌륭한 성과를 이루며 살아왔음에도 사람들은 그의 노력을 말하지 않고 그의 부모만 말하고 있다"고 말했다. 이어 "기자들이 달려드는데 혹시 한마디 실수할까 봐 숨죽이며 숨어다니고 있다면 저는 그랬지만 그러지 않아도 된다"며 "지금은 부모님의 싸움이지만 앞으로 자신의 싸움이 될 수 있다"고 전했다. 각종 의혹 제기에 대해 문 씨는 "후보자의 자식까지 검증해야 한다는 건 이해한다"며 "그러나 그 과정에서 자식의 실력과 노력이 폄훼되는 것은 심각한 부작용"이라고 지적했다. 그는 또 " 사람들은 아마 그를 조국 딸로 기억할 것이다. 사람들 머릿속에 부정적인 이미지는 지워지지 않을지도 모르며 심지어 누명도 쓰는데, 그중 몇 가지는 인터넷에 영원히 남아 그의 이름으로 검색될 것"이라며 "그걸 믿는 사람의 수가 아주 많을 것"이라고 언급했다. 그러면서 "앞으로 자신의 실력을 증명하는 것은 한참을 달려야 자랑할만한 성과를 얻을 수 있는 아직 졸업도 못 한 젊은이에게는 오랫동안 버거운 싸움이 될 것"이라고 말했다. 문 씨는 "세상은 이렇게밖에 작동할 수 없고, 이런 일이 없어지지 않을 것을 안다. 그가 받는 고통과 앞으로의 불이익은, 당사자만 느낄 부당함은 이렇게 작동하는 세상의 너무 작은 틈새에 끼어있어 당사자가 아니고서는 알지 못할 것 같다"면서 "대부분의 사람은 그 틈새를 모르거나 알고도 무시하는 것 같다. 몇몇 사람들은 그 틈새가 안 보이는 걸 악의적으로 이용하기도 한다"고 언급하기도 했다. 그는 이어 "원한다면 목소리를 내도 된다"며 "이건(최근 불거진 의혹은) 부당한 게 맞다"고 덧붙였다. 김윤경 기자 ykk0226@asiae.co.kr &amp;lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&amp;gt;</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>삼성 스마트폰, 日 점유율 6년만에 최고…"갤S10 통했다"</t>
-        </is>
+      <c r="A19" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1위 애플 50.8%, 화웨이 美 제재 영향으로 5위로 하락 (지디넷코리아=이은정 기자)삼성전자가 지난 2분기 일본 스마트폰 시장에서 6년 만에 역대 최고 점유율을 기록한 것으로 나타났다. 26일 스트래티지 애널리틱스(SA)에 따르면, 지난 2분기 일본 스마트폰 시장에서 애플이 전년 동기(45.6%) 대비 증가한 50.8%의 점유율로 1위를 기록했다. 2위 삼성전자는 2분기 일본 스마트폰 시장에서 전년 동기(8.8%)보다 소폭 상승한 9.8%의 점유율로 6년 만에 역대 최고치를 기록했다. 삼성전자는 2013년 두 자릿수의 점유율을 기록했지만 2014년부터 지난해까지 6%대 이하의 점유율을 기록했다. 삼성전자가 점유율 반등에 성공한 데는 갤럭시S10 호조의 영향이 컸다는 분석이 나온다. 삼성전자 갤럭시S10 일본 현지 광고모델 기무라 코우키.(사진 출처= Instagram@koki) 삼성전자 갤럭시S10 일본 현지 광고모델 기무라 코우키.(사진 출처= Instagram@koki) 삼성전자는 갤럭시S10이 출시된 지난 3월 갤럭시 쇼케이스 중 최대 규모인 '갤럭시 하라주쿠'를 도쿄에 개관하고 현지 스마트폰 시장 공략에 집중했다. 이후 2020년 도쿄올림픽을 앞두고 일본 5G 네트워크 사업을 확대를 위한 기반을 조성, 일본에서 갤럭시 스마트폰 시장 점유율 반등에 속도를 내고 있다. 삼성전자에 이어 3~4위는 일본 기업인 샤프와 소니가 차지했다. 샤프는 지난해 같은 기간(5.1%)보다 소폭 오른 7.2%를 기록했으며, 소니는 3.3% 감소한 7.0%의 점유율을 기록했다. 중국 화웨이는 전년 동기(5.9%) 대비 줄어든 3.3%의 점유율로 5위로 하락했다. 이는 미국의 거래중단 제재 조치 여파가 있었던 것으로 풀이된다. 지난 5월 일본 이통사 KDDI와 소프트뱅크, NTT도코모는 미국의 화웨이 장비 사용 금지 행정명령에 따른 영향력을 평가하기 위해 시간이 필요하다며 화웨이의 신규 스마트폰 판매를 연기한 바 있다. 이은정 기자(lejj@zdnet.co.kr) /</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=437&amp;aid=0000218650&amp;date=20190830&amp;type=2&amp;rankingSectionId=102&amp;rankingSeq=18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>최순실 "내 딸은 메달 따려 고생 했는데 조국 딸은…"</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 [앵커] 박근혜 전 대통령의 2심도 파기 환송됐습니다. 그렇다면 만약 파기환송심에서 받아들이지 않고 재상고를 하게 되면 기간이 1년 또 늘어나게 되는데, 그렇다면 최종판결이 나야지 사면이야기가 좀 연결될 수 있는 것 아닐까요? · '박근혜 사면' 물 건너갔나…'형 집행정지' 가능성은? 최순실 씨는 이번 대법원 선고 사흘을 앞두고, 재판부에 의견서를 보냈다고 합니다. 그 의견서 안에 조국 후보자의 딸 이야기를 넣었다고 합니다. · 최순실 자필의견서, 조국과 비교하여 억울함 호소 · 최순실 "내 딸 메달 따려 고생…조국 딸은 거저먹기" · 최순실 측 "국정농단 파기환송, 역사의 심판대에 오를 것" (*자세한 내용은 영상을 통해 확인하실 수 있습니다.) (*방송 : JTBC 전용우의 뉴스ON (14:25~15:50) / 진행 : 전용우) Copyright by JTBC(http://jtbc.joins.com) and JTBC Content Hub Co., Ltd. All Rights Reserved. 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>[단독] MS, 쿠팡·티몬에 경고…"불법 윈도10 팔지마"</t>
-        </is>
+      <c r="A20" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>개인 판매자들, 정품으로 속여 20만원짜리 2500원에 판매 "제품키 판매, 저작권법 위반" 대법 판결 이후 온라인몰 단속 마이크로소프트(MS)의 한국 지사인 한국MS가 윈도10 등 자사의 소프트웨어 불법 판매 단속에 나섰다. 쿠팡, 티몬 등 온라인 쇼핑몰에서 윈도10과 MS오피스 등이 정가의 1%대 수준 가격에 판매되자 ‘철퇴’를 빼들었다. 2500원이면 윈도10 구입 25일 정보기술(IT)업계에 따르면 최근 한국MS는 자사의 소프트웨어가 불법으로 판매되고 있다며 국내 온라인 쇼핑몰 업체에 협조공문을 보냈다. 일부 판매자가 윈도10, MS오피스 등을 정품이라 속이고 제품키를 발송하는 방식으로 팔고 있는 것을 단속해달라는 것. 제품키는 소프트웨어를 설치할 때 사용자가 정품을 사용했다는 것을 인증하기 위해 입력해야 하는 문자 및 숫자로 구성된 고유의 번호다. 윈도10 소프트웨어는 MS 홈페이지에서 다운받고, 정품 제품키를 결제해 입력하면 사용할 수 있다. 쿠팡, 티몬 등에서는 불법 윈도10 등을 파는 판매자가 수백 명에 이른다. 판매 가격은 최저 2500원이다. 정품(20만원)의 100분의 1 수준이다. 이들은 ‘초특가 판매’ ‘정품이 아닐 경우 100% 환불’ ‘제품키 24시간 실시간 발송’ 등의 문구를 앞세워 소비자를 유인했다. 유명 쇼핑몰에서 대놓고 판매하기 때문에 소비자들은 불법 소프트웨어인지 알기 어렵다. 상품 문의 게시판에 정품인지를 묻는 글에 판매자는 정품이 맞다는 답변도 달았다. IT업계 관계자는 “상당수가 비영리 용도나 기업에서 대규모로 구입한 제품 등이 비정상적인 방법으로 유출된 것”이라며 “해당 제품키로 대부분 정품 인증이 가능하기에 판매자 또는 소비자도 불법인지 인지하기 어렵다”고 설명했다. 하지만 이런 방식의 판매는 명백히 불법이다. 지난 6월 한국 대법원은 유출된 제품키를 판매하는 행위는 저작권법 위반이라고 판결했다. 한국MS가 온라인 쇼핑몰업체에 협조공문을 보내는 등 불법 소프트웨어 유통 단속에 나선 것도 이 판결의 영향이 있다. MS 관계자는 “소비자가 사전에 불법을 인지한 것은 물론 의심하다가 제품을 구입했어도 저작권법 위반으로 처벌받을 수 있다”고 말했다. 불법 소프트웨어는 보안에 취약 최근 윈도10 수요가 증가하는 것도 단속의 한 배경이다. MS가 내년 1월부터 윈도7의 공식 기술 지원을 종료할 예정이어서 PC OS(운영체제)를 윈도10으로 업그레이드하려는 수요가 급증했다. 시장조사업체 스탯카운터에 따르면 지난달 기준 국내 PC에서 윈도7의 사용 점유율은 29%에 달한다. 윈도10에 대한 추가 수요가 아직 많다는 뜻이다. MS는 제품키로 구입한 소프트웨어의 안정성이 떨어진다고 설명했다. 제품키로 설치한 소프트웨어는 향후 업그레이드 서비스를 받는 데 한계가 있다. 지난해 MS가 한국 등 아시아 지역 9개 국가를 대상으로 조사한 결과 불법 소프트웨어가 설치된 PC의 84%에서 바이러스 등 멀웨어(악성 소프트웨어)가 발견됐다. 보안업계 관계자는 “불법 소프트웨어를 사용하면 PC 내 금융정보 등이 유출될 가능성이 크고 PC 성능도 떨어진다”고 설명했다. 그러나 한국에서는 정품 소프트웨어를 사용하려는 노력이 아직 부족하다는 지적이 나온다. 미국 비즈니스소프트웨어연합(BSA)은 ‘2018 글로벌 소프트웨어 조사 보고서’를 통해 한국 내 PC에 설치된 소프트웨어 중 32%를 불법으로 추정했다. 일본(16%)의 두 배 수준이다. 불법 이용에 따른 소프트웨어업계의 피해 규모는 5억9800달러(약 6055억원)에 달했다. IT업계 관계자는 “글로벌 IT 업체들이 소프트웨어 판매를 패키지 상품 방식에서 월정액제 방식으로 바꾸고 있는 것도 불법 소프트웨어 유통을 사전에 막으려는 전략”이라고 설명했다. ■ 제품키 product key. 소프트웨어를 설치할 때 사용자가 정품을 사용했다는 것을 인증하기 위해 입력해야 하는 문자 및 숫자로 구성된 고유의 번호. 보통 소프트웨어 패키지 상품에 밀봉된 형태로 제공된다. 온라인으로 불법 소프트웨어를 구입할 경우 판매업자가 제품키를 이메일 등으로 알려준다. 김주완 기자 kjwan@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933783&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>고려대 2차 '조국 촛불집회'…학생들은 "총학 사퇴하라"</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>30일 오후 6시 30분 집회 예정시간이 다 됐는데도 고려대 중앙광장은 썰렁했다. 애초에 오후 6시로 예정된 집회가 이날 오후 갑작스럽게 내린 소나기로 30분 늦게 시작한다고 공지됐음에도 학생들의 모습은 거의 보이지 않았다. 미리 걸어놓은 현수막과 카메라 등 취재진들만이 우두커니 광장을 지켰다. 6시 40분 쯤 하나둘 씩 학생들이 모이기 시작했지만 미리 마련된 자리는 여전히 휑했다. 이날 집회에는 고려대 학생임을 증명할 수 있는 학생증이나 졸업증명서 등을 제출한 사람만 참가할 수 있었다. 대부분 학생증을 제시했지만 졸업증명서를 직접 발급받아 오거나 학사 학위증을 통째로 들고 온 졸업생도 보였다. 입구에서 참가자들에게 집회에서 사용할 초와 플래카드 등을 나눠줬지만 상당수가 남았다. 지난주 500여명의 학생들이 참가해 준비한 플래카드 등이 부족했던 모습과 대조적이었다. ━ 총학 주최에도 1차 집회보다 참가자 크게 줄어 조국 법무부 장관 후보자의 딸 조모(28)씨의 입시 부정 의혹에 진상 규명을 요구하는 촛불이 또 다시 고려대 중앙광장을 밝혔다. 참석 인원은 100여명 정도였다. 일반 학생들이 자발적으로 추진했던 1차 집회와 달리 이번 집회는 고려대 총학생회가 주최했다. 공식 명칭은 ‘고대인의 함성-입시비리 의혹 진상규명 촉구를 위한 두 번째 움직임’ 이다. 조씨는 2010년 고려대 생명과학대학 입학 당시 제출했던 자기소개서를 과장해 작성하고 이 과정에서 특혜가 반영된 스펙을 넣었다는 의혹을 받고 있다. 고교 재학 시절 2주간 인턴으로 참여하고 ‘제1저자’로 등재된 병리학 논문 등이 대표적이다. 의혹이 불거진 직후부터 고려대 커뮤니티 ‘고파스’ 등에서는 조씨를 비판하는 글과 댓글이 다수 올라왔다. 중앙광장에 모인 참가자들은 “진상규명 요구하는 목소리에 응답하라”,“함성소리 왜곡하는 진영논리 배격한다”는 구호를 외쳤다. 김가영 고려대 총학생회장은 지난주 집회에서 학교에 입장 표명을 요구했지만 28일까지 아무런 답변을 듣지 못해 항의 방문을 했다고 밝혔다. 그는 “지난주 금요일 학생들이 학교에 자료 공개 목록을 요청했는데, 이 요구 사항이 인재발굴처에는 전달도 안 됐다고한다”며 “입학처는 오히려 ‘그 집행부는 공식 단체도 아니고 우리는 공식 문서 받지도 못했다’는 답을 내놨다”며 황당함을 밝혔다. 김 총학생회장이 대표로 낭독한 성명서에서는 “여기 중앙광장에 오기까지 수많은 고난과 역경을 헤쳐 왔지만, 누군가에게는 대학의 문턱이 아주 쉽게 넘어올 수 있는 관대한 출입구였던 건 아닌지 되묻지 않을 수 없다”고 지적했다. 이어 “법무부 장관 후보자 자녀 입학 당시 심사 자료의 투명한 공개, 심사 과정의 철저한 검증을 요구한다”면서 “입학 비리 의혹에 대한 확실한 해명과 그에 상응하는 조처를 하라”고 요구했다. 참석자들은 본관으로 행진한 뒤 건물 입구에 ‘자유ㆍ정의ㆍ진리 외치던 학교는 어디갔나요’, ‘공정한 사회를 원합니다’ 등의 포스트잇을 붙이기도 했다. ━ "총학 사퇴해라" 대놓고 외친 학생들 이날 학생들은 시작부터 총학 측에 냉랭한 반응을 보였다. 사회자가 “음악에 맞춰 촛불을 흔들어달라”, “박자에 맞게 박수를 쳐 달라”는 등의 호응을 유도했지만 대부분 따라하지 않았다.지난 주 집회에서 고려대 응원가와 대중가요 등을 ‘떼창’ 하던 모습과 대조적이었다. 집회 마지막 쯤 좌석에서 총학에 대한 불만이 대놓고 터져나왔다. 한 학생이 “총학생회장 어딨습니까”라고 하자 다른 학생들도 차례로 “총학생회장 나와라, 사퇴하라”고 외쳤다. 이날 집회에 참석한 윤모(24ㆍ경영학과 3학년)씨는 “총학이 집회 전날에서야 공지를 올리고 그 이후에도 제대로 홍보하지 않았다”며 “총학이 학생들의 분노를 대변할 의지가 있는지 의심스럽다”고 말했다. 고파스에도 집회 시작부터 총학을 비판하는 글이 쇄도했다. ━ "집회 아쉽지만 참가에 의의" 그럼에도 자리를 지킨 사람들은 어떤 생각을 가지고 왔을까. 1ㆍ2차 집회를 모두 참가했다는 김모(21ㆍ정치외교학과 2학년)씨는 “지난주 온 언론의 관심을 받으며 집회를 마쳤지만 아직 학교는 아무런 입장을 취하지 않아 다시 나왔다. 집회가 흐지부지돼 아쉽지만 그래도 우리의 요구사항이 제대로 전달됐으면 한다”고 말했다. 이날 졸업증명서를 발급받아 들고온 안혜숙(사범대학 78학번)씨는 “적절한 인재가 들어와서 자기 뜻을 펼치는게 이 사회 발전을 위해서도 중요한데 그런 유리천장이 존재했었다는 사실에 화가 나서 나왔다”며 “자유ㆍ정의ㆍ진리가 우리 학교 교훈인데 나는 40년 가까이 이런 마음으로 살아왔다. 우리 애들이 대원외고 나와서 나도 외고ㆍ대학 입시 모두 겪어본 학부모인데, 그런 행동을 상상해 본 적도 없다”고 목소리를 높였다. 이날 집회의 마지막은 고려대 학생이 아니라 마련된 자리에 앉지 못하고 바깥에 서서 집회를 보고 있던 한 재수생의 외침으로 마무리됐다. “저는 이 주변에 살고있는 20살 재수생 백상우라고 합니다. 작년에 고려대 사학과 수시에서 떨어져 올해 다시 도전하고 있습니다. 이 자리에 앉아있는 고려대생들이 부럽습니다. 저는 실패한 사람이지만, 그 실패가 부끄럽지 않습니다. 다만, 실패해야하는 사람이 성공하는 현실이 부끄럽습니다. 조 후보자의 딸도 공정하게 입학했으면 누가 비난하겠습니까. 저는 자기소개서에 허위 사실을 적지 않았고, 그렇게 해서 들어가고 싶은 마음도 없었습니다. 저를 포함한 재수생들의 노력이 부정당한 것 같습니다." 권유진 기자 kwen.yujin@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>조국 법무부 장관 후보자 페이스북 글에 지지·응원 글 넘쳐나는 이유</t>
-        </is>
+      <c r="A21" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>"힘내라" 조국 후보자 페이스북엔 응원만 가득 일부 언론 "지지 응원 쏟아진다" 보도 실체는 페친만 댓글 작성 가능 조국, 머리 쓸어넘기며 출근 (사진=연합뉴스) 조국 법무부장관 후보자가 국민들에게는 '용'이 될 생각말고 붕어 가재로 개천에서 행복하게 살라 해놓고 자신의 자녀는 '용'으로 만들어주기 위해 갖은 노력을 하고 있었다는 사실이 드러나면서 분노를 사고 있다. 논문 참여와 고려대 입학, 6차례의 몰빵 장학금, 부산대 의전원까지 구체적으로 드러난 불법사항은 없지만 문제는 조 후보자의 입이었다. 과거 조 후보자는 스스로를 강남 좌파라고 인정했으며 특목고, 특히 외고에 대해서 외국어 공부하러 갔으면 외국어 진로로 가도록 확실하게 규제라든지 이런 게 있어야 된다는 취지의 이야기를 한 적이 있다. 그런데 실체를 들춰보니 조 후보자의 딸은 외고를 나왔는데 딸은 의학전문대학원 다니고 있다. 개인과 정책적인 것은 다르다는 것을 감안해도 그야말로 '내로남불'의 전형적인 케이스로 스스로 당당하기는 조금 어려운 상황이 된 것이다. 아버지로서 철저하지 못하고 안이했다는 자아비판과는 달리 상상을 초월하는 스펙관리 끝에 조 후보자의 딸은 고대 환경생태공학부, 서울대 환경대학원을 거쳐 현재 부산대 의학전문대학원에 다니고 있다. 아들은 미국 조지워싱턴대를 졸업한 뒤 현재 연세대 대학원에서 정치외교학을 전공하고 있는 것으로 알려졌다. 정치적 신념이 확실했던 조 후보자는 국정농단 사태 당시 자신의 페이스북에 정유라의 입시특혜는 물론 논문과 장학금에 대해서도 쓴소리를 남겼으며 지금 고스란히 부메랑이 돼 조 후보자에게 돌아오고 있다. 조 후보자는 2010년 유명환 외교부 장관이 딸 특채 문제로 사퇴를 앞두고 있을 때 고위직이 잘못해서 사과를 하는 걸 파리를 예로 들어 비판했다. 파리가 앞발을 비빌 때는 먹을 준비를 하는 거라며 이때 잡아야 한다는 것이다. 다시 말해 고위직의 진정성 없는 사과를 봐주면 안 된다는 취지였다. 남의 잘못에는 서슬퍼런 비판을 쏟아내던 조 후보자는 자신을 둘러싼 많은 의혹에 연일 사과를 하면서도 청문회까지 심기일전해 맞설 것임을 확실히 했다. 조 후보자의 ‘정치무대’였던 페이스북은 청문회를 앞둔 지금 현재도 우회적으로 자신의 억울함을 항변하는 창구로 이용되고 있다. 자녀 고스펙 문제가 제기된 후 잠시 SNS 활동을 중단했던 조 후보자는 오늘 하루에만도 팩트브리핑이라는 주제의 부정입학 의혹이 거짓이란 게시물 등 10건 이상의 관련 링크를 올렸다. 대부분 자신을 둘러싼 의혹에 대해 긍정적으로 말하는 뉴스 등을 퍼나른 것이다. 이런 상황에서 26일 한 매체는 조 후보자의 페이스북에 오직 지지와 성원의 글이 넘쳐나고 있어 포털사이트의 댓글 분위기와는 전혀 다르다고 보도했다. 그렇다면 왜 이렇게 조 후보자의 행보에 대해 포털사이트와 페이스북 간의 간극이 큰 걸까. 일부 보도에서처럼 조 후보자 딸의 논문 및 입시 특혜 의혹 등은 모두 가짜뉴스기 때문에, 또는 진실된 사과로 인해 마음이 누그러진 국민들이 그를 지지하는 양상으로 바뀐 것일까. 조국 법무부장관 후보자 페이스북 응원글 조 후보자의 페이스북을 보면 바로 답이 나온다. 조 후보자의 페이스북에는 일반인이 댓글을 달거나 비난을 하고 싶어도 남길 수가 없다. 페이스북 자체가 게시물의 공개 대상을 전체공개, 친구 공개, 특정 친구 공개, 나만 보기 등으로 구분지을 수 있으며 조 후보자의 페이스북 또한 친구가 아닌 이상 댓글 쓰기가 불가능하기 때문이다. '조국 사퇴 촉구' 촛불 든 서울대생 (사진=연합뉴스) 네티즌들은 "철저히 기존 지인이나 같은 진영사람들 위주로 친구가 맺어져 있어서 악플달고 싶어도 달수가 없다", "친구들만 댓글을 다는데 당연한 것 아닌가. 비판을 할 수가 없지", "민심을 알고 싶다면 댓글 범위를 전체공개로 열어라", "페친만 댓글 쓸 수 있게 조 후보자가 막아놨다" 등의 반응을 보였다. 듣고싶은 말만 듣겠다고 결정한다면 그렇게 설정할 수 있는 것. 그게 SNS 주인장이 가진 권한이다. "원칙과 상식이 지켜지는 나라, 정의가 살아있는 사회를 위해 조국 후보자의 사퇴를 강력하게 촉구한다"는 서울대 후배들의 촛불집회, "가짜뉴스 만드는 기레기들에 휘둘리지말고 끝까지 힘내라. 응원한다"는 페친들의 댓글. 조 후보자를 바라보는 진정한 민심은 어느 지점에 위치하고 있는 것일까. 이미나 한경닷컴 기자 helper@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=005&amp;aid=0001234401&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>“보상 없어” VS “연락 피하고 있다” 마켓컬리 ‘녹슨 나사’ 진실공방</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>빠른 배송으로 유명세를 탄 온라인 식품 쇼핑몰 ‘마켓컬리’가 판매한 식제품에서 녹슨 나사가 발견됐다는 주장이 나왔다. 마켓컬리 측은 피해를 폭로한 고객에게 즉시 이물질 회수 요청을 했으나 응하지 않았고 그의 일부 주장이 사실과 다르다며 억울함을 드러냈다. 경기도 남양주시에 거주하는 노모(23)씨는 29일 마켓컬리의 새벽 배송 서비스를 통해 산 카레 제품을 먹다가 녹슨 나사와 쇠를 발견했다고 복수 언론에 제보했다. 마켓컬리는 오후 11시 전에 주문하면 다음날 새벽 7시까지 신선한 식품을 집 앞까지 배송해주는 서비스로 유명하다. 노씨 역시 이 서비스를 이용한 것이다. 노씨는 “새벽 배송을 통해 주문한 인도 카레를 3분의 1가량 먹고 남은 것을 보관 용기에 담으려고 붓는 순간 쇠 부딪히는 소리가 났다”며 “꺼내 보니 녹슨 나사와 쇠가 들어있었다”고 밝혔다. 이어 “마켓컬리 측에 문의하자 처음에는 퀵서비스를 보내줄 테니 제품을 반품해달라고 했다. 거절하고 직접 와서 확인하라고 요구했으나 응하지 않았다”며 “나중에는 적립금 1만원을 적립해주겠다고 했지만 거절했다”고 주장했다. 또한 마켓컬리 측과 이날 6시간가량 실랑이를 벌였으나 결론을 내지 못했다고 했다. 마켓컬리 측 입장은 조금 다르다. 노씨가 주장하는 문제 상황을 전달받기는 했으나, 조치를 취하려 하자 그가 응하지 않는 등 마켓컬리에도 답답한 부분이 있다는 것이다. 마켓컬리 한 관계자는 30일 국민일보와의 통화에서 “노씨가 첫 주문으로 카레를 구매했고, 문제 발생 뒤 전화를 주셨다”며 “제품 공급사에 상황을 전달하기 위해 이물질 회수 요청을 했으나 보내줄 수 없다고 했다”고 밝혔다. 이어 “처음 ‘와서 이물질을 보고 가라’ ‘와서 재발하지 않겠다는 각서를 쓰고 가라’는 요구를 했다”고 덧붙였다. 또 “보상을 물으시길래 적립금 1만원을 안내해드리자 ‘3분의 1을 먹었는데 그것밖에 안되냐’ 등의 말씀을 하셨다”며 “노씨가 ‘언론사에 제보하겠다’ ‘내가 1만원을 받으려고 이러는 것 같냐’ 등의 말도 했다. 모두 녹취가 돼 있어 확인 가능한 부분”이라고 했다. 그러면서 “적립금 1만원은 팀장 직권으로 나갈 수 있는 최대치이며, 병원에 가야할 경우 실비 처리까지 해드리는 게 우리의 1차 보상”이라고 설명했다. 그러면서 “이 보상은 문제 상황시 최초의 대응이고 이물질 수거 후 공급사와 협의해 2차 배상을 충분히 받을 수 있다는 걸 안내하려고 했으나 연락두절 상태”라며 “처음 2번 통화를 한 뒤부터는 (노씨가) 아예 전화 수신을 거부하고 있다”고 했다. 노씨가 6시간 동안 마켓컬리 측과 실랑이를 벌였다고 했으나 이 같은 주장은 거짓이라는 것이다. 이 관계자는 “경중을 떠나서 어떤 것이든 문제가 발생하면 품절 처리를 하고 판매 중단 조치를 취한다”며 “당연히 어떻게든 배상을 해드려야 한다는 입장인데, 연락을 일방적으로 받지 않아 후속조치를 해 줄수도 없는 상황”이라며 답답해했다. 문지연 기자 jymoon@kmib.co.kr GoodNews paper ⓒ , 무단전재 및 재배포금지</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>삼성 스마트폰, 日서 6년만에 최고 점유율...'갤럭시S10' 인기</t>
-        </is>
+      <c r="A22" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[한국경제TV 이영호 기자] 삼성전자가 올해 2분기 갤럭시S10 시리즈 선전에 힘입어 일본 스마트폰 시장에서 6년 만에 가장 높은 점유율을 기록했다. 시장조사업체 스트래티지 애널리틱스(SA)에 따르면 삼성전자는 2분기 일본 스마트폰 시장에서 60만대를 출하해 점유율 9.8%를 기록했다. 애플(50.8%)에 이은 2위였다. 작년 동기 점유율이 애플 45.6%, 삼성전자 8.8%이었던 것과 비교해서 모두 소폭 올랐다. 애플과 삼성전자에 이어서는 샤프(7.2%), 소니(7.0%) 등 일본 기업이 3∼4위를 차지했다. 샤프는 작년 동기(5.1%) 대비 2.1%포인트 올랐고, 소니는 10.3%에서 3.3%포인트 줄었다. 중국 화웨이는 작년 동기 5.9%(4위)에서 올해 2분기 3.3%(5위)로 점유율이 절반 가까이 하락했다. 삼성전자가 10%에 육박한 점유율을 낸 것은 6년만에 최고치다. 삼성전자는 2013년 중반 일본 스마트폰 시장에서 10% 넘는 점유율을 유지하다 애플과 일본 브랜드에 밀려 2014년 5.6%, 2015년 4.3%, 2016년 3.4%로 점유율이 하락했다. 2017년부터 반등을 시작해 5.2%, 2018년 6.4%로 점유율이 오르는 추세다. 2분기 좋은 성적은 상반기 출시한 플래그십 모델 갤럭시S10 시리즈가 일본에서 인기를 끈 덕으로 보인다. 삼성전자는 지난 3월 전 세계 갤럭시 쇼케이스 가운데 최대 규모인 '갤럭시 하라주쿠'를 개관하면서 현지 스마트폰 시장 공략을 본격화했다. 5G 서비스가 처음으로 본격 적용되는 '2020 도쿄 올림픽'을 앞두고 일본 내 5G 네트워크 사업 확대를 위한 기반을 조성하는 동시에 갤럭시 스마트폰 시장점유율 반등의 계기를 마련한다는 전략이다. 삼성전자는 7월에는 2020 도쿄 올림픽을 기념해 갤럭시S10 플러스 올림픽 에디션을 일본에 출시했다. 이영호기자 hoya@wowtv.co.kr ▶ ▶ ⓒ 한국경제TV, 무단 전재 및 재배포 금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933755&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>"군인 휴대폰 사용시간 줄여달라" 강원 주민 호소한 이유</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>강원도 군 접경지역 주민들이 도내 군장병 휴대전화 사용시간을 대폭 줄여달라 요구했다. 국방개혁 2.0 군부대 개편으로 이어진 지역 상권 침체 대책마련의 일환이다. 강원도민일보에 따르면 최문순 강원도지사는 지난 28일 평화지역 외식·숙박업·민박업 대표자와 간담회를 갖고 건의사항을 들었다. 간담회에서는 강원지역 군 부대 축소, 이전이 가속화하며 이어지고 있는 지역 상권 붕괴 대책 방안을 논의했다. 간담회에서 주민들은 첫 번째로 군 장병의 휴대전화 사용 시간을 1일 1~2시간으로 조정하고, 2개월에 한 번씩 관할지역 내 특별외박을 허용해달라고 요구했다. 지난 4월부터 국방부가 시범 허용한 군장병의 휴대전화 사용이 면회객들의 방문 하락으로 이어져 지역 경제에 타격을 입고 있다는 설명이다. 현재 군장병은 평일 오후 6시~밤 10시, 휴무일은 오전 7시~밤 10시까지 휴대전화 사용이 가능하다. 주민들은 "군장병들이 가족 등과 영상통화를 하게 되면서 면회객들의 발길이 끊겨 매출이 40% 이상 급감했다"며 어려움을 호소했다. 아울러 신병교육대 퇴소식 외출 시간 연장과 함께 군부대 복지회관 운영을 폐지해달라고도 당부했다. 또 DMZ를 활용한 관광프로그램 개발, 파로호 상설 유람선 운영, 생태계자원관광지 조성 등을 건의했다. 이에 최 지사는 "각 건의사업에 대해 내년 예산 편성이 가능하도록 할 것이며, 휴대폰 사용시간 조정 등 국방부 정책 변경 요구건은 국방부와 협의하겠다"고 밝혔다. 강원도에 따르면 국방개혁 2.0정책에 따른 부대 축소 이전으로 강원 지역 상권 피해가 우려되고 있다. 군부대 개편에 따라 강원도 전방 지역 가운데 화천·양구는 2개 사단이 해체되고 철원의 1개 사단은 경기도로 이전한다. 특히 철원·화천·양구·인제·고성 지역에는 주민 15만 5185명이 거주 중이며 군장병 10만 5095명이 주둔 중이다. 인구의 67.7%를 군이 차지해왔다. 강원지역 부대 해체, 축소가 이들 지역의 상권 붕괴로 직결될 수 있다는 전망이다. 반면 주민들은 정부가 군부대 개편으로 인한 주민 피해 최소화에 미온적이라고 반발하고 있다. 이민정 기자 lee.minjung2@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>삼성디스플레이, QD-OLED 신공정에 국산 장비 도입 검토</t>
-        </is>
+      <c r="A23" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>삼성디스플레이가 차세대 대형 디스플레이 기술인 '퀀텀닷-유기발광다이오드(QD-OLED)' 투자를 앞두고 해외 기업이 독점한 핵심 전공정 공급망을 이원화하기 위해 고심하고 있다. 일본 비중이 절대적인 증착기와 미국이 독점한 무기물 형성 박막봉지 공정에 모두 국내 장비사를 참여시키는 방안을 검토하고 있다. 투자를 공식 결정하고 파일럿 라인을 조성한 뒤 양산 투자로 이어질 때 실제 공급망에 어떤 변화가 있을지 업계 기대가 모아진다. 26일 업계에 따르면 삼성디스플레이는 QD-OLED 파일럿 라인 투자를 준비하면서 해외 장비사가 독점한 일부 장비 공급망에 국내 기업을 참여시키는 방안을 모색하고 있다. 우선 일본에 100% 의존하는 증착기는 국내 장비기업 야스와 물밑 협업이 오가고 있다. 최근 일본 정부의 수출 규제로 제품을 제 때 수급하지 못할 가능성이 거론되면서 야스와 협력 가능성이 부상했다. 기술 준비 과정에서 혹시 모를 일본발 리스크에 대비하려면 핵심 공정에서 공급망을 이원화하는 전략이 필요하기 때문이다. 야스는 LG디스플레이에 8세대 OLED 증착기를 납품하는 핵심 협력사이지만 삼성디스플레이와도 협력할 수 있는 가능성을 열게 됐다. 주 고객사인 LG디스플레이가 경쟁사라도 전향적으로 협업을 장려하는 방침을 세웠기 때문이다. 삼성디스플레이는 6세대 OLED 양산에 일본 캐논도키 증착기를 사용한다. 증착기 핵심인 소스 기술은 삼성이 자체 보유했지만 소스를 제외한 증착기는 캐논도키에서 들여왔다. 캐논도키는 세계 중소형 OLED 증착기 시장에서 입지가 독보적이다. 삼성디스플레이는 6세대에 이어 8세대에서도 캐논도키와 협력하고 있다. QD-OLED에 적합한 증착기를 확보하기 위해 캐논도키에 개발을 의뢰했고 일본 현지에서 기술개발과 시제품 장비 제작이 이뤄지고 있다고 파악된다. LG디스플레이는 지난해부터 핵심 협력사를 대상으로 고객사 확대를 주문했다. 중국은 물론 주 경쟁사인 삼성디스플레이도 고객사로 확보해 매출을 다변화하고 규모의 경제를 실현해 생존 체력을 길러야 한다는 취지의 당부를 했다. 자사와 공동 개발했거나 민감한 세부 기술이 아니라면 굳이 제동을 걸 이유가 없다는 입장이다. LG디스플레이 관계자는 “디스플레이 업황이 어려워져 장비 회사가 고객사를 다변화해야만 생존할 수 있게 됐다”며 “LGD 협력사가 경쟁사에서 실력을 인정받고 우리도 기술력 있는 경쟁사 장비를 사용할 수 있어야 패널사와 장비기업 모두 윈윈하는 길”이라고 설명했다. 경쟁사의 핵심 협력사와 협업하는 것은 업계에서 암묵적으로 형성된 '협력사 교차 구매 금지'라는 높은 울타리를 깨는 것이어서 업계 관심이 크다. 최근 반도체와 디스플레이 시장에서 이 관행을 깨는 사례가 소수 생겨나고 있지만 아직 쉬쉬하는 경향이 크다. 유기물 봉지공정에서 무기막을 형성하는데 쓰이는 화학기상증착(CVD) 장비는 원익IPS가 진입할 가능성이 거론되고 있다. 이 공정은 미국 어플라이드머티어리얼즈가 독점한 분야다. 원익IPS는 반도체·디스플레이 공정에 쓰이는 다양한 기능의 CVD 장비를 공급하는 회사다. 유독 디스플레이 봉지공정에서 어플라이드 장벽을 넘지 못했다. 봉지는 유기물을 수분·공기와 닿지 못하게 얇은 막을 여러번 형성해 씌우는 공정이다. 플렉시블 OLED는 기판이 딱딱한 유리가 아닌 유연한 필름 소재를 사용하므로 봉지공정이 더 까다로워진다. 자칫 봉지막이 손상되면 패널 전체 성능에 악영향을 미치므로 상당한 수준의 기술이 요구된다. 어플라이드가 이 분야에서 강력한 기술 입지를 확보한 만큼 새로운 공급사가 진입하는게 쉽지 않았다. 업계 한 관계자는 “발주사인 삼성디스플레이도 어플라이드 눈치를 볼 수밖에 없을 정도로 공급망 다변화가 민감한 공정”이라며 “원익IPS가 아직 요구 성능을 완전히 충족하진 못했지만 양산 투자 시 진입을 목표로 기술개발에 공을 들이고 있다”고 전했다. 배옥진 디스플레이 전문기자 withok@etnews.com [Copyright ⓒ 전자신문 &amp;amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=437&amp;aid=0000218609&amp;date=20190830&amp;type=2&amp;rankingSectionId=102&amp;rankingSeq=22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>법사위 증인 합의 못 해…'조국 청문회' 무산 가능성</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 [앵커] 국회가 조국 법무부 장관 후보자에 대한 인사청문계획서를 끝내 채택하지 못했습니다. 조 후보자의 가족을 증인으로 불러야 한다는 자유한국당과 그렇게 할 수 없다는 더불어민주당이 입장 차이를 좁히지 못했습니다. 이에 따라 9월 2일과 3일 이틀 동안 진행할 예정이던 청문회 자체가 무산될 수 있다는 관측도 나옵니다. 유선의 기자가 보도합니다. [기자] 한국당은 조국 후보자 가족의 출석 없이는 청문회를 열 수 없다고 했습니다. [김도읍/법사위 자유한국당 간사 (어제) : 야당이 주장하는 증인들이 제대로 수용이 된다면 안건 조정이고 뭐고 할 이유가 없거든요.] 민주당은 가족을 증인으로 부르는 건 반인륜적이라고 맞서면서 앞서 합의한 일정대로 청문회를 해야한다고 주장했습니다. [송기헌/법사위 더불어민주당 간사 (어제) : (내일까지 논의를 한다는 말씀이신 거죠) 기한? 기한은 논의 대상이 아니죠, 그건 합의한 건데.] 국회가 증인에게 청문회 닷새 전까지 하게 돼있는 출석 고지도 아직 못했기 때문에, 다음달 2~3일 청문회는 사실상 무산된 것 아니냐는 전망도 나옵니다. 방법은 두 가지가 있습니다. 다음 달 2~3일 증인없이 청문회를 열거나 청문회를 미루는 것입니다. 실제로 한국당 일각에서는 청문회를 미뤄야 한다는 주장이 나왔습니다. 여야는 오늘(30일) 안건조정위를 통해 증인의 범위를 논의하기로 했지만 민주당은 증인과 관계없이 정해진 일정을 지켜야 한다는 입장이어서 합의는 쉽지 않아 보입니다. 여야가 청문회 일정을 미루기로 전격 합의한다고 해도 청와대가 이를 수용할지는 알 수 없습니다. 조 후보자의 청문회 법정 기한은 원래 오늘까지였는데, 국회가 다음 달 2~3일로 한 번 미룬 것을 또다시 미루는 것은 받아들이기 어렵다는 목소리도 일각에서 나오는 것으로 알려졌습니다. 유선의 기자 (yoo.seonui@jtbc.co.kr) [영상취재: 박세준 / 영상편집: 지윤정] Copyright by JTBC(http://jtbc.joins.com) and JTBC Content Hub Co., Ltd. All Rights Reserved. 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>삼성, '애플천하' 日 점유율 10%…2013년 이후 최고</t>
-        </is>
+      <c r="A24" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2분기 일본 스마트폰 시장에서 60만대 판매 애플 50%로 압도적 1위지만 현지 업체 모두 제쳐 단 한일 갈등 본격화하기 직전 성적 일본서 아직 출시되지 않은 갤노트10 불매 목소리도 [아시아경제 임온유 기자] 삼성전자가 '애플 천하' 일본 스마트폰 시장에서 갤럭시S10 흥행에 힘입어 6년 만에 가장 높은 점유율을 기록했다. 단 한·일 갈등이 본격화하기 직전인 2분기 성적표다. 26일 시장조사업체 스트래티지 애널리틱스(SA)에 따르면 삼성전자는 지난 2분기 일본에서 스마트폰 60만대를 판매해 점유율 9.8%로 2위에 올랐다. 삼성전자가 10%에 육박하는 점유율을 기록한 것은 2013년 이후 처음이다. 삼성전자는 2013년 일본 스마트폰 시장에서 10% 넘는 점유율을 유지하다 애플과 일본 브랜드에 밀려 2014년 5.6%, 2015년 4.3%, 2016년 3.4%의 점유율로 하락했다. 2017년부터 반등을 시작해 5.2%, 2018년 6.4%로 점유율이 오르는 추세다. 삼성전자의 2분기 우수한 성적표는 갤럭시S10과 중가폰 흥행에 힘입은 것으로 분석된다. 삼성전자는 지난 3월 전 세계 갤럭시 쇼케이스 가운데 최대 규모인 '갤럭시 하라주쿠'를 개관하고 일본 스마트폰 시장 공략을 본격화했다. 5G 서비스가 처음으로 본격 적용되는 '2020 도쿄 올림픽'을 앞두고 일본 내 5G 네트워크 사업 확대를 위한 기반을 조성하는 동시에 스마트폰 시장에서 반전을 일궈낸다는 전략이다. 지난달에는 일본에서 2020 도쿄 올림픽을 기념해 갤럭시S10 플러스 올림픽 에디션을 출시하기도 했다. 다만 2분기는 한·일 갈등이 본격화하기 직전의 시기다. 지난달 아베 신조 일본 총리가 한국에 대한 경제 보복을 시작하면서 양국 관계는 악화일로를 걷고 있다. 한국에서 유니클로, ABC마트 등 일본 브랜드 불매 운동이 격렬하게 벌어지는 가운데 일본에서도 삼성전자를 비롯한 한국 브랜드 불매 운동이 벌어지고 있다. 야후재팬 등 대표 포털 사이트에서는 아직 일본에서 출시되지 않은 갤럭시노트10을 사지 말아야 한다는 목소리까지 나오는 추세다. 이에 3분기 삼성전자의 일본 내 점유율이 변화할 가능성이 제기된다. 임온유 기자 ioy@asiae.co.kr &amp;lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&amp;gt;</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933654&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>유시민·문준용 이어 이재명도 "조국 사태, 마녀사냥에 가까워"</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>이재명 경기도지사가 조국 법무부 장관 후보자를 둘러싼 논란과 관련해 “현 상황은 비이성의 극치인 마녀사냥에 가깝다”고 표현했다. 이 지사는 30일 오전 개인 페이스북에 ‘마녀사냥 그만…정해진 규칙대로 해야 합니다’라는 제목의 글을 올려 “당사자의 소명이 결여된 비판은 많은 경우 실체적 진실과 어긋난다. 이해관계가 개입되면 더 그렇다. 그래서 삼인성호(三人成虎, 세 사람이면 없던 호랑이도 만든다는 뜻)라는 말도 생겼다”며 “일방적 공격을 가해 놓고 반론 기회조차 박탈하는 것은 옳지 않다”고 의견을 냈다. 또 “청문 절차에서 묻는 것은 질의자의 권한이지만 답하는 것도 후보자의 권리다. 무엇보다 청문회의 공방을 통해 양쪽 주장을 모두 들어보는 것은 국민의 권리”라며 “청문회를 해야 할 또 하나의 이유는 그것이 우리가 합의한 규칙이기 때문”이라고 덧붙였다. “잘못이 있더라도 은폐하고 두루뭉술 넘어가자는 것이 아니다. 고발하면 수사해야 하니 수사개시가 청문 거부 사유가 될 수는 없다. 수사는 수사기관에 맡기고 법에서 정한 대로 청문회를 열어 질의자는 충분히 묻고 후보자에게는 해명 기회를 준 후 판단은 국민이 하게 해야 한다”라고도 했다. 이 지사는 “공평함은 공동체 유지를 위한 최고의 가치”라며 “누구든 마녀사냥의 대상이 되어서는 안 되며 합의된 규칙은 반드시 지켜져야 한다”고 글을 마무리했다. 이 지사는 이제까지 조 후보 논란과 관련해 말을 아껴왔다. 경기도 고위 관계자는 “국민이 이 문제와 관련해 의견이 팽팽한 데다 지사 지지자들 역시 극명하게 갈리는 상황에서 단체장으로서 의견을 내기 어려웠을 것”이라고 분위기를 전했었다. 이 관계자는 30일 이 지사가 페이스북에 올린 글과 관련, “최근 많이들 물어봤다”며 “국론이 분열되고 가짜뉴스라든지 청문회 전에 검증되지 않은 사실이 만연하니 원칙적으로 청문회의 근본 원칙에 입각해 지켜보자는 원론적 이야기를 쓴 것”이라고 말했다. 최은경 기자 choi.eunkyung@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>티슈진, 상장폐지 결정...인보사사태 장기전 돌입</t>
-        </is>
+      <c r="A25" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>거래소 "인보사 성분 허위 기재에 품목 취소" 인정 티슈진 이의신청땐 한차례 더 심의...사실상 3심제 이달중 FDA에 임상 재개 위한 서류제출 총력전 [서울경제] 성분이 뒤바뀐 유전자 치료제 ‘인보사케이주(이하 인보사)’ 사태로 최대 위기에 내몰린 코오롱티슈진이 결국 한국거래소로부터 상장폐지 통보를 받았다. 하지만 최종 상장폐지까지는 최대 2년 이상이 소요되는 만큼 인보사 사태는 사실상 장기전에 돌입했다는 분석이 업계에서 나온다. 이 기간 코오롱 측은 미국 임상3상 재개를 위해 총력전을 펼칠 것으로 전망된다. 한국거래소 코스닥시장본부는 26일 기업심사위원회 심의 결과 코오롱티슈진의 주권 상장폐지를 결정했다고 공시했다. 거래소는 이후 15영업일 이내에 코스닥시장위원회를 열어 코오롱티슈진의 상장폐지 여부를 재차 심의·의결하게 된다. 코오롱티슈진이 예상대로 상장 폐지의 수순을 걷게 됐음에도 인보사 사태가 장기화될 것이라는 전망은 최종 결정까지는 2년이 소요되는 데다 이 기간 동안 코오롱측이 마지막 카드로 내세우는 미국 임상 3상 재개와 식약처와 벌이게 될 품목허가 취소 행정소송에 총력적을 펼칠 수 있기 때문이다. 앞서 인보사는 지난 2017년 1액(동종유래 연골세포)과 2액(TGF-β1 유전자삽입 동종유래 연골세포)으로 시판허가를 받았지만 2액의 성분이 알려진 것과 다르다는 사실이 밝혀져 올 7월 식품의약품안전처로부터 최종 품목허가 취소 처분을 받았다. 이에 거래소는 지난달 5일 티슈진 측이 제출한 서류의 내용 중 중요한 사항이 허위기재 또는 누락됐는지를 살펴보기 위해 상장적격성 실질심사 대상으로 정했다. 티슈진은 5월28일부터 주권매매거래가 정지된 상태다. 업계에서는 티슈진이 기술특례상장 형태가 아닌 외국기업으로 상장한 만큼 상장폐지가 불가피했을 것으로 판단하고 있다. 현행 코스닥 상장규정상 4년 연속 영업적자를 기록하면 ‘장기영업손실’ 규정에 따라 관리종목으로 지정된다. 이후 1년 더 영업적자가 나면 상장폐지 실질심사대상이 된다. 기술심사 특례요건으로 상장하면 5년간 장기영업손실 규정 적용이 면제되지만, 티슈진은 해외기업으로 기술심사 특례요건에 해당하지 않았다. 티슈진은 지난 2017년 454억원, 2018년 340억원의 영업적자를 기록했고, 지난 1분기 역시 114억원 영업적자가 났다. 인보사의 판매 혹은 수출 금액의 2%를 매출로 받게 되는 구조상 티슈진이 올해와 내년 매출을 올릴 수 있는 방법은 사실상 전무하다. 거래소가 기심위 심사결과 티슈진이 상장폐지에 해당한다고 판정한 만큼 코오롱은 최악의 시나리오에 직면했다. 이는 거래소가 티슈진이 성분 변경 등 중요사항을 허위로 기재했다는 식약처의 품목허가 취소 처분을 인정했다는 의미다. 물론 거래소가 이번에 상장폐지라고 결론을 내린다고 해도 곧장 상장폐지가 확정되는 것은 아니다. 다시 코스닥시장위원회를 열어 티슈진의 상장폐지 여부를 심의·의결해야 하기 때문이다. 또 코스닥시장위원회에서 상장폐지 결정이 나더라도 티슈진 측이 이의신청을 하면 한 차례 더 심의를 벌이게 된다. 사실상 3심제를 적용하는 만큼 최종적으로 상장폐지가 결정되기까지는 최대 2년 이상의 시간이 소요될 것으로 전망된다. 티슈진 관계자는 “코스닥시장위 결정 이후 회사 측에서 이의신청을 하면 한 차례 더 심의를 하는 것으로 알고 있다”고 말했다. 코오롱 측은 거래소의 상장폐지 결과에도 마지막 남은 카드인 미국 임상3상 재개에 사활을 걸 것으로 보인다. 인보사의 미국 임상3상 재개 여부가 티슈진의 명운을 가를 핵심변수이기 때문이다. 만약 미국에서 임상이 재개된다면 거래소가 상장폐지를 결정하더라도 추후 심사에 긍정적인 영향을 미칠 수 있다는 판단에서다. 티슈진에 따르면 회사는 이달 중 미국 식품의약국(FDA)에 인보사의 임상3상 재개를 위한 서류를 제출할 예정이다. 티슈진 관계자는 “최대한 이른 시일 내에 서류를 제출할 계획”이라며 “이달 안에 FDA에 서류를 낼 것”이라고 말했다. 다음 문제는 자금력이다. 업계에서는 미국 FDA가 설사 임상 재개를 승인하더라도 코오롱 측이 받게 될 자금 부담은 상당할 것이라는 관측이 나온다. 코오롱 측은 티슈진으로 유입되는 자금으로 미 임상을 진행하기 위해 2017년 11월 티슈진을 코스닥에 상장했다. 지난해 11월부터 시작됐다. 현재 중단된 1,000명 규모의 미 임상3상에서 실제로 인보사를 투여한 환자는 10명가량으로 알려졌다. 통상 임상 과정에서 대상자 1인당 1억원이 소요되는 것을 고려하면 코오롱 측은 상장폐지 심사 기간에 1,000억원 이상의 자금을 별도로 마련해야 한다. 금융감독원에 따르면 티슈진의 누적 손실액은 2016년 645억원이었다가 2017년 인보사의 개발비용이 늘면서 1,116억원으로 두 배 가까이 껑충 뛴 후 지난해 말 1,492억원까지 증가했다. 아울러 진행 중인 검찰 수사와 행정소송 결과도 변수가 될 수 있다. 앞서 서울행정법원은 13일 코오롱생명과학이 식약처를 상대로 낸 인보사의 허가취소 처분 집행정치 가처분 신청을 기각한 바 있다. 검찰은 코오롱 측이 성분이 바뀐 것을 알고도 인보사를 판매하고 티슈진을 상장한 의혹 등을 조사하기 위해 코오롱 본사 등에 대해 압수수색을 벌였지만 아직 수사 결과는 나오지 않았다. 업계 관계자는 “티슈진은 한때 시가총액이 4조원까지 갔던 제약바이오주의 상징과도 같은 종목이었다”며 “거래소가 어떤 심사 결과를 내놓더라도 코오롱 측은 인보사의 임상3상 재개를 위해 사력을 다할 수밖에 없을 것”이라고 말했다. /박홍용기자 prodigy@sedaily.com | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=437&amp;aid=0000218578&amp;date=20190830&amp;type=2&amp;rankingSectionId=102&amp;rankingSeq=24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>공항 주차대행 뒤 멀쩡한 차 고장? 블랙박스 열어봤더니…</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 [앵커] 여행을 갈 때 인천공항에서 주차를 맡겼다가 멀쩡한 차가 고장나거나 파손되는 피해가 잇따르고 있습니다. 대행업체가 명백하게 잘못을 했다는 것이 블랙박스 영상에 남아 있는데도, 보상받지 못하는 일도 있습니다. 박민규 기자가 취재했습니다. [기자] 한 남성이 차량 앞부분에 무언가를 칠합니다. 보닛을 열고 여기저기 살펴봅니다. 한 주차 대행 업체의 직원이 차를 수리하는 모습이 찍힌 블랙박스 영상입니다. 차 주인은 지난달 필리핀 여행을 간 연모 씨. 인천공항에서 주차를 맡기고 떠났고, 돌아온 뒤 뒤늦게 사고가 난 것을 알았습니다. [연모 씨/인천 신흥동 : 워셔액을 보충하려고 하는데 밑에서 다 새더라고요. (차 밑으로요?) 네, 차 밑으로 완전 콸콸…] 곧장 주차 대행 업체에 연락했는데, 황당한 답을 들었습니다. [연모 씨/인천 신흥동 : '사고가 난 게 아니라 살짝 긁혀서 그냥 뭐 칠했다' 제가 기분이 나쁠까 봐 얘기를 안 했다고…] 수리비 견적은 197만 원. 업체는 한 푼도 주지 않고 버티고 있습니다. 인천공항에서 7km 정도 떨어진 공터입니다. 사설 주차대행 업체가 주차장으로 쓰고 있는 곳인데요. 이 차량은 앞부분이 심하게 부서졌습니다. 역시 지난 여름 주차를 맡겼다가 사고가 난 것입니다. [전모 씨/세종시 고운동 : 청천벽력 같은 소식이죠. (업체가) 보험이 안 들어져 있어서 보험 처리가 안 됐고요. 아마 과속을 한 것처럼 보이고요.] 한 대행 업체가 몰고가는 차량을 따라가봤습니다. 속도를 내도 쫓을 수가 없습니다. [여기가 원래60km인 거예요, (속도) 제한이? 따라가기가 힘들구나.] 인천공항 주차 대행 업체는 약 70곳. 하지만 두 곳 빼고는 정식 계약이 안 된 채 불법 영업합니다. [권형문/인천국제공항경찰단 112종합상황실장 : 현행범으로 체포된 사례도 있습니다. 피해 사례가 있으면 적극적으로 신고를 해 주시면…] 인천공항이 단속한 건수가 올해만 1만 건 정도입니다. 하지만 범칙금은 8만 원, 정식 입건돼도 형사 처벌은 최대 벌금 20만 원이다보니 이런 일은 반복되고 있습니다. 박민규 기자 (park.minkyu1@jtbc.co.kr) [영상취재: 유규열,이경 / 영상편집: 이화영] Copyright by JTBC(http://jtbc.joins.com) and JTBC Content Hub Co., Ltd. All Rights Reserved. 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>7월 일본여행 얼마나 안 갔나···"로밍 신청 5만명 급감"</t>
-        </is>
+      <c r="A26" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>통신3사 일본 로밍 이용자 수 따져봤더니 인천국제공항 제1여객터미널 일본행 탑승수속 카운터가 한산한 모습을 보이는 반면 동남아행 탑승수속 카운터는 붐비고 있다./영종도=오승현기자 [서울경제] 지난 7월 일본의 수출 규제 이후 일본 제품 불매 운동이 국내에서 퍼지는 가운데, ‘일본 여행객이 얼마나 줄었나’에 대해서도 사람들의 관심이 많다. 지난달 통신 3사의 일본 로밍 신청자 수를 따져 봤더니 작년 같은 기간보다 14.5%(5만 1,231명) 감소한 것으로 집계됐다. 26일 국회 과학기술정보방송통신위원회 노웅래 위원장(더불어민주당)이 과학기술정보통신부로부터 제출받은 자료에 따르면 지난달 통신 3사의 일본 로밍 신청자는 30만1,285명으로 작년 같은 기간 35만2,516명보다 14.5%(5만1,231명) 줄었다. 이는 전달 일본 로밍 이용자 수(33만2,251명)에 비해서도 7.9%(2만8,422명) 적은 수치다. ‘일본 여행 안 가요’ 운동 여파로 7월 일본 휴대전화 로밍 이용자가 급감한 것으로 풀이된다. 1~7월 일본 로밍 이용자 수도 231만279명으로 작년 같은 기간보다 11.6%(30만3,860명) 줄었다. 지난달 일본 로밍 이용자 수 감소율은 일본을 방문한 한국인 여행자 수 감소율( 7.6%)의 1.91배다. 불매 운동의 여파로 일본 여행자 수가 양적으로 줄었을 뿐만 아니라 방문 기간이 단축되는 등 질적인 차원에서도 변화가 이뤄지고 있다는 해석도 나온다. 노웅래 위원장은 “일본 경제침략에 대응하는 국민적 차원의 자발적 불매운동이 지속되고 있다”며 “과거와는 분명히 다른 양상으로 장기화할 가능성이 크다고 본다”고 말했다. 고노 일본 외무상 / 연합뉴스 /강신우기자 seen@sedaily.com | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011050081&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>의사협회, 조국 딸 논문 '자진철회 촉구' 기자회견 돌연 취소</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>회원들 '조사 공정성에 영향' 우려에 보류…의협 윤리위 조사 진행 중 (서울=연합뉴스) 강애란 기자 = 대한의사협회가 조국(54) 법무부 장관 후보자의 딸 조모(28)씨가 고등학생 당시 제1 저자로 이름을 올린 의학논문의 자진 철회를 촉구하는 기자회견을 돌연 취소했다. 의협은 30일 정오로 예정됐던 '연구윤리 위반 의혹 교수 논문 자진 철회 촉구' 긴급기자회견을' 3시간 전에 취소했다. 의협은 전날 이 논문 책임저자인 장영표 단국의대 교수에게 논문 자진 철회를 촉구하기로 했었다. 의협 관계자는 "그동안 회원들로부터 이번 사태로 의료계 신뢰가 무너졌다는 원성이 끊이지 않았다"며 "빠른 사태 수습을 위해 장 교수에게 논문 자진철회를 촉구하려고 했다"고 말했다. 이어 "하지만 기자회견 결정 이후 일부 회원들 사이에서 자진철회 촉구가 관련 의혹 조사의 공정성에 영향을 미칠 수 있다는 우려가 제기됐다"며 "워낙 예민한 사안이다 보니 내부 논의 끝에 기자회견을 보류하기로 했다"고 말했다. 의협은 앞서 논문에 조씨가 제1저자로 등재된 배경에 의혹이 있다며 장 교수를 중앙윤리위원회 징계 심의에 회부했다. 윤리위는 24일 해당 안건 심의를 시작했지만, 아직 결론을 내리지 않았다. 조씨는 단국대 의과학연구소의 2주간 인턴십 프로그램에 참여한 뒤 2008년 12월 대한병리학회에 제출된 영어 논문에 제1 저자로 이름을 올렸다. '출산 전후 허혈성 저산소뇌병증(HIE)에서 혈관내피 산화질소 합성효소 유전자의 다형성'이라는 제목의 이 논문은 이듬해 3월 국내 학회지에 정식 등재됐다. aeran@yna.co.kr</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>화성서 발견된 돌 ‘롤링스톤스’로 명명…아이언맨·믹 재거 감격</t>
-        </is>
+      <c r="A27" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[서울신문 나우뉴스] 화성서 발견된 돌과 롤링스톤스 무대에 올라 연설 중인 로버트 다우니 주니어. 사진=AP 연합뉴스 골프공보다 약간 큰 화성의 돌에 전설적인 록그룹 롤링스톤스(The Rolling Stones)의 이름을 따 '롤링스톤스'(Rolling Stones Rock)라는 재미있는 이름이 붙었다. 특히 롤링스톤스라는 이름을 명명하는 이벤트를 '아이언맨' 로버트 다우니 주니어가 맡아 큰 화제가 됐다. 공연 중인 롤링스톤스. 사진=AP 연합뉴스 지난 23일(현지시간) AP통신 등 외신은 전날인 22일 캘리포니아주 패서디나 로즈볼 스타디움에서 열린 롤링스톤스의 특별공연에서 롤링스톤스 명명식이 열렸다고 보도했다. 이 돌은 지난해 화성 탐사선 인사이트에 의해 처음 발견된 화성의 암석이다. 흥미로운 점은 인사이트의 자체 추진력 때문에 약 1m 정도 굴러갔다는 점. 이같은 이유로 말 그대로 화성의 돌은 롤링스톤이 됐다. 로버트 다우니 주니어와 인사이트 미션 담당 과학자들 이날 특별공연 무대에 등장한 다우니 주니어는 "과학과 전설적인 록밴드의 만남은 항상 좋은 일"이라면서 "이 이름을 공식화하는 데 이미 6만 명이나 찬성 투표했다”며 너스레를 떨었다. 롤링스톤스 명명에 가장 감격한 사람은 역시 리더 믹 재거(76)였다. 그는 "이번 투어를 축하하는 가장 멋진 방법"이라면서 "이는 우리 밴드의 길고 파란만장한 역사에서도 획기적인 사건으로 미 항공우주국(NASA)의 모든 분들께 감사드린다"며 기뻐했다. NASA 제트추진연구소 지질학자 맷 골롬벡은 “그간 수많은 다른 행성의 암석을 봐왔지만, 이번에 명명된 암석은 어떤 과학 논문에도 존재하지 않는 특별하고 가장 차가운 암석”이라며 의미를 부여했다.　　 지난해 12월 공개된 인사이트의 첫번째 셀카. 사진=NASA/JPL-Caltech 한편 지난해 11월 26일 화성 적도 인근 엘리시움 평원(Elysium Planitia)에 무사히 착륙해 탐사를 이어가고 있는 인사이트는 기존 화성 탐사로봇과는 다르다. 이제까지의 탐사로봇들이 주로 화성 지표면에서 생명의 흔적을 찾는 임무를 수행했다면 인사이트는 ‘땅파기’를 통해 화성 내부를 들여다보기 때문이다. 특히 지난 4월 인사이트는 화성 지진(marsquake)일 가능성이 높은 희미한 진동을 처음으로 포착하는데 성공했다. 박종익 기자 pji@seoul.co.kr ★ ▶ ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=028&amp;aid=0002466288&amp;date=20190829&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>오지 말라는데…서울대 촛불집회 불청객 정치인들 ‘눈살’</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>정준길·류여해 참석…현장 발언도 28일 서울대학교 총학생회가 주최한 ‘제2차 조국 교수 스톱(STOP)! 서울대인 촛불집회’에 현직 정당인이 참석해 발언한 사실이 알려져 누리꾼들의 비판을 사고 있다. 특정 정당이나 정치집단 등의 정치색을 띠는 것을 막겠다며 학생증 및 졸업증명서를 통해 참가자들의 신분을 확인하기도 했던 총학생회는 해당 정당인에게 사과를 요구할 계획이다. 총학생회는 이날 집회가 끝난 직후 공식 페이스북에 글을 올려 “오늘 집회의 현장 발언자 중 현직 정당인이 포함된 것을 파악했다”며 “현장 발언의 내용은 총학생회와 조율되지 않았으며 총학생회의 입장과는 무관하다”고 밝혔다. 총학생회는 그러면서 “해당 발언자에게 집회 취지를 위반한 것에 대해 사과를 요구할 계획”이라고 덧붙였다. 해당 발언자는 정준길 전 자유한국당 대변인이다. 서울대 법대를 졸업한 정 전 대변인은 검사 출신으로 박근혜 전 대통령 탄핵 국면 때 자유한국당 대변인을 맡은 바 있다. 지난해 1월까지는 자유한국당 서울특별시당 광진구을 당원협의회 운영위원장을 맡기도 했다. 그는 당의 명예를 훼손시키고 허위사실을 유포하는 등 해당 행위를 했다는 이유로 자유한국당에서 제명당했다가 소송을 통해 당권을 회복했다. 이날 집회 마지막 현장 발언자로 나선 정 전 대변인은 자신을 조국 법무부 장관 후보자로 가정한 뒤 이야기를 이어나갔다. 정 전 대변인은 “내(조국) 주변을 제대로 돌아보지 못해 너무 부끄러워서 이 자리에서 동문 여러분들께 죄송한 마음으로 사죄의 인사를 드리도록 하겠다”며 큰절을 올렸다. 정 전 대변인과 함께 집회를 찾은 류여해 전 자유한국당 최고위원은 외곽에서 이 장면을 유튜브로 생중계했다. 두 사람은 집회가 끝난 뒤에도 현장에 남아 대화를 이어나갔다. 이때 정 대변인은 “학생들이 특정 정당의 주장에 힘을 실어주는 것을 싫어하는 것 같은데 나는 그것에 문제가 있다고 생각한다”고 말했다. 이날 집회에는 두 사람 말고도 ‘김문수TV’, ‘가로세로연구소’, ‘신의한수’ 등 여러 보수 성향 유튜브 채널에서 나와 생중계를 하기도 했다. 누리꾼들은 정치색을 경계하는 서울대 학생들의 취지를 무시한 행태를 비판하고 나섰다. 한 누리꾼은(트위터 아이디 @techla****) “아무리 서울대 법대 선배라도 나설 때와 아닐 때 구분도 못 하나”라고 꼬집었고, “아무리 정치인은 자기 부고 외에는 어떤 뉴스도 좋은 거라지만, 그냥 조용히 구경만 하든가”(트위터 아이디 @ItI6BbHKfKR****)라며 비판하는 누리꾼도 있었다. 이유진 기자 yjlee@hani.co.kr [ⓒ한겨레신문 : 무단전재 및 재배포 금지]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>제주도·남부는 ‘가을장마’…최고 300mm 비</t>
-        </is>
+      <c r="A28" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[앵커] 중부지방은 오늘도 30도 안팎의 늦더위가 계속됐는데요. 제주도와 남부지방은 '가을장마'에 들어가면서 모레까지 최고 300mm의 많은 비가 예보됐습니다. 신방실 기상전문기자가 보도합니다. [리포트] 오늘 새벽, 세찬 빗줄기 속에 호우주의보까지 내려졌던 제주도. 낮 동안 주춤했던 비는 다시 굵어지면서 남해안으로 확대되겠습니다. 내일은 남부 내륙과 충청 남부에도 비가 오겠고 모레까지 제주도에 최고 300 이상, 전남 남해안에도 많게는 100mm의 비가 예보됐습니다. 장마철이 지났는데도 남부에 비가 이어지는 것은 '가을장마', 즉 '2차 장마' 때문입니다. 위성영상을 보면 우리나라 남해상에 동서로 발달한 거대한 구름대가 보입니다. 북서쪽 찬 공기와 남쪽 더운 공기 사이에 또다시 정체전선이 만들어진 건데, 어제 중국에서 소멸한 11호 태풍에서 수증기까지 더해져 비구름의 세력이 강해지고 있습니다. [우진규/기상청 예보분석관 : "앞으로 이 정체전선에 동반된 비구름대는 점차 북상하면서 모레까지 제주도와 남해안을 중심으로 시간당 30mm 이상의 매우 강한 비가 내릴 것으로 예상됩니다."] 여름에서 가을로 계절이 바뀌는 지금 시기엔 찬 공기와 더운 공기의 충돌이 더 강해져 폭이 좁은 비구름이 폭발적으로 발달할 수 있습니다. 제주와 남해안을 중심으로 목요일까지 많은 비가 예보된 만큼 막바지 폭우 피해가 없도록 철저한 대비가 필요합니다. 가을장마를 불러온 정체전선은 다음달 초까지 제주도와 남부지방에 비를 뿌리겠다고 기상청은 내다봤습니다. KBS 뉴스 신방실입니다. 신방실 기자 (weezer@kbs.co.kr)</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=005&amp;aid=0001234461&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>‘고유정 사건’ 피해자 유족, 머리카락 7가닥으로 장례</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>‘고유정 사건’ 피해자 유족 측이 결국 시신 없는 장례를 치렀다. 장례에는 유족 측이 집에서 찾은 강씨의 머리카락 7가닥과 옷가지뿐이었다. 30일 피해자 유족 측에 따르면 고유정의 전 남편인 강모(36)씨에 대한 장례가 제주 시내 한 장례식장에서 27∼29일 진행됐다. 사건 발생 100일이 다 되도록 피해자의 시신을 찾지 못해 장례에는 강씨의 머리카락 7가닥과 옷가지가 시신을 대신했다. 유족은 평소 피해자가 쓰던 모자 5개 전부를 뒤져 머리카락 7가닥을 찾아냈다. 유족 측은 “시신을 찾기 전까진 장례를 치르지 않으려고 했지만, 9월 1일이면 사건 발생 100일째”라며 “49재도 치르지 못한 상황에서 더는 늦추지 못하겠다는 판단에서 장례를 치렀다”고 말했다. 유족들은 장례식 기간 조문객을 맞으며 장례를 치렀다. 박기남 전 제주 동부경찰서장의 후임으로 온 장원석 서장도 조문했다. 장 서장은 유족에게 피해자 시신 수습을 위해 계속 노력을 하겠다고 약속한 것으로 전해졌다. 유족 측은 “뼛조각 하나라도 찾는 게 소원이다. 고씨는 우리 가족 모두를 죽인 거나 다름없다”며 “살인자 고씨가 좋은 변호사를 써서 몇십 년 살다가 가석방되지 않도록 법정최고형인 ‘사형’을 선고해달라”고 호소했다. 경찰은 고유정 사건의 피해자 강씨에 대한 시신 수색 작업을 3개월 넘게 진행하고 있지만, 아직 피해자의 유해는 발견하지 못했다. 앞서 경찰은 경기 김포시 소각장과 인천 서구의 한 재활용업체, 제주시 구좌읍 동복리 제주 환경자원순환센터 등에서 뼈 추정 물체를 발견했지만, 모두 동물 뼈로 확인됐다. 송혜수 객원기자 GoodNews paper ⓒ , 무단전재 및 재배포금지</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>“공인인증서 폐지..29일, 전자서명 신기술 한자리에”</t>
-        </is>
+      <c r="A29" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>과기정통부, 최신 전자서명 우수사례 설명회 개최 금결원(브라우저), 카카오(페이연동), SKT·아이콘루프(블록체인) 등 다양 [이데일리 김현아 기자] ▲행사 참여 신기술 전자서명 서비스 소개(출처: 과기정통부) 과학기술정보통신부(장관 유영민)가 ‘신기술 전자서명 우수사례 설명회’를 29일 오후 2시, 서울 여의도 켄싱턴호텔에서 개최한다. 이 설명회는 정부의 공인인증서 제도 폐지 방침에 따라 현재 적용 중이거나 적용 예정인 다양한 신기술 전자서명 서비스를 일반 국민과 공공·민간기관 관계자에게 소개해 관련 산업을 활성화하기 위해 마련됐다. 생체인증, 블록체인, 클라우드 등 신기술을 활용한 자사의 최신 전자서명서비스의 특장점을 소개할 예정이다. 금융결제원, 카카오, 한국전자인증, 예티소프트, 아톤, 한국정보인증, 위즈베라, SKT, 시큐브, 라온시큐어, 코스콤, 아이콘루프 등 12개 사업자가 참여한다. 주요 발표 내용으로는 △ 금융결제원의 브라우저 및 클라우드 인증서비스와 △ 모바일 메신저 카카오톡 기반의 카카오페이 인증서비스, △ 한국전자인증의 클라우드 전자서명과 브라우저 전자서명, △ 예티소프트의 웹표준(HTML5) 방식 간편인증 및 간편서명 솔루션 등이 있다. 또 △ 국내은행에 적용 중인 아톤의 간편 전자서명 솔루션 △ 블록체인 기술을 적용한 한국정보인증의 온라인 전자계약서비스, △ 의료분야에 적용 예정인 위즈베라의 간편 전자서명서비스, △ SK텔레콤의 블록체인 기술을 활용한 자기주권형 모바일 전자증명서비스가 소개된다. 아울러 △ 시큐브의 생체 수기서명 인증 기반 전자서명, △ 병무청 민원포털에 적용 예정인 라온시큐어의 블록체인 기반 전자서명 △ 코스콤의 공인·사설 통합인증서비스, △ 아이콘루프의 블록체인 기반 디지털 신원확인·전자서명서비스 등 다양한 기술·서비스를 발표하고, 현장에서 직접 체험할 수 있는 부스를 운영할 예정이다. 과기정통부 오용수 정보보호정책관은 “이번 설명회에서 소개되는 다양하고 편리한 전자서명서비스가 국민들에게 많이 알려지고 시장에 확산될 수 있도록 국회 계류 중인 전자서명법 전부개정안의 조속한 통과를 기대한다”면서 “그렇게 되면, 전자서명시장에 기술·서비스 경쟁이 보다 활성화되어 국민들에게 다양한 인증수단 선택권을 제공하는 등 인터넷 이용환경이 크게 개선될 것으로 전망된다”라고 밝혔다. □ 개 요 o (목적) 정부의 전자서명제도 개편방향에 따른 시장의 다양한 신기술 전자서명서비스 우수사례에 대한 대국민 홍보의 장 마련 o (일시·장소) ’19.8.29(목) 14:00~17:30, 여의도 켄싱턴호텔(15층, 180석 규모) o (행사내용) 신기술 전자서명 우수사례(적용예정 포함) 소개 및 시연 o (주최·주관) 과학기술정보통신부·한국인터넷진흥원(후원:한국전자서명포럼) o (참석자) 전자서명 관련 업계, 공공·민간 수요기관, 언론 등 김현아 (chaos@edaily.co.kr) 네이버 홈에서 ‘이데일리’ 뉴스 꿀잼가득 , 청춘뉘우스~ ＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp;amp; 재배포 금지＞</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=081&amp;aid=0003025392&amp;date=20190830&amp;type=0&amp;rankingSectionId=102&amp;rankingSeq=28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>[속보] 고유정 사건 유족측 ‘시신 없는 장례’ 치러</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[서울신문] ‘고유정 사건’ 피해자 유족측이 사건 발생 100일이 다 되도록 시신을 찾지 못해 결국 시신 없이 장례를 치렀다. 30일 피해자 유족 측에 따르면 고유정의 전남편인 강모(36)씨에 대한 장례가 제주 시내 한 장례식장에서 27∼29일 진행됐다. 사건 발생 100일이 다 되도록 피해자의 시신을 찾지 못해 유족측은 집에서 찾은 강씨의 머리카락 7가닥과 옷가지로 장례를 치를 수밖에 없었다. 김유민 기자 planet@seoul.co.kr ▶ ▶ ▶ 공짜로 만화를 볼 수 있다? 당신의 ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>“S와 다른 새 노트”…삼성 고민 묻어 나오는 갤노트10</t>
-        </is>
+      <c r="A30" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>갤럭시노트10 써보니 갤럭시노트10(왼쪽)은 화면을 둘러싼 테두리 두께를 최소화해 갤럭시노트8과 동일한 크기의 디스플레이를 유지하면서도 전체 크기가 훨씬 작아졌다. 맹하경 기자 ‘노트 맞아?’ 지난 23일 국내에 정식 출시된 삼성전자 ‘갤럭시노트10’(일반형ㆍ화면 6.3인치)을 손에 들었을 때 첫 느낌이다. 갤럭시노트 시리즈는 삼성의 프리미엄 대화면 제품군임에도 노트10은 유독 가볍고, 얇았다. 손이 작은 여성도 한 손에 쏙 쥘 수 있어 노트보다 작은 화면의 갤럭시S 시리즈 못지 않은 느낌을 줬다. 동시에 노트에만 있는 S펜은 카메라 등을 원격으로 조종하는 기능을 강화했다. S펜으로 기존 갤럭시S와의 차별점을 부각하면서도 기존 갤럭시노트에선 찾기 힘들었던 얇고 가벼운 디자인에는 전작들과는 다른, 새로운 스마트폰을 보여주려 했던 삼성의 고민이 담겨 있었다. 이번 갤럭시노트10 디자인을 표현하는 한 단어로는 ‘미니멀리즘’이 어울렸다. 디스플레이를 둘러싼 테두리(베젤)를 최소화했고 이어폰을 꽂는 단자도 없앴으며, 본체 오른쪽에 있던 전원 버튼도 왼쪽으로 옮겨 우측에는 버튼을 한 개도 남기지 않았다. 갤럭시노트10 디자인을 총괄한 강윤제 삼성전자 무선사업부 디자인팀장(전무)은 “‘갤럭시노트9’, ‘갤럭시S10’과도 차별화할 수 있도록 불필요한 부분은 극단적으로 다 없앴다”고 밝힌 바 있다. 갤럭시노트10(아래) 해상도가 갤럭시노트8(위)보다 낮아 같은 밝기에도 전체적으로 어둡고 명암 차이도 잘 드러나지 않는다는 것을 알 수 있다. 맹하경 기자 베젤을 최대한 줄인 덕분에 본체 전체 크기는 ‘갤럭시노트8’(6.3인치)보다 훨씬 작아졌지만 꽉 찬 6.3인치 화면은 그대로 유지할 수 있었다. 무게는 168g에 불과해 노트8(195g), 노트9(201gㆍ6.4인치)보다 훨씬 가벼웠다. 다만, 해상도는 많이 아쉬웠다. 중저가 제품군인 ‘갤럭시S10e’와 같은 2,280×1,080 해상도 때문에 기존 노트보다 전체적으로 어둡고 명암이 제대로 구분되지 않았다. 노트10의 S펜은 앞으로 원격 조종 기능이 더 다양해질 수 있다는 가능성을 보여주는 수준이었다. S펜을 쥐고 움직이는 동작을 카메라가 인식해 전ㆍ후면 카메라 전환, 카메라 모드 변경, 줌인ㆍ줌아웃 등이 가능했다. 하지만 손가락 터치 한번이면 되는 일을 S펜을 쥐고, 버튼을 누르고, 동작을 하는 세 단계까지 늘려야 하기 때문에 카메라를 멀리 두고 찍어야 하는 등 특수한 상황이 아니라면 사용성은 제한될 것으로 보인다. 갤럭시노트10의 'AR 두들' 기능으로 사물을 찍고 있는 화면 위에 이미지를 덧입히면 이미지가 해당 사물을 인식해 따라다니는 콘텐츠를 만들 수 있다. 맹하경 기자 S펜을 활용하는 새 기능이자 노트10의 주요 고객층을 알 수 있는 건 단연 ‘AR(증강현실) 두들’이었다. AR 두들은 카메라를 켠 채로 영상이나 사진을 찍으면서 S펜으로 자유롭게 이미지를 덧입힐 수 있는 기능이다. 사람의 얼굴이나 공간을 인식하기 때문에 덧입힌 이미지가 인식한 사람 얼굴, 사물을 쫓아다니게 된다. 나만의 사진, 영상 콘텐츠를 소통의 수단으로 활용하는 밀레니얼 세대를 공략하려는 전략임을 알 수 있다. 기존 갤럭시노트 시리즈 주 사용자가 남성 중·장년층 고객들이었다면 이번 제품에선 밀레니얼 세대와 여성 고객들까지 포섭하려 한다는 게 업계의 분석이다. 이동통신 3사 중 유일하게 붉은 색상을 단독 판매하며 일반형 판매에 주력 중인 KT 측은 “일반형 예약 구매자 중 절반이 여성으로 기존 노트 시리즈 여성 사용자 평균인 40%를 훌쩍 넘겼고, 노트9 때보다 20대 구매자 비중도 25% 이상 늘었다”고 밝혔다. 맹하경 기자 hkm07@hankookilbo.com ▶</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=020&amp;aid=0003238349&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>고유정 前남편 유족, 시신없이 ‘머리카락 7가닥’으로 장례</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>‘고유정 사건’의 피해자 유족 측이 사건 발생 100일을 앞두고 결국 시신 없는 장례를 치렀다. 30일 고유정 전 남편 강모 씨 유족 측에 따르면, 지난 27일부터 29일까지 제주 시내 장례식장에서 강 씨의 장례를 치렀다. 그동안 유족 측은 강 씨 시신을 찾지 못해 장례를 치르지 못하고 있었다. 유족은 “시신을 찾기 전까지 장례를 진행하지 않으려고 했지만 9월 1일이면 사건 발생 100일째”라며 “47제도 치르지 못한 상황에도 더는 늦추지 못하겠다고 판단했다”고 말한 것으로 전해졌다. 유족 측은 친인척과 지인들이 참석한 가운데 조용히 장례를 진행했다. 다만, 피해자 시신이 없어 평소 자주 쓰던 모자에서 찾아낸 머리카락 7가닥과 옷가지 등을 놓고 장례를 치러야 했다. 유족은 내달 1일부터 이틀간 100일제를 지낸 뒤 불교식 화장을 진행해 개폐식 봉안탑에 안치할 계획이다. 향후 시신 일부가 발견되면 화장해 해당 봉안탑에 봉안할 예정이다. 박기남 제주동부경찰서장의 후임 장원석 제주동부서장은 장례식을 찾아 유족에게 피해자 수습을 위해 노력하겠다고 약속한 것으로 알려졌다. 앞서 고유정은 제주시 조천읍의 한 펜션에서 전남편 강 씨를 살해한 뒤 시신을 훼손해 유기한 혐의로 구속됐다. 고유정은 범행 후 제주~완도 해상과 경기 김포시 등 여러 곳에 훼손한 시신을 유기한 것으로 전해졌다. 경찰은 강 씨에 대한 시신 수색 작업을 3개월 넘게 진행하고 있지만, 피해자의 머리카락 한 올도 찾지 못했다. 앞서 경찰은 경기 김포시 소각장과 인천 서구의 한 재활용업체, 제주시 구좌읍 동복리 제주환경자원순환센터 등에서 강 씨의 유해로 추정되는 뼛조각을 발견했지만, 모두 동물 뼈로 확인됐다. 한편, 제주지방법원은 9월 2일 오후 2시 201호 법정에서 피고인 고유정에 대한 2차 공판을 진행한다. 장연제 동아닷컴 기자 jeje@donga.com ⓒ 동아일보 &amp;amp; donga.com, 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>중국 디디추싱, '한국행' 준비 중</t>
-        </is>
+      <c r="A31" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>중국 모빌리티 기업 디디추싱이 한국 진출을 검토하고 있다. 8월26일 업계에 따르면 디디추싱은 올해 초부터 국내 업체들을 만나 한국내 모빌리티 사업을 논의해왔다. 국내 규제 상황에 따라 이르면 내년 상반기 본격적으로 한국 시장에 뛰어들 가능성도 있는 것으로 알려졌다. 디디추싱은 ‘카카오택시’처럼 택시호출을 중개하는 방식으로 국내 진출을 검토하고 있다. 브이씨엔씨(VCNC) ‘타다 베이직’처럼 자체 서비스를 하는 것이 아니라, 한국의 기존 택시산업을 최대한 활용한다는 방침이다. 구체적인 운영 형태는 정해지지 않았다. 국내 모빌리티 시장은 초기 단계다. 여물지 않은 시장임에도 디디추싱이 한국행을 고려한 이유는 폭넓은 시장을 확보하기 위해서다. 2012년 중국에서 설립된 디디추싱은 중국 시장 점유율 90%를 확보하고 있다. 이용자 수만 4억명 이상. 미국 시장조사업체 CB인사이트에 따르면 기업가치는 560억달러(약 67조원)에 달한다. 전세계 1천개 도시에 진출하며 중국 바깥으로 영향력을 빠르게 확대해가고 있다. 디디추싱이 한국에 진출하는 또 다른 유인은 중국인 관광객이다. 한국관광공사에 따르면 한국을 찾는 외국인 관광객의 국적은 중국이 압도적이다. 지난달 한국을 방문한 중국인 관광객만 51만9132명에 이른다. 디디추싱과 접촉한 투자전문업체 관계자는 “한국에서 수익성을 보고 있다거나 큰 이점이 있어 진출하려는 것은 아니다”라면서도 “중국인 여행객이 제일 많은 시장이고, 중국인도 한국에 와서 디디를 찾기 때문에 수요는 있다”라고 귀띔했다. 이에 따르면 국내 진출 초반 중국인 관광객을 대상으로 수요를 확보하고 이후 국내 승객을 단계적으로 공략하는 전략을 취할 가능성이 있어 보인다. 다만 디디추싱은 규제의 불확실성을 우려하고 있다. 올해 초만 해도 연내 한국 진출을 염두에 뒀지만, 택시산업과 모빌리티 업계 갈등을 지켜보며 한 발 물러선 상태다. 내년 상반기로 진출 시기를 미룬 이유도 이 때문이다. 국토부가 지난달 발표한 ‘택시제도 개편방안’이 구체화되기 전까지는 신중을 기할 전망이다. 투자전문업체 관계자는 “사실 디디추싱은 한국 시장 자체가 작기도 하고, 굳이 이 시점에 들어와야 하는지 망설이고 있다”라며 “초반에는 활발하게 논의했지만 (내부적으로) 검토하다 보니 굳이 빨리 (진출)해야 하느냐는 의문이 있는 것”이라고 말했다. [새소식] 기사 내용과 관련해 디디추싱 측 입장을 다음과 같이 덧붙입니다. 디디추싱 대변인은 이메일을 통해 &amp;lt;블로터&amp;gt;에 "일련의 보도는 정확하지 않은 것으로, 한국에는 (진출) 의도가 없다"라는 입장을 밝혔다. Thank you for getting in touch. Those media reports are inaccurate. DiDi has no such intention in Korea. Please attribute this to DiDi or DiDi spokesperson. - 업데이트 2019년 8월26일 오후 7시15분 김인경 기자(shippo@bloter.net) ▶ ▶ 저작권자 ⓒ(주)블로터앤미디어, 무단 전재 및 재배포 금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=056&amp;aid=0010737959&amp;date=20190830&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>[사건후] 헬스장 사람들 떠나게 만든 ‘무서운 문신남’</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>지난 2017년 4월 7일 오후 3시쯤 경기도 오산시의 한 헬스장. 식당을 운영하는 A(41) 씨는 운동을 위해 이곳을 찾았다. A 씨는 탈의실로 가 상의를 벗고 반바지만 입은 채 탈의실을 나왔다. A 씨가 나오는 순간 그곳에서 운동하던 10여 명의 사람들 시선은 모두 A 씨에게 쏠렸다. 이유는 상의를 벗은 A 씨 온몸에 문신이 새겨져 있었기 때문이었다. 이어 A 씨는 운동을 시작하면서 소리를 질렀고 사람들은 겁을 먹고 A 씨의 눈치만 살폈다. 손님들이 운동을 하지 못하자 헬스장 주인 B 씨는 A 씨에게 “조용히 운동을 해달라”고 요구했지만, A 씨는 막무가내로 계속 소리를 지르며 운동했다. 결국, 헬스장에 있던 회원들은 운동을 하지 못하고 모두 헬스장을 떠났다. A 씨의 '막가파식' 운동은 약 1시간 정도 이어졌고 B 씨는 경찰에 신고했다. 수사기관은 A 씨가 약 1시간에 걸쳐 위력으로 헬스장 영업을 방해한 것으로 판단하고 업무 방해 혐의를 적용해 재판에 넘겼다. A 씨는 이 외에도 후배를 수차례 때려 전치 2주의 상해를 입히고, 흉기로 위협(상해 및 특수협박)한 혐의도 받았다. 수원지법 형사9단독 김상연 판사는 29일 업무방해 및 상해 등의 혐의로 기소된 A 씨에게 징역 10개월 선고했다. 김 판사는 판결문에서 “범행의 위험성 및 횟수 등에 비춰보면 죄질이 불량하다. 또 피고인은 동종 범죄로 실형을 받는 등 처벌 전력이 다수 있다”며 "다만 피해자들과 합의를 한 점을 고려해 형을 정했다"고 판시했다. 사정원 기자 (jwsa@kbs.co.kr)</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>"군 병사 월평균 데이터 38GB 사용"..일반인보다 4배 많아</t>
-        </is>
+      <c r="A32" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>군장병 요금제 사실상 무제한 데이터이기 때문 와이파이 없는 군대 환경도 영향 일반인 LTE는 월평균 9.6GB 사용 고립감 줄었지만 일탈 행위도..방통위·국방부 윤리교육 SKT ‘0히어로’ 12만 돌파, 군 병사 가입자 수 1위 [이데일리 김현아 기자] SK텔레콤 홍보모델들이 ‘0히어로’ 흥행 기념으로 이벤트 당첨자들에게 제공할 푸드트럭과 각종 선물을 소개하고 있는 모습이다 SK텔레콤 제공 올해 4월부터 스마트폰 사용이 전 군 장병 대상으로 확대되면서 이동통신사와 알뜰폰 회사들이 군 병사를 대상으로 하는 LTE 요금제를 잇따라 출시했다. 병사들도 평일 오후 6시에서 10시, 휴일은 아침 7시부터 밤 10시까지 부대 안에서 보안 취약 구역을 제외하고는 스마트폰을 쓸 수 있게 된 것이다. 군인들은 한 달에 데이터를 얼마나 쓸까. 언뜻 보기에는 일반인들보다 적게 쓸 것 같지만 결과는 달랐다. ◇군인 월평균 38GB, 일반인은 9.6GB..데이터 혜택, 와이파이가 없기 때문 지난 4월 군 병사 전용 요금제 ‘0히어로’를 출시한 SK텔레콤에 따르면 군 병사들의 월평균 데이터 사용량은 38GB나 됐다. 이는 과학기술정보통신부의 2019년 6월 무선데이터 트래픽 통계기준상 LTE 일반인 평균 사용량(9.6GB)의 4배에 달하는 수치다. 이는 통신사들이 내놓은 군인 대상 요금제가 사실상 무제한에 가까운 데이터 혜택을 주기 때문으로 보인다. 군대에는 와이파이가없어 이를 고려해야 한다는 평가도 있다. 현재 가입자 12만 명을 모아 군 병사 요금제 중 1위를 기록한 ‘0히어로’만 봐도 일반 요금제보다 데이터 혜택이 풍성하다. ‘0플랜 히어로(월33,000원)’는 기본 제공량 6GB(+1Mbps 속도제어) 이외에도 평일 18~22시와 휴일에 매일 2GB(+3Mbps 속도제어)를 무료로 제공하며, ‘0플랜 슈퍼히어로(월55,000원)’는 기본 제공량 100GB(+5Mbps 속도제어)와 VIP 멤버십 등급 등의 추가 혜택을 준다. 월 3만 원 대 요금제에 가입해도 군인들이 많이 쓰는 평일 저녁이나 휴일에 2GB씩 무료로 주니 병사들의 데이터 사용량이 큰 폭으로 증가한 것이다. 이는 다른 이통사들도 마찬가지다. 실제로 병사들은 일과가 끝난 평일 18~22시와 휴일에 집중적으로 스마트폰을 이용하고 있으며, 특히 평일보다 휴일에 데이터 사용량이 많았다. ‘0플랜 히어로’에 가입한 군 병사들의 일평균 데이터 사용량은 평일 18~22시 0.65GB, 휴일 1.77GB를 기록했다. ◇고립감 줄었지만 일탈 행위도..방통위·국방부 윤리교육 일각에선 우려의 시선도 있다. 군인들이 너무 많이 스마트폰을 보지 않을까 하는 우려다. 군인들도 개인 여가는 필요하고 고립감이 줄어 군 생활에 도움이 되기도 하지만, 휴대전화를 이용해 불법도박을 하는 등 일탈 행위도 발견되고 있다. 이에따라 국방부와 방송통신위원회는 군 장병 대상 인터넷 윤리교육을 진행하고 있다. 방송통신위원회와 국방부가 군 장병들에게 건전한 인터넷 윤리문화를 정착시키기 위해 5월 24일 국방부에서 업무협약(사진. 방통위)을 체결하고 인터넷 윤리 시범교육을 실시했다. 왼쪽부터 이효성 방송통신위원장과 정경두 국방부장관이다. 방통위 제공 ◇택시할인, 무료 쿠폰 등 인기..SKT 푸드트럭 이벤트 중 한편 SK텔레콤에 따르면 ‘0히어로’가 제공하고 있는 군 생활 맞춤 혜택도 꾸준히 인기다. 휴가, 외박 시에 유용한 T맵택시 10% 할인 혜택은 현재까지 6천명이 이용할 정도로 반응이 좋다. ‘0(영)한동’ 앱에서 제공하는 무료 쿠폰 이용자는 누적 3만명을 넘었다. SK텔레콤은 지난 7월 ‘0히어로’ 흥행 기념으로 군 생활 응원 메시지 모집 이벤트를 진행했으며, 이번 달부터 당첨자들을 직접 찾아가 푸드트럭과 POOQ/FLO 이용권 등 각종 선물을 제공하고 있다. 방문 이벤트는 9월까지 진행될 예정이다. 한명진 SK텔레콤 MNO사업지원그룹장은 “군 병사들의 통신 혜택을 강화하기 위해 넉넉한 데이터와 다양한 생활 맞춤 혜택을 제공했던 것이 흥행 요인”이라며 미래 고객인 군 병사들에게 더 좋은 혜택으로 보답할 것”이라고 강조했다. 김현아 (chaos@edaily.co.kr) 네이버 홈에서 ‘이데일리’ 뉴스 꿀잼가득 , 청춘뉘우스~ ＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp;amp; 재배포 금지＞</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933367&amp;date=20190829&amp;type=2&amp;rankingSectionId=102&amp;rankingSeq=1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>[종합]대법 "정유라 말 3필 뇌물"…이재용 집유 판결 깨졌다</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>대법원 전원합의체는 29일 국정농단 사건 상고심에서 지난해 2월 이재용(51) 삼성전자 부회장에게 집행유예를 선고한 원심(2심)을 파기환송하며 사건을 서울고등법원으로 돌려보냈다. 대법원은 이 부회장이 박근혜(67) 전 대통령과 최순실(63·본명 최서원)씨에게 공여한 뇌물액을 원심보다 50여억원 이상 추가로 인정했고 이 부회장이 박 전 대통령과 최순실에게 뇌물을 건네며 '삼성그룹 승계작업'에 도움을 받기 위해 부정한 청탁을 했다고 판단했다. 법조계에선 이번 판결로 이 부회장이 파기환송심에서 다시 실형을 선고받을 가능성이 커졌다는 전망이 나온다. ━ 대법원 "말 3필 소유권은 삼성전자 아닌 최순실" 2017년 1심에서 징역 5년형이 선고됐던 이 부회장은 2심 집행유예 판결이 내려지기 전까지 서울구치소에서 353일간 수감생활을 했다. 하지만 이날 대법원의 판단은 2017년 1심 판결의 요지와 거의 유사했다. 대법원 전원합의체는 이날 원심에서 이 부회장이 박 전 대통령과 최씨에게 공여한 뇌물로 인정하지 않았던 정유라의 말 3필(34억 1797만원 상당)과 최씨가 운영한 한국동계스포츠 영재센터 후원금(16억 2800만원)을 모두 부정한 청탁에 따른 뇌물이란 취지의 파기환송 결정을 내렸다. 단 말 3필의 보험료(2억 4146만원)와 정유라 말의 차량 이동 비용(5억 308만원)은 뇌물로 인정되지 않는 취지의 선고를 했다. 대법원은 이 부회장이 박 전 대통령과 최씨에게 뇌물을 공여하며 당시 삼성그룹의 승계작업의 도움을 얻겠다는 부정한 청탁이 존재한다고 판단했다. ━ 대법원 판결, 이 부회장 징역형 선고한 1심과 유사 이 부회장 뇌물의 대가가 당시 삼성그룹의 최대 현안이던 승계작업에 대한 청와대와 정부의 도움이라 봤고 박 전 대통령과 이 부회장 사이에 '묵시적 청탁'이 성립했다고 봤다. 이 부회장의 항소심은 "승계작업이란 '부정한 청탁'이 존재하지 않는다"고 판단해 이 부회장의 일무 뇌물공여액을 인정하지 않았다. 대법원은 안종범 전 청와대 정책조정수석의 업무수첩의 증거능력은 인정하지 않았다. 하지만 안 전 수석의 업무수첩 없이도 이 부회장에게 부정한 청탁이 존재하는 사실 관계는 입증된다고 봤다. ━ 뇌물액 2심 36억→86억원으로 늘어날듯 이날 대법원의 판결에 따라 1·2심에서 이 부회장이 박 전 대통령과 최순실에게 제공한 뇌물이라 공통적으로 인정한 최순실의 코어스포츠 용역대금(36억 3484만원)까지 더해 이 부회장의 뇌물 공여액은 총 86억 8081만원으로 늘어날 전망이다. 이 부회장의 뇌물 공여액수가 중요한 것은 이 부회장의 뇌물액이 삼성전자에 대한 이 부회장의 횡령액으로 인정되기 때문이다. 대법원 양형규정상 횡령액이 50억원을 넘어가면 특정경제범죄가중처벌 등에 따라 5년 이상의 형을 선고해야 해 실형 가능성이 매우 커진다. ━ 법조계 "집행유예 가능성 배제할 수 없어" 이 부회장이 횡령액을 모두 변제한 점, 이 부회장이 박 전 대통령의 요구에 수동적으로 응한 점, 박 전 대통령과 최씨에게 뇌물 70억을 건네 유죄를 받은 롯데그룹 신동빈 회장이 집행유예를 받은 점 등은 이 부회장에게 유리한 양형사유가 될 수 있다. 뇌물액이 50억을 넘긴다 해도 집행유예 가능성이 전혀 없는 건 아니란 뜻이다. 하지만 이런 전제는 파기환송된 사건을 맡는 2심 재판부가 대부분의 쟁점에서 이 부회장에게 다시 유리한 판단을 해야함을 전제로 한다. 실형을 피하기까지는 여전히 가시밭길이 될 것으로 보인다. 뇌물 액수뿐 아니라 이 부회장이 박 전 대통령과 최씨에게 뇌물을 건네며 '승계 작업'에 도움을 받겠다는 부정한 청탁이 있었던 점도 모두 인정돼 이 부회장 측 변호인에겐 큰 부담이 지워졌다. ━ 확정판결 6개월~1년후 내려질듯 통상 대법원에서 사건이 파기환송될 경우 6개월~1년내에 확정판결이 나오게 된다. 하지만 한 현직 판사는 "사안에 따라 더 지연될 수도 있다"고 말했다. 이 부회장은 확정판결이 내려지기 전까지 자유로운 몸으로 경영활동을 할 수 있다. 이번 대법원의 판결로 지난 3년간 이어진 박근혜·이재용·최순실의 국정농단 사건은 일단락하게 됐다. 지난 3년간 이어진 세 피고인의 6번의 선고(각 1·2심)는 국정농단의 핵심 쟁점인 뇌물공여액과 승계작업 현안, 부정한 청탁 등에 대해 서로 다른 판단을 내렸다. 대법원은 지난해 2월과 8월에 올라온 이번 사건을 두고 대법관 전원이 참여한 전원합의체에서 총 6차례의 심리를 열었다. 대법원 수석재판연구관 출신의 변호사는 "일반적인 전원합의체 사건 심리는 1~2번이면 끝난다"며 "심리가 6번이나 열렸다는 건 대법관들이 사건의 쟁점과 사실관계를 두고 격론을 벌였다는 뜻"이라 말했다. 박태인 기자 park.taein@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>[위클리 스마트] 갤노트10 기본·플러스 모델 뭐가 다를까 "실제 써보니…"</t>
-        </is>
+      <c r="A33" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>"화면 크기 외 사양 차이는 체감 적어"…KT 레드·SKT 블루 컬러 매력 (서울=연합뉴스) 채새롬 기자 = 23일 출시된 갤럭시노트10 기본 모델과 플러스 모델을 며칠간 사용해 본 느낌은 기존 팬층은 물론 그동안 노트 시리즈를 써보지 않은 사용자에게도 매력 어필이 되게끔 화면 크기가 잘 나뉘었다는 것이다. 갤럭시노트10(좌측)과 갤럭시노트10플러스[촬영 채새롬] 갤럭시노트10은 시리즈 처음으로 6.3인치 일반 모델과 6.8인치 플러스 모델로 나뉘어 나왔다. 플러스 모델이 기존 노트 팬층을 공략한 모델이라면 일반 모델은 컴팩트한 사이즈를 좋아하는 소비자를 노린 모델이다. 두 모델은 화면 크기 외에도 화면 해상도 차이, 저장 용량 옵션 차이, ToF 카메라 유무 등 스펙에서 차이 나지만, 실제 사용할 때 화면 크기 외에 특별히 느껴지는 사양 차이는 없었다. 램 용량(12GB)·칩셋이 같고, S펜 에어액션 등 신기능을 동일하게 이용할 수 있기 때문이다. 일단 일반 모델은 한 손에 쏙 들어오는 사이즈가 가장 큰 장점이다. 기존 갤럭시노트 시리즈는 크고 둔탁해 보여 '아저씨폰' 느낌이 강했는데 일반 모델은 손이 작은 기자도 휴대가 편리하고 가벼워 매력적이었다. 화면 크기가 6.3인치로 절대적인 크기도 작지 않다. 플러스 모델이 WQHD(2960×1440) 해상도를 지원하는 데 비해 일반 모델이 FHD+(2220×1080)를 지원한다는 스펙 차이가 존재하긴 하지만 '막 눈'인 기자에겐 차이를 느끼지 못하는 수준이었다. 아이패드 미니5(위쪽)와 갤럭시노트10플러스로 재생한 동영상[촬영 채새롬] 일반 모델과 구별되는 플러스의 장점 역시 화면 크기다. 노트 필기를 좋아하는 사용자라면 더 넓은 화면을 자유롭게 쓸 수 있는 플러스 모델의 이점이 분명하다. 화면 크기가 커지다 보니 동영상 등 콘텐츠를 볼 때도 몰입감이 확 높아졌다. 아이패드 미니 5와 유튜브에서 같은 영상을 틀어봤더니 플러스 모델과 아이패드 미니에서 각각 재생되는 영상의 체감 크기는 큰 차이가 없었다. 아이패드 미니 화면이 7.9인치로 더 크지만, 아이패드에서는 유튜브 영상이 화면 비율에 맞게 축소되는 데 비해 갤럭시노트10에서는 영상을 베젤 끝까지 확장해서 꽉 채운 화면으로 볼 수 있기 때문이다. 카메라 측면에서는 기본 모델과 트리플 카메라 구성이 동일하고, ToF 카메라를 사용해 쓸 수 있는 전용 기능도 많지 않아 구별되는 이점을 크게 느끼지 못했다. 화면 크기를 기본으로 고려한 뒤 용량 차이, ToF 카메라로 이용할 수 있는 3D 스캐너 기능이 필요한지를 추가로 검토해서 일반 모델을 구매할지 플러스 모델을 구매할지 선택하면 될 것 같다. 갤럭시노트10 레드와 갤럭시노트10플러스 블루[촬영 채새롬] 특히 이번 갤럭시노트10 시리즈는 국내에서는 KT가 기본 모델 '레드'를, SK텔레콤이 플러스 모델 '블루'를 전용 색상으로 제공하는데, 색상도 선택의 이유 중 하나가 될 수 있겠다는 생각이 들었다. 두 색상 모두 글라스를 기본으로 한 빨간색, 파란색인데, 쨍하면서도 차분한 느낌이 있어 색깔이 오묘하고 매력적이다. 빛이 반사될 때마다 총천연색을 발하는 시그니처 컬러 '아우라 글로우'와는 확실히 다른 매력이 있다. 링크 투 윈도 기능[촬영 채새롬] 이밖에 직접 사용할 때 눈에 띈 기능 중 하나는 노트 시리즈에 새로 추가된 '링크 투 윈도'다. 마이크로소프트 계정을 폰과 윈도우10 PC에서 로그인한 상태로 PC의 마이크로소프트 스토어에서 '사용자 휴대폰' 앱을 내려받으면 내 갤럭시노트10의 사진, 알림, 문자메시지를 한눈에 볼 수 있다. 카카오톡을 기본 메신저로 PC와 연동해 쓰다 보니 휴대폰으로 오는 문자 메시지를 놓치는 경우가 많았는데, 문자가 올 때마다 PC에 알림을 주고 바로 답장을 할 수 있게 돼 있어 편리했다. 그동안 폰에서 찍은 사진을 공유하려면 USB를 연결하거나 메신저로 공유하는 등 과정을 거쳐야 했는데 갤럭시노트10으로 찍은 사진을 실시간으로 컴퓨터로 볼 수 있다는 점도 좋았다. 언팩 행사 당시 잠깐 써봤을 때 적응하기 어려웠던 S펜의 에어 액션은 하루 정도 사용하니 손에 익었다. S펜의 버튼을 눌렀다 떼는 시점을 체득하는 것이 적응의 포인트였다. 다만 상하좌우로 움직이는 것은 용이했지만, 시계 방향이나 반시계방향으로 돌리는 것은 며칠이 돼도 적응되지 않았다. 사진 촬영 시 줌 인, 줌 아웃 등은 좀처럼 동작 인식이 되지 않아 손으로 하는 게 더 마음이 편했다. S펜으로 쓴 손글씨를 텍스트로 바꿔주는 기능은 정확한 글자 인식이라고 하기에는 미흡하지만, 초벌 변환 용도로는 충분한 수준이다. srchae@yna.co.kr</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=056&amp;aid=0010737531&amp;date=20190829&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=2</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>대법, 박근혜 ‘국정농단’ 사건 파기환송…“뇌물 혐의 분리 선고해야”</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>대법원이 '국정농단' 혐의로 기소된 박근혜 전 대통령 사건을 다시 심리해야 한다며 파기환송했습니다. 대법원 전원합의체는 오늘(29일) 오후, 박 전 대통령의 '국정농단 사건' 상고심에서 징역 25년에 벌금 200억 원을 선고한 원심을 깨고 사건을 서울고법에 돌려보냈습니다. 재판부는 대통령이 재임 중의 직무와 관련해 특가법상 뇌물죄를 범한 경우, 나머지 죄와 분리해서 선고해야 한다는 공직선거법 조항을 박 전 대통령 사건의 1·2심 재판부가 어겼다고 판단했습니다. 박 전 대통령의 특가법상 뇌물, 직권남용, 강요 혐의 등을 모두 합쳐 판결을 선고한 점이 잘못됐다는 겁니다. 재판부는 검사가 "원심 판단이 잘못됐다"며 상고한 부분에 대해선 모두 기각했습니다. 안종범 전 청와대 정책조정수석 수첩의 증거능력을 일부만 인정하고, 삼성이 최순실 씨의 딸 정유라 씨에게 지원한 말 3마리의 보험료와 마필운송 차량, 그 대금 등을 뇌물로 인정할 수 없다고 판단한 원심 판단에 문제가 없다는 취지입니다. 재판부는 "환송 후 원심으로서는 제1심 판결 중 이유무죄 판결을 포함한 유죄 부분을 파기하고, 2심에서 심판한 부분 중 대법원이 검사의 상고를 기각해 확정되는 부분을 제외한 나머지 부분에 대해 다시 심리판단 해야 한다"라며 사건을 파기환송했습니다. 김채린 기자 (dig@kbs.co.kr)</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>지구상 최고 빌딩 크기 ‘소행성’ 다가온다…다음달 14일 스친다</t>
-        </is>
+      <c r="A34" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[서울신문 나우뉴스] 지구에 접근하는 소행성 상상도 지구상에서 가장 높은 빌딩 높이에 맞먹는 소행성이 지구를 향해 날아오고 있다. 미 항공우주국(NASA)에 따르면, 아랍에미리트 두바이에 위치한 세계에서 가장 높은 건물인 부르즈 할리파의 높이와 거의 비슷한 소행성이 한 달 안에 지구로 접근할 것이라고 한다. 부르즈 할리파의 높이는 얼마나 될까? 전체 높이는 829.84m이다. 한국의 삼성물산이 시공사로 참여해 건축한 이 초고층 건물은 마지막 층이 160층으로 높이 630m이며, 나머지 부분은 첨탑이다. '2000 QW7'로 불리는 이 소행성은 지름이 290~650m 사이로, 부르즈 할리파보다는 약간 작지만, 이제껏 지구 근처를 지난 여느 소행성에 비해서는 엄청난 덩치를 자랑한다. 참고로, 6600만 년 전 멕시코 유카탄 반도 북부 칙술루브에 떨어져 공룡을 멸종시킨 소행성의 지름은 12㎞였다. 미국 캘리포니아 패서디나에 있는 제트추진 연구소의 한 부서인 지구근접물체연구센터(CNEOS·Center for Near Earth Object Studies)에 따르면, 소행성 2000 QW7는 9월 14일(현지시간) 우리의 푸른 행성 지구 옆을 스쳐지나갈 것으로 예상된다. CNEOS에 따르면, 이 소행성이 지구를 위협할 만한 거리까지 접근하지는 않을 것으로 보인다. 소행성의 속도는 지구에 의해 가속되어 시속 2만3100㎞, 초속으로는 6.4㎞에 달하는 엄청난 속도에 이를 것으로 예측되지만, 지구에 가장 근접할 때의 거리는 약 530만㎞로, 이는 지구-달 사이 거리의 약 14배에 이른다. 그러나 우주적인 척도로 보자면 거의 스치듯이 지나간다는 표현이 과장은 아니다. 지구-태양 간 거리 1억 5000만㎞를 1천문단위(AU)라 하는데, 지구 근처를 지나는 소행성 등의 천체가 지구와의 거리가 1.3AU 이내에 들면 지구 근접 천체로 간주된다. 소행성 2000 QW7은 지구와 마찬가지로 태양을 공전한다. 그러나 궤도는 지구 궤도와 산발적으로 교차한다. 제트추진 연구소에 따르면, 이 소행성이 지구에 마지막으로 접근한 때는 2000년 9월 1일이다. 오는 9월 14일 이후 다음 번 지나칠 것으로 예상되는 시간은 19년 후인 2038년 10월 19일로 예측된다. 이광식 칼럼니스트 joand999@naver.com　 ★ ▶ ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933433&amp;date=20190829&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=3</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>최순실 역정에 "원하신 대로 지원"···이 말에 이재용 파기환송</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>━ 대법원 "이재용 뇌물액 36억 아닌 86억" 대법원은 29일 이재용(51) 삼성전자 부회장의 전원합의체 선고에서 이 부회장이 박근혜(67) 전 대통령과 최순실(63·본명 최서원)씨에게 공여한 뇌물액을 항소심 인정액(36억 3484만원 )보다 50여억원 많은 86억 8081만원이라 판단했다. 이 부회장에게 징역 5년형을 선고했던 1심의 뇌물액(89억 2227만원)과 거의 유사한 수치다. 지난해 2월 항소심은 1심을 뒤집고 이 부회장에게 징역 2년6월에 집행유예 4년을 선고했었다. 대법원은 또한 항소심과 달리 이 부회장이 박 전 대통령과 최씨에게 뇌물을 제공하며 삼성그룹의 최대 현안이었던 '승계 작업'에 도움을 요청한 '부정한 청탁'을 했다고 봤다. ━ 조희대·안철상·이동원 대법관 반대의견 이날 전원합의체 선고에선 김명수 대법원장을 포함해 13명의 대법관 중 10명의 대법관(다수의견)이 원심 파기환송 결정을 내렸다. 남은 3명의 대법관(조희대·안철상· 이동원 대법관)만 항소심과 의견을 같이하며 반대 의견을 냈다. 법조계에선 이날 선고로 뇌물액이 크게 오르고 승계 작업이란 청탁 혐의까지 인정돼 이 부회장에 대한 실형 선고 가능성이 커졌다고 전망한다. 이 부회장의 뇌물액은 그대로 삼성전자에 대한 횡령액으로 인정되는데 현행법상 횡령액이 50억원을 넘어가면 특정경제범죄가중처벌 등에 따라 집행유예를 받기 어렵기 때문이다. 왜 대법원은 이 부회장에게 항소심과는 전혀 다른 판단을 내린 것일까. 이 부회장의 전원합의체 선고 핵심 쟁점을 짚어봤다. ━ "최순실의 역정, 말 3필 소유권 넘어간 증거" 이날 판결에서 가장 주목을 받은 쟁점은 삼성전자가 최씨의 딸 정유라씨에게 제공한 말 3필(살시도·비타나·라우싱)의 소유권이 누구에게 있냐는 것이었다. 말 3필의 액수가 34억 1797만원에 달해 소유권이 최씨측으로 넘어가면 이 부회장의 뇌물공여액이 많이 늘어난다. 김명수 대법원장은 이날 말 3필의 소유권이 삼성전자가 아닌 최씨에게 있다며 2015년 11월 15일 최순실이 박원오 전 승마협회 전무에게 역정을 냈던 사건을 언급한다. 최씨는 이날 독일에서 삼성전자가 제공한 말 살시도를 넘겨받으며 마주란에 '삼성전자'가 쓰여있자 " 이재용 이 VIP(박 전 대통령) 만났을 때 말 사준다고 했지, 언제 빌려준다고 했냐"고 박 전무에게 역정을 낸다. ━ 최순실 역정에 박상진 사장 "원하시는 대로" 최씨는 박상진 당시 삼성전자 사장에게 "당장 독일로 들어오라"는 지시를 내리기도 한다. 이 소식을 들은 박 사장은 "결정하시는 대로 지원해드리겠다는 것이 우리 입장입니다"고 답한다. 김 대법원장을 포함한 다수의 대법관은 "2015년 11월 15일 말 3필의 실질적 사용·처분 권한이 최씨에게 있는 것으로 양측이 합의한 것"이라 판단했다. 대법원은 "삼성전자가 말을 되돌려 받을 생각은 애초에 없었다"며 "삼성전자에 말 3필의 형식적 소유권이 있다는 항소심 판결은 상식에도 어긋나는 판결"이라고 했다 . 당시 최씨와 박 사장의 대화가 대법원 판결의 결정적 근거가 된 것이다. 그러나 조희대·안철상·이동원 대법관은 이 부회장의 항소심과 마찬가지로 "박 사장의 대답은 최씨의 요구사항을 지원해주겠다는 것이지 소유권을 넘긴 것으로 확정할 수 없다는 반대 의견을 밝힌다. ━ 대법원 "부정한 청탁 말 안해도 인정된다" 대법원은 이날 이 부회장이 최씨가 운영하던 동계스포츠영재센터에 제공한 지원금 16억 2800만원도 뇌물로 인정했다. 이 부회장이 승계 작업에 도움을 받겠다는 의사를 갖고 '부정한 청탁'을 했다고 본 것이다. 항소심에선 박 전 대통령과 이 부회장 사이에 승계 현안에 대한 구체적인 청탁이 오가거나 두 피고인간의 청탁에 대한 인식이 뚜렷했다고 볼 수 없어 '부정한 청탁'이 없다고 판단했다. 하지만 대법원은 대통령의 권한과 영향력이 막강함을 언급하며 청탁의 내용이 구체적이지 않더라도 "박 전 대통령의 직무와 이 부회장의 자금 지원 사이에 대가 관계만 입증되면 된다"고 밝혔다. 이 문제에서도 조희대·안철상·이동원 대법관은 항소심과 마찬가지로 "승계 현안이 부정한 청탁으로 입증되기엔 그 구체성과 증거가 부족하다"며 다수 의견을 따를 수 없다는 입장을 밝혔다. ━ 이재용 측 "최악 아니야, 이 부회장 피해자 인정받아" 이 부회장 측에선 이날 대법원의 판결에 "최악의 결과는 아니다"는 입장이다. 뇌물 액수가 2심에 비해 50억원이나 늘었지만 법정형 하한선이 10년형인 재산국외도피죄의 무죄 결정이 유지됐기 때문이다. 미르·K재단 출연금 204억원에 대해서도 무죄 판결이 유지돼 "이 부회장은 뇌물을 강요당한 피해자"라는 본질은 바뀌지 않았다고 주장한다. 변호인 측에선 또한 이 부회장이 횡령액을 이미 변제했으며 현재 국가 경제에서 차지하는 중요성, 뇌물액 70억원 공여 혐의로 유죄를 받은 신동빈 롯데그룹 회장의 집행유예 선고와의 형평성을 언급한다. 이 부회장 측 변호인은 "사건의 본질은 바뀌지 않았다"며 "이번 선고로 실형 가능성이 높다는 주장에 동의하지 않는다"고 말했다. 하지만 이 부회장이 실제 집행유예를 받으려면 파기환송된 쟁점은 물론 모든 감형사유에서 재판부가 이 부회장에게 유리한 결정을 내려야 한다. 여전히 가시밭길이란 뜻이다. 부장판사 출신 변호사는 "대법원이 이 부회장의 부정한 청탁을 인정한 이상 이 부회장을 이번 사건의 일방적인 피해자로만 볼 수 없는 것이 현실"이라 말했다. 박태인 기자 park.taein@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>조국 딸 "3주간 인턴했다더니"…정부 연구기관 기록엔 '닷새짜리 결석생'</t>
-        </is>
+      <c r="A35" s="1" t="n">
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>정부 출연연 KIST 단기연수 지원하고 5일만에 그만 둬 조씨 자소서에는 "3주간 인턴근무하며 실험 준비" 밝혀 조국 법무부 장관 후보자가 23일 오후 서울 종로구 적선현대빌딩에서 논란이 일고 있는 사모펀드와 사학재단 웅동학원을 사회에 환원하겠다고 밝히고 있다. 2019.8.23/뉴스1 © News1 안은나 기자 (서울=뉴스1) 최소망 기자 = "3주간 인턴으로 근무하면서 성인병 관련 약물 실험을 준비했다." 조국(54) 법무부 장관 후보자의 딸 조모(28)씨가 부산대 의학전문대학원 입학 전형에 제출한 자기소개서에 밝힌 한국과학기술연구원(KIST) '3주간 인턴십' 경력이 실은 '닷새짜리 결석생'의 허위 스펙인 것으로 드러나 논란이다. 정부출연연구기관인 KIST에서 당시 조국 딸을 담당했던 한 관계자는 25일 &amp;lt;뉴스1&amp;gt;과의 통화에서 "10년 가량 지나서 잘 기억이 나진 않지만 잘 나오지 않았던 것으로 기억한다"며 "5일 정도 나왔다"고 말했다. 조 후보자의 딸 조씨는 지난 2010년 고려대 환경생태공학부에 입학했다. 이후 2011년 7월 KIST에 '단기연수프로그램'으로 인턴 근무를 시작했다. 1개월 간의 정규 과정이었다. 실제로 조씨가 한 유료 논문 판매 사이트에 올리면서 드러난 부산대 합격 자기소개서에도 "3주간 인턴으로 근무했다"고 기록돼있다. 하지만 KIST의 기록에 따르면 조씨가 연구실에 나온 기간은 2011년 7월 18일부터 22일까지 총 5일에 불과하다. 당시 조씨를 담당한 KIST 관계자는 "5일 정도 나온 것으로 기억한다"면서 "최근에 그 아이가 그 아이(조국 딸)이라는 것을 알고 놀랐다"고 말했다. 또 다른 관계자도 "당시 학생이 며칠 만에 본인 의지로 하기 싫다면서 나간 것으로 알고 있다"고 설명했다. 나라에서 지원하는 1달짜리 단기연수프로그램에 참여해 5일만 참가하고는 대학 자기소개서에는 "3주간 참가했다"고 부풀린 것이다. 결석으로 얼룩진 단기연수프로그램이 의학전문대학원 입학을 위한 스펙으로 포장됐다는 지적이 나온다. KIST 관계자는 "KIST가 국가 연구기관인 만큼 어린 학생들에게 대학원을 진학하거나 취업할 때 이런 곳이 있다는 것을 알리기 위해 인턴제도 등을 많이 도입하고 있다"며 "(조씨가 참여한 단기연수프로그램도) 그 일환이었다"고 설명했다. 이 과정에서 누군가는 기회를 박탈당했을 우려도 제기된다. 한 청년 과학자는 "누군가에게는 소중한 기회이거나 한번밖에 없는 기회일 수도 있었는데 다른 사람이 기회를 박탈당한 게 아닐지 조금 안타깝다"고 털어놓았다. somangchoi@news1.kr [© 뉴스1코리아(), 무단 전재 및 재배포 금지]</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933261&amp;date=20190829&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=4</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>휴대전화 끄고 도주했는데···부부 살해범, 부산 돌아왔다 덜미</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>부산의 한 식당에서 부부를 살해하고 도주한 피의자가 닷새 만에 경찰에 붙잡혔다. 피의자는 범행 직후 경주와 강릉 등지로 도피했다가 지난 27일 부산으로 다시 돌아온 지 12시간 만에 검거됐다. 경찰에 붙잡힌 범인은 피해자들과 동서지간인 제부로 확인됐다. 사건은 지난 24일 오전 1시쯤 벌어졌다. 피의자인 A씨(56)는 처형인 B씨(57·여)와 B씨 남편인 C씨(62)가 운영하는 부산 남구의 한 식당을 찾았다. 그리고 옷 속에 숨겼던 흉기를 꺼내 B씨와 C씨를 차례로 살해했다. 범행 직후 식당을 나온 A씨는 피해자 부부 소유의 차량을 훔쳐 타고 경북 경주로 달아났다. 살해된 부부가 발견된 것은 이날 오전 5시쯤 귀가한 아들에 의해서다. A씨가 부부를 살해하고 달아난 지 4시간이 지난 후였다. 아들이 발견했을 당시 어머니 B씨는 식당 1층 주방에서, 아버지 C씨는 식당 1층에 있는 안방에 피를 흘린 채 쓰러져 있었다. 아들의 신고를 받고 출동한 경찰은 사건 현장에서 범행 도구로 추정되는 흉기 등을 확보했다. 경찰은 두 사람이 흉기에 의해 숨진 것을 확인한 뒤 타살에 의한 살해로 보고 주변인 탐문에 나섰다. 이 과정에서 식당 주변에 있는 폐쇄회로TV(CCTV) 분석을 통해 A씨가 사건 전 식당 주변을 서성이다 준비한 흉기를 손목에 넣는 장면 등을 발견했다. 피의자를 특정한 경찰은 A씨의 도주 경로를 파악하기 시작했다. A씨가 경주로 달아난 사실을 확인한 경찰이 경주에 도착했을 때는 그가 이미 강원도 강릉으로 넘어간 뒤였다. 경찰은 A씨의 통신내역 조회와 도주 예상경로 등을 바탕으로 추적에 나섰지만, 도주 범위가 넓어 검거에 애를 먹었다. 이후 경찰은 통신내역 조사를 통해 A씨가 지난 27일 오후 9시쯤 부산으로 돌아온 사실을 확인했다. 부산 지역 전 형사와 지구대·파출소 직원을 총동원해 은신처 등에 대한 집중 수색에 나선 것도 이때부터다. 부산에서 수색범위를 좁혀가던 경찰은 결국 28일 오전 10시 25분쯤 부산 해운대 한 모텔에 있던 A씨를 검거하는 데 성공했다. A씨는 경찰에 붙잡힌 후 “다 죽이고 싶었다”는 진술만 반복하고 있는 것으로 알려졌다. 정확한 범행 동기는 말하지 않고 있으나, 경찰은 A씨 범행 정황과 진술 등을 토대로 원한에 의한 살인으로 보고 있다. 경찰은 닷새간 범인 검거가 어려웠던 이유에 대해 “범인이 미리 준비한 것으로 보이는 현금만 사용했고, 휴대전화도 거의 켜지 않았기 때문”이라고 설명했다. 경찰은 또 “정확한 도피 경로를 확인하고 있고, 왜 부산으로 다시 돌아왔는지도 확인 중”이라고 말했다. 경찰은 이르면 29일 A씨에 대한 1차 조사를 마무리한 뒤 구속영장을 신청할 예정이다. 부산=이은지 기자 lee.eunji2@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>이통요금 25% 할인 가입자 2천500만명 돌파…5G 후 증가세 둔화</t>
-        </is>
+      <c r="A36" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>약정할인 월평균 가입자 5G 상용화 전 72만명→상용화 후 54만명 LGU+ 선택약정할인 위약금 경감 개시일 타사보다 4개월 늦어 (서울=연합뉴스) 최현석 기자 = 이동통신 가입 때 통신사의 공시지원금 대신 25% 요금할인을 선택한 가입자가 2천500만명을 넘어섰다. 25일 과학기술정보통신부와 통신업계 등에 따르면 휴대전화 요금이 25% 할인되는 선택약정할인 가입자는 지난달 말 현재 2천511만명을 기록했다. 2017년 12월 560여만명에서 작년 말 2천77만명으로 급증한 데 이어 7개월간 추가로 434만명 늘었다. 25% 요금할인 가입자가 19개월 새 4.5배로 급증한 것은 2017년 9월 요금할인율이 20%에서 25%로 상향된 이후 공시지원금을 받고 통신사를 바꾸기보다 기존 통신사의 요금할인을 선택하는 가입자가 늘었기 때문으로 분석된다. 다만 지난 4월 5세대(5G) 이동통신 상용화 후에는 증가세가 둔화하는 양상이다. 월평균 요금할인 가입자는 1~3월 72만명이었지만 5G가 상용화된 3~7월에는 54만명으로 감소했다. 통신사들이 5G 활성화를 위해 공시지원금을 최고 70만원대로 높여 최고 40만원대인 25% 요금할인 혜택과 격차가 벌어진 데 따른 것으로 보인다. 25% 할인을 선택한 가입자가 늘었지만 중도 해지 시 위약금은 통신사별로 큰 차이를 보여 주의가 요구된다. 24개월 선택약정할인으로 LG유플러스에 가입할 경우 16개월 이상 사용해야 위약금이 줄어들기 시작한다. 이는 12개월이 지난 시점부터 위약금이 줄어드는 SK텔레콤과 KT에 비해 4개월이나 늦다. 12개월 약정도 사정이 비슷하다. SK텔레콤과 KT는 6개월 경과 시점부터 위약금이 감소하지만 LG유플러스는 9개월이 지나야 위약금이 줄어든다. 이에 따라 월정액 9만5천원 요금제에 24개월 선택약정(월 2만3천750원 할인)으로 가입한 경우 가입 8개월 차부터 LG유플러스의 위약금이 타사보다 많아지기 시작해 23개월 차에는 17만8천원까지 차이가 확대된다. LG유플러스 선택약정할인 가입자는 3사 가입자의 30% 수준인 750만명에 달할 것으로 추산된다. 타사와 동일하게 25% 할인 혜택을 제공하면서 더 많은 위약금을 청구하는 것은 문제가 있어 개선이 필요하다는 지적이 나온다. LG유플러스는 "기기변경 때 위약금을 면제하는 정책을 가장 먼저 채택하는 등 고객 혜택 수준이 타사보다 높은 경우도 많다"며 "약정할인 위약금은 타사와 마찬가지로 변경하는 것을 검토하고 있다"고 반박했다. 광진구 집단상가 내 이동전화 판매점[촬영 최현석] harrison@yna.co.kr</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=011&amp;aid=0003610794&amp;date=20190829&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=5</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>[속보]대법, "박근혜 뇌물혐의 분리선고해야" 파기환송</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[서울경제] | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>애플 진입 노리는 中 BOE 실력은…"韓 따라잡는건 시간문제"</t>
-        </is>
+      <c r="A37" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BOE, B7 가동하면서 B11·B12·B15 패널 공장 동시 투자 "생산량 곧 삼성 추월, 수율도 2~3년 뒤 70% 올라올 듯" 2020년형 아이폰부터는 삼성·LG 패널과 함께 들어갈 듯 국내 유기발광다이오드(OLED) 장비업체 A사는 중국 최대 디스플레이 회사 BOE와 계약서를 쓰고 관련 장비를 설계·제작하고 있다. 중국 몐양에 있는 모바일 OLED 패널 공장 ‘B11’에 들어갈 장비다. A사 관계자는 "삼성·LG디스플레이의 투자가 무기한 중단된 상황에서 BOE는 모바일 OLED 패널 공장 투자를 동시다발적으로 하고 있다"면서 "올해 하반기 BOE의 ‘B12(중국 충칭)’에서도 장비 발주가 있을 것으로 예상되고, 최근 건설 계획을 발표한 ‘B15(중국 푸저우)’도 투자 계획을 이미 다 짜놓고 중국 고객사 판매 동향·수율(완제품 비율)을 보며 시기를 저울질하고 있는 것으로 알고 있다"고 전했다. 중국 BOE가 첫 모바일 OLED 패널 공장인 ‘B7’에서 만든 패널이 탑재된 화웨이의 ‘메이트 20 프로’. / 블룸버그 25일 디스플레이 업계에 따르면, 중국 정부의 지원을 받아 액정표시장치(LCD) 시장을 빠르게 장악한 BOE가 ‘물량 공세’ 방식으로 모바일 OLED 시장에도 뛰어들고 있는 것으로 나타났다. 중국 청두에 있는 첫 OLED 패널 공장인 ‘B7’을 가동하면서 동시에 B11·B12·B15에 투자하거나 투자를 검토하고 있는 것이다. 시장조사기관 스톤파트너스에 따르면, 4개 공장을 모두 가동할 경우 전체 패널 생산량은 월 18만장 수준으로 현재 모바일 OLED 1위인 삼성디스플레이(16만5000장)를 훌쩍 넘어서게 될 전망이다. 4개 공장이 모두 돌아가는 시기는 2023년으로 점쳐진다. 업계에서는 현재 BOE의 모바일 OLED 수율을 50% 수준으로 보고 있다. 이충훈 유비리서치 대표는 "이미 BOE의 패널 품질은 빠르게 올라가고 있는 것으로 파악되고 있다"며 "수율은 2~3년 안에 70% 이상으로 올라갈 것"이라고 예상했다. 윤주호 메리츠종금증권 연구원은 "‘수율’보다 더 중요한 것은 ‘수요’"라면서 "BOE는 LCD 때도 일단 많이 만든 다음 품질이 좋은 것은 세트업체에 팔고, 그렇지 않은 것은 장난감 회사에 파는 식으로 대응해 수율을 끌어올려 왔다. OLED에서도 생산 여력을 늘려 일단 이런 저런 수요에 대응하면서 수율도 금세 올릴 것"으로 내다봤다. 현재 BOE의 모바일 OLED 패널 수요 대부분은 화웨이를 비롯한 중국 스마트폰 제조사다. 여기에 애플도 내년 아이폰 채용을 목표로 BOE의 OLED 패널 품질을 테스트 중인 것으로 알려졌다. 애플은 패널의 안정적 공급, 저렴한 구매단가를 위해 공급선 다변화에 수년간 공을 들여왔다. 여기에 2020년 아이폰부터는 LCD 패널을 아예 쓰지 않고, OLED 패널 제품으로만 내놓기 위한 계산도 깔려 있다. 지난해 판매 대수 기준으로 아이폰 중 OLED 모델은 58% 수준이었고, 전량을 삼성디스플레이로부터 구입해 왔었다. 올해 신작부터는 LG디스플레이도 일부 물량(약 600만대) 패널을 공급한다. 한 디스플레이 업계 관계자는 "LG디스플레이도 품질 테스트에서 한 번에 통과하지 못했을 정도로 애플의 기준이 매우 높은 것으로 알고 있다"면서 "다만, BOE가 LCD 수율도 보란 듯 끌어올렸던 경험이 있고 국내 OLED 전문가들을 대거 영입해 기술력을 끌어올리고 있어 2020년, 늦어도 2021년에는 애플에도 납품할 수 있을 것으로 본다"고 말했다. 그래픽=송윤혜 시장조사업체 IHS마킷이 집계한 올해 1분기(1~3월) 모바일 OLED의 글로벌 시장 점유율을 보면 삼성디스플레이의 점유율은 88.0%로 지난해 같은 기간(95.7%)보다 7.7%포인트나 줄어든 것으로 나타났다. 반면 중국 BOE는 0.1%에서 5.4%로 점유율을 확 늘리며 삼성디스플레이에 이어 2위에 이름을 올렸다. 에버디스플레이(중국), LG디스플레이, 비전옥스(중국)가 그 뒤를 이었다. [장우정 기자 woo@chosunbiz.com] chosunbiz.com</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=021&amp;aid=0002401330&amp;date=20190829&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=6</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>&lt;檢 ‘조국 의혹’ 수사&gt;與 압박에 더 벼려진 ‘尹의 칼’… 살아있는 권력 수사 본격화</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>부산시장 집무실 등 압수수색 “일정탓 미룬 압수수색 재개” 檢, 정치적 해석 경계했지만 ‘여당에 대한 반격’해석 많아 曺후보 딸 장학금 뇌물 의혹등 사실관계 확인할 가능성 높아 검찰이 29일 오전 오거돈 부산시장 집무실을 전격 압수수색한 것은 전날 이해찬 더불어민주당 대표를 포함한 여권이 검찰의 조국 법무부 장관 후보자 압수수색에 대한 성토를 쏟아낸 지 하루 만에 의혹과 관련된 여권 인사에게 처음으로 칼을 겨눴다는 점에서 의미심장하다는 평가가 나온다. 검찰은 이날 “이번 압수수색은 지난 27일 검찰의 압수수색 때 부산시 일정 때문에 못했던 것을 재개한다”며 정치적 해석을 경계했지만, 윤석열 검찰총장의 여당에 대한 ‘반격’으로 해석하는 시각이 많다. 검찰의 수사를 궁지로 몰아붙이는 여권에 대해 검찰의 칼끝이 앞으로 얼마든지 여당 인사들에게로도 갈 수 있다는 ‘자신감’을 보여준 것으로 보인다. 여당 대표가 검찰의 압수수색과 관련해 관계기관과 협의를 하지 않았다고 비판하는 등 오히려 검찰의 중립성을 훼손하는 발언을 한 데 대한 검찰 내부의 극에 달한 불만의 표출이기도 하다. 조 후보자 압수수색 국면에서만 끝나는 것이 아니라 검찰이 ‘살아있는 권력’에 대한 수사를 본격적으로 시작할 수 있다는 암시라는 해석까지 나온다. 특히 이번 압수수색과 관련해 검찰이 조 후보자의 검찰개혁을 방해하려 한다고 인식되는 데 대한 내부 불만은 극에 달해 있다. 대검 관계자는 이날 “말 잘 듣는 검찰을 만드는 것이 검찰개혁인가. 다른 것을 떠나 어떻게 여당 대표와 협의하라는 말이 나올 수 있는지 귀를 의심했다”면서 “정치적 중립성이라는 이 정부의 기본가치는 아무것도 아니다. 검찰은 말을 잘 들어야지 왜 같은 편을 공격하느냐는 말로 들린다”고 비판했다. 또 다른 대검 관계자는 “이 정부에서 추진해온 검찰개혁, 검찰 중립성 확보 노력을 해할 수 있는 발언에 대해서 깊이 우려하고 있다”고 비판했다. 압수수색 그 자체의 의미로만 보자면 이날 압수수색은 조 후보자 딸 특혜 장학금 논란의 당사자인 노환중 부산의료원장(전 양산부산대병원장) 선임과 관련한 자료를 확보하기 위한 것으로 알려졌다. 오 시장은 노 전 양산부산대병원장이 부산의료원장으로 선임된 것과 관련해 부당하게 개입했다는 의혹을 받고 있다. 노 원장은 지도교수 시절 조 후보자 딸 조모(28) 씨에게 1200만 원의 장학금을 지급했었다. 야권에서는 노 원장이 조 후보자 딸에게 준 장학금은 자신이 의료원장으로 임명되기 위한 뇌물이라는 의혹을 제기하고 있다. 이와 관련해 검찰은 27일 압수수색 때 노 원장의 개인 컴퓨터에서 ‘문재인 대통령의 주치의 선정에 깊은 일역(一役)을 담당했다’는 내용의 문건을 확보한 것으로 알려졌다. 양산부산대병원 소속 강대환 교수가 대통령 주치의가 되는 데 노 원장이 관여했다는 정황이 드러난 것이다. 검찰은 현재까지 대통령 주치의 선임 과정에 별다른 범죄 혐의를 두지는 않고 있다. 그러나 조 후보자를 둘러싸고 제기된 여러 의혹을 규명하는 차원에서 사실관계 확인에 나설 가능성은 열려 있다. 오 시장은 앞선 압수수색에 대해 “의료원장은 정해진 절차에 따라 공정하게 임명됐다”며 “(조 후보자) 인사청문회가 명명백백한 청문의 과정이 되기를 바란다”고 말했다. 현재 오 시장은 2030 엑스포 유치 활동 등을 위해 유럽을 순방 중이다. 앞서 이해찬 민주당 대표는 28일 검찰이 조 후보자 의혹과 관련해 전날 압수수색을 진행한 데 대해 “나라를 어지럽게 하는 행위”라며 검찰의 압수수색에 대한 강한 유감을 표했다. 이 대표는 “사전에 몰랐는데 언론은 압수수색 과정을 취재했다고 한다. 언론에는 취재를 시키며 관계기관과는 전혀 협의를 안 하는 전례 없는 행위가 벌어졌다. 이 점이 훨씬 더 나라를 어지럽게 하는 행위라 아니 할 수 없다”며 검찰 수사를 비판했다. 청와대와 여당 대표인 자신에게 사전에 보고하지 않았다는 점을 비난한 것으로 풀이됐다. 김윤희·정유진 기자 worm@munhwa.com [ | | ] [Copyrightⓒmunhwa.com '대한민국 오후를 여는 유일석간 문화일보' 무단 전재 및 재배포 금지()]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>삼성, 벨기에서 EUV용 포토레지스트 조달…SK하이닉스도 이미 거래 중</t>
-        </is>
+      <c r="A38" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>삼성전자가 극자외선(EUV)용 포토레지스트(PR)를 벨기에에서 조달하고 있는 것으로 파악됐다. 일본 정부의 대 한국 수출 규제에 따른 대응으로 수입 노선이 추가됐다. 25일 업계에 따르면 삼성전자는 지난 7월 일본 수출 규제 조치가 시행된 후 일본에서 수입해 온 EUV PR 일부를 벨기에에서 조달하고 있다. 이 EUV PR는 A사가 일본에서 생산, 공급한 것이었다. 그러나 삼성전자는 7월 이후 이 일본산 EUV PR와 동일한 제품을 벨기에 B사에서 수급하고 있다. 삼성전자가 벨기에에 위치한 B사에서 품질이 같은 EUV PR를 공수할 수 있었던 것은 B사가 A사가 만든 합작사기 때문이다. A사는 지난 2015년 반도체 전문 연구소와 함께 B사를 설립했다. 이 사안에 정통한 관계자는 “규제 시행 이후 제품 공급처가 일본에서 벨기에로 이전됐다”면서 “쉽게 말해서 같은 EUV PR가 벨기에를 통해 들어오고 있다고 보면 된다”고 설명했다. 삼성전자 화성 파운드리 공장 전경(자료: 삼성전자) 업계에 따르면 삼성전자가 사용 중인 EUV PR는 A사를 포함한 일본 3개 회사 제품이다. 이 가운데 2개 회사 소재는 7나노(㎚) 로직 디바이스를 제조하는 데 쓰이고 나머지는 D램 연구용이다. 삼성전자는 아직 D램에 EUV를 적용하지 않아 현재 제조 현장에서 사용되는 EUV PR는 7㎚ 로직 디바이스용이었다. 이 때문에 일본의 수출 규제 시행으로 여파가 우려된 것은 7㎚ 반도체 제조에 필요한 EUV PR의 수급이었지만 삼성은 일단 A사와의 사전 공조를 통해 대비책을 마련한 것으로 풀이된다. 그동안 벨기에가 일본 소재 수출 제한의 우회로 및 대처 방안 가운데 하나로 거론돼 왔지만 구체적인 내용이 파악된 건 처음이다. 업계에 따르면 지난 7월 한 달 동안 일본에선 수출 승인이 한 건도 없었음에도 삼성전자는 이미 벨기에에서 EUV PR를 받은 것으로 전해졌다. A사 외 7㎚ 로직 디바이스에 사용되는 또 다른 일본 회사 C사의 EUV PR는 현재 일본 내에서만 생산되고 있다. 따라서 이 소재는 일본 정부의 승인을 받아야만 한국에 들어올 수 있다. 삼성전자는 수출 승인이 불확실하고, 벨기에가 대체 공급선으로 떠올라 C사 EUV PR를 벨기에 제품으로 교체하는 방안을 검토 중인 것으로 전해졌다. 일본산 EUV PR 한국 수출은 이달 들어 간간이 승인됐다. 지난 7일과 19일이다. 일본 정부가 다른 소재는 제외하고 EUV PR만 두 차례 승인한 이유가 명확하지 않아 배경에 관심이 쏠리기도 했다. 그러나 벨기에를 통한 EUV PR 공급 사실이 알려지면서 다른 일본 소재 회사들이 정부 승인을 촉구했을 가능성이 있어보인다. 한편 삼성전자뿐만 아니라 SK하이닉스도 벨기에에서 EUV PR를 공급 받고 있는 것으로 파악됐다. SK하이닉스는 일본에서 벨기에로 전환한 삼성전자와 달리 일본 수출 규제와 무관하게 이전부터 벨기에와 거래해 왔다. SK하이닉스는 EUV 양산 전이고, 벨기에에 거래처를 두고 있어 일본의 EUV PR 수출 규제와 관련해 삼성전자보다는 영향이 덜하다는 평가다. 삼성 서초사옥에 전시된 반도체 웨이퍼. &amp;lt;전자신문 DB&amp;gt; 윤건일 전자/부품 전문기자 benyun@etnews.com [Copyright ⓒ 전자신문 &amp;amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=015&amp;aid=0004200620&amp;date=20190829&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=7</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>대법원, 박근혜·최순실·이재용 파기환송…'정유라 지원' 말 34억 뇌물 인정 [종합]</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>헌정 사상 처음으로 대통령 탄핵을 이끌어 낸 '국정 농단' 사건에 대한 대법원의 최종 판단이 내려졌다. 대법원은 박근혜 전 대통령, '비선 실세' 최순실, 이재용 삼성전자 부회장이 연루된 '국정농단' 사건 상고심에서 각기 다른 이유로 서울고법에 돌려보냈다. 서울고법은 대법원이 파기한 이유에 대해서 다시 판단해 형을 정하게 된다. 대법원이 '국정농단' 혐의로 기소된 박근혜 전 대통령에게 징역 25년에 벌금 200억원을 선고한 2심 재판을 다시 하라고 결정했다. 대법원 전원합의체는 29일 박 전 대통령의 '국정농단 사건' 상고심에서 징역 25년에 벌금 200억원을 선고한 원심판결을 깨고 사건을 서울고법에 돌려보냈다. 재판부는 박 전 대통령의 1·2심 재판부가 다른 범죄 혐의와 구별해 따로 선고해야 하는 뇌물 혐의를 분리하지 않아 법을 위반했다고 판단했다. 대법원은 박 전 대통령의 뇌물 혐의를 분리선고해야 하기 때문에 앞선 1, 2심 재판부가 법을 위반했다고 판단했다. 공직선거법은 대통령 등 공직자에게 적용된 특정범죄 가중처벌에 관한 법률상 뇌물 혐의는 다른 범죄 혐의와 분리해 선고하도록 한다. 공직자의 뇌물죄는 선거권 및 피선거권 제한과 관련되기 때문에 반드시 분리해 선고하도록 한 것이다. 대법원은 "공직선거법에 따르면 형법에도 불구하고 대통령이 재임 중 직무에 관해 뇌물 혐의 범죄를 저지른 경우 다른 죄와 분리해 선고해야 한다"며 "원심은 피고인에게 유죄로 판단한 특가법 뇌물죄와 다른 죄에 대해 형법 38조를 적용해 하나로 선고했다"고 지적했다. 대법원은 최순실 "일부 강요죄 성립 안된다며 2심판결도 파기환송했다. 대법원은 이날 삼성이 제공한 뇌물액 규모와 관련해 이재용 부회장의 2심 판결 중 무죄로 봤던 부분을 추가로 뇌물로 인정했다. 삼성이 최씨 측에 제공한 말 3필과 관련해 소유권 자체를 넘겨준 것으로 보고 말 구입액 34억원을 뇌물로 판단했다. 이 부회장의 2심은 말 구입액이 아닌 말 사용료 부분만 뇌물로 인정된다고 봤다. 대법원은 "이 부회장 등은 살시도 구입 과정에서 말 소유권이 삼성에 있다는 점을 명확히 하기 위해 국제승마연맹에서 발급한 말 패스포트 마주(馬主) 란에 삼성전자를 기재했다"며 "이후 확실히 하기 위해 최씨에게 위탁관리계약서 작성을 요구했다"고 설명했다. 이어 "이때 최씨는 '윗선에서 삼성이 말 사주기로 했는데 왜 삼성명의로 했냐'며 화를 냈다"며 "최씨가 이런 태도를 보인 건 말 소유권을 원했기 때문이라고 볼 수 있다"고 판단했다. 대법원은 "삼성은 '기본적으로 원하는 대로 하겠다'는 문자를 보냈고, 박근혜 전 대통령은 단독면담에서 이 부회장에게 '승마 유망주에게 좋은 말 사줘라'라고 했다"며 "삼성으로선 최씨가 말 소유권을 취득하게 해야 한다는 점을 알았다고 봐야 한다"고 인정했다. 또 "실질적 말 처분 권한은 최씨에게 있다는 것을 인정했고, 의사 합치가 있었다"며 "이후 비타나, 라우싱 매수 때도 살시도와 같이 삼성 내부 기안문에 패스포트와 소유주 부분을 삭제했다"고 설명했다. 그러면서 "이 부회장이 최씨에게 제공한 말은 뇌물이라고 봐야 한다"며 "이와 달리 (말 관련) 뇌물은 액수미상의 사용이익에 불과하다고 본 건 논리와 경험칙에 반하고 일반상식에도 어긋난다"고 판단했다. 앞서 박 전 대통령과 최씨 항소심은 말 3마리 소유권이 최씨에게 있었다고 인정해 마필 금액인 34억1797만원을 뇌물로 인정했다. 아울러 대법원은 이 부회장의 2심 판결에서 뇌물로 인정되지 않았던 동계스포츠영재센터 뇌물 혐의액 16억원도 뇌물액으로 인정된다고 판시했다. 삼성에 경영 승계작업이라는 포괄적 현안이 존재했으므로 대가관계가 인정된다는 판단에 따른 것이다. 이번 대법원 판결은 이 부회장에게 상당히 불리하게 적용된 것은 앞서 2심에서 뇌물로 인정되지 않았던 말 3마리 34억원이 뇌물로 인정되면서 총 뇌물액수가 50억 원을 넘어가게 된 점이다. 뇌물이 50원을 넘을 경우엔 실형을 선고받을 가능성이 높다. 박 전 대통령과 최 씨가 기소된지 2년 4개월, 이 부회장이 기소된지 2년 6개월만에 나오는 이날 선고는 약 50분 안팎으로 진행됐다. 삼성 측은 대법원의 파기환송 판결에서 뇌물이 추가 인정된 부분에 대해 "대단히 송구하다. 잘못 되풀이 않도록 본연의 역할에 충실하겠다"고 입장을 냈다. 이미나 한경닷컴 기자 helper@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>결국 10만원짜리 갤럭시노트10은 없었다</t>
-        </is>
+      <c r="A39" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>개통 후 첫 주말 실구매가 주중보다는 내려가 사전판매 시 약속했던 수준보다는 높아 제2의 빵집 대란 기다리며 관망하는 소비자 늘어나 삼성전자가 20일 '갤럭시노트10' 국내 사전 판매량이 지난 17일 기준 100만대를 넘겼다고 밝혔다. 최종 사전 판매 물량은 130만대 이상으로 추정된다. 이는 전작 대비 2배 이상 증가한 수치다. 이날 한 시민이 서울 강남구 삼성전자 딜라이트샵을 찾고 있다. /문호남 기자 munonam@ [아시아경제 임온유 기자] 결국 10만원짜리 갤럭시노트10은 없었다. 고로 대란도 없었다. 주말에도 불법보조금 규모가 신통치 않자 휴대폰 집단상가에서는 소비자가 갤럭시노트10 구매에 선뜻 나서지 않는 풍경이 그려졌다. 방송통신위원회-이동통신사-휴대폰판매점-소비자 간의 눈치싸움이 지속되면서 판매열기가 갤럭시S10 5G 첫 주말에 미치지 못하는 것으로 보인다. 물론 기다림에 지쳐 '졸업'을 선언하는 이들도 적잖게 등장했다. 졸업이란 휴대폰 커뮤니티에서 쓰이는 은어로, 구매를 완료했다는 뜻이다. 이 와중에 갤럭시노트10 플러스 512GB 아우라 블랙, SK텔레콤 전용인 갤럭시노트10 플러스 256GB 아우라 블루 등 특정 모델의 물량 부족 현상까지 이어지면서 시장 상황이 매우 복잡하게 돌아가고 있다. 삼성전자가 20일 '갤럭시노트10' 국내 사전 판매량이 지난 17일 기준 100만대를 넘겼다고 밝혔다. 최종 사전 판매 물량은 130만대 이상으로 추정된다. 이는 전작 대비 2배 이상 증가한 수치다. 이날 서울 강남구 삼성전자 딜라이트샵을 찾은 시민들이 제품을 살펴보고 있다. /문호남 기자 munonam@ 삼성전자 갤럭시노트10이 출시된 이후 첫 주말인 24일 최저 실구매가는 일반형(124만8500원)의 경우 30만원 초반대, 플러스형(256GB 139만7000원, 512GB 149만6000원)의 경우 40만~50만원대에서 책정됐다. 갤럭시노트10 개통일인 20일을 포함한 주중보다는 나아졌지만 당초 휴대폰판매점이 약속했던 수준(10만~30만원대)에는 크게 못미치는 금액대다. 이에 첫 주말을 기다리자며 관망적 자세를 취해온 사전예약자들이 다시 한번 고민에 빠졌다. 한 휴대폰 유통업계 관계자는 "신도림 휴대폰 집단상가의 경우 예비 구매자로 북적이긴 했지만 실구매까지 이어지는 비율이 낮은 것으로 분석된다"고 말했다. 갤럭시노트10 실구매가는 공식판매가에 비하면 매우 낮은 수준이다. 그럼에도 구매를 망설이는 이유는 소비자가 상반기 LG전자 V50 씽큐의 '빵집' 대란을 떠올리고 있기 때문이다. 빵집이란 실구매가 0인 폰을 뜻한다. 당시 이동통신3사는 5G 초기 가입자를 유치하기 위해 막대한 보조금으로 경쟁한 바 있다. 결국 갤럭시노트10을 사려는 소비자의 망설임은 과거 이통3사의 과도했던 보조금 때문인 셈이다. 갤럭시노트10의 사전판매량은 130만대로 전작 갤럭시노트9의 두배에 이르렀다. 이에 업계는 일찌감치 갤럭시노트10의 흥행을 점쳤다. 그러나 낮은 보조금으로 실구매율이 목표치에 도달하지 못하자 업계는 흥행에 제동이 걸릴까 우려하고 있다. 일부 소비자는 결국 대란은 터질 것이라며 계속 버티겠다는 의지를 드러냈다. 그러나 방통위의 감시 아래 이통3사가 시장 안정화에 방점을 찍으면서 당분간 대란은 없을 가능성이 높다. 임온유 기자 ioy@asiae.co.kr &amp;lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&amp;gt;</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=032&amp;aid=0002960024&amp;date=20190829&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=8</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>대법 “삼성, 승계 부정청탁”…이재용 뇌물액 50억 늘었다 [대법, 국정농단 선고]</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>“영재센터 16억·말 3마리 대금 34억, 대가 관계 여지 충분…뇌물 인정” ‘집행유예’ 2심 뒤집어…이 부회장, 총뇌물액 늘어 재구속 가능성 커져 박근혜 2심엔 “모든 혐의 합쳐 선고는 위법…형량 분리해 재선고하라” 대법원 전원합의체가 박근혜 전 대통령(67)·이재용 삼성전자 부회장(51) 등에 대한 상고심에서 이 부회장에 대한 경영권 승계작업이 존재했고, 이 부회장이 박 전 대통령에게 승계와 관련한 부정한 청탁을 했다고 판단했다. 대법원은 삼성이 비선실세 최순실씨(63)에게 준 ‘말 3필’도 뇌물로 인정했다. 29일 대법원 전원합의체는 이 부회장에게 징역 2년6월에 집행유예 4년을 선고한 2심 판결을 파기하고 사건을 서울고법으로 돌려보냈다. 이 부회장 2심을 선고한 서울고법 형사13부(재판장 정형식 부장판사)는 최씨가 설립한 한국동계스포츠영재센터에 삼성이 지원한 16억2800만원을 뇌물이 아니라고 판단했다. 제3자 뇌물죄는 공무원에게 ‘부정한 청탁’을 하며 제3자에게 대신 뇌물을 줘야 성립한다. 2심은 승계작업이 애초 존재하지 않았고, 승계를 위한 부정한 청탁도 없었다고 했다. 대법원은 2심 판결이 잘못됐다고 봤다. 대법원은 “부정한 청탁은 묵시적 의사표시로도 가능하고 청탁의 대상인 직무행위의 내용이 구체적일 필요도 없다”며 “부정한 청탁의 내용도 박 전 대통령의 직무와 이 부회장의 영재센터에 대한 자금 지원 사이에 대가관계를 인정할 수 있을 정도면 충분하다”고 밝혔다. 대법원은 “대통령의 포괄적인 권한에 비춰보면 영재센터 지원금은 대통령 직무와 대가관계가 있다고 볼 여지가 충분하다”고 했다. 대법원은 살시도·비타나·라우싱 등 말 3필(보험료 제외 34억1797만원)도 뇌물이라고 인정했다. 2심은 형식적인 말 소유권이 삼성으로 돼 있다는 이유로 뇌물이 아니라고 했다. 대법원은 말에 대한 실질적인 사용·처분권이 최씨에게 있었고, 최씨와 삼성 사이에 말을 최씨가 갖는다는 의사의 합치도 있었다고 판단했다. 대법원 판결에 따라 이 부회장은 파기환송심 재판을 받아야 한다. 대법원 취지에 따르면 이 부회장이 박 전 대통령과 최씨에게 줬다고 인정되는 뇌물 액수는 2심보다 약 50억원이 늘어난다. 이미 뇌물로 인정된 코어스포츠 용역대금(36억3484만원)까지 합치면 전체 뇌물 액수는 86억원대다. 이 부회장이 준 뇌물은 삼성 법인자금이라 횡령으로도 이어진다. 횡령 액수가 50억원 이상으로 인정되면 파기환송심에서 이 부회장이 재구속될 가능성이 높다. 2심에서 이 부회장에게 집행유예가 선고된 핵심 요인이었던 ‘강요의 피해자’ 논리도 깨졌다. 대법원은 이날 이 부회장에게 영재센터 지원을 ‘강요’했다는 최씨 혐의를 무죄 취지로 판단했다. 대법원은 박 전 대통령에 대해서는 모든 혐의를 합쳐 징역 25년을 선고한 게 위법하다며 2심을 다시 하라고 판결했다. 공직선거법에 따르면 대통령이 재임 중 직무와 관련한 뇌물 혐의로 기소된 경우에는 다른 혐의와 분리해 선고해야 한다. 경제정의실천시민연합 등 시민단체들은 “사법정의와 국민상식에 부합하는 판결”이라며 환영했다. 이 부회장 측 이인재 변호사는 “대통령 요구에 따른 금품 지원에 대해 뇌물 공여죄를 인정한 것은 다소 아쉽다”며 “이 부회장 등은 많은 분들에게 실망과 심려를 끼치게 된 점에 대해 진심으로 송구하다는 말씀을 드린다”고 말 했다. 이혜리 기자 lhr@kyunghyang.com ▶ ▶ ▶ ©경향신문(www.khan.co.kr), 무단전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>삼성전자, 갤노트10 핵심 서비스로 블록체인 앱 '림포' 소개</t>
-        </is>
+      <c r="A40" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>삼성전자가 최신 스마트폰 갤럭시노트10을 출시하면서 블록체인 애플리케이션(앱)을 핵심 서비스로 홍보하고 있어 눈길을 끈다. 유력 스마트폰 제조사 가운데 가장 먼저 블록체인 지갑 서비스를 탑재하면서 블록체인 생태계 조성에 힘쓰고 있다는 것을 강조하기 위한 것으로 풀이된다. ■갤노트10 체험관 갤럭시스튜디오에서 블록체인 앱 ‘림포’ 만난다 삼성전자는 지난 23일 공식 출시한 갤럭시노트10을 홍보하기 위해 전국 주요 지역 ‘갤럭시노트10 5G’와 ‘갤럭시노트10 플러스 5G’를 체험할 수 있는 갤럭시스튜디오를 마련했다. 갤럭시스튜디오에서는 이용자들이 자유롭게 갤럭시노트10을 체험해볼 수 있다. 서울 종로구 익선동에 위치한 갤럭시스튜디오에서 갤럭시노트10 5G를 체험해볼 수 있다. 특히 삼성전자는 이용자들이 갤럭시노트10을 통해 이용할 수 있는 다양한 혁신 서비스들을 미리 만나볼 수 있도록 했다. 이 혁신 서비스 가운데 블록체인 기술이 적용된 앱이 있다. 주인공은 바로 운동한만큼 암호화폐 보상을 주는 앱 ‘림포’다. 서울 종로구 익선동에 위치한 갤럭시스튜디오에서 갤럭시노트10과 ‘림포’ 앱을 만날 수 있었다. 갤럭시스튜디오의 안내직원에게 블록체인 앱을 살펴볼 수 있다고 해서 왔다고 했더니 바로 림포 앱을 구동시켜 준다. ■운동미션 수행하면 암호화폐 주는 ‘림포’ 림포는 리투아니아 블록체인 프로젝트가 개발한 앱이다. 매일 이용자에게 걷기나 뛰기 미션을 주고 이 미션을 완수할때마다 이용자에게 보상으로 림포토큰을 제공한다. 이 림포토큰으로 림포 앱 내의 림포샵에서 다양한 전자기기나 운동화, 운동복 등을 구매할 수 있다. 갤럭시스튜디오에서 갤럭시노트10 5G로 체험한 블록체인 기반 애플리케이션(앱)인 '림포' 갤럭시스튜디오에서는 림포 앱이 어떻게 이용되는지만 확인할 수 있었다. 미션을 수행하고 받은 림포토큰을 삼성 블록체인 월렛을 통해 출금하는 체험이 가능했다. 출금은 출금권을 구매하는 형태로 이뤄진다. 1000림포토큰을 출금하려면 100림포토큰이 수수료로 필요하다. 출금권을 구매하면 1000림포토큰을 삼성 블록체인 월렛으로 이동시킬 수 있다. 이렇게 삼성 블록체인 월렛으로 이동한 림포토큰을 다시 림포토큰이 상장된 암호화폐 거래소 지갑으로 이동시키면 현금으로 바꿀 수 있다. 수수료가 아깝다면 그냥 림포샵에서 다른 상품권이나 제품을 구매하면 된다. 체험버전에서는 신세계백화점 1만원 상품권이 1000림포토큰으로 판매된다고 안내돼 있다. 갤럭시버즈와 같은 제품과 스타벅스 교환권 등도 구매할 수 있다. ■림포 한국 이용자 2만명 넘어, 보상액도 1억원 돌파 림포 앱은 구글 플레이스토어 등 앱스토어를 통해 내려받을 수 있다. 갤럭시노트10이 아니더라도 다른 스마트폰에서 이용할 수 있다. 다만 삼성 블록체인 월렛이 탑재된 갤럭시노트10과 갤럭시S10이 아니면 출금권을 활용한 암호화폐 출금이 불가능하다. 현재 림포 앱 이용자 수는 글로벌 기준 23만명이고, 이 가운데 2만명이 한국인이다. 한국이용자들이 수행한 미션이 100만건을 돌파했고 보상액도 1억원을 넘겼다. 업계 한 관계자는 “최근 여러 블록체인 기반 서비스가 출시되고 있지만 가장 많이 이용되고 있는 앱이 림포일 것”이라며 “실생활에서 블록체인 기술을 직접 활용할 수 있다는 점을 증명한 앱이기 때문에 삼성전자도 림포 앱을 블록체인 기술 홍보용으로 선택했을 것”이라고 전했다. 한편 갤럭시스튜디오에서 체험한 갤럭시노트10의 또다른 앱 가운데 하나인 ‘삼성글로벌골스’도 눈길을 끌었다. 이 앱은 이용자들이 유엔개발계획에 직접 기부를 할 수 있도록 지원하는 앱이다. 최근 블록체인 기술이 투명한 기부문화를 만들 수 있다는 점에서 주목받고 있는 만큼, 향후 이 앱에도 블록체인 기술이 적용될 가능성이 높아 보인다. jjoony@fnnews.com 허준 기자 ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=055&amp;aid=0000755195&amp;date=20190829&amp;type=2&amp;rankingSectionId=102&amp;rankingSeq=9</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>[풀영상] 대법, 박근혜·최순실·이재용 2심 모두 파기환송…이재용 뇌물액수↑</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 	 	대법원이 '국정농단' 사건의 핵심 인물인 박근혜 전 대통령과 이재용 삼성그룹 부회장, '비선실세' 최순실 씨의 2심 재판을 전부 다시 하라고 결정했습니다. 박 전 대통령은 뇌물 혐의와 다른 공소사실을 합쳐 형량을 선고한 것이 위법하다는 법리적 이유에서 파기 환송이 결정됐습니다. 2심에서 집행유예를 선고 받고 석방된 이재용 부회장은 최씨 측에 건넨 뇌물액과 횡령액이 2심 때보다 더 늘어나 재판을 다시 받게 됐습니다. 이들의 형량은 파기환송심 재판을 통해 결정되는데, 이 부회장의 경우 2심 때보다 인정된 범죄혐의가 늘어 다시 구속될 가능성도 배제할 수 없습니다. 대법원 전원합의체는 오늘(29일) 박 전 대통령과 이 부회장의 '국정농단 사건' 상고심에서 각각 징역 25년에 벌금 200억원, 징역 2년6개월에 집행유예 4년을 선고한 원심판결을 깨고 사건을 서울고법으로 돌려보냈습니다. 징역 20년 및 벌금 200억 원을 선고한 최순실씨의 2심 재판도 다시 하라고 결정했습니다. 재판부는 우선 박 전 대통령의 1·2심 재판부가 다른 범죄 혐의와 구별해 따로 선고해야 하는 뇌물 혐의를 분리하지 않아 잘못했다고 판단했습니다. 공직선거법은 대통령 등 공직자에게 적용된 특정범죄 가중처벌에 관한 법률상 뇌물 혐의는 다른 범죄 혐의와 분리해 선고하도록 하고 있습니다. 대법원은 이 부회장에 대해서는 2심 재판부가 뇌물이 아니라고 판단한 '정유라 말 구입액'과 '동계스포츠영재센터 지원금'을 모두 문제 삼았습니다. 이 부회장의 2심은 삼성이 대납한 정유라 승마지원 용역 대금 36억 원은 뇌물로 인정했지만, 말 구입액 34억원과 영재센터 지원금 16억 원은 소유권이 이전되지 않았거나 대가성이 없다는 이유로 뇌물이 아니라고 판단했습니다. 하지만 대법원 전원합의체는 말 구입액 자체가 뇌물에 해당하고, 영재센터 지원금도 삼성의 경영권승계 현안과 관련된 부정한 청탁의 대가로 지급한 것이라고 밝혔습니다. 최씨에 대해선 미르·K스포츠재단 등의 출연금을 기업에 요구한 행위가 강요죄가 성립될 정도의 협박은 아니라고 판단해, 강요죄 유죄를 선고한 2심 판단이 잘못됐다고 판결했습니다. 대법원 전원합의체 판단에 따라 박 전 대통령 파기환송심은 유죄가 인정된 뇌물 혐의에 대해 다른 범죄 혐의인 직권남용 및 강요 혐의 등과 구별해 따로 선고해야 합니다. 범죄 혐의를 한데 묶어 선고하지 않고 분리 선고할 경우 형량이 늘어날 가능성이 높습니다. 이 부회장 파기환송심은 뇌물혐의를 다시 판단하고, 뇌물액과 횡령액을 재산정해 형량을 정하는 절차를 거치게 됩니다. 대법원 판단으로 뇌물혐의가 늘고, 횡령액이 증가한 만큼 실형 선고가 유력하다는 전망이 나오고 있습니다. 최씨는 2심에서 유죄가 선고된 일부 강요 혐의 등이 무죄 취지로 파기됐지만, 형량에는 큰 영향을 미치지 못할 것이란 전망이 많습니다.  곽상은 기자(2bwithu@sbs.co.kr) ※ ⓒ SBS &amp;amp; SBS Digital News Lab. : 무단복제 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>물 만난 ‘청불’ 보드게임, 애플 인기순위 점령</t>
-        </is>
+      <c r="A41" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>25일 애플 앱스토어 인기 순위(게볼루션 집계) - 맞고·포커 등 애플 앱스토어 진입하자 인기 상위 직행 - 향후 거래소 갖춘 대형 RPG, 애플 앱스토어 대응 촉각 [디지털데일리 이대호기자] 국내 애플 앱스토어에서 만 18세 이상 이용가인 청소년이용불가(청불) 게임 유통을 할 수 있게 되자 맞고·포커 등 성인 대상의 보드게임이 인기를 끌고 있다. 25일 애플 앱스토어 무료 인기 순위(게볼루션 집계)를 보면 1위 한게임 섯다, 3위 피망 뉴맞고, 4위 피망 섯다, 6위 한게임 신맞고, 7위 한게임 포커 등이 올라와 순위 전반을 재편한 상황이다. 간단한 보드게임 특성 상 시장 대응이 가장 빨랐고 성인 이용자들도 iOS 플랫폼에서 즐길 수 있는 보드게임에 반색하는 분위기다. 맞고·포커 등의 모바일 보드게임은 지난 23일 일제히 출시됐다. 업계에선 구글플레이처럼 애플 앱스토어에서도 보드게임들이 꾸준한 매출 순위를 유지할지에 관심을 보이고 있다. 구글플레이에선 보드게임 2강 업체인 네오위즈 대비해 한게임이 약세를 보였으나 애플 앱스토어에선 각축을 벌일지 주목된다. 애플 앱스토어의 순위 재편은 현재 진행형이다. 향후 아이템 거래소를 갖춘 대형 역할수행게임(RPG)들이 애플 앱스토어에 진입, 매출 순위를 뒤흔들지도 기대를 모은다. 앞서 게임물관리위원회 판단으로 유료 캐시를 활용한 아이템 거래소 콘텐츠 유무에 따라 청불 또는 청소년이용가 등급이 나뉜 바 있다. 리니지M 등이 대표적으로 청불과 12세 이용가로 나눠 서비스 중이다. 리니지M 청불 등급은 출시 이후 2년이 넘게 구글플레이 매출 1위 붙박이인 상황이다. 이를 감안하면 리니지M 성인 이용자층을 겨냥한 애플 앱스토어 대응은 시간문제라는 관측이 나온다. 올 하반기엔 리니지M의 적통을 잇는 리니지2M도 출시를 앞뒀다. 한편 한국모바일산업연합회(MOIBA)가 발간한 ‘2018년 대한민국 모바일 콘텐츠산업 현황’ 보고서에 따르면 그해 구글플레이 매출액은 5조4098억원(전년비 10.8%↑)으로 전체 63.2%를 차지했다. 애플 앱스토어 매출액은 2조1211억원(전년비 9.4%↑)으로 24.8% 비중을 보였다. 성인 게임물 유통으로 애플 앱스토어 매출액 비중에 변화가 찾아올지 주목된다. &amp;lt;이대호 기자&amp;gt;ldhdd@ddaily.co.kr &amp;lt;저작권자 © 디지털데일리 무단전재-재배포금지&amp;gt;</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011048696&amp;date=20190829&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>대법 "국정농단 2심 전부 다시"…이재용 뇌물·횡령액 늘어(종합)</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>박근혜·이재용·최순실 항소심 전부 파기…"박근혜 뇌물혐의 분리선고해야" 박근혜 2심 무죄 부분은 확정…이재용, 말구입액·영재센터 지원도 '뇌물' (서울=연합뉴스) 임순현 성도현 기자 = 대법원이 '국정농단' 사건 핵심 인물인 박근혜 전 대통령과 이재용 삼성그룹 부회장, '비선실세' 최순실 씨의 2심 재판을 전부 다시 하라고 결정했다. 박 전 대통령은 뇌물 혐의와 다른 공소사실을 합쳐 형량을 선고한 것이 위법하다는 법리적 이유에서, 이 부회장은 최씨 측에 건넨 뇌물액과 횡령액이 2심 때보다 더 늘어나야 한다는 이유 등에서 2심 재판을 다시 받게 됐다. 이들의 형량은 다시 열리는 2심(파기환송심) 재판을 통해 결정된다. 이 부회장의 경우, 기존 2심 때보다 인정된 범죄혐의가 늘어났기 때문에 형량이 더 무거워질 가능성이 커졌다. 다시 구속될 수도 있다. 박 전 대통령 역시 이날 대법원 판결에 따라 파기환송심에서 뇌물 혐의에 대한 분리 선고가 이뤄질 경우 형량이 더 무거워질 가능성이 있다. 대법원 전원합의체는 29일 박 전 대통령과 이 부회장의 '국정농단 사건' 상고심에서 각각 징역 25년에 벌금 200억원과 징역 2년6개월에 집행유예 4년을 선고한 원심판결을 깨고 사건을 서울고법에 돌려보냈다. 징역 20년 및 벌금 200억원을 선고한 최순실씨의 2심 재판도 다시 하라고 결정했다. 재판부는 우선 박 전 대통령의 1·2심 재판부가 다른 범죄 혐의와 구별해 따로 선고해야 하는 뇌물 혐의를 분리하지 않아 법을 위반했다고 판단했다. 공직선거법은 대통령 등 공직자에게 적용된 특정범죄 가중처벌에 관한 법률상 뇌물 혐의는 다른 범죄 혐의와 분리해 선고하도록 한다. 공직자의 뇌물죄는 선거권 및 피선거권 제한과 관련되기 때문에 반드시 분리해 선고하도록 한 것이다. 이 부회장에 대해서는 2심 재판부가 뇌물이 아니라고 판단한 '정유라 말 구입액'과 '동계스포츠영재센터 지원금'을 문제 삼았다. 이 부회장의 2심은 삼성이 대납한 정유라 승마지원 용역 대금 36억원은 뇌물로 인정했지만, 말 구입액 34억원과 영재센터 지원금 16억원은 소유권이 이전되지 않았거나 대가성이 없다는 이유로 뇌물이 아니라고 봤다. 이에 대해 대법원 전원합의체는 말 구입액 자체가 뇌물에 해당하고, 영재센터 지원금도 삼성의 경영권승계 현안과 관련된 부정한 청탁의 대가로 지급한 것이라고 판단했다. 최씨에 대해선 미르·K스포츠재단 등의 출연금을 기업에 요구한 행위가 강요죄가 성립될 정도의 협박은 아니라고 판단해, 강요죄 유죄를 선고한 2심 판단이 잘못이라도 판결했다. 대법원 전원합의체 판단에 따라 박 전 대통령 파기환송심은 유죄가 인정된 뇌물 혐의에 대해 다른 범죄 혐의인 직권남용 및 강요 혐의 등과 구별해 따로 선고해야 한다. 범죄 혐의를 한데 묶어 선고하지 않고 분리 선고할 경우 형량이 높아질 가능성이 크다. 이 부회장 파기환송심은 뇌물혐의를 다시 판단하고, 뇌물액과 횡령액을 재산정해 형량을 정하는 절차를 거칠 것으로 보인다. 뇌물혐의가 늘고, 횡령액이 증가한 만큼 징역형의 실형 선고가 불가피하다는 전망이 나온다. 최씨는 2심에서 유죄가 선고된 일부 강요 혐의 등을 무죄라는 취지로 파기됐지만, 형량에는 별다른 영향을 미치지 못할 것으로 관측된다. hyun@yna.co.kr</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[영상] 애플 아이폰 11 vs 삼성 갤럭시 폴드, 9월 맞장 뜬다 </t>
-        </is>
+      <c r="A42" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>(지디넷코리아=유회현 기자) 삼성전자 폴더블 스마트폰 갤럭시 폴드가 9월 출시 예정이다. 지난 2월 앞서 공개한 갤럭시 폴드는 일부 결함이 발견되면서 여론의 뭇매를 맞았다. 하지만 삼성전자는 4월 출시 일정을 무기한 연기하고 힌지 부분의 들뜸 현상과 필름처럼 보이는 디스플레이 부품 등 내구성 개선을 위한 개발에 착수했다. 2019년 하반기 새로운 아이폰 출시가 예고된 가운데 결함을 고치고 새롭게 돌아온 갤럭시 폴드가 2천 달러 대의 가격대로 선전 할 수 있을지 지켜봐야 할 듯하다. 유회현 기자(lusy33@zdnet.co.kr) /</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=437&amp;aid=0000218551&amp;date=20190829&amp;type=2&amp;rankingSectionId=102&amp;rankingSeq=12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>[영상] 대법원, 박근혜·최순실·이재용 모두 파기환송</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 · 대법원 "원심 파기…서울고법에 환송" · 대법원, 박근혜·최순실 공동정범 성립 인정 · 대법원 "박 전 대통령 뇌물혐의 분리선고해야…1·2심 법 위반" · 대법원 "삼성의 '정유라 승마지원' 말 구입액 34억원도 뇌물" · 대법원 "최순실, 말들에 대한 실질적 처분권 있어" · 대법원 "삼성에 포괄적 현안으로 '승계작업' 존재…대가관계 인정" · 대법원 "삼성의 영재센터 16억원 지원은 뇌물" · 대법원, 박근혜·최순실 공동정범 성립 인정 · 대법원 "삼성 말 뇌물 아니라는 원심에 오류있어" · 대법원 "이재용 원심 판결 파기환송" (* 자세한 내용은 JTBC 뉴스를 통해 확인하실 수 있습니다.) (JTBC 뉴스운영팀) Copyright by JTBC(http://jtbc.joins.com) and JTBC Content Hub Co., Ltd. All Rights Reserved. 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>‘명불허전’ 갤노트10 출시 첫 주말 “재고가 없어요”</t>
-        </is>
+      <c r="A43" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>하반기 기대작 갤노트10, 20일 선개통·23일 공식출시 첫주말 대리점·판매점 모두 "재고 없어 못 판다" 사전 예약물량도 해소 안돼 물량부족 이어질 듯 "번이 혜택도 그닥…가격 오히려 더 오를 수 있다" [이데일리 장영은 기자] “갤노트10 플러스요? 우린 물건이 없어요” 갤럭시노트(갤노트)10 출시 첫 주말, 강변 테크노마트 내 휴대폰 집단상가의 분위기는 ‘역대 최대’ 수준이라는 사전 예약 열기를 실감케 했다. 갤노트10은 지난 20일부터 사전예약자 대상 선개통이 시작됐으며 23일 공식출시 됐다. 20일 서울 종로구 LG유플러스 종각직영점에서 열린 삼성전자 5G폰 ‘갤럭시노트 10’ 출시 기념행사에서 고객이 갤럭시노트10을 받고 있다. (사진= 뉴시스) ◇ 개통 대기 서류 줄줄이 밀려…“열에 아홉은 갤노트10” 공식 출시 당일인 23일에도 분위기를 보고자 방문했지만 주말은 확실히 달랐다. 평일인 전날은 휴대폰 판매점이 모여 있는 6층 전체에 20여명 정도의 사람들이 휴대폰을 ‘보러’ 다니는 수준이었고, 간간이 (계약) 서류를 쓰고 있는 모습이 보였다. 24일은 늦은 오후 시간에 방문했음에도 거의 모든 판매점마다 상담을 하거나 서류를 쓰는 사람이 있을 정도였고, 일부 ‘인기’ 매장은 서너명씩 기다리기까지 했다. 판매점 10곳을 돌며 갤노트10 가격과 반응을 알아본 결과 4곳은 갤노트10 플러스는 아예 물량이 없다며 손을 내저었다. 나머지 판매점들도 “재고를 확인해 봐야 한다”며 바로 개통이 힘들 수도 있다고 전했다. ‘ㄷ’ 판매점 매장 직원은 “일단 원하는 색깔 순서를 말해주면 창고에 가서 확인해 보겠다”면서 “블랙이랑 화이트가 있을 가능성이 가장 높고 블루랑 아우라 글로우는 솔직히 언제 될지 모르겠다. 사전 예약자들도 못 받고 있는 상황”이라고 말했다. 매장에 옮겨 놓은 물량은 이미 오전에 다 나갔고 사겠단 사람이 있을 때만 재고를 확인해 가지고 오는 식이었다. 재고가 있으면 기기는 바로 받아갈 수 있지만 개통도 지연될 수 있다는 게 매장측 설명이었다. 이 직원은 “지금 마감 시간까지 2시간도 채 안 남았는데 오늘 개통물량이 엄청 밀려 있다”면서 “오늘 8시까지 안 되면 내일은 휴일이라 월요일 아침에 될텐데 그 정도는 생각하고 계셔야 한다”고 설명했다. 개통 대기 물량 대부분이 갤노트10 이라고 덧붙였다. 갤럭시노트10 플러스 아우라 글로우 색상. (사진= 삼성전자) ◇ 사전 예약 물량도 아직 해소 안돼…“가격 오히려 더 오를 수도” 이같은 인기에도 가격 경쟁은 그다지 과열되지 않는 분위기였다. 가격 문의를 한 매장 중 3곳은 “알아본 가격이 얼마냐”며 내민 계산기에 40만원대 중반의 가격을 찍,자 “우리는 이 가격에 맞춰줄 수 없다”면서 ‘협상’ 자체를 포기했다. 나머지 3곳도 “그 정도가 지금 마지노선”이라며 새롭게 가격을 제시하진 않았다. 지난 23일 신분증을 맡기는 조건으로 갤노트10 플러스 모델을 30만원대 후반까지 제시했던 것을 감안하면, 사려는 사람은 늘었지만 판매 경쟁은 오히려 냉담해진 셈이다. ‘S’ 판매점 직원은 “지금 분위기가 막 (현금 지원을) 쏘고 이럴 수 없다”면서 “번이(번호이동)를 해도 가격 차이가 많이 해봐야 5만원인데, 그나마 이건 물량이 없어서 신분증 맡겨놓고 가셔야 한다”고 했다. 직영 대리점도 상황은 비슷했다. 서울 종로구에 위치한 한 KT 대리점에서는 “공시지원금과 카드 사용을 통한 할인 혜택 외에는 지원해 드릴 수 있는 부분이 없다”며 “번호이동 추가 지원은 없다”고 딱 잘라 말했다. 서울 송파구의 한 SKT 대리점은 “요금제에 따른 공시지원금이 다 이긴 한데 이번 주말에만 특별히 ‘89’(8만9000원)요금제로 하실 경우 30만원 페이백을 해드린다”고 안내했다. 전날까지만 해도 가격이 더 떨어질 수도 있다는 판매점이 꽤 있었으나, 물량 부족에 실 구매자들의 방문이 이어지면서 오히려 가격이 오를 것 같다는 전망이 우세했다. 매장에서 만난 30대 회사원 최모씨는 “사전 예약했다가 그 가격엔 도저히 안 될 것 같다는 얘기를 듣고 매장을 방문했다”면서 “괜히 나중에 9월에 가격 더 내고 (사전예약) 사은품도 못 받게 될 것 같아서 지금 받아가려고 온 것”이라고 말했다. [이데일리 이동훈 기자]갤럭시노트10 일반 모델과 플러스 모델 사양비교. 장영은 (bluerain@edaily.co.kr) 네이버 홈에서 ‘이데일리’ 뉴스 꿀잼가득 , 청춘뉘우스~ ＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp;amp; 재배포 금지＞</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=009&amp;aid=0004418260&amp;date=20190829&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>유시민 이사장 "조국 사태 보며 인간이 무섭다는 생각 든다"</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>유시민 노무현재단 이사장이 최근 조국 법무부 장관 후보자를 둘러싼 일들을 보고 있으면 인간이 무섭다는 생각이 든다고 말했다. 유 이사장은 29일 tbs '김어준의 뉴스공장'에 출연해 국회 인사청문회의 도입취지가 능력과 자질검증을 위해서가 아니라, 후보자의 약점을 들춰내서 대통령과 정부를 공격하는 무대로 쓰인다며 이같이 밝혔다. 그는 이어 "확정된 사실에 의거해 후보자에 대한 판단을 형성하는게 중요하지만 무조건 조국을 떨어트려야 한다는 욕망이 언론보도를 지배하고 있다"고 지적했다. 그러면서 "인사청문회 개최도 불확실한 상황이지만 청문회를 통해 법을 위반한 사실이 하나라도 드러나면 조국 후보자가 사퇴할 것으로 본다"고 말했다. 서울대 촛불집회에 대해서는 "순수하게 집회에 참석한 학생이 많은지 집회에 나온 사람들을 보러 온 자유한국당 관계자가 많은지는 확인할 데이터가 없다"고 덧붙였다. [디지털뉴스국 이상규 기자] [ⓒ 매일경제 &amp;amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 시험을 잘 보려면 시험을 자주 봐야 한다? </t>
-        </is>
+      <c r="A44" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[ 토요판] 정수근의 기억실험실 ⑨ 공부 잘하는 법 반복학습은 암기에 도움되지만 들인 노력에 비하면 효과는 적어 한번 공부한 뒤 연습시험 통해 끄집어내 떠올리면 더 오래가 좌뇌형-우뇌형, 시각형-청각형… 말 많지만 검증된 학습법 아직 없어 ‘깊게 이해, 문제 풀고, 적절한 수면’ 평범하지만 최선인 공부의 길 배운 내용을 잘 이해하더라도 이해한 것을 기억하지 못한다면 소용이 없을 것이다. 하지만 단지 반복해서 읽고 쓰는 암기법만으로는 공부한 내용을 오래 기억하는 데 한계가 있다. 게티이미지뱅크 고등학생 시절에 영어 단어를 외우기 위해 종이에 단어를 한가득 채워 쓰곤 했다. ‘깜지’ 또는 ‘빽빽이’라고도 불리는 이 공부법은 이른바 ‘암기과목’을 공부하는 대표적인 방법이었다. ‘깜지’를 하느라 다 쓴 볼펜을 자랑스럽게 모아놓는 친구도 있었다. 하지만 안타깝게도 쌓여가는 볼펜의 개수가 꼭 높은 성적으로 이어지는 것은 아니었다. 그래도 공부를 잘하려면 암기도 잘해야 하는 것은 사실이다. 아무리 배운 내용을 잘 이해하더라도 기억하지 못한다면 소용이 없을 것이다. 오랜 시간 여러번 반복하는 게 능사가 아니라면 과학적으로 검증된 ‘공부 잘하는 방법’이 따로 있을까? 반복학습보다 인출연습 가장 보편적인 공부법은 아마도 ‘반복해서 읽기’일 것이다. 이미 많은 사람이 알고 있겠지만 단지 교과서를 여러번 되풀이해서 읽거나 ‘깜지’를 쓰는 방법은 들인 노력에 비해 효과가 그리 크지는 않다. 사실 얼마나 많이 반복하는가보다는 한번을 하더라도 얼마나 제대로 공부하느냐가 중요하다. 1975년에 이를 보여주는 연구 결과가 발표됐다. 캐나다 토론토대학 연구진은 실험 참가자들에게 여러 단어를 제시하면서 단어에 관한 몇가지 과제를 주었다. 단어의 글자가 대문자인지 소문자인지(시각적 처리 과제), 단어가 다른 단어랑 운율이 맞는지(청각적 처리 과제), 단어가 문장의 빈칸에 들어가도 되는지(의미적 처리 과제)를 판단하게 했다. 실험 참가자들에게 단어를 외우라는 지시를 하지는 않았다. 연구진은 단어 처리 과제를 마친 실험 참가자들에게 예고하지 않은 깜짝 테스트를 시행해서 얼마나 많은 단어를 기억하는지 조사했다. 결과는 아마 쉽게 예상할 수 있을 것이다. 사람들은 시각 또는 청각으로 정보를 처리했던 단어보다 의미를 따져 처리한 단어를 더 잘 기억할 수 있었다. 즉, 더 복잡하고 의미 있는 정보 처리를 할수록 더 오래 기억할 수 있다는 것이다. 그렇다면 의미를 되새기며 교과서를 여러번 되풀이해 읽으면 기억에 도움이 될까? 연구에 따르면, 그저 반복해 공부하는 것보다는 중간에 시험을 치르는 게 훨씬 효과적일 수 있다. 미국 세인트루이스 워싱턴대학의 헨리 로디거 교수가 2006년 이와 관련한 실험을 했다. 그는 실험에 참가한 학생들에게 과학 내용이 담긴 교재 자료를 제시하고서 공부하게 했다. 일부 학생들은 자료를 두번 반복해서 공부했고, 다른 학생들은 한번 공부하고 연습시험을 한번 치렀다. 5분 뒤 자료 내용을 얼마나 잘 기억하는지 검사한 결과에서는, 반복 학습한 학생들이 더 높은 점수를 받은 것으로 나타났다. 그러나 일주일 뒤 다시 시행한 검사에서는 결과가 뒤집혔다. 한번 공부하고 연습시험을 봤던 학생들이 시험 없이 반복 학습만 했던 학생들보다 실제 시험에서 더 좋은 점수를 받은 것이다. 즉, 반복 학습을 통해 정보를 여러번 저장하는 것과 비교해, 저장된 정보를 시험문제 풀이를 통해 인출하는(끄집어내어 떠올리는) 연습을 하는 게 더 효과적일 수 있다. 연습시험이 그저 시험에 적응하는 데 도움을 주었을 뿐은 아닐까? 다른 연구에서는 실제 시험과 연습시험의 형식이 다르더라도 연습시험이 반복 학습보다 더 나은 공부법이라는 결과가 제시됐다. 공부한 내용을 다시 읽으면 뇌에서는 이전에 저장된 정보만이 다시 활성화될 가능성이 높다. 하지만 시험문제를 풀면서 답을 떠올릴 때는 저장했던 정보와 함께 관련된 다른 정보도 함께 활성화될 수 있다. 이 과정에서 기존 지식과 새로 배운 정보가 통합되기도 하고, 관련이 없어 방해되는 정보는 억제되기도 한다. 그래서 인출 연습을 한 정보는 좀 더 정교화되고 잘 기억될 수 있다. 반복해 읽는 학습법은 ‘많이 공부했다’는 만족감을 준다. 반면에 연습시험 문제를 풀다 보면 모르는 게 많다고 느껴질 수 있다. 하지만 많은 연구들은 일단 학습을 한 다음에는 반복 학습보다 반복 인출 연습이 기억을 더 오래가게 한다는 점을 보여주고 있다. 그렇다면 앞으로 공부할 때 다음 몇 가지를 시도해볼 만하다. 교재에서 한 챕터가 끝나는 곳에 연습문제가 실려 있다면 그냥 넘어가지 말고 꼭 풀어보기 바란다. 챕터를 반복해 공부하는 것보다 효과가 더 좋을 것이다. 연습문제가 없다면 직접 질문을 만들고 답해보거나, 배운 내용을 차례로 다시 떠올려보는 인출 연습을 해봐도 좋다. 배웠던 모든 내용을 다 기억해내지 않아도 괜찮다. 로디거 교수의 다른 연구에서는 인출 연습을 한 정보뿐만 아니라 시험에서 다뤄지지 않은 다른 관련 정보의 기억도 덩달아 향상되었다. 학생을 가르치는 선생님이라면, 중간고사와 기말고사만 치르기보다는 학기 중에 쪽지시험을 여러번 보는 것도 배운 내용을 잊지 않게 하는 좋은 방법이다. 현재로선 여러 연구에서 검증된 효과적 학습법은 생각보다 평범하다. 주의 깊게 공부하고, 배운 내용을 시험해 보고, 적절한 수면을 취하는 게 좋다. 게티이미지뱅크 좌뇌형은 분석적, 우뇌형은 창의적 반복 학습이건 인출 연습이건 간에 공부에 쓸 수 있는 시간은 한정되어 있다. 당장 내일이 시험이라면 밤을 새워 한 글자라도 더 머릿속에 담고 싶을 것이다. 하지만 이미 이전 연재 글에서 다뤘듯이 뇌는 잠자는 동안에 공부한 내용을 복습한다.(5월16일치, ‘4당5락? 잠자는 동안 뇌는 낮에 공부한 내용 복습한다’) 잠을 자지 않으면 학습한 내용이 장기기억으로 전환되기 어렵다. 적절한 수면의 중요성을 보여주는 또 다른 사례가 있다. 혹시 ‘서머타임’(일광시간 절약제)을 기억하는가? 낮이 긴 여름에는 표준시를 1시간 당기고 낮이 짧은 겨울엔 시간을 되돌리는 제도이다. 우리나라에서도 몇번 시행되다가 1988년 이후에 사라진 제도이지만, 미국에서는 여전히 여름마다 시간을 1시간 당기고 있다. 미국의 모든 지역에서 서머타임을 시행하지는 않기 때문에, 같은 주 안에서도 서머타임을 시행하는 곳과 시행하지 않는 곳이 나뉘기도 한다. 이를 이용해 연구자들이 재밌는 비교를 해봤다. 미국 인디애나주에서 서머타임을 시행한 카운티의 학생들은 1시간 일찍 일어나야 했기에 일주기 리듬(생체시계)이 흐트러지게 되었다. 이 학생들은 미국의 대입 수능시험 격인 에스에이티(SAT) 시험에서 서머타임 제도를 시행하지 않은 카운티의 학생들보다 약 16점이 낮은 점수를 받았다. 서머타임으로 단순히 일어나는 시간만 빨라지는 게 아니다. 서머타임 시행 직후에는 일주기 리듬이 바뀌고 잠 시간이 줄어 주의 집중의 기능도 떨어질 수 있다. 학습 효율을 높인다고 알려진 여러 방법이 있다. 하지만 널리 알려진 학습법 중에도 과학적 근거가 부족한 것들이 있다. 대표적인 예가 ‘좌뇌형-우뇌형’ 학습 유형일 것이다. 뇌에는 좌반구와 우반구가 있고, 일부 기능은 좌뇌 또는 우뇌에 편중되어 있는 것은 사실이다. 하지만 ‘창의적인 사람은 어느 쪽 뇌가 우세하다’거나 ‘어느 한쪽 뇌 위주의 사고를 하는 사람이 더 직관적’이라는 등의 주장은 과학적인 근거가 없다. 실제로 미국 유타대학 연구진이 2013년 기능적 자기공명영상으로 1000여명의 뇌를 조사한 결과에서는 이른바 ‘좌뇌형’과 ‘우뇌형’ 활성화 패턴이 따로 존재하지 않는 것으로 나타났다. 그런데도 사람들의 뇌를 존재하지 않는 좌뇌형-우뇌형으로 나눈다면, ‘나는 한쪽 뇌가 더 우세하니 덜 창의적이야’라거나 ‘나는 이쪽 뇌가 우세하니 감성적인 면이 강하고 분석적인 면은 약해’라며 지레짐작으로 자신의 가능성을 제한해버릴 위험이 있다. 또 다른 널리 알려진 학습법으로 ‘시각형-청각형-신체감각형’ 학습 유형이 있다. 이름 그대로 시각형 학습자는 시각자료로 공부했을 때, 청각형 학습자는 정보를 소리로 들었을 때, 신체감각형은 몸을 움직여 경험했을 때 더 잘 배울 수 있고, 그래서 각자 자신이 선호하는 유형으로 공부하는 게 더 효율적이라는 것이다. 언뜻 그럴듯해 보이지만 샌디에이고 캘리포니아대학의 해럴드 패슐러 교수가 2008년에 이런 학습 유형에 대한 기존의 연구 결과들을 검토했더니, 선호하는 유형에 맞춰 공부하더라도 학습효과가 좋아지지 않는다는 결과가 더 많았다고 한다. 사람마다 시각이나 청각, 신체감각 정보 중 특정 유형을 다른 유형보다 선호할 수는 있다. 또한 어떤 정보는 특정 유형으로 제시될 때 이해하기도 쉽고 기억하기도 쉽다. 그러나 둘 사이에 뚜렷한 상관관계는 없었다. 시각형 정보를 더 좋아하는 사람은 있을 수 있지만, 그렇다고 그 사람이 늘 시각적으로 공부했을 때 학습 효율이 특별히 더 높지는 않았다는 것이다. 이렇게 보면, 내가 어떤 유형의 정보를 선호하는가보다는 배워야 할 내용이 어떤 유형에 적합한가가 더 중요하다. 예를 들어 내가 시각보다 청각을 선호한다고 하더라도 ‘뇌의 구조’를 배운다면 ‘청각적’으로 설명을 듣는 것보다 ‘시각적’으로 직접 각 뇌 영역의 위치를 보는 것이 더 효과적일 것이다. 영어 단어를 어떻게 발음하는지 배우기 위해서 발음기호를 ‘시각’으로 볼 수도 있겠지만 ‘청각’으로 듣고, ‘신체감각’으로 직접 발음해 보는 게 훨씬 낫다. 과학적으로 검증된 완벽한 공부법을 연구자들이 언젠가 찾아낼지도 모르겠다. 하지만 현재로선 여러 연구에서 검증된 효과적 학습법은 생각보다 평범하다. 주의 깊게 공부하고, 배운 내용을 시험해 보고, 적절한 수면을 취하는 게 좋다. 유산소 운동도 기억을 향상시키는 데 효과가 크다.(6월15일치 ‘운동하면 기억력이 좋아진다’) 마치 과일과 채소를 많이 먹고 운동을 열심히 하면 건강에 좋다는 말처럼 뻔한 얘기처럼 들릴 것이다. 하지만 방법을 안다고 해서 모두가 건강해지고, 모두가 효과적으로 공부하게 되진 않는다. 나 역시 ‘기억 인출 연습’을 하면 기억을 더 잘할 수 있다는 것을 알면서도 나중에 다시 찾아보면 그만이라는 생각에 그 연습을 소홀히 해, 애써 공부한 자료를 다반사로 잊어버린다. 운동과 잠이 중요하다는 글을 쓰는 지금도 졸린 눈을 비비며 거북목을 한 채 몇시간째 자리에서 움직이지 않고 있다. 아는 것과 실천하는 것은 다른 문제다. 정 수근 한국뇌연구원 선임연구원(심리학) [ⓒ한겨레신문 : 무단전재 및 재배포 금지]</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=081&amp;aid=0003025158&amp;date=20190829&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>구하라 측 “최종범 강한 처벌 원한다” 항소 의사</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>[서울신문] 가수 구하라씨를 폭행하고 협박한 혐의로 재판에 넘겨진 전 남자친구 최종범(28)씨가 1심에서 집행유예를 선고받자 구씨 측은 “범죄 근절을 위해서라도 보다 강한 처벌이 필요하다”며 항소 의사를 밝혔다. 서울중앙지법 형사20단독 오덕식 부장판사는 29일 최씨의 공소사실 중 협박·강요·상해·재물손괴 등을 유죄로 인정하고 징역 1년 6개월에 집행유예 3년을 선고했다. 최씨는 구씨와 다툰 뒤 “연예인 인생 끝나게 해주겠다. 언론에 제보하겠다”고 예고한 다음, 언론사에 연락했으나 영상 등을 전송하지는 않았다. 오달란 기자 dallan@seoul.co.kr ▶ ▶ ▶ 공짜로 만화를 볼 수 있다? 당신의 ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">카카오톡과 라이언, 나이키와 달린다 </t>
-        </is>
+      <c r="A45" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>톡비즈 솔루션과 카카오 '인기 IP' 라이언, 글로벌 브랜드와 첫 협업 카카오톡 배너 클릭하면 광고영상, 톡으로 간편가입서비스 달리는 라이언 아이템도 제공   카카오가 나이키 코리아와 손잡고 카카오톡과 인기 지적재산권(IP)인 라이언과 공동 마케팅을 진행한다고 24일 밝혔다. 이번 마케팅은 4600만 이용자가 있는 국민 메신저 플랫폼 카카오톡과 카카오 콘텐츠, 글로벌 브랜드와 새로운 협업을 시도한 사례다. 카카오톡이 지난 2·4분기에 베타서비스로 선보인 톡보드 최상단 배너를 클릭하면 #탭의 브랜드탭을 통해 라이언과 박나래의 유쾌한 광고 영상을 만날 수 있다. 또 카카오톡 간편가입 서비스를 통해 나이키 제품을 쉽게 볼 수 있는 이용자 동선을 마련했다. 아울러 카카오 계정으로 나이키닷컴에 로그인하면 선착순으로 한정판 이모티콘을 받을 수 있다. '조이런 마블 게임' 참여자에게는 카카오프렌즈 홍대 플래그십 스토어 지하 체험 공간 초대권도 제공한다. 아울러 카카오톡 프로필에서 '달리는 라이언' 스티커와 배경화면 등 프로필 아이템이 무료로 제공된다. 카카오 오프라인 접점을 통한 마케팅도 선보인다. 나이키 조이라이드 이노베이션과 디지털 인터랙티브 게임 등 다양한 경험을 할 수 있는 제품 체험 공간이 카카오프렌즈 홍대 플래그십 스토어 지하에 마련됐다. 이와 함께 한정판 카카오프렌즈 제품도 8월 말부터 강남, 홍대, 부산 카카오프렌즈 플래그십스토어와 DDP점, 카카오프렌즈 온라인몰에서 만나볼 수 있다. 카카오 관계자는 "이번 나이키 코리아와 협업은 카카오톡의 접근성과 인기 캐릭터 라이언의 친숙함을 기반으로 이용자에게 차별화된 가치와 경험을 제공하고자 한 것"이라며 "앞으로도 카카오 자산을 활용한 다양한 형태의 브랜드 간 협업을 이어갈 계획"이라고 말했다. gogosing@fnnews.com 박소현 기자 ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933356&amp;date=20190829&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>[속보] 대법, 박근혜 징역25년 2심 파기환송···형량 늘어날 가능성</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>대법원 전원합의체는 29일 박근혜 전 대통령의 ‘국정농단 사건’ 상고심에서 징역 25년에 벌금 200억원을 선고한 원심판결을 깨고 사건을 서울고법에 돌려보냈다. 재판부는 박 전 대통령의 1·2심 재판부가 다른 범죄 혐의와 구별해 따로 선고해야 하는 뇌물 혐의를 분리하지 않아 법을 위반했다고 판단했다. 공직선거법은 대통령 등 공직자에게 적용된 특정범죄 가중처벌에 관한 법률상 뇌물 혐의는 다른 범죄 혐의와 분리해 선고하도록 한다. 공직자의 뇌물죄는 선거권 및 피선거권 제한과 관련되기 때문에 반드시 분리해 선고하도록 한 것이다. 이에 따라 박 전 대통령 파기환송심은 유죄가 인정된 뇌물 혐의에 대해 다른 범죄 혐의인 직권남용 및 강요 혐의 등과 구별해 따로 선고해야 한다. 범죄 혐의를 한데 묶어 선고하지 않고 분리 선고할 경우 형량이 높아질 가능성이 크다. 대법원은 이날 삼성이 제공한 뇌물액 규모와 관련해 이재용 부회장의 2심 판결 중 무죄로 봤던 부분을 추가로 뇌물로 인정했다. 삼성이 최순실씨 측에 제공한 말 3필과 관련해 소유권 자체를 넘겨준 것으로 보고 말 구입액 34억원을 뇌물로 판단했다. 이 부회장의 2심은 말 구입액이 아닌 말 사용료 부분만 뇌물로 인정된다고 봤다. 또 대법원은 이 부회장의 2심 판결에서 뇌물로 인정되지 않았던 동계스포츠영재센터 뇌물 혐의액 16억원도 뇌물액으로 인정된다고 판시했다. 삼성에 경영 승계작업이라는 포괄적 현안이 존재했으므로 대가관계가 인정된다는 판단에 따른 것이다. 추인영 기자 chu.inyoung@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>트럼프, 지소미아 종료 첫 언급.."무슨 일 있을 지 지켜보겠다"</t>
-        </is>
+      <c r="A46" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>23일 G7 참석차 출국 전 기자단과 질의응답 "문 대통령도 나의 좋은 친구..한국 지켜보자" "북한과 좋은 관계..김정은 내게 매우 솔직해" [이데일리 김혜미 기자] 도널드 트럼프 미국 대통령이 ‘한일군사정보보호협정(GSOMIA·지소미아) 종료 결정과 관련해 “앞으로 무슨 일이 있을 지 지켜볼 것(We’re going to see what happens)”이라고 말했다. 지소미아 종료에 대한 첫 공식 발언이다. 23일(현지시간) 미 의회방송 C-SPAN에 따르면 트럼프 대통령은 주요 7개국(G7) 정상회의 참석차 프랑스로 출발하기 전 기자들과 만난 자리에서 “한국의 지소미아 종료 결정을 우려하는가”라는 질문에 “앞으로 무슨 일이 일어날 지 지켜볼 것이다. 문(재인) 대통령 역시 나의 좋은 친구다. 한국에 무슨 일이 일어날지 지켜보자”고 언급했다. 이는 앞서 미 국무부가 지소미아 종료에 대해 ‘실망했다’는 입장을 보인 것과 다소 차이를 보인 것이다. 마이크 폼페이오 미 국무장관은 지난 22일 “한국이 정보공유 합의에 대해 내린 결정에 실망했다”며 “한국과 일본이 대화를 통해 ‘옳은 곳’으로 관계를 되돌리기 바란다”고 언급한 바 있다. 이에 따라 추후 미 정부의 정책 기조가 달라질 수 있을 지 주목된다. 트럼프 대통령은 이날 아베 신조 일본 총리에 대해서도 “아주 좋은 친구”라며 G7 회의에서 만남을 기대하고 있다고 밝혔다. 같은 자리에서 트럼프 대통령은 김정은 북한 국무위원장에 대해서도 “좋은 친구”라고 언급해 눈길을 끌었다. 한미 연합군사훈련이 종료된 20일 이후인 24일(한국시각) 오전 북한이 탄도미사일로 추정되는 발사체 2발을 동해상으로 발사했다는 소식이 전해진 뒤에도 크게 개의치 않는 모습이다. 트럼프 대통령은 이날 “미국 정부는 북한과 매우 좋은 관계를 맺고 있다. 김정은 북한 국무위원장이 지금까지 나에게 아주 솔직했다고 생각한다”며 “김정은 위원장은 미사일 테스트를 좋아한다. 양측은 단거리 미사일 제한에 합의한 적이 없다. 무슨 일이 일어나는지 지켜볼 것”이라고 말했다. 이는 북한의 미사일 발사에 대한 미국의 태도가 크게 달라지지 않을 것임을 시사하는 것으로 해석된다. 폼페이오 미 국무장관은 최근 미국의소리(VOA) 인터뷰에서 “우리가 가장 크게 신경쓰는 것은 장거리 미사일 시험”이라면서 “김정은 위원장이 비핵화에 전념하고 있고, 그가 이를 실행할 수 있도록 방법을 찾고 있다는 데 희망을 두고 있다”고 언급한 바 있다. 도널드 트럼프 미국 대통령. 사진 : 뉴시스 김혜미 (pinnster@edaily.co.kr) 네이버 홈에서 ‘이데일리’ 뉴스 꿀잼가득 , 청춘뉘우스~ ＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp;amp; 재배포 금지＞</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=437&amp;aid=0000218499&amp;date=20190829&amp;type=2&amp;rankingSectionId=102&amp;rankingSeq=16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>엄마도 학교도 못 지켜준 12살 아이…성폭력 피할 곳 없던 1년</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 [앵커] 12살 초등학교 여학생이 1년 가까이 성폭력을 당했습니다. 가해자는 엄마의 지인부터 동네 선배들까지 13명에 달합니다. 혼자 감당하기 어려운 상황이었지만 유일한 보호자인 엄마도, 학교도 아이를 지켜주지 않았습니다. 조승현 기자입니다. [기자] 초등학생 A양에게 지옥 같은 시간이 시작된 것은 지난해 8월입니다. 엄마와 알고 지내던 성인 남성 2명이 A양 집으로 찾아왔습니다. 이들은 밤에 A양 엄마가 집을 비운다는 것을 알고 있었습니다. 여동생과 단 둘이 있는 A양에게 몹쓸 짓을 했습니다. 올해 3월부터는 A양과 같은 동네에 사는 중고등학생 11명도 몹쓸 짓을 하기 시작했습니다. 이들중 일부는 범행 과정을 불법 촬영해 협박도 한 것으로 전해졌습니다. A양의 상황을 먼저 알아차린 것은 학교 선생님이었습니다. 급히 경찰에 신고해 수사가 시작됐습니다. 성인 가해자 1명과 학생 4명은 구속됐고 나머지 5명은 불구속 입건, 3명은 소년부로 넘어갔습니다. 가해 학생과 학부모들은 혐의를 인정했습니다. 경찰과 선생님들은 A양을 다른 지역의 병원에 입원시켰습니다. 하지만 두 달 동안 A양 옆에는 엄마가 없었습니다. [교육청 관계자 : 선생님들이 그렇게 가서 돌보고 있고 그런데 정작 어머님은 또 안 가신다고 그러네요.] 보호시설 입소도 권유했지만 A양 엄마는 반대했습니다. 12살 초등학생이 1년 동안 범행을 당하는 사이, 보호자와 학교는 무엇을 했는지 어른들이 반성할 때입니다. 조승현 기자 (cho.seunghyun@jtbc.co.kr) [영상취재: 이우재 / 영상편집: 박수민] Copyright by JTBC(http://jtbc.joins.com) and JTBC Content Hub Co., Ltd. All Rights Reserved. 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>배터리 핵심광물 '코발트 가격' 2주 만에 20% 급등</t>
-        </is>
+      <c r="A47" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>글렌코어 무탄다 구리 코발트 광산. (사진=글렌코어) 배터리 핵심 원재료 광물인 코발트 가격이 세계 최대 공급업체의 감산 발표로 2주 만에 20% 이상 상승했다. 런던금속거래소(LME)에서 이달 초 톤당 2만5000달러에 거래되던 코발트 가격은 22% 올라 22일(현지시간) 현재 톤당 3만500달러를 유지하고 있다. 최근 코발트 가격 급등은 세계 최대 광산업체인 글렌코어가 최대 코발트 산지인 콩고민주공화국 내 무탄다 광산 운영을 2021년까지 중단하겠다고 발표했기 때문이다. 무탄다 광산은 세계 최대 코발트 광산 중 하나로 전 세계 코발트 생산량의 약 20% 담당하고 있다는 점을 감안하면 시장에 미치는 파급력이 크다. 글렌코어가 광산 가동 중단을 결정한 이유는 코발트 가격 하락에 따른 경제성 악화 때문이다. 지난해 3월 톤당 최고 9만5500달러까지 치솟았던 코발트 가격은 올해 톤당 2만달러대로 급락했다. 세계 최대 코발트 정련업체인 화유코발트 역시 코발트 가격 폭락으로 최근 콩고민주공화국 소재 코발트 광산에 대한 6630만달러 규모 투자 철회를 결정했다. 코발트는 전기차용 리튬이온 배터리 양극재를 만드는데 필수 원재료 가운데 하나다. 전기차 시장 확대에 대한 기대감으로 지난해 가격이 300% 이상 급등하면서 신규 광산 프로젝트가 다수 시작됐다. 하지만 이후 공급 과잉 등 영향으로 가격이 폭락하면서 경제성이 악화되면서 신규 프로젝트가 줄줄이 취소되는 상황이다. 역설적으로 전문가들은 신규 프로젝트 중단에 따른 공급 감소 영향으로 안정되던 코발트 가격이 수년내 다시 상승할 가능성이 높다고 전망하고 있다. 여기에 전기차 시장이 본격 확대되며 수요가 급증할 것으로 예상돼 리튬, 코발트, 니켈 등 주요 원재료 가격이 장기적으로는 상승할 가능성이 높다는 전망이다. 영국 캐피탈이코노믹스는 최근 보고서에서 지난 2015년 아연 시장에서 글렌코어가 비슷한 조치를 취하면서 아연 가격이 3년내 2배가량 상승했던 사실을 언급하며 “이번 광산 가동 중단으로 내년 말까지 코발트 가격이 톤당 4만달러에 도달하고 2021년 말에는 5만달러대로 추가 상승할 것”이라고 내다봤다. 원재료 가격이 오르면 LG화학, 삼성SDI, SK이노베이션 등 배터리 업체에는 원가 부담으로 작용. 반대로 에코프로비엠, 엘앤에프, 포스코케미칼, 코스모신소재 등 양극재 제조사에게는 매출 확대 요소가 된다. 정현정 배터리/부품 전문기자 iam@etnews.com [Copyright ⓒ 전자신문 &amp;amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=081&amp;aid=0003025192&amp;date=20190829&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=17</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>대법 “말 3필은 뇌물”… 이재용 실형 위기</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>[서울신문] 대법원이 국정농단 사건과 관련해 이재용 삼성전자 부회장에게 집행유예를 선고한 2심을 파기했다. 2심에서 무죄가 나왔던 상당수 뇌물 혐의가 유죄로 바뀐 데다 삼성그룹 승계 작업에 도움을 받기 위해 박근혜 전 대통령 측에 부정한 청탁을 했다는 점까지 인정되며 이 부회장에게 실형이 선고될 가능성이 커졌다. 대법원 전원합의체는 29일 국정농단 사건 상고심에서 뇌물공여, 횡령 혐의 등으로 기소된 이 부회장에게 징역 2년 6개월에 집행유예 4년을 선고한 원심을 깨고 재판을 다시 하라며 사건을 서울고법으로 돌려보냈다. 박 전 대통령 사건은 공직선거법에 따라 대통령 재임 중 뇌물 혐의를 다른 범죄 혐의와 구별해 ‘분리 선고’하지 않았다는 절차적인 이유로 파기환송했다. ‘비선실세’ 최순실(개명 후 최서원)씨 사건은 일부 강요 혐의에 대해 무죄 취지로 파기환송됐다. 김헌주 기자 dream@seoul.co.kr ▶ ▶ ▶ 공짜로 만화를 볼 수 있다? 당신의 ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>서울서 3,000대 우버택시 달린다...韓 공략 속도 높이는 우버</t>
-        </is>
+      <c r="A48" s="1" t="n">
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>■ 택시호출 적극 마케팅 막강한 자금력 앞세워 파격 서비스 서울서 우버택시 3,000대로 늘어 ■ 택시·스타트업과 협업 택시조합과 플랫폼택시 협의나서 코리아스타트업포럼 특별회원 가입 [서울경제] 지난 2013년 승차공유 ‘우버 엑스(X)’로 국내 진출을 위한 문을 두드렸다가 좌절을 맛본 우버가 6년 만에 한국 모빌리티 시장에서 기지개를 펴고 있다. 올해 4월 서울에서 시작한 택시 호출 서비스가 빠르게 확대되고 있는데다 택시 조합·스타트업과의 협업도 시동을 걸고 있는 상황이다. 업계에선 국토교통부의 ‘혁신성장과 상생발전을 위한 택시제도 개편방안(상생안)’의 세부 내용이 확정돼 국내 모빌리티 시장의 불확실성이 사라지면 우버의 사업확대가 본격화될 것으로 전망한다. ◇마케팅 총공세에 우버택시 3,000대로 늘어 = 현재 우버가 국내에서 가장 공을 들이는 사업은 택시호출 서비스 ‘우버택시’다. 지난 4월 처음 출시됐을 때만 하더라도 우버택시를 불러도 잡기 힘들다는 평가가 나왔지만 최근엔 3,000대까지 규모를 확대했다. 3,000대는 모두 개인택시 기사들이며 아직 법인택시와의 협업은 시작하지 않았다. 택시 업계의 강한 반발을 불어왔던 승차공유 ‘우버X’와 달리 우버택시는 우버 플랫폼에서 택시를 부를 수 있도록 중개하는 서비스이기 때문에 택시기사들도 긍정적인 평가를 내리고 있다. 우버가 빠르게 택시기사들을 끌어들일 수 있었던 배경은 적극적인 마케팅에 있다. 택시기사들은 우버택시를 시작할 때와 일정 횟수씩 우버 앱의 콜을 수락할 때마다 우버로부터 일정 금액을 받을 수 있다. 우버택시를 운행하는 한 택시기사는 “주변 택시기사들이 소개를 해줘 우버택시를 시작하게 됐다”라며 “카카오T와 티맵도 함께 하고 있지만 최근엔 우버쪽의 콜도 자주 받는 편”이라고 밝혔다. 이용자들을 대상으로 한 마케팅도 활발하게 이뤄지고 있다. 지난 4월 출시부터 현재까지 4개월이 넘는 기간 동안 우버택시를 처음 이용하면 운임의 50%, 이후부터는 탈 때마다 운임의 20%씩 할인 혜택을 제공 중이다. ◇택시조합·스타트업 협업 위해 문 두드려 = 우버가 국내에서 펼치는 모빌리티 서비스는 앞으로 계속 확장할 것으로 보인다. 이미 우버는 지난달 서울개인택시운송조합에 플랫폼 택시 파트너사 선정을 위한 제안서를 제출한 뒤 함께 협의를 진행하고 있다. 서울개인택시조합 관계자는 “우버에서 택시 호출쪽도 프로모션을 제시하며 노력하고 있고 여러 유형으로 (사업을) 하기 위해 서로 입장을 전달한 상황”이라고 전했다. 서울개인택시조합은 우버 등 모빌리티 업체들과 협업을 통해 오는 11~12월경 5,000명 규모의 플랫폼 택시를 3~4개 출범시키는 방향을 고심 중인 것으로 알려졌다. 만약 우버가 서울개인택시조합과 플랫폼 택시를 출범하게 되면 중개 서비스를 넘어 ‘우버’ 브랜드를 디자인 등에 내걸 수 있는 가맹 서비스까지 확장하게 되는 셈이다. 스타트업과의 접점을 늘리기 위해 최근엔 코리아스타트업포럼에 특별회원으로 가입하기도 했다. 코리아스타트업포럼은 우아한형제들·비바리퍼블리카 등 유니콘(기업 가치 1조원 이상 비상장기업) 기업부터 스타트업까지 1,000여개 기업들이 가입돼있는 국내 스타트업 대표 단체다. 우버는 스타트업을 지원하고 공동기획 사업 등을 추진할 수 있는 특별회원 자격이다. ◇택시부터 음식까지 ‘카풀’ 빼고 다해 = 우버는 현재 호출 서비스인 우버택시 이외에도 외국인용 택시 ‘인터내셔널 택시’와 고급 택시 서비스 ‘우버블랙’, 교통 약자를 지원하는 ‘우버 어시스트’ 등을 운영하고 있다. 이밖에 음식 배달 서비스인 ‘우버이츠’도 출범 2주년을 맞기도 했다. 다만 다양한 사업에 더해 택시를 기반으로 한 서비스 확대까지 모색하고 있지만 막상 본래 서비스인 승차공유는 다시 운행하기 어려울 것으로 보인다. 국내에선 카풀(승차공유)을 출퇴근 2시간으로만 제한하는 법안이 마련되면서 카풀 업체들이 어려움을 겪고 있다. 토종 모빌리티 업체들을 위협하는 글로벌 업체라는 인식도 극복해야 할 요소다. 실제로 국내 모빌리티 스타트업들은 정부의 상생안 마련 이후 우버가 막대한 자금력으로 시장을 장악할 수 있다는 우려를 제기하고 있다. 한 모빌리티 업체 관계자는 “상생안이 오히려 규제의 불확실성을 없애주면서 자금력이 있는 우버가 적극적으로 움직이고 있다”라며 “스타트업 입장에선 대기업들이 주도하는 판에 끼어들어가기 어려운 환경”이라고 말했다. /권경원기자 nahere@sedaily.com | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=011&amp;aid=0003610822&amp;date=20190829&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>[속보]대법, 이재용 2심 무죄 승마지원·영재센터·승계청탁 유죄취지 파기환송</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>[서울경제] [속보]대법, 이재용 2심 무죄 승마지원·영재센터·승계청탁 유죄취지 파기환송 | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>[WiFi카페] 먹방이 바꾼 치킨·피자…"튀어야 알려진다"</t>
-        </is>
+      <c r="A49" s="1" t="n">
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>소비자 호기심 자극하기 위한 이색 메뉴 선봬 주머니 사정 넉넉지 못한 중견·중소업체 중심 '활발' 협찬방송과 순수 리뷰 방송 간 구분 필요 [이데일리 김유성 기자] ‘호기심을 자극해 자연스러운 입소문이 나도록 하라.’ 유튜브의 대중화, 먹방의 발달은 식품업계 광고·마케팅 방식을 바꾸고 있습니다. TV 등을 통해 일방적으로 광고 영상을 전달하기보다, 사용자 스스로가 영상 콘텐츠를 만들고 입소문이 나도록 하는 식입니다. 바이럴(입소문)만 잘되면 큰 비용 들이지 않고도 제품을 알릴 수 있죠. 삼양식품의 불닭볶음면이 대표적인 예입니다. 이 라면은 매운맛이 특징인 덕분에 여러 화제를 낳았습니다. 매운맛 좋아하는 한국인도 도전하게끔 만드는 라면이었죠. 불닭볶음면을 먹은 외국인들의 반응도 콘텐츠가 됐습니다. 불닭볶음면은 단일 라면 브랜드로는 어느새 국내 최대 수출 라면이 됐습니다. 외식 업계도 이런 바이럴 마케팅이 유행하고 있습니다. 상반된 재료를 쓴 음식 메뉴를 개발하거나 극단적으로 맵거나 짠 음식으로 소비자들의 호기심을 자아내는 식입니다. 특히나 대중적인 메뉴인 치킨과 피자 업계에서 이런 경향이 두드러지고 있습니다. 마케팅 주머니 사정이 넉넉하지 못한 중견·중소기업일수록 이런 마케팅에 더 의존할 수 밖에 없습니다. 페리카나 누꼬진짬뽕 리뷰 영상 채널 모음 캡처 그래서 몇 개 업체를 추려봤습니다. 홍보 업계에서 회자되는 기업들입니다. 저랑 해당 기업 내부 마케팅 담당자들과는 일면식이 없다는 점 알려드립니다. 1982년 문을 연 국내 원조급 치킨 프랜차이즈 페리카나는 진한 해물맛 소스를 치킨과 어울리도록 한 ‘누꼬진짬뽕’을 선보였습니다. 치킨과 함께 진한 국물의 짬뽕을 같이 먹는 메뉴입니다. 참고로 페리카나는 치킨 CF 원조 기업이기도 합니다. 개그맨 최양락 씨가 광고하던 1980년대 후반에는 꽤 인기를 끌었죠. 1990년대 비슷비슷한 업체들이 많이 나오다보니 2000년대 들어 고만고만한 치킨 프랜차이즈로 가라앉았고요. 누꼬진짬뽕은 짬뽕을 치킨과 함께 먹는다는 콘셉트입니다. 몇몇 먹방 유튜버가 소개하면서 화제가 되기도 했고요. 치킨과 짬뽕의 부조화 때문일까요, 호평과 혹평이 오가고 있습니다. 모든 조합이 환영받는 것은 아니죠. 치킨에 과자를 얹어 먹는 제품도 나왔습니다. 치킨에 붙는 땅콩 부스러기처럼 과자 토핑이 올라간 제품입니다. 맘스터치가 만든 ‘매콤소이팝’입니다. 과자 제조업체 오리온과 함께 ‘치킨팝 땡초찜닭맛’ 과자가 토핑처럼 올라가 있습니다. 누꼬진짬뽕보다는 긍정적인 의견은 많아 보입니다. 김치와 치킨을 조합한 치킨도 있습니다. 멕시카나치킨인데요, 멕시카나도 지금은 중견 기업 정도지만, 1990년대 국내 치킨 업계를 풍미했습니다. 선두 업체들과 비교해 대규모 마케팅을 한다거나 TV CF를 하기에는 무리죠. 멕시카나치킨은 김치를 조합했습니다. 대상의 김치 브랜드 ‘종가집’과 협업해 김치를 소스로 한 ‘미스터 김치킨’을 출시했습니다. 후라이드 치킨에 볶음 김치 맛을 양념으로 해서 새콤달콤한 맛을 냈습니다. 멕시카나는 앞서 언급한 페리카나와 맘스터치보다는 비용을 더 들인듯 합니다. 유명 먹방 유튜버 ‘밴쯔’를 섭외해 리뷰 영상을 제작한 덕분이죠. 비용대비 효과는 좋아 보입니다. 김치킨 등 멕시카나 치킨 메뉴를 리뷰하는 먹방 유튜버 벤쯔 (유튜브 캡처) 불닭 소스를 입힌 피자도 나왔습니다. 불닭볶음면의 유명세가 피자로까지 확장된 셈입니다. 파파존스의 붉닭 피자는 ‘불닭 핫 치킨 바베큐’와 ‘붉닭 크림치즈 소스’ 2종으로 구성됐습니다. 파파존스 전 제품을 통틀어 가장 매운 맛입니다. 시즌 한정 메뉴로 출시됐던 불닭피자는 소비자들의 요청에 따라 정식 메뉴가 됐습니다. 토종 피자 프랜차이즈 피자마루는 피자와 떡볶이를 같이 먹는 메뉴를 출시했습니다. 피자 위에 떡볶이를 부어 먹거나, 피자를 떡볶이 소스에 찍어 먹는 식입니다. 식품 업계에서는 음식 유행 주기가 점점 짧아지고 있다고 전합니다. 큰 비용을 광고와 홍보에 들이기에는 망설일 수 밖에 없습니다. 자금 사정이 넉넉지 못한 면도 크고요. 그래서 이들 업체들이 선택한 게 유튜브나 소셜미디어이고 바이럴입니다. 다만 반짝 이슈에 그치지 않게 하려면 소비자들이 직접 콘텐츠를 만들게 해야 합니다. 소비자들이 먹으면서 재미있게 영상을 만들어 올릴 수 있는 마당을 마련해주는 것이지요. 앞으로도 이런 경향은 더 강해질 것으로 보입니다. 먹방은 비용을 이유로 TV나 신문 등 전통 매체에서 소외됐던 중견·중소 식품기업들 입장에서 마케팅의 장이 됩니다. 주시청자들이 먹을 것에 관심 많은 젊은 층들이기 때문이겠죠. 그러나 먹방에 있어 광고·협찬을 받고 찍는 영상인지, 순수 리뷰 영상인지는 구분해줄 필요가 있습니다. 그래야 순수하게 리뷰를 하면서 소비자들에게 정보를 주는 먹방 콘텐츠가 빛을 발할 수 있겠죠. 그 순수성이 신뢰를 얻을 때 콘텐츠는 지속력을 갖게 됩니다. 지금의 먹방이 제품 알리기에는 좋아 보입니다만, 소비자들의 신뢰를 얻을만큼의 노력이 전제돼 있을까요? 여러분은 어떻게 생각하시나요? 김유성 (kys401@edaily.co.kr) 네이버 홈에서 ‘이데일리’ 뉴스 꿀잼가득 , 청춘뉘우스~ ＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp;amp; 재배포 금지＞</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=023&amp;aid=0003470346&amp;date=20190829&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>'예비 며느리 마약 투약' 50대, 검거 순간에도 약에 취해</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>결혼을 약속한 아들 여자친구에게 강제로 마약을 투약한 뒤 성폭행을 시도한 50대 남성이 경찰에 붙잡혔다. 피의자는 "피해자 속내를 듣기 위해 마약을 주입했다"고 진술한 것으로 나타났다. 그는 경찰에 붙잡힌 순간에도 마약에 취해 있었다고 한다. 29일 경기북부경찰청 마약수사대 등에 따르면, 아들 여자친구를 펜션으로 불러 마약을 강제 투약한 혐의로 지난 27일 검거된 김모(56)씨는 경찰 조사에서 "피해자가 요즘 아들과 사이가 좋지 않은 것 같아 속내를 듣기 위해 범행했다"고 진술했다. 그는 마약을 강제 투약한 사실은 인정했지만, 성폭행 의도에 대해선 부인하고 있다. 경찰 관계자는 "김씨가 왜 피해자를 CC(폐쇄회로)TV도 없는 펜션으로 끌고 갔는지 등을 추궁하면 횡설수설하면서 진술을 바꾸고 있다"고 전했다. 마약 전력이 있던 김씨는 검거 당시에도 약에 취해 있었다. 김씨는 지난 15일 오후 3시쯤 경기도 포천시 일동면의 한 펜션에서 아들 여자친구인 A씨에게 "힘든 일 있느냐, 위로해주겠다"며 눈을 감으라 한 뒤 주사기로 필로폰을 강제 투약했다. 놀란 A씨가 경찰에 신고하자 김씨는 차를 타고 도주했다. 경찰은 12일만에 경기도 용인시에서 김씨를 붙잡았다. A씨는 남자친구와 3년간 교제하면서 결혼을 준비 중이었고, 평소 집안 경조사에도 참여했다고 한다. 이 때문에 사건 당일에도 별다른 의심 없이 김씨를 따라나섰다. 경찰은 우선 김씨에 대해 마약류관리법 위반 혐의로 구속영장을 신청할 계획이다. 또 성폭력 시도 여부 등 추가 혐의점을 찾고 있다. [윤민혁 기자 beherenow@chosunbiz.com] - Copyrights ⓒ 조선일보 &amp;amp; chosun.com, 무단 전재 및 재배포 금지 -</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>같은 약 6社가 복제…바이오시밀러 경쟁 격화</t>
-        </is>
+      <c r="A50" s="1" t="n">
+        <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>국내 바이오·제약사 잇따라 황반변성 시밀러 개발나서 퍼스트무버 지위 확보위해 출혈경쟁·수익성 악화 우려 중간에 기술 수출 나서거나 바이오베터로 차별화 필요 국내 기업 간 바이오시밀러(바이오의약품 복제약) 출시 경쟁이 격화되고 있다. 얼마 전까지만 해도 대기업과 중소 제약사가 개발하는 바이오시밀러가 달랐지만, 이제는 회사 규모와 관계없이 개발 제품이 중복되는 사례가 늘면서 수익성 악화에 대한 우려가 커지고 있다. 업계 관계자는 "바이오시밀러가 오리지널 못지않게 약효를 인정받으면서 국내외 기업들이 대거 바이오시밀러 시장에 뛰어들고 있다"며 "특히 블록버스터급 오리지널 약을 바이오시밀러로 개발하는 데 국내 기업 간 경쟁이 치열해지고 있다"고 최근 바이오시밀러 시장 분위기를 전했다. 국내 기업의 참여가 많은 바이오시밀러 분야 중 하나는 시력장애를 동반한 고령화 질환인 황반변성 치료제다. 오리지널 약인 독일 바이엘 '아일리아'와 스위스 노바티스 '루센티스'를 복제한 바이오시밀러 시장을 잡기 위해 국내 5~6개 업체가 뛰어들었다. 시장조사 기관인 아이큐비아 등에 따르면 지난해 전 세계적으로 아일리아와 루센티스 판매액은 각각 8조원, 4조원에 달했다. 내년 물질특허 만료를 앞둔 루센티스에 대한 바이오시밀러 개발에는 삼성바이오에피스를 비롯해 종근당, 일동제약 등이 뛰어들었다. 아일리아의 바이오시밀러에는 알테오젠과 삼천당제약이 도전장을 냈다. 삼성바이오에피스는 이미 루센티스의 바이오시밀러 제품 'SB11'에 대해 글로벌 임상 3상을 진행 중이다. 제약사 중에서 바이오시밀러 사업이 활발한 종근당도 'CKD-701'이란 바이오시밀러 제품에 대해 서울대병원, 삼성서울병원 등 25곳에서 국내 임상 3상을 진행하고 있다. 일동제약도 노인성 황반변성 치료제로 쓰일 바이오시밀러 'IDB0062'를 개발하고 있다. 아일리아 쪽은 알테오젠이 국내에서 임상 1상을 하고 있고, 전임상 단계인 삼천당제약은 지난 4월 유럽의약품청(EMA)으로부터 글로벌 임상을 위한 최종 검토의견서를 수령했다. 아일리아의 물질특허는 일본 미국 유럽에서 2022~2025년 종료되지만, 물질을 안정화시키는 제형과 제제에 대한 특허가 남아 있어 아일리아 바이오시밀러는 2027~2030년이 돼야 출시될 것으로 보인다. 알테오젠 관계자는 "아일리아 관련 특허 장벽이 높고 해외 제약사들도 바이오시밀러 개발에 나서고 있어 경쟁이 센 편"이라며 "판매도 10년이 지나야 가능한 만큼 임상 3상 단계에서 기술 수출을 진행할 것"이라고 밝혔다. 희귀 질환 치료제인 '솔리리스'의 바이오시밀러는 전 세계에서 3곳이 개발하고 있는데, 이 중 2곳이 국내 업체다. 솔리리스는 미국 제약사 알렉시온이 만든 발작성 야간 혈색소뇨증(PNH) 치료제로 지난해 전 세계적으로 35억6300만달러( 약4조3000억원)의 매출을 올렸다. 국내에서는 삼성바이오에피스가 지난 3월 'SB12'란 프로젝트로 글로벌 임상 1상을 마쳤고 임상 3상에 들어갔다. 경쟁사는 같은 임상 3상 단계에 있는 글로벌 제약사 암젠 외에 국내 기업인 이수앱지스가 있다. 이수앱지스는 호주와 뉴질랜드에서 진행하고 있는 임상 1상을 연내 완료한 뒤 내년부터 임상 3상에 진입할 계획이다. 이수앱지스 관계자는 "정상적인 임상 진행과 함께 해외 기업에 기술 수출을 하는 것도 추진 중"이라고 밝혔다. 지난해 전 세계 매출액이 69억5700만달러(약 8조2000억원)에 달해 전 세계 4위 의약품에 이름을 올린 대장암 치료제 '아바스틴' 바이오시밀러는 삼성바이오에피스가 지난달 중순 유럽에 판매허가를 신청했고, 미국에는 하반기 신청을 예정하고 있다. 셀트리온은 아바스틴의 바이오시밀러인 'CT-P16'에 대해 글로벌 임상 3상을 진행하고 있다. 업계 인사는 "오리지널 바이오의약품 특허 기간이 끝난 뒤 가장 먼저 바이어시밀러 제품을 내놓는 '퍼스트 무버'가 되려면 과거에는 해외 기업 동향만 살피면 됐지만, 이제는 국내 업체들도 경쟁 상대로 부상하고 있다"며 "비용 절감 등을 위해 기술 수출을 하거나 기존 제품에 효능을 추가한 바이오베터를 만드는 등 차별화가 필요하다"고 주문했다. [김병호 기자] [ⓒ 매일경제 &amp;amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=023&amp;aid=0003470395&amp;date=20190829&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>조국 동생 전처, 김해공항서 출국하려다 제지당해</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>조국 법무장관 후보자 동생의 전처인 조모(51)씨가 29일 오전 김해공항을 통해 근무차 출국하려다 출국금지 사실이 확인돼 제지당한 것으로 확인됐다. 조씨는 국내 대형항공사 승무원인 것으로 알려져 있다. 항공업계 관계자는 "(조씨가) 출국금지 돼 있는 것을 모르고 출국하려다가 제지당한 것으로 알고 있다"며 "소속 항공사 측은 대체 인력을 투입해 비행기는 예정대로 이륙한 것으로 알고 있다"고 했다. 조씨는 조 후보자 동생 조모(52)씨와 위장이혼하고, 후보자 부인 정경심(57) 동양대 교수와 이례적인 부동산 매매를 했다는 의혹을 받아왔다. 조씨는 지난 19일 법무부 인사청문회 준비단을 통해 낸 입장문에서 "모두 사실이 아니다"며 의혹을 부인했다. 조 후보자 관련 의혹을 수사 중인 서울중앙지검 특수2부(부장 고형곤)는 최근 후보자 가족 일부에 대해 출국금지 조치한 것으로 알려졌다. 다만 조 후보자의 모친 박정숙(81) 웅동학원 이사장과 부인 정씨는 출국금지 대상에서 빠졌다. [최효정 기자 saudade@chosunbiz.com] - Copyrights ⓒ 조선일보 &amp;amp; chosun.com, 무단 전재 및 재배포 금지 -</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>국내 연구진, 암세포 공격력 강화 세포치료제 기술 개발</t>
-        </is>
+      <c r="A51" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>한국연구재단은 차의과학대 박경순·박우람·한동근 교수 공동연구팀이 생체재료 기반 나노 기술을 이용, 암세포에 구멍을 내 죽이는 자연살해세포가 암세포를 보다 잘 공격하도록 만드는 세포치료제 제작기술을 개발했다고 25일 밝혔다. 우리 몸에 선천적으로 존재하는 자연살해세포는 바이러스에 감염된 세포나 암세포를 선택적으로 인식한 후 즉각 파괴한다. 다른 면역세포와 달리 면역거부반응이 적어 건강한 사람의 세포를 환자에게 사용할 수 있다. 하지만 자연살해세포의 자체방어기작 때문에 외부에서 인식강화유전자를 도입하기가 쉽지 않다. 바이러스를 이용해 암세포 인식강화 유전자를 자연살해세포 내로 전달하려는 방식은 바이러스를 매개체로 한다는 점에서 안전성 측면에서 다소 불리하다. 차의과학대 연구팀은 바이러스 대신 형광을 띠는 자성 나노입자를 암세포 인식강화 유전자와 함께 전달함으로써 자연살해세포 내로 유전자가 전달되는 효율을 높였다. 고분자 생체재료를 나노입자 위에 겹겹이 쌓는 삼중코팅 방식을 통해 자연살해세포의 자체 방어기작을 회피하도록 설계했다. 나노입자의 도움으로 자연살해세포 표면에 암세포 인식강화 단백질이 정상적으로 만들어지는 것과 악성유방암세포벽에 구멍을 내 파괴하는 능력이 향상된 것을 확인했다. 과학기술정보통신부·한국연구재단 개인기초연구 사업과 보건복지부 연구중심병원육성과제 지원으로 수행된 연구 성과는 국제학술지 '바이오머티리얼스‘에 이번달 9일 게재됐다. 박경순 교수는 "차세대 항암면역세포로 주목받는 자연살해세포를 자유자재로 엔지니어링할 수 있는 기술을 개발했다"고 설명했다. [설성인 기자 seol@chosunbiz.com] chosunbiz.com</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011048534&amp;date=20190829&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=21</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>[3보] 대법 "박근혜 2심 다시"…삼성뇌물 '이재용 2심'보다 50억 늘어</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>"삼성의 '정유라 승마지원' 말 구입액 34억, 영재센터 16억도 뇌물 인정" 박근혜, 2심서 무죄 선고된 부분은 판결 확정 (서울=연합뉴스) 임순현 성도현 기자 = 대법원이 '국정농단' 혐의로 기소된 박근혜 전 대통령에게 징역 25년에 벌금 200억원을 선고한 2심 재판을 다시 하라고 결정했다. 대법원 전원합의체는 29일 박 전 대통령의 '국정농단 사건' 상고심에서 징역 25년에 벌금 200억원을 선고한 원심판결을 깨고 사건을 서울고법에 돌려보냈다. 재판부는 박 전 대통령의 1·2심 재판부가 다른 범죄 혐의와 구별해 따로 선고해야 하는 뇌물 혐의를 분리하지 않아 법을 위반했다고 판단했다. 공직선거법은 대통령 등 공직자에게 적용된 특정범죄 가중처벌에 관한 법률상 뇌물 혐의는 다른 범죄 혐의와 분리해 선고하도록 한다. 공직자의 뇌물죄는 선거권 및 피선거권 제한과 관련되기 때문에 반드시 분리해 선고하도록 한 것이다. 대법원 전원합의체 판단에 따라 박 전 대통령 파기환송심은 유죄가 인정된 뇌물 혐의에 대해 다른 범죄 혐의인 직권남용 및 강요 혐의 등과 구별해 따로 선고해야 한다. 범죄 혐의를 한데 묶어 선고하지 않고 분리 선고할 경우 형량이 높아질 가능성이 크다. 대법원은 이날 삼성이 제공한 뇌물액 규모와 관련해 이재용 부회장의 2심 판결 중 무죄로 봤던 부분을 추가로 뇌물로 인정했다. 삼성이 최씨 측에 제공한 말 3필과 관련해 소유권 자체를 넘겨준 것으로 보고 말 구입액 34억원을 뇌물로 판단했다. 이 부회장의 2심은 말 구입액이 아닌 말 사용료 부분만 뇌물로 인정된다고 봤다. 아울러 대법원은 이 부회장의 2심 판결에서 뇌물로 인정되지 않았던 동계스포츠영재센터 뇌물 혐의액 16억원도 뇌물액으로 인정된다고 판시했다. 삼성에 경영 승계작업이라는 포괄적 현안이 존재했으므로 대가관계가 인정된다는 판단에 따른 것이다. hyun@yna.co.kr</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>KT, “갤노트10+ 배터리 이용시간 4시간21분 증가”</t>
-        </is>
+      <c r="A52" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[디지털데일리 최민지기자] KT 이용자는 5G 배터리 절감 기술(C-DRX)로 삼성전자 ‘갤럭시노트10플러스’를 4시간21분 더 사용할 수 있다. KT(대표 황창규)는 서울·수도권, 강원, 부산, 울산, 경남 등에 우선적으로 5G C-DRX 기술을 적용한 데 이어 8월1일 기준 전국망 확대 적용을 완료했다고 25일 밝혔다. 한국정보통신기술협회(TTA)가 갤럭시노트10플러스로 5G C-DRX 기술 적용 전후 배터리 사용시간을 테스트한 결과, 사용시간이 최대 4시간21분 증가한 것으로 확인됐다. 동일한 환경에서 같은 서비스를 이용해 배터리 소모 시간을 측정했는데, C-DRX를 도입했을 때 배터리가 최대 11시간4분, 최소 10시간24분간 지속한 반면 C-DRX를 탑재하지 않은 경우 최대 6시간57분, 최소 6시간43분간 동작했다. 이는 배터리 사용시간이 약 65% 증가한 것으로 ‘갤럭시S10 5G’에 C-DRX를 적용했을 때보다 4% 가량 효과가 늘어난 결과다. KT 네트워크연구기술지원단장 이수길 상무는 “KT는 LTE에 이어 5G에서도 가장 먼저 C-DRX 기술을 전국 확대 적용해 전국 어디서나 고객들이 배터리 절감효과를 누릴 수 있게 됐다”고 말했다. &amp;lt;최민지 기자&amp;gt;cmj@ddaily.co.kr &amp;lt;저작권자 © 디지털데일리 무단전재-재배포금지&amp;gt;</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=214&amp;aid=0000975636&amp;date=20190829&amp;type=2&amp;rankingSectionId=102&amp;rankingSeq=22</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>"복무 중 사망 확인"…55개 부대서 2천4백 개 사용</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 	 	[뉴스투데이]◀ 앵커 ▶ 어제 열린 가습기살균제 청문회에서는 군대 안에서 발생한 피해자 문제가 도마에 올랐습니다. 군에서 사용한 양이 기존에 알려진 것보다 3배 이상 많았고, 군복무 중에 사망한 가습기살균제 피해자가 있다는 증언도 나왔습니다. 윤수한 기자가 보도합니다. ◀ 리포트 ▶ 국군의무사령관이 출석한 가습기 살균제 청문회. 사회적참사 특별조사위원회는 추가로 접수된 피해자 현황을 공개했습니다. 지난 2011년 3월, 육군훈련소에서 가습기 살균제에 노출된 병사가 복무중 사망한 것으로 돼 있습니다. 당시 증상은 폐렴과 폐손상. 특조위측은 가습기 살균제로 건강이 악화됐을 개연성이 높은 만큼 정밀 조사가 필요하다고 강조했습니다. [최예용/사회적참사 특조위 위원] "천식, 폐기종, 복무중 사망도 있습니다. 최소한 적어도 우리나라에서 질병이 있어가지고는 군에 못가는 것이고, 아주 건강한 20대 청년들이라고 봐야겠죠." 군에 입대한 가습기살균제 피해자가 천식으로 고통을 호소하자, 군당국이 정신질환자로 둔갑시켜 피해자를 조기 귀가시켰다는 증언도 나왔습니다. [황전원/사회적참사 특조위 위원] "빠르게 (군대에서) 나가려면 정신적인 문제로 해야 된다, 그렇게 해서 1주일 만에 정신적인 문제로 귀가조치를 하고…" 군에서 사용한 가습기 살균제 규모는 알려진 것보다 3배 이상 많았습니다. 군당국은 특조위에 보낸 중간 조사 결과에서 55개 군 기관이 2천 400개가 넘는 살균제를 사용했다고 밝혔습니다. 군당국은 특히 가습기 살균제의 유해성이 알려진 2011년 11월 이후에도 제품을 구매한 것으로 확인됐습니다. [석웅/국군의무사령관] "당시에 저희들도 전국 실태 조사와 피해 사례를 확인을 한번 더 했다면 저희들이 좀 더 도움을 줄 수 있고, 가슴이 안타깝고…" 가습기 살균제 참사가 알려진 뒤 8년 동안 실태조사에 나서지 않았던 국방부는 신고 센터를 만들어 적극적으로 피해자를 지원하겠다고 밝혔습니다. MBC뉴스 윤수한입니다. 윤수한 기자 (belifact@mbc.co.kr) [저작권자(c) MBC (http://imnews.imbc.com) 무단복제-재배포 금지] Copyright(c) Since 1996, &amp;amp; All rights reserved.</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>[주말N수학]피보나치도 울고 갈 파인애플 볶음밥</t>
-        </is>
+      <c r="A53" s="1" t="n">
+        <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>열대과일 파인애플에 피보나치 수열이 숨어 있다.게티이미지뱅크 달콤새콤한 열대과일 파인애플에도 피보나치 수열이 숨어있습니다. 피보나치 수열은 이탈리아 수학자 레오나르도 피보나치의 이름을 딴 수열입니다. 1, 1, 2, 3, 5, 8, 13, 21, 34, 55, 89, 144…처럼 두 개의 1로 시작해서 연이은 두 수를 더해 다음 항을 만드는 수열입니다. 피보나치의 이름을 따르긴 했지만, 피보나치 수열을 처음 생각해낸 건 피보나치가 아닙니다. 피보나치 수열이 처음 문헌에 등장한 건 기원전 5세기 인도 수학자 핑갈라의 책에서였고, 그보다 훨씬 전부터 쓰였을 가능성이 높습니다. 하지만 피보나치가 자신의 책 ‘산술의 서’ 12장에서 토끼 번식에 관한 문제로 피보나치 수를 설명하면서 유명세를 타서 피보나치 수열이라 불리게 되었습니다. 피보나치 수열은 매우 간단하지만 수학 전반에 걸쳐 등장하는 중요한 개념입니다. 기하학, 대수학, 정수론 등 다양한 수학 분야에서 쓰일 뿐 아니라, 자연 속에서도 아주 쉽게 발견할 수 있습니다. 해바라기, 솔방울, 나뭇가지 배열, 수벌의 가계도 등 자연의 모습이나 식물의 생장을 설명할 때 피보나치 수열은 빼놓을 수 없습니다. 파인애플 역시 그 예시 중 하나입니다. 파인애플 껍질은 육각형 알맹이들이 서로 다른 3종류의 나선 방향으로 얽혀 이뤄져 있습니다. 피보나치 수열은 이 나선의 개수에서 찾을 수 있습니다. 같은 방향의 나선의 수가 꼭 5, 8, 13, 21 같은 피보나치 수가 되기 때문입니다. 아래 그림처럼 전체 껍질을 펼쳤을 때, 같은 육각형 알맹이를 기준으로 ①번 방향 나선은 5줄이 나오고, ②번 방향 나선은 8줄, ③번 방향 나선은 13줄이 나옵니다. 수학동아 제공 이런 특징은 다른 식물에서도 관찰할 수 있습니다. 솔방울 역시 나선으로 이뤄져 있는데, 각 방향을 따라 생성된 나선의 개수는 대부분 연속한 피보나치 수고, 해바라기 씨의 나선도 피보나치 수를 따릅니다. 식물의 나선뿐만 아니라 꽃잎의 수나 잎사귀의 배열에서도 피보나치 수열을 발견할 수 있습니다. 식물의 줄기에 붙어있는 잎의 배열을 살펴봅시다. 한 줄기의 가장 낮은 위치에 있는 잎사귀에서 관찰을 시작합니다. 첫 번째 잎에서 시작해 줄기를 기준으로 회전하며 올라가 이 잎사귀와 완전히 똑같은 방향에 있는 잎사귀를 찾을 때까지 개수를 세는 겁니다. 그러면 신기하게도 같은 방향에 있는 잎사귀에 도착할 때까지 회전한 횟수가 피보나치 수가 되고 이 두 잎 사이의 잎사귀 개수 역시 피보나치 수가 됩니다! 특히 야자수에서 이와 같은 피보나치 수열을 흔히 발견할 수 있습니다. 수학동아 제공 식물의 생장 비밀은 '피보나치 수열' 이 정도면 식물들이 그야말로 피보나치 수열을 바탕으로 자라고 있다고 말할 수 있겠습니다. 그러면 왜 이런 현상이 나타나는 걸까요? 식물 생장의 비밀을 찾기 위해 수학자, 식물학자 등 많은 사람이 연구를 해오고 있지만 아직 확실한 결론을 얻지는 못했습니다. 다만 식물의 씨앗을 고르게 배열하기 위한 최적의 분포가 피보나치 수열을 따르기 때문일 거라 추측하고 있습니다. 너무 중앙에만 몰려 있거나 가장자리로 갈수록 듬성듬성해지면 생장과 번식에 효율적이지 못하기 때문입니다. 알프레드 포사멘티어 미국 뉴욕시립대 수학교육과 교수와 잉그마 레만 독일 베를린 훔볼트대 수학과 교수는 도서 '피보나치 넘버스'에서 "야자수 각각의 잎사귀가 차지하는 공간이 최대한 충분하고 빛을 많이 받게끔 하는 배열과 관련이 있을 것"이라고 추측하며 "오랜 세대를 거치면서 생존에 유리한 방향으로 진화한 것이 아닐까"라고 덧붙였습니다. 이들은 식물의 기하학적 배열에 대한 가장 '괄목할 만한 결과'로 1992년 발표한 프랑스 수리물리학자 스테판 두아디와 이브 쿠더의 논문을 꼽았습니다. 두아디와 쿠더는 컴퓨터 모델링을 이용해 식물의 생장에 작용하는 이론을 발전시켰고, 피보나치 패턴과 관련된 실험을 진행했습니다. 그들은 식물에 숨겨진 황금각(137.5도)을 동역학으로 설명하기도 했습니다. 이 결과는 식물학만으로 설명하기 어려웠던 식물의 배열을 새로운 관점에서 바라보게 했고 이후로도 오랫동안 ‘두아디와 쿠더 방정식’은 식물 생장 연구의 모형으로 쓰였습니다. 식물 생장 패턴까지 포함한 방정식 발견 그런데 최근 두아디와 쿠더의 방정식을 보완한 새로운 방정식이 등장했습니다. 2019년 6월 스기야마 무네타카 일본 도쿄대 교수팀은 두아디와 쿠더의 방정식으로 설명하지 못했던 식물까지 포함하는 변형된 방정식을 발표했습니다. 피보나치 수열을 따르지 않는 식물 종이 어떻게 배열 패턴을 나타내는지 알아낸 것입니다. 상산나무는 기존의 식물 생장 모델로는 배열 패턴을 만들지 못했던 식물입니다. 연구팀은 예외라고 여겨졌던 상산나무 역시 식물 생장 모형을 이용해 나타낼 수 있으리라 생각했고 기존에 쓰이던 모형에 새로운 변수를 추가해 상산나무가 어떻게 자랄지 예측했습니다. 결과는 실제 상산나무의 모습과 일치했습니다. 이 방정식은 상산나무 하나만이 아니라 상산나무와 비슷한 종류의 다른 식물에도 적용할 수 있습니다. 연구를 이끈 스기야마 교수는 “우리의 모형은 잎이 둘러서 나는 모든 주요 식물의 잎사귀 배열 패턴을 생성할 수 있다”며 “또한 다른 자연에서 나타나는 여러 종류의 패턴에도 잘 맞는다”고 새로운 방정식의 우수성을 설명했습니다. 그러나 아직 과제는 남아있습니다. 기하학적 계산을 통해 식물이 어떻게 자랄지 예상할 수는 있지만, 왜 그런 모양으로 자라는지는 여전히 정확히 알지 못하기 때문입니다. 무작위로 자라는 것 같았던 식물들이 아주 정확한 규칙을 지키며 자라고 있다니 정말 놀랍습니다. 관련기사 수학동아 8월호, [수數 셰프의 맛있는 수학] 피보나치도 울고 갈 파인애플 볶음밥 참고자료 알프레드 포사멘티어, 잉그마 레만 ‘피보나치 넘버스’, Takaaki Yonekura ‘Mathematical model studies of the comprehensive generation of major and minor phyllotactic patterns in plants with a predominant focus on orixate phyllotaxis’ [박현선 기자 tempus1218@donga.com]</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=022&amp;aid=0003393133&amp;date=20190829&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=23</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>평생 한 명도 안 낳는다… ‘저출산 블랙홀’ 빠진 대한민국 [뉴스 투데이]</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>합계출산율 0.98명 ‘사상 최저’… 1.0명대 첫 붕괴 / 지난해 출생아 수 32만6800명 / 8.7% 감소 … 30만명선 턱걸이 / 2분기 잠정 출산율 0.91명 그쳐 / 출산연령 32.8세로 0.2세 상승 / 청년층 결혼 기피 갈수록 심화 / 상반기 혼인 1년 새 9.3% 줄어 지난해 출생아 수가 30만명대에 턱걸이하면서 합계출산율이 사상 최저인 0.98명으로 떨어졌다. 청년층의 결혼 기피 현상이 심화하는 데다 기혼 여성의 출산 연령이 높아지면서 출산율이 급락하고 있다. 올해는 상황이 더욱 심각하다. 2분기 합계출산율 잠정치는 0.91명으로 곤두박질했다. 올해 출생아 수는 30만명 선마저 붕괴할 것이 확실시된다. 통계청이 28일 발표한 2018년 출생 통계(확정)를 보면 지난해 출생아 수는 32만6800명으로 집계됐다. 1년 전보다 8.7% 줄어든 수치로, 1970년 관련 통계 작성 이래 최저다. 합계출산율은 사상 처음 1.0명 선이 무너졌다. 합계출산율은 여성 1명이 평생 낳을 것으로 예상되는 평균 출생아 수를 뜻한다. 인구 유지를 위해 필요한 합계출산율이 2.1명인 점을 감안하면, 절반에도 미치지 못한다는 얘기다. 경제협력개발기구(OECD) 36개 회원국의 평균(2017년 기준 1.65명)에 크게 미달할 뿐 아니라 맨 꼴찌다. 여성의 연령별 출산율(해당 연령 여성인구 1000명당 출생아 수)은 40대를 뺀 모든 연령층에서 감소했다. 평균 출산연령은 32.8세로 전년보다 0.2세 상승했다. 평균 출산연령은 첫째 아이는 31.9세, 둘째 아이는 33.6세, 셋째 아이는 35.1세로 전년보다 0.2~0.3세 늘었다. 35세 이상 고령 산모의 비중은 31.8%로 전년보다 2.4%포인트 높아졌다. 출산연령이 높아지면서 둘째아 이상을 낳기 어려운 상황으로 풀이된다. ‘국가재앙급 저출산’ 현상은 올해에도 이어지고 있다. 통계청이 함께 발표한 6월 인구 동향을 보면 올해 상반기 출생한 아이 수는 15만8500명으로, 1년 전 같은 기간(17만1800명) 대비 7.7%나 줄었다. 역시 관련 통계 작성 이래 최소 기록이다. 분기별로 보면 2분기 출생아 수는 7만5400명, 1분기 8만3000명으로 전년 동기 대비 각각 8.0%, 7.4% 감소했다. 합계출산율은 2분기 기준 0.91명으로, 1분기(1.01명)보다 적었다. 6월 출생아는 2만4000명으로, 2016년 4월부터 39개월 연속으로 같은 달 대비 최저 기록을 경신 중이다. 연례적으로 출생아가 연초에 몰리는 점을 감안하면 올해 출생아 수가 30만명을 넘기지 못할 것으로 보인다. 2002∼2016년 40만명대를 유지하던 출생아 수는 2017년 처음으로 30만명대로 내려앉았다. 이후 2년 만에 30만명 선까지 무너질 위기에 놓인 셈이다. 출생아 수 감소는 혼인 건수 감소와 밀접하게 연관돼 있다. 올 상반기 혼인 신고 수는 12만100건으로 지난해 같은 기간보다 9.3% 줄었다. 1981년 집계 이래 상반기 기준으로 최소 기록이다. 2분기 기준으로 인구 1000명당 혼인율은 남녀 모든 연령대에서 줄었다. 흔히 혼인 적령기로 꼽히는 남성 30∼34세, 여성 25∼29세에서 혼인율 감소가 두드러졌다. 통계청 관계자는 “청년층의 결혼 기피 현상에다 가임 여성의 수도 줄어들면서 저출산 경향이 짙어지고 있다”며 “올해에도 출생아 수가 마이너스를 기록할 것으로 보인다”고 말했다. 세종=안용성 기자 ysahn@segye.com ⓒ 세상을 보는 눈, 세계일보</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>한경연 “日 반·디 소재 R&amp;D 비용, 韓 대비 41배”</t>
-        </is>
+      <c r="A54" s="1" t="n">
+        <v>53</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[디지털데일리 김도현기자] 한국 반도체·디스플레이 핵심 소재·부품 기업의 연구개발(R&amp;amp;D) 지출액이 일본보다 적은 것으로 나타났다. 25일 한국경제연구원(이하 한경연)은 한국과 일본의 소재·부품기업 1만117개사(한국 2787곳, 일본 7330곳)를 분석, 이같은 결과가 나왔다고 밝혔다. 한경연은 “소재 생산기업 5곳 중 3곳 꼴로 일본 기업의 R&amp;amp;D가 한국보다 많았다”며 “부품 업체의 평균 R&amp;amp;D 지출액은 양국 기업이 서로 비슷했다”고 설명했다. 소재부문에서 일본 기업의 평균 R&amp;amp;D 지출액은 한국 기업의 1.6배였다. 세부 품목별로는 1차 금속 5.3배, 섬유 5.1배, 화합물 및 화학제품 3.1배였다. 이 가운데 반도체·디스플레이 화학소재 기업만 분석하면 일본이 한국의 40.9배였다. 부품부문은 다른 양상을 보였다. 일본 기업의 R&amp;amp;D 지출액이 한국의 40%에 불과했다. 반도체 등 전자부품에서 한국 기업의 R&amp;amp;D 지출액이 일본의 8.2배에 달했다. 다만 정밀기기부품은 일본의 평균 R&amp;amp;D 지출액이 한국에 비해 7.0배, 수송기계부품은 2.3배, 전기장비부품은 2.0배 컸다. 한경연은 전자부품 품목에서 반도체 착시효과가 있다고 분석했다. 반도체를 제외할 경우 전체 부품 부문에서 일본 기업이 60% 많다. 유환익 한경연 혁신성장실장은 “한국 소재·부품산업은 반도체 쏠림이 심한 반면 화학, 정밀부품 등 다른 핵심 소재·부품에서 갈 길이 멀다”면서 “꾸준한 R&amp;amp;D 지원과 화평법, 화관법 등 화학물질 관련 규제 및 노동 관련 규제 개선이 필요하다”고 지적했다. &amp;lt;김도현 기자&amp;gt;dobest@ddaily.co.kr &amp;lt;저작권자 © 디지털데일리 무단전재-재배포금지&amp;gt;</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=055&amp;aid=0000755080&amp;date=20190829&amp;type=2&amp;rankingSectionId=102&amp;rankingSeq=24</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>'예비 며느리에 마약 투약' 50대 검거…도피 중에도 마약</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 	 	&amp;lt;앵커&amp;gt; 결혼까지 약속까지 했던 아들의 여자친구에게 마약을 강제로 투약한 50대 남성이 12일 만에 경찰에 붙잡혔습니다. 이 남성은 도망 다니는 동안에도 마약류에 손을 댔던 것으로 드러났습니다. 유수환 기자가 보도합니다. &amp;lt;기자&amp;gt; 자신의 아들과 3년간 교제해온 20대 예비 며느리를 펜션으로 유인해 필로폰을 강제 투약한 56살 김 모 씨. 피해자가 신고한 지 8분 만에 경찰이 현장에 도착했지만, 그 전에 달아났습니다. 도피 행각은 치밀했습니다. 펜션에서 타고 나온 렌터카는 경찰 추적을 피해 15분 정도 떨어진 야산 근처에 버렸습니다. 또 위치를 추적당하지 않도록 휴대전화 전원을 꺼놓고 피해 다녔습니다. 경찰은 김 씨의 거주지에서 잠복수사를 벌였지만, 소득은 없었습니다. 결정적 단서는 김 씨 아내의 승용차에서 나왔습니다. 범죄 차량으로 등재한 아내 차량에 김 씨가 타고 있다는 정황이 포착된 것입니다. 즉시 추적에 나섰고 경기도 용인에서 잠복 끝에 김 씨를 붙잡았습니다. 도주 12일 만이었습니다. 경찰 조사 결과 김 씨는 마약 전과가 있는 것으로 확인됐는데, 체포 당시 마약 간이 검사에서도 양성 반응을 보인 것으로 드러났습니다. 도망 다니면서도 마약을 투약한 것입니다. 경찰은 아들 여자친구에게 마약을 주사한 이유가 뭔지, 피해자 진술처럼 성폭행 의도가 있었던 것인지 추궁하고 있습니다. 하지만 김 씨는 마약 투약 이유에는 횡설수설하면서도, 성폭행 의사는 없었다고 주장한 것으로 알려졌습니다.    유수환 기자(ysh@sbs.co.kr) ※ ⓒ SBS &amp;amp; SBS Digital News Lab. : 무단복제 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>LG유플러스, KB알뜰폰에 '5G+LTE' 망 공급 확정</t>
-        </is>
+      <c r="A55" s="1" t="n">
+        <v>54</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>LG유플러스 CI KB국민은행 CI LG유플러스가 KB국민은행 알뜰폰 'KB알뜰폰'(가칭)에 롱텀에벌루션(LTE)과 5세대(5G) 이동통신 망 공급을 확정했다. KB알뜰폰은 이통사가 알뜰폰에 5G 망을 공급하는 첫 사례일 뿐만 아니라 거대 금융사업자인 KB국민은행의 알뜰폰 시장 진출로 주목받고 있다. 5G 알뜰폰 첫 단말은 10월 출시 예정인 보급형 5G폰 단말 '갤럭시A90 5G'가 유력하게 거론된다. LG유플러스 관계자는 25일 “망 공급을 확정짓고 도매대가 협의가 마무리 절차를 밟고 있다”면서 “다음 달 양측 간 최종 확정 사항을 발표할 것”이라고 말했다. LG유플러스는 알뜰폰 시장 지원과 자사 회선 가입자 확대가 KB알뜰폰 5G 도매 공급 배경이라고 밝혔다. LG유플러스 내부에서도 KB알뜰폰이 단순 알뜰폰이 아니라 금융·통신 혁신 서비스로 적절하다는 공감대가 이뤄진 것으로 알려졌다. KB알뜰폰은 양측 간 요금제, 유통 방식에 대한 논의가 끝난 후 10월께 출시될 것으로 전망된다. LG유플러스 관계자는 “출시 시기와 요금제, 유통 방식은 KB국민은행 의지에 달렸다”면서 “우리는 도매 제공에 따른 전산 개발, 요금제 개발 등을 지원할 것”이라고 밝혔다. KB알뜰폰용 스마트폰으로는 보급형 스마트폰 갤럭시A90뿐만 아니라 기존 갤럭시S10 5G와 갤럭시노트10 시리즈도 거론된다. 보급형 단말뿐만 아니라 플래그십을 위한 프로모션도 준비, 저가나 중고 단말 위주로 형성된 알뜰폰 이미지를 불식시킨다는 전략이다. 과학기술정보통신부는 LG유플러스의 5G 공급 결정에 환영 의사를 표시했다. 과기정통부 관계자는 “이통사가 아닌 다양한 사업자가 알뜰폰 시장에 진출해 여러 서비스를 내놓고 마케팅을 적극 펼친다면 알뜰폰 시장 활성화에도 도움이 될 것”이라면서 “다만 기존 5G 요금제 가격대가 높은 만큼 얼마나 알뜰폰 시장에 적절한 요금이 나와 줄지가 관건”이라고 평가했다. 자료. 게티이미지뱅크 KB알뜰폰이 타 알뜰폰이 공급하는 LTE에 더해 5G 망까지 확보하면 거대 알뜰폰 사업자가 될 공산이 크다. KB알뜰폰은 알뜰폰에 은행·증권·보험 등 계열사 서비스를 연계한 차별화 서비스를 선보일 예정으로, 기존 KB 고객이 통신요금 할인과 인증서·애플리케이션(앱)을 통한 금융 서비스를 동시에 누릴 수 있어 큰 호응이 예상된다. 거대 알뜰폰 사업자 출현에 따른 중소 알뜰폰 사업자 위기를 우려하는 시각도 있다. 지금도 CJ헬로와 이통 자회사인 SK텔링크, KT엠모바일 등이 알뜰폰 가입자 대다수를 차지하고 있기 때문이다. 통신업계 관계자는 “거대 금융사업자가 가세해 5G 요금제를 통해 과도한 가입자 뺏기 등이 진행되면 중소 알뜰폰은 생존이 어려워질 수 있다”고 말했다. 정예린기자 yeslin@etnews.com [Copyright ⓒ 전자신문 &amp;amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933133&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=7</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>아들 여자친구에 마약투약한 아버지 "속내 들어보려고…."</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>아들의 여자친구에게 마약을 투약하고 도주했던 50대 남성이 경찰에 붙잡혔다. 그는 "피해자의 속내를 듣기 위해 범행했다"고 진술했다. 경기 포천경찰서는 마약류관리법 위반 등 혐의로 A씨(56)를 붙잡아 조사하고 있다고 28일 밝혔다. A씨는 지난 15일 오후 3시쯤 포천시의 한 펜션에서 아들의 여자친구인 B씨에게 마약을 강제 투약한 혐의를 받고 있다. A씨는 B씨가 소리를 지르고 112에 신고하자 차를 몰고 도주했다. A씨 아들의 여자친구인 B씨는 평소 A씨 집안 경조사에도 참가할 정도로 친하게 지냈다고 한다. A씨는 경찰에서 "A씨가 '상의할 일이 있다' 며 펜션으로 데려가더니 '놀라게 해주겠다'며 눈을 감을 것을 요구했다. 이후 따끔한 느낌이 들어 눈을 떴더니 주사기를 들고 있어 경찰에 신고했다"고 진술했다. 경찰이 B씨를 상대로 마약 간이 검사를 진행한 결과 마약 양성반응이 나왔다. B씨는 경찰에서 A씨의 성폭력 시도 의혹도 제기했다. ━ A씨 "성폭력 의도는 없었다", 경찰 29일 영장 신청 경찰은 경기남부경찰청과 공조수사를 벌여 도주 12일만인 지난 27일 용인시에서 A씨를 붙잡았다. 마약 투약 전력이 있는 A씨는 경찰에 체포될 당시에도 마약에 취한 상태였다고 한다. A씨는 경찰에서 B씨에게 마약을 강제 투약한 혐의는 인정했다. 그는 "B씨가 요즘 아들과 사이가 좋지 않은 것 같았다"며 "마약을 투약하면 마음 속 이야기를 털어놓을 것 같아서 그랬다"고 말했다. 그러나 성폭력 의도는 부인했다. 경찰은 29일 A씨를 마약류관리법 위반 혐의로 구속영장을 신청할 예정이다. 경찰 관계자는 "A씨가 B씨를 집에서 말고 CCTV도 없는 펜션으로 끌고 온 점 등을 추궁하면 횡설수설하면서 진술을 바꾸고 있다"며 "먼저 A씨가 인정한 마약 투약 혐의로 구속영장을 신청하고 성폭력 시도 여부 등은 좀 더 조사할 예정"이라고 말했다. 경찰은 A씨가 마약을 산 과정 등도 조사할 예정이다. 최모란 기자 moran@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>국내 시스템반도체 설계 업계, 상반기도 '우울'</t>
-        </is>
+      <c r="A56" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>반도체 웨이퍼. &amp;lt;사진=SEMI 코리아&amp;gt; 국내 시스템 반도체 기업 2019년 상반기 영업이익 분석. &amp;lt;전자신문 DB&amp;gt; 국내 시스템반도체 설계 기업들이 상반기 우울한 실적을 기록했다. 중국 업체들의 저가 공세, 미-중 무역분쟁 심화 등으로 규모가 작은 설계 업체들이 버티기 힘들었다는 지적이다. 25일 국내 매출 상위 20개(2018년 기준) 시스템반도체 설계 회사 영업이익 실적을 종합한 결과, 9개 기업이 적자를 기록한 것으로 나타났다. 영업이익이 작년보다 감소한 기업은 11개였다. LG그룹 계열 시스템반도체 회사이자 업계 1위인 실리콘웍스 영업이익은 작년 상반기 136억8600만원에서 41.57% 감소한 79억9600만원을 기록했다. 보급형 메모리 설계 양산으로 지난해 실적 상승세를 기록했던 제주반도체는 올 상반기 14억600만원으로 지난해 같은 기간보다 83.18% 급감했다. 이밖에 아나패스, 크로바하이텍, 아이에이, 픽셀플러스 등 적자 폭은 더욱 늘어난 것으로 나타났다. 시스템반도체 설계 업체들은 반도체 칩 설계를 주로 담당하는 곳이다. IT 기기에 필요한 칩 구조를 설계하면 삼성전자, DB하이텍, 대만 TSMC 등 파운드리에서 칩을 만든다. 설계 업체들은 이 반도체를 스마트폰, TV 제조사들에 공급한다. 사물인터넷(IoT), 인공지능(AI) 시대 개화로 시스템반도체가 각광받고 있지만 국내 기업은 제한된 수요 등으로 고전하고 있다. 특히 올 상반기는 미-중 무역분쟁 장기화로 더욱 고전한 것이라는 분석이다. 업계 관계자는 “지난해 말부터 일어났던 미국과 중국 간 무역 분쟁이 길어지면서 실적에도 적잖은 영향을 줬다”고 전했다. 메모리 시장에서의 더딘 가격 회복세도 범용 메모리를 생산하는 제주반도체에도 악영향을 미친 것으로 풀이된다. 아울러 중국 시스템반도체 업계 확장도 국내 기업의 설자리를 좁게 만들고 있다. 이미 중국에는 1800개 이상 반도체 설계 기업이 있고 이들은 한국의 기술과 비슷하거나 이미 한 수 넘어섰다는 평가다. 중국 구딕스는 네덜란드 시스템반도체 업체 NXP 오디오솔루션 사업부를 인수하는 등 덩치를 키우고 있다. 올해 국내 파운드리 및 시스템반도체 패키징 업체 실적 증가와 공장 '풀가동'은 국내 설계 업체들의 약진이라기보다 중화권 업체들의 수주 증대가 크게 작용했다는 분석이다. 실제 DB하이텍의 2015년 반기 내수 매출은 1715억원으로 전체 매출 60%가량 차지했지만 올 상반기는 734억원으로 내수 매출이 20%에 불과하다. 4년 만에 상황이 뒤집힌 것이다. 업계 관계자는 “국내 파운드리 호황은 삼성전자 시스템LSI사업부와 중화권 물량이 늘어났기 때문으로 보인다”고 전했다. 하반기에도 설계 업체들의 고전은 지속될 것으로 보인다. 한 시스템반도체 업체 대표는 “상반기와 크게 달라지지 않을 것으로 본다”고 말했다. 또 “지난 4월 정부가 발표한 시스템반도체 지원 효과는 시간이 지나야 효과를 볼 수 있을 것”이라고 덧붙였다. 쉽지 않은 상황에서도 실적 증가를 기록한 기업들도 있다. 차량용 반도체 전문 업체인 텔레칩스는 상반기 매출이 34.25% 증가한 35억7100만원을 기록했다. 중국 시장 물량이 증가한 동운아나텍은 지난 2분기 흑자전환으로 작년 동기 대비 83% 증가하면서 적자폭을 크게 줄였다. 강해령기자 kang@etnews.com [Copyright ⓒ 전자신문 &amp;amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=023&amp;aid=0003470428&amp;date=20190829&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=26</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>대법 "최순실 말 3마리는 경영권 청탁 대가"... 이재용 집유 판결 깨졌다</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>박근혜 전 대통령과 최순실씨에게 뇌물을 건넨 혐의 등으로 기소된 이재용 삼성전자 부회장이 항소심 재판을 다시 받게 됐다. 이 부회장의 항소심은 삼성 측이 최순실(63)씨의 딸 정유라(23)에게 제공한 말 세마리 구입비와 최씨의 조카 장시호씨가 설립한 한국동계스포츠영재센터에 낸 후원금 등 50억원이 뇌물이 아니라고 판단했으나, 대법원은 뇌물이 맞는다고 판결했다. 이날 판결에 따라 이 부회장의 형량은 다소 높아질 것으로 보인다. 대법원 전원합의체(재판장 김명수 대법원장)는 29일 이 부회장의 뇌물공여와 횡령·범죄수익은닉·재산국외 도피 등 혐의 상고심에서 징역 2년 6개월에 집행유예 4년을 선고한 원심 판결을 깨고 사건을 서울고법으로 돌려보냈다. 함께 재판에 넘겨진 최지성 전 삼성그룹 미래전략실장과 장충기 전 삼성전자 미래전략실 차장 등에 대해서도 파기환송 결정을 내렸다. 앞서 이 부회장은 정유라씨에 대한 승마지원 명목으로 쓴 독일 코어스포츠 용역대금(36억여원)과 말 세 마리 구입대금(34억여원), 한국동계스포츠영재센터 후원금(16억여원) 등을 뇌물로 건넨 혐의로 기소됐는데 항소심은 말 3마리 구입대금과 스포츠영재센터 후원금은 뇌물로 판단하지 않았다. 그러나 대법원은 이 부회장 사건의 핵심 쟁점인 ‘말 3마리’가 뇌물인지, 아닌지 여부에 대해 뇌물이라고 판단했다. 재판부는 "뇌물수수죄에서 말하는 ‘수수’는 법률상 소유권까지 취득해야 하는 것은 아니고 실질적 사용·처분권한을 갖게 된 경우 그 물건 자체를 뇌물로 받은 것으로 봐야 한다"며 "최씨와 박상진 전 삼성전자 사장 사이에 ‘살시도’와 향후 구입할 말에 관해 실질적 사용·처분 권한이 최씨에게 있다는 의사의 합치가 있었다고 볼 수 있다"고 했다. 그러면서 "이 부회장 등이 최씨에게 말들을 뇌물로 제공했다고 볼 수 있다"며 "원심은 뇌물수수죄에 관한 법리를 오해한 잘못이 있다"고 판시했다. 또 하나의 쟁점은 이 부회장이 경영권 승계 지원을 요청하는 ‘부정한 청탁’이 존재했는지 여부였다. 삼성이 최씨의 조카 장시호씨가 운영한 한국동계스포츠영재센터를 지원한 돈이 제3자 뇌물이 되려면 이 부회장과 박 전 대통령 사이의 부정한 청탁이 오갔다는 게 인정돼야 하기 때문이다. 이 부회장 원심은 "부정한 청탁의 대상이 되는 ‘승계작업’을 인정할 수 없다"며 "박 전 대통령이 승계작업에 대해 인식하고 있다거나, 박 전 대통령과 이 부회장 사이에 승계작업을 매개로 영재센터를 지원한다는 묵시적인 인식과 양해가 있었다고 볼 수 없다"고 했다. 이에 대해 대법원은 "부정청탁의 대상과 내용은 구체적일 필요가 없고, 공무원과 제3자에게 제공되는 이익과 대가성이 특정되는 정도면 충분하다"고 했다. 그러면서 "원심이 부정 청탁 대상이 명확히 정의되고 뚜렷해야 한다는 근거로 삼성그룹의 승계작업을 인정하지 않고 박 전 대통령이 승계작업에 대한 인식이 없었다고 본 것은 이런 법리에 배치된다"고 했다. 재판부는 이어 "대통령의 포괄적 권한에 비춰보면 영재센터 지원금은 대통령 직무와 대가관계가 있다고 볼 여지가 충분하다"고 했다. 이와 함께 "원심이 말이 뇌물이 아니고, 영재센터 지원금에 대한 부정청탁이 인정되지 않는다는 전제에서 무죄로 판단한 특정범죄가중처벌법상 횡령 혐의, 범죄수익은닉규제에 관한 법률 위반 부분에도 법리를 오해한 잘못이 있다"며 재판을 다시 하라고 지적했다. [정준영 기자 peace@chosunbiz.com] [오경묵 기자 note@chosunbiz.com] - Copyrights ⓒ 조선일보 &amp;amp; chosun.com, 무단 전재 및 재배포 금지 -</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>저녁부터 16시간 굶으면, 정크물질 분해돼 살 빠져</t>
-        </is>
+      <c r="A57" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>식후 12시간 되면 ‘굶는 상황’ 신호 세포 청소 안 될 땐 정크물질 쌓여 신호전달 막아 치매·파킨슨 생겨 ‘아침은 왕, 저녁엔 거지처럼’ 식사 단식 땐 대장 줄기세포도 젊어져 완벽한 효과 보려면 3~4일 굶어야 ━ 김은기의 바이오토크 성인 3명 중 1명이 비만, 즉 체질량지수(BMI) 25 이상이다. 뱃살 줄이는 방법으로 가끔 굶는 소위 ‘간헐적 단식’이 유행이다. 덜 먹으니 체중 주는 건 당연하다. 하지만 단식 진수는 다른 데 있다. 바로 디톡스다. 굶으면 몸에 쌓인 독소가 제거, 회춘한다. 굶는 건 세포 영양분이 떨어지는 악재인데 이게 왜 건강에 호재일까. 어릴 적 기르던 개가 무얼 잘못 먹었는지 토하더니 도통 밥을 안 먹었다. 걱정스러워 이것저것 챙겨주지만 입도 안 댄다. 주위 어른들은 “나으려고 저런다. 놔두어라”고 한다. 이틀 굶은 개는 다시 먹기 시작했다. 굶는 단식이 치유효과가 있는 걸까. 고대 이집트에서는 매년 30일씩 단식으로 몸을 다스렸다. 현대의학 대부 그리스 히포크라테스는 “자연치유력이 최고다. 아플 때 먹는 것은 질병을 키우는 것”이라며 단식을 강조했다. 한두 끼 굶는 것이 건강 증진 효과를 낼까. 최근 과학이 속을 들여다보았다. 답은 ‘그렇다’이다. 가끔 한 끼 굶으면 뱃살은 금방 줄지 않는다. 하지만 몸에서는 금방 정크단백질을 분해하고 새로운 물질을 만든다. 이게 잘되면 줄기세포도 젊어진다. 잘 안되면 치매· 파킨슨·당뇨가 생긴다. 노벨 생리의학상을 받은 자가소화(autophagy), 즉 ‘스스로(auto) 먹어 버리는(phagy)’ 원리다. 이 원리를 알면 어떻게 다이어트를 해야 할지 감이 잡힌다. 핵심은 저녁-아침 사이 긴 공복으로 정크물질을 분해, 리사이클시키는 거다. 1 히포크라테스 “아플 때 먹으면 질병 키워” 한국 외환 위기 당시 다수의 회사는 구조조정에 들어갔다. 회사 내 불필요한 조직을 분해해서 새로운 팀을 만들었다. 음식을 굶는 건 동물들에게는 가장 큰 위협이다. 길어지면 굶어 죽는다. 몸은 어떻게 대응하고 어떤 효과가 날까. 올해 하버드의대 연구진은 굶는 단식이 어떻게 질병(치매·파킨슨)을 예방·치유할 수 있는지 분자수준에서 조사했다. 식사 후 12시간이 지나자 쥐는 ‘굶는 상황’이라는 비상 신호를 발신한다. 이 신호를 받은 세포들은 분주해진다. 모든 물질을 조사해서 불필요한 놈들, 특히 잘못 만들어진 단백질들에게 ‘딱지’를 붙였다. 딱지 붙은 놈들을 전담팀이 트럭에 실어 ‘리사이클 공장’으로 옮겨가 분해한다. 이걸로 다시 정상 단백질을 조립한다. ‘굶는 신호’를 받은 지 5분 만에 시작, 1시간이면 리사이클 과정이 끝난다. 이런 재생작업은 매일 계속된다. 이것이 제대로 안되면 체내에 정크물질이 쌓인다. 알츠하이머 치매나 파킨슨은 정크단백질(베타아밀로이드·타우·알파시누클린)이 신호전달을 막아 생긴다. 올해 캘리포니아대 연구팀은 정크단백질 자체보다도 이놈들을 분해해야 할 리사이클 공장(라이소좀)이 제대로 작동되지 않아 치매가 생긴다고 발표했다. 이런 두뇌 리사이클 작업은 주로 잠잘 때 일어난다. 잠을 제대로 못 자거나 정크단백질을 제대로 분해, 리사이클하지 못하면 치매·파킨슨이 생긴다. 단식으로 리사이클되는 게 하나 더 있다. 세균·바이러스도 딱지를 붙여 청소차에 실어 재활용센터로 보내 버린다. 물론 균 침입 시 면역도 작동한다. 하지만 리사이클 방법이 면역부작용(과한 염증, 자가면역)이 없어 더 안전하다. 올해 독일 연구진은 이를 분자수준에서 확인했다. 살모넬라 등 병원균 56종을 감염시켰더니 대장상피세포가 침입균 단백질에 딱지를 붙여 리사이클시킬 수 있음을 확인했다. 어릴 적 보았던 아픈 개도 식중독균 감염 속에서 스스로 살아남는 법을 알고 있었던 셈이다. 단식으로 병을 고치는 비결이 리사이클이다. 비결이 하나 더 있다. 리셋이다. 단식은 제2 시계를 리셋시킨다. 제1 시계는 두뇌 속 생체시계다. 새로 발견된 제2 시계는 배꼽시계다. 즉 간·근육 등 신체말단조직 유전자들이 배꼽시계에 맞추어 일사분란하게 움직인다. 배꼽시계와 두뇌생체시계는 독립적이지만 서로 연관되어 있다. 아침 7시에 기상한다면 두뇌 생체시계는 4시쯤 심장박동을 조절하고 수면호르몬인 멜라토닌도 낮춘다. 반면 배꼽시계 유전자는 매번 들어오던 식사 시간에 맞추어 간·근육세포를 미리 준비시킨다. 실제로 간·근육 유전자 중 73%는 식사에만 반응하는 순수 배꼽시계 유전자, 나머지는 두뇌생체시계와 연관되어 있다(2019, 셀리포트). 문제는 이 두 시계가 서로 엉켰을 때다. 식사시간이 불규칙해지면 배꼽시계 유전자가 헝클어진다. 식사가 들어왔는데도 인슐린이 준비되지 않는다. 헝클어진 배꼽시계는 대사질환을 일으킨다. PC 프로그램이 엉키면 PC를 리셋시켜야 한다. 시차로 틀어진 두뇌생체시계는 햇볕 쬐는 것으로 리셋한다. 헝클어진 배꼽시계 리셋방법은 단식이다. 배꼽시계가 리셋되고 생체물질이 리사이클되면 몸에 무슨 효과가 있을까. ‘자가소화’ 리사이클은 굶은 상태가 핵심 이슬람 5대 의무 중에 라마단 금식이 있다. 굶는 극기로 신앙심을 높인다. 일 년에 한 달간, 해 뜰 무렵부터 질 때까지, 15시간씩 금식이다. 단식자들 혈액을 검사하니 인슐린 민감성을 높이고 대사질환을 낮추는 물질들(TPM)이 모두 높아져 있었다. 라마단 단식이 정신뿐만 아니라 육체도 젊게 만든 셈이다. 단식은 대사질환을 막을 뿐 아니라 대장 줄기세포도 젊게 만든다. 대장 상피세포는 각종 음식, 장내 미생물과 접촉해서 쉽게 상처를 입는다. 줄기세포가 이를 보충한다. 굶을 경우 이런 대장재생능력이 더 높아진다(2018, 셀스템셀). 고대부터 단식하면 장수한다고 했다. 현대과학이 이를 증명한 셈이다. 단식은 건강에 좋다. 그건 맞다. 하지만 ‘사흘 굶어 담장 안 넘는 놈 없다’고 했다. 더구나 굶다가 먹으면 폭식하기 십상이다. 보통사람들이 쉽게 할 수 있는 일상적 단식방법은 없을까? 간디는 저항의 표시로 21일간 단식을 했다. 단식이 시작되면 몸은 초비상이다. 혈중 포도당은 금방 떨어지고 간·근육에 쌓아둔 단기비상식량인 글리코겐이 소비되고 장기비상식량인 지방이 분해되어 포도당으로 변환되는 ‘케토(Keto)’대사가 시작된다. 이렇게 완벽한 단식효과를 보려면 3~4일 굶어야 한다. 독해져야 한다. 독종 아닌 보통사람이 일상에서 청소효과를 볼 수 있는 다이어트방법이 필요하다. 다이어트는 식사종류와 함께 식사방법도 중요하다. ‘아침은 왕처럼, 점심은 평민처럼, 저녁은 거지처럼’이란 말이 사실일까. 미국 성인 5만660명을 7년간 추적 조사했다. 사람들 식사습관(식사횟수·시간·식사량·간식)에 따라 비만도(BMI)가 달랐다. 아침-왕, 점심-평민, 저녁-거지 속설이 사실이었다. 하루 1, 2회 식사를 하고, 아침은 잘 먹고, 저녁-아침 공복시간이 18시간인 그룹들이 비만도가 가장 낮았다(2017, 미영양학회지). 다른 연구에서도 12시간 공복(저녁-아침 사이 공복)그룹보다 16시간 공복그룹이 BMI가 낮았다. 저녁을 7시보다 4시에 먹으면, 체중감소는 비슷해도, 인슐린이 월등 낮았다. 요약해 보자. 저녁-아침 공복이 길수록 감량이 잘되고 리사이클로 건강증진 효과가 높다. 그럼 세끼 소식(小食)은? 소식은 장수촌 공통사항이다. 적게 먹으면 세포 내 보일러인 미토콘드리아가 최적 효율로 연소하면서 유해물질인 활성산소(ROS)가 덜 생긴다. 리사이클도 생긴다. 하지만 중간에 간식을 하면 ‘도루묵’이다. 세포 내에 조금이라도 에너지가 들어오면 ‘굶는 신호’가 사라진다. 인슐린이 다시 높아진다. 무엇보다 리사이클이 중단된다. 리사이클은 굶은 상태 ‘유지’가 핵심이다. 병에 걸려 아픈 개도 끼니를 굶음으로 몸을 고칠 줄 안다. 리사이클, 즉 자가소화(autophagy)가 모든 생물 기본 생존전략이란 의미다. 식사는 평생 습관이다. 본인에 맞는 리사이클 방법을 찾자. 그래서 청춘으로 돌아가자. 단식 습관 안 되면 요요 올 수도 ‘24시간 단식’은 주 1~3일 완전 금식한다. 폭식으로 이어질 수도 있다. ‘16:8 단식’은 저녁식사 후 16시간을 먹지 않는다. 조금 쉬운 방식이다. ‘5:2’단식은 2일간 반 정도 식사를 한다. 다이어트는 어떤 형태든 주의해야 한다. 평생 습관이 안 되면 도루묵이고 오히려 요요·폭식이 생긴다. 필수 영양소가 공급되어야 한다. 당뇨 등 기존 질병이 있는 경우 식습관을 변경하려면 반드시 전문의와 상의해야 한다. 김은기 인하대 교수 ekkim@inha.ac.kr 서울대 졸업. 미국 조지아공대 공학박사. 한국생물공학회장, 피부소재 국가연구실장(NRL), 창의재단 바이오 문화사업단장 역임. 인하대 바이오융합연구소(www.biocnc.com)를 통해 바이오테크놀로지(BT)를 대중에게 알리고 있다. ▶중앙SUNDAY ⓒ중앙SUNDAY and 중앙일보 무단 전재 및 재배포 금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=437&amp;aid=0000218490&amp;date=20190829&amp;type=2&amp;rankingSectionId=102&amp;rankingSeq=27</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>헤어진 뒤 '영상 협박'…중 유명인사 국내 유인해 구속</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 [앵커] 헤어진 한국인 여성을 협박하고 보복성 음란물을 유포한 뒤에 본국으로 도피한 중국의 유명 경제전문가가 구속됐습니다. 경찰은 이 남성이 입국 비자가 필요없는 제주도에 오도록 유도해서 붙잡았습니다. 최규진 기자입니다. [기자] 지난달 필리핀 어학연수에서 돌아온 A씨에게 두려움은 일상이 됐습니다. 현지에서 중국인 남성 B씨와 만났다 헤어졌는데, B씨는 A씨가 한국으로 돌아온 뒤에도 매일 자신을 만나달라며 협박했습니다. '모든 한국인들이 보게 될 것'이라며 지인과 가족들에게 불법 촬영물을 보냈습니다. [A씨/피해자 : 병원 갈 때나 밥 먹을 때 말곤 (밖에 못 나가요.) 진짜 살면서 이런 일을 당할 거라곤 생각도 못 했고. TV에 나오는 사람들이 제가 될지도 몰랐고…] B씨는 인터넷 계정을 만들어 촬영물을 유포했습니다. 사진을 지워주겠다며 현금 600만 원과 가학적인 성관계까지 요구했습니다. [A씨/피해자 : 너는 날 잡을 수 없다면서 어떻게 잡을 거냐면서 자기는 중국인이고 이런 일로 필리핀에서 처벌받으면 돈만 내면 된다고…] 지난 12일 B씨는 경찰에 체포됐습니다. A씨가 만나줄테니 제주도로 오라고 연락했고 미리 기다리고 있던 경찰이 붙잡았습니다. 경찰은 수개월이 걸리는 국제 수사협조 대신 입국 비자가 필요 없는 제주도로 유도하는 방법을 택했습니다. 경찰 조사 결과 B씨는 중국에서 유명한 경제 전문가로 드러났습니다. B씨가 올린 불법 촬영물을 재유포한 한국인 남성 장모 씨도 붙잡혔습니다. 검찰은 어제(27일) B씨를 불법 촬영과 음란물 유포 혐의 등으로 구속 기소하고, 장씨를 불구속 기소했습니다. (화면출처 : 중국 아이치이) 최규진 기자 (choi.kyujin@jtbc.co.kr) [영상취재: 이지수 / 영상편집: 김지훈] Copyright by JTBC(http://jtbc.joins.com) and JTBC Content Hub Co., Ltd. All Rights Reserved. 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>"아이돌한텐 안 묻는데…왜 유튜버만 얼마 버냐가 관심이죠?"</t>
-        </is>
+      <c r="A58" s="1" t="n">
+        <v>57</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>스타 크리에이터 도티 "이젠 유튜브도 프리미엄 콘텐츠" 유튜브 크리에이터 '도티'가 23일 오후 서울 강남구 코엑스 그랜드볼룸에서 열린 '국제방송영상마켓(BCWW) 2019'에서 강연하고 있다. © News1 (서울=뉴스1) 박병진 기자 = "사람들은 잘나가는 배우나 아이돌에게는 '얼마 버냐'고 물어보지 않으면서 유튜버한테는 쉽게 물어봅니다. 유튜버의 수익보다는 콘텐츠에 관심을 가져줬으면 하는 바람입니다." 유튜브의 보급 속도만큼 콘텐츠를 만드는 유튜버에 대한 사회적 인식도 개선될 필요가 있다는 유명 크리에이터의 주장이 나왔다. 23일 서울 강남구 코엑스에서 열린 '국제방송영상마켓(BCWW) 2019'에서 구독자 252만명을 거느린 스타 유튜버 도티(본명 나희선)는 "지난해 삼성전자와 같이 스마트폰 '갤럭시A7'을 브랜디드 콘텐츠로 제작한 적이 있다"며 "메이저 브랜드는 어느 모델을 기용하느냐가 굉장히 중요한 일인데 삼성전자가 협업했다는 건 유튜버가 그만큼 가치를 인정받고 존중받는 시대가 된 것"이라고 말했다. 지금 대한민국은 바야흐로 유튜브 전성시대다. 애플리케이션(앱) 분석업체 와이즈앱에 따르면 지난 4월 유튜브의 국내 월간활성사용자(MAU) 수는 3271만명에 달했다. 10대부터 50대 이상까지, 모든 세대가 가장 오래 사용한 앱으로 유튜브가 꼽혔다. 그러나 콘텐츠를 만드는 유튜버의 사회적 인식은 유튜브 사용 빈도와 별개라는 지적이다. 실제로 지난해 10월부터 11월까지 한국노동연구원이 1인 미디어 콘텐츠 크리에이터 250명을 대상으로 설문조사를 실시한 결과 유튜버와 지위가 동일한 직업으로 단순노무자(18.5%)를 꼽은 사람이 가장 많았다. 이날 도티는 소위 '프리미엄 콘텐츠'를 정하는 기준이 바뀌어야 한다고 주장했다. 그는 "유튜브를 보는 '디지털 네이티브' 세대는 거실 TV 채널 선택권이 없기 때문에 유튜브를 보는 게 아니다"라고 지적했다. TV나 영화 같은 기존 프리미엄 콘텐츠 대신이 아니라 그냥 제일 재미있어서 유튜브를 본다는 것이다. 그는 이어 "누군가에게는 블록버스터 영화보다 도티TV의 20분 영상이 더 재미있을 수 있다"며 "프리미엄 콘텐츠는 제작비, 셀럽 출연 여부가 아니라 사용자 효용을 근거로 판단해야 한다"고 말했다. 유튜버도 기존 방송국, 엔터테인먼트사, 프로덕션처럼 프리미엄 콘텐츠를 만드는 사람이라는 논리다. 그는 또 "최근 유튜브를 쉬고 방송을 많이 하고 있는데, 유튜브 콘텐츠도 레거시 미디어 콘텐츠 못지않다는 인식을 높이기 위해 콜라보레이션을 열심히 하고 있다"며 "연예인 되고 싶어서가 아니라 레거시 미디어 방식의 좋은 점을 배우려는 것"이라고 밝혔다. 그는 지난 2월 이후로 유튜브 채널에 동영상을 거의 업로드하지 않는 대신 MBC 예능 프로그램 '라디오스타', '마이 리틀 텔레비전 V2' 등에 출연했다. 아울러 도티는 유튜브 전성시대가 이제 시작 단계며, 앞으로 더 성장할 것으로 내다봤다. 4차 산업혁명으로 기술이 고도화되면 사람들이 그로 인해 편해진 일상을 콘텐츠로 채우리란 것. 그는 "예를 들어 자율주행이 보급된다면 차 안에서 유튜브를 보는 사람이 많아지지 않겠느냐"며 "콘텐츠 산업은 미래가 확실히 보장된 일"이라고 내다봤다. 최근 화제인 유튜브 광고수입에 대해서는 '조회수 장사꾼'을 자처하면 안 된다고 선을 그었다. 도티는 "썸네일, 주제, 제목을 자극적으로 만들면 조회수가 잘 나올 때도 있지만, 매일 자극적인 콘텐츠를 만들다 보면 돌이킬 수 없는 상황에 빠지고 만다"며 "돈만 보고 유튜브를 시작하는 사람은 금방 지치고 콘텐츠의 한계가 금방 드러나게 된다"고 말했다. 그는 유튜버를 희망하는 사람들에게는 "짧게는 1~3년에서 길게는 평생까지 관심을 가지고 재밌게 할 수 있는 주제, 건강하고 지속가능한 콘텐츠에 대한 고민을 먼저 해야 한다"며 "대박을 치기보다는 꾸준히 콘텐츠를 업로드하고 사용자와 소통하며 소박을 차근차근 쌓아가는 게 1인 크리에이터로서의 성공 전략"이라고 조언했다. pbj@news1.kr [© 뉴스1코리아(), 무단 전재 및 재배포 금지]</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933343&amp;date=20190829&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=28</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>조국 前제수, 출국 제지···"도피 아니다" 해명에도 남은 의혹</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>조국 법무부 장관 후보자 동생의 전처인 조모(51)씨가 29일 오전 김해공항을 통해 출국하려다 제지 당한 것으로 확인됐다. 28년간 항공사에 근무하고 있는 조씨는 부산에서 활동하는 파트장이다. 조씨는 출국금지 사실을 몰랐던 것으로 알려졌다. 조씨가 업무차 출국하려다가 제지당하자 해당 항공사 측은 당혹스럽다는 입장이다. 회사 관계자는 “업무로 나가는 것도 안 되느냐”며 “후속 대책을 고민해 봐야겠다”고 했다. 일각에서는 조씨가 업무차 출국이 아니라 개인적인 이유로 출국을 시도한 것으로 보고 있다. 김해국제공항 한 관계자는 “통상적으로 승무원은 매표를 안 하고, 출국 게이트에서 자체 사인을 하는 것으로 알고 있다”며 “일반인처럼 출입국 심사를 거치는 과정에서 조씨가 제지를 당한 것이라면 승무원 자격으로 출국하려고 한 게 아닐 수도 있다”고 말했다. 하지만 법무부는 도피 성격의 출국이 아니라는 점을 명확히 했다. 법무부 관계자는 “조씨가 출국 금지된 것은 맞지만, 항공사 직원이어서 출국하려다 금지된 것"이라고 설명했다. 조씨는 28년간 항공사에 근무하고 있고, 부산에서 활동하는 파트장(차장)이다. 최근 이 회사 부산 사무실이 없어졌지만, 부산에서 출발하는 비행 편에 타는 승무원은 부산에 남아 있는 상황이다. 앞서 장제원 자유한국당 의원은 조씨가 항공사 차장급 직무를 맡고 있으면서 외부 업체 대표이사·사내이사·감사 등을 지냈다는 의혹을 제기했다. 해당 항공사 취업규칙에서 허용하지 않고 있는 겸직을 한 것이다. 장 의원실에 따르면 조씨는 현재 원모씨와 ‘카페휴고’의 공동 대표로 이름이 올라가 있다. 이곳은 전남편 조모씨가 2011년 5월부터 2013년 5월까지 대표이사를 지낸 곳이다. 또 올해 사실상 해산이 간주하기까지 조씨 남편이 대표를 지냈던 씨티업에서도 2008년 8월~2010년 3월 사내이사를, 2010년 3월~2013년 3월 감사로 재직했다. 이외에도 코바컨설팅·코바하우징·코바씨앤디 등에서 2005년 12월부터 2007년 7월까지 각각 감사직을 맡았다. 또 더코바에서도 2008년 8월~2010년 3월 이사직을, 2010년 3월~2013년 3월 감사직을 지냈다. 이런 의혹에 대해 조 후보자 인사청문회 준비단은 “(준비단이) 답할 사안이 아니다”고 밝혔다. 부산=이은지 기자 lee.eunji2@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>“공인인증서가 필요할 땐 가까운 KT 직영매장으로”</t>
-        </is>
+      <c r="A59" s="1" t="n">
+        <v>58</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[이데일리 김현아 기자] KT그룹의 전자금융 전문 계열사 이니텍(대표 강석모)이 공인인증서 대면 접수처를 전국의 250여개 KT 직영매장(KT M&amp;amp;S)으로 확대했다. 이니텍은 KT, KT M&amp;amp;S와 공인인증서 등록대행 기관 계약을 체결하고 지난 6월부터 주요 KT 직영매장 10곳에서 공인인증서 발급 서비스를 제공해왔다. 고객들은 통신사나 인터넷뱅킹 가입 유무와 관계 없이 이니패스 홈페이지에서 간단한 신청서를 작성하고 가까운 KT 직영매장을 방문하면 5분 만에 범용 공인인증서를 발급받을 수 있다. 이니텍이 발급하는 공인인증서는 사설 인증서와는 달리 인터넷 뱅킹, 온라인 주식거래, 전자민원 서비스 등 공인인증서가 필요한 모든 업무에 범용적으로 사용이 가능하다. 범용 공인인증서는 국가에서 지정한 공인인증기관을 통해서만 발급 받을 수 있으며, 이니텍은 지난해 6월 공인인증기관 지위를 획득했다. KT 직영매장은 금융기관의 영업점 이용 시간 이후인 평일 저녁이나 토요일과 공휴일(일요일과 명절 당일 제외)에도 운영해 평일 일과시간 중에 금융기관을 방문해 공인인증서를 발급 받기 어려운 직장인들이나 학생들이 편리하게 이용할 수 있다. 이니텍은 올 연말까지 개인 범용 공인 인증서(1년)는 무료로, 사업자 범용 공인인증서(1년)는 50% 할인된 5만 5천원에 발급받을 수 있는 프로모션을 진행한다. 9월 말까지 개인 범용 공인인증서를 신규 발급한 고객들은 LG전자 그램 노트북을 비롯해 아이패드, 금 1돈 등 총 2천만원 상당의 푸짐한 경품을 제공하는 ‘이니패스 빅 페스티벌’ 이벤트에 응모할 수 있다. 이벤트 결과는 오는 10월 14일 홈페이지를 통해 발표될 예정이며, 이외에도 주요 KT 직영매장과 이니패스 공식 SNS에서 다양한 프로모션과 게릴라 이벤트가 진행된다. 강석모 이니텍 대표는 “고객들이 보다 편리하게 공인인증서를 발급받아 사용할 수 있도록 대면 접수처를 계속해서 확대할 예정”이라며, “공인인증서 외에도 전자서명 및 다양한 생체 정보 인증과 비대면 실명확인 등 혁신적인 인증 서비스를 제공하는 차세대 통합 인증 플랫폼 이니패스 서비스를 선보이겠다” 고 밝혔다. 김현아 (chaos@edaily.co.kr) 네이버 홈에서 ‘이데일리’ 뉴스 꿀잼가득 , 청춘뉘우스~ ＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp;amp; 재배포 금지＞</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=009&amp;aid=0004418244&amp;date=20190829&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=29</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>조국지지자들 `가짜뉴스아웃` 이어 `한국언론사망` 실검 띄우기 맹폭</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>조국 법무부 장관 후보자 지지자들이 실시간검색어 띄우기가 사흘째 이어지고 있다. 27일 오후부터 시작된 실검띄우기는 29일 오전까지 이어지고 있다. 실제 이날 오전 '가짜뉴스아웃'은 네이버 실시간검색어 6위에 이름을 올리고 있다. 전날 오후부터 트위터, 온라인 커뮤니티 등에서 조국 지지자들의 '가짜뉴스아웃' 검색 독려 결과다. 앞서 조국 지지자들은 '조국 힘내세요'라는 해시태그를 달고 조국 후보를 응원했다. 이에 조국 후보 반대 진영에서는 '조국 사퇴하세요'로 맞불을 놓았다. 조국 지지자들은 다시 '가짜뉴스아웃'으로 반격했다. 한편 조국 지지자들은 이날 오후 3시 '가짜뉴스아웃'에 이어 '한국언론사망'으로 또 다시 실시간검색어 띄우기에 나설 것으로 보인다. [디지털뉴스국 이상규 기자] [ⓒ 매일경제 &amp;amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>"갤노트10 플러스 아우라글로우·블루는 없어서 못 판다"</t>
-        </is>
+      <c r="A60" s="1" t="n">
+        <v>59</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>공식출시 첫날 휴대폰 집단상가 가보니 “지원금 더해 40만원대 가능”…갤노트+ 256GB 아우라 글로 ‘인기’ 특정 색상 품귀현상 빚지만 전체 성적표는 지켜봐야 [이데일리 장영은 기자]“갤럭시노트10 이요? 큰 거(플러스 모델) 보시면 지금 아우라 글로우랑 블루는 좀 힘든데” 갤럭시노트(갤노트)10의 공식 판매가 시작된 23일 오후 서울 강변 테크노마트 내 휴대폰 판매점을 방문해 보니 가장 인기 있는 모델은 갤노트10 플러스(+) 256GB ‘아우라 글로우’ 색상이었다. 지난 9일부터 19일까지 진행된 사전예약 결과와도 같다. 갤럭시노트10과 갤럭시노트10 플러스 아우라 글로우 색상 ◇ 공시지원금 28만~45만원…통신사 ‘리베이트’ 50만~60만원 평일 오후라 전반적으로 한산한 모습이었지만 곳곳에서 휴대폰 가격을 상담하거나 계약을 진행하는 모습이 눈에 띠었다. 단일 상품으로는 갤노트10이 단연 인기라는 게 판매점들의 공통된 목소리. 방문 고객 중 열에 일곱은 갤노트10을 찾는다는 설명이다. 이같은 인기는 물량부족 현상으로 나타났다. 현장에서 계약을 하고 돈을 내도 특정 색상의 경우 바로 개통을 하지 못한다는 것이다. 판매점마다 가지고 있는 물량에 차이가 있기는 했으나 갤노트10의 대표 색상인 아우라 글로우와 아우라 블루(SKT 전용)는 최소 일주일 이상은 기다려야 한다는 곳이 많았다. A 판매점 사장은 “아무래도 노트 고객들은 더 큰 화면의 플러스 모델을 선호해 기본 모델(갤노트10)은 전 색상이 다 가능한데 플러스 모델 같은 경우 아우라 글로우는 512GB만 가능하다”며 “블루도 물량이 좀 부족하고 블랙이나 화이트는 당장 개통할 수 있다”고 말했다. 가격은 5G 8만원대 요금제(SKT는 8만9000원, KT는 8만원)를 선택하는 걸 기준으로 공시지원금과 통신사 판매장려금(리베이트)을 통한 할인까지 받으면 갤노트10 플러스(256GB)가 40만원 중후반대에 형성돼 있었다. 해당 모델의 출고 가격이 139만7000원이고, 공시 지원금이 40만원 정도인 것을 감안하면 판매점에서 유통점 리베이트를 받아 50만원 이상 추가 할인을 해주는 셈이다. [이데일리 이동훈 기자]갤럭시노트10과 플러스모델 사양 비교 ◇“사전예약하고 못 받은 사람 수두룩”…가격전망은 엇갈려 B 판매점 직원은 “통신사에서 뿌리는 지원금이 하루에도 바뀌어서 가격을 정확히 말하기 어렵다”면서도 “인터넷 상에서 나오는 것 처럼 10만원대 가격은 현실적으로 힘들고 앞으로도 안 될 것”이라고 설명했다. 10만원이 넘는 가장 높은 요금제를 유지하고, 카드를 새로 만들어 할인을 받는 방법을 동원하면 가능할 수 있지만 그렇게까지 해서 싸게 구매하려는 고객들은 많지 않다고 덧붙였다. 다른 판매점 직원도 “저렴한 가격에 사전 예약한 고객들 중에서도 그 가격으로는 언제 받을지 기약이 없어서 지금 가격으로 돈 더 내고 사은품 받아서 챙겨가시는 분들이 많다”며 “오늘 오전에도 10명도 넘게 그렇게 (제품을) 가져갔다. 더 지나서 9월이 되면 어차피 사전예약 사은품도 못 받는다”고 전했다. 자급제 폰을 판매하는 삼성닷컴의 경우도 사전 예약기간 동안 준비한 물량이 모두 소진돼 지난 19일 이후로는 판매가 중단된 상태다. 삼성전자측은 “지금은 사이트를 통해 주문을 받아도 바로 물건을 받아볼 수 없는 경우가 생겨 삼성닷컴을 통한 갤노트10 판매를 준비 중인 상황”이라고 밝혔다. 삼성전자와 통신사, 판매점 현장 상황을 종합해 볼 때 갤노트10에 대한 초기 반응은 예상치를 웃돌며 호조를 보이고 있는 것으로 판단된다. 다만 최종 성적표는 지켜봐야 할 것으로 보인다. 현재 품귀 현상을 빚고 있는 것이 특정 색상에 한정돼 있고 역대 최대 수준으로 예상됐던 공시지원금이 28만~45만원선으로 ‘실망스러운’ 수준에 머물렀기 때문이다. 사전 예약기간이 끝나면서 오히려 통신사에서 지급하는 리베이트도 다소 줄었다는 게 대다수 판매점측 얘기다. ‘기다리면 더 가격이 떨어지지 않겠느냐’라며 구매 시점을 묻자, 이제는 점점 더 오를 가능성이 높다는 예상과 지금보다 휴대폰 가격이 더 오르진 않을 것 같다는 의견이 반반이었다. 장영은 (bluerain@edaily.co.kr) 네이버 홈에서 ‘이데일리’ 뉴스 꿀잼가득 , 청춘뉘우스~ ＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp;amp; 재배포 금지＞</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=056&amp;aid=0010737381&amp;date=20190829&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>검찰, ‘조국 의혹’ 관련 오거돈 부산시장 집무실 압수수색</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>조국 법무부 장관 후보자 관련 의혹을 수사 중인 검찰이 오거돈 부산시장의 집무실을 압수수색하고 있습니다. 서울중앙지검 특수2부는 오늘(29일) 부산시장의 집무실에 검사와 수사관들을 보내 컴퓨터 파일 등을 확보하고 있습니다. 검찰은 오늘 압수수색은 지난 27일 부산시청 압수수색의 연장선으로, 오거돈 시장의 참관 하에 디지털 포렌식 자료를 확보해야 한다는 부산시청의 입장을 받아들여 오늘 압수수색을 재개한 것이라고 밝혔습니다. 검찰은 노환중 부산의료원장을 출국 금지하고, 부산의료원장 임명과 관련된 자료 등을 집중 확보하고 있는 것으로 전해졌습니다. 노 원장은 양산부산대병원장 재직 당시 조 후보자의 딸 조 모 씨의 지도교수로, 2016년부터 6학기 연속 1200만 원의 장학금을 건넨 인물입니다. 노 원장은 이후 지난 6월 부산시장이 임명권을 가진 부산의료원장에 취임했습니다. 한편 검찰은 조 후보자 가족 일가가 투자한 사모펀드에 대해서도 집중적으로 수사를 벌이고 있는 것으로 알려졌습니다. 검찰은 조 후보자의 부인 정 교수가 두 자녀와 함께 10억 5천만 원을 출자한 코링크프라이빗에쿼티(PE)의 자금거래 흐름을 파악하기 위해 조 후보자의 5촌 조카 조 모 씨 등의 금융계좌를 추적하고 있습니다. 조 씨는 사모펀드의 실질적 운영자라는 의혹을 받아 왔습니다. 조 씨를 포함해 코링크PE 이상훈 대표와 코링크PE가 투자한 2차 전지회사 전 대표 우 모 씨 등은 검찰 수사를 앞두고 해외로 출국한 것으로 전해졌습니다. 이에 검찰은 조속히 귀국해 수사에 협조할 것을 요청했다고 밝혔습니다. 검찰은 앞서 조 후보자의 동생과 처남 등 일부 가족에 대해서도 출국을 금지했습니다. 다만 조 후보자 본인과 부인, 모친은 출국 금지하지 않은 것으로 알려졌습니다. [사진 출처 : 연합뉴스] 조태흠 기자 (jotem@kbs.co.kr)</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>[노정동의 3분IT] 폴더블폰 나오면 갤럭시노트·갤럭시S 둘 중 하나는 단종?</t>
-        </is>
+      <c r="A61" s="1" t="n">
+        <v>60</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>노트10 개발前 S시리즈와 모델통합 논의 S시리즈 화면 커지며 "차별성 부족" 지적 "5G 시대 폴더블폰 나오면 주도권 넘어가" 플래그십 모델 판매량도 점차 하향세 영향 &amp;lt;자료=유진투자증권&amp;gt; 삼성전자의 프리미엄 스마트폰 '갤럭시S'와 '갤럭시노트' 시리즈의 모델 통합설(說)이 흘러나온다. 다음달 5세대 이동통신(5G) 시대의 새로운 폼팩터(특정 기기 형태)로 꼽히는 폴더블폰이 출시되면 효율적 운영을 위해 프리미엄급 두 모델 중 하나는 단종 가능성이 있다는 얘기다. 23일 정보기술(IT) 업계에 따르면 삼성전자 무선사업부(IM)는 이번 갤럭시노트10을 준비하는 과정에서 S시리즈와 모델 통합 가능성을 염두에 두고 제품 개발에 돌입했던 것으로 알려졌다. 갤럭시S와 갤럭시노트의 차별성이 점차 사라지고 있다는 지적이 시장에서 제기되고 있어서다. 실제로 두 모델 간 차별화 포인트 중 하나였던 화면 크기 차이는 이미 사라졌다. 갤럭시S9의 플러스 모델은 6.2인치로 갤럭시노트8(6.3인치)과 유사한 크기였고, 갤럭시S10 플러스 모델(6.4인치)은 심지어 갤럭시노트10(6.3인치)보다 크다. S시리즈 최신작인 '갤럭시S10 5G' 모델도 화면 크기가 6.7인치로 종전에 나온 모든 갤럭시노트 시리즈 디스플레이보다 크다. 이날 공식 출시되는 갤럭시노트10 플러스(6.8인치)만이 갤럭시S10 5G보다 큰 유일한 플래그십 모델이다. 갤럭시S 모델 화면 크기가 점차 커지면서 한 손에 잡히는 그립감을 선호하면 갤럭시S, 대화면 스크린을 선호하면 갤럭시노트 시리즈를 선택했던 종전과는 달라졌다. 삼성전자 내부에서 "둘 중 하나는 정리해야 하는 것 아니냐"는 분위기를 형성하는 더 큰 요인은 스마트폰 사업 수익성 악화다. 삼성전자는 지난 2분기 스마트폰을 담당하는 IM 부문에서 매출 25조8600억원, 영업이익 1조5600억원을 거뒀다. IM 부문 영업익이 2010년 이후 2분기 기준 최저치로 떨어진 것이다. 영업이익률도 6%에 그쳤다. 삼성전자가 스마트폰 사업을 시작한 이래 최악 국면이라 할 만하다. 글로벌 스마트폰 시장이 하락세로 접어든 상황에서 중국 업체들과 경쟁하기 위해 마케팅비 지출을 늘리는 점, 스펙 경쟁으로 생산 원가가 이전보다 크게 뛰는 점이 스마트폰 사업 수익성을 떨어뜨리는 주요인으로 지적된다. 삼성전자는 지난해 스마트폰 연간 판매량이 2013년 이후 처음으로 3억대 밑(2억9130만대)으로 내려섰다. 수익성이 다소 떨어져도 규모의 경제로 버텨온 그간의 스마트폰 사업 전략에 변화가 필요하다는 신호가 내부에서도 나오는 이유다. 삼성전자 관계자는 "중저가 스마트폰 판매량은 호조를 보였지만 프리미엄 제품군 수요가 줄었기 때문"이라고 설명했다. 때문에 삼성전자는 내년부터 스마트폰 출하량의 3분의 1(1억대) 가량을 ODM(제조자개발생산) 방식으로 돌려 효율화하는 방안을 검토하고 있다. 갤럭시J 시리즈 등 저가 제품 라인을 제조업자에 맡기고 프리미엄급 스마트폰만 삼성이 자체 생산하는 게 골자다. ODM으로 가격경쟁력을 확보해 신(新)시장으로 꼽히는 인도·중국 등에서 화웨이, 오포 등 중국 업체들과 맞붙겠다는 심산. 특히 최근 삼성전자가 공을 들이고 있는 인도는 주로 저가 제품 이주 시장으로, 출고가가 100만원 안팎에 달하는 갤럭시S와 노트 시리즈의 주력 시장은 아니다. 여기에 5G가 범용화되면 프리미엄급 제품에선 주도권이 폴더블폰으로 넘어갈 가능성도 제기된다. 삼성전자는 다음달 전세계에서 처음으로 접이식 '갤럭시폴드'를 출시한다. 업계에선 LTE에서 5G로의 이동이 단순히 속도만 높아지는 것이 아니라 그동안 무선에선 쉽게 구현할 수 없었던 증강현실(AR)·가상현실(VR)·인공지능(AI)·클라우드 게이밍 콘텐츠가 개인 스마트폰에서 접할 수 있다고 본다. 소화면과 대화면을 한 번에 쓸 수 있는 폴더블폰 활용도가 극대화될 것이란 설명이다. 고동진 삼성전자 스마트폰 총괄사장은 지난 8일 미국 뉴욕에서 갤럭시노트10 언팩 행사 후 취재진과 만나 "5G 시대에 접는 폰에 대한 수요는 반드시 있을 것이다. (현재 200만원대인) 가격도 낮아질 수 있다"고 언급했다. "5G는 삼성전자 무선사업부의 차세대 먹거리", "폴더블폰만의 역할이 있을 것"이라고도 했다. 문제는 판매량이다. 현재 플래그십 라인에서만 수익을 내고 있는 삼성전자로선 갤럭시S와 갤럭시노트 시리즈 판매량이 특히 중요하다. 기존 프리미엄 라인을 정리·통합한다고 할 때 결국 두 모델 가운데 어느 모델이 소비자 선택에서 멀어질지가 관건이 될 것으로 보인다. 시장조사업체 스트래티지 애널리틱스(SA)와 증권업계에 따르면 역대 갤럭시S 시리즈는 △S1 2500만대 △S2 4000만대 △S3 6500만대 △S4 7000만대 △S5 4500만대 △S6 4500만대(엣지 포함) △S7 4900만대 △S8 4000만대 △S9 4300만대 수준이다. 노트 시리즈도 △노트1 1000만대 △노트2 850만대 △노트3 1200만대 △노트4 800만대 △노트5 850만대 △노트8 1100만대 △노트9 960만대다. 노트6는 출시되지 않았고 노트7은 배터리 발화 사태 이후 FE 모델로 재출시돼 40만대만 한정 판매됐다. 판매량만 놓고 보면 90만원대인 갤럭시S 시리즈가 120만원대 갤럭시노트 시리즈보다 많지만 삼성전자는 가격대와 'S펜' 충성고객 등을 고려했을 때 노트 1000만대 판매면 나쁘지 않은 성적으로 보고 있다. 다만 이번 갤럭시노트10 성적이 좋지 않을 경우 마지막 노트 제품이 될 가능성도 배제할 수 없다. 과거 갤럭시노트7 배터리 발화 사태 이후 삼성전자 내부에서 노트 시리즈 존폐 여부를 놓고 논의를 거쳤을 때도 가장 먼저 고려한 건 향후 소비자 수요였다. 노트8 판매량이 유독 높았던 건 노트5 이후 교체 수요가 몰렸기 때문이다. 고동진 사장은 "다음달 갤럭시폴드가 출시됨에도 불구하고 스마트폰 포트폴리오 측면에선 아직 노트 시리즈를 최상위급으로 보고 있다"면서 "폴더블폰은 이제 시작하는 사업이고 이들(갤럭시S, 갤럭시노트)과는 완전히 다른 폼팩터로 판단하고 있다"며 조심스러운 입장을 나타냈다. 한 업계 관계자는 "S펜에 대한 충성고객을 놓치기 싫다면 노트 시리즈를 포기한 뒤 애플처럼 S펜을 별도 판매하는 방식을 채택할 수 있다"며 "갤럭시노트10이 어느 정도 의미 있는 판매량을 보일지가 향후 노트 시리즈의 향방을 결정할 수 있다"고 덧붙였다. 노정동 한경닷컴 기자 dong2@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=022&amp;aid=0003392780&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=1</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>'세계최초' 타이틀에 눈멀어…국민의 안전은 무시했다</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>안전성 검증 없이 제품 팔고, 공정위는 기업 봐주기… / 8년 만에 열린 진상규명 청문회 / 6500명 피해신청… 1430명 숨져 / 정확한 피해규모 아직 파악 못해 / SK케미칼 “세계최초” 판매 급급 / 애경, 잇단 피해 신고 무마 골몰 / 공정위는 제품 표시 위반 눈감아 / SK케미칼·애경 뒤늦게 공식사과 / 정부, 피해 지원 확대 법 개정 추진 “평화 시에 저지른 한국판 아우슈비츠 참사에 다름 아니다.”(피해자 박모씨) “저 때문에 (아내의) 폐는 13% 남아있다. 억울하기 한이 없다.”(피해자 김모씨) 2011년 8월31일 원인 미상의 폐질환이 가습기 살균제가 원인이었다는 정부 발표 이후 약 8년 만인 27일 개최된 참사 청문회는 피해자들의 울분 속에 시작됐다. 피해자들은 1994년 최초 가습기 살균제 원료를 만들고 2011년까지 수백만개의 제품을 판매한 SK케미칼(전 유공)과 애경산업 측이 참사 원인을 초래했음에도 피해자를 기만했다고 지적했다. 이날 서울시청에서 열린 가습기살균제사건과 4·16세월호참사 특별조사위원회(이하 특조위)의 ‘가습기살균제 참사 진상규명 청문회’에서는 안전성이 검증되지 않았는데도 SK케미칼과 애경이 제품 판매를 통한 수익 창출에만 신경 쓰고 국민의 안전은 무시했다는 사실이 공개됐다. 27일 오전 서울시청 다목적홀에서 열린 ‘2019 가습기살균제참사 진상규명 청문회’에서 SK케미칼·애경산업 관계자 등 증인 및 참고인들이 출석해 있다. 이재문 기자 우선 SK케미칼은 그간 1994년 처음으로 가습기 살균제를 개발한 것으로 알려졌지만 1992∼1993년 최종현 전 유공 회장의 지시로 제품을 만든 것으로 나타났다. 최 전 회장은 당시 ‘세계 최초 개발’이라면서 간부들에게 제품을 자랑했다고 비공개로 출석한 SK케미칼 전 부장이 증언했다. 그는 “당시 부장들이 ‘왜 이런 걸 개발하는지 모르겠다’고 얘기하기도 했다”고 말했다. 세계 최초란 타이틀에 매몰된 SK케미칼 측은 이영순 당시 서울대 수의학과 교수에 의뢰한 흡입독성 여부 실험 결과가 나오기도 전인 1994년 11월 제품을 출시했고, 이듬해 7월 나온 보고서도 무시했다. 애경 역시 2003년부터 2011년까지 자사 가습기 살균제를 사용해 호흡곤란 등을 호소한 클레임이 981건에 달했지만 안전성 검토에 나서지 않고 치약으로 교환해주며 소비자 피해를 키웠다. SK케미칼과 애경은 참사 책임 기업임에도 옥시레킷벤키저를 대상으로 한 검찰의 1차 수사 기간인 2017년 협의체를 만들어 은밀히 검찰 부장검사와 독성실험을 하고 있는 환경부의 동향 파악에 나선 것으로 나타났다. 최창원 전 SK케미칼 대표이사와 채동석 애경 대표이사 부회장은 이날 피해자들에게 공식 사과하고 피해자 지원에 최선을 다하겠다고 밝혔지만 피해자들은 ‘살인기업’이라고 울분을 토했다. SK케미칼 등의 표시·광고법 위반 혐의에 대해 면죄부를 준 공정거래위원회가 기업과 유착한 정황도 공개됐다. 공정위는 2012년 SK케미칼이 제조한 가습기 메이트 등이 인체에 무해하다는 광고와 관련해 2012년, 2016년 각각 심사관 전결 무혐의 처분, 심의절차 종료 판단을 내렸다. 공정위의 이런 결정은 ‘공정’하지 않은 것으로 드러났다. 2012년, 2016년 당시 판단이 내려지기 전 공정위가 공정위 출신 SK케미칼 임원 등과 면담한 것이 이날 확인됐기 때문이다. 가습기 살균제 참사는 1994년부터 2011년까지 990만여개의 제품이 판매돼 최대 56만여명의 국민에게 피해를 초래한 단군 이래 최대의 환경 비극이다. 현재까지 6500여명이 피해 신청했고, 1430여명이 숨졌는데 피해 규모는 아직도 파악 중이다. 한편 환경부는 이날 가습기 살균제로 건강이 악화한 이들을 피해자로 인정하는 특별법 개정을 추진하겠다고 밝혔다. 지금까지 폐질환, 태아피해, 독성간염 등 한정된 증상을 1~4단계로 나눠 제한적으로 피해 지원이 이뤄졌는데 앞으로는 가습기 살균제로 건강이 악화한 점이 드러나면 무조건 피해를 인정하겠다는 것이다. 이희경 기자 hjhk38@segye.com ⓒ 세상을 보는 눈, 세계일보</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>신형 아이폰 초광각·역충전 도입…"갤럭시 쏙 빼닮았네?"</t>
-        </is>
+      <c r="A62" s="1" t="n">
+        <v>61</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>블룸버그 "9월 신형 아이폰 3종 공개…2종에 '프로' 명칭" 핵심은 카메라…초광각, 동영상 촬영에 방점 에어팟 충전 위한 무선 배터리 공유 기능도 탑재 [이미지출처=연합뉴스] [아시아경제 임온유 기자] 9월 공개되는 신형 아이폰의 핵심은 카메라다. 특히 '넓게 찍는 초광각'과 '전문가 수준의 동영상' 촬영이 새로이 도입될 것으로 예상된다. 블루투스 이어폰 에어팟을 충전할 수 있는 '무선 배터리 공유' 기능 역시 히든 카드 중 하나다. 모두 애플이 아이폰에 처음 시도하는 것들이다. 하지만 소비자를 놀라게 할 '와우 포인트'는 부족하다. 이 모든 기능들은 삼성전자가 3월 출시한 '갤럭시S10'에 이미 탑재된 바 있기 때문이다. 22일(현지시간) 미국 블룸버그에 따르면 애플은 내달 신형 아이폰 3종을 공개한다. 3종은 각각 아이폰XS·XS맥스·XR의 후속작으로 상위 2종에는 '프로'라는 명칭이 붙을 것으로 예상된다. 블룸버그는 프로 2종의 핵심은 업그레이드된 후면 카메라 시스템이라고 지목했다. 이들은 트리플 카메라를 장착하는데 특히 광각을 넘어서는 초광각 촬영에 특화될 전망이다. 동영상 촬영 기능도 대폭 업그레이드된다. 블룸버그는 "신형 아이폰의 카메라는 전문 비디오 카메라에 더 가까이 다가갈 것"이라고 했다. 사용자가 촬영하며 실시간으로 수정, 효과 적용, 색상 변경, 프레임 변경, 자르기를 할 수 있다는 설명이다. 이외에도 어두운 곳에서의 촬영 기능이 향상되고 세 개의 이미지를 한꺼번에 촬영한 뒤 인공지능(AI) 소프트웨어로 이를 합성해 최적의 결과물을 얻을 수 있게 한다고 블룸버그는 전했다. 모두 아이폰에 처음 도입되는 기능이지만 혁신의 측면에서는 아쉽다. 삼성전자를 비롯한 안드로이드폰에서 대부분 시도된 사항들이기 때문이다. 특히 출시된 지 5개월이 지난 갤럭시S10과의 유사성이 크다. 삼성전자는 지난 2월 갤럭시S10을 공개할 당시 초광각 트리플 카메라를 장착하고 전문가 수준의 동영상 촬영이 탁월하다고 강조한 바 있다. 지난 20일 출시된 '갤럭시노트10'의 경우 신형 아이폰처럼 고도화된 동영상 편집 툴을 자체 탑재했다. 스티브 잡스가 집권하던 시절 애플은 '혁신의 아이콘'으로 불렸다. 그러나 최근 팀 쿡 체제 애플의 행보는 혁신보다는 안정에 방점이 찍혔다. 새로운 시도를 하기 보다는 이미 시도된 것을 향상시키는 데 보다 집중하는 것이다. 프리미엄 스마트폰 시장이 마이너스 성장을 거듭하고 있는 상황에서 혁신과 안정 중 정답이 무엇인지는 알 수 없다. 그러나 애플의 선택은 스마트폰 시장의 침체를 인식하고 서비스·소프트웨어 시장에 역량을 분산하는 것과 무관하지 않다고 분석된다. 애플은 최근 애플뮤직, 앱스토어 등 서비스 흥행에 힘입어 역대 최고 2분기 매출 538억 달러(약 65조 980억 원)를 기록했다. 반면 아이폰 매출은 259억9000달러(약 31조3390억원)로 7년 만에 처음으로 전체 매출의 절반에 미치지 못했다. 임온유 기자 ioy@asiae.co.kr &amp;lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&amp;gt;</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002932763&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=2</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>"아아악" 최순실 소리 지르게 한, 그 검사가 조국 수사한다</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>조국(54) 법무부 장관 후보자와 일가족의 각종 의혹을 둘러싼 사건 수사 지휘는 서울중앙지검 고형곤(49‧사법연수원 31기) 특수2부장이 맡았다. 검찰은 27일 부산대 의학전문대학원과 서울대 환경대학원, 고려대 생명과학대와 단국대 병원, 경남 창원 사학재단 웅동학원과 서울의 사모펀드 코링크프라이빗에쿼티 등 20여곳을 동시다발적으로 압수수색했다. 이번 사건은 사실상 지난달 출범한 윤석열호(號)가 수사하는 첫 번째 대형 사건이라는 평가도 받는다. 전날까지 서울중앙지검은 “수사에 효율적”이라는 이유를 대며 조 후보자 관련 고소·고발 사건 10여건을 형사1부에 배당하고 있다고 밝혔다. 그러나 실제로는 특수2부라는 정예 부서를 투입해 광범위한 강제수사에 돌입했다. 영장 청구와 발부 시간 등을 고려했을 때 수일 전부터 특수부가 사건을 맡기로 정리가 됐다는 얘기도 나오고 있다. 검찰 관계자는 부서 변경 이유에 대해 “국민 관심이 높은 공적 사안인 데다 신속하고 효율적인 진상 규명이 필요하다는 점을 고려했다”고 밝혔다. 이달 초 발표한 검찰 인사에 따르면 특수2부는 기존 18명에서 7명으로 줄었다. 삼성바이오로직스 분식회계 사건을 맡았던 특수2부 검사들은 대거 특수 4부로 이동했다. 새로 배치된 특수2부 검사들은 법무부나 수원‧울산지검 등 외부에서 온 인사들로 채워졌다. 고형곤 부장검사도 8월 인사 전에 전주지검 남원지청장으로 소속돼 있었다. 고 부장검사는 최순실 국정농단 사건 수사 당시 서울중앙지검 특수1부 부부장 검사로 있으면서, 이화여대 부정 입학 의혹 등을 받고 있던 최순실씨의 딸 정유라에 대한 수사를 맡았다. 이후 박영수 특별검사팀에 파견돼 윤석열 검찰총장, 한동훈 대검 반부패·강력부장 등과 함께 호흡을 맞췄다. 2017년 5월 정씨가 덴마크에서 강제 송환돼 오자 이틀에 걸쳐 16시간 가까이 조사를 했다. 그해 12월 재판에서 최씨는 검찰이 징역 25년을 구형하자 대기실에서 “아아아악” 소리를 지른 뒤 다시 법정으로 나와 “고형곤 검사님, 신자용(현 서울중앙지검 1차장) 검사님, 윤석열 검사님 그러시면 안 됩니다”라며 이름을 부르기도 했다. 조 후보자의 인사청문회가 9월 2~3일에 열릴 예정인 만큼 향후 수사 추이가 임명 여부에 영향을 미칠 수 있다. 다만 검찰 관계자는 관련자 소환과 추가 압수수색에 대해 “당분간 압수물 분석에 집중하겠다”며 말을 아꼈다. 김민상 기자 kim.minsang@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>[+다큐] 알파고 충격 후 3년‧‧‧그간 바둑은 어떻게 변했을까?</t>
-        </is>
+      <c r="A63" s="1" t="n">
+        <v>62</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>동영상 뉴스 	 	구글의 바둑 인공지능, 알파고의 등장으로 바둑계의 판도가 바뀌었습니다. 알파고가 바둑계 판도 변화의 신호탄을 던졌다면 페이스북의 바둑 인공지능 엘프고는 실제적인 판도 변화를 이끌어냈습니다. 바둑을 공부하는 방법이 바뀌었고, 포석 전략이 단순화되었고, 바둑 기사들의 실력도 전반적으로 늘었습니다. 이제는 만만하게 볼 프로기사가 거의 없다고 합니다. 실력이 상향 평준화됐다는 이야기입니다. 그러나 바둑 고유의 인간미는 점점 사라져가는 것 아니냐는 질문도 제기됩니다. 알파고 이후, 바둑 인공지능이 바둑계에 미친 영향과 미칠 영향을 취재했습니다. 기획 : 김동민(kdongmin@ytn.co.kr) 연출 : 서정호(hoseo@ytn.co.kr) 편집 : 강재연, 서정호 촬영 : 함초롱, 안용준 [저작권자(c) YTN &amp;amp; YTN PLUS 무단전재 및 재배포 금지]</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=020&amp;aid=0003237708&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=3</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>성락교회 “김기동 목사, 젊은 여성과 호텔에? 부적절 관계 아냐”</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>성락교회는 28일 김기동 원로 목사(81)가 20대로 추정되는 여성 교인과 부적절한 관계를 맺은 게 아니냐는 의혹에 대해 “사실이 아니다”라고 말했다. 성락교회 관계자는 이날 동아닷컴과 통화에서 “지인들, 주변 분들은 부적절한 관계가 아니라고 했다”며 이같이 밝혔다. 김기동 목사의 성추문 의혹은 전날 방송한 MBC 시사 프로그램 ‘PD수첩’을 통해 수면에 올랐다. PD수첩에 따르면 ‘귀신 쫓는 목사’로 명성을 떨친 김기동 목사는 성도 15만 명의 절대적인 지지를 받고 있다. 그러나 최근 성락교회 일부 교인들은 김기동 목사의 성추문 의혹을 제보했다. 김 목사가 20대로 보이는 여성 A 씨와 호텔에서 10차례 이상 목격됐다는 것. A 씨는 모태 신앙 교인으로, 가족 모두 성락교회에 다니고 있다. 목격자는 호텔에서 두 사람을 목격할 때마다 영상을 촬영했다. 예배 중 두 사람의 부적절한 행동을 봤다는 교인도 있었다. 또 다른 목격자는 PD수첩에 “(김기동 목사가) 왼손으로 (A 씨의) 허벅지를 만지고 계셨더라”고 말했다. 김기동 목사의 성추문 의혹은 2년 전에도 불거졌지만 증거 불충분으로 잠잠해졌다. 그러나 김 목사가 젊은 여성과 호텔에 드나드는 새로운 영상이 등장하면서 이 같은 의혹은 다시 수면에 올랐다. 김기동 목사는 PD수첩에 “손녀처럼 아껴 위로와 격려를 했을 뿐 부적절한 관계는 아니다”라고 주장했다. 정봉오 동아닷컴 기자 bong087@donga.com ⓒ 동아일보 &amp;amp; donga.com, 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>"실험 적극 참여했다는데"…조국 딸 1저자 논란 입증할 '연구노트' 있을까</t>
-        </is>
+      <c r="A64" s="1" t="n">
+        <v>63</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2007년 연구노트 지침 제정…2010년 8월 연구노트 의무화 조양 2007년 실험 참여…"황우석 사태로 당시 연구노트 중요성 높을 시기" 조국 법무부 장관 후보자가 23일 오전 인사청문회 준비를 위해 서울 종로구 현대적선빌딩에 마련된 사무실로 출근하며 취재진의 질문에 답하고 있다. 2019.8.23/뉴스1 © News1 이재명 기자 (서울=뉴스1) 최소망 기자 = 조국 법무부 장관 후보자 딸의 의학논문 제1저자 등재 논란이 일파만파로 확산되면서 국내 규정상 의무화된 '연구노트' 유무에 관심이 쏠리고 있다. 연구노트는 조국 후보자의 주장대로 딸이 직접 연구에 참여했다는 주장을 입증할 결정적 근거로 될 수 있기 때문이다. 반면 이를 작성하지 않았을 경우 '연구부정'에 무게가 실린다. 23일 과학기술계에 따르면 지난 2007년 12월 교육과학기술부 훈령 '국가연구개발사업 연구노트관리지침'이 제정됐다. 이후 2008년 1월 지침이 시행됐으며 2010년 8월 대통령령 '국가연구개발사업의 관리 등에 관한 규정'이 개정돼 모든 국가 연구개발(R&amp;amp;D)에 참여하는 연구자는 연구노트를 작성하는 게 의무화됐다. 연구노트는 연구자가 수행하는 연구와 실험 등 모든 과정을 기록하는 것으로 실험을 위한 환경, 조건, 과정, 현상, 결과 등을 구체적으로 작성해야 한다. 이같은 기록은 연구윤리 측면에서 중요한 역할을 한다. 연구자가 발표한 결과를 과장, 허위, 표절없이 직접 수행했는지 증명할 수 있는 기록물이기 때문이다. 조국 후보자 딸 조 양은 지난 2009년 대한병리학회지(The Korean Journal of Pathology)에 제 1저자로 '출산전후(주산기) 허혈성 저산소뇌병증(HIE)에서 혈관내피산화질소 합성효소 유전자의 다형성'(eNOS Gene Polymorphisms in Perinatal Hypoxic-Ischemic Encephalopathy)이란 영어 논문을 출판했다. 앞서 조 양은 2007년 7월23일부터 8월3일간 약 2주간의 인턴 기간을 통해 실험을 진행했고 이후 2008년 12월 논문을 투고했다. 조 후보는 조 양이 직접 실험에 참가했다는 점을 피력한다. 조 후보자 측은 지난 20일 "후보자의 딸은 멀리까지 매일 오가며 프로젝트의 실험에 적극 참여해 경험한 실험과정 등을 영어로 완성하는데 기여하는 등 노력한 끝에 다른 참여자들과 함께 6~7페이지 짜리 영어논문을 완성해 해당 교수로부터 좋은 평가를 받았다"고 해명한 바 있다. 조 후보자 말에 따르면 조 양은 적극적으로 실험에 참가했고 이러한 부분이 연구노트에 남아 있을 확률이 있다는 것. 따라서 조 모양의 연구에 대한 기여도 등을 면밀하게 파악하기 위해서는 단국대 인턴으로 참가했을 시기의 연구노트를 공개하고 이를 투명하게 검증하는 게 중요한 사안으로 떠올랐다. 익명을 요구한 한 과학기술인은 "모든 과학기술연구는 연구노트를 작성할 의무가 있고 이를 작성하지 않거나 부실, 변경, 거짓 기재하면 연구부정행위"라면서 "단국대·공주대 연구진들은 조 양과 관련한 연구노트를 영구하게 보유하고 있어야 한다"고 말했다. 이어 "그렇지 않다면 이는 연구부정 행위"라며 "연구노트를 공개하고 투명하게 검증해야 할 필요가 있다"고 주장했다. 문제는 조 양이 실험하던 시기가 연구노트가 의무화된 시기는 아니라는 점이다. 조 양이 실험에 참가한 때는 2007년이다. 연구노트 의무화가 이뤄진 시기는 2010년이기 때문이다. 그럼에도 당시에는 2005년 황우석 사태 이후 '연구노트'에 대한 중요성이 높아진 시기라 윤리적으로나 도의적으로 연구노트가 작성됐어야 한다는 목소리가 나온다. 연구노트는 이른바 '황우석 사태'가 촉발한 제도로 꼽힌다. 정부 집계에 따르면 2008년부터 2009년까지 연구노트가 제작 보급된 수는 약 1만1000개에 달했다. 당시 국내 다수 과학자들은 해외 논문 투고 시 연구노트를 공개하라는 요구를 받기도 한 시기다. 대한의학회도 지난 22일 긴급 이사회 후 기자들과 만나 "연구노트 등 당시 기록이 없으면 당사자들의 진술이 유일한 증거가 된다"면서 연구노트의 중요성을 강조한 바 있다. somangchoi@news1.kr [© 뉴스1코리아(), 무단 전재 및 재배포 금지]</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=056&amp;aid=0010736870&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=4</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>[사건후] ‘봉골레 파스타’가 뭐길래…결국 식당 손님들까지 내쫓은 주부</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>지난해 12월 29일 오후 1시 30분쯤 부산의 한 패밀리 레스토랑. 주부 A(53)씨는 일행들과 음식을 먹기 위해 이곳을 찾았다. 종업원 B(28) 씨가 메뉴판을 가져왔고 A 씨는 황당한 주문을 한다. 그녀는 B 씨에게 “내가 지난해 여름에 먹었던 봉골레 파스타를 가져오라”고 요구했다. 그러자 종업원 B 씨는 “메뉴에 없는 음식은 주문할 수 없다”는 취지로 답변했고, 이 대답이 끝나자마자 A 씨의 추태가 시작됐다. A 씨는 B 씨에게 “XX야, 이 말귀도 못 알아듣는 XX야”라고 욕설을 하며 식탁 위에 있던 사기 접시를 집어 들고 손님들에게 던지려는 등 막무가내 행동을 했다. A 씨는 약 1시간에 걸쳐 소란을 피웠고, 그녀의 난동에 음식점 손님들은 밖으로 피신까지 해야만 했다. 그녀의 소란은 경찰이 오고서야 마침표를 끝이 났다. A 씨는 업무방해 혐의로 재판에 넘겨졌고, 수원지법 형사10단독 곽태현 판사는 27일 A 씨에게 벌금 300만 원을 선고했다. 곽 판사는 판결문에서 “A 씨는 업무 방해를 한 사실이 없다고 주장하고 있지만, B 씨의 진술 등을 토대로 업무를 방해한 사실을 인정할 수 있다”며 “이 때문에 검찰의 공소사실 자체를 부인하는 A 씨의 주장은 이유 없다”고 판시했다. 사정원 기자 (jwsa@kbs.co.kr)</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>'병원비 걱정없는 나라' 만든다더니···국고 대신 '건보료 청구서' 꺼내</t>
-        </is>
+      <c r="A65" s="1" t="n">
+        <v>64</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>■국민에 부담 떠 넘긴 '文케어'···내년 건보료 3.2% 인상 국민 57% "추가부담 반대"에도 보장률 강화 정책에 매년 올려 가입자단체에도 갈수록 '큰 짐' 경총 "재정수지 적자 해결하라" 정부는 "건보 건전성 문제없다" [서울경제] ‘문재인케어’로 불리는 건강보험 보장성 강화정책으로 내년 건강보험료가 3.2% 인상된다. 지난해 건강보험 재정수지가 적자로 돌아선 가운데 3년 연속 건보료가 인상되자 정부에서 재정부담을 국민에게 전가하고 있다는 우려의 목소리가 잇따르고 있다. ’문재인 케어’의 핵심인 ‘병원비 걱정 없는 국가’ 를 건보료를 올려 만들고 있다는 자조 섞인 목소리까지 나온다. 보건복지부는 지난 22일 건강보험정책 최고의결기구인 건강보험정책심의위원회를 열어 오는 2020년 건강보험료율을 3.2% 올린다고 밝혔다. 이에 따라 직장가입자의 보험료율은 현행 6.46%에서 6.67%로, 지역가입자의 부과점수당 금액은 현행 189원70전에서 195원80전으로 인상된다. 월평균 보험료를 보면 올 3월 기준 직장가입자는 11만2,365원에서 3,653원 오른 11만6,018원을 내야 한다. 지역가입자는 8만7,067에서 2,800원 인상된 8만8,867원을 내년부터 추가로 부담해야 한다. 김재헌 무상의료운동본부 사무국장은 “국고지원금 없이 국민을 볼모로 건강보험료를 올리는 문재인케어가 계속 시행되면 예상보다 빨리 적립금이 고갈되는 최악의 상황에 직면할 수 있다”고 말했다. 국민 57% “추가부담 반대”에도 보장률 강화 정책에 매년 올려 가입자단체에도 갈수록 ‘큰 짐’ 경총 “재정수지 적자 해결하라” 정부는 “건보 건전성 문제없다” 건강보험료율은 최근 10년 동안 2009년과 2017년을 빼고 매년 올랐다. 2007년(6.5%)과 2008년(6.4%), 2010년(4.9%), 2011년(5.9%)에는 4∼6%대 인상률을 기록했고 2012년(2.8%), 2013년(1.6%), 2014년(1.7%), 2015년(1.35%), 2016년(0.9%)에는 1% 안팎에 그쳤다. 문재인 정부 출범 이후 건강보험 보장성 강화정책을 본격적으로 시행한 지난해와 올해 인상률은 각각 2.04%와 3.49%였다. 건보료 인상을 둘러싼 국민 여론은 싸늘하기만 하다. 한국보건사회연구원이 지난해 성인 2,000명을 대상으로 건강보험 보장률과 건강보험료 인상률을 조사한 보고서를 보면 응답자의 57.1%는 ‘건강보험 보장성 확대는 찬성하지만 보험료 추가 부담은 반대한다’고 답했다. 건강보험정책심의위원회 가입자단체도 정부의 일방적인 건보료 인상에 일제히 우려를 나타내고 있다. 한국경영자총연합회 관계자는“엄중한 대내외 경제 현실을 고려해 건보료 인상에 대해 거듭 우려를 밝혔지만 정부가 인상을 강행한 것에 깊은 유감을 표명한다”며 “국민과 기업에 건보료 부담을 전가시킬 것이 아니라 지금이라도 국고지원금으로 건강보험 재정수지 적자를 해결해야 한다”라고 말했다. 국고 지원을 늘이고 건보료 인상률은 대폭 낮춰야 한다는 게 가입자단체들의 지적이다. 건강보험법과 건강증진법과 따르면 정부는 매년 건보료 예상수입액의 20%를 국고로 지원해야 한다. 하지만 지난 2007년 법률 개정 이후 정부는 이를 제대로 지킨 적이 한 차례도 없다. 올해까지 연평균 건보료 국고지원율은 15.3%에 그쳤고 미납액은 24조5,374억원에 달한다. 보건복지부는 내년부터 국고지원금을 최소 14% 이상 확보하겠다고 밝혔지만 예산집행 권한을 가진 기획재정부가 회의적이어서 이마저도 불투명하다. 한편 정부는 건강보험 재정에 경고등이 켜졌음에도 누적 적립금이 20조5,955억원에 달해 문제가 없다는 입장이다. 문재인 케어가 완료되는 오는 2022년까지 최소 30조원의 재원이 필요한데 10조원은 누적 적립금으로 채우고 20조원을 건보료 인상으로 충당하면 여전히 10조원의 누적 적립금을 예비비로 확보할 수 있다는 설명이다. 하지만 국회예산정책처의 보고서에 따르면 문재인 정부의 임기가 끝나는 2022년까지 총 13조5,000억원의 건강보험 수지 적자가 이어질 전망이다. 차기 정부에도 문재인 케어가 계속 시행된다고 가정하면 2023년부터 2027년에는 총 12조1,000억원의 적자가 추가로 발생해 적립금마저 완전히 고갈되는 것으로 나타났다. 김우현 한국조세재정연구원 연구위원은 “문재인 케어로 국민의 평균 의료비가 줄어드는 효과는 있겠지만 고령화로 급격히 증가하는 건강보험 재정지출을 감당하는 것은 사실상 불가능하다”며 “건강보험 재원을 마련하는 것 못지않게 불필요한 지출을 줄여 건강보험 재정 효율화를 달성하는 노력이 절실하다”고 말했다. /이지성기자 engine@sedaily.com | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002932931&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=5</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>고려대 학생들 다시 촛불든다…총학 "다른 대학들에도 연대 요청"</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>고려대 총학생회가 조국 법무부 장관 후보자 딸의 입시 비리 의혹에 대해 진상 규명을 촉구하는 2차 집회를 연다. 지난 23일 고려대학교 학생들은 학내 중앙광장에서 집회를 열고 조국 법무부 장관 후보자의 딸 조모(28)씨의 입시 부정 의혹에 대해 학교 측에 해명을 요구했다. 이들은 선언문을 통해 “학생들을 분노하게 한 조씨의 입학 의혹에 대해서만 진상규명을 요청한다”며 학교 측에 “조씨가 입학할 당시 심사의 대상이 됐던 자료와 심사 과정을 투명하게 공개할 것”을 촉구했다. 당시 고려대 총학생회는 집회에 공식적으로 참여하지 않았다. 총학 내부에서 ‘아직 (조씨) 의혹에 대한 검증이 이뤄지지 않았고, 학교가 대응 의사를 밝힌 만큼 조금 더 지켜봐야 한다’는 신중론이 우세했다는 이유에서였다. 그러다 26일 “진영 논리에서 벗어난 보편적 가치 지향ㆍ학생들의 정당한 분노 대변 등 23일 집회 집행부의 핵심가치를 계승할 것”을 발표했다. 총학은 입장문을 내고 “집행부와 합의를 통해 총학 차원에서 관련 행동을 이어나가기로 했다”고 밝혔다. 총학은 그러면서도 당장 2차 집회를 열기보다 학교 측의 입장 발표를 기다린 뒤 적절한 대응을 결정하겠다는 방침을 내세웠다. 28일까지 학교의 입장 발표를 기다린 후, 답변을 받지 못하거나 내용이 미흡할 경우에도 바로 집회에 돌입하지 않고 다음날 항의 방문을 하겠다는 입장이었다. 그러자 학내 여론은 “늑장 대응을 하고 있다”며 총학을 비판하는 쪽으로 기울었다. 다음주 중 청문회가 열리는 만큼, 이번주에 2차 집회를 이어가야 하는데 총학의 실행력이 부족하다는 비판이다. 고려대 커뮤니티 ‘고파스’에는 이와 같은 게시물과 댓글이 수십건 올라왔다. 자신을 재학생이라고 밝힌 한 사용자는 “그동안 소극적 태도로 대응한 총학이 과연 집회를 주최할 의지가 있느냐”며 “총학이 하지 않으면 28일 혼자라도 촛불을 들고 나가겠다”고 예고했다. 다른 사용자는 “학교 측 입장을 마냥 기다리다 어영부영 주말 넘기면 23일 집회에 힘들게 모였던 학우들의 뜻과 노력은 모두 헛수고로 돌아갈 것”이라고 주장했다. 같은 날 1차 집회를 열었던 서울대는 28일 오후 총학생회 주도로 2차 집회가 예고돼있다. 이에 총학은 27일 늦은 오후 입장문을 내고 "집회는 30일 금요일 오후 6시에 시작할 예정"이라며 "같은 고민을 하고 있을 대학들에 연대를 요청할 계획"이라고 밝혔다. 이들은 이전 집회에서 학생들이 학교에 요구했던 바와 같이 '입시 비리 의혹에 대한 진상규명'을 외칠 방침이다. ━ "2차 집회 필요하지만 신중해야" 이번 집회에서 학생들이 극도로 경계하는 것은 ‘특정 정치 세력과 엮이는 것’이다. 지난 23일 1차 집회를 주최하겠다고 나선 학생의 과거 정당 활동 이력이 드러나 논란이 되자 그 학생이 스스로 집행부에서 몰러나기도 했다. 집회 당일에도 집행부는 거듭 “이번 집회는 정치적 의도가 있는 집회가 아니”라며 집회에 정치색이 없다는 점을 강조했다. 그러나 26일 자신들을 ‘자정진(자유ㆍ정의ㆍ진리)을 온누리에’라고 밝힌 이들이 돌연 고파스에 “새로운 집행부를 구성했고 28일 수요일 오후 6시 30분에 중앙광장에서 집회를 열겠다”고 밝혔다. 이를 본 다른 학생들은 “과거 발언을 통해 봤을 때 정치색이 없다고 보기 힘들다” “성급한 것 같다”는 의견을 보이며 부정적인 입장을 취하자 이들은 저녁 늦은 시간 추가 설명 없이 돌연 "집회를 연기하겠다"고 밝혔다. ━ 고려대 8시간 압수수색 한편 이날 서울 중앙지검 특수2부(고형곤 부장검사)는 조씨가 학부를 졸업한 고려대 인재발굴처(옛 입학처)등을 압수수색했다. “조씨 관련 자료는 4년 전 폐기했다”는 고려대 측의 주장을 확인하는 한편, 의혹을 소명할 수 있는 추가 자료가 있으면 확보하기 위해서다. 이날 오전 8시 30분 쯤 시작된 압수수색은 8시간가량 진행됐다. 조씨는 2010년 고려대 생명과학대학에 입학했다. 당시 제출한 자기소개서에 고교 재학 시절 2주간 인턴으로 참여하고 ‘제1저자’로 등재된 병리학 논문을 비롯해 10여개의 인턴십 경력을 썼으나 논문 저자 등록 특혜 논란을 시작으로 대부분의 경력들이 부풀려졌다는 의혹이 불거졌다. 권유진 기자 kwen.yujin@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>길어지는 스마트폰 교체주기…"美소비자, 평균 33개월 쓴다"</t>
-        </is>
+      <c r="A66" s="1" t="n">
+        <v>65</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>미국인들의 스마트폰 교체주기가 평균 33개월에 달하는 것으로 나타났다. 애플 아이폰과 삼성 갤럭시의 평균 교체주기는 각각 35.4개월, 32.7개월이었으며 스마트폰 교체 원인으로는 디스플레이 파손, 배터리 소모가 가장 많았다. 24일 시장조사업체 스트래티지 애널리틱스(SA)가 18~64세 스마트폰을 사용하는 미국인 2513명을 조사한 결과 이들이 사용중인 스마트폰 평균 보유기간은 17개월로 집계됐다. 애플 아이폰이 18.3개월로 가장 길었고 모토로라가 14.3개월로 가장 짧았다. 삼성전자와 LG전자는 각각 16.5개월, 15.7개월로 조사됐다. 다음 스마트폰 교체 시점을 묻는 질문에는 응답자 90% 이상이 16개월 뒤에 교체하겠다고 답했다. 브랜드별로는 애플 17.1개월, 삼성 16.1개월, LG전자 14.2개월 순이었다. SA는 이를 근거로 예상 스마트폰 교체주기를 평균 33개월로 추산했다. 현재 보유기간에 예상 보유기간을 더한 수치다. 이에 따라 교체주기는 애플 아이폰 36개월, 삼성 갤럭시 33개월, LG전자 29.9개월로 환산됐다. 구글 넥서스가 35.9개월로 교체주기가 가장 길었다. 미국 스마트폰 교체주기는 길어지고 있다. 2016년 26개월을 넘어선 후 지난해 31개월로 늘었다. 참고로 우리나라는 지난해 기준 31개월로 집계됐다. 응답자 79%는 디스플레이가 파손됐을 때 스마트폰을 교체하겠다(복수응답 기준)고 답했다. 배터리 소모가 너무 빠르거나 스마트폰 속도가 현저히 저하됐을 때 교체하겠는 답변도 78%, 73%에 달했다. 신제품 교체를 이유로 든 응답자는 30%에 그쳤다. 스마트폰 구매를 결정하는 요소로는 '배터리 성능'과 '기기에 대한 신뢰'가 가장 앞섰다. 응답자의 70%가 배터리 성능을 1순위로 꼽았으며 기기에 대한 신뢰 54%, 카메라 성능 52%로 뒤를 이었다. 한편 올 상반기 미국 스마트폰 출하량은 6570만대로 글로벌 전체 출하량(6억7180만대)의 9.7%를 차지했다. 애플 아이폰이 출하량 3300만대로 미국 내 점유율 1위(50.2%)를 기록했고 삼성 갤럭시는 1790만대(27.2%)로 2위에 올랐다. LG전자(880만대), TCL-알카텔(460만대), 레노버-모터로라(450만대)가 3~5위에 이름을 올렸다. 윤진우 한경닷컴 기자 jiinwoo@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=032&amp;aid=0002959650&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=6</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>조국 딸, 한영외고 특례입학 아닌 일반전형 합격 정황</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>조국 법무부 장관 후보자(54)의 딸 조모씨(28)가 외국어고등학교에 ‘정원 외 특례’로 입학했다는 야당 일각 주장과 달리 일반전형에 응시해 합격한 것으로 28일 알려졌다. 경향신문 취재 결과, 조씨는 2006년 한영외고 일반전형에 지원해 합격한 것으로 파악됐다. 법무부 관계자는 “(조 후보자 측이) 일반전형에 합격한 것으로 기억하나, 당시 입학 자료가 보존기한이 지나 폐기되는 등 사정 때문에 공식적으로 확인하기가 어려운 상황”이라고 말했다. 조씨가 다녔다고 전해진 한 입시학원 기록상으로도 조씨는 2007학년도 일반전형 합격자로 확인됐다. 기록일자는 2006년 11월3일로 한영외고가 당시 일반전형 합격자를 발표한 날짜와 일치하며, 특례입학대상자를 포함한 특별전형 합격자는 그보다 1주일쯤 전인 10월24일 공고했다. 과거 조씨 진학 상담을 했다는 입시학원 관계자는 이날 tbs라디오 ‘김어준의 뉴스공장’ 인터뷰에서 “(조씨가) 제가 추천했던 특별전형 중 영어능력우수자 전형과, 이에 불합격하면 응시할 수 있는 일반전형에 응시를 했다”며 “특별전형에 불합격했고, 일반전형에 합격했다”고 전했다. 2007학년도 한영외고 입시요강에 따르면, 특별전형에 불합격하더라도 출신 중학교 교장 확인을 받으면 일반전형 응시가 가능했다. 해외편입생이어서 내신성적이 없는 경우엔 영어듣기·구술면접 등 실기성적을 환산해 반영했다. 앞서 야당 일각에선 조씨가 한영외고에 정원 외 특례로 입학했기 때문에 그 과정을 규명해야 한다는 주장이 나왔다. 자유한국당 김진태 의원은 지난 20일 국회 기자회견에서 “조 후보자의 딸은 한 번도 시험을 봐서 진학한 적이 없다. 외고는 정원 외 유학전형, 대학은 논문으로 수시전형, 의전원은 면접전형으로 각각 입학했다”고 주장했다. 민경욱 의원은 27일 페이스북에 “조국 딸의 고려대 입학 취소가 결정되면 고졸이 되는데, 바로 또 한영외고 특례입학 건이 기다리고 있다. 불법 드러나면 중졸로…”라고 썼다. 한영외고가 2007학년도 특별전형에 특례입학대상자로 정원 외 7명을 편성해 둔 것은 사실이다. 당시 초·중등교육법 시행령이 외국에서 부모와 함께 2년 이상 거주하며 재학하고 귀국한 학생을 특례입학대상자로 분류할 수 있도록 규정한 것이 이 전형의 근거다. 조씨는 2005~2006년 미국에서 유학한 것으로 전해졌다. 조 후보자가 하버드-옌칭 연구소 방문학자로 머물던 시기와 일치한다. 당시 조 후보자 부인 정경심씨는 영국 대학에 유학하는 중이었다. 야당은 이를 바탕으로 ‘외고 특례입학용으로 불법 조기유학을 한 것 아니냐’는 의혹도 제기했지만, 조씨가 특별전형 내 특례입학이 아닌 일반전형에 지원해 합격했다는 상반된 정황이 이번에 나온 것이다. 하지만 조씨의 대학 진학 등 모든 입시 과정이 의심을 받는 상황이기 때문에 공식 기록이 확인되지 않는 이상 논란은 쉽게 잦아들지 않을 것으로 보인다. 조 후보자 측이 “외국 거주사실만으로 정원 외 입학을 할 수 있는 입시 전형은 없다”고 두루뭉술하게 해명하는 점이 의혹을 키운다는 지적도 나온다. 허남설 기자 nsheo@kyunghyang.com ▶ ▶ ▶ ©경향신문(www.khan.co.kr), 무단전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>"5G 가입자, 벌써 250만명"…'빠름빠름' LTE보다 2배 빨라</t>
-        </is>
+      <c r="A67" s="1" t="n">
+        <v>66</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SKT100만·KT 75만·LGU+ 67만 순…커버리지 확대 총력 SK텔레콤이 지난 21일 단일 통신사 기준 5G 가입자 100만 명을 돌파했다고 22일 전했다. 지난 4월 3일 세계 첫 5G 스마트폰을 출시한 이후 140여일 만이다. 사진은 SK텔레콤 모델들이 서울 명동에 위치한 대리점에서 ‘갤럭시 노트10’로 5G 서비스를 사용하고 있는 모습. (SK텔레콤 제공) 2019.8.22/뉴스1 (서울=뉴스1) 강은성 기자 = 지난 4월 한국이 세계 최초로 상용화한 5세대(5G) 이동통신 가입자가 상용화 142일 만에 250만명에 육박하는 것으로 나타났다. 4G 롱텀에볼루션(LTE) 가입자 증가보다 2배 가까이 빠른 속도다. 24일 업계에 따르면 국내 5G 가입자가 250만명 돌파 초읽기에 돌입했다. 이미 지난 21일 기준으로 SK텔레콤은 5G 가입자 100만명을 넘어섰고 KT는 75만명, LG유플러스는 67만명의 가입자를 각각 확보해 국내 5G 가입자는 총 242만명에 달했다. 이후 갤럭시노트10 5G 모델 사전개통과 이날 공식 출시까지 맞물리면서 이틀간 5G 가입자가 빠르게 증가해 250만명에 육박하는 것으로 나타났다. 이통사 관계자는 "이런 추세라면 주말쯤 3사 통합 250만명 돌파는 무난할 것으로 예상된다"고 설명했다. 이는 지난 2011년 7월 처음으로 상용화한 4G LTE에 비해 2배 가까이 빠른 수치다. 당시 LTE는 200만 가입자를 돌파하는데 이미 7개월, 215일이 소요됐었다. 그러나 5G의 경우 상용화 120일여만인 이달 초에 200만 가입자를 넘어서면서 LTE보다 급격히 빠른 속도로 가입자를 불리고 있다. 통신업계 전문가는 "4G LTE의 경우 2011년 7월 상용화는 시작했지만 LTE 스마트폰이 출시된 것은 10월이 넘어서였다"면서 "게다가 4G LTE 주파수 확보에 실패한 KT가 2012년 1월이나 되어서야 비로소 LTE 스마트폰을 출시하고 가입자를 모집했기 때문에 LTE 200만 가입자 돌파 시점에서는 SK텔레콤과 LG유플러스 가입자로 한정되는 부분이 있었다"고 설명했다. 이 전문가는 이어 "반면 5G는 정부 주도로 상용화 관련 정책을 마련하고 대통령까지 상용화 행사에 나서는 등 국민적 관심이 컸고, 상용화와 함께 삼성전자, LG전자의 스마트폰도 적시에 출시되면서 가입증가 속도가 빨라지는 것으로 보인다"고 분석했다. 여기에 이통3사가 5G 초기 시장에서 승기를 잡기 위해 공격적으로 마케팅 경쟁을 벌이며 '역대급' 공시지원금을 지급한 것도 가입자를 유인한 요인으로 작용했다. 다만 아직 전국망과 실내망이 제대로 갖춰지지 않은 상황에서 마케팅 경쟁을 통해 가입자만 늘리다보니 초기 가입자들이 5G 품질에 대해 적지 않은 불만을 제기하는 것은 심각한 문제로 지적되고 있다. 이에 이동통신3사는 연말까지 전국 옥외 커버리지를 인구대비 90% 대로 끌어올리고 실내 커버리지 확대에도 총력을 기울이기로 했다. 주요 공항 및 KTX 역사, 대형 쇼핑센터 및 전시장 등 전국 120여개 인구밀집 건물 내에서는 이미 실내 5G 서비스를 시작했으며 연말까지 전국 350여개 영화관·체육경기장·대형마트 등을 추가 선정해 이통3사가 실내 5G 망을 공동구축하기로 했다. 서울을 비롯한 전국 지하철에도 5G 망을 공동구축한다. 과기정통부는 "5G 가입자가 200만명에 달하는 만큼 내실 있는 5G 서비스를 이용할 수 있도록 이동통신사와 제조사에 지속적인 품질 개선 노력과 적극적인 서비스 다변화를 요청했다"며 "앞으로도 민관과의 긴밀한 협력을 통해 국민에게 최고 품질의 5G 서비스를 제공하기 위하여 최선의 노력을 다할 계획"이라고 밝혔다. esther@news1.kr [© 뉴스1코리아(), 무단 전재 및 재배포 금지]</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933094&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=8</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>부산 부부 살해 피의자는 제부···"다 죽이고 싶었다"만 반복</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>부산의 한 식당에서 부부를 살해하고 도주한 혐의로 경찰에 붙잡힌 피의자는 피해자들과 동서지간인 제부인 것으로 확인됐다. 부산 남부경찰서는 살인혐의를 받는 A(56)씨를 피의자 신분으로 조사하고 있다고 28일 밝혔다. 경찰 조사 결과 A씨는 피해자 부부 중 아내 여동생의 남편인 제부인 것으로 조사됐다. A씨는 검거 이후 "다 죽이고 싶었다"는 진술만 반복하고 있다. 정확한 범행 동기는 말하지 않고 있으나 경찰은 A씨 범행 정황과 진술 등을 토대로 원한에 의한 살인으로 보고 있다. A씨는 지난 23일 밤과 24일 새벽 사이 부산 남구의 한 식당에서 부부를 흉기로 찔러 숨지게 한 혐의를 받는다. 범행 직후 숨진 부부의 차를 훔쳐 타고 도피한 A씨는 28일 오전 10시 25분쯤 해운대구 한 모텔에서 경찰에 붙잡혔다. 경북 경주와 강원도 등지를 돌던 A씨는 27일 다시 부산으로 잠입했다가 경찰에 꼬리가 잡혔다. 경찰은 닷새간 범인 검거가 어려웠던 이유에 대해 "범인이 준비한 것으로 보이는 현금만 사용했고, 휴대전화도 거의 켜지 않았기 때문"이라며 "정확한 도피 경로를 확인하고 있고 왜 부산으로 다시 돌아왔는지도 확인하고 있다"고 말했다. 경찰에 따르면 범행 전 식당 주변에 찍힌 CCTV 등에는 A씨가 서성이며 준비한 흉기를 손목에 넣는 장면 등이 찍혔다. 사건 현장에서 발견된 흉기 손잡이와 마스크 등에서 A씨 DNA 등을 발견한 경찰은 다른 친척들에게도 스마트 워치를 지급해 보호조치를 했다. 경찰은 이르면 29일 A씨에 대해 1차 조사를 마무리한 뒤 구속영장을 신청할 예정이다. 이민정 기자 lee.minjung2@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>만능폰 '갤노트10'…꼭 써봐야할 숨겨진 기능 5選</t>
-        </is>
+      <c r="A68" s="1" t="n">
+        <v>67</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[머니투데이 박효주 기자] [편집자주] 박푸로의 IT썰은 특정 분야의 전문가인 '프로'에는 못미치지만, 그에 준하는 시각에서 IT 관련 이슈를 다뤄보고자 만든 코너입니다. 스마트폰, 모바일 서비스, 카메라 등등 제품 및 서비스에 관한 내용을 쉽게 풀어내겠습니다. [[박푸로 IT썰]덱스·향상된카메라·동영상편집·게임스트리밍·AR두들] 맥북에서 덱스를 구동하면서 갤럭시 노트10에서는 넷플릭스를 실행하는 모습. 스마트폰 성능은 나날이 진화하고 있지만, 모든 기능을 일일이 찾아 100% 활용하기란 쉽지 않다. 갤럭시노트10(이하 갤노트10)도 삼성 모바일 기기의 혁신 집대성이라 불릴 만큼 다양한 기능을 품고 있다. 갤럭시S10에서 적용됐던 무선 배터리 공유, 초음파식 지문 스캐너, 초광각 카메라 등 대표적인 기능 외에도 새롭게 들어간 기능이 많다. 노트 시리즈인 만큼 S펜에 가려진 기능 중에서 꼭 써봐야 할 5가지를 꼽아봤다. ◇더 쉽고 편해진 '덱스'…연결만 하면 끝= 스마트폰에서 마치 PC와 같은 사용 경험을 제공하는 삼성 덱스가 갤노트10에서 한 단계 발전했다. 이제 별도의 액세서리 없이 USB 케이블로 PC와 연결만 하면 PC의 큰 화면과 키보드·마우스를 활용해 더욱 편하게 갤노트10을 사용할 수 있다. 이번 덱스의 변화에서 눈여겨볼 부분은 윈도뿐만 아니라 맥도 지원한다는 점이다. 윈도나 맥에 덱스 전용 프로그램을 설치하고 갤노트10을 연결하면 다른 조작 없이 바로 덱스 화면이 나타난다. PC 안에 PC가 구현된 느낌이다. PC파일을 끌어다 덱스에 놓으면 갤노트10으로 파일이 바로 전송되며, 반대도 가능하다. 드래그앤드롭으로 갤노트10의 사진을 PC로 보내는 모습. 덱스를 사용하면서 갤노트10도 동시에 사용할 수 있다는 점도 꽤 유용하다. 덱스를 통해 게임을 구동하고, 갤러리 사진을 보면서 갤노트10에서는 전화나 문자를 하거나 은행 업무를 동시에 처리할 수 있다. ◇소리도 확대한다?…'줌인 마이크'= 갤노트10은 동영상 촬영 중 특정 부분을 확대하면 해당 부분의 피사체의 소리를 키워서 녹음해주고, 주변 소음은 줄여주는 '줌 인 마이크' 기능을 지원한다. 예컨대 야외에서 뛰어노는 아이를 중앙에 맞혀 확대하면 아이의 목소리를 주변 소리보다 더 또렷하게 녹음할 수 있다. 줌인마이크가 활성화 되어 있을 때 영상 촬영 중 소리가 나는 쪽으로 확대하면 마이크 아이콘이 표시된다. 카메라 기능에는 줌인 마이크 외에 흔들림 없는 영상 촬영을 가능하게 해주는 향상된 '슈퍼 스테디'가 적용됐다. 샘플 레이트를 500MHz에서 833MHz로 향상해 미세한 흔들림까지 감지한다. 특히 하이퍼랩스 촬영 시에도 지원해 더욱 다양한 콘텐츠를 흔들림 없이 제작할 수 있다. ◇동영상 편집, 갤노트에서 바로= 아이폰에서 대표적으로 사용할 수 있는 동영상 편집 앱 '아이무비'와 같은 가볍고 강력한 영상 편집 기능이 갤노트10에 들어갔다. 별도의 앱 설치 없이 바로 손쉽게 편집과 공유가 가능하다. 갤러리에서 영상을 선택하고 연필 모양을 누르면 바로 편집 메뉴가 등장한다. 여기서는 영상 길이를 조정하거나 영상과 영상 사이에 특수효과를 넣을 수 있다. S펜을 이용한 영상 내 메시지를 추가할 수 있으며 재생속도 변경과 다른 영상과 합치는 등의 기능을 제공한다. S펜을 활용하면 더욱더 세밀한 영상 편집이 가능하다. 기본 탑재된 영상 편집 도구 ◇깨알 재미 'AR(증강현실) 두들'= 갤노트10은 정교한 모바일 AR 기술이 접목된 'AR 두들' 기능을 지원해 즐거우면서도 창의적인 콘텐츠를 만들 수 있게 했다. AR 두들은 S펜 메뉴에서 선택할 수 있다. 이 기능은 사진이나 영상 촬영 시 공간을 인식하는 알고리즘을 사용해 사람이나 공간을 추적해 사용자가 S펜으로 그린 그림과 움직이는 피사체가 함께 조화롭게 보인다. 갤노트10+(플러스)는 후면에 뎁스비전 카메라를 추가로 탑재해 피사체를 스캔해 3D 이미지를 만들 수 있다. 이렇게 제작된 3D 이미지가 피사체를 따라 움직이는 영상도 제작이 가능하다. 사물까지의 거리와 사물의 길이나 크기를 측정하는 '간편 측정' 기능도 전작에 이어 탑재됐다. 3D 스캐너 앱으로 사물을 갤노트10에 3D로 구현할 수 있다. ◇어디서나 고성능 게임 즐긴다= 집에서 PC로만 즐기던 고성능 게임을 갤노트10으로 언제 어디서나 그대로 즐길 수 있는 '플레이갤럭시 링크' 기능을 갤노트10에 처음으로 탑재했다. 이 기능은 사용자가 PC로 게임을 하다가 잠시 PC 앞을 떠날 때 하고 있던 게임을 그대로 갤노트10에서 이어 할 수 있다. P2P 스트리밍으로 PC 화면을 전송하기 때문에 갤노트10에 게임 별도 설치할 필요가 없으며, 높은 사양을 요구하는 게임도 문제없다. 사용자가 갤노트10을 직접 터치하거나 전용 게임패드를 통해 게임을 조작하면 연결된 PC로 게임 명령이 전달된다. 플레이갤럭시 링크로 PC게임을 갤노트10으로 스트리밍 하는 모습. /사진=슬래시기어 박효주 기자 app@ &amp;lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&amp;gt;</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=011&amp;aid=0003609758&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=9</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>성락교회 김기동 목사 '호텔 동영상' 공개 파문···"20대 여성과 10차례"(종합)</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>[서울경제] 김기동 성락교회 목사에게 성추행을 당했다는 폭로가 잇따르면서 논란이 확산되고 있는 가운데 이번에는 김 목사의 ‘호텔 동영상’이 공개됐다. 27일 저녁 전파를 탄 MBC ‘PD수첩’에서는 김기동 목사와 젊은 여성과의 성추문을 집중적으로 들여다봤다. 이날 방송에서는 두 달 전에 80대 김 목사가 20대 여성과 함께 충청 지역에 위치한 한 호텔에서 모습을 드러내는 장면이 담긴 영상이 공개됐다. 영상을 제보한 이는 “아들이 ‘호텔 레스토랑 앞에서 김 목사를 봤다’며 ‘김 목사가 매일 저녁마다 왔는데, 김 목사의 차도 발견했다’고 말했다”고 전했다. 호텔 앞의 차는 김 목사가 평소 타고 다니던 차와 번호가 일치하는 것으로 알려졌다. 제보자는 다음 날 다시금 호텔을 찾았고 로비에서 김 목사와 젊은 여성이 함께 있는 것을 발견했다. 제보자는 “애인이나 연인 관계라고는 상상이 안 가서, 숨겨진 딸이 아닐까 추측했다”고 방송에 전했다. 그러면서 “(하지만) 이후에도 그 여성과 김 목사는 여러 번 호텔을 방문했고, 두 사람은 같이 한 방으로 들어갔다. 충격적인 사실에 발견할 때마다 영상을 찍었다”고 당시 상황을 설명했다. 영상에는 김 목사가 지난 8개월간 10차례 호텔에서 해당 여성과 있는 모습이 촬영됐다. 두 사람이 손을 잡고 걷는 모습 뿐 아니라 두 사람이 같은 방을 사용하는 모습도 담겼다. 동영상이 공개되면서 ‘김 목사 성추문 의혹’은 새로운 전환점을 맞을 것이란 분석이 나온다. 지난해 ‘미투 운동’이 이어지면서 김 목사에 대한 성폭력 피해가 다수 폭로됐지만 증거가 없거나 공소시효가 지났다는 이유로 법적인 판단을 받지 못했다. 공개된 동영상과 관련해 김 목사는 PD수첩 측에 “(해당 여성은) 조부모 때부터 40년째 교회를 다니는 가정 출신으로, (나는 여성의) 가정 전체를 각별히 여기고 있으며 (여성을) 손녀처럼 아낀다”고 말했다. 이어 “여성을 대화를 통해 격려한 것 뿐이고, 부적절한 관계는 아니다”라고 해명했다. 김 목사는 지난 2017년 SBS TV 시사고발 프로그램 ‘그것이 알고싶다’를 통해 27명의 여성과 부적절한 관계를 맺었다는 의혹이 제기됐다. 한 여성은 임신 중절을 했고, 미성년자를 성폭행했다는 증언까지 나오면서 사회적으로 파문이 일었다. 당시 김 목사 측은 성락교회 성도 명의로 성명을 내고 모든 의혹을 부인한 바 있다. 한편 PD수첩은 이날 방송에서 김기동 목사 일가 재정 문제도 집중 조명했다. 김기동 목사는 교회에서 사례비를 받지 않는다고 주장해왔지만 매달 목회비로 5,400만원을 받아온 것으로 드러났다. 김 목사의 아들 김성현 목사도 매달 목회비로 2,000만원을 받은 것으로 나타났다. 또한 김 목사와 며느리는 교회에 각각 80억원, 10억원을 빌려주고 이자로 매달 수천만원을 챙긴 것으로 알려졌다. 뿐만 아니라 PD수첩은 김기동 목사 일가 명의로 된 부동산도 추적했다. 아파트, 오피스텔, 밭과 대지, 상가 건물 등의 실거래가를 확인한 결과 172억원에 달하는 것으로 집계됐다. PD수첩에 따르면 ‘귀신 쫓는 목사’로 명성을 떨친 김기동 목사는 성도 15만 명의 절대적인 지지를 받고 있다. /김경훈기자 styxx@sedaily.com | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>지구보다 나은 생명체 서식 조건 갖춘 외계행성 가능</t>
-        </is>
+      <c r="A69" s="1" t="n">
+        <v>68</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>美연구팀, 대양 조건 분석 결과 "최적화된 곳 아닐 수도" '트라피스트(TRAPPIST)-1' 행성계 상상도 지구에서 가장 가까운 별인 트라피스트-1 행성계는 모두 7개의 행성을 거느리고 있으며 이 중 3개가 액체상태의 물이 존재할 수 있는 서식가능지역 안에 있다. [NASA/JPL-Caltech 제공] (서울=연합뉴스) 엄남석 기자 = 지구를 닮은 행성을 찾는 노력이 무위로 그치고 있지만 외계행성 중에는 지구보다 생명체가 살기에 더 좋은 조건을 갖춘 곳이 있을 수 있다는 연구결과가 나왔다. 국제 지구과학 학술대회인 '골드슈미트 콘퍼런스(Goldschmidt Conference)'와 외신 등에 따르면 미국 시카고대학의 스테파니 올슨 박사가 이끄는 연구팀은 바르셀로나에서 진행 중인 이 학술대회 기조연설을 통해 생명체가 서식할 수 있는 외계행성 대양(大洋)의 조건에 초점을 맞춰 진행한 연구결과를 발표했다. 연구팀은 미국항공우주국(NASA) 고다드우주연구소(GISS)가 개발한 암석형 행성 3D 시뮬레이션 프로그램인 'ROCKE-3D'를 이용해 다양한 조건을 부여하며 생명체가 서식하는데 가장 적합한 대양 환경을 분석했다. 지구 대양의 경우 생명체는 심해의 영양분을 광합성 생물이 서식하는 햇빛 수역으로 올려놓는 '용승(湧昇)' 작용에 의존하는데, 이런 용승작용이 강할수록 영양분 공급도 늘어나 생물학적 활동도 늘어나게 된다. 연구팀은 "이것이 바로 외계행성에서 들여다봐야 할 조건"이라고 강조했다. 연구팀은 해양순환 모델까지 이용해 어떤 행성이 가장 효율적인 용승작용이 일어나 생명체에 특별히 더 적합한 대양 환경을 제공하는지를 분석했으며, 그 결과 대기 밀도가 높고 자전율이 느리며 대륙이 존재하는 곳에서 더 효율적인 용승작용이 일어난다는 점을 확인했다. 연구팀은 이런 결과는 지구가 생명체 서식에 최적화된 곳이 아닐 수도 있다는 점을 시사하는 것으로 다른 행성의 생명체가 지구보다 더 나은 환경을 누리고 있을 수 있다는 의미라고 설명했다. 트라피스트-1f 대양 상상도 트라피스트-1 행성계의 다섯번째 행성인 트라피스트-1f는 조석고정으로 늘 햇빛을 받는 쪽은 대양이 존재하고 그 반대 쪽은 얼음세계인 것으로 추정되고 있다. [NASA/JPL-Caltech 제공] 올슨 박사는 "(생명체에) 유리한 해양순환 패턴을 가진 일부 외계행성의 조건이 지구 생명체보다 더 많고 활발한 생명체를 지탱하는데 적합할 수 있다는 것을 보여준 것은 놀라운 결론"이라고 강조했다. 이번 연구결과는 외계 생명체 탐색과 망원경을 비롯한 탐색 장비 개발에서 추가로 고려해야 할 기준을 제시하는 것으로 받아들여지고 있다. 지금까지는 외계행성이 생명체 '서식가능지역(habitable zone)' 안에 있는지만을 기준으로 삼아왔다. 별에 너무 가까이 붙어 있어 표면의 물이 증발하거나 너무 멀리 떨어져 있어 물이 얼면 생명체가 존재할 가능성이 희박해지기 때문에 표면의 물이 액체 상태를 유지할 수 있는 곳의 행성을 찾아왔다. 그러나 대양이 존재한다고 해서 생명체 서식 조건이 모두 같은 것은 아니라는 점이 이번 연구를 통해 구체적으로 확인된 만큼 서식가능지역 기준을 넘어 대양 환경도 확인하는 작업이 필요하다는 것이다. 조지아 공대의 크리스 레인하드 교수는 논평을 통해 대양은 생명체 지표로서 중요하지만 "태양계 밖 외계행성의 대양에 대한 이해는 매우 초보적인 상태"라면서 "이번 연구 결과는 외계행성의 대양에 관한 이해를 넓히는 중요하고 흥미로운 진전을 나타내는 것"이라고 평가했다. eomns@yna.co.kr</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=023&amp;aid=0003470070&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=10</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>예비 며느리에게 마약 투약후 성폭행 시도한 50대 검거</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>결혼을 약속한 아들 여자친구에게 강제로 마약을 투약한 뒤 성폭행을 시도한 50대 남성이 도주한지 12일만에 경찰에 붙잡혔다. 28일 경기북부경찰청 마약수사대는 마약류 관리에 관한 법률 위반 혐의로 김모(56)씨를 경기 용인시 백암면 한 노상에서 체포, 포천경찰서로 압송해 조사 중이라고 밝혔다. 김씨는 지난 15일 오후 3시쯤 경기도 포천시 일동면의 한 펜션에서 아들 여자친구인 A씨에게 "힘든 일 있느냐, 위로해주겠다"며 눈을 감으라 한 뒤 주사기로 필로폰을 강제 투약했다. 놀란 A씨가 경찰에 신고하자 김씨는 차를 타고 도주, 10여일간 행방이 묘연한 상태였다. 경찰에 따르면 A씨는 남자친구와 3년간 교제하면서 평소 집안 경조사에도 참여했다고 한다. 이 때문에 사건 당일에도 별다른 의심 없이 김씨를 따라나섰다. 앞서 A씨에 대한 마약 간의 검사에선 필로폰 양성 반응이 나왔다. 붙잡힌 김씨도 마찬가지였다. 경찰은 국과수에 의뢰한 정밀분석 결과를 기다리고 있다. [윤민혁 기자 beherenow@chosunbiz.com] - Copyrights ⓒ 조선일보 &amp;amp; chosun.com, 무단 전재 및 재배포 금지 -</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>갤노트10 ‘LTE’가 쉽지 않은 이유는 ‘단통법’ 때문</t>
-        </is>
+      <c r="A70" s="1" t="n">
+        <v>69</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ⓛ자급제 단말기 나와도 힘 못 써..이통사 유통점 구매 안 돼 ②이통사 약관 변경 해도 지원금 차별 금지 조항에 발목 ③삼성과 이통사 책임공방..단말기유통과 통신 가입 분리하면 해결 [이데일리 김현아 기자] 23일 삼성전자의 플래그십 스마트폰인 ‘갤럭시 노트10’이 공식 출시됐지만 5G 버전만 출시돼 이용자들의 불만이 커지고 있다. LTE 가입자들 중에서도 ‘갤노트10’을 쓰고 싶은 사람이 있는데, 굳이 비싼 5G에 가입해야 쓸 수 있다니. 올해 출시된 갤럭시S10은 LTE 버전과 5G 버전이 모두 출시됐는데, 노트10만 안 되는 것도 이해하기 어렵다는 반응이다. 갤노트 10을 LTE로 가입해 쓰기 어려운 이유 중 하나는 ‘단말기유통구조개선법’때문이라는 평가가 나온다. 단통법은 기본적으로 통신사유통점의 단말기 판매를 전제로 한 법률인데 이 때문에 ⓛ갤노트10은 주로 이통사 대리점·판매점에서 유통된다(삼성이 자급제향으로 5G칩과 LTE칩이 모두 들어간 갤노트10을 출시해도 이통사 유통점에서는 만날 수 없다는 점). 또 ②이통사에서 약관 변경을 통해 5G칩과 LTE칩이 모두 들어간 단말기(같은 모델)를 5G와 LTE로 나눠 가입시키는 것도 쉽지 않다(단통법상 지원금 차별 금지). 여기에 ③삼성과 이통3사 사이에서 갤노트 10 LTE 버전 출시 책임 공방이 일고 있다는 점(단말기와 통신이 분리되면 이런 논란이 사라짐)도 단통법의 부정적인 효과다. 삼성 갤럭시노트 10 ◇LTE 유심 가입 가능한 자급제 ‘갤노트10’ 조만간 출시 과학기술정보통신부에 따르면 삼성은 ‘갤노트10’ LTE 버전을 따로 내기는 쉽지 않지만, 자급제폰으로는 내놓겠다고 밝혔다. 만약 소비자가 온라인 마켓이나 전자제품 양판점 등에서 ‘갤노트10 5G버전’ 자급제폰을 산다면 LTE로 쓸 수 있다. 집에서 쓰던 단말기의 유심(USIM·가입자식별모드)칩을 꺼내 자급제로 산 갤노트10에 끼워 넣으면 된다. 이런 일이 가능한 것은 국내에서 출시되는 갤노트10 5G버전에는 5G칩과 LTE칩이 들어가 있는데, 국내 통신3사의 5G 통신망은 LTE연동형(NonStandAlone)이기 때문이다. 즉, 5G의 빠른 속도보다는 저렴한 요금제를 원한다면 자급제폰을 사서 LTE 유심을 끼워쓰면 된다. ◇자급제 갤노트10, 이통사 유통점에서는 불가능 하지만 자급제향으로 출시된, LTE 유심 가입이 가능한 ‘갤노트10’은 이동통신3사 유통점에서는 만날 수 없다. 자급제폰(언락폰)이란 이동통신사 대리점 방문 없이 기존에 사용하던 유심을 꽂아서 바로 사용 가능한 단말기이기 때문이다. 그러나 우리나라에서 소비자가 스마트폰을 사는 대부분의 장소는 이통사 대리점이나 판매점이다. 이처럼 단말기 판매와 통신서비스 가입이 결합돼 이용자의 선택권을 저해한다는 비판이 제기되자 국회에서는 단통법 폐지와 완전자급제 도입을 위한 입법 논의가 있었지만, 이동통신 유통업계의 반발로 좌절됐다. 완전자급제법은 통신사의 단말기 판매를 금지한 법으로, 김성태·박홍근·김성수 의원 등이 발의했다. ◇이통3사가 약관 변경해도 지원금은 똑같이 줘야 하는 문제 삼성은 이통사에 기술적으로는 가능하니 과기정통부에 약관 변경을 신청해 칩이 두 개인 ‘갤노트 10’을 5G 요금제와 LTE 요금제로 가입시키라고 제안하고 있다. 하지만 이통사들은 약관 변경을 신청한다고 해도 한 가지 모델에 대해 요금제 외에 다른 이유로 차별적인 지원금을 줄 수 없는 단통법때문에 어렵다는 입장이다. 단통법에는 이동통신 요금제에 따른 지원금 차이외에 5G냐 LTE냐에 따라 동일 단말기에 대해 지원금을 다르게 줄 수 있는 근거가 없다. 단통법을 개정해야 하는 것이다. 이통사들이 약관을 바꿔 5G와 LTE가 모두 되는 ‘갤노트 10’에 같은 공시 지원금을 준다해도 혼란이 불가피하다. 이통사들이 고가 요금제를 쓰는 5G 고객과 상대적으로 저렴한 요금제에 가입하는 LTE 고객에게 같은 지원금을 주는 걸 꺼리는 것은 물론, 공시 지원금은 같게 하고 유통점 장려금(리베이트)로 조절할 경우 단통법상 처벌받는 이용자 차별 행위(지역별 유통점별 단말기 가격의 현저한 차이)가 발생할 가능성이 높기 때문이다. ◇통신사 삼성 네탓 공방의 원인도 단통법 이런 이유로 이동통신3사는 삼성에 ‘갤노트10’ LTE 버전 출시를 요구하고 있다. 유럽이나 중국, 미국에 파는 LTE 전용 모델 같은 걸 국내향도 만들어 달라는 것이다. 미국과 중국에서는 5G 버전과 LTE 버전이 모두 출시된다. 그러나 삼성은 이통사에 유럽에서 파는 LTE 모델(899유로, 약120만8100원)과 한국에서 출시된 5G 모델(124만8500원)간 가격 차이가 크지 않고 생산라인 문제도 있다며 난색이다. 5G 모델은 5G칩과 LTE칩이 두 개 들어가 있어 원가를 보면 LTE 모델에 비해 비싸다. 즉 한국에서 노트10 LTE를 출시할 경우 유럽 판매 제품보다 저렴해야 하는데, 이 가격 차이가 클 경우 유럽 소비자들이 반발할 것이라는 게 삼성 주장이다. 이런 갈등도 단통법을 없애고 완전자급제가 실현되면 사라진다. 각자 자기 상품을 자기 계획에 맞춰 내고 소비자 반응을 책임지면 되기 때문이다. 통신 가입과 단말기 유통 분리가 소비자에게 이익이 된다는 사실이 이번 노트10 LTE 버전 출시 갈등에서도 증명됐다는 평가다. 김현아 (chaos@edaily.co.kr) 네이버 홈에서 ‘이데일리’ 뉴스 꿀잼가득 , 청춘뉘우스~ ＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp;amp; 재배포 금지＞</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002932914&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=11</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>[단독]의문의 '김성재 죽음' 부검서···핵심 단서 황산마그네슘</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>24년 전 사망한 인기그룹 듀스의 전 멤버 김성재(당시 23세)의 죽음을 둘러싼 논란이 가라앉지 않고 있습니다. 그의 정확한 사망 원인은 아직 밝혀지지 않았습니다. 중앙일보는 국가기록원에 보관된 김씨의 부검감정서를 입수, 유족의 동의를 받아 보도하기로 했습니다. 결론부터 말하자면, 131페이지 짜리 부검서에는 김씨가 “졸레틸이라는 약물 투입에 의한 타살 가능성이 있다”는 내용이 담겼습니다. 이는 사건 직전 졸레틸을 구매한 치대생 여자친구 A씨(당시 25세)가 1심에서 살인 혐의 유죄를 선고받는 데 핵심 증거가 됐습니다. 하지만 2심에선 부검서 상당 부분이 증거로 배척되며 A씨에 대해 무죄가 인정됐습니다. 법원은 왜 부검서의 내용을 신뢰할 수 없다고 봤을까요. ━ 타살 vs 사고사…엇갈린 부검의와 법원의 판단 1995년 11월 20일 서울의 한 호텔방에서 숨진 김성재의 오른팔에는 28개의 주삿바늘 자국이 발견됐습니다. 이 때문에 그가 마약을 상습적으로 투약했다가 사망했다는 소문이 돌았습니다. 경찰은 국립과학수사연구소(국과수)에 그의 부검과 함께 마약 투약 여부를 의뢰했습니다. 부검 결과 그의 몸에서 약물이 과다 검출되긴 했지만 다소 생소한 종류였습니다. 마약으로 잘 알려진 필로폰이나 코카인 등이 아닌 ‘틸레타민’과 ‘졸라제팜’이라는 약물이 나온 겁니다. 동물 마취제인 졸레틸 등에 포함된 성분으로, 환각 효과가 있긴 하지만 통상 쓰이는 마약은 아니었습니다. 이를 두고 부검의와 법원은 서로 다른 판단을 내렸습니다. 먼저 부검의는 “타살 가능성을 배제할 수 없다”는 소견을 부검서에 적었습니다. 오른손잡이인 김성재의 오른팔에서 주삿자국이 지나치게 많이 발견됐으며, 서투르지만 정맥혈관을 따라 주사가 놓여진 점으로 볼 때 혼자 주사를 놓았을 리 없다는 의견을 내놓은 겁니다. 마약 투여에 의한 실수라기에는 일반적으로 사용되지 않는 약물이 사용된 점, 현장에서 주사기가 사라진 점도 들었습니다. 김성재와 현장에 있던 일행 8명에게선 모두 마약 음성 반응이 나왔습니다. 반면 2심 법원은 ”사고사 가능성을 배제할 수 없다“고 판단했습니다. 졸레틸이 실제 마약 대용으로 사용되기도 하며, 짧은 시간 내에 피해자의 반항 없이 28군데 주사를 놓을 수 없을 거란 이유에서입니다. 2심은 “A씨가 설사 졸레틸 1병을 피해자에게 투여하였더라도 그 분량에 비추어 살해의 의도를 가지고 투약했다고 단정할 수 있을지 의문이다”고 판결문에 적었습니다. ━ 핵심 단서인 '황산 마그네슘' 김성재 몸에 투입된 약물의 목적은 ‘독약’이었을까, ‘마약’이었을까. 이를 판가름하기 위한 쟁점이 바로 ‘황산 마그네슘’의 투약 여부였습니다. A씨는 동물병원에서 졸레틸50과 더불어 황산마그네슘도 3.5g 구입했습니다. 당시 수의사는 반려견 안락사를 시키겠다는 A씨에게 “졸레틸을 먼저 투여한 뒤 황산 마그네슘을 차례로 투여하라”고 설명했습니다. 두 약물을 함께 투여할 시 사망 효과가 더 빠르게 일어날 수 있기 때문입니다. 만일 누군가가 김성재를 살해하려 했다면 졸레틸과 황산 마그네슘을 섞어서 투약했을 것이고, 오로지 마약 용도로만 쓰려했다면 황산 마그네슘은 쓸 필요가 없었을 겁니다. 이에 대해 부검의의 판단은 “외부에서 황산 마그네슘이 투입됐을 가능성이 있다” 였습니다. 김성재의 소변에서는 281.5ppm 함량의 마그네슘염이 검출됐는데, 사망한 일반인들에게서 채취한 수치(18.2~51.8ppm)보다 약 5배~15배 가량 높았기 떄문입니다. 하지만 2심은 이 정도 수치만으론 황산 마그네슘 외부 주입을 단정할 수 없다고 판단했습니다. 수치가 높긴 하지만 기형적인 수준은 아니며, 김성재가 사망 전 저녁식사로 먹은 치킨의 영향도 배제할 수 없다고 봤기 때문입니다. A씨가 구매한 황산 마그네슘 양이 3.5g으로 매우 적었다는 점도 고려됐습니다. ━ 법원 “졸레틸 50이 치사량이 될 수 없다“ 황산 마그네슘을 제외하고 A씨가 구매한 졸레틸50 한 병만으로 사람이 사망하는 게 가능할까. 이 부분 역시 부검의와 다른 전문가들의 의견이 엇갈렸던 지점입니다. 당시는 졸레틸에 대한 인체 실험 결과가 없던 상황입니다. 부검의는 67개의 유사 약물 사례를 분석, “김성재 몸에서 나온 함량 만으로 치사량이 될 수 있다”고 판단했습니다. 수사기관과 법정에서 “졸레틸 50만으로 생명에 위협이 될 수 있다”는 증언도 했습니다. 하지만 법원은 “졸레틸50이 사람 치사량이라고 단정지을 수 없다”는 다른 전문가들의 진술을 받아들였습니다. 졸레틸 50으로는 고릴라 한 마리를 마취시킬 수 있을 정도에 그친다는 동물 실험 결과에 따른 겁니다. 이렇듯 김성재의 부검 기록과 법원의 판단은 서로 다른 곳을 가리켰습니다. 물론 부검서가 절대적인 ‘유ㆍ무죄’의 기준이 될 수는 없습니다. 이 사건 6개월 전에 일어난 ‘치과의사 모녀 살인사건’이 대표적인 사례입니다. 집에서 숨진 치과의사 아내와 딸을 죽인 범인으로 남편이 지목된 사건입니다. 법의학자들은 사망시각을 근거로 남편에 불리한 진술을 했지만 끝내 남편은 법정에서 무죄를 인정받았습니다. 김성재 부검 기록 역시 24년 전 법의학 시스템의 오판에 불과했을까요. 어느 쪽이 옳고 그른지를 함부로 말하기는 어렵습니다. 기사를 작성하기에 앞서 이미 법적으로 무죄를 인정받은 A씨에게 피해가 가지 않을까 조심스러웠습니다. 최근 법원에서 김씨의 타살 의혹을 다룬 SBS ‘그것이 알고싶다’ 방영 금지 가처분 판결을 내린 것도 이같은 우려가 반영됐습니다. 다만 여러 가설과 추측들이 뒤엉킨 상황에서 당시의 상황과 기록을 있는 그대로 전달하고자 노력했습니다. 사건의 실체에 다가가는 데 도움이 되길 바랍니다. 박사라 기자 park.sara@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>[르포] `갤노트10` 공짜폰은 없었지만 `낚시성 마케팅`은 극성</t>
-        </is>
+      <c r="A71" s="1" t="n">
+        <v>70</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>신도림 집단상가 현장 탐방 갤럭시노트10 정식 개통 첫날인 23일 신도림 테크노마트 내 휴대폰 집단상가 모습. 김은지 기자 '갤럭시노트10' 예약판매 시 100만원 넘는 지원금이 난무했지만, 정식 출시 첫날인 23일 공짜폰은 찾아볼 수 없었다. 하지만 '공짜폰 코스프레'는 만연했다. 지원금 내역을 따져보면 공짜폰이 아님에도 고객 유치를 위해 '공짜폰' 마케팅을 하는 사례를 심심치 않게 찾을 수 있었다. 일종의 '낚시성 마케팅'인 셈이다. 할인 내역에 대한 안내가 미진하거나 실질적으로 연 360만원의 신용카드 사용 금액(카드 제휴·결합 할인)을 감수해야 하는 상황에서 '기기값 0원'이라는 단어를 어렵지 않게 만날 수 있었다. 삼성전자의 전략 스마트폰인 갤럭시노트10이 23일 정식 출시됐다. 사전 예약 물량만 이미 역대 최고치인 130만대를 넘어서면서 서울 신도림 테크노마트 내 휴대폰 집단상가는 예상보다는 한산했다. 이날 취재는 대표적인 스마트폰 성지에서 '갤럭시노트10을 얼마나 초단가로 살 수 있는지' 궁금증을 해소하기 위해 진행됐다. 우선, 방문객이 많이 없다 보니 등장부터 많은 호객행위에 노출이 됐다. 상가에 들어서자마자 "고객님 알아보셨어요?", "어떤 것을 찾으세요?"라는 물음이 끊임없이 이어졌다. 집단상가 등 일부 유통점은 차별적 리베이트 지급에 대한 방송통신위원회의 단속이 집중될 수 있는 곳이다. 방통위 단속을 의식해 "얼마에 알아보고 왔다", "XX만원에 정말 살 수 있냐"라고 말하는 것은 금기어. "무조건 가장 싸게 사려 하면 어떻게 하냐?"라고 물으면 말없이 계산기에 숫자를 쳐서 보여주는 방식으로 상담이 진행됐다. 다만 기대와 달리, 불법 보조금으로 문제가 됐던 10만원 미만 갤럭시노트10 폰을 찾는 것은 쉽지 않았다. 아예 고객이 없는 상점도 절반 정도. 그나마 1~2명씩의 사람이 방문한 상점은 '갤럭시노트10 0원' 혹은 '갤럭시노트10 사전예약 현금 완납' 등의 홍보 문구를 붙여놓은 곳이었다. 초단가에 스마트폰을 구매하려면 이 같은 문구를 붙여놓은 상점을 최대한 돌아다니고 시세를 비교해야 했다. 많은 곳을 돌아다닐수록 싼 값을 제시받는 데 요령이 생겼다. "옆집에 갔는데 생각보다 비싸게 부른다. 무조건 싸게 갤럭시노트10을 사고 싶다"는 말에 기기가 "공짜"라는 말은 빈번하게 돌아왔다. 여러 상점들이 제시한 초단가 조건은 SK텔레콤 고객인 기자가 번호이동(LG유플러스)에 특정 신용카드 사용할 시 기기값은 0원, 7만5000원(스탠다드,150GB 제공) 가량의 요금만 내도록 맞춰준다는 것이었다. 다른 부가 조건들은 설명하지 않았지만, 월 20~30만원 상당의 특정 신용카드 사용금액을 지켜줘야 한다는 설명도 덧붙였다. 가전을 할부로 구매하거나 공과금 자동이체를 걸어놓거나 하는 방식으로 카드를 이용하면 된다는 것이다. 이 조건의 약정은 24개월이고 갤럭시노트10과 마찬가지로 신용카드 또한 24개월 동안 사용을 유지해야 한다. 보조금이나 공시지원금에 대한 언급은 없었다. 일단 '기기값 0원'을 내세워 실적을 올리는 데만 집중하는 모습이었다. 신용카드사의 마케팅인지 스마트폰 마케팅인지, 초단가에 구매를 할 수 있다는 점은 흥미로웠지만 의아함은 가시지 않았다. 결국 배보다 배꼽(늘어나는 신용카드 사용금액)이 클 수 있구나 하는 생각이 머리를 스쳐갔다. 연 360만원의 신용카드 지출은 갤럭시노트10 일반형 256기가바이트(GB) 출고가 124만8500원의 배가 넘는 금액이다. 갤럭시노트10 아우라 글로우 신용카드와 결합된 방식 외에 '휴대폰 반납을 통한 기기값 0원' 마케팅도 만날 수 있었다. 5GX클럽 노트10 혜택을 활용하는 등의 방식인데, 이를 통해 갤럭시노트10 가격을 할인 받을 수 있었다. SK텔레콤 '5GX클럽_노트10'은 고객이 단말 구매 12개월 뒤 사용하던 제품을 반납 후, 다음 갤럭시 시리즈를 구매할 때 출고가의 최대 50%를 면제받을 수 있는 프로그램이다. 상담 고객이 구체적으로 묻기 전에는 이 같은 프로그램명을 제대로 설명하지는 않았다. 안내 미진으로 인한 '호구 고객(호갱)'을 만들 수 있는 요소였다. 실제 스마트폰 구매가 아닌 '렌탈'이 아니냐며 불만을 토로하는 이도 있었다. 또 이날 초단가를 제시하는 상점을 찾을수록 "지금 기기 개통을 할 것인지"를 묻는 횟수가 늘어났다. 현재 사용 중인 스마트폰의 약정이 남아있고 위약금액이 30~40만원 가량인 덕에 당장 개통은 피할 수 있었다. 한 상인은 위약금에도 불구하고 개통을 한다면 갤럭시노트10 '핑크' 색상을 사용할 것을 권했다. 시그니처 색상인 '아우라글로우'를 쓰고 싶다 말했지만, 품귀현상 때문에 물량 확보가 쉽지 않다는 설명이다. 아우라 화이트도 당일 구하기 어려울 수 있다는 답이 돌아왔다. 이동통신사별 특화 색상인 SK텔레콤 갤럭시노트10 블루, KT 갤럭시노트10 레드도 사전 예약 고객들을 위해 물량이 묶여 있었다. 한편 이날 갤럭시노트10 정식 개통 시작과 아울러, 갤럭시S10 5G를 찾고 상담하는 사람들의 모습도 많이 볼 수 있었다. 또 다른 상인은 "갤럭시S10 5G의 조건이 나쁘지 않아 오히려 지금이 갤럭시S10 5G 구매 적기"라면서 "노트 시리즈와 S시리즈의 팬층이 극명히 나뉘기 때문에 S시리즈를 찾는 사람들의 발걸음도 여전하다"고 설명했다. 김은지기자 kej@dt.co.kr /</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=005&amp;aid=0001233379&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=12</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>“자수하겠다”더니 추적 따돌려…아들 여친에 마약 투약 50대, 검거</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>아들의 여자친구에게 마약을 강제로 투약한 50대 남성이 도주 12일 만에 경찰에 붙잡혔다. 이 남성은 자수 의사를 밝힌 뒤에도 추적을 따돌려 오다가 잠복 중이던 경찰에 붙잡힌 것으로 전해졌다. 경기 포천경찰서는 마약이 든 주사를 아들의 여자친구에게 강제로 놓은 혐의(마약류 관리에 관한 법률 위반)로 A씨(56)를 체포했다고 27일 밝혔다. A씨가 사건 당일 현장에서 도주한 지 12일 만이다. A씨는 지난 15일 오후 3시쯤 포천시의 한 펜션에서 아들의 여자친구인 B씨의 왼팔에 마약이 든 주사를 강제로 놓은 혐의를 받는다. 남자친구와 3년간 교제한 B씨는 평소 집안 경조사에 참여할 정도로 가깝게 지낸 만큼 “상의할 것이 있다”는 A씨의 말에 별 의심 없이 펜션을 찾은 것으로 조사됐다. B씨는 “(A씨가) 놀라게 해주겠다며 눈을 감으라고 했는데 갑자기 따끔한 느낌이 들어 눈을 떠보니 주사기를 들고 있었다”며 “바로 신고했다”고 진술했다. B씨는 펜션 객실에 입실한 지 10여분 만에 이같은 일을 당한 것으로 알려졌다. 소리를 지르며 곧바로 밖으로 나와 경찰에 신고했다고 한다. A씨는 차를 타고 도주했다. 신고를 받고 출동한 경찰은 현장 인근에서 A씨가 버리고 간 차량을 발견했다. 이후 도피생활을 이어가던 A씨는 한 차례 경찰에 자수 의사를 전하기도 했다. 그러나 여러 가지 핑계로 계속 미루면서 경찰의 추적을 따돌렸다. A씨의 도피행각은 27일 오후 6시20분쯤 용인시 백암면에서 잠복 중이던 경찰에 검거되며 마침표를 찍었다. 경찰은 A씨가 성폭행도 시도했다는 B씨의 진술에 따라 자세한 범행 동기 등에 대해 조사 중이다. 박은주 기자 wn1247@kmib.co.kr GoodNews paper ⓒ , 무단전재 및 재배포금지</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>대란 없는 갤노트10…일반 판매 첫날 ‘잠잠'</t>
-        </is>
+      <c r="A72" s="1" t="n">
+        <v>71</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>집단상가, 실구매가 40만원대…이달 말까지 안정화 추세 예상 (지디넷코리아=선민규 기자)대란은 없었다. 갤럭시노트10 공식 출시 첫 날 시장은 잠잠한 분위기를 이어가고 있다. 갤럭시노트10이 사전 개통을 마치고 일반 판매를 시작한 23일, 이른바 ‘성지’로 알려진 집단상가는 비교적 한산한 모습이었다. 판매자들은 지나가는 방문객에게 연신 말을 걸었고, 발길을 멈춘 방문객도 가격을 듣고선 발길을 돌리기 일쑤였다. 서울시내 휴대폰 집단상가 내 판매점은 출고가 124만8천500원인 갤럭시노트10의 실구매가로 40만~50만원대를 제시했다. 이는 제품 출고가에 비해 70만원 가량 낮은 금액이지만, 올 상반기와 같은 대란을 기대했던 구매자들의 기대에는 못 미치는 수준이다. 삼성전자 갤럭시노트10과 갤럭시노트10 플러스.(사진=삼성전자) 집단상가 판매점 관계자는 “5G 스마트폰이 처음 나왔을 당시와 비교하면 방문자가 많이 없는 편”이라며 “노트10 가격에 대해 문의만 하고 돌아가는 경우가 많다”고 말했다. ■ 이통3사, 5G 가입자 보다 ‘시장 안정화’ 초점 단말기를 저렴한 가격에 구매할 수 있는 기회를 일컫는 ‘대란’은 유통점 및 대리점이 본사로부터 지급받는 리베이트에 따라 좌우된다. 리베이트 금액이 높을수록 소비자에게 더 많은 할인을 제공할 수 있기 때문이다. 이통3사는 시장 안정화로 방향을 잡았다. 시장 안정화는 일선 유통판매점에 지급하는 리베이트를 줄이는 방식으로 유도할 수 있다. 이통3사는 시장 과열을 피하고자 보조금 기준 및 영업점에 부과하는 페널티를 강화하는 등 선제적 조치에 나섰다. 이는 통신 시장 과열을 점검하는 방송통신위원회의 긴급 상황반을 의식한 움직임이다. 긴급 상황반은 신규 단말기 출시를 전후해 시장 과열을 점검하는 조직이다. 23일 서울 시내 휴대폰 집단상가의 모습. 상반기 과도한 마케팅 경쟁이 실적에 악영향을 미쳤다는 점과 5G 가입자가 안정화 추세에 접어들었다는 점 등도 이통 3사의 전략 수정 배경으로 꼽힌다. 실제로 지난 22일 박종욱 LG유플러스 PS부문 전무는 “경쟁사가 보조금(리베이트) 지급을 통한 출혈 경쟁을 시작해도 우리는 경쟁 참여를 지양할 것”이라며 “보조금 중심의 경쟁에서 서비스 중심으로 시장이 변화하는 것이 맞다고 생각한다”고 말하기도 했다. ■ 대란 없이 노트10 순항 중 대란은 없었지만 노트10 판매는 순항하고 있다. 집단상가나 온라인이 아닌 일반 소매 대리점의 단말기 판매가 늘고 있다는 점이 특징이다. 유독 저렴한 가격에 단말기를 판매하는 성지가 사라지면서, 접근성에서 강점이 있는 일반 소매 대리점의 판매량이 높아진 것으로 풀이된다. 통신업계 관계자는 “이제 일반 판매가 시작된 탓에 구체적인 판매량을 집계하긴 어렵지만, 예약 판매 성적과 시장 분위기를 봤을 때 전작에 비해 좋은 것은 사실”이라며 “올 상반기 출시된 5G 스마트폰에 비해 노트10은 소매 대리점에서 개통하는 비중이 높다”고 말했다. 종각역직영점에서 갤럭시 노트10 5G 사전예약자가 개통을 진행하는 모습.(사진=LG유플러스) 제품에 대한 호평과 상반기에 비해 개선된 5G 네트워크 품질도 판매량 증가를 이끈 것으로 풀이된다. 소매 대리점 관계자는 “노트10의 성능을 고려할 때, 가격 부담을 감당하는 것이 옳다는 공감대가 만들어지고 있는 것 같다”며 “다소 불안했던 5G 상용화 초기와 달리 현재는 커버리지와 네트워크 품질 면에서 상당히 안정화됐다는 점도 판매량 증가에 영향을 미쳤을 것”이라고 설명했다 시장 안정화 흐름은 최소 이달 말까지 유지질 것으로 예상된다. 통신업계 관계자는 “정부의 규제 상황을 생각할 때, 최소 이달 말까지는 시장 안정화 추세가 이어질 것”이라며 “다만 추석 연휴를 전후해 시장이 과열될 가능성도 배제할 수는 없다”고 말했다. 선민규 기자(sun1108@zdnet.co.kr) /</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=277&amp;aid=0004525933&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=13</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>아들 여친에 마약 투약 후 성폭행 시도한 50대男, 도주 12일만에 검거</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>[아시아경제 김가연 인턴기자] 아들 여자친구에게 강제로 마약 주사를 놓은 뒤 성폭행을 시도한 50대 남성이 도주 12일 만에 경찰에 붙잡혔다. 27일 경기북부지방경찰청 마약수사대에 따르면, 경찰은 이날 김 모(56) 씨를 마약류 관리에 관한 법률 위반 혐의로 붙잡아 포천경찰서로 압송 중이다. 경찰은 김 씨를 이날 경기도 용인시 백암면의 한 노상에서 체포했다고 밝혔다. 김 씨는 앞서 지난 15일 오후 3시께 포천시 일동면 소재의 한 펜션에서 아들 A(25) 씨의 연인 B(24) 씨에게 강제로 마약을 투약하고 성폭행을 시도한 혐의를 받고 있다. 사건 당일 김 씨는 B 씨에게 "힘든 일 있느냐. 위로해주겠다. 상의할 일도 있다"면서 포천의 펜션으로 데려간 뒤, "눈을 감으라. 놀라게 해주겠다"라며 B 씨의 왼팔에 마약을 투약한 것으로 조사됐다. 경찰에 따르면, B 씨가 경찰에 신고하자 김 씨는 차를 타고 도주했다. B 씨는 김 씨의 아들과 3년 간 교제한 사이로 함께 집안 행사에 참여했으며, 사건 당일에도 별다른 의심 없이 김 씨를 따라간 것으로 전해졌다. 경찰은 간이검사 결과 B 씨의 소변에서 필로폰 양성 반응이 확인됐다고 밝혔다. 경찰은 조사를 마치는 대로 김 씨에 대해 구속영장을 신청할 방침이다. 김가연 인턴기자 katekim221@asiae.co.kr &amp;lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&amp;gt;</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>삼성전자, 반도체·무선사업부 성과급 절반으로 줄듯</t>
-        </is>
+      <c r="A73" s="1" t="n">
+        <v>72</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>가전사업부는 올해와 비슷한 수준으로 공지 반도체 시황 부진, 스마트폰 성장세 둔화 등으로 삼성전자의 영업이익이 급감하면서 내년 초 직원들에게 지급될 성과급도 올해 초 대비 절반 수준에 그칠 전망이다. 23일 업계에 따르면 삼성전자는 전날 직원들에게 내년 초 지급되는 사업부별 초과성과인센티브(OPI) 예상 지급률을 공지했다. 각 사업부의 1년 성과가 연초 사업 목표를 초과했을 경우 개인 연봉의 최대 50%를 OPI로 지급한다. 매년 1월쯤 나온다. 삼성전자 직원들이 서울 서초구 삼성전자 사옥에 들어가고 있다./연합뉴스 올해 초 최대치인 50% 내지 이에 근접한 수준의 OPI를 받았던 디바이스솔루션(DS)부문은 메모리·비메모리 사업부(시스템LSI·파운드리)를 통틀어 22~30% 수준에서 성과급이 지급될 것으로 예상됐다. 스마트폰을 담당하는 IT·모바일(IM)부문 무선사업부는 24∼28% 수준, 네트워크사업부는 이보다 높은 31∼39%가 예상됐다. IM부문의 올 초 OPI는 최대 46%였다. 소비자가전(CE)부문은 올해 초와 비슷한 수준이 될 것으로 알려졌다. 생활가전사업부는 연봉의 23∼24%, 영상디스플레이(VD)사업부는 최대 42% 수준으로 공지됐다. 지난해에도 CE 부문 성과급은 가전사업부와 VD사업부가 각각 23%, 46% 수준이었다. 삼성전자 관계자는 "각 사업부문별 OPI 예상 지급률이 공지된 것은 사실이지만 구체적인 수치를 확인해줄 수는 없다"면서 "현재 시점에서 산정한 지급률이기 때문에 하반기 실적에 따라 약간의 변경 여지는 있다"고 말했다. [장우정 기자 woo@chosunbiz.com] chosunbiz.com</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=056&amp;aid=0010736910&amp;date=20190828&amp;type=2&amp;rankingSectionId=102&amp;rankingSeq=14</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>[뉴스 따라잡기] 중고생 11명이…마을 충격 빠뜨린 초등생 성폭행</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>[뉴스 따라잡기] 중고생 11명이…마을 충격 빠뜨린 초등생 성폭행 김병용 기자 (kby@kbs.co.kr)</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>조국 딸 '금수저 스펙' 뒤엔 '엄마의 서울대 동아리 네트워크' 있다?</t>
-        </is>
+      <c r="A74" s="1" t="n">
+        <v>73</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>조국 딸 관련 논란된 공주대 K교수..조국 부인과 서울대 81학번 동기 조국 부인 학창 시절 활동한 서울대 천문동아리 AAA가 연결고리 조국 법무부 장관 후보자가 23일 오후 서울 종로구 적선현대빌딩에서 논란이 일고 있는 사모펀드와 사학재단 웅동학원을 사회에 환원하겠다고 밝히고 있다. 2019.8.23/뉴스1 © News1 안은나 기자 (서울=뉴스1) 최소망 기자 = 조국 법무부 장관 후보자의 딸이 한영외고 재학 중 공주대에서 인턴을 하고 국제학술대회 발표초록에 제3저자로 이름을 올린 것이 특혜가 아니냐는 의혹이 제기된 가운데 공주대와 조국 가족의 연결고리로 서울대 천문 동아리인 '아마추어 천문회'(AAA)가 주목받고 있다. 23일 과학기술계에 따르면 조국 후보자 딸(28)은 2009년 공주대 생명과학과 K교수실에서 2주가량 인턴을 하고 국제학회 발표문에 제3저자로 이름을 올렸다. 당시 K교수는 조 후보자의 아내 정 씨의 대학 동기다. 정 씨와 K교수는 1981년 서울대 영어영문학과와 식물학과에 각각 입학했다. 소속과가 다른 이들은 서울대 재학시절 천문 동아리에서 같이 활동한 인연이 있는 것으로 알려졌다. 서울대에는 1980년부터 시작된 유서 깊은 아마추어 천문회(Amateur Astronomy Association·AAA) 동아리가 있다. 이름 그대로 취미로 천문활동을 하는 동아리로 해마다 천체 사진전을 열어 1년간 동아리원들이 찍은 천체사진을 엄선해 전시하는 활동을 한다. 천문회 동아리에서 맺은 어른들의 '인연'이 조국 딸의 '금수저 스펙'의 진원지 역할을 한 셈이다. 실제로 K교수는 한 언론에 "대학 동기인 조 후보자의 부인인 정 씨가 자기 딸 면접을 보는데 충남 공주까지 같이 왔다니까 놀랐다"며 동기라는 사실을 인정했다. 이를 두고 서울대생 전용 포털사이트인 스누라이프(SNULIFE)에는 "나도 AAA인데 내 자식 논문은 동아리 동기에게 맡겨야겠다", "AAA인맥이 이렇게도 활용되네요", "AAA출신인데 자괴감 느낀다" 등의 의견이 올라오기도 했다. 조국 후보자의 딸 조 씨의 단국대 논문 제1저자 논란이 일었을 때도 논란 직후에는 서울대 물리천문학과의 A교수가 조국 딸와 관련한 의혹에 대해 옹호하는 발언을 해 주목을 받기도 했다. A교수는 조국 법무부 장관 후보자 딸의 논문 논란과 관련 지난 21일 "딸도 부모도 책임이 없어 보인다"면서 "만약 문제가 된다면 결국 지도교수의 책임"이라고 밝혔다. 이어 "조국 교수가 자기 딸을 제 1저자로 넣어달라고 부탁했다면 명백한 잘못이지만 밝혀지지 않는 한 부모의 잘못을 논하기는 어렵다"고도 했다. 이외에도 조 양이 과거 한영외고 재학 시설 서울대 물리천문학부 B교수의 지도를 통해 한국물리학회에서 수여하는 물리캠프 장려상을 받은 것까지 회자된다. 조 씨는 2009년 8월 한국물리학회(KPS) 여성위원회가 숙명여대에서 개최한 '여고생 물리캠프'에 참가해 다른 학생 2명과 함께 '나비의 날개에서 발견한 광자 결정구조의 제작 및 측정'이라는 연구과제를 수행해 장려상을 받았다. 해당 캠프에서 2005년부터 현재까지 장려상을 시상한 해는 2009년이 유일해 일부러 상을 만들어준 게 아니냐는 의혹이 제기됐다. 과기계 관계자는 "조국 부인이 천문 동아리에서 활동했고 당시 동문들이 현재 서울대 물리천문학부 교수직에 포진해 있다"며 "조국 후보자의 딸과 관련해 제기되는 '금수저 스펙'에 '엄마의 서울대 AAA 네트워크'가 고스란히 담겨 있는게 아니냐"고 말했다. 이와관련 AAA는 "기사에 언급된 분들은 현재 동아리에서 보유한 연락처 목록에 기재조차 돼있지 않다"고 밝혔다. somangchoi@news1.kr [© 뉴스1코리아(), 무단 전재 및 재배포 금지]</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=449&amp;aid=0000176635&amp;date=20190828&amp;type=2&amp;rankingSectionId=102&amp;rankingSeq=15</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>[333 뉴스]중고생 11명에 성폭행 당한 초등생…엄마 남친에게도 당했다</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 오늘의 333뉴스입니다. 강원 지역 중고등학생 11명이 초등학생 A양을 성폭행한 사실이 알려지면서 충격을 주고 있습니다. 일부 학생은 불법 촬영과 협박도 한 것으로 드러났는데요. 더 충격적인 건, 지난해 11월에는 피해자 자신의 어머니 남자친구로부터도 성폭행을 당한 것으로 알려졌습니다. 이 남성은 구속돼 재판에 넘겨졌습니다. 피해자 A양은 병원에 입원해 치료를 받는 중입니다. '최순실 저격수'로 불렸던 전 K스포츠재단 노승일 씨가 음주운전을 하다 적발됐습니다. 지난 22일 밤, 지인과 술을 마신 뒤 400m 정도를 직접 운전하다 음주단속 현장을 보고 차를 돌려 도주했습니다. 경찰이 추격에 나선 뒤에야 차를 멈췄는데, [경찰 관계자] "현장에서 유턴해서 가는 것을 1km 정도 따라가 검거해…" 당시 혈중알코올 농도는 0.046%, 면허정지 수준이었습니다. 노 씨는 자신의 SNS를 통해 부끄러움과 죄책감에 단속 현장을 벗어났다고 해명했습니다. 수백 명의 남성 댄서들이 우아하게 뮤지컬 '페임'의 한 장면을 선보이고 있습니다. 공연이 아닌 일종의 항의 퍼포먼스인데요. 대상은 영국 조지 왕자가 발레 수업을 좋아한다는 내용을 전달하며 남성 발레를 비웃듯이 말한 미국 ABC방송의 진행자 라라 스펜서입니다. 계속된 비난에 진행자는 자신의 SNS와 생방송에서 직접 사과했습니다. 이런 고정관념으로 누군가에게 상처를 주고 있지 않은지 한번쯤 생각해볼만한 문제인 것 같습니다. 패밀리 레스토랑에서 20대 종업원을 상대로 1시간 동안 욕설을 퍼부은 50대 주부가 벌금 300만 원을 선고받았습니다. 메뉴에 없는 음식을 요구하며 사기 접시를 던지기도 했는데, 영업 방해로 손해까지 끼쳤습니다. 아들의 여자친구에게 마약을 강제 투약한 혐의를 받는 50대 남성이 신고 12일 만에 검거됐습니다. 이 남성은 마약 간이 검사에서 필로폰 양성 반응까지 나온 상황. 경찰은 성폭행 시도 여부도 조사 중입니다. 탄산음료 용기로 많이 쓰이는 색깔 페트병이 12월 25일부터 사라집니다. 투명 페트병은 각종 케이스를 만들거나 등산복의 기능성 섬유로 활용되는데요. 색깔 페트병은 용도가 한정돼 재활용의 걸림돌이 돼 왔습니다. 추석 연휴 기간인 9월 12일에서 14일까지 사흘간, 전국 고속도로 통행료가 면제됩니다. 단, 연휴 마지막 날인 15일은 예욉니다 30·40대 미혼자의 부모 보험 가입 비중이 기혼자 보다 4배 가까이 많은 것으로 조사됐습니다. 부모 봉양에 대한 부담 때문으로 보입니다. 최근 5년간 어린이 아토피피부염 환자는 줄고, 성인은 늘어난 것으로 나타났습니다. 생업 전선에서 적절한 치료 관리를 못했기 때문입니다. 지금까지 333뉴스였습니다. 꿈을 담는 캔버스 채널A ⓒCHANNEL A(www.ichannela.com), 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>바이오株 악재 속 글로벌신약 자신감··“SK바이오팜 연내 IPO”</t>
-        </is>
+      <c r="A75" s="1" t="n">
+        <v>74</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>뇌전증 신약인 ‘세노바메이트’ 美FDA 11월 판매허가 앞두고 SK㈜이사회, 상장 안건 가결 11월말 이후 공모 가능성 커 ‘솔리암페톨’ 등 파이프라인 다양 기업가치 5조원 안팎 달할 듯 [서울경제] 뇌전증 신약 세노바메이트의 미국 식품의약품청(FDA)의 신약판매 허가를 앞둔 SK바이오팜이 연내 기업공개(IPO)를 추진한다. 증권업계는 다양한 신약 파이프라인을 확보한 SK바이오팜의 기업가치가 5조원 안팎에 달할 것으로 추산한 바 있다. 상반기부터 계속된 제약 바이오업계 악재들로 투자 심리가 한층 위축된 가운데 올 하반기 IPO 시장 최대어로 꼽혔던 SK바이오팜이 상장에 나서면서 제약바이오업계에 분위기 반전을 몰고 올지 주목된다. 24일 업계에 따르면 SK㈜는 지난달 이사회를 열어 SK바이오팜의 상장 추진 안건을 가결해 기업공개 관련 절차를 진행했다. 이는 SK㈜가 일정 지분을 보유한 자회사의 상장을 추진할 때 이사회 의결을 거쳐야 하는 규정에 따른 것이다. 지난해 미국 나스닥 직상장을 추진했던 SK바이오팜은 올해 초 코스피로 눈을 돌려 지난 4월 기업공개 대표 주관사로 NH투자증권을, 공동주관사로 한국투자증권을 각각 선정한 바 있다. SK바이오팜은 SK㈜ 이사회 절차를 마무리한 만큼 조만간 거래소에 상장예비심사를 청구할 것으로 예상된다. 업계에서는 SK바이오팜의 상장 추진이 독자 개발한 뇌전증 신약 ‘세노바메이트’에 대한 자신감에서 비롯된 것이라고 해석하고 있다. 앞서 미 FDA는 지난 2월 세노바메이트의 허가심사를 시작했으며, 약 10개월의 검토 기간을 거쳐 오는 11월21일 허가 여부를 결정할 계획이다. 이미 S K바이오팜은 세노바메이트의 미국 마케팅을 위해서 현지에 의약품 판매법인 SK라이프사이언스를 설립해 놓은 상태다. SK㈜ 관계자는 “상장 시점은 시장 환경 등을 고려해 최적의 시점에 추진한다는 입장”이지만 공모가 등을 고려해 세노바메이트의 미국 FDA 승인 직후가 될 공산이 크다. 지난 2011년 출범한 SK바이오팜은 상대적으로 짧은 역사에도 글로벌 신약 시장에서 두각을 나타내며 우리나라를 대표하는 바이오 업체로 자리 잡았다는 평가를 받고 있다. SK바이오팜은 통상 신약을 개발해 국내에 먼저 출시한 뒤 미국·유럽 등 선진시장에 진출하는 것이 아니라 연구개발(R&amp;amp;D) 단계부터 미국 시장을 염두에 두고 신약 개발에 나서는 전략을 펴고 있다. 실제로 SK바이오팜은 지난달 8일부터 자체 개발해 기술수출한 수면장애 신약 ‘솔리암페톨’의 미국 판매를 시작했으며 글로벌 시장을 염두에 두고 소아희귀뇌전증 치료제 ‘카리스바메이트’, 희귀 신경계질환 치료제 ‘렐네노프라이드’를 개발하고 있다. 이밖에 집중력장애 치료제 SKL13865와 조현병 치료제 SKL20540 등도 개발 중이다. 증권업계 관계자는 “각종 악재로 바이오 업종에 대한 투자심리가 한층 꺾인 상황”이라며 “올 하반기 IPO 최대어로 주목받았던 SK바이오팜이 신약 허가에 대한 자신감을 등에 업고 높은 가치를 인정받을 경우 제약바이오 업계를 바라보는 투자심리에 긍정적인 영향을 미칠 수 있을 것”이라고 말했다. /박홍용기자 prodigy@sedaily.com | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=005&amp;aid=0001233367&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=16</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>중고생 11명이 성폭행…피해 초등생, 엄마 지인들에게도 당했다</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>중·고등학생 11명에게 상습적인 성폭행을 당한 초등학생 A양이 모친의 지인인 성인 남성 2명에게도 피해를 입었다고 27일 SBS가 보도했다. A양은 이후에도 제대로 된 보호를 받지 못한 채 방치됐다고 한다. 강원도의 모 초등학교에 다니는 A양이 중·고생들에게 수차례 성폭행을 당한 것은 지난 3월부터 5월까지 약 2개월간. 경찰 수사를 통해 확인된 가해자만 11명이다. 이중 범죄의 경중에 따라 4명은 구속됐고, 나머지 7명은 불구속 입건됐다. 가해자들은 인근 중학교 재학생과 고등학교 자퇴생 등 지역 선후배 사이인 것으로 알려졌다. A양은 이보다 앞선 지난해 8월에도 성폭행 피해를 입었다. 가해자는 A양 어머니와 평소 알고 지내던 성인 남성 2명이었다. 당시 경찰은 아동·청소년의 성보호에 관한 법률 위반 혐의 등으로 남성 1명을 구속하고 다른 1명을 불구속 입건했다고 한다. 이후 사건은 기소의견으로 검찰에 송치됐다. 경찰은 재발 방지를 위해 피해자·가해자 분리 조치를 했으나, A양의 상황은 달라지지 않았다. 어머니가 야간에 자주 집을 비우는 등 여전히 보호받지 못하는 환경에 놓여 있었다. 성폭력 피해 치료도 제대로 이뤄지지 않았다. A양이 상담에 오지 않는 경우가 많아 해바라기 센터 직원들이 데리러 가는 경우가 잦았다고 한다. MBC에 따르면 A양 어머니의 반대로 야간 돌봄이나 보호조치 등도 이뤄지지 않았다. A양은 불과 7개월 만에 또 다른 성폭행 범죄에 노출됐다. 중·고생 11명은 A양에 대한 정보를 공유하면서 개별적으로 성폭행을 했다. A양을 집으로 유인해 범행을 저지르는 등 성폭행은 3개월간 반복적으로 이뤄졌다. 구속된 4명 중 일부는 성폭행 장면을 촬영하기도 했다. “인생이 힘들어질 것”이라며 피해 사실을 알리지 말라고 협박까지 했다. 이같은 사실은 A양의 결석이 잦아지자 학교 측이 상담하는 과정에서 밝혀졌다. 학교는 학교폭력 대책위원회를 구성하고 피해 사실 확인 절차에 돌입한 뒤 경찰에 수사를 요청했다. 현재 병원에서 치료를 받고 있는 A양은 심각한 우울증을 호소하는 것으로 전해졌다. 박은주 기자 wn1247@kmib.co.kr GoodNews paper ⓒ , 무단전재 및 재배포금지</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>[우주를 보다] 인류 피조물과 첫 조우한 해왕성…30년 전 보이저 2호 포착</t>
-        </is>
+      <c r="A76" s="1" t="n">
+        <v>75</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[서울신문 나우뉴스] 해왕성(왼쪽)과 트리톤의 사진. 출처=NASA/JPL-Caltech 지금으로부터 정확히 30년 전인 지난 1989년 8월 25일, 인류의 피조물이 사상 처음으로 태양계 8번째 행성의 근접 사진을 촬영했다. 촬영자는 미 항공우주국(NASA)의 태양계 탐사선 보이저 2호(Voyager 2) 그리고 대상은 이제는 태양계 끝 행성이 된 해왕성이다. 지난 22일(현지시간) NASA는 해왕성 탐사 30주년을 맞아 당시 보이저 2호가 촬영한 해왕성 사진을 홈페이지에 공개했다. 해왕성의 신비로운 모습이 인상적인 이 사진은 당시 보이저 2호가 약 700만㎞ 떨어진 지점을 지나가며 카메라에 담은 것이다. 해왕성은 태양을 기준으로 무려 45억㎞나 떨어져 있어 관측이 대단히 어렵다. 이 때문에 보이저 2호가 남긴 해왕성 사진은 천문학 역사에 길이 남을 정도의 쾌거였다. 보이저호의 상상도 이 사진과 더불어 보이저 2호는 방향을 살짝 틀어 해왕성의 가장 큰 달인 트리톤(Triton)의 모습도 생생히 잡아냈다. 해왕성의 13개 위성 중 가장 큰 트리톤(지름 2707㎞)은 자전축과 공전방향이 반대인 역행위성이다. 이 때문에 전문가들은 ‘카이퍼 벨트’(Kuiper Belt·해왕성 궤도 밖의 천체가 도넛 모양으로 밀집해 있는 지역)에 있던 트리톤이 해왕성의 힘으로 끌려 온 것으로 추측하고 있다. 이렇게 태양계 행성 탐사를 모두 마친 보이저 2호는 지난해 12월 보이저 1호에 이어 태양권 경계를 넘어 성간 우주에 도달했다. 현재 태양에서 약 180억㎞ 떨어진 심(深)우주를 비행 중으로 누구도 가보지 못한 전인미답의 경지에 오른 셈이다. 박종익 기자 pji@seoul.co.kr ★ ▶ ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=055&amp;aid=0000754767&amp;date=20190828&amp;type=2&amp;rankingSectionId=102&amp;rankingSeq=17</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>'성폭행 피해' 초등학생, 엄마 지인들에게도 당했었다</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 &amp;lt;앵커&amp;gt; (▶ [단독] 중고생 11명, 초등학생 '상습 성폭행'…4명 구속) 10대 청소년 11명이 한 초등학교 여학생을 성폭행했다는 소식, 어제(26일) 전해드렸는데 또 다른 피해 사실이 드러났습니다. 이번 사건이 일어나기 전인 지난해 이 초등학생이 엄마의 지인인 남성들로부터 성폭행을 당했었던 건데 당시 제대로 된 치료도, 보호도 받지 못했습니다. [ https://news.sbs.co.kr/n/?id=N1005410917 ] G1 조기현 기자입니다. &amp;lt;기자&amp;gt; A 양은 앞서 지난해 8월에도 성폭행 피해를 입었던 것으로 취재 결과 드러났습니다. A 양 어머니와 알고 지내던 성인 남성 2명이 몹쓸 짓을 한 겁니다. 강원지방경찰청은 지난해 아동·청소년의 성보호에 관한 법률 위반 혐의 등으로 해당 남성 1명을 구속하고 1명을 불구속 입건했습니다. [경찰 관계자 : 기소의견으로 송치했고, 재발 방지를 위해서 분리 조치를 해 놨는데, 주변 환경이 그렇잖아요. 그러니까 제대로 보호가 안 된 거죠.] A 양은 최초 성폭행을 당한 이후 성폭력 피해 치료도 제대로 받지 못한 것으로 전해졌습니다. 해바라기 센터와 연계해 치료와 상담을 진행했지만 오지 않는 경우가 많아 센터 직원들이 직접 데리러 간 적도 많았다는 겁니다. 특히 A 양은 성폭행 피해 이후에도 보호자가 야간에 자주 집을 비우는 환경 속에 놓여 있었습니다. [강원도교육청 관계자 : 저희가 나중에 (집안 환경을) 알게 돼서, 나중에 이 학생을 어쨌든 분리해서 치료해야 할 필요가 있다는 판단이 들어서, 사실은 쉼터라든지. 엄마가 돌봄이 전혀 안 되니까…] 취재팀은 교육기관을 통해 A 양의 보호자와 연락을 시도했지만 연락이 되지 않았습니다. (영상취재 : 하정우 G1, 영상편집 : 김민수 G1)   ▶ 7개월 만에 또 성폭행 피해…교육청 "성적 호기심 강해"    [ https://news.sbs.co.kr/n/?id=N1005412761 ] G1 조기현 기자() ※ ⓒ SBS &amp;amp; SBS Digital News Lab. : 무단복제 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>[리뷰] '미(美)친 화질과 응답속도' LG 울트라기어 27GL850</t>
-        </is>
+      <c r="A77" s="1" t="n">
+        <v>76</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>게임을 즐기기 위해 준비하는 아이템에 대한 관심사가 다양해지고 있다. 과거에는 성능 위주였다면 최근에는 주변기기에도 관심을 두는 모습이다. 키보드, 마우스, 헤드셋 등 다양하지만 디스플레이에 대한 관심도 높아지는 추세다. 게이밍 환경이 고해상도와 고주사율 등 경험 위주로 발전하고 있기 때문이다. LG 울트라기어 27GL850. (출처=IT동아) 화려한 그래픽과 사운드, 조작감 등으로 다양한 짜릿함을 주는 게임. 다양한 장르가 존재하는데 국내에서 인기를 얻고 있는 주요 게임들은 민감한 조작이 필요한 것들이 많다. 리그 오브 레전드, 피파온라인, 배틀그라운드, 오버워치, 패스 오브 엑자일 등만 봐도 그렇다. 적이 어디에 있는지 빠르게 판단하고 민첩하게 키를 입력해 승리를 거머쥐어야 한다. 1초 이하의 찰나에 승패가 결정될 정도로 빠른 입력이 중요한 게임들이 최근 많아지고 있다. 이런 상황에서 방해 받는 요소는 바로 디스플레이. 게임은 입력과 출력이 실시간으로 이뤄지는 과정을 반복하게 되는데, 이 과정에서 미세하게나마 지연이 생긴다. 이를 '입력지연(Input Lag)'이라 부른다. 이를 막기 위해 많은 노력을 기울이는데, 모니터 또한 여기에 포함된다. 최근 게이밍 모니터들은 입력 지연을 줄이기 위해 화면 응답속도를 줄이고 있다. 일반적으로 3~5밀리초(ms) 정도면 빠른 것으로 분류된다. 하지만 이를 뛰어 넘는 1ms에 도달한 게이밍 모니터가 있다. 바로 LG 울트라기어 27GL850이 그것. 이 모니터는 1초에 화면이 144회 깜박이는 나노 IPS 디스플레이를 채택하면서 풍부한 색감과 고해상도(QHD – 2,560 x 1,440)를 구현했다. 엔비디아 지싱크 호환(G-SYNC Compatible)을 공식 지원하는 것도 특징이다. 게이밍 모니터 다운 완성도 돋보여 LG 울트라기어 27GL850의 디자인은 그간 LG 게이밍 모니터들과 비슷한 모습이다. 검은색과 붉은색을 적절히 조합했고, 외모를 날카롭게 다듬어 강한 인상을 준다. 이 모니터 역시 유광 재질을 최대한 배제해 묵직함을 더했다. 화려함을 강조한 효과는 없다. 흔히 고가의 게이밍 모니터는 LED 효과를 넣어 눈부시게 만들기도 하는데, 화면에 집중 가능하도록 불필요한 요소는 뺐다. LG 울트라기어 27GL850. (출처=IT동아) 모니터의 면적은 27인치(68.6cm) 정도. 화면이 휘어지지(커브드) 않은 평면이며 화면 테두리가 얇아 실제 보면 27인치보다 조금 더 작아진 듯한 인상이다. 실제 화면 테두리의 두께가 얇다. 하단을 제외하고 상단이 mm, 양쪽 측면이 mm에 불과하다. 화면이 시원하게 펼쳐져 있어 보는 맛이 좋다. 스탠드를 장착한 상태에서의 모니터 크기는 폭 614.2mm, 높이 574.8mm 정도이며, 모니터 자체의 두께는 약 56.3mm 정도다. 스탠드는 Λ 형상으로 자리만 충분하다면 모니터의 균형을 잘 잡아준다. 장착 자체도 간단하다. 모니터 하단에 있는 고정 홈에 스탠드 머리 부분을 끼워 넣기만 하면 된다. 스탠드 기능도 매력적이다. 기본적으로 높낮이 조절(Height), 모니터 각도를 앞뒤로 조절하는 틸트(Tilt), 화면을 90도 돌릴 수 있는 피벗(Pivot)을 지원한다. 모니터를 좌우로 돌리는 스위블(Swivel)은 지원하지 않는다. 모두 사용에 도움을 주는 기능들이다. 이로 인해 모니터 몸값이 상승하겠지만 사용성 측면에서 보면 이점이라 하겠다. 다양한 영상 입력 및 주변기기 확정성을 위한 단자가 제공된다. (출처=IT동아) 연결부 구성도 충실하다. HDMI 단자 2개, 디스플레이 포트 1개를 포함해 PC에 연결하기 위한 B 규격의 USB 단자(USB 2.0) 1개, 주변기기 연결을 위한 A 규격 USB 단자(USB 3.0) 2개가 배치된다. 헤드폰 연결을 지원하는 3.5mm 스테레오 단자도 포함된다. 이런 구성이면 PC와 콘솔 게임기 등 여러 출력 장치에 연결하는 것이 가능하다. 지싱크 호환 기술을 사용하려면 디스플레이 포트를 활용해야 된다. HDMI 단자는 전송 대역의 한계로 지원하지 않기 때문이다. 사용하지 않는다면 어떤 단자를 써도 무방하다. '지싱크 호환 + 1ms'로 민첩하고 부드러운 게이밍 경험 제공 LG 울트라기어 27GL850의 특징을 정리해보면 이렇다. 우선 ▲ 나노 IPS 디스플레이 적용 ▲ 1밀리초(ms) 수준의 응답속도 ▲ 엔비디아 지싱크 호환 기술 대응 ▲ 144Hz 고주사율 적용 등이다. 이 같은 구성은 게이밍은 물론, 함께 다양한 환경에서 최적의 경험을 제공하는데 도움이 된다. 흔히 게이밍 모니터는 뒤틀림 전환(TN – Twisted Nematic) 혹은 수직 전계식(VA – Vertical Alignment)을 쓴다. 반면, 이 모니터는 평면내 전환(IPS – In-Plane Switching) 구조를 적용한 것이 특징이다. LG 울트라기어 27GL850. (출처=IT동아) IPS 디스플레이는 액정이 수평으로 구동되는 원리를 이용하고 있다. 넓은 시야각과 빠른 응답속도 등이 장점으로 꼽힌다. 여기에 LG는 나노단위의 화점을 더해 색상을 더 정확하게 표현할 수 있도록 설계했다. 나노 IPS 디스플레이는 넓은 시야각을 자랑한다. 색반전 현상이 적은 편이다. (출처=IT동아) 그 덕에 모니터는 넓은 색영역을 지원한다. 디지털 영화협회(DCI)의 색역인 DCI-P3 98%, 일반 색역인 sRGB 135%에 대응한다. 색조와 명암 등을 넓게 표현할 수 있는 고관용도(HDR – High Dynamic Range)도 지원한다. 여기에 넓은 시야각이 더해지니 눈이 즐겁다. 명암비는 1,000대 1로 VA 혹은 TN 패널 기반의 모니터에 비하면 부족하지만, 밝기는 평균 350 칸델라(cd/㎡) 정도로 오히려 밝다. 색상 표현력은 HDMI 단자를 썼을 때 8비트(1,670만), 디스플레이 포트를 썼을 때 10비트(10억)까지 표현 가능하다. 시야각을 보니 만족스럽다. 제원은 178도 정도인데, 실제 좌우에서 봤을 때 색반전 현상을 거의 느끼기 어려울 정도다. 무리하게 측면에서 바라보면 색반전이 있지만 일상적인 환경이라면 문제는 없다. 개인이 쓰는 모니터지만 타인이 영상을 관전하거나 작업 내용을 확인할 때, 최대한 정확한 색상을 경험할 수 있다는 부분은 장점이라 하겠다. PC와 모니터를 디스플레이 포트에 연결한 다음, 윈도 바탕화면에서 엔비디아 제어판을 불러오면 지싱크 호환 설정이 가능하다. (출처=IT동아) LG 울트라기어 27GL850의 또 다른 특징은 가변 주사 동기화(Adaptive-Sync) 기술에 대응한다는 것. 이 제품 역시 엔비디아의 '지싱크 호환(G-SYNC Compatible)'의 인증을 받았다. 프리싱크를 지원하는 일부 중소기업 모니터가 지싱크 호환에 대응한다는 것과는 차원이 다르다. 엔비디아가 직접 모니터에 대한 품질 테스트를 진행했고, 이를 통과했기 때문에 공식 인증을 받았다. 엔비디아 홈페이지 내에도 공식 등록되어 있다. 지싱크 호환 기술을 활성화하는 방법은 이렇다. 우선 지포스 10 시리즈 이상 그래픽카드 장착 및 그래픽카드 드라이버는 최소 417.71버전 이상이어야 한다. 추가로 PC와 모니터 연결은 디스플레이 포트(DP) 케이블을 사용해야 된다. HDMI 케이블로는 대응하지 않는다. 이상 조건을 만족했다면 윈도 바탕화면 내에서 마우스 우클릭 후 '엔비디아 제어판'을 불러오자. 제어판을 보면 좌측에 'G-SYNC 설정'이 활성화 되어 있는데 이를 클릭하면 된다. 지싱크 호환 설정은 기본적으로 활성화가 활성화된 상태다. 여기에서 사용자는 전체 화면에서만 쓸지, 창 모드와 전체화면 등 대부분의 상황에서 지싱크 호환을 쓸지 여부를 확인하면 끝이다. 가변 주사 기술인 엔비디아 지싱크 호환에 대응, 게임을 즐길 때 부드러운 화면을 보여준다. (출처=IT동아) 지싱크 호환 기술이 된다면 자연스레 AMD 프리싱크 기술도 지원한다. 타 지싱크 호환 모니터와 마찬가지로 실제 라데온 그래픽카드에 모니터를 연결했더니 드라이버 내에서 프리싱크 활성화가 되어 있음을 확인할 수 있었다. 작동도 잘 된다. 전환 범위는 48에서 144Hz 사이다. 이는 곧 1초에 48매 이상 이미지가 표현되는 환경이라면 끊김 없이 부드러운 화면 전환을 지원한다는 의미다. 실제 게임을 즐겼을 때의 만족감은 높다. 초당 144회 깜박이는 모니터라는 점도 좋지만 가변 주사 동기화 기술(엔비디아 지싱크 호환)에 의한 부드러운 화면이 압권이라 해도 과언이 아니다. 기본적으로 초당 48매 이상 표시되는 환경이 유지되어야 한다는 한계는 있지만, 일정 성능 이상 나오는 게이밍 PC라면 쉽게 달성 가능한 부분이기 때문에 큰 문제라 보기 어렵다. 무엇보다 이것이 유지되면 눈에 가해지는 스트레스가 줄어든다. IT동아 내에 준비되어 있는 라이젠5 3600 프로세서와 라데온 RX 5700, 지포스 RTX 2060 슈퍼 등 그래픽카드로 구성된 게이밍 PC로 게임을 즐겨보니 그래픽 옵션을 높여도 끊김을 느낄 수 없었다. 무엇보다 반응 속도가 인상적이다. 사실, 일정 이하의 응답 속도라면 크게 느끼기 어렵지만 민감한 반응성이 필요한 게임에서는 입력 지연이 느껴질 수 밖에 없다. 1ms 정도라면 거의 바로 출력되는 수준. 이에 기자가 가끔 즐기는 리듬게임 '탭소닉 볼드'를 실행, 게임을 즐겨보니 부드러운 화면 전환도 그렇지만 입력에 따른 스트레스를 거의 느끼지 못했다. 실력의 한계로 실수가 생길 수 있어도 입력 지연에 따른 판정 실수는 거의 드물다는 이야기다. 배틀그라운드를 즐겼을 때도 동일한 인상을 받았다. 과거 즐겼던 환경에서는 입력에 따른 지연이 조금씩 느껴졌지만 LG 울트라기어 27GL850으로는 키를 입력하는 것과 거의 동시에 반응이 온다. 자연스레 입력에 대한 스트레스 없이 게임에 몰입할 수 있게 된다. 물론, 이를 가지고 치킨을 먹을 수 있느냐 없느냐는 별개의 문제다. 가격은 높지만 완성도는 기대 이상 LG 울트라기어 27GL850. 화면이 초당 144회 깜박일 정도로 높은 주사율, 1ms의 빠른 반응 속도, 광시야각 등 장점이 많다. 스탠드 활용성도 높다. 높낮이 조절은 기본이고 수직으로 세운 뒤 동일한 모니터 2~3개를 배치해 더 넓게 볼 수 있다. 지싱크 호환 기술의 대응은 게임을 더 부드럽게 즐기는데 도움이 된다. 여러모로 게이머를 위한 기능에 집중한 것이 이 모니터의 강점이라 하겠다. 영상이나 기타 작업을 할 때에도 이점이 있다. 나노 IPS 디스플레이 특유의 색표현 능력도 그렇지만, LG가 생산 단계에서 최적의 색상을 조율해 내보내기 때문에 기본 이상의 실력을 보여준다. 전문가용 모니터처럼 제품 내용물에 관련 결과표를 제공한다. 나노 IPS 디스플레이 덕에 영상 감상이 더 즐겁다. (출처=IT동아) 아쉬운 점이 있다면 가격. 여러 이점이 있다 하더라도 누구나 쉽게 접근할 수 없다면 매력이 떨어진다. 차라리 모니터 스탠드의 기능을 제한하거나 영상 입력 단자를 줄이는 식으로 가격을 조금 더 낮췄으면 좋겠다는 생각이 든다. 또한 지싱크 호환이라는 부분을 명확히 표기해 주면 소비자가 혼동을 최대한 줄일 수 있을 듯 하다. 그러나 이는 엔비디아의 문제이지 LG의 문제는 아니다. 게임을 즐기는 방법은 다양하다. 하지만 제대로 즐기기 위한 방법은 많지 않다. LG 울트라기어 27GL850은 그 해답 중 하나가 되지 않을까 예상해 본다. 1ms 반응속도와 144Hz 주사율, 지싱크 호환 등 많은 것을 한 번에 누리기 쉽지 않아서다. 동아닷컴 IT전문 강형석 기자 redbk@donga.com / ⓒ 동아일보 &amp;amp; donga.com, 무단 전재 및 재배포 금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=469&amp;aid=0000417104&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=18</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>아들 여자친구에 마약 투약한 50대 검거…성폭행 여부도 수사</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>아들 여자 친구에게 마약을 강제로 투약한 뒤 도주한 50대 남성이 경찰에 붙잡혔다. 경찰은 이 남성이 성폭행을 시도했다는 피해자 진술을 확보, 이 부분에 대해서도 수사를 벌인다는 방침이다. 27일 경기북부경찰청 마약수사대에 따르면 마약류 관리에 관한 법률 위반 혐의로 A(56)씨를 경기 용인시 백암면 한 노상에서 체포, 포천경찰서로 압송해 조사 중이다. A씨는 지난 15일 오후 3시쯤 포천시의 한 펜션에서 자기 아들의 여자 친구인 B씨에게 마약을 강제로 투약한 혐의를 받고 있다. 당시 B씨가 경찰에 신고하자 A씨는 승용차를 타고 도주했었다. B씨는 당시 경찰 조사에서 “A씨가 최근 힘든 일이 있었는데 위로도 해주고 상의할 일도 있다고 해 펜션에 따라왔다”며 “도착 후 ‘놀라게 해 줄 테니 눈을 감으라’고 했는데 갑자기 따끔한 느낌이 늘어 눈을 떠보니 (A씨가) 주사기를 들고 있어 바로 신고했다”고 진술했다. 경찰은 B씨에 대한 마약 간이 검사를 실시한 결과 필로폰 양성 반응이 나왔다. B씨는 남자친구와 3년간 교제하면서 집안 경조사에 참여하는 등 A씨와 친밀한 사이라 펜션으로 오는 과정에서도 크게 의심하지 않았던 것으로 조사됐다. 특히 경찰은 “A씨가 성폭행을 시도하려 했다”는 B씨의 진술을 확보, 이 부분에 대해서도 수사를 벌일 계획이다. 경찰은 차량을 이용한 도주 경로를 추적한 끝에 신고된 지 12일 만에 A씨를 체포했다. 이종구 기자</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>최태원 회장 “AI 등 혁신기술 없이 미래 담보 못해”</t>
-        </is>
+      <c r="A78" s="1" t="n">
+        <v>77</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SK가 디지털 트랜스포메이션(DT)과 인공지능(AI)등 혁신기술을 '딥 체인지(Deep Change)'의 핵심 동력으로 삼고, 이들 기술의 글로벌 경쟁력을 제고를 위해 그룹 역량을 결집시키기로 했다. 내년 초 그룹 인재 역량 강화를 위해 'SK 유니버시티' 설립도 검토한다. SK는 22일 막을 내린 '2019 이천포럼'에서 AI 등 '빅 트렌드'(Big Trend) 기술 전략적 중요성을 확인하고 이 같은 방침을 정했다고 밝혔다. 최태원 SK 회장은 22일 마무리 발언에서 “AI, DT 등 혁신기술을 활용해 사회적 가치를 창출하는 한편, 우리 고객 범위를 확장하고 고객 행복을 만들어 내야 한다”면서 “이를 통해 SK가 추구해 온 '딥 체인지'를 이룰 수 있다”고 밝혔다. 이번 포럼의 주요 의제로 다룬 4차 산업혁명 시대의 대표 기술이 고객 가치 창출로 연결돼야 한다는 점을 지적한 것이다. 최 회장은 특히, “거래비용을 최소화하고, 고객이 원하는 가치를 효과적으로 전달할 수 있게 하는 혁신기술을 활용하지 못하면 SK 미래를 담보할 수 없다”면서 디지털 기술 역량 강화는 '선택이 아닌 생존의 문제'임을 강조했다. 최 회장은 “이를 통해 우리의 고객이 누군지 재정의하고, 각 고객에게 맞춤형 가치를 제공해야 한다”며 '신뢰'를 기반으로 고객과 1대1 '관계'를 구축하는 데 힘을 쏟을 것을 주문했다. 내년 1월 출범을 목표로 한 그룹 차원의 교육 인프라 'SK 유니버시티' 설립을 제안한 것도 이 같은 혁신기술 역량을 내재화하고 우수 인재를 육성하기 위함이라고 최 회장은 설명했다. 이어 최 회장은 에너지·화학과 정보통신 기술을 접목한 '에너지 솔루션' 비즈니스 모델을 소개한 뒤 “앞으로 에너지 공급자 시각만으로는 에너지 산업 변화의 물결에서 생존할 수 없다”며 환경문제를 해결하면서 고객 가치를 높이는 에너지 솔루션형 비즈니스 모델 혁신에 박차를 가하겠다는 의지를 밝혔다. 끝으로 최 회장은 “나부터도 변화는 두렵고 달갑지 않은 일이지만 번지점프를 하듯이 두려움을 극복하고 자꾸 새로운 시도를 해야 '딥 체인지'를 이룰 수 있다”며 구성원들에게 “피할 수 없다면 변화를 즐기자”고 당부했다. 지난 19일부터 연 이번 포럼에는 최 회장과 조대식 SK수펙스추구협의회 의장 등 경영진과 임원 등 연인원 800여명이 참석해 국내외 석학과 전문가들의 강연을 듣고 열띤 토론을 벌였다. 또 구성원들은 전용 모바일 앱 등을 통해 이천포럼 내용을 실시간 시청하면서 강연자들과 질의·응답을 주고 받았다. 한편, 이번 포럼에서 화상강연을 한 제레미 리프킨 美 경제동향연구재단 이사장은 “SK가 새로운 개념의 에너지 솔루션 사업을 추진하는 것은 인류 전체의 지속가능한 성장을 위해서도 매우 중요하며 시의적절하다”고 평가했다. &amp;lt;노동의 종말&amp;gt;&amp;lt;엔트로피&amp;gt; 등을 저술한 세계적 석학인 리프킨 이사장은 지난 20일 강연에서 “인류가 지구온난화에 따른 파국을 피하기 위해서는 에너지 시스템을 근본적으로 혁신해 '탄소배출 제로 시대'에 진입해야 한다”며 이 같이 말했다. 이항수 SK수펙스추구협의회 PR팀장은 “DT, AI 등 첨단 기술이 SK가 추구해 온 사회적 가치와 '딥 체인지'를 구현할 수 있는 핵심 동력이라는데 구성원이 인식을 같이 한 만큼, 향후 이들 기술역량 강화에 박차를 가하게 될 것”이라고 말했다. 안호천 통신방송 전문기자 hcan@etnews.com [Copyright ⓒ 전자신문 &amp;amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933019&amp;date=20190828&amp;type=2&amp;rankingSectionId=102&amp;rankingSeq=19</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>검찰 수사 "당황스럽다"는 조국…사퇴 없이 청문회 간다</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>조국(54) 법무부 장관 후보자가 28일 출근길에서 "검찰 수사가 개시돼 좀 당황스럽다"고 말했다. 이어 "담담히 인사청문회 준비에 임하겠다"며 사퇴 의사가 없다는 뜻도 분명히 밝혔다. 검찰 수사를 받는 '피의자' 신분으로 국회 인사청문회에 참석할 가능성이 크다. ━ "검찰 수사 당황스럽다" 조 후보자는 이날 오전 출근길에 취재진과 만나 "인사청문회를 앞두고 검찰 수사가 개시돼서 좀 당황스럽다"며 "저희 가족들은 검찰 수사에 성실히 응할 것"이라고 밝혔다. 검찰은 전날 오전 수십 곳에 달하는 전방위적 압수수색을 통해 조 후보자에 대해 제기된 대부분의 의혹을 겨냥했다. 검찰은 최고 수준의 보안을 유지하며 청와대나 법무부에 사전보고 없이 압수수색에 나선 것으로 알려졌다. 조 후보자를 법무부 소속의 청문회 준비단 검사들이 돕고 있는 만큼 수사 상황이 흘러나가는 것을 차단하려는 의도로 풀이된다. 조 후보자는 출근길 도중 "압수수색을 당했다"는 친인척의 전화를 받고 검찰의 강제수사 착수 소식을 알았다고 한다. ━ "담담히 청문회 임할 것"…조국, 사퇴 없이 간다 자신을 둘러싼 각종 의혹에 대해 '적법하다'는 입장을 고수해 온 조 후보자는 '여전히 그렇게 생각하느냐'는 취재진의 질문엔 "검찰 수사를 통해 모든 게 밝혀질 것"이라며 "인사청문회 통해서 제가 드릴 말씀을 드리도록 하겠다"고 밝혔다. 중도 사퇴 없이 정면돌파하겠다는 의지를 다시 한번 밝힌 것으로 해석된다. 조 후보자는 '검찰 수사로 인해 답변하기 어렵다'며 방탄용으로 청문회에 임하는 것이 아니냐는 일각의 지적에 대해선 "제가 할 말은 다 드릴 것"이라며 "(증인으로) 출석해서 말씀하실 분들은 그분들 선택에 달려 있다고 본다. 제가 왈가왈부할 사안은 아니다"라고 말했다. 이어 "제가 드릴 수 있는 모든 것을 통해 충실히 소명하겠다"고 밝혔다. 앞서 압수수색 소식이 알려진 이후 야권에선 이번 검찰 수사 착수가 여권과 사전에 조율된 '방탄용 수사 아니냐'는 의구심이 제기됐다. 조 후보자가 국회 인사청문회에서 '수사에 영향을 줄 수 있다'며 답변을 회피할 명분을 줬다는 것이다. 이번 압수수색 대상에 포함된 대학 및 기관 등이 검찰 수사를 이유로 국회 자료 제출 요구를 거부할 수 있다는 관측도 나왔다. ━ 1시간 늦게 출근…사무실엔 응원 화환도 등장 조 후보자는 이날 평소보다 1시간가량 늦은 11시쯤 자신의 소형 SUV 차를 타고 청문회 준비단 사무실이 위치한 서울 종로구 적선현대빌딩에 도착했다. '왜 평소보다 늦었느냐'는 질문엔 "특별한 건 없다"고 답했다. 이날 조 후보자를 응원하는 화환과 꽃바구니 등이 조 후보자 사무실로 배달되는 모습이 취재진에 목격되기도 했다. 준비단 사무실 인근에선 보수단체의 '조 후보자 사퇴' 집회와 조 후보자 지지자들의 '힘내세요'란 응원 집회가 동시에 열려 눈길을 끌었다. 김기정 기자 kim.kijeong@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>블룸버그 "LG화학, 테슬라 中 상하이 공장에 배터리 공급"</t>
-        </is>
+      <c r="A79" s="1" t="n">
+        <v>78</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>중국 난징 신장경제개발구에 위치한 LG화학 전기차 배터리 1공장 전경. (사진=LG화학) LG화학이 미국 전기차 업체 테슬라의 첫 해외 생산기지인 중국 상하이 공장에 배터리를 공급할 것으로 보인다. 블룸버그통신은 23일 복수의 소식통을 인용해 “테슬라가 중국 상하이 공장에서 생산하는 전기자동차에 LG화학 배터리를 사용하기로 양사가 합의했다”고 보도했다. LG화학은 “고객사 관련 내용은 확인할 수 없다”고 공식 언급을 하지 않았으나 업계에서는 LG화학의 테슬라 공급을 기정사실로 받아들이고 있다. 보도에 따르면 LG화학이 테슬라에 공급하는 배터리는 기존 구형 배터리보다 용량이 큰 21700 셀로 난징 공장에서 생산된다. 테슬라는 상하이 공장에서 올해 말부터 본격 생산하는 '모델3'에 LG화학 배터리를 먼저 사용하고 콤팩트 크로스오버 차량인 '모델Y'가 내년 출시되면 해당 모델에도 사용할 예정이라고 통신은 전했다. 테슬라는 올 1월 초 상하이 린강산업구에 연산 50만대에 이르는 전기차 공장 '기가팩토리'를 착공했다. 배터리 업계에서는 LG화학의 테슬라 배터리 공급 가능성을 높게 봐왔다. LG화학은 테슬라 상하이 공장과 가까운 난징 신강 경제개발구에 위치한 배터리 공장 두 곳 외에 빈장 경제개발구에 전기차 배터리 2공장을 추가로 짓고 있다. 또 난징을 세계 배터리 수출 기지로 육성한다는 목표로 올해 1월 신강 배터리 공장 두 곳에 총 1조2000억원을 투자하기로 결정했다. 특히 테슬라 전기차에 탑재되는 원통형 배터리 생산량을 크게 늘리고 있다. 다만 테슬라는 LG화학 외에 다른 회사와도 배터리 구입 계약을 체결할 계획인 것으로 알려졌다. 블룸버그에 따르면 테슬라는 중국 최대 배터리 제조사 CATL과도 관련 협의를 진행 중이다. 정현정 배터리/부품 전문기자 iam@etnews.com [Copyright ⓒ 전자신문 &amp;amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011044914&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=20</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>조국 "청문회 앞둔 검찰 수사 당황스러워…모든 게 밝혀질 것"(종합)</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>"담담히 인사청문회 준비…청문회서 할 말 하겠다" 대통령 주치의 선정 관련 의혹엔 "전혀 알지 못하는 일" (서울=연합뉴스) 박초롱 기자 = 조국(54) 법무부 장관 후보자가 "인사청문회를 앞두고 검찰 수사가 개시돼 당황스럽다"며 "그렇지만 저희 가족은 검찰 수사에 성실히 응할 것"이라고 28일 밝혔다. 조 후보자는 이날 오전 11시께 인사청문회 준비단 사무실이 꾸려진 종로구 적선현대빌딩에 출근해 "그동안 과분한 기대를 받았음에도 그에 철저히 부응하지 못한 점에 대해 다시 한번 송구스럽다"며 검찰 압수수색에 대한 입장을 밝혔다. 조 후보자는 "(가족과 관련한 의혹이) 향후 형사 절차를 통해 밝혀질 것이 밝혀지리라 기대하고 있다"며 "저는 담담히 인사청문회 준비에 응하도록 하겠다"고 말했다. '제기된 의혹들이 적법한 행위였다는 입장에는 변화가 없느냐'는 취재진의 질문에는 "검찰 수사를 통해 모든 것이 밝혀질 것"이라며 "인사청문회에서 말씀드리겠다"고 말을 아꼈다. 검찰 수사가 시작됐기에 조 후보자가 청문회에서 "수사 중인 사안이라 답할 수 없다"는 말로 곤란한 질문을 피할 수 있지 않겠느냐는 예상도 나온다. 이에 대해 조 후보자는 "제가 할 말은 다 드릴 것"이라며 "제가 드릴 수 있는 모든 것에 대해 충실히 소명하겠다"고 밝혔다. 야당이 조 후보자 인사청문회에 가족을 증인으로 세우는 게 불가피하다고 주장하는 데 대해서는 "(증인 채택은) 국회가 결정할 사안으로 안다"고 답했다. 딸에게 장학금을 준 부산대 의학전문대학원 노환중 교수(부산의료원장)가 문재인 대통령의 주치의 선정에 영향력을 행사한 의혹이 있다는 보도에 대해선 "전혀 알지 못 하는 일"이라고 말했다. 가족이 투자한 사모펀드 관련자들이 해외로 출국한 사실에 대해서도 "모르고 있다"고 밝혔다. 딸의 입시 부정 의혹, 가족의 사모펀드 투자 등 가족을 둘러싼 의혹이 거세지자 미리 준비한 발표문을 들고 취재진 앞에 섰던 조 후보자는 이날은 발표문이나 수첩 없이 짧게 입장을 밝혔다. 인사청문회 준비단 사무실 앞에선 아침부터 '조국 응원합니다'라는 팻말을 든 지지자와 사퇴를 촉구하는 집회 참가자들이 맞서 떠들썩했다. 사무실로는 지지의 뜻을 담은 꽃바구니가 속속 도착하기도 했다. 검찰은 전날 고려대, 서울대, 부산대 등 대학 5곳과 가족이 투자한 사모펀드를 운용하는 코링크프라이빗에쿼티 사무실, 가족이 운영해온 학교법인 웅동학원 등을 20곳 이상 동시다발로 압수수색 하며 조 후보자 주변에 대한 강제수사에 돌입했다. 인사청문회를 앞둔 법무부 장관 후보자를 검찰이 수사하는 것은 처음이다. 검찰은 조 후보자 배우자 정경심(57) 씨, 처남 정모(56) 씨 등 의혹에 연루된 가족과 관련자 상당수를 출국 금지한 것으로 알려졌다. 검찰 최정예 부대인 서울중앙지검 특수부가 담당하는 수사가 본격화한 가운데 여야는 조 후보자에 대한 국회 인사청문회를 다음 달 2∼3일 열기로 합의했다. chopark@yna.co.kr</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>국민에 부담 떠 넘긴 '文 케어'</t>
-        </is>
+      <c r="A80" s="1" t="n">
+        <v>79</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>내년 건보료 3.2% 인상··· 3년 연속 ↑ [서울경제] ‘문재인케어’로 불리는 건강보험 보장성 강화정책으로 내년 건강보험료가 3.2% 인상된다. 지난해 건강보험 재정수지가 적자로 돌아선 가운데 3년 연속 건보료가 인상되자 정부에서 재정부담을 국민에게 전가하고 있다는 우려의 목소리가 잇따르고 있다. ★관련기사 5면 보건복지부는 지난 22일 건강보험정책 최고의결기구인 건강보험정책심의위원회를 열어 오는 2020년 건강보험료율을 3.2% 올린다고 밝혔다. 이에 따라 직장가입자의 보험료율은 현행 6.46%에서 6.67%로, 지역가입자의 부과점수당 금액은 현행 189원70전에서 195원80전으로 인상된다. 월평균 보험료를 보면 올 3월 기준 직장가입자는 11만2,365원에서 3,653원 오른 11만6,018원을 내야 한다. 지역가입자는 8만7,067에서 2,800원 인상된 8만8,867원을 내년부터 추가로 부담해야 한다. 정부는 건강보험 보장성 강화대책이 속도를 내면서 불가피하게 내년도 건강보험료율을 인상했다고 설명했다. 김재헌 무상의료운동본부 사무국장은 “건강보험 보장성 강화의 취지에는 동의하지만 재정확보 대책이 빠져 있다는 것이 가장 큰 문제”라며 “국고지원금 없이 국민을 볼모로 건강보험료를 올리는 문재인케어가 계속 시행되면 예상보다 빨리 적립금이 고갈되는 최악의 상황에 직면할 수 있다”고 말했다. /이지성기자 engine@sedaily.com | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933023&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=21</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>'부산 부부살해 사건' 용의자, 도주 닷새 만에 부산에서 덜미</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>부산서 발생한 부부살해 유력 용의자가 사건 발생 닷새 만에 경찰에 붙잡혔다. 경찰에 따르면 부산 남부경찰서는 28일 오전 10시 25분쯤 해운대구 한 모텔에서 용의자 A(56)씨를 검거했다. A씨는 범행 직후 부부 소유의 차를 훔쳐 경북 경주와 강원도 등지로 달아났다가 부산으로 다시 돌아왔다. A씨는 지난 23일 밤과 24일 새벽 사이 남구 한 식당에서 부부를 흉기로 찔러 숨지게 한 혐의를 받는다. 남편 B(63)씨는 방안에서, 아내 C(57)씨는 주방에서 발견됐으며 B씨는 복부와 목에 각각 한 차례, C씨는 복부에 두 차례 흉기에 찔린 흔적이 발견됐다. 사건 현장에서 발견된 흉기 손잡이와 마스크 등에서 A씨 DNA가 발견됐다. A씨는 피살된 부부와 친인척 관계다. 경찰은 다른 친척들에게도 스마트 워치를 지급하는 등 보호조치를 했다. 사건 현장 주변 폐쇄회로(CC)TV에는 A씨가 지난 23일 오후 10시 58분쯤 식당 근처에서 마스크로 얼굴을 가리고 흉기로 추정되는 물체를 든 채 서성거리는 장면이 포착됐다. 식당 바로 위층에는 부부의 집이 있는데 남편이 23일 오후 11시 13분쯤 먼저 귀가하고, 아내는 24일 새벽 0시 30분 귀가했다. 그 후 10분 뒤 A씨가 달아나는 모습이 CCTV에 담겼다. A씨는 살해된 부부의 제부로 경찰은 원한 관계로 인한 살해로 추정하고 있다. 경찰은 "A씨 범행 동기와 도주 경로에 대한 수사가 집중적으로 이뤄질 예정"이라고 밝혔다. 권혜림 기자 kwon.hyerim@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>지구급 외계행성 3개 찾았다…약 12광년밖 적색왜성 주변서 발견</t>
-        </is>
+      <c r="A81" s="1" t="n">
+        <v>80</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>'GJ 1061d 행성' 서식가능지역 위치 주목 스페인 우주과학연 리바스 박사, 논문초고 사이트에 공개 지구에서 약 12.08광년 떨어진 적색왜성 'GJ 1061' 주변에서 이 별을 도는 지구 크기의 외계행성 3개가 확인됐다. 이 중 가장 밖에 있는 'GJ 1061d' 행성은 표면에 액체 상태의 물이 있을 수 있는 이른바 '서식가능지역' 안에 있어 주목을 받고 있다. 과학전문 매체 phys.org 등에 따르면 스페인 우주과학연구소의 이그나시 리바스 박사가 이끄는 연구팀은 칠레 라 실라의 유럽남방천문대(ESO) 망원경을 이용해 GJ 1061 주변에서 찾아낸 외계행성 후보 관측 결과를 출간 전 논문을 모아놓는 논문 초고 사이트(arXiv.org)에 공개했다. 이 논문은 곧 영국왕립천문학회 월보(MNRAS)에 정식으로 실릴 예정이다. 연구팀은 지구 주변 작은 별을 집중적으로 관측하며 지구형 행성을 찾아온 '레드 닷(Red Dot)' 프로젝트의 일환으로 지구에서 20번째로 가까운 GJ 1061을 관측해 왔다. 연구팀은 시선속도법을 통해 별빛이 행성의 중력으로 미세하게 흔들리는 것을 포착해 행성의 존재를 찾아냈다. 이 방식은 대형 행성을 찾는 데 주로 이용돼 왔으나 최근 관측 방법이 개선되면서 소형 행성을 확인하는 데도 활용되고 있다. 관측 결과, GJ 1061 b~d 3개 행성은 지구의 1.4~1.8배 크기로 별을 3~13일 주기로 돌고 있다. 이는 태양계 수성의 공전 주기 88일과 비교할 때 별에 붙어있다시피 한 것이지만 GJ 1061이 질량이 낮은 적색왜성이어서 13일 주기의 d 행성에도 생명체가 존재할 수 있는 가능성이 있는 것으로 여겨지고 있다. GJ 1061은 태양과 비교해 질량은 10분의 1, 밝기는 1천분의 1에 불과하다. 지구에서 약 4.2광년 떨어진 가장 가까운 행성계의 별인 '프록시마 켄타우리'와 비슷하지만, 현재로선 프록시마 켄타우리보다 폭발 활동이 덜해 생명체에는 더 안전할 것으로 나타났다. 그러나 태양과 같은 별보다 수명이 훨씬 긴 적색왜성이 과거에 수백만년에 걸쳐 강한 폭발 활동을 했을 수도 있어, 가까이서 별을 도는 d행성의 대기가 생명체가 존재할 수 없을 정도로 파괴됐을 가능성도 있는 것으로 지적됐다. GJ 1061 행성계에는 b~d 행성보다 더 바깥 궤도를 가진 제4 행성으로 추정되는 천체도 발견했으나 추가 확인이 필요한 것으로 보고됐다. 디지털뉴스부기자 dtnews@dt.co.kr &amp;lt;연합뉴스&amp;gt; /</t>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933032&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=22</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>'서울대 82학번 동기' 원희룡 "친구 조국아, 이제 그만하자"</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>원희룡 제주도지사가 조국 법무부 장관 후보에게 후보 사퇴를 촉구하는 쓴소리를 했다. 자신의 개인 유튜브 방송인 ‘원더풀TV’를 통해서다. 조국 후보자와 서울대학교 법대 82학번 동기인 원희룡 지사는 27일 “제가 친구로서 조국 후보에게 권한다” 운을 띄우며 “대통령이 강행해 문재인의 조국이 될지 모르지만 국민의 조국으로서는 이미 국민들이 심판을 했다. 나름 순수했던 우리 동시대의 386 욕보이지 말고 부끄러운 줄 알고 이쯤에서 그만둬야 한다고 생각한다”고 조 후보자의 사퇴를 촉구했다. 원 지사는 “조국은 법무장관 후보 되기 전 임종석 등 문재인 정부 탄생과, 국정운영의 핵심에 바로 집권 실세 386세대”라면서 “시대가 바뀌었는데 자신들이 진리라고 착각하고 있는 시대착오적이고 시차적응을 못하는 화석화된 80년대 운동권 이데올로기 너무나 안타깝게 보고 있다”고 말했다. 386세대는 1980년대 대학을 다닌 1960년대생 세대를 말한다. 1990년대 사회활동에서 자리를 잡는 30대가 돼 386세대로 불린다. 이어 “조국이 현재까지 보여준 모습으로 내용적으로도 법무장관 자격있다고 생각하는 사람 거의 없는 것 같다”면서 “자격이 있어서가 아니라 진영논리 편싸움에서 밀려서는 안되기 때문에 밀고가야 한다. 이 논리 자체가 편가르기 진영 논리고 꼰대 집권 386의 폐해를 그대로 보여주는 것”이라고 말했다. 원 지사는 “조국을 민심의 이반에도 밀어붙이면 형식적인 장관이야 되겠지만, 그것이야말로 정권의 종말을 앞당기는 역풍이 될 것”이라며 “민심에 이반이 어마어마한 감당이 안 되는 수준으로 밀려오게 될 것이라고 확신을 갖고 말씀 드린다”고 했다. 그는 “386은 왕년에 정말 모든 걸 희생해 세상을 바꾸려 했다고 해도, 지금 젊은 세대들에게 강요하고 가르치려 하면 안 된다"면서 “젊은 세대의 현실과 현재와 미래에 대한 불안을 해소해 줄 수 있는 쪽으로 정치.경제·사회적 기득권을 나눠야 한다고 생각한다”고 밝혔다. 한편 원 지사는 지난 27일 서울 중구 태평로 프레스센터에서 열린 '대한민국 위기극복 대토론회'에서 문재인 정부를 강도높게 비판하고, 황교안 자유한국당 대표를 중심으로 한 보수통합의 견해를 피력했다. 제주=최충일 기자 choi.choongil@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=055&amp;aid=0000754855&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=23</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>승리, 이번엔 '원정도박 혐의' 경찰 출석…"심려 끼쳐 죄송"</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>해외 원정 도박 의혹이 불거진 그룹 빅뱅의 전 멤버인 승리(본명 이승현·29)가 28일 경찰에 출석했습니다. 이른바 클럽 '버닝썬' 사태로 경찰 조사를 거쳐 검찰에 넘겨진 지 65일 만입니다. 승리는 이날 오전 9시55분쯤 정장 차림으로 변호사와 함께 서울 중랑구 묵동 서울지방경찰청 지능범죄수사대에 피의자 신분으로 출석했습니다. 승리는 "불법도박 혐의를 인정하느냐"는 취재진 질문에 "성실한 자세로 경찰 조사에 임하겠다"며 "다시 한번 심려를 끼쳐 죄송하다"고 짧게 답한 뒤 조사실로 향했습니다. 승리는 "외국환거래법 위반 혐의를 인정하느냐", "도박 자금은 얼마나 썼느냐" 등 이어진 질문에는 답하지 않았습니다. 승리는 미국 라스베이거스 호텔 카지노를 드나들며 도박을 하고 이른바 '환치기' 수법으로 도박 자금을 조달한 혐의(상습도박·외국환거래법 위반)를 받습니다. 승리의 전 소속사 대표인 양현석 전 YG엔터테인먼트 대표 프로듀서도 같은 혐의로 입건된 상태입니다. 경찰은 이날 승리에게 첩보 내용을 바탕으로 혐의 전반에 대한 내용을 물어볼 방침입니다. 앞서 승리는 지난 6월 25일 특정경제범죄 가중처벌 등에 관한 법률 위반(횡령)·성매매알선 등 행위의 처벌에 관한 법률 위반 등의 혐의로 검찰에 기소 의견으로 송치됐습니다. 승리는 동업자 유인석(34) 전 유리홀딩스 대표와 공모해 서울 강남 클럽 '버닝썬' 자금 5억 여 원을 횡령한 혐의를 받습니다. 또 2015년 12월부터 이듬해 1월까지 외국인 투자자 일행을 상대로 수차례에 걸쳐 성매매를 알선하고 본인이 직접 성 매수를 한 혐의도 있습니다. 오는 29일에는 양 전 대표가 경찰에 출석해 조사를 받을 예정입니다. 양 전 대표도 상습도박·외국환거래법 위반 외에 성매매알선 혐의로도 입건 된 상태입니다. 그는 2014년 서울의 한 고급식당에서 외국인 재력가를 접대하면서 유흥업소 여성들을 동원해 성접대를 한 의혹을 받고 있습니다. (사진=연합뉴스)  이기성 기자(keatslee@sbs.co.kr) ※ ⓒ SBS &amp;amp; SBS Digital News Lab. : 무단복제 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011043829&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=24</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>"조국 교수님, 사퇴하세요"…서울대 총학, 오늘 2차 촛불집회</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>총학이 촛불집회 직접 주최…"학생증·졸업증명서 확인" (서울=연합뉴스) 김철선 기자 = 조국(54) 법무부 장관 후보자와 딸 조모(28)씨에 제기된 의혹을 두고 조 후보자의 모교인 서울대 총학생회가 28일 후보직 사퇴를 요구하는 촛불집회를 연다. 총학은 이날 오후 7시 30분 서울대 관악캠퍼스 학생회관 앞 광장 아크로에서 '제2차 조국 교수 STOP! 서울대인 촛불집회'를 개최할 예정이다. 서울대 학생들은 지난 23일에도 같은 장소에서 촛불집회를 열었다. 다만 총학이 조 후보자 사퇴를 공식 입장으로 정함에 따라 개인 단위의 학생들이 주도했던 지난 집회와 달리 이번 촛불집회는 총학이 직접 주최한다. 집회 방식은 지난 집회와 같이 사전발언과 자유발언을 중심으로 이뤄질 예정이다. 다만 총학은 특정 정당이나 외부 세력이 개입했다는 일부 시선을 의식해 집회 참여자들을 대상으로 서울대 학생증이나 졸업증명서를 확인할 방침이다. 총학은 지난 26일 입장문을 내고 "원칙과 상식이 지켜지는 나라, 정의가 살아있는 사회를 위해 조국 후보자의 사퇴를 강력하게 촉구한다"고 밝혔다. 총학은 "조 후보자의 딸이 고등학교 시절 2주간의 인턴십만으로 SCIE급 논문의 제1저자가 되었다는 점 등 제기된 의혹들에 서울대를 비롯한 청년 대학생들의 분노가 커지고 있다"며 "배신감을 느끼는 국민의 목소리를 뒤로한 채, 조 후보자는 명확한 답변을 거부하고 있다"고 말했다. 그러면서 "'법적 문제는 없다'며 후안무치의 태도로 일관하는 조 후보자가 법무부 장관이 돼선 안 된다는 목소리가 크다. 조 후보자는 후보직을 사퇴해야 한다"고 주장했다. 한편 조 후보자가 교수로 재직 중인 서울대 법학전문대학원 학생들도 조 후보자를 둘러싼 최근 논란에 관해 입장을 낼지를 논의 중이다. 학생들은 이달 29일 전학대회를 열고 법전원 학생 명의 공식 입장문 발표 여부와 내용 등을 정할 예정이다. 전날 검찰은 조 후보자 딸에 제기된 장학금 부정수급 의혹과 관련해 서울대 환경대학원과 서울대 장학복지과 등을 대상으로 압수수색을 벌였다. kcs@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=011&amp;aid=0003609906&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=25</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>조국, 압수수색 관련 "검찰 수사 당황스럽다. 가족들 수사 성실히 응할 것"(속보)</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>[서울경제] 조국 법무부 장관 후보자가 28일 오전 출근길에서 검찰 수사 관련 입장을 밝혔다. “검찰 수사 당황스럽다. 검찰 수사 통해 밝혀질 것이라 기대” “가족들 수사 성실히 응할 것” “청문회에서 제가 소명할 수 있는 부분 충실히 할 것” “청문회에 가족 부르는 것은 국회가 결정할 사안” “과분한 기대 받았음에도 기대 부응 못 해 송구” | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=008&amp;aid=0004269487&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=26</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>"뱃살 귀엽다" 이종현 추정 메시지 공개…BJ 박민정 누구?</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>[머니투데이 한민선 기자] [박민정은 구독자 24만명 유튜버…누리꾼 "이종현, 정신 못 차렸다" 분노] 아프리카TV BJ이자 유튜버인 박민정이 그룹 씨엔블루 멤버 이종현으로 추정되는 인스타그램 이용자로부터 "뱃살 너무 귀엽다"는 메시지를 받았다고 밝힌 가운데 BJ 박민정에게 관심이 쏠린다. 박민정은 28일 오전 인스타그램 스토리(24시간 동안만 공개되는 게시물)에 캡처 사진을 올렸다. 공개한 사진에 따르면 아이디 'cnbluegt'를 사용하는 인스타그램 이용자는 지난 21일 오전 박민정에게 "유튜브 너무 잘 보고 있다"며 "재밌는 거 많이 올려주세요"라고 메시지를 보냈다. 이어 27일 오전에는 "뱃살 너무 귀엽다"고 말했다. 박민정은 이에 답장을 하지 않았다. 박민정은 캡처 사진을 올리며 "씨엔블루 이거 진짠가"라고 설명을 덧붙였다. 'cnbluegt'는 이종현이 사용해 온 인스타그램 아이디다. 이종현은 정준영 대화방 사건이 불거진 지난 3월15일 게시물을 삭제하고 계정을 비공개로 전환했다. 아이디와 프로필 사진은 공개 상태다. 1995년생인 박민정은 아프리카TV 애청자 10만4000여명, 유튜브 구독자 24만5000여명을 보유하고 있다. 친오빠와 '남매 방송'을 진행하거나 토크 방송 등을 진행하고 있다. 귀여운 얼굴과 글래머러스한 몸매로 인기를 끌고 있다. 앞서 지난 3월 이종현이 가수 정준영(30)과 승리(본명 이승현·29) 등이 포함된 카카오톡 단체 대화방에서 정준영 등이 촬영한 불법 동영상을 공유받은 사실이 알려졌다. 이종현은 이를 보고 "빨리 여자 좀 넘겨요. O 같은 X들로", "어리고 예쁘고 착한 X 없어? 가지고 놀기 좋은ㅋㅋㅋ"등의 글을 남겼다. 이와 관련해 소속사 측은 이종현이 불법 촬영물을 공유받고 부적절한 대화를 나눈 사실을 인정했다. FNC 엔터테인먼트는 "이종현은 깊은 후회화 자책을 하고 있다"며 "공인으로서 모든 언행을 조심할 것이며 반성하고 또 속죄하겠다"는 입장을 발표한 바 있다. 누리꾼들은 언행을 조심하겠다던 이종현이 여성 유튜버에게 불필요한 메시지를 보낸 것에 대해 분노하고 있다. 누리꾼들은 "원래 사람은 안 바뀐다", "습관 못 버리네", "정신 못 차렸다" 등의 반응을 보였다. 한민선 기자 sunnyday@mt.co.kr &amp;lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933078&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=27</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>그곳만 자정까지 압수수색 했다···檢수사 핵심은 '조국 펀드'</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>조국(54) 법무부 장관 후보자와 가족을 둘러싼 비리 의혹을 수사 중인 검찰이 사모펀드 위법성을 가리기 위한 수사에 초점을 맞추는 것으로 알려졌다. 이를 위해 해외로 출국한 핵심 인사 귀국을 요청하는 한편, 계좌추적에도 들어갔다. 28일 검찰 등에 따르면 서울중앙지검 특수2부(부장 고형곤)는 조 후보자의 부인 정모(57)와 두 자녀가 함께 10억5000만원을 출자한 사모펀드 운용사 코링크 프라이빗에쿼티(PE)를 전날 자정 무렵까지 압수수색했다. 부산대 의학전문대학원 등 전국 20여곳에 달하는 수사 대상 장소 가운데 가장 늦게까지 압수수색이 이뤄졌다. 코링크PE의 이모(40) 대표와 이 회사의 실소유주로 의심받는 조 후보자의 5촌 조카 조모(36)씨, 코링크PE가 투자한 2차 전지회사 전 대표 우모(60)씨 등은 일찌감치 해외로 출국한 것으로 전해졌다. 이 대표가 가장 최근에 언론에 노출된 시점은 지난 16일이다. 이 대표는 이후 19일 이언주 무소속 의원이 대표로 있는 시민단체 행동하는 자유시민이 서울중앙지검에 업무상 배임 혐의로 고발한 이후 자취를 감췄다. 검찰 내부에서도 이 대표의 출국 소식이 포착된 뒤 강제 수사로 들어가야 한다는 의견이 나온 것으로 전해졌다. 검찰도 이들에게 귀국해 수사에 협조해달라고 요청했지만 실제로 이뤄질 가능성은 크지 않다. 수도권에 근무하는 한 부장 검사도 “고발 전후에 출국한 핵심 관계자가 검찰 요청으로 자진해서 귀국한 사례는 거의 없다”고 말했다. 코링크PE가 운용하는 사모펀드 ‘블루코어밸류업1호’에는 조 후보자의 부인 정씨가 9억5000만원, 두 자녀 명의로 5000만원씩 직계가족들이 모두 10억5000만원을 투자했다. 출자금은 조 후보자의 처남 정모(56)씨와 그의 두 아들이 투자한 3억5000만원을 포함한 14억원이 전부다. 사실상 조 후보자 일가의 ‘가족 펀드’로 불리는 이유다. 검찰은 전날 조 후보자 처남 정씨의 자택을 압수수색하기도 했다. 블루코어밸류업1호는 2017년 가로등점멸기를 생산한 웰스씨앤티에 7억원을 투자해 최대주주가 됐고, 이후 매출이 급증했다. 정점식 자유한국당 의원이 지난 22일 조달청으로부터 제출받은 자료에 따르면 웰스씨앤티는 2017년 8월부터 지난달까지 지방자치단체와 공공기관 44곳에 모두 177건을 납품했다. 코링크PE는 2017년 실적 악화로 어려움을 겪던 교육업체를 인수해 사명을 바꾸고 2차전지 음극재 사업을 시작하기도 했다. 이 과정에서 3700~4800원 선을 오가던 주가가 7500원(지난해 2월)까지 오르기도 했다. 현재 주가는 다시 3300원 선까지 떨어진 상태다. 정점식 의원 측은 “검찰 압수수색으로 코링크PE 내부 문서를 확보해 실질 소유주가 누구인지 가려야 한다”며 “서류상으로는 이 대표가 소유주이지만 조 후보자 5촌 조카가 총괄 대표로 활동하는 등 실질적인 영향력을 행사해왔다”고 말했다. 그러면서 “금융감독원이나 조달청 등 공식 문서로는 실질 소유자를 가려내는 데 한계가 있다”고 설명했다. 한편 검찰은 조국 후보자 의혹 사건과 관련해 압수수색 한 증거물을 분석하고 있다. 전날 20여 곳에서 한꺼번에 모인 자료라 분석에도 상당한 시간이 소요될 것으로 예상한다. 검찰 관계자도 “당분간은 압수물 분석에 집중할 예정”이라고 밝혔다. 서울중앙지검은 이번 수사를 위해 3차장 산하 특수 1~4부와 공정거래조사부‧조세범죄조사부‧방위사업수사부 등 7개 부서 수사관을 모두 투입한 것으로 전해졌다. 검찰 내부에서도 한 기업에 수사관 수십명이 몰려가는 사건은 있어도 전국에 흩어져 있는 장소를 이같이 동시다발적으로 압수수색한 것은 이례적인 것으로 보고 있다. 검사장 출신 변호사는 “의혹이 부풀려져 있다고 판단되는 경우 선제적으로 압수수색 장소를 3~4배 늘려 대응하는 것도 한 수사 기법”이라고 말했다. 김민상 기자 kim.minsang@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=055&amp;aid=0000755008&amp;date=20190828&amp;type=2&amp;rankingSectionId=102&amp;rankingSeq=28</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>아들 여자친구 속여 마약 주사한 50대, 동기 '횡설수설'</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 &amp;lt;앵커&amp;gt; (▶ [단독] 아들 여자친구에 강제 마약 투약…증거 있는데 수사 '미적') 아들의 여자친구를 불러놓고 강제로 마약을 주사했던 50대 남성이 도주 12일 만에 경찰에 붙잡혔습니다. 도망 다니면서도 마약류에 손을 댔던 것으로 드러났습니다. [ https://news.sbs.co.kr/n/?id=N1005405177 ] 유수환 기자입니다. &amp;lt;기자&amp;gt; 자신의 아들과 3년간 교제해온 20대 예비 며느리를 펜션으로 유인해 필로폰을 강제 투약한 56살 김 모 씨. 피해자가 신고한 지 8분 만에 경찰이 현장에 도착했지만, 그전에 달아났습니다. 도피행각은 치밀했습니다. 펜션에서 타고 나온 렌터카는 경찰 추적을 피해 15분 정도 떨어진 야산 근처에 버렸습니다. 또 위치를 추적당하지 않도록 휴대전화 전원을 꺼놓고 피해 다녔습니다. 경찰은 김 씨의 거주지에서 잠복수사를 벌였지만, 소득은 없었습니다. 결정적 단서는 김 씨 아내의 승용차에서 나왔습니다. 범죄 차량으로 등재한 아내 차량에 김 씨가 타고 있다는 정황이 포착된 겁니다. 즉시 추적에 나섰고 어제(27일)저녁 6시 20분쯤, 경기도 용인에서 잠복 끝에 김 씨를 붙잡았습니다. 도주 12일 만이었습니다. 경찰 조사 결과 김 씨는 마약 전과가 있는 것으로 확인됐는데, 체포 당시 마약 간이 검사에도 양성 반응을 보인 것으로 드러났습니다. 도망 다니면서도 마약을 투약한 겁니다. 경찰은 아들 여자친구에게 마약을 주사한 이유가 무엇인지, 피해자 진술처럼 성폭행 의도가 있었던 것인지 추궁하고 있습니다. 하지만, 김 씨는 마약 투약 이유에는 횡설수설하면서도 성폭행 의사는 없었다고 주장한 것으로 알려졌습니다. (영상취재 : 배문산, 영상편집 : 전민규)     유수환 기자(ysh@sbs.co.kr) ※ ⓒ SBS &amp;amp; SBS Digital News Lab. : 무단복제 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=437&amp;aid=0000218396&amp;date=20190828&amp;type=2&amp;rankingSectionId=102&amp;rankingSeq=29</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>뇌사 사망사고 났던 '그 성형외과'서 또…CCTV도 없애</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 [앵커] 그런데 지난해에도 이 성형외과에서 수술을 받던 20대 대학생이 심정지로 숨졌습니다. 당시 저희 뉴스룸이 수술실의 CCTV 영상을 입수해서 이 소식을 전해드렸습니다. 그런데 보도가 나간 뒤에 이 병원은 CCTV를 없애버렸습니다. 오선민 기자가 취재했습니다. [기자] &amp;lt; JTBC '뉴스룸' (2018년 9월 12일) &amp;gt; 지난해 9월, JTBC가 보도한 수술실의 CCTV 영상입니다. 20대 대학생이 이곳에서 코 수술을 받다가 뇌사 상태에 빠진 뒤 사망했습니다. 유가족에 합의금을 6억 원을 전달하고 사건은 마무리됐습니다. 이번에 심정지로 뇌손상에 이른 A씨도 바로 이 병원에서 안면윤곽술을 받았습니다. A씨의 변호인은 사고 뒤 법원에 수술실의 CCTV 영상을 볼 수 있게 해달라고 요청했습니다. 법원이 이를 받아들였지만 성형외과는 CCTV를 제출하지 못했습니다. [성형외과 원장 (A씨 측과 대화 중) : 작년 방송 나온 거…저희도 그거 때문에 CCTV도 다 없애고 한 건데요. 저희가 어느 정도 미숙한 부분도 있었겠지만 너무 일부분만 편집해서 보도한 것 같아서 속상해서 없앤 거거든요.] 현행법상 수술실에 CCTV를 설치하는 것은 의무가 아닙니다. 또 사고가 나도 의사 면허는 대부분 유지돼 언제든 병원을 다시 열거나 옮길 수 있습니다. A씨를 수술했던 의사도 다른 성형외과에서 진료 중인 것으로 확인됐습니다. 의료기관을 견제할 수 있는 장치가 필요해 보입니다. 이곳은 국회 보건복지위원회 회의장 앞입니다. 지난 5월 수술실에 CCTV를 의무적으로 설치하는 내용의 의료법 개정안이 발의됐습니다. 법안심사소위로 넘어갔지만 아직 논의조차 되지 않고 있습니다. 지난 19대 국회에서도 발의된 법안인데, 의료계가 반대해 폐기됐습니다. 중대한 환자의 안전사고를 의무적으로 보고하게 하는 환자안전법 개정안도 법사위 문턱을 넘지 못했습니다. 현행 환자안전법은 보고할지 말지를 자율에 맡깁니다. 지난해 총 9250건이 접수됐습니다. 매년 증가하는 추세지만 월 평균 10만 건 넘게 보고되는 선진국과 비교하면 아직 미미합니다. 보고된 사고를 분석한 결과입니다. 낙상이나 투약 같은 경미한 사고가 대부분입니다. 정부 산하인 국립중앙의료원에서도 지난 3년간 139건의 안전사고가 일어났습니다. 하지만 단 한 건도 보고하지 않았습니다. 안전사고로 목숨을 잃는 환자는 교통사고 사망자의 2배가 넘습니다. 그러나 아직 제대로된 실태조사도 이뤄지지 않고 있습니다. (영상디자인 : 박성현·오은솔) ◆ 관련 리포트 코 수술받던 대학생, 뇌사로 사망…응급조치 CCTV 봤더니 → 기사 바로가기 : http://news.jtbc.joins.com/html/445/NB11695445.html ◆ 관련 리포트 성형외과서 '안면윤곽술' 받던 20대, 심정지로 뇌손상 → 기사 바로가기 : http://news.jtbc.joins.com/html/082/NB11872082.html 오선민 기자 (oh.sunmin@jtbc.co.kr) [영상취재: 정상원 / 영상편집: 김지훈] Copyright by JTBC(http://jtbc.joins.com) and JTBC Content Hub Co., Ltd. All Rights Reserved. 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=020&amp;aid=0003237776&amp;date=20190828&amp;type=1&amp;rankingSectionId=102&amp;rankingSeq=30</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>‘사노맹 출신’ 백태웅, 윤석열에 “조국 수사자료, 청문회까지 봉인을”</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>조국 법무부 장관 후보자(54)가 가담했던 남한사회주의노동자동맹(사노맹) 공동위원장 출신인 백태웅 미국 하와이대학교 로스쿨 교수(56)는 28일 검찰을 향해 “압수수색으로 확보한 자료를 청문회가 끝날 때까지 봉인하라”고 주장했다. 전날 검찰이 조 후보자 가족을 둘러싼 의혹을 확인하기 위해 서울대와 웅동학원 등 30여 곳을 압수수색한 것을 겨냥한 것이다. 백태웅 교수는 이날 페이스북을 통해 “정치는 정치인들이 하게 맡기고 검찰이 정치에 직접 개입하는 것을 자제하는 것이 진정 민주주의와 정의를 세우는 길”이라며 “윤석열 검찰총장님, 조 후보자 담당 검사님, 압수수색으로 확보한 자료들은 일단 봉인하고 청문회 절차가 모두 끝난 후 천천히 검토하시길 부탁드린다”라고 썼다. 그는 “오늘날 한국의 형사 사법적 정의는 인간의 존엄과 가치, 인권의 보장 관점에서 보면 검찰 수사와 구속과 징역형이 지나치게 남발되는 심각한 문제가 있다”라며 “국회와 정부가 스스로의 권능을 잘 행사하게 하고, 사법부와 법조계는 자신의 영역에서 필요한 취소한 정도의 개입을 하는 삼권 분립 속에서 법치주의와 민주주의가 꽃피는 사회를 보고 싶다”라고 말했다. 그는 “우리 검찰이 정치에의 개입을 최소화하는 것이 국민이 진정 신뢰하는 검찰이 될 수 있는 길”이라며 “조국 법무부 장관 후보자의 청문회가 아무 제약 없이 자유로이 진행되는 모습을 보고 싶다”고 밝혔다. 백 교수는 조 후보자의 서울대 법대 1년 선배다. 조 후보자는 1980년대 말 대학원 조교로 있으면서 사노맹 사건을 주도한 백 교수를 도왔다가 1993년 국가보안법 위반 혐의로 구속돼 5개월간 구치소 생활을 했다. 조 후보자는 “사노맹 핵심 간부였던 백 교수가 고향·학과 선배여서 자금 지원과 글을 써주기도 했다”며 “나는 사노맹에 이견도 있었다. 세상살이가 그것(사상)만 갖고 되는 것은 아니지 않느냐”고 2010년 동아일보에 말했다. 조 후보자는 14일 인사청문회 준비 사무실로 출근하면서 “장관 후보자가 되고 나니 과거 독재정권에 맞서고 경제민주화를 추구했던 저의 1991년 활동이 2019년에 소환됐다. 저는 28년 전 그 활동(사노맹)을 한 번도 숨긴 적이 없다. 자랑스러워하지도 않고 부끄러워하지도 않는다”라고 말했다. 정봉오 동아닷컴 기자 bong087@donga.com ⓒ 동아일보 &amp;amp; donga.com, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=079&amp;aid=0003264835&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=1</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>김제동이 눈물로 전한 '오늘밤' 마지막 위로</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>[CBS노컷뉴스 이진욱 기자] "2019년 8월 29일…여러분과 함께하는 마지막 '오늘밤 김제동'… 생방송으로… 10시 56분 지나고 있습니다." 지난 29일 밤 방송된 KBS 1TV 생방송 시사토크쇼 '오늘밤 김제동'에서 진행자 김제동은 오프닝 멘트가 끝나기 무섭게 미소를 잃지 않으려고 애쓰며 고개를 숙였다. 붉어진 눈시울을 감추기 위함이었다. 지난해 9월 10일 첫 방송을 시작으로 1년 가까운 시간 동안 매주 월~목요일 밤 시청자들을 찾아온 '오늘밤 김제동'이 이날 187회를 끝으로 막을 내렸다. 이날 중간중간 북받치는 감정을 애써 눌러가며 준비된 소식을 모두 전한 김제동은, 방송 말미 시청자들에게 마지막 인사를 건네기 시작하자마자 눈물을 보였다. 감정을 추스르려 애써도 울먹임은 쉬이 멈추지 않았다. "마칠 시간입니다. 1년 동안… 수고해 준… 프로그램을 제안하고 함께해 준, 그리고 열심히 해 준 우리 작가·제작진… 시청자들이 어느 프로그램에서든 더 많이 응원해 주고, 이 프로그램 뒤에서 고생했던 사람들 기억해 주시면 좋겠습니다. 그리고 무엇보다도… 밤 늦게 함께 시청해 주신 시청자들이 안 계셨다면 이 프로그램은 있을 수 없는 프로그램이었습니다." 김제동은 "언론이라는 이름으로 불리우기보다는 우리 이야기를 하는 프로그램으로 남고 싶었습니다"라며 말을 이어갔다. "많이 응원해 주시고 많이 지켜봐 주셔서 고맙고요…. 부족했던 점이 있거나 화난 점이 있으셨다면 너그럽게 또 용서해 주시면 고맙겠습니다…. 여러분의 더 나은 내일을 항상 응원하고요, 여러분의 내일은 된장찌개 간이 딱 (맞아) 떨어졌으면 좋겠고, 여러분의 내일은 신발의 좌우 뒷굽축이 잘 맞았으면 좋겠고, 그리고 스프에서… 다시마 2개 나왔으면 좋겠고, 그리고… 여러분이 하루를 마치고 돌아온 그 자리에… '수고하고 애썼다'라고 말하는 사람이 있는… 그런 내일이 됐으면 좋겠습니다." 그는 "힘 없는 사람에게 힘이 생기기를… 그리고 말할 수 없는 자들에게 목소리가 생기기를…그리고 일어날 수 없는 사람들에게 더 나은 힘이 되는… 굳건한 버팀목들이 늘 여러분 곁에 있었으면 좋겠습니다"라며 "여러분의 내일이 더 나아지기를, 여러분이 믿으시는 각자의 종교 이름으로 진심으로 기도합니다"라고 위로와 응원의 메시지를 전했다. 이어 "여러분, 문득문득 행복하십시오. 더 나은 내일을 기다리는 오늘밤 김제동이었습니다. 시청자 여러분… 진심으로 고맙습니다"라며 시청자들을 향해 깊이 고개를 숙였다. jinuk@cbs.co.kr 저작권자 © CBS 노컷뉴스 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933554&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=2</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>목포 찍고 명륜동·영종도까지, 아이유 호텔 가볼까?</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>━ [여기 어디?] ‘호텔 델루나’ 나이: 1300세(추정) 직업: 귀신 전용 호텔 ‘델루나’ 사장 거주지: 서울 명동 취미: 맛집 투어 TV 드라마 ‘호텔 델루나’의 주인공 장만월(아이유)의 간략한 신상명세다. 장만월이 워낙 신출귀몰하다 보니 ‘호텔 델루나’를 통해 가볼 만한 장소가 제법 생겼다. 전남 목포의 원도심, 서울 익선동 등 과거와 현재가 공존하는 공간이 유독 많다. 종영을 앞둔 ‘호텔 델루나’에서 체크아웃하는 게 아쉬우신가. 그럼 따라오시라. 호텔로 변신한 옛 일본영사관 ‘호텔 델루나’는 귀신만 머무는 ‘령빈(靈賓) 전용 호텔’ 델루나에서 벌어지는 이야기다. 밖에서는(인간의 눈에는) 아담하고 낡은 건물로 보이지만, 실내는(귀신에게는) 아방궁이 따로 없다. 서울 한복판 명동 어딘가에 이런 호텔이 있다는 설정. 하나 실제 서울에는 이런 건물이 없다. 목포에서 외관을 따로 촬영했다. 유달산(228m) 노적봉 기슭에 걸터앉아 원도심을 내려다보는 건물. 바로 목포근대역사관 1관이다. 목포근대역사관 1관은 델루나 못지 않게 사연이 많다. 1897년 목포를 개항한 일본이 1900년 세운 일본영사관이다. 목포에서 가장 오래된 근대 건물로, 해방 이후 목포시청·도서관·목포문화원 등으로 활용되다 5년 전 역사관으로 탈바꿈했다. 당시 일본에서 공수한 붉은 벽돌과 대리석 벽난로 등이 원형 그대로 남아있다. 촬영 로케이션을 담당한 박동선씨는 “특유의 색감과 적당히 낡은 분위기가 오랜 세월 귀신의 안식처가 된 델루나와 잘 맞았다”고 설명했다. 현재 목포근대역사관 1관은 목포 최고의 핫플레이스다. 100명 안팎이던 하루 입장객이 요즘은 1500명을 훌쩍 넘긴다. 건물 외벽에 임시로 설치한 담쟁이덩굴 모형 덕분에 사진도 잘 나온단다. “한복과 근대 의상 차림으로 놀러 오는 10대, 20대가 부쩍 늘었다”고 이옥희 문화관광 해설사도 증언한다. 담쟁이덩굴 모형은 9월까지 유지할 계획. 역사관에서 무료로 한복과 태극기 등을 빌려준다. 입장료 어른 2000원, 어린이 500원. 영화 ‘1987’에서 연희(김태리)가 살던 ‘연희네슈퍼’도 목포근대역사관에서 1㎞ 거리에 있다. 장만월 먹방 코스 따라가 볼까 델루나 외관은 목포근대역사관에서 촬영했지만, 내부는 아니다. 객실마다 완전히 다른 세계를 품고 있어 촬영지도 다양하다. 이를테면 미스터리에 싸인 404호 객실은 익선동의 카페 ‘호텔 세느장’에서 촬영했다. 79년 세운 쎄느장 여관을 지난해 동유럽 호텔 분위기의 카페로 다시 열었다. 장만월이 미라(박유라)를 초대했던 놀이동산은 인천 영종도에 위치한 파라다이스시티의 테마파크 ‘원더박스’가 배경이다. 호텔 야외 수영장 장면은 동해 망상 해수욕장에서 찍었다. ‘호텔 델루나’에서 맛집 탐방을 엿보는 재미가 빠질 수 없다. 맛집 찾아다니며 인증샷 찍는 게 장만월의 취미 아니던가. 장만월의 인스타그램 계정도 실제 존재한다. 그의 일상 및 맛집 방문 기록이 깨알 같이 담겨 있다(팔로워 약 70만 명. 아이유가 직접 운영한다). 이 계정만 따라 다녀도 근사한 여행 코스가 나온다. 장만월이 “‘먹고 죽은 녀석들’에서 만두 서른 판을 해치운 맛집”이라고 소개한 곳은 서울 명륜동의 복고풍 만두집 ‘창화당’이다. 장만월과 구찬성(여진구)이 왼쪽 구석 창가 자리에 앉아 찐만두와 지짐만두를 먹었다. 장만월이 김준현의 찹쌀떡 먹방에 감탄하던 집은 을지로 3가 ‘커피한약방’이다. 조선 시대 병자를 돌보던 혜민서 자리에 위치한 카페로, 실제로는 찹쌀떡 대신 커피를 판다. 글·사진=백종현 기자 baek.jonghyun@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011051357&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=3</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>이정옥 高3 딸 저서에 인도대통령 추천사…"내가 도와" 인정(종합)</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>딸 대입 조력 의혹에 "국민 눈높이 안 맞는 처신 반성" 野 "고3이 대형출판사서 책 내고 논설위원 지인이 칼럼으로 극찬…엄마 찬스 써" (서울=연합뉴스) 양정우 기자 = 이정옥 여성가족부 장관 후보자는 30일 딸이 고교 3학년 때 부모 도움을 받아 쓴 책을 활용해 연세대에 '무수능 전형'으로 합격했다는 의혹에 대해 "국민 일반 눈높이보다 우위를 점했다. 이해가 어려우신 점 충분히 알고 송구스럽게 생각한다"고 사과했다. 이 후보자는 이날 국회 여성가족위 인사청문회에서 자유한국당 송희경 의원이 "딸이 '엄마 도움'으로 스펙을 쌓아 명문대를 갔다"고 지적하자 이런 입장을 내놨다. 이 후보자는 딸의 저서에 압둘 칼람 당시 인도 대통령이 추천사를 써준 것이 '엄마 도움 아니냐'는 주장에 대해 "칼람 (대통령) 추천사는 내가 도왔다고 볼 수 있다"고 인정했다. 그는 압둘 칼람 전 대통령의 자서전 '불의 날개'를 번역했는데, 이를 연결고리로 인도 대통령에게서 딸 저서에 넣을 추천사를 받았다는 의혹이 제기돼 왔다. 이 후보자는 '엄마 덕분에 딸이 스펙을 쌓아 대학에 입학했다'는 한국당 신보라 의원의 거듭된 지적에도 "대학이 (딸 저서의) 추천사만 보고 입학을 결정했다고 생각하지는 않지만, 국민 눈높이에 맞지 않는 처신에 대해서는 깊이 반성하고 있다"고 거듭 사과했다. 이 후보자의 딸은 중학교 3학년이던 2003년 8월 아버지인 충남대 김모 교수를 따라 미국으로 건너가 현지 프린스턴 고교에 다녔다. 이후 한국에 귀국해 미국에서 경험 등을 담은 책을 고교 3학년 1학기 때인 2007년 7월 냈다. 책에는 칼람 당시 인도 대통령과 KTF 사장의 추천사가 실렸다. 이와 관련해 송 의원은 자녀가 부모의 도움을 받아 스펙(이력) 쌓는 것을 "엄마 찬스"라고 규정하며 이 후보자 딸이 "엄마 찬스를 여러 번 썼다"고 주장했다. '엄마 찬스'의 사례로는 ▲ 고교 3학년이었던 이 후보자 딸이 모친 지인을 통해 대형 출판사에서 책을 낸 점 ▲ 인도 대통령이 책을 번역한 이 후보자와 관계를 계기로 책 추천사를 써준 점 ▲ 이 후보자와 책을 세 차례나 공동 집필했던 언론사 논설위원이 이 후보자 딸의 책을 극찬한 칼럼을 쓴 점 등을 꼽았다. 송 의원은 이 후보자 딸이 수능 점수가 필요 없는 '글로벌리더' 전형을 통해 연세대 법대에 입학했다며 "딸의 성적을 보면 국어는 4, 3등급, 영어는 2등급인데 저 등급으로는 '인서울(서울 내 대학)'을 못 한다고 한다"고 주장했다. 이에 대해 이 후보자는 "글자 하나 (딸의 대학) 원서 쓰는 것 도와준 적은 없다"면서 "(딸이) 1학년 야간 자습 때 틈틈이 쓴 글을 (출판사에) 드렸고, 출판 기획에 돌입한 것도 2006년 6월의 일"이라며 딸 대학 입학이 정당하게 이뤄졌다는 주장을 고수했다. 이 후보자 딸이 부친과 함께 일본에서 1년간 초등학교에 다닌 이력이 청문회 제출 서류에서 고의로 누락됐고, 이런 조기 유학은 불법이라는 주장도 제기됐다. 이 후보자는 한국당 전희경 의원이 불법 유학을 인정하냐고 묻자 "당시 법령을 충분히 살펴보지 못했는데 의원님 질의에 입각해 보니 위반 가능성이 있다고 본다"며 불법 유학 소지가 있음을 인정했다. 하지만 이 후보자는 조국 법무부 장관 후보자 딸의 '논문 제1저자' 논란 등 조 후보자 자녀와 관련된 입장을 묻는 야당 의원들의 거듭된 질의에는 "충분히 검토하지 못했다", "말씀드릴 위치가 아니다" 등의 말로 즉답을 피했다. eddie@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=023&amp;aid=0003470551&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=4</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>현대車 '파비스' 신형 트럭 출격</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>최대 13.5t 적재 가능한 준대형 현대차가 신형 트럭 '파비스 〈사진〉 '와 중형 전기버스 '카운티EV'를 29일 경기 일산 킨텍스에서 국내 처음 공개했다. 다음 달 공식 출시되는 파비스는 엑시언트(대형)-메가트럭(중형)-마이티(준중형)-포터(소형)로 이어지는 현대차 트럭 제품에 새롭게 추가되는 준대형급(적재 용량 5.5~13.5t)이다. 그동안 중소형 트럭 시장에서 강세를 보인 현대차는 준대형을 추가해, 수입 대형 트럭 수요를 일부 흡수하겠다는 전략이다. 대형 트럭은 볼보·만·스카니아 등 수입 트럭 회사들이 강세를 보이고 있다. 현대차 관계자는 "대형 트럭의 넓은 운전석·적재 공간, 첨단 운전자 보조 시스템과 중형 트럭의 경제성·실용성 등 양쪽의 장점을 모두 모아놓은 새로운 차"라고 말했다. 마을버스·통학버스 등을 겨냥한 카운티EV는 기존 전기버스·수소버스 각 1종씩 있던 친환경 버스 제품 라인을 확대하려는 것이다. 기존 디젤 모델인 카운티보다 차량 길이가 60㎝ 길고, 128㎾의 대용량 배터리가 탑재돼 1회 완충 시 주행거리가 200㎞다. 급속 충전하면 72분 만에 완전 충전이 가능하고, 연료비가 기존 디젤차의 3분의 1 수준이다. 공식 출시 시기는 2020년 상반기다. 현대차는 이날 2025년까지 친환경 상용차를 17종(전기차 7종, 수소차 10종)으로 늘리겠다고 밝혔다. 승용차와 따로 정해져 있는 상용차 이산화탄소 배출 규제를 맞추기 위해서다. 먼저 12월, 스위스에 현대차 최초의 수소트럭을 10대 공급하고 2025년까지 1600대를 판매할 계획이다. 이인철 현대차 상용사업본부장(부사장)은 "장거리 운송이 필요한 중대형 트럭과 고속버스는 수소차로, 도심 물류 수송이나 중소형 버스는 전기차로 개발하겠다"고 말했다. 현대차는 9월 1일까지 일산 킨텍스에서 여는'현대 트럭앤버스 비즈니스페어'에서 이 차들을 전시한다. [류정 기자 well@chosun.com] - Copyrights ⓒ 조선일보 &amp;amp; chosun.com, 무단 전재 및 재배포 금지 -</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=028&amp;aid=0002466317&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=13</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>주머니고양이의 극단적 번식…짝짓기 뒤 수컷 모두 죽어</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>[애니멀피플] 몸무게 20∼40g으로 쥐처럼 생긴 소형 유대류 먹이 풍부한 9월초 짝짓기에 모든 걸 쏟아부어 길바닥 여기저기 죽은 매미가 나뒹군다. 여러 해에 걸친 땅속 생활을 마친 매미가 불과 몇 주 동안 벌인 짧고 강렬한 짝짓기 철을 마친 것이다. 매미처럼 평생 한 번 짝짓기하고 삶을 마치는 번식전략은 곤충에서 흔하지만, 포유류에서도 드물게 나타난다. 오스트레일리아 북서부 필바라 지역에 서식하는 ‘칼루타’란 주머니고양잇과의 동물이 그런 식으로 번식한다는 사실이 밝혀졌다. 제네비 헤이스 오스트레일리아 서호주대 생태학자 등 오스트레일리아 연구자들은 ‘동물학 저널’ 봄 호에 실린 논문에서 “번식기 전까지 암·수 성비가 비슷하지만 격렬하고 짧은 짝짓기 철이 벌어진 뒤 암컷보다 훨씬 크고 건강하던 수컷은 모두 죽는다”고 밝혔다. 연구자들은 “평생 한 번 번식하고 죽는 전략이 주머니고양잇과에서 독립적으로 두 차례 진화한 것으로 드러났다”며 “이런 극단적 번식법의 등장이 우연이 아니라는 것을 보여준다”고 설명했다. 오스트레일리아와 뉴기니에 75종이 사는 주머니고양잇과 동물의 약 20%가 이런 식으로 번식한다. 흰개미 등 곤충을 잡아먹는 칼루타는 무게 20∼40g으로 쥐처럼 생긴 소형 유대류이다. 10달이면 성숙하는데, 먹이가 풍부해지는 9월 초 2주일 동안의 짝짓기에 모든 걸 쏟아붓는다. 일처다부제이지만, 수컷은 가능하면 많은 암컷과 한 번에 14시간에 이르는 교미를 한다. 수컷은 짝짓기철 1∼2달 전부터 정자 생산을 멈추고 대신 치열한 짝짓기 경쟁에 대비해 남성호르몬인 테스토스테론과 스트레스 호르몬인 코르티솔을 생산에 나선다. 이런 전략은 수컷의 몸에 치명적 대가를 부른다. 스트레스와 탈진으로 면역체계가 붕괴해, 짝짓기 뒤 피부병, 내출혈, 감염 등으로 모든 수컷이 새끼가 태어나는 걸 보지 못하고 죽는다. 연구자들은 “실험실에서도 짝짓기를 마친 수컷은 고환 수축과 정자 고갈 등 생식기관 노화로 다시 번식에 이르지 못한다”며 “암컷은 대체로 2차례 번식해 한 번에 8마리까지 새끼를 낳는다”고 밝혔다. 이처럼 극단적인 번식 방법이 진화한 이유는 뭘까. 먼저 암컷은 수정하기 전 며칠 동안 여러 수컷과 짝짓기해 정자를 보관한다. 그 결과 “정자 경쟁이 치열해 큰 수컷일수록 몸집에 견줘 훨씬 큰 고환을 지니는 것으로 나타났다”며 “수컷은 오래 사는 것을 포기하는 대가로 더 많은 암컷을 수태시키는 쪽을 선택했다”고 연구자들은 밝혔다. 헤이스 박사는 “오스트레일리아 고유종인 이 유대류가 호주의 다른 포유류와 달리 멸종위험에 빠지지 않은 것도 이런 빠른 생활사 덕분”이라고 밝혔다. ■ 기사가 인용한 논문 원문 정보: Hayes, G. L. T. et al. Male semelparity and multiple paternity confirmed in an arid-zone dasyurid. Journal of Zoology (2019). https://doi.org/10.1111/jzo.12672 조홍섭 기자 ecothink@hani.co.kr [ⓒ한겨레신문 : 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011051211&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=6</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>"비가 온 뒤 땅이…" 박양우 장관에게 덕담 건넨 일본 문화장관</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>(인천=연합뉴스) 이웅 기자 = "비가 온 뒤 땅이 굳는 법이죠." 시바야마 마사히코(柴山昌彦) 일본 문부과학상이 박양우 문화체육관광부 장관에게 건넸다는 덕담이 눈길을 끈다. 한중일 문화장관회의 참석차 방한한 시바야마 문부과학상은 본 회의 하루 전 인천 송도 컨벤시아에서 열린 한일 문화장관 양자회의에서 카운터파트인 박 장관을 먼저 만났다. 시바야마 문부과학상은 모두 발언을 하면서 "박양우 장관의 이름이 좋은 것 같다"고 말문을 열었다. 박 장관의 이름은 '양우', 한자로는 '良雨'. 뜻을 새겨서 풀면 '좋은 비'라는 의미다. 시바야마 문부과학상은 뒤이어 '비가 온 뒤 땅이 굳는다'는 속담이 있다면서 "비록 정치, 경제적으로 양국이 어려운 상황이지만 문화교류는 지속적으로 진행돼야 한다고 생각한다"고 말했다. 이 같은 발언은 30일 본 회의인 제11회 한중일 문화장관회의 직후 문체부 관계자의 브리핑을 통해 알려졌다. 시바야마 문부과학상은 역사, 외교, 무역, 안보 문제가 얽힌 양국 갈등의 해법을 찾기 어려운 상황에서 문화 분야의 협력 논의를 풀어가기 위한 나름의 실마리를 박 장관의 이름에서 찾은 셈이다. 두 장관은 문화 분야에 집중하고 소모적인 논쟁을 피하자는 전제하에 협의를 시작했다고 한다. 그 결과 양국 외교 갈등에도 문화교류는 지속해야 한다는 공감대를 서로 확인하고 '한일축제한마당' 등 문화 행사를 통한 교류·협력을 추진하자고 합의했다. 시종 밝은 두 장관의 표정은 지난 21일 베이징 한중일 외교장관회의 당시 한일 외교장관의 냉담했던 표정과 대비된다. 시바야마 문부과학상은 일본 집권 자민당 총재특보를 지낸 유력 정치인으로 작년 10월 취임했다. 시바야마 문부과학상은 전날 한국으로 출발하기 전 트위터에 "격동의 국제정세 중에 일중한 문화장관회의에 임합니다. 미디어에서도 크게 주목받고 있다고 합니다"는 글을 올리기도 했다. 실제로 이번 회의는 25명의 일본 취재기자가 현장을 지키는 등 100여 명의 한중일 취재진이 몰려 전례 없이 취재 열기가 뜨거웠다. abullapia@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=014&amp;aid=0004285821&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=7</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>건강해지고 싶다면.. 일주일에 딱 2시간 이렇게 &lt;연구&gt;</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>[사진=픽사베이] /사진=fnDB [파이낸셜뉴스] 일주일에 한 번, 자연 속에서 2시간만 있어도 건강 증진과 웰빙에 크게 도움이 되는 것으로 나타났다. 과학 학술지 '사이언티픽 리포츠'에 실린 이 연구 결과는 영국인 2만명을 대상으로 한 주 동안의 활동과 건강 상태에 관한 설문조사를 분석한 것이다. 이에 따르면 자연 속에서 시간을 적게 보내거나 아예 자연 속으로 나가지 않은 응답자 가운데 4분의 1은 건강이 좋지 않았고 절반 가량은 자신의 삶에 만족하지 않는다고 답했다. 반면, 자연 속에서 일주일에 2시간 이상 보낸 응답자 가운데 건강이 좋지 않다고 답한 사람은 7명 중 한 명에 불과했다. 또 삶에 만족하지 않는다는 응답자도 3분의 1 정도였다. 연구진은 자연 속에서 2시간을 보낼 때 한 번에 길게 하든 짧게 여러 번 하든 큰 차이는 없으며, 2시간 이상을 보내도 추가되는 효과는 없다고 설명했다. 그간 자연이 신체적·정신적 건강에 도움이 된다는 사실은 잘 알려졌지만, 자연 속에 얼마나 있어야 효과가 나타나는지에 대한 주요 연구는 이번이 처음이다. 연구를 이끈 엑서터 의과 대학의 매슈 화이트 박사는 "젊은층과 노인층, 부유층과 빈곤층, 도시민과 농·어촌 주민 등에 상관없이 모두 똑같이 적용된다"면서 "자연 속에서 운동을 하지 않고 단순히 벤치에 앉아있는 것만으로도 건강에 도움이 될 수 있다"고 조언했다. #건강 #공원 #산책 #산 #자연 #웰빙 imne@fnnews.com 홍예지 기자 ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=008&amp;aid=0004270769&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=8</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>韓·中·日 관광장관 머리 맞댄다…얼어붙은 관광교류 어떻게?</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>[머니투데이 송도(인천)=유승목 기자] [30일 인천서 '한중일 관광장관 회의' 개최…한일갈등·유커재개 등 관광 이슈 다룰지 관심] 한일 관계가 연일 악화일로로 치닫는 등 동북아 정세가 안개 속을 헤매는 가운데 한국과 일본, 중국 관광장관이 인천에서 머리를 맞댄다. '일본여행 보이콧'과 '유커(중국인 단체여행객) 제한' 등 꽉 막힌 3국 관광교류의 물꼬를 트는 계기가 될지 주목된다. 30일 문화체육관광부에 따르면 이날 오후 4시 박양우 문화체육관광부 장관과 뤄슈강 중국 문화여유부 부장, 이시이 게이치 일본 국토교통상이 인천 송도 컨벤시아에서 '제 9회 한중일 관광장관 회의'를 갖고 3국 관광 협력 및 교류 증진 방안을 논의한다. 이번 회의는 국가 간 문화·관광 교류 증진을 위한 연례 행사지만, 최근 민감한 한일 정세와 맞물려 높은 관심을 사고 있다. 우리 정부가 한·일 군사정보보호협정(GSOMIA·지소미아)를 종료하고 일본이 '백색국가' 배제 조치를 본격 실행한 상황에서 첫 한일 각료가 만나는 자리이기 때문이다. 최근 한일 양국의 관광교류는 주춤하는 모양새다. 지난달 일본의 수출규제로 시작된 한일 경제갈등이 전방위적으로 확산하며 양국 관광산업도 영향을 받아서다. 지난해 양국을 오간 관광객이 사상 처음으로 1000만 명을 돌파할 만큼 관광교류가 절정에 달했지만 반일, 반한 감정이 높아지며 지난달 방일 한국관광객이 7% 가량 줄어드는 등 관광산업이 침체기를 맞는 것 아니냐는 우려가 나오고 있다. 한중 관광시장도 여전히 답답하다. 2016년 '사드(THAAD·고고도미사일방어체계)'사태로 중국 정부가 '한한령'을 내리며 닫혀버린 방한 중국인 단체관광 시장이 여전히 열리지 않고 있다. 방한 중국인 개별관광객은 올해 초부터 서서히 늘어나고 있지만 유커의 발길은 재개되지 않고 있다. 우리 국민들의 주요 여행지 중 하나인 홍콩의 정세불안으로 인한 여행안전에 대한 우려도 해결해야 하는 문제다. 이 같은 문제로 국내 관광업계에서는 민간 교류 증진을 위한 실질적인 해법들이 도출되길 바라고 있다. 일본 관광시장이 위축하며 국내 아웃바운드(내국인의 해외여행) 업계의 피해가 예상되기 때문이다. 특히 지난달부터 지자체 차원에서 일본과의 교류를 끊는 등 민간 뿐 아니라 공공 영역에서도 관광교류 축소 움직임이 보인다는 점에서 우려가 크다. 오창희 한국여행업협회장은 지난 7일 '국내관광 활성화를 위한 더불어민주당 현장 최고위원회'에서 "국민이 자발적으로 일본을 가지 말자고 하는 부분은 여행업계에서 아무런 이의가 없다"면서도 "관광은 민간교류가 중요한데 일부 지자체에서 청소년 교류까지 막고 있다. 정치·외교적 문제로 민간교류를 막는 것을 자제해주면 좋겠다"고 말하기도 했다. 하지만 시급한 관광 현안들과 관련한 이슈가 회의석상에서 직접적으로 다뤄질 지는 미지수다. 한일 양국 관계가 일촉즉발로 치닫는 상황에서 관광 분야 협력을 논의하는 것은 다소 부담스럽다는 관측이다. 이번 회의가 매년 열리는 연례행사라는 점에서 본래 취지인 문화·관광교류를 확대해야 한다는 원론적인 입장만 확인하는 정도로 그칠 가능성이 높다. 일각에선 일본이 적극적으로 양국 관광교류 활성화 주장을 내세울 것이라는 예상도 내놓는다. 지난달 방일 한국인 관광객이 전년 대비 7.6% 감소하고 지방도시의 관광객 발길이 뚝 끊기는 등 피해가 가시화하고 있어서다. 이시이 게이치 일본 국토교통상은 이번 회의를 위해 한국을 방문하기 전 "한일 간에 풀어야 할 과제가 있다"면서도 "인적교류는 상호 이해의 기초이며 관광교류는 중요하다"고 밝히기도 했다. 한편 이날 관광장관 회의에 앞서 열린 한중일 문화장관 회의에서 3국 장관들은 미래 세대의 교류 증진을 비롯, 문화산업 교류를 통한 동아시아 경제 활성화에 기여하기로 뜻을 모으고 공동합의문 '인천선언문'을 발표했다. 이날 선언에는 문화와 관광의 융합발전 시대에 발 맞춰 3국 문화관광콘텐츠 개발 장려 및 지원 등의 내용이 담겼다. 송도(인천)=유승목 기자 mok@mt.co.kr &amp;lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=015&amp;aid=0004200884&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=21</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>'타다 타고 어디가?'…방탄소년단 정국, 매니저 없이 휴가 즐기다 '조각미모 과시'</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>그룹 방탄소년단 멤버 정국이 장기 휴가 중 깜짝 근황을 공개했다. 정국은 29일 오후 방탄소년단 공식 SNS에 "아미 여러분 잘 지내시고 있죠? 저는 여러분들 덕분에 너무 행복한 하루하루를 보내고 있습니다. 너무 고마워요"라는 글과 함께 차 안에서 찍은 셀카 사진을 게재했다. 장기 휴가중 처음으로 일상을 공개한 정국의 모습에 아미들은 열광했으며 길게 기른 머리카락에도 가려지지 않는 조각같은 비주얼이 특히 눈길을 끌었다. 팬들은 정국의 뒤편으로 보이는 차량 유리를 통해 그가 신개념 모빌리티 플랫폼 시스템 '타다'를 이용 중임을 감지했다. 타다는 론칭 6개월만에 가입 회원 50만명, 운행 차량 1000대, 1회 이상 운행 드라이버 4300명을 돌파한 플랫폼이다. 타다는 애플리케이션을 다운 받은 후 휴대폰 번호로 간편하게 가입이 가능하며 24시간 이용 가능하다. 팬들은 "정국이도 타다 타는구나", "타다 드라이버님은 손님이 정국인줄 아셨을까? 부럽다", "타다 타고 어디가 정국아? 타다 기사님 너무 부러워. 즐거운 휴가 보내길"이라고 열띤 반응을 보였다. 한편 정국이 속한 방탄소년단은 12일부터 첫 장기 휴가에 돌입했다. 방탄소년단은 10월 11일 사우디 아라비아 수도 리야드에 위치한 킹 파드 인터내셔널 스타디움(KING FAHD INTERNATIONAL STADIUM)에서 스타디움 투어 ‘LOVE YOURSELF: SPEAK YOURSELF(러브 유어셀프: 스피크 유어셀프)' 공연을 연 후 10월 26일, 27일, 29일 서울 송파구 잠실 올림픽 주경기장(Olympic Stadium)에서 대규모 스타디움 투어의 막을 내릴 예정이다. 이미나 한경닷컴 기자 helper@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933653&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=10</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>의협, 조국 딸 논문 '자진철회촉구' 기자회견 돌연 취소한 이유</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>대한의사협회가 장영표 단국대의대 교수의 논문 자진 철회를 촉구하는 긴급기자회견을 예고했다가 갑자기 취소했다. 장 교수는 조국(54) 법무부 장관 후보자의 딸 조모(28)씨를 제1 저자로 하는 의학논문의 책임저자다. 의협은 30일 낮 12시로 예정됐던 '연구윤리 위반 의혹 교수 논문 자진 철회 촉구' 긴급기자회견을' 3시간 전 돌연 취소했다. 의협은 전날 이 논문 책임저자인 장 교수를 지목하며 논문 자진 철회를 촉구하겠다고 예고했다. 박종혁 의협 대변인은 "의사 회원들이 윤리적으로 워낙 엄격하다보니 회견에 대해 우려하는 목소리가 높아 취소하게 됐다. 조 후보자 딸 논문과 관련해 그간 회원들 사이에서 '의료계에 대한 신뢰가 무너졌다'는 목소리가 계속 나왔다. 의학논문을 대충 써도 되는 듯이 알려졌다. 사실 이 분(장 교수)이 이 쯤 논란이 되면 논문을 자진철회할거라 생각했는데 아니었다. 빠른 사태 수습을 위해 장 교수에게 논문 자진철회를 촉구하려고 했다"고 설명했다. 박 대변인은 "기자회견을 결정한 뒤에 회원들 사이에서 자진철회 촉구가 관련 의혹 조사의 공정성에 영향을 미칠 수 있다는 우려가 제기됐다. 워낙 예민한 사안이다 보니 내부 논의 끝에 기자회견을 보류하기로 했다"고 말했다. 조 후보자의 딸은 단국대 의과학연구소의 2주간 인턴십 프로그램에 참여한 뒤 2008년 12월 대한병리학회에 제출된 영어 논문에 제1 저자로 이름을 올렸다. '출산 전후 허혈성 저산소뇌병증(HIE)에서 혈관내피 산화질소 합성효소 유전자의 다형성'이라는 제목의 이 논문은 이듬해 3월 병리학회지에 게재됐다. 의협은 논문에 고교생인 조씨가 제1저자로 등재된 배경에 의혹이 있다며 장 교수를 중앙윤리위원회 징계 심의에 회부했다. 윤리위는 24일 해당 안건 심의를 시작했지만, 아직 결론을 내리지 않았다. 이에스더 기자 etoile@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=005&amp;aid=0001234422&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=11</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>‘엽기떡볶이’ 튀김서 이물질 발견… “사실여부 명명백백 확인 중”</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>프랜차이즈 ‘동대문엽기떡볶이’가 판매하는 튀김에서 고무장갑 조각으로 추정되는 이물질이 발견됐다는 의혹이 제기됐다. 본사 측은 “이런 일이 발생하지 않도록 만전을 기하겠다”면서도 “아직 사실확인 중에 있다”며 조심스러운 입장을 내놨다. 배달 앱을 통해 주문한 엽기떡볶이 세트에 포함된 튀김에서 푸른색 이물질이 발견됐다고 위키트리가 29일 보도했다. 사진을 살펴보면 튀김 안에 하늘색 이물질이 섞여있는데, 주문자는 고무장갑의 손가락 쪽이 잘려 들어간 것으로 추정했다. 본사 측은 “아직까지 이물질이 들어간 경위 등에 대해서 밝혀진 것은 없다. 사실관계를 명명백백 확인하고 있다”며 “식품의약안전처에 신고를 의뢰하고 제조 업체에 이물질 소명 및 유입경로를 파악을 요청했다”고 전했다. 이어 “ 최우선 과제를 위생과 청결로 삼고 세심하게 관리하고 있다”며 “위생·청결에 기반하지 않은 영업형태는 언제든 무너질 수 있다는 강한 신념아래 이와 같은 일이 근본적으로 발생하지 않도록 만전을 기하겠다”고 말했다. 박민지 기자 pmj@kmib.co.kr GoodNews paper ⓒ , 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933285&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=5</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>이민 간 자녀 vs 신장 준 재혼녀…80억 유산 누구에게?</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>━ [더,오래] 김성우의 그럴 法한 이야기(3) 장남인 내가 유언장 상속 명단에서 빠졌다면? 큰돈을 갚아야할 친구가 갑자기 쓰러졌다면? 가사전문법관으로 서울가정법원 부장판사를 지낸 변호사가 우리가 현재 또는 가까운 미래에 마주할 법률문제의 해법을 사례 위주로 들려준다. &amp;lt;편집자&amp;gt; A씨(1945년생, 남자)는 1970년 결혼하여 슬하에 1남 2녀를 두었는데 2001년경 성격차이 등을 이유로 부인과 이혼하였다. 이혼 후 A씨는 홀로 지내다가 2003년경 12세 연하의 B씨와 재혼하였다. 이비인후과 개업의로 활동하던 A씨는 B씨와 사이에서는 자녀가 없었고 B씨와 함께 생활하다가 2018년 숙환으로 사망하였다. A씨는 젊어서부터 신장기능이 좋지 않았는데, 이혼할 무렵인 2002년부터는 신장이 거의 망가져 투석을 하게 되었고, 2008년 B씨로부터 한쪽 신장을 기증받는 신장이식수술을 받았다. 한편 A씨의 전 부인과 자녀들은 이혼 직후 뉴질랜드로 가서 한국에 거의 입국하지 않았고, A씨로부터 자녀들의 신장 기증 의사를 물어보는 전화를 받은 외에는 A씨와 거의 연락도 하지 않았다. 사망 당시 A씨의 상속인으로는 전혼 자녀 3명과 재혼 배우자 B씨가 있고, 상속재산으로는 서울시 서초구 소재 아파트(공유 지분 2분의 1)와 서울시 용산구 소재 토지와 건물(공유 지분 2분의 1), 부산시 해운대구 소재 토지 등 부동산 10건 시가 합계 70억 원, 은행 예금, 보험, 주식 등 합계 20억 원과 임대차보증금반환채무 합계 9억 원이 있었다. 상속재산 분할과 관련하여 A씨의 자녀들과 B씨 사이에 의견이 달라 결국 가정법원에서 재판을 하게 되었다. A씨의 자녀들은, B씨가 서초동 아파트와 용산 토지 건물의 각 2분의 1 지분을 증여받은 것을 비롯하여 A씨의 생전에 A씨로부터 받은 것이 많은 반면, 자신들은 어머니와 이혼 당시에 정한 양육비 외에 아버지인 A씨로부터 특별히 받은 돈도 없고 대학교 공부를 할 때는 물론 결혼할 때에도 도움을 받지 않았기 때문에, 원래 자신들이 받아야 할 상속분보다 더 많이 받아야 한다고 주장했다. 이에 대해서 B씨는, A씨가 아프거나 나이가 들었을 때에도 A씨의 자녀들은 남의 일처럼 여기고 아픈 아버지를 모시지 않았던 반면, 자신은 아픈 A씨와 15년간 함께 살면서 간병하였고, 심지어 자식들도 못하는 신장이식까지 아낌없이 해 주었으므로, 그러한 기여에 상응하는 만큼 더 받아야 한다고 주장하였다. 이러한 경우 어떻게 상속재산이 분배되어야 할까? '상속'은 일반적으로 잘 알려진 것 같이, 피상속인(사망자)이 사망하면 그 재산이 상속인에게 당연히 승계되는 것을 말한다. 사망자의 총체적인 재산이 승계되는 것이어서, 부동산이나 예금과 같은 적극재산은 물론이고 은행채무나 임대차보증금반환채무와 같은 소극재산도 함께 이어받게 된다. 그래서 만일 사망자가 적극재산은 거의 없이 부채만 남기고 죽으면, 상속인들은 자신의 의지나 잘못 없이 빚만 떠안을 수도 있다. 이러한 경우 상속인은 상속포기나 한정승인이라는 제도를 통해 보호받을 수 있다. 상속포기는 사망자의 재산을 일절 상속받지 않음으로써 상속인으로서의 지위를 포기하는 것이고, 한정승인은 상속을 받기는 하되 사망자가 남겨준 적극재산의 한도 내에서만 그 빚을 책임지겠다고 하는 것이다. 이처럼 가족이 빚만 잔뜩 남기고 떠난 것도 슬픈 일이기는 하지만, 재산을 많이 남겼다고 해서 반드시 기뻐할 일만은 아니다. 필자가 가정법원에서 처리한 수많은 상속재산 관련 사건들을 보면, 나누어 가질 유산이 많으면 많을수록 기뻐하고 감사할 일이 늘어나는 것이 아니라, 오히려 근심과 미움이 커가는 경우가 더 많았다. B씨와 A씨의 자녀들처럼 직접적인 혈연관계가 없는 경우도 있지만 대부분은 혈연관계가 있는 가족이나 친척 사이였는데, 갈등 양상만 보면 그들이 과연 피를 나눈 사람들이 맞나 의심할 정도였다. 상속을 받는 사람의 입장에서 보면 상속재산은 불로소득에 가깝다. 그럼에도 불구하고 상속사건에서 보여지는 서로에 대한 적개심과 분노는, 마치 자신이 오랫동안 피땀 흘려 일군 재산을 전혀 모르는 강도에게 빼앗긴 사람의 그것처럼 보일 때가 많다. 남아선호사상과 호주제도, 장자상속과 제사 주재(主宰) 문제, 부모의 편애 등이 원인이 되어, 딸들이 아들들, 특히 장남과 사이에 갈등하는 경우가 많기는 하지만, 요즈음에는 양상이 더 복잡하다. 심지어 부모와 자식들을 포함한 상속인들이 세 패, 네 패로 나뉘어 끝이 보이지 않는 진흙탕 싸움을 벌이기도 한다. 그러면 도대체 상속인은 어떤 순서로 되고, 상속분은 어떻게 정해지길래 이렇게 싸우는 것일까? 상속인이 되는 순서는 법률에서 정하고 있는데, 자기 보다 앞선 순위의 상속인이 있으면 후순위의 상속인은 상속을 받지 못하는 것이 원칙이고, 같은 순위에 있는 상속인이 여러 명이면 함께 상속인이 된다(공동상속인). 사망한 사람의 자식 또는 손자손녀 등(직계비속)이 1순위의 상속인이 되고, 그러한 사람이 없을 때에는 사망한 사람의 부모 또는 조부모, 외조부모 등(직계존속)이 2순위의 상속인이 된다. 자식이나 부모 등이 없을 때에는 사망한 사람의 형제자매가 3순위 상속인이 되고, 그 마저도 없으면 삼촌, 고모, 이모, 외삼촌, 4촌형제 등이 4순위로 상속인이 된다. 사망한 사람의 배우자는 사망한 사람에게 자식이나 손자녀(1순위 상속인)가 있는 경우는 그들과 함께, 사망한 사람에게 자식이나 손자녀는 없고 부모 또는 조부모(2순위 상속인) 등이 있는 경우에는 그들과 동(同)순위로 상속인이 되는데, 이마저도 없으면 배우자 혼자 상속인이 된다(형제자매나 3촌, 4촌 등 3, 4순위 상속인은 배우자보다 무조건 후순위 상속인이 된다). 예를 들어 사망한 사람에게 딸과 아내, 부모가 있으면 2순위인 부모를 제외하고 1순위인 딸과 아내가 함께 상속인이 되고, 사망한 사람이 미혼으로 부모만 있는 경우에는 1순위 상속인이 없으므로 2순위인 부모가 함께 상속인이 되며, 사망한 사람에게 남편과 남동생이 있는 경우에는 배우자인 남편이 혼자 상속하게 된다. 상속인이 여러 명일 때, 사망한 사람이 유언으로 상속인들 사이에 유산을 어떻게 나누어 가질지를 정해 주지 않고 사망하였다면, 상속인들은 서로 협의해서 상속재산을 나누어 가질 수 있다. 그런데 협의가 이루어지지 않으면, 가정법원에 상속재산을 분할해 달라고 청구할 수밖에 없다. 이 때 기준이 되는 원칙적인 분할 비율(법정상속분)은 공동상속인들 사이에 균등한데, 다만 사망한 사람의 배우자의 법정상속분은 사망한 사람의 자식이나 부모의 상속분에 50%를 가산한 만큼이 된다. 예를 들어 사망한 사람에게 딸, 아들 각각 1명씩과 아내, 부모가 있으면 딸, 아들과 아내만 상속인이 되고 그 비율은 1:1:1.5가 되기 때문에 딸과 아들은 각각 상속재산의 2/7씩, 아내는 3/7을 상속받게 되고, 사망한 사람이 미혼으로 부모만 있는 경우에는 부모가 각각 상속재산의 1/2씩 상속받게 된다. 가정법원에서 상속재산분할 재판을 할 때 상속인들이 한 목소리로 주장하는 것은 법에서 정해진 상속분 대로 분할하면 '공평하지 않다'는 것이다. 공평하지 않다는 주장은 크게 두 부류로 나눌 수 있는데, 그 하나는 자신을 제외한 다른 상속인들이 피상속인의 생전에 받은 것이 많으니 자신보다 적게 받아야 한다는 것이고(특별수익 주장), 다른 하나는 다른 상속인들과 달리 자신은 피상속인을 특별히 부양하였고 상속재산의 유지나 증가에 특별히 기여했으니 다른 상속인들보다 더 받아야 한다는 것이다(기여분 주장). "너는 젊을 때 사업자금을 지원받은 것이 있지 않느냐" "결혼할 때 나는 받은 것이 없는데 너는 부모님이 아파트를 마련해 주지 않았느냐" "나는 고등학교만 졸업하고 가족을 위해 열심히 돈을 벌었는데 너는 대학등록금은 물론 유학자금까지 지원받지 않았느냐" 등이 특별수익에 관한 주장이다. "내가 아버지 곁에서 매일 밥과 반찬을 해서 나르고 용돈을 드릴 때, 너는 미국에 가서 살면서 20년 동안 아버지를 몇 번이나 찾아 왔느냐" "어머니가 암수술을 받고 입원했을 때 지극정성으로 간호하고 치료비를 부담한 사람이 나 외에 누가 있느냐" "아버지 사업이 어려워져서 아버지 집이 넘어갈 뻔 했을 때 내가 그 빚을 갚아 드리지 않았으면 지금 저 상속재산이 남아 있었겠느냐" 하는 것들이 기여분에 관한 주장들이다. 그 밖에도 상속재산분할 다툼에는, 상속재산 중의 일부는 사망한 사람의 명의로 되어 있기는 하지만 사실은 상속인들 중 어느 한 사람의 것이라는 주장(명의신탁)도 꽤 많다. 특별수익을 한 상속인의 상속분은 다른 상속인들보다 줄고, 기여분이 인정된 상속인의 상속분은 다른 상속인들보다 늘어나며, 명의신탁 주장이 받아들여지면 그 재산은 분할 대상에서 제외된다. A씨의 자녀들과 B씨의 다툼도 바로 이러한 '특별수익'과 '기여분'에 관한 것이다. B씨가 A씨 생전에 받은 부동산은 자신의 상속분을 미리 받은 것, 즉 특별수익으로 평가받을 가능성이 높다. 기여분은 재판 실무에서 인정되는 경우가 드문데, 가족들이 서로 돌보는 것은 당연한 것이어서 피상속인을 잘 모셨다는 정도만으로는 '특별한' 기여로 평가받지 못하는 경우가 많기 때문이다. 그러나 B씨의 신장 제공과 같은 기여는 특별한 기여로 보기에 충분하다. 이 사건은 결국 조정(재판과정에서 서로 조금씩 양보하여 합의하는 것으로, 확정판결과 같은 효력이 있다)으로 끝났는데, B씨가 특별히 수익한 부분과 기여한 부분을 동등하게 보기로 하여, 상속재산을 법정상속분대로, 즉 A씨의 자녀들 각각 2/9씩, B씨 3/9만큼 상속받기로 쌍방이 합의하였다(합의가 이루어지지 않아 판결로 결정할 때 특별수익과 기여분을 계산하는 방법은 이보다 훨씬 복잡하다). 누구에게나 사랑하는 가족을 잃는 슬픔은 그 무엇보다 크다. 그렇지만 그것 못지 않게 안타까운 것은, 남겨진 재산 때문에 평소 사랑하던 가족들이 평생을 보지 않을 철천지원수가 되는 것이다. 그쯤 되면 유산은 '복(福)'이 아니고 '독(毒)'임에 틀림없다. 가족 중에는 지나친 욕심을 부리는 사람도 있고, 무리하게 떼를 쓰는 사람도 있기 때문에, 때로는 가족들 사이에서도 '공평'과 '정의'를 이야기하는 것이 당연하고 필요하다. 하지만 다소 부당해보여도 자신이 조금 손해보고 양보하면 온 가족이 평안하여지고 결국에는 양보한 사람의 자손들이 더욱 복 받게 될 것이며 그 재산을 남겨주신 분도 하늘나라에서 기뻐할 것이라는 믿음을 가질 수 있다면, 그 재산 때문에 가족이 해체되고 자신의 마음과 정신이 황폐해질 위험을 방지할 수 있을 것이다. 김성우 법무법인 율촌 변호사 theore_creator@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=009&amp;aid=0004419226&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=13</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1년만 참으세요…폭스바겐 신형 골프, 내년에 한국 출시</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>올 가을 유럽에서 공개될 신형 폭스바겐 골프가 이르면 내년부터 국내 판매된다. 폭스바겐코리아는 29일 저녁 서울 성수동 할아버지공장에서 열린 '폭스바겐 써머 미디어 나이트'에서 골프 출시 계획을 발표했다. 골프는 '해치백의 대명사'로 국내에서도 마니아층을 형성하고 있는 폭스바겐의 대표 모델이다. 골프는 1974년 등장 이후 현재까지 3500만대가 판매된 세계적인 베스트셀러 모델이다. 세대가 바뀔 때마다 자동차 메이커들의 벤치마킹 대상이 돼왔다. 1세대 골프는 세계 최초로 해치백이라는 콘셉트를 적용해 '골프 클래스'라는 새로운 세그먼트를 창출했다 현재 글로벌 시장에서 판매되는 골프는 7세대 페이스리프트다. 풀체인지 모델인 신형 8세대는 올 가을 공개될 예정이다. 폭스바겐은 출시를 앞두고 지난 28일 위장 패턴으로 외장을 가린 티저 이미지를 공개했다. 신형 골프는 기존 모델보다 전장이 길어지고 헤드램프가 날렵해진다. 또 듀얼 디스플레이를 탑재하고, 연료효율성을 높이기 위해 48V 마일드 하이브리드 시스템을 적용한 것으로 알려졌다. 슈테판 크랍 사장은 폭스바겐 신차 출시 계획을 발표하는 자리에서 "7세대 골프 페이스리프트를 출시하려던 초기 계획을 전면 수정해 8세대 신형 골프를 바로 선보일 것"이라고 말했다. [디지털뉴스국 최기성 기자] [ⓒ 매일경제 &amp;amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=047&amp;aid=0002238543&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=14</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>경북 봉화에 백두산 호랑이가 산다</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>[오마이뉴스 홍성식 기자] ▲  백두대간수목원의 '인기 스타'로 자리한 백두산호랑이. ⓒ 이용선 제공   숨 쉬는 공기의 맛이 달랐다. 보다 낭만적으로 이야기하자면 하늘과 땅 사이를 떠도는 바람에서 달콤한 향기가 났다. 경상북도 내륙 깊숙이 자리한 봉화군. 백두대간 청정한 계곡을 달리는 기차가 있고, 백두산호랑이를 만날 수 있으며, 항일 독립운동의 흔적이 곳곳에 남아 있는 도시. 춘양목 내음 그윽한 봉화에서의 1박2일은 즐거웠다. 그 경험을 함께 나누고자 한다. 단 한 번의 포효로 하늘을 나는 까치와 까마귀까지 숨죽이게 만드는 거대한 짐승. 사방 1천 리 밀림을 통치하는 호랑이는 예부터 '신령스러운 동물'로 불렸다. 바로 이 호랑이를 봉화군 춘양면에 자리한 국립백두대간수목원에서 만났다. 백두대간이란 북쪽 백두산에서부터 남쪽 지리산까지 이어지는 긴 산줄기를 지칭한다. '한국 생태계의 보물창고'로도 불리는 이 공간의 한가운데 조성된 것이 바로 국립백두대간수목원. 총면적이 5천179㏊로 아시아 수목원 중 가장 크다. 수목원은 돌과 고산식물을 조화롭게 배치한 '암석원'과 아름다운 꽃들이 만발한 '만병초원', 백두대간에서 자라는 식물들을 꼼꼼하게 관찰할 수 있어 학습 효과가 높은 '백두대간 자생식물원'으로 구성됐다. 다양한 교육 프로그램도 갖춰 남녀노소 모두의 관심을 받는다. 지하 46m 터널 속엔 야생 식물종자 저장시설도 마련했다. 기후 변화와 자연 재해로부터 산림생물의 다양성을 지켜내기 위해서다.   ▲  백두대간수목원 입구. ⓒ 홍성식 약용식물원과 수변생태원, 야생화 언덕과 무지개정원 등도 많은 여행자들이 찾지만, 이 수목원에서 최고의 인기를 모으는 곳은 누가 뭐래도 '호랑이 숲'이다. 당당한 자태를 드러내는 백두산호랑이 2마리를 바로 눈앞에서 볼 수 있다는 건 흔하게 다가오는 기회가 아니다. 수목원 입구를 출발해 5분쯤 트램(Tram)을 타고 돌틈정원에서 내려 숲길을 800여m 올라가면 형형한 눈빛에 검은 줄무늬가 인상적인 백두산호랑이들이 방문자를 반긴다.   ▲  한때는 사방 1천 리 밀림을 지배했던 백두산호랑이의 포효. ⓒ 이용선 제공   땡볕이 내리쬐는 오르막길을 20분이나 걸어갈 때는 힘들다는 생각도 든다. 하지만, 좁은 동물원 우리 속이 아닌 널찍한 풀밭을 유유히 오가는 230kg의 '진짜 백두산호랑이'를 지척에서 지켜보고 있으면 힘겨움과 더위는 어느새 잊게 된다. 늘어지게 낮잠을 자는 모습조차 '품격 있는 황제'와 닮았다. 흔들리는 꼬리의 움직임까지 기품이 넘쳤다. 지구 위에 존재하는 호랑이 중 몸집이 가장 큰 백두산호랑이는 흥미롭게도 아이들보다 40~50대 어른들이 더 좋아했다. 아마도 할머니의 옛 이야기 속에 가장 자주 등장하던 친숙한 동물이어서가 아닐까.   ▲  경북 봉화 분천역과 강원 태백 철암역을 오가는 '백두대간 협곡열차'. ⓒ 봉화군 제공     ▲  '백두대간 협곡열차'가 출발하는 분천역. ⓒ 홍성식     기차는 '낭만'과 '향수'를 부르는 교통수단이다. 철길을 따라 눈부시게 나타났다가 아스라이 사라지는 풍광은 저마다 지나온 먼 과거를 자연스레 떠올리게 한다. 경북 봉화군 분천역과 강원도 태백시 철암역 사이를 오가는 '백두대간 협곡열차'도 마찬가지. 맑고 깨끗한 계곡을 따라 질주하는 이 기차의 별칭은 'V-train'. 영어 대문자 V는 계곡의 형상과 닮았다. 무더운 여름에 추운 겨울을 상상하게 해주는 봉화군 산타마을. 분천역 앞에 자리한 그곳에서 세상 가장 유명한 사슴 '루돌프'와 사진을 찍은 아이들은 산타클로스의 안내에 따라 분천역 플랫폼에 모여들었다. 엄마의 손을 잡고 백두대간 협곡열차를 타기 위해서였다. 누구랄 것 없이 입가엔 웃음이 가득 매달렸다. 산타클로스의 옷처럼 새빨간 열차는 아기자기한 장식을 더해 철암까지 달리는 1시간 남짓의 시간을 지겹지 않게 해준다. 중간중간 친절한 안내 방송은 물론이고, 어두운 터널을 지날 땐 흥겨운 음악과 객차 천장에서 빛나는 야광 장식이 꼬마 손님들의 탄성을 부른다. 잠시 정차하는 승부역에선 고소하게 삶은 옥수수와 시원한 아이스크림도 하나씩 먹고.   ▲  기차를 기다리는 시간에 둘러보기 좋은 철암역 탄광역사촌. ⓒ 홍성식   분천역이 아이들의 '행복 공간'이라면, 철암역은 나이 지긋한 관광객들의 추억을 소환하는 장소다. 역 지척에 위치한 철암탄광역사촌은 1970~1980년대 탄광마을을 고스란히 재현해 '가난했지만 따스함을 잃지 않고 살았던' 과거 모습들을 생생하게 보여준다. 당시 사람들이 드나들던 건물을 그대로 활용해 갤러리와 박물관으로 꾸민 게 소박해서 더 눈길을 끌었다. 철암에서 분천으로 돌아가는 기차를 기다리는 자투리 시간을 보내는 데 최적의 장소이기에 망설임 없이 추천한다. 지난 2013년 운행을 시작한 개방형 관광열차인 '백두대간 협곡열차'의 인기는 겨울만이 아닌 여름에도 높았다. 활짝 연 차창으로 들어온 시원한 바람이 달아오른 얼굴을 매만져 주는 색다른 기차여행이었다.   ▲  심산 김창숙이 &amp;lt;파리 장서&amp;gt; 초안을 쓴 만회고택 명월루. ⓒ 홍성식   오후 늦게 찾아간 봉화읍 해저리(海底里). 고즈넉한 풍경 속에 해가 지고 있었다. 붉은 석양이 만회고택(晩悔古宅) 뒤편으로 사라지는 순간. 시간이 멈춘 듯했다. 중요민속자료 제169호인 만회고택은 1690년 춘양목으로 지어진 기와집이다. 조선시대 높은 벼슬에 오른 이들이 많이 나온 것으로도 유명하지만, 한국 독립운동사의 '주목할 만한 사건' 중 하나가 바로 이 집에서 일어났으니 '역사의 현장'이기도 하다. 이 집의 주인은 심산 김창숙(1879~1962)과 의성 김씨 혈족이었다. 양심적인 교육자이자 독립운동에 열정을 바쳤던 심산은 만회고택 명월루(明月樓)에서 &amp;lt;파리장서&amp;gt;(巴里藏書·1919년 김창숙을 포함한 유림들이 파리 평화회의에 보낸 독립탄원서)의 초안을 작성했다고 한다. 운 좋게도 바로 이 명월루에서 하룻밤 묵을 수 있는 기회가 생겼다. 현재 고택을 지키고 있는 만회의 후손 김시원 씨는 "17명의 독립유공자가 배출된 마을에서 생활하는 것에 자부심을 느낀다"며 "명월루를 포함한 집 곳곳에 여전히 살아있는 선조들의 우국충정을 잊지 않았다"는 말을 들려줬다. 바람이 자유롭게 오가는 시원한 명월루. 잠을 청하려 누웠다. 휘영청 밝은 달이 산과 들, 동네의 크고 작은 고택들을 환하게 비추고 있었다. 심산이 &amp;lt;파리장서&amp;gt;를 쓰던 그날 밤도 분명 달은 환했으리라.   ▲  닭실마을 청암정. ⓒ 홍성식     ▲  거촌리 도암정. ⓒ 홍성식 봉화군은 100개가 넘는 정자(亭子)를 가진 지역으로 알려졌다. 그만큼 경치가 수려하다는 이야기다. 곳곳에 자리 잡은 정자들은 보는 것만으로도 무더위에 지친 마음을 편안하게 다독여준다. 봉화읍 닭실마을의 청암정(靑巖亭)은 조선 중기의 학자 충재 권벌(1478~1548)이 1526년에 세웠다. 푸른 이끼가 낀 커다란 거북 모양의 바위 위에 올라선 미려한 정자가 한 폭의 동양화를 연상시킨다. 마당에서 정자로 건너가는 좁은 돌다리 또한 운치가 있다. 안내해준 사람의 설명에 따르면 정자를 둘러싼 연못엔 가끔 수달이 나타나기도 한다고. 연꽃이 피는 시기면 그 아름다움이 절정에 달한다는 도암정(陶巖亭)은 봉화읍 거촌리에 위치해 있다. 앞면 3칸·옆면 2칸의 양식으로 만들어졌고, 팔작지붕에 홑처마다. 단출하지만 전통적인 멋스러움이 은은하게 스며 있다. 조선 효종 시기의 문신 황파 김종걸(1628~1708)이 선비들과 더불어 시를 읊고, 세상사를 논하던 도암정은 경상북도 민속문화재 제54호이기도 하다. 이외에도 봉화군엔 한수정, 뇌풍정, 사미정 등 일일이 열거하기 힘들 정도로 많은 정자가 있다.   ▲  춘양목의 단면. ⓒ 홍성식   춘양목(春陽木) 또한 봉화의 자랑거리 중 하나. 춘양면과 소천면 일대 높은 산에서 자라는 소나무인 춘양목은 색깔이 곱고, 어떤 나무보다 단단해 고급 건축재와 가구 재료로 사용된다. "나이테가 보통의 소나무보다 훨씬 조밀하고, 성장 속도는 느리지만 뒤틀림이 없으며 내구성이 뛰어나다"는 것이 수십 년간 나무를 만져온 봉화목재 정진혁 대표의 설명. 특유의 향기 역시 가공된 상태에서 수십 년이 흘러도 변하지 않는다고 하니, '소나무계의 명품'이라 불러도 무방할 듯하다. 저작권자(c) 오마이뉴스(시민기자), 무단 전재 및 재배포 금지 이 기사는 &amp;lt;경북매일신문&amp;gt;에 게재된 것을 일부 보완한 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=009&amp;aid=0004419177&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=15</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>세 아들 장가 보내기 프로젝트 ‘최고의 한방’ 허당기 폭발 소개팅 결과는?!</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>20일 방송된 MBN ‘최고의 한방’에서는 지난 회에 방송된 장동민의 소개팅에 이어 탁재훈과 이상민의 소개팅 모습이 공개됐다. 엄마 김수미를 비롯, 다른 형제들 모두 그의 성공적인 소개팅 결과를 기대하던 가운데, 이상민은 ‘여신 미모’ 아나운서와의 소개팅에서 ‘허당’ 면모를 드러내 보는 이들을 하여금 탄식(?)을 자아내게 했다. ▶탁재훈, ‘김민 닮은꼴’ 미모의 보컬트레이너와 솔직담백 소개팅! 방송에서는 탁재훈과 보컬트레이너 김세희 씨의 본격적인 소개팅 현장이 공개됐고, 낯가림을 완벽 해제한 탁재훈이 자신의 속내를 거침없이 고백하는 모습이 그려져 관심을 집중시켰다. 탁재훈은 자신에게 밝게 웃어주며 속도를 맞춰주는 김세희 씨에게 “제가 좋아요?”라고 기습 질문을 건네며, “지금 카메라 다 무시하고 얘기하는 거예요”라고 덧붙였다. 동시에 상대방의 눈을 지그시 바라보는 대화 태도로 ‘상남자’의 면모를 뽐냈다. 이에 김세희 씨 또한 “괜찮으신 분 같아요”라며 “이전까지는 또래만 만나 와서 연상과의 만남에 기대를 했는데, 고목나무 같은 듬직한 매력이 있는 것 같아요”라고 ‘돌직구’로 답해 분위기를 후끈 달아오르게 만들었다. 김세희 씨의 솔직한 반응에 탁재훈은 “지금까지 풍파도 많이 겪었고, 예전엔 후회를 많이 했어요”라고 가슴 속 깊은 속내를 꺼냈다. 이어 “나이가 들고 보니 후회만 한다는 것이 의미가 없더라고요”라고 덧붙여 의미심장함을 더하기도 했다. 평소 낯가림이 심한 탁재훈은 김세희 씨의 포용력 넘치는 성격으로 인해 상대방과 빠르게 공감대를 형성해 나갔고, 음반을 내지 않는 이유 등 자신의 속 얘기를 스스럼없이 이어나가 보는 이들을 놀라게 했다. 서로에 대한 호감을 ‘속전속결’로 공유한 두 사람은 주어진 시간이 끝난 후에도 끊임없이 이야기를 이어나가 20세의 나이차를 극복한 만남을 이어나갈 수 있을지 남다른 관심을 받았다. ▶이상민 ‘연애 허세남’의 대굴욕! 이상민이 수미 엄마의 ‘세 아들 장가보내기’ 소개팅 마지막 주자로 나섰다. 소개팅 장소는 요리를 잘하는 이상민의 매력을 뽐낼 수 있는 루프톱 바비큐장. 그는 앞서 장동민과 탁재훈의 소개팅을 관전하며 예리한 분석과 조언을 이어갔지만, 막상 자신의 차례가 다가오자 급격히 초조해 했다. 루프톱 바비큐장에 혼자 떨어져 소개팅녀를 기다리던 이상민은 긴장된 마음을 숨기지 못하고 김수미에게 전화를 걸어 “지금 심장이 터질 것 같아요. 도망가고 싶은 마음뿐”이라며 누구보다 긴장한 모습을 보여 모니터를 지켜보는 사람들의 안타까움을 자아냈다. 잠시 후, 소개팅 여성이 모습을 드러냈고 긴장한 이상민의 앞에 나타난 여성은 부산 출신 미모의 아나운서로 가수 청하의 닮은꼴인 섹시한 미모에 이상민이 원하는 ‘밝은 에너지’를 뿜어냈다. 이상민의 소개팅 현장을 지켜보고 있던 모니터 룸 안 김수미, 박준금, 탁재훈, 장동민은 평소 이상민이 말한 밝고 긍정적인 에너지의 소유자와 100% 일치하는 여성의 등장에 안심하며 두 사람 사이의 그린라이트를 예상했고 수미 엄마는 흐뭇한 미소를 지었다. 그러나 이상민은 소개팅이 시작되자 평소 허세 가득하고 자신만만한 모습이 아닌 서툴고 어설픈 모습을 보였고, 상대방의 얼굴도 제대로 쳐다보지 못하며 루프톱 바비큐장에서 오로지 고기 굽는 데만 열중해 보는 이들의 속을 터지게 만들었다. ‘소개팅 금기어’인 ‘과거사’를 물어보는가 하면, 뜬금 없는 인생 조언을 투척해 소개팅 여성을 당황스럽게 만들었다. 더욱이 이상민의 주특기인 ‘전문 요리 지식’ 자랑 타임이 이어지자, 이를 지켜보던 모니터 룸에서는 “장가가기 글렀다” “오늘 중 제일 안 좋은 멘트” 등 각종 탄식과 원성이 쏟아졌다. 급기야 탁재훈은 답답한 마음을 참지 못하고 소개팅 중임에도 불구하고 전화를 걸어 이상민을 꾸짖는 사태까지 발생했다. 탁재훈의 훈계 덕분인지 소개팅녀와의 어색한 분위기를 풀기 위해 이상민은 전매특허 ‘크라잉랩’을 보여주는 등 열정적으로 노력하는 모습을 보이며 분위기를 순식간에 끌어올리기도 했다. 롤러코스터 같은 이상민의 고군분투 소개팅과 ‘반전’ 넘치는 상대방의 반응은 뜨거운 관심을 받았다. ▶이상민-탁재훈-장동민, 아찔한 소개팅 결과 공개! 이상민을 비롯해 지난주 방송에서 첼리스트 조은혜 씨와 핑크빛 무드를 자아낸 장동민, 당찬 매력의 김세희 씨와 격의 없는 대화를 이어간 탁재훈은 설렘 가득한 분위기 속에서 마무리 되었지만 세 아들 모두 커플 매칭에 실패했다. 소개팅 결과가 공개되자 김수미는 안타까운 표정을 감추지 못했다. 이어 그녀는 “여자들에게 이유를 물어봤다. 재훈이는 재치 있을 줄 알았는데 방송과 실제 모습이 너무 다르다고 하더라. 동민이는 음식 먹으면서 머리카락 얘기는 잘못한 것 같다. 결정적인 건 상민이는 불쾌했대”라고 소개팅에 실패한 이유를 공개하며 세 아들들에게 인생 선배로서 조언을 건네 눈길을 끌었다. ▶‘최고의 한방’ 탁재훈이 김수미와 동생들을 위해 준비한 여름 바캉스! 남성성 검사와 소개팅까지 좋지 않은 결과로 이어져 실망이 큰 세 아들이 안쓰러웠던 엄마 김수미는 맏아들 탁재훈에게 근교로 여행을 가자 제안했고, 이에 재훈은 동생들의 스트레스를 풀어줄 여행을 직접 설계, 김수미와 두 동생이 깜짝 놀랄 아이템까지 준비하는 모습을 보였다. 첫 가족여행을 위해 탁재훈이 준비한 것은 바로 캠핑카! 어디서든 쉬고, 먹고, 편하게 여행할 수 있는 특별한 여름 바캉스를 계획했다. 데뷔 후 5일 밖에 쉬지 못했다는 장동민과 쉬는 날 없이 일만 했던 이상민을 위해 탁재훈은 힐링 여행에 대한 로망을 실현시켜주기 위해 노력했지만, 네 사람은 여행을 떠나기 전부터 난관에 부딪혔다. 여행 당일, 예고 없이 쏟아진 폭우 때문에 캠핑카 여행 자체를 취소해야 할 위기에 놓여 보는 이들의 안타까움을 자아낸 것. 멈추지 않는 폭우에 장동민은 “캠핑카 안에서만 노는 여행이야?”라며 헛웃음을 지었고, 여행을 준비한 탁재훈은 “이 날씨면 캠핑카 반납해야 할 것 같다”고 얘기하는 등 심각한 표정을 감추지 못했다. 이어 가족들과의 첫 여행에 누구보다 설랬던 여행 설계자 탁재훈은 제작진과의 인터뷰에서 “손꼽아 기다린 소풍 날 비가 온 느낌”이었다며 아쉬움에 한숨만 쉬며 헛웃음을 지었다. [글 이승연 기자 자료제공 MBN] [본 기사는 매일경제 Citylife 제694호 (19.09.03) 기사입니다] [ⓒ 매일경제 &amp;amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=015&amp;aid=0004201479&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=16</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>'1000만원짜리 다육식물'로 뜬 스타 유튜버 농부</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>유튜브, 네이버 블로그 등 소셜네트워크서비스(SNS)를 통해 최근 ‘다육이 재테크’가 주목받고 있다. 다육식물을 잘 키워 되팔면 적지 않은 돈을 벌 수 있다는 내용이다. 그중에서도 ‘1000만원짜리 다육식물’이 있다는 내용의 한 유튜브 동영상은 조회 수가 31만 회를 넘었을 정도로 큰 관심을 모았다. 도대체 어떤 식물이길래 1000만원에도 팔리는 걸까. 영상을 제작한 주인공은 유튜브 ‘팜스맨’ 채널을 운영하는 김문찬 팜통령의 다육농원 대표(27). 대구 지산동에 있는 그의 농원에서 다육이 이야기를 들어봤다. 다육식물은 사막이나 높은 산 등 수분이 적고 건조한 지역에서 살아남기 위해 잎에 수분을 저장하는 식물을 말한다. 선인장과 특성이 비슷하다. 한국에서 가장 인기 있는 다육식물은 ‘금’ 종류다. 금이란 식물에 있는 엽록소가 변이를 일으켜 초록색과 함께 노란색 등 다양한 색을 함께 띠는 다육식물을 통칭한다. 방울복랑금이나 마리아백금이 대표적이다. 일반 방울복랑은 잎에 초록색만 나타나는 반면 방울복랑금은 흰 빛깔, 붉은색 등 다양한 색이 함께 발현돼 화려하다. 김 대표는 그중에서도 모주(母株: 종자나 묘목을 얻기 위해 키우는 나무)로 사용할 수 있는 금은 1000만원대에 판매되기도 한다고 설명했다. 다육식물은 잘 키운 뒤 잎을 여러 번 잘라내 다시 심는 것이 가능하다. 하나의 다육식물을 여러 개의 화분으로 만들 수 있는 것이다. 잎이 풍성하게 달린 다육식물은 바로 여러 개의 다육 화분으로 나눌 수 있기 때문에 모주로 활용된다. “고가의 다육식물을 사는 사람은 전문 판매업자나 다육식물로 돈을 벌어본 경험이 있는 고수들인 경우가 많습니다. 1000만원에 사가더라도 금방 수십만원짜리 여러 개를 만들어 팔 수 있기 때문이죠.” 김 대표는 3년 전부터 농장을 운영하기 시작했다. 15년 전부터 다육식물 농장을 운영한 부모님 덕분에 다육식물 시장을 가까이에서 봐온 그는 “충분히 가능성이 있는 시장”이라고 판단했다. “농장마다 자신의 노하우가 있는데 다른 사람에게 쉽게 가르쳐주질 않습니다. 부모님께서 기술을 쌓아두신 것이 큰 도움이 됐습니다.” 김 대표가 농장 운영에 뛰어들면서 825㎡(250평)이던 농장 규모는 2배로 커졌다. 김 대표는 희소성 있는 다육식물을 확보하는 데 집중하고 있다. 국내에 없는 다육식물을 구하러 해외에도 나간다. “외국 현지의 재배 환경을 철저히 검토한 뒤 수입합니다. 흙의 양, 번식하는 시기 등을 최대한 비슷하게 할수록 더 잘 자라거든요.” 김 대표는 처음엔 오프라인 판매에 주력했다. 농장 방문 고객에게 다육식물을 팔거나 소규모 벼룩시장 등을 찾아다니며 판매했다. 김 대표와 팜스맨 농장이 유명해진 것은 유튜브 채널 팜스맨을 열면서부터다. 그는 작년 7월 유튜브 채널을 열었다. 팜스맨은 영화 ‘킹스맨’에서 이름을 따왔다. 킹스맨의 유명한 문구인 ‘매너가 사람을 만든다’를 차용해 ‘농부가 미래를 만든다’는 슬로건도 지었다. “유튜브를 잘할 수 있다는 확신을 갖고 시작한 것은 아니에요. 공공기관이 주최한 청년창업농 사업에 지원하면서 좀 특이한 계획을 써보자는 생각으로 유튜브를 개설했어요.” 생각보다 반응이 뜨거웠다. ‘1000만원짜리 다육이’를 소개하는 영상을 비롯해 ‘방울복랑을 금으로 만드는 방법’(조회 수 19만 회), ‘실내에서 다육식물 키우기 유의사항’(조회 수 12만 회) 등이 큰 인기를 끌었다. 김 대표는 팜스맨 채널을 통해 1년간 40여 개의 영상을 업로드했다. 구독자 수도 1만6000명을 넘어섰다. 김 대표는 이달부터 네이버 FARM TV에도 영상을 공급하며 구독자층을 확대하고 있다. “다른 약속이 없는 날이면 저녁엔 꼭 동영상 기획이나 편집을 합니다. 한 편에 다섯 시간 정도 들이면 기본적인 편집이 가능하더라고요.” 김 대표는 유튜브 진출이 온라인 판매 확대로 이어지고 있다고 밝혔다. 농장 매출 중 온라인 판매 비중이 35%까지 올라갔다. 김 대표는 “다육식물뿐 아니라 화분에 사용하는 흙에 대한 문의도 많다”며 “외국인들이 문의하기도 한다”고 말했다. 김 대표는 지난해 약 2억원의 매출을 올렸다. 부모님의 농사를 이어받은 뒤 매출을 종전에 비해 2배 이상 늘렸다. 올해는 치유농장으로 확장하는 게 목표다. “최근 1652㎡(500평) 규모의 땅을 새로 구했어요. 이곳은 판매보다는 다양한 다육식물을 체험하면서 치유할 수 있는 공간으로 운영할 계획입니다.” 대구=FARM 강진규 기자 ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=346&amp;aid=0000027974&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=17</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>이봉주 아들, "학원 갈 필요 없다" 과도한 사교육…괜찮을까?</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>이봉주 부부가 아들 우석 군의 입시 준비에 대한 걱정을 내비쳤다. 29일 방송된 MBC '공부가 머니?'에는 이봉주·김미순 부부가 고1 아들 우석군의 성적과 입시에 대한 상담을 하는 장면이 방송됐다. 이날 우석군은 학원에 가기를 반대하고 스스로 공부를 하겠다고 밝혀 엄마와 마찰을 빚었다. 우석 군은 "학원 수업을 아예 못 알아듣는 데 갈 필요가 없다"며 "학원은 저한테만 맞춰주기 힘드니 모르는 부분이 있어도 혼자 하는 쪽이 잘 맞다"고 말했다. 우석 군에 대한 지능 및 심리 검사를 시행한 전문가는 "우석이가 현재 우울한 상태"라며 "비관적인 생각도 많이 하고 자존감이 낮고, 위축돼있어 평소에 힘이 없다"고 말했다. 실제로 이봉주 아들 우석군과 마찬가지로 지나친 사교육으로 우울감을 느끼는 청소년이 적지 않다. 한림대성심병원 소아청소년정신과 홍현주 교수팀은 군포시 5개 초등학교의 1학년생 761명을 대상으로 아동정신건강에 대해 조사했다. 그 결과, 하루 4시간을 초과해 사교육을 받은 학생은 그렇지 않은 학생에 비해 3배 이상 많은 우울 증상을 보이는 것으로 나타났다. 어린 시절 우울증은 만성적 경과를 보이며 성인이 된 이후에도 재발되는 경우가 많아 적절한 시기에 대응해야 한다. 어릴 때 사교육 시간보다 부모와 함께 하는 시간을 늘리도록 노력해야 한다. 특히 학원에서의 사교육은 치열하고 융통성 없는 분위기로 아이들 간의 자율적 관계 형성이 어렵고 아이들과 어른들 간의 의사소통을 방해해 아이들의 정신건강에 더 안 좋은 영향을 미칠 수 있다. / 이도경 헬스조선 기자 hnews@chosun.com 전혜영 헬스조선 인턴기자 hnews@chosun.com ▶ ▶</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011051229&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=18</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>'가을장마'로 일요일 제주·남부지방 비…수요일 전국 확대</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>(서울=연합뉴스) 김승욱 기자 = '가을장마'의 영향으로 일요일인 9월1일 제주도와 남부지방에 비가 내리기 시작해 다음 주에는 전국으로 확대될 것으로 보인다. 30일 기상청에 따르면 이날 오후 4시 현재 전국에 대체로 구름이 많은 가운데 경기 북부와 강원 영서에는 소나기가 오는 곳이 있다. 서울과 경기에는 이날 오후 9시까지 소나기가 오는 곳이 있을 것으로 보인다. 토요일인 31일에는 전국에 가끔 구름이 많고 충남 서해안과 전북은 오전 3∼9시 소나기가 오는 곳이 있을 전망이다. 일요일인 다음 달 1일에는 제주도 남쪽 해상에서 북상하는 정체전선의 영향을 받을 것으로 기상청은 내다봤다. '가을 장마전선'으로도 불리는 이 정체전선은 북쪽에서 내려온 찬 공기와 상대적으로 따뜻한 북태평양 고기압 사이에서 발달한 것이다. 정체전선의 영향으로 제주도는 1일 0시부터, 남부지방은 오전 9시부터 비가 오는 곳이 있을 것으로 보인다. 중부지방은 구름이 많을 것으로 전망된다. 다음 주 들어서도 계속해서 정체전선의 영향을 받아 다음 달 2∼3일은 충청과 남부지방, 제주에 비가 오고 4∼7일에는 전국에 비가 내릴 것으로 기상청은 내다봤다. 기상청은 "장기간 비가 내리면서 피해가 우려된다"며 주의를 당부했다. ksw08@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=366&amp;aid=0000441991&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=19</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>'1킬로미터 이동수단'을 잡아라…전동 킥보드에 빠진 글로벌 車업체들</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>미국 워싱턴DC에서 전동 킥보드는 흔한 대중 교통 수단이다. 인도에서 보행자들과 속도를 맞추며 이동하거나, 인적이 드문 공원을 '씽씽' 달리는 모습이 일상이다. 언덕들이 곳곳에 있는 워싱턴DC에서 전동 킥보드는 빠르고 편한 교통 수단으로 자리잡았다. 이용방법도 간단하다. 스마트폰 앱을 켜고 QR 코드를 찍은 다음 전동킥보드를 발로 밀어주면 '딸깍' 소리와 함께 주행을 시작할 수 있다. 반납은 주차하고 QR 코드를 다시 찍으면 완료된다. 최근 워싱턴DC로 출장을 다녀온 직장인 최모(56)씨는 "현지 직장인들이 전동 킥보드로 신속하게 '혼이동(혼자이동)'을 하는 것이 인상적이었다"며 "관광객도 앱으로 손쉽게 이용할 수 있어 여행 피로를 덜 수 있었다"고 말했다. 한국에서도 전동 킥보드는 확산하고 있다. 주로 서울 강남, 여의도, 마포 등지에서 출퇴근 시간에 많이 이용되고 있다. 29일에는 싱가포르에 기반을 둔 업체 ‘빔’이 한국 진출을 선언했고, 독일 윈드는 부산에서 서비스를 준비하고 있다. 전동 킥보드·자전거 같은 '라스트 마일(last mile) 모빌리티' 시장을 잡기 위한 글로벌 자동차 업계의 경쟁이 더욱 치열해지고 있다. 목적지에 도달하기 전 마지막 1마일(약 1.6㎞)의 짧은 거리를 이어주는 이동 수단이 자동차 업계의 판도를 바꿔놓고 있다. 현대·기아차는 지난 27일 차에 싣고 다니며 충전하고 사용할 수 있는 ‘빌트인(일체형)’ 타입의 전동 스쿠터를 공개했다. 평소에는 접이식으로 차량 내부에 장착됐다가 운행 과정에서 발생하는 전기를 활용해 충전하고 사용자는 주차 후 꺼내 최종 목적지까지 간편하게 이동할 수 있다. 현대·기아차는 오는 2021년 출시될 신차에 이 전동 스쿠터를 선택 사양으로 넣는 방안을 검토하고 있다. 현대·기아차 관계자는 "소비자들의 이동과 레저 활동의 형태가 다양해지면서 기존 자동차의 개념만으로는 이를 충족시키기 어렵다는 판단에 따라 일체형 타입 전동 스쿠터를 개발했다"고 말했다. 해외 완성차 업체들도 라스트 마일 모빌리티 시장에 앞다퉈 뛰어들고 있다. 독일 아우디는 ‘e트론(e-tron)’ 전동 스쿠터를 내년 하반기쯤부터 판매할 계획이다. 아우디는 이 전동 스쿠터를 자사 전기차에 옵션으로 제공하는 방안을 검토하고 있다. 미국 포드는 ‘고바이크’라는 전기자전거 공유 플랫폼을 2017년 내놓은 데 이어, 지난해엔 전기스쿠터 대여업체 ‘스핀’을 인수하기도 했다. 독일 다임러는 독일 전역에서 전기 스쿠터 대여 서비스를 시작하고, 제네럴모터스(GM)는 올해 2분기부터 전기 자전거 'e-바이크'를 판매하며 1인용 모빌리티 시장에 뛰어들었다. 주요 완성차 업체가 전동킥보드 등에 관심을 보이는 것은 사람들의 이동수단 이용행태가 바뀌고 있기 때문이다. 미국 정부의 전국 가계 여행 조사(National Household Travel Survey)에 따르면, 미국 내 모든 차량 운행의 거의 절반이 3마일(5km) 이하인 것으로 나타났다. 장거리를 운행하기 보다는 짧은 거리를 오간다는 것이다. 포드의 모빌리티 서비스 개발 그룹인 포드 X의 서니 마드라 부사장은 "대도시에 인구가 밀집되면서 교통체증이 점점 심해지고, 주차난까지 발생하면서 시내에서 근거리를 오고갈 이동 수단에 대한 수요가 커지고 있다"며 "앞으로 짧은 거리 이동에는 전동 스쿠터, 전기 자전거 등이 대세가 될 것이라고 보고 있다"고 말했다. 킥보드들의 주행거리가 배터리 성능 개선과 함께 늘어나고 있는 점도 서비스 확산에 한몫하고 있다. 글로벌 컨설팅업체인 맥킨지 앤드 컴퍼니는 미국과 유럽, 중국에서 공유 라스트 마일 모빌리티 시장이 2030년 5000억달러(약 608조원)까지 확대될 것으로 전망하고 있다. GM이 기업 체질을 전통적 개념의 '제조사'에서 '모빌리티 서비스 기업'으로 바꾸는 것도 이같은 변화에 따른 것이다. 메리 바라 GM CEO(최고경영자)는 올해 초 "자동차 산업에서 앞으로의 5년은 지난 50년간 보다 훨씬 더 많은 변화가 있을 것으로 예상된다"며 "미래 퍼스널 모빌리티 시장 선점에 속도를 내겠다"고 밝혔다. 박형근 포스코경영연구원 수석연구원은 "장기적으로 자율주행기술이 완성될 경우, 모빌리티 서비스와 결합하면 이용자가 크게 늘어 자동차 산업 내 지각변동을 초래할 것"이라며 "완성차 업체는 새로운 고객층으로 부상할 모빌리티 서비스에 대한 데이터를 모으고 관련 사업 기회를 포착해 육성해야 한다"고 말했다. [한동희 기자 dwise@chosunbiz.com] chosunbiz.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=215&amp;aid=0000806149&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=27</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>허리디스크, 수술 말리는 이유 있다 [헬스플러스]</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>[한국경제TV 양재준 성장기업부장] 최근 오래 앉아 일하고 스마트폰 사용이 잦으면서 20대와 30대 젊은 층에서 소위 허리디스크(추간판 탈출증) 환자가 크게 증가하고 있습니다. 허리디스크 초기에는 허리만 뻐근하고 묵직하다가 좀 더 진행되면 허리가 결리고 엉치까지 뻐근해집니다. 튀어나온 디스크나 터진 수핵이 척수신경을 심하게 압박하면 엉덩이부터 허벅지, 종아리, 발목, 발바닥, 발가락 끝까지 저리고 당기면서 시린 통증이 나타납니다. 허리디스크(추간판 탈출증) 예방 방법과 관리에 대해 자세히 알아보도록 하겠습니다. 디스크는 척추뼈와 척추뼈를 연결하는 연결조직으로 중앙에 수핵(젤리성분)과수핵을 싸고 있는 섬유륜으로 구성돼 있습니다. 추간판 탈출증은 추간판의 퇴행성 변화(노화)가원인이 돼 수핵을 싸고 있는 섬유륜이 파열, 수핵이나 섬유륜이 신경관내로 돌출되거나 탈출해 신경을 압박하면서 허리 통증이나 골반통증, 다리 통증을 유발하는 질환을 말합니다. 컴퓨터·스마트폰, 비만 등으로 추간판 탈출증 악화 추간판 탈출증 환자가 증가하고 있는데 고령화 사회로의 진입도 이유지만 젊은 층의 유병률이 증가한 것도 원인입니다. 특히 오래 앉아서 근무하는 사무직이 늘고, 컴퓨터나 스마트폰 사용도 증가하면서 척추질환자가 크게 증가하고 있습니다. 이 외에도 과한 음주, 잘못된 자세, 비만 등으로 척추질환이 악화되고, 이를 방치하면서 허리 디스크로 이어지는 환자도 많습니다. 탈출된 디스크는 척추내 위치한 신경을 압박해 그 신경이 지배하는 부위인 엉덩이, 다리, 허벅지, 장딴지, 발 등의 통증(방사통)과감각 저하, 저림, 근력 약화 등을 유발합니다. 하지 직거상 검사는 진료실에서 하는 대표적인 검사입니다. 똑바로 누운 자세에서 무릎을 편 상태로 다리를 들어 올리는 데 추간판 탈출증 환자는 다리가 당기고 아파서 많이 들어올리기 어렵습니다. 이 경우, 또 다른 소견으로 근력약화와 감각이상, 반사작용 이상 등입니다. 임상적으로 디스크가 의심되면 MRI, CT 등 신경이 압박을 받고 있는지 명확히 알 수 있는 영상 검사를 추가 정밀 검사로 진행해 진단합니다. 치료방향을 결정하는 데 있어 MRI 상에서 디스크 탈출 정도보다는 실제 환자가 호소하는 증상의 정도가 더 중요합니다. 실제 MRI 상에서 디스크가 심하게 돌출돼 있어도 통증이 거의 없는 경우가 있는가 하면, 반대로 디스크는 경미한데 심한 통증을 호소하는 경우가 있습니다. 또 하지마비 증상이 있는지, 대소변 장애증상이 있는지에 따라 비수술적 치료를 할지, 수술적 치료를 할지 결정하게 됩니다. 증상이 심하더라도 하지마비 등의 신경 증상이 없는 경우, 약물치료와 물리치료, 신경차단술 또는 신경성형술 같은 보존적 치료를 시행할 수 있습니다. 신경차단술은 통증 조절을 위해 흔하게 시행하는 비수술적 방법입니다. 보통 6개월에 4~5번이상을 초과하지 않는 것이 좋습니다. 수술 치료의 경우는 경피적 내시경하 수핵 절제술 혹은 미세 현미경하 수핵 절제술 등이며, 가급적 허리 근육과 추간판의 손상을 최소화하는 최소 침습적 방법을 이용해 시행합니다. 최근 연구에 따르면 파열된 디스크의 60%는 저절로 크기가 줄어들고, 13%는 흔적도 없이 사라진다는 연구 보고가 있습니다. 파열된 디스크에서 수핵이 노출되고 시간이 지나면서 수분이 마르게 되면서 크기가 감소하게 되는 것입니다. 주위에서 디스크가 터졌어도 함부로 수술하지 말라는 의학적 근거가 여기에 있습니다. 따라서 디스크 파열로 급성 통증이 나타나더라도 초기에는 약물치료나 주사치료 같은 보존적 치료를 시행하게 됩니다. 6주간의 보존적 치료 후에도 증상에 호전이 없거나 신경증상(마비증상)이 지속되는 경우, 대소변 장애를 호소하는 경우에 한해 수술적 치료를 고려하게 됩니다. 《헬스플러스는 일상 생활에서 겪는 다양한 건강 관련 이슈를 유명 전문의(대학병원 교수/ 대표원장)와 함께 풀어가는 코너입니다. 》 &amp;lt;도움말 : 김태훈 건국대학교병원 정형외과 교수&amp;gt; 양재준 성장기업부장 jjyang@wowtv.co.kr ⓒ 한국경제TV, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=020&amp;aid=0003238387&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=21</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>美 14살 고교 총기난사범의 ‘100% 명중률’이 충격적인 이유</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>인간의 직감이 때로는 기계보다 정확하다. 비디오게임의 폭력성에 관한 논쟁을 보며 든 생각이다. 비록 가상현실이라도 유혈이 낭자한 폭력 상황이 미칠 좋은 영향은 잘 떠오르지 않는다. 게다가 게임 속 구체적 상황을 활자로 만나니 그 잔인함은 더욱 크게 다가온다. 그러나 그 심각성은 게임 업계의 로비로 가려져있다. ‘살인 세대’는 그 숨겨진 진실, 비디오게임과 폭력의 연관성을 사례와 통계로 적나라하게 드러냈다. 1997년 미국 켄터키 주 퍼두커의 고등학교에서 일어난 ‘대학살’(저자는 총기난사 사건을 이렇게 불러 마땅하다고 주장한다)은 8명의 목숨을 앗아갔다. 열네 살 남학생이던 범인은 다섯 발은 피해자 머리에, 세 발은 상체에 명중했다. 명중률은 100%였다. 범인의 명중률이 충격적인 이유는 무엇일까. 인간은 타인을 죽이길 거부하는 본성을 지녔다. 때문에 직업 군인이나 경찰도 누군가를 사살하려면 상당한 훈련이 필요하다. 2차 세계 대전에서도 근접 전투에서 실제로 총기를 발포한 병사는 15~20%에 불과했다. 그러나 ‘전투 시뮬레이션’ 훈련이 도입되자 미군의 총기 발사 비율은 6·25전쟁에서 55%, 베트남전쟁에서 95%까지 상승했다. 살상을 꺼려하는 인간 본성은, 미국 검경이 간주하는 보통 수준의 명중률이 50%에 그친다는 점에서도 드러난다. 그런데 그 어린 소년은 사건 며칠 전 훔친 총과 총알 두 세트로 사격 연습을 해본 것 외에는 총을 사용해본 적도 없었다. 그의 냉혹한 잔인함은 어디서 온 것일까. 일반적으로 총격에서 인간의 머리를 겨누는 건 극단적 원한일 경우가 아니라면 극히 드물다. 그런데 퍼두커 사건의 범인은 정확히 피해자의 머리를 겨눴다. 이는 비디오 사격게임이 플레이어에게 보상을 주는 메커니즘과 정확히 일치한다. 일인칭 슈팅 비디오게임을 했던 이 소년은 사실상 매일 밤 사격연습을 하고 있었다. 그렇게 ‘살인 습관’을 신경세포에 각인시키며 살인에 관해 무념무상의 상태가 됐다는 것이 저자의 분석이다. 퍼두커 ‘대학살’ 말고도 비디오게임이 폭력성을 붙잡아둘 고삐를 느슨하게 만든다는 증거는 차고 넘친다. 독일 본 대학에서 20, 30대 슈팅 게임 사용자를 대상으로 한 뇌 스캔 실험에서는, 사용자들이 실제 폭력적 이미지를 봤을 때도 감정 조절 능력이 떨어졌다는 것을 발견했다. 일본 도호쿠 의과대학 연구 결과에 따르면 과도한 컴퓨터게임을 한 아동은 행동을 조절하는 전두엽 발달 둔화 우려가 있었다. 물론 “비디오게임을 하고도 살인을 저지르지 않는 사람이 다수”라는 반론을 저자도 인정한다. 문제는 소수일지언정 무고한 목숨을 앗아가는 사건이 실제로 일어난다는 사실이다. 뉴욕타임스 심층 보도에 따르면 2015년 미국에선 총기 난사 사건으로 462명이 사망했고, 1314명이 다쳤다. 대표 저자 그로스먼은 23년간 군에서 복무한 심리학자다. 그가 살인에 대한 인간의 본능적 저항감을 쓴 책 ‘살인의 심리학’은 40만 부 넘게 팔리고 미 군사기관의 필독서에 올랐다. 미디어 중독 치료 교육을 하는 공동 저자와 함께 강조하는 건 예방이다. 다행히 게임 중독자라고 해도 뇌가 영원히 그 상태로 머물진 않는다고 한다. 게임 시간을 제한하는 등 실천 방법부터 부모가 활용 가능한 자료까지도 함께 정리됐다. 김민 기자 kimmin@donga.com ⓒ 동아일보 &amp;amp; donga.com, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=346&amp;aid=0000027955&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=8</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>권민중 얼굴화상, 흉터와 근육 회복하려면 '이렇게'</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>미스코리아 출신 배우 권민중이 최근 SNS를 통해 얼굴에 화상을 입었던 사실을 고백했다. 지난 27일 SBS '불타는 청춘'에 출연한 권민중은 얼굴에 흉터 자국이 누리꾼들의 이목을 끌었다. 이후 권민중은 자신의 SNS에 "사실은 6월에 얼굴을 심하게 다쳤다"며 "눈가부터 양쪽 뺨 전체에 화상을 입었는데 그나마 응급조치를 빨리하고 다니던 병원원에서 꾸준히 치료해서 흉은 안 진다고 했다"고 말했다. 얼굴화상의 경우 얼굴 근육을 사용하지 않으면 유연성과 탄력성이 떨어지고, 얼굴윤곽 변형으로 눈, 코, 입 기능에 문제가 생길 수 있다. 얼굴화상 후 흉터와 안면근육을 회복하기 위해선 '웃음' 치료가 도움이 된다. 대한화상학회 연구에 따르면 웃음치료가 안면부 화상 흉터 회복에 효과적일 뿐 아니라 색소침착과 미세 혈류량, 피부 탄력도 개선했다. 스트레스 호르몬 코르티솔 감소, 수면장애 개선에도 효과를 확인했다. 만약 얼굴 등에 화상을 입었다면 응급처치 방법은 다음과 같다. 우선 화상을 일으킨 증기, 물, 불 등과의 접촉을 피하고 시원한 물로 화상 부위를 씻어낸다. 통증이 줄어들면 깨끗한 마른 거즈 등으로 느슨하게 화상 부위를 덮어 상처를 보호해야 한다. 물집이 벗겨지면 2차 감염이 생길 수 있으므로 함부로 물집을 터뜨리는 것은 삼간다. 응급처치 이후에는 바로 병원을 찾아 치료를 받아야 한다. / 이도경 헬스조선 기자 hnews@chosun.com 전혜영 헬스조선 인턴기자 hnews@chosun.com ▶ ▶</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=020&amp;aid=0003238382&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=23</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>폭염, 혹한, 슈퍼태풍, 미세먼지…○○ 사라지기 때문이라고?</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>“‘빙하와 어둠의 공포’만큼 나를 전율케 한 책은 없었다.” 히말라야 14좌를 최초로 완등 한 전설적 산악인 메스너의 말이다. 이 소설은 1984년 소설가 크리스토프 란스마이어에게 엘리아스 카네티 문학상의 영광을 안겨줬다. 내용은 북극탐험대 이야기다. 1872년 24명의 북극 탐험대가 노르웨이의 트롬쇠항을 출발한다. 그들이 타고 간 배는 출항한 지 14일 만에 빙하로 얼어붙은 북극해에 갇힌다. 그 후 2년간 이어진 고통과 공포로 이어지는 탐험이 시작된다. 재난영화 ‘투모로우’의 시작은 주인공이 빙하시추를 하는 장면이다. 기후학자들에게 빙하는 엄청난 기후역사의 보물이다. 덴마크의 지구물리학자 빌리 단스고르가 개발한 빙심(Ice Core) 시추기술은 기후역사 연구에 큰 진전을 가져왔다. 현재는 남극 3270m 깊이에서 채취된 얼음 기둥으로 약 80만 년 동안의 날씨 기록을 비교적 정확하게 알아낼 수 있다. 그런데 지구의 역사를 알려주는 빙하들이 무섭게 녹아내리면서 사라지고 있다. “빙하가 사라졌다고 장례식을 치르고 추모비를 세웠다구요?” 말도 안 되는 것 같은 이야기가 발생했다. “오크 화산은 아이슬란드에서 최초로 빙하의 지위를 잃었다. 앞으로 200년 안에 아이슬란드의 주요 빙하들이 같은 길을 걸을 것이다. 이 추모비는 지금 무슨 일(지구온난화)이 일어나는지, 우리가 무엇을 해야 하는지 알고 있음을 알리기 위한 것이다.” 18일 아이슬란드에서 700살 된 오크 빙하의 장례식이 열렸다. 장례식은 지구온난화의 심각성을 알리기 위해 미국 라이스대 기후학자들이 준비했다. 아이슬란드 총리도 참석한 장례식에는 전 세계 기후 전문가 등 100여 명이 모여 들었다. 올 6, 7월은 기상관측 사상 가장 무더운 달이었다. 8월에도 기록적인 무더위가 이어졌던 가운데 북극에서는 빙하가 녹아내리는 양이 급증하고 있다. 정말 올 여름에 빙하가 기록적으로 많이 녹고 있을까? 기상청 북국해빙감시시스템자료를 보자. 지난달 30일 현재 남아있는 북극의 빙하면적은 678만1250제곱킬로미터다. 이는 서울시 면적(약 605제곱킬로미터)의 1만 배가 넘는다. 2017년의 727만4375제곱킬로미터, 2018년이 735만9375제곱킬로미터로 올해가 지난해보다 8% 이상 빙하면적이 줄어들었다. 그런데 더 심각한 것은 2000년 이후 가장 빙하가 많이 녹았던 해가 2012년으로 당시 687만3750제곱킬로미터가 남아있었다. 그렇다면 올해 빙하 면적이 2012년보다 더 적다. 정말로 많은 빙하가 녹아내리고 있다는 말이다. 빙하가 많이 녹으면 지구기온이 높아진다. 해수면도 상승하면서 남태평양 국가 등 저지대가 물에 잠긴다. 해류의 흐름을 변화시켜 소빙하기가 올 수도 있다. 히말라야의 빙하가 녹으면 주변국가에 ‘물 전쟁’이 발생할 가능성이 높다. 빙하 전문가인 김백민 부경대 교수는 “빙하가 많이 녹으면 우리나라는 여름철에 폭염, 겨울철에 혹한, 강력한 슈퍼태풍, 그리고 심각한 고농도의 미세먼지가 발생한다”고 말한다. 빙하는 지금도 나에게는 짙은 회색으로 다가온다. 지구온난화를 저지하기 위한 노력이 정말 필요한 때다. 반기성 케이웨더 예보센터장 한국기상협회 이사장 ⓒ 동아일보 &amp;amp; donga.com, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=032&amp;aid=0002960171&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=24</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>캐나다 CBC 시트콤 ‘김씨네 편의점’ 제작자 “한국인이란 정체성 밀어내려 했는데, 수용하고 나니 성공”</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>80년대 캐나다 이민가족 이야기, 이민 1.5세 최인섭씨 연극이 ‘원본’ 93만 고정 시청자·시즌 4도 제작 마쳐…“곧 한국에서도 선보일 것” “제가 자라던 시기에 캐나다에서는 한국이 어디있는 나라인지 모르는 경우도 많았어요. 인종차별적인 놀림을 받을 때도 중국인·일본인이라고 놀림받았죠. 그런 면에서 &amp;lt;김씨네 편의점&amp;gt;은 ‘내가 누구인가’ ‘내 가족이 어떤 삶을 살았는가’를 이해하는 여정이었다고 생각합니다.”(진 윤) 캐나다 국영방송 CBC에서 방영 중인 시트콤 &amp;lt;김씨네 편의점&amp;gt; 배우들이 한국을 찾았다. 29일 서울 마포구 상암동 한국영상자료원에서 열린 &amp;lt;김씨네 편의점&amp;gt; 기자간담회에는 현지 제작사 선더버드필름의 이반 피산 회장을 비롯해 주인공 가족으로 출연하는 캐나다 교포 배우 폴 선형 리(47), 진 윤(57), 안드레아 방(30)이 참석했다. &amp;lt;김씨네 편의점&amp;gt;은 1980년대 캐나다로 이민 간 한국인 교포 가정의 이야기로, 리와 윤은 각각 이민 1세대인 부모 김상일과 김영미를, 안드레아는 그들의 딸 재닛을 연기했다. &amp;lt;김씨네 편의점&amp;gt;은 이민 1.5세인 최인섭씨가 극본·연출·제작·연기까지 총괄한 동명의 독립연극에서 출발했다. 한 살 때 가족과 함께 캐나다로 이민 온 최씨는 현지 언론 인터뷰에서 “&amp;lt;김씨네 편의점&amp;gt;은 가족과 친구들의 삶, 그리고 제 삶의 조각들을 모아 만든 작품”이라고 설명했다. 2016년 TV 시트콤으로 만들어진 &amp;lt;김씨네 편의점&amp;gt;은 방영 3개월 만에 약 93만명의 고정 시청자를 확보했으며, 시즌2를 연이어 성공시켰다. 피산 회장은 “시트콤은 1980년대 캐나다로 이민 온 교포들이 이후의 한국을 알지 못하는 상황에서 시작된다”며 “작품 배경이 되는 토론토는 인구 50% 이상이 이민자인 도시다. 캐나다의 이런 점이 저희 TV쇼의 풍부한 자원이고 이야깃거리를 제공했다”고 설명했다. 리는 “마지막으로 한국에 온 건 36년 전이다. 걱정을 많이 했다”고 말했다. 그는 “삶의 대부분을 한국인이라는 정체성을 밀어내려, 거부하려 노력하며 지냈다. 온전히 캐나다 사람이고 싶다는 생각이 있었다. 하지만 아이러니하게도 제가 한국인이란 정체성을 완전히 받아들이고서야 성공을 이뤘다. 그런 배경이 있어 한국에 다시 오는 게 걱정스러웠다. 막상 오니 더 빨리 올 걸 하는 생각이 들었다”고 말했다. &amp;lt;김씨네 편의점&amp;gt;은 한국인에 대한 편견을 애써 감추지 않는다. 아빠 김상일은 틈만 나면 손님과 딸에게 일제강점기 등 한국 역사를 설명하고, 시도 때도 없이 튀어나오는 투철한 애국심은 크고 작은 사건·사고를 일으킨다. 한국에서는 수용 가능한 행동이 다른 문화권에선 ‘오해’를 불러일으킬 수 있음을 보여주는 장면들도 있다. 가벼운 ‘딱밤’이 아동폭력으로, ‘똥침’은 성추행으로 오해받는 모습은 현지 시청자들에게는 한국 문화를 이해할 기회를, 한국 시청자에겐 문화 차이에 대한 간접경험을 제공했다. 피산 회장은 “똥침 에피소드를 연기한 중국계 배우들은 똥침이 뭔지 아예 몰랐다. 똥침이 뭔지 이해시키는 것부터가 어려운 일이었다”며 웃었다. 윤은 “1990년대까지 미디어에서 아시아인들 모습은 중국 조폭, 갱스터로 많이 표현됐다. 제 한국 이름은 ‘윤진희’인데 캐나다에서는 진 윤으로 불린다. 저 자신을 어느 쪽에도 소속되지 못한 중간자라고 여겼지만 &amp;lt;김씨네 편의점&amp;gt;으로 스스로를 찾게 됐다”면서 눈물을 보였다. 참석자들은 “저희 쇼가 큰 사랑을 받은 이유는 결국 ‘가족 이야기’이기 때문”이라고 강조했다. 피산 회장은 “가족 간의 사랑은 어느 한 민족의 것이 아니라 모두의 것이란 걸 &amp;lt;김씨네 편의점&amp;gt;을 보고 느꼈다”며 “모든 사람의 공감을 이끌어내려면 ‘진짜 이야기’를 건드리는 것이 중요했다. &amp;lt;김씨네 편의점&amp;gt;은 ‘진짜’라는 느낌을 줬고 TV쇼로 만들면서 그 느낌을 최대한 담고 싶었다”고 했다. 현지에서 시즌3를 방영 중인 &amp;lt;김씨네 편의점&amp;gt;은 지난 9월 넷플릭스 코리아에서 공개되며 한국에서도 인기를 끌었다. 피산 회장은 “시즌4 제작을 마친 상태이며, 내년 4월 한국에서도 넷플릭스를 통해 시즌4를 선보이게 될 것”이라고 밝혔다. 이유진 기자 yjleee@kyunghyang.com ▶ ▶ ▶ ©경향신문(www.khan.co.kr), 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011049710&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=25</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>중부 내륙 곳곳 소나기…낮 최고기온 30도</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>(서울=연합뉴스) 최평천 기자 = 금요일인 30일 전국이 가끔 구름이 많고 중부 내륙은 아침부터 오후 사이(오전 6시~오후 6시) 소나기가 내리는 곳이 있겠다. 소나기 예상 강수량은 5~30㎜다. 소나기가 오는 지역에서는 돌풍이 불고 천둥·번개가 치겠다. 이날 오전 5시 주요 도시 기온은 서울 19.6도, 인천 22도, 춘천 18.7도, 대전 19.5도, 전주 21도, 광주 20.9도, 대구 19.5도, 부산 20.8도 등이다. 낮 최고 기온은 25~30도로 예보됐다. 미세먼지 농도는 전 권역이 '좋음'~'보통' 수준을 보이겠다. 아침까지 내륙을 중심으로 짙은 안개가 끼는 곳이 있어 교통안전에 신경 써야 한다. 서해안과 남해안은 바닷물 높이가 높은 기간이어서 밀물 때 저지대는 침수 피해를 보지 않도록 주의해야 한다. 바다의 물결은 서해·남해·동해 앞바다에서 0.5~1.0ｍ로 일겠다. 먼바다 파고는 서해·남해 0.5~1.5ｍ, 동해 0.5~2.0ｍ다. pc@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011051087&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=26</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>이정옥, 딸 대입 조력 의혹에 "국민 눈높이 안맞는 처신 반성"</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>딸 저서에 인도 대통령 추천사 받은 배경 묻자 "내가 도와" 인정 "추천사만 보고 입학 결정했다고 생각 안해…일반 눈높이보다 우위 점해 송구" (서울=연합뉴스) 양정우 기자 = 이정옥 여성가족부 장관 후보자는 30일 딸이 고교 3학년 때 부모 도움을 받아 쓴 책을 활용해 연세대에 '무수능 전형'으로 합격했다는 의혹에 대해 "국민 일반 눈높이보다 우위를 점했다. 이해가 어려우신 점 충분히 알고 송구스럽게 생각한다"고 사과했다. 이 후보자는 이날 국회 여성가족위 인사청문회에서 자유한국당 송희경 의원이 "딸이 '엄마 도움'으로 스펙을 쌓아 명문대를 갔다"고 지적하자 이런 입장을 내놨다. 이 후보자는 딸의 저서에 압둘 칼람 당시 인도 대통령이 추천사를 써준 것이 '엄마 도움 아니냐'는 주장에 대해 "칼람 (대통령) 추천사는 내가 도왔다고 볼 수 있다"고 인정했다. 그는 압둘 칼람 전 대통령의 자서전 '불의 날개'를 번역했는데, 이를 연결고리로 인도 대통령에게서 딸 저서에 넣을 추천사를 받았다는 의혹이 제기돼 왔다. 이 후보자는 '엄마 덕분에 딸이 스펙을 쌓아 대학에 입학했다'는 한국당 신보라 의원의 거듭된 지적에도 "대학이 (딸 저서의) 추천사만 보고 입학을 결정했다고 생각하지는 않지만, 국민 눈높이에 맞지 않는 처신에 대해서는 깊이 반성하고 있다"고 거듭 사과했다. 다만 그는 "글자 하나 (딸의 대학) 원서 쓰는 것 도와준 적은 없다"면서 "(딸이) 1학년 야간 자습 때 틈틈이 쓴 글을 (출판사에) 드렸고, 출판 기획에 돌입한 것도 2006년 6월의 일"이라며 딸 대학 입학이 정당하게 이뤄졌다는 주장을 고수했다. 그는 일본군 위안부 피해자 연구가 지지부진하다는 더불어민주당 신경민 의원의 비판에 대해서는 "'인권평화재단' 관련 법안이 발의된 것으로 알게 돼서 기뻤다"며 "그것이 이뤄지도록 열심히 노력하겠다"고 답했다. eddie@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=047&amp;aid=0002238499&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=27</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>모두가 만류한 일, 뮤지션 요조는 왜 시작했을까</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>[오마이뉴스 손화신 기자] 책과 글쓰기를 사랑하는 스타들을 만나 그들의 인생 책에 관해, 혹은 그들이 직접 쓴 책에 관해 이야기 나눕니다. &amp;lt;편집자말&amp;gt; ▲ 요조  뮤지션 겸 책방주인 겸 작가 요조 ⓒ 매직스트로베리사운드   심드렁한데 따뜻하다. 유약한 것 같은데 어딘가 단단하다. 가식이 없어 읽는 사람도 거짓 따위 훌훌 내다버리게 만든다. 뮤지션이자 책방주인인 요조의 에세이 &amp;lt;오늘도, 무사&amp;gt;의 첫인상이다. 아마도 두 번째 읽을 땐 또 다른 느낌을 받을 수 있을 것 같은 그런 글들이다. 2015년 서울 종로구 계동의 소담한 골목에다 '책방무사'를 연 요조는 지금까지도 무사하게 책방을 운영 중이다. 다만, 터는 바뀌었다. 2017년부터는 제주도 성산읍의 인적 드문 동네에서 사람들에게 책을 추천하고 책을 팔고 그 사람들을 친구로 만들면서 그렇게 살고 있다.  파는 것이 책이든 음식이든 무엇이든 사업을 벌인 이상 수지가 맞아야 하고 신경 쓸 일 또한 오만가지일 수밖에. 뮤지션으로 살아온 그에게 기타 대신 카드단말기를 두드리는 일이 결코 쉽지 않았음은, 당연한 전개였다. 그럼에도 5년 동안 꾸려온 책방무사는 그에게 어떤 기쁨과 슬픔을 주었을까. 지난 26일 오후 서울로 외출한 요조를 서교동 그의 소속사 근처 한 아지트에서 만나 이야기를 나눴다.   ▲ 책방무사  요조가 운영하는 제주도의 '책방무사' 모습. '아름상회'라 적힌 기존의 간판을 그대로 둔 게 인상적이다. ⓒ 책방무사 인스타그램 발췌 "주변 사람들에게 '나 책방 하려고!' 말했을 때 축하한다, 응원한다, 그런 말....은 하나도 없었다. 너 힘들게 돈 벌었을 텐데 그걸 수익도 안 나는 일로 날려버리려고 하느냐며 모두 만류했다." 머리로는 그 역시 동의했다. 하지만 마음은 이미 저만치 제 갈 길을 간 후였으니, 어쩔 수 없었다. 가수라는 또 다른 직업을 가지고 있기에 수익적인 어려움은 충분히 감내할 수 있을 거란 긍정적인 계산으로 "최악의 상황까지 가진 않을 것"이라 생각하고 일을 벌였다. 유쾌한 출발이었다. 하지만 산뜻하게 시작한 항해는 예상했던 '수익'이란 암초가 아닌, 시나리오에 없던 '사람'이라는 암초에 걸려 위기를 맞았다. 사려 깊은 손님도 많았지만 무례한 사람들도 부지런히 책방 문지방을 넘나들었다. 여자 혼자, 인적 드문 섬 동네의 작은 공간에서, 무기라곤 모서리가 날선 양장본 책 말고는 없는 채로, 무례한 사람들을 상대하는 건 얼굴까지 알려진 그에게 곤혹 이상이었다. 훈수를 두는 것은 약과였고, (손님은)왕이란 믿음으로 '커피 한 잔 타오라'며 책방 사장을 순식간에 종으로 전락시키는 일도 있었다. 병원까지 다니면서 극심한 스트레스를 다스리던 요조는, 결국 최후의 방법을 택했다. 무조건 버티기. 그에게 마지막 카드는 관두기가 아니라 버티기였다. 책방을 접으려는 생각을 진지하게 했지만, 반 년 만에 그만 두는 건 본인 자존심이 도저히 용납하지 못했다. 책방 한다고 인터뷰도 수두룩히 해놨는데 '요조, 반 년 만에 가게 접어!'란 제목의 후속 기사를 볼 용기도 없었다. 그래서 가게 계약기간인 2년은 최소한 버텨보자 굳게 마음 먹고 최선을 다했다. "사람은 다양하단 걸 느꼈다. 어떻게 보면 그때 제가 본격적인 사회생활을 처음 시작한 것 같다. 직장에 다니지 않았으니까. 그런데 책방을 열고서 정말 다양한 인간의 면면을 겪었고, 대처법 또한 점점 터득해갔다."        ▲ 요조  뮤지션 겸 책방주인 겸 작가 요조 ⓒ 매직스트로베리사운드   책방을 하면서 힘들었던 일을 묻는 질문에 그는 성실히 대답하면서도 동시에 무척 조심스러워했다. 인지도라는 유리한 깃발을 꽂고서 책방을 운영하면서, 누구나 겪는 일을 가지고 "나 너무 힘들었어" 말하는 게 배부른 소리로 들릴까봐 염려했다.  책방무사 오픈 초반의 6개월이 고난의 절정이었다. 1년쯤 지나자 웬만큼 다 괜찮아졌다. 최대한 감정을 배제하고 상대방에게 그의 무례함을 공손히 알려주는, 자신만의 노하우를 찾아냈고 그렇게 현명히 대처해가면서 어려움은 극복됐다. 힘든 것이 힘든 대로 힘들었듯이, 재밌는 일은 재밌는 대로 많았다.   "요조씨는 언제 오세요?" "아, 요즘 좀 바쁘시다고 해요." 요조에게 요조의 행방을 묻는다든지. 이런 에피소드보다 더 재미있는 건 '관계'였다. 몇 년 동안 꾸준히 가게를 찾은, 정을 나눈 사람들과의 일화들이 안 좋은 기억보다 훨씬 많았다. 요조는 그들을 '친구'라고 불렀다. 처음엔 손님을 친근하게 부르는 표현인가보다 했는데, 알고 보니 진짜 친구였다. 서울에서 일부러 그를 만나러 제주 책방에 오는 손님을 그는 붙잡고서 같이 놀자고 조르곤 한단다. 그렇게 안 보내주고 붙잡고 있다가 밤이 오면 남자친구와 동행해 같이 술도 마시며 이야기꽃을 피운다고. 그렇게 친구가 된다고. "책방을 하면서 가장 좋은 점은 친구가 생긴다는 거다. 뮤지션으로는 만들기 힘든 친구들을, 책방을 했기 때문에 사귈 수 있었다. 친구들 직업이 다양하다. 태권도 관장님도 있고, 아버지를 도와서 아크릴 공장을 하는 친구도 있다. 손님이란 인연이 친구가 되는 게 너무 재미있다."   ▲ 책방무사  책방주인 요조가 큐레이팅하여 선보인 '뒷모습 전'. ⓒ 책방무사 인스타그램 발췌 책방에서 어떤 책을 선정해서 판매하는지 물었다. 이에 요조는 "제주도 책방은 사람들이 오다가다 우연히 들를 수 있는 곳이 아니라, 일부러 시간을 내서 찾아오시는 분들이 대부분인 곳"이라며 "그분들께 도시에서 흔히 볼 수 있는 베스트셀러나 신간들만을 소개해드리는 건 의미가 없을 것 같았다. 그래서 대중적으로 덜 알려졌지만 읽을 가치가 있는 책을 골라서 선보이려고 노력하고 있다. 여기에 더해 페미니즘 도서들도 있고, 제주를 알려줄 수 있는 책들도 있다"고 설명했다. "어떻게 보면 큐레이팅이 동네책방의 핵심인 듯하다. 세상엔 너무도 많은 책이 쏟아지고 있는데, 거기서 작은 책방이 해야 할 일은 '세상에 이런 책도 있다' 하고 알려지지 않은 좋은 책을 소개해주는 거라 생각한다. 요즘은 어떤 책이 베스트셀러가 되는 데 마케팅이 절대적인 방식이 되는 경우가 많은 것 같다. 거대한 자본의 힘 때문에, 충분히 가치 있는 책이 묻히고 있다. 그런 책을 찾아내서 사람들에게 보여주고 싶다."   ▲ 책방무사  책방은 그가 사람을 만나고, 사람을 사귀는 공간이기도 하다. ⓒ 책방무사 인스타그램 발췌   ▲ 책방무사  책방이 문을 열자, 제일 먼저 방문하려는 강아지 손님. 요조는 자신의 카메라로 책방의 소소한 풍경들을 담아 인스타그램을 통해 공유한다. ⓒ 책방무사 인스타그램 발췌 비즈니스적인 질문도 던져봤다. 요즘 책방의 수지는 균형적인지. 이 물음에 요조는 "적자도 아니고, 엄청난 흑자도 아니고 현상유지 차원에서 살짝 플러스되거나 살짝 마이너스되거나 왔다갔다 한다"고 답했다. 하지만 진짜 답변은 그 다음에 이어졌다.  "돈으로, 수치로써 매길 수 없는 경험을 책방을 하면서 정말 많이 했다. 적자와 흑자를 떠나서 돈으로 얻을 수 없는 것들을 얻었다는 점에서 저는 성공한 사업을 하고 있다고 생각한다. 세상은, 모든 것의 기준이 돈이기 때문에 제가 처음에 책방을 한다고 했을 때도 돈을 못 벌 일인데 왜 하느냐는 말을 들었던 거고. 돈만으로 무언가를 전부 평가하는 사회는 문제가 있다고 생각한다. 책방무사의 운영 방식도 그런 생각에 바탕을 두고 있는 것 같다." 예정된 인터뷰 시간이 배로 지났다. 책방 이야기를 시작으로 글쓰기와 삶, 책에 관해 이야기 나눌 요량이었지만, 결국 책방 이야기로 시간을 다 써버렸다. 다급한 마음으로 글쓰기에 관한 간단한 질문을 건넸다. 왜 글을 쓰는지. 너무 간단해서 어려운 이 물음에 그는 "책을 읽다보니까 '나도 써보고 싶다'는 욕구가 자연스럽게 생겼기 때문"이라며 "평소에 내가 느꼈지만 표현하지 못한 것을 누군가 글로써 그 생각에 실체를 부여했을 때, 그럴 때 속이 시원해지잖나. 나도 그렇게 표현해보고 싶었다"고 했다. 그는 오는 9월에 임경선 작가와 주고받은 편지 형태의 책 하나와, 그 다음달인 10월 말에는 &amp;lt;아무튼, 떡볶이&amp;gt; 출간을 앞두고 요즘 막바지 원고작업 중이다. 장강명 작가와 함께하는 팟캐스트 &amp;lt;책, 이게 뭐라고&amp;gt;도 여전히 진행 중이다. 글과 책에 관한 이야기는 어쩔 수 없이 미래의 언젠가 속으로 미루고, 마지막으로 그에게 다음 질문을 던졌다. 책방무사란 요조에게 어떤 곳인지. 역시나 신중한 태도로 한참 생각한 후에 그는 이렇게 답했다.      "책방에 오시는 분들의 마음속엔 저마다의 기대나 고민 등이 있을 것이다. 그게 어떤 마음이든 그 마음에 도움이 되는 공간이 되었으면 좋겠다. 정답이나 해답이 되진 않겠지만, 조금이라도 누군가에게 도움이 되는 책방이면 좋겠다."    ▲ 요조   ⓒ 매직스트로베리사운드 ▲ 요조  뮤지션 겸 책방주인 겸 작가 요조 ⓒ 매직스트로베리사운드 저작권자(c) 오마이뉴스(시민기자), 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=346&amp;aid=0000027960&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=28</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>심·뇌혈관질환 예방하려면, '혈관 숫자' 알아두세요</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>심·뇌혈관질환은 우리 국민의 주요 사망원인이다. 통계청의 자료에 따르면 우리나라 국민의 사망원인 2위는 심장 질환(10.8%), 3위는 뇌혈관질환(8%)이 차지했다. 전문가들은 심·뇌혈관질환을 예방 및 관리하기 위해 자기 혈관의 숫자를 알아야 한다고 강조한다. 자기혈관 숫자란 혈압·혈당·콜레스테롤을 말하는 것으로, 이들 수치를 알고 관리해야 건강한 혈관을 유지할 수 있다. 심·뇌혈관질환은 심근경색 등 심장질환과 뇌졸중 등 뇌혈관질환을 합쳐 부르는 말이다. 질병관리본부가 조사한 2017 국민건강통계에 따르면 30대 고혈압 유전자 중 의사로부터 고혈압 진단을 받은 비율, 즉 고혈압 인지율은 19.5%에 그쳤고, 30대 당뇨병 인지율도 36.4%에 그쳤다. 40대도 고혈압 인지율은 44%, 당뇨병 인지율은 52.4%로 낮았다. 경제활동이 가장 활발한 30~40대는 심뇌혈관질환 관리가 가장 저조한 것이다. 심·뇌혈관질환 예방을 위해서는 젊은 나이라고 해도 안심하지 말고, 선행 질환인 고혈압·당뇨병·고콜레스테롤혈증 등을 예방하기 위해 올바른 생활 습관을 지녀야 한다. 또한 이러한 질환을 조기에 발견할 수 있도록 꾸준한 정기 검진이 필수다. 건강한 혈관을 위한 정상 수치는 혈압 120/80mmHg 미만, 공복 혈당 100mg/dl 미만, 콜레스테롤 200mg/dl 미만이다. 자기혈관 숫자 알기와 더불어 심·뇌혈관 예방관리를 위한 9대 생활수칙을 지키는 것이 좋다. 질병관리본부와 8개 전문학회가 2008년 공동으로 제정한 생활수칙은 다음과 같다. [심·뇌혈관 예방관리를 위한 9대 생활수칙] 1. 담배는 반드시 끊는다. 2. 술은 하루에 한두 잔 이하로 줄인다. 3. 음식은 싱겁게 골고루 먹고, 채소와 생선을 충분히 섭취한다. 4. 가능한 한 매일 30분 이상 적절한 운동을 한다. 5. 적정 체중과 허리둘레를 유지한다. 6. 스트레스를 줄이고, 즐거운 마음으로 생활한다. 7. 정기적으로 혈압, 혈당, 콜레스테롤을 측정한다. 8. 고혈압, 당뇨병, 이상지질혈증(고지혈증)을 꾸준히 치료한다. 9. 뇌졸중, 심근경색증의 응급 증상을 숙지하고 발생 즉시 병원에 간다. / 이도경 헬스조선 기자 hnews@chosun.com 전혜영 헬스조선 인턴기자 hnews@chosun.com ▶ ▶</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=015&amp;aid=0004201271&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=29</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>[이지현의 생생헬스] 성인남성 절반은 '혈관 속 기름때' 위험…빵·달걀 노른자 등 피해야</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>다음달 4일은 콜레스테롤의 날이다. 콜레스테롤은 지방성분 중 하나다. 자신의 콜레스테롤 수치를 미리 파악해 심혈관질환을 예방하자는 취지다. 국내 30세 이상 성인 절반은 혈액 속에 지방 성분 균형이 깨진 상태인 이상지질혈증을 갖고 있다. 남성은 10명 중 6명으로 그 비율이 더 높다. 혈액 속에 콜레스테롤이 쌓여 동맥경화가 심해지면 협심증, 심근경색, 뇌졸중 등 심각한 질환으로 이어질 위험이 높다. 혈액 속 지방수치를 잘 관리해야 이들 질환을 막을 수 있다. 이상지질혈증, 고지혈증 등에 대해 알아봤다. 지질은 몸속에 있는 기름 성분이다. 고체 덩어리인 지방, 액체인 기름을 포함해 지방산, 콜레스테롤 등을 통칭한다. 지질은 건강을 유지하는 데 꼭 필요한 성분이다. 콜레스테롤은 몸속 세포막을 만들고 호르몬을 합성하는 데 쓰인다. 중성지방, 지방산도 인체 조직과 세포 에너지로 활용된다. 우리는 지질 성분을 음식으로 먹기도 하고 간에서 만들어내기도 한다. 지질은 단백질 알갱이와 뭉쳐져 혈액에 들어가 몸속 혈관을 돌아다닌다. 이렇게 만들어진 지질과 단백질 알갱이를 지단백 덩어리라고 부른다. 지단백 덩어리 중 초저밀도 지질단백질(VLDL), 저밀도 지질단백질(LDL) 등은 콜레스테롤, 중성지방 등을 조직과 세포로 실어 나른다. 고밀도 지질단백질(HDL)은 조직과 세포에서 쓰고 남은 지질을 쓸어 담아 간으로 실어 나르는 청소차와 같은 역할을 한다. 이때 지방을 운반하는 VLDL, LDL이 지나치게 많아져 조직과 세포로 배달되기 전 혈관에 흘러넘치면 혈관에 지질이 쌓여 좁아질 위험이 있다. VLDL, LDL이 지나치게 많은 것은 아니지만 혈관에 남은 지질을 쓸어 담아야 할 HDL이 적어 청소되지 않을 때도 혈관이 좁아진다. 몸속 지질 균형이 맞지 않는 상태다. 혈액 속 지질 수치는 콜레스테롤 수치와 중성지방 수치로 확인하는데 이 수치가 정상보다 높은 상태를 고지혈증이라고 부른다. 대개 나이가 들면 혈청 속 콜레스테롤과 중성지방의 수치는 조금씩 높아진다. 국내 고지혈증 기준은 콜레스테롤 및 중성지방 수치가 200㎎/dl 이상일 때다. 고지혈증이 있고 HDL이 적은 상태는 이상지질혈증이라고 부른다. HDL 수치는 40㎎/dl을 초과해 유지되는 것이 좋다. 당뇨, 심장혈관병, 콩팥병 등이 있으면 콜레스테롤과 중성지방 수치는 낮을수록, HDL 수치는 높을수록 좋다. 이상지질혈증은 유전적 요인으로 생기는 일이 많지만 나쁜 식습관, 운동 부족, 비만, 당뇨병, 갑상샘질환 등도 원인이 된다. 고지혈증과 이상지질혈증은 혈관이 좁아지는 동맥경화로 이어질 위험이 있다. 동맥경화가 생기면 협심증, 심근경색증, 뇌졸중이 발생할 위험이 높아진다. 고지혈증은 평생 조절해야 하는 질환이다. 스스로 고지혈증 유무를 확인하는 게 치료의 첫걸음이다. 심한 고지혈증이 아니라면 대부분 아무런 증상이 없다. 혈액 검사를 통해 확인해봐야 한다. 나이가 많거나 고혈압 당뇨 흡연 비만 등 심장병 위험인자를 보유한 사람은 검사해야 한다. 부모 중 고지혈증 환자가 있거나 심장병을 앓은 적이 있는 사람도 마찬가지다. 일부 고지혈증 환자는 식이요법, 운동만으로도 약 없이 조절할 수 있다. 생활습관 개선을 통해 콜레스테롤과 중성지방 수치를 15~20% 떨어뜨릴 수 있는 것으로 알려졌다. 매일 콜레스테롤 섭취를 300㎎ 이하로 줄이는 것이 좋다. 중성지방이 많으면 탄수화물과 동물성 지방 섭취를 줄이고 매일 먹는 칼로리를 제한하는 것도 도움이 된다. 스스로 적당한 칼로리를 파악하기 어렵기 때문에 영양사 등 전문가의 도움을 받는 것이 좋다. 운동은 30분 이상 1주일에 세 번 넘게 해야 한다. 운동을 하면 혈액 속 중성지방을 줄이고 HDL 수치를 높이는 데 도움이 된다. 당뇨병 환자라면 혈당을 잘 조절해야 한다. 하루 소주 두 잔 이상 술을 마시는 것은 삼가야 한다. 통곡물과 잡곡, 두부, 생선, 채소가 많이 든 식사를 하는 것이 좋다. 고지혈증과 이상지질혈증을 치료하거나 예방하기 위해 가장 중요한 것은 정상 체중을 유지하는 것이다. 비만하거나 과체중인 사람이 체중을 줄이면 혈액 속 콜레스테롤, LDL콜레스테롤, 중성지방 수치가 내려간다. 체중을 5~10% 정도만 줄여도 이상지질혈증이 개선된다. 적정 수준의 체중을 유지하도록 에너지 섭취를 조절해야 한다. 매일 섭취하는 열량에서 지방 비율은 30%를 넘지 않도록 해야 한다. 식물성 기름도 많이 섭취하면 좋지 않다. 튀기거나 부치는 조리법 대신 굽기, 찜, 삶기 등의 조리법을 택하는 것이 좋다. 포화지방을 많이 섭취하면 LDL 콜레스테롤 수치가 높아진다. 소고기, 돼지고기의 지방, 닭 등 가금류의 껍질, 소시지 베이컨 햄 등 육가공식품, 치즈 생크림 등 유제품 등에 포화지방이 많이 들었다. 커피를 마실 때 타 먹는 프림, 라면, 과자에 많이 든 팜유도 마찬가지다. 트랜스지방 섭취는 피하는 것이 좋다. 높은 온도에서 오랜 시간 처리된 기름에 많이 들었다. 트랜스지방은 중성지방 수치를 높이고 HDL 콜레스테롤 수치를 낮춘다. 대표 제품은 마가린이다. 팝콘, 패스트푸드, 감자튀김, 크루아상, 도넛, 페이스트리 등에 트랜스지방이 많다. 고지혈증이나 이상지질혈증이 있다면 콜레스테롤을 지나치게 많이 섭취하는 것도 삼가야 한다. 곱창 등 육류 내장, 게 등 갑각류, 오징어, 장어, 달걀노른자(하루 1개 이상) 등을 지나치게 많이 먹지 말아야 한다. 탄수화물, 단순당을 지나치게 많이 먹는 것도 나쁘다. 밥, 고구마, 떡, 국수, 빵, 사탕, 케이크, 콜라 등이다. 반면 잡곡, 콩, 채소, 해조류 등에 많이 든 섬유소는 몸속 콜레스테롤과 지방의 배출을 돕는다. 매끼 채소류를 두 접시 이상 섭취하고 주 2~3회 정도 생선을 섭취하는 것이 좋다. 한기훈 서울아산병원 심장내과 교수는 “고지혈증 환자는 우선 비약물요법을 3~6개월간 시행하는 것이 원칙”이라며 “이 기간 혈청 지질 수치가 정상화되지 않으면 약물요법을 사용한다”고 했다. 최근에는 효과 좋은 지질저하제가 많이 개발됐다. 약을 먹으면 혈중 지질수치가 바로 정상으로 회복된다. 약물치료가 필요하다면 의사 처방에 따라 꾸준히 약을 먹어야 한다. 당장 고지혈증 증상이 없다고 약을 임의로 끊으면 안 된다. 약을 먹어 정상 수치를 유지해야 심·뇌혈관 질환을 막을 수 있기 때문이다. bluesky@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=081&amp;aid=0003025483&amp;date=20190830&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=30</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>“탑골 제니” 열광하는 3040… 동접자 2만 돌파 ‘온라인 탑골공원’</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>[서울신문] SBS 공식 유튜브 채널 ‘SBS KPOP CLASSIC’(SBS 케이팝 클래식)의 ‘인기가요 라이브 스트리밍’이 폭발적인 인기를 얻고 있다. SBS는 ‘인기가요 라이브 스트리밍’이 방송 3주 만에 동시접속자수 2만 2000명을 돌파했다고 30일 밝혔다. 지난 6일 ‘SBS 인기가요’의 1999년 방송분들의 스트리밍을 시작한 지 3주 만에 달성한 기록이다. 레트로 감성을 자극하는 추억의 스타들과 히트곡이 쉼 없이 이어지는 방송은 네티즌들 사이에서 ‘온라인 탑골공원’으로 불리며 화제가 되고 있다. S.E.S., 핑클, god 등 원조 아이돌들의 레전드 무대부터 톱스타가 된 연예인들의 신인 시절 모습이 시청자들을 사로잡는다. 실시간 채팅창을 가득 메운 시청자들의 반응과 각종 ‘드립’은 ‘인기가요 라이브 스트리밍’을 보는 또 다른 즐거움이다. 3040 세대를 중심으로 한 시청자들은 과거 스타들에게 ‘탑골제니’, ‘탑골선미’ 등 애칭을 붙여주며 애정을 쏟고 있다. 유튜브, 아프리카TV, 트위치 등 온라인 플랫폼 시청자수 추이를 확인할 수 있는 ‘아프리카 도우미’ 자료에 따르면 ‘SBS 케이팝 유튜브’ 채널은 지난 29일 유튜브 채널 시청자 수 4위를 기록하기도 했다. 채널 구독자 수는 이달 초 6만명 수준에서 지난 28일 10만명, 29일 11만명으로 급증하고 있다. ‘SBS 케이팝 클래식’ 채널 운영자는 시청자들의 뜨거운 호응과 관심에 SBS를 통해 “실시간 채팅을 통해 다양한 계층의 생각과 반응을 알 수 있고, 재치 있는 멘트들이 많아 앞으로도 더욱 매력적인 채널이 될 것이라 생각한다”며 “방장, 시삽, 공원관리자 등으로 애정을 가지고 불러주셔서 감동했다”고 전했다. 이정수 기자 tintin@seoul.co.kr ▶ ▶ ▶ 공짜로 만화를 볼 수 있다? 당신의 ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011047765&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=1</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>김성령, '조국 여배우' 루머 법적 대응…"선처없다"</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>(서울=연합뉴스) 송은경 기자 = 조국 법무부 장관 후보자와 관련된 루머에 휩싸인 배우 김성령이 29일 "허위사실을 유포하는 자에 대해선 명예훼손 혐의로 조치할 예정"이라고 강력한 법적 대응을 예고했다. 김성령과 소속사 와이원엔터테인먼트 법률대리인인 법무법인 지평은 이날 보도자료를 내고 "최근 SNS 등을 통해 유포된 동영상에서 언급되는 '정치인 후원 여배우'는 김성령이 아님을 말씀드린다"며 "위 동영상에서 언급된 내용 역시 김성령과는 아무런 관련이 없다"고 밝혔다. 이 같은 입장은 최근 한 유튜버가 '조국이 밀어준 여배우는 누구?'란 제목의 방송을 하면서 김성령 이름이 오르내린 데 따른 것이다. 이 유튜버는 한동안 슬럼프를 겪던 여배우가 갑자기 다수 작품과 광고에 출연했다면서 이를 조 후보자가 도왔다고 주장했다. 법률대리인은 "김성령을 동영상에서 언급된 '정치인 후원 여배우'와 관련지어 허위사실을 유포하는 자에 대해선 명예훼손 등 혐의로 강력한 조치를 할 예정"이라며 "의도적으로 허위 사실을 유포하는 행위가 있을 경우, 어떠한 선처나 합의 없이 대응할 것"이라고 강조했다. norae@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=469&amp;aid=0000417463&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=2</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>‘정준영 단톡방’ 사과 5개월 만에… ‘BJ 메시지 논란’ 이종현 “씨엔블루 탈퇴”</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>28일 소속사 통해 입장문 내… “비판 달게 받겠다” 여성 개인방송 진행자(BJ)에게 ‘뱃살 귀여우세요’란 메시지를 보낸 의혹을 받고 구설에 오른 아이돌 록밴드 씨엔블루의 기타리스트인 이종현(29)이 밴드를 떠난다. 지난 3월 가수 승리와 정준영의 단체 대화방에서 여성을 성상품화한 언급을 한 사실이 경찰 조사 결과 드러나 사회적으로 물의를 빚은 뒤 불과 5개월 만에 또다시 여성에 대한 부적절한 언급으로 도마 위에 올라 밴드 탈퇴를 결정한 것으로 보인다. 이종현은 소속사인 FNC엔터테인먼트를 통해 18일 입장문을 내고 “먼저 제 부적절한 언행으로 상처를 입은 분들과 크게 실망하신 모든 분들께 다시 한번 죄송하다는 말씀을 드린다”며 “저로 인해 멤버들이 피해를 입게 되어 미안한 마음이고, 멤버들에게도 탈퇴 의사를 전했다”라고 알렸다. 이종현은 BJ인 박민정씨가 이날 사회관계망서비스(SNS)에 아이디 ‘cnbluegt’란 네티즌이 자신에게 보낸 메시지를 공개하면서 입길에 올랐다. ‘뱃살 너무 귀여우세요ㅋㅋㅋ’ 같은 성희롱적인 메시지를 보내서다. ‘cnbluegt’은 이종현이 사용하던 인스타그램 계정이다. 박 씨가 공개한 메시지 캡처본을 보면 이종현은 27일 박 씨에게 메시지를 보냈다. 이종현은 지난해 8월에 입대에 현역으로 군 복무 중이다. 병역 이행 중에 여성 BJ에 성적 농담을 보낸 정황이 드러나자 그를 향한 여론은 더욱 더 싸늘해졌다. 이종현은 지난 3월 승리와 정준영 단체방 멤버로 구설에 오른 뒤 “공인으로서 모든 언행을 조심할 것이며 반성하고 또 속죄하겠다”고 한 바 있다. 이종현은 입장문에서 “저의 잘못을 깊이 뉘우치며 많은 분의 지적과 비판을 달게 받겠다”라며 “불미스러운 일로 물의를 일으켜 죄송하다”고 사과했다. 양승준 기자</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=005&amp;aid=0001233779&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=3</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>“폐암이네요”… 병원 가보니 의사가 “맞다”</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>저는 올해 80세로 부산 대망교회에 출석하고 있습니다. 2012년부터 소화가 잘 안 되고 잦은 복통에 한의원을 다니며 침을 맞았습니다. 그러나 시간이 지날수록 통증이 심해졌습니다. 70세가 넘도록 건강했지만, 점점 기운이 없어 누워 지내는 날이 많아지고 소화가 되지 않아 밥도 거르는 날이 많아졌습니다. 2014년 국민건강보험 건강검진을 받았는데, 암이 의심된다고 했습니다. 백병원으로 가서 조직검사를 받으라고 했습니다. ‘진짜 암이면 어떡하지’라는 생각에 혼자 울었습니다. 자녀들에게 병원 가서 조직검사를 받아야 한다고 하니 대망교회 다니는 막내딸이 먼저 홍예숙 사모님을 만나보자고 했습니다. 평소 사모님의 이야기를 많이 들어서 당장 만나고 싶었습니다. 사모님께서 폐암이라 하셨고 병원 가서 검사를 받아보라 하셨습니다. 정말로 백병원에서 폐암 3기 진단을 받았습니다. 사모님이 내 몸을 꿰뚫어 보시는 게 너무 신기했습니다. 며칠 후 꿈속에 사모님이 나왔습니다. 저를 보시며 오른손에 물컹한 물체를 들고 서 계셨는데 물 같은 것이 줄줄 흘렀습니다. 잠에서 깬 저는 사모님께 가면 암이 낫겠다는 확신이 들었습니다. 그래서 무작정 짐 싸서 2014년 9월 서울로 올라갔습니다. 1남 3녀 중 막내딸만 예수님을 믿고 있었습니다. 서울로 간다고 하니 나머지 자녀들과 친척들이 “당장 수술해야 하는데 어디를 가느냐”며 극구 말렸지만, 저를 막을 순 없었습니다. 서울 막내딸 집에서 지내며 처음 며칠간은 ‘진짜 나을까?’라는 생각으로 마음이 흔들렸습니다. 그런데 사모님이 인도하시는 금요치유집회에서 첫 안수를 받고 난 후 밥맛이 어찌나 좋은지 오랜만에 하루 3끼를 다 챙겨 먹고 간식까지 먹어도 소화가 잘됐습니다. 3개월이 될 때 갑자기 통증이 심해 급히 사모님이 안수를 해주셨는데 신기하게도 통증이 사라졌습니다. 하루는 새벽기도를 하는데 예수님이 저를 향해 걸어오시는 환상을 봤습니다. 어떤 날은 홍 사모님의 안수 후 온몸이 불덩이처럼 뜨거워지는 성령체험도 하고 방언도 받았습니다. 과거 저는 점보고 굿을 하며 부적을 온 집 벽에 붙여놓을 정도로 미신에 사로잡혔습니다. 그것도 모자라 베개와 옷에 넣고 다니며 1년에 10번 있던 제사를 준비하고 신줏단지를 모시며 누구보다 열심히 절에 다녔습니다. 막내딸이 “엄마, 교회 가서 예수님 믿어요”라고 말하면 “종교가 집에 2개 있으면 안 된다. 내가 죽을 때쯤 되면 교회 갈게”라고 둘러댔습니다. 그런데 이 말이 씨가 될 줄 몰랐습니다. 그 후 집에 있는 신줏단지와 부적을 다 태우고 제사를 없애버렸습니다. 75세 할머니가 돼 예수님을 믿은 제가 무슨 기도를 할 줄 알았겠습니까. 그저 ‘하나님, 저를 불쌍히 여겨 살려주세요. 살려주시면 예수님 잘 믿을게요. 전도할게요’라는 게 다였습니다. 사모님께서는 안수 후 암의 크기가 확연히 줄어들 때마다 병원에 가서 진단을 받으라고 했습니다. 수술이나 항암치료, 약 한 번 안 먹고 암의 크기가 계속해서 줄어드니 있을 수 없는 일이라며 병원에서 놀라워했습니다. 그동안 사모님의 안수를 받고 치유 받은 암 환자가 많다는 이야기는 들었지만 제가 그 기적의 주인공이 될 줄은 몰랐습니다. 안수의 능력은 정말 대단했습니다. 사모님은 암이 다 나았다고 선포해주시며 예수님 잘 믿고 병에서 자유하시라고 말씀해 주셨습니다. 금요치유집회가 소문이 나서 전국에서 많은 사람이 찾아오고 외국에서도 찾아오는 것을 봤습니다. 다들 알 수 없는 질병으로, 이런저런 일들로 고통받다가 사모님 만나 안수받고 치유되는 것을 보면 놀라움과 감사함의 연속입니다. 작고 연약한 몸으로 사역을 위해 밤낮없이 기도하시며 병든 영혼들을 예수님의 마음으로 섬겨주셨습니다. 제가 치유받고 보니 더욱 오창균 목사님과 사모님을 위해 부족하지만, 기도로 잘 섬겨야겠다는 생각이 듭니다. 예수님을 믿고 나니 이렇게 행복하고 평안한데 젊을 때부터 믿지 않은 것이 너무 후회됩니다. 폐암으로 죽을 수밖에 없던 저를 살려주시고 새 생명 주신 하나님께 감사드립니다. 천국 가는 그날까지 예수님을 전하며 살겠습니다. 정리=백상현 기자</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=366&amp;aid=0000441870&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=4</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>[르포] “가격 내려도 안팔려”…중고차 시장서 자취 감춘 일본차</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>"중고 일본차 매물이 있나요?" "일본차를 왜 찾으시나요. 요즘은 아무도 안 사는데 혹시 일본인이세요?" 28일 서울 강남구 율현동 중고차매장에서 만난 매매상 이모(51)씨는 "일본차는 가격을 내려도 잘 안 팔린다. 지금은 아무도 안 산다고 보면 된다"고 말했다. 이씨는 "딜러들이 손해를 보더라도 차를 처분하려고 하지만 일본제품 불매 운동이 시작되고부터 판매 문의, 등록 건수가 계속 줄어드는 추세다"라고 했다. 서울 최대 규모인 율현동 중고차매장은 전시차종이 1만여대에 달해 소비자들이 즐겨 찾는 곳이다. 그러나 이날 매매단지에서 일본 브랜드 차량을 찾는 것은 사막에서 바늘 찾기와 같았다. 매매단지 건물 2동 지하 1층부터 3층을 찾아 헤매도 일본차는 약 75대에 불과했다. 일본 차량 매매상 김모(34)씨는 "이전까지 7~8월은 여름 휴가철을 전후해 차를 팔고 사는 경우가 많아 중고차 성수기에 해당했다"며 "하지만 일본 브랜드에 대한 불매 여파와 경기 악화로 중고차 매매상들 모두가 힘겨운 여름을 보내고 있다"고 말했다. 서울의 대표적인 중고차 매매 시장인 성동구의 장안평 중고차 매매단지도 일본 불매 운동의 유탄을 비껴가지 못했다. 매매단지 4개(A, B, C, D)동 주차장에 줄지어 늘어선 차를 30분 동안 조사했지만, 대부분 국내와 독일 브랜드 차량뿐이었다. 간신히 찾은 렉서스 2대는 눈에 띄지 않는 A동 구석에 주차돼 있었다. 일본차가 중고차 시장에서 자취를 감춘 것은 매매상들이 불매 운동에 따른 싸늘한 시선을 의식해 일본차 매입을 꺼리고 있는 까닭이다. 일본차 소유주들이 시장에 내놓으려고 해도 이를 입찰하려는 매매상이 크게 줄었다. 온라인 중고차 경매서비스인 ‘헤이딜러’는 일본제품 불매운동을 계기로 일본 대표 인기 차종의 헤이딜러 경매 입찰 매매상 수가 6월과 비교해 8월에는 57% 줄었다고 발표했다. 일본 중고차 1대 당 평균 입찰 매매상은 6월 8.9명에서 7월 6.6명, 8월 3.8명으로 줄었다. 이는 2018년 BMW 화재사건 후 대표 모델인 520d 평균 입찰 수 최저치인 4.8명보다도 낮은 수치다. 29년 차 매매상인 나운형(51)씨는 "이달 들어 일본차 거래 자체가 없다"고 했다. 나씨는 "신차에 대한 국내 소비자들의 선호도가 강해지면서 전체적인 중고차 시장 경기가 안 좋아진 것도 있지만, 일본차는 불매 운동 악영향이 크다"며 "본인도 혼다 차종을 몰고 있는데, 눈치가 보여 차를 팔아야 하나 고민하고 있다"고 했다. 일본차에 대한 인기가 급격히 식은 데는 일부 소비자들의 과격한 불매 운동 탓이 컸다는 분석이 나온다. 경기 김포에서는 지난 25일 일본 차량이라는 이유로 골프장에 주차된 렉서스 승용차 3대를 돌로 긁어 파손한 의사가 경찰에 붙잡혔고, 인천에서는 지난달 일본 차량을 일부러 부순 뒤 길거리에 전시하는 퍼포먼스가 펼쳐졌다. 한 중고차 매매상은 "일본차에 김치 테러를 하고, 수리를 거부한다는 등 황당한 루머가 연이어 쏟아지면서 소비자들이 큰 부담을 느낀 것 같다"고 말했다. 상황이 이렇다 보니 중고차 매매상들은 '울며 겨자 먹기'식으로 가격을 낮춰 차를 판매하고 있다. 인기 모델인 렉서스 ES300h는 올해 상반기보다 200만원 정도 내린 가격에 거래되고 있다. 2018년에 출고된 ES300h의 중고 거래 가격은 5000만원대에서 4300만원으로 내렸다. 도요타의 미니밴인 시에나의 중고 가격은 4200만원대에서 3900만원을 밑돌고 있다. 매매상 이동철(50)씨는 "일본차는 기본적으로 200만~300만원은 떨어졌다고 보면 된다"며 "이거(일본 불매운동) 터지기 전에 물건 가져온 딜러들은 지금 손해를 보면서라도 팔려는 눈치다"라고 말했다. 불매 운동이 길어지면서 일본차 브랜드에 재직 중인 직원들은 동요하고 있다. 일부 일본 브랜드는 전시장 문을 닫거나 법인을 철수할 것이란 루머에 휩싸였다. 일본 브랜드 중 국내 판매량이 가장 많은 렉서스도 긴장을 놓을 수 없는 상황이다. 2019년식 ES300h의 경우, 불매 운동 이전까지만 해도 차를 구매 후 인도까지 3개월 이상 기다려야 했지만, 현재는 주문이 없어 계약하면 바로 받을 수 있다. 렉서스 직원 조모(33)씨는 "일본 보복 이전과 비교해 강남 전시장 방문객수가 90% 이상 줄었다"며 "딜러는 판매 수당으로 월급을 받다 보니 죽을 맛이다. 언제 좋아진다는 확신도 없다"고 했다. 조씨는 이어 "아직 '탈출러시'는 없지만 슬슬 다른 브랜드로 이직하려는 딜러들이 나오는 조짐이 보인다"며 "렉서스뿐 아니라 닛산 등 다른 일본 브랜드도 비슷하다고 들었다"고 말했다. [한동희 기자 dwise@chosunbiz.com] [민서연 인턴기자(중앙대 영어영문학과 졸업)] chosunbiz.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=469&amp;aid=0000417681&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=6</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>‘정법’이 맺은 인연… 이상화ㆍ강남 10월 결혼</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>29일 “신뢰 바탕 사랑 결실” 결혼 발표.. 교제 1년 여 만에 화촉 ‘빙속 여제’ 이상화(30)와 가수 겸 방송인 강남(32)이 10월 12일 서울의 한 호텔에서 결혼한다. 또 한 쌍의 유명 운동선수와 연예인 부부의 탄생이다. 이상화의 소속사 본부이엔티와 강남의 소속사 디모스트엔터테인먼트는 29일 “이상화와 강남이 서로에 대한 사랑과 신뢰를 바탕으로 결혼이란 사랑의 결실을 맺게 됐다”라며 두 사람의 결혼 소식을 알렸다. 지난 3월 두 사람의 교제 사실이 알려진 뒤 5개월 만의 결혼 발표다. 이상화와 강남은 지난해 9월 방송된 SBS 예능프로그램 ‘정글의 법칙 인 라스트 인도양’ 편에 함께 출연한 뒤 연인 사이로 발전했다. 결혼을 앞둔 강남은 일본 국적을 포기하고, 한국 귀화를 준비 중이다. 일본인 아버지와 한국인 어머니를 둔 강남은 일본에서 태어났다. 이상화는 2010년 밴쿠버 동계올림픽과 2014년 소치 동계올림픽 500m 스피드스케이팅 종목 금메달리스트다. 한국 스피드 스케이팅의 간판 스타였던 이상화는 지난 5월 은퇴를 선언한 뒤 추성훈, 광희 등이 소속된 연예기획사와 계약을 맺고 새 출발을 준비하고 있다. 강남은 2011년 힙합그룹 MIB 멤버로 한국에서 연예 활동을 시작했다. 이후 예능프로그램 ‘학교 다녀오겠습니다’와 ‘나 혼자 산다’ ‘정글의 법칙’ 등에 출연하며 인기를 누렸다. 장르를 뛰어넘어 태진아와 트로트 앨범을 내 활동하기도 했다. 스포츠ㆍ연예계 대표 커플로는 축구 선수 기성용(뉴캐슬 유나이티드 FC)ㆍ배우 한혜진 부부가 있다. 양승준 기자 comeon@hankookilbo.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=028&amp;aid=0002466207&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=20</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>[ESC] 동거했던 과거를 이해할 사람 있을까요?</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>곽정은의 단호한 러브 클리닉 Q1 동거했지만 결국 헤어진 옛 연인 미래의 연인은 날 이해할까요? A1 죄책감 느낄 필요 없어 당신은 자유롭게 선택할 권리가 있는 사람 Q2 신뢰도 안 가고, 심한 욕 하는 상대방 내가 좀 더 이해해야 할까요? A2 마음이 변했다는 사실 직시해야 상대방과 힘들 것 같다면 ‘지금이 기회’ Q1 저는 29살 여자입니다. 3년을 만났고, 정말 좋아했고, 그래서 결혼하고 싶었던 남자친구가 있었습니다. 저는 남자친구가 자취하던 집에서 8개월 정도 동거를 했어요. 그리고 그와 함께 한 달 반 해외여행을 다녀왔어요. 여행을 마치고 돌아와 한 달 뒤에는 헤어졌습니다. 그와 동거를 하고 있었고, 제가 살던 곳은 다른 도시였어요. 사소한 다툼에서 시작해 결국 헤어지게 된 건데 제가 살던 곳으로 돌아가기까지 3주를 그와 함께 보내야 했어요. 그 상황이 너무 힘들었고, 사는 곳을 옮겨도 한참을 방황했습니다. 그를 좋아하는 마음이 정말 컸으니까요. 어쨌든 이제는 일 년 정도 시간이 지나니, ‘시간이 약’이라는 말이 맞는지 많이 좋아졌습니다. 문제는 앞으로의 연애가 겁이 난다는 겁니다. 남자친구와 동거를 했다는 사실과 긴 여행을 같이 다녀왔다는 사실을 관심이 가는 상대방에게 알려야 할까요? 알게 된다면 이해할 수 있는 사람이 있을까요? 이런 의문과 두려움이 생겼고, 과연 이런 내가 연애를 다시 할 수 있을까 하는 생각이 자주 들어요. 아직 연애를 시작하지 못하고 있지만, 이런 문제들에 대한 고민이 커질 때마다 마음 한쪽에 자꾸 자존감이 낮아지고 저 자신이 문제가 있는 것처럼 느껴질 때가 많습니다. 저는 앞으로 어떻게 하면 좋을까요? 과거에 붙잡힌 여자 A1 첫날밤, 남자가 여자에게 묻습니다. “지금까지 어떤 남자들과 어디까지 갔었어? 다 털어놓아 봐, 나는 이제 당신 편이니까 뭐든 다 이해할 수 있어.” 그리고 망설이던 여자는 결국 고백합니다. 남자의 표정은 변하기 시작하죠. 그리고 부드럽던 표정은 어디론가 사라지고 갑자기 담배를 연거푸 피우기 시작합니다. 놀랍게도 이것은 약 20~30년 전에 흔하게 돌아다니던 이야기의 클리셰 중 하나입니다. 여자의 ‘과거’를 궁금해하는 남자, 자신의 ‘과거’를 고백하며 죄 사함이라도 받는 표정이 되는 여자. 그런데 저는 사실 당신의 고민이 조금은 더 놀랍습니다. 아주 오래전 삼류 드라마에서 차용되던 닳고 닳은 클리셰가 2019년을 사는 당신의 삶에 여전히 중요한 플롯이네요. ‘남자의 과거’라는 표현보다는 ‘여자의 과거’라는 표현이 더 자연스럽게 느껴지나요? ‘문란한 남자’라는 표현보다는 ‘문란한 여자’라는 표현을 더 많이 들은 것 같죠? ‘동거’에 대해, 그리고 좀 길게 다녀온 ‘여행’에 대해 느끼는 죄책감은 ‘여자의 과거’라든가 ‘문란한 여자’라는 표현이 우리에게 익숙한 것과 꽤 관련이 있습니다. 그런데 정말 이상하지 않은가요? 내가 사랑해서 했던 선택을, 세상에 존재하는지도 몰랐던 사람에게 미안해해야 하는 것이 말입니다. 그리고 더 이상하지 않나요? 아직 어떤 사람이 당신 인생에 등장한 것도 아닌데 그런 걱정을 미리 하는 당신 스스로가요. 당신이 한 인간으로서 했던 선택에 대해 죄책감을 느끼는 것은, 마음속 깊은 곳에서 자신을 ‘과거가 있는 여자’, ‘문란한 여자’로 규정한다는 증거입니다. 당당하게 사랑했고 깊이 사귀었던 내 인생을, 당신은 자신의 시선이 아니라 한국의 가부장적 사회의 시선으로 보고 있네요. 자신을 스스로 물건 취급을 하니, 자존감이 떨어지는 결론 말고 다른 결론이 날 리가 없지요. 상대방이 누군가와 동거했다는 걸 알고도 기분이 산뜻할 사람은, 아직까진 한국에 많지는 않을 겁니다. 하지만 우리는 우리가 했던 선택을 존중하고 그것이 나에게 어떤 식으로든 의미가 있는 시간이었음을 인정해야 하죠. 그것은 아직 내 인생에 올지 말지 모를 사람과는 관련이 없는 일이며, 훗날 당신과 결혼하고 싶어 하는 사람에게조차 질문할 권리가 없는 일입니다. 당신은 진열대에 놓인 상품이 아닙니다. 자유롭게 뭐든 선택할 권리가 있는 인간이라는 걸 잊지 마세요. 그리고 참, 이 기사에 달릴 댓글은 보지 마세요! Q2 저에겐 28살부터 4년 동안 만난 3살 어린 남자친구가 있습니다. 아니 있었습니다. 사실 저는 고시생인 남자친구 뒷바라지와 장거리 연애로 인해 많이 지쳐 있었어요. 남자친구는 시험만 끝나면 결혼하자고 하지만, 이제 겨우 1차 합격하고서는 놀러 다니는 게 너무 꼴 보기 싫어요. 저는 남자친구가 밤늦게 술 먹고 돌아다니는 게 싫은데 남자친구는 절 안심시키려고 자꾸 거짓말을 합니다. 몇 번이나 저에게 거짓말하는 걸 들켰지만, 제가 너무 쉽게 용서를 해준 걸까요? 그러던 어느 날 그의 교묘한 거짓말에 폭발하고 말았습니다. 그런데 오히려 남자친구가 저에게 화를 내며, 입에 담을 수도 없는 욕을 하는 거예요. 저는 그에게 헤어지자는 말을 남긴 채 지금까지 연락하지 않고 있습니다. 전에도 이렇게 헤어진 적이 있어서인지 남자친구는 다시 화해할 수 있다고 생각하는 것 같아요. 저는 반복되는 거짓말에 신뢰가 안 가는 것도 문제라고 생각하고, 그의 심한 욕도 자꾸 떠올라 괴롭습니다. 그러면서도 내가 좀 더 이해해줬어야 하는 부분이 있는 건 아닐까, 혹시 전문가의 도움을 받으면 서로 좀 더 이해하고, 대화하는 방식도 바뀌면 괜찮을지도 모른다는 생각을 하고 있어요. 고민만 한 채 시간이 흐르고 있어, 곽정은 작가님께 문을 두드립니다. 신뢰를 잃어버린 여자 A2 제가 결론부터 말해볼게요. 놀러 다니는 것이 꼴 보기 싫고, 나에게 거짓말을 하며, 헤어지자는 말에 욕설까지 덧붙여서 하는 사람과 왜 사귀고 있는 거예요? 아니 게다가, 왜 결혼까지 하고 싶으세요? 결혼 전에 달콤한 말만 서로에게 하던 사이도, 결혼 후엔 서로에 대한 실망과 삶에 대한 피로감이 쌓이면 서로에게 못할 말을 하며 싸우게 됩니다. 참 비극이지요. 아무리 4년간 만났다고 해도, 서로에게 지켜야 할 선을 훨씬 넘어버린 사람과, 당신은 왜 평생을 함께하자는 약속을 하고 싶은 것일까요? 네, 그래요. 어쩌면 지난 4년 가운데 상당한 시간은 썩 나쁘지 않았을 수 있습니다. 좋은 사이였던 날도 있었겠죠. 하지만 그건 그저 옛날의 일일 뿐인 것 같네요. 자주 보지도 못하는데, 미래도 불투명한 남자친구에게 당신이 느끼는 감정은 원망과 지침이었을 것이기 때문입니다. 빨리 고시에 패스해서 남들처럼 결혼도 하고, 정착도 했으면 좋겠는데 남자친구가 내 맘 같지 않은 상황이니, 마음이 급해진 당신이 할 수 있는 건 걱정을 빙자한 통제는 아니었을까요? 그가 고시를 패스하는 것은 내가 어떻게 할 수 있는 부분이 아니니, 술 먹고 돌아다니는 것이라도 내가 원하는 대로 통제하고 싶었던 것이죠. 이런 상황에 ‘밤늦게 술 마시고 돌아다닐 에너지는 있고, 공부할 에너지는 없나?’라는 당신의 분노가 그의 거짓말로 폭발하는 것도 이상한 일은 아니죠. 하지만 그도 마냥 속이 편하지는 않았을 거예요. 시험 자체에 대한 스트레스와 결혼을 원하는 여자친구의 원망 섞인 잔소리, 자신의 미래에 대한 불안이 켜켜이 쌓여 어디로 향할지 모르는 스트레스를 갖고 있다가 제일 만만한 당신에게 쏟아내는 것이겠죠. 자, 이것이 대화하는 방식의 문제라고 생각하시나요? 대화하는 방식도 문제이긴 하겠지만, 그것이 핵심은 아닙니다. 서로를 향한 태도가 짜증과 기만으로, 통제하고 싶은 마음과 달아나고 싶은 마음으로 점철되어 있는데 대화법을 바꾸는 건 그저 잠시간의 역할놀이에 불과하겠죠. 말은 언제나 그래 왔듯, 마음의 반영입니다. 마음이 변했다는 사실을 직면하지 않은 채, 말투나 대화법을 바꾼다고 해서 관계가 좋아지지 않습니다. 서로의 존재만으로 행복하던 때는 이미 과거의 일이고, 당신은 현재의 그를 미워하고, 마음은 이미 오지 않은 미래에 혼자 가 있네요. 그 사람의 상황이나 어떤 행동 자체에 초점을 두고 고민하는 것을 멈추세요. 지금 정해야 할 것은 ‘그 행동에 대해 어떻게 해야 할까’가 아니라, ‘내가 인생을 함께 살기 원하는 사람은 어떤 사람인가’의 문제입니다. 거짓말을 하고 욕도 하는 사람과도 좋은 인생을 살 수 있겠다는 판단이 들면 그 사람과 더 많은 시간을 보내세요. 하지만 그런 사람과는 힘들 것 같다는 생각이 든다면, 아주 간단하게 말할게요. “지금이 기회입니다” 곽정은 작가 [ⓒ한겨레신문 : 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=020&amp;aid=0003237821&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=9</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>연금보다 중요한 노후 준비… 팔다리 근육을 키워라</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>경기 성남시에 사는 장모 씨(66)는 얼마 전부터 계단 오르기가 부쩍 힘들어졌다. 베란다의 화분도 혼자 들기 힘들어 아내에게 도움을 청한다. 장 씨는 그저 더위 탓에 기력이 떨어졌다고 생각했다. 혈압만 다소 높을 뿐 특별히 아픈 곳이 없었기 때문이다. 최근 장 씨는 건강검진 결과를 받아본 뒤 이유를 알았다. 3년 전과 비교해 체중은 같은데, 근육량은 2kg가량 줄어든 것이다. 나이가 들면서 근육이 줄어드는 것은 자연스러운 현상이다. 골격을 지탱하는 근육량은 대개 30대 초반에 정점을 찍은 뒤 40세부터 매해 평균 1%가량 감소한다. 하지만 최근엔 근육량 감소를 노화의 당연한 과정으로 여기지 않고 질병으로 관리해야 한다는 목소리가 높다. ‘근육이 연금보다 강하다’는 말처럼 행복한 노년을 위해서는 근육량 유지가 필수적이기 때문이다. 세계보건기구(WHO)는 2016년 ‘근감소증’에 ‘사코페니아’라는 이름을 붙여 질병코드를 부여했다. ○ 근육 감소가 질병 초래 근육량 감소가 위험한 것은 당뇨나 심장질환 등 다른 질병을 유발할 가능성이 높아서다. 28일 서울아산병원 건강의학과 김홍규 교수 연구팀에 따르면 팔과 다리의 근육량이 줄면 당뇨병 발생 위험이 2배 이상으로 높아지는 것으로 나타났다. 2007∼2014년 건강검진을 받은 20∼69세 성인 1만7280명을 평균 5.5년 동안 추적 관찰한 결과다. 연구에 따르면 체지방은 유지한 상태로 근육량만 감소했을 경우 당뇨병 발병률은 4.8%로 체지방과 근육량을 유지한 그룹(2.2%)의 약 2.2배에 달했다. 김 교수는 “팔다리 근육은 탄수화물에서 소화된 포도당을 저장한 뒤 필요할 때 에너지원으로 사용하는데 근육량이 줄면 포도당을 저장할 공간이 부족해진다”며 “남은 포도당이 혈중 당 수치를 높여 당뇨병을 유발할 수 있다”고 설명했다. 근육량이 부족하면 사망률도 높아진다. 2016년 서울대 의대 연구진은 근감소증이 있는 남성은 그렇지 않은 남성보다 사망률이 4.13배 높다는 연구 결과를 내놨다. 근감소증이 노인의 주요 사망 원인 중 하나인 ‘낙상’ 가능성을 높이고, 각종 질환에 걸렸을 때 회복을 더디게 하기 때문이다. ○ 노인 24%는 근감소증 아직 국내에서는 근감소증에 대한 경각심이 높지 않은 편이다. 하지만 전문가들은 치매나 골밀도 수치처럼 노년층이 꾸준히 관심을 가져야 한다고 지적한다. 김광준 세브란스병원 노년내과 교수에 따르면 65세 이상 3000여 명을 조사한 결과 약 24%가 근감소증인 것으로 나타났다. 80세 이상에서는 약 39%가 근감소증을 앓고 있다는 국내 연구 결과도 있다. 아시아인의 근감소증을 판단하는 기준은 크게 3가지다. 골격근의 양을 키의 제곱으로 나눈 값이 남자 m²당 7kg 이하, 여자 m²당 5.7kg 이하일 때, 악력이 남자 26kg, 여자 18kg 이하일 때, 보행 속도가 초당 0.8m 이하로 떨어진 경우다. 자신이 근감소증인지 간단하게 알아볼 수 있는 간이 측정법도 있다. 경희대병원 원장원·김선영 교수 연구팀이 개발한 설문지는 걷거나 무거운 물건을 들 때 어려움을 겪는 정도를 묻는 5가지 문항을 만들었다. 총점(0∼10점) 4점 이상일 경우 근감소증이 의심되므로 병원을 찾는 것이 좋다. 원 교수는 “근육량 감소는 하체부터 시작될 가능성이 높다”며 “근감소증으로 의심되는 환자 중 80%가량은 종아리 둘레가 32cm 이하였다”고 설명했다. ○ 꾸준한 하체운동은 필수 근감소증에는 특별한 약이 없다. 규칙적인 근력 운동과 충분한 단백질 섭취로 근육 감소를 최대한 늦추는 것이 가장 좋은 방법이다. 특히 전체 근육의 3분의 2가량을 차지하는 하체운동에 집중하는 것이 좋다. 걷기운동은 엉덩이와 허벅지 근육량 증가에 도움이 되고 몸에 큰 무리가 되지 않아 노년기에 가장 좋은 근감소증 예방운동이다. 근육의 주성분인 단백질 섭취를 늘리는 것도 중요하다. 콩은 인체에서 스스로 합성하지 못하는 8가지 필수 아미노산을 모두 포함하고 있어 근육량 유지에 도움이 된다. 오상우 동국대 일산병원 가정의학과 교수는 “한국 노인들은 육류를 먹으면 비만이나 암에 걸린다는 인식 때문에 단백질 섭취가 부족한 편”이라며 “나이가 들수록 단백질의 체내 흡수가 더디기 때문에 육류를 꾸준히 섭취해야 근육 손실을 막을 수 있다”고 말했다. 　 박성민 기자 min@donga.com ⓒ 동아일보 &amp;amp; donga.com, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=056&amp;aid=0010737289&amp;date=20190829&amp;type=2&amp;rankingSectionId=103&amp;rankingSeq=10</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>[날씨] 전국 곳곳 비…제주 최고 100mm 이상</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>현재 제주와 남부지방 곳곳에는 비가 내리고 있습니다. 제주에는 호우주의보가 발효 중인 가운데 시간당 20mm 안팎의 세찬 비가 쏟아지고 있습니다. 남해안과 제주도는 비가 내리다가 저녁부터 비가 그치겠고, 오늘 중부지방은 종일 비가 내리겠습니다. 호남과 경북은 오후부터 비가 내리기 시작하겠습니다. 앞으로 제주에는 30에서 많은 곳은 100mm 이상, 경기 북부와 영서 북부에 10에서 40mm, 그 밖의 지역은 5에서 20mm의 비가 예상됩니다. 오늘 중부지방과 제주에는 천둥 번개가 요란하게 치겠고 시간당 30mm 안팎의 강한 비가 쏟아지는 곳이 있겠습니다. 경북 북부 내륙으로는 안개가 매우 짙게 끼어서 가시거리가 300m까지 좁혀져 있습니다. 현재 기온은 서울 23.4도 등으로 어제 같은 시각과 기온이 비슷합니다. 낮 기온은 서울 28도, 강릉 31도, 광주와 대구 27도로 어제보다 조금 낮겠습니다. 바다의 물결은 제주해상에서 최고 2.5미터로 약간 높게 일겠습니다. 해안가에서는 만조시 침수피해 주의하셔야겠습니다. 날씨정보 전해드렸습니다. KBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=417&amp;aid=0000443400&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=11</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>아우디, 소형세단 A3 판매 '초읽기'</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>올 가을 아우디 준중형 해치백 A3를 경쟁력 있는 가격에 살 수 있을 전망이다. 아우디코리아 딜러업체들은 이르면 9월 말 A3를 판매할 예정이다. 이들은 개인판매와 법인판매를 두고 검토 중이다. 아우디코리아 딜러업체들은 올 4분기 4290만원인 A3를 최대 2000만원 중반까지 낮춰 판매하는 걸 추진하고 있다. 할인율로 치면 무려 40%에 이른다. 아우디코리아 딜러업체들은 독일 본사에서 할당하는 물량 규모가 정해지는 대로 할인율과 판매방식을 각각 확정지을 예정이다. 각 딜러업체 별로 올해 세운 매출 목표에 따라 할인율은 달라질 수 있다. 이와 마찬가지로 판매형태도 수익을 최대한 많이 남길 수 있게 개인판매와 법인판매 중 하나를 선택할 것으로 보인다. 아우디코리아 딜러업체 관계자는 “2018년식 A3 소량이 들어올 예정”이라며 “정상 판매 할지 리스, 렌트 등 법인판매할지는 물량에 따라 달라질 것”이라고 말했다. 아우디코리아 홍보실 관계자는 “A3 출시와 관련한 것은 사실무근이다"고 전했다. 아우디코리아 등이 A3를 대폭 할인 판매하는 건 2018년 8월이 첫 번째다.  당시 아우디코리아는 전국 8개의 아우디 공식 인증 중고차 네트워크를 통해 A3를 40% 할인 판매했다. 여기엔 아우디 파이낸셜 서비스 상품을 이용해 리스 방식으로 차량을 구매해야 한다는 조건이 붙었다. 리스는 초기 부담금이 낮지만, 일반적인 할부보다 이자율이 훨씬 높다. 이에 따라 실제 고객들이 적용 받았던 할인율은 20% 수준이었다. 아우디코리아 딜러업체 관계자는 “판매형태는 9월 중순 이후 되어 봐야 알 것이다”고 선을 그었다. 아우디코리아 등은 이번 할인 판매를 통해 저공해차 의무판매제도 지킬 수 있을 것으로 보고 있다. 연간 4500대 이상 판매하는 제조업체는 친환경차를 연간 판매량 9.5% 이상 의무 판매해야 한다.  법규를 지키지 못하면 과징금 500만원이 부과된다. 아우디코리아는 2018년 A3 할인 판매로 저공해차 의무판매제도를 준수할 수 있었다. 아우디코리아 과거 배출가스 조작으로 위기를 겪은 전례가 있는 만큼 과징금 액수와 무관하게 법규를 준수하겠다는 입장이다. 한편 아우디코리아 딜러업체가 판매를 추진하는 차량은 2.0ℓ 가솔린 엔진을 탑재한 A3 40 TFSI 모델로 국내 법규상 저공해차로 분류됐다. 최고출력 186마력, 최대토크 30.6㎏·m의 성능을 발휘한다. 복합 연비는 11.5㎞/ℓ, 이산화탄소 배출량은 146g/㎞ 수준이다. 전민준 기자 &amp;lt;저작권자 ⓒ '성공을 꿈꾸는 사람들의 경제 뉴스' 머니S, 무단전재 및 재배포 금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=047&amp;aid=0002238379&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=12</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>아파트 단지에 등장한 노래방 기계, '고문'이 시작됐다</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>[오마이뉴스 글:김용만, 편집:이주영] 【오마이뉴스는 개인의 일상을 소재로 한 생활글도 뉴스로 채택하고 있습니다. 개인의 경험을 통해 뉴스를 좀더 생생하고 구체적으로 파악할 수 있습니다. 당신의 이야기가 오마이뉴스에 오면 뉴스가 됩니다. 당신의 이야기를 들려주세요.】 저는 경남 마산 진동 주민입니다. 아파트에 살지만 농지가 많은 지역입니다. 총 537세대가 모인 아파트인데, 지구를 살리는 활동에 동참하기 위해 매달 소등행사를 하고 있습니다. 불 끄는 행사만 하니 재미가 없었고, 내려오신 분들이 그냥 걷다가 들어가는 게 안타까웠습니다. 입주자 대표회의에서 예산을 확보해 지난 달부터 무료로 수박을 나눠드렸습니다. 예상보다 많은 분들이 나오셔서 수박을 나눠먹으며 이웃분들과 즐거운 시간을 보냈습니다. 소등행사에 참여하는 세대가 늘어나고 있으니, 8월에는 한번 제대로 놀아보자 싶어 노래자랑을 준비했습니다. 이번 행사는 스마일 주민자치회에서 주관했습니다. 스마일 주민자치회는 남녀노소 구분 없이 마을 공동체 활동에 동참하는 분들로 구성된 자발적 자생단체입니다. 7월 수박나눔행사를 기점으로 본격적으로 활동을 시작했습니다. 노래자랑의 시작은 미비했습니다. 금요일마다 열리는 아파트 알뜰장터가 야간까지 연장 운영된 8월 중순의 어느 날이었습니다. 알뜰장터 대표께서 노래방 기기를 빌려주셨습니다. 입주민 중 한 분이 사회를 직접 보겠다고 자청했습니다. 그렇게 노래자랑 준비에 돌입했습니다. 꼼꼼하고 철저한 기획 같은 건 없었습니다.  행사 날짜가 다가오자 하루가 분주하게 돌아갔습니다. 관리소에서는 재미를 위해 경품 추첨을 해야 한다며 행운권 100장을 준비했습니다. 행사를 주관한 스마일 주민자치회에서는 노래만 부르고 끝내기에는 아쉽다면서 아이들을 위한 물풍선 던지기 이벤트를 구상했습니다. 물풍선 300개를 만들고 입간판을 제작했습니다. 아빠들이 자발적으로 돌아가며 물풍선을 맞았고, 아이들은 줄을 서서 신나게 던졌습니다. 던지는 아이들도 좋아했고 맞는 아빠들도 즐거워하는 모습이었습니다. 아이들이 줄 서는 걸 도와주며 그 광경을 지켜본 엄마들은 십 년 묵은 체증을 날려버리듯 환호했습니다. 아이들보다 엄마들이 더 기뻐하는 이유가 무엇일까 궁금했지만 묻진 않았습니다.   ▲  물풍선 던지기를 하는 아이들 ⓒ 김용만    ▲  수박을 나눠 먹는 입주민분들 ⓒ 김용만 물풍선 던지기가 한창일 때, 한쪽에선 수박 나눔 행사가 진행됐습니다. 큰 수박 15통을 준비해 오시는 분들께 나눠드렸습니다. 수박도 꿀맛이었습니다. 앞서 7월에는 수박 15통을 준비해 3통을 남겼습니다. 이번에는 15통이 순식간에 동났습니다. 그만큼 많은 분들이 나오셔서 행사에 동참했다는 뜻입니다. 스마일 주민자치회 회원들은 각자 집에서 칼과 쟁반을 가지고 나와 수박을 자르며 주민들에게 권했습니다. 손도 아프고 허리도 쑤셨을 텐데 모두 신이 난 듯해 보기 좋았습니다.   드디어 오후 8시가 됐습니다. 이날의 하이라이트, 노래자랑이 시작됐습니다. 사실 행사 시작 전에 걱정이 되긴 했습니다. 2014년도에 입주한 이래로 아파트 입주민 노래자랑을 해본 적이 없기 때문입니다.   ▲  제 1회 아파트 노래자랑 ⓒ 김용만 하지만 참여도가 낮으면 어쩌나 싶은 걱정은 한국인들의 흥을 제대로 간파하지 못한 기우였습니다. 행사 당일, 엄청난 인파에 깜짝 놀랐습니다. 노래방 기계가 구형이어서 최신곡이 없다는 게 아쉬웠지만, 입주민들의 열정은 기계에 구애받지 않았습니다. 사회자의 뜨거운 진행과 신명 나는 트로트로 무장한 가수들의 무대는 자리에 가만히 앉아 있는 것이 고문일 정도로 흥겨웠습니다. 엄마, 아빠들은 춤추고 아이들은 친구들과 뛰어다니며 실컷 놀았습니다. 제가 눈짐작으로 세어봤을 때 최소 200명 이상이 아파트 광장을 가득 채운 듯했습니다. 행사를 준비한 입주자 대표와 스마일 주민자치회 회원, 관리소 직원분들 모두 놀라며 한목소리로 말했습니다. "우리 아파트에서 이렇게 많은 분들이 나와 같이 노는 건 처음이에요. 모르는 분들이 나와 인사하고 함께 즐거운 시간을 보내는 모습을 보니 너무 좋고 보람 있어요." 입주민들이 아파트 분수대 광장에서 시간을 보내고 있을 때, 동시에 소등행사도 진행했습니다.   ▲  소등행사 중인 아파트 ⓒ 김용만 놀라지 마십시오. 이날 1시간 동안 소등행사를 진행했는데 참여율이 90%를 넘겼습니다. 시간 가는 줄 모르고 다들 유쾌한 밤을 보냈습니다. 행사가 끝난 후, 관리소 직원과 입주자 동대표, 스마일 주민자치회 회원들은 따로 모여 뒤풀이를 했습니다. 다들 잔뜩 들떠 있었습니다. "세상이 이런 아파트가 또 있을까요? 이사를 고민했었는데, 아무래도 다른 데 못 가겠어요." "아이들이 또래들과 만나 뛰어노는 모습이 너무 좋았어요. 아이를 함께 키우는 문화가 좋아요." "이웃분들과 인사하고 알게 되니 서로 편안해지는 것 같아요. 노래자랑, 앞으로도 계속했으면 좋겠어요." "그냥 참여한 주민자치회지만 막상 가입하고 나니 왠지 모를 의무감 때문에 참여를 안 할 수가 없었어요. 하지만 너무 재밌어요." 아파트 공동체 활성화 지원 사업이라는 것이 있습니다. 저희 관리소장님이 알아보시고 지원했는데, 운 좋게 저희 아파트가 선정됐습니다. 큰돈은 아니지만 입주민들과 작은 행사를 열기에는 충분한 돈입니다. 저희 아파트는 그 예산으로 꽃밭을 조성하고 노래자랑과 수박나눔 같은 행사를 열었습니다. 다음에는 입주민들을 위한 강좌도 신설할 계획입니다. 아파트 입주민들이 모인 온라인 커뮤니티에는 재능있는 분들의 강좌 신설 안내글이 속속 올라오고 있습니다.  저는 저희 아파트에서 최근 이어진 행사들을 지켜보며 마을뿐 아니라 아파트에서도 공동체 생활이 충분히 가능할 것이라는 확신이 들었습니다. 몇몇 사례만 가지고 일반화하기에는 한계가 있을지도 모릅니다. 하지만 이웃과 함께 즐거움을 나누는 경험이 늘어나면 이야기는 달라질 수 있습니다. 작은 동네의 아파트지만 저는 제가 사는 곳이 좋습니다. 한 분씩 알아가며 인사를 나누고 아이들이 새 친구를 사귀어가는 일상이 좋습니다. 재산 가치로서의 아파트가 아니라 함께 사는 공간으로서의 아파트가 더 늘어나기를 바랍니다. 다음에 열릴 2회 노래자랑이 벌써 기대됩니다. 저작권자(c) 오마이뉴스(시민기자), 무단 전재 및 재배포 금지 이 기사는 개인 블로그에도 실립니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=346&amp;aid=0000027952&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=14</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>서현진 임신 근황 "배가 뭉쳐 스트레스", 배 뭉침 줄이려면?</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>MBC 아나운서 출신 방송인 서현진이 임신 근황을 전했다. 서현진은 자신의 인스타그램에 임신 근황 사진과 함께 ""만삭 아닌데, 배가 무섭게 커진다"며 "26~29주 사이에 배가 뭉치는 증상이 일반적이라 하지만 워낙 활동량 많은 임산부, 요즘 빨빨거리고 못 다녀 스트레스다"라고 말했다. 이어 "요가 한 시간 다녀온 것이 하루 스케줄 전부인데 집 도착과 동시에 완전히 뻗어서 골골대는 중"이라며 "무념무상"이라고 글을 남겼다. 임신 중 배 뭉침이 생기는 원인은 ▲많이 걷거나 서 있고 활동량이 많거나 ▲혈액순환이 잘 안 되거나 ▲스트레스가 많은 경우가 있다. 이러한 배뭉침 현상을 줄이기 위해서는 최대한 움직임을 줄이고 편안한 마음을 가지는 것이 좋다. 편한 자세로 누워 복식호흡을 반복하는 것이 도움이 된다. 아이 건강과 출산을 위해 열심히 운동을 하는 것은 좋지만, 무리한 운동은 배 뭉침을 악화할 수 있어 주의한다. 이 시기에 운동을 하고 싶다면 약한 강도의 요가가 권장된다. 만일 ▲배 뭉침 증상이 호전되지 않거나 ▲밑이 빠지는 느낌이 들고 ▲출혈이 동반된다면 조산을 의심할 수 있으니 바로 산부인과에 방문해야 한다. 이런 자연조산은 신속하게 대처하면 막을 수 있다. 조기진통 억제제 주사를 맞고 활동량을 줄이는 등 절대 안정을 취해야 한다. / 이도경 헬스조선 기자 hnews@chosun.com 전혜영 헬스조선 인턴기자 hnews@chosun.com ▶ ▶</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=020&amp;aid=0003237808&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=24</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>40세부터 매년 평균 1%씩 감소…노년기 건강, ‘이것’이 답이다</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>경기 성남시에 사는 장모 씨(66)는 얼마 전부터 계단 오르기가 부쩍 힘들어졌다. 베란다의 화분도 혼자 들기 힘들어 아내에게 도움을 청한다. 장 씨는 그저 더위 탓에 기력이 떨어졌다고 생각했다. 혈압만 다소 높을 뿐 특별히 아픈 곳이 없었기 때문이다. 최근 장 씨는 건강검진 결과를 받아본 뒤 이유를 알았다. 3년 전과 비교해 체중은 같은데, 근육량은 2kg가량 줄어든 것이다. 나이가 들면서 근육이 줄어드는 것은 자연스러운 현상이다. 골격을 지탱하는 근육량은 대개 30대 초반에 정점을 찍은 뒤 40세부터 매해 평균 1%가량 감소한다. 하지만 최근엔 근육량 감소를 노화의 당연한 과정으로 여기지 않고 질병으로 관리해야 한다는 목소리가 높다. ‘근육이 연금보다 강하다’는 말처럼 행복한 노년을 위해서는 근육량 유지가 필수적이기 때문이다. 세계보건기구(WHO)는 2016년 ‘근감소증’에 ‘사코페니아’라는 이름을 붙여 질병코드를 부여했다. ○ 근육 감소가 질병 초래 근육량 감소가 위험한 것은 당뇨나 심장질환 등 다른 질병을 유발할 가능성이 높아서다. 28일 서울아산병원 건강의학과 김홍규 교수 연구팀에 따르면 팔과 다리의 근육량이 줄면 당뇨병 발생 위험이 2배 이상으로 높아지는 것으로 나타났다. 2007∼2014년 건강검진을 받은 20∼69세 성인 1만7280명을 평균 5.5년 동안 추적 관찰한 결과다. 연구에 따르면 체지방은 유지한 상태로 근육량만 감소했을 경우 당뇨병 발병률은 4.8%로 체지방과 근육량을 유지한 그룹(2.2%)의 약 2.2배에 달했다. 김 교수는 “팔다리 근육은 탄수화물에서 소화된 포도당을 저장한 뒤 필요할 때 에너지원으로 사용하는데 근육량이 줄면 포도당을 저장할 공간이 부족해진다”며 “남은 포도당이 혈중 당 수치를 높여 당뇨병을 유발할 수 있다”고 설명했다. 근육량이 부족하면 사망률도 높아진다. 2016년 서울대 의대 연구진은 근감소증이 있는 남성은 그렇지 않은 남성보다 사망률이 4.13배 높다는 연구 결과를 내놨다. 근감소증이 노인의 주요 사망 원인 중 하나인 ‘낙상’ 가능성을 높이고, 각종 질환에 걸렸을 때 회복을 더디게 하기 때문이다. ○ 노인 24%는 근감소증 아직 국내에서는 근감소증에 대한 경각심이 높지 않은 편이다. 하지만 전문가들은 치매나 골밀도 수치처럼 노년층이 꾸준히 관심을 가져야 한다고 지적한다. 김광준 세브란스병원 노년내과 교수에 따르면 65세 이상 3000여 명을 조사한 결과 약 24%가 근감소증인 것으로 나타났다. 80세 이상에서는 약 39%가 근감소증을 앓고 있다는 국내 연구 결과도 있다. 아시아인의 근감소증을 판단하는 기준은 크게 3가지다. 골격근의 양을 키의 제곱으로 나눈 값이 남자 m²당 7kg 이하, 여자 m²당 5.7kg 이하일 때, 악력이 남자 26kg, 여자 18kg 이하일 때, 보행 속도가 초당 0.8m 이하로 떨어진 경우다. 자신이 근감소증인지 간단하게 알아볼 수 있는 간이 측정법도 있다. 경희대병원 원장원·김선영 교수 연구팀이 개발한 설문지는 걷거나 무거운 물건을 들 때 어려움을 겪는 정도를 묻는 5가지 문항을 만들었다. 총점(0∼10점) 4점 이상일 경우 근감소증이 의심되므로 병원을 찾는 것이 좋다. 원 교수는 “근육량 감소는 하체부터 시작될 가능성이 높다”며 “근감소증으로 의심되는 환자 중 80%가량은 종아리 둘레가 32cm 이하였다”고 설명했다. ○ 꾸준한 하체운동은 필수 근감소증에는 특별한 약이 없다. 규칙적인 근력 운동과 충분한 단백질 섭취로 근육 감소를 최대한 늦추는 것이 가장 좋은 방법이다. 특히 전체 근육의 3분의 2가량을 차지하는 하체운동에 집중하는 것이 좋다. 걷기운동은 엉덩이와 허벅지 근육량 증가에 도움이 되고 몸에 큰 무리가 되지 않아 노년기에 가장 좋은 근감소증 예방운동이다. 근육의 주성분인 단백질 섭취를 늘리는 것도 중요하다. 콩은 인체에서 스스로 합성하지 못하는 8가지 필수 아미노산을 모두 포함하고 있어 근육량 유지에 도움이 된다. 오상우 동국대 일산병원 가정의학과 교수는 “한국 노인들은 육류를 먹으면 비만이나 암에 걸린다는 인식 때문에 단백질 섭취가 부족한 편”이라며 “나이가 들수록 단백질의 체내 흡수가 더디기 때문에 육류를 꾸준히 섭취해야 근육 손실을 막을 수 있다”고 말했다. 박성민 기자 min@donga.com ⓒ 동아일보 &amp;amp; donga.com, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=047&amp;aid=0002238417&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=16</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>[임희정 아나운서의 '나를 붙잡은 말들'] 불법주차 딱지에... 아빠는 뒤집개를 들고 나왔다</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>[오마이뉴스 글:임희정, 편집:이주영] 연재 '나를 붙잡은 말들'은 프리랜스 아나운서 임희정씨가 쓰는 '노동으로 나를 길러내신 아버지, 어머니에 대한 이야기'입니다. &amp;lt;편집자말&amp;gt; 나의 첫 번째 차는 2003년식 하얀색 SM3 중고차였다. 나는 그 차를 2012년 겨울에 장만했다. 서울에서 직장생활을 하다 광주MBC에 합격해 내려가야 했는데, 지방에서 혼자 지내려면 차는 있어야 한다는 주변 선배들의 조언을 듣고 중고차매매단지에 가서 급하게 구매한 차였다. 나온 지 10년이 다 되어가는 중고차였지만 보자마자 새 차처럼 좋아 날뛰었다. 연식과 종류에 상관없이 차가 생긴다는 사실 하나만으로 어른이 된 것 같은 기분이 들었다.   찻값은 오백오십만 원. 오천오백만 원도 아니고 오백만 원이었지만 수중에 가진 돈이 없었기에 중고차 할부대출을 받았다. 직장인이 되면 대학생 때 받은 학자금 대출을 갚을 줄 알았더니 대출금이 더 늘었다. 결혼하면 주택담보대출을 받게 되겠지, 하고 생각했다. 가진 게 없어 어딘가로부터 자꾸만 무엇인가 빌려야 했던 이십 대였다.   아무렴 어떤가. 나도 '자차운전자'가 되었다. 비록 10년 된 중고차였지만 차를 운전할 때만큼은 이미 갓 출시된 신형 세단을 타는 느낌이 들었다. 넉넉하지 못했던 삶은 때때로 불만족스러웠지만, 이렇게 청춘의 빚은 소유의 만족도 맛보게 해주었다. 월급을 받아 열심히 빚을 갚았고, 액셀을 밟아 열심히 쏘다녔다.   나는 자가용 없는 집에서 자랐다. 유년 시절에는 아빠가 운전하는 차를 타고 엄마와 함께 어딘가를 가는 아이들을 그저 부러워했다. 고등학생 때 야간 자율학습이 끝나면 학교 앞에서 창문을 내리고 얼른 타라며 손짓하는 친구들의 부모님. 주말에 가족과 함께 드라이브를 다녀왔다는 지인들의 말. 다 부러웠다. 차는커녕 운전면허조차 없는 부모님은 마중, 여행, 드라이브라는 단어와는 거리가 아주 먼 삶을 사셨다. 아직도 웬만한 거리는 걸어 다니시고, 택시는 돈이 아깝다며 잘 타지 않으려고 하신다. 그런 부모님이 안쓰러웠다. 그저 평생을 열심히 걸었고, 걸음 수 만큼 아꼈고, 늙어갔다. 시간과 체력보다 돈을 아끼고 싶어 하는 아빠와 엄마의 그 마음이 참 속상했다.   그러니 내게 차는 단순히 욕망의 대상이 아니었다. 부모님이 힘을 많이 들이지 않고도 멀리 갈 수 있길 바랐고, 나도 원할 때면 언제든 삶의 범위를 넘어서 어딘가로 훌쩍 떠날 수 있길 바랐다. 차는 나와 우리 가족의 배경을 확장해주는 동력 같았다. 그러니 연식과 종류에 상관없이 처음으로 갖게 된 10년 된 중고차 앞에서도 나는 벅찰 수밖에 없었다.   내가 운전대를 잡고 부모님을 태워 어딘가 갈 때면 엄마 아빠는 굉장히 신나 하셨다. 비록 아빠가 잡은 운전대는 아닐지라도, 날씨가 좋으면 은근히 어디라도 나가자며 드라이브를 하고 싶어 하셨다. 전화를 끊을 때마다 '항상 운전 조심하라'는 당부도 잊지 않으셨다.   그렇게 폐차 직전까지 중고차를 탄 후, 드디어 꿈에 그리던 새 차를 타게 됐다. 어찌나 기쁘던지, 집 앞 슈퍼도 차를 끌고 가고 싶었고, 10분에 천 원씩 받는 비싼 유료주차장도 문제없었다. 이 기쁨을 부모님과도 나누고 싶었다.   새 차를 끌고 부모님 댁에 갔다. 엄마 아빠는 내가 도착하기 한참 전부터 주차장에 나와 나를, 아니 나의 두 번째 자가용을 기다리고 계셨다. 반짝반짝 빛나는 새 차 앞에서 부모님은 나만큼이나 기뻐하며 만지고 닦고 흐뭇해하셨다.      아빠는 휴대폰을 꺼내 찰칵찰칵 계속 나를, 아니 새 차를 찍었다. 사진첩을 보니 딸 사진보다 차 사진이 훨씬 많다. 드라이브를 하고 집에 돌아와서도 엄마는 베란다 아래 아파트 주차장에 세워진 내 차를 내려다보며 '저 차가 네 차냐'며 좋아하셨다.   부모님과 시간을 보내고 집을 나섰다. 그런데 차 앞 유리에 불법 주차 딱지가 붙어있었다. 아, 나는 따로 나와 살고 있지. 이제 부모님 집은 '내 집'이 아니었는데도, 아파트 입구에서 방문증 발급받는 걸 깜빡했다. 지금이라도 관리사무소에 가서 방문증을 받아야겠다며 발걸음을 옮기려는데, 갑자기 엄마 아빠가 허겁지겁 집으로 다시 올라가는 게 아닌가. 얼마 후에 두 분이 서둘러 내려왔다. 한 손에는 뜨거운 물이 담긴 세숫대야를, 다른 한 손에는 프라이팬 뒤집개를 들고서. 엄마 아빠는 물을 뿌리고 스티커를 긁어냈다. 행여나 자국이라도 남을까 조심조심하며 순식간에 앞 유리에 붙은 스티커를 말끔하게 제거했다. 마치 처음부터 안 붙어 있었던 것처럼 깨끗하게 떼어내고 나서야 부모님은 안심하셨다.   차를 타고 집으로 오는 내내 생각했다. 내가 새 차를 모는 일은 곧 엄마 아빠가 새 차를 타는 일이었다. 아빠는 살아오면서 딸이 무언가를 새로 장만하고 이루는 모습을 보며 마치 자기가 이룩한 것처럼 기뻐하셨고, 엄마도 그런 나를 기특해하셨다. 자신들이 해주지 못한 것을 자식이 스스로 해내는 일은 부모에게도 큰 동기와 성취가 된다. 부모님은 내가 대학교에 합격했을 때도, 취업했을 때도, 아나운서가 됐을 때도, 두 팔을 번쩍 들어 올려 나를 와락 껴안고 기뻐하셨다. 엄마 아빠가 기뻐하셔서 나도 기쁘다. 뿌듯하고 행복하다.   주말이 오면 부모님을 모시고 저 멀리 드라이브를 다녀와야겠다. 사실 동네 한 바퀴를 돌고 온다 해도 크게 좋아하실 부모님이다. 이제 엄마 아빠는 어딘가를 갈 때 걸어서가 아닌 딸내미 차를 타고 가고 싶어 하신다. 택시비 몇천 원도 아까워 하시는데, 몇만 원 하는 기름을 넣어 주겠다며 나가자고 하신다. 차가 아니라, 차를 운전하는 딸을 좋아하시는 거다. 차를 타고 딸과 함께 어디라도 가는 것을 행복해하시는 것이다. 그 마음을 알기에, 나는 기쁘게 시동을 건다. 부모님께 달려간다. 저작권자(c) 오마이뉴스(시민기자), 무단 전재 및 재배포 금지 이 기사는 필자의 브런치(www.brunch.co.kr/hjl0520)에도 실립니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=008&amp;aid=0004269763&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=17</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>속옷 오래 입으려면 '빨래' 이렇게 하세요</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>[머니투데이 마아라 기자] [겉옷과 따로, 세탁·건조기보단 손세탁·자연 건조…형태 보존 위한 올바른 세탁 건조 및 보관법] 속옷은 매일 입고 매일 갈아입는 옷이다. 피부에 가장 가까이 밀착하는 옷인 만큼 청결 유지가 중요하다. 세탁을 자주 하기 때문에 다른 의류에 비해 손상이 빠르다. 옷감의 손상만큼 속옷을 망가트리는 것은 변형이다. 팬티의 밴드가 늘어나거나 브라 컵이 망가지는 경우가 많다. 속옷을 오래 유지하기 위한 세탁 방법부터 쾌적함과 청결함을 더하는 건조∙보관법까지, 올바른 언더웨어 관리법을 소개한다. 마아라 기자 aradazz@mt.co.kr &amp;lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=346&amp;aid=0000027956&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=18</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>고단백 음식, 자기 전에 먹어도 지방 연소 지장 없어</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>다이어트를 할 때 항상 듣는 이야기는 '취침 전 금식'이다. 그런데 최근 발표된 연구 결과에 따르면 고단백 음식의 경우 자기 전에 먹어도 지방 연소에 문제가 없는 것으로 나타났다. 플로리다 주립대 연구팀은 단백질 쉐이크를 마시는 시간에 따라 지방 연소에 변화가 있는지 알아보기 위해 실험을 진행했다. 한 그룹은 운동을 한 후 취침 30분 전 단백질 쉐이크를 마셨다. 다른 그룹은 같은 양의 운동을 하고 30분 후에 단백질 쉐이크를 마셨으며, 취침 전에는 단백질을 섭취하지 않았다. 연구팀이 참가자들의 지방 분해 정도를 측정한 결과, 잠자리에 들기 전 단백질 섭취 여부는 지방 연소 정도에 차이를 유발하지 않는 것으로 나타났다. 연구에 참여한 브리타니 앨먼 박사는 "자기 전에 고단백 식품을 섭취하는 것은 다이어트에 문제가 없다"며 "그러나 자기 전 칼로리가 높거나 탄수화물, 지방이 많은 음식을 섭취하는 것은 지방 연소에 방해가 될 수 있다"고 말했다. 하지만 고단백 음식이 지방 연소를 방해하지 않는다고 해서 자기 전 무절제한 섭취는 금물이다. 단백질은 분자구조가 복잡해 쉽게 소화되지 않기 때문이다. 따라서 단백질을 소화하기 위해서는 산성이 강한 위산이 필요하다. 즉 위가 약한 사람이라면 취침 전 단백질 섭취가 속 쓰림과 소화불량을 일으킬 수 있고, 수면무호흡증 환자는 위산이 역류해 식도염을 일으킬 수 있어 주의해야 한다. 이번 연구는 '영양 저널(Journal of Nutrition)'에 게재됐다. / 이도경 헬스조선 기자 hnews@chosun.com 전혜영 헬스조선 인턴기자 hnews@chosun.com ▶ ▶</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=437&amp;aid=0000218515&amp;date=20190829&amp;type=2&amp;rankingSectionId=103&amp;rankingSeq=19</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>[오늘의 날씨] 전국 곳곳 비…제주 100㎜↑ '호우특보'</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 목요일 아침을 여는 JTBC 뉴스 아침&amp;amp;, 57분 날씨 정보로 출발합니다. 오늘(29일) 전국 곳곳에 비 소식 있습니다. 현재, 남해안과 제주를 중심으로 쏟아지고 있는데요. 점차 중부지방에도 시작되면서 밤까지 이어지겠습니다. 제주에는 호우특보 발효 중이고, 시간당 15mm 안팎으로 세차게 퍼붓고 있습니다. 안전 운전하셔야겠습니다. 낮 기온은 서울 28도, 광주와 대구 27도로 어제보다 조금 낮겠습니다. 목요일 아침&amp;amp;, 1분 후에 뵙겠습니다. 김민아(wandering.islet@gmail.com) Copyright by JTBC(http://jtbc.joins.com) and JTBC Content Hub Co., Ltd. All Rights Reserved. 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011046586&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=20</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>전국 흐리고 제주 등 곳곳 돌풍·천둥 동반한 강한 비</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>(서울=연합뉴스) 권선미 기자 = 목요일인 29일은 전국이 대체로 흐리고 중부지방, 전북과 전남북부, 경북, 제주 등 곳곳에서 비가 내릴 전망이다. 제주도와 중부지방을 중심으로 돌풍과 함께 천둥·번개를 동반한 시간당 30mm 이상 강한 비가 오는 곳이 있겠다. 특히 제주도는 전날까지 많은 비가 내린 가운데 추가로 100mm 이상 많은 비가 올 것으로 예보됐다. 이날 오전 9시까지 내륙을 중심으로 가시거리 1km 미만 안개가 끼는 곳이 있겠고, 비가 내리는 지역에서는 가시거리가 짧아 교통안전에 유의해야 한다. 이날 오전 5시 현재 기온은 서울 23.4도, 수원 22.6도, 춘천 19.7도, 강릉 24.2도, 대전 21.8도, 전주 21.7도, 광주 22.4도, 제주 22.4도, 대구 22.7도, 부산 22.8도, 창원 21.9도 등이다. 낮 최고 기온은 25~31도로 예보됐다. 미세먼지 농도는 전 권역에서 '좋음'∼'보통' 수준을 나타내겠다. 남해상과 제주 해상, 서해중부해상에는 돌풍과 함께 천둥·번개가 치는 곳이 있겠다. 30일까지 먼바다를 중심으로 물결이 1.5~3.0m로 높게 일겠으니 항해나 조업하는 선박은 유의해야 한다. 바다의 물결은 서해·남해 앞바다에서 0.5~1.0m, 동해 앞바다에서 0.5~1.5m로 예보됐다. 먼바다에서는 서해·남해 0.5~2.0m, 동해 0.5~1.5m의 파도가 예상된다. fortuna@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=008&amp;aid=0004269801&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=22</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>'노오력' 하면 된다 믿는 40대, '꼰대' 아닌 '낀대'?</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>[머니투데이 김고금평 기자] [온라인미디어 ‘피렌체의 식탁’ 설문조사 ‘40대, 그들은 누구인가’ 결과…“포용적 리더십 조건 갖춰”] 1970년대 생인 40대는 한국사회의 성공요인으로 ‘부유한 집안’ 대신 ‘개인의 노력과 역량’을 꼽았다. 90년대생이 상대적으로 집안 등 사회적 배경 요인을 높게 평가하며 사회 공정성에 대해 민감도가 높은 것과 차이가 컸다. 전문가들은 “신자유주의적 개인주의를 내면화 한 세대이기 때문”이라고 분석했다. 70년대 생이 생애 가장 큰 영향을 끼친 사건으로는 ‘1997년 외환위기’였다. 이 같은 결과는 메디치미디어가 운영하는 온라인미디어 '피렌체의 식탁'이 한국사회여론연구소(KSOI)에 의뢰해 지난 14~21일 전국 40~49세 남녀 700명을 대상으로 ‘X세대에서 낀낀세대로 ; 40대, 그들은 누구인가’를 주제로 한 설문조사에서 나타났다. 70년대생은 20대 시절인 1990년 초중반에 ‘X세대’ ‘신세대’ 등으로 불렸다. 하지만 외환위기로 사회와 가정의 붕괴를 겪으며 집안 배경보다 개인의 노력과 역량을 중시한 세대로 자리매김했으며 이를 토대로 사회의 공정성에 대한 민감도도 높은 것으로 나타났다. 현재 사회에서 허리 역할을 하는 70년대생은 정부 정책에서 ‘국민연금·건강보험료 인상’에 대한 불만이 ‘최저임금 인상’이나 ‘분양가 상한제’ 등에 대한 불만보다 더 높은 것으로 조사됐다. 또 청와대, 정부 등 공공부문에 대한 신뢰도가 낮고 586세대의 ‘권력 장기화’에 대해 부정적(63%) 의견이 많지만, 86세대에 대해 ‘민주주의를 정착한 세대’라는 긍정적 인식도 강했다. 70년대생들은 80년대부터 90년대 중반까지 경기 호황을 누리며 성장했지만, ‘1997 외환위기’로 경제 위기 충격을 더 크게 받은 것으로 파악됐다. 이런 경험을 통해 ‘노력’을 평가하는 수치도 70년대생이 37.3으로 60년대생(35.3), 90년대생(36.9)에 비해 높았다. 직장내 불공정 대우에 대한 대응 방식에서도 세대적 차이가 드러났다. 70년대생은 ‘더욱 충성’, ‘참고지냄’, ‘공식적 이의제기’ 등 가능한 모든 방법을 동원해 상황을 돌파하려는 의지를 보여 ‘생존력’이 높은 것으로 나타났다. 이에 비해 90년대생은 비슷한 패턴을 보이면서도 ‘더욱 충성’ 응답은 현저하게 낮았다. 특히 80년대생까지는 ‘공식적 이의제기’가 ‘건성 근무’보다 높았으나 90년대생부터 ‘건성 근무’가 ‘공식적 이의제기’를 역전해 위험 회피 경향이 다소 높았다. 이 같은 대목에서 70년대생은 ‘낀 세대’로서의 특성이 드러나는 것으로 파악됐다. 김호기 연세대 교수는 “90년대 학번 세대는 선배 세대의 도덕과 이념주의 성향에서 벗어난, 우리나라 최초의 개인주의 세대의 등장을 알린 ‘낀낀세대’”라며 “‘외환위기’로 인한 ‘시장적 개인주의’와 ‘감성적 개인주의’가 결합해 복합적 내면을 구성해왔다”고 진단했다. 이은형 국민대 교수는 “향후 10년 동안 70년대생의 리더십이 부상하게 될 것”이라며 “선·후배 세대를 모두 이해하고 젠더갈등의 원인도 비교적 잘 이해하고 있는 세대여서 포용적 리더십을 발휘하기 좋은 조건을 지녔다”고 해석했다. 피렌체의 식탁은 29일 오후 3시 서울 프레스센터에서 이 같은 주제로 심포지엄을 개최한다. 김고금평 기자 danny@mt.co.kr &amp;lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=047&amp;aid=0002238303&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=4</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>아마존에서 대박난 호미, 교포들이 샀나 했더니</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>[오마이뉴스 글:장호철, 편집:최은경] 【오마이뉴스는 개인의 일상을 소재로 한 생활글도 뉴스로 채택하고 있습니다. 개인의 경험을 통해 뉴스를 좀더 생생하고 구체적으로 파악할 수 있습니다. 당신의 이야기가 오마이뉴스에 오면 뉴스가 됩니다. 당신의 이야기를 들려주세요.】 엔간한 규모의 장터가 있는 시골에서 자란 사람이 아니라면 대장간은 구경도 못 했을 것이다. 시골 마을이라고 모두 물레방아가 도는 게 아니듯 시골 장터라고 죄다 대장간을 갖추고 있는 건 아니라는 얘기다. 물론 이는 전적으로 베이비붐 세대인 내 경험을 기준으로 하는 얘기다.    ▲  단조기를 이용하면서도 석노기 장인은 쇠를 불에 달궈서 망치를 두들겨서 수작업으로 연장을 만드는 기본을 버리지는 않았다. ⓒ 장호철 장이 서지도 않는 '깡촌'에서 자란 나는 부모님이 다녀오는 오일장도 제대로 구경하지 못했다. 그래서 인근 읍에 서는 장에 대장간이 있었는지조차도 모른다. 당연히 대장간은 나중에 텔레비전이나 영화에서 처음 보았다. 힘차게 무쇠를 두들기는 대장장이의 근육질 몸매와 그가 흘리는 땀의 이미지와 함께. 우리 세대가 그러니 그 아래 세대야 말할 것도 없겠다. 사람들은 민속촌 따위에서 박제된 대장간을 보면서 연모를 만들어 쓰던 선인의 삶을 상상할 뿐이다. 농기구 따위야 대장간이 아니라 시장의 철물점에서 구할 일이요, 나머지 연모야 녹슬지 않는 신식 쇠로 대체된 지 오래지 않은가.  오래 숙련된 담금질로 쇠의 강도나 성질을 조절하는 전통 대장장이도 이제 거의 사라져 가고 있다. 전통적 방식으로는 호미 하나를 만드는 데도 줄잡아 한 시간이 걸리지만, 기계를 이용하면 한꺼번에 수십 개를 만들어 낼 수 있는 상황, 전통 기술도 현대의 효율성과 간편성 앞에 무릎을 꿇고 만 것이다.    잊히고 있는 대장간이 새롭게 소환된 것은 미국 온라인 쇼핑 사이트 '아마존'발 인기 상품 덕분이다. 아마존에서 히트한 상품은 한국산 농기구 '영주대장간 호미(YongjuDaejanggan ho-mi)'다. '영주대장간, 코리안 스타일 호미'라고 적힌 이 호미는 아마존에서 '원예(gardening)' 부문 톱10에 오르며 2천 개 이상 팔린 것이다.   ▲  아마존에서 대박이 난 영주대장간 표 호미 ⓒ 장호철   꽃삽만 쓰던 미국인들에게 ㄱ자로 꺾어진 '호미'는 '혁명적 원예 용품'으로 '덤불 베는 데 최고'라는 구매평을 받으며 대박이 났다. 국내에서 4천 원가량인 호미는 아마존에서 그 몇 배의 가격인 14.95~25달러(1만6천 원~2만8천 원)에 팔렸다.  이 대박 상품으로 소환된 영주대장간은 영주시 구성로(휴천동) 영주 기관차승무사업소 뒤편에 있고, 대박 호미를 만든 대장장이는 반세기 넘게 쇠를 두드려온 석노기(65) 대표다. 이 가게와 장인은 지자체로부터 그 전통과 역사를 이미 인정받았다. 영주대장간은 2017년에 경상북도 '향토 뿌리 기업'이자 '산업유산'으로 각각 지정됐고, 석 대표는 2018년 '경상북도 최고장인'으로 선정된 것이다.  영주대장간으로 그를 찾은 것은 지난 6월 25일, 의성으로 귀촌해 농사를 짓는 벗과 함께였다. 워낙 매스컴에 뜬 인물이니 성가시다고 문전에서 거절당하지 않을까 저어하였지만, 그는 무던하게 우리 일행을 맞아주었다.    ▲  석노기 장인이 만든 호미가 아마존에서 대박이 난 것은 53년 동안 한길을 파온 그의 삶이 받아 마땅한 보상이다. ⓒ 장호철 석 대표가 대장장이가 된 것은 초등학교를 졸업한 1968년, 열네 살 때다. 그 시절의 사연이야 물어볼 필요도 없는 일, 가난으로 중학교에 진학하지 못하고 매형의 대장간으로 들어가 풀무질을 시작하면서 그는 장인의 길로 들어섰다. 공주에서 3년간 호미와 조선낫 등을 만드는 기술을 닦아 경북 영주로 내려와 지금의 가게 자리에 '영주대장간' 문패를 단 1976년, 그는 스물세 살이었다. 석 대표는 중앙선의 요충이며 산간지역이라 농기구 수요가 끊이지 않을 것이라 보고 낯선 고장 영주를 선택했는데 그 판단은 맞아떨어졌다. 영주대장간은 다섯 평으로 시작하여 크기를 늘려갔는데, 그는 그 시절을 "젊어 가족 건사하는 부담이 크지 않아서 남보다 한 발쯤 앞서갔다"라고 회고한다. 남들이 소화물에 의존할 때 그는 운전을 배워서 트럭으로 물건을 수송했고, 남보다 먼저 프레스 기계를 들였다.    ▲  석노기 대표는 초등학교를 졸업한 1968년에 대장장이의 길로 들어선 이래 53년 동안이나 한 우물을 팠다. ⓒ 장호철 석 대표는 기계를 쇠를 자르거나 늘이는 데만 쓸 뿐, 쇠를 불에 달궈서 망치를 두들겨서 수작업으로 연장을 만드는 기본을 버리지는 않았다. 그가 "수작업으로 꼼꼼하게 해야 소비자들이 원하는 제품이 나오고, 또 정밀하게 나올 수 있다"라고 말하는 이유다.  "내가 만든 물건이 문제가 있다고 하면, 택배로 부치라 해서 100% 애프터서비스를 해줍니다. 작년부터 아마존에서 호미가 팔리며 소문이 많이 났지만, 그게 어느 날 갑자기 일어난 일은 아니에요."  남보다 한 발짝 앞서간 덕분에 석 대표는 생산원가를 절감하여 가격경쟁력을 갖추면서도 이윤을 낼 수 있었고 영주대장간의 인지도를 높였다. 그는 '영주대장간'을 상표 등록했고, 자신은 컴퓨터를 모르지만 컴퓨터에 능한 지인을 통해 인터넷 판매를 시작했다.  "미국에서도 처음엔 교포들이 사가는 건가보다 했대요. 그런데 미국 사람들 이름은 교포들 이름과 다르다네요. 그게 그렇게 될 줄을 생각 못 했지요." 결정적으로 그의 호미가 이름을 얻게 된 것은 어떤 유튜버가 올린 정원 가꾸는 영상이 여기저기 퍼날라지면서다. 그러나 그는 '아마존'이 쇼핑 사이트인 줄 모르고 자기 호미가 아마존 밀림에 쓰이는가 보다 하고 생각했다고 한다.  석 대표는 자기 호미가 인기를 끈 것은 공장에서 대량으로 만든 물건과 달리 옛날 방식의 수작업으로 꼼꼼하고 섬세하게 만들었기 때문이라고 생각한다. 'K-호미 최고'라는 평가는 지난 53년 동안 대장장이 외길로 걸어온 그의 삶이 받아 마땅한 보상이다.  그는 자신의 대장간이 실질적으로 모든 농기구를 제작할 수 있는 국내 유일의 대장간이라고 자부한다. 농부라고 해서 모두 온갖 곡식과 채소를 다 생산하는 게 아닌 것처럼 대장간이라고 모든 농기구를 다 만들 수 있는 건 아니라면서.  평생을 한 우물을 파 대장장이로서 '최고장인'으로 불리게 되었지만, 석 대표는 자신의 대장간을 이어갈 후계자가 없다는 걸 고민한다. '영주대장간이 없어지면 우리나라 대장장이도 사라진다'고 생각하는 그는 자식에게도 넌지시 속을 떠보았지만 안정된 직장에 다니는 아들은 고개를 저었다고 했다.  "아마, 전통 대장간으로는 내가 마지막 세대가 되겠지요." 우리 나이로 예순여섯, 그러나 석 대표는 머리카락 하나 빠지지 않은 동안이다. 젊어 보여서 한 이십 년쯤 더 일할 수 있겠다고 하자 그는 환하게 웃었다. 건강해 보이는 그의 얼굴에선 자기 일과 장인으로서의 능력에 대한 자부심이 묻어났다.   ▲  영주대장간에서 내가 산 왜낫. 풀 베는 용도로만 써야 하는 낫의 미끈한 손잡이에는 ‘영주대장간’ 낙인이 찍혀 있었다. ⓒ 장호철 농기구를 진열해 놓은 매장에서 벗은 조선낫, 나는 '왜낫' 하나를 샀다. 불에 달구고 물에 식혀 가며 망치로 두드리는 과정으로 만들어 부러지거나 이가 빠지지 않는 조선낫과 달리 왜낫은 풀 베는 용도로만 써야 한다. 낫의 미끈한 손잡이에는 '영주대장간' 낙인이 찍혀 있었다.  매장에는 택배로 부칠 종이상자 몇 개가 쌓여 있었는데 그중 하나는 호주로 가는 것이었다. 그는 며칠 전 &amp;lt;로이터통신&amp;gt; 기자가 와서 영상을 찍어갔다고 했다. 나라 밖에 먼저 알려지고 뒤늦게 국내에 들어오는 영주대장간 소식은 이 전통 농기구 제작소의 현실을 상징하고 있는지도 모른다.    ▲  영주대장간의 매장 진열장에는 그가 만든 호미와 낫 등이 쟁여져 있다. ⓒ 장호철   대장간은 더는 기계를 이용한 대량생산, 그 효율성과 간편성과 경쟁할 수 없다. 값싼 왜낫보다 몇 배나 비싼 조선낫의 경쟁은 제한적으로만 가능할 뿐이다. 그러나 다양화되고 있는 소비자의 욕구와 늘어나고 있는 개성 있는 수공업 제품의 수요가 이 전근대 농기구 제작소가 창조적으로 재활용되는 실마리가 될 수 있을지 모른다.    조만간 대장장이가 두들기는 망치 소리도 사라지고, 우리는 낫과 호미를 생산하는 대장간을 구경할 수 없을지 모른다. 그리하여 박제된 대장간을 지나며 사람들은 더는 근육질 사내의 몸과 그가 흘리는 땀의 이미지로 대장장이를 떠올리지 못하게 될 것이다. 그런다고 물론 세상이 달라지진 않는다. 더 간편하고 효율적인 기술이 대장장이의 땀을 비웃으며 새로운 상품을 만들어갈 것이기 때문이다. 이를 기술 발전의 피할 수 없는 추세요 과정이라고 강변하는 문명사의 전개 앞에, 시방 영주대장간은 외롭게 서 있다.  저작권자(c) 오마이뉴스(시민기자), 무단 전재 및 재배포 금지 비슷한 내용의 글을 &amp;lt;기록창고&amp;gt;에도 보냈습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=421&amp;aid=0004167881&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=6</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>[펫톡톡]새끼 구하러 차 밑에 들어갔다 참변…어미고양이의 모정</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>(서울=뉴스1) 김연수 기자 = 학대로 의심된 죽은 어미 고양이 사건이 경찰 수사 결과 새끼 고양이를 위해 차 밑으로 들어갔다가 변을 당한 것으로 알려져 사람들의 마음을 안타깝게 하고 있다. 28일 부산동물학대방지연합에 따르면 지난달 27일 한 주택가 주차장에서 새끼를 낳은지 얼마 안 된 어미 고양이 사체가 발견됐다. 어미 고양이는 입에 피를 토한 채 외상 흔적이 있었고, 지구대가 확인한 일부 CCTV 영상에서 죽기전 심하게 몸을 떨고 있는 어미 고양이의 모습이 찍혀 있었다. 이에 단체는 동물학대 가능성이 있다고 보고 어미 고양이의 부검을 요청했다고 밝혔다. 그런데 사건을 넘겨 받은 부산 남구경찰서는 주변 CCTV와 차량 블랙박스를 모두 확인한 결과 주차된 차량 아래 숨어 있다가 빠져나오지 못한 새끼 고양이를 구하러 다시 차량 밑으로 들어가는 어미 고양이의 모습을 확인했다. 부산동물학대방지연합은 이 같은 사실을 알리며 "주차돼 있던 차를 운전하기 전 길고양이가 차 아래 있는지 살펴봐달라"고 요청했다. 이어 "움직이기 전 노크를 하거나 경적을 울리고, 약간의 도망칠 수 있는 시간을 주는 것으로 차량도 손상시키지 않고 고양이의 생명도 구할 수 있다"고 조언했다. 한편 특히 겨울에는 추위를 피할 곳 없는 길고양이들이 자동차의 온기 때문에 차 안으로 들어가거나 엔진 옆에 들어가 사고가 나기도 한다. 이에 수의사 단체, 고양이 보호단체, 지방자치단체 등은 '모닝노크 캠페인'을 추진하고 있다. yeon7373@news1.kr [© 뉴스1코리아(), 무단 전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=047&amp;aid=0002238371&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=25</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>직접 본 이집트 피라미드, 경이로움보다 끔찍</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>[오마이뉴스 글:최늘샘, 편집:최은경] 이집트 일반 비자는 체류 기한이 한 달인데, 마침 내가 도착한 뒤 한 달 내내 이슬람교의 금식 기간인 라마단이 이어졌다. 라마단 기간은 이슬람 태음력에 따라 정해지므로 해마다 그레고리 태양력 날짜는 바뀐다. 아랍어로 '더운 달'을 뜻하는 라마단은 천사 가브리엘이 예언자 무함마드에게 &amp;lt;코란&amp;gt;을 전한 달로, 해 뜰 때부터 해 질 때까지 음식을 먹지 않고 평소보다 기도를 열심히 하는 신성한 기간이다. 1억 이집트 사람들 중 90퍼센트가 이슬람교를 믿는다. 대낮에 문을 여는 식당은 맥도날드나 KFC 같은 외국계 프랜차이즈뿐이었다. 식당뿐 아니라 많은 가게들이 문을 닫아서, 가뜩이나 사하라의 모래 먼지가 날리는 이집트의 도시들이 조금 더 낡아 보였다. 사람 많은 공공장소에서는 물 한 모금 마시는 것도 조심스러웠다. 라마단은 이곳의 종교 규칙이자 문화이기도 하다. 음식을 구하기 어려우니 자연스레 나도 낮에는 음식을 줄이게 되었다. 라마단에는 배고픔 때문에 사람들의 스트레스가 높아지므로 조심히 여행해야 한다는 얘기를 들었다. 정말 그래서일까, 이집트의 수도이자 아랍 연합의 수도, 2000만 인구의 대도시 카이로 도로는 시끄러운 경적 소리가 너무 심했다. 신호등과 횡단보도가 드물고 보행자를 배려하는 운전자 또한 드물어서, 길을 건널 때마다 신경을 곤두세우고 곡예하듯 차들 사이를 가로질러야 했다. 보행자가 가는 길도 길이고, 차가 오는 길도 길이니 목숨과 안전은 각자가 눈치껏 지켜야 하는 혼란의 거리. 빵빵빵, 경적을 울리다가 차에서 뛰쳐나와 고함을 지르며 멱살잡이를 하는 광경을 몇 번이나 보았다. 그런 혼잡도 며칠 살다 보니 익숙해져서, 신호를 기다리지 않고 언제든 길을 건널 수 있다는 게 오히려 편리하게 느껴지기도 했다.   ▲  카이로 도심 타흐리르 광장 ⓒ 최늘샘 계급계층, 학벌, 불평등, 약육강식의 사회 현상을 상징하는 단어로 '피라미드'라는 말을 흔히 쓴다. 여행 중인 나에게도 입소문이 전해진 드라마 &amp;lt;스카이 캐슬&amp;gt;의 홍보 영상에서도 '피라미드 꼭대기'라는 대사를 들을 수 있었다. 그 은유의 기원이자, 은유 없는 실제 피라미드, 4580년 전에 만들어진 세계 최대의 무덤을 드디어 직접 보았다. 멕시코의 치첸잇사, 캄보디아의 앙코르와트에도 비슷한 돌 건축물이 있지만 이집트의 피라미드는 훨씬 오래 되고 거대했다. 5600만 톤의 돌들로 만들어진 147미터 높이의 돌산. 나무 한 그루 없는 사막에 덩그러니 솟은 모습이 시선을 압도했다. 온 세계의 관광객들은 피라미드 옆에서의 점프샷, 스핑크스와의 입맞춤 사진 따위의 기발하고 멋진 사진을 추억으로 남기느라 분주했다. 해가 기울자 서서히 관광객들의 발길이 끊겼고 허기진 들개들과 지친 새들이 피라미드가 만드는 그늘 아래에서 더위를 식혔다.   ▲  이집트 기자 지역에 자리한 피라미드 ⓒ 최늘샘 노예제도와 계급 사회가 얼마나 사람을 혹사시킬 수 있는지, '피라미드 꼭대기'의 인간들이 '피라미드 바닥'의 인간들에게 어떤 차별을 할 수 있는지 증명하는 건축물. 그래서 피라미드는 나에게 경이로움보다는 끔찍함을 더 많이 느끼게 했다. 피라미드 같은 사회는 이제 그만 산산히 부서져서, 피라미드 옆의 고요한 사막처럼 공정하고 평평해졌으면 좋겠다고 조용히 기도하며 피라미드를 떠났다. 피라미드에서 기자(Giza) 전철역으로 가는 마이크로 버스를 탔다. 카이로의 전철 티켓은 3파운드(한화 210원), 시내버스 역할을 하는 승합차 '마이크로 버스'는 1파운드(70원)부터 거리에 따라 가격이 늘어난다. 퇴근시간 도로는 차와 사람들로 넘쳐났다. 버스 기사는 뭐가 그리 바쁜지 아슬아슬 추월 운전을 했고 쉴 새 없이 경적을 울렸다. 마이크로 버스는 정해진 정거장 없이 아무 곳에서나 손을 드는 사람을 태우고 내린다. 기사들은 운전을 하는 와중에 차비도 받고 거스름돈도 돌려준다. 교차로 신호가 걸린 순간, 기사가 갑자기 운전석에서 뛰어내리더니 차를 도로 가운데 버려두고 뒤쪽으로 뛰어갔다. 승객 모두 어리둥절 그의 뒷모습을 쫓았다. 그는 중앙선 주변을 헤매는 손바닥만한 새끼 고양이를 안아 들고 마치 액션 영화 추격 장면처럼 수십 대의 차들 사이를 요리조리 달렸다. 멀리서도 작은 고양이의 놀란 눈빛이 보였다. 안전한 길가에 고양이를 데려다준 그는 신호가 채 바뀌기 직전 다시 운전석으로 돌아왔다. 20초 남짓 사이에 벌어진 구출 작전이었다. 지나가는 사람들에게는 그렇게 화난 듯이 경적을 울리더니, 어떻게 그 혼란한 도로에서 조그만 고양이를 발견하고 구할 마음을 먹었을까. 그는 마치 현실의 슈퍼 히어로처럼 보였다. 카이로의 거리에서 받은 스트레스가 불현듯 환하게 씻겨져 나갔다. 시끄러운 소리에 내가 짜증이 나니, 버스 기사도 다른 사람들도 모두 짜증이 나 있다고 생각했는데 그렇지 않았다. 카이로 버스 기사들의 일이 분초를 다툴 만큼 바쁜 것이고, 정류장이 없는 도로에서 승객을 태우려고 경적을 울린다는 것을 이해하게 됐다. "고달프고, 힘들고, 귀찮고, 짜증나는 여행길이겠지만, 때론 아이의 미소 하나만으로 모든 게 괜찮아지기도 하지요." 아프리카를 먼저 종단한 여행자 김경진씨가 고양이 구출 이야기를 듣고는 공감의 맞장구를 쳐주었다. "라마단 카림"은 라마단의 인사말로, '새해 복 많이 받으세요' 나 '메리 크리스마스' 와 비슷한 뜻이다. 이슬람 문화 바깥에서는 라마단을 금식하는 힘든 기간이라고만 짐작하지만, 실제 라마단은 욕망을 절제하고 이웃들에게 선행을 베푸는 호혜와 축제의 기간이라고 한다.   ▲  후르가다 거리. 해가 지고 음료와 대추야자를 나눠주는 사람들. ⓒ 최늘샘 해가 지고 모스크에서 기도 '아잔'이 울려퍼지면, 사람들은 거리에 나와 배고픈 행인들에게 히비스쿠스 음료와 대추야자 세 개씩을 나누어 주었다. 길가에 식탁과 의자를 놓고 수십, 수백 명의 사람들에게 저녁식사 '이프타르'를 대접하는 곳도 많았다. 이슬람 신자가 아닌 여행자에게도 모든 사람들이 친절히 음식을 나누고 축복을 해주었다. 밤이 오면 골목이며 집집마다 장식해 둔 색색의 전등에 불이 켜졌고 거리는 대낮에 없던 활기가 넘쳤다. "라마단 카림! 슈크란, 고마워요!" 이집트에서 내가 겪은 라마단은, 덥고 배고파서 힘들기도 했지만, 가는 도시마다 음식을 얻어먹고 친절을 받았던 감사하고 특별한 한 달이었다.   ▲  카이로. 라마단 기간의 저녁식사 '이프타르' 를 무료로 대접하는 장소. 수백 명의 사람이 함께 축복의 기도를 하고 밥을 나눠먹는다. 대추야자 세 개와 라마단 저녁식사. ⓒ 최늘샘   "차이나? 코리아? 컴 온, 컴 온! 굿 프라이스! 스페셜 프라이스 포 유! 와이 낫? 왜 안 사? 왓 두 유 원트?(얼마를 원해?)" "아니, 나는 아무 것도 안 살 거고, 그냥 나를 좀 가만히 내버려 둬요!" 라마단의 축복을 감사히 받은 한편, 후르가다, 카이로, 아스완, 다합, 이집트 어디서든 외국인을 대상으로 하는 바가지와 사기를 꽤 당했다. 그 중 두어 시간 만에 세 번의 사기를 당하고 눈물이 핑 돌았던 룩소르의 사기꾼들이 특히 기억에 남는다. 이집트 남부 오뉴월 평균 최고 기온은 45도를 넘나든다. 그 더위에, 낮에는 요리된 음식을 찾기 어려웠고, 해 질 무렵 시장에서 작은 빵 한 봉지를 샀다. 50파운드(3500원)를 부르기에 첫날에는 그냥 사 먹고, 다음 날엔 비싸다고 느껴져 '로컬 프라이스, 현지 가격'으로 달라고 말하니 30파운드로 깎아주었다. 영어가 통하는 동네 청년들에게 물었더니 5나 10파운드 정도면 사는 빵이라고 했다. 열 배든 세 배든, 금액을 떠나 두 번이나 바가지를 쓴 게 화가 나서 다시 찾아가 따졌다. 아랍어를 모르니 손짓과 표정으로 따질 뿐이었다. "너네 이거 다른 이집트인들이 5파운드라던데, 나한테 두 번이나 사기친 거니?!" 배고프고 지치고 억울한 내 표정을 이해한 듯, 빵집 청년들은 화내지 말라고 웃으며 나를 껴안아 다독이더니 10파운드만 돌려주었다. 그 빵의 현지 가격을 나는 영영 알 수 없었다. 카이로에서 일하는 지인의 프로젝트를 돕기로 해서, 이집트 전화번호가 필요해졌다. 여행 중 처음으로 현지 핸드폰 유심(USIM)을 사기로 했다. 문을 닫은 통신사 앞을 서성이는데 두 청년이 다가와 유심을 팔았다. 인터뷰 영상들을 업로드할 겸 20기가(20000메가) 데이터를 샀는데 숙소에서 확인해보니 150메가만 사용할 수 있는 유심이었다. 정말 20기가 맞냐고, 눈을 보며 몇 번이나 물었고 그들은 대답했는데, 완전한 거짓말이었다. 그들을 만난 곳에 달려가니 아무도 없었다. 주변 상인들에게 경찰을 불러 달라고 말하자 사기꾼들에게 전화를 했고 곧 그들이 왔다. 배신감에 눈물이 났다. 빵집 청년들처럼, 유심 청년들도 온갖 착한 표정을 지으며 나를 다독였다. "진정하고 앉아. 차 마실래? 데이터가 적어? 돈 다시 줄게. 됐지? 아 유 해피 나우? (이제 행복해?) 네가 이집트에서 행복했으면 좋겠어." 나는 150파운드를 줬는데 그들은 120을 돌려주었다. 욕이 튀어나왔다. "아니. 30 모자르잖아. 이집트에서 행복하냐고? 장난치냐? 이 삐리리들아!" "근데 이게 다야. 어쩌지, 우리 방금 그 돈으로 밥 먹었거든. 미안." 터덜터덜 마음이 만신창이가 되어 숙소로 돌아가는 길, 이번에는 옷 수선소의 중년 남성이 말을 걸어 왔다. "너 해피랜드 호스텔에 있어? 거기 주인이 내 형제야. 여기 앉아서 차 마시고 가. 오늘 밤은 라마단 축제날인데 사람들이 같이 밥을 먹고 새옷을 사는 날이야. 너 겔라비아(이집트 전통의상)에 관심 있으면 내가 저렴한 현지인 가게에 데려다 줄게." 이야기를 나누다 그가 데려간 가게는 현지인 가게가 아닌 관광객용 선물가게였다. 나는 끝까지 그가 사기꾼인 줄은 모르고, 그의 발품이 미안해서 맘에 들지 않는 옷을 기어이 사고 말았다. 가게에서 나오는 순간 그는 나에게 20파운드를 요구했고, 내가 돈을 주지 않자 헤어지기 직전에는 5파운드를 요구했다. 5파운드는 350원이다. 풍채 좋고 점잖던 그는 정녕 나에게서 350원을 받으려고 30분이 넘게 이야기를 나누고 거리를 걸은 것일까. 그의 진심을 나는 지금도 알 수가 없다 . 다합에서 만난 여행자 김진수씨의 느긋한 통찰력이 나의 뒤통수를 쳤다. "한국에 살던 우리가 정찰제에 너무 익숙해져서 그렇지, 원래 물건 가격은 파는 사람 마음 아닐까요?" 다시 한 번 "알라 알라 이집트!", 고대와 현대가 공존하는, 이집트는 그런 곳이다. 온갖 바가지도 갖가지 사기도, 모두 다 여행과 삶의 경험으로 기꺼이 받아들일 줄 아는 넓은 마음을 먹어야겠다.   ▲  룩소르 사원. 입장료가 비싸 내부로 들어가지는 않았지만 담장 밖에서도 유적의 분위기를 조금은 느낄 수 있었다. ⓒ 최늘샘   ▲  강매 당한 전통의상 겔라비아는 강한 햇빛을 조금은 가려주었다. ⓒ 최늘샘 #세계여행 #세계일주 #아프리카여행 #이집트 #이슬람 #라마단 #피라미드 #여행기 #여행사진 #탈식민주의 #worldtraveler #worldtravel #africa #egypt #cairo #ramadan #pyramid #photography #postcolonism #humanity ▶ 해당 기사는 모바일 앱 모이(moi) 에서 작성되었습니다. ▶ 모이(moi)란? 일상의 이야기를 쉽게 기사화 할 수 있는 SNS 입니다. ▶ 더 많은 모이 보러가기 저작권자(c) 오마이뉴스(시민기자), 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=016&amp;aid=0001573649&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=26</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>애호박 닮은듯 오이 닮은듯 눈·심장 건강에 좋은…멀티플레이어 ‘주키니호박’</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>애호박과 닮았지만, 애호박은 아니다. 오이처럼 길쭉하기도 하지만, 누가 뭐래도 호박. 애호박보다 통통한 몸매로 인해 ‘돼지호박’이라고도 불리는 주키니 호박은 여름이 가기 전에 맛보면 좋은 채소로 꼽힌다. 주키니 호박은 수확하지 않고 그대로 두면 1m가 넘게 자라지만, 보통 오이보다 조금 큰 크기인 150~200g 사이로 자랐을 때 수확한다. 100g당 14㎉로 밖에 되지 않아 ‘다이어트’에도 좋고, 영양 성분도 뛰어나다. 일반적인 호박에 풍부한 베타카로틴, 루테인, 제아잔틴과 같은 카로티노이드는 물론 식이섬유 함량이 높다. 최근 유럽, 북미 지역에서 주키니 호박은 저탄수화물 다이어트를 하는 사람들의 ‘대체 식품’으로 인기가 높다. 한 컵(223g)당 탄수화물 함량이 고작 3g에 불과한 데다, 스파게티나 링귀니, 라자냐 등을 만들기에도 적합하기 때문이다. 주키니 호박은 현대인의 만성질환을 예방하는 데에도 도움이 된다. 미국 하버드 의과 대학에서 진행된 2016년 연구에 따르면 주키니 호박과 같이 섬유질이 풍부한 식품은 식후 혈당 스파이크를 방지하는 것은 물론 혈당 수치를 안정적으로 유지하는 데에도 효과적이다. 2008년 독일 인간영양연구소에서 진행된 연구에서도 주키니 호박에서 발견되는 섬유질이 인슐린 민감성을 높여 혈당 수치 안정에 도움이 된다는 점을 확인했다. 뿐만 아니라 주키니 호박에서 발견되는 수용성 식이섬유 펙틴은 콜레스테롤 수치 조절에 도움을 줘 심장 건강에 이롭다는 연구 결과도 있다. 미국 하버드 공중보건대학에선 1~2개월간 하루 2~10g의 수용성 식이섬유를 섭취한 67건의 연구를 분석했다. 그 결과 평균 총 콜레스테롤이 1.7㎎/dl, 나쁜 콜레스테롤이 2.2㎎/dl이 감소한 것을 발견했다. 또한 주키니 호박에 풍부한 항산화제인 루테인, 제아잔틴, 베타카로틴은 눈 건강에 이롭다. 미국 위스콘신 대학에서 진행된 2017년 연구에선 산화방지제는 황반변성 등 노화로 인한 안과 질환의 위험을 줄일 수 있다는 결과를 확인했다. 건강상 이점이 많은 주키니 호박은 다양한 조리 방법으로 활용할 수 있는 다재다능한 식대료다. 샐러드에 넣어 생으로 즐길 수 있고, 올리브오일에 살짝 볶거나, 기름에만 구워도 풍미를 느낄 수 있다. 샌드위치로 만들어 먹으며 낮은 칼로리로 인해 훌륭한 ‘다이어트 간식’이 된다. 주키니 티타임 샌드위치 〈재료〉 플레인 식빵 2장, 주키니 약 100g, 딜 2~3줄기, 드레싱(엑스트라버진 올리브유 2T, 레몬즙 1T, 소금 1/3t, 후추 약간) 〈만드는 법〉 1. 주키니를 2~3㎜ 두께로 얇게 동글동글 썬다. 끓는 물에 넣었다 바로 건져서 식힌다. 2. 드레싱을 잘 섞어 데친 주키니를 넣고 딜은 손으로 뜯어서 섞어 차게 식힌다. 3. 식빵에 간이 베인 주키니를 얹고 원하는 크기로 썰어 그릇에 담는다. 고승희 기자/shee@heraldcorp.com [레시피=베지따블 쿠킹 스튜디오 제공] - Copyrights ⓒ 헤럴드경제 &amp;amp; heraldbiz.com, 무단 전재 및 재배포 금지 -</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=011&amp;aid=0003610148&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=28</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>뼈 건강 챙기려다 심혈관질환 부를라...칼슘·비타민D '과유불급'</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>[서울경제] 성장과 뼈 건강에 좋다는 칼슘과 비타민D. 그래서 폐경 후 여성과 50세 이상 남성 등에게 골절·골다공증의 예방·치료 등을 위해 보충제 복용을 권유하는 경우가 많다. 하지만 최근 고용량 칼슘 보충제 섭취가 혈관을 석회화해 심근경색 등 심혈관질환을 촉진하거나 콩팥(신장) 결석과 대장 용종 등의 발생 위험을 높인다는 연구결과가 잇따르면서 적정량 섭취의 중요성이 강조되고 있다. 칼슘 보충제를 하루 1,200㎎, 1,400㎎ 이상 고용량 복용하면 심혈관질환 위험이 각각 5%, 10% 증가한다는 해외 연구결과도 있다. ◇‘칼슘 우유’ 이어 ‘비타민D 강화 우유’ 등 권장할 필요 비타민D도 고용량 보충제를 먹거나 근육주사하면 골절·골다공증 예방에 도움이 안 되거나 오히려 골절 위험 등을 높인다는 연구결과가 속속 발표됐다. 서구에서는 하루 700~800IU의 비타민D 보충제를 복용하면 엉덩관절(고관절) 골절을 26% 낮춘다는 연구결과도 있지만 예방 효과가 크지 않다거나, 연간 50만IU(하루 약 1,370IU) 이상의 고용량 비타민D를 복용하면 오히려 골절 위험이 26%, 낙상 위험이 16% 늘어난다는 연구결과도 있다. 최근에는 6개월~1년에 한 번 근육주사하는 비타민D 보충제도 나와 있는데 첫 3개월의 혈청 농도가 적정 수준보다 높아 불필요하거나 부정적 영향을 미칠 수 있어 혈청 농도 모니터링이 필요하다는 지적을 받고 있다. 대한골대사학회는 이에 따른 혼란을 줄이기 위해 태스크포스(TF)팀을 꾸려 두 차례 권고안을 마련했다. 핵심은 하루 800~1,000㎎의 칼슘과 800IU(국제단위) 이상의 비타민D를 우선 음식으로 채우고, 부족분을 가급적 ‘저용량 보충제’로 섭취하라는 것이다. 심혈관 건강에 대한 위험 없이 우리나라 성인의 뼈 건강에 도움이 되는 칼슘 섭취량은 800~1,000㎎인데, 우리 국민은 하루에 음식으로 평균 600㎎이 채 안 되는 칼슘을 섭취한다. 1,000㎎을 훌쩍 넘는 미국·스웨덴·오스트리아 등 선진국에 비해 상당히 적다. 비타민D의 경우 골다공증 예방에는 20ng/㎖, 골다공증 관리 및 골절·낙상 예방에는 30ng/㎖를 넘는 혈청 농도가 적절하다. 하지만 우리나라 국민의 80%는 비타민D 부족 상태다. 학회 태스크포스팀에 참여했던 최한석 동국대 일산병원 내분비내과 교수는 최근 학회가 개최한 연수강좌에서 “칼슘 보충제는 불편하더라도 가급적 하루 2~3회 저용량 복용하도록 처방하고, 비타민D 보충제의 경우 적정 혈청농도 상한선에 대해 아직 확실한 근거가 없지만 20~30ng/㎖ 수준이 안정권이고 50ng/㎖ 이상 올라가면 좋지 않을 수 있다는 게 학계의 대체적 견해”라고 설명했다. 김세화 가톨릭관동대 국제성모병원 교수는 “미국은 법적으로 비타민D 강화 우유를 권장하고 있는데 우리 정부도 이를 검토할 필요가 있다”고 지적했다. ◇지난해 진료인원 97만여명 중 94%가 여자···남자는 70대 중반 급증 김 교수팀이 건강보험 빅데이터를 분석해보니 당뇨병 환자의 골밀도는 정상인과 비슷하지만, 엉덩관절을 이루는 대퇴골(넙다리뼈) 윗부분의 골절 위험은 1.7배 이상(남자 1.84배, 여자 1.73배)이었다. 특히 50~64세 환자는 그 위험이 남자 2.7배, 여자 2.54배까지 치솟았다. 고혈당이 지속되면 뼈 단백질에 유해물질이 쌓여 염증 수치가 높아지고 뼈의 질을 약화시키고 뼈세포(조골세포·파골세포) 기능에 나쁜 영향을 미치기 때문이다. 지난해 골다공증으로 진료를 받은 사람은 97만2,000여명으로 지난 2014년 82만여명보다 18.5% 증가했다. 성별로는 여성이 94%(약 91만4,000명)로 남성(5만8,000여명)의 15.7배나 된다. 50세 이상 성인 10명 중 여성은 3명꼴, 남성은 1명꼴로 골다공증 상태며 일생 동안 대퇴골 등에 골다공증 골절을 경험한다고 한다. 골다공증은 뼈가 약해져 작은 충격에도 쉽게 부러질 수 있는 질환으로 50∼70대 여성이 가장 취약하다. 폐경을 전후해 골밀도 유지에 중요한 역할을 하던 여성호르몬(에스트로겐)이 급감해 건축물의 철골 역할을 하는 뼛속 물질이 폐경 직후 수년간 그 이전보다 5~10배의 매우 빠른 속도로 줄어들기 때문이다. 남성도 골다공증의 위험에서 자유로울 수 없다. 50세 이상 남성 2명 중 1명은 골다공증 전 단계인 골감소증으로 뼈의 칼슘·미네랄 등이 정상 이하로 떨어져 있다. 10명 중 1명은 골다공증 환자다. 특히 뼈와 근육을 굵고 튼튼하게 유지하는 역할을 하는 남성호르몬(테스토스테론) 분비가 급감하는 70대 중반 무렵 뼈 건강이 급격히 악화되는 경우가 많다. 이즈음 엉덩관절이 부러지면 1년 내 사망률이 또래 여성의 2배에 이른다. 장기간의 흡연과 잦은 음주도 칼슘 흡수와 뼈를 만드는 조골세포의 기능을 억제하고 몸에서 칼슘이 빠져나가게 한다. 저체중, 운동 부족 등도 골다공증 위험요인이다. 박용순 한림대 교수팀이 국민건강영양조사 대상자 중 60세 이상 연령층의 골밀도와 근육량 등을 분석해보니 골다공증 환자의 평균 몸무게는 남성 56.6㎏, 여성 52.1㎏으로 골다공증이 없는 남성(65.5㎏)·여성(59.3㎏)을 크게 밑돌았다. 체중이 웬만큼 나가야 근골격계를 자극하고 골형성세포의 활성도를 높여 뼈의 양이 증가한다. | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=016&amp;aid=0001573648&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=29</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>‘건강한 케첩’ 연타…케첩명가 휘청거리다</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1876년 세계 최초로 ‘케첩’을 상품화한 기업은 미국 식품회사 하인즈였다. 토마토에 설탕과 소금, 식초 등을 넣어 새콤달콤한 맛의 토마토케첩을 만들었다. 하인즈는 2015년 치즈로 유명한 크래프트와 합병을 통해 세계 4위 식품 기업으로 도약했다. 140년간 ‘케첩의 대명사’로 통했던 크래프트 하인즈(Kraft Heinz)가 최근 지속적인 실적 부진을 겪고 있다. 하인즈 주가는 올해에만 34% 떨어졌다. 2017년 주당 100달러(약 12만 원)를 넘보던 하인즈 주가는 작년 8월 60달러대로 떨어졌고 지난 2월 30달러대로 급락한 뒤 이달 들어 25달러로 곤두박칠쳤다. 지난주 공개한 금년 상반기 순매출은 124억 달러(약 15조원)로 작년 동기 대비 4.8% 감소했다. 하인즈는 건강한 먹을거리를 추구하는 소비자 취향 변화에 대응하는 대신 비용 절감에만 골몰하다 몰락을 자초했다는 평을 듣고 있다. 블룸버그통신은 “하인즈가 케첩에 꿀을 첨가한 신제품을 출시할 때, 젊은 소비자들은 건강에 좋은 ‘비트 케첩’이나 치즈처럼 썰어먹는 ‘고체형 케첩’에 열광하고 있었다”고 지적했다. 유럽에서는 흑마늘 케첩이나 설탕 없는 케첩이 인기를 얻었다. 스페인산 흑마늘과 토마토, 발사믹 식초, 양파 등을 섞어 만든 흑마늘 케첩은 소시지나 스테이크, 베이컨 등에 곁들여 먹는 제품이다. 하인즈 케첩의 시장 점유율은 여전히 전 세계적으로 70%가 넘지만, 최근 5년여 사이 5~6%포인트 점유율이 감소했다. 국내에서도 전통적으로 소비가 많던 토마토케첩과 마요네즈는 소스류 시장에서 밀리는 모양새다. 농림축산식품부와 한국농수산식품유통공사가 발간한 ‘소스류 시장에 대한 2018 가공식품 세분 시장 현황 보고서’에 따르면 소스류 생산액은 2017년 2조4965억원에 달했다. 2조1356억원이었던 2013년과 비교하면 16.9% 증가한 규모다. 반면 토마토케첩과 마요네즈의 2017년 생산액의 경우에는 2013년보다 각각 32.6%, 52.1% 감소했다. 140년 역사의 전통 케첩의 몰락은 설탕과 소금을 다량 함유한 케첩 대신 건강한 케첩을 찾는 소비자가 많아졌기 때문이다. 실제로 미국 유기농 식품 매장인 홀푸드에서는 ‘서 켄싱턴’(Sir Kensingtons) 케첩이 하인즈 케첩을 제치고 점유율 1위를 차지했다. 9년 전 미 브라운대학교 학생 2명이 설립한 이 회사는 건강한 케첩을 만든다. 켄싱턴 케첩은 토마토와 비정제 설탕, 사과식초, 올리브오일, 라임주스 농축액, 고수 잎, 양파 등 자연재료를 사용하고 유전자조작식품(GMO), 식품첨가물은 뺐다. 하인즈 케첩보다 설탕은 50%, 나트륨은 33% 줄였다. 유리병에 케첩을 담아 고급화 전략도 내세우면서 켄싱턴 케첩은 고급 호텔·레스토랑·식품매장에서 프리미엄 케첩으로 자리매김했다. 이 회사는 2016년에는 채식주의자를 위해 동물성 식재료를 쓰지 않은 마요네즈를 내놓기도 했다. 서 켄싱턴의 공동창업자인 스콧 노튼과 마크 라마단은 2017년 미 경제매체인 패스트 컴퍼니(Fast Company) 혁신 페스티벌에서 “모든 측면에서 하인즈 케첩과 반대로 했다”면서 “하인즈가 플라스틱병에서 케첩을 짜낸다면 우리는 유리병에서 케첩을 퍼내기로 했다”고 설명했다. 2017년 다국적기업 유니레버(Unilever)는 건강한 케첩 시장의 성장 가능성을 보고 켄싱턴을 1억4000만 달러(약 1700억원)에 인수했다. 이에 대해 뉴욕타임스(NYT)는 “다른 글로벌 식품회사들과 마찬가지로 유니레버는 최근 몇 년간 소비자의 취향이 바뀌면서 침체된 제품 라인에 새로운 에너지를 불어넣는 방법을 모색해 왔다”고 설명했다. 노튼 창업자는 인수 당시 “작은 회사들이 식품 분야에서 도저히 할 수 없는 규모의 투자가 거대 기업에서는 가능하다”면서 “유니레버와의 파트너십은 한 단계 도약할 수 있는 계기가 될 것”이라고 밝혔다. 민상식 기자/mss@heraldcorp.com - Copyrights ⓒ 헤럴드경제 &amp;amp; heraldbiz.com, 무단 전재 및 재배포 금지 -</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=015&amp;aid=0004200391&amp;date=20190829&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=30</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>앞으로 이마트 등 대형마트서 빈 박스·테이프 사라진다</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>환경보호를 위한 장바구니 사용 독려 차원에서 앞으로 대형마트에서 포장용 빈 종이상자와 테이프, 끈이 사라진다. 환경부는 29일 오후 서울 마포 소재 서울가든호텔에서 농협하나로유통, 이마트, 홈플러스, 롯데마트 등 대형마트 4개사, ㈔소비자공익네트워크와 함께 '장바구니 사용 활성화 점포 운영 자발적 협약식'을 갖는다. 협약을 통해 이들 대형마트는 2~3개월 홍보 기간을 거쳐 자율포장대에 비치하던 종이상자와 플라스틱으로 만든 포장 테이프 및 끈을 없앨 방침이다. 대신 소비자가 원하면 종량제 봉투나 종이상자를 구입할 수 있게 하고, 장바구니를 대여하기로 했다. 이번 협약은 제주 지역 성공 사례를 전국으로 확산하기 위해 추진하는 것이다. 대형마트 4곳과 제주의 중형마트 6곳은 제주특별자치도와 2016년 업무협약을 맺고 종이박스 등을 모두 치웠다. 그 결과 제주의 대형마트에서는 소비자의 장바구니 사용이 자리를 잡았다고 환경부는 전했다. 폐기물 문제의 심각성도 협약 추진 배경이 됐다. 환경부에 따르면 롯데마트, 이마트, 홈플러스 등 3개사 기준으로 연간 658t 분량의 플라스틱 폐기물이 발생하는 등 2차 환경오염 우려가 제기됐다. 한편 환경부가 지난해 4월 5개 대형마트와 맺은 '1회용 비닐쇼핑백·과대포장 없는 점포 운영 자발적 협약' 이행실태를 확인해보니 5개 대형마트의 속 비닐 사용량은 협약 체결 전 1년 동안 176만7164t에서 체결 후 1년 동안 109만7696t으로 37.9% 줄어든 것으로 나타났다. 조명래 장관은 "생각과 행동을 조금만 바꾸면 불필요한 폐기물을 만들지 않을 수 있다"며 "업계 노력과 정부 지원뿐 아니라 국민의 적극적인 참여가 필요하다"고 말했다. 강경주 한경닷컴 기자 qurasoha@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002932915&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=1</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>영국 왕자 '발레 수업' 비웃은 美 앵커에…"소년들도 춤을 춘다" 역풍</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>지난 26일 뉴욕의 타임스퀘어 앞에서 남성 댄서 300여 명이 모여 유명 뮤지컬 '페임'의 한 장면을 선보였습니다. 게릴라 공연처럼 보이는 이 모습은 사실 공연의 얼굴을 한 '시위'였습니다. 이들은 한 방송 앵커의 남성 발레 비하 발언에 항의하기 위해 방송국 스튜디오 앞에 모여 일종의 항의 퍼포먼스를 벌인 겁니다. 비난의 대상은 미국 유명 방송국인 ABC의 아침 뉴스 프로그램, ‘굿모닝 아메리카’의 앵커 라라 스펜서(50)였는데요. 문제의 사건은 스펜서가 22일 생방송 ‘핫뉴스’ 코너에서 영국 왕실의 6살 조지 왕자가 이번 가을 학교에서 배우게 될 커리큘럼을 설명하던 중 발생했습니다. 스펜서는 “장차 잉글랜드의 왕이 될 왕자가 참여할 수업에는 수학, 과학, 역사와 같은 일반 과목 외에도 컴퓨터 프로그래밍과 시문학, 그리고 발레가 포함돼 있다고 합니다. 왕자는 이 발레 수업을 매우 행복해한다고 하는데 과연 얼마나 갈 지는 지켜봐야 겠군요(We will see how long that lasts)”라며 남성 발레 수업을 비웃듯이 말한 것이 미국 공연계를 발칵 뒤집은 겁니다. 미국 브로드웨이에서 활동하는 스타 연출가 제리 미첼은 “라라, 진심인가요? 우리는 발레를 합니다. 발레를 하기 때문에 토니상(미국 브로드웨이에서 수상하는 권위 있는 연극상)을 받기도 합니다. 지금은 2019년입니다. 정신 차려요”라는 메시지를 담은 셀카 동영상을 올렸습니다. 또 다른 안무가인 트래비스 월 역시 스펜서의 코멘트에 대해 "당신은 이 나라에서 벌어지는 매우 심각한 문제, 집단 따돌림에 기름을 부은 것"이라고 자신의 SNS에 밝히며 불편한 심경을 숨기지 않았고요. 비욘세, 리한나 등 유명 팝가수와 작업한 안무가 브라이언 프리드먼은 "댄서로 자란 나는 어릴 적 끔찍한 괴롭힘을 경험했다"며 "그녀의 행동은 춤추는 어린 소년을 비웃어도 괜찮다는 메시지를 던졌으며, 누군가는 그녀와 같은 행동을 하는 이들 때문에 그들의 열정을 포기해야 할지 모른다"는 메시지를 던졌습니다. SNS에는 발레 수업을 듣는 소년들의 사진과 함께 "소년들도 춤을 춘다(#boysdancetoo)" 해시태그가 게시물이 폭주했습니다. 그러자 스펜서는 23일 자신의 인스타그램에 "신중하지 못했던 코멘트에 대해 진심으로 사과한다"며 "발레뿐 아닌 어떤 영역일지라도 그것을 꿈꾸는 사람들에게 응원의 메시지를 보내고 싶다"고 밝혔는데요. 또 26일에는 생방송을 통해 “그 발언은 멍청하고 몰지각한 것이었다. 소년 댄서들이 자신의 커리어를 지키기 위해 얼마나 많은 용기가 필요한지 이제야 깨달았다”며 사과의 방송을 하기도 했습니다. 하지만 그가 뱉은 말은 이미 돌이킬 수 없는 상처가 된 것으로 보입니다. 워싱턴포스트(WP)는 26일 "스펜서가 사과했지만 피해는 이미 발생했다"는 제목의 기사에서 남자 댄서들에 대한 차별적 시선은 집단 괴롭힘과 다르지 않다고 지적했습니다. WP는 이 기사에서 "미국에서 춤을 추는 사춘기 소년들을 대상으로한 한 연구에 따르면, 응답자 중 93%가 놀림과 괴롭힘을 겪었고, 70%가 언어폭력 혹은 신체적인 학대를 경험했다. 춤을 추는 10대 소년들이 괴롭힘을 당할 가능성은 일반 청소년들보다 7배 높았다"고 전했죠. 성 역할 고정관념이, 재능있는 청소년의 꿈을 꺾고 있다는 지적이 우리 사회에도 그대로 적용되는 것이 아닐지 돌아볼 때입니다. 홍지유 기자 hong.jiyu@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=003&amp;aid=0009422023&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=2</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>"80대 김기동 성락교회 원로목사, 20대 여성과 호텔"</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>【서울=뉴시스】남정현 기자 = 김기동(81) 성락교회 원로 목사가 성추문에 휩싸였다. 27일 MBC TV 'PD수첩'은 '어느 목사님의 이중생활'을 방송, 김기동 목사와 20대 여성의 관계를 추적했다. 김 목사가 이 여성과 충청 지역 호텔에서 모습을 드러낸 영상을 공개했다. 제보자는 호텔에서 두 사람을 목격할 때마다 영상을 촬영했다. 김 목사가 지난 8개월 동안 10차례에 걸쳐 호텔에서 20대 여성과 함께 있는 모습이 촬영됐다. 두 사람은 같은 방을 사용했다. 때로는 손을 잡고 걷기도 했다. 제보자는 "아들이 그 호텔 레스토랑 앞에서 김 목사를 봤다고 해 다음 날부터 매일 저녁 왔다. 8월14일 김 목사의 차량을 발견했다. 다음 날 다시 호텔 로비에서 김 목사와 젊은 여성이 함께 있는 것을 발견했다"고 말했다. "애인이나 연인 관계라고는 상상이 안 돼 숨겨진 딸이 아닐까 추측했으나 김 목사는 이후에도 그 여성과 여러 차례 호텔을 방문해 한 방으로 들어갔다. 미쳤다고 생각했다. 목사님이면 다른 건 몰라도 여자 문제와 돈 문제는 깨끗해야 하는 거 아니냐"고 덧붙였다. 예배 중 두 사람의 부적절한 행동을 봤다는 교인도 있다. 또 다른 목격자는 PD수첩에 "(김기동 목사가) 왼손으로 (여성의) 허벅지를 만지고 계셨다"고 전했다. 이 여성의 가족은 PD수첩에 "할아버지와 손녀, 딱 그 수준이다. 결코 부적절한 관계는 아니다"고 일축했다. 김 목사 측은 "부적절한 관계가 아니다. 해당 여성 가족은 40년 넘게 성락교회에 다녔다. 김 목사는 여성을 손녀처럼 여긴다"고 밝혔다. 앞서 김기동 목사의 성추문 의혹은 2년 전에도 불거졌지만 증거 불충분으로 잠잠해졌다. 한편, PD수첩은 김기동 목사 일가 재정 문제도 조명했다. "교회에서 사례비를 받지 않는다"던 김기동 목사는 매달 목회비로 5400만원을 받아 왔다. 김 목사의 아들 김성현 목사도 매달 목회비로 2000만원을 받은 것으로 드러났다. 김 목사와 며느리는 교회에 각각 80억원, 10억원을 빌려주고 이자로 매달 수천만원을 챙겼다. PD수첩은 김기동 목사 일가 명의로 된 부동산도 추적했다. 아파트, 오피스텔, 밭과 대지, 상가 건물 등의 실거래가를 확인한 결과 172억원에 달했다. 성락교회 전 자산 담당직원은 "김기동 목사에게 매년 10억 정도가 나갔다. (김 목사) 가족은 치외법권적 위치에 있었다"고 말했다. 성락교회 출신 백모 목사는 "김기동 목사는 '검소하다'고 말해 왔지만, 진짜 뒷모습은 탐욕의 덩어리였다"고 비판했다. '귀신 쫓는 목사'로 명성을 떨친 김기동 목사는 신도 15만명의 절대적인 지지를 받고 있다. 100억원대 배임·횡령죄로 1심에서 징역 3년형을 선고받은 바 있다. nam_jh@newsis.com &amp;lt;저작권자ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지.&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=047&amp;aid=0002238238&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=3</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>[엄마의 이름을 찾아서] 밥하고 아이 챙겨 출근하는 엄마, 옷만 입고 나가는 아빠</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>[오마이뉴스 글:송주연, 편집:이주영] ○○엄마. 엄마가 된 여성들은 자신의 이름보다 아이의 이름으로 불리는 데 더 익숙해집니다. 엄마는 자신의 고유한 이름으로 살아갈 수 없는 걸까요? '나다운' 엄마, 이름을 지키는 엄마로 산다는 것에 대해 생각해봅니다. &amp;lt;편집자말&amp;gt; 남편이 등하원 시켰더니... 아이가 받아온 황당한 안내문 (http://omn.kr/1k6gu) 아이가 어린이집에서 유치원, 그리고 학교로 자신의 삶의 영역을 넓혀가면서 나 역시 일에서의 영역을 조금씩 넓혀갔다. 두 군데 상담센터에서 시간제 상담사로 일했고, 아이가 초등학교 2학년이 됐을 땐 심리학 박사과정에 진학했다. 나는 석사과정 때의 연구를 이어가기 위해 서울의 모교를 택했다. 이는 매주 대구-서울을 왕복해야 함을 의미했다. 다행히 잘 갖춰진 방과 후 교실과 사교육 시스템 덕에 주 1회는 서울에 다녀올 수 있었다. 가정 밖 세상에서 나의 자리를 넓혀가는 건 신나는 일이었다. 하지만, 내가 바깥에서 할 일이 많아져도 집에서의 나의 일은 전혀 줄지 않았다. 나는 1인 4역(엄마·아내·상담사·대학원생)을 맡으며 가정에서 3인분(나·남편·아들)의 살림을 홀로 책임지는 생활을 유지했다. 나의 하루는 대체로 이렇게 흘러갔다. 새벽 5시. 식구들이 깨지 않게 슬그머니 침대를 빠져나온다. 쌀을 불려 놓고, 찬물로 세수를 해 남아 있는 잠기운을 쫓아버린다. 따뜻한 커피 한 잔을 들고 책상 앞에 앉아 대학원생 모드를 가동한다. 오롯이 공부에만 집중할 수 있는 유일한 시간인 이 새벽이 내겐 무척 소중하다. 오전 6시 50분 알람이 울린다. 공부를 중단하고 식구들의 아침을 준비해야 할 때다. 불린 쌀을 씻어 밥통에 넣고 취사 버튼을 누른다. 밥이 되는 사이 나는 얼른 외출복으로 갈아입고 화장을 하며 출근 준비를 마친다.   ▲  엄마는 아침에 아이도 챙기고, 밥도 챙기며 자신의 출근준비를 한다. 하지만 아빠는 자신의 몸만 챙기고 출근하면 그만이다. KBS 드라마 &amp;lt;세상에서 가장 예쁜 내 딸&amp;gt;의 한 장면. ⓒ KBS   이제 식구들을 깨울 차례다. "다들 일어나세요! 아침이야 아침." 불을 켜고 창문을 연 뒤 남편의 출근 옷을 꺼내 둔다. 와이셔츠, 재킷, 바지, 양말까지 잘 보이게 올려놓는다. '자기 옷도 못 챙겨 입나?' 한숨이 나곤 하지만, "양말 어딨어?"라는 남편의 짜증 섞인 물음이 들려오는 것보다는 낫다. 남편과 아들을 깨우는 사이 주방을 오가며 가스 불에 올려 둔 국의 상태를 확인하는 것도 잊지 않는다. 아이 시간표를 확인해 아이의 옷도 꺼내 놓는다. "7시 20분이야! 10분 후에 밥 먹는다!" 아직도 이불 속에 있는 두 남자를 다시 깨우고 주방으로 가 식탁을 차린다. 남편과 아들은 그제야 세수를 하고 식탁에 앉아 밥을 먹는다. 그리곤 숟가락만 내려놓고, 서둘러 집을 나선다. 시계를 보니 7시 55분. 8시 5분엔 나 역시 차에 시동을 걸어야 한다. 먹던 음식들을 대충 정리해 설거지통에 넣고 집을 나선다. 차에 시동을 걸자, 안도감이 밀려온다. 휴~ 오늘 출근도 성공이다. 일터에서는 상담자로서 1인분의 역할만 하면 되기에 오히려 평화롭다. 퇴근 후 집에 도착하면 아침에 쌓아뒀던 설거지를 하고, 아이의 준비물을 함께 챙기고, 저녁 식사 준비를 하고, 밀린 빨래를 하고, 청소기를 돌린다. 가끔 남편이 늦게 퇴근하면, 저녁 식사를 두 번 차리기도 한다. 밤 10시쯤에야 소파에 앉을 짬이 난다. 이렇게 종종거리며 지내는 내게 시가 식구들은 "네가 하고 싶어서 한다지만, 너무 힘들게 일하진 말거라", "애비도 바쁜데 너까지 바쁘고 힘들어서 어째"라며 나를 걱정해주는 건지 아닌지 모를 충고들을 건네왔다. 이웃들 역시 한 마디씩 거들었다. "자기 진짜 대단하다." "편히 살지를 못해." "왜 사서 고생하고 그래." 내가 가장 견디기 힘든 말은 따로 있었다.   "엄마가 둘째를 낳아야지. 혼자 크면 나중에 외로워. 애를 생각해야지. 지금 공부가 중요한 게 아니야. 더 늦기 전에 둘째부터 만들어."   나는 이런 말들을 친척은 물론, 동네 어르신, 놀이터에서 우연히 만난 이웃, 심지어 택시기사님께도 들어야 했다. 남편과 나는 매번 웃으며 넘겼지만, 둘째도 안 낳는 '이기적인 부모'라는 비난이 등 뒤에서 들리는 것만 같았다. 사실 나는 임신이 두려웠다. 이제야 나를 위한 시간을 낼 수 있게 됐는데 둘째가 생긴다면, 내 삶을 만들어가기가 너무나 힘들 것 같았다. 아기와 집안에 갇혀 사는 시간을 또다시 보내고 싶지 않았다. 이런 마음이 컸기에, 둘째를 언급하는 말들은 자꾸만 '내가 너무 이기적인 건 아닌가?' 하는 죄책감을 유발했다. 비슷한 시기에 첫 아이를 출산한 내 친구들 역시 이런 고민을 했고, 그중 몇 명은 둘째를 낳았다. 이들은 한결같이 "둘째를 낳고 나니 이제야 인생의 숙제를 끝낸 것 같아"라고 말했다. 하지만, 둘째를 낳은 친구 중 절반은 일을 그만두고야 말았다. 아이가 12살이 된 지금도 나는 종종 '왜 둘째를 안 낳느냐'는 질문을 받는다. 그때마다 나는 마음속으로 답한다. 동생을 만들어 주는 것이 엄마의 의무인 법은 없다고. 엄마도 자기 삶을 선택할 권리가 있다고 말이다. 가끔은 이런 우려도 든다. 만일 둘째를 낳으라는 말을 들은 누군가가 아이를 안 낳는 게 아니라 못 낳는 거라면, 큰 상처가 되지 않을까. 아이를 낳는 것은 외부에서 '이래라저래라' 할 일이 아니라고 생각하는 이유다.   ▲  '3인분'의 돌봄을 수행했던 집보다 오로지 1인분의 상담자역할만 해도 되는 일터가 내겐 더 평화로운 공간이었다. ⓒ unsplash    가만히 생각해보면, 나를 힘들게 했던 건 1인 4역의 다중역할 자체가 아니었다. 사실 심리학적 측면에서 다중역할은 여러 가지 긍정적인 기능을 한다. 다중역할은 한 사람의 자아 범주를 넓혀줘 삶을 보다 풍부하게 살아갈 수 있도록 안내한다. 또한, 한 역할에서 실패나 좌절을 겪을 때, 잘 기능하고 있는 다른 역할이 완충작용을 해준다. 한 영역에서 어려움을 겪더라도, 다른 영역에서 경험하는 기쁨으로 쉽게 무너지지 않고 다시 일어설 힘을 낼 수 있다. 나의 일과 양육 역시 마찬가지였다. 엄마의 역할과 일에서의 내 역할은 완전히 다른 차원의 것이었다. &amp;lt;빨래하는 페미니즘&amp;gt;의 저자 스테퍼니 스탈이 적었듯, 둘은 서로 다른 종류의 욕구에 부응하는 것이고, 어느 한쪽의 욕구는 다른 한쪽의 욕구를 대신해 줄 수 없다. 나는 일에서 얻는 성취와 보람, 사회에 기여하고 있다는 느낌이 좋았지만, 어머니로서 성장해가는 기쁨도 함께 느꼈다. 일에서 좌절을 경험할 때 아이의 존재는 힘이 됐고, 반대로 아이 때문에 속이 쓰릴 때 일에서 얻는 성취는 내가 좀 더 여유를 가지고 아이를 바라볼 수 있게 해 주었다. 다중역할의 고단함 속에서 깨달은 건 일과 양육이 서로 충돌하지 않는다는 점이었다. 진정으로 나를 힘들게 한 건, 자신이 가지고 있는 다양한 층위의 욕구를 충족하고자 하는 여성들을 '엄마나 아내의 역할'에만 가두려는 사회적 시선이었다. 이런 시선은 내 안에 뿌리 깊이 박혀 있는 가부장적 사고의 잔재들을 자꾸만 자극했다. 일과 공부를 통해 기쁨을 찾고자 하는 내 마음에 끊임없이 죄책감을 불러일으켰다. 죄책감은 결국 나를 3인분의 삶으로 이끌었다. 나는 식구들의 식사와 옷가지를 챙기고, 집안일에서도 빈틈을 보이지 않으려 했다. 사회적 자아를 키워가면서도 가부장 사회에서 말하는 '좋은 엄마, 좋은 아내'의 이미지를 포기하고 싶지 않았다. 하지만 가족 구성원이 함께 꾸려가고 스스로 돌봐야 할 부분까지 대신해주는 '3인분의 돌봄'을 계속할수록 내 안에는 억울함과 짜증만 늘어갔다. 남편과 아이는 스스로를 돌보는 능력을 점점 더 상실해갔다. 가족의 이런 모습이 건강하지 않다고 느끼고 있었지만, 그럴수록 내가 더 열심히 해야 한다고 스스로를 다그칠 뿐이었다. 이런 일상이 계속되는 가운데, 우리 가족의 삶을 크게 변화시킬 사건이 다가오고 있었다. 남편이 직장에서 캐나다 연수의 기회를 얻게 된 것이다. 낯선 곳에서의 삶을 준비하면서 꾹꾹 눌러 담아 두었던 근본적인 문제들이 밖으로 터져 나오기 시작했다. (* 다음 회에 이어집니다.) 저작권자(c) 오마이뉴스(시민기자), 무단 전재 및 재배포 금지 이 글은 필자의 개인블로그(https://blog.naver.com/serene_joo)와 브런치(https://brunch.co.kr)에도 실립니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011046008&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=5</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>내일 서울 등 단시간에 강한 비…제주 '물폭탄' 계속</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>예상강수량 서울 10∼40㎜…제주는 최대 120㎜ 이상 (서울=연합뉴스) 김승욱 기자 = 목요일인 29일 서울을 포함한 전국 곳곳에 소나기성 비가 내릴 것으로 보인다. 제주도는 계속해서 '물 폭탄'이 쏟아질 것으로 예상돼 피해가 우려된다. 28일 기상청에 따르면 이날 오후 4시 현재 서울과 경기는 구름이 많고 그 밖의 전국은 대체로 흐린 가운데 제주도와 남해안에는 비가 오는 곳이 있다. 제주도 전역에는 호우 특보가 발효돼 있다. 제주도에는 천둥·번개를 동반해 시간당 30∼50㎜의 강한 비가 오는 곳이 있다. 27일 0시부터 이날 오후 4시까지 강수량은 제주도 한라산 삼각봉 322.0㎜, 제주도 한라산 영실 286.0㎜, 전남 완도 여서도 229.0㎜, 제주도 서귀포 서광 219.5㎜ 등이다. 윤기한 기상청 통보관은 "북태평양 고기압과 북서쪽의 찬 고기압 사이 경계에서 큰 정체전선이 형성됐다"며 "이 정체전선이 제주도 부근에서 남북으로 오르락내리락하며 비를 뿌리고 있다"고 설명했다. 29일에는 전국이 흐리고 중부지방과 전북, 경북은 오전 6시부터 밤까지 비가 오는 곳이 있고, 남해안과 제주도는 오전까지 비가 올 것으로 기상청은 내다봤다. 서울을 포함한 중부지방은 오전 6시부터 오후 3시까지 대기 상하층 간 큰 온도 차이에 의한 대기 불안정으로 천둥·번개를 동반해 시간당 30㎜ 안팎의 강한 비가 내리는 곳이 있을 전망이다. 윤 통보관은 "기압골 이동 속도가 빨라 강수 지속 시간은 짧겠지만, 소나기처럼 강한 비가 내릴 것으로 예상한다"고 말했다. 서울과 경기 남부, 강원 영서 남부, 충청, 전북의 29일 예상 강수량은 10∼40㎜다. 경기 북부와 강원 영서 북부는 20∼60㎜다. 강원 영동과 경북 내륙, 남해안에는 5∼20㎜의 비가 내릴 것으로 전망된다. 제주도에는 29일에도 시간당 30㎜ 이상의 강한 비가 오는 곳이 있을 것으로 보인다. 제주도에는 이미 매우 많은 비가 내려 지반이 약해진 가운데 29일 오전까지 최대 120㎜ 이상의 많은 비가 내릴 것으로 보여 피해가 우려된다고 기상청은 전했다. 정체전선은 29일 오전까지 제주도와 남해안에 영향을 준 뒤 일시적으로 제주도 남쪽 해상으로 내려갔다가 다음 달 1일께 다시 북상해 제주도에 영향을 줄 가능성이 있다. ksw08@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002932944&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=7</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>"하나도 안 아파" 수박밭 일하러 온 할머니들의 자기최면</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>━ [더,오래] 송미옥의 살다보면(103) 내일은 흐리고 비가 온다고 한다. 아침에 일어나니 머리카락까지 건드리면 아픈 것 같은 느낌으로 아주 아프다. 그렇다고 뚜렷하게 어디가 아파 병원에 갈 명분은 없이 온 전신이 다 아프다. 옛 어른들이 기상대보다 더 날씨를 잘 맞힌다는 말이 이런 거구나. 젊은 시절 부모님이 아침부터 ‘에구구~온 데가 아프다’란 말이 정말로 듣기 싫었는데 저절로 나오는 언어가 되다니…. 몸을 일으켜 손가락부터 모가지까지 구부리고 젖히며 로봇 같이 움직여본다. 두드득두드득 하며 움직일 때마다 로봇이 내는 소리가 난다. 마디마디를 다 움직이고 나서 일어나 돌아다니다 보면 몸은 언제 그랬냐는 듯이 일상의 활동으로 돌아간다. 언젠가 시골 살 적, 인부들이 많이 와서 이웃 수박밭에 한 고랑 한 고랑을 차지하며 쭉 들어가셨다. 평균 나이가 70대다. 몸이 불편한 어르신은 밭 주인이 모셔다가 밭에 앉혀드리면 그때부터 기어 다니며 일을 하시는데 너무 마음이 짠해서 물어보았다. “어머님 일이 힘들지 않으셔요? 몸은 안 아프셔요?” “힘들지 않은 일이 어디 있노? 그래도 밭에 나오면 하나도 안 힘들어. 대화할 친구 있제, 밥 주제, 빵 주제, 저녁에 들어가면 조금 피곤하지만 자고 나면 하나도 안 아파….” 평생 밭을 기어 다니신 경력으로 죽기 전까지 일할 자세가 되어 있는 시골 어르신들은 혹시나 주인에게 몸 아픈 것 들켜서 못 나오게 할까 봐, 또 자식들이 걱정 안 하게 아침마다 최면을 거시며 일어나신다. 아픔보다 사람이 그리우신 분들이 많다. 어제 손바닥만 한 밭에 고추 따느라 구부려 일했더니 무르팍도 덜덜 떨린다. 나이를 먹는다는 것은 아프다는 신호로 대신할 수도 있구나. 아침에 딸네 집을 방문해 푸념 좀 하다가 출근해야지 하고 들어서니 딸과 손자 녀석이 기어 나온다. “엄마, 나이는 못 속이나 봐. 날씨가 흐리고 비 온다더니 온몸이 다 쑤시고 아파.” 번데기 앞에서 주름잡는다더니 어이가 없어서 하려던 푸념이 쏙 들어가 버린다. “엄마, 나도 머리가 아프고 다리도 아픈데 유치원 못 가겠어요.” 어린 손자도 나름 가기 싫은 유치원에 출근하는 꼴이니 그 말에 웃음이 나온다. 딸아이가 아프다니 안쓰럽기도 하다. 고만고만한 세 아이가 천방지축 뛰고 달리는데 저녁이면 파김치가 되고 아침이면 푹 고아 놓은 백숙같이 뼈 마디마디가 다 해체되었다가 다시 합체되는 시기가 그때이기도 하다. 딸아이에게 약이라도 챙겨 먹으라고 말하고는 내 몸 아프단 투정은 한마디도 못 해보고 등교하는 손녀를 데리고 나온다. 나이 들면 아무 짓을 안 하고 살아도 아프다. 어느 날은 자고 일어나면 내가 사람인지 유령인지 모를 정도로 감각이 없다. 그렇다고 누군가에게 엄살도 부릴 수 없다. 주위에 모여 대화하다 보면 각자 자기가 가장 많이 아프다. 병원에 누워 있지 않은 것만으로도 정상이다. 또 그것이 날마다 살아있다는 신호를 보내주는 거니까 좋게 생각하면 적당히 아픈 것에 감사해야 한다. 옛날 어느 드라마에서 “아프냐?, 나도 아프다”라는 말이 크게 유행한 적이 있다. 그 말은 곧 ‘너의 아픔은 나의 아픔이라’고 마음도 함께 나누는 위로의 말이다. 아프면 누군가가 알은체라도 해주던, 사람과 사람이 부대끼던 그 시절이 아니다. 가장 가까운 친구 스마트폰에 이것저것 물어보고, 스스로 영양식을 찾아서 챙겨 먹고, 기계같이 닦고 조이고 기름 쳐서 잘 돌아가게 관리해야 한다. 사람도 자연의 한 조각이란 것을, 점점 작아지고 부스러져 간다는 것을. 적당한 아픔을 감사하며 오늘도 기도로 하루를 마무리한다. 송미옥 작은도서관 관리실장 theore_creator@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=020&amp;aid=0003237465&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=8</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>강남 아파트 한 채 가격으로 프랑스 샤토서 ‘버킷리스트’ 실현한 부부</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>“고대 이집트인들은 파피루스 종이에 원하는 일들을 적고 그것을 실천했다고 하지요. 우리 부부에게도 버킷리스트는 있었죠. 저는 ‘죽기 전에 낡은 집을 사서 내 맘대로 고쳐보기’였고, 남편은 ‘농사를 지으며 시골에서 살아보기’였지요.” 서울 강남의 아파트 한 채 가격에 프랑스의 아름다운 고성(古城)을 사들여 수리해 나만의 살림집으로 꾸미고, 8200여㎡(2500평)의 농토와 정원을 가꾸며 사는 부부가 있다. ‘나는 프랑스 샤토에 산다’의 저자인 허은정 씨(54·줄리 허) 부부가 그 주인공이다. 허 씨는 26세 호주로 유학을 가서 경영학을 전공하고 기업 컨설팅과 통역 일을 해온 한국인 여성. 그는 바이오 생명공학 분야 연구자이자 사업가인 호주인 남편과 결혼해서 멜버른에서 살아왔다. 10년 전부터 은퇴 후 유럽 시골로 귀농이라는 ‘버킷리스트’를 꿈꾸며 준비해 온 부부는 인터넷 부동산 사이트를 뒤지기 시작했다고 한다. 처음엔 자그마한 시골집을 찾던 허 씨는 프랑스 인터넷 사이트를 뒤지면서 귀족이 살았음직한 웅장한 샤토(고성)을 일반인도 구입할 수 있다는 사실을 알고 깜짝 놀랐다. 게다가 낡은 고성의 가격은 생각보다 비싸지 않았다. 실제로 호주 신문에는 ‘시드니의 작은 아파트 값이면 프랑스의 고성을 살 수 있다’는 기사가 실리기도 했다고 한다. 3년 쯤 유럽의 시골을 돌아다녔을까. 2013년 4월 프랑스 파리에서 서쪽으로 230km 가량 떨어진 마욘주의 한적한 마을에서 지은 지 160년이 넘은 샤토(고성)를 발견했다. 북쪽으로는 노르망디 해변에 차로 한 시간 거리에 닿을 수 있고, 남쪽으로는 유네스코 문화유산으로 지정된 루아르 강가의 고성 밀집지역과도 가까웠다. 1857년 완공된 이 샤토는 당시 파리에 유행했던 오스만 양식으로 지어진 지하 1층, 지상 3층짜리 건물이었다. 주인 할머니가 5년 전 양로원에 들어간 후 집이 비어 있던 탓에 정원의 나무들은 밀림처럼 자라 있었고, 집 안에는 곰팡이 냄새가 났지만 허 씨는 두 번에 걸쳐 총 45분간 보고 계약을 해버렸다. 이후 5년 반 동안 허 씨는 프랑스에서 매년 3~4개월씩 머물면서 고성을 수리해왔다. 호주 시드니에서 23시간에 걸쳐 비행기를 타고, 3시간에 걸쳐 자동차를 운전해서 찾아가야하는 먼 길이었다. 집수리 도중에 욕실에서 물이 새고, 지붕이 무너져 내리는 등 끊임없이 고생한 이야기가 책에 가득하다. 그러나 프랑스 시골마을의 벼룩시장과 앤티크 숍을 돌아다니면서 남들이 쓰던 오래된 가구와 거울, 접시를 사서 나만의 집을 꾸미는 이야기는 흥미를 자아낸다. 허 씨가 고성을 매입한 가격은 약 10억 원, 수리비는 3억~4억 원이 들어갔다고 한다. 허 씨는 “한국에서도 아파트에 살았고, 호주에서는 현대식 건물에 살았지만 오래된 집에서 풍기는 ‘올드 소울’(Old Soul)을 늘 그리워했다”며 “이 공간엔 누가 어떻게 살았을까, 이 가구를 쓰던 사람은 누구일까 생각하며 대화를 나눈다”고 말했다. 편의시설은 현대적으로 바꿨지만 타일과 마룻바닥, 문고리, 욕조까지 원래 있던 것을 최대한 고쳐서 원래 모습으로 되살렸다. 또한 인테리어를 할 때는 클래식한 스타일의 앤티크라도 맘 편하게 사용하고 앉을 수 있는 것을 추구했다. 그는 “우리나라에서도 고택이나 한옥을 보수해서 다시 쓰는 것이 유행인데, 껍데기만 한옥이지 내부에는 정체를 알 수 없도록 해놓은 것을 보면 안타까웠다”고 말했다. 그의 되살려낸 고성에서의 삶은 프랑스, 미국, 이탈리아 등의 인테리어 잡지와 인스타그램으로 소개되며 관심을 끌었다. 그를 인터뷰한 미국 잡지의 제목은 ‘Courage to Fly Home’이었다. 시드니에서 23시간에 걸쳐 비행기를 타고 프랑스에서 수리를 하는 그의 삶을 담은 기사였다. 허 씨는 벽지를 벗겨내고, 철골만 남아 폐허가 된 집을 수리하던 도중에도 고성에서 홀로 잠을 잤다고 한다. 그는 “전혀 무섭지 않았어요. 지금 생각해보면 우리가 집을 선택한 것이 아니라, 집이 우리를 선택한 것 같아요. 무언가 보이지 않는 끈이 우리를 잡아당기고 있었다는 것을 나중에 알게 됐다”고 말했다. 전승훈 문화전문기자 raphy@donga.com ⓒ 동아일보 &amp;amp; donga.com, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=005&amp;aid=0001233129&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=9</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>‘임블리’ 임지현 前 상무가 각종 논란 이후 보인 행보</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>쇼핑몰 ‘임블리’의 곰팡이 호박즙 사건으로 논란이 됐던 유명 인플루언서 임지현 부건에프엔씨(임블리 운영사) 전 상무가 자신의 인스타그램을 통해 무료로 농산물을 소개하겠다고 밝혔다. 26일 임지현은 자신의 인스타그램에 “그동안 인스타그램으로 제 일상, 제가 만든 임블리, 블리블리제품들, 또 제가 사용해보고 좋았던 다른 제품들을 추천해 왔다”고 운을 뗐다. 그는 “주변에 농사를 짓거나, 유기농 농산물 재배, 과수원 운영을 하는 이들이 있다면 개인 메시지(DM)를 달라”며 “어떠한 이익도 없이 무료로 소개하고, 깨끗하고 투명하고 유익한 정보로 많은 이에게 도움을 줄 수 있는 사람이 되겠다”고 적었다. 이는 임지현이 농산물을 재배하는 농가를 위해 어떠한 중간이윤 없이 중개자 역할을 하겠다는 것으로 보인다. 이어 임지현은 “지난 5개월 동안 많은 것을 되돌아보고 느끼며 고민 또 고민했다. 그러던 중 농사짓는 분들이 판매가 힘들어 안 좋은 생각을 하신다는 얘기를 듣게 되었다”며 “앞으로 그동안 제가 받았던 과분한 사랑을 하나하나 돌려드리려 한다”고 전했다. 이를 접한 네티즌은 ”유통 이윤만 떼먹겠단 소리를 길게 한다” “신규사업을 하겠다는 것 아니냐” “다른 거 안 하고 원래 하던 의류만 하겠다더니 또 말이 바뀌었다” “자중하세요”라는 등 부정적인 반응을 보인다. 앞서 지난 4월 임지현은 자신이 운영하는 쇼핑몰 ‘임블리’가 판매한 호박즙에서 곰팡이로 보이는 이물질이 발견돼 이를 대응하는 과정에서 환불 등 대처가 미흡해 논란을 샀다. 이후 해당 쇼핑몰이 생산하는 화장품 등 상품의 명품 카피 문제 등의 논란이 잇따라 불거지며 소비자들의 신뢰를 잃었다. 이에 임지현은 해당 쇼핑몰의 상무직을 내려놓았다. 김다영 인턴기자 GoodNews paper ⓒ , 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=028&amp;aid=0002466087&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=10</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>식민지 근대화론은 ‘불편한 진실’ 아닌 ‘불편한 허구’다</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>특별기고/‘반일종족주의’에 반박한다 ①식민지근대화론 일제강점기 소득불평등 심화 개발이익 일본인에게 집중돼 조선인들은 여전히 굶주렸고 해방뒤 오랫동안 가난 시달려 이영훈 전 서울대 교수 등이 쓴 &amp;lt;반일 종족주의&amp;gt;가 논란을 부르고 있다. 이 책은 10만부 가까이 팔리며 베스트셀러 1위에 올랐다. “일제는 조선을 수탈하지 않았다” “강제징용은 없었다” “일본군 ‘위안부’들은 성노예가 아니었다”는 등의 극단적 주장들이 유포되어, 정부 고위공무원이 “친일하는 게 애국”이라고 말할 정도에 이르렀다. 이 책에서 가장 문제가 되는 식민지 근대화론, 강제동원, ‘위안부’ 문제에 관해 각 분야 전문가의 기고를 3회에 걸쳐 싣는다. 글·허수열(충남대 경제학과 명예교수) 2005년 4월, 일본의 극우신문이라고 일컬어지는 산케이신문의 자매지 &amp;lt;세이론&amp;gt;(正論)이라는 잡지에 한승조 전 고려대 교수(정치학)가 ‘친일행위가 바로 반민족행위인가?’라는 기고문을 실으면서 한국이 떠들썩했던 적이 있다. 당시 제정된 ‘일제강점하 친일반민족행위 진상규명에 관한 특별법’이 이런 기고문을 쓴 직접적인 계기였다. 일부 신문에서는 ‘일본의 식민 지배는 축복’이라는 자극적인 제목으로 보도함으로써 한 교수는 여론의 호된 질타를 받았다. 그의 주장 속에는 식민지 근대화론의 특징이 고스란히 녹아 있었다. 그래서 이영호 인하대 교수(사학과)는 이것을 ‘식민지 근대화론의 커밍아웃’이라고 하였다. 식민지 근대화론은 사회적 이슈가 될 때마다 여론의 뭇매를 맞았지만, 잊을 만하면 한번씩 튀어나와 염장을 지르는 것 같다. 식민지 근대화론을 주장하는 학자들이 쓴 &amp;lt;반일 종족주의&amp;gt; 역시 마찬가지다. 이 책을 읽고 홍준표 전 자유한국당 대표는 “보수 우파들 기본 생각과도 어긋나는 내용”이라고 하였고, 장제원 자유한국당 의원은 “책을 읽는 동안 심한 두통을 느꼈”다고 말했다. 이 정도로 이 책은 보수·진보를 막론하고 대다수의 한국 국민들의 보편적 상식과는 동떨어져 있다. 그럼에도 불구하고 식민지 근대화론자들은 당당하다. 비록 그것이 ‘불편한 진실’이겠지만 ‘객관적 사실’이기 때문이라는 것이다. 그래서 학자적 양심에서 그렇게 말할 수밖에 없다는 것이다. 한승조 교수는 한국의 대표적인 정치학자 중 한 사람이었고, &amp;lt;반일 종족주의&amp;gt;의 저자들도 높은 학문적 수준을 가진 학자들이다. 이들은 자신들의 주장을 뒷받침할 만한 논거를 가지고 주장하지, 감상적으로 주장하는 것은 아니다. 식민지 근대화론이라는 용어는 국사학계에서 들씌운 프레임 같은 것이라고 하여, 정작 식민지 근대화론자 본인들은 별로 달가워하지 않는 것 같다. 그래서 이 용어를 사용하기가 조심스럽지만, 본인들이 자기들의 학문사조에 대해 달리 뭐라고 규정하지 않아 편의상 그 용어를 그냥 쓰도록 하겠다. 식민지 근대화론이라는 것은 어떤 한 사람의 견해가 아니라, 다양한 연구자들의 집합된 생각이다. 연구자들의 전공도 경제학뿐만 아니라 역사학, 정치학, 사회학 등 아주 다양하고, 연구 대상 시기도 조선 후기에서 현재에 이르기까지 다양하다. 그래서 공통분모를 찾아내기는 쉽지 않고, 자칫 일반화의 오류를 범할 수는 있지만, 시기별로 식민지 근대화론의 핵심적인 주장을 간추려 보면 다음과 같다. ① 조선 후기 사회가 생산력의 붕괴와 더불어 자멸할 수밖에 없는 위기에 놓여 있었다. ② 일제강점기 동안 일본으로부터 근대적인 여러 제도가 도입되고 선진적인 자본이 대거 투입됨으로써 조선이 빠른 속도로 개발되었으며, 그 결과 조선인들의 생활수준도 향상되었다. ③ 이러한 식민지적 개발의 경험과 유산이 해방 후 한국 경제의 고도성장의 역사적 배경이 되었다. 철도·도로 확충에 경지·생산성 확대 식민지 근대화 근거 제시하지만 소득분배 독점·불평등 확대 재생산 일제강점기의 자료들을 들여다보면 그 당시 식민지 조선에서 괄목할 만한 개발이 이루어진 것을 쉽게 알아차릴 수 있다. 근대적인 일본의 법이 조선에 적용됐다. 시장제도가 발전했다. 철도·도로·통신·항만 등의 사회기반시설이 확충됐다. 선진적 기술을 가진 일본의 자본이 대거 투입되어 공장과 광산이 건설됐다. 하천이 개수됐다. 농지개량과 농업개량에 의해 경지면적이 확대됐고 농업생산성도 올라갔다. 도시계획과 상하수도 시설이 보급됐다. 이런 증거들은 이밖에도 일일이 열거하기도 어려울 정도로 차고 넘친다. 불편한 진실은 여기에서 생겨난다. ‘이런 근대적인 여러 변화가 식민지 조선을 개발시켰을 것이고, 그 개발 덕분에 조선인들도 좀 더 잘살게 되지 않았을까’라는 생각이 들기 십상이다. ‘일본인들이 개발의 이익의 많은 부분을 가져갔다고 하더라도 조선인에게도 떡고물이 좀 떨어졌을 것이고 그래서 조선인들도 조금은 더 잘살게 되지 않았을까’ 하는 생각이 들 수도 있다는 것이다. 그런데 조선이 개발되었다는 것으로부터 그것이 조선인에게도 이득이 되었을 것이라는 논리 전개 속에는 논리의 비약이라는 함정이 있다. 조선이라는 지역의 개발과 조선인의 개발을 구별하지 못하는 비약이다. 일본인들은 맹렬한 속도로 조선의 토지를 장악해 갔고, 광공업 자산은 90% 이상이 일본인들 소유였다. 소수의 일본인들이 토지나 자본과 같은 생산수단을 집중적으로 소유했기 때문에, 소득분배가 민족별로 불평등할 수밖에 없었다. 이러한 불평등한 소득분배 구조는 일본인들한테 더 많은 생산수단을 소유할 수 있게 하고, 그것이 소득불평등을 확대시켰다. 이러한 민족별 불평등의 확대재생산 과정이 식민지시대 조선에서 벌어지고 있던 개발의 본모습이었다. 불평등한 개발은 민족 차별을 확대시켰다. 조선의 개발은 일본의, 일본인들에 의한, 일본인들을 위한 개발이었기 때문에 원래 이 땅의 주인이었던 조선인들은 그러한 개발의 국외자에 불과했다. 세월이 흘러가면서 점점 더 민족별 생산수단의 불평등이 확대되고 경제적 불평등이 확대되는 이른바 ‘식민지적 경제구조’에 갇히게 되었다. 따라서 식민지 체제가 청산되지 않는 한, 조선인들은 식민지적 경제구조로부터 벗어날 수 없고 미래에 대한 희망도 가질 수 없게 되었다. 해방이 바로 이 식민지적 경제구조에서 탈피할 수 있는 유일한 길이었다. 바로 그런 점에서 민족독립운동이 무엇보다 중요하고도 소중했다. 필자가 이전에 썼던 책에 &amp;lt;개발 없는 개발&amp;gt;이라는 일견 형용모순된 제목을 붙인 까닭도 거기에 있었다. 필자의 말이 반일종족주의의 도그마를 벗어나지 못한 극단적 주장으로 들리는가? 필자는 오랫동안 식민지 근대화론이 장기로 삼는 바로 그 실증이라는 것으로써 식민지 근대화론을 비판하는 논쟁을 무수히 벌여 왔다. 지면의 제약 때문에 여기서 그 많은 실증을 구체적으로 다룰 수는 없다. 많은 실증적 논쟁 중에서 가장 중요하면서도 간단히 설명할 수 있는 한 가지 지표를 들어 식민지 근대화론의 주장이 사실이 아님을 증명해 보기로 한다. ‘강점기 조선일들 키 커졌다’ 는 주장 지난 100여 년 식품수급표 통계엔 1918~1945년 영양 공급량 감소세 소득 증가했다는 명제 성립 안돼 식민지 근대화론에서는 ‘일제강점기 동안 조선에서 이루어진 개발의 결과, 조선인의 삶의 질도 높아졌다’고 주장한다. ‘일제강점기에 조선인들의 키가 커졌다’는 주장도 여기에서 파생된 것이다. 식민지 근대화론의 가장 핵심적인 주장의 하나이다. &amp;lt;반일 종족주의&amp;gt;의 필자 가운데 한 명인 주익종 낙성대경제연구소 연구위원의 연구에 따르면 일제강점기 동안 조선인들의 1인당 국내총생산(GDP)이 60% 이상 증가했고, 1인당 소비도 크게 증가했다고 한다. 일제강점기 동안 조선인들의 생활수준이 향상되었다는 주장인데, 이는 낙성대경제연구소에서 펴낸 &amp;lt;한국의 경제성장 1910~1945&amp;gt;라는 연구 결과를 바탕으로 한다. 과연 이런 주장이 타당할까? 육소영 충남대 박사는 1910~2013년의 식품수급표를 이용하여 조선(한국)의 1인 1일당 영양 공급량의 변화를 분석하였다. 한국농촌경제연구원은 식품수급표를 1962년 이래 현재까지 매년 공표한다. 육 박사는 식품수급표가 존재하지 않는 1910~1962년에 대한 식품수급표를 추가하여 그 시계열을 1910년까지 끌어올렸다. 이 식품수급표로부터 1인 1일당 에너지, 단백질, 지방질, 무기질(Ca, Fe), 비타민(A, B1, B2, Niacin, C) 등의 영양 공급량을 알 수 있다. 에너지, 단백질, 지방질 등의 주요 영양 공급량을 중심으로 그 분석 결과를 정리해 보면 다음 그래프와 같다. 그래프에서 볼 수 있듯이 1918년까지는 영양 공급량이 증가하다가, 그 후 1945년까지는 감소 경향을 보이며, 해방 뒤 반전하여 뚜렷한 증가 경향을 보이고 있다. 1990년대 중반 이후 에너지 공급량과 단백질 공급량이 거의 정체해 있는 것은, 이 시기가 되면 다이어트가 주요 관심사로 될 정도로 영양 공급이 이미 포화상태에 도달했음을 의미한다. 일제강점기의 조선인들의 소득은 매우 낮은 상태였다. 이 기간에 조선인들의 소득이 증가했다고 가정해 보자. 낮은 소득 때문에 먹을 것을 제대로 먹지 못하던 시기, 즉 항상 배가 고프던 그런 시기에는 소득이 증가하면 당연히 무엇보다 먼저 먹을 것을 찾을 것이고, 음식물 소비량이 늘어날 것이다. 영양 공급량이 증가해야 한다는 말이다. 그런데 그래프를 보면 일제강점기 동안 영양 공급량은 감소하고 있었기 때문에 조선인들의 소득이 증가했다는 명제는 성립할 수 없다. 일반적으로 사람들의 키는 길게는 스무살까지 커지다가 그 이후에는 성장을 멈춘다. 키와 성장기의 영양 공급량 사이에는 강한 양의 상관관계가 있다고 한다. 성장기에 잘 먹으면 그러지 못한 경우에 비해 평균 키가 더 커진다. 일제강점기에 영양 공급량이 감소했다는 것은 평균 키가 커졌을 것이라고 주장하는 모든 연구가 사실이 아닐 가능성이 높음을 강하게 시사한다. 유의해야 할 점은 1918년까지의 증가 경향이다. 필자는 이 증가가 조선이 일본의 식민지로 된 직후의 초기 통계가 갖는 문제점 때문이며 현실이 아니라고 주장해 왔다. 동시에 이 기간의 경제성장을 둘러싸고 식민지 근대화론과 이미 수많은 논쟁을 벌여왔다. 결론적으로 말해 1910~1918년 동안에도 영양 공급량은 감소하거나 정체했다고 보아야 옳다는 것이 필자의 생각이다. 필자의 주장을 못 믿겠다면, 쟁점이 되는 기간을 논외로 하거나, 그것을 그대로 받아들이고 보더라도 결론은 큰 차이가 없다. 어떤 한 나라의 생활조건을 물질적인 소비만으로 설명할 수는 없다. 예컨대 부탄과 같은 나라는 소득수준이 그다지 높지 않지만 행복지수는 매우 높다고 한다. 그러나 가난하여 끼니조차 해결하기 어려운 상황에서 행복을 운운할 수는 없지 않은가? 그런 점에서 일제강점기에 조선인들의 삶의 질이 좋아졌다든가, 생활수준이 향상되었다는 등의 주장은 설득력이 없다. 널리 알려진 바와 같이 해방 후 한국은 소득수준이 매우 낮은 나라의 하나였다. 해방 후 오랫동안 보릿고개라는 말이 없어지지 않았을 정도로 늘 굶주림에 시달리던 나라이기도 하였다. 아득한 옛날의 이야기 같지만 필자가 살면서 경험하였던 일이었다. 일제강점기에 그렇게 많은 개발이 이루어졌다면, 해방 후 한국이 그렇게 가난하지는 않았을 것이다. 이런 경험들은 위의 그래프와도 정합적이다. 이것이 팩트 아닌가? 식민지 근대화론의 ‘불편한 진실’은 ‘불편한 허구’에 불과하다. [ⓒ한겨레신문 : 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=366&amp;aid=0000441771&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=11</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>현대차 노사 임단협, 8년만에 파업 없이 잠정합의</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>현대자동차 노사가 올해의 임금 및 단체협약(임단협) 잠정합의안을 파업 없이 마련했다. 현대차 노사는 27일 울산공장 본관에서 열린 22차 교섭에서 잠정합의안을 도출했다. 이 회사가 무분규 상태로 잠정합의안 마련에 성공한 건 지난 2011년 이후 8년 만이다. 잠정합의안에는 임금 4만원 인상(호봉승급분 포함)과 성과급 150%+300만원, 전통시장상품권 20만원 지급 등이 담겼다. 현대차 노사는 7년간 끌어온 임금체계 개편에 대해서도 의견을 모았다. 현재 두 달에 한 번씩 지급되는 상여금 일부(기본급의 600%)를 앞으로는 매월 나눠서 통상임금에 포함하고, ‘임금체계 개선에 따른 미래 임금 경쟁력과 법적 안정성 확보 격려금’ 명목으로 조합원들에게 근속 기간별로 200만~600만원+우리사주 15주를 제공하는 것이 핵심이다. 노조가 2013년 제기한 통상임금 소송과 올해 최저임금법 시행령 개정으로 불거진 최저임금 위반 문제는 이 노사 합의로 해결될 전망이다. 현대차(005380) 는 최근의 한·일 경제 갈등과 글로벌 보호무역 확산에 따른 위기의식을 노사가 공감했다고 전했다. 특히 노사는 어려움을 겪고 있는 부품 협력사들에 힘을 보태고자 ‘상생협력을 통한 자동차산업 발전 노사 공동 선언문’을 채택했다. 공동 선언문은 차량용 부품·소재산업 지원과 육성을 통한 부품·소재 국산화에 매진해 대외 의존도를 줄이고 협력사와 상생협력 활동을 강화하겠다는 내용이다. 또 현대차 노사는 협력사가 물량 확보를 안정적으로 할 수 있도록 함께 노력하기로 했다. 협력사 운영과 연구개발(R&amp;amp;D) 비용 명목으로 925억원 규모의 대출 자금도 지원할 예정이다. 총 9500명 규모로 진행 중인 사내 하도급 근로자 대상 특별고용과 관련해서는 일정을 1년 앞당겨 2020년까지 남은 채용(잔여 2000명)을 마무리하기로 했다. 이 밖에 현대차 노사는 이미 사문화된 ‘정년퇴직자 자녀 우선채용’ 단협 조항 삭제와 ‘고기능 직무 교육과정’ 신설 등에 대해서도 합의했다. 다만 사측은 정년연장, 해고자 복직 등 인사·경영권을 침해하는 노조의 불합리한 요구에 관해서는 수용불가 원칙을 분명히 했다고 전했다. 앞서 현대차 노조는 파업권을 확보했으나 무역갈등 격화 분위기와 국민 여론 등을 고려해 파업 결정을 두 차례 유보한 바 있다. 노조는 12일 긴급성명을 내고 "사측이 노조의 핵심요구를 전향적으로 수용하고 일괄 제시안을 내놓는다면 추석 전에 임단협을 타결할 수 있도록 힘쓰겠다"고 밝혔다. 현대차 관계자는 "적기 생산과 완벽한 품질로 고객의 기대와 성원에 보답하고, 미래차 시장에서 퍼스트 무버(혁신 선도자)로 도약할 수 있도록 역량을 집중하겠다"고 말했다. [전준범 기자 bbeom@chosunbiz.com] chosunbiz.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=032&amp;aid=0002959667&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=12</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>파업 안할 뿐인데...“현대차 무분규 임단협, 3000억∼6000억 효과”</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>8년 만에 노사 무분규를 실현할 경우 현대자동차가 3800억~6300억원대 정도 영업이익 손실을 피하는 효과를 볼 수 있다는 추산이 나왔다. 생산 차질이 생기지 않는 덕분이다. KB증권은 28일 현대차가 8년 만의 노사 무분규 임단협 잠정합의로 시가총액 대비 1.2∼2.0% 수준의 영업이익 개선이 가능할 것으로 전망했다. 강성진 연구원은 “파업으로 인한 생산 차질을 피해 현대차가 인식할 수 있는 영업이익 규모는 우선주 포함 시가총액 대비 1.2∼2.0% 규모인 3838억∼6342억원 수준”이라고 계산했다. 강 연구원은 “1987∼2018년 현대차의 연평균 파업 일수는 14일, 연평균 생산 차질 대수는 4만8911대였고, 최근 3년간은 연평균 파업 일수가 17일, 생산 차질 대수는 8만829대로 파업 피해가 더 확대된 상황”이라고 설명했다. 이어 “올 1분기 현대차 국내공장의 대당 추정 공헌이익 785만원을 대입하면 3838억∼6342억원의 손실이 예상된 것인데 올해 무분규 임단협이 성사되면 이 같은 손실이 발생하지 않는다”고 설명했다. 강 연구원은 “현대차의 금전적 이익 외에도 주변 정세를 고려해 잠정 합의에 이르렀다는 노조 측의 유연한 태도에 주목할 만하다”고 평가했다. 현대차 노사는 전날 밤 울산공장 본관에서 열린 22차 교섭에서 올해 임금 및 단체협약 잠정합의안을 마련했다. 특히 노사는 올해 일본의 수출규제에 따른 국가적 위기 상황을 고려해 관행적 파업을 지양하고 조기 타결에 집중한 결과, 8년 만에 무분규 임단협 잠정합의에 이르렀다고 밝혔다. 잠정합의안은 임금(기본급) 4만원 인상(호봉승급분 포함), 성과급 150%+300만원, 전통시장상품권 20만원 지급 등을 담았다. 또한 ‘상생협력을 통한 자동차산업 발전 노사 공동선언문’을 채택해 자동차 관련 첨단 부품 국산화를 통해 최고 품질 차량을 적기에 공급하자고 뜻을 모았다. 전병역 기자 junby@kyunghyang.com ▶ ▶ ▶ ©경향신문(www.khan.co.kr), 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=346&amp;aid=0000027930&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=13</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>서유리, 남편 최병길에 "가슴수술 하고 싶다", 가슴 수술 시 주의할 점은…</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>방송인 서유리가 방송에서 남편 최병길에 가슴 수술을 하고 싶다고 고백해 누리꾼들의 이목을 끌었다. 27일 방송된 TV조선 '아내의 맛'에는 결혼 2일 차인 서유리, 최병길 부부가 등장했다. 이날 방송에서 이들 부부는 부부생활 십계명을 작성했는데, 최병길은 이중 '가슴 수술 안 할게요'라는 항목에 만족감을 표했다. 최병길은 '이 항목이 가장 마음에 든다"며 "절대 하지 마라. 나 진짜 싫어한다"고 말했다. 하지만 서유리는 가슴 수술에 대한 의지를 굽히지 않는 장면이 방송됐다. 서유리처럼 최근 가슴 수술을 고민하는 여성들이 적지 않다. 가슴 확대 수술을 할 때는 모양이나 크기 외에 수술 방법도 충분히 고려해 선택해야 한다. 가슴 수술이 잘못돼 후유증이나 부작용이 생기면 가슴 모양이 망가지거나, 조직이 괴사하기도 한다. 최근에는 안전한 수술을 위해 무균처리 된 일회용 깔때기를 사용해 보형물을 삽입하는 경우도 많다. 보형물 삽입시 무균 처리된 일회용 깔때기를 이용하면 신경이나 조직 손상이 적어 상대적으로 회복도 빠르고 부작용도 적다. 가슴 성형 전·후의 몸 상태도 중요하다. 마른 사람은 유방 속 여유 공간이 없어 지방 세포가 잘 안 들어가는 경향이 있다. 따라서 시술 전 음압 기구를 이용해 이용해 유방 조직을 확장하고 조직 밀도를 낮춰주는 과정이 필요하다. 이렇게 하면 지방세포가 들어갈 공간이 충분히 확보되고 생착률도 올라간다. 무엇보다 중요한 것은 가슴성형을 집도한 경험이 많은 성형외과 전문의와 충분한 상담을 통해 자신에게 맞는 가슴의 크기를 선택하는 것이 바람직하다. / 이도경 헬스조선 기자 hnews@chosun.com 전혜영 헬스조선 인턴기자 hnews@chosun.com ▶ ▶</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=023&amp;aid=0003470018&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=14</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>이 많은 부품들, 70%가 사라집니다</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>[Close-up] 車부품의 공식이 바뀐다 내車안에 지금은 2만개, 앞으론 7000개… 갑옷 에어백·공기 뺀 타이어까지 등장 - 엔진도 변속기도 사라지는 시대 에어컨은 車배터리 식히는 기능, 에어백은 차량 시트에 내장돼 사고 순간 갑옷처럼 승객 감싸 3~4초內 급가속 가능한 전기차 타이어 찢어지는 것 막기 위해 공기 뺀 '에어리스 타이어'까지 국내 자동차 부품사 만도 의 연구실. 연구원이 전기차의 액셀 페달을 밟아 가속하다가 페달에서 발을 떼 관성으로 주행하고, 다시 액셀 페달로 가속하는 실험이 계속 이뤄졌다. 액셀 페달에서 발을 떼는 순간 차량 속도가 서서히 줄어들면서 전기차 배터리가 다시 충전됐다. 이곳은 '회생 제동' 부품 실험실이다. 가솔린·디젤 등의 내연기관차는 한 번 쓴 에너지를 다시 충전할 수 없지만, 하이브리드나 전기차는 배터리를 탑재하고 있어 에너지를 재충전해 활용할 수 있다. 관성 주행 때의 운동에너지 혹은 브레이크 페달을 밟았을 때 발생하는 마찰열로 충전한다. 만도 관계자는 "전기차 시대엔 회생 제동 부품 수요가 최대 3배까지 늘어날 전망"이라며 "회생 제동 효율성을 높이기 위해 낭비되는 에너지를 줄이는 실험을 하는 것"이라고 설명했다. 회생 제동만 잘 사용해도 전기차 1회 충전 후 주행거리가 10% 가까이 늘어난다고 알려져 있다. 전기차 등 친환경차의 급부상에다 공유 차량 확산 등으로 완성차 수요가 감소하면서 자동차 부품사들도 위기에 처했다. 특히 전기차 시대엔 자동차 제작에 필요한 부품 수가 2만개에서 7000개까지 줄어들 것으로 전망되고 있다. 차 부품 상당수가 엔진이나 변속기를 만드는 데 쓰이는데, 전기차엔 엔진과 변속기가 모터와 배터리로 대체되기 때문에 필요 부품 숫자가 확 줄어드는 것이다. 그렇다고 손 놓고 앉아 망하는 것을 기다리고 있을 수만은 없다. 만도 ·현대모비스·한국타이어 등 국내 부품사들은 '위기가 곧 기회'라고 외치며, 연구·개발을 통해 미래 먹거리가 될 미래차 대응 부품을 발굴하고 있다. ◇ 공조·회생 수요 2배 늘어 자동차 에어컨 등 공조 부품은 지금까진 차량 실내 온도를 조절하는 데 쓰였다. 그러나 전기차 시대엔 실내 온도 조절뿐 아니라 전기차 배터리를 식히는 데에도 쓰일 전망이다. 고열을 내는 배터리는 통상 차 바닥이나 트렁크 쪽에 집중 설치되는데, 차량 전면부 흡기구로 들어오는 바람으로 열을 식히는 데에는 한계가 있다. 배터리가 냉각되지 않으면 성능이 저하하고, 전력 공급이 끊길 위험도 있다. 한온시스템 관계자는 "전기차 시대가 오면 온도 조절용 부품 수요가 최대 2배까지 늘어날 전망"이라며 "전기차 플랫폼에 맞는 부품을 생산하기 위해 연구·개발에 집중 투자하고 있다"고 말했다. 현재는 자동차가 방향을 바꿀 때 앞바퀴만 조작하지만, 미래의 차는 바퀴 4개가 각각 별도로 조작될 전망이다. 바퀴 4개를 각각 움직이면 차를 90도로 움직이게 돼 평행 주차도 가능해지면서 주차 공간 활용도도 확 올라간다. 아예 형태가 바뀌고 기능이 향상되는 차 부품도 나올 것으로 보인다. 자율 주행 기술 수준이 높아지면 운전석의 위치가 꼭 전방을 볼 필요도 없다. 운전석을 뒷좌석을 바라보도록 돌리고 가운데에 테이블을 넣으면 이동형 회의실이 된다. 이때 사고가 나면 탑승객들이 사방으로 튀어나갈 수 있지만 '에어백'이 차량 시트에 내장돼 사고 순간 부풀어올라 승객을 덮는 갑옷 형태로 진화할 전망이다. 차량 전면·측면 유리는 운행 정보와 관련된 증강현실 내비게이션처럼 구현되거나 대형 인포테인먼트 시스템으로 쓰일 수 있다. 특허청에 따르면 차량 디스플레이 관련 특허는 2009~2012년엔 단 14건만 출원됐지만, 2013~2018년엔 113건이 출원됐다. 전기차는 정지 상태에서 시속 100㎞까지 단 3~4초 만에 도달할 수 있다. 급가속 주행에도 타이어가 파손되지 않게 하기 위해 타이어 안쪽 공기를 뺀 '에어리스' 타이어 등 내구성을 높인 특수 제품이 필요하다. 차량이 앞뒤뿐 아니라 좌우로도 움직일 수 있도록 하는 구(球)형 타이어도 개발된 바 있다. 부품업계 관계자는 "수익성 개선을 위해서라도 고부가가치 부품 개발에 매진해야 한다"고 말했다. 국내 부품 대기업들은 이 같은 고부가가치 부품 분야를 미래 먹거리로 보고 연구·개발에 나섰다. 현대모비스에 따르면 2014년 5000억원 수준이던 연구·개발 투자비가 매년 10% 이상 증가해 지난해엔 8500억원까지 올랐다. 같은 기간 연구원 숫자도 50% 이상 늘어 4000명을 넘어섰다. 그럼에도 국내 부품 대기업(상장사 89개사 기준)의 매출액 대비 연구·개발 투자 비중은 3.1%로 보쉬(7.6%), 덴소(8.8%), 콘티넨털(10.3%) 등 선진국 부품업계와 비교하면 아직 갈 길이 멀다. 그나마 부품 대기업들은 이 같은 신제품 개발에 투자할 여력이 있지만, 중소 업체들은 투자 여력이 없어 어려움에 허덕이고 있다. 국내 전체 자동차 부품업계 연간 연구·개발 투자액(약 2조8000억원)의 대부분이 대기업에서 나온다. 한범석 자동차부품연구원 책임연구원은 "지난해 부품업계 평균 영업이익률이 1.9%에 그칠 만큼 어려운 상황"이라며 "사실상 수직 계열화된 2·3차 협력업체들은 미래차 개발에 투자할 인력·자금의 여력이 없다"고 말했다. 이항구 산업연구원 선임연구위원은 "부품사 육성을 위해 모든 대책을 가동해도 자율 주행 등 미래차 시대에 대응 가능한 부품사가 나올 가능성은 50%도 채 안 된다"고 지적했다. [윤형준 기자 bro@chosun.com] - Copyrights ⓒ 조선일보 &amp;amp; chosun.com, 무단 전재 및 재배포 금지 -</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=014&amp;aid=0004284418&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=15</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>이런 성격 가진 사람이 오래 산다 &lt;연구&gt;</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>[사진=픽사베이] /사진=fnDB [파이낸셜뉴스] 성격이 낙천적일수록 실제로 더 오래 산다는 최신 연구 결과가 나왔다. 특히 85세까지 장수할 가능성은 가장 낙천적인 사람들이 가장 덜 낙천적인 사람보다 최대 70%나 높았다. '낙관주의(optimism)'는 좋은 일이 생길 것이라는 일반적 기대 또는 중요한 결과를 스스로 통제할 수 있어 장래가 밝다고 보는 믿음 등을 말한다. 26일(현지시간) 사이언스데일리 등은 미 보스턴대 의대·하버드대 공중보건대학원 등 공동연구팀이 최장 30년간 들여다 본 이같은 내용의 연구 결과를 소개했다. 연구팀은 여성 6만9744명, 남성 1429명을 대상으로 전반적인 건강 상태, 건강에 영향을 주는 습관(다이어트·흡연·음주 등)과 함께 어느 정도 낙천적인지를 조사해 분석했다. 추적 기간은 여성이 10년, 남성이 30년이었다. 그 결과 성격이 가장 낙천적인 것으로 분류된 남성과 여성은 가장 덜 낙천적인 그룹보다 평균 11~15% 오래 산 것으로 나타났다. 또 가장 낙관적인 그룹이 85세까지 생존할 가능성은 가장 덜 낙관적인 그룹보다 50~70% 높았다. 낙관주의가 어떻게 장수에 도움을 주는지는 명확하지 않지만 연구진은 "낙관주의가 수명 연장의 잠재력을 지닌 심리적 자산임을 시사한다"면서 "낙관주의와 건강이 연관돼 있다는 건 갈수록 확실해지고 있다"고 평가했다. 한편 이전 연구에서는 성격이 낙천적일수록 스트레스나 어려움을 더 잘 극복한다는 내용이 보고된 바 있다. 또 낙천적인 사람이 운동이나 먹는 것 등 건강에 좋은 습관을 가질 가능성이 높다는 분석도 있다. #건강 #장수 #성격 #긍정적 #무병장수 imne@fnnews.com 홍예지 기자 ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=055&amp;aid=0000754915&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=16</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>[취재파일] 태풍 밀어내는 북태평양 고기압…제주도엔 '물폭탄'</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>가을이 코앞인데 날씨는 아직 여름 모습을 크게 벗어나지 못하고 있습니다. 기온이 내려갔다고는 하지만 한 낮에 이어지는 햇볕은 여전히 뜨겁습니다. 구름이 많아서 다행인 것 같지만 자외선이 만만치 않아서 피부 관리에 긴장을 늦출 수 없습니다. 수도권에 있는 분들이야 실감하기 어렵지만 남부와 제주도는 이번 주 들어 비가 자주 내리고 있습니다. 특히 남해안과 제주도는 계절이 다시 초여름 장마철로 돌아간 게 아닌가 싶을 정도로 벼락이 치면서 요란한 비가 지루하게 이어지곤 하는데요, 제주도는 어제와 오늘 200mm가 넘는 물폭탄이 떨어지기도 했습니다. 가을이 오기 전에 장마처럼 비가 지루하게 이어지는 경우는 드문 현상은 아닙니다. 계절이 바뀌는 전조현상이라고 할까요? 여름철 한반도를 지배하던 북태평양 고기압이 서서히 남쪽으로 물러가는 사이, 북쪽에서 상대적으로 찬 공기가 세력을 키우면서 한반도를 향하고 이 두 공기가 맞서면서 긴 정체전선을 만들기 때문입니다. 이 두 공기는 힘이 막상막하여서 쉽게 양보를 안 하고, 이 때문에 동서로 긴 비구름대가 한반도 주변에 머물면서 비를 뿌리게 되는데요, 두 힘이 팽팽할수록 먹구름이 발달하면서 많은 비를 쏟곤 합니다. 어제와 오늘 제주도에 내린 물폭탄이 그 결과죠. 예년 같으면 북태평양 고기압이 잠시 힘을 과시하는 척하다 자연스럽게 물러가곤 했는데 올해는 뒤끝이 강합니다. 제주도 남쪽해상을 오르내리는 것은 물론이고, 세력을 중국 남부까지 서쪽으로 길게 확장하고 있거든요. 2차 장마라고 할 만큼 당분간 비가 자주 내릴 것으로 예상되는 이유입니다. 일단 내일(29일)은 비가 전국으로 확대되겠고, 제주도에는 오늘 밤부터 내일 오전 사이에 또 한 차례 150mm가 넘는 큰비가 내릴 것으로 전망됩니다. 이미 200mm 이상의 비가 내린 뒤여서 침수 피해가 우려되는 상황입니다. 특히 제주도 공항의 경우에는 비가 내리면서 앞이 잘 보이지 않고, 강한 바람에 벼락이 치는 등 항공기 운항에 지장을 주는 기상현상이 이어지기 때문에 항공기 운항 일정에 차질이 빚어질 가능성이 큽니다. 제주공항 이용객들은 미리 운항여부를 확인하는 것이 좋겠습니다. 북태평양 고기압이 뒤늦게 힘을 발휘하면서 태풍은 한반도 부근에서 찾아보기 힘들어졌습니다. 동서로 긴 세력권 탓에 태풍이 뚫을 만한 여지를 주지 않고 있어서죠. 이 때문에 12호 태풍 '버들'은 필리핀을 강타한 뒤 중국 남부 해상을 따라 이동하고 있습니다. 현재는 중형의 약한 태풍으로 중심부근 최대풍속은 시속 72km가량 되는데요, 뜨거운 바다를 지나면서 내일쯤이면 시속 100km에 가까운 강풍과 폭우를 동반한 중급 위력의 중형태풍으로 발달하겠습니다. 12호 태풍 이름인 '버들'은 북한에서 제출한 것인데요, 태풍 '버들'은 주말(31일) 쯤 베트남 북부에 상륙한 뒤 열대저압부로 약화될 가능성이 큽니다. 우리나라는 태풍과 멀어 영향이 없지만 중국 남부와 베트남에는 적지 않은 피해가 우려됩니다. 태풍을 중국 남부로 밀어낸 북태평양 고기압은 당분간 힘을 유지할 것으로 보입니다. 제주도 부근에 동서로 걸쳐있는 정체전선도 쉽게 사라질 것 같지는 않은데요, 이 때문에 다음 주에도 일요일 제주도를 시작으로 월요일부터 수요일까지는 남부지방에 비가 이어지겠습니다. 다음 주 비 역시 예사롭지 않아서 걱정입니다. 먹구름이 강하게 발달하면서 곳곳에서 시간당 30mm가 넘는 장대비가 쏟아질 가능성이 충분하기 때문에 결실기를 앞둔 농작물 관리에 신경을 쓰는 것이 좋은데요, 일 년 농사를 망칠 수도 있는 만큼 철저한 대비가 필요합니다. 공항진 기자(zero@sbs.co.kr) ※ ⓒ SBS &amp;amp; SBS Digital News Lab. : 무단복제 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=092&amp;aid=0002169179&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=17</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>[리뷰] 180cm 넘는 성인이 타도 넉넉한 뒷자리..볼보 S60</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>전장 125mm 늘어나, 미국보다 저렴한 판매가 승부 (지디넷코리아=조재환 기자)125mm의 마법은 놀라웠다. 27일 서울 장충동 신라호텔에서 살펴본 볼보자동차 신형 3세대 S60(이하 S60)은 중형 세단 답지 않은 넓은 레그룸을 자랑했다. 볼보차 S60은 이전 세대에 비해 96mm 늘어난 동급 최고 수준의 휠베이스(2872mm)를 자랑한다. 볼보차코리아에 따르면 앞좌석의 레그룸은 1074 mm, 뒷좌석은 895mm다. 기자의 키는 184cm다. 준중형 세단을 타면 쉽게 무릎이 닿는 편이다. 하지만 S60을 타면, 무릎이 닿는 우려는 없다. 직접 무릎과 차량 운전석 시트에 주먹을 대보니, 약 주먹 한 개 반 정도의 공간이 남아도는 것을 확인할 수 있었다. 다만, 발을 시트 안쪽으로 넣을 수 있는 공간은 별도로 마련되지 못해 아쉽다. 하지만 전체적으로 차량의 전장이 이전보다 125mm 늘어난 효과는 있다. 4760mm의 긴 전장과 15mm 줄어든 전폭(1850mm), 50mm 낮아진 전고(1430mm)를 갖춘 차체는 전체적으로 균형감이 있다. S60은 플래그십 90클러스터와 동일한 SPA (Scalable Product Architecture) 플랫폼을 기반으로 8년만에 완전 변경된 세단이다. 최고출력 254/5500(ps/rpm), 최대토크 35.7/1500-4800(kg.m/rpm)의 직렬 4기통 T5 터보차저 가솔린 엔진과 8단 자동 기어트로닉 변속기가 탑재된다. S60의 터보차저는 더 많은 공기를 밀어낼 수 있도록 설계돼 더욱 민첩한 반응을 제공한다. 차량의 최고속도는 240km/h, 출발부터 100km/h까지 가속성능은 6.5초에 불과하다. 볼보자동차코리아는 내년부터 S60 연식 변경 차량에 플러그인 하이브리드 파워트레인을 도입한다는 계획도 세웠다. 디젤 모델에 대한 전체적인 의존도를 없애 2025년까지 S60을 포함한 모든 차종의 전동화를 이뤄내겠다는 뜻이다. 볼보자동차코리아는 다음달 초 별도로 S60 미디어 시승회를 열 계획이다. 미디어 시승회를 통해 차량의 전반적인 주행 특성과 전 트림 기본사양으로 들어가는 주행보조 기능도 체크해볼 계획이다. S60 국내 판매가격은 각각 4천760만원(모멘텀)과 5천360만원(인스크립션)으로 책정됐다. 이는 인스크립션 국내 사양을 기준으로 미국 시장(5만3천640달러)과 약 1천만원 이상 차이가 난다. 여기에 5년 또는 10만 km의 업계 최고 수준의 워런티와 주요 소모품의 무상지원까지 제공한다. 조재환 기자(jaehwan.cho@zdnet.co.kr) /</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011043895&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=18</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>[뉴스피처] 13년 만에 바뀌는 자동차 번호판…9월부터 8자리로 개편</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>영화에서 차를 타고 도주하는 범인. 여기서 심심찮게 등장하는 장면이 있습니다. 바로 경찰들이 폐쇄회로(CC)TV로 자동차 번호판을 인식해 범인의 위치와 개인정보를 알아내는 거죠. 그만큼 자동차 번호판에는 많은 정보가 담겨있는데요. 오는 9월부터 등록하는 자동차는 현재의 7자리 번호판이 아닌 8자리로 된 새 번호판을 달게 됩니다. 현행 번호판이 포화상태이기 때문이죠. 새롭게 바뀌는 자동차 번호판을 뉴스피처에서 알아봤습니다. (서울=연합뉴스) 박성은 기자 백준서 인턴기자 / 내레이션 송지영 junepen@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=009&amp;aid=0004418122&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=19</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>日보복에 노사 양보 … 현대차, 무분규로 6천억 손실 막았다</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>◆ 현대차 임단협 잠정합의 ◆ 조합원 5만2000명을 거느리고 한국 노조문화를 대표하는 현대자동차 노조가 올해 사측과 임금·단체협약 교섭을 무분규로 지난 27일 잠정 합의했다. 합의안이 다음달 2일 노조 찬반투표를 통과하면 2011년 이후 8년 만에 파업 없는 임단협 최종 타결 사례다. 일본의 경제 보복에 따른 파업 반대 여론과 전 세계 자동차 시장 부진이 노조의 투쟁 의지를 억눌렀다. 현대차 노사는 단순한 임금 교섭을 넘어 상여금을 통상임금화하면서 직원들의 대규모 최저임금 위반 문제를 해소하는 임금체계 개편도 이뤄냈다. 현대차가 무분규 임단협 잠정합의 덕분에 최대 6342억원의 영업이익을 지키는 효과를 거뒀다는 분석도 있다. 28일 현대차 노사의 2019년 임단협 잠정합의안을 보면 우선 월 기본급은 4만원 인상하고 성과급은 기본급의 150%에 일시금 320만원을 지급하기로 했다. 사측은 당초 협상에서 제시한 일시금 250만원에 70만원을 추가 제안했다. 노사는 핵심 쟁점인 상여금(연간 기본급 600%) 지급 주기를 '2개월마다 100%'에서 '매월 50%'로 바꾸는 단협 개정에 합의했다. 개정 최저임금법에 따라 매월 지급하는 상여금은 최저임금 산입 범위에 포함된다. 회사는 기본급을 올리지 않고도 자연스러운 최저임금 산입액 증가 효과가 발생해 최저임금 위반 문제를 해소할 수 있게 됐다. 기존 임금체계대로라면 현대차 임직원 중 7200명이 올해 최저임금(시급 8350원)에 못미쳐 회사가 형사처벌 대상이 된다. 노사는 대신 상여금을 통상임금 범위에 산입시키는 노조 요구를 수용하고 노조도 관련 소송을 취하하기로 했다. 상여금이 통상임금에 포함되면 통상임금을 토대로 계산하는 연월차·휴일 등 각종 수당이 증가한다. 현대차 관계자는 "직원 연차와 수당에 따라 개인별 구체적 증가액은 다르겠지만 월평균 3만5447원씩 수당이 늘어나는 것으로 추정된다"고 했다. 이번 임단협 기간 중 노사는 상여금의 통상임금화에 일찌감치 합의했다. 하지만 노조가 새 통상임금에 맞춰 과거 수당 소급분을 달라고 요구하면서 사측과 마지막까지 대립했다. 사측은 이에 대해 임금체계 개편 격려금으로 개인당 최대 600만원과 우리 사주 15주를 지급하기로 했다. 2013년 3월 이전 입사자는 600만원, 2013년 3월~2016년 1월 입사자 400만원, 2016년 1월 이후 입사자는 200만원이다. 전체 노조원 수를 고려하면 현대차가 부담할 총액은 3000억원을 넘지 않을 것으로 보인다. 다만 통상임금 소송을 취하하는 노조원만 임금체계 개편 격려금을 받는다. 이 밖에 노조는 단체협약에서 현 노조를 '유일 교섭단체'로 정한 조항과 정년 퇴직자 자녀를 우선 채용하는 조항을 삭제하는 데 합의했다. 사측은 2012년 노사 약정에 따라 정규직으로 채용하기로 했던 9500명 중 남아 있는 2000명을 계획보다 1년 앞당겨 내년까지 모두 채용하기로 했다. 이번 무분규 잠정합의안 도출은 노사가 한 걸음씩 양보한 덕분이지만 일본의 경제보복과 전 세계 업황 부진도 영향을 미쳤다. 노조는 이에 대해 "미국과 중국의 무역전쟁, 세계 자동차 산업 침체와 구조조정을 종합 고려하고 판단했다"면서 "특히 아베 신조 일본 정권의 한국 화이트리스트(수출 우대 국가) 제외 조치에서 비롯된 한일 경제전쟁이 잠정 합의에 이르게 한 요소였다"고 설명했다. 노조는 앞서 파업 찬반투표를 진행해 노조원 70% 이상 찬성으로 파업을 결의했지만 한일 경제전쟁 와중에 파업 반대 여론이 커지자 두 차례 파업을 유보했다. 현대차는 이번 무분규 잠정 합의로 경영 여건에 맞춘 임금 인상뿐 아니라 임금체계를 개편하는 성과도 얻었다. 특히 오랫동안 회사를 괴롭혀온 최저임금 위반 논란과 상여금의 통상임금 산입 문제를 해소한 것이 주목된다. 현대차는 2013년부터 노조와 상여금의 통상임금 산입 문제를 두고 소송전을 벌여 2심까지 승소했지만 노조와 대승적으로 합의했다. 현대차가 무분규 잠정 합의 덕분에 영업이익을 최대 6000억원 이상 지켰다는 분석도 나왔다. 강성진 KB증권 연구원은 "1987~2018년 현대차의 연간 평균 파업일수는 14일이고 이에 따른 연간 평균 생산 차질 대수는 4만8911대지만 최근 3년간은 평균 파업일수가 17일, 평균 생산 차질 대수는 8만829대로 파업의 피해가 확대됐다"면서 "올해 1분기 현대차 국내 공장의 대당 추정 공헌이익 785만원을 손실 대수에 곱하면, 현대차는 무분규 임단협 잠정 합의로 3838억~6342억원의 영업손실을 예방한 것"이라고 설명했다. 이런 가운데 28일 현대차 주가는 전 거래일 대비 2.4% 오른 12만8000원으로 거래를 마쳤다. 노사가 잠정 합의에 이르며 노사 관계로 인한 불확실성이 완화됐다는 점이 이날 현대차 주가를 끌어올린 원인으로 꼽힌다. 한편 현대차 노사 임단협 잠정 합의에 울산 지역 상공계도 환영한다는 입장을 밝혔다. [울산 = 서대현 기자 / 서울 = 이종혁 기자] [ⓒ 매일경제 &amp;amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=056&amp;aid=0010737075&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=21</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>서태지·성수대교…90년대는 우리에게 무엇이었을까</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>영화 ‘벌새’ (29일 개봉) 25년 전이다. 투투의 '일과 이분의 일', 마로니에의 '칵테일 사랑'이 KBS '가요톱10'에서 1, 2위를 다퉜다. 서태지와 아이들을 따로 말할 필요는 없겠다. 듀스, 핑클, 김건모, 신승훈이 우리를 즐겁게 했다. 장동건·심은하·손지창이 활약한 '마지막 승부', 차인표가 검지를 흔들던 '사랑을 그대 품 안에' 등 미니시리즈는 밤마다 시청자들을 TV 앞에 앉혔다. 충무로에선 기존 한국 영화의 관습을 벗어나려는 기류가 태동하고 있었다. '너에게 나를 보낸다'(감독 장선우)와 '게임의 법칙'(감독 장현수), '세상 밖으로'(감독 여균동)가 그때 나왔다. 1994년 우리는 새롭고 재밌는 것들에 들떠 있었다. 그 해 10월 21일 아침, 단짝 친구와 함께 강남구 집에서 성동구 학교로 향하던 주인공은 아차 싶었다. '오늘 미술 시간 있는데, 스케치북을 놓고 나왔어.' 시내버스에 친구를 먼저 태워 보낸 다음 부랴부랴 스케치북을 챙겨 택시를 잡아 탔지만, 성수대교는 더 이상 건널 수 있는 다리가 아니었다. 이어폰 한쪽씩을 나눠 끼고 피노키오의 '사랑과 우정 사이'를 듣곤 했던 친구는 그렇게 세상을 떠났다. 버스를 타지 않아 살아남은 주인공은 3년 뒤 재개통한 성수대교를 찾는다. 실화를 바탕으로 한 단편 영화 '기념촬영'(1997, 감독 정윤철) 이야기다. 그로부터 20여 년 뒤, 베를린 영화제 등 국내외 영화제에서 25개 상을 휩쓸며 '괴물 같은 데뷔작'이라는 말을 듣는 영화 '벌새'(감독 김보라)가 29일 개봉한다. 20년 사이 스크린에 담긴 성수대교의 풍경은 얼마나 달라졌을까. 주인공 은희(박지후)는 94년 대치동 복도식 아파트에 사는 중학교 2학년이다. 고등학생 언니는 매일 한강을 건너 강북 학교에 다닌다. 단짝 친구와 나누는 대화는 이렇다. "너네 오빠는 어떻게 때려?" "우리 오빠는 골프채로 때려. 넌?" 은희네 집의 모든 질서는 아빠가 정하는데, 그 중심에는 중3 오빠의 입시가 있다. 차별과 폭력에 상시 노출돼 있는 은희가 재개발 예정지를 지나 학교에 가면 우열반 이동수업이 기다리고 있다. 많이들 그랬듯 남자 친구를 사귀고 키스를 감행하지만 그게 인생에서 그다지 중요한 일인 것 같지는 않다고, 이후 은희는 생각했다. 사상 최악의 폭염이 닥친 그해 여름 북한 김일성 주석의 사망도 그의 삶을 스치듯 지나간다. 하지만 성수대교 붕괴는 이 여학생을 그냥 지나치지 않는다. 모두 대치동에서 중학교에 다닌 감독이 보고 듣고 느낀 일들이다. "90년대를 정직하게 기억하고 싶었다"는 김 감독은 '벌새'의 배경에 대해 이렇게 말한다. "성수대교 붕괴 이후 우리가 무엇을 놓치고 있는지 보고 싶었어요. 올림픽을 치른 우리나라에는 서구로부터 인정받고자 하는 열망이 컸고, 이런 거대한 공기 속에서 다리가 무너졌고, 성수대교의 물리적 붕괴와 영화 속 관계의 붕괴가 맞닿아 있다고 생각했어요." (당시 사고 조사 결과 올림픽을 앞두고 86년 개통한 올림픽대로와 94년 4월 개통한 동부간선도로가 성수대교를 통해 이어지면서 통행량을 폭증시켰으나, 하중 점검은 이뤄지지 않았음이 밝혀졌다.) 감독의 설명은 이어진다. "이 영화 시놉시스를 2012년에 썼는데, 이후 세월호 참사가 일어났을 때 강한 기시감 같은 걸 느꼈어요. 어떤 식으로든 우리가 한 걸음씩 나아가고 있는 것 같지만, 여전히 해결되지 않은 문제들이 여기저기서 곪은 상처처럼 드러나는구나 하는 생각이 들었고요. 94년 은희가 가족과 학교로부터 받은 억압, 그런 사회적 공기가 여전히 한국 사회에 있기 때문에 이 영화에 많은 분들이 공감해주는 것 같아요. 지금 우리가 당시의 자장 속에 머물러 있는 느낌이 있어요." 우연히도 같은 주 개봉하는 '유열의 음악앨범'(감독 정지우) 역시 1994년에서 출발한다. 90년대 배경의 상업 멜로영화로서 당시 재난의 풍경은 대부분 지웠다. 그런데도 앞만 보고 달리는 우리 사회의 개발 논리와 속도에 대한 욕망 같은 것들이 영화의 바탕에 깔려 있다. 주인공 현우(정해인)는 친구의 사고를 겪고 죄책감에 시달리는 인물이다. 이는 재난 이후 남겨진 이들에게 주어진 '죄 없는 죄책감'이라는 한국인의 집단 기억이기도 하다. 1995년 삼풍백화점 붕괴, 1997년 IMF 구제금융 사태, 2003년 대구 지하철 화재 참사, 세월호 참사에 이르기까지, 잘못한 자들은 따로 있는데도 주변에 남겨진 죄 없는 이들이 죄책감에 시달려야 했다. IMF 사태를 다룬 영화 '국가부도의 날'(2018, 감독 최국희)에서 역시 마찬가지다. 사태를 바로잡으려고 애쓴 인물일수록 자책한다. 극 중 한국은행 한시현 팀장(김혜수)은 구제 금융만큼은 막아보려고 고군분투한다. "해고가 쉬워지고 비정규직이 늘어나고 실업이 일상이 되는 세상, IMF가 만들어낼 그런 세상이 돼서는 안 됩니다"라는 그의 대사는 오늘을 정확하게 겨냥한다. "거기도 그럽니까. 그래도 20년이 지났는데, 뭐라도 달라졌겠죠." 드라마 '시그널'(2016, 극본 김은희)에서 이재한 형사(조진웅)의 대사가 지금도 회자되는 건 그래서다. 적잖은 영화와 드라마들이 삐삐와 카세트테이프 녹음기, 거기서 흘러나오는 인기가요를 활용해 추억을 돋운다. 다수의 소비 주체들이 '그때가 좋았지' 하게 되는 것은 당시를 똑똑히 기억할 만큼 먼 과거가 아니기 때문이기도 하다. 앞만 보고 달리다 재난을 반복하는 이 사회에서 20여 년 전을 그저 예쁜 상품으로만 추억할 일은 아니라는 것이, 90년대를 정직하게 기억하려는 작품들이 우리에게 보내오는 신호일지 모른다. 송형국 기자 (spianato@kbs.co.kr)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=015&amp;aid=0004199721&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=22</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>[단독] 르노삼성 '트위지' 내달 16일 생산라인 가동</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>르노삼성자동차가 내달 16일부터 국산 전기차를 만든다. 초소형 전기차 '트위지' 생산라인의 스위치를 켜는 것이다. 28일 자동차 업계에 따르면 르노삼성의 트위지 생산라인이 올 추석 연휴 직후인 9월 16일부터 가동된다. 앞서 스페인 바야돌리드 르노 공장에 있던 트위지 생산라인은 부산 자동차 부품 전문 제조업체 동신모텍으로 이전됐다. 국내 생산이 시작되면 트위지는 초소형 전기차 가운데 유일한 국산차가 된다. 그간 국내 초소형 전기차는 대부분 중소기업이 중국에서 초소형 전기차를 들여와 국내에서 마무리 조립과 검수를 하는 수준에 그쳤다. 트위지의 경우 주요 부품은 스페인에서 공급받지만 모든 조립 과정이 국내에서 이뤄진다. 핵심 부품인 배터리셀도 국내 LG화학을 통해 직접 조달될 예정이다. 르노삼성은 생산라인의 시험가동과 함께 본격 생산에 돌입한다는 방침이다. 연 생산량은 5000대 규모다. 국내 공공부문의 수요를 적극 공략한다는 계획인데 우선 우정사업본부의 도입사업을 첫 목표로 삼았다. 우정사업본부(우본)는 사고 발생이 빈번한 이륜 오토바이를 초소형 전기차로 대체한다. 올해 1차 사업으로 1000대를 도입하고 내년 말까지 1만대로 늘린다는 계획이다. 1차 물량인 1000대는 중국 초소형 전기차를 수입하는 국내 중소기업들이 공급한다. 우본은 당초 외산 전기차 배제를 목표로 국내 생산, 국산 부품 50% 이상 탑재 등의 조건을 내걸었다. 전기차 구매 시 환경부 등에서 국고지원을 받을 수 있어서다. 그러나 실제 지원 대상은 중국 업체 제품들이 다수였다. 트위지는 우본의 사전 실험에서 높은 평가를 받았지만, 스페인에서 생산됐다는 이유로 심사를 통과하지 못했었다. 르노삼성은 내달부터 국내 생산이 이뤄지면 충분히 납품이 가능할 것으로 내다보고 있다. 르노삼성 관계자는 "우본과 꾸준히 의견을 주고받고 있다"면서 "기존 트위지가 스페인 생산이기에 1차 사업 참여는 불발됐지만, 후속 사업에서는 높은 경쟁력을 보일 것"이라고 자신했다. 트위지의 단점으로 지적된 배터리 용량, 공조 장치 등 문제들도 고치겠다는 게 르노삼성의 설명이다. 이 관계자는 "국내에서 생산하는 만큼 국내 기업들과 협력해 한국 시장에 적합한 차량으로 만들겠다"며 "국내 시장에 맞게 개선이 필요하다는 점을 공감하고 배터리 용량 확대, 에어컨 공조 장치 추가 등 다양한 개선안을 본사에 전달하고 있다"고 강조했다. 트위지의 국내 생산이 시작되면 100% 국내 조립의 유일한 초소형 전기차다. 중소기업 대비 우월한 사후관리, 기술 검증 등을 감안할 때 공공시장에서 확고한 경쟁력을 가질 수 있다는 게 차 업계의 시선이다. 오세성 한경닷컴 기자 sesung@hankyung.com 기사제보 및 보도자료 open@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=311&amp;aid=0001038925&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=23</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>'아이언맨 LED 마스크' ㅅㅇㅁㅇ 캐시슬라이드 초성퀴즈…정답 공개</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>[엑스포츠뉴스닷컴] 리워드 앱 '캐시슬라이드'가 '아이언맨 LED 마스크' 초성퀴즈를 28일 오전 출제했다.     캐시슬라이드는 28일 "단 하루 특가세일 ㅅㅇㅁㅇ"에서 초성 부분을 묻는 퀴즈를 출제했다.   캐시슬라이드 측은 "네이버에 '아이언맨 LED 마스크를 검색해보세요"고 귀띔했다.   이번 캐시슬라이드 '아이언맨 LED 마스크' 퀴즈 정답은 '십오만원'이다.  퀴즈 참여는 캐시슬라이드 앱에서 가능하며, 정답을 맞추면 100캐시를 적립 받을 수 있다.   엑스포츠뉴스닷컴 온라인이슈팀 press1@xportsnews.com / 사진=캐시슬라이드 앱 캡처</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=346&amp;aid=0000027918&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=25</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>누워서 뱃살 잡았을 때 피부만 잡힌다면? '당신도 비만일 수 있습니다'</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>팔다리가 가늘고 겉으로 볼 때 날씬해 보이는 사람이라고 해도 '비만'일 수 있다. 바로 '내장지방형 비만'이다. 내장지방형 비만은 성인병 고위험군에 속하는데도 일반 비만처럼 겉으로 잘 드러나지 않아 그 위험성을 잘 모르고 지나치는 경우가 많다. 하지만 내장형 비만을 방치하면 뇌졸중 등 중증질환으로 이어질 수 있기 때문에 평소 철저한 관리가 필요하다. 내장지방은 내장을 중심으로 쌓인 지방을 말한다. 노화, 과식, 운동 부족, 과음, 스트레스, 흡연 등이 원인이다. 여성은 출산 후나 호르몬에 이상이 있을 때 내장지방이 늘어나기도 한다. 내장지방은 피하지방(피부 바로 밑에 쌓인 지방)보다 혈액으로 쉽게 스며들어가 콜레스테롤 수치를 높여 각종 성인병을 유발한다. 지방세포가 염증을 일으키는 물질을 분비해 혈전을 유발하기도 한다. 혈전은 심근경색증이나 뇌경색, 폐색전증의 주요 원인이다. 인슐린 저항성이 생기는 것도 내장지방이 위험한 이유 중 하나다. 인슐린은 체내에서 혈다응ㄹ 조절하고 지방을 분해하는 호르몬이다. 내장지방으로 인해 인슐린 저항성이 생기면 당뇨병, 고혈압, 이상지질혈증 같은 대사성 질환이 생기기 쉽다. 대사성 질환은 심장병이나 뇌졸중 같은 중증 질환으로 발전할 수 있어 주의해야 한다. 자신이 내장지방형 비만인지 여부는 간단하게 자리에 누워 알 수 있다. 우선 하늘을 보고 누워 가볍게 무릎을 세운 상태에서 긴장을 풀고 배에 힘을 뺀 다음 양손으로 배꼽 좌우 살을 잡는다. 이때 살이 깊게 잡힌다면 피하지방형 비만이고 피부만 잡히면 내장지방형 비만일 가능성이 있다. 줄자로 알아보는 방법도 있다. 줄자로 배꼽 주위 중 살이 가장 많은 부분의 허리 둘레를 측정한다. 일반적으로 남성은 90cm 이상, 여성은 85cm 이상이면 내장지방이 축적된 것으로 볼 수 있다. 다만 이 두가지 자가확인법은 비만의 형태를 파악하는 방법이므로 체지방이 적정 범위인 사람은 측정 의미가 없다. 내장지방이 얼마나 있는지 정확히 확인하기 위해서는 CT 촬영 등 정밀 검사가 필요하다. 내장지방을 줄이기 위해서는 몸 속에 충분한 산소를 공급하는 운동이 도움이 된다. 따라서 효율적으로 산소를 체내로 유입시켜 지방을 연소시키는 유산소 운동이 효과적이다. 조깅이나 오래 걷기, 수영 등 유산소 운동을 하면 근육이나 간, 장에 축적된 지방을 효율적으로 태울 수 있다. 심장이나 폐에 과도한 부담을 주지 않는 정도로 매일 20~30분 운동 하는 것을 권장한다. 내장지방을 없애는 데 효과적인 음식도 있다. 바로 생선과 콩류다. 등 푸른 생선에는 DHA와 EPA라는 불포화지방산이 풍부해 지방 수치와 콜레스테롤 수치를 내려줄 뿐 아니라 혈전 위험도 줄여준다. 두부나 된장, 청국장과 같은 콩류에는 사람의 몸에서 합성하지 못하는 리놀산이라는 필수 지방산이 들어 있는데, 이는 지방 흡수를 억제하는 효과가 있다. / 이도경 헬스조선 기자 hnews@chosun.com 전혜영 헬스조선 인턴기자 hnews@chosun.com ▶ ▶</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=015&amp;aid=0004199908&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=26</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>구독자 1억명 유튜버 '퓨디파이'…지난해 188억원 벌었다</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>유튜브에서 세계 최초로 구독자 1억 명을 돌파한 개인 유튜버 ‘퓨디파이(PewDiePie·사진)’가 연간 1500만달러(약 182억원) 이상을 벌어들이고 있는 것으로 나타났다. 미국 경제전문지 포브스는 퓨디파이가 지난해 광고 수익 등으로 1550만달러(약 188억원)를 벌었다고 최근 보도했다. 지난해 말 기준으로 퓨디파이 유튜브 채널의 구독자 수는 7250만 명 정도였다. 최근 늘어난 구독자를 감안하면 올해는 최대 2000만달러(약 242억원)까지 수입이 늘어날 것이란 전망도 나온다. 더버지, 비즈니스인사이더 등에 따르면 퓨디파이는 2010년 4월 유튜브에서 자신의 채널을 시작한 이후 9년 만에 구독자 1억 명을 돌파했다. 퓨디파이라는 이름은 그의 과거 채널 ‘퓨디(PewDie)’에서 비롯됐다. ‘퓨(Pew)’는 총알이 날아가는 소리를 뜻하는 의성어로 한국말 ‘피융~’과 비슷하다. ‘디(Die)’는 ‘죽는다’는 뜻의 영어 단어를 발음만 달리한 것이다. 그는 ‘퓨디’에 자신이 좋아하는 ‘파이(Pie)’를 접미사로 붙여 새로운 이름의 채널을 만들었다. 퓨디파이 채널은 비디오게임을 하며 깜짝 놀라거나 통쾌해 하는 자신의 반응을 보여준다. 장난, 농담 등이 주를 이룬다. ‘마인크래프트’ 게임을 많이 하지만 인터넷 문화와 관련한 소식 전달 등으로 영역을 확장하고 있다. 퓨디파이는 스웨덴 출신으로 본명은 ‘펠릭스 셸버그’다. 국내에서는 ‘보람튜브’가 많은 구독자와 대규모 수익 등으로 유명하다. 미국 유튜브 분석 사이트인 소셜블레이드는 보람패밀리가 보유한 3개 채널(보람튜브, 보람튜브 브이로그, 보람튜브 토이리뷰)의 월수익 합계가 최대 37억원에 달하는 것으로 추정했다. 연간으로 환산하면 400억원 이상으로, 퓨디파이 수익을 훌쩍 뛰어넘는다. 보람튜브 브이로그는 최근 구독자 1880만 명을 돌파했다. 안정락 기자 jran@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=015&amp;aid=0004199517&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=27</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>"SUV 비켜! " 세단의 거센 반격</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>‘원조 국민차’ 세단의 반격이 시작됐다. 한동안 스포츠유틸리티차량(SUV) 인기에 밀렸지만, 최근 분위기는 바뀌었다. 굵직한 신차 출시가 이어지면서 다시 소비자의 눈길을 끌고 있다. 새로 나온 세단은 대부분 과감한 디자인과 최첨단 기술을 무기로 내세웠다. 한국 승용차 시장의 주도권을 놓고 세단과 SUV가 한 차례 더 맞붙을 것이라는 관측이 나온다. 세단은 오랫동안 승용차의 대명사였다. 과거에는 세단을 승용차라 부르기도 했을 정도다. 새로 팔리는 승용차 10대 중 8대가 세단이던 때도 있었다. 매년 한국에서 가장 많이 팔린 차 자리는 세단이 차지했다. 분위기는 2017년 바뀌었다. 현대자동차 싼타페와 기아자동차 쏘렌토 등 중형 SUV가 폭발적인 인기를 끌었다. 몇 년 전만 해도 아예 없던 차급인 소형 SUV의 인기도 날로 높아졌다. 현재 국산 소형 SUV 종류는 8종이나 된다. 조만간 세단보다 SUV가 더 많이 팔릴 것이라는 전망까지 나오는 상황이다. 지난해 가장 많이 팔린 차는 현대차 준대형 세단 그랜저였지만, 실제 승자는 싼타페라는 분석이 지배적이다. 신형 싼타페는 지난해 2월 말 출시됐다. 3월 이후 판매량이 폭발적으로 늘었다는 의미다. 3월 이후 판매량만 보면 싼타페(10만1312대)가 그랜저(9만4516대)를 앞선다. 한없이 계속될 것 같던 SUV 전성시대에 견제구를 던진 건 현대차의 중형 세단 쏘나타였다. 쏘나타는 2000년부터 11년 연속 판매 1위 자리를 차지했을 정도로 인기가 높은 모델이다. 1991년 10만5833대가 팔리면서 한국 자동차 역사상 최초로 단일 모델 10만 대 판매 시대를 연 주인공이다. 1996년엔 국내 시장에서만 19만5735대를 팔았다. 그해 팔린 자동차 8대 중 1대가 쏘나타였다. 쏘나타는 2017년 이후 부진한 모습을 보였지만, 지난 3월 8세대 모델이 나오면서 분위기가 달라졌다. 쏘나타는 5월 1만3376대가 팔려 내수 ‘베스트셀링카’에 올랐다. 2015년 12월(1만2678대) 이후 3년5개월 만에 월 1만 대 이상 팔렸다. 신형 쏘나타는 기존보다 전고(차체 높이)가 30㎜ 낮아졌고, 전장(차체 길이)은 45㎜ 늘었다. 스포츠카처럼 낮고 긴 형태로 바뀐 것이다. 스마트폰 앱(응용프로그램)으로 차 문을 여닫고 시동을 걸 수 있는 스마트키 같은 신기술도 대거 적용됐다. 기아차의 K7 부분변경(페이스리프트) 모델이 그 뒤를 이었다. K7은 지난달 승용차 판매 1위(8173대) 자리를 차지했다. K7이 월 기준 베스트셀링카에 오른 것은 2009년 11월 1세대 모델이 시장에 나온 이후 10년 만에 처음이다. K7은 완전변경(풀체인지) 수준으로 디자인이 바뀌었다. 전장도 이전 모델 대비 25㎜ 길어졌다. 오는 4분기에는 현대차 그랜저와 기아차 K5의 새 모델이 나온다. 그랜저는 2017년과 2018년 한국에서 가장 많이 팔린 차로 기록됐던 현대차의 대표 모델이다. 현대차 관계자는 “신형 그랜저는 이전 모델과 비교해 덩치부터 내외부 디자인까지 확 바뀐다”고 말했다. 기아차의 대표 세단인 K5도 완전변경된다. K5는 2010년 처음 공개되자마자 소비자들의 관심을 한데 모았던 기아차의 최고 인기 차종이다. 출시 당시 한국 세단의 디자인을 한 단계 높였다는 평가까지 받았다. 내년 상반기에는 현대차의 고급 브랜드 제네시스가 G80 완전변경 모델을 내놓는다. 수입차 업체들도 세단 라인업을 강화하고 있다. 볼보는 최근 중형 세단 S60 판매를 시작했다. 사전계약을 받은 지 17일 만에 1000건을 계약하는 등 초반 돌풍이 거세다. 아우디도 A5와 A6 등 새 세단 판매에 들어갈 계획이다. 메르세데스벤츠는 세단 라인업 중 가장 작은 A클래스 판매를 준비하고 있다. 자동차업계에서는 내년 상반기까지 ‘세단 왕좌’ 자리를 놓고 굵직한 모델들이 격돌할 것이라는 관측이 나온다. 각 브랜드의 인기 세단이 치열하게 경쟁하면서 한국 세단 시장이 커질 것이라는 기대 섞인 전망도 제기된다. 업계 관계자는 “세단은 ‘답답하고 고루한 차’라는 이미지 탓에 한동안 SUV에 밀리는 모습이었다”며 “최근 나오는 세단은 과감하고 세련된 디자인을 택하면서 다시 인기를 끌고 있다”고 설명했다. 도병욱 기자 dodo@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002932965&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=28</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>인생반전! 내가 마누라 장바구니에 담겨 마트 갈 줄이야</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>━ [더,오래] 강인춘의 웃긴다! 79살이란다(45) 인생이란 길에는 꼭 반전이라는 게 있다. 사람들은 이름 지어 ‘인생 반전’이라고 말한다. 어느 사람은 매주 골프를 즐기며 수백만 원씩 하는 양주만 마셨다가도 언젠가는 포장마차에서 닭똥집을 씹으며 소주병을 나팔 불 수도 있다. 또 인생의 반평생을 지지리 고생만 하고 살던 사람도 나머지의 인생은 ‘쨍’하고 해 뜰 날처럼 살기도 한다. 어느 가수의 노랫말처럼 말이다. 창조주는 그렇게 골고루 아주 공평하게 인간을 만들어 놓았다. 패기만만한 어느 남자는 마누라 앞에선 유난히 목소리를 높이며 자신만만한 표정을 지었다. “당신 하나쯤은 내가 멋지게 책임져줄 게” “하고 싶은 거 있으면 다 하고 살아” 그러던 남자는 백발이 설설 날아들던 어느 날부터는 그 기세등등했던 모습은 소리 없이 사라지고 마누라의 따뜻한 품속만 파고 들어가고 싶어 했다. 정이 많은 마누라는 금세 눈시울이 붉어지면서 남편을 보듬었다. “여보! 이제부턴 내가 당신을 책임져줄게” “염려하지 말고 내 장바구니에서 떨어지지 마.” 남편이 만든 한편의 아름다운 ‘인생 단막극’ 대단원의 막은 서서히 내려오고 있었다. 관객들은 모두 일어나 박수를 치고 있었다. 79살 남자의 자작 인생극장 공연은 과연 성공한 것일까? 강인춘 일러스트레이터 theore_creator@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011043837&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=29</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>흐리고 중부·전북내륙 등 오후에 소나기…제주 종일 많은 비</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>(서울=연합뉴스) 김예나 기자 = 수요일인 28일은 전국이 대체로 흐리고 충청 남부와 남부지방, 제주 등 곳곳에서 비가 내릴 전망이다. 충청 남부는 아침에, 남부지방은 오전에 비가 대부분 그치겠지만 제주는 29일 밤까지 50∼100㎜의 비가 오겠다. 일부 지역은 150㎜ 이상 많은 비가 올 것으로 예보돼 주의해야 한다. 경기 동부와 강원도, 충북 북부, 전북 내륙 등에서도 오후에 곳에 따라 소나기가 올 수 있다. 비가 오는 지역에서는 가시거리가 짧고 도로가 미끄러운 곳이 많은 만큼 교통안전에 각별히 유의하는 게 좋겠다. 이날 오전 5시 현재 기온은 서울 23.8도, 수원 22.9도, 춘천 22.4도, 강릉 20.9도, 대전 21.7도, 전주 22도, 광주 22.8도, 제주 26.1도, 대구 21.9도, 부산 22.8도, 창원 22.1도 등이다. 낮 최고 기온은 26∼29도로 예보됐다. 미세먼지 농도는 전 권역에서 '좋음'∼'보통' 수준을 나타내겠다. 남해상과 제주 해상에서는 돌풍과 함께 천둥, 번개가 치는 곳이 있겠다. 항해나 조업하는 선박은 피해가 없도록 주의해야 한다. 바다의 물결은 서해 앞바다에서 0.5∼1.0ｍ, 남해·동해 앞바다에서 0.5∼2.0ｍ로 예보됐다. 먼바다에서는 서해 0.5∼2.0ｍ, 남해 1.0∼3.0ｍ, 동해 0.5∼2.5ｍ의 파도가 예상된다. yes@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=015&amp;aid=0004199103&amp;date=20190828&amp;type=1&amp;rankingSectionId=103&amp;rankingSeq=30</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>갈 곳 잃은 유니클로 히트텍 수요…K패션 기업들 '맹공'</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>본격적인 가을 자켓·겨울 패딩 성수기를 앞두고 국내 패션업체들이 분주하다. 일본 불매운동으로 인해 유니클로에서 탈출하는 패션 수요를 잡으려는 것이다. 27일 금융감독원에 따르면 일본 제품 불매 운동이 본격화한 지난달 국내 8개 카드사의 유니클로 매출은 전월 대비 70.1%나 급감했다. 유니클로는 지난해 우리나라에서 단일 브랜드로 1조3000억원 이상의 매출을 올린 유일한 의류 브랜드다. 때문에 이같은 양상이 국내 패션 업계에 끼치는 영향이 적지 않을 것이란 관측이다. 유니클로 뿐만 아니라 일본 브랜드인 데상트 무인양품 ABC마트 등의 매출도 일제히 급감했다. 이같은 수요를 잡으려는 국내 업체들의 움직임이 활발하다. 유니클로와 같은 SPA(제조·직매형 의류) 브랜드인 신성통상의 탑텐은 겨울용 발열 내의 '온에어' 출시 물량을 지난해보다 5배 늘렸다. 총 500만벌을 준비해 유니클로의 히트텍 수요를 가져오겠다는 의지다. 모델 역시 유니클로 전 모델이었던 배우 이나영을 기용해 눈길을 제대로 모으고 있다. 이랜드월드도 SPA 브랜드 스파오를 통해 히트텍 수요 공략에 나섰다. 스파오는 히트텍에 대항해 개발한 '웜히트'의 물량을 지난해 대비 무려 240%나 늘렸다. 웜히트는 이랜드가 개발한 소재를 사용했고, 국가 공인 섬유시험연구기관 KOTITI의 실험 결과 보온 효과가 히트텍보다 높게 나왔다. 가격은 40% 저렴하다. 경량 패딩 부문에서의 물량 확대도 주목된다. 탑텐은 경량 패딩 등 겨울 아우터 물량을 지난해 대비 30%가량 확대했다. 이달부터 시작된 '역시즌 선판매' 행사에서 아우터 신제품의 비중을 40~50%로 늘리는 등 공격적인 모습을 보이고 있다. 패션그룹 형지는 전체 경량 다운 제품의 물량을 지난해보다 53.4% 늘렸다. 경량 패딩은 119% 확대했고 경량 다운 조끼의 경우 24.8% 확대했다. 크로커다일레이디 올리비아하슬러 샤트렌 등 형지의 여성복 브랜드는 지난해 롱패딩만 선판매에 나섰던 데 비해 올해는 경량 다운 제품만 선판매했다. 형지 측 관계자는 "올겨울 주력 상품으로 경량 다운 제품을 강조할 것"이라고 말했다. 이랜드리테일도 지난 12일 선판매를 시작한 경량 패딩 '올라이트다운'의 본 판매 물량을 전년 대비 2배 이상 늘릴 계획이다. 이랜드리테일 측 관계자는 "선판매를 통한 소비자 반응, 상품 후기 등을 고려해 오는 10월 초 본 판매를 시작하면 대대적으로 물량을 늘리고 추가로 상품 업그레이드를 진행할 예정"이라며 "유니클로의 경량 패딩을 넘어서는 국민 패딩으로 자리잡을 것"이라고 기대감을 드러냈다. 캐주얼 브랜드 폴햄은 올해 경량 패딩 물량을 지난해 20만장에서 40만장으로 2배 늘렸다. 폴햄은 '알래스카 에어 구스다운' 선판매 행사를 통해 롱패딩과 경량 패딩 선판매를 진행 중이다. 이마트의 데이즈도 이번 가을·겨울(FW) 시즌 경량 패딩 조끼 물량을 지난해 11만장에서 20만장으로 대폭 확대했다. ◆청바지도 'K데님' 바람 청바지도 예외는 아니다. FRJ(에프알제이)에 따르면 일본 브랜드 불매 운동이 한창이던 이달 1~23일까지 전체 데님 팬츠 판매가 전년 동기 대비 20% 증가했다. FRJ는 국내 패션 업체에 우호적인 환경이 조성된 이번 가을 시즌에 한국인 체형에 맞춘 'K핏 데님'을 적극적으로 알릴 계획이다. 지난해부터 선보이고 있는 K핏 데님은 한국인 인체 표준 정보를 활용해 한국인의 체형에 맞춘 청바지다. FRJ 담당자는 "일본 브랜드 불매 운동으로 인해 최근 국내 토종 패션 브랜드들이 재조명 받고 있다"며 "앞으로 다양한 상품군과 가격 대비 높은 품질, 트렌드를 반영한 마케팅 전략으로 국내 소비자들의 만족도를 높여나갈 것"이라고 말했다. 토종 청바지 브랜드 '잠뱅이' 역시 일본 불매운동 이후 매출이 늘었다. 이달 내놓은 가을·겨울 컬렉션 매출은 전년 동기 대비 10% 이상 증가했다. 업계 관계자는 "일본 불매 운동 여파가 잠잠해질 때까지 기다리는 이른바 '유니클로 대기수요'가 국내 제품의 구매로 이어지려면 디자인이나 품질 대한 매력 혹은 눈에 띄는 가격 경쟁력이 갖춰져야 한다"며 "그렇지 않을 경우 국내 업체들의 매출 증가는 반짝 효과로 그칠 가능성이 높다"고 말했다. 강경주 한경닷컴 기자 qurasoha@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933604&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=1</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>우회전 차량이 뒤에서 '빵빵'···비켜주다 정지선 넘으면 벌금</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>운전을 하다 보면 교통 관련 법규가 헷갈릴 때가 많은데요. 특히 교차로에서 우회전하는 방식을 두고는 운전자마다 제각각의 설명을 하는 경우가 많습니다. 차량 신호등이 적색일 때 우회전을 해도 되는지, 일시 정지를 해야 하는지, 우회전 뒤 만나는 횡단보도에서는 어떻게 해야 하는지 등을 놓고 의견이 분분한데요. ━ [강갑생의 바퀴와 날개] 교차로 사고 17%는 우회전 탓 발생 이러다 보니 우회전으로 인한 사고가 적지 않게 발생하고 있습니다. 삼성교통안전문화연구소가 최근 발표한 자료에 따르면 2012년~2016년 사이 발생한 교차로 사고 가운데 17%가량이 우회전 때문에 일어났는데요. 또 우회전 교통사고는 2012년(1004건)과 2016년(1253건)을 비교하면 4년 새 5.7%나 늘었습니다. 사고 사망자 역시 10%가 증가했고요. 아마도 운전자들이 법 규정을 명확히 모르는 게 우회전 사고 증가의 한 원인인 듯싶은데요. 그래서 관련 법규와 교육을 담당하는 경찰청과 도로교통공단의 자문을 받아 현행법규정에 따른 교차로 우회전 방법을 정리했습니다. 우선 교차로에서 직진방향의 차량 신호등이 '적색'인 경우인데요. (①)이때 우회전하려는 차량은 일단은 교차로 직전 횡단보도 앞에서 일시 정지를 해야만 합니다. 직진 차량도 물론 정지해야 하고요. 이후 우회전하려는 차량은 횡단보도를 건너는 보행자가 없는 걸 확인한 뒤 천천히 횡단보도를 통과하면 됩니다. 이때 보행 신호가 '녹색'으로 켜져 있어도 상관없는데요. 보행자의 통행에 방해만 되지 않으면 된다는 설명입니다. ━ 적색 신호 땐 횡단보도 앞 일시정지 도로교통공단 면허시험처의 전봉기 차장은 "운전자 입장에선 보행 신호등이 잘 안 보이는 경우도 있기 때문에 면허 시험 채점 기준 상으로는 차량 신호와 보행자 유무만 명확히 확인하면 된다"고 설명합니다. 이 규정은 지난해 개정돼 올해 3월부터 적용 중이라고 합니다. 직진방향의 차량 신호가 '녹색'일 때(② )는 일시 정지할 필요 없이 천천히 횡단보도를 통과하면 됩니다. 물론 이 경우에도 혹시 무단횡단을 하는 보행자가 없는지를 잘 살펴봐야 합니다. 다음은 우회전한 뒤 통상 만나게 되는 횡단보도에서 어떻게 해야 하는 지인데요. (③) 횡단보도를 건너는 보행자가 있으면 일시 정지를 하고, 그렇지 않은 경우에는 천천히 통과하면 됩니다. 이때도 보행 신호가 '녹색' 인지 여부는 상관이 없다고 하는데요. 다만 보행자의 통행을 방해해서는 안 됩니다. 그러다가 사고가 나면 '보행자 보호 의무 위반'으로 처벌을 받게 됩니다. 그런데 여기서 애매모호한 게 있습니다. 바로 횡단보도를 건너는 보행자가 있다 없다를 구분하는 기준인데요. 횡단보도 반대편에서 막 횡단을 시작하는 보행자가 있을 경우에 이 보행자가 다 건너갈 때까지 정지해 있어야 할까요? ━ 우회전 뒤 횡단보도, 보행자 없으면 통과 경찰과 도로교통공단의 입장은 "현장 상황에 따라서" 입니다. 모호하긴 하지만 보행자가 횡단보도를 건너는 데 직접적인 방해가 될 정도로 차량을 운행하지는 말라는 의미로 해석됩니다. 그러니까 보행자들 틈을 비집고 나가서는 안 된다는 얘기인 겁니다. 이 경우 법 규정상 단속이 될 수도 있습니다. 이렇게 세 가지 방식만 기억하고 있어도 교차로 우회전할 때 덜 헷갈릴 것 같은데요. 하지만 현장에 따라서 여러 가지 변수가 있기 때문에 더 복잡한 상황이 생길 수도 있습니다. 그리고 일시 정지 규정의 경우도 현장에서 교통경찰관이 이를 어겼다는 이유로 단속하는 사례도 별로 없는 게 사실입니다. 그러다 보니 일시 정지 규정을 제대로 안 지키는 운전자도 적지 않은데요. 하지만 안전한 우회전과 보행자 보호를 위해서는 반드시 '적색' 신호일 때는 일시 정지를 하는 게 필요합니다. 또 경찰에서는 우회전 뒤 만나는 횡단보도 앞에서도 일시 정지를 한 뒤 보행자 여부를 확인하고 통과해달라고 당부하는데요. ━ "적신호 때 우회전 금지도 고려해야" 일시 정지를 하게 되면 차량 속도도 줄게 되기 때문에 자연스레 사고 예방에 도움이 되는 측면도 있습니다. 그러나 이 정도로는 사고를 줄이는 효과가 크지는 않을 것 같은데요. 그래서 아예 적색 신호 때는 우회전을 금지하자는 제안도 나옵니다. 현재 주요 국가 중에서는 미국이 적색 신호 때 우회전을 허용할 뿐 대부분은 이를 금지하고 있습니다. 미국도 원래 적색 신호 때 우회전을 금지했다가 1971년 허용했는데 이후 관련 교통사고가 크게 늘었다는 게 삼성교통안전문화연구소의 얘기입니다. 그런데 적색 신호 때 우회전을 금지하면 아마도 차량 소통에 적지 않은 지장이 생길 수도 있습니다. 우회전할 기회가 줄어들기 때문에 그만큼 정체가 발생할 수도 있다는 얘기인데요. 그래서 차선책으로 적색 신호에서는 무조건 '일시 정지'를 강화하는 방안도 거론됩니다. 물론 현재 경찰의 해석상으로도 적색 신호에서 일시 정지가 의무이지만 이를 어겨도 단속을 거의 안 하기 때문에 유명무실하다는 지적이 있습니다. ━ 뒤차 "빵빵"거린다고 정지선 넘으면 단속 이를 보다 실질적으로 작동되도록 단속과 처벌을 강화하자는 취지입니다. 안전과 보행자 보호를 위해서입니다. 많은 사례에서 봤듯이 아무리 규정을 잘 만들어놓아도 현장에서 제대로 지켜지지 않으면 별 효과가 없습니다. 안전을 위해 보다 세심한 노력이 요구됩니다. 그리고 한가지 팁이 있는데요. 시내 도로는 상당수가 우회전 전용차로가 별도로 없고, 직진과 우회전 차량이 맨 바깥쪽 차로를 함께 쓰는 경우가 많은데요. 적색 신호에 정지해 있는 직진 차량의 뒤에서 우회전 차량이 경적을 울리며 비켜달라고 한다고 직진 차량이 정지선을 넘어서 움직이게 되면 '신호위반'이 됩니다. 경찰청 관계자는 "일반적으로 우회전 차량을 배려하는 차원 또는 시비를 피하기 위해서 직진 차량이 정지선을 넘는 경우가 많은데 이는 명백한 '신호위반'에 해당하기 때문에 해서는 안 된다"고 말합니다. 강갑생 교통전문기자 kkskk@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=005&amp;aid=0001234235&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=2</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>“일본은 이제 후진국, 기술대국 착각 하지마” 진단</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>일본의 유명 경제전문가가 ‘일본은 이제 후진국이라고 인정하는 용기를 가져야 한다’고 주장하고 나섰다. 숫자만 보면 일본은 이미 참담한 수준이어서 선진국이라고 볼 수 없다는 내용인데, ‘기술 대국’이라는 착각에 빠져 지금처럼 현실을 제대로 마주하지 못한다면 원래의 ‘가난한 나라’로 추락할 것이라고 비판했다. 주인공은 ‘부자의 교과서’ 등을 펴내며 국내에도 잘 알려진 경제전문가 가야 게이치(50)다. 그는 지난 27일 발매(9월3일호)된 뉴스위크 최신호에 실린 칼럼에서 일본의 경제 상황을 냉혹하게 분석했다. 그는 일본이 급속히 빈곤해졌다며 각종 경제 지표를 제시했다. 일본의 노동생산성은 선진국 중 최하위이며 세계경쟁력 순위는 30위로 1997년 이후 최저치를 기록했다(IMD). 평균 임금은 경제협력개발기구(OECD) 35개 회원국 중 18위에 불과하고 상대적 빈곤율은 38개국 중 27위다. OECD의 각종 자료를 보면 상황은 더욱 암담하다. 교육에 대한 공공 지출의 국내총생산(GDP) 비율은 43개국 중 40위이고 연금의 소득 대체율은 50개국 중 41위, 장애인에 대한 공공 지출의 GDP 비율은 37개국 중 32위, 실업에 대한 공공 지출의 GDP 비율은 34개국 중 31위다. 가야 게이치는 일본이 한때 세계 2위의 부유한 나라였다는 명제도 부정했다. 원래 잘 사는 나라였다가 경쟁력 저하와 인구감소로 경제력이 떨어졌다고들 하지만 사실은 원래부터 가난한 나라였는데 반짝 경제호황을 겪었을 뿐이라는 설명이다. 가야 게이치는 “일본의 노동생산성은 선진국 최하위라고 했는데, 사실 이 순위는 50년 동안 거의 변하지 않았다. 일본 경제에 버블이 낀 1980년대에 각국과의 생산성 격차가 다소 좁혀지긴 했지만 기본적으로 아주 오래전부터 일본의 생산성은 낮았다”면서 “1인당 GDP가 세계 2위를 차지한 적이 있지만 그것은 순간이었다”고 분석했다. ‘일본은 수출대국’이라는 표현도 과대평가된 면이 있다고 했다. 2017년 세계 수출에서 일본의 점유율은 3.8%에 그쳤다. 1위 중국(10.6%), 2위 미국(10.2%), 3위 독일(7.7%)과 비교할 때 매우 작은 수준이다. 가야 게이치는 독일은 일본보다 GDP가 작은데도 수출 절대량이 일본의 2배 이상이라면서 독일은 지난 40년간 세계 시장에서 수출 점유율을 비슷한 수준으로 유지한 반면 일본은 계속 떨어지고 있다고 진단했다. 즉 일본은 ‘옛날에 부자였는데 지금은 가난해졌다’가 아니라 ‘원래 가난했는데 80년대 풍요를 겪은 뒤 다시 가난한 시대로 돌아가고 있다’고 봐야 한다는 얘기다. 가야 게이치는 일본 기업의 최대 장점이 ‘발 빠른 흉내와 저렴한 제품 생산’이라고 판단했다. 일본인에게는 혁신적인 제품을 발명하는 능력은 없지만 기존 제품을 개선하는 능력이 있었다는 것이다. 하지만 이게 발목을 잡았다. ‘표절 상법’으로 재미를 보다 버블기를 거치며 경제적으로 풍요로워졌는데 일본인들이 스스로의 기술력을 과신해 ‘일본은 기술대국’이라고 착각하기 시작했다는 지적이다. 가야 게이치는 “이런 기본 인식의 차이가 현상을 유지하려는 성향으로 굳어졌고 이로 인해 일본 기업들이 쇠퇴산업에 집착하게 됐다”고 진단했다. 그는 위기를 기회로 삼아야 한다고 강조했다. 일본은 후진국으로 전락했다는 사실을 겸허히 받아들일 수 있을 때에만 막다른 골목에 들어간 일본 경제에 한 줄기 희망의 빛이 들어올 수 있다고 했다. 일본 네티즌들은 가야 게이치의 칼럼을 퍼나르며 아베노믹스를 맹비난하고 있다. “20~30년 후에 역사를 되돌아보면 아베 총리는 일본 경제에 치명상을 준 인물로 악명을 떨치고 있을 것이다. 현실을 직시하고 대책을 취하자. 아이들의 미래는 우리 스스로 지켜야 한다.” “아베 정권의 7년 동안 이렇게까지 국력이 쇠퇴했다. 악몽이다. 언론은 언제까지 아베에 가담할 것인가.” “아베노믹스는 실패 정책의 집대성이다. 산업의 쇠퇴, 무역의 적자, 임금 감소, 가계 소비 감소, 지역 쇠퇴, 마이너스 금리로 은행은 궁지, 일본은행 중앙은행 기능 마비…” “아르바이트 월급은 오르지 않는다. 40세 정규직인데 월급 실수령액이 17만6000엔이다. 빈부격차는 줄지 않는다.” “노동자 시급을 비교해보자. 20년간 한국은 250%, 영국 87%, 미국 76%, 프랑스 66%, 독일 55% 늘었다. 일본은 유일하게 9% 하락했다.” “현실은 이렇지만 TV에선 언제나 일본은 대단한 나라라고 나오지.” “경제만 후진국인가요? 증오국가이기도 합니다.” “20년 전 세계 100대 기업에 일본 기업이 23개 들었다. 지금은 도요타와 소프트뱅크만 있지.” “이건 충격이다. 아베는 안 된다.” 김상기 기자 kitting@kmib.co.kr GoodNews paper ⓒ , 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=449&amp;aid=0000176785&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=3</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>‘먼지 논란’ LG 트롬건조기 145만 대 전량 무상수리</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>LG전자가 먼지와 악취 발생으로 논란을 빚은 트롬 의류건조기 145만 대 전량을 무상수리하기로 했습니다. 어제(29일) 한국소비자원은 LG전자의 코덴서 자동세척 의류건조기에 대해 시정권고를 내렸습니다. 소비자원은 지난달 23일부터 18일 동안 해당 제품을 사용하는 가구 50곳을 점검한 결과 11대(22%)가 콘덴서 전면 면적의 10% 이상에 먼지가 끼어 있는 것으로 나타났고, 나머지 39대(78%)는 전면 면적의 10% 미만에 먼지가 쌓였다고 밝혔습니다. 콘덴서 전면에 먼지가 쌓인 면적은 대용량 모델이 더 컸습니다. 소형(8·9㎏) 건조기는 점검 대상 30대 중 28대(93.3%)가 10% 미만으로 먼지가 끼어 있는 반면, 대형(14·16㎏) 건조기는 20대 중 9대(45%)에 10% 이상 먼지가 쌓여 있었습니다. 또 반려동물이 있거나 사용 기간이 오래된 경우 더 많이 쌓여 있었습니다. 소비자원은 콘덴서에 먼지가 쌓이는 원인으로 사용 조건에 따라 콘덴서 자동세척 기능이 작동하지 않았기 때문으로 분석했습니다. 특히 대형 건조기의 경우 필터가 아닌 다른 경로로 먼지가 들어오는 것을 막는 장치가 없었습니다. 또 소형·대형 건조기 모두 약 300~700㎖ 정도의 물이 내부 바닥에 남아 있었는데 이 물은 세척 과정에서 쓰인 응축수로 먼지와 섞여 미생물 번식, 악취 발생의 가능성 있다고 판단했습니다. 이에 따라 LG전자는 자동세척 기능을 개선하고, 응축수를 줄이기 위해 내부바닥과 배수펌프의 구조도 바꾸기로 했습니다. 또 건조기능이 떨어지면 관련 부품을 10년 간 무상으로 수리하는데, 무상수리 조치를 받으려면 LG전자 서비스센터에 요청하면 됩니다. 이철호 기자 irontiger@donga.com 꿈을 담는 캔버스 채널A ⓒCHANNEL A(www.ichannela.com), 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=021&amp;aid=0002401523&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=4</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>배터리 ‘집안싸움’ 격화…“中·日만 웃는다” 우려 확산</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>■ SK이노-LG화학, 美서 ‘전기차 배터리 소송’ 확전 경쟁국들은 글로벌 공조 강화 누가 이겨도 국익차원서 손해 업계에선 “양사합의 시급하다” SK이노베이션과 LG화학의 전기차 배터리 소송전이 국내외에서 격화되면서 진흙탕 싸움으로 번졌다. 일본의 수출 규제 조치와 미·중 무역 분쟁 등 대외 악재가 쏟아진 와중에 양사가 세계 최대 시장 미국에서 양보 없이 소송으로 맞붙자 업계에서는 이번 사태가 장기화할 경우 중국과 일본 등 경쟁국만 수혜를 입을 것이라는 지적이 거세게 일고 있다. 30일 SK이노베이션은 미국 국제무역위원회(ITC)와 연방법원에 LG화학과 LG전자를 동시 제소하는 초강수를 뒀다. 소송전은 한때 물밑에서 화해 기류가 흐르기도 했었으나 SK이노베이션이 초강수를 두면서 ‘강 대 강’ 국면으로 치닫고 있다. 정부가 중재에 나서기도 했지만, 양사 입장이 평행선을 달려 접점을 찾기 힘들었던 것으로 알려졌다. 일본 수출 규제 움직임이 임박해지면서 양사 간 배터리 소재 협력 가능성이 흘러나오기도 했으나 결국 무산된 상태다. LG화학은 이달 초 주 법률대리인을 기존 덴튼스(Dentons)에서 세계 1위 로펌이자 ITC 특허소송 경험이 풍부한 미국 레이섬 앤드 왓킨스(Latham &amp;amp; Watkins)로 교체했다. 이는 미국 소송전에서 승소 가능성을 높이기 위해 화력을 전면 보강한 조치다. 소송전이 격화된 배경은 소송 결과에 따라 회사 명운이 좌우되기 때문이다. SK이노베이션은 2022년 상업생산을 목표로 미국 조지아에 배터리 공장을 짓고 있는데, LG화학이 승소하면 공장 가동에 차질을 빚을 가능성이 클 것으로 관측된다. LG화학의 가처분신청이 인용되면 공장 가동에 꼭 필요한 배터리 시제품과 부품 등을 미국에 반입하는 자체가 힘들어지기 때문이다. SK이노베이션이 승소할 경우, LG화학도 미국 시장에서 직·간접적인 비용 부담을 상당 부분 떠안아야 한다. 이에 양사 법적 다툼이 결국 한국 배터리 산업의 경쟁력을 떨어뜨린 채 해외 경쟁사들의 배만 불리는 게 아니냐는 우려가 커지고 있다. 배터리 산업은 아직 시장 초기 단계지만 이른 시간 내 고속 성장이 점쳐지는 분야다. 한·중·일 3국이 기술 개발에 전력을 쏟고 있는 이유다. 최근 전 세계 1위 업체인 중국의 CATL이 전기차 생산을 위해 일본과 독일 완성차 업체와 손잡는 등 글로벌 공조도 강화되고 있다. 업계 관계자는 “SK이노베이션과 LG화학 중 어느 한쪽이 미국에서 전기차 배터리를 팔지 못하는 사태로 치달을 경우 국익 차원에서 손실이 막대할 수밖에 없다”며 “미국 로펌에 막대한 소송 비용만 벌게 하고, 경쟁국에 맞서 배터리 산업 경쟁력을 키울 수 있는 시기를 놓치지 않도록 양사의 합의가 시급하다”고 말했다. 한편, LG화학 측이 미국에서 제기한 ITC 소송은 내년 6월경 예비 판결, 11월경 최종 판결이 나올 것으로 예상된다. 권도경 기자 kwon@munhwa.com [ | | ] [Copyrightⓒmunhwa.com '대한민국 오후를 여는 유일석간 문화일보' 무단 전재 및 재배포 금지()]</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=437&amp;aid=0000218610&amp;date=20190830&amp;type=2&amp;rankingSectionId=101&amp;rankingSeq=5</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>일본, 수출규제 이후 처음으로 불화수소 수출 허가</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 [앵커] 일본 정부가 지난달 수출규제 조치 이후 처음으로 반도체 제조 핵심소재인 불화수소의 한국 수출을 허가했습니다. 앞서 반도체 감광액인 포토레지스트는 두 차례 수출을 허가한 바 있습니다. 우리 정부는 "일희일비하지 않는다"며 "완전한 수출규제 철회가 필요하다는 입장에는 변화가 없다"고 밝혔습니다. 서효정 기자입니다. [기자] 이번에 일본 정부가 수출을 허가한 불화수소는 반도체를 만들 때 필수적인 소재입니다. 회로 패턴 중 불필요한 부분을 깎거나 불순물을 없애는데 쓰이기 때문입니다. 특히, 순도가 99%를 넘는 고순도 불화수소의 경우 세계 시장의 70% 이상을 일본이 점유해 왔습니다. 때문에 지난달 수출 규제 조치 이후, 삼성전자와 SK하이닉스 등 국내 반도체 기업들은 고순도 불화수소 확보에 주력해 왔습니다. 이런 고순도 불화수소를 납품하겠다는 일본 기업 스텔라케미파의 신청을 일본 정부가 허가한 것으로 파악됐습니다. 회로를 새기는데 필요한 또다른 필수 소재 포토레지스트는 두 차례 수출이 허가된 적이 있지만, 고순도 불화수소는 처음입니다. 일본의 수출 규제가 정치적 보복 조치가 아니고 WTO 규칙에도 어긋나지 않는다는 점을 강조하기 위한 것으로 풀이됩니다. 또, 국내 반도체 업계가 대체재를 찾아 나서자 매출이 줄어들까 위협을 느낀 일본 업체들이 허가를 촉구했기 때문이라는 분석도 나옵니다. 그간 일본 정부는 고순도 불화수소가 군사적 목적으로 악용될 수 있다며 수출을 불허해왔습니다. 우리 정부는 "한 건 허가가 났다고 일희일비하지 않는다"며, "수출규제 조치의 무조건 철회가 필요하다는 입장에는 변화가 없다"고 선을 그었습니다. 서효정 기자 (seo.hyojeong@jtbc.co.kr) [영상편집: 김정은] Copyright by JTBC(http://jtbc.joins.com) and JTBC Content Hub Co., Ltd. All Rights Reserved. 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=052&amp;aid=0001336762&amp;date=20190829&amp;type=2&amp;rankingSectionId=101&amp;rankingSeq=3</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>'먼지 낌' 논란 LG 트롬건조기, 전량 무상수리</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 	 	[앵커] 의류 건조기 시장 점유율 1위인 LG 트롬 건조기에서 부품에 먼지가 쌓이고 바닥에 물이 고이는 현상을 소비자원에서 확인해 시정을 권고했습니다. LG전자는 지금까지 팔린 145만 대를 전량 무상으로 수리하기로 했습니다. 신윤정 기자가 보도합니다. [기자] 3년 전 출시된 LG전자의 트롬 건조기입니다. 건조 과정에서 생긴 물로 콘덴서를 자동으로 씻어내는 기능이 특징인데, 최근 이용자들 사이에서 이 콘덴서에 먼지가 끼거나 악취가 풍긴다는 불만이 잇따랐습니다. [김 모 씨 / LG 트롬 건조기 사용자 : 쓰다 보니까 점점 더 빨래가 안 마른다, 약간 습한 냄새가 올라온다 이런 느낌이 나 가지고…] 한국소비자원이 50가구를 방문해 현장 점검한 결과 설계·구조상의 이유로 먼지 쌓임과 바닥 물 고임 현상을 확인하고 시정을 권고했습니다. 콘덴서 전면에 먼지가 쌓인 면적은 대용량 모델이 더 컸고, 특히 반려동물이 있거나 사용 기간이 오래된 경우 더 많이 쌓여 있었습니다. 콘덴서가 자동 세척되기 위한 조건이 2ℓ가량의 응축수가 모인 경우 등으로 미흡하게 설정돼 있어 제대로 작동이 안 됐고 외부 먼지까지 들어갔기 때문으로 보입니다. 소형 건조기에는 필터와 본체 사이에 외부 먼지 유입을 막는 이런 고무 재질의 실링 처리가 있지만, 대형 건조기에는 없습니다. 건조기 내부 바닥에는 건조하고 남은 물이 다 빠져나가지 못하고 상당량이 늘 고여 있었습니다. 이 물이 먼지와 섞여 곰팡이와 악취가 생길 수 있고, 오염된 물로 콘덴서 세척이 이뤄지거나 부품 부식 우려도 제기되는 상황입니다. [김선환 / 한국소비자원 위해관리팀장 : 배수펌프의 성능에 좀 문제가 있었던 거 같아요. 물만 쫙 뽑아내야 하는데, 공기도 같이 빨려 들어가는 그런 현상이 확인됐어요.] LG전자는 지난 2016년 4월부터 지금까지 판매된 모든 제품을 무상으로 수리해주기로 했습니다. 고객 센터에 신청하면 설정을 바꿔 콘덴서가 매번 세척되도록 하고, 바닥에 물이 고이지 않게 바닥 판과 배수펌프를 바꿔주겠다는 겁니다. [LG전자 관계자 : LG전자는 한국소비자원이 발표한 시정 권고를 충실히 이행함은 물론 고객들이 보다 편리하게 사용하실 수 있도록 적절한 보상 서비스를 제공할 예정입니다.] 소비자원은 수리 이후 또 다른 문제점이 생길 수 있는 만큼 앞으로도 집중적으로 관찰해 필요한 조치를 권고할 계획이라고 밝혔습니다. YTN 신윤정[yjshine@ytn.co.kr]입니다. [저작권자(c) YTN &amp;amp; YTN PLUS 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=029&amp;aid=0002549769&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=7</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>올리브영, `올영세일` 실시…"가을 트렌드 제품 한번에"</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>[디지털타임스 김민주 기자] 올리브영이 본격적인 가을의 시작을 알리는 정기 세일 '올영세일'을 펼친다. 국내 대표 헬스앤뷰티(H&amp;amp;B) 스토어 올리브영은 오는 9월 5일까지 7일간 대규모 세일 '올영세일'을 실시한다고 30일 밝혔다. 올영세일은 트렌드 소싱 역량을 집약한 시즌 선도 제품과 이색 특가 행사를 통해 업계를 대표하는 쇼핑 축제로 자리매김하고 있다. 이번 '올영세일'에서는 가을을 대표하는 핵심 카테고리인 기초화장품을 강력한 혜택으로 선보인다. 환절기 피부 관리에 효과적인 에센스·크림 등을 세일 상품으로 대거 선정했으며, 가을 메이크업을 위한 색조 화장품과 쇼핑 적기인 바디 보습 제품, 건강기능식품 등도 다양하게 큐레이션해 최대 60% 할인한다. 가성비 좋은 기획 세트 상품도 지난 세일 대비 25% 확대했다. 추석을 앞두고 고객들에게 폭넓은 쇼핑 혜택을 제공하는 동시에, 선물하기에도 좋은 상품을 제안한다는 취지다. 올영세일에서만 만나볼 수 있는 차별화 특가 행사는 고객 참여로 더욱 풍성해졌다. 세일 기간 동안 매일 다른 특가 상품을 선보이는 '오늘의 특가' 행사에서는 지난 8월 중순 공식 온라인몰에서 진행된 고객 투표로 가장 많은 선택을 받은 1, 2위 상품이 추가 선정돼 깜짝 공개된다. 또한 최대 99% 할인된 가격으로 열띤 반응을 얻은 '선착순 특가'에서는 이번에 모든 특가 상품이 100원에 제공된다. 8월 30일을 포함하여 세일 기간 중 두 차례 진행되며, 1만원 이상 구매 시 1인 1개 구매가 가능하다. 전국 매장은 개점 시간에 맞추어 판매가 시작되며 공식 온라인몰에서는 구매 금액과 관계없이 오전 10시부터 1인 1개 구매할 수 있다. 올리브영의 인기 아이템을 역대급 할인율로 선보이는 '단독 특가'와 주요 매장에서 자체적으로 상품을 선정해 추가 할인하는 '우리 매장 단독 특가' 행사도 진행된다. 이외에 우수 회원만을 위한 혜택도 마련됐다. 올리브영 멤버십 등급 중 그린·블랙·골드 올리브 회원에게는 △닥터자르트 △아이소이 △보타닉힐보 △필로소피 △록시땅 등 5개 브랜드의 주요 인기 제품을 추가 할인한다. 매장에서는 각각의 컬러 상품 택(Tag)을 통해 행사별 특가 상품을 확인할 수 있다. 올리브영 관계자는 "이번 세일에서는 '가을 환승'을 콘셉트로 가을에 꼭 구입해야 하는 상품 구성과 혜택을 집중 강화했다"며 "업계 대표 축제 '올영세일'을 통해 시즌 트렌드를 선도하고 고객에게 늘 새롭고 차별화된 쇼핑 경험을 제공할 계획"이라고 말했다. 김민주기자 stella2515@dt.co.kr /</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=015&amp;aid=0004201460&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=8</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>"보험료 인상 안된다" 靑 질책에…국민연금 개혁안 '예고된 실패'</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>국민연금 개혁을 논의한 경제사회노동위원회가 사실상 아무런 결론도 내리지 못했다. 연금개혁을 위한 사회적 합의를 내세운 정부가 21개월에 걸쳐 시간만 낭비했다는 비판이 나온다. 경사노위 산하 ‘국민연금개혁과 노후소득보장 특별위원회’는 30일 전체회의를 열었지만 합의안을 마련하지 못했다고 발표했다. 대신 세 개 안을 병렬해 정부와 국회에 권고하는 내용의 결과보고서를 채택했다. 현행 40%인 소득대체율을 45%로 올리고, 9%인 보험료율은 10년에 걸쳐 12%까지 올리는 안이 첫 번째다. 두 번째는 현행 제도를 유지하는 안이다. 세 번째는 소득대체율을 유지하면서 보험료율만 즉시 10%로 올리는 안이다. 한국노동조합총연맹과 대한은퇴자협회 등 노조 및 시민단체는 첫 번째 안을 지지했다. 내야 할 보험료율은 3%포인트 늘어나지만 받을 수 있는 연금의 소득대체율은 5%포인트 올라가 가입자의 이득이 크다고 봤기 때문이다. 경사노위 측은 “가장 많은 특위 참석자가 지지했지만 사회적 합의에서 다수안은 큰 의미가 없다”며 “단일안을 내지 못해 송구하다”고 밝혔다. 한국경영자총협회와 대한상공회의소는 “경제가 어려운 상황에서 기업과 자영업자들이 연금 보험료율 인상을 감내할 수 없다”는 이유로 원안 유지를 주장했다. 소상공인연합회는 “국민연금 보험료를 추가로 많이 부담하기는 힘들지만 다음 세대의 부담을 고려해 최소한의 책임을 지는 게 중요하다”며 보험료율을 1%포인트만 인상하는 안을 내놨다. 정부는 2017년 12월 국민연금 제도발전위원회를 출범시켜 연금 고갈 시기를 늦추는 개혁안을 논의하기 시작했다. 작년 말 보건복지부는 네 가지 개혁안을 제시하고 사회적 합의 기구인 경사노위에 공을 넘겼지만 9개월 동안 허송세월만 보냈다는 지적이 나온다. “처음부터 국민연금 개혁 의지가 없었던 데 따른 예고된 참사다.” 30일 경제사회노동위원회가 국민연금 제도 개혁을 위한 단일안을 마련하는 데 끝내 실패하자 나온 연금 전문가들의 평가다. 국민연금은 지금 제도로는 2057년에 연금 기금이 바닥난다. 이에 따라 ‘국민연금이 지속 가능하긴 한 것이냐’는 불신이 팽배하다. 그런데 정부는 재정 안정화를 위한 보험료 인상 등 개혁은 외면한 채 소득대체율(생애 평균소득 대비 연금 수급액) 인상에 방점을 둔 비현실적인 방안에만 매달렸고 결국 2년 가까운 시간만 허비한 채 이날의 결과에 이르렀다는 지적이다. 국민연금 개혁 추진에 이상 징후가 본격적으로 감지된 건 지난해 하반기였다. 보건복지부는 지난해 11월 국민연금 보험료율을 9%에서 11~12%로 즉시 올리는 안이 포함된 제도 개편안을 청와대에 보고했다. 전문가 위주로 구성된 국민연금 제도발전위원회가 약 1년간 논의해 도출한 내용을 바탕으로 마련한 안이었다. 이때만 해도 정부는 국민연금 재정 안정에 대한 의지가 어느 정도 있었다. 복지부 안에 소득대체율을 높이는 내용도 같이 들어 있었지만 보험료를 시급히 올려야 한다는 점을 강조했기 때문이다. 하지만 청와대는 “개편안을 전면 재검토하라”며 퇴짜를 놨다. 당시 김의겸 청와대 대변인은 “보험료 인상 부분이 국민의 눈높이에 가장 맞지 않는다고 대통령이 생각하고 있다”고 말했다. 정부가 준비한 개편안 내용이 미리 언론을 통해 알려지며 반대 여론이 커지자 ‘국민 부담을 안 늘리겠다’며 바로 물러선 것이다. 문재인 대통령의 공약부터가 ‘보험료 인상 없이 소득대체율 40%→50%(2028년 기준)’이기도 했다. 국민이 좋아할 만한 연금 인상만 약속한 셈이다. 청와대 질책에 복지부의 개혁 의지는 크게 꺾였다. 작년 12월 내놓은 복지부의 제도 개편안은 ‘현행 유지안’을 포함한 사지선다였다. 정부안은 보통 단일안 아니면 2개 복수안인데 4개나 제시한 것을 두고 “아무런 결정을 안 한 것이나 마찬가지”라는 비판이 쏟아졌다. 4개 안 중에는 소득대체율을 45~50%로 높이면서 보험료를 12~13%로 올리는 방안도 있었지만, 보험료 인상 시점은 대체로 다음 정부였다. 현 정부 안에선 2021년에야 1%포인트 인상하는 게 다였다. 정부는 이후 국민연금 개혁을 사회적 대화기구인 경사노위로 떠넘겼지만 여기서도 논의는 헛돌았다. 노동계와 경영계 간 이견이 팽팽히 맞선 탓이다. 노동계는 정부안 가운데 ‘소득대체율 45%, 보험료 12%(현 정부에선 1%포인트 인상)’를 고집했고 경영계는 현행 유지안을 주장했다. 윤석명 한국보건사회연구원 연구위원은 “애초 정부의 개혁 의지가 크게 후퇴해 제대로 된 개혁안을 기대하기 어려운 상황이었다”고 말했다. 결국 이날 경사노위 ‘국민연금개혁과 노후소득보장 특별위원회(연금특위)’는 하나의 개편안을 마련하는 데 실패하고 노동계, 경영계, 일부 위원이 주장한 세 가지 방안을 제시하는 데 그쳤다. 노동계안이 다수안이었지만 사회적 합의를 하려고 만든 기구에서 일치된 지지를 받지 못한 안이어서 의미를 부여하기 어렵다는 지적이다. 장지연 연금특위원장도 “사회적 대화에서 다수안이라는 것이 가지는 의미가 제한적”이라고 밝혔다. 국민연금 개혁은 ‘타이밍’이 중요한데 정부가 시간을 질질 끈 것이 실패의 한 요인이란 분석도 나온다. 경기가 좋았던 지난해 상반기만 해도 보험료율 인상에 대한 저항이 덜할 수 있는데 지금은 경기 침체기여서 국민과 기업의 부담이 커졌다는 것이다. 재계의 한 관계자는 “국민연금 지속 가능성을 위해선 보험료를 올리는 게 바람직하지만 지금은 기업 경영 상황이 너무 안 좋다”고 토로했다. 윤석명 연구위원은 “향후 국민연금 개혁이 어떻게 마무리될지 모르겠으나 미래 세대를 위해 제도를 개선한 노무현 정부를 본받을 필요가 있다”고 강조했다. 노무현 정부는 2007년 보험료율을 12.9%로 올리고 소득대체율은 60%에서 50%로 내리는 개혁안을 추진했다. 보험료율 인상은 무산됐지만 소득대체율은 40%까지 내리는 데 성공했다. 그 덕분에 국민연금 기금 고갈 시기가 13년 늦춰졌다. 노경목/서민준 기자 autonomy@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=009&amp;aid=0004419652&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=9</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>[단독] "글로벌 공급망 붕괴…내년 큰 충격 올것"</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>◆ '닥터 둠' 루비니의 경고 ◆ 2008년 금융위기를 예측해 '닥터둠'이라는 별명을 얻은 누리엘 루비니 뉴욕대 교수가 지난 28일(현지시간) "한일 경제 갈등으로 인해 한국 잠재성장률이 하락할 수 있다"고 경고했다. 루비니 교수는 이날 매일경제와 단독으로 전화 인터뷰하면서 "미·중 무역전쟁 격화에 따른 글로벌 공급망 타격 등 '공급 충격'으로 내년에 글로벌 경기 침체가 불어닥칠 것"이라며 이같이 말했다. 세계 1·2위 경제대국 간 무역전쟁 격화로 각국 간 분업·특화를 기반으로 한 고도의 글로벌 공급망이 흔들려 경기 침체가 가시화하고 있는 상황에서 한국은 일본과 경제 갈등 문제까지 직면하며 어려움이 가중되고 있다는 진단이다. 루비니 교수는 다음달 25~27일 열리는 제20회 세계지식포럼에 참가한다. 잠재성장률은 한 나라의 경제가 보유하고 있는 자본, 노동력, 자원 등 모든 생산요소를 사용해서 물가 상승을 유발하지 않으면서도 최대한 이룰 수 있는 경제성장률을 의미한다. 한마디로 한일 경제 갈등을 하루빨리 해결하지 못하면 한국 경제가 구조적으로 2%대에도 못 미치는 저성장기에 빠져들 수 있다는 경고다. 루비니 교수는 "그동안 한국은 대외 개방형 경제 체제 기반으로 성장해왔는데 현재 미·중 무역전쟁, 한일 경제 갈등 등 불확실성에 직면했다"며 "미·중 무역전쟁이 장기화할 것으로 예상되는 상황에서 한국은 한일 경제협력이 양국에 유익하다는 점을 직시하고 문제를 해결해야 한다"고 말했다. 그는 또 "한일 갈등은 과거사 때문인 것으로 알고 있다"며 "기본적으로 과거사 문제는 외교로 해결해야 한다"고 주장했다. 미·중 무역전쟁도 그렇지만 한일 경제 갈등 역시 '정치'에서 비롯된 게 문제라는 것이다. 이와 관련해 루비니 교수는 최근 한국의 일본산 제품 불매운동을 경계해야 한다고 주장했다. 그는 "일본산 제품 불매운동은 '건설적(constructive)'이지 못하다"며 "이는 일본에서 똑같이 한국산 제품 보이콧 현상을 야기할 수 있어 무역 갈등을 더욱 악화시킬 수 있다"고 말했다. 그는 이어 "국수주의 감정을 자극한다면 정치·외교적으로 문제가 더욱 꼬여 과거사 문제를 외교로 해결하는 것이 더욱 어려워질 수 있다"고 지적했다. 루비니 교수는 또 내년에 불어닥칠 글로벌 경기 침체는 '공급 충격'에 따른 것으로 대응책 마련이 쉽지 않다는 데 문제의 심각성이 크다고 경고했다. 그는 "다가오는 경기 침체는 2008년 금융위기 때와는 성격이 다르다"며 "2008년 금융위기는 '수요 충격'에 따른 것으로, 금리 인하, 재정 확대 등으로 대응이 가능했지만 이번 경우는 이러한 정책들이 단기 경기부양에만 효과적일 것"이라고 말했다. 이미 세계적으로 기준금리 수준이 낮은 상황에서 금리를 추가로 내릴 여력이 부족한 데다 그렇게 하더라도 '정치' 문제로 비롯된 '공급 충격'을 해결하는 데는 한계가 따를 수밖에 없다는 분석이다. [뉴욕 = 장용승 특파원] [ⓒ 매일경제 &amp;amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=469&amp;aid=0000417918&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=10</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>2023년 나라 빚 1000조원대… 경제 추락 선제적 방어 승부수</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>홍남기 “재정적자 확대 감내하고 성장세 회복하는 게 장기적 도움” 재정 수입 증가율, 지출에 못미쳐… 4년 뒤엔 채무비율 46%대 전망 정부가 내년 예산을 올해보다 9.3% 늘려 편성하면서 내년 국가채무도 800조원을 돌파하게 됐다. 수입(세금수입)은 줄어드는데 지출은 늘리기로 해 빚을 더 낼 수밖에 없기 때문이다. 정부 예상대로라면 2023년엔 국가채무가 1,000조원을 넘어서고 국내총생산(GDP) 대비 국가채무비율은 40%대 후반까지 치솟게 된다. 정부가 그간 강조해 온 각종 재정 마지노선이 깨지는 셈이어서, 향후 재정 부담을 감당할 수 있을 지 우려도 높아지고 있다. ◇재정 수입보다 지출이 훨씬 빨리 늘어 정부는 29일 국무회의에서 내년 예산안과 함께 향후 5년간의 재정 전망과 계획을 담은 ‘2019∼2023년 국가재정운용계획’을 심의ㆍ의결했다. 이에 따르면 2019∼2023년 재정지출은 연평균 6.5% 늘어난다. 이는 지난해 편성했던 2018∼2022년 사이 계획(연평균 7.3% 증가)보다는 0.8%포인트 낮아진 것이다. 이에 따른 재정지출 규모는 내년 513조5,000억원(9.3%)에 이어 2021년 546조8,000억원(6.5%), 2022년 575조3,000억원(5.2%), 2023년 604조원(5.0%)에 달하게 된다. 아동수당, 기초연금 등 복지분야 법정지출이 늘면서 의무지출은 올해 239조3,000억원에서 내년 255조6,000억원으로 확대된 뒤, 2023년엔 302조8,000억원까지 연평균 6.1% 증가할 것으로 예상됐다. 재량지출 역시 올해 230조3,000억원에서 내년 257조8,000억원, 2023년엔 301조3,000억원으로 연평균 6.9%씩 늘어날 전망이다. 반면, 지출을 뒷받침할 재정수입은 연평균 3.9% 증가에 그칠 전망이다. 지난해 발표한 2018~2022년 재정운용계획(연평균 5.2% 증가)보다 1.4%포인트 줄었다. 당장 내년 국세수입(292조원)은 올해(294조8,000억원)보다 줄어든다. 수입보다 지출이 더 많이 늘면서 정부는 올해 33조8,000억원이던 적자국채 발행한도를 60조2,000억원으로 늘리기로 했다. 최근 10년간 적자국채 발행액 최대치가 2015년 39조6,000억원이었다는 점을 감안하면, 내년에는 이보다 20조원 이상 더 늘리겠다는 얘기다. ◇무너지는 재정 마지노선 이에 따라 재정 부담은 급속히 늘어날 전망이다. 세입에서 세출을 제외한 통합재정수지는 올해까지 6조5,000억원 흑자를 유지하지만, 내년에는 31조5,000억원 적자로 전환된다. 국민연금 등 사회보장성기금 지출 등을 미리 반영한 관리재정수지 적자 규모는 72조1,000억원에 달해 GDP 대비 적자폭이 3.6%에 이르고 2023년엔 적자폭은 3.9%까지 악화될 전망이다. 국가채무도 올해 740조8,000억원에서 2020년(805조5,000억원) 800조원을 돌파한 뒤 2022년(970조6,000억원) 900조원을 훨씬 웃돌고, 2023년(1,061조3,000억원)에는 1,000조원을 넘을 전망이다. 이에 따른 국가채무비율도 가파르게 상승해, 내년 39.8%에서 2021년 42.1%, 2022년 44.2%에 이어 2023년엔 46.4%까지 치솟게 된다. 이는 그간 정부가 강조했던 재정 마지노선을 모두 뛰어넘는 수치들이다. 작년까지만 해도 정부는 “2022년까지 관리재정수지는 -3% 이하, 국가채무는 GDP 대비 40% 초반 수준으로 관리하겠다”(김동연 전 부총리)라고 밝힌 바 있다. 하지만 현재 정부는 이를 “감내할 수 있는 수준”이라고 설명한다. 홍남기 부총리 겸 기획재정부 장관은 “다른 선진국보다 국가채무비율이 훨씬 낮아 재정운용 여력이 크다”며 “일시적인 재정적자 확대를 감내하더라도 적극적인 재정의 역할로 성장세를 회복시키는 것이 장기적으로는 재정과 경제에 도움이 될 것으로 판단했다”고 강조했다. 반면 전문가들은 확장 재정 필요성은 인정하면서도, 한 번 무너진 재정 균형은 회복하기 어렵다며 우려를 표하고 있다. 김우철 서울시립대 교수는 “통합재정수지 첫 적자에, 관리재정수지 -3.6%는 위험한 수치”라며 “향후 복지 수요 급증 추세를 감안하면 국가채무비율도 급격히 악화될 수 있다”고 우려했다. 김태기 단국대 교수는 “재정 대폭 투입에도 경기는 되레 고꾸라져 밑 빠진 독에 물 붓기가 되고 있다”며 “세수마저 줄고 있어 재정 악화는 이미 시작된 것이나 마찬가지”라고 지적했다. 세종=이대혁 기자 세종=박세인 기자 세종=손영하 기자</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=015&amp;aid=0004200938&amp;date=20190829&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=11</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>日, 또 1건 '찔끔 허가'…불화수소 韓수출 승인</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>일본이 반도체·디스플레이 소재 3종에 대한 대(對)한국 수출 규제를 시작한 지 57일 만에 고순도 불화수소(에칭가스) 수출을 허가했다. 지난달 4일 수출 규제 이후 극자외선(EUV)용 포토레지스트(감광액) 수출은 두 차례 허가했지만 불화수소를 허가한 건 이번이 처음이다. 국내 반도체업계에선 “급한 불은 끌 수 있게 됐지만 안심하기엔 이르다”는 반응이 나온다. 29일 산업통상자원부와 업계에 따르면 일본 경제산업성은 이날 한국으로의 불화수소 가스 수출 1건을 허가했다. 산업부 관계자는 “일본이 한국으로의 불화수소 가스 수출 1건을 허가한 사실을 업계를 통해 확인했다”고 말했다. 수출 물량은 확인되지 않은 것으로 알려졌다. 이 관계자는 “그간 막혀 있던 불화수소 수출 허가가 난 것은 고무적”이라며 “다만 아직 수출 규제 자체에 대한 일본 정부 태도에 변화가 없어 상황을 지켜보고 있다”고 덧붙였다. 이번에 수출 허가를 받은 고순도 불화수소는 삼성전자가 요청한 물량으로 알려졌다. 경제계에선 일본 정부가 고순도 불화수소 수출을 전격 허가한 것에 대해 삼성전자, SK하이닉스 등 국내 반도체 업체들이 공급처를 일본 업체에서 중국 업체 등으로 교체하려는 움직임이 본격화하고 있기 때문이란 분석이 나온다. 29일 일본 재무성이 공개한 7월 품목별 무역통계에 따르면 반도체 세정 공정에 사용하는 고순도 불화수소의 지난달 한국 수출량은 479t으로 전월 대비 83.7% 급감했다. 업계 관계자는 “수출길이 막혀 발등에 불이 떨어진 모리타화학공업 등 일본 불화수소 제조 업체가 지속적으로 ‘수출 허가’를 요청했다”며 “일본 정부도 자국 기업의 호소를 외면하기 힘들었을 것”이라고 말했다. 한·일 군사정보보호협정(GSOMIA·지소미아) 파기 등 한·일 관계가 악화되는 가운데 일본 정부가 ‘명분 쌓기용’으로 일부 품목에 제한적으로 수출 허가를 내주고 있다는 분석도 나온다. 앞서 일본 정부는 지난 7일, 19일 두 차례에 걸쳐 포토레지스트 수출을 허가했다. 정부 관계자는 “일본의 태도 변화가 아직 확인되지 않고 있어 상황을 더 지켜봐야 한다”고 설명했다. 반도체업계에선 “한숨 돌릴 수 있게 됐다”는 반응을 내놓고 있다. 현재 삼성전자, SK하이닉스 등의 고순도 불화수소 재고는 두 달치 정도인 것으로 알려졌다. 업계 관계자는 “중국 제품 등에 대한 테스트를 진행 중이지만 도입 관련 구체적인 일정은 확정되지 않은 상태”라며 “일본 제품이 들어온다면 어느 정도 여유가 생길 것”이라고 설명했다. 구은서 기자 koo@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=422&amp;aid=0000390315&amp;date=20190830&amp;type=2&amp;rankingSectionId=101&amp;rankingSeq=12</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>악취에 곰팡이까지…LG건조기 145만대 무상수리</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 	 	[앵커] LG전자는 3년 전 열교환기, 콘덴서 자동세척 기능이 있는 의류건조기를 출시했습니다. 광고한대로면 첨단제품인데, 반대로 악취가 나고 곰팡이가 핀다는 불만이 잇따랐죠. 조사 결과, 기능에 문제가 있다는 사실이 드러나 뒤늦게 무려 145만대를 수리하기로 했습니다. 이준흠 기자입니다. [기자] 철판 사이사이에 먼지가 잔뜩 끼어 있습니다. 먼지가 눌어붙은 곳도 있습니다. LG전자 트롬 듀얼인버터 히트펌프 의류건조기의 열 교환기, 콘덴서입니다. 원래대로라면 자동으로 물을 분사해 씻어내기 때문에, 항상 깨끗한 상태여야 합니다. &amp;lt;LG전자 의류 건조기 이용자&amp;gt; "어, 오늘은 잘 안 말랐네? 이렇게 가볍게만 생각했는데 지금 생각하면 먼지 같은 게 성능에도 영향을 미치지 않았을까…" 하지만 이 세척 장치에 문제가 있어 때에 따라 작동하지 않는 것으로 한국소비자원 조사에서 드러났습니다. 배수펌프나 바닥 형태에도 문제가 있었습니다. 이 때문에 콘덴서를 씻어낸 더러운 물이 바닥에 고여, 옷에 악취가 나고 곰팡이가 생겼던 것입니다. 이렇게 내부에 습기가 있으니 녹이 쉽게 슬 가능성도 컸습니다. 소비자원은 해당 제품에 시정권고를 내렸고, LG전자는 이를 받아들여 문제 부품을 무상 교체하기로 했습니다. &amp;lt;LG전자 관계자&amp;gt; "시정권고를 충실히 이행함은 물론 고객들이 보다 편리하게 사용할 수 있도록 정확한 무상 서비스를 제공할 예정입니다." 해당 제품은 2016년 출시부터 지금까지 모두 145만대가 팔렸습니다. 교체를 원하는 소비자는 다음달 2일 이후 LG전자 서비스센터에 요청하면 됩니다. 연합뉴스TV 이준흠입니다. (humi@yna.co.kr) 연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=005&amp;aid=0001234320&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=13</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>‘악취와 먼지 낌 현상’ LG건조기 무상 수리 모델과 방법은?</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>한국소비자원이 의류 건조기 시장에서 점유율 1위인 LG 트롬 건조기에서 먼지 낌 현상 등으로 논란이 된 자동세척 의류건조기에 시정 권고했다. LG전자는 소비자원의 권고를 수용해 145만 대를 무상 수리하기로 했다. 한국소비자원은 LG전자가 소비자원의 시정 권고를 수용해 2016년 4월부터 현재까지 판매된 ‘트롬 듀얼 인버터 히트펌프 건조기’ 145만 대에 대해 기존 부품을 개선된 부품으로 교체하는 무상수리를 진행하기로 했다고 29일 밝혔다. 소비자원은 그동안 피해사례가 많이 접수돼 지난달 23일부터 18일간 현장 점검을 실시했다. 50대의 조사 대상 중 11대에서 콘덴서 전면 면적의 10% 이상에 먼지가 끼어 있는 것으로 드러났다. 용량이 클수록 먼지가 쌓이는 정도가 심해졌다. 해당 건조기는 건조 과정에서 생긴 물로 콘덴서를 자동 세척하는 기능이 특징이다. 그런데 최근 이용자들 사이에서 이 콘덴서에 먼지가 끼거나 악취가 난다는 불만이 쇄도했다. 콘덴서가 자동 세척되기 위한 조건이 2ℓ가량이다. 소형 건조기엔 필터와 본체 사이에 외부 먼지 유입을 막는 고무 재질의 실링 처리가 있지만 대형 건조기엔 없다. 이에 소비자원은 LG전자에 콘덴서에 먼지가 쌓이는 현상을 방지할 수 있는 방안과 제품 내 응축수 잔존량 최소화 방안 마련 등을 권고했다. LG전자는 이를 수용해 다음달 2일부터 일정량이 응축수가 모여야 작동했던 자동세척 기능을 건조 기능 사용 때마다 작동하도록 개선한 프로그램을 기존 판매 제품에 적용하기로 했다. 무상수리를 받기 위해선 LG전자 서비스센터에 요청하면 된다. 천금주 기자 juju79@kmib.co.kr GoodNews paper ⓒ , 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011050057&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=14</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>한번 더 내리면 역대 최저금리…'인하 여력' 아끼는 한은</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>인하시 1.25%로 최저치 복귀…과거엔 美 '제로금리' 근접 미중 갈등에 세계경기 둔화전망 커져…시장선 10월 인하기대 (서울=연합뉴스) 이지헌 정수연 기자 = 30일 한국은행 금융통화위원회가 기준금리를 연 1.50%로 동결한 것은 지난달 금리인하를 단행한 점을 고려해 경기흐름을 좀 더 지켜보고 향후 행보를 정하려는 취지인 것으로 해석된다. 다만 미중 무역갈등, 일본의 수출규제 등 대외 여건의 불확실성이 커진 가운데 경기 둔화를 우려하는 시각이 많아지면서 이르면 10월 중 추가 금리인하가 이뤄질 것이란 기대가 커지고 있다. 신동수 유진투자증권 연구위원은 "7월 금리인하의 효과를 우선 확인해야 하고, 추가경정예산(추경) 집행이 성장세 둔화를 완충할 수 있는지를 보려 할 것"이라며 "3분기에도 성장세가 가시적으로 둔화하는지를 확인한 후에 인하 여부를 결정할 것으로 보인다"고 말했다. 구혜영 미래에셋대우증권 연구원은 "시장의 금리인하 기대가 앞서가고 있는데 7월에 이어 이달 또 금리를 내리면 시장의 인하 기대를 더욱 자극할 수 있다"며 "한은으로선 그런 결과를 부담스러워했을 것"이라고 설명했다. 이어 "이주열 총재가 7월 금통위 후 회견에서 '기준금리의 실효 하한이 선진국보다 높을 수 있다'고 했는데 이는 '금리인하 총알'이 많이 남지 않았다는 의미기도 하다"고 덧붙였다. 한은은 2016년 6월 기준금리를 역대 최저인 연 1.25%로 낮춘 바 있다. 그러나 당시 미국의 정책금리는 연 0.25∼0.50%였다. 현재는 연 2.00~2.25%다. 금리인하가 부동산 가격 상승을 다시 자극하고 가계부채 증가를 부채질할 가능성도 한은이 경계하는 지점이다. 한국감정원 조사에 따르면 이번 주 서울 아파트값은 지난주 대비 0.03% 오르며 9주 연속 상승세를 이어갔다. 민간택지 분양가 상한제 시행 예고에도 불구하고 서울 아파트값 상승 폭이 꺾이지 않는 모습이다. 7월 금통위 의사록에서 한 위원은 "주택 및 부동산 관련 대출은 상반기 중 증가세가 둔화했으나 향후 더욱 완화적인 금융 상황을 배경으로 금융 불균형 누적 정도가 다시 확대될 가능성을 배제할 수 없다"고 지적하기도 했다. 다만 작년 4분기 이후 수출 및 투자 부진이 지속하는 가운데 경기가 반등하기보다는 향후 더욱 악화해 경기침체 국면에 진입할 수 있다는 우려도 커지고 있다. 특히 5월 이후 미중 무역분쟁이 타결의 실마리를 찾지 못하면서 이런 우려를 키웠다. 국제통화기금(IMF)은 지난달 낸 세계 경제 전망에서 "글로벌 경제의 하강 위험이 강화됐다"며 올해 세계 경제 성장률을 3.2%로 낮췄다. 석 달 만에 0.1%포인트를 추가로 낮춘 것이다. IMF는 특히 최근 낸 중국 경제 연례 보고서에서 미국이 중국산 수입품에 추가 관세 인상을 단행하면 중국 성장률이 향후 1년간 0.8%포인트 낮아질 수 있다고 내다보기도 했다. 경기침체의 징후로 여겨지는 미국 국채 2년물과 10년물 금리의 역전 현상도 이달 발생한 이후 해소되지 않고 있다. 미국 연방준비제도(Fed·연준)가 예상과 달리 금리인하를 서두르지 않을 수 있다는 관측이 나오기도 하지만, 시장은 연준이 7월에 이어 9월 추가로 금리인하에 나설 것을 기정사실화하고 있다. 시카고상품거래소(CME) 페드워치에 따르면 금리선물 시장에 반영된 9월 연준의 금리인하 가능성은 95.8%다. 조영무 LG경제연구원 연구위원은 "한은이 7월 전망 때 제시한 올해 성장률 전망치 2.5%도 낙관적인 것으로 보인다"며 "올해 10∼11월께 금리인하 후 내년 상반기 추가 인하가 이뤄질 것으로 기대한다"고 말했다. pan@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=023&amp;aid=0003470672&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=15</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>日 항공사도 한국 노선 중단…"韓 경제 악화 탓" 핑계</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>한일 관계 악화로 여행객이 줄어들면서 일본 항공사도 양국을 오가는 일부 노선을 운항 중단하기로 결정했다. 한국 국적 항공사들은 이미 한일간 노선을 축소한 상태다. 전일본공수(ANA) 산하 저비용항공사(LCC)인 피치항공은 올해 10월 28일부터 인천~삿포로 노선을, 내년 1월 7일부터 부산~오사카 노선 운항을 중단한다고 30일 발표했다고 로이터통신이 보도했다. 서울 인천~오키나와 노선도 2020년 1월 7일~2월 22일 중에는 운항하지 않을 예정이다. 피치항공은 지난 2012년 인천~오사카 노선을 시작으로 한국에 취항했다. 이번 결정을 내린 이유로 피치항공은 한국행 노선의 수익성이 나빠졌기 때문이라고 밝혔다. 한국 경제 상황이 악화되고 원화 가치가 하락한 것이 원인이라고 주장했다. 한국 항공사들은 지난 달부터 잇따라 일본행 항공편을 줄이거나 운항을 중단한다고 발표했다. 악화된 한일 관계로 일본 불매 운동이 진행되는 한, 위축된 일본 여행 수요가 늘어나지 않을 것이란 전망 때문이다. 지난 달 해외로 나간 한국인 수는 늘었지만, 일본 방문객 수는 지난해 7월보다 7.6% 감소했다. 아시아나항공은 주 3회 운항하던 부산~오키나와 노선 운항을 이달 23일부터 중단한 상태다. 아시아나항공은 일본 여행 불매 운동 여파로 탑승객 수가 감소해 내린 결정이라며, 운항 재개 일정은 미정이라고 밝혔다. 9월 중순부터는 인천~오사카·후쿠오카·오키나와 노선에 투입하는 항공기도 수용 인원이 적은 기종으로 바꾼다. 대한항공은 다음 달 중순부터 부산~삿포로 노선(주 14회)을 운항하지 않는다. 11월부터는 제주~나리타(주 3회)·오사카 노선(주 4회) 노선도 운휴한다. 고마츠·가고시마·아사히카와 등 일본 소도시로 띄우던 임시 항공편도 9월 말부터 한달여간 운항을 중단한다. 현재 주 28회 운항하는 인천~오사카노선과 인천~후쿠오카 노선도 일부 감편한다. [유한빛 기자 newsflash@chosunbiz.com] - Copyrights ⓒ 조선일보 &amp;amp; chosun.com, 무단 전재 및 재배포 금지 -</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=008&amp;aid=0004270811&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=16</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>"1억이상 저렴" 송파 로또분양 기대 3040 몰렸다</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>[머니투데이 조한송 기자] [[분양 돋보기]송파 시그니처 롯데캐슬… 3.3㎡당 분양가 2600만원, 시세차익 1억~2억원대 예상] "분양가가 낮아지긴 했는데 유상옵션이 많네요"(송파 거주 30대 신혼부부) "조합원 분양이 84㎡B에 몰렸던데 견본주택을 둘러보니 판상형인 84㎡C가 훨씬 좋아보여요. C타입으로 경쟁이 몰릴 것 같아요" (서울 거주 50대 여성) 30일 오전 서울 송파구 거여동 '송파 시그니처 롯데캐슬' 견본주택 앞. 오전 10시 개장을 앞두고 가늠할 수 없을 정도로 많은 인파가 몰렸다. 10시에 도착한 관람객의 대기 시간이 1시간일 정도. 이날 '서대문 푸르지오 센트럴파크' '철산역 롯데캐슬&amp;amp;SK뷰클래스티지' '송도 더샵 프라임뷰·센트럴파크Ⅲ' 등도 동시에 견본주택을 개관했지만 청약 열기는 그 어느 곳보다 후끈했다. 송파구 거여마천뉴타운2-1구역을 재개발한 이 단지는 강남권에서 유일한 뉴타운 사업지다. 롯데캐슬만의 특화 설계가 적용돼 녹지율이 45%에 달한다. 지하 3층~지상 33층, 17개동, 총 1945가구 규모로 조성된다. 이중 일반분양 물량은 745가구다. 타입별 일반분양 가구수는 △59㎡A 28가구 △59㎡B 24가구 △59㎡C 12가구 △84㎡A 36가구 △84㎡B 187가구 △84㎡C 331가구 △84㎡C-1 79가구 △84㎡D 38가구 △108㎡ 10가구 등이다. 평균 분양가는 3.3㎡당 2600만원대다. 59㎡의 분양가는 5억2300만~5억6500만원 수준이다. 84㎡ 기준 분양가가 8억3500만~8억9700만원으로 9억원을 넘지 않아 중도금 대출이 가능하다. 내년 6월 집들이를 앞둔 송파 거여동의 'e편한세상 송파 센트럴(84.95㎡)'의 입주권이 지난 4월 9억9180만원에 거래됐다. 송파 시그니처 롯데캐슬의 분양가와 비교하면 1억원쯤 높다. 시세 대비 1억원 이상 저렴한 로또분양 기대감에 견본주택 내부가 발디딜 틈새 없이 붐볐다. 오는 10월 분양가 상한제가 시행되면 공급이 줄고 당첨 가점이 높아질 것으로 예상되면서 가점이 낮은 30~40대 청약자들이 대거 몰렸다. 아기띠를 둘러맨 젊은 엄마, 만삭의 신혼부부 등이 눈에 띄었다. 특히 송파구 주민들이 많이 찾았다. 거여동에 거주하는 30대 남성은 "59㎡를 생각중인데 평수에 비해 구조가 작게 나온 듯하다. 하지만 내부 수납 공간이 많아서 괜찮을 것 같다"고 언급했다. 롯데건설은 2.4m 높이의 높은 천장고로 내부 개방감을 높였다. 84㎡에선 타원형인 B타입 대비 판상형인 C타입의 평수가 넓어보인다는 평가가 주를 이뤘다. 롯데건설은 외산 주방가구 및 원목마루(유상옵션) 유럽산 거실 아트월 타일 등의 내부 인테리어를 선보일 예정이다. 분양가가 시세 대비 저렴하나 침실 붙박이장, 수입 원목마루 등이 옵션으로 제공되는 것이 아쉽다는 관람객의 평가가 이어졌다. 이에 대해 분양 관계자는 "통상 발코니를 확장하면 작은방의 붙박이장을 제공하나 분양가가 워낙 낮게 책정되다보니 유상으로 제공하게 됐다"고 설명했다. 청약 경쟁률은 시세 대비 분양가가 특히 저렴한 59㎡에 몰릴 관측이다. 분양 관계자는 "사전 조사 결과 평당가가 주변 시세 대비 많게는 1000만원쯤 저렴한 59㎡의 인기가 가장 높았다"며 "59㎡의 평균 경쟁률은 100대 1, 전체 평균 경쟁률은 20대1 정도로 예상된다"고 설명했다. 청약·분양권 전문가 박지민 씨(필명 월용이)는 "송파 시그니처 롯데캐슬은 청약 가점 50점 초반까지도 노려볼 수 있다"며 "입지와 가격대가 양호해 분양가 상한제 시행 직전 당첨 기대를 걸고 도전해봄직 하다"고 조언했다. 한편 송파 시그니처 롯데캐슬은 내달 4일 특별공급을 시작으로 5일 당해 1순위, 6일 기타 1순위 청약 접수를 받는다. 당첨자 발표는 9월17일로 당첨자 발표 후 30일부터 10월2일까지 사흘간 정당 계약을 진행한다. 계약금 1차 1000만원 정액제, 중도금대출 이자후불제 등 금융혜택도 제공할 예정이다. 입주는 2022년1월 예정이다. 조한송 기자 1flower@mt.co.kr &amp;lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=056&amp;aid=0010737754&amp;date=20190830&amp;type=2&amp;rankingSectionId=101&amp;rankingSeq=17</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>日 ‘까다로운’ 고순도 불화수소 첫 허가…삼성전자 대상</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>[앵커] 일본이 반도체·디스플레이 3개 소재에 대해 수출규제를 시행한 지 거의 두 달이 돼가고 있는데요. 일본 정부가 고순도 불화수소에 대한 허가를 처음으로 낸 것으로 확인됐습니다. 독가스로 무기 전용이 가능하다며 수출을 규제한 소재인데, 삼성전자에 허가를 내 준 겁니다. 서재희 기자입니다. [리포트] 일본 정부가 고순도 불화수소의 한국 수출을 허가했습니다. 지난달 수출 규제를 시행한 이후, 첫 허가입니다. 수출 대상 기업은 삼성전자입니다. 앞서 일본 정부는 지난 7일과 19일, 또 다른 규제 품목 극자외선용 포토레지스트의 수출을 삼성전자에 두 차례 허가했습니다. 고순도 불화수소는 반도체 웨이퍼의 세정과 식각 공정에 두루 사용돼, 생산에 필수적인 소재입니다. 그동안 일본 정부는 "불화수소가 독가스로 전용될 수 있어 엄정하게 검토한다"는 명분으로 허가를 내주지 않았습니다. 이에 따라 업계는 중국 등지에서 대체 수입처를 찾고 국산화 테스트를 진행해 왔습니다. 일부 제품은 내년쯤 실제 공정에 투입이 가능할 것으로 예상됐습니다. 일본 정부의 전격적인 허가는 일본 불화수소 생산업계의 우려가 반영됐다는 분석도 있습니다. 지난달 반도체 세정 공정에 사용하는 일본산 불화수소의 한국 수출량은 84%나 급감했습니다. 우리 정부의 WTO 제소 가능성을 염두해 둔 조치라는 해석도 나옵니다. [이천기/대외경제정책연구원 부연구위원 : "가트11조 사실상의 수량제한 조치로서 자신들의 조치가 안 잡히게 하기 위해서 어느정도 그 부분은 염두에 두고있는 것이 아닌가 싶습니다."] 청와대는 일본 정부의 불화수소 수출 허가를 업계로부터 확인하고, 배경과 진의 등을 파악하고 있습니다. KBS 뉴스 서재희입니다. 서재희 기자 (seojh@kbs.co.kr)</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=008&amp;aid=0004270806&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=18</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>日, 두달만에 불화수소 수출했지만…韓 "국산화 계속 추진"</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>[머니투데이 이정혁 기자] [삼성전자·SK하이닉스, 국산·러시아·중국산 등 테스트 한창…日의존도↓] 일본이 두 달 만에 처음으로 고순도 불화수소 수출을 허가한 가운데 국내 반도체 업계는 안도의 한숨을 내쉬면서도 국산화 등 공급선 다변화는 변함이 없다는 분위기다. 한국이 최근 유화적인 메시지를 던지며 일본과 대화 의지를 내비친 것과 상관없이 이참에 일본산 소재 의존도를 확실히 낮추겠다는 모습을 보이고 있다. 30일 관련 업계에 따르면, 일본 경제산업성은 최근 고순도 불화수소의 한국 수출을 승인했다. 수입하는 기업은 삼성전자로 알려졌으며, 정확한 수출물량과 순도는 확인되지 않았다. 일본이 지난달 초 수출을 규제한 반도체·디스플레이 핵심소재 3대 품목 중 포토레지스트 수출은 두 차례 허가했지만, 고순도 불화수소는 처음이다. 업계는 이번 수출 허가를 계기로 SK하이닉스도 일본산 고순도 불화수소를 확보할 수 있을지 주목하고 있다. 그러면서도 일본 입장이 전면적으로 선회했다고 볼 수 없다는 게 대체적인 관측이다. 삼성전자와 SK하이닉스는 국산을 비롯해 러시아산과 중국산 등의 불화수소 테스트에 한창이다. 순도 '99.9999999999%'(트웰브 나인)이 수율과 원가 절감 측면에서 가장 이상적이라는 게 업계의 판단이다. 실제 생산공정에서 사용량을 단계적으로 낮추는 작업도 병행하고 있다. 특히 일본 고순도 불화수소의 지난달 한국 수출량은 479t으로, 전월 대비 83.7% 급감했다. 불화수소의 보관 기간은 통상 4개월로, 경제보복 이후 현재까지 약 2개월의 보관 기간을 제외할 경우 일본 업체에 남은 유통기간은 2개월 남짓이다. 불화수소가 고순도일수록 보관 기간을 초과하면 품질이 떨어지고 이는 자연스럽게 가격하락으로 이어진다. 일본 업체들 역시 손해를 볼 수밖에 없는 구조다. 이런 상황에서 문재인 대통령이 최근 일부 외신과의 인터뷰에서 "나는 일본이 언제라도 대화와 협력의 장으로 나온다면 기꺼이 손을 잡고 협력할 것"이라고 밝힌 것을 계기로 '3대 핵심소재' 수출이 어느 정도 늘어날 가능성도 조심스럽게 점쳐진다. 그럼에도 불화수소는 일본이 '군사용도로 전용될 가능성이 있다'며 경제보복의 명분으로 삼았던 품목인 만큼 언제 또다시 수입될지 예측하기 힘들다는 게 업계의 공통된 시각이다. 한 업계 관계자는 "이번 불화수소 수출허가 건수는 한 건에 불과하다"며 "수출 규제가 전면 철회되더라도 벤더 다변화 움직임은 특별히 달라질 게 없다"고 말했다. 이정혁 기자 utopia@mt.co.kr &amp;lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=009&amp;aid=0004419232&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=19</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>삼성전자, 무신사 통해 `갤럭시 워치 액티브2` 최초 공개…이번이 두번째</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>온라인 패션 스토어 무신사와 삼성전자가 또 다시 만난다. 무신사는 무신사 쇼케이스를 통해 삼성전자 '갤럭시 워치 액티브2'를 국내 최초로 공개한다고 30일 밝혔다. 또한 오는 9월 5일까지 6일 간 한정 발매한다. 삼성전자는 업그레이드된 디자인과 성능을 갖춘 '갤럭시 워치 액티브2' 블루투스 모델을 사전 판매하며, 40㎜와 44㎜ 사이즈, 알루미늄과 스테인리스 소재로 컬러별 총 12종이 출시된다. 무신사는 알루미늄 소재 모델의 아쿠아 블랙, 클라우드 실버, 핑크 골드 3가지 컬러를 선보인다. 무신사는 삼성전자와 사전 판매를 기념해 '갤럭시 워치 액티브2'와의 유쾌한 일상을 테마로 온라인 쇼케이스를 선보인다. 또 인기 스트릿 캐주얼 브랜드 마크 곤잘레스, 로맨틱크라운과 컬래버레이션해 제작한 '갤럭시 워치 액티브2' 스페셜 패키지를 판매한다. [디지털뉴스국 이상규 기자] [ⓒ 매일경제 &amp;amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=018&amp;aid=0004458081&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=20</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>‘진흙탕 싸움’ 된 LG화학·SK이노 소송전… ‘악화일로’ 걷는 배터리업계(종합)</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>[이데일리 김정유 남궁민관 기자] LG화학(051910)과 SK이노베이션(096770)의 배터리 관련 소송전이 ‘진흙탕 싸움’으로 번지고 있다. 지난 4월 기술유출 건으로 SK이노베이션을 미국 무역위원회(ITC) 등에 제소한 LG화학에 이어, SK이노베이션도 특허 침해 제소라는 ‘맞대응 카드’를 꺼내들면서 악화일로를 걷는 모양새다. 더욱이 SK이노베이션은 LG화학뿐만 아니라 LG전자(066570)까지 소송 범위를 넓혀 자칫 SK그룹과 LG그룹간 갈등으로 확대될 수도 있을 전망이다. LG화학과 SK이노베이션간의 감정싸움이 자칫 국내 배터리 산업 경쟁력 악화로 이어지지 않을지 걱정하는 우려도 나온다. SK이노베이션은 자사 배터리 특허를 침해한 LG그룹 계열사 LG화학, LG전자 2곳을 미국에서 동시에 제소하기로 하고, 관련 절차를 진행하고 있다고 30일 밝혔다. SK이노베이션은 우선 자사 특허를 침해한 LG화학과 LG화학의 미국 소재 법인인 ‘LGC MI Inc.’(LG화학 미시간 법인)를 미국 ITC와 연방법원에 제소하기로 하고 절차를 진행 중이다. 또 LG화학과 함께 자사의 또 다른 특허를 침해한 LG전자도 연방법원에 제소키로 했다. LG전자는 LG화학의 배터리 셀을 공급받아 배터리 모듈과 팩을 생산해 특정 자동차 회사 등에 판매하고 있어 소송 대상에 포함됐다는 설명이다. SK이노베이션 측은 이번 특허 침해와 관련 LG화학과 LG전자가 영업 및 부당이득을 챙긴 것으로 보고 있다. 회사 관계자는 “LG화학 등의 배터리 중 상당한 제품이 이번 특허침해 소송 대상이 될 가능성이 높다”며 “이번 소송에서 SK이노베이션이 승소하면 LG그룹 두 계열사는 손해 배상 등 금전적 부담은 물론이고 이 방식을 기반으로 수주한 제품의 공급중단 등 배터리 사업 자체에 상당한 차질이 생길 가능성도 배제할 수 없다”고 주장했다. LG화학과 LG전자가 현재 생산, 공급 중이거나 미래에 공급할 배터리가 SK이노베이션의 특허를 침해한 만큼, 향후 생산 방식을 바꾸지 않으면 대체가 불가능하다고 강조한 셈이다. 다만 SK이노베이션 측은 이번 특허 침해 소송이 LG화학과의 갈등전으로 비춰지는 것에 대해서는 경계했다. 윤예선 SK이노베이션 배터리사업 대표는 “이번 제소는 LG화학이 지난 4월 말 제기한 영업비밀 침해건과는 무관한 핵심기술 및 지적재산 보호를 위한 정당한 소송”이라며 “SK이노베이션은 LG화학과 LG전자가 특허를 침해한 것을 인지하고 있었고 국내 기업간 선의 경쟁을 통한 경제 발전에 기여하기를 바라는 국민적인 바람과 산업 생태계 발전을 위해 보류해 왔으나, 더 이상 지체할 수 없어 소송을 제기하게 됐다”고 말했다. 특히 SK이노베이션은 이번에 제기된 본인들의 소송은 LG화학이 앞서 제기한 소송과는 다른 차원이라는 점을 거듭 강조했다. 회사 관계자는 “지난 4월 말 내용도 밝히지 않은 채 영업비밀을 침해했다고 주장하며 자사를 제소한 LG화학의 소송과는 근본적으로 다른 것으로, ‘아니면 말고식 소송’과는 차원이 완전히 다르다”며 “우리는 특허침해 대상 기술과 범위를 한정한 소송을 제기하면서 소송 목적을 자사의 핵심기술 및 사업가치 보호라는 점을 명확히 했다”고 강조했다. 이어 “절차가 진행 중이어서 특허 내용을 구체적으로 밝히긴 어렵지만, 금명간 소송 접수가 완료되면 공개될 것”이라고 덧붙였다. 이에 대해 LG화학 측은 발끈했다. LG화학은 공식입장자료를 내고 “미국 무역위원회(ITC) 소송 절차가 진행 중인 가운데, 경쟁사(SK이노베이션)가 소송에 대한 불안감 및 국면 전환을 노리고 불필요한 특허침해 제소를 한 것은 매우 유감스러운 일”이라며 “본질 호도 행위가 이어진다면 우리의 특허 침해 행위에 관해서도 법적조치를 검토하겠다”고 강경대응을 시사했다. 우선 LG화학은 SK이노베이션의 제소 ‘의도’ 자체에 의문을 제기했다. LG화학 측은 “양사간 특허 수는 이미 14배 이상 격차가 나는데, 본질을 제대로 인지하고 소송 제기한 것인지 의문이 든다”며 “우리의 특허권수는 1만6685건인데 반해 경쟁사는 1135건(국제특허분류 H01M관련 등록 및 공개기준)에 불과하다”고 주장했다. 이어 “연구개발비만하더라도 LG화학은 지난해 1조원 이상을 투자했지만 경쟁사는 2300억원에 불과, 양사간 현격한 차이를 보이고 있다”고 덧붙였다. 이에 LG화학도 강력 대응을 시사했다. 그간 여러 상황을 고려해 ITC 영업비밀 침해소송 제기 이외에 SK이노베이션에 대해 특허권 주장을 자제해 왔지만 이번 특허 침해 제소건처럼 본질을 호도하는 행위가 계속된다면 법적조치로 대응하겠다는 입장이다. LG화학 관계자는 “이번 특허 침해 제소와 같은 본질을 호도하는 행위가 계속된다면, 경쟁사가 제기한 소송이 근거 없음을 밝히는 것을 넘어, 자사 특허 침해 행위에 대해서도 더 이상 묵과하지 않고 조만간 법적 조치까지도 검토할 것”이라고 강조했다. 더불어 ITC 소송 과정에서 SK이노베이션이 보인 태도에 대해서도 꼬집었다. LG화학은 “현재 진행 중인 ITC 소송과 관련해 경쟁사는 LG화학 이직자들이 반출해간 기술자료를 절차에 따라 당연히 제출해야 됨에도 불구하고 정당한 사유 없이 거부하거나 지연시키는 행위를 반복하고 있다”며 “이에 대해서도 경쟁사가 성실하고 정정당당한 자세로 임해주기를 바란다”고 지적했다. 이번 SK이노베이션의 특허 침해 제소란 ‘강수’에 LG화학 역시 ‘강대강’으로 마주하는 모습이다. SK이노베이션과 LG화학 모두 기술유출 및 특허 침해 대상에 대해선 공개하지 않은 상태인만큼 쟁점 확인도 어려운 상태다. 이런 와중에 양사는 감정적인 문구를 담아 특허 침해 제소 및 공식입장 관련 보도자료를 내는 등 점점 갈등 수위를 높여가고 있다. 더욱이 SK이노베이션이 LG전자까지 소송 대상에 포함시킨 만큼 양 그룹간 갈등 확산 가능성도 배제할 수 없다. 이에 LG전자 관계자는 “구체적으로 제소 내용 파악한 뒤 대응하겠다”고 밝혔다. 특히 일본 수출규제 국면에서 이 같은 양사의 감정적인 대립이 격화되고 있어 우려하는 시각도 적지 않다. 배터리 소재를 많이 내재화했다고 하더라도 일부 핵심소재의 경우 여전히 일본 의존도가 높은 상황이다. 화학업계에선 국내 배터리산업을 이끄는 양사가 소모적인 전투를 벌이는 것에 대해 득보다 실이 많을 것으로 우려한다. 업계 관계자는 “일본 수출규제가 진행 중인 상황에서 대표 대기업 2곳이 싸우는 모습을 보인다면 여론도 부정적으로 되돌아올 수밖에 없다”며 “또한 최근 각국의 보호무역주의가 강화되고 있는 상황인만큼 국내 업체들이 전략적으로 뭉치지 않으면 살아남기 힘들다. 대승적인 화해가 필요하다”고 언급했다. 하지만 아직 양사는 기술유출 현안과 관련해 공식적이고 직접적으로 만남을 가지진 않은 것으로 알려졌다. 임수길 SK이노베이션 홍보실장은 “지금이라도 전향적으로 대화와 협력으로 문제를 해결하기 위해 노력하는 것이 더 생산적이라고 판단해 대화의 문은 항상 열고 있다”고 말했다. 이에 LG화학도 “만약 경쟁사에서 잘못을 인정하고 진정성 있는 사과 및 재발 방지를 약속하는 한편, 이에 따른 보상방안을 진지하게 논의할 의사가 있다면 언제든지 대화에 응할 것”이라고 답했다. 다만 ‘잘못인정, 사과 및 재발방지’를 전제한만큼 양사간 갈등 해소가 쉽진 않을 것으로 보인다. 자존심 싸움으로까지 번졌다는 이야기가 나오는 이유다. LG화학 관계자는 “30여년 동안 막대한 투자와 연구를 통해 축적한 핵심기술과 지식재산권 보호를 위해 모든 역량을 총 동원하고자 한다”며 “오랜 기간 연구개발과 투자를 통해 세계적인 배터리 업체가 된 LG화학과 같은 기업들의 핵심기술과 지식재산권을 보호하는 것이야말로 진정한 글로벌 소재 기업을 육성하는 지름길”이라고 밝혔다. 이어 “만약 후발업체가 손쉽게 경쟁사의 핵심기술 및 영업비밀을 활용하는 것이 용인된다면, 그 어떠한 기업도 미래를 위한 투자에 나서지 않을 것”이라며 “이는 곧 산업 생태계 및 국가 경쟁력 약화로 이어질 것”이라고 경고했다. 김정유 (thec98@edaily.co.kr) 네이버 홈에서 ‘이데일리’ 뉴스 꿀잼가득 , 청춘뉘우스~ ＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp;amp; 재배포 금지＞</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=008&amp;aid=0004270494&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=21</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>2700여가구 아파트 지어질 서울의 마지막 달동네 '이곳'</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>[머니투데이 유엄식 기자] [[생생부동산]노원구 달동네 ‘중계동 대장주’ 백사마을…2023년 말 완공 예정] “주변 아파트가 대부분 20년 이상된 노후 단지여서 재개발이 되면 거주 수요가 상당히 많을 것 같습니다” (노원구 중계동 A중개업소 대표) 재개발을 앞둔 노원구 중계동 백사마을은 1960년대 후반 서울 용산, 청계천, 안암동 등 도심 개발로 삶의 터전을 잃고 밀려난 철거민들이 불암산 밑자락 구릉지에 모여 형성된 마을이다. 마을 명칭은 과거 주소지(중계동 104번지)에서 비롯됐다. 강남구 개포동 구룡마을, 서대문구 홍제동 개미마을과 함께 ‘서울의 마지막 달동네’로 불린다. 연탄으로 난방을 하는 집이 많아 연말연시 유명인이나 기업체에서 연탄배달 봉사활동을 하는 장소로도 유명하다. 애초부터 허술하게 지은 집이 많은 데다, 50년 넘는 긴 세월의 풍파를 겪은 터라 마을 곳곳엔 구릉지를 따라 허물어져 가는 낡은 집과 사람이 살지 않는 빈집이 옹기종기 모여있다. 현장을 찾은 지난 27일에도 벽에 커다란 균열이 생겨 당장이라도 무너질 것 같은 위태로운 집들을 쉽게 볼 수 있었다. 일부 건물엔 ‘재난위험시설’ 안내 표지판도 붙어 있다. 이처럼 낙후된 변두리 마을이 재개발을 통해 지역에서 가장 깨끗하고 시설이 좋은 새집으로 채워진다. ◇10년 넘게 표류한 사업, 이번엔 속도낸다= 백사마을 재개발은 2008년 1월 그린벨트가 해제되면서 본격 논의됐다. 서울시는 2009년 5월 백사마을을 재개발 구역으로 지정했고 공영개발을 위해 한국토지주택공사(LH)가 사업 시행자로 선정됐다. 다른 재개발 구역처럼 아파트 중심 개발계획을 추진했으나 도시개발에서 ‘보존’을 중시하는 박원순 서울시장이 부임하면서 암초에 부딪혔다. 박 시장이 백사마을을 60~70년대 생활상을 살린 저층 주거지로 만들겠다는 개발계획을 발표한 뒤 용적률과 가구 수 감소로 사업성이 떨어질 것이란 논란이 확산됐고, 결국 손실을 우려한 LH가 2016년 시행사 자격을 포기하면서 사업이 원점으로 돌아갔다. 표류하던 재개발은 2017년 노원구가 서울주택도시공사(SH공사)를 새로운 사업 시행자로 지정하면서 다시 속도를 냈다. 신속한 재개발을 바라는 주민들은 서울시와 협의 끝에 아파트와 저층 주거지를 조화시킨 설계 ‘중재안’에 합의했다. 지난 5월 서울시 도시계획위원회 심의를 통과한 백사마을 재개발 정비계획안에 따르면 18만6965㎡ 규모 부지에 최고 20층 일반분양 아파트 2000가구와 임대주택 698가구(평균 4층 이하) 등 총 2678가구가 들어선다. 서울시는 골목길, 계단 등 1960~70년대 주거생활상을 보전하는 저층 임대주택을 짓기 위해 사업 부지 중 4만1651㎡를 매입키로 했다. 철거 전 마을 흔적을 보존하는 박물관도 지을 예정이다. 현재 사업시행인가를 위해 교통영향평가, 환경영향평가 등 행정절차가 진행되고 있다. 노원구청 관계자는 “서울시 건축심의 등 후속절차가 남아 있고 설계변경에 따라 가구 수는 조금 변동될 수 있지만 개발계획의 큰 그림은 협의됐기 때문에 사업 일정은 예정대로 추진될 것”이라고 말했다. ◇ 2023년 하반기 입주 예상…거주민 이주 속도= 사업 계획상 재개발 공사는 2021년 초에 시작된다. 예상 공사기간(최장 30개월)을 고려하면 2023년 하반기경 입주가 가능할 것으로 보인다. SH공사 관계자는 “지하 2층까지 뚫어야 하는데 지층이 암반이라 발파공법에 따라 준공 시점에 차이가 날 수 있다”며 “소음과 진동을 고려해 무진동 발파나 코어공법 등을 선택하면 일반 발파방식보다 공사기간이 더 필요한데 이런 점을 감안해도 착공 후 30개월 안에 완공이 가능할 것”이라고 말했다. 시공권을 놓고 대형 건설사들의 물밑 경쟁도 치열하다. 업계 안팎에선 현대건설, GS건설, 대우건설 등이 후보군으로 거론된다. 내년 상반기 사업시행인가 결정 전후로 시공사 윤곽이 드러날 전망이다. 재개발을 위한 이주도 속도를 내고 있다. 백사마을엔 원래 1000여 가구가 살았고 이 가운데 세입자가 절반이 넘었는데 이주가 진행되면서 현재 400여 가구만 남았다. 노원구는 재개발 이후 입주권이 없는 2007년 6월 이후 전입자 및 거주자에 대해서도 안전문제를 고려해 인근 임대주택 이주를 알선한다. 토지보상비를 포함한 총 사업비 규모도 곧 구체화될 예정이다. 중계본동 주택재개발정비사업 주민대표회의는 지난 26일부터 외부 감정평가기관에 의뢰해 마을 내 물건 및 세입자, 영업권 조사를 진행 중이다. 황진숙 주민대표회의 위원장은 “원래 가옥 소유주들은 관리처분, 세입자들은 사업시행인가 이후 이주가 가능한데 집 상태가 워낙 열악하고 붕괴사고가 우려돼 구청, SH공사 등 관계기관과 협의해 사전 이주를 진행 중이며 최근 150여 가구가 추가로 이사를 신청했다”고 말했다. 세입자들도 재개발 후 들어서는 임대주택에 입주하는 조건으로 이사 신청을 받고 있으며, 임시 거주 주택은 가급적 마을과 가까운 노원구로 배정하고 있다는 게 황 위원장의 설명이다. ◇은행사거리 학군 수요 흡수…일대 대장주 우뚝서나= 백사마을에서 약 1.5km 떨어진 중계동 은행사거리는 강남권 못지 않은 유명 학원가가 형성돼 주택 수요가 많고 집값도 비싼 편이다. 1990년대 지어진 구축 단지도 3.3㎡당 2500만원대에 거래돼 중계동 아파트 평균 시세(3.3㎡당 1760만원, KB국민은행 통계치)를 크게 웃돈다. 국토교통부 실거래가 통계에 따르면 1995년 준공된 ‘건영3차’ 전용 84㎡가 올해 7월 8억7500만원에 팔렸고, 1993년 준공된 인근 ‘대림벽산’ 전용 141㎡은 같은 달 10억원에 손바뀜했다. 백사마을에서 가까운 불암산 자락 단지들은 이보다 가격대가 낮다. 2005년 준공된 ‘한화꿈에그린’ 전용 84㎡는 5억5000만~6억원, 1999년 준공된 현대6차 전용 59㎡는 3억8000만~4억원 선에 시세가 형성돼 있다. 백사마을 재개발이 완료되면 신축 대단지 프리미엄이 반영돼 단숨에 주변 시세를 압도할 가능성이 높다는 게 일대 중개업소 관계자들의 설명이다. 신축 단지가 귀한 노원구에선 새아파트 가격이 많이 올랐다. 인근 상계뉴타운 4구역을 재개발해 2020년 1월 입주 예정인 ‘상계역 센트럴 푸르지오’ 전용 84㎡(22층) 입주권은 지난달 초 7억8125만원에 팔려 2년 전 일반분양가(5억6000만원) 대비 가격이 2억원 넘게 뛰었다. 유엄식 기자 usyoo@ &amp;lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=028&amp;aid=0002466458&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=22</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>GU 이어 유니클로, 새 점포 낸다</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>9월6일 엔터식스 안양역사점 개점 종로3가점·월계점 등 폐점했지만 임대계약 만료-쇼핑몰 리뉴얼 등 “개·폐점은 불매운동 전 확정” 지유, 두달새 2·3호점 잇달아 열어 일본제품 불매운동의 중심에 선 유니클로가 다음달 새 점포를 연다. 개점 계획은 한-일 무역전쟁 이전에 결정됐다는 게 유니클로 쪽 설명이다. 유니클로는 다음달 6일 경기 안양시에 엔터식스 안양역사점을 개점한다고 30일 밝혔다. 성인용, 아동 및 유아 제품 등 모든 라인이 들어선다. 다음달 6~8일에는 간절기 일부 상품에 대해 할인 행사를 진행하고, 5만원 이상 구매 고객에게는 선착순으로 텀블러를 증정한다고 덧붙였다. 최근 유니클로는 서울 종로3가점, 에이케이(AK)플라자 구로점, 이마트 월계점 등 3개 점포를 잇달아 폐점했다. 점포 임대계약 만료(종로3가점)나 쇼핑몰 폐점(구로점) 및 리뉴얼(월계점)에 따른 조처로, 지난달초 시작된 일본의 무역보복 및 이에 따른 일본산 불매운동과는 무관하다는 게 유니클로쪽 설명이다. 유니클로는 다음달 20일 스타필드시티 부천점 추가 개점을 계획하고 있다. 계열 브랜드 지유(GU)도 30일 롯데몰 용인 수지점에 2호점 문을 열고, 다음달 6일에는 서울 영등포구 타임스퀘어에 3호점을 개점할 예정이다. 유니클로는 지난달 11일 일본 본사인 패스트리테일링의 오카자키 다케시 최고재무책임자(CFO)의 “한국 불매운동이 장기적으로 매출에 영향을 줄 만큼 오래 가지 않을 것” 등 불매운동을 깎아내리는 발언으로 논란을 샀다. 이후 국내 법인 에프아르엘코리아를 통해 비공식적으로 사과의 뜻을 표명했다가 비난 여론이 거세지자 일본 본사도 동참해 사과문을 냈다. 현소은 기자 soni@hani.co.kr [ⓒ한겨레신문 : 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011049643&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=23</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>일본, 불화수소 첫 수출허가…정부 "일희일비 안한다"</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>앞서 포토레지스트는 두차례 수출허가…日정부 "수출허가 확인 못 해줘" (서울·도쿄=연합뉴스) 김성진 고은지 기자·이세원 특파원 = 일본이 지난달 초 수출 규제 조치 이후 처음으로 고순도 불화수소(에칭가스) 수출을 허가한 것으로 29일 확인됐다. 그동안 수출이 제한된 반도체·디스플레이 소재 3대 품목 가운데 포토레지스트(감광액) 수출은 일본이 두차례 허가했지만, 불화수소는 처음이다. 산업통상자원부 당국자는 "오늘 일본이 불화수소 가스 수출 한건을 허가한 사실을 업계에서 확인했다"고 밝혔다. 수출 허가 신청은 일본이 수출 규제에 들어간 지난달 4일 전후로 알려졌으며, 정확한 수출물량과 순도는 아직 확인되지 않았다. 이번 불화수소를 수입하는 기업은 삼성전자인 것으로 알려졌다. 불화수소는 반도체 제조 공정에서 회로를 새길 때 사용하는 필수 소재이다. 삼성전자와 SK하이닉스 등 국내 반도체 기업에서 포토레지스트와 함께 확보에 주력했던 소재이기도 하다. 다만 일본 정부는 수출허가에 대한 사실관계 확인을 거부했다. 일본 경제산업성 관계자는 한국에 대한 불화수소 수출을 허가했느냐는 연합뉴스의 질의에 "우리는 그런 사실을 발표하지 않았다. 개별 회사에 관련된 정보를 우리가 공표하는 것은 기본적으로 없다"고 답했다. 이어 일본 정부가 한국에 대한 불화수소 수출을 허가했다는 정보가 사실인지 여부를 확인해줄 수 없다고 덧붙였다. 일본의 불화수소 수출허가 조치에도 이를 일본의 입장이 전면적으로 선회했다고 볼 수 없다는게 대체적인 관측이다. 정부 당국자는 "이번에 또 불화수소를 한 건 허가해줬다고 해서 일희일비할 사안은 아니다"라면서 "한국 정부 입장은 수출 규제를 무조건 철회하라는 것"이라고 선을 그었다. 다른 관계자도 "일본 언론에서도 수출규제로 일본이 세계무역기구(WTO)에 제소되면 수출허가를 안 내준 것 때문에 불리할 수 있다는 점이 거론됐다"라면서 "패소를 염두에 둔 조치로 보이며 전반적 기조는 변한 것이 없다고 본다"고 말했다. 국제사회에 수출 금지가 아닌 정상 수출 규제임을 강조하려는 일본 정부의 명분 쌓기일 가능성을 배제할 수 없다는 것이다. 앞서 일본은 지난달 수출 규제 조치 이후 7일 포토레지스트 수출을 허가했고, 19일에 추가로 포토레지스트 수출을 승인했다. 이로써 최장 90일의 개별허가 심사 대상인 3대 품목 가운데 플루오린 폴리이미드만 아직 수출 허가가 나지 않았다. 일본에서 지난 7월 한 달간 한국으로 수출된 고순도 불화수소는 수출규제 영향으로 전월과 비교해 80% 넘게 감소한 것으로 나타났다. 일본 재무성이 발표한 7월 품목별 무역통계에 따르면 반도체 세정 공정에 사용하는 불화수소의 지난달 한국 수출량은 479t으로, 전월 대비 83.7%가 급감했다. 불화수소는 일본 정부가 군사용도로 전용될 가능성이 있다며 수출규제 강화의 근거로 삼았던 품목이다. 이 때문에 수출허가 가능성이 더 낮을 것으로 관측됐다. 문병기 무역협회 수석연구원은 "당초 합당한 근거를 밝히지 않았던 일본 정부가 계속해서 수출을 지연시키기는 부담스러웠을 것"이라며 "게다가 한국이 발빠르게 수입국 다변화를 꾀하고 국산화에 나서자 일본 수출기업이 어려움에 처할 수 있는 점을 종합적으로 고려한 것으로 보인다"고 말했다. 한국과 대화와 협상 여지를 조금씩 넓히면서도 향후 협상에서 우위를 점하려는 의도로도 해석된다. sungjin@yna.co.kr, eun@yna.co.kr, sewonlee@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=022&amp;aid=0003393560&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=24</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>SK·LG ‘배터리 소송전’… 그룹 간 전면전으로 격화</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>“총수 담판해야 할 듯, 청와대도 곤혹” 최태원 SK그룹 회장(오른쪽)과 구광모 LG그룹 회장이 지난 1월 2일 오전 서울 여의도 중소기업중앙회 그랜드홀에서 열린 2019 기해년 신년회에서 만나 악수하고 있다 연합뉴스 SK이노베이션이 LG화학과 LG전자에 대한 ‘특허침해’ 제소를 공식화했다. LG화학이 지난 4월30일 ‘영업비밀침해’로 SK이노베이션에 대해 소송을 제기한 지 정확히 4개월 만이다. 이에 대해 LG도 그간 자제해온 특허침해 제소를 검토하겠다고 발표했다. 자동차용(중·대형) 배터리를 둘러싼 양사 간 갈등에 별건 소송이 쌓이고 소송 대상도 다른 계열사로 확대되면서 재계 3, 4위 그룹사가 맞붙는 ‘전면전’ 양상이다. 정부도 청와대 고위급까지 중재에 나섰지만 양측을 마주 앉히는 데에 실패했다. 사태를 이대로 둬서는 안 된다는 여론이 고조될 것으로 보인다. SK이노베이션은 30일 LG화학과 LG화학의 미국 내 자회사인 LG화학 미시간(LG Chem Michigan Inc.)을 미국 국제무역위원회(ITC)와 연방법원에, LG전자는 연방법원에 각각 제소한다고 밝혔다. 4대그룹 총수 한자리에 이재용 삼성전자 부회장(왼쪽부터)과 최태원 SK그룹 회장, 정의선 현대차그룹 수석부회장, 구광모 LG그룹 회장이 지난 1월 2일 서울 여의도 중소기업중앙회에서 열린 문재인 대통령 초청 신년회에 참석해 환담을 나누고 있다. 4대그룹 총수가 청와대 주최 공식행사에 함께 참석하기는 이번이 처음이다. 청와대사진기자단 SK이노베이션은 LG화학과 LG화학 미국 법인에 대해 “배터리 사업의 직접 경쟁사로 자사의 특허를 침해했다”고 밝혔다. LG전자까지 소송 대상이 된 것에 대해서는 “LG전자가 LG화학으로부터 배터리 셀을 공급받아 배터리 모듈과 팩 등을 생산, 판매해 부득이 하게 동시 제소할 수 밖에 없었다”고 설명했다. SK이노베이션은 이날 침해된 특허가 무엇인지, 연방법원이 어느 지역인지 밝히지 않았다. 이 회사 관계자는 “해당 정보는 소송에서 중요하다. 접수 완료 때 공개할 것”이라며 “프리뷰 등 실무절차가 7근무일쯤 걸린다”고 말했다. 지난 4월 LG화학은 ‘배터리 핵심 인력을 빼가 영업비밀을 침해했다’면서 SK이노베이션을 상대로 미 ITC와 델라웨어 지방법원 소송을 제기했다. 이에 맞서 SK이노베이션은 6월 서울중앙지법에 LG화학을 상대로 하는 ‘채무부존재(영업비밀 침해 없음) 확인’과 ‘명예훼손 손해배상’ 소송을 제기했다. ‘해외 제소는 국익 훼손’, ‘기술 탈취를 덮는 게 국익 훼손’ 등 거친 설전도 이어졌다. 이날 발표로 SK는 예고해온 대응을 시작했다. SK이노베이션 배터리사업 윤예선 대표는 “그간 LG 측이 자사 특허를 침해했다고 인지했는데도 국내 기업 간 선의의 경쟁과 산업 생태계 발전을 위해 대승적으로 해결하려고 다양한 노력을 했으나 성사되지 않았다”며 “더 이상 지체할 수 없어 강경 대응으로 선회했다”고 말했다. SK이노베이션은 LG화학과 LG전자가 ‘특허침해를 바탕으로 부당한 이득을 챙겼다’고 보고 있다. 나아가 “LG화학은 영업비밀을 침해했다고 주장만 할뿐 구체적인 침해 내용을 밝히지 않는 ‘아니면 말고 식’ 소송을 제기했다”고 비판했다. 특히 SK이노베이션은 “LG화학이 생산하는 배터리 중 많은 부분이 특허 침해에 해당돼, 생산 방식을 바꾸지 않는다면 대체가 불가능할 것”이라고 주장했다. 이어 “생산 방식은 단기간에 바꿀 수 없기 때문에 SK이노베이션이 승소하면 LG화학 배터리 사업 자체가 흔들릴 수 있다”고도 지적했다. 양사 감정의 골이 어떤 수준인지 보여주는 대목이다. 4대그룹사가 속된 말로 이처럼 ‘치고박는’ 것도 이례적이지만 상대 사업의 ‘종말’을 언급하는 것은 수위가 보통 높은 발언이 아니다. LG화학의 첫 제소 이후, LG화학이 승소하면 조단위를 투입해 이제 갓 착공한 SK이노베이션의 미국 조지아주 공장의 ‘문을 닫아야 할 수 있다’는 관측이 나오면서 격분한 것으로 해석된다. 상대가 자사 미래사업과 핵심시장을 타격하려 한 것으로 보고 그 이상의 보복으로 맞대응에 나섰다고 볼 수 있는 것이다. 최태원 SK 회장(왼쪽)이 지난 2018년 9월 19일 오후 평양 옥류관에서 열린 오찬에 앞서 이재용 삼성전자 부회장(오른쪽부터), 이재웅 쏘카 대표, 구광모 LG 회장의 기념사진을 찍어주고 있다. 다만, SK이노베이션 임수길 홍보실장(전무)은 “LG화학·전자는 소송 상대 이전에 국민 경제와 산업 생태계를 건강하게 발전시키기 위해 협력해야 할 파트너로서 의미가 더 크다는 게 SK 경영진의 생각”이라며 “언제든 대화와 협력으로 해결할 준비가 돼 있다”고 밝혔다. 공을 LG 측에 넘긴 셈이다. 하지만 LG화학은 입장문을 통해 “경쟁사가 소송에 대한 불안감 및 국면 전환을 노리고 불필요한 특허침해 제소를 한 것에 대해 매우 유감스럽게 생각한다”며 “잘못을 인정하고 진정성 있는 사과와 재발 방지 약속, 이에 따른 보상방안을 진지하게 논의할 의사가 있다면 언제든 대화에 응할 것”이라고 일축했다. LG화학은 “양사 특허 수가 14배 이상 격차를 보인다”며 “경쟁사가 면밀한 검토를 통해 사안의 본질을 제대로 인지하고 소송을 제기한 것인지 매우 의문스럽다”고 지적했다. 양사 특허 수는 3월말 현재 LG화학 1만6685건, SK이노베이션 1135건 수준이다. LG화학은 “그간 여러 상황을 고려해 특허권 주장을 자제했다”며 “이제는 경쟁사의 특허침해 행위도 더는 묵과하지 않고 법적조치를 검토하겠다”고 강조했다. LG의 한 관계자는 “정부와 여론을 압박해 사태를 흐지부지 끝내려는 의도로 판단한다”며 “30년간 피땀으로 개발해온 원천기술을 후발업체가 손쉽게 활용하는 것은 용인돼선 안 된다”고 밝혔다. 이 관계자는 “ITC는 결과도 빨리 나오는 편이다. 조용히 결과를 기다려 가릴 것은 가리는 게 서로 좋다”며 “SK가 조사에서 혐의를 벗으면 기술력을 인정받는 것 아니냐”고 반문했다. 정부는 지난 넉달 간 산업통상자원부는 물론 청와대까지 중재를 자임한 것으로 알려진다. 하지만 양측 입장 차가 워낙 큰 데다, 양사는 정부를 통한 간접 소통 과정에서 서로의 태도에 격분하는 등 감정의 골만 깊어진 것으로 전해졌다. 지난 2018년 9월 18일 경기도 성남 서울공항에서 제3차 남북정상회담 특별수행단으로 동행하는 구광모 LG 회장(오른쪽부터), 최정우 포스코 회장, 문정인 대통령 통일외교안보 특별보좌관, 최태원 SK 회장이 평양으로 향하는 전용기에 탑승하고 있다. 따라서 한동안 ‘강대강’ 국면으로 치달을 것이 불가피해 보인다. 법률비용도 천문학적이다. 법조계 관계자는 “국내외에서 동시다발로 제소가 진행돼 양측이 도합 1000억원은 썼을 것”이라며 “추가 제소는 또 그만큼 비용이 추가될 것”이라고 밝혔다. LG화학은 최근 영업비밀 침해 건의 대표 법률대리인을 기존 ‘덴튼스US’에서 ‘레이섬&amp;amp;왓킨스’로 교체했다. 레이섬&amp;amp;왓킨스는 글로벌 2위 규모의 미국계 로펌이다. 법조계 관계자는 “글로벌 톱클래스 로펌은 착수금과 성공보수를 제외하고도 월 40억∼50억원은 지급해야 한다”고 전했다. 이번 사안에 정통한 한 관계자는 “최태원 회장과 구광모 회장이 직접 담판을 짓지 않는 한 해결이 여의치 않을 것 같다”고 분위기를 전했다. 조현일 기자 conan@segye.com ⓒ 세상을 보는 눈, 세계일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=005&amp;aid=0001234331&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=25</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>“일본, 삼성전자에 불화수소 1건 수출 허가”</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>일본이 지난달 초 수출 규제 조치 이후 처음으로 고순도 불화수소(에칭가스) 수출을 허가했다. 그동안 수출이 제한된 반도체·디스플레이 소재 3대 품목 가운데 포토레지스트(감광액) 수출은 일본이 2차례 허가했지만, 불화수소는 처음이다. 일본이 불화수소 가스 수출 1건을 허가한 사실을 산업통상자원부가 전날 확인한 것으로 30일 알려졌다. 수출 허가 신청은 일본이 수출 규제에 들어간 지난달 4일 전후로 알려졌으며, 정확한 수출물량과 순도는 아직 확인되지 않았다. 이번 불화수소를 수입하는 기업은 삼성전자인 것으로 전해졌다. 불화수소는 반도체 제조 공정에서 회로를 새길 때 사용하는 필수 소재이다. 삼성전자와 SK하이닉스 등 국내 반도체 기업에서 포토레지스트와 함께 확보에 주력했던 소재이기도 하다. 하지만 일본 정부는 수출허가에 대한 사실관계 확인을 거부했다. 일본 경제산업성 관계자는 일본 정부가 한국에 대한 불화수소 수출을 허가했다는 정보가 사실인지 여부를 확인해줄 수 없다고 했다. 일본의 불화수소 수출허가 조치에도 이를 일본의 입장이 전면적으로 선회했다고 볼 수 없다는 게 대체적인 관측이다. 국제사회에 수출 금지가 아닌 정상 수출 규제임을 강조하려는 일본 정부의 명분 쌓기일 가능성을 염두에 두고 있다. 앞서 일본은 지난달 수출 규제 조치 이후 7일 포토레지스트 수출을 허가했고, 19일에 추가로 포토레지스트 수출을 승인했다. 이로써 최장 90일의 개별허가 심사 대상인 3대 품목 가운데 플루오린 폴리이미드만 아직 수출 허가가 나지 않았다. 일본에서 지난 7월 한 달간 한국으로 수출된 고순도 불화수소는 수출규제 영향으로 전월과 비교해 80% 넘게 감소한 것으로 나타났다. 일본 재무성이 발표한 7월 품목별 무역통계에 따르면 반도체 세정 공정에 사용하는 불화수소의 지난달 한국 수출량은 479t으로, 전월 대비 83.7% 급감했다. 강주화 기자 rula@kmib.co.kr GoodNews paper ⓒ , 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011050328&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=26</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>두달만의 日불화수소 수입…들쭉날쭉 허가에 불확실성 더 높아져</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>업계 급한 불 껐지만…다른 신청 언제 허가 받을지 '안갯속' (서울=연합뉴스) 고은지 기자 = 일본이 반도체 소재 3개 품목에 대한 수출규제를 단행한 지 약 두 달 만에 고순도 불화수소(에칭가스)의 대(對)한국 수출을 허가했다. 또 다른 규제 품목인 포토레지스트(감광액)는 약 한 달여만인 지난 7일과 19일 2건을 허가했고, 다른 수출 신청 건에 대해서는 언제 허가를 내려줄지 미정이다. 대한국 수출을 금지한 것은 아니지만, 이처럼 수출허가 기간이 들쭉날쭉해지면서 업계 불안감이 커지고 있다. 30일 정부와 업계에 따르면 일본이 지난달 4일부터 에칭가스, 포토레지스트, 플루오린 폴리이미드 등 반도체 소재 3개 품목에 대한 수출규제를 단행한 이후 현재까지 포토레지스트 2건과 에칭가스 1건이 수출허가를 받았다. 포토레지스트는 이미 한국에 들어왔고 에칭가스도 곧 통관을 거쳐 한국으로 수입될 예정이다. 일본은 수출규제를 발표할 당시 정상적인 용도의 수출에 대해서는 허가를 내줄 방침을 밝혔다. 개별허가 수출 허가 소요 기간이 통상 90일이다. 글로벌 반도체 시장조사업체 디램익스체인지는 지난 1일 반도체 시장 전망 보고서에서 삼성전자와 SK하이닉스는 2.5개월 정도의 에칭가스 재고를 보유하고 있다고 밝혔다. 이르면 다음주 초 일본산 에칭가스를 받을 수 있기 때문에 업계로서는 급한 불은 끈 셈이다. 하지만 일본이 이번처럼 포토레지스트는 한 달, 에칭가스는 두 달 만에 또 허가를 내준다고는 장담할 수 없다. 개별허가 승인 여부는 전적으로 일본에 달렸고 언제 허가를 내줄지도 신청 건마다 다를 수 있기 때문이다. 정부 관계자는 "일본의 개별허가 신청 소요 기간은 품목마다, 기업마다, 나라마다 다르다"면서 "이번에 수출허가가 났다고 해서 다음번에도 비슷한 기간에 수출허가가 난다는 보장은 없다"고 말했다. 에칭가스, 포토레지스트와 함께 규제 품목으로 지정한 플루오린 폴리이미드는 아직 1건도 허가를 받지 못했다. 오히려 이번 수출허가는 일본이 한국으로부터 세계무역기구(WTO)에 제소당할 것을 대비해 대응 논리를 세우기 위해 전략적으로 택했을 가능성이 크다. 추후 한국이 일본을 WTO 규정 위반으로 제소할 경우 일본은 이번 수출허가 사례를 들어 민간용 수출은 정상적으로 이행하고 있기 때문에 자유무역 원칙에 위배되지 않는다는 식으로 주장할 수 있다. 한국 기업으로서도 불확실성은 여전하다. 포괄허가를 받던 때와 달리 일본산 반도체 소재를 수입하기까지 소요되는 시간을 예측하기 어려워지면서 재고를 얼마나 확보해야 할지, 언제 재신청을 해야 할지 등을 결정하기가 쉽지 않기 때문이다. 자칫 제때 수입이 이뤄지지 않으면 생산에 차질을 겪을 우려도 있다. 일본이 한국을 백색국가에서 제외함에 따라 식품과 목재를 제외한 거의 모든 품목이 포괄허가에서 개별허가 대상으로 바뀐 지난 28일 이후 기존 반도체 소재 3개 품목 외에 대일본 수입에 어려움을 겪는다는 보고는 들어오지 않은 것으로 확인됐다. 다만 아직 시간이 얼마 지나지 않은 만큼 다른 품목에서도 수입 차질이 빚어질지는 조금 더 지켜봐야 한다. 정부 관계자는 "일단 일본 자율준수프로그램(ICP·Internal Compliance Program) 기업과 거래하는 한국 기업은 별다른 문제 없이 수입할 수 있을 것으로 본다"며 "그렇지 않은 기업은 ICP 기업과 거래를 트는 것이 유리하다"고 말했다. eun@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=011&amp;aid=0003611522&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=27</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>[속보] 이주열 “2.2% 성장률 달성 어려울수도···대외리스크 커져”</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>[서울경제] [속보] 이주열 “2.2% 성장률 달성 어려울수도···대외리스크 커져” | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=081&amp;aid=0003025282&amp;date=20190830&amp;type=0&amp;rankingSectionId=101&amp;rankingSeq=28</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>LG전자 ‘먼지 논란’ 의류건조기 145만대 전량 무상수리</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>[서울신문] 한국소비자원은 29일 최근 논란이 된 LG전자의 콘덴서 자동세척 의류건조기에 대해 시정권고를 내렸다. LG전자 측은 2016년 4월부터 최근까지 판매된 ‘트롬 듀얼 인버터 히트펌프 건조기’ 145만대 전량에 대해 무상수리 조치를 한다고 밝혔다. 소비자원은 해당 건조기의 콘덴서에 먼지가 쌓이고 악취가 난다는 사례가 소비자위해감시시스템(CISS)에 다수 접수되자 현장 검검을 했다. 해당 제품을 사용하는 가구 50곳을 대상으로 지난달 23일부터 18일 동안 점검한 결과 11대(22%)가 콘덴서 전면 면적의 10% 이상에 먼지가 끼어 있는 것으로 나타났다. 나머지 39대(78%)는 전면 면적의 10% 미만에 먼지가 쌓였다. 장진복 기자 viviana49@seoul.co.kr ▶ ▶ ▶ 공짜로 만화를 볼 수 있다? 당신의 ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=009&amp;aid=0004419631&amp;date=20190830&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=29</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>연금특위 10개월 허송…총선앞둔 국회서도 공전 불가피</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>30일 경제사회노동위원회(경사노위) '국민연금개혁과 노후소득보장특별위원회(연금개혁특위)'가 약 10개월간 논의한 끝에 국민연금 개혁에 관한 권고안을 마련했지만, 실제 연금개혁이 이뤄질지는 여전히 불투명하다. 내년 총선을 앞두고 있는 상황에서 국회가 국민 저항을 불러일으킬 게 불 보듯 뻔한 연금개혁안을 구체적으로 논의할 가능성은 지극히 낮기 때문이다. '단일안'이 아닌 '복수안'으로 권고안을 제시한 점도 개혁의 추동력을 약화시킨다는 분석이 나온다. 설령 합의안(다수안·가안)대로 제도를 개혁하더라도 국민연금 기금 재정 악화 문제는 여전히 남게 된다. 이날 경사노위 연금개혁특위에서 다수안으로 채택된 '가'안은 소득대체율을 45%에서 고정시키고, 보험료율을 향후 10년간 3%포인트 인상해 12%까지 올리는 안이다. 소득대체율이란 가입자가 40년간 국민연금에 가입해 보험료를 납부했을 때 평균 소득 대비 추후 수령하게 되는 노령연금액 비율을 말한다. 가령 한 가입자의 가입기간 중 평균 소득이 월 300만원이고, 소득대체율이 45%라면 나중에 노령연금으로 월 135만원(300만원×45%)을 받게 되는 것이다. 제도 시행 초기인 1988년 70%였던 소득대체율은 1999년과 2007년 1·2차 연금개혁을 거치면서 2008년 50%에서 매년 0.5%포인트씩 더 낮춰 2028년에는 40%까지 낮아지도록 설계해놨다. 연기금의 재정건전성을 강화해 연금 제도의 지속 가능성을 담보하기 위한 것이다. 이날 연금개혁특위에서 내놓은 다수안은 올해 기준 45%인 소득대체율을 더 이상 낮추지 않겠다는 방안이다. 적정 수준에서 국민 노후소득을 보장하기 위해 사실상 소득대체율을 올리겠다는 얘기다. 이대로라면 국민연금의 재정건전성은 현재보다 더욱 악화된다. 경사노위 연금개혁특위의 다수안은 지난해 말 보건복지부가 발표한 '제4차 국민연금종합운영계획안'에 있는 3안과 정확히 일치한다. 당시 정부안에는 △현행 유지 방안(1안) △기초연금 강화 방안(2안) △노후소득 보장 강화 방안①(3안) △노후소득 보장 강화 방안②(4안) 등 4개 정책 조합이 담겨 있었다. 소득대체율을 45%에서 묶어놓고 대신 보험료율은 2021년을 시작으로 2031년까지 5년마다 1%포인트씩 인상하겠다는 게 3안이다. 당시 복지부의 재정추계에 따르면 3안으로 제도 개혁을 단행할 때 연기금 고갈 시기는 2063년이다. 지난해 8월 국민연금 재정추계위원회가 현상 유지를 바탕으로 실시한 재정추계 결과(2057년 연기금 소진)보다 6년 정도 늦춰지는 것이다. 그럼에도 불구하고 연기금이 고갈돼 후세대에 지급할 연금 곳간이 비는 것은 마찬가지다. 이 같은 권고안에 대해 지난해 국민연금 제도발전위원장을 맡았던 김상균 서울대 사회복지학과 명예교수는 "문재인정부가 말하는 연금개혁은 재정안전성을 강화하는 개혁이 아닌 듯하다"고 꼬집었다. 이날 경사노위 연금개혁특위는 소득대체율·보험료율 조정안 외에도 △군복무·출산 크레디트 확대 △국가 지급보장 명문화 △보험료 지원(두루누리) 확대 △기초연금 대상 범위 확대 △국민연금 가입기간에 따른 기초연금액 삭감 제도 폐지 등 다른 제도 개선 방안에 대해서도 합의했다. 합의안에는 보험료 납부 없이 국민연금 가입기간(12개월)을 인정해주는 출산 크레디트를 현 둘째 아이에서 첫째 아이까지 적용하는 내용을 포함했다. 또 5인 미만 영세사업장에 대한 지원도 강화하기를 권고했다. 또 다른 공적연금인 기초연금은 지급 대상 범위를 소득 하위 70% 노인에서 그 이상으로 확대하는 방안이 담겼다. 국민연금(노령연금) 수령액이 기초연금 기준연금액(25만원)의 1.5배가 넘으면 기초연금액 일부를 삭감하는 제도를 폐지하는 방안도 담았다. 국민연금 국가 지급보장 명문화 방안도 포함됐다. 추후 연금 곳간이 바닥날 경우 공무원연금이나 군인연금 등 다른 직역연금처럼 국가재정으로 충당하는 것을 의미하는 것이라 향후 국회 논의 과정에서 논란이 예상된다. 재정건전성 강화를 위해 한국경영자총협회가 제안했던 '퇴직금 전환제'(퇴직금 일부를 국민연금 보험료로 활용하는 것)는 특위 내 노동계와 시민단체 대표들의 반대로 이번 합의안에 반영되지 않았다. 경영계는 곧바로 반발했다. 글로벌 무역전쟁과 한일 갈등으로 안 그래도 상황이 좋지 않은데, 이번 정부 들어 이처럼 경영 환경을 악화시키는 요인까지 늘고 있어 기업 부담이 너무 커지고 있다는 항변이다. 경총은 이날 성명서를 내고 "보험료 추가 인상을 감당할 여력이 전무하다"며 "연금개혁 논의에 국민연금의 순수 부담 주체인 기업 입장을 제일 중요하게 고려해야 한다"고 촉구했다. 장지연 경사노위 연금개혁특위 위원장은 "권고안을 기반으로 국회가 대업을 추진해 나가길 바란다"고 말했다. 이날 특위가 발표한 권고문은 대통령과 국회 등에 보고될 예정이다. [연규욱 기자] [ⓒ 매일경제 &amp;amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=008&amp;aid=0004270209&amp;date=20190829&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=21</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>'포에버21' 파산 위기 왜? 접시 닦던 한인부부 성공, 그 후…</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>[머니투데이 유희석 기자] [자금난에 파산신청 검토중…온라인쇼핑 시대 적응 못 해 매장 등 구조조정 불가피…오너家, 경영권은 유지할 전망] 20대 젊은 부부가 함께 미국으로 가 수십년 뒤 수조원대 자산을 일군 성공신화가 막을 내릴 조짐이다. 블룸버그통신은 미국 패스트패션 의류업체 '포에버21'이 법원에 파산보호를 신청하는 방안을 준비 중이라고 28일(현지시간) 관계자를 인용해 보도했다. 한때 최신 패션을 빠르게 선보이며 세계가 주목하는 의류업체로 성장했지만, 전자상거래 등 새로운 시대에 적응하지 못하면서 경영난에 빠진 것으로 보인다. ◇재미교포 부부의 성공신화= '영원한 21세를 위한 옷'이라는 뜻을 가진 포에버21은 1981년 미국 캘리포니아에 이민 온 장도원·장진숙 부부가 설립한 의류 회사다. 장씨 부부는 1984년 로스앤젤러스 피게로아 거리에 '패션 21'이라는 이름의 첫 의류판매장을 열었는데, 83㎡ 크기에 불과했던 이 작은 옷가게가 나중에 세계 40여 개 나라에서 800곳 이상의 매장을 운영하는 미국의 5대 의류회사로 성장했다. 옷가게를 차리기 위해 주유소 종업원과 건물 경비원, 접시닦이 등 닥치는 대로 일하며 돈을 모아야 했을 정도로 가난했던 두 사람은 현재 자산 규모 수조원의 억만장자가 됐으며, 미주 한인 최초로 미국 100대 부자에 이름을 올렸다. 1995년 이전까지 캘리포니아를 벗어나지 못하던 포에버21도 미네소타주의 몰오브아메리카에 매장을 연 것을 시작으로 전국구 회사로 발돋움했으며, 이후 세계 시장에도 성공적으로 진출했다. 포에버21은 아베크롬비앤드피치, 아메리칸어패럴 등과 함께 미국을 대표하는 의류 회사로 성장한 이후에도 덩치 키우기에 주력한다. 백화점 체인인 머빈스와 고츠초크스 등이 문을 닫자 매장을 인수하고, 메이시스 백화점으로부터 LA의 본사 건물을 3800만달러(약 462억원)에 사들였다. 다른 업체들이 비용 절감을 위해 동남아시아 등지에서 제품을 생산할 때 '품질'을 이유로 미국 생산 비중을 60% 이상으로 유지했다. ◇비대해진 몸집에 발목 잡힌 경영= 영광은 짧았고 고통은 길었다. 포에버21일 대기업으로 성장했지만, 내실이 부족했다. 몸집이 비대해지면서 최신 유행을 선도하지 못했고, 소비자의 외면을 받았다. 설상가상 매장 규모를 넓히는 등 많은 투자를 했는데, 전자상거래가 활성화하면서 수익률이 떨어졌다. 경영난에 재무구조도 약해져 갔다. 포에버21은 결국 지난 2월 메이시스로부터 샀던 본사 건물을 투자회사 블랙스톤에 다시 매각했다. 가격은 1억6600만달러(약 2000억원). LA타임스는 "인스타그램 등 소셜미디어가 없던 시절, 포에버21은 10대 소녀들이 저렴한 비용으로 그들이 좋아하는 유명인처럼 옷을 사 입을 수 있게 해주는 회사였다"면서 "지금은 소비자에게 외면받는 개성 없는 옷을 대량으로 찍어내는 덩치 큰 기업으로 전락했다"고 지적했다. 시장은 이제 포에버21의 파산을 기정사실로 받아들이는 분위기다. 단지 장 회장 일가가 파산 이후에도 경영권을 유지할 수 있는지에 관심이 쏠린다. 블룸버그는 "아직 포에버21이 자금조달에 성공할 가능성은 남아 있지만, 장 회장 일가가 지배지분을 포기하지 않아 협상이 교착상태"라며 "설사 법정관리에 들어가더라도 기존경영자관리인제도(DIP)를 통해 경영권을 유지할 수 있다"고 전했다. 유희석 기자 heesuk@mt.co.kr &amp;lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=032&amp;aid=0002960027&amp;date=20190829&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=1</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>[속보] 이재용 2심 파기환송에···삼성 “대단히 송구, 과거 잘못 되풀이 않겠다”</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>삼성전자는 이재용 부회장의 국정 농단 뇌물 혐의와 관련한 대법원의 29일 선고와 관련, “국민 여러분께 심려를 끼쳐드려 대단히 송구스럽게 생각한다”며 “앞으로 저희는 과거의 잘못을 되풀이하지 않도록 기업 본연의 역할에 충실하겠다”고 밝혔다. 삼성전자는 이날 대법원의 파기 환송 선고가 내려진 뒤 이같은 내용을 담은 입장문을 언론에 배포했다. 삼성전자는 “저희 삼성은 최근 수년간, 대내외 환경의 불확실성으로 인해 적지 않은 어려움을 겪어 왔으며, 미래산업을 선도하기 위한 준비에도 집중할 수 없었던 게 사실”이라며 “갈수록 불확실성이 커지는 경제 상황 속에서 삼성이 위기를 극복하고 국가경제에 이바지할 수 있도록 많은 도움과 성원을 부탁 드린다”고 밝혔다. 이날 대법원은 이 부회장에게 징역 2년6개월, 집행유예 4년을 선고한 2심 판결을 파기 환송해 서울고등법원으로 돌려보냈다. 임지선 기자 vision@kyunghyang.com ▶ ▶ ▶ ©경향신문(www.khan.co.kr), 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=015&amp;aid=0004200548&amp;date=20190829&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=2</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>LG전자, 건조기 사태 해결 나섰다…145만대 전량 '무상수리'</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>LG전자가 자동세척 기능 논란이 불거진 '트롬 듀얼인버터 히트펌프 건조기' 145만대 전량을 무상 수리하기로 했다. 한국소비자원 시정 권고에 따른 조치다. 이용자들은 문제가 된 건조기의 기존 부품을 개선된 부품으로 무상 교체 받을 수 있게 됐다. 한국소비자원은 LG건조기의 '콘덴서 자동세척' 기능이 제대로 작동하지 않는다는 소비자들 불만이 접수된 후 약 한 달간 실사용 가구 건조기 50대에 대한 현장점검 등 사실조사를 실시했다. 현장점검 결과 소비자원은 △소형건조기(8~ 9kg)보다 14·16kg 용량 대형건조기에 먼지 쌓이는 정도가 심하고 △콘덴서 먼지 축적 방지 장치가 미흡했으며 △잔존수로 인해 청결상태가 불량하고 인접한 금속부품이 부식되기 쉽다는 결론을 도출했다. 콘덴서 먼지 축적 방지 장치의 경우도 소형건조기보다 대형건조기가 더 미흡했다. 대형건조기는 필터가 아닌 다른 경로로 먼지가 유입되는 것을 방지하는 장치가 없기 때문으로 분석됐다. 소형건조기에는 필터 결착부위에 고무재질 실링(Sealing)이 처리돼 있어 본체와 필터 사이의 틈으로 먼지가 유입되는 것을 방지할 수 있었다. 하지만 대형건조기는 실링 처리가 돼 있지 않아 먼지 유입이 용이한 구조라고 소비자원은 지적했다. 악취를 유발할 가능성이 있는 잔존수는 소형·대형건조기 모두 비슷한 수준이었다. 소형·대형 모두 약 300㎖에서부터 700㎖ 이상으로 추정되는 상당량의 물이 내부 바닥에 남아 있었다. 소비자원 관계자는 "바닥 잔존수는 세척에 활용된 응축수로서 먼지 등과 섞여 미생물 번식·악취 발생의 가능성이 있다"며 "건조과정에서 새로 발생한 응축수와 혼합됨에 따라 오염된 물로 콘덴서 세척이 이루어질 우려가 있다"고 설명했다. 잔존수로 건조기 내부가 상시 습한 상태로 유지돼 금속 재질 구리관과 엔드플레이트의 부식을 가속화할 가능성도 있는 것으로 추정했다. 다만 녹 가루가 건조기 통 내부로 유입될 가능성은 희박하다고 소비자원은 판단했다. 이에 소비자원은 LG전자에게 △콘덴서에 먼지가 쌓이는 현상을 방지할 수 있는 방안 △제품 내 잔존수 최소화 방안 △녹 발생으로 인한 제품성능 저하 발생시 조치 방안을 마련하도록 권고했다. LG전자는 이를 수용해 시정계획을 제출했다. △세척 프로그램 및 필터 성능 향상 △건조기 내부바닥(베이스 판) 및 배수펌프 구조를 개선해 잔존수 최소화 △녹 발생 부품으로 인한 성능 저하 시 무상수리 등의 조치를 담았다. 이들 조치는 모두 무상으로 이뤄진다. 먼저 세척 프로그램 개선 등 콘덴서 내 먼지 축적을 방지하기 위한 조치를 판매된 제품 전량에 적용한다. 일정량의 응축수가 모일 경우에만 작동했던 자동세척 기능을 향후엔 응축수의 양과 관계없이 건조 기능 사용 시 매번 작동하도록 개선하고, 개선 프로그램을 판매된 전 제품에 적용키로 했다. 대형건조기는 필터 이외 틈새로 유입되는 먼지를 차단하기 위해 본체와 접촉하는 필터의 결착부위에 고무 재질로 실링한 부품으로 전량 교체수리하기로 했다. 잔존수를 저감하기 위한 조치 역시 제품 전량에 적용한다. 기존 베이스 판에서 응축수가 상시 잔류하는 U-트랩을 제거하고, 필요 시 사용자가 용이하게 일체의 잔존수를 빼낼 수 있도록 '잔수배출용 호스' 위치를 제품 후면에서 전면으로 변경할 예정이다. 아울러 배수성능 향상을 위해 펌프의 구조를 개선하고, 기존 부품과 교체해 건조기 바닥에 잔존하는 응축수를 줄일 계획이다. 구리관, 엔드플레이트 등 콘덴서 부속품에 녹이 발생해 건조성능이 저하될 경우에는 콘덴서 등 관련 부품을 10년 간 무상수리하기로 했다. LG전자 관계자는 "회사는 보다 편리하게 건조기를 사용할 수 있는 방법들에 대해 검증을 마쳤다"며 "한국소비자원이 발표한 시정권고를 충실히 이행할 것"이라고 말했다. 한국소비자원은 건조기로 인한 소비자 불만사항 등을 향후에도 지속적으로 모니터링 할 예정이다. 소비자원 관계자는 "특히 콘덴서 먼지 쌓임을 방지하는 조치 등은 단기간 안에 효과 검증이 어렵고 이번 무상수리 조치로 인해 예견치 못한 문제점이 발생할 수 있다"며 "사업자 조치 후 3·6·12개월 단위로 집중 모니터링을 실시해 필요 조치를 권고할 계획"이라고 했다. 김은지 한경닷컴 기자 eunin11@hankyung.com 기사제보 및 보도자료 open@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933327&amp;date=20190829&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=4</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>'文 비하' 이모티콘 파문···日작가가 만든 걸 라인이 승인했다</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>"문재인 대통령에 관한 부적절한 콘텐트가 라인 스토어에서 공개 및 판매된 것에 대해 진심으로 사과드립니다. 심사 직원에 대한 각국의 사회문화적인 교육을 추가 실시하겠습니다." 네이버의 일본 자회사이자 글로벌 모바일 메신저 라인(LINE)이 '대통령 비하' 논란이 인 유료 메신저 스티커(이모티콘) 'Stamps of Mr. Moon(미스터 문 스탬프)'에 대해 공식 사과했다. 해당 이모티콘은 문 대통령의 얼굴을 좀비처럼 묘사하고 옆에 '안녕하세요. 문짱(ちゃん)입니다', '약속? 그게 뭐야?', '파기!!' 등의 문구가 적힌 채 28일 오후 8시~9시 58분까지 글로벌 라인 스토어에서 판매돼 논란이 일었다. 이 이모티콘은 '미네오 마인'이라는 이름을 가진 한 일본 작가가 제작해 라인 크리에이터스 마켓에 올렸으며, 라인의 승인을 거쳐 전 세계 라인 스토어에 등록됐다. 한국 네티즌이 이를 발견하고 신고했을 땐 국내 가격 1200원에 버젓이 판매되고 있었다. 라인은 일본과 대만, 동남아를 중심으로 글로벌 이용자 수가 1억6400만 명에 달하는 메신저다. 라인의 국내 자회사 라인플러스 측은 "오후 9시쯤 관련 사실을 인지한 후 9시 58분 스티커를 즉시 삭제 조치했으며 판매된 총 10건에 대해 사용 금지를 내렸다"며 "라인 크리에이터스 마켓은 누구나 라인 스티커 콘텐트를 제작해 판매할 수 있는 공간으로, 해당 스티커는 일반 사용자가 제작한 것"이라고 해명했다. 이어 "내부 검수 가이드라인에 따라 스티커를 심사했으나 하루 평균 3만개의 스티커를 심사하는 과정에서 걸러지지 못한 것 같다"고 덧붙였다. 라인 스티커 검토 가이드라인에는 '특정 국적 소유자, 인물, 법인, 집단에 대한 비방이나, 폄훼, 공격으로 해석될 수 있는 경우', '정치적 이미지나 선거 관련 내용을 포함하는 경우', '타인의 초상권을 침해하는 경우(캐리커처 등)' 등이 금지 사례로 명시돼 있다. 스티커 심사를 주관한 곳은 다양한 국적의 직원들로 이루어진 글로벌팀이며, 정확히 어떤 검토 과정에서 이 스티커가 못 걸러지고 판매까지 됐는지는 라인 측이 조사를 벌이고 있다. 라인플러스 측은 이날 오후 공식 사과문에서 "많은 이들에게 불쾌감을 주는 콘텐트를 가이드라인에 따라 엄격히 금지해왔음에도 이번 문제가 생긴 데에 대한 책임을 통감하고 있다"고 밝혔다. 향후 대책으로는 "다시는 이런 일이 발생하지 않도록 심사 과정을 철저히 재검토하고 강화하겠다"면서 "전 세계적으로 전개한 서비스이므로 각국 사정에 정통한 인력을 증가 배치하고, 심사 직원에 대한 각국의 사회문화적 교육을 추가 실시하는 등 심사 체제를 정비하겠다"고 전했다. 해당 이모티콘은 현재 라인 스토어에서 삭제된 상태다. 김정민 기자 kim.jungmin4@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=421&amp;aid=0004170298&amp;date=20190829&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=5</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>이재용 파기환송에 충격 빠진 삼성…"국민께 심려 끼쳐 송구"(종합)</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>(서울=뉴스1) 류정민 기자,문창석 기자,주성호 기자 = 대법원 전원합의체가 29일 이재용 삼성전자 부회장의 상고심에서 말 3필을 뇌물로 인정하고 묵시적 청탁이 있었다고 봐야 한다는 취지로 파기환송하면서 삼성이 충격에 빠졌다. 삼성은 이날 대법원 전원합의체 선고 직후 입장 자료를 내고 "이번 사건으로 인해 그동안 국민 여러분께 심려를 끼쳐 드려 대단히 송구스럽게 생각한다"며 고개 숙였다. 이어 "앞으로 저희는 과거의 잘못을 되풀이하지 않도록 기업 본연의 역할에 충실하겠다"고 밝혔다. 그러면서 삼성은 "저희 삼성은 최근 수년간, 대내외 환경의 불확실성으로 인해 적지 않은 어려움을 겪어 왔으며, 미래산업을 선도하기 위한 준비에도 집중할 수 없었던 게 사실"이라며 "갈수록 불확실성이 커지는 경제 상황 속에서 삼성이 위기를 극복하고 국가경제에 이바지할 수 있도록 도움과 성원을 부탁드린다"고 했다. 대법 전원합의체는 이날 특정경제범죄 가중처벌법상 뇌물 등 혐의로 기소된 이 부회장에게 징역 2년6개월에 집행 유예 4년을 선고한 원심을 파기하고 사건을 서울고법으로 돌려보냈다. 대법 전원합의체는 이재용 부회장이 최순실씨 측에 건넨 말 3필을 뇌물로 봐야 하고, 경영권 승계와 관련해서도 묵시적 청탁이 있었다고 봐야 한다고 판단했다. 또 강요에 따라 최순실씨 측을 지원했다는 원심 판결도 인정하지 않았다. 파기환송심에서 유무죄를 다시 다투겠지만 대법원 취지대로 선고될 가능성이 높기에 삼성의 경영상 불확실성도 높아지게 됐다. 법조계에선 이 부회장이 결국 구속된다고 하더라도, 파기환송심이 선고하기까지 최소 1년 이상은 걸릴 것으로 예상한다. 이재용 삼성전자 부회장 측 변호인단의 이인재 대표 변호사는 이날 선고 직후 "대통령의 요구에 따른 금품 지원에 대해 뇌물 공여죄를 인정한 것은 다소 아쉽다고 판단된다"라는 입장을 밝혔다. 이 대표 변호사는 "(대법원 판결에서)가장 형이 무거운 재산국외도피죄와 뇌물액수가 가장 큰 재단과 관련한 뇌물죄에 대해 무죄를 내렸다는 점과 삼성은 어떠한 특혜도 취득하지 않았다는 점을 인정했다는 점이 의미가 있다"고 밝혔다. 이어 "마필 자체를 뇌물로 인정한 것은 이미 원심에서도 마필 유상 사용을 인정한 것이라서 사안의 본질에 영향을 줄 수 있는 요인은 아니라고 본다"라며 "이 점에선 별개 의견이 있었다는 점을 상기해달라"고 했다. 재판 기간 삼성의 경영상 불확실성이 커지는 건 불가피할 것으로 보인다. 이 부회장의 사내이사 임기는 오는 10월26일까지인데, 이번 파기환송으로 최종 형량이 확정되지 않았기에 주주총회 이사 임기 연장 안건에서 주주들의 선택을 받지 못할 수도 있다. ryupd01@new1.kr [© 뉴스1코리아(), 무단 전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=081&amp;aid=0003025213&amp;date=20190829&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=6</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>일본, ‘수출 규제 조치’ 후 불화수소 첫 수출 허가</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>[서울신문] 일본이 수출 규제 조치 이후 처음으로 불화수소 수출을 허가했다. 지난달 4일 수출 규제가 시작된 이후 약 두 달 만이다. 산업통상자원부 관계자는 29일 “일본이 불화수소 가스 수출 1건을 허가했다고 업계 등을 통해 확인했다”고 밝혔다. 불화수소는 반도체 제조 공정에서 회로를 새길 때 사용하는 필수 소재다. 앞서 일본은 한국에 대한 반도체 및 디스플레이 3대 핵심 소재(플루오린 폴리이미드·포토 레지스트·고순도 불산) 수출 규제를 발표한 지 한 달여 만에 포토 레지스트 수출을 허가한 바 있다. 그러나 불화수소와 폴리이미드에 대해서는 승인하지 않았다. 이번에 수입되는 불화수소는 반도체 공정용으로 삼성전자에 납품될 것으로 알려졌다. 다만 정확한 수입량과 순도 정도는 아직 확인되지 않았다. 산업부 관계자는 “순도는 품질이 맞기 때문에 국내 기업에서 수입했을 것”이라며 고순도 불화수소일 것이라고 설명했다. 현재 일본은 한국에 대한 수출 규제를 강화한 후 불화수소 수출 실적이 급감한 상태다. 일본 재무성은 지난달 한국 수출량이 1년 전보다 83.7％ 줄었다고 29일 발표했다. 지난 7월과 비교해봐도 한국에 수출한 고순도 불화수소 물량은 한 달 동안 80% 이상 줄어든 상태다. 때문에 일본 내에서는 한국이 다른 국가로부터 불화수소를 수입할 경우 자국 기업의 실적에 큰 타격이 될 것이란 목소리가 높다. 실제로 최근 삼성과 SK는 중국 등 국가에서 불화수소를 수입할 수 있도록 추진 중이다. 곽혜진 기자 demian@seoul.co.kr ▶ ▶ ▶ 공짜로 만화를 볼 수 있다? 당신의 ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=081&amp;aid=0003025146&amp;date=20190829&amp;type=0&amp;rankingSectionId=101&amp;rankingSeq=7</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>[속보] 대법, 이재용 재판 파기 환송…삼성株 약세</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>[서울신문] 대법원이 29일 이재용 삼성전자 부회장에 대해 파기 환송 결정을 내린 가운데 삼성그룹 관련주가 나란히 약세를 보였다. 삼성바이오로직스는 전일 대비 4.89%(1만4000원) 하락한 27만2500원에 거래를 마감했다.이날 상승 출발한 삼성바이오로직스는 장중 30만4000원까지 올랐으나 이 부회장에 대한 재판이 시작된 오후 2시 이후 하락 전환했다. 대법원은 이날 항소심과 달리 말 3마리를 뇌물로 인정하고 경영승계작업을 인정했다. 이 때문에 향후 검찰의 삼성바이오로직스 분식회계 의혹 수사에 영향을 미칠 것으로 관측되고 있다. 삼성전자는 1.70(750원) 떨어전 4만3400원, 삼성전자우는 1.23%(450원) 하락한 3만6000원에 거래를 마쳤다. 삼성물산(-4.05%), 삼성생명(-0.75%), 삼성화재(-0.44%) 등도 하락 마감했다. 한편 이부진 대표가 경영하는 호텔신라는 주가가 4.46% 올랐다. 우선주인 호텔신라우는 29.10%나 급등했다. 김유민 기자 planet@seoul.co.kr ▶ ▶ ▶ 공짜로 만화를 볼 수 있다? 당신의 ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=008&amp;aid=0004269784&amp;date=20190829&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=8</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>[MT리포트]'010'이라 받았는데… 더 진화한 보이스피싱</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>[머니투데이 김진형 기자, 이학렬 기자, 이영민 기자, 박종진 기자, 임지수 기자, 박광범 기자, 변휘 기자] [편집자주] 보이스피싱 조직원의 어눌한 조선족 어투는 한때 개그의 소재가 될 정도로 우스웠다. 그러나 보이스피싱은 알고도 당할 만큼 첨단화되고 지능화됐다. 피해자들은 경제적 정신적 고통에 시달린다. 피해자의 숫자와 규모도 매년 사상 최대치를 갈아치울 만큼 급증하고 있다. [[보이스피싱,영혼을 파괴한다](종합)] 김진형 기자 jhkim@mt.co.kr, 이학렬 기자 tootsie@, 이영민 기자 letswin@, 박종진 기자 free21@, 임지수 기자 ljs@mt.co.kr, 박광범 기자 socool@mt.co.kr, 변휘 기자 hynews@ &amp;lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=374&amp;aid=0000192434&amp;date=20190829&amp;type=2&amp;rankingSectionId=101&amp;rankingSeq=9</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>먼지 끼는 트롬건조기?…LG전자 “145만대 무상수리”</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 	 	[앵커] 먼지가 쌓이고 악취가 난다는 민원이 끊이지 않았던 LG전자의 의류 건조기에 실제로 문제가 있는 것으로 확인됐습니다. LG전자는 판매된 제품 전량을 무상수리 해주기로 했습니다. 강산 기자의 보도입니다. [기자] 지난 2016년부터 판매된 LG전자의 트롬 건조기입니다. 그동안 청와대 국민청원 게시판과 각종 SNS상에서 악취와 먼지 낌 현상 등 민원이 빗발쳤습니다. [유형자 / LG전자 은평점 매장관리팀장 : 두 달 전부터 블로그에 댓글이 올라오기 시작하면서 (제품에서) 먼지가 많이 낀다고 이야기가 나왔어요.] 결국 한국소비자원이 지난달 23일부터 현장 점검을 진행했고, '콘덴서 자동세척' 기능이 미흡해 먼지가 쌓이고 악취도 발생하는 것이 확인됐습니다. 자동세척이 되려면 제품 바닥에 최소 1.6리터의 응축수가 모여야 하는데 소량을 건조하거나 건조 이외의 기능을 사용하면 응축수가 발생하지 않아 세척이 안 된 겁니다. 사용된 응축수도 제대로 배출되지 않아 악취의 원인이 된 곰팡이가 발생했고, 외부 먼지 유입 차단도 엉성했습니다. [김선환 / 한국소비자원 위해관리팀장 : 필터에 실링처리가 돼 있지 않아 건조기 본체와 필터 뭉치가 만나는 틈으로 먼지가 유입되는 원인이….] 응축수가 안 생기기 때문에 세척과정 없이 건조과정이 끝나 콘덴서가 세척이 안 되는 문제점이 발견됐습니다. LG전자는 다음 주부터 판매된 건조기 145만대를 전량 무상수리하겠다고 밝혔습니다. SBSCNBC 강산입니다. 강산 기자(san@sbs.co.kr) ☞ 의견 있는 경제채널 SBSCNBC ☞ 경제를 실험한다~ #머니랩 저작권자 SBS미디어넷 &amp;amp; SBS I&amp;amp;M 무단전재-재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=011&amp;aid=0003610879&amp;date=20190829&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=10</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>이재용, TV로 재판 시청···삼성측 "위기 극복 도와달라"</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>[서울경제] 삼성그룹은 29일 국정농단 사건 관련 대법원의 ‘원심 파기 환송’ 선고 직후 “그동안 국민 여러분께 심려를 끼쳐드려 대단히 송구스럽게 생각한다”고 사과 입장문을 냈다. 주력 계열사인 삼성전자는 이날 대법원의 선고 내용에 대해 “앞으로 저희는 과거의 잘못을 되풀이하지 않도록 기업 본연의 역할에 충실하겠다”고 강조했다. 삼성 측이 이재용 부회장의 수사 및 재판과 관련해 공식 입장을 내놓은 것은 이번이 사실상 처음이다. 삼성은 2016년 이른바 ‘최순실 국정농단 사태’에 대한 검찰 수사가 시작된 이후 약 3년간 이 부회장의 구속 기소, 1심 실형 판결, 2심 집행유예 판결 등을 맞으면서도 공식적인 입장을 단 한 번도 내놓은 적이 없다. 재계 관계자는 “통상 최종 판결이 나온 시점에서 입장을 내는 게 일반적인데, 삼성은 재판 절차가 남았음에도 머리를 숙였다”면서 “최악의 위기감을 감지할 수 있는 대목”이라고 말했다. 이 부회장은 이날 재판정에 출석하지 않은 채 모처에서 TV를 통해 판결을 지켜본 것으로 알려졌다. 또 삼성전자를 비롯한 계열사 임원들도 대책회의를 열고 향후 일정과 대응 방안에 대해 논의한 것으로 전해졌다. 삼성 변호인단 역시 이날 삼성 입장문과 별개로 대법원 판결에 대한 평가를 전했다. 이들은 “최근 수년간 대내외 환경의 불확실성으로 인해 적지 않은 어려움을 겪어왔다”면서 “미래산업을 선도하기 위한 준비에도 집중할 수 없었던 게 사실”이라고 토로했다. 그러면서 “갈수록 불확실성이 커지는 경제 상황 속에서 삼성이 위기를 극복하고 국가 경제에 이바지할 수 있도록 많은 도움과 성원 부탁한다”고 덧붙였다. 삼성 측이 이례적으로 공식 입장을 발표한 데 대해 재계 안팎에서는 과거 ‘정경유착’에 대한 부정적 이미지에서 탈피하겠다는 의지를 밝히는 동시에 최근 대내외 경제 불확실성이 최악의 상황인 만큼 역할을 할 수 있도록 도와달라고 당부하는 메시지라는 해석이 나온다. 삼성 관계자는 “향후 일정도 정해지지 않은 상태”라면서 “우려했던 결과가 나왔으나 대법원 선고 내용이 모두 비관적인 것은 아니기 때문에 파기환송심에서 긍정적인 결과가 있기를 바란다”고 밝혔다. 한편 경영계는 이번 판결에 대한 삼성그룹의 경영상 불확실성을 우려하는 목소리를 전했다. 한국경영자총협회는 29일 입장문에서 “경영계는 이번 판결로 삼성그룹의 경영상 불확실성이 가중될 것을 우려하며 안타까운 심정”이라고 밝혔다. 경총은 “지금 우리 경제는 미·중 무역 갈등과 일본의 수출규제조치 등 대내외 어려움이 가중된 상황으로 이를 타개하기 위해서는 기업이 앞장서 투자와 일자리 창출을 보다 활발히 할 수 있도록 지원과 격려가 절실한 상황”이라고 말했다. 이어 “무엇보다 우리 산업이 핵심 부품 및 소재, 첨단기술 등에 대한 해외 의존도를 낮추고 산업경쟁력을 고도화해 나가기 위해서는 삼성그룹이 비메모리, 바이오 등 차세대 미래사업 육성을 주도하는 등 국제경쟁력 우위 확보에 선도적 역할을 수행해 줘야 할 것”이라고 지적했다. 경총은 “경영계는 이번 판결이 삼성그룹 경영에 악영향을 미치지 않도록 정부 차원의 정책적·행정적 배려를 부탁드린다”고 촉구했다. 전국경제인연합회도 배상근 전무 명의로 낸 논평에서 “대법원의 이재용 부회장에 대한 판결을 존중한다”면서도 “일본의 수출규제 강화, 미·중 무역전쟁 등 여러 가지 어려운 경제상황에서 이번 판결로 경제계의 불확실성이 지속됨을 안타깝게 생각한다”고 밝혔다. 배상근 전무는 “글로벌 무한경쟁 시대에 이번 판결에 따른 삼성의 경영활동 위축은 개별기업을 넘어 한국경제에 크나큰 악영향을 더하지 않을까 우려된다”고 덧붙였다. 아울러 배 전무는 “향후 사법부는 이러한 부분을 종합적으로 고려해주길 바란다”고 요청하며 “경제계는 적극적 투자와 일자리 창출로 직면한 경제난을 극복해 나가는 데 매진하겠다”고 강조했다. /강신우기자 seen@sedaily.com | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011048626&amp;date=20190829&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=12</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>[1보] 삼성 "대단히 송구…잘못 되풀이 않도록 본연 역할 충실"</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=215&amp;aid=0000805882&amp;date=20190828&amp;type=2&amp;rankingSectionId=101&amp;rankingSeq=24</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>"포르쉐 타고 명품 사고"…소비자는 봉?</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 [한국경제TV 김보미 기자] &amp;lt;앵커&amp;gt; 여러 보험회사의 상품을 판매하는 보험대리점을 ‘GA(General Agency)’라고 하는데요. 이들 GA에 소속된 설계사들이 받는 모집수수료가 지나치게 많아 문제가 되고 있습니다. 당국이 뒤늦게나마 해결에 나섰는데, 반발이 만만치 않습니다. 김보미 기자가 보도합니다. &amp;lt;기자&amp;gt; 25만여 명의 GA 관계자들이 금융당국의 모집수수료 개편안에 반대 서명운동을 벌이고 있습니다. 당국이 내놓은 개편안에는 보장성보험 1차년도 모집수수료를 월납보험료의 1200% 이내로 축소한다는 내용이 담겨 있습니다. GA업계는 “보험회사 전속설계사와 동일한 규제를 받는 것은 불합리하다”며, “생존권을 위협받고 있다”고 주장합니다. 이에 대해 소비자단체들은 “결국 피해는 소비자들에게 돌아간다"며 사태가 확대되는 데 대해 우려하고 있습니다. 대리점운영비 등을 이유로 전속설계사보다 높은 수수료를 받으면서도, 불완전판매에 따른 소비자 피해는 여전하다는 지적도 나옵니다. &amp;lt;인터뷰&amp;gt; 배홍 금융소비자연맹 팀장 "현장에서 고객이 느끼는 상품 만족도가 제일 중요한데, 일부 GA는 모집수수료에 급급해서 시책영업과 환경영업에 치우쳐 있는 경우가 있습니다. 이런 경우는 빨리 지양해서…" 이런 가운데 각종 외제차와 명품 사진들로 도배된 일부 GA설계사들의 SNS는 소비자들을 더욱 불편하게 만듭니다. 포르쉐 앰블럼이 박힌 자동차 핸들과 롤렉스 시계, 여름나기용으로 구입했다는 루이비통 슬리퍼. 입사문의 환영이라는 해시태그와 함께 ‘설계사가 되면 호화로운 생활을 누릴 수 있다’는 간접적인 메시지도 눈에 띕니다. GA업계는 삼성화재와 메리츠화재 등 일부 손해보험사들의 상품 판매 중단까지 예고했는데, "주장이 관철되지 않을 경우 대규모 시위도 불사하겠다"는 입장입니다. 한국경제TV 김보미입니다. 김보미 기자 bm0626@wowtv.co.kr ⓒ 한국경제TV, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=215&amp;aid=0000805916&amp;date=20190829&amp;type=2&amp;rankingSectionId=101&amp;rankingSeq=14</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>아베의 엔저 도박, 이제 끝난다…日 ‘환율 조작국’ 지정되나 [한상춘의 지금 세계는]</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 	 	중국 위안화 환율이 달러당 7위안선이 뚫리고 트럼프 대통령이 연일 달러 약세를 외침에 따라 환율 전쟁에 대한 우려가 급부상하고 있는데요. 어제는 우리가 일본의 화이트리스트 대상에서 제외된 첫 날로 일본 내에선 ‘아베의 엔저 도박은 끝났나’라는 시각이 나왔다 합니다. 왜 이런 시각이 나오는 것인지, 오늘은 이 문제를 알아보는 시간 마련했습니다. 도움 말씀을 듣기 위해 한국경제신문, 한상춘 논설위원이 이 자리에 나와 계십니다. Q. 요즘 들어 국제외환시장이 혼탁한데요. 먼저 그 내용부터 정리해주시지요. -국제외환시장에서도 이기주의 움직임 뚜렷 -무역과 환율과 연계, 혼탁한 국면으로 추락 -트럼프, 오락가락 달러 정책 속 ‘약세’ 외쳐 -시진핑, 넘지 말아야 할 ‘포치선’ 진입 허용 -트럼프, 보복 차원에서 中 환율 조작국 지정 -일본?한국 등이 환율 조작국 지정 후보 거론 Q. 세계 각국이 인위적으로 자국통화를 절하시키는 것은 가장 이기주의 정책에 해당하는 것 아닙니까? -인위적 평가절하, 대표적인 근린궁핍화 정책 -세계 경제, 30년대 겪었던 대공황 우려 고개 -IMF 등 국제기관, 이기주의 정책 ‘자제 요청’ -새플리·로스 교수의 공생적 게임이론 ‘뒤늦게 각광’ -모두 이득 될 수 있는 양식(architecture) 도출 -SR이론, 사적이익보다 공공선, 경쟁보다 협조 Q. 어제는 일본이 우리를 화이트리스트에서 제외한 첫 날인데요. 일본 내에서 아베의 엔저 도박이 끝났다는 비판이 나오지 않았습니까? -새플리·로스의 게임이론, 아베 엔저 정책 적용 -‘대장성 패러다임’, ‘미에노 패러다임’ 이해 필요 -대장성 패러다임, ‘엔저 정책과 수출 증대’ 상징 -미에노 패러다임, 물가 안정과 중앙은행 독립성 -잃어버린 20년, 고집스런 미에노 패러다임 문제 -아베, 구로다 BOJ 총재를 대리인으로 엔저 추구 Q. 안하무인격인 아베의 엔저 정책을 추진한 이래, 국제적으로 많은 비판을 받아 오지 않았습니까? -아베 엔저 정책, 각국 간 협조보다 갈등 조장 -엔저 유도 부양, 인접국과 경쟁국에 피해 줘 -브라질 등 브릭스 vs 독일 등 선진국 ‘갈등’ -독일, 엔저 지속시 무역보복조치 불사 경고 -엔저 용인했던 미국, 작년 하반기 태도 변화 -하반기 환율 보고서, ‘엔저 조작 어렵다’ 입장 Q. 궁금한 것은 아베의 엔저 정책은 일본 내부에서도 여론이 좋은 것만은 아니라고 하는데요. 의외의 사실이지 않습니까? -내수업체, 엔저로 채산성 악화돼 불만 가장 커 -日 국민, 엔저→수입물가 급등→경제고통 심화 -가장 반겨야 할 수출업체 불만, 누그러지지 않아 -장기간 지속된 엔고 대응, 수출업체 해외로 이전 -수출결제통화, 80% 웃돌던 달러 비중 40%로 낮춰 -엔저 정책 지속, 채산성 개선보다 통상환경 악화 Q. 방금 엔저에 따라 통상환경만 악화시킨다고 언급하셨는데요. 일본 수출업체들이 가장 두려워하는 것은 환율 조작국으로 지정되는 것이 아닙니까? -中, 트럼프 지시로 완화된 환율조작요건 적용 -BHC 지정요건→1988년 종합무역법 요건 변경 -사실상 대미 무역흑자국 모두 지정할 수 있어 -한국 및 일본도 환율조작 못하도록 경고된 상황 Q. 문제는 아베의 엔저 정책이 멈추면 곧바로 ‘위기’에 봉착할 것이라는 시각이 왜 계속해서 나오는 것입니까? -지속 가능한 성장기반, 내수 확보 ‘가장 중요’ -엔저 정책, 내수산업 발전 오히려 어렵게 해 -수출마저 안 되면 日 경제, 걷잡을 수 없어 -엔저 정책, 게임 참가자 지지 없으면 무너져 -중앙은행 비협조, 쉽게 무너지는 결정적 허점 -아베, 엔저 정책 추진 위해 BOJ 강압적 협조 Q. 아베의 엔저 정책은 많은 부작용을 안고 있으나 자국 내에서는 견제할 세력이 없지 않습니까? -부작용 많은 정책, 견제 세력 없을수록 더 위험 -정치적으로 아베, 日 천황을 무시할 정도 비판 -국제적으로 이기주의 기승, 역플라자 합의 불능 -엔저 지속, 곧바로 위기에 처할 가능성 높아져 -아베, 새플리·로스의 '공생적 게임 정신' 발휘 지금까지 한국경제신문, 한상춘 논설위원이었습니다. ⓒ 한국경제TV, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=018&amp;aid=0004456970&amp;date=20190829&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=15</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>본인 청문회에 ‘조국 논란’ 공부해온 금융위원장 후보자</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>은성수 금융위원장 후보자가 29일 국회에서 본인의 인사청문회에서 의원들 질문에 답하고 있다. (사진=노진환 기자) [이데일리 박종오 기자] “청문회 준비할 때 (금융위원회) 직원들이 조국 후보자의 사모펀드 논란에 관해 공부하라고 해서 공부했습니다.” 은성수 금융위원장 후보자는 29일 열린 국회 정무위원회의 인사청문회에서 이렇게 말했다. 이날 청문회는 은 후보자의 자질과 적격성을 검증하는 자리였지만, 사실상 다음달 2~3일로 예정한 조국 법무부 장관 후보자 청문회의 예고편이나 마찬가지였다. 조 후보자 가족의 사모펀드 투자 의혹 등이 집중적으로 제기돼서다. 금융위도 조 후보자의 사모펀드 논란에 관한 별도 자료집을 준비하는 등 대비를 해왔다. 공세에 나선 것은 야당이다. 이태규 바른미래당 의원은 “모 장관 후보자와 일가족의 위선이 드러나 충격을 주고 있다”며 “공직자가 보유 주식을 매각하거나 백지 신탁하는 것과 달리 사모펀드에 투자하는 것을 어떻게 생각하나”고 질문을 던졌다. 은 후보자는 “공직자가 사모펀드에 투자해서 투자 자산 운용에 개입하면 공직 윤리에 안 맞지만, 투자 자체를 부정적으로 볼 순 없다”며 “(공직 후보자) 가족이 펀드 운용에 개입했다면 불법의 소지가 있지만, 개입했는지 안 했는지 지금 알 수 없으므로 예단해서 말할 수 없다”고 답했다. 김종석 자유한국당 의원도 “공직자의 이해 충돌을 방지하기 위해 주식 투자를 못 하게 하지만, 펀드 투자는 허용한 것은 법에 투자자가 펀드 관리에 관여할 수 없게 돼 있기 때문”이라며 “증여세 면탈 시도 등 펀드 운용에 투자자가 관여하지 못하도록 보완해야 하지 않나”라고 촉구했다. 그러나 은 후보자는 “제가 이해하기로는 현행법의 조항은 투자자(LP)가 사모펀드 운용사(GP)의 투자에 관여하지 말라는 규정”이며 GP나 사모펀드에 친인척이 관계돼선 안 된다는 건 아니다”라고 했다. 조 후보자가 직접 펀드 운용에 관여한 것이 아니라면 이른바 ‘가족 펀드’를 만든 것이나 펀드 투자 자체는 문제가 되지 않는다는 얘기다. 유의동 바른미래당 의원은 “법상 경영 참여형 사모펀드의 경우 최소 투자액이 3억원이지만, 조 후보자 아들과 딸은 5000만원만 투자했다”며 “이를 선례 삼아 많은 사람이 이렇게 하면 금융시장에 혼란이 올 수 있다”고 지적했다. 그러자 은 후보자는 “전 3억원을 투자 약정액이라고 이해한다”며 “3억원을 약정하고 1000만원을 투자했다가 돈이 소진돼 (펀드 운용사가) 돈을 내라고 하면 내는 거고 이를 안 지키면 페널티(벌칙)가 있다”고 설명했다. 조 후보자 자녀가 경영 참여형 사모펀드에 법상 최소 투자금액인 3억원에 못 미치는 5000만원씩을 투자한 것도 법상 문제가 없다는 것이다. 김성원 자유한국당 의원은 “조국 펀드는 간접이 아니라 직접 투자이며 현행법의 허점을 이용한 투기 행위”라며 “(조 후보자가 과거) 그토록 비난하던 ‘법꾸라지(법 미꾸라지)‘ 역할을 조 후보자가 하고 금융위가 방어하고 있는 것”이라고 질타했다. 여당은 조 후보자를 겨냥한 의혹을 적극 방어했다. 김병욱 더불어민주당 의원은 “사모펀드가 활성화돼야 모험 자본이 신생 기업이 들어가는데 (조 후보자) 논란이 과대 포장돼 금융 산업에 부정적인 영향을 미칠 수 있다”고 지적했다. 김 의원은 “다음카카오도 우회 상장을 했다”며 “우회 상장은 사모펀드 투자자가 투자금을 회수하는 한 방법”이라고도 했다. 은 후보자도 “저도 사모펀드 투자 경험이 있고 사모펀드의 육성을 주장한 사람으로서 당황스럽다”며 “우회라는 말이 마치 나쁜 짓을 하는 것 같은 부정적 어감이 있지만, 우회 상장이든 합병이든 마지막 순간에 거래소가 (적절성을) 평가하는 절차가 있는 만큼 의도만 가지고 (의혹을 제기하는 것은) 성급하다”고 맞장구를 쳤다. 박종오 (pjo22@edaily.co.kr) ＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp;amp; 재배포 금지＞</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=366&amp;aid=0000441866&amp;date=20190829&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=16</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>물티슈 700원, 건조기 20만원...이마트, 초저가로 위기탈출 나서</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>‘700원 물티슈’, ‘20만원대 의류 건조기’ 국내 1위 대형마트인 이마트(139480) 가 29일 생활필수품·가전제품 40종을 연중 내내 초저가에 선보였다. 이마트는 지난 1일 ‘에브리데이 국민가격’ 상품 1탄을 선보인 데 이어 이날부터 물티슈·치약·칫솔 등 소비자들이 반복적으로 구매하는 필수품과 의류건조기 같은 가전제품을 저렴한 가격에 판매한다. 대상품목도 30종에서 70종으로 확대했다. 이마트는 에브리데이 국민가격 상품을 올해 200여개로 상품을 늘리는 한편, 향후 500개 수준의 초저가 상품을 지속 운영해 상품 경쟁력을 강화할 계획이다. 이마트는 지난 2분시 ‘사상 첫 영업이익 적자’를 기록한 뒤, ‘대량 매입’, ‘소싱다양화’ 등 구매혁신에 나섰다. 유통구조 혁신으로 초저가를 유지하는 ‘초격차 전략’이다. 이마트가 이번에 선보이는 에브리데이 국민가격 물티슈는 100매에 700원으로 유사상품 대비 30% 가량 저렴하다. 가격을 낮추기 위해 ‘1년에 500만개’ 구매 계약을 맺은 덕분이다. 이는 지난해 이마트에서 가장 많이 판매된 물티슈 판매량(72만개)의 7배 정도다. 소비자들의 물티슈 사용법을 분석해 크기를 줄이고 가격을 낮추기도 했다. 이마트는 또 초저가 상품을 내놓기 위해 상품의 핵심가치에 집중하며 가격을 낮췄다. 이마트가 9월초에 내놓은 일렉트로맨 의류건조기(10kg)는 유명 브랜드 상품 대비 30%가량 저렴한 69만9000원이다. 사용빈도가 낮은 와이파이 원격제어, 스마트 기능을 제거하고 건조기 본연의 기능에만 집중해 상품 가격을 낮췄다. 1인 가구를 위한 3kg짜리 일렉트로맨 의류건조기도 24만9000원으로 유사 상품 대비 20% 가량 저렴하다. 저렴한 가격을 위해 이마트몰, 삐에로쑈핑과도 협업한다.이마트는 2080 퓨어솔트 치약(120g·3입), 크리오 칫솔(6입)을 각 2000원에 판매한다. 유사상품대비 70% 가량 저렴한 수준이다. 전문점, 온라인몰과의 통합매입을 통해 치약 80만개, 칫솔이 160만개를 주문, 초저가를 실현했다. 이마트에 따르면, 지난 1일 에브리데이 국민가격 행사를 시작한 뒤로, 이마트를 찾는 고객이 늘고 주요 상품 매출도 증가세다. 이달 1일부터 26일까지 이마트 방문객수를 살펴보면 전달 같은 기간보다 8% 증가했다. 이마트가 1차로 선보인 에브리데이 국민가격 상품은 큰 인기를 끌고 있다. 대표 품목인 도스코파스 까버네소비뇽(750ml·4900원) 와인은 한달도 지나지 않아 26만병이 팔렸다. 기존 인기와인의 1년 판매량(7만~8만병)의 3배 이상 수준이다. 특히 구매 고객 중 최근 6개월 동안 와인을 한번도 구매한 적이 없는 고객 비중이 55% 넘어서는 등 신규 고객을 유입시켰다. 이외에도 다이알 비누도 15만개가 판매되며 지난해 이마트 비누 1위 상품 판매량(17만개)에 육박하고 있다. 목욕용품 매출은 덩달아 16% 증가했다. 워셔액도 20만개가 판매돼 자동차 교환용품 매출이 10% 늘었다. 다만 이마트의 이번 시도가 유통업계의 초저가 경쟁을 심화시킬 것이라는 전망도 나온다. 현재 홈플러스·롯데마트 같은 대형 마트뿐 아니라 쿠팡 등 이커머스 업체들도 PB(자체 브랜드) 상품을 경쟁적으로 선보이며 가격 경쟁을 벌이고 있기 때문이다. 한태일 한국신용평가 선임 연구원은 지난 14일 "식품·비식품 부문에서 온라인 침투가 확대되고, 저출산·소량구매 등 소비패턴 변화로 대형 할인점의 매력도가 떨어졌다"며 "할인행사 강화는 실적 하방압력으로 작용할 것"이라고 분석했다. [안소영 기자 seenrun@chosunbiz.com] chosunbiz.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=028&amp;aid=0002466338&amp;date=20190829&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=17</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>“LG건조기 먼지, 콘덴서 ‘자동세척’ 기능 원인” 145만대 전량 수리</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>한국소비자원 50대 현장조사 결과 자동세척 작동 않고 바닥에 물 남아 대형건조기 틈새로 바깥먼지 유입도 엘지 145만대 전량 개선 수리하기로 한국소비자원이 먼지·악취·오염 문제가 제기된 엘지(LG)전자 의류건조기 50대를 표본조사해 기기 구조에 원인이 있었다고 29일 결론 내렸다. 엘지전자는 2016년 4월부터 판매된 145만대를 모두 무상수리하기로 했다. 소비자원은 소비자들의 지속적인 요구로 지난달 23일 조사에 착수했다. 지난 7월 소비자 3만명이 모인 ‘엘지건조기 자동콘덴서 문제점’ 네이버 밴드모임은 엘지전자의 ‘트롬 듀얼인버터 히트펌프 건조기’를 사용하는 과정에서 콘덴서(응축기)에 먼지가 쌓이고 곰팡이와 악취가 발생한다고 문제제기했다. ‘1372 소비자상담센터’에 접수된 엘지전자 의류건조기 피해 상담은 한 달간 3356건에 이르렀고 환불·보상을 요구하는 청와대 청원도 3만명 이상이 서명했다. 엘지전자는 “콘덴서의 먼지가 의류 건조기 성능에 영향을 미치는 것은 아니다”라고 반박하며 ‘10년 무상 보증’을 대책으로 내놨지만 소비자원 중재를 받게 됐다. 소비자원이 실제 사용 중인 건조기 50대(소형 30대, 대형 20대)를 현장점검한 결과, 11대(22%)가 콘덴서 면적의 10% 이상에 먼지가 축적돼 있었다. 대형건조기(14∼16㎏)가 9대, 소형건조기(8∼9㎏)가 2대였다. 이 가운데 6개월 이상 사용한 대형건조기 10대 중 4대는 콘덴서 면적의 20% 이상 먼지가 쌓여 있었다. 반려동물을 키우는 가구의 대형건조기 5대에서는 동물의 털과 먼지가 한데 섞여 발견됐다. 다만 소형건조기는 반려동물 유무 및 사용 기간에 큰 영향을 받지 않았다. 소비자원은 콘덴서의 자동세척 기능에 원인이 있다고 봤다. 엘지전자 건조기는 함수율(의류가 물을 머금은 정도)이 10~15% 이하이거나 응축수가 1.6~2ℓ 가량 모여야만 콘덴서가 자동세척되는데 실제 사용 과정에서는 의류 양에 따라 응축수가 기준보다 적게 나와 세척기능이 작동하지 않은 것이다. ‘침구털기’ 등 건조 이외 기능을 사용할 때는 응축수가 아예 나오지 않기도 했다. 또 세척에 활용하고 남은 물이 300~700㎖ 가량 건조기 내부 바닥에 남아 미생물 번식과 악취 발생, 부품 부식 가능성이 있다는 문제도 지적됐다. 대형건조기가 먼지 유입에 특히 취약하다는 점도 발견됐다. 엘지전자는 한국소비자원의 지적을 수용해 △응축수 양과 무관하도록 자동세척 기능 활성화 △응축수가 남지 않도록 기기 구조 변경 △필터와 본체 사이 먼지 유입 차단 등을 담은 시정계획을 소비자원에 제출했다. 또 건조기 내부에 남은 물로 부품에 녹이 생기고 제품 기능이 저하되면 관련 부품을 10년 간 무상수리하겠다고 밝혔다. 엘지전자 관계자는 “소비자원이 밝힌 지점은 기기 결함이 있었다기보다는 성능 개선을 하라는 차원으로 알고 있다”며 “시정조치를 성실히 이행하겠다”고 밝혔다. 신다은 기자 downy@hani.co.kr [ⓒ한겨레신문 : 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=015&amp;aid=0004200520&amp;date=20190829&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=18</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>[집코노미]"정부 믿고 고정금리로 갈아탄 사람만 손해"…안심대출 비대상자 '부글부글'</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>지난해 초 변동금리 주택담보대출을 연 3.5%대 고정금리 대출로 전환한 이모 씨(42)는 최근 출시를 앞두고 있는 '서민형 안심전환대출' 소식에 속이 쓰렸다. 안심대출로 갈아타기만 하면 금리를 연 1.85~2.2%로 끌어내릴 수 있지만 이미 고정금리 대출을 쓰고 있는 이 씨는 전환 대상이 아니기 때문이다. 이 씨는 "고정금리가 유리할 것이란 금융 당국의 말을 믿고 작년에 변동금리에서 고정금리 대출로 바꿨는데 이제 와서 변동금리 대출자에게만 혜택을 준다고 하니 나만 손해본 느낌"이라고 한숨을 쉬었다. 기존 고정금리 대출과 안심대출의 금리 차가 1.5%포인트라고 치면 2억 원을 빌린 이 씨의 경우 연간 이자 부담 차가 300만원에 이른다. 29일 정부가 변동금리 또는 준고정금리 대출자를 위한 안심전환대출 출시 계획을 내놓자 고정금리 대출자들이 분통을 터뜨리고 있다. 대상을 변동금리나 준고정금리(혼합형 등) 주담대 보유자로 제한했기 때문이다. 순수 고정금리 상품은 만기 내내 고정된 이자를 내는 대출 상품으로, 주택금융공사(주금공)의 보금자리론이나 디딤돌대출, 적격대출 등이 해당되고 시중은행 상품은 없다. 정부는 그동안 금리 변동 위험에 노출된 변동형 주택담보대출 대신 고정형 주택담보대출을 이용하도록 권장하는 정책을 꾸준히 펼쳐왔다. 한국은행에 따르면 고정금리 대출은 2013년 기준으로 30.6%에 불과했다. 그러나 정부가 2013년 말 가계부채가 1000조원을 돌파하자 금리 인상에 대비해 가계 상환부담을 안정시킬 목적으로 은행권에 고정금리 주택담보대출 판매를 권고하면서 매년 그 비중이 늘어 올해 6월에는 49.2%를 기록했다. 하지만 정작 고정형 상품을 이용하는 사람들은 대상에서 제외되면서 상대적 박탈감을 호소하고 있다. 특히 서민의 내집마련을 위한 디딤돌대출과 보금자리론 등 정책대출 이용자들이 범위 확대를 호소하고 있다. 특히 올해 7월 이전에 고정금리 대출을 받은 사람들은 시중금리 인하의 혜택도 누리지 못하고 있다. 한국은행이 지난달 기준금리를 내리고 올해 안에 추가 금리 인하 전망도 내비치면서 변동금리 대출자의 이자 부담은 갈수록 줄고 있지만 고정금리 대출자들은 여전히 연 3~4% 이자를 물고 있다. 금리가 비교적 저렴한 보금자리론의 고정금리형 대출 금리도 1년 전인 지난해 8월 기준 연 3.2~3.45% 수준이다. 1, 2년 전에 받은 대출이라면 3년이 지나야 면제되는 중도상환수수료 부담도 때문에 다른 상품으로 갈아타기도 어렵다. 2년째 고정금리 대출을 유지하고 있는 회사원 유모 씨(33)는 "'금리 인상에 대비하라’는 정부의 말만 믿고 고정금리로 갈아탔다가 올해 들어 1%포인트 이상 대출금리가 떨어지는 모습을 지켜보며 속이 상했다"며 "그런데도 정부는 정부의 권고와 반대되는 선택을 한 변동금리 대출자들만 구제해주는 정책을 내놨다"고 말했다. 유 씨와 같은 고정금리 대출자들은 "앞으로 어떻게 정부를 믿고 의사 결정을 하겠느냐"고 불만을 토로하고 있다. 주택금융공사에는 안심전환대출 자격요건에 대해 항의하는 기존 고정금리 대출자들의 전화와 민원이 빗발치고 있다. 전날 하루에만 인터넷 홈페이지를 통해 28건의 민원이 들어왔다. 주택금융공사 관계자는 “안심전환대출 출시 발표 이후 고정금리 대출자들로부터 셀 수 없을 정도로 많은 항의 전화가 오고 있다”고 전했다. 청와대 홈페이지 국민청원 게시판에도 청원글이 잇따라 올라왔다. '안심전환대출 대상자 확장 요청'이라는 제목의 청원에는 이날 오전 현재 3900여명의 네티즌이 지지 서명을 했다. 게시자는 "디딤돌대출이나 보금자리론은 서민들의 주택마련을 돕기 위한 복지정책으로 알고 있는데 이번 안심전환대출 대상자에 이들은 해당이 되지 않는다"며 "디딤돌대출이나 보금자리론을 이용하는 서민들에게도 혜택이 돌아갈 수 있게 해달라"고 요청했다. '서민형 안심전환대출에 순수고정금리 대출자도 포함시켜 주십시오'라는 제목의 글도 2040여명에 이르는 동의를 받았다. 하지만 금융당국은 기존 고정금리 대출자들의 이같은 요구를 수용하기 어렵다는 입장이다. 안심전환대출을 시행하는 목적이 변동금리를 고정금리로 유도해 가계부채를 안정적으로 관리하는 것이어서다. 금융위 관계자는 "대신 보금자리론(부부합산 연소득 7000만원 이하)이든 디딤돌대출(연소득 6000만원 이하)이든 최근 금리 기준으로 소득·주택 요건 등을 맞춰 대환할 수 있다"고 설명했다. 9월 기준 보금자리론 금리는 연 2.0~2.35%로, 만기 기간이나 약정 방식 등이 똑같은 조건이라면 안심전환대출 금리보다 0.15%포인트 높은 수준이다. 전문가들 사이에서는 안심전환대출과 같은 정책성 특판이 일반 주택담보대출 시장을 교란시킬 수 있다는 우려도 나온다. 이번 대출은 지난 2015년 선보여 큰 인기를 끌었던 안심전환대출을 4년여만에 다시 내놓는 것이다. 변동금리 주택담보대출자에 대한 일시적 구제책인 안심전환대출이 일정 기간 후에 또 출시될 것이라는 기대가 생기면서 신규 대출자들이 고정금리 대신 변동금리를 '역선택'하는 상황을 부추길 수 있다는 지적이다. 금융당국의 한 관계자는 "안심전환대출이 마치 정례행사처럼 여러번 반복되면 신규 주택담보대출자들도 언젠가는 안심전환대출이 다시 나올 것이라고 예상하면서 변동금리를 선택할 수 있다"고 우려했다. 안혜원 기자 anhw@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=437&amp;aid=0000218482&amp;date=20190828&amp;type=2&amp;rankingSectionId=101&amp;rankingSeq=9</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>삼성, 일본 규제 발표 당일…'중국산 불산 시험' 끝냈다</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 [앵커] 일본의 아베 총리가 반도체와 디스플레이 부품의 수출 규제를 처음으로 예고한 것은 약 두 달 전인 지난달 1일이었습니다. 당시 갑작스런 발표에 관련 업계는 물론이고 국내 산업 전반으로 충격이 이어졌지요. 그런데 JTBC 취재 결과 일본 발표 당일 삼성전자는 이미 고순도 불화수소에 사용할 중국산 불산의 품질 테스트를 마쳤던 것으로 확인됐습니다. 앞서 삼성전자에 수출하던 일본 업체도 몰랐던 것으로 파악됐습니다. 송승환 기자입니다. [기자] 충남 아산의 팸테크놀로지 공장입니다. 이곳에서는 일본 모리타화학으로부터 수입한 불산으로 고순도 불화수소를 만들어 삼성전자와 SK하이닉스에 납품해 왔습니다. 고순도 불화수소는 반도체를 깎는 핵심 소재입니다. 그런데 이달부터 일본산이 아닌 중국 DFD사의 불산을 실은 탱크로리가 수시로 공장을 드나드는 모습이 포착됐습니다. 일본산 불산을 실은 탱크로리와 확연히 다릅니다. 이 업체가 중국산 불산의 품질 테스트를 마친 것은 지난달 1일, 아베 총리가 수출 규제를 예고한 날입니다. [팸테크놀로지 관계자 : 공식적으로 삼성전자와 SK하이닉스에 납품 허가를 받은 것은 7월 1일 이후에. 본격적으로 납품은 지난주쯤(8월 첫째 주.)] 반도체 업계에 따르면 삼성전자는 지난해부터 이미 일본이 아닌 다른 나라 회사들의 불산을 테스트 해왔습니다. 이 중 중국 DFD의 불산이 품질 테스트를 통과한 것입니다. 현재 중국산 불산은 삼성물산이 수입하고 팸테크놀로지가 가공을 맡아 삼성전자에 납품하고 있습니다. [삼성물산 관계자 : 테스트 통과한 거 맞고요. 승인된 거 같고 일부 물량은 발주가 나와서 진행 중인 것으로 확인이 됐습니다.] 중국산 불산은 일본산에 비해 불순물이 많고 가격도 비쌉니다. 하지만 삼성전자는 늘어난 생산 비용을 직접 부담하며 중국산을 쓰기로 한 것으로 파악됐습니다. 중국 공장을 통해 삼성전자에 불산을 우회 수출하겠다던 일본 업체는 처음 듣는 내용이라고 밝혔습니다. [모리타 관계자 : 들은 적이 없네요. 최근에 삼성이 중국에서 불산을 들여오고 있단 얘기군요.] 삼성전자 측은 품질 테스트를 한 것은 맞지만 구체적인 진행 상황을 확인해줄 수 없다면서, 고순도 불화수소 수급이 안정되려면 시간이 더 걸릴 것이라고 설명했습니다. (영상디자인 : 신하림) ◆ 관련 리포트 화이트리스트 뺀 날, 일 "강제징용이 제일 문제" 모순발언 → 기사 바로가기 : http://news.jtbc.joins.com/html/717/NB11872717.html ◆ 관련 리포트 청 "제외조치 유감…역사 바꿔쓰고 공조 깨려는 건 일본" → 기사 바로가기 : http://news.jtbc.joins.com/html/716/NB11872716.html 송승환 기자 (song.seunghwan@jtbc.co.kr) [영상취재: 김재식 / 영상편집: 박수민] Copyright by JTBC(http://jtbc.joins.com) and JTBC Content Hub Co., Ltd. All Rights Reserved. 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=081&amp;aid=0003025148&amp;date=20190829&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=20</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>라인 “문 대통령 비하 스티커 판매 진심으로 사과”</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>[서울신문] 네이버의 일본 자회사 ‘라인’이 문재인 대통령을 비하하는 스티커를 모바일 메신저 라인의 스토어에서 약 2시간 동안 판매한 사고에 대해 29일 공식 사과했다. 이어 “라인은 전 세계 사용자를 위한 서비스를 제공하는 플랫폼으로, 특정 인물, 국적에 대한 비방, 폄훼, 공격으로 해석될 수 있는 것이나, 많은 이들에게 불쾌감을 주는 콘텐츠를 가이드라인에 따라 엄격히 금지해왔음에도 이번 문제가 생긴 데에 대한 책임을 통감하고 있다”면서 “다시는 이런 일이 발생하지 않도록 심사 프로세스를 철저히 재검토하고 강화하겠다”고 약속했다. 전날 모바일 메신저 라인의 대화창에서 쓸 수 있는 이모티콘과 스티커 등을 파는 사이트 ‘라인스토어’에는 ‘문씨 스탬프’(Stamps of Mr.Moon)라는 제목의 스티커가 한때 1200원에 판매됐다. 미네오 미네(Mineo Mine)라는 닉네임으로 게시된 이 스티커는 모두 문재인 대통령이 머리카락이 흐트러지고 두 눈동자의 방향이 제멋대로 돌아간 채 콧물과 침을 흘리는 등 모욕적인 모습으로 표현했다. 이 이미지를 활용해 8개로 구성된 스티커에는 문 대통령을 희화화하거나 최근의 한일 갈등의 책임이 온전히 문 대통령에게 있다는 일방적인 주장을 담은 문구가 함께 적혀 있다. “감사합니다 문짱입니다(どうもムンちゃん)”, “그 말이 뭐였더라(その話なんだっけ)”, “저는 제정신입니다”(私はまともです) 등은 문 대통령을 조롱하는 뜻으로 보인다. 또 “약속? 뭐야 그게(約束? なにそれ)”는 지난 1965년 한일 청구권 협정으로 개인 청구권까지 모두 해결됐으며, 문 대통령이 이런 국가간 약속을 저버렸다는 일본 정부 주장과 같은 메시지다. 해당 이모티콘은 한국을 혐오하는 일본 네티즌이 만든 것으로 보인다. 라인은 개인 창작자가 만든 이모티콘과 스티커 등을 ‘크리에이터스 마켓’을 통해 판매하고 있다. 다만 라인의 내부 검토 절차를 통과한 콘텐츠만 판매가 가능하다. 문 대통령을 모욕한 이모티콘은 이 과정에서 걸러지지 않은 것이다. 라인은 일본에서 점유율이 가장 높은 ‘국민 메신저’다. 일본 내 월간 이용자수가 8000만명에 이른다. 일본 인구(약 1억 3000만명)의 60% 가량이 이용하는 셈이다. 신진호 기자 sayho@seoul.co.kr ▶ ▶ ▶ 공짜로 만화를 볼 수 있다? 당신의 ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=005&amp;aid=0001233852&amp;date=20190829&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=22</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>[속보]정부 2020년 513조 ‘슈퍼’ 예산 편성</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>내년 정부 예산안이 올해보다 9.3% 늘어난 513조5000억원으로 확정됐다. 올해(9.7%)에 이어 2년째 9%대 증액으로 국내 경기부진과 대외 여건 악화에 대응하기 위해서다. 정부는 29일 임시국무회의를 열고 올해 본예산 469조6000억원보다 43조9000억원 증액한 513조5000억원의 ‘2020년 예산안’을 확정한다. 지출증가율 9.3%는 내년 경상성장률 전망치 3.8%의 2배를 훌쩍 넘을 정도로 확장적이다. 글로벌 금융위기에 대응했던 2009년 10.6% 이후 최고 수준의 확장적 재정이다. 정부는 먼저 내년 혁신성장 가속화에 올해(8조1000억원)보다 59.3% 많은 12조9000억원을 쏟아붓는다. 세부적으로는 일본의 수출규제 등 경제보복에 대응해 핵심 기술개발과 제품 상용화, 설비투자 확충을 위한 자금공급에 올해보다 163%(1조3000억원) 늘어난 2조1000억원을 투입한다. 추가 소요에 대비해 목적예비비를 5000억원 증액하고, 특별회계 신설을 추진한다. 무역금융을 4조2000억원 확대해 수출 부진을 해소하고 정책자금 14조5000억원을 풀어 중소·중견기업의 경영 애로를 덜어준다. 사회간접자본(SOC) 예산은 22조3000억원이다. 12.9% 늘린 것으로, 문재인 정부 들어 첫 두 자릿수 증가율이다. 정부는 내년 일자리 예산을 올해(21조2000억원)보다 21.3% 늘린 25조8000억원으로 편성했다. 사상 최대 규모다. 정부는 다음 달 3일 국회에 예산안을 제출하고 국회는 법정시한인 12월 2일까지 심의·의결해야 한다. 강주화 기자 rula@kmib.co.kr GoodNews paper ⓒ , 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011049153&amp;date=20190829&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=23</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>재계, 경영환경 악화 우려…"日수출규제로 어려운데, 안타깝다"(종합)</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>재계 인사들 "대표 그룹의 위축, 기업계 전반으로 확산할 수도" 경총·전경련 등 논평 발표…사법부에 "한국경제 악영향 고려" 요청 (서울=연합뉴스) 업계팀 = 대법원이 29일 '국정농단' 사건 판결에서 이재용 삼성그룹 부회장의 뇌물액을 2심보다 더 많이 인정하자 재계는 일제히 우려를 표명했다. 재계는 일본의 수출규제 강행으로 한일 경제전쟁이 치열해지고, 미·중 무역전쟁 악화가 우려되는 상황에서 또 하나의 악재가 나온 것으로 받아들였다. 한국경영자총협회와 전국경제인연합회 등 경영계 단체도 삼성그룹이 재계의 '대표선수'로 위기 극복에 앞장섰는데, 이번 대법원 결정을 계기로 위축되면서 재계 전반에 악영향을 미치지 않을까 걱정했다. 경총은 입장문에서 "경영계는 이번 판결로 삼성그룹의 경영상 불확실성이 가중될 것을 우려하며 안타까운 심정"이라고 밝혔다. 경총은 "지금 우리 경제는 미·중 무역 갈등과 일본의 수출규제조치 등 대내외 어려움이 가중된 상황으로 이를 타개하기 위해서는 기업이 앞장서 투자와 일자리 창출을 보다 활발히 할 수 있도록 지원과 격려가 절실한 상황"이라고 말했다. 이어 "무엇보다 우리 산업이 핵심 부품 및 소재, 첨단기술 등에 대한 해외 의존도를 낮추고 산업경쟁력을 고도화해 나가기 위해서는 삼성그룹이 비메모리, 바이오 등 차세대 미래사업 육성을 주도하는 등 국제경쟁력 우위 확보에 선도적 역할을 수행해 줘야 할 것"이라고 지적했다. 경총은 "경영계는 이번 판결이 삼성그룹 경영에 악영향을 미치지 않도록 정부 차원의 정책적·행정적 배려를 부탁드린다"고 요청했다. 전경련도 배상근 전무 명의로 낸 논평에서 "대법원의 이재용 부회장에 대한 판결을 존중한다"면서도 "일본의 수출규제 강화, 미·중 무역전쟁 등 여러 가지 어려운 경제 상황에서 이번 판결로 경제계의 불확실성이 지속됨을 안타깝게 생각한다"고 밝혔다. 배상근 전무는 또 "글로벌 무한경쟁 시대에 이번 판결에 따른 삼성의 경영활동 위축은 개별기업을 넘어 한국경제에 크나큰 악영향을 더하지 않을까 우려된다"고 덧붙였다. 배 전무는 "향후 사법부는 이러한 부분을 종합적으로 고려해주길 바란다"고 요청하며 "경제계는 적극적 투자와 일자리 창출로 직면한 경제난을 극복해 나가는 데 매진하겠다"고 밝혔다. 아울러 주요 대기업 관계자들도 TV 생중계를 지켜보는 등 촉각을 곤두세웠으며 최악의 시나리오가 나오자 안타깝다는 반응을 보였다. 5대 그룹의 한 고위 임원은 "일본의 백색국가 배제가 본격 시행되고, 미중 무역갈등이 심화하는 등 경영환경이 최악으로 갈 수 있는 상황에서 재계가 또 한 치 앞도 볼 수 없는 시계 제로 상태가 돼 안타깝다"며 "무엇보다 이번 판결이 대기업들의 투자심리를 위축시키는 분위기가 되지 않길 바란다"고 말했다. 모 대기업 임원도 "대내외 환경이 어려울 때 재계의 대표선수가 앞장서 위기를 극복해야 하는데 이번 결정으로 위축되면 재계 전반으로 부정적 영향이 미칠 수 있다는 우려가 있다"고 말했다. 이밖에 재계 고위 관계자는 기업들의 위축이 불가피하다며 "기업을 옭아매는 시그널이 아니냐, 어떻게 경제활동을 하라는 것인가"라고 반문했다. justdust@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=448&amp;aid=0000280977&amp;date=20190829&amp;type=2&amp;rankingSectionId=101&amp;rankingSeq=24</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>'먼지·악취 논란' LG 건조기…145만대 전량 무상 수리</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>[앵커] LG전자가 먼지와 악취 발생으로 논란을 빚었던, 의류건조기를 무상 수리해주기로 했습니다. 대상이 145만대나 됩니다. LG전자는 여전히 제품 결함이 아니란 입장이지만, 소비자 반발이 거세지면서 결국 두 손을 들었습니다. 권용민 기자입니다. [리포트] 건조기를 분해했더니, 콘덴서에 먼지가 가득합니다. 콘덴서는 내부에 고온건조한 공기를 유지해주는 핵심 부품입니다. 바닥에선 악취도 납니다. LG전자는 3년전부터 건조기에 콘덴서 자동세척 기능을 추가했습니다. 하지만 최근 소비자들의 결함 의혹이 잇따랐습니다. 정일호 / 경북 청도군 "사실 광고 보고 사려고 했는데, 그렇게 나오는 거 보니까 별로 사고싶은 마음이 안생기더라고요." 한국소비자원의 표본조사결과, 5대 가운데 1대꼴로 콘덴서 앞부분에 먼지가 끼는 문제가 발생했습니다. 건조기 바닥에 남은 세척수가 완전히 배출되지 않은 채 먼지와 섞여 곰팡이나 악취를 발생시킬 수 있는 것으로 나타났습니다. 소비자원엔 관련 민원이 한달만에 38배 폭증하고, 리콜을 요구하는 청와대 청원도 3만 건을 넘었습니다. 김선환 / 한국소비자원 위해관리팀 팀장 "먼지가 필터를 통과하지 못하고 다른 틈새로 들어가기 때문에… 먼지가 쌓이 게되면 효율성이 떨어지는데…" LG전자는 여전히 제품 결함은 아니란 입장입니다. 다만 논란이 커지자 소비자원의 무상수리 권고를 받아들여, 지금까지 판매된 145만 대에 대해 전량 부품 교체를 진행하기로 했습니다. TV조선 권용민입니다. * 뉴스제보 : 이메일(tvchosun@chosun.com), 카카오톡(tv조선제보), 전화(1661-0190) 권용민 기자(bebrave@chosun.com) - Copyrights ⓒ TV조선. 무단전재 및 재배포 금지 -</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=008&amp;aid=0004270349&amp;date=20190829&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=25</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>국정농단 선고…"삼성, 최악은 면했다" 반응 나오는 이유</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>[머니투데이 박소연 기자] [파기환송 리더십 공백 위기...일각선 "국외재산도피죄 무죄 확정, 상당한 의미"] 삼성은 29일 대법원이 이재용 삼성전자 부회장에 대해 원심 파기환송 판결을 내린 것과 관련해 망연자실한 분위기다. 다만 국외재산도피죄 무죄 판결 등은 긍정적으로 평가하며 위기 대응에 총력을 다할 방침이다. 대법원은 이날 삼성이 제공한 뇌물액 규모와 관련해 이 부회장의 2심 판결 중 무죄로 봤던 부분을 추가로 뇌물로 인정했다. 삼성이 최순실씨에 제공한 말 3필과 관련해 소유권 자체를 넘겨준 것으로 보고 말 구입액 34억원을 뇌물로 판단했다. 동계스포츠영재센터 뇌물 혐의액 16억원도 뇌물액으로 인정된다고 판시했다. 이에 대해 삼성은 판결 직후 입장문을 배포하고 "불확실성이 커지는 경제 상황 속에서 삼성이 위기를 극복하고 국가 경제에 이바지할 수 있도록 많은 도움과 성원을 부탁드린다"고 밝혔다. 삼성이 입장문을 발표한 것은 2016년 말 국정농단 사건이 불거진 후 각종 법정 다툼 중 처음 있는 일로, 그만큼 내부에서 느끼는 위기의식이 엄중하다는 의미로 해석된다. 최악의 반도체 업황과 미중 무역분쟁, 한일 경제갈등 등 불확실성이 가중되는 상황에서 삼성은 리더십 공백의 리스크를 이어가는 부담을 안게 됐다. 삼성 관계자는 "대법원 판단은 언론 보도를 통해 잘 지켜봤으며 향후 파기환송심 등 대응방안을 다각도로 논의할 것"이라며 "모든 가능한 위기상황에 차질 없이 대응하도록 할 것"이라고 말했다. 한편 일각에서는 최악을 면했다는 반응도 나온다. 또 다른 삼성 관계자는 "이 부회장 변호인단이 밝혔듯 말 자체가 뇌물이라고 대법원이 판단한 것은 본질이 크게 변하지 않는 부분"이라며 "오히려 국외재산도피죄가 무죄로 확정된 게 상당히 의미있다고 본다"고 밝혔다. 이어 "전체적으로 뇌물 액수는 늘어나고 법리적 판단이 조금씩 달라지긴 했어도 감형 요소이 많아 집행유예가 나올 가능성이 충분히 있다고 보고 있다"고 덧붙였다. 이 부회장 변호인단은 이날 대법원 전원합의체의 상고심 직후 서초동 대법원에서 기자회견을 열어 "형이 가장 무거운 재산국외도피죄와 뇌물 액수가 가장 큰 재단 관련 뇌물죄에 무죄를 확정했고, 삼성이 어떤 특혜도 취하지 않았음을 인정한 것은 의미있다"고 강조했다. 박소연 기자 soyunp@mt.co.kr &amp;lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=081&amp;aid=0003024896&amp;date=20190829&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=26</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>[단독] 물 새는 주차장, 선풍기로 습기 제거… 배선 문제로 에어컨 설치 못한 가정도</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>[서울신문] “하자투성이입니다. 올해 지은 아파트라고 할 수 없을 정도로 마감이 엉망입니다. 다른 집들은 바닥과 벽에 금이 갔고, 주차장 균열·누수 등 말도 안 되는 일이 많습니다.”(경기 성남 호반써밋 입주민 A씨) “여러 아파트에서 살아 봤지만, 이렇게 (지하주차장) 결로가 심한 아파트는 처음이에요.”(경기 고양 호반베르디움 입주민 B씨) 글 사진 특별취재팀 hobanjebo@seoul.co.kr 서울신문은 호반건설그룹 김상열 회장 일가의 승계 문제를 비롯해 그룹 계열사의 각종 갑질과 부당행위, 정관계 로비 등을 집중 취재하고 있습니다. 직접 당하셨거나 목격한 사례 등이 있다면 제보(hobanjebo@seoul.co.kr) 부탁드립니다. 제보해주신 분의 신원은 철저히 비밀에 부쳐집니다. 알려주신 내용은 끝까지 취재해 보도하겠습니다. ▶ ▶ ▶ 공짜로 만화를 볼 수 있다? 당신의 ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=005&amp;aid=0001234176&amp;date=20190829&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=27</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>LG 트롬건조기 145만대 무상수리…“소비자원 시정권고 이행”</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>한국소비자원은 악취와 먼지 등으로 문제가 된 LG전자의 의류건조기에 대해 시정권고를 내렸다. LG전자 측은 소비자원 권고에 따라 지난 2016년 4월부터 최근까지 판매된 의류건조기 145만대 전량에 대해 무상수리 조치를 실시하겠다고 밝혔다. 소비자원은 최근 소비자들의 항의가 이어진 LG전자 의류건조기 50대를 표본조사한 결과 기기 구조에 원인이 있다고 결론 내리고 전량 부품교체와 구조개선 등 무상수리를 29일 권고했다. 문제가 된 제품은 ‘트롬 듀얼인버터 히트펌프 건조기’였다. 점검 결과 50대 중 11대가 콘덴서 전면 면적의 10% 이상에 먼지가 끼어 있는 것으로 나타났다. 이중 14·16kg 대형건조기는 총 20대 중 9대에 10% 이상의 먼지가 쌓여있었다. 6개월 이상 사용한 대형건조기의 경우 총 10대 중 4대에 20% 이상 먼지가 축적돼 있었다. 콘덴서에 먼지가 쌓이는 원인은 자동세척 기능 오작동 때문이었다. 자동세척 기능이 작동하기 위해서는 건조과정 중 내부바닥에 1.6~2ℓ의 응축수가 모여야 한다. 그러나 소량의 의류만을 건조할 때 응축수가 적게 발생했으며 침구 털기 등 건조 이외의 기능을 사용할 때에는 응축수가 발생하지 않아 자동세척이 이뤄지지 않았다. 특히 대형건조기의 경우에는 먼지가 필터가 아닌 다른 경로로 유입되는 것을 방지하는 장치가 부재했다. 필터 결탁 부위에 고무 재질의 실링 처리가 돼 있는 소형건조기와는 달리 대형건조기에는 이 같은 실링 처리가 없었던 것이다. 세척에 활용된 응축수가 300∼700㎖가량 내부 바닥에 남아있는 것도 문제였다. 응축수가 추후 먼지 등과 섞여 미생물이 번식하거나 악취를 유발할 수 있었으며 건조과정에서 새로 발생한 응축수와 혼합돼 오염된 물로 콘덴서 세척이 이뤄질 가능성도 있었다. 이 외에도 남아있는 응축수가 건조기 내부를 습하게 만들어 금속 재질의 구리관과 콘덴서의 결착 부위를 지지하는 강판의 부식을 일으킬 가능성도 존재했다. 소비자원은 이 같은 점검 결과에 따라 LG전자에 콘덴서 먼지 축적 방지와 제품 내 응축수 잔존량을 최소화하는 방안 등을 마련할 것을 권고했다. 이에 LG전자는 기존 부품을 개선된 물품으로 교체하는 것으로 결정했다. 이와 더불어 내달 2일부터 건조 기능을 사용할 때마다 자동세척이 작동되는 프로그램을 기존의 제품들에 적용하기로 했다. 대형건조기의 경우 필터 결착 부위에 고무 재질의 부품을 적용하는 한편 배수 성능 향상을 위한 펌프구조 개선도 진행할 예정이다. 콘덴서 부분에 녹이 발생해 기능 손상이 발생하는 경우 10년간 관련 부품을 무상으로 수리하는 방침도 내놓았다. LG전자 측은 “보다 편리하게 건조기를 사용할 수 있는 방법에 대한 검증을 마쳤고 소비자원의 시정권고를 충실하게 이행하겠다”고 밝혔다. 제품의 무상 수리 조치는 LG전자 서비스센터에 요청하면 된다. 한편 소비자원은 LG전자의 조치사항을 3·6·12개월 단위로 점검할 예정이다. 김영철 인턴기자 GoodNews paper ⓒ , 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=057&amp;aid=0001378584&amp;date=20190829&amp;type=2&amp;rankingSectionId=101&amp;rankingSeq=28</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>'먼지 낌·악취 논란' LG 건조기, 145만 대 전량 무상수리</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 	 	【 앵커멘트 】 그동안 건조기 내부에 먼지가 끼고, 악취가 난다는 소비자 불만이 끊이지 않았던 LG 건조기에 대해 소비자원이 시정권고를 내렸습니다. LG전자는 지금까지 판매된 145만 대 전량에 대해서 무상으로 부품을 수리하겠다고 밝혔습니다. 서영수 기자입니다. 【 기자 】 건조기 내부에 먼지가 가득 끼어 있고, 바닥에는 썩은 물이 고여 있습니다. 다른 건조기와 달리 콘덴서를 자동으로 세척하는 기능을 강조해 인기를 끌어온 LG전자의 건조기에서 나타난 현상입니다. ▶ 인터뷰(☎) : 강 모 씨 / LG 건조기 소비자 - "수건 건조하고 나서 건조기 문을 열면 공장 단지에 하천물 썩은 냄새 있잖아요. 그 냄새가 확 올라오더라고요. 문 엶과 동시에." ▶ 스탠딩 : 서영수 / 기자 - "실제 소비자가 2년 반 동안 사용한 건조기를 열어보니 콘덴서에는 녹이 슬어 있고 바닥에는 물이 고여 곰팡이가 피어 있습니다." 소비자 불만이 끊이지 않자 소비자원이 조사에 나섰고, 해당 제품의 구조가 문제의 원인으로 지목됐습니다. 대형 건조기에 먼지 유입을 막아주는 장치가 없었고, 배수 기능이 제대로 작동하지 않아 이같은 문제가 발생했다며 LG전자에 시정권고를 내렸습니다. ▶ 인터뷰 : 김선환 / 한국소비자원 팀장 - "설계 당시에 건조기 바닥에 물이 많이 고여 있고 곰팡이가 생기거나 악취가 발생하는 가능성을 충분히 고려하지 못한 것으로…." LG전자는 지금까지 판매된 145만여 대의 건조기에 대해 문제를 개선한 부품으로 전량 무상 수리하기로했습니다. ▶ 인터뷰(☎) : LG전자 관계자 - "보다 편리하게 건조기를 사용할 수 있는 검증을 마쳤고, 한국 소비자원이 발표한 시정권고를 충실히 이행해 나갈…." 하지만 일부 소비자들은 LG전자 측 대응이 여전히 미흡하다며 법적 조치를 예고했습니다. MBN뉴스 서영수입니다. 영상취재 : 김영환 VJ 영상편집 : 이우주 &amp;lt; Copyright ⓒ MBN(www.mbn.co.kr) 무단전재 및 재배포 금지 &amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=008&amp;aid=0004270387&amp;date=20190829&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=29</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>재판 남았는데…"잘못 되풀이 않겠다" 고개숙인 이재용</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>[머니투데이 최석환 기자, 심재현 기자, 이정혁 기자, 박소연 기자] [(종합)삼성 첫 공식입장 발표에 "위기 심각하다는 방증"…집행유예 가능성은 여전] 대법원이 29일 '박근혜·최순실 국정농단' 사건과 관련해 이재용 삼성전자 부회장에 대해 파기환송을 결정하자 삼성그룹 내부에선 무거운 침묵이 흘렀다. 징역 2년6개월에 집행유예 4년을 받았던 2심에서 인정되지 않았던 뇌물 죄가 추가되면서 형량이 늘어날 가능성이 커지자 충격에 휩싸인 것이다. 대법원은 이날 '정유라 승마지원 용역 대금(36억원)'에 더해 '정유라 말 구입액(34억원)'과 '동계스포츠영재센터 지원금(16억원)'을 뇌물로 인정해 2심 재판을 다시 하라는 판결을 내렸다. 하지만 삼성 내부에선 파기환송심에서도 집행유예가 가능하다고 기대하는 분위기다. 신동빈 롯데그룹 회장의 경우 항소심에서 대통령에게 면세점 특허를 청탁하고 그 대가로 70억원의 뇌물을 공여한 점, 롯데를 경영하면서 상당한 금액을 횡령·배임한 점이 모두 유죄로 인정됐지만 '강요에 의한 수동적 뇌물 공여'라는 이유로 집행유예 판결을 받아서다. 이 부회장 변호인단도 이날 "대통령 요구에 따른 금품 지원을 뇌물 공여죄로 인정한 것은 아쉽다"면서도 "마필 자체를 뇌물로 인정한 것은 원심에서도 마필의 무상사용을 뇌물로 인정했기 때문에 본질에 영향을 줄 요인은 아니라고 본다"고 봤다. 변호인단은 "가장 무거운 죄인 재산 국외도피죄와 뇌물 액수가 가장 큰 재단 관련 뇌물죄에 대해 무죄를 확정했다는 것이 중요한 의미"라며 "삼성이 어떤 특혜도 취하지 않았음을 (대법원이) 인정한 것"이라고 밝혔다. 삼성그룹은 최대한 고개를 숙였다. 이날 그룹 명의로 발표한 입장문에서 "이번 사건으로 국민 여러분께 심려를 끼쳐드려 대단히 송구스럽게 생각한다"며 "앞으로 과거의 잘못을 되풀이 하지 않도록 기업 본연의 역할에 충실하겠다"고 밝혔다. 이어 "최근 수년간, 대내·외 환경 불확실로 적지 않은 어려움을 겪어왔고 미래산업을 선도하기 위한 준비에도 집중할 수 없었던 게 사실"이라며 "갈수록 불확실성이 커지는 경제 상황 속에서 위기를 극복하고 국가경제에 이바지할 수 있도록 많은 도움과 성원을 부탁드린다"고 호소했다. 삼성은 2016년 하반기 국정농단 사건이 시작된 이후 3년간 이 부회장의 구속 기소, 1심 실형 판결, 2심 집행유예 판결 등을 겪으면서도 공식적인 입장을 한 번도 내지 않았다. 삼성의 입장문 발표와 관련, 재계 안팎에서는 이번 대법원 선고를 계기로 국민에게 반성의 뜻을 밝히면서도 수사결과도 나오기도 전에 주요 경영진이 여론재판의 피의자 신분으로 낙인찍히면서 리더십이 마비되는 악순환에 대한 답답함과 위기감을 호소한 것으로 봤다. 재계 관계자는 "통상 최종 판결이 나온 시점에 입장을 내는 것이 일반적인데 파기환송으로 아직 재판 절차가 남았는데도 '잘못했다. 되풀이하지 않겠다'고 머리를 숙였다"며 "그만큼 삼성의 위기가 바깥에 알려진 것보다 훨씬 심각하다는 방증"이라고 말했다. 대법원 파기환송 선고로 이 부회장이 당장 구속되지는 않는다. 그러나 2심(파기환송심) 재판부터 다시 시작해야 해 경영 행보가 제한될 수밖에 없을 것으로 보인다. 일반적으로 파기환송심에 3~4개월이 걸리지만 재상고로 대법원 판결을 다시 받는 기간까지 고려하면 최종 판결까지는 1년 정도가 걸릴 전망이다. 이 부회장은 대법원 선고와 상관없이 묵묵히 경영행보를 이어갈 것으로 보인다. 대내외 위기상황 극복을 위해 새로운 리더십의 돛을 올린 이상 거취 논란에 흔들리지 않고 경영에 전념할 것이라는 관측이다. 삼성 관계자는 "실적 악화와 일본 수출 규제, 미중 무역 갈등 격화 등이 겹치는 전례 없는 초비상 상황(퍼펙트스톰)에 몰려있다"며 "오너 비전과 경영진 실행력, 직원들의 '할 수 있다'는 도전 정신이 결합된 삼성 고유의 '핵심 경쟁력'을 살려 위기를 극복할 수 있도록 기회를 달라"고 말했다. 최석환 기자 neokism@mt.co.kr, 심재현 기자 urme@mt.co.kr, 이정혁 기자 utopia@mt.co.kr, 박소연 기자 soyunp@mt.co.kr &amp;lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=421&amp;aid=0004168721&amp;date=20190829&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=30</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>'日넘어 경제강국 이룬다'…文정부, 내년 513.5조원 슈퍼예산</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>(세종=뉴스1) 이훈철 기자,서영빈 기자 = 문재인 정부가 경기하방 위험에 대응해 경제활력을 높이고 혁신성장에 대한 선제적 투자로 경제강국을 건설하기 위해 내년에 513조5000억원의 '슈퍼예산'을 편성했다. 지출 증가율은 2년 연속 9%대로 유지해 올해에 이어 내년에도 확장적 재정기조를 이어갔다. 내년 예산은 일본 규제에 맞서 소재·부품 자립화를 위해 연구개발(R&amp;amp;D)에 대한 재정투자를 17% 이상 늘리고 수출·투자 지원을 위한 산업 분야 예산도 사상 처음으로 20조원 이상 편성하는 등 경제분야 예산을 대폭 늘렸다. 복지예산은 기초연금 인상과 소외계층에 대한 지원 확대를 위해 사상 최대 규모인 180조원대로 확대했으며, 일자리 예산도 노인·사회서비스 일자리 확충을 위해 올해에 이어 내년에도 20% 이상 늘렸다. 반도체 불황과 수출감소 등에 따른 세입여건 악화로 국세수입이 7년 만에 감소세로 돌아설 것으로 예상되는 가운데 재정지출이 늘어나면서 재정건전성은 악화될 것으로 전망됐다. 국가채무는 800조원을 넘어서고 국내총생산(GDP) 대비 재정수지 적자비율은 마이너스(-) 3%대로 떨어져 금융위기 이후 10년 만에 최악을 기록할 전망이다. 정부는 29일 국무회의에서 이 같은 내용의 '2019년 예산안'과 '2019~2023년 국가재정운용계획'을 의결하고 오는 9월3일 국회에 제출할 계획이다. 내년 예산은 올해 편성된 469조6000억원보다 43조9000억원(9.3%) 늘어난 규모다. 10년 만에 최대 지출증가율을 기록한 올해보다 증가율은 다소 떨어졌지만 예산 증가규모는 올해를 웃도는 수준이다. 문재인 정부 첫해 7.1%의 지출증가율에 이어 올해 9.5%와 내년 9.3%로 이어지는 가파른 지출증가율을 기록하면서 총지출 규모도 3년 만에 500조원을 돌파했다. 이는 과거 예산규모가 300조원에서 400조원대를 넘어서는 데 6년이 걸린 것과 비교하면 상당히 빠른 수준이다. 정부는 이에 대해 미중 무역갈등과 일본 수출규제 등 우리 경제를 둘러싼 대내외 리스크에 적극 대응하고 미래먹거리가 될 혁신성장에 대한 투자를 늘리기 위해 예산규모를 확장적으로 편성했다고 밝혔다. 내년 예산은 Δ핵심 소재·부품·장비 자립화 Δ혁신성장 가속화 Δ경제활력 제고 Δ포용국가 기반 공고화 Δ생활편의·안전·건강 증진 등에 중점 투자를 골자로 한다는 것이 정부의 설명이다. 12개 분야별 재원배분을 보면 모두 올해보다 증액됐다. 특히 내년 예산 중 가장 높은 지출증가율을 기록한 것은 산업·중소기업·에너지 분야다. 산업 분야 예산은 최근 부진을 겪고 있는 수출·투자에 대한 금융·재정지원을 늘리고 제2벤처붐 조성과 영세 자영업자 지원 등을 위해 올해 18조8000억원보다 5조2000억원(27.5%) 늘어난 23조9000억원이 편성됐다. 또 R&amp;amp;D 예산의 증가도 눈에 띈다. 내년 R&amp;amp;D 예산은 24조1000억원으로 올해 20조5000억원보다 3조6000억원(17.3%) 증액했다. 최근 일본의 수출규제에 대응해 핵심 소재·부품 자립화를 지원하기 위한 이른바 '극일' 예산이 2조1000억원 투입됐으며 혁신성장 집중투자를 위해 'DNA(데이터·네트워크·AI)+BIG 3(시스템반도체·바이오헬스·미래자동차) 분야에 4조7000억원도 내년 예산에 반영됐다. 여기에 사회간접자본(SOC) 예산 22조3000억원 등을 포함하면 경제분야 예산은 91조3000억원으로 전년 79조1000억원보다 15.4% 증가한 것으로 나타났다. 전체 예산 중 가장 큰 비중을 차지하는 보건·복지·고용예산도 대폭 늘어났다. 내년 복지예산은 181조6000억원으로 올해 161조원보다 20조6000억원(12.8%) 증가했다. 이는 역대 복지예산 최대 증액 규모를 기록했던 올해(17조6000억원, 12.1%)보다 높은 수준으로, 전체 예산 중 복지예산이 차지하는 비중도 34.5%에서 35.4%로 확대됐다. 기초연금예산이 11조5000억원에서 13조2000억원으로 증액됐으며, 고교 무상교육 시행에 따라 7000억원이 새롭게 편성됐다. 내년 일자리 예산은 25조8000억원으로 올해 21조2000억원보다 4조5000억원(21.3%) 증액됐다. 노인일자리 지원예산 1조2000억원 등 사회서비스 일자리 지원에 2조9000억원이 편성됐으며, 실업급여 예산은 7조9000억원에서 10조4000억원으로 대폭 늘어났다. 올해 각각 6.3%, 0.3% 삭감됐던 문화·환경예산은 내년에 각각 10.1%, 3.6% 증액됐으며 농림 예산(1.1%) 소폭 확대됐다. 국방예산은 군장병 봉급 인상과 차세대 잠수함 확충 등으로 올해보다 3조5000억원 늘어난 50조2000억원이 편성됐다. 국방예산이 50조원이 넘어선 것은 이번이 처음이다. 이밖에 외교·통일예산은 올해보다 9.2% 증액된 5조5000억원으로 편성됐으며, 일반·지방행정 예산은 공무원 임금상승에 힘입어 올해 76조6000억원에서 내년 80조5000억원으로 3조9000억원(5.15) 증액됐다. 미세먼지 예산으로 관심을 모은 환경분야 예산은 8조8000억원으로 올해 7조4000억원보다 1조4000억원(19.3%) 늘었다. 내년 총수입은 482조원으로 올해 476조1000억원보다 5조9000억원(1.2%) 증가하는데 그칠 전망이다. 총수입 증가율이 1%대로 뚝 떨어진 것은 수입의 큰 비중을 차지하는 국세수입이 내년에 감소세로 돌아서기 때문이다. 내년 국세수입은 292조원으로 올해 294조8000억원보다 2조8000억원(-0.9%) 감소할 것으로 전망됐다. 국세수입이 전년대비 줄어드는 것은 '세수펑크'(세수결손)가 났던 2013년 이후 7년 만이다. 수입이 줄고 지출이 늘어나면 재정부담을 커질 전망이다. 내년 관리재정수지 적자 규모는 72조1000억원으로 올해 42조3000억원보자 적자 규모가 34조5000억원(-1.7%p) 늘어날 것으로 예상됐다. 국내총생산(GDP) 대비 재정수지 적자비율도 3.6%를 기록하며 글로벌 금융위기 이후 최대폭으로 늘어날 전망이다. 확장적 재정기조에 따라 내년 국가채무는 805조5000억원으로 올해 740조8000억원보다 64조7000억원 늘어날 전망이다. GDP 대비 국가채무비율도 올해 37.1%에서 내년 39.8%로 2.7%p 상승할 것으로 예상됐다. 다만 정부는 2021년부터 국세수입이 늘어나고 재정지출 증가율을 5~6%대로 유지할 경우 연평균 재정수지 적자비율을 3%대 중분 수준에서 관리할 수 있을 것으로 내다봤다. 국가채무비율 역시 40%대 중반 수준에 관리한다는 계획이다. 홍남기 부총리 겸 기획재정부 장관은 "우리 경제의 어려운 여건을 엄중히 인식하고 경제 하방리스크가 커지고 있다는 점에서 우려스럽다"며 "경제가 탄탄하게 가기 위해서는 혁신성장에 대한 투자수요가 필요하고 취약계층 지원을 통해 사회안전망을 강화하는 것도 중요하다. 이는 성장경로를 제대로 가기 위한 투자"라고 말했다. boazhoon@news1.kr [© 뉴스1코리아(), 무단 전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=008&amp;aid=0004269127&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=1</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>월세가 '0원'… 강변 테크노마트의 몰락</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>[머니투데이 박미주 기자] [보증금 200만원에 관리비만 내면 돼… 경기침체·온라인 유통 활성화 등 영향] “테크노마트 점포 월세 없이 쓰실 분 찾습니다.” 　 소액 보증금만 내면 월세를 지급하지 않아도 되는 상가점포가 등장했다. 한때 전자제품 판매의 메카로 불리던 강변 테크노마트에서다. 일반적으로 월세 수익을 올리기 위해 상가를 매입하지만 상권이 죽고 공실 상태로 비용만 발생하다 보니 점포주들이 이같은 고육지책을 마련한 것이다. 　 27일 부동산업계에 따르면 최근 서울 광진구 구의동 강변 테크노마트 5층 약 10.9㎡짜리 점포를 월세 없이 보증금 200만원에 사용할 수 있는 매물이 나왔다. 소형가전, 카메라 등을 판매할 수 있으며 매달 관리비만 납부하면 된다. 　 강변 테크노마트 8층에도 보증금과 관리비만 내고 점포를 사용할 수 있는 매물이 7개 있다. 컴퓨터, 게임, DVD, 음반 등을 판매하는 점포로 사용할 수 있다. 관리비는 20만원 안팎이며 다음달부터는 가격이 인하돼 15만원선까지 내려갈 가능성도 있다. 　 해당 점포 소유주들이 월세 없는 상가를 내놓은 것은 손해를 줄이기 위해서다. 강변 테크노마트 8층 점포를 무월세로 임대하려는 소유주 강희수씨(가명)는 “주변에 빈 점포가 많다”며 “8개의 무월세 점포 중 1개는 나갔고 7개가 남았다”고 말했다. 　 “점포를 구입한 지 얼마 안됐는데 매각하려 해도 가격이 맞지 않는다”며 “매달 7개 점포의 관리비로 100만원 넘게 들어 관리비만 내고 쓰는 조건으로 임차인을 구하고 있다”고 덧붙였다. 　 이는 경기침체, 온라인 쇼핑 활성화 등의 영향이다. 전자업종, 의류 등 특정 점포만 모아놓은 집합상가는 온라인 유통시장 발달의 타격을 더 크게 받았다. 테크노마트는 시행사(프라임그룹) 부도, 비싼 관리비 등으로 임차인들의 외면을 받기도 했다. 　 이런 현상은 경매통계에서도 확인할 수 있다. 지지옥션에 따르면 지난 23일 기준 올해 1~8월 서울 상가 경매 평균 낙찰가율은 57.9%로 전년 같은 기간 68.9%보다 11%포인트 낮아졌다. 낙찰가율은 감정가 대비 낙찰가 비율로 낙찰가율 하락은 인기가 떨어진 것을 방증한다. 　 테크노마트 같은 집합상가 낙찰가율은 더 낮다. 올해 중구 밀리오레 점포는 3~4%의 낙찰가율을, 광진구 강변 테크노마트와 구로구 신도림 테크노마트 점포는 6%의 낙찰가율을 각각 기록했다. 오명원 지지옥션 연구원은 “테크노마트 소재지인 구로구, 광진구의 상가 평균 낙찰가율이 다른 구보다 낮은 편이고 10회 이상 유찰 끝에 낙찰된 물건도 많다”고 했다. 미납된 관리비까지 낙찰자가 부담해야 하는 것도 집합상가 낙찰가율이 더 낮은 이유다. 　 이상혁 더케이컨설팅그룹 상업용부동산센터장은 “한 번 망가진 상권이나 상가가 되살아나는 것은 매우 어려워 오피스로 용도 전환을 적극 검토할 필요가 있다”면서도 “소유주가 제각각인 쇼핑몰의 경우 의견을 모으기가 쉽지 않을 것”이라고 짚었다. 박미주 기자 beyond@mt.co.kr &amp;lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=008&amp;aid=0004269597&amp;date=20190828&amp;type=0&amp;rankingSectionId=101&amp;rankingSeq=2</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>신라젠 오너 1000억 챙긴후 下下下…개미들 분노</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>[머니투데이 반준환 기자, 김사무엘 기자] [신라젠 문은상 대표 등 1년 전부터 주식 처분…전무는 임상중단 1개월 전 지분 전량 매도] 신라젠 투자자들의 시름이 갈수록 깊어지고 있다. 항암치료제 펙사벡 임상중단으로 주가가 급락하면서 이미 적잖은 피해가 발생했는데 여기에 검찰 압수수색 이슈가 다시 불거지며 손실이 눈더미처럼 늘어나고 있다. 신라젠 주요 주주들은 지난해와 올 초 대량으로 주식을 처분해 차익을 실현한 터라 투자자들이 느끼는 절망감은 더욱 크다. 검찰 압수수색이 이뤄진 것도 이와 무관치 않아 보인다. 28일 서울남부지검 증권범죄합동수사단(단장 김영기)은 이날 오전 부산 북구 신라젠 본사와 서울 여의도 서울지사에 검사와 수사관을 보내 면역항암제 ‘펙사벡’ 무용성 평가 관련 자료 등을 확보했다. 검찰은 페사벡 무용성 평가를 앞두고 보통주가 대량 매각됐다는 금융감독원 자료를 넘겨 받아 신라젠 수사에 착수한 것으로 전해졌다. 검찰은 경영진을 비롯한 관계자들이 펙사벡 임상중단 가능성이 있다는 내부정보를 이용해 투자손실을 피했을 가능성도 살펴볼 것으로 보인다. 검찰 압수수색 직후 신라젠 주가는 하한가인 9000원까지 급락했다. 저가매수세가 유입되며 하한가는 벗어났으나, 종가는 전날보다 20% 내린 1만350원에 마감했다. 올해 초 7만3400원이었던 주가는 1/7 토막이 난 상태고 5조1000억원이었던 시가총액은 이제 7300억원 수준으로 내려 앉았다. 주주들의 분노는 하늘을 찌른다. 검찰의 수사결과는 아직 나오지 않았으나 그간 정황만 놓고 보면 신라젠 경영진과 주요 주주들에 문제가 있었던 것이 사실이기 때문이다. 우선 문은상 신라젠 대표의 주식처분 문제가 있다. 2018년 1월 문 대표와 특수관계자 등 9인은 장내매도를 통해 275만4497주를 처분했다. 문 대표가 193만2919주를 팔았고 친인척과 회사 임원 등이 82만1578주를 처분했다. 문 대표가 처분한 주식 가운데는 다른 주주가 가지고 있던 주식 37만75주가 포함돼 있긴 하다. 그러나 이를 제외해도 문 대표가 현금화한 주식만 1000억원에 달한다. 주당 매도가격은 8만4395원 정도다. 다른 특수관계인들은 800억원 가량의 주식을 팔았다. 시장에서는 "미국 자회사를 통해 개발중인 항암치료제 펙사벡의 특허출원이 실패해 임상이 중단되는 것 아니냐"는 관측이 나왔으나 문 대표는 이를 강하게 부인했다. 국세청 세금납부와 채무변제를 위해 어쩔 수 없이 주식을 팔았을 뿐이고 펙사벡 임상에는 이상이 없다는 것이었다. 시장에서는 이를 믿었다. 2018년 3월에는 주당 4500원이라는 낮은 가격이긴 했지만 수 만주씩 스톡옵션을 더 받아간 임원들이 나타났기 때문이다. 문제는 올해 7월 상황이다. 주가가 10만원일 때도 주식을 팔지 않았던 신현필 전무가 갑자기 5만원 안팎에 16만7777주를 처분했다. 펙사벡 임상중단 권고가 나오기 1개월 전 상황이다. 이를 두고 시장에서는 회사 임원이 임상중단 권고 사실을 미리 알고 매도한 것 아니냐는 의혹이 제기되기도 했다. 문 대표는 최근 주가가 급락한 후 책임경영 차원에서 20억원의 회사주식을 장내 매수했다고 밝혔으나 이에 대한 시각도 곱지 않다. 지난해 처분한 1000억원 주식 자금에 비하면 2% 밖에 되지 않은 금액이다. 더욱이 그는 지난해 3월 신라젠 주식 매각 시점과 맞물려 용산구 이태원동에 위치한 65억원 상당의 고급 단독주택을 매입한 것으로 전해졌다. 한 투자자는 "제약이나 바이오 기업의 경우 연구개발 성과에 대한 정보는 무척 중요하고 이를 접근할 수 있는 것도 고위직에 국한된다"며 "임원이나 대주주의 주식 매도에 대해서는 엄중하고 철저한 조사가 이뤄져야 한다"고 말했다. 반준환 기자 abcd@, 김사무엘 기자 samuel@mt.co.kr &amp;lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=005&amp;aid=0001233518&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=3</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>“이 벌레 때문에 8조원을?” 아베 옥수수 구매 뭇매</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>“숨 내쉬듯 거짓말한다. 아베 자체가 가짜.” 일본 정부가 미국산 사료용 옥수수 대량 구매를 설명하면서 엉터리 변명을 늘어놨다는 비난을 받고 있다. 거대 나방의 유충 탓에 국내 옥수수 생산량이 차질을 빚을 가능성이 있다고 했는데 정작 해충으로 인한 영향이 없다는 사실이 밝혀졌기 때문이다. 일본 네티즌들은 “아베 정부가 미국에 아양 떨려고 (8조원의) 세금을 마구 쓰고 이를 또 은폐했다”며 허탈해하고 있다. 아사히신문 계열 온라인미디어 아에라닷(Aera dot.)은 27일 미국산 사료용 옥수수 대량 수입에 대한 일본 정부의 설명을 놓고 의문이 높아지고 있다고 보도했다. 스가 요시히데 관방장관은 이날 기자회견에서 미국산 옥수수 대량 수입에 대한 질문이 나오자 “(일본에서) 공급이 부족해질 가능성이 있다”면서 큐슈 지방을 중심으로 11개 현에서 밤나방(fall armyworm·Spodoptera frugiperda)의 유충의 발생이 확인되고 있다고 설명했다. 도널드 트럼프 미국 대통령은 25일(현지시간) 프랑스 비아리츠에서 열린 주요 7개국(G7) 정상회의에서 미일 정상회담을 마친 뒤 “아베 총리가 우리의 옥수수를 모두 사주기로 했다. 수십억 달러 규모로 농부들에게는 엄청난 것”이라고 밝혔다. 그는 “중국이 농산물 구매 약속을 지키지 않아 우리 옥수수가 전국에 남아 돈다”면서 “아베 총리와 일본 국민들에게 감사한다. 우리는 환상적인 친구”라고 치켜세웠다. 일본이 수입하는 옥수수 양은 275만t이다. 우리 돈으로 따지면 8조원 규모다. 트럼프 대통령의 깜짝 발표에 아베 총리는 당황한 듯 “(미국산 옥수수 구매는) 민간 분야에서 이뤄질 것”이라고 선을 그었다. 하지만 트럼프 대통령은 어색한 표정을 지으면서도 “일본 민간 기업들은 공적 영역의 말을 매우 잘 듣는다”고 맞받았다. 이를 놓고 일본 진보성향 매체들은 “아베 정부가 미국과의 밀월관계 유지를 위해 일방적인 양보를 했다”고 비판했다. 설상가상 스가 장관의 ‘나방 탓’ 설명도 사실과 다른 것으로 확인됐다. 아에라닷은 “농림수산성에 문의해보니 ‘현재 상태의 영농 활동에는 밤나방으로 인한 악영향이 없다’는 답변을 얻었다”면서 “일부 해충 발생이 확인된 지역에서는 대량 발생을 방지하기 위해 방제작업을 서두르고 있을 뿐 작물에 미치는 영향은 크지 않다고 했다”고 전했다. 일본 농수성은 지난 7월 홈페이지에 올린 보도자료를 통해 “7월 3일 가고시마현에서 밤나방이 확인됐고 8일 추가로 가고시마현 내 사료용 옥수수 재배지에서 밤나방이 발생했다”고 알렸다. 이밖에 이바라키현에서도 밤나방이 확인됐다. 일본 내 사료용 옥수수의 생산량(연간 약 450만t)의 절반 이상을 차지하는 홋카이도현에서는 발생하지 않았다. 더 큰 문제는 일본이 수입하게 될 미국산 사료용 옥수수를 모두 소비하기도 어렵다는데 있다. 사료용 옥수수는 가축에게 먹일 때 알갱이와 줄기, 잎 등을 함께 제공해야 하는데 미국에서는 알갱이만 들여오기 때문이다. 즉 8조원에 이르는 어마어마한 양의 옥수수를 수입해놓고도 정작 사료용으로도 쓰지 못할 가능성이 높은 셈이다. 아에라닷은 “아베 정권은 막대한 세금을 투입해 얻은 국익이 무엇인가”라면서 “다만 트럼프 대통령을 즐겁게 만든 것은 분명해 보인다”고 꼬집었다. 일본 네티즌들은 발끈하고 있다. “어디가 윈윈인가. 자동차 관세철폐는 보류됐는데 우리만 필요 없는 옥수수를 잔뜩 샀다. 외교의 실패다.” “해충 피해 때문에 수입한다고? 이걸 그대로 보도한 일본 방송과 신문은 정정조차 하지 않는군.” “거짓말쟁이 아베. 아무것도 믿지 않는다.” “아베 자체가 가짜. 아베는 숨을 내쉬듯 거짓말한다.” “미국의 노예 아베 총리는 추방하자.” “정부의 발표 역시 루머였다. 협상 패배를 감추기 위해 우리의 막대한 세금이 사용된다. 용서할 수 있을까.” 아사히신문은 트위터에 밤나방 유충 사진을 올리고 “이 해충 피해 때문에 미국산 옥수수 대량 수입한다고 정부가 설명했다”고 썼다. 일본 정부의 설명대로라면 이 벌레는 자그마치 8조원짜리인 셈이다. 김상기 기자 kitting@kmib.co.kr GoodNews paper ⓒ , 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=028&amp;aid=0002466054&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=4</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>이재용 횡령죄 확정 땐…삼성전자 ‘취업 제한’ 대상 된다</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>국정농단 대법 선고 D-1 범죄 공범이 임원 등인 기업체에 특경가법상 일정 기간 취업 제한 최지성·박상진 등 공범 여럿 있어 법무부 해임 요구 첫 총수 될지 촉각 ‘무보수라 취업 아니다’며 버틸 수도 최태원 회장도 유사 논리로 직 유지 “횡령범 총수 영향력 행사 차단을” 지적 이재용 삼성전자 부회장의 회삿돈 횡령 및 뇌물공여 혐의에 대한 대법원 선고(8월29일)가 다가온 가운데 이 부회장의 횡령 혐의가 유죄로 확정되면 삼성전자에 ‘취업 제한’ 대상이 되는 것으로 나타났다. ‘특정경제범죄 가중처벌 등에 관한 법률’(특경가법)의 경제사범에 대한 ‘취업 제한’ 규정에서 이 부회장의 경우 “범죄 당시 공범이 임원 등으로 재직하던 기업체” 조항에 삼성전자가 해당되기 때문이다. 이 부회장에게는 최지성 전 삼성그룹 미래전략실장 등 횡령 공범이 여럿 존재해 유죄 확정시 향후 법무부가 ‘해임 요구권’을 발동할 ‘1호 총수’가 될지 주목된다. 특경가법의 취업제한 조항은 횡령·배임 등을 저지른 경제사범 가운데 5억원 이상으로 금액이 많아 ‘가중처벌’ 대상이 되는 범죄자의 경우 유죄를 확정받았을 때 “유죄 판결된 범죄 행위와 밀접한 관련이 있는 기업체”에 취업할 수 없게 규정하고 있다. 징역형의 집행이 끝나거나 사면된 날로부터 5년, 집행유예를 선고받았으면 종료된 날로부터 2년 뒤까지 적용된다. ‘범죄 관련 기업체’는 시행령에서 정하는데 특히 ‘공범이 재직한 회사’를 대상으로 규정하고 있다. 이 부회장의 사건에는 최지성 전 삼성 미래전략실장(부회장)과 장충기 전 미래전략실 차장(사장), 박상진 전 삼성전자 사장 등 공범이 존재한다. 이 부회장과 이들은 최순실씨(개명 뒤 최서원)의 딸 정유라씨를 위해 승마 관련 용역비 36억3484만원을 횡령해 뇌물로 공여한 혐의로 2심까지 유죄를 선고받았다. 29일 대법원 선고를 함께 앞두고 있는 가운데 남은 주요 쟁점은 2심 그대로 확정될지, 횡령액 36억여원 외에 말 구입액 34억원까지 추가로 뇌물로 인정되는 등 법리적 판단 변경으로 파기환송이 될지 여부다. 박근혜 전 대통령과 최씨의 2심에서는 34억원까지 뇌물로 봐 이 부회장 2심과 판단이 엇갈렸다. 어느 쪽이어도 이 부회장의 횡령 혐의에 ‘완전 무죄’가 선고되지 않는 한 특경가법 취업제한 조항에 적용될 가능성이 높다. 취업 제한 조항은 1983년 특경가법이 제정될 당시부터 존재했지만 역대 정부는 이를 사실상 방치해왔다. 법무부 장관이 기업체 장에게 해임을 요구하게 법에 규정돼 있는데 실행에 옮기지 않은 것이다. 때문에 재벌 총수들은 수백억원대의 회삿돈을 횡령해 유죄를 확정받고도 해당 회사에 막대한 영향을 미치는 자리를 유지해왔다. 박근혜 정부 시절 회삿돈 450억원 횡령이 유죄로 확정된 최태원 에스케이(SK)그룹 회장이 대표적이다. 그 역시 ‘공범’ 규정에 해당됐음에도 “무보수로 재직중이어서 ‘취업’이 아니다”라는 논리를 들며 자리를 유지해왔다. 등기임원인 이 부회장도 국정농단 사태 뒤 보수를 받지 않고 있기 때문에 최 회장때와 유사한 논리를 들거나 “취업은 기존 재직이 아니라 새로운 취업으로 해석해야 한다”며 버티려 할 가능성도 배제할 수 없다. 문재인 정부 들어 최근 법무부는 경제사범 취업 제한 관련 태스크포스(TF)를 운영하는 등 그동안 유명무실화했던 경제사범 관리 제도를 본격화하고 있다. 또 현행 법률이 범죄 당사자가 아닌 ‘공범이 재직하던 기업체’로 취업 제한 대상을 한정하고 있어 재벌 총수가 단독으로 범행했을 경우 빠져나갈 수 있다는 지적 등을 감안해 지난 5월7일 특경가법 시행령을 일부 개정했다. 대상에 범죄로 “손해를 입은 기업체”를 추가한 것이다. 오는 11월8일 개정안이 시행될 예정인 가운데 그 이후 횡령 등 범죄를 범한 총수는 취업 제한을 전보단 폭넓게 적용받게 된다. 이 부회장의 경우 과거 범죄이기 때문에 개정안과 무관하지만 국정농단 범죄가 삼성전자에서 조직적으로 이뤄진 탓에 공범이 많아 ‘개정 전 시행령’만으로도 적용 대상이 된다. 강정민 경제개혁연대 연구원은 “이재용 부회장의 유죄가 확정될 경우 법무부는 삼성전자에 대한 취업제한을 실행에 옮겨야 하며 총수 일가가 횡령 대상이 된 회사에 변함없이 영향력을 행사하는 일이 없도록 책임을 다 해 조처해야 할 것”이라고 말했다. 송경화 기자 freehwa@hani.co.kr ◎ Weconomy 홈페이지 바로가기: http://www.hani.co.kr/arti/economy ◎ Weconomy 페이스북 바로가기: https://www.facebook.com/econohani [ⓒ한겨레신문 : 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=008&amp;aid=0004269562&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=5</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>"日 작심하면 평택·창원 멈춰설 수도"…재고 확보 '비상'</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>[머니투데이 심재현 기자] [대체 어려운 품목 추가 규제 땐 직격탄…日 화이트리스트 제외 "언제든 한국 칠 '통상무기' 장착한 셈"] "예상했던 일이지만 일말의 기대가 없었던 것은 아니었는데…" (반도체업계 관계자) "일본이 언제 어떻게 추가 보복할지 불안감이 더 커졌다." (창원국가산업단지 업체 관계자) 일본이 28일 한국을 수출심사 우대국인 화이트리스트에서 제외하는 수출무역관리령 개정안을 시행해 재계가 긴장하고 있다. 일본 정부는 수출규제를 금수조치가 아닌 수출절차 관리라고 주장하지만 7월 이후 상황을 볼 때 사실상의 금수조치가 이미 시작된 데다 그 범위가 확대될 가능성이 높다는 게 업계 판단이다. 지난달 22일부터 가동한 소재·부품·장비 수급대응 지원센터에서는 일주일도 안 돼 3000건이 넘는 상담이 이뤄졌다. 현재 거래하는 물품이 수출규제 품목인지, 대체수입처는 어디인지, 국내에서 개발·생산하려면 예산 지원을 어디서 받을 수 있는지 등 상담 사례에서 기업이 느끼는 난처함이 그대로 묻어난다. 그동안 화이트국가로 누렸던 전략물자 일반포괄허가 혜택과 비전략물자 캐치올 규제 제외 혜택이 없어져 국내 기업은 군사전용 위험이 낮은 식품·목재를 제외한 거의 모든 품목에서 일본 정부가 의심스럽다고 판단하면 개별허가 심사를 받아야 한다. 정인교 인하대 교수는 "언제든 한국을 칠 수 있는 '통상 무기'를 장착한 것"이라고 말했다. 일본 정부가 어떤 품목을, 어떤 방식으로 수출규제할지 불확실하기 때문에 기업들은 일단 긴급물량 확보에 총력을 기울이는 눈치다. 삼성전자와 삼성디스플레이, LG디스플레이, SK하이닉스 등 지난달 첫 타깃이 됐던 기업들은 이달 초 화이트리스트 제외 결정이 나오기 전부터 전략물자를 대상으로 전수조사를 통해 재고 확보에 나섰다. 업계에선 일본 의존도가 높고 산업 영향력이 큰 반도체·디스플레이가 1차 타깃이 됐던 만큼 추가 규제도 국내 주력산업과 일본 의존도가 높은 화학소재·정밀기계, 미래 먹거리 산업으로 주력하는 수소전기차 등에 집중될 것으로 본다. 가장 피해가 예상되는 분야는 역시 반도체·디스플레이다. 지난달 규제대상에 오른 고순도 불화수소, EUV(극자외선) 파운드리 공정용 포토레지스트, 플루오린 폴리이미드 외에 실리콘웨이퍼, 블랭크마스크, 섀도마스크, 반도체 공정장비 등이 일본 의존도가 높거나 단기간 대체하기 어려운 품목으로 꼽힌다. 2차전지 핵심소재에선 아사히카세이와 도레이 등 일본업체가 세계 1, 3위로 시장을 주도하는 분리막이 약점으로 지적된다. 공작기계 부문도 일본산 의존도가 높다. 국내에서 사용하는 공작기계의 90% 이상이 일본 화낙의 운영체계를 사용한다. 정밀가공에 필요한 CNC모듈도 화낙 제품이 50% 이상을 차지한다. 재계 관계자는 "그런 일이 일어나선 안 되지만 일본 정부가 작심하면 삼성전자 평택사업장이나 창원국가산업단지가 멈춰 설 수 있다"며 "국산화와 공급처 다변화를 추진하는 것과 별도로 국제 공조를 통해 일본이 사실상의 금수조치를 중단하도록 압박해야 하는 게 이 때문"이라고 말했다 일본이 수출규제 강도를 높일 경우 미국, 유럽 등에 미칠 영향이 커 단기적으로 추가규제 수위를 조절할 것이라는 관측도 나온다. 하지만 중장기적으로 일본이 공급 통제를 통해 국내 업계의 차세대 기술, 공정 개발 등을 제한할 수 있다는 우려는 여전하다. 정부가 이날 소재·부품·장비 공급망 조기 안정과 상용화를 위해 내년부터 2022년까지 3년간 5조원 이상의 예산을 투입하겠다고 발표했지만 업계에선 '발등의 불'을 끄기에 역부족이라는 우려가 많다. 연구개발을 마치더라도 상용화까지는 상당한 시간이 걸린다는 지적이다. 지난해 대일 무역적자 241억달러 가운데 소재·부품·장비 적자는 224억달러에 달한다. 전국경제인연합회(전경련) 산하 한국경제연구원 조사에 따르면 일본 수출규제로 국내 대기업의 매출과 영업이익이 각각 평균 2.8%, 1.9% 줄어들 전망이다. 유환익 한경연 상무는 "업종에 따라 일부 기업이 적자전환할 가능성도 크다"고 말했다. 심재현 기자 urme@mt.co.kr &amp;lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=437&amp;aid=0000218406&amp;date=20190828&amp;type=2&amp;rankingSectionId=101&amp;rankingSeq=6</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>'구독자 1억명' 유튜버 탄생…작년 광고수입 188억</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 [앵커] 구독자 수 1억 명. 구독자 수가 우리나라 인구의 약 두 배인 유튜브 개인 제작자가 나왔습니다. 우리나라 역시 유튜브를 이용하는 사람들이 갈수록 많아지고 있습니다. 하지만 가짜뉴스 같은 아직 남은 숙제도 있습니다. 이한주 기자입니다. [기자] 혼자 게임을 하는 상황을 스스로 중계하고 노래도 부릅니다. 영국에 사는 31살 스웨덴 청년 페릭스 셸베리. 유튜브에서 '퓨디파이'로 활동하는 그가 개인으로서는 처음으로 구독자 1억 명이라는 신기록을 세웠습니다. [내가 당신을 찾았네요. 진짜 퓨디파이 맞죠?] [아악…사랑한다고 말하고 싶었어요. 당신 정말 대단해요.] 2010년 첫 영상을 올린 뒤 통통 튀는 입담으로 3년만에 1000만 구독자 기록을 세웠고, 9년만에 1억 명을 돌파했습니다. 지난해 유튜브 광고 수익으로만 188억 원을 벌어들인 것으로 분석됩니다. 20대 청년이 재미로 시작했던 일이 하나의 산업이 된 것입니다. 유튜브는 우리나라에서도 빠르게 확장하고 있습니다. 유튜브 한 달 사용시간은 388억분. 3년 전보다 약 5배로 늘었습니다. 카카오톡과 네이버 사용시간을 더한 것보다 많습니다. 하지만 풀어야 할 숙제도 있습니다. 규제가 느슨한 틈을 타서 자극적인 영상과 가짜뉴스가 쉽게 퍼집니다. 유명 유튜브 제작자들이 탈세를 하는 경우도 적지 않습니다. 유튜브 본사가 해외에 있다보니 국내 IT 기업에 비해 세금을 5%도 안 내는 불균형도 풀어야 할 과제입니다. (화면출처 : 유튜브 '퓨디파이' / 영상디자인 : 배장근) 이한주 기자 (firedoo@jtbc.co.kr) [영상편집: 최다희] Copyright by JTBC(http://jtbc.joins.com) and JTBC Content Hub Co., Ltd. All Rights Reserved. 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=029&amp;aid=0002549133&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=7</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>`靑 문턱` 못넘은 분양가상한제…자존심 금간 김현미</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>[디지털타임스 박상길 기자] 김현미 국토교통부 장관이 10월 시행할 예정이었던 민간택지 분양가상한제가 청와대 문턱을 넘지 못하면서 시행 여부가 불투명해졌다. 정부가 불안해진 서울 집값을 잡는 것도 중요하지만 일본 수출 규제 대응이 더 시급하다고 판단하면서 시행 시기를 못 박지 않아서다. 그동안 총리급 파워를 뽐내며 여러 부동산 정책을 추진력 있게 밀어 부쳐왔던 김 장관의 자존심에 금이 가게 됐다. 28일 부동산 업계에 따르면 이낙연 국무총리는 지난 26일 열린 국회 예산결산특별위원회 전체회의에 참석해 분양가상한제는 부동산 시장의 움직임을 봐 가면서 가장 좋은 시기에 가장 좋은 지역을 대상으로 실시하겠다고 밝혔다. 이어 "시기도, 대상 지역도 정해져 있지 않지만 그 제도를 시행하기 쉽게 만들어놓은 상황"이라고 설명했다. 이 총리의 이날 발언으로 10월 시행 예정이었던 분양가상한제는 일단 물건너간 것으로 보인다. 이 총리는 일본 수출규제 대응 예산(2732억원)에 대해 다음달 최대 80%를 집행하기 위해 노력하고 있다면서 일본과의 경제 전쟁에 총력전을 펼치고 있다는 점을 재차 강조했다. 정부의 결정으로 상한제 시행은 당분간 어려울 것으로 예상되며 이로 인해 '총리급 파워' 꼬리표가 붙었던 김 장관의 부동산 정책 추진력에도 급제동이 걸렸다. 김 장관은 최근 여론의 집중 포화에 부담을 느낀 여당(더불어민주당)과 홍남기 경제부총리가 이끄는 기획재정부의 반대를 무력화시키면서 분양가상한제를 강행하며 총리급 파워를 과시하면서 최초의 여성 국무총리로 지명되는 것 아니냐는 전망이 나오기도 했다. 상한제 시행이 흐지부지될 가능성이 커지자, 제도를 무력화하려는 반대 목소리가 더 거세지고 있다. 재건축 주민들은 국토부 및 청와대 등 정부 창구를 통해 민원을 거세게 넣고 있으며 일부 온라인 커뮤니티에서는 제1야당인 자유한국당이 나서달라며 강하게 압박하고 있다. 수익성 타격이 불가피해진 일부 주민들은 헌법소원, 상한제의 효력정지 가처분 신청 등 법적 대응까지 검토하고 있다.박상길기자 sweatsk@dt.co.kr /</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=011&amp;aid=0003610081&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=8</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>靑, 日에 “조치 원상회복하면 지소미아 종료 재검토 가능” 입장 발표(속보)</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>[서울경제] 김현종 청와대 국가안보실 2차장이 28일 오후 ‘백색국가’(화이트리스트)에서 한국을 제외하는 조치를 취한 데 대한 입장을 발표했다. 김 차장은 이날 청와대에서 브리핑을 하고 한국에 대한 2차 경제보복 조치인 ‘화이트리스트 배제’를 강력히 비판하는 입장을 밝힐 예정이다. 한편, 일본 정부는 이날 한국을 수출 관리상 우대 대상인 ‘그룹A’(백색국가)에서 제외하는 개정 수출무역관리령을 시행했다. 앞서 일본 정부는 지난 2일 수출무역관리령 개정을 각의(국무회의) 결정한 뒤 8일에 이를 공포했다. 다음은 입장 발표 내용 일부. “정부는 그동안 일본에게 지속적으로 경제 보복을 철회할 것을 요구해왔다” “안보문제와 수출규제 조치 연계 장본인은 일본이다” “일본 수출규제 이유로 강제징용·안보 영향 등 말 바꿔 “전략물자, 수출통제 우리가 앞서...일본 주장 근거 없어” “일본 지도층, 우리나라 불신...아베 우리를 적대국 취급” “기본적인 신뢰관계 훼손된 상황에서 지소미아 유지할 이유 없어” “역사를 바꿔쓰고 있는 것은 바로 일본이다” “청구권 협정 부인 안해...피해자 개인 청구권은 살아있어” “대법원 판결 시정 요구는 민주주의 국가에서 불가능” “일본 정부도 개인 청구권 남아있다는 입장...최근에 바꿔” “일본 조치 원상회복하면 지소미아 종료 재검토 가능” “미국이 말한 지소미아 ‘실망’ 표현 이해...동맹국과 정책적 차이 표현” “국제질서 큰 변화...우리 국익 위한 외교 공간 창출해야” “기존 현상 유지 단편적 대응으로 큰 파고 극복 못해” “혁신기술 확보, 국방력 강화로 전략적 가치 높여야” “해외 기술 기업에 대한 M&amp;amp;A는 정부가 적극 지원할 것” “당당하고 주도적으로 안보역량을 강화해 나가야” “군정찰위성, 차세대잠수함 등 핵심 안보역량 구축해나갈 것” “우리의 전략적 가치 제고되면 능동적으로 대처할 수 있어” “지소미아 종료 계기로 한미동맹 업그레이드 할 것” “우리의 지정학적인 가치와 안보역량 과소 평가 안 돼” “한미 동맹은 지소미아 문제로 쉽게 흔들리지 않아” “한미일 공조 필요성에 대한 확고한 입장 변함 없어” “경제보복 조치로 한미일 관계 저해시킨 것은 일본” “일본은 우리가 내민 손을 잡아줄 것을 기대” | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=025&amp;aid=0002933011&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=10</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>한국 '출산율 0.98명' 사상 최저…세계 유일 ‘출산율 0명대’ 나라</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>대한민국의 ‘합계출산율 0명대 시대’ 진입이 확정됐다. 인구 67만명인 중국의 행정자치 지역 마카오를 제외하면 사실상 한국이 세계에서 유일한 ‘출산율 1명대 미만’ 국가가 됐다. 28일 통계청의 ‘2018년 출생 통계(확정)’에 따르면 지난해 우리나라의 합계출산율은 0.98명으로 출생통계 작성(1970년) 이후 최저치를 기록했다. 여성이 가임기간(15~49세)에 낳을 것으로 기대되는 평균 출생아 수가 한명도 되지 않는다는 얘기다. 지난해 출생아 수도 전년 대비 3만900명(-8.7%) 줄어든 32만6800명에 불과했다. 역시 사상 최저다. 이에 따라 조(粗)출생률(인구 1000명당 출생아 수)은 6.4명으로 0.6명 감소했다. 이와 같은 수치는 지난 2월 발표한 ‘2018년 인구동향조사 출생ㆍ사망통계 잠정 결과’와 비교하면 출생아 수만 100명 줄었을 뿐 대부분이 2월 잠정치와 동일하다. 저출산 국가로 꼽히는 국가들의 지난해 출산율을 보면 대만 1.06명, 홍콩 1.07명, 싱가포르 1.14명, 일본 1.42명으로 모두 한국보다 높았다. 마카오(0.92명)만 한국을 밑돌 뿐이다. 경제협력개발기구(OECD) 회원국과 비교하면 평균(1.68명)은커녕 초(超)저출산 기준(1.3명)에도 못 미치는 압도적인 꼴찌다. 보통 인구유지에 필요한 합계출산율을 2.1명으로 본다. 구체적으로 연령별 출생률은 40대를 제외한 모든 연령에서 감소했다. 20대 후반이 47.9명에서 41.0명으로 가장 크게 줄었다. 주 출산 연령인 30대 초반에서도 97.7명에서 91.4명으로 낮아졌다. 통계청 관계자는 “출산이 많이 이뤄지는 연령대가 30대 초반인데 이 인구가 2018년 기준 전년 대비 5% 감소했고, 혼인 건수도 지난해까지 7년 연속 감소하고 있어 출생아 수도 함께 줄었다”며 “이런 출산율로는 앞으로 인구감소 속도가 굉장히 빨라질 수 있다”고 말했다. 실제 출산율 하락 속도도 빠르다. 한국의 합계출산율은 1971년 4.54명을 정점으로 1987년 1.53명까지 떨어졌다. 1990년대 초반에는 1.7명 수준으로 잠시 늘었지만 이후 다시 빠르게 줄기 시작해 2017년 1.05명으로 역대 최저를 기록한 바 있다. 문제는 정부가 저출산 문제를 풀기 위해 지난 10년간 100조가 넘는 예산을 쏟아부었는데도, 좀처럼 개선 조짐이 나타나지 않고 있다는 점이다. 통계청은 올 초 발표한 인구 전망에서 올해 출생아 수가 지난해보다 더 줄어든 30만9000명, 합계출산율은 더 낮아진 0.94명이 될 것으로 추정한 바 있다. 실제 전년 동월과 비교한 출생아 수는 2016년 4월 이후 39개월 연속 최저 기록을 경신 중이다. 통계청이 이날 함께 발표한 ‘6월 인구동향’에 따르면 6월 출생아 수는 2만4051명으로 지난해 같은 달보다 8.7% 감소했다. 6월 기준으로는 월별 통계 집계가 시작된 1981년 이후 가장 적었다. 출생은 계절이나 월에 따라 변동성이 크기 때문에 전년 동월과 비교한다. 올해 2분기 전체 출생아 수는 7만5448명으로 전년 동기보다 6592명(8.0%) 감소했다. 2분기 합계출산율은 0.91명으로 지난해에 비해 0.07명 줄었다. 올해 상반기 전체로는 출생아 수가 15만8525명이다. 일반적으로 출생아 수가 연말보다 연초가 많은 것을 고려할 때, 올해 연간 출생아 수가 30만명 밑으로 떨어질 가능성이 제기된다. 올해는 아기가 태어나면 부자가 된다는 속설이 퍼진 ‘황금돼지해’라 출생아 수가 지난해보다 늘 것이라는 기대가 컸지만, 또다시 사상 최저를 기록할 가능성이 높아진 것이다. 박영범 한성대 경제학과 교수는 “출산율 하락은 인구가 감소해 생산ㆍ소비가 줄고, 경제가 위축될 뿐 아니라 고용과 재정ㆍ복지 등 국가 정책 다방면에 충격을 안겨준다”며 “말 그대로 범정부 차원의 특단의 대책이 필요한 시점”이라고 말했다. 그는 이어 “이와 함께 다른 저출산 국가처럼 외국인 노동자, 이민자를 어떻게 효율적으로 받아들일지에 대한 논의를 시작할 필요가 있다”라고 덧붙였다. 세종=손해용 기자 sohn.yong@joongang.co.kr ▶ ▶ / ⓒ중앙일보(https://joongang.co.kr), 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=011&amp;aid=0003610251&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=11</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>中 코스트코 인산인해에···"보고 있나, 트럼프"</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>[서울경제] 지난 27일 중국 상하이 민항구에 개장한 코스트코 1호점이 아침부터 몰려든 수천명의 고객들을 감당하지 못해 폐장시간을 8시간이나 앞당기는 일이 벌어졌다. 고객들의 차량으로 주위 교통이 마비되고 주차 대기 시간은 3시간을 넘기기도 했다. 계산대에서만도 1시간 이상이 소요됐다. 혼란 속에 코스트코 측은 오후1시에 셔터를 내렸다. 28일 중국 관영 매체인 환구시보는 이 상황을 전하며 “코스트코 개장이 미국에 교훈을 줬다”고 보도했다. 미국이 수입 관세 인상으로 중국을 압박하고 있지만 여전히 중국의 내수가 살아 있고 또 중국 시장이 미국 기업에 중요하다는 점을 과시한 셈이다. 이와 함께 중국 정부는 내수 소비를 더욱 활성화하기 위해 자동차 구매제한 완화를 비롯한 소비확대 대책을 대거 내놓았다. 경제에서 수출이 차지하는 비중을 줄이고 내수를 늘리는 방식으로 경기를 방어하겠다는 것으로, 중국이 미국과의 무역전쟁 장기화에 대비해 본격적인 ‘버티기’에 돌입했다는 해석이 나온다. 이날 신화통신에 따르면 중국 국무원은 자동차 판매 촉진 등 20가지 조치를 담은 가이드라인을 전날 발표했다. 지방정부 자동차회사 지원을 장려하고 차량 구매에 신규 제한을 두지 못하도록 규정했다. 주요 상권의 영업시간을 연장해 야간경제도 활성화하기로 했다. 이 밖에 오래된 가전제품을 친환경 스마트 제품으로 바꾸면 인센티브를 제공하고 프랜차이즈 편의점을 육성한다는 내용도 담겼다. 국무원은 “국민들의 소비수준을 높이고 기업 활동과 창업을 활성화하려는 취지”라고 설명했다. 핵심기술의 자력갱생을 위한 행보에도 속도가 붙었다. 이날 차이신 등 매체에 따르면 중국 반도체 기업인 칭화유니그룹은 전날 충칭시와 협약을 맺고 연내 충칭에 D램 공장을 착공하기로 했다. 수조원대 자금이 투입될 이 공장은 중국에서 취약한 분야인 12인치 D램 웨이퍼를 오는 2021년부터 생산할 예정이다. 전날 중국의 7월 공업이익이 전년동기 대비 2.6% 깜짝 상승한 것도 중국에 당분간 버틸 수 있다는 기대를 준 것으로 보인다. 특히 화웨이는 중국 내 ‘애국 마케팅’의 결과로 2·4분기 스마트폰 판매가 16.5% 증가했다. ‘ 후시진 환구시보 편집장은 자신의 트위터에 올린 글에서 “중국은 무역협상에 그다지 중점을 두지 않고 내수를 더 부양하려는 노력을 하고 있다”며 “미국이 중국에 양보를 압박하는 것은 더 어려워질 것”이라고 전했다. /베이징=최수문특파원 chsm@sedaily.com | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=009&amp;aid=0004417233&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=12</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>"당장 급해서"…국민연금 조기수령자 60만명 넘었다</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t># 7월 만 62세가 된 박길호 씨는 국민연금(노령연금)을 타는 나이가 됐으나 수령 시기를 연기했다. 정년퇴직을 한 지 2년이 넘었으나 계약직 신분으로 재취업해 월 200만원 이상의 소득이 지속적으로 들어오고 있기 때문이다. 꾸준한 건강관리로 고혈압 하나 없는 박씨는 "100세까지 산다고 생각했을 때 연기연금을 받는 게 훨씬 더 큰 이익이라 망설이지 않고 신청했다"고 말했다. # 3년 전 회사의 인력 구조조정으로 만 54세에 조기은퇴를 한 김경식 씨는 올해 만 57세가 되자 조기노령연금을 신청했다. 노령연금을 타는 나이까지 기다리기엔 이제 갓 취업한 딸이 이따금씩 챙겨주는 용돈 외에는 별 소득이 없었기 때문이다. 김씨는 "원래 받을 금액보다 몇만 원 덜 받게 됐지만 조금이라도 일찍 연금을 받아야 생활이 가능할 것 같았다"고 말했다. 국민연금을 탈 수 있는 나이(올해 기준 만 62세)가 아직 안 됐음에도 손해를 감수하면서까지 노령연금을 앞당겨 받는 이들이 60만명을 넘은 것으로 나타났다. 이는 전체 국민연금 수급자의 15%에 해당한다. 반면 노령연금을 탈 수 있는 나이가 됐음에도 당장 생활 형편이 나쁘지 않아 이를 수년 늦춰 받는 연기연금 신청자 역시 늘어나고 있다. 노인들 사이에서 '양극화' 현상이 갈수록 뚜렷해지고 있는 것으로 풀이된다. 27일 국민연금에 따르면 올해 조기노령연금 신규 수급자는 5월 기준 2만5715명으로 집계됐다. 누적 수급자로 따지면 60만127명으로, 전체 노령연금 수급자(약 384만명)의 15.6%를 차지한다. 조기노령연금이란 노령연금 수급 개시 연령에 도달하지 않더라도 그보다 1~5년 앞서 지급하는 제도다. 정년을 채우지 못하고 퇴직해 노령연금 수급연령이 되기 전까지 소득이 없거나 소득이 적어 노후 생활 형편이 어려운 이들의 생활 안정을 도모하기 위해 도입됐다. 국민연금 가입기간(보험료를 납부한 기간) 10년이 넘으면 신청할 수 있고, 일정 수준 이상(가입자 평균소득월액 이상) 소득이 있는 이들은 조기노령연금 수급 대상에서 제외된다. 단 미리 앞당겨 연금을 받는 것인 만큼 조기수령 1년마다 6%씩(5년이면 30%) 감액된 연금액으로 평생을 받게 된다. 가령 내년 만 62세가 돼 매달 노령연금 100만원을 타기로 돼 있는 가입자가 조기노령연금을 신청해 올해부터 타게 되면 94만원씩 타게 되는 식이다. 조기노령연금 수급자들은 최근 수년 사이 꾸준히 늘고 있다. 신규로 신청한 수급자는 2016년 3만6164명에서 지난해 4만3544명으로, 2년 새 20%(7380명) 증가했다. 올해에도 5월 기준 2만5715명이 신규로 신청해 5만명을 훌쩍 넘을 것으로 보인다. 누적 수급자 수로 보면 2016년 51만1880명으로 50만명을 넘어섰고, 약 2년 반 만인 올 5월 기준 60만127명으로 60만명을 돌파했다. 반면 조기노령연금과 정반대 성격인 연기연금을 신청하는 이들도 동시에 늘고 있다. 연기연금은 노령연금 수급권자(만 62세 이상·가입기간 10년 이상)가 연금 수령 시기를 최대 5년까지 늦출 수 있는 제도다. 연기연금은 노령연금을 더 늦게 타는 만큼 본래 정해진 연금액보다 더 많은 노령연금을 받을 수 있다는 장점이 있다. 연기 기간(1~5년)에 따라 연 7.2%씩(최대 36%) 이자가 가산된 연금액을 받게 된다. 연기연금 신청자는 제도 시행 초기(2007년 도입)인 2010년만 해도 1075명에 불과했다. 그러나 해를 거듭할수록 급증해 2017년에는 2만2213명까지 늘어났다. 7년 동안 20배 넘게 증가한 셈이다. 지난해엔 노령연금 수급 개시 연령이 만 61세에서 만 62세로 오르며 신청 대상자가 급격히 줄어 2297명으로 급감했으나 올해는 5월 기준 8575명으로 다시 증가세를 보이고 있다. 은퇴 이후에도 일정 소득이 있거나 당장 생활 형편이 어렵지 않아 '조금 늦게 받더라도 더 많은 연금을 받겠다'는 이들 위주로 신청이 늘고 있는 것이다. 김용하 순천향대 IT금융경영학과 교수는 "노인들 사이에서 '부익부 빈익빈'이 심해지고 있다는 것을 보여준다"며 "노인이 돼서도 소득이 있고 건강관리를 잘해 오래 살 자신이 있는 사람과, 반대로 당장 생활 수준이 불안하고 장수에 대한 기대감이 낮은 사람이 동시에 늘고 있는 것"이라고 설명했다. [연규욱 기자] [ⓒ 매일경제 &amp;amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=009&amp;aid=0004417611&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=13</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>700원 물티슈·20만원대 의류건조기…이마트 국민가격 2탄 내놨다</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>이마트가 야심작으로 내놓은 상시 초저가 상품 '에브리데이 국민가격' 2탄이 나왔다. 이번에는 물티슈와 치약, 칫솔 등 소비자들이 자주 사는 생활필수품과 가전제품 등 40종을 더했다. 국민가격 2탄 제품 중 대표작은 물티슈와 의류건조기다. 에브리데이 국민가격 물티슈는 100매에 700원으로, 비슷한 상품 대비 30% 저렴하다. 이마트는 1년 500만개 물량을 매입하기로 하면서 개당 가격을 낮췄다. 마트 측은 물티슈 장당 크기를 줄여 자투리 원단이 남지 않도록 해 생산가격을 내렸다고 설명했다. 3㎏ 소용량 일렉트로맨 의류건조기는 비슷한 성능의 상품 대비 20% 저렴한 24만9000원에 출시했다. 빨래량이 적은 1인가구 또는 영·유아 때문에 빨래를 자주 해야 하는 가구를 겨냥한 제품이다. 다음달 25일까지는 행사 카드(현대e카드, 삼성, KB등)로 구매하면 19만9000원에 구매할 수 있다. 다음달 초에는 10㎏ 용량의 일렉트로맨 의류건조기를 판매할 예정이다. 전기료가 적고 옷감 손상이 덜한 인버터 히트펌프 방식으로, 69만9000원에 판매한다. 일렉트로맨 의류건조기는 자주 쓰지 않는 부가 기능을 빼고, 상품 조작 방식을 디지털 대신 다이얼로 만드는 등 의류 건조 기능에만 집중해 가격을 낮췄다. 위니아대우와 함께 기획한 제품으로, 전국 52개 위니아대우 서비스센터에서 1년간 무상 서비스가 가능하다. 일렉트로맨 TV는 기존 브랜드 TV보다 40%저렴한 17만9000원(32형)~37만9000원(49형)에 선보인다. 이 제품에는 TV 크기별로 화면 해상도가 차등 적용됐다. 주방·생활용품에서는 인덕션 후라이팬(6900원), 캄포엣지도마(9900원)이 유사상품보다 각각 50%, 70%저렴한 가격으로 출시됐다. 2080 퓨어솔트 치약(3입), 크리오 칫솔(6입)도 매입 물량을 크게 늘려 각각 2000원에 판매한다. 이마트는 이달 1일 론칭한 '에브리데이 국민가격'효과로 1~26일 이마트 방문객수가 전달 같은 기간보다 8% 증가했다고 밝혔다. 4900원짜리 와인(26만병), 다이얼비누(15만개), 바디워시(18만개)등이 팔리면서 매출도 동반 상승했다. 이마트 측은 "와인은 구매 고객 중 최근 6개월간 와인을 구매한 적이 없는 고객 비중이 55%이상일 정도로 신규 고객이 많이 구입했다"고 말했다. [이유진 기자] [ⓒ 매일경제 &amp;amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=005&amp;aid=0001233489&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=14</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>[속보]日관방 “백색국가 제외는 안전보장상 필요”</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>일본 정부 대변인인 스가 요시히데 관방장관은 28일 한국을 백색국가에서 제외한 조치에 대해 “안전보장의 관점에서 우리나라 수출 관리를 적정하게 실시하는데 필요한 운용을 고친 것”이라고 말했다. 스가 장관은 이날 정례 기자회견에서 한국을 백색국가(수출절차 우대국)에서 제외한 것이 적정한 수출관리를 위한 것이라고 설명하면서도 한국에 징용 문제 해결을 촉구했다. 자국 내부 절차일 뿐 한국 대법원의 강제징용 판결에 대한 보복 조치가 아니라는 일본 정부의 기존 입장을 반복한 것이다. 스가 장관은 이렇게 말하면서도 뒤이어 한국 정부에 강제징용 판결에 대한 시정 조치를 하라고 말하며 백색국가 제외와 강제징용 문제를 연결 짓는 이율배반적인 발언을 했다. 그는 “한일 관계의 최대의 문제는 ‘구한반도출신노동자문제’(일본 정부가 강제징용 피해자의 강제성을 얼버무리기 위해 사용하는 표현)”라며 “이를 포함해 한국 측이 부정적이고 비합리적인 움직임을 계속하고 있어 상당히 엄중한 상황이 계속되고 있다“고 주장했다. 그러면서 “우리나라(일본)로서는 다양한 문제에 대해 일관된 입장에 기초해 계속해서 한국 측에 현명한 대응을 강하게 요구해 갈 생각”이라고 덧붙였다. 스가 장관은 이와 함께 “한국 측에 일련의 대법원 판결에 따라 한국 측이 만들어낸 국제법 위반 상황을 해결할 것을 계속 강하게 요구하겠다”고 말했다. 강주화 기자 rula@kmib.co.kr GoodNews paper ⓒ , 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=003&amp;aid=0009422698&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=15</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>평생 아이 1명도 안낳는 나라…OECD내 유일한 '초저출산국'</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>【세종=뉴시스】장서우 기자 = 지난해 우리나라에서 태어난 출생아 수가 역대 최저치를 기록했다. 국제 비교 기준으로도 활용되는 출산율 지표를 보면경제협력개발기구(OECD) 국가 중에선 여성 1명이 평생 아이를 한 명도 안 낳는 것으로 집계된 유일한 나라다. 20대 후반에서 30대 후반까지 주 출산 연령대에서 출산율이 급감하고 있다. 처음 아이를 낳는 나이는 점점 상향되고 고령 산모의 비중이 전체의 3분의 1가량을 차지했다. 둘째나 셋째 아이를 낳는 경우도 급감하고 있다. 28일 통계청이 발표한 '2018년 출생 통계' 확정치를 보면 지난해 출생아 수는 32만6800명으로 1년 전(35만7800명)보다 3만900명(-8.7%) 감소했다. 1992년 73만명을 웃돌던 연간 출생아 수는 1996년(69만1226명) 60만명대로 감소한 후 5년 만인 2001년(55만9934명) 50만명대로 내려앉았다. 이후 2002년(49만6911명) 1년 만에 40만명대에 진입, 2016년까지 15년간 이를 유지하다 2017년 30만명대로 감소했다. 전년 대비로는 2016년부터 3년 연속 줄어들고 있다. 다만 감소 폭은 1년 전(-11.9%)보다 다소 축소됐다. '조(粗)출생률(인구 1000명당 출생아 수)'은 6.4명으로 1년 전(7.0명)보다 0.6명 줄었다. 2016년(7.9명)부터 7명대로 내려앉으며 급감세를 보이다가 지난해 2년 만에 6명대에 들어섰다. 여성 1명이 가임 기간(15~49세) 낳을 것으로 예상되는 평균 출생아 수인 '합계출산율'은 0.98명으로 1년 전(1.05명)보다 0.08명(-7.1%) 하락했다. 연간 합계출산율이 0명대로 내려앉은 건 지난해가 최초다. 관련 통계가 작성되기 시작한 1993년부터 수치의 추이를 보면 반짝 상승했던 2000년(1.480명)을 제외하면 2005년(1.085명)까지 대체로 하락세를 보여왔다. 2006년부터는 상승과 하락을 반복하다 2017년(1.052명) 12년 만에 역대 최저치를 새로 썼다. 분기별로 보면 합계출산율이 1명에도 미치지 못했던 건 2017년 4분기(0.94명)가 최초다. 2018년 1분기에 1.08명으로 올랐다가 같은해 2분기 0.98명, 3분기 0.96명, 4분기 0.89명으로 내리 하락했다. 올해 1분기에도 1.01명으로 올랐지만, 2분기 0.91명으로 다시 떨어졌다. 2분기 기준으로 보면 올해가 최저치인 셈이다. 1분기엔 1명 아래로 하락한 적은 없다. 월별 출생아 수가 가장 많은 1월이 껴 있기 때문이다. OECD 소속 36개 회원국과 비교하면 이미 2017년부터 출산율이 가장 낮았다. 합계출산율이 두 번째로 낮은 스페인(1.31명)과도 꽤 격차가 난다. OECD 평균치는 1.65명이다. OECD 기준에 따르면 합계출산율이 2.1명 이하일 때는 '저출산'으로, 1.3명 이하일 땐 '초(超)저출산'으로 분류된다. 2.1명의 기준은 인구 유지를 위해 필요한 최소한의 합계출산율로 계산된다. 한국은 2002년부터 17년째 초저출산 국가다. OECD 중에선 유일하다. 출산율을 연령대별로 보면 30~34세가 91.4명으로 가장 높았다. 35~39세(46.1명), 25~29세(41.0명) 등이 그 뒤를 이었다. 특히 지난해엔 25~29세 연령대의 출산율이 처음으로 35~39세보다 낮아졌다. 전년 대비 감소율이 25~29세에서 -14.4%로 가장 컸다. 20~24세(-14.6%), 30~34세(-6.4%), 35~39세(-2.3%) 등 출산을 하는 주된 연령대에서 모두 출산율이 하락했다. 모(母)의 평균 출산 연령은 32.8세로 1년 전(32.6세)보다 0.2세 올랐다. 이 연령은 집계를 시작한 1993년 이래로 매년 상승해 왔다. 35세 이상 고령 산모가 차지하는 비중은 31.8%로 역대 최고치를 찍었다. 고령 산모 구성비가 30%를 넘은 건 지난해가 최초다. 출산 순위별로 보면 첫째 아이가 17만6900명으로 1년 전(18만7900명)보다 1만1000명(-5.9%) 줄었다. 둘째 아이와 셋째 아이는 각각 11만9700명, 2만8200명이었는데 전년 대비로 10.5%, 19.4% 감소해 첫째 아이보다 감소 폭이 2배 이상 컸다. 구성비 역시 첫째 아이는 54.5%로 1년 전보다 올랐지만, 둘째 아이와 셋째 아이는 36.9%, 8.7%로 내렸다. 결혼 후 2년 이내에 첫째 아이를 낳는 비율은 60.6%로 1년 전(65.8%)보다 5.2%포인트(p) 하락했다. 첫째 아이를 낳을 시점까지 결혼 생활 기간은 평균적으로 2.16년이었다. 둘째, 셋째 아이를 낳기까지는 각각 평균 4.61년, 7.41년이 걸렸다. 출생 성비(여아 100명당 남아 수)는 105.4명으로 1년 전(106.3명)보다 0.9명 하락했다. 전체 출생아 중 무게가 2.5㎏ 미만인 저체중아의 비중은 6.2%, 4.0㎏ 이상인 과체중아의 구성비는 2.9%였다. 저체중아 구성비는 20년 전인 1998년에 비해 약 1.8배 상승했지만, 과체중아 비중은 같은 기간 절반 수준으로 하락했다. 확정 통계는 지난 2월 발표된 잠정치와 차이가 있다. 지난해 발생한 출생 사건에 대해 올해 4월까지 신고된 자료를 기준으로 집계·분석한 결과다. suwu@newsis.com &amp;lt;저작권자ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지.&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=008&amp;aid=0004269131&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=16</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>[단독]'수소충전소' 하이넷 출자사 이탈…수소경제 '흔들'</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>[머니투데이 김지훈 기자] [200억 규모 1차 유상증자서 3곳 불참..."정책지원 미흡, 사업성 떨어져"] 수소충전소 보급 확대를 위해 설립된 하이넷(HyNet·수소에너지네트워크)이 삐걱대고 있다. 민간 출자사들이 출자 부담에 비해 사업성이 떨어진다는 이유로 속속 이탈하고 있는 것. 수소전기차를 비롯한 수소경제 활성화를 위해선 정부가 정책지원을 보다 강화해야 한다는 지적이 나온다. 27일 관련업계에 따르면 하이넷 출자사인 에코바이오홀딩스와 덕양, 에어리퀴드코리아 3개사는 지난달 진행된 200억원 규모의 1차 유상증자에 참여하지 않은 것으로 확인됐다. 이번 유상증자는 출자사 지위 유지 조건으로 진행된 것으로 불참은 사실상 탈퇴를 의미한다. 일부 기업은 기존 보유지분 매각까지 검토 중인 것으로 전해졌다. 하이넷은 정부가 지난 1월 발표한 ‘수소경제 활성화 로드맵’의 일환으로 설립된 국내 첫 수소충전소 특수목적법인(SPC)이다. 한국가스공사와 현대자동차를 중심으로 총 13개 기업이 출자해 납입자본금 13억5000만원으로 지난 3월 공식 출범했다. 하이넷은 올해부터 연차별로 유상증자를 실시해 2028년까지 자본금을 1350억원으로 확충할 계획이었다. 하지만 첫 유상증자부터 민간 출자사들이 이탈하면서 자본금 확충은 물론 수소충전소 구축 계획도 차질을 빚을 것으로 예상된다. 하이넷은 2022년까지 정부의 보급계획의 3분의 1인 수소충전소 100곳을 짓겠다는 계획을 밝힌 바 있다. 유상증자에 불참한 덕양은 국내 수소생산 분야 60~70% 점유율을 차지하는 국내 최대 수소전문기업이다. 에코바이오홀딩스는 신재생에너지 사업을 하는 코스닥 상장사다. 에어리퀴드코리아는 프랑스에 본사를 둔 세계적인 가스기업 에어리퀴드의 한국 자회사다. 이들 기업이 중도 하차한 것은 출자 부담에 비해 미흡한 정책지원이 가장 큰 이유로 꼽힌다. 현재 정부는 수소충전소 구축 시 일부 보조금을 지원하고 있지만 운영에는 별도 지원을 하지 않고 있다. 업계는 그러나 수소전기차 보급이 활성화될 때까지 일정 기간 수소충전소 운영에 따른 손실이 불가피할 것으로 본다. 업계관계자는 “수소충전소 보급 확대를 위해선 수소전기차 보급 확대를 비롯해 정책지원이 필수”라며 “수소충전소 구축뿐 아니라 운영까지 전체적으로 보조금 확대가 필요하다”고 말했다. 수소경제기본법 등 수소경제 활성화를 위한 법안들의 국회 처리가 차일피일 늦어지고 있는 점도 부담이다. 또 다른 업계관계자는 “수소경제 활성화를 위해선 수소충전소 등 인프라 육성책을 보다 강화해야 한다”며 “이를 위해선 수소경제기본법 등 관련 법안들이 조속히 처리돼야 한다”고 밝혔다 김지훈 기자 lhshy@mt.co.kr &amp;lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=015&amp;aid=0004199531&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=17</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>현대차 노사, 8년 만에 임단협 무분규 잠정합의</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>현대자동차 노사가 올해 임금협상 잠정합의안을 도출했다. 잠정합의안이 노조 찬반투표를 통과하면 현대차 노사는 2011년 이후 8년만에 무분규로 교섭을 마무리짓게 된다. 현대차 노사는 27일 울산공장 본관 아반떼룸에서 22차 교섭을 열고 잠정합의안을 마련했다. 이 자리에는 하언태 부사장(공장장)과 하부영 노조위원장(지부장) 등 노사 교섭대표 50여 명이 참석했다. 잠정합의안에는 기본급 4만원 인상(호봉승급분 포함), 성과급 150%와 일시금 300만원, 전통시장 상품권 20만원 지급 등이 담겼다. 7년간 끌어온 임금체계 개편에도 합의했다. 두 달에 한 번씩 주던 상여금 일부(기본급의 600%)를 매월 나눠서 통상임금에 포함해 지급하기로 했다. 미래 임금 경쟁력 및 법적 안정성 확보 격려금 명목으로 근속기간별 200만∼600만원과 우리사주 15주를 지급하는 방식이다. 이를 통해 노조가 2013년 제기한 통상임금 소송과 올해 최저임금법 시행령 개정으로 불거진 최저임금 위반 문제가 해결될 전망이다. 노조는 그동안 상급단체인 금속노조의 공통 요구안인 기본급 12만3526원 인상(호봉 상승분 제외)을 요구해왔다. 지난해 당기순이익의 30%를 성과급으로 달라고 주장하기도 했다. 아울러 정년을 만 60세에서 국민연금 수령 직전 연도(연령에 따라 만 61~64세)로 연장하고, 상여금을 통상임금에 포함시켜 달라고 요구해왔다. 올해 교섭에선 한·일 경제 갈등과 세계적 보호무역 확산 등에 따른 위기에 노사가 공감했다. ‘상생협력을 통한 자동차산업 발전 노사 공동 선언문’도 채택했다. 차량용 부품·소재산업 지원과 육성을 통한 부품·소재 국산화에 매진해 대외 의존도를 줄이고 협력사와 상생협력 활동을 강화하겠다는 내용이 담겼다. 이 선언문에 따라 회사는 925억원 규모 대출 자금을 협력사 운영과 연구개발에 지원한다. 노사는 지난 5월30일 상견례 이후 3달 여 만에 잠정합의안을 마련했다. 현대차 노조는 2006년 전국민주노동조합총연맹(민주노총) 금속노조 산하의 산별노조(현대차지부)로 전환한 이후 2009∼2011년을 제외하고 매년 교섭 과정에서 파업을 벌였다. 박상용 기자 yourpencil@hankyung.com ▶ ▶ ▶ ⓒ 한국경제 &amp;amp; , 무단전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=437&amp;aid=0000218502&amp;date=20190828&amp;type=2&amp;rankingSectionId=101&amp;rankingSeq=18</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>한국 합계 출산율 0.98…사실상 세계 유일한 '0명 대'</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 [앵커] 지난해 우리나라의 합계 출산율이 0.98명으로 확정됐습니다. 여성 1명이 평생 동안 낳는 아이가 1명도 안 된다는 얘기입니다. 사실상 세계에서 유일한 0명대 출산율입니다. 송지혜 기자입니다. [기자] [정소현/서울 신수동 : 결혼보다는 차라리 취업하고 그 돈을 저에게 투자하는 게 좋을 것 같아요.] [이예향/서울 갈현동 : 물가가 많이 올랐는데 나라에서 지원해주는 게 그렇게 많지 않은 것 같아서…] 청년들은 결혼하기가 두렵고, 결혼한 부부들은 아이를 갖는 것이 엄두가 나지 않습니다. 이렇다보니 지난해 우리나라에서 태어난 아기는 32만 6800명으로 집계 이후 가장 적었습니다. 합계 출산율은 0.98명, 이 수치가 1명 아래로 떨어진 것도 처음입니다. 중국 행정지역인 마카오 정도를 제외하면 출산율이 1명에도 못미치는 사실상 유일한 국가가 된 것입니다. 이처럼 출산율이 곤두박질치고 있는 것은 결혼을 미루는 청년들이 늘고 있기 때문입니다. 아이를 갖는 시기도 늦어지면서 지난해에는 30대 후반 여성의 출산율이 20대 후반 출산율을 처음으로 추월했습니다. 올들어서도 상황은 오히려 나빠지고 있습니다. 상반기에 태어난 아이는 15만 8000여 명으로 지난해보다도 7.7% 줄었습니다. 연말에는 출산이 줄어드는 것을 감안하면 올해 태어나는 아이는 30만 명에도 못미칠 가능성이 있습니다. (영상디자인 : 신재훈) 송지혜 기자 (song.jihye@jtbc.co.kr) [영상취재: 이학진 / 영상편집: 정다정] Copyright by JTBC(http://jtbc.joins.com) and JTBC Content Hub Co., Ltd. All Rights Reserved. 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=014&amp;aid=0004284675&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=19</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>"이런 모습 8년만이네"… 위기에 뭉친 현대차 노사[현대차 임단협 무분규 잠정합의]</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>28일 현대자동차 울산공장 본관 아반떼룸에서 노사간 올해 임금협상 및 단체협약 추석 전 타결을 위한 막판 교섭을 잠정 합의한 하언태 현대차 부사장(왼쪽)과 하부영 현대차 노조 지부장이 교섭장을 나서고 있다. 뉴스1 현대자동차 노사가 대내외 위기 앞에 상생협력을 선택했다. 지난 27일 현대차 노사는 9시간 이상 이어진 마라톤 협상을 통해 올해 임금단체협상안에 대한 잠정합의안을 극적으로 이끌어냈다. 현대차 노사가 파업 없이 임단협에 합의한 것은 지난 2011년 이후 8년 만에 처음인 데다 양측이 전향적인 자세로 협상에 임했다는 점에서 이번 노사합의는 의미가 적지 않다는 평가가 나온다. 이는 중국시장을 중심으로 나타나기 시작한 자동차 판매 부진, 일본의 수출규제, 미·중 무역전쟁 격화 등 쓰나미처럼 닥친 위기를 더 이상 외면하기 어렵다는 데 노사가 공감했기 때문으로 풀이된다. 다음달 2일 노조의 찬반투표에서 잠정합의안이 최종 통과되면 현대차는 막대한 금전적 손실과 브랜드 이미지 및 대외신인도 하락 등 매년 반복돼온 유무형의 피해를 올해는 막을 수 있게 된다. 해외시장에서 고전 중인 현대차의 글로벌 경영에도 힘을 받게 될 것으로 기대된다. ■2년 연속 속전속결 잠정합의 28일 업계에 따르면 현대차 노사가 올해 임단협 잠정합의안을 도출한 것은 지난 5월 30일 상견례 이후 89일 만이다. 지난해 이틀간 부분파업에도 79일 만에 잠정합의안을 마련한 데 이어 올해에도 3개월 내에 속전속결로 조기에 절충점을 찾았다. 노사 간 최대 쟁점인 순이익 30% 성과급 지급과 최대 만 65세 정년연장 등은 최종 협상테이블에서 피해갔다. 노사 간 합의가 요원한 요구안으로 비생산적인 대립을 지속하는 것보다 노사가 함께 위기돌파를 위해 상생협력을 선택했다는 평가가 나오는 이유다. 노사는 임금 4만원 인상, 성과급 150%+300만원, 전통시장상품권 20만원 지급, 미래임금 경쟁력 및 법적 안정성 확보 격려금(200만~600만원+우리사주 15주) 등에 합의했다. 지난해와 비교하면 임금 인상폭은 5000원, 성과급의 경우 100%포인트 각각 줄어든 규모다. 그만큼 노조가 임단협 막판 집중교섭에서 전향적인 자세를 보인 것으로 해석된다. 현대차도 기존 임금동결 등에서 한발 물러나 생산적인 협상을 이끈 게 주효했다. 노사는 지난 7년간 이어 온 임금체계 개선에도 전격 합의했다. 상여금 600%를 통상임금에 산입해 법적 불확실성을 해소하는 동시에 지급 주기를 격월에서 매월 분할 지급으로 변경해 최저임금법 위반 소지를 해소했다. 통상임금 및 최저임금 관련 노사 간 법적 분쟁을 해소하고, 각종 수당 등 복잡한 임금체계를 단순화해 미래지향적 선진 임금체계 구축에 노사가 뜻을 같이한 것이다. 노조는 논란이 지속돼온 직원 자녀 고용세습 등을 스스로 내려놓았다. 사례가 없어 사문화된 '정년퇴직자 자녀 우선채용' 단협 조항을 삭제하고, 위법성 논란을 낳은 '유일 교섭단체' 단협 조항도 개정했다. ■경영환경 악화에 노사화합 강화 올해 임단협 잠정합의안 조기 도출은 협상→결렬→파업→재협상→타결로 이어진 이전 노사관계와는 확연한 온도차를 보였다. 2년 전만 해도 타결에 이르는 데 통상적으로 200일이 넘었다. 특히 이달 초까지 노조는 교섭결렬 선언과 파업권 확보 등 강경일변도로 대응해 위기감이 감돌았다. 하지만 매번 파업 끝에 합의에 이르렀던 악순환의 고리를 끊고 있어 노사화합의 기틀을 다지고 있는 것으로 보인다. 이는 회사가 처한 안팎의 상황과 맞물려 있다. 미국과 중국 등 글로벌 자동차 빅2 시장에서 역성장하고, 영업이익률은 3%대까지 급락하는 등 외형과 수익성 모두 바닥권에서 기고 있다. 대외적으로는 한·일 경제 갈등과 세계적인 보호무역 확산 등으로 위기감이 고조되면서 한치 앞을 내다보기 어려운 상황이다. 이런 위기국면에 노조가 파업으로 경영난을 가중시키면 여론의 역풍을 맞게 될 게 자명하다. 대승적인 양보로 귀족노조의 편견에서 벗어나기 위한 노조의 이미지 쇄신 의지도 영향을 끼친 것으로 보인다. 현대차 노사 간 잠정합의안은 다음달 2일 전체 조합원 찬반투표에서 가결여부가 결정된다. 업계에서는 예단하기는 어렵지만, 현대차 노조원들이 안팎의 위기에 공감하고 있어 이변이 없는 한 가결될 것이란 관측을 내놓고 있다. winwin@fnnews.com 오승범 기자 ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=055&amp;aid=0000754852&amp;date=20190828&amp;type=2&amp;rankingSectionId=101&amp;rankingSeq=20</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>[친절한 경제] 한국에 '불확실성의 판' 깐 日, 국제여론 앞에선…</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>동영상 뉴스 &amp;lt;앵커&amp;gt; 친절한 경제, 오늘(28일)도 권애리 기자와 함께합니다. 권 기자, 오늘부터죠. 일본이 결국 우리나라를 수출심사 우대국 명단, 화이트리스트에서 뺐네요. &amp;lt;기자&amp;gt; 네, 오늘부터 일본이 우리에게 수출하는 이른바 전략물자들은 모두 원칙적으로는 건건마다 일본정부의 허가를 따로 받아야 합니다. 주요 산업 분야 13가지에 속하는 857개 품목인데요, 지금까지는 다른 일본의 화이트리스트 국가들과 함께 3년에 한번씩 포괄허가만 받으면 되던 것들입니다. 사실상 사고파는 사람들끼리만 "살게요, 팔게요" 하면 물 흐르듯이 오갔는데, 앞으로는 이중에 뭐가 어떻게 될지 불확실하다는 겁니다. 이 13가지 분야 중에서도 특히 우리가 신경 쓰이는 분야는 첨단소재와 전자입니다. 다양한 종류의 산업용 합금이나 섬유, 또 반도체나 배터리 부품들, 그리고 반도체나 배터리를 만들기 위한 기계장치 같은 것들이 여기 포함됩니다. 지금까지는 우리가 일본에 특히 수입 의존도가 높았던 중요 품목들은 다 여기 몰려 있습니다. &amp;lt;앵커&amp;gt; 구체적으로 우리 입장에서는 일본 제품의 수입이 얼마나 까다로워지는 건가요? &amp;lt;기자&amp;gt; 일본이 7월 초에 우리 반도체와 첨단 디스플레이에 쓰이는 핵심소재 3가지를 따로 빼서 경제보복을 시작했잖아요. 일본이 이 품목들에 대해 해온 걸 보면 앞으로를 짐작할 수 있습니다. 857개 품목들에 적용할 개별허가를 그 3가지 품목에 대해서 강제한 게 오늘로 정확히 56일째인데요, 그 사이에 그 중에 1가지 품목에 대해서만 딱 2번 일본 정부의 수출 허가가 나왔습니다. 차세대 반도체 만드는 데 쓰이는 EUV용 포토레지스트라는 품목에 대해서만 2번 허가가 나와서 삼성전자가 9개월치를 확보했는데요, 이런 식입니다. 6개월에 한 번씩으로 허가 간격이 짧아지고요. 심사 기간은 반면에 최장 90일로 늘어나서 우리에게 긴요한 핵심소재들을 56일이 지나도록 딱 2번 내주면서 "아 아직 심사기간인데 뭐가 문제냐" 할 수도 있고요. 90일이 지나고 나서 "이건 허가 못해주겠는데?" 할지도 아직 알 수 없는 겁니다. 사실 857개나 되는 품목을 일일이 이렇게 쥐고 흔들기는 일본도 힘듭니다. 일본에 유리하지도 않고요. 그래서 이중에 뭘 골라서 힘들게 할지, 또 한동안 지나봐야 윤곽이 잡힐 겁니다. 심사 받으라고 해놓고 허가가 차일피일 미뤄지는 품목이 두드러지기 시작하면, 그때 좀더 정확하게 드러나겠죠. 불확실성입니다. 또 하나, 일본이 오늘부터 발효하는 새 수출관리령은 한국만 쏙 빼서 별도 지역으로 관리하게 돼 있습니다. 이 얘기는 대대적으로 얘기를 안 하고, 슬그머니 한국에만 별도의 조건이나 단서를 달 수 있는 여지를 열어놨다는 겁니다. 이런 변화가 보일지도 주목해 봐야 합니다. &amp;lt;앵커&amp;gt; 우리 기업들 그동안 대비를 해왔지만, 이런 불확실한 상황이 계속 이어질 거라는 게 문제잖아요? &amp;lt;기자&amp;gt; 그게 가장 큰 문제죠. 그런데 한 가지 지금까지 처럼 우리가 화이트국가로 대접을 받을 때처럼 비교적 원활한 수출허가를 받을 수 있는 길을 하나 열어두긴 했습니다. 우리나라에 수출하는 일본 기업이 일본 정부에 따로 등록을 하는 겁니다. 알아서 기업이 수출관리를 하고 있다는 내용을 제출해서 접수증을 받습니다. 이걸 ICP 기업이라고 하는데요, 지금 공개된 일본의 ICP 기업은 딱 632곳에 그칩니다. 실제로는 이 2배 이상 될 걸로 보는데 규모가 확실하지 않습니다. 그리고 ICP 기업이 되면 일본 정부가 해마다 100개 정도를 골라서 임의로 시찰을 나갑니다. 어디로 갈지 모릅니다. 우리 표현으로 하면 암행시찰 같은 거죠. 우리와 긴밀하게 거래하던 일본 기업들 중에는 앞으로 한국과 지금까지처럼 일하기 위해서 추가로 ICP 등록을 하는 업체들도 나올 텐데, 이런 기업들에 대해서 일본 정부가 혹시 눈에 띄는 어떤 다른 대우를 할지도 앞으로 지켜볼 일입니다. 한 가지 기억해야 할 점은 일본이 이렇게 우리에게는 이렇게 안갯속 같은 불확실성의 판을 깔아놓고 국제사회에 내놓는 주장은 점점 통일되고 있다는 겁니다. 초기 며칠을 제외하고는 "한국은 아시아의 다른 우방들과 똑같은 대우를 받을 뿐이다. 그냥 수출 관리다. 강제징용 판결에 대한 보복이 아니다" 이렇게 말하는 데서 어떤 공무원도, 정치인도 벗어나지 않고 있습니다, 일본은요. '화이트리스트'란 용어도 더 이상 쓰지 않습니다. 뭔가 우대하는 것 같은 느낌의 단어조차 법령에서 없애는 겁니다. 국제여론을 향해서 일본이 이런 식의 자기네 방어논리를 갖춰가고 있다는 것을 우리가 냉정하게 지켜보면서 정교하게 대응해 나갈 필요가 있습니다.   권애리 기자(ailee17@sbs.co.kr) ※ ⓒ SBS &amp;amp; SBS Digital News Lab. : 무단복제 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=277&amp;aid=0004525509&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=21</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>삼성, 벼랑 끝에 서다</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>28일 日반도체 소재 외 추가 조치땐 추가 위험 29일 파기환송땐 재판 길어져 미래경영 큰 부담 이 부회장, 흔들림없는 비상체제 '현장경영' 행보 [아시아경제 박소연 기자] 삼성과 이재용 삼성전자 부회장이 벼랑끝에 섰다. 28일 일본 화이트리스트(안보상 수출심사 우대국)가 본격 시행되고, 29일엔 대법원 국정농단 상고심이 선고된다. 한일 경제갈등과 미ㆍ중 무역분쟁이라는 외부 악재와 선고라는 내부 악재가 한꺼번에 들이닥친 것이다. 삼성의 미래가 이번주에 결정된다. ◆D-1, 화이트리스트 제외 = 일본 정부는 오는 28일부터 한국을 화이트리스트에서 제외한다. 업계에선 일본이 이날 반도체나 디스플레이와 같은 주요 업종에 대한 추가 규제를 내놓을 가능성이 적지 않다고 보고 경계를 늦추지 않고 있다. 추가 규제품목으로는 반도체 원판인 '실리콘 웨이퍼'와 회로를 그릴 때 필요한 '블랭크마스크', 플랙서블 OLED를 만들때 필수 소재인 '섀도마스크' 등이 거론된다. 이같은 일본의 수출 규제는 미ㆍ중 무역 갈등의 여파에 따른 미국과 중국 모바일 및 IT기업들의 투자 위축 현상과 겹치면서 삼성전자에 타격을 입히고 있다. 삼성전자의 영업이익은 올 상반기에 12조8300억원으로 작년 같은 기간(30조5100억원)의 50%를 밑도는 부진한 실적에 그쳤다. 직원들에게 돌아가는 성과급도 절반 수준으로 줄었다. 반도체업계 한 고위 관계자는 "화이트리스트 제외가 실효성이 없을 것이란 초기 예상과는 달리 한일 군사정보보호협정(GSOMIA) 파기 이후엔 업계도 예측불허의 상황에 대비하고 있다"며 "불확실성이 가장 큰 두려움"이라고 말했다. ◆D-2, 삼성의 미래 50년 좌우할 3심 주요 쟁점 = 오는 29일 선고될 예정인 이 부회장에 대한 판결은 3가지 쟁점이 관건이라는 분석이 나온다. 대법원이 3가지 쟁점에 대해 어떻게 판단하느냐에 따라 이 부회장의 운명이 크게 엇갈릴 것으로 보인다는 것이다. 우선 '전형적인 정경유착' 사례로 판단했던 1심 재판부의 판단과는 달리 '수동형 뇌물사건'으로 본 항소심 판단이 유지될지 여부다. 2심 재판부는 '어쩔 수 없이 뇌물을 제공했다'는 판단에 따라 이 부회장에게 집행유예를 선고했다. 또 다른 쟁점은 형량이 가장 높은 재산국외도피 혐의 성립여부다. 당초 특검이 주장한 재산국외도피 혐의가 그대로 받아들여졌을 경우 최소 징역 10년에서 무기징역까지 선고가 가능했지만, 인정액이 절반으로 깎이면서 법정형이 징역 5~30년으로 낮아졌다. 2심에선 이 부분을 무죄로 판단했다. 법조계에선 파기환송 가능성이 큰 것으로 보고 있다. 박근혜 전 대통령과 이 부회장의 2심 판단은 뇌물 인정 액수에 관한 결론이 엇갈린 상황이기 때문에 이 부분에 대한 추가적인 판단이 필요하다는 이유에서다. 이 경우 재판이 짧게는 1년, 길게는 수년까지도 더 걸릴 수 있어 삼성그룹의 미래경영에 큰 부담으로 작용할 수 있다. ◆이재용, 흔들림없는 경영의지 피력 = 이 부회장은 불확실성 확대에도 불구 현안 문제를 직접 챙기고 있다. 이 부회장은 지난 5일 삼성전자 반도체 등 전자계열사 사장단과 긴급 전략회의를 한 데 이어 6일 삼성전자 온양 천안사업장(반도체 검사ㆍ패키징), 9일 평택사업장(메모리반도체), 20일 광주사업장(가전), 26일 삼성디스플레이 충남 아산사업장을 방문해 현장경영을 이어가고 있다. 이 부회장은 선고 결과와 관계없이 최근 진행해 온 현장경영 행보를 이어가며 비상경영 체제를 이끌어 간다는 방침인 것으로 전해졌다. 삼성전자 사업지원 TF를 중심으로 판결 이후 준비 상황을 점검하면서 항소심 집행유예 선고가 확정되는 경우, 파기 환송으로 다시 재판을 받아야 하는 경우를 각각 가정해 판결 직후 대응 방안과 함께 이후 이 부회장의 거취와 일정을 전반적으로 준비하고 있는 것으로 전해진다. 어떤 경우든 이 부회장의 거취가 당장 달라지지는 않기 때문에 '흔들림없는 경영의지'를 지속적으로 피력할 공산이 크다는 게 삼성 안팎의 관측이다. 재계 한 관계자는 "대법원 결정에 대해서는 어떤 예측도 할 수 없지만 글로벌 경영 환경이 급변하는 상황에서 또 다시 '오너 공백' 사태만큼은 피하고 싶다는 것이 삼성의 입장"이라며 "국정농단 사태에 따른 리스크가 그룹 전체에 지속되면서 치열한 글로벌 경쟁에 제대로 대응하지 못하고 있다는 우려감이 깊어지고 있다"고 말했다. 박소연 기자 muse@asiae.co.kr &amp;lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=081&amp;aid=0003024708&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=22</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>일본 무역도발에 힘 합친 현대차 노사…8년만에 파업 않기로</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>[서울신문] 현대자동차 노사가 8년 만에 파업을 하지 않기로 뜻을 모았다. 일본의 무역도발에 따른 국가적 위기 상황을 고려해 노사간 분쟁 없이 임금 및 단체협약 잠정합의안을 마련했다. 현 노조 집행부 성향이 강성이라는 점을 고려할 때 이례적으로 관례적 파업에서 벗어난 것이다. 노조는 추석 전 집중교섭에 돌입하면서 일본의 백색 국가(화이트 리스트) 배제 등 한국에 대한 수출 규제 조치에 따른 분위기를 고려하지 않을 수 없다고 설명했다. 즉, 비상시국에 파업했다가 국민적 비판 여론에 부딪혀 노사 모두에 악영향이 생길 것을 우려했다. 노사가 이번 교섭에서 채택한 ‘상생협력을 통한 자동차산업 발전 노사 공동선언문’에는 올해 교섭에서 노사가 느낀 위기감이 그대로 드러나 있다. 노사는 4차 산업혁명 등으로 급변하는 자동차 산업과 최근 무역 갈등, 보호주의 확산 등 대내외 상황 심각성에 노사가 인식을 같이하고 부품 협력사와 동반성장, 기업 경쟁력 확보 차원에서 마련됐다. 특히, 자동차 관련 첨단 부품 국산화를 통해 최고 품질 차량을 적기에 공급하자는 뜻을 담았다. 950억원 규모 상생협력 운영자금 대출 프로그램을 통해 협력사 운영과 연구개발을 지원해 첨단 부품 소재 산업 육성과 국산화에 나선다. 회사는 이와 별도로 지난해 2·3차 협력사 1290개 업체에 상생협력 기금 500억원을 지원한 데 이어 올해도 1000억 규모 저리 대출 프로그램을 운영하기로 했다.노사는 7년간 끌어온 임금체계 개편에도 전격 합의했다. 현재 두 달에 한 번씩 나눠주는 상여금 일부(기본급의 600%)를 매월 나눠서 통상임금에 포함해 지급하고 조합원들에게 임금체계 개선에 따른 미래 임금 경쟁력 및 법적 안정성 확보 격려금 명목으로 근속기간별 200만∼600만원+우리사주 15주를 지급하는 방식이다. 이를 통해 노조가 2013년 제기한 통상임금 소송과 올해 최저임금법 시행령 개정으로 불거진 최저임금 위반 문제가 노사 합의로 해결될 전망이다. 사측은 “불확실한 경영환경, 급변하는 자동차 산업 패러다임 속에서 위기 극복과 미래 생존을 위한 합의안 마련에 노력했다”며 “적기 생산과 완벽한 품질로 고객 기대와 성원에 보답하고, 미래차 시장에서 퍼스트 무버로 도약할 수 있도록 역량을 집중하겠다”고 밝혔다. 노조는 “한반도 정세와 경제 상황, 자동차산업 전반을 심사숙고했다”며 “한일군사정보보호협정(GSOMIA·지소미아) 폐기와 화이트 리스트 배제 등도 잠정합의에 이르게 한 요소였다”고 밝혔다. 이번 잠정합의안에 대한 전체 조합원 찬반 투표는 9월 2일 진행된다. 오달란 기자 dallan@seoul.co.kr ▶ ▶ ▶ 공짜로 만화를 볼 수 있다? 당신의 ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=081&amp;aid=0003024582&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=23</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>조성욱 “기업 규모 관계없이 조사”… 호반 일감 몰아주기 정조준</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>[서울신문] 조성욱 공정거래위원장 후보자가 27일 서울 중구 공정거래조정원에서 가진 첫 공식 기자간담회에서 호반건설그룹의 일감 몰아주기 의혹에 대해 엄정한 법 집행을 밝힌 것은 원칙대로 처리하겠다는 의지뿐 아니라 더이상 방치할 수 없을 정도로 폐해가 커졌다는 인식이 깔려 있는 것으로 해석된다. 일감 몰아주기는 대기업 일가의 몸집만 불려주는 대신 중소기업엔 아예 ‘기회의 사다리’를 빼앗는 결과를 낳는다. 이는 건전한 경쟁구도 확립을 통한 우리 경제의 안정적인 성장을 저해하는 결정적인 요인으로 작용한다. 문재인 정부의 국정과제인 공정경제는 물론 혁신성장에도 정면으로 배치된다. 경쟁정책을 담당하는 공정위를 이끌 조 후보자가 정책 과제로 일감 몰아주기 근절을 첫머리로 언급한 것은 이런 이유에서다. 또한 조 후보자는 이날 국회에 제출한 인사청문회 답변 자료에서 ‘스튜어드십코드’(수탁자 책임에 관한 원칙)와 관련해 “연기금뿐 아니라 많은 기관투자가가 스튜어드십코드를 도입해야 한다”면서 “주주친화적 경영 문화의 확산과 기업들의 중장기적 성장기반 확충으로 이어질 수 있다”고 밝혔다. 한편 이날 국회 정무위원회는 조 후보자에 대한 인사청문회는 다음달 2일 열기로 합의했다. 이두걸 기자 douzirl@seoul.co.kr ▶ ▶ ▶ 공짜로 만화를 볼 수 있다? 당신의 ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=011&amp;aid=0003610153&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=25</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>10년간 100조 쏟아붓고도···한국, 세계 유일 '출산율 0명대'</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>[서울경제] 저출산 문제를 해결하기 위해 천문학적인 예산을 투입했음에도 지난해 우리나라의 합계출산율이 0.98명을 기록하며 전 세계에서 유일하게 ‘출산율 0명대 국가’라는 오명을 쓰게 됐다. 28일 통계청이 발표한 ‘2018년 출생 통계(확정)’에 따르면 지난해 합계출산율은 0.98명으로 전년(1.05명)보다 0.08명(7.1%) 감소했다. 합계출산율은 여성 1명이 가임기간(15~49세)에 낳을 것으로 예상되는 평균 출생아 수를 뜻한다. 해당 수치가 1.00명 밑으로 내려간 국가는 사실상 우리나라가 유일하다. 대표적인 저출산 국가로 꼽히는 일본(1.42명)과 대만(1.06명), 싱가포르(1.14명) 등의 지난해 합계출산율은 모두 한국을 웃돌았다. 인구가 67만명에 불과한 도시국가 마카오(0.92명)만 한국보다 낮은 합계출산율을 나타냈다. 경제협력개발기구(OECD) 회원국과 비교하면 압도적 꼴찌다. OECD 회원국의 지난해 합계출산율 평균은 1.68명이다.지난 10년간 100조원 이상의 재정을 투입했음에도 저출산 문제는 악화 일로다. 국회예산정책처에 따르면 지난 2006년부터 지난해까지 투입된 저출산 예산은 143조원에 달한다. 통계청이 이날 공개한 ‘6월 인구동향’에 따르면 6월 출생아 수는 2만4,051명으로 지난해보다 2,306명(8.7%) 줄었다. 월별 출생아 수는 2016년 4월부터 39개월 연속으로 동월 대비 역대 최저 기록을 경신하고 있다. 정재훈 서울여대 교수는 “낮은 합계출산율은 일·가정 양립의 어려움, 여성의 경력단절 문제, 과거 남아선호사상으로 아이를 낳을 30대 초중반 여성 부족 등이 복합적으로 겹친 문제”라며 “이제 와서 합계출산율을 높일 만한 뾰족한 정책은 마땅찮아 보인다”고 설명했다. 이처럼 출생아 수 감소세가 계속되면서 올해 2·4분기 합계출산율은 0.91명으로 지난해 같은 기간(0.98명)보다 더 추락했다. 일반적으로 연초 출산율이 연말보다 높다는 점을 고려하면 올해 출생아 수가 사상 처음으로 30만명을 넘기지 못하면서 합계출산율이 0.8명대로 떨어질 것이라는 우려마저 제기되는 상황이다. 여성의 연령별 출산율(해당 연령 여성인구 1,000명당 출생아 수)은 40대를 뺀 모든 연령층에서 감소했다. 20대 후반(25~29세) 41.0명, 30대 초반(30~34세) 91.4명, 30대 후반(35~39세) 46.1명으로 전년보다 각각 6.9명(-14.4%), 6.3명(-6.4%), 1.1명(-2.3%)씩 일제히 줄었다. 이에 따라 처음으로 20대 후반의 출산율이 30대 후반보다 낮아졌다. 불과 10년 전만 해도 20대 후반이 30대 후반의 3배를 웃돈 것에 견줘보면 엄청난 변화다. 이런 현상에는 비혼을 선택하는 젊은 세대가 급증하고 있다는 점이 가장 큰 원인으로 꼽힌다. 실제 6월 혼인 건수는 1만7,946건으로 지난해 동월 대비 2,664건(12.9%) 감소했다. 6월 기준 혼인 건수가 2만건 아래로 내려간 것은 1981년 관련 통계를 작성하기 시작한 후 처음이다. 특히 전국 17개 시도를 통틀어 전년 동월 대비 혼인 건수가 늘어난 지역은 단 한 곳도 없는 것으로 집계됐다. 분기별로 봐도 올해 2분기 혼인 건수는 6만1,027건으로 지난해 같은 기간보다 5,189건(7.8%) 감소하며 역대 최소 기록을 경신했다. 일반혼인율(15세 이상 인구 1,000명당 혼인 건수)은 남성이 11.0건, 여성이 10.9건으로 지난해보다 각각 1.0건, 0.9건씩 낮아졌다. 김진 통계청 인구동향과장은 “젊은 세대를 중심으로 비혼을 선택하는 비중이 늘어나면서 연간 혼인 건수가 7년째 감소하고 있고 앞으로도 이런 추세가 이어질 것으로 본다”며 “혼인 건수 감소가 출생아 수에도 악영향을 끼치는 모습”이라고 설명했다. 한편 올해 상반기 사망자 수는 14만6,659명으로 지난해 같은 기간보다 3.8% 줄었고 이혼 건수는 5만5,071건으로 지난해(5만2,687건)보다 4.5% 증가했다. /세종=정순구기자 soon9@sedaily.com | 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=366&amp;aid=0000441816&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=26</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>현대차, 8년만에 파업 없이 넘어갔지만…‘일방적 퍼주기 합의’ 지적도</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>현대자동차(005380) 노사가 2011년 이후 8년 만에 무분규 임금·단체협약 잠정 합의안을 마련했다. 노사는 27일 밤 울산공장 본관에서 열린 22차 교섭에서 잠정 합의안을 도출했다. 지난 5월 말 교섭을 시작한 지 3개월 만이다. 노사는 국가적 경제 위기 상황을 극복하자는데 공감대를 형성하고 조기 타결에 집중한 결과, 장기파업을 벌였던 과거와 달리 속전속결로 합의안을 만들었다. 하지만 현대차 안팎에서는 회사 측이 지나치게 양보한 것 아니냐는 지적이 나온다. 대표적인 게 임금체계 개선을 위한 일시금 지급이다. 현대차 노조는 기아자동차(000270) 사례를 들어 일시금 지급을 주장해 왔다. 기아차는 통상임금과 관련해 1인당 평균 1900만원의 일시금을 지급했다. 현대차 사측은 통상임금 소송에서 2심까지 승소했다. 그러자 노조는 소송 당시 박근혜 정권의 ‘재벌 편들기’ 때문이었다고 주장했다. 이 때문에 일시금 지급이 주요 쟁점으로 떠오르면 임단협이 장기화할 것으로 예상됐다. 사측은 경제위기를 들어 대승적 차원에서 일시금을 지급하기로 양보했다. 우리사주 15주와 입사 연수에 따라 200만원에서 600만원을 지급하는 방식으로 통상임금 갈등을 정리하고 관련 소송도 중단하기로 했다. 자동차 업계 한 관계자는 "이번 현대차 임단협은 과거와 달리 사측이 대폭 양보한 측면이 있다"며 "현 정부가 친노동 정책을 내세우다 보니 임단협을 끌어봤자 정부에 밉보일 수 있어 알아서 빨리 합의한 것으로 해석할 수도 있다"고 말했다. 임단협 잠정 합의안은 기본급 4만원 인상과 성과금 150% 및 일시금 300만원, 전통시장 상품권 20만원 지급 등의 내용을 담고 있다. ‘미래 임금 경쟁력 및 법적 안정성 확보 격려금’이라는 명목으로 조합원들에게 근속기간별로 200만~600만원과 우리사주 15주도 지급한다. 잠정합의안이 통과되면 근속기간에 따라 다르겠지만 어림잡아 직원 1인당 600만~700만원의 연봉 인상 효과가 있다. 지난 6월 기준 현대차 직원이 6만9000여명 정도인 걸 고려하면 사측은 1년에 4100억~4800억원 정도의 비용을 부담해야 한다. KB증권은 28일 낸 보고서에서 현대차가 파업으로 인한 생산차질을 피함으로써 최소 3800억원의 이익을 얻게 될 것으로 추정한다고 밝혔다. 이익은 고스란히 인건비로 돌아가는 셈이다. 노조는 9월 2일 전체 조합원을 대상으로 잠정합의안 찬반 투표를 벌인다. [이창환 기자 ch21@chosunbiz.com] chosunbiz.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=005&amp;aid=0001233604&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=27</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>공인회계사시험 ‘부정출제’ 사실로 확인, 금감원 “수사의뢰”</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>올해 6월 공인회계사(CPA) 2차 시험에서 ‘부정 출제’가 있었다는 의혹에 대해 금융감독원이 논란이 된 문항 2개를 모두 정답 처리하고, 문제를 낸 출제위원을 검찰에 수사 의뢰하기로 했다. 서울의 A 사립대 고시반에서 치른 모의고사 문제가 실제 시험에서 유사하게 나왔다는 의혹을 살펴본 결과다. 금감원 관계자는 “모의고사와 출제된 2개 문항의 형식과 내용이 동일·유사하다”며 “수험생 불이익을 최소화하기 위해 이 문항들을 모두 정답 처리했다”고 말했다. 금감원은 28일 2019년도 제54회 CPA 최종 합격자를 발표하면서 ‘2차 시험 부정출제 의혹 관련 조사 결과’를 함께 공개했다. 박권추 금감원 전문심의위원은 “출제위원이 출제장에 입소하기 전 A대 모의고사 출제자에게 모의고사 자료를 전달받은 사실이 확인됐다”며 “해당 출제위원을 업무방해 혐의로 검찰에 수사 의뢰할 예정”이라고 말했다. 시험의 공정성이 훼손된 이상 사법 기관의 강제 수사 착수가 불가피하다는 취지다. 부정 출제 의혹이 제기된 건 2차 시험 회계감사 과목의 ‘외부감사인 선임’ 관련 2개 문항이다. 지난 5월 A대 CPA 고시반에서 실시된 모의고사에 ‘외부감사인 선임 절차’와 ‘상법상 감사가 있는지’를 묻는 문제가 나왔는데, 그해 6월 말 치러진 CPA 2차 시험에는 ‘외부감사인 선정 주체’와 ‘감사위원회 설치 여부’에 관한 문항이 등장했다. 이에 수험생들은 “2차 시험 문제 일부가 특정 대학 고시반 학생들에게 사전에 모의고사 형식으로 배포됐다”는 의혹을 제기했다. 검찰 수사를 의뢰하는 청와대 국민청원까지 제기됐다. 금감원은 지난달 10일 기자간담회를 열고 “출제 과정에서 부적절한 행위가 있었는지 등을 조사하겠다”고 말했다. 이때까지만 해도 ‘부정 출제 가능성은 낮다’는 분위기였다. 당시 금감원 관계자는 “기출 문제나 다른 교재에서도 나오는 보편적 내용”이라며 “문항 질문과 표현 방식도 차이가 있다”고 했다. 하지만 조사 결과는 달랐다. 금감원에 따르면 해당 출제위원은 지난 5월 초 A대학 모의고사 출제자에게 연락해 “출제와 관련된 자료를 달라”고 요청했다. A대학 모의고사 실시 이전이었다. 출제위원은 금감원 조사 과정에서 “올해 CPA 출제위원으로 선정될 수 있어서 관련 자료를 확보하려는 목적이었다”고 말한 것으로 알려졌다. 두 사람은 카카오톡으로 모의고사 문제 파일을 주고받은 것으로 전해졌다. 이들은 지난해 책을 공동으로 집필한 사이였다. 금감원 관계자는 “모의고사 문제를 받은 이상 출제위원으로써 유사한 문제가 출제되지 않도록 관리할 의무가 있다”며 “공정한 시험에 하자가 생긴 것”이라고 말했다. 해당 2개 문항이 모두 정답으로 처리됐지만 올해 CPA 최종 합격자 수(1009명)은 변함이 없다고 금감원은 밝혔다. 회계감사 부분합격자만 10명 증가했다. 이 문항들은 배점이 총 3점에 불과하고 난이도가 쉬워 정답률이 높은 탓에 전체 당락에는 큰 영향을 미치지 않았다는 게 금감원 설명이다. 한편 A대학 CPA 고시반 특강에서 시험에 나올 문제를 사전에 뽑아줬다는 의혹에 대해 금감원은 “부정 출제로 보기 어렵다”고 판단했다. 박 심의위원은 “특강 자료 등이 전반적 주제나 핵심 단어를 나열하는 수준에 그쳤다”고 말했다. 다만 “특강자가 지난해 CPA 시험 결과가 발표되기 전에 자신이 출제위원이었던 사실을 누설하는 등 비밀유지 서약 의무를 위반한 사실이 인정된다”며 “재직 중인 대학에 징계를 의뢰할 예정”이라고 덧붙였다. 금감원은 유사 사례의 재발을 막기 위해 CPA 시험 출제 과정을 전반적으로 뜯어 고치겠다고 밝혔다. 먼저 출제위원의 인력 풀(POOL)을 넓히고 선정 기준과 절차를 재정비하기로 했다. 또 과목당 출제위원 수를 늘리고 문제 출제와 선정 업무를 분리할 방침이다. ‘출제 검증’과 ’사전·사후 관리’도 강화하기로 했다. 출제위원이 속한 대학의 모의고사 문제를 입수해 ‘유사성’을 검증하고, 과목별 검토 요원의 수도 늘릴 계획이다. 현재 1차 시험에만 가능한 ‘이의신청제’도 2차 시험까지 확대한다. 금감원 관계자는 “외부 전문가 자문을 거쳐 내년 시험부터 시행할 예정”이라고 말했다. 양민철 기자 listen@kmib.co.kr GoodNews paper ⓒ , 무단전재 및 재배포금지</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=421&amp;aid=0004168155&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=28</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>코스트코 중국점 개장일 인산인해…미중 엇갈린 해석</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>(서울=뉴스1) 박형기 기자,한상희 기자 = 미중 무역전쟁에도 미국의 대표적 할인체인점인 ‘코스트코’가 중국 1호 매장을 오픈하자 너무 많은 인파가 몰려 개점 4시간 만에 영업을 종료했다. 이를 두고 미국과 중국은 전혀 다른 해석을 내놓고 있다. 미국은 미국 상품이 매력적이기 때문에 인산인해를 이뤘다고 평가했고, 중국은 중국시장은 미국이 결코 포기할 수 없는 시장이라고 평했다. 일부에서는 도널드 트럼프 미국 대통령이 미국 기업에 중국에서 철수해 미국으로 돌아오길 강요하고 있지만 이것이 얼마나 언어도단인지를 상징적으로 보여주는 삽화라는 지적도 나오고 있다. 27일 중국 상하이 민항구에서 중국 코스트코 1호 매장이 영업을 시작했다. 코스트코 상하이점은 개장 시간인 오전 9시 이전부터 인산인해를 이뤘다. 주차장에 진입하는 데만 3시간이 소요됐으며, 차량이 몰려 인근 도로에는 극심한 교통체증이 발생했다. 매장에 들어선 고객들은 물건을 먼저 차지하기 위해 몸싸움을 벌이기까지 했다. 결국 코스트코 상하이점은 안전을 위해 개점 4시간만인 오후 1시에 영업을 조기 종료했다. 이는 예정된 시간보다 8시간 빨리 폐장한 것이다. 회원제로 운영되는 코스트코는 중국 내 회원들에게 "매장이 인파로 꽉 찼다. 더 나은 쇼핑 경험을 위해 오후에 영업을 중단할 것이다. 오지 말아 달라"는 문자 메시지를 발송했다. 이 매장은 14만㎡(약 4만평) 면적에 차량 1200대를 동시에 주차할 수 있는 크기로 지어졌다. 주차장은 전 세계 코스트코 매장 중 최대다. 그럼에도 개장 첫날 북새통을 이뤘다. 이날 매장을 방문했던 저우(28)모씨는 "9시에 도착했지만 10시까지도 주차를 하지 못했고, 결국 11시쯤에야 매장에 들어올 수 있었다"며 "먼저 들어온 손님들이 이미 물건을 싹쓸이 한 뒤였다"고 당시 상황을 전했다. 미·중 무역 전쟁에도 코스트코에 인파가 몰린 것을 두고 미국 매체들은 "무역전쟁 중에도 미국 제품에 대한 중국의 수요가 탄탄하다"며 "미국 제품이 매력적임을 증명했다"고 평가했다. 그러나 미국의 일부 언론은 트럼프 대통령이 미국 기업들에 중국을 떠나 미국으로 돌아오라고 강요하고 있지만 기업은 이익이 나는 곳에 갈 수밖에 없다며 트럼프 대통령의 무리한 무역전쟁을 꼬집기도 했다. 이에 비해 중국은 “중국 시장은 미국이 결코 포기할 수 없는 시장”이라고 평가했다. 최근 들어 중국 공산당 지도부의 입 역할을 하고 있는 후시진 환구시보 편집장은 "미국 기업들이 중국을 떠나는 것이 아니라 중국에 들어오고 있다. 미국 기업에게 중국은 포기할 수 없는 시장이다"고 평가했다. sinopark@news1.kr [© 뉴스1코리아(), 무단 전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=009&amp;aid=0004418113&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=29</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>152조 쏟고도…세계 첫 `0명대 출산율`</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>올해 상반기 출생아 수가 전년 동기 대비 7.7% 줄어든 것으로 나타났다. 연초에 비해 감소폭이 확대되는 양상이어서 지난 2년간의 출생아 수 급감이 올해까지 반복될 것이란 우려를 키우고 있다. 지난해 출산율은 0.98명으로 최종 확정됐다. 통계청이 28일 발표한 '2019년 6월 인구동향'에 따르면 지난 6월 출생아 수가 전년 동기 대비 8.7% 감소한 2만4051명에 그쳤다. 그 결과 상반기 출생아 수는 15만8525명으로 전년 동기 대비 7.7%(1만3275명) 줄었다. 올해 초까지만 해도 6%대에 머물렀던 감소폭은 4월 한 차례를 빼고 꾸준히 확대돼 누적 감소율이 8%에 육박하고 있다. 이는 올해부터 출생아 감소세가 완화될 것이란 통계청 기대와 상반되는 모습이다. 통계청은 2017년 11.9% 감소, 2018년 8.7% 감소를 가능한 최악의 시나리오가 실현된 것으로 평가하고, 올해부터 감소폭이 줄어 2022년에는 반등을 시작한다고 예측(2017~2067 인구추계 중위추계 기준)한 바 있다. 김영민 기획재정부 인구경제과장은 "가임연령대 여성 수, 비혼·만혼 문화 확산 등을 감안하면 감소폭이 줄어들기는 어려워 보인다"고 평가했다. 출생의 선행지표로 볼 수 있는 혼인건수는 전년 대비 감소폭이 확대됐다. 올해 상반기 혼인건수는 12만121건으로 전년 동기 대비 9.3%(1만2246건) 감소했다. 2018년 합계출산율은 사상 최저인 0.98명으로 최종 확정됐다. 출산율이 한 명도 채 되지 않는 것은 전 세계에서 한국이 유일하다. 정부는 저출산 기본계획을 처음 내놓은 2006년부터 지난해까지 약 152조원의 예산을 저출산 대책에 투입했지만 거의 효과를 찾아볼 수 없었다. 결혼 후 첫째 아이를 출산하기까지의 기간은 평균 2.16년으로 집계돼 사상 처음으로 2년을 넘겼다. 둘째 아이 출산까지는 평균 4.61년, 셋째 아이 이상의 출산까지는 평균 7.41년으로 집계됐다. 작년에 아이를 낳은 여성의 평균 출산연령은 32.8세로 전년보다 0.2세 높아졌다. [문재용 기자] [ⓒ 매일경제 &amp;amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>http://news.naver.com/main/ranking/read.nhn?rankingType=popular_day&amp;oid=001&amp;aid=0011044920&amp;date=20190828&amp;type=1&amp;rankingSectionId=101&amp;rankingSeq=30</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>빚으로 버티는 숙박·음식점업…2분기 대출 7조8천억원 증가</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>전산업 대출 22조2천억원↑…도소매·숙박·음식점업 인건비용 대출 늘어 (서울=연합뉴스) 정수연 기자 = 경기는 침체했는데 음식점 창업이 늘고 인건비용 대출 수요도 높아지면서 도·소매, 숙박 및 음식 업종의 대출이 역대 최대 규모로 불어났다. 한국은행이 28일 발표한 '2분기 예금취급기관 산업별 대출금' 자료에 따르면 6월 말 산업대출 잔액은 1천163조1천억원으로 3월 말보다 22조2천억원 증가했다. 산업대출이란 자영업자, 기업, 공공기관, 정부가 시중은행이나 저축은행, 새마을금고 등 예금을 취급하는 금융기관에서 빌린 돈을 말한다. 산업대출 잔액은 작년 동기 대비 7.4% 늘어나 증가율은 2009년 2분기 9.6% 이후 가장 높았다. 업종별로 서비스업 대출금이 16조2천억원 늘어났다. 서비스업 가운데 도·소매, 숙박 및 음식점업 대출이 7조8천억원 늘어 관련 통계가 작성된 2008년 1분기 이후 최대 폭으로 증가했다. 작년 동기 대비 증가율은 12.0%로, 이 역시 통계 집계 이래 최고치다. 불경기에 진입장벽이 낮은 음식점이나 소매상으로 창업이 몰린 데다 최저임금 상승으로 인건비를 위한 대출 수요도 증가했기 때문으로 분석된다. 2분기에 새로 생긴 도소매·숙박 및 음식점업 법인 수는 6천342개로 1분기(5천980개)보다 늘었지만 작년 2분기(6천827개)에 비해선 줄었다. 서비스업 중 부동산업 대출은 6조9천억원 늘어 1분기 3조5천억원보다 증가세가 확대됐다. 서비스업 대출을 용도별로 보면 인건비, 자료비 등 사업장을 운영하는 데 쓰이는 운전자금 대출이 2분기에 11조원 증가했다. 이는 전 분기(4조8천억원)에 비해 많이 늘어난 수치다. 시설 투자와 관련성이 높은 시설자금 대출은 5조2천억원 늘어나는 데 그쳤다. 한은 관계자는 "서비스업 운전자금은 도·소매 및 숙박·음식점업과 부동산 임대업을 중심으로 늘어났다"고 설명했다. 이에 반해 제조업 대출은 4조원 늘어나는 데 그치며 1분기 6조5천억원보다 줄었다. 제조업 운전자금은 3조5천억원, 시설자금은 5천억원 각각 증가했다. 제조업 업황 부진에 기업들이 대출을 받아 가며 설비투자를 하지는 않은 것으로 보인다. 건설업 대출은 1천억원 증가해 1분기 2조2천억원보다 증가폭이 줄었다. 이와 함께 전체 산업대출 가운데 운전자금은 15조3천억원, 시설자금은 6조9천억원 늘어난 것으로 집계됐다. 인건비 등을 위한 운전자금 대출이 더 빨리 늘어나며 전체 산업별 대출금 가운데 시설자금이 차지하는 비중은 42.3%로 1분기(42.5%)보다 0.2%포인트 하락했다. 기관별로 보면 예금은행 산업대출(911조원)은 12조2천억원, 수출입은행·상호저축은행·신용협동조합·상호금융 등 비은행 예금취급 기관의 산업대출(252조1천억원)은 10조원 늘었다. jsy@yna.co.kr</t>
         </is>
       </c>
     </row>
